--- a/testcase_account_ver3.xlsx
+++ b/testcase_account_ver3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6c0e78641f3fe9d/デスクトップ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\7-Programming-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="14_{B419FDD1-08F4-4870-AA85-4BBC4C0B0625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{577883AE-2061-4A54-A46E-66F5A27F2375}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9585D786-787D-40C1-85BC-A8680726FF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="372">
   <si>
     <t>作成者</t>
   </si>
@@ -2422,19 +2422,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>調べて確認が必要。</t>
-    <rPh sb="0" eb="1">
-      <t>シラ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>×</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -6874,6 +6861,205 @@
     </rPh>
     <rPh sb="35" eb="37">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アクセス権限</t>
+    <rPh sb="4" eb="6">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新確認画面で一番下に表示されている「登録する」ボタンを押す。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>内容が更新されていれば、アカウント更新画面で変更した内容が表示され、更新されていなければアカウント登録画面で入力した内容が表示される。</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>コウシンガメン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="49" eb="53">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除フラグは「0」で更新される。</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新確認画面で「登録する」ボタンを押した際に日本時間で日時を取得し表示される。</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ニホン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除完了画面（エラー動作）</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除確認画面で「削除する」ボタンを押す。</t>
+  </si>
+  <si>
+    <t>PHP MyAdminの登録の際にエラーが発生した場合、エラーが発生したため登録できませんでした。と画面の真ん中に表示させる。</t>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新完了画面（エラー動作）</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新確認画面で「登録する」ボタンを押す。</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>調べて確認が必要。8/19追記：tryの関数を使用して完了。</t>
+    <rPh sb="0" eb="1">
+      <t>シラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ツイキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カンリョウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -7224,7 +7410,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7490,11 +7676,11 @@
     <xf numFmtId="56" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7514,6 +7700,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7526,10 +7721,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7556,23 +7760,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -7924,10 +8119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M160"/>
+  <dimension ref="A1:M173"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90:A149"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E64" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -7947,12 +8142,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
       <c r="E1" s="53" t="s">
         <v>2</v>
       </c>
@@ -7970,15 +8165,15 @@
         <v>8</v>
       </c>
       <c r="K1" s="51" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A2" s="99"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
       <c r="E2" s="53" t="s">
         <v>3</v>
       </c>
@@ -9614,10 +9809,10 @@
         <v>6</v>
       </c>
       <c r="J56" s="30" t="s">
+        <v>371</v>
+      </c>
+      <c r="K56" s="39" t="s">
         <v>148</v>
-      </c>
-      <c r="K56" s="39" t="s">
-        <v>149</v>
       </c>
       <c r="L56" s="11"/>
     </row>
@@ -9626,7 +9821,7 @@
         <v>52</v>
       </c>
       <c r="B57" s="48" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C57" s="37" t="s">
         <v>78</v>
@@ -9638,10 +9833,10 @@
         <v>55</v>
       </c>
       <c r="F57" s="94" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G57" s="32" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H57" s="68">
         <v>44376</v>
@@ -9661,7 +9856,7 @@
       </c>
       <c r="B58" s="49"/>
       <c r="C58" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D58" s="24" t="s">
         <v>81</v>
@@ -9671,7 +9866,7 @@
       </c>
       <c r="F58" s="95"/>
       <c r="G58" s="32" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H58" s="68">
         <v>44376</v>
@@ -9691,17 +9886,17 @@
       </c>
       <c r="B59" s="48"/>
       <c r="C59" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="E59" s="111" t="s">
+        <v>191</v>
+      </c>
+      <c r="E59" s="104" t="s">
         <v>55</v>
       </c>
       <c r="F59" s="95"/>
       <c r="G59" s="37" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H59" s="68">
         <v>44376</v>
@@ -9724,10 +9919,10 @@
       <c r="D60" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E60" s="112"/>
+      <c r="E60" s="105"/>
       <c r="F60" s="95"/>
       <c r="G60" s="37" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H60" s="68">
         <v>44376</v>
@@ -9750,10 +9945,10 @@
       <c r="D61" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E61" s="112"/>
+      <c r="E61" s="105"/>
       <c r="F61" s="95"/>
       <c r="G61" s="37" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H61" s="68">
         <v>44376</v>
@@ -9776,10 +9971,10 @@
       <c r="D62" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E62" s="112"/>
+      <c r="E62" s="105"/>
       <c r="F62" s="95"/>
       <c r="G62" s="37" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H62" s="68">
         <v>44376</v>
@@ -9802,10 +9997,10 @@
       <c r="D63" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E63" s="112"/>
+      <c r="E63" s="105"/>
       <c r="F63" s="95"/>
       <c r="G63" s="37" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H63" s="68">
         <v>44376</v>
@@ -9828,10 +10023,10 @@
       <c r="D64" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E64" s="112"/>
+      <c r="E64" s="105"/>
       <c r="F64" s="95"/>
       <c r="G64" s="37" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H64" s="68">
         <v>44376</v>
@@ -9854,10 +10049,10 @@
       <c r="D65" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E65" s="112"/>
+      <c r="E65" s="105"/>
       <c r="F65" s="95"/>
       <c r="G65" s="31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H65" s="68">
         <v>44376</v>
@@ -9880,10 +10075,10 @@
       <c r="D66" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E66" s="112"/>
+      <c r="E66" s="105"/>
       <c r="F66" s="95"/>
       <c r="G66" s="31" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H66" s="68">
         <v>44376</v>
@@ -9904,12 +10099,12 @@
       <c r="B67" s="48"/>
       <c r="C67" s="25"/>
       <c r="D67" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="E67" s="112"/>
+        <v>152</v>
+      </c>
+      <c r="E67" s="105"/>
       <c r="F67" s="95"/>
       <c r="G67" s="31" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H67" s="68">
         <v>44376</v>
@@ -9930,12 +10125,12 @@
       <c r="B68" s="48"/>
       <c r="C68" s="25"/>
       <c r="D68" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="E68" s="112"/>
+        <v>153</v>
+      </c>
+      <c r="E68" s="105"/>
       <c r="F68" s="95"/>
       <c r="G68" s="31" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H68" s="68">
         <v>44376</v>
@@ -9956,12 +10151,12 @@
       <c r="B69" s="48"/>
       <c r="C69" s="25"/>
       <c r="D69" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="E69" s="112"/>
+        <v>154</v>
+      </c>
+      <c r="E69" s="105"/>
       <c r="F69" s="95"/>
       <c r="G69" s="31" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H69" s="68">
         <v>44376</v>
@@ -9982,12 +10177,12 @@
       <c r="B70" s="48"/>
       <c r="C70" s="25"/>
       <c r="D70" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="E70" s="112"/>
+        <v>247</v>
+      </c>
+      <c r="E70" s="105"/>
       <c r="F70" s="95"/>
       <c r="G70" s="31" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H70" s="68">
         <v>44376</v>
@@ -10008,12 +10203,12 @@
       <c r="B71" s="48"/>
       <c r="C71" s="25"/>
       <c r="D71" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="E71" s="113"/>
+        <v>248</v>
+      </c>
+      <c r="E71" s="106"/>
       <c r="F71" s="96"/>
       <c r="G71" s="31" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H71" s="68">
         <v>44376</v>
@@ -10032,7 +10227,7 @@
         <v>67</v>
       </c>
       <c r="B72" s="48" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C72" s="25" t="s">
         <v>78</v>
@@ -10044,14 +10239,12 @@
         <v>55</v>
       </c>
       <c r="F72" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="G72" s="31" t="s">
         <v>280</v>
       </c>
-      <c r="G72" s="31" t="s">
-        <v>281</v>
-      </c>
-      <c r="H72" s="68">
-        <v>44426</v>
-      </c>
+      <c r="H72" s="68"/>
       <c r="I72" s="12"/>
       <c r="J72" s="30"/>
       <c r="K72" s="39"/>
@@ -10068,14 +10261,14 @@
       <c r="D73" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E73" s="114" t="s">
+      <c r="E73" s="97" t="s">
         <v>55</v>
       </c>
       <c r="F73" s="91" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G73" s="31" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H73" s="12"/>
       <c r="I73" s="12"/>
@@ -10092,10 +10285,10 @@
       <c r="D74" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E74" s="115"/>
+      <c r="E74" s="98"/>
       <c r="F74" s="92"/>
       <c r="G74" s="31" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H74" s="12"/>
       <c r="I74" s="12"/>
@@ -10112,10 +10305,10 @@
       <c r="D75" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="115"/>
+      <c r="E75" s="98"/>
       <c r="F75" s="92"/>
       <c r="G75" s="31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H75" s="12"/>
       <c r="I75" s="12"/>
@@ -10132,10 +10325,10 @@
       <c r="D76" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E76" s="115"/>
+      <c r="E76" s="98"/>
       <c r="F76" s="92"/>
       <c r="G76" s="31" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H76" s="12"/>
       <c r="I76" s="12"/>
@@ -10152,10 +10345,10 @@
       <c r="D77" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E77" s="115"/>
+      <c r="E77" s="98"/>
       <c r="F77" s="92"/>
       <c r="G77" s="31" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H77" s="12"/>
       <c r="I77" s="12"/>
@@ -10172,10 +10365,10 @@
       <c r="D78" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E78" s="115"/>
+      <c r="E78" s="98"/>
       <c r="F78" s="92"/>
       <c r="G78" s="31" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H78" s="12"/>
       <c r="I78" s="12"/>
@@ -10192,10 +10385,10 @@
       <c r="D79" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E79" s="115"/>
+      <c r="E79" s="98"/>
       <c r="F79" s="92"/>
       <c r="G79" s="31" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H79" s="12"/>
       <c r="I79" s="12"/>
@@ -10212,10 +10405,10 @@
       <c r="D80" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E80" s="115"/>
+      <c r="E80" s="98"/>
       <c r="F80" s="92"/>
       <c r="G80" s="31" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H80" s="12"/>
       <c r="I80" s="12"/>
@@ -10232,10 +10425,10 @@
       <c r="D81" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E81" s="115"/>
+      <c r="E81" s="98"/>
       <c r="F81" s="92"/>
       <c r="G81" s="31" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H81" s="12"/>
       <c r="I81" s="12"/>
@@ -10252,10 +10445,10 @@
       <c r="D82" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E82" s="115"/>
+      <c r="E82" s="98"/>
       <c r="F82" s="92"/>
       <c r="G82" s="31" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H82" s="12"/>
       <c r="I82" s="12"/>
@@ -10272,10 +10465,10 @@
       <c r="D83" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E83" s="115"/>
+      <c r="E83" s="98"/>
       <c r="F83" s="92"/>
       <c r="G83" s="31" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H83" s="12"/>
       <c r="I83" s="12"/>
@@ -10292,10 +10485,10 @@
       <c r="D84" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E84" s="116"/>
+      <c r="E84" s="99"/>
       <c r="F84" s="93"/>
       <c r="G84" s="31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H84" s="12"/>
       <c r="I84" s="12"/>
@@ -10316,10 +10509,10 @@
         <v>55</v>
       </c>
       <c r="F85" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="G85" s="31" t="s">
         <v>294</v>
-      </c>
-      <c r="G85" s="31" t="s">
-        <v>295</v>
       </c>
       <c r="H85" s="12"/>
       <c r="I85" s="12"/>
@@ -10332,7 +10525,7 @@
         <v>81</v>
       </c>
       <c r="B86" s="48" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C86" s="25" t="s">
         <v>78</v>
@@ -10340,14 +10533,14 @@
       <c r="D86" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E86" s="114" t="s">
+      <c r="E86" s="97" t="s">
         <v>55</v>
       </c>
       <c r="F86" s="91" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G86" s="31" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H86" s="12"/>
       <c r="I86" s="12"/>
@@ -10364,10 +10557,10 @@
       <c r="D87" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="E87" s="115"/>
+      <c r="E87" s="98"/>
       <c r="F87" s="92"/>
       <c r="G87" s="31" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H87" s="12"/>
       <c r="I87" s="12"/>
@@ -10382,12 +10575,12 @@
       <c r="B88" s="48"/>
       <c r="C88" s="25"/>
       <c r="D88" s="25" t="s">
-        <v>297</v>
-      </c>
-      <c r="E88" s="115"/>
+        <v>296</v>
+      </c>
+      <c r="E88" s="98"/>
       <c r="F88" s="92"/>
       <c r="G88" s="31" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H88" s="12"/>
       <c r="I88" s="12"/>
@@ -10402,12 +10595,12 @@
       <c r="B89" s="48"/>
       <c r="C89" s="25"/>
       <c r="D89" s="25" t="s">
-        <v>298</v>
-      </c>
-      <c r="E89" s="116"/>
+        <v>297</v>
+      </c>
+      <c r="E89" s="99"/>
       <c r="F89" s="93"/>
       <c r="G89" s="31" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H89" s="12"/>
       <c r="I89" s="12"/>
@@ -10420,7 +10613,7 @@
         <v>85</v>
       </c>
       <c r="B90" s="48" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C90" s="37" t="s">
         <v>78</v>
@@ -10428,14 +10621,14 @@
       <c r="D90" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="E90" s="114" t="s">
+      <c r="E90" s="97" t="s">
         <v>55</v>
       </c>
       <c r="F90" s="94" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G90" s="30" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H90" s="12"/>
       <c r="I90" s="12"/>
@@ -10449,15 +10642,15 @@
       </c>
       <c r="B91" s="48"/>
       <c r="C91" s="37" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D91" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="E91" s="115"/>
+      <c r="E91" s="98"/>
       <c r="F91" s="95"/>
       <c r="G91" s="32" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H91" s="12"/>
       <c r="I91" s="12"/>
@@ -10474,10 +10667,10 @@
       <c r="D92" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="E92" s="116"/>
+      <c r="E92" s="99"/>
       <c r="F92" s="95"/>
       <c r="G92" s="32" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H92" s="12"/>
       <c r="I92" s="12"/>
@@ -10490,20 +10683,20 @@
         <v>88</v>
       </c>
       <c r="B93" s="48" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C93" s="37" t="s">
         <v>136</v>
       </c>
       <c r="D93" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E93" s="27" t="s">
         <v>55</v>
       </c>
       <c r="F93" s="95"/>
       <c r="G93" s="32" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H93" s="12"/>
       <c r="I93" s="12"/>
@@ -10518,14 +10711,14 @@
       <c r="B94" s="48"/>
       <c r="C94" s="37"/>
       <c r="D94" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E94" s="27" t="s">
         <v>55</v>
       </c>
       <c r="F94" s="96"/>
       <c r="G94" s="32" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H94" s="12"/>
       <c r="I94" s="12"/>
@@ -10533,27 +10726,23 @@
       <c r="K94" s="39"/>
       <c r="L94" s="11"/>
     </row>
-    <row r="95" spans="1:12" ht="31.5">
-      <c r="A95" s="12">
-        <v>90</v>
-      </c>
-      <c r="B95" s="48" t="s">
-        <v>310</v>
-      </c>
-      <c r="C95" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="D95" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="E95" s="24" t="s">
+    <row r="95" spans="1:12" ht="47.25">
+      <c r="A95" s="12"/>
+      <c r="B95" s="48"/>
+      <c r="C95" s="37" t="s">
+        <v>366</v>
+      </c>
+      <c r="D95" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="E95" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="F95" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="G95" s="31" t="s">
-        <v>281</v>
+      <c r="F95" s="89" t="s">
+        <v>367</v>
+      </c>
+      <c r="G95" s="32" t="s">
+        <v>368</v>
       </c>
       <c r="H95" s="12"/>
       <c r="I95" s="12"/>
@@ -10561,25 +10750,27 @@
       <c r="K95" s="39"/>
       <c r="L95" s="11"/>
     </row>
-    <row r="96" spans="1:12" ht="47.25">
+    <row r="96" spans="1:12" ht="31.5">
       <c r="A96" s="12">
-        <v>91</v>
-      </c>
-      <c r="B96" s="48"/>
+        <v>90</v>
+      </c>
+      <c r="B96" s="48" t="s">
+        <v>309</v>
+      </c>
       <c r="C96" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="D96" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E96" s="114" t="s">
+        <v>78</v>
+      </c>
+      <c r="D96" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E96" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F96" s="91" t="s">
-        <v>311</v>
+      <c r="F96" s="37" t="s">
+        <v>310</v>
       </c>
       <c r="G96" s="31" t="s">
-        <v>313</v>
+        <v>280</v>
       </c>
       <c r="H96" s="12"/>
       <c r="I96" s="12"/>
@@ -10589,17 +10780,23 @@
     </row>
     <row r="97" spans="1:12" ht="47.25">
       <c r="A97" s="12">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B97" s="48"/>
-      <c r="C97" s="25"/>
+      <c r="C97" s="25" t="s">
+        <v>126</v>
+      </c>
       <c r="D97" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E97" s="115"/>
-      <c r="F97" s="92"/>
+        <v>16</v>
+      </c>
+      <c r="E97" s="97" t="s">
+        <v>55</v>
+      </c>
+      <c r="F97" s="91" t="s">
+        <v>310</v>
+      </c>
       <c r="G97" s="31" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H97" s="12"/>
       <c r="I97" s="12"/>
@@ -10609,14 +10806,14 @@
     </row>
     <row r="98" spans="1:12" ht="47.25">
       <c r="A98" s="12">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B98" s="48"/>
       <c r="C98" s="25"/>
       <c r="D98" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E98" s="115"/>
+        <v>17</v>
+      </c>
+      <c r="E98" s="98"/>
       <c r="F98" s="92"/>
       <c r="G98" s="31" t="s">
         <v>315</v>
@@ -10629,14 +10826,14 @@
     </row>
     <row r="99" spans="1:12" ht="47.25">
       <c r="A99" s="12">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B99" s="48"/>
       <c r="C99" s="25"/>
       <c r="D99" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E99" s="115"/>
+        <v>18</v>
+      </c>
+      <c r="E99" s="98"/>
       <c r="F99" s="92"/>
       <c r="G99" s="31" t="s">
         <v>314</v>
@@ -10649,17 +10846,17 @@
     </row>
     <row r="100" spans="1:12" ht="47.25">
       <c r="A100" s="12">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B100" s="48"/>
       <c r="C100" s="25"/>
       <c r="D100" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E100" s="115"/>
+        <v>19</v>
+      </c>
+      <c r="E100" s="98"/>
       <c r="F100" s="92"/>
       <c r="G100" s="31" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H100" s="12"/>
       <c r="I100" s="12"/>
@@ -10667,19 +10864,19 @@
       <c r="K100" s="39"/>
       <c r="L100" s="11"/>
     </row>
-    <row r="101" spans="1:12" ht="63">
+    <row r="101" spans="1:12" ht="47.25">
       <c r="A101" s="12">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B101" s="48"/>
       <c r="C101" s="25"/>
       <c r="D101" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E101" s="115"/>
+        <v>20</v>
+      </c>
+      <c r="E101" s="98"/>
       <c r="F101" s="92"/>
       <c r="G101" s="31" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H101" s="12"/>
       <c r="I101" s="12"/>
@@ -10687,19 +10884,19 @@
       <c r="K101" s="39"/>
       <c r="L101" s="11"/>
     </row>
-    <row r="102" spans="1:12" ht="47.25">
+    <row r="102" spans="1:12" ht="63">
       <c r="A102" s="12">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B102" s="48"/>
       <c r="C102" s="25"/>
       <c r="D102" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E102" s="115"/>
+        <v>21</v>
+      </c>
+      <c r="E102" s="98"/>
       <c r="F102" s="92"/>
       <c r="G102" s="31" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="H102" s="12"/>
       <c r="I102" s="12"/>
@@ -10709,17 +10906,17 @@
     </row>
     <row r="103" spans="1:12" ht="47.25">
       <c r="A103" s="12">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B103" s="48"/>
       <c r="C103" s="25"/>
       <c r="D103" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E103" s="115"/>
+        <v>22</v>
+      </c>
+      <c r="E103" s="98"/>
       <c r="F103" s="92"/>
       <c r="G103" s="31" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="H103" s="12"/>
       <c r="I103" s="12"/>
@@ -10729,17 +10926,17 @@
     </row>
     <row r="104" spans="1:12" ht="47.25">
       <c r="A104" s="12">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B104" s="48"/>
       <c r="C104" s="25"/>
       <c r="D104" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E104" s="115"/>
+        <v>23</v>
+      </c>
+      <c r="E104" s="98"/>
       <c r="F104" s="92"/>
       <c r="G104" s="31" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H104" s="12"/>
       <c r="I104" s="12"/>
@@ -10749,17 +10946,17 @@
     </row>
     <row r="105" spans="1:12" ht="47.25">
       <c r="A105" s="12">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B105" s="48"/>
       <c r="C105" s="25"/>
       <c r="D105" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E105" s="115"/>
+        <v>24</v>
+      </c>
+      <c r="E105" s="98"/>
       <c r="F105" s="92"/>
       <c r="G105" s="31" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H105" s="12"/>
       <c r="I105" s="12"/>
@@ -10769,17 +10966,17 @@
     </row>
     <row r="106" spans="1:12" ht="47.25">
       <c r="A106" s="12">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B106" s="48"/>
       <c r="C106" s="25"/>
       <c r="D106" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E106" s="115"/>
+        <v>25</v>
+      </c>
+      <c r="E106" s="98"/>
       <c r="F106" s="92"/>
       <c r="G106" s="31" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H106" s="12"/>
       <c r="I106" s="12"/>
@@ -10789,17 +10986,17 @@
     </row>
     <row r="107" spans="1:12" ht="47.25">
       <c r="A107" s="12">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B107" s="48"/>
       <c r="C107" s="25"/>
       <c r="D107" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E107" s="116"/>
-      <c r="F107" s="93"/>
+        <v>26</v>
+      </c>
+      <c r="E107" s="98"/>
+      <c r="F107" s="92"/>
       <c r="G107" s="31" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H107" s="12"/>
       <c r="I107" s="12"/>
@@ -10807,23 +11004,19 @@
       <c r="K107" s="39"/>
       <c r="L107" s="11"/>
     </row>
-    <row r="108" spans="1:12" ht="31.5">
+    <row r="108" spans="1:12" ht="47.25">
       <c r="A108" s="12">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B108" s="48"/>
       <c r="C108" s="25"/>
-      <c r="D108" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="E108" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="F108" s="37" t="s">
-        <v>312</v>
-      </c>
+      <c r="D108" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E108" s="99"/>
+      <c r="F108" s="93"/>
       <c r="G108" s="31" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="H108" s="12"/>
       <c r="I108" s="12"/>
@@ -10831,25 +11024,23 @@
       <c r="K108" s="39"/>
       <c r="L108" s="11"/>
     </row>
-    <row r="109" spans="1:12" ht="47.25">
+    <row r="109" spans="1:12" ht="31.5">
       <c r="A109" s="12">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B109" s="48"/>
-      <c r="C109" s="25" t="s">
-        <v>326</v>
-      </c>
-      <c r="D109" s="11" t="s">
-        <v>16</v>
+      <c r="C109" s="25"/>
+      <c r="D109" s="24" t="s">
+        <v>49</v>
       </c>
       <c r="E109" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="F109" s="31" t="s">
-        <v>329</v>
-      </c>
-      <c r="G109" s="94" t="s">
-        <v>107</v>
+        <v>55</v>
+      </c>
+      <c r="F109" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="G109" s="31" t="s">
+        <v>318</v>
       </c>
       <c r="H109" s="12"/>
       <c r="I109" s="12"/>
@@ -10859,20 +11050,24 @@
     </row>
     <row r="110" spans="1:12" ht="47.25">
       <c r="A110" s="12">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B110" s="48"/>
-      <c r="C110" s="25"/>
+      <c r="C110" s="25" t="s">
+        <v>325</v>
+      </c>
       <c r="D110" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E110" s="24" t="s">
         <v>30</v>
       </c>
       <c r="F110" s="31" t="s">
-        <v>330</v>
-      </c>
-      <c r="G110" s="95"/>
+        <v>328</v>
+      </c>
+      <c r="G110" s="94" t="s">
+        <v>107</v>
+      </c>
       <c r="H110" s="12"/>
       <c r="I110" s="12"/>
       <c r="J110" s="30"/>
@@ -10881,18 +11076,18 @@
     </row>
     <row r="111" spans="1:12" ht="47.25">
       <c r="A111" s="12">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B111" s="48"/>
       <c r="C111" s="25"/>
       <c r="D111" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E111" s="24" t="s">
         <v>30</v>
       </c>
       <c r="F111" s="31" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G111" s="95"/>
       <c r="H111" s="12"/>
@@ -10903,18 +11098,18 @@
     </row>
     <row r="112" spans="1:12" ht="47.25">
       <c r="A112" s="12">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B112" s="48"/>
       <c r="C112" s="25"/>
       <c r="D112" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E112" s="24" t="s">
         <v>30</v>
       </c>
       <c r="F112" s="31" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G112" s="95"/>
       <c r="H112" s="12"/>
@@ -10923,20 +11118,20 @@
       <c r="K112" s="39"/>
       <c r="L112" s="11"/>
     </row>
-    <row r="113" spans="1:12" ht="63">
+    <row r="113" spans="1:12" ht="47.25">
       <c r="A113" s="12">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B113" s="48"/>
       <c r="C113" s="25"/>
       <c r="D113" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E113" s="24" t="s">
         <v>30</v>
       </c>
       <c r="F113" s="31" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G113" s="95"/>
       <c r="H113" s="12"/>
@@ -10947,18 +11142,18 @@
     </row>
     <row r="114" spans="1:12" ht="63">
       <c r="A114" s="12">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B114" s="48"/>
       <c r="C114" s="25"/>
       <c r="D114" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E114" s="24" t="s">
         <v>30</v>
       </c>
       <c r="F114" s="31" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="G114" s="95"/>
       <c r="H114" s="12"/>
@@ -10967,20 +11162,20 @@
       <c r="K114" s="39"/>
       <c r="L114" s="11"/>
     </row>
-    <row r="115" spans="1:12" ht="47.25">
+    <row r="115" spans="1:12" ht="63">
       <c r="A115" s="12">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B115" s="48"/>
       <c r="C115" s="25"/>
       <c r="D115" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E115" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F115" s="31" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G115" s="95"/>
       <c r="H115" s="12"/>
@@ -10991,18 +11186,18 @@
     </row>
     <row r="116" spans="1:12" ht="47.25">
       <c r="A116" s="12">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B116" s="48"/>
       <c r="C116" s="25"/>
       <c r="D116" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E116" s="24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F116" s="31" t="s">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="G116" s="95"/>
       <c r="H116" s="12"/>
@@ -11013,18 +11208,18 @@
     </row>
     <row r="117" spans="1:12" ht="47.25">
       <c r="A117" s="12">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B117" s="48"/>
       <c r="C117" s="25"/>
       <c r="D117" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E117" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F117" s="31" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="G117" s="95"/>
       <c r="H117" s="12"/>
@@ -11033,20 +11228,20 @@
       <c r="K117" s="39"/>
       <c r="L117" s="11"/>
     </row>
-    <row r="118" spans="1:12" ht="63">
+    <row r="118" spans="1:12" ht="47.25">
       <c r="A118" s="12">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B118" s="48"/>
       <c r="C118" s="25"/>
       <c r="D118" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E118" s="24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F118" s="31" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="G118" s="95"/>
       <c r="H118" s="12"/>
@@ -11057,18 +11252,18 @@
     </row>
     <row r="119" spans="1:12" ht="63">
       <c r="A119" s="12">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B119" s="48"/>
       <c r="C119" s="25"/>
       <c r="D119" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E119" s="24" t="s">
         <v>30</v>
       </c>
       <c r="F119" s="31" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G119" s="95"/>
       <c r="H119" s="12"/>
@@ -11077,48 +11272,44 @@
       <c r="K119" s="39"/>
       <c r="L119" s="11"/>
     </row>
-    <row r="120" spans="1:12" ht="47.25">
+    <row r="120" spans="1:12" ht="63">
       <c r="A120" s="12">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B120" s="48"/>
       <c r="C120" s="25"/>
       <c r="D120" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E120" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F120" s="31" t="s">
-        <v>327</v>
-      </c>
-      <c r="G120" s="96"/>
+        <v>334</v>
+      </c>
+      <c r="G120" s="95"/>
       <c r="H120" s="12"/>
       <c r="I120" s="12"/>
       <c r="J120" s="30"/>
       <c r="K120" s="39"/>
       <c r="L120" s="11"/>
     </row>
-    <row r="121" spans="1:12" ht="94.5">
+    <row r="121" spans="1:12" ht="47.25">
       <c r="A121" s="12">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B121" s="48"/>
-      <c r="C121" s="25" t="s">
-        <v>336</v>
-      </c>
+      <c r="C121" s="25"/>
       <c r="D121" s="11" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E121" s="24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F121" s="31" t="s">
-        <v>337</v>
-      </c>
-      <c r="G121" s="32" t="s">
-        <v>99</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="G121" s="96"/>
       <c r="H121" s="12"/>
       <c r="I121" s="12"/>
       <c r="J121" s="30"/>
@@ -11127,21 +11318,23 @@
     </row>
     <row r="122" spans="1:12" ht="94.5">
       <c r="A122" s="12">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B122" s="48"/>
-      <c r="C122" s="25"/>
+      <c r="C122" s="25" t="s">
+        <v>335</v>
+      </c>
       <c r="D122" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E122" s="24" t="s">
         <v>30</v>
       </c>
       <c r="F122" s="31" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G122" s="32" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H122" s="12"/>
       <c r="I122" s="12"/>
@@ -11151,21 +11344,21 @@
     </row>
     <row r="123" spans="1:12" ht="94.5">
       <c r="A123" s="12">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B123" s="48"/>
       <c r="C123" s="25"/>
       <c r="D123" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E123" s="24" t="s">
         <v>30</v>
       </c>
       <c r="F123" s="31" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G123" s="32" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H123" s="12"/>
       <c r="I123" s="12"/>
@@ -11175,21 +11368,21 @@
     </row>
     <row r="124" spans="1:12" ht="94.5">
       <c r="A124" s="12">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B124" s="48"/>
       <c r="C124" s="25"/>
       <c r="D124" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E124" s="24" t="s">
         <v>30</v>
       </c>
       <c r="F124" s="31" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G124" s="32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H124" s="12"/>
       <c r="I124" s="12"/>
@@ -11197,23 +11390,23 @@
       <c r="K124" s="39"/>
       <c r="L124" s="11"/>
     </row>
-    <row r="125" spans="1:12" ht="126">
+    <row r="125" spans="1:12" ht="94.5">
       <c r="A125" s="12">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B125" s="48"/>
       <c r="C125" s="25"/>
       <c r="D125" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E125" s="24" t="s">
         <v>30</v>
       </c>
       <c r="F125" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G125" s="32" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H125" s="12"/>
       <c r="I125" s="12"/>
@@ -11221,23 +11414,23 @@
       <c r="K125" s="39"/>
       <c r="L125" s="11"/>
     </row>
-    <row r="126" spans="1:12" ht="110.25">
+    <row r="126" spans="1:12" ht="126">
       <c r="A126" s="12">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B126" s="48"/>
       <c r="C126" s="25"/>
       <c r="D126" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E126" s="24" t="s">
         <v>30</v>
       </c>
       <c r="F126" s="31" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="G126" s="32" t="s">
-        <v>347</v>
+        <v>89</v>
       </c>
       <c r="H126" s="12"/>
       <c r="I126" s="12"/>
@@ -11245,23 +11438,23 @@
       <c r="K126" s="39"/>
       <c r="L126" s="11"/>
     </row>
-    <row r="127" spans="1:12" ht="94.5">
+    <row r="127" spans="1:12" ht="110.25">
       <c r="A127" s="12">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B127" s="48"/>
       <c r="C127" s="25"/>
       <c r="D127" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E127" s="24" t="s">
         <v>30</v>
       </c>
       <c r="F127" s="31" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="G127" s="32" t="s">
-        <v>103</v>
+        <v>346</v>
       </c>
       <c r="H127" s="12"/>
       <c r="I127" s="12"/>
@@ -11269,23 +11462,23 @@
       <c r="K127" s="39"/>
       <c r="L127" s="11"/>
     </row>
-    <row r="128" spans="1:12" ht="47.25">
+    <row r="128" spans="1:12" ht="94.5">
       <c r="A128" s="12">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B128" s="48"/>
       <c r="C128" s="25"/>
       <c r="D128" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E128" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F128" s="31" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G128" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H128" s="12"/>
       <c r="I128" s="12"/>
@@ -11293,23 +11486,23 @@
       <c r="K128" s="39"/>
       <c r="L128" s="11"/>
     </row>
-    <row r="129" spans="1:12" ht="110.25">
+    <row r="129" spans="1:12" ht="47.25">
       <c r="A129" s="12">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B129" s="48"/>
       <c r="C129" s="25"/>
       <c r="D129" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E129" s="24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F129" s="31" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G129" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H129" s="12"/>
       <c r="I129" s="12"/>
@@ -11319,21 +11512,21 @@
     </row>
     <row r="130" spans="1:12" ht="110.25">
       <c r="A130" s="12">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B130" s="48"/>
       <c r="C130" s="25"/>
       <c r="D130" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E130" s="24" t="s">
         <v>30</v>
       </c>
       <c r="F130" s="31" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G130" s="32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H130" s="12"/>
       <c r="I130" s="12"/>
@@ -11341,27 +11534,23 @@
       <c r="K130" s="39"/>
       <c r="L130" s="11"/>
     </row>
-    <row r="131" spans="1:12" ht="31.5">
+    <row r="131" spans="1:12" ht="110.25">
       <c r="A131" s="12">
-        <v>126</v>
-      </c>
-      <c r="B131" s="48" t="s">
-        <v>349</v>
-      </c>
-      <c r="C131" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="D131" s="24" t="s">
-        <v>79</v>
+        <v>125</v>
+      </c>
+      <c r="B131" s="48"/>
+      <c r="C131" s="25"/>
+      <c r="D131" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="E131" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="F131" s="91" t="s">
-        <v>350</v>
-      </c>
-      <c r="G131" s="31" t="s">
-        <v>351</v>
+        <v>30</v>
+      </c>
+      <c r="F131" s="31" t="s">
+        <v>344</v>
+      </c>
+      <c r="G131" s="32" t="s">
+        <v>106</v>
       </c>
       <c r="H131" s="12"/>
       <c r="I131" s="12"/>
@@ -11371,19 +11560,25 @@
     </row>
     <row r="132" spans="1:12" ht="31.5">
       <c r="A132" s="12">
-        <v>127</v>
-      </c>
-      <c r="B132" s="48"/>
-      <c r="C132" s="25"/>
-      <c r="D132" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E132" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B132" s="48" t="s">
+        <v>348</v>
+      </c>
+      <c r="C132" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D132" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E132" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F132" s="92"/>
-      <c r="G132" s="32" t="s">
-        <v>108</v>
+      <c r="F132" s="91" t="s">
+        <v>349</v>
+      </c>
+      <c r="G132" s="31" t="s">
+        <v>350</v>
       </c>
       <c r="H132" s="12"/>
       <c r="I132" s="12"/>
@@ -11393,19 +11588,19 @@
     </row>
     <row r="133" spans="1:12" ht="31.5">
       <c r="A133" s="12">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B133" s="48"/>
       <c r="C133" s="25"/>
       <c r="D133" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E133" s="23" t="s">
         <v>55</v>
       </c>
       <c r="F133" s="92"/>
       <c r="G133" s="32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H133" s="12"/>
       <c r="I133" s="12"/>
@@ -11415,19 +11610,19 @@
     </row>
     <row r="134" spans="1:12" ht="31.5">
       <c r="A134" s="12">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B134" s="48"/>
       <c r="C134" s="25"/>
       <c r="D134" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E134" s="23" t="s">
         <v>55</v>
       </c>
       <c r="F134" s="92"/>
       <c r="G134" s="32" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H134" s="12"/>
       <c r="I134" s="12"/>
@@ -11437,19 +11632,19 @@
     </row>
     <row r="135" spans="1:12" ht="31.5">
       <c r="A135" s="12">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B135" s="48"/>
       <c r="C135" s="25"/>
       <c r="D135" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E135" s="23" t="s">
         <v>55</v>
       </c>
       <c r="F135" s="92"/>
       <c r="G135" s="32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H135" s="12"/>
       <c r="I135" s="12"/>
@@ -11459,19 +11654,19 @@
     </row>
     <row r="136" spans="1:12" ht="31.5">
       <c r="A136" s="12">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B136" s="48"/>
       <c r="C136" s="25"/>
       <c r="D136" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E136" s="23" t="s">
         <v>55</v>
       </c>
       <c r="F136" s="92"/>
       <c r="G136" s="32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H136" s="12"/>
       <c r="I136" s="12"/>
@@ -11481,19 +11676,19 @@
     </row>
     <row r="137" spans="1:12" ht="31.5">
       <c r="A137" s="12">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B137" s="48"/>
       <c r="C137" s="25"/>
       <c r="D137" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E137" s="23" t="s">
         <v>55</v>
       </c>
       <c r="F137" s="92"/>
       <c r="G137" s="32" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H137" s="12"/>
       <c r="I137" s="12"/>
@@ -11503,19 +11698,19 @@
     </row>
     <row r="138" spans="1:12" ht="31.5">
       <c r="A138" s="12">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B138" s="48"/>
       <c r="C138" s="25"/>
       <c r="D138" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E138" s="23" t="s">
         <v>55</v>
       </c>
       <c r="F138" s="92"/>
       <c r="G138" s="32" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H138" s="12"/>
       <c r="I138" s="12"/>
@@ -11525,19 +11720,19 @@
     </row>
     <row r="139" spans="1:12" ht="31.5">
       <c r="A139" s="12">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B139" s="48"/>
       <c r="C139" s="25"/>
       <c r="D139" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E139" s="23" t="s">
         <v>55</v>
       </c>
       <c r="F139" s="92"/>
       <c r="G139" s="32" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="H139" s="12"/>
       <c r="I139" s="12"/>
@@ -11547,19 +11742,19 @@
     </row>
     <row r="140" spans="1:12" ht="31.5">
       <c r="A140" s="12">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B140" s="48"/>
       <c r="C140" s="25"/>
       <c r="D140" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E140" s="23" t="s">
         <v>55</v>
       </c>
       <c r="F140" s="92"/>
       <c r="G140" s="32" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="H140" s="12"/>
       <c r="I140" s="12"/>
@@ -11569,19 +11764,19 @@
     </row>
     <row r="141" spans="1:12" ht="31.5">
       <c r="A141" s="12">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B141" s="48"/>
       <c r="C141" s="25"/>
       <c r="D141" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E141" s="23" t="s">
         <v>55</v>
       </c>
       <c r="F141" s="92"/>
       <c r="G141" s="32" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="H141" s="12"/>
       <c r="I141" s="12"/>
@@ -11591,12 +11786,12 @@
     </row>
     <row r="142" spans="1:12" ht="31.5">
       <c r="A142" s="12">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B142" s="48"/>
       <c r="C142" s="25"/>
       <c r="D142" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E142" s="23" t="s">
         <v>55</v>
@@ -11613,19 +11808,19 @@
     </row>
     <row r="143" spans="1:12" ht="31.5">
       <c r="A143" s="12">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B143" s="48"/>
       <c r="C143" s="25"/>
       <c r="D143" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E143" s="23" t="s">
         <v>55</v>
       </c>
       <c r="F143" s="92"/>
       <c r="G143" s="32" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="H143" s="12"/>
       <c r="I143" s="12"/>
@@ -11635,19 +11830,19 @@
     </row>
     <row r="144" spans="1:12" ht="31.5">
       <c r="A144" s="12">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B144" s="48"/>
       <c r="C144" s="25"/>
-      <c r="D144" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="E144" s="24" t="s">
-        <v>122</v>
+      <c r="D144" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E144" s="23" t="s">
+        <v>55</v>
       </c>
       <c r="F144" s="92"/>
-      <c r="G144" s="31" t="s">
-        <v>353</v>
+      <c r="G144" s="32" t="s">
+        <v>116</v>
       </c>
       <c r="H144" s="12"/>
       <c r="I144" s="12"/>
@@ -11657,19 +11852,19 @@
     </row>
     <row r="145" spans="1:12" ht="31.5">
       <c r="A145" s="12">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B145" s="48"/>
       <c r="C145" s="25"/>
       <c r="D145" s="24" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E145" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F145" s="93"/>
+      <c r="F145" s="92"/>
       <c r="G145" s="31" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="H145" s="12"/>
       <c r="I145" s="12"/>
@@ -11679,25 +11874,19 @@
     </row>
     <row r="146" spans="1:12" ht="31.5">
       <c r="A146" s="12">
-        <v>141</v>
-      </c>
-      <c r="B146" s="48" t="s">
-        <v>355</v>
-      </c>
-      <c r="C146" s="25" t="s">
-        <v>78</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="B146" s="48"/>
+      <c r="C146" s="25"/>
       <c r="D146" s="24" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="E146" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="F146" s="91" t="s">
-        <v>356</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="F146" s="93"/>
       <c r="G146" s="31" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H146" s="12"/>
       <c r="I146" s="12"/>
@@ -11707,19 +11896,25 @@
     </row>
     <row r="147" spans="1:12" ht="31.5">
       <c r="A147" s="12">
-        <v>142</v>
-      </c>
-      <c r="B147" s="48"/>
-      <c r="C147" s="25"/>
-      <c r="D147" s="23" t="s">
-        <v>136</v>
+        <v>141</v>
+      </c>
+      <c r="B147" s="48" t="s">
+        <v>354</v>
+      </c>
+      <c r="C147" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D147" s="24" t="s">
+        <v>79</v>
       </c>
       <c r="E147" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F147" s="92"/>
+      <c r="F147" s="91" t="s">
+        <v>355</v>
+      </c>
       <c r="G147" s="31" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H147" s="12"/>
       <c r="I147" s="12"/>
@@ -11729,19 +11924,19 @@
     </row>
     <row r="148" spans="1:12" ht="31.5">
       <c r="A148" s="12">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B148" s="48"/>
       <c r="C148" s="25"/>
       <c r="D148" s="23" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E148" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="F148" s="93"/>
-      <c r="G148" s="32" t="s">
-        <v>305</v>
+        <v>55</v>
+      </c>
+      <c r="F148" s="92"/>
+      <c r="G148" s="31" t="s">
+        <v>357</v>
       </c>
       <c r="H148" s="12"/>
       <c r="I148" s="12"/>
@@ -11749,32 +11944,50 @@
       <c r="K148" s="39"/>
       <c r="L148" s="11"/>
     </row>
-    <row r="149" spans="1:12" ht="11.25" customHeight="1">
+    <row r="149" spans="1:12" ht="31.5">
       <c r="A149" s="12">
-        <v>144</v>
-      </c>
-      <c r="B149" s="48" t="s">
-        <v>359</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="B149" s="48"/>
       <c r="C149" s="25"/>
-      <c r="D149" s="24"/>
-      <c r="E149" s="24"/>
-      <c r="F149" s="37"/>
-      <c r="G149" s="31"/>
+      <c r="D149" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E149" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="F149" s="93"/>
+      <c r="G149" s="32" t="s">
+        <v>304</v>
+      </c>
       <c r="H149" s="12"/>
       <c r="I149" s="12"/>
       <c r="J149" s="30"/>
       <c r="K149" s="39"/>
       <c r="L149" s="11"/>
     </row>
-    <row r="150" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A150" s="12"/>
-      <c r="B150" s="48"/>
-      <c r="C150" s="25"/>
-      <c r="D150" s="24"/>
-      <c r="E150" s="24"/>
-      <c r="F150" s="37"/>
-      <c r="G150" s="31"/>
+    <row r="150" spans="1:12" ht="47.25" customHeight="1">
+      <c r="A150" s="12">
+        <v>144</v>
+      </c>
+      <c r="B150" s="48" t="s">
+        <v>358</v>
+      </c>
+      <c r="C150" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="D150" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E150" s="119" t="s">
+        <v>55</v>
+      </c>
+      <c r="F150" s="91" t="s">
+        <v>362</v>
+      </c>
+      <c r="G150" s="94" t="s">
+        <v>363</v>
+      </c>
       <c r="H150" s="12"/>
       <c r="I150" s="12"/>
       <c r="J150" s="30"/>
@@ -11782,13 +11995,17 @@
       <c r="L150" s="11"/>
     </row>
     <row r="151" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A151" s="12"/>
+      <c r="A151" s="12">
+        <v>145</v>
+      </c>
       <c r="B151" s="48"/>
       <c r="C151" s="25"/>
-      <c r="D151" s="24"/>
-      <c r="E151" s="24"/>
-      <c r="F151" s="37"/>
-      <c r="G151" s="31"/>
+      <c r="D151" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E151" s="107"/>
+      <c r="F151" s="92"/>
+      <c r="G151" s="95"/>
       <c r="H151" s="12"/>
       <c r="I151" s="12"/>
       <c r="J151" s="30"/>
@@ -11796,13 +12013,17 @@
       <c r="L151" s="11"/>
     </row>
     <row r="152" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A152" s="12"/>
+      <c r="A152" s="12">
+        <v>146</v>
+      </c>
       <c r="B152" s="48"/>
       <c r="C152" s="25"/>
-      <c r="D152" s="24"/>
-      <c r="E152" s="24"/>
-      <c r="F152" s="37"/>
-      <c r="G152" s="31"/>
+      <c r="D152" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E152" s="107"/>
+      <c r="F152" s="92"/>
+      <c r="G152" s="95"/>
       <c r="H152" s="12"/>
       <c r="I152" s="12"/>
       <c r="J152" s="30"/>
@@ -11810,13 +12031,17 @@
       <c r="L152" s="11"/>
     </row>
     <row r="153" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A153" s="12"/>
+      <c r="A153" s="12">
+        <v>147</v>
+      </c>
       <c r="B153" s="48"/>
       <c r="C153" s="25"/>
-      <c r="D153" s="24"/>
-      <c r="E153" s="24"/>
-      <c r="F153" s="37"/>
-      <c r="G153" s="31"/>
+      <c r="D153" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E153" s="107"/>
+      <c r="F153" s="92"/>
+      <c r="G153" s="95"/>
       <c r="H153" s="12"/>
       <c r="I153" s="12"/>
       <c r="J153" s="30"/>
@@ -11824,13 +12049,17 @@
       <c r="L153" s="11"/>
     </row>
     <row r="154" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A154" s="12"/>
+      <c r="A154" s="12">
+        <v>148</v>
+      </c>
       <c r="B154" s="48"/>
       <c r="C154" s="25"/>
-      <c r="D154" s="24"/>
-      <c r="E154" s="24"/>
-      <c r="F154" s="37"/>
-      <c r="G154" s="31"/>
+      <c r="D154" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E154" s="107"/>
+      <c r="F154" s="92"/>
+      <c r="G154" s="95"/>
       <c r="H154" s="12"/>
       <c r="I154" s="12"/>
       <c r="J154" s="30"/>
@@ -11838,13 +12067,17 @@
       <c r="L154" s="11"/>
     </row>
     <row r="155" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A155" s="12"/>
+      <c r="A155" s="12">
+        <v>149</v>
+      </c>
       <c r="B155" s="48"/>
       <c r="C155" s="25"/>
-      <c r="D155" s="24"/>
-      <c r="E155" s="24"/>
-      <c r="F155" s="37"/>
-      <c r="G155" s="31"/>
+      <c r="D155" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E155" s="107"/>
+      <c r="F155" s="92"/>
+      <c r="G155" s="95"/>
       <c r="H155" s="12"/>
       <c r="I155" s="12"/>
       <c r="J155" s="30"/>
@@ -11852,13 +12085,17 @@
       <c r="L155" s="11"/>
     </row>
     <row r="156" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A156" s="12"/>
+      <c r="A156" s="12">
+        <v>150</v>
+      </c>
       <c r="B156" s="48"/>
       <c r="C156" s="25"/>
-      <c r="D156" s="24"/>
-      <c r="E156" s="24"/>
-      <c r="F156" s="37"/>
-      <c r="G156" s="31"/>
+      <c r="D156" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E156" s="107"/>
+      <c r="F156" s="92"/>
+      <c r="G156" s="95"/>
       <c r="H156" s="12"/>
       <c r="I156" s="12"/>
       <c r="J156" s="30"/>
@@ -11866,13 +12103,17 @@
       <c r="L156" s="11"/>
     </row>
     <row r="157" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A157" s="12"/>
+      <c r="A157" s="12">
+        <v>151</v>
+      </c>
       <c r="B157" s="48"/>
       <c r="C157" s="25"/>
-      <c r="D157" s="24"/>
-      <c r="E157" s="24"/>
-      <c r="F157" s="37"/>
-      <c r="G157" s="31"/>
+      <c r="D157" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E157" s="107"/>
+      <c r="F157" s="92"/>
+      <c r="G157" s="95"/>
       <c r="H157" s="12"/>
       <c r="I157" s="12"/>
       <c r="J157" s="30"/>
@@ -11880,13 +12121,17 @@
       <c r="L157" s="11"/>
     </row>
     <row r="158" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A158" s="12"/>
+      <c r="A158" s="12">
+        <v>152</v>
+      </c>
       <c r="B158" s="48"/>
       <c r="C158" s="25"/>
-      <c r="D158" s="24"/>
-      <c r="E158" s="24"/>
-      <c r="F158" s="37"/>
-      <c r="G158" s="31"/>
+      <c r="D158" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E158" s="107"/>
+      <c r="F158" s="92"/>
+      <c r="G158" s="95"/>
       <c r="H158" s="12"/>
       <c r="I158" s="12"/>
       <c r="J158" s="30"/>
@@ -11894,19 +12139,257 @@
       <c r="L158" s="11"/>
     </row>
     <row r="159" spans="1:12" ht="11.25" customHeight="1">
-      <c r="E159" s="16"/>
+      <c r="A159" s="12">
+        <v>153</v>
+      </c>
+      <c r="B159" s="48"/>
+      <c r="C159" s="25"/>
+      <c r="D159" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E159" s="107"/>
+      <c r="F159" s="92"/>
+      <c r="G159" s="95"/>
+      <c r="H159" s="12"/>
+      <c r="I159" s="12"/>
+      <c r="J159" s="30"/>
+      <c r="K159" s="39"/>
+      <c r="L159" s="11"/>
     </row>
     <row r="160" spans="1:12" ht="11.25" customHeight="1">
-      <c r="E160" s="16"/>
+      <c r="A160" s="12">
+        <v>154</v>
+      </c>
+      <c r="B160" s="48"/>
+      <c r="C160" s="25"/>
+      <c r="D160" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E160" s="107"/>
+      <c r="F160" s="92"/>
+      <c r="G160" s="95"/>
+      <c r="H160" s="12"/>
+      <c r="I160" s="12"/>
+      <c r="J160" s="30"/>
+      <c r="K160" s="39"/>
+      <c r="L160" s="11"/>
+    </row>
+    <row r="161" spans="1:12" ht="11.25" customHeight="1">
+      <c r="A161" s="12">
+        <v>155</v>
+      </c>
+      <c r="B161" s="48"/>
+      <c r="C161" s="25"/>
+      <c r="D161" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="E161" s="107"/>
+      <c r="F161" s="92"/>
+      <c r="G161" s="96"/>
+      <c r="H161" s="12"/>
+      <c r="I161" s="12"/>
+      <c r="J161" s="30"/>
+      <c r="K161" s="39"/>
+      <c r="L161" s="11"/>
+    </row>
+    <row r="162" spans="1:12" ht="15.75">
+      <c r="A162" s="12">
+        <v>156</v>
+      </c>
+      <c r="B162" s="48"/>
+      <c r="C162" s="25"/>
+      <c r="D162" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E162" s="107"/>
+      <c r="F162" s="92"/>
+      <c r="G162" s="31" t="s">
+        <v>364</v>
+      </c>
+      <c r="H162" s="12"/>
+      <c r="I162" s="12"/>
+      <c r="J162" s="30"/>
+      <c r="K162" s="39"/>
+      <c r="L162" s="11"/>
+    </row>
+    <row r="163" spans="1:12" ht="31.5">
+      <c r="A163" s="12">
+        <v>157</v>
+      </c>
+      <c r="B163" s="48"/>
+      <c r="C163" s="25"/>
+      <c r="D163" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E163" s="108"/>
+      <c r="F163" s="93"/>
+      <c r="G163" s="31" t="s">
+        <v>365</v>
+      </c>
+      <c r="H163" s="12"/>
+      <c r="I163" s="12"/>
+      <c r="J163" s="30"/>
+      <c r="K163" s="39"/>
+      <c r="L163" s="11"/>
+    </row>
+    <row r="164" spans="1:12" ht="47.25">
+      <c r="A164" s="12">
+        <v>158</v>
+      </c>
+      <c r="B164" s="48"/>
+      <c r="C164" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="D164" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E164" s="90" t="s">
+        <v>55</v>
+      </c>
+      <c r="F164" s="89" t="s">
+        <v>370</v>
+      </c>
+      <c r="G164" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="H164" s="12"/>
+      <c r="I164" s="12"/>
+      <c r="J164" s="30"/>
+      <c r="K164" s="39"/>
+      <c r="L164" s="11"/>
+    </row>
+    <row r="165" spans="1:12" ht="11.25" customHeight="1">
+      <c r="A165" s="12"/>
+      <c r="B165" s="48"/>
+      <c r="C165" s="25"/>
+      <c r="D165" s="11"/>
+      <c r="E165" s="24"/>
+      <c r="F165" s="37"/>
+      <c r="G165" s="31"/>
+      <c r="H165" s="12"/>
+      <c r="I165" s="12"/>
+      <c r="J165" s="30"/>
+      <c r="K165" s="39"/>
+      <c r="L165" s="11"/>
+    </row>
+    <row r="166" spans="1:12" ht="11.25" customHeight="1">
+      <c r="A166" s="12"/>
+      <c r="B166" s="48"/>
+      <c r="C166" s="25"/>
+      <c r="D166" s="11"/>
+      <c r="E166" s="24"/>
+      <c r="F166" s="37"/>
+      <c r="G166" s="31"/>
+      <c r="H166" s="12"/>
+      <c r="I166" s="12"/>
+      <c r="J166" s="30"/>
+      <c r="K166" s="39"/>
+      <c r="L166" s="11"/>
+    </row>
+    <row r="167" spans="1:12" ht="11.25" customHeight="1">
+      <c r="A167" s="12"/>
+      <c r="B167" s="48"/>
+      <c r="C167" s="25"/>
+      <c r="D167" s="11"/>
+      <c r="E167" s="24"/>
+      <c r="F167" s="37"/>
+      <c r="G167" s="31"/>
+      <c r="H167" s="12"/>
+      <c r="I167" s="12"/>
+      <c r="J167" s="30"/>
+      <c r="K167" s="39"/>
+      <c r="L167" s="11"/>
+    </row>
+    <row r="168" spans="1:12" ht="11.25" customHeight="1">
+      <c r="A168" s="12"/>
+      <c r="B168" s="48"/>
+      <c r="C168" s="25"/>
+      <c r="D168" s="11"/>
+      <c r="E168" s="24"/>
+      <c r="F168" s="37"/>
+      <c r="G168" s="31"/>
+      <c r="H168" s="12"/>
+      <c r="I168" s="12"/>
+      <c r="J168" s="30"/>
+      <c r="K168" s="39"/>
+      <c r="L168" s="11"/>
+    </row>
+    <row r="169" spans="1:12" ht="11.25" customHeight="1">
+      <c r="A169" s="12"/>
+      <c r="B169" s="48"/>
+      <c r="C169" s="25"/>
+      <c r="D169" s="11"/>
+      <c r="E169" s="24"/>
+      <c r="F169" s="37"/>
+      <c r="G169" s="31"/>
+      <c r="H169" s="12"/>
+      <c r="I169" s="12"/>
+      <c r="J169" s="30"/>
+      <c r="K169" s="39"/>
+      <c r="L169" s="11"/>
+    </row>
+    <row r="170" spans="1:12" ht="11.25" customHeight="1">
+      <c r="A170" s="12"/>
+      <c r="B170" s="48"/>
+      <c r="C170" s="25"/>
+      <c r="D170" s="11"/>
+      <c r="E170" s="24"/>
+      <c r="F170" s="37"/>
+      <c r="G170" s="31"/>
+      <c r="H170" s="12"/>
+      <c r="I170" s="12"/>
+      <c r="J170" s="30"/>
+      <c r="K170" s="39"/>
+      <c r="L170" s="11"/>
+    </row>
+    <row r="171" spans="1:12" ht="11.25" customHeight="1">
+      <c r="A171" s="12"/>
+      <c r="B171" s="48"/>
+      <c r="C171" s="25"/>
+      <c r="D171" s="11"/>
+      <c r="E171" s="24"/>
+      <c r="F171" s="37"/>
+      <c r="G171" s="31"/>
+      <c r="H171" s="12"/>
+      <c r="I171" s="12"/>
+      <c r="J171" s="30"/>
+      <c r="K171" s="39"/>
+      <c r="L171" s="11"/>
+    </row>
+    <row r="172" spans="1:12" ht="11.25" customHeight="1">
+      <c r="A172" s="12"/>
+      <c r="B172" s="48"/>
+      <c r="C172" s="25"/>
+      <c r="D172" s="11"/>
+      <c r="E172" s="24"/>
+      <c r="F172" s="37"/>
+      <c r="G172" s="31"/>
+      <c r="H172" s="12"/>
+      <c r="I172" s="12"/>
+      <c r="J172" s="30"/>
+      <c r="K172" s="39"/>
+      <c r="L172" s="11"/>
+    </row>
+    <row r="173" spans="1:12" ht="11.25" customHeight="1">
+      <c r="A173" s="12"/>
+      <c r="B173" s="48"/>
+      <c r="C173" s="25"/>
+      <c r="D173" s="11"/>
+      <c r="E173" s="24"/>
+      <c r="F173" s="37"/>
+      <c r="G173" s="31"/>
+      <c r="H173" s="12"/>
+      <c r="I173" s="12"/>
+      <c r="J173" s="30"/>
+      <c r="K173" s="39"/>
+      <c r="L173" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="F131:F145"/>
-    <mergeCell ref="F146:F148"/>
-    <mergeCell ref="F90:F94"/>
-    <mergeCell ref="E96:E107"/>
-    <mergeCell ref="F96:F107"/>
-    <mergeCell ref="G109:G120"/>
+  <mergeCells count="20">
+    <mergeCell ref="E150:E163"/>
+    <mergeCell ref="F150:F163"/>
+    <mergeCell ref="G150:G161"/>
+    <mergeCell ref="G110:G121"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="G12:G23"/>
     <mergeCell ref="G38:G42"/>
@@ -11918,6 +12401,11 @@
     <mergeCell ref="E86:E89"/>
     <mergeCell ref="F86:F89"/>
     <mergeCell ref="E90:E92"/>
+    <mergeCell ref="F132:F146"/>
+    <mergeCell ref="F147:F149"/>
+    <mergeCell ref="F90:F94"/>
+    <mergeCell ref="E97:E108"/>
+    <mergeCell ref="F97:F108"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -11950,11 +12438,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A1" s="97" t="s">
-        <v>150</v>
-      </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="103"/>
+      <c r="A1" s="100" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="101"/>
+      <c r="C1" s="109"/>
       <c r="D1" s="53" t="s">
         <v>2</v>
       </c>
@@ -11977,9 +12465,9 @@
       <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A2" s="99"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="104"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="110"/>
       <c r="D2" s="53" t="s">
         <v>3</v>
       </c>
@@ -12016,10 +12504,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="69" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="82" t="s">
         <v>151</v>
-      </c>
-      <c r="C4" s="82" t="s">
-        <v>152</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>13</v>
@@ -12051,7 +12539,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="76" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" s="27" t="s">
         <v>55</v>
@@ -12060,16 +12548,16 @@
         <v>58</v>
       </c>
       <c r="E5" s="78" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" s="79" t="s">
         <v>157</v>
-      </c>
-      <c r="F5" s="79" t="s">
-        <v>158</v>
       </c>
       <c r="G5" s="59">
         <v>44369</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I5" s="66"/>
       <c r="J5" s="64" t="s">
@@ -12082,25 +12570,25 @@
         <v>2</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E6" s="80" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G6" s="60">
         <v>44369</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I6" s="66"/>
       <c r="J6" s="17" t="s">
@@ -12117,19 +12605,19 @@
         <v>59</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E7" s="80" t="s">
+        <v>161</v>
+      </c>
+      <c r="F7" s="31" t="s">
         <v>162</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>163</v>
       </c>
       <c r="G7" s="60">
         <v>44369</v>
       </c>
       <c r="H7" s="61" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I7" s="66"/>
       <c r="J7" s="63" t="s">
@@ -12142,25 +12630,25 @@
         <v>4</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C8" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="94" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E8" s="80" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F8" s="94" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G8" s="60">
         <v>44369</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J8" s="17" t="s">
         <v>145</v>
@@ -12175,14 +12663,14 @@
       </c>
       <c r="D9" s="95"/>
       <c r="E9" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F9" s="95"/>
       <c r="G9" s="60">
         <v>44369</v>
       </c>
       <c r="H9" s="84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J9" s="63" t="s">
         <v>145</v>
@@ -12204,7 +12692,7 @@
         <v>44369</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J10" s="17" t="s">
         <v>145</v>
@@ -12226,7 +12714,7 @@
         <v>44369</v>
       </c>
       <c r="H11" s="84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J11" s="63" t="s">
         <v>145</v>
@@ -12248,7 +12736,7 @@
         <v>44369</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J12" s="17" t="s">
         <v>145</v>
@@ -12270,7 +12758,7 @@
         <v>44369</v>
       </c>
       <c r="H13" s="84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J13" s="63" t="s">
         <v>145</v>
@@ -12292,7 +12780,7 @@
         <v>44369</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J14" s="17" t="s">
         <v>145</v>
@@ -12314,7 +12802,7 @@
         <v>44369</v>
       </c>
       <c r="H15" s="84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J15" s="63" t="s">
         <v>145</v>
@@ -12336,7 +12824,7 @@
         <v>44369</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J16" s="17" t="s">
         <v>145</v>
@@ -12358,7 +12846,7 @@
         <v>44369</v>
       </c>
       <c r="H17" s="84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J17" s="63" t="s">
         <v>145</v>
@@ -12380,7 +12868,7 @@
         <v>44369</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J18" s="17" t="s">
         <v>145</v>
@@ -12402,7 +12890,7 @@
         <v>44369</v>
       </c>
       <c r="H19" s="84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J19" s="63" t="s">
         <v>145</v>
@@ -12413,25 +12901,25 @@
         <v>16</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C20" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="94" t="s">
-        <v>206</v>
-      </c>
-      <c r="E20" s="108" t="s">
-        <v>204</v>
+        <v>205</v>
+      </c>
+      <c r="E20" s="114" t="s">
+        <v>203</v>
       </c>
       <c r="F20" s="94" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G20" s="60">
         <v>44369</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I20" s="66"/>
       <c r="J20" s="17" t="s">
@@ -12448,13 +12936,13 @@
         <v>17</v>
       </c>
       <c r="D21" s="95"/>
-      <c r="E21" s="109"/>
+      <c r="E21" s="115"/>
       <c r="F21" s="95"/>
       <c r="G21" s="60">
         <v>44369</v>
       </c>
       <c r="H21" s="84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I21" s="66"/>
       <c r="J21" s="63" t="s">
@@ -12471,13 +12959,13 @@
         <v>18</v>
       </c>
       <c r="D22" s="95"/>
-      <c r="E22" s="109"/>
+      <c r="E22" s="115"/>
       <c r="F22" s="95"/>
       <c r="G22" s="60">
         <v>44369</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I22" s="66"/>
       <c r="J22" s="17" t="s">
@@ -12494,13 +12982,13 @@
         <v>19</v>
       </c>
       <c r="D23" s="95"/>
-      <c r="E23" s="109"/>
+      <c r="E23" s="115"/>
       <c r="F23" s="95"/>
       <c r="G23" s="60">
         <v>44369</v>
       </c>
       <c r="H23" s="84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I23" s="67"/>
       <c r="J23" s="63" t="s">
@@ -12517,13 +13005,13 @@
         <v>20</v>
       </c>
       <c r="D24" s="95"/>
-      <c r="E24" s="109"/>
+      <c r="E24" s="115"/>
       <c r="F24" s="96"/>
       <c r="G24" s="60">
         <v>44369</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I24" s="65"/>
       <c r="J24" s="17" t="s">
@@ -12540,15 +13028,15 @@
         <v>21</v>
       </c>
       <c r="D25" s="95"/>
-      <c r="E25" s="109"/>
+      <c r="E25" s="115"/>
       <c r="F25" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G25" s="60">
         <v>44369</v>
       </c>
       <c r="H25" s="84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I25" s="65"/>
       <c r="J25" s="63" t="s">
@@ -12565,15 +13053,15 @@
         <v>22</v>
       </c>
       <c r="D26" s="95"/>
-      <c r="E26" s="109"/>
+      <c r="E26" s="115"/>
       <c r="F26" s="94" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G26" s="60">
         <v>44369</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I26" s="30"/>
       <c r="J26" s="17" t="s">
@@ -12590,13 +13078,13 @@
         <v>23</v>
       </c>
       <c r="D27" s="95"/>
-      <c r="E27" s="109"/>
+      <c r="E27" s="115"/>
       <c r="F27" s="95"/>
       <c r="G27" s="60">
         <v>44369</v>
       </c>
       <c r="H27" s="84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I27" s="65"/>
       <c r="J27" s="63" t="s">
@@ -12613,13 +13101,13 @@
         <v>24</v>
       </c>
       <c r="D28" s="95"/>
-      <c r="E28" s="109"/>
+      <c r="E28" s="115"/>
       <c r="F28" s="95"/>
       <c r="G28" s="60">
         <v>44369</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I28" s="30"/>
       <c r="J28" s="17" t="s">
@@ -12636,13 +13124,13 @@
         <v>25</v>
       </c>
       <c r="D29" s="95"/>
-      <c r="E29" s="109"/>
+      <c r="E29" s="115"/>
       <c r="F29" s="95"/>
       <c r="G29" s="60">
         <v>44369</v>
       </c>
       <c r="H29" s="84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I29" s="67"/>
       <c r="J29" s="63" t="s">
@@ -12659,13 +13147,13 @@
         <v>26</v>
       </c>
       <c r="D30" s="95"/>
-      <c r="E30" s="109"/>
+      <c r="E30" s="115"/>
       <c r="F30" s="95"/>
       <c r="G30" s="60">
         <v>44369</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I30" s="65"/>
       <c r="J30" s="17" t="s">
@@ -12682,13 +13170,13 @@
         <v>27</v>
       </c>
       <c r="D31" s="96"/>
-      <c r="E31" s="110"/>
+      <c r="E31" s="116"/>
       <c r="F31" s="96"/>
       <c r="G31" s="60">
         <v>44369</v>
       </c>
       <c r="H31" s="84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I31" s="65"/>
       <c r="J31" s="63" t="s">
@@ -12707,19 +13195,19 @@
         <v>16</v>
       </c>
       <c r="D32" s="94" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G32" s="60">
         <v>44369</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I32" s="65"/>
       <c r="J32" s="17" t="s">
@@ -12737,16 +13225,16 @@
       </c>
       <c r="D33" s="95"/>
       <c r="E33" s="31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F33" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G33" s="60">
         <v>44369</v>
       </c>
       <c r="H33" s="84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I33" s="30"/>
       <c r="J33" s="63" t="s">
@@ -12764,16 +13252,16 @@
       </c>
       <c r="D34" s="95"/>
       <c r="E34" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F34" s="32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G34" s="60">
         <v>44369</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I34" s="67"/>
       <c r="J34" s="17" t="s">
@@ -12791,16 +13279,16 @@
       </c>
       <c r="D35" s="95"/>
       <c r="E35" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F35" s="32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G35" s="60">
         <v>44369</v>
       </c>
       <c r="H35" s="84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I35" s="30"/>
       <c r="J35" s="63" t="s">
@@ -12818,16 +13306,16 @@
       </c>
       <c r="D36" s="95"/>
       <c r="E36" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F36" s="32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G36" s="60">
         <v>44369</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I36" s="65"/>
       <c r="J36" s="17" t="s">
@@ -12845,16 +13333,16 @@
       </c>
       <c r="D37" s="95"/>
       <c r="E37" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F37" s="32" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G37" s="60">
         <v>44369</v>
       </c>
       <c r="H37" s="84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I37" s="31"/>
       <c r="J37" s="63" t="s">
@@ -12872,16 +13360,16 @@
       </c>
       <c r="D38" s="95"/>
       <c r="E38" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F38" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G38" s="60">
         <v>44369</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I38" s="30"/>
       <c r="J38" s="17" t="s">
@@ -12899,16 +13387,16 @@
       </c>
       <c r="D39" s="95"/>
       <c r="E39" s="31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F39" s="32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G39" s="60">
         <v>44369</v>
       </c>
       <c r="H39" s="84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I39" s="67"/>
       <c r="J39" s="63" t="s">
@@ -12926,16 +13414,16 @@
       </c>
       <c r="D40" s="95"/>
       <c r="E40" s="31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F40" s="32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G40" s="60">
         <v>44369</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I40" s="30"/>
       <c r="J40" s="17" t="s">
@@ -12953,16 +13441,16 @@
       </c>
       <c r="D41" s="96"/>
       <c r="E41" s="31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F41" s="32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G41" s="60">
         <v>44369</v>
       </c>
       <c r="H41" s="84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I41" s="65"/>
       <c r="J41" s="63" t="s">
@@ -12975,25 +13463,25 @@
         <v>38</v>
       </c>
       <c r="B42" s="48" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C42" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D42" s="94" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E42" s="91" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F42" s="91" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G42" s="60">
         <v>44369</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I42" s="65"/>
       <c r="J42" s="17" t="s">
@@ -13009,14 +13497,14 @@
       <c r="C43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="89"/>
+      <c r="D43" s="107"/>
       <c r="E43" s="92"/>
       <c r="F43" s="92"/>
       <c r="G43" s="60">
         <v>44369</v>
       </c>
       <c r="H43" s="84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I43" s="65"/>
       <c r="J43" s="63" t="s">
@@ -13032,14 +13520,14 @@
       <c r="C44" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="89"/>
+      <c r="D44" s="107"/>
       <c r="E44" s="92"/>
       <c r="F44" s="92"/>
       <c r="G44" s="60">
         <v>44369</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I44" s="65"/>
       <c r="J44" s="17" t="s">
@@ -13055,14 +13543,14 @@
       <c r="C45" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="89"/>
+      <c r="D45" s="107"/>
       <c r="E45" s="92"/>
       <c r="F45" s="92"/>
       <c r="G45" s="60">
         <v>44369</v>
       </c>
       <c r="H45" s="84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I45" s="65"/>
       <c r="J45" s="63" t="s">
@@ -13078,14 +13566,14 @@
       <c r="C46" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="89"/>
+      <c r="D46" s="107"/>
       <c r="E46" s="92"/>
       <c r="F46" s="92"/>
       <c r="G46" s="60">
         <v>44369</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I46" s="65"/>
       <c r="J46" s="17" t="s">
@@ -13101,14 +13589,14 @@
       <c r="C47" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="89"/>
+      <c r="D47" s="107"/>
       <c r="E47" s="92"/>
       <c r="F47" s="92"/>
       <c r="G47" s="60">
         <v>44369</v>
       </c>
       <c r="H47" s="84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I47" s="65"/>
       <c r="J47" s="63" t="s">
@@ -13124,14 +13612,14 @@
       <c r="C48" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="89"/>
+      <c r="D48" s="107"/>
       <c r="E48" s="92"/>
       <c r="F48" s="92"/>
       <c r="G48" s="60">
         <v>44369</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I48" s="30"/>
       <c r="J48" s="17" t="s">
@@ -13147,14 +13635,14 @@
       <c r="C49" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D49" s="89"/>
+      <c r="D49" s="107"/>
       <c r="E49" s="92"/>
       <c r="F49" s="92"/>
       <c r="G49" s="60">
         <v>44369</v>
       </c>
       <c r="H49" s="84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I49" s="65"/>
       <c r="J49" s="63" t="s">
@@ -13170,14 +13658,14 @@
       <c r="C50" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="89"/>
+      <c r="D50" s="107"/>
       <c r="E50" s="92"/>
       <c r="F50" s="92"/>
       <c r="G50" s="60">
         <v>44369</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I50" s="65"/>
       <c r="J50" s="17" t="s">
@@ -13193,14 +13681,14 @@
       <c r="C51" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D51" s="89"/>
+      <c r="D51" s="107"/>
       <c r="E51" s="92"/>
       <c r="F51" s="92"/>
       <c r="G51" s="60">
         <v>44369</v>
       </c>
       <c r="H51" s="84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I51" s="65"/>
       <c r="J51" s="63" t="s">
@@ -13216,14 +13704,14 @@
       <c r="C52" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="89"/>
+      <c r="D52" s="107"/>
       <c r="E52" s="92"/>
       <c r="F52" s="92"/>
       <c r="G52" s="60">
         <v>44369</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I52" s="30"/>
       <c r="J52" s="17" t="s">
@@ -13239,14 +13727,14 @@
       <c r="C53" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="90"/>
+      <c r="D53" s="108"/>
       <c r="E53" s="93"/>
       <c r="F53" s="93"/>
       <c r="G53" s="60">
         <v>44369</v>
       </c>
       <c r="H53" s="84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I53" s="65"/>
       <c r="J53" s="63" t="s">
@@ -13265,19 +13753,19 @@
         <v>16</v>
       </c>
       <c r="D54" s="94" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E54" s="91" t="s">
-        <v>226</v>
-      </c>
-      <c r="F54" s="105" t="s">
-        <v>181</v>
+        <v>225</v>
+      </c>
+      <c r="F54" s="111" t="s">
+        <v>180</v>
       </c>
       <c r="G54" s="60">
         <v>44369</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I54" s="65"/>
       <c r="J54" s="17" t="s">
@@ -13293,14 +13781,14 @@
       <c r="C55" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="89"/>
+      <c r="D55" s="107"/>
       <c r="E55" s="92"/>
-      <c r="F55" s="106"/>
+      <c r="F55" s="112"/>
       <c r="G55" s="60">
         <v>44369</v>
       </c>
       <c r="H55" s="84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I55" s="65"/>
       <c r="J55" s="63" t="s">
@@ -13316,14 +13804,14 @@
       <c r="C56" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="89"/>
+      <c r="D56" s="107"/>
       <c r="E56" s="92"/>
-      <c r="F56" s="106"/>
+      <c r="F56" s="112"/>
       <c r="G56" s="60">
         <v>44369</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I56" s="65"/>
       <c r="J56" s="17" t="s">
@@ -13339,14 +13827,14 @@
       <c r="C57" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="89"/>
+      <c r="D57" s="107"/>
       <c r="E57" s="92"/>
-      <c r="F57" s="106"/>
+      <c r="F57" s="112"/>
       <c r="G57" s="60">
         <v>44369</v>
       </c>
       <c r="H57" s="84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I57" s="65"/>
       <c r="J57" s="63" t="s">
@@ -13362,14 +13850,14 @@
       <c r="C58" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="89"/>
+      <c r="D58" s="107"/>
       <c r="E58" s="92"/>
-      <c r="F58" s="106"/>
+      <c r="F58" s="112"/>
       <c r="G58" s="60">
         <v>44369</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I58" s="65"/>
       <c r="J58" s="17" t="s">
@@ -13385,14 +13873,14 @@
       <c r="C59" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D59" s="89"/>
+      <c r="D59" s="107"/>
       <c r="E59" s="92"/>
-      <c r="F59" s="107"/>
+      <c r="F59" s="113"/>
       <c r="G59" s="60">
         <v>44369</v>
       </c>
       <c r="H59" s="84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I59" s="65"/>
       <c r="J59" s="63" t="s">
@@ -13408,16 +13896,16 @@
       <c r="C60" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="89"/>
+      <c r="D60" s="107"/>
       <c r="E60" s="92"/>
       <c r="F60" s="32" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G60" s="60">
         <v>44369</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I60" s="30"/>
       <c r="J60" s="17" t="s">
@@ -13433,16 +13921,16 @@
       <c r="C61" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="89"/>
+      <c r="D61" s="107"/>
       <c r="E61" s="92"/>
       <c r="F61" s="32" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G61" s="60">
         <v>44369</v>
       </c>
       <c r="H61" s="84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I61" s="65"/>
       <c r="J61" s="63" t="s">
@@ -13458,16 +13946,16 @@
       <c r="C62" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D62" s="89"/>
+      <c r="D62" s="107"/>
       <c r="E62" s="92"/>
       <c r="F62" s="32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G62" s="60">
         <v>44369</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I62" s="65"/>
       <c r="J62" s="17" t="s">
@@ -13483,16 +13971,16 @@
       <c r="C63" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D63" s="89"/>
+      <c r="D63" s="107"/>
       <c r="E63" s="92"/>
-      <c r="F63" s="105" t="s">
-        <v>185</v>
+      <c r="F63" s="111" t="s">
+        <v>184</v>
       </c>
       <c r="G63" s="60">
         <v>44369</v>
       </c>
       <c r="H63" s="84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I63" s="65"/>
       <c r="J63" s="63" t="s">
@@ -13508,14 +13996,14 @@
       <c r="C64" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D64" s="89"/>
+      <c r="D64" s="107"/>
       <c r="E64" s="92"/>
-      <c r="F64" s="107"/>
+      <c r="F64" s="113"/>
       <c r="G64" s="60">
         <v>44369</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I64" s="30"/>
       <c r="J64" s="17" t="s">
@@ -13531,16 +14019,16 @@
       <c r="C65" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D65" s="90"/>
+      <c r="D65" s="108"/>
       <c r="E65" s="93"/>
       <c r="F65" s="32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G65" s="60">
         <v>44369</v>
       </c>
       <c r="H65" s="84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I65" s="65"/>
       <c r="J65" s="63" t="s">
@@ -13553,25 +14041,25 @@
         <v>62</v>
       </c>
       <c r="B66" s="75" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C66" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D66" s="94" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E66" s="94" t="s">
+        <v>165</v>
+      </c>
+      <c r="F66" s="91" t="s">
         <v>166</v>
-      </c>
-      <c r="F66" s="91" t="s">
-        <v>167</v>
       </c>
       <c r="G66" s="60">
         <v>44369</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I66" s="65"/>
       <c r="J66" s="17" t="s">
@@ -13587,14 +14075,14 @@
       <c r="C67" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="89"/>
+      <c r="D67" s="107"/>
       <c r="E67" s="95"/>
       <c r="F67" s="92"/>
       <c r="G67" s="60">
         <v>44369</v>
       </c>
       <c r="H67" s="84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I67" s="30"/>
       <c r="J67" s="63" t="s">
@@ -13610,14 +14098,14 @@
       <c r="C68" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D68" s="89"/>
+      <c r="D68" s="107"/>
       <c r="E68" s="95"/>
       <c r="F68" s="92"/>
       <c r="G68" s="60">
         <v>44369</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I68" s="67"/>
       <c r="J68" s="17" t="s">
@@ -13633,14 +14121,14 @@
       <c r="C69" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D69" s="89"/>
+      <c r="D69" s="107"/>
       <c r="E69" s="95"/>
       <c r="F69" s="92"/>
       <c r="G69" s="60">
         <v>44369</v>
       </c>
       <c r="H69" s="84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I69" s="30"/>
       <c r="J69" s="63" t="s">
@@ -13656,14 +14144,14 @@
       <c r="C70" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="89"/>
+      <c r="D70" s="107"/>
       <c r="E70" s="95"/>
       <c r="F70" s="92"/>
       <c r="G70" s="60">
         <v>44369</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I70" s="30"/>
       <c r="J70" s="17" t="s">
@@ -13679,14 +14167,14 @@
       <c r="C71" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D71" s="89"/>
+      <c r="D71" s="107"/>
       <c r="E71" s="95"/>
       <c r="F71" s="92"/>
       <c r="G71" s="60">
         <v>44369</v>
       </c>
       <c r="H71" s="84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I71" s="30"/>
       <c r="J71" s="63" t="s">
@@ -13702,14 +14190,14 @@
       <c r="C72" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="89"/>
+      <c r="D72" s="107"/>
       <c r="E72" s="95"/>
       <c r="F72" s="92"/>
       <c r="G72" s="60">
         <v>44369</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I72" s="30"/>
       <c r="J72" s="17" t="s">
@@ -13725,14 +14213,14 @@
       <c r="C73" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="89"/>
+      <c r="D73" s="107"/>
       <c r="E73" s="95"/>
       <c r="F73" s="92"/>
       <c r="G73" s="60">
         <v>44369</v>
       </c>
       <c r="H73" s="84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I73" s="67"/>
       <c r="J73" s="63" t="s">
@@ -13748,14 +14236,14 @@
       <c r="C74" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D74" s="89"/>
+      <c r="D74" s="107"/>
       <c r="E74" s="95"/>
       <c r="F74" s="92"/>
       <c r="G74" s="60">
         <v>44369</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I74" s="30"/>
       <c r="J74" s="17" t="s">
@@ -13771,14 +14259,14 @@
       <c r="C75" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="89"/>
+      <c r="D75" s="107"/>
       <c r="E75" s="95"/>
       <c r="F75" s="92"/>
       <c r="G75" s="60">
         <v>44369</v>
       </c>
       <c r="H75" s="84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I75" s="67"/>
       <c r="J75" s="63" t="s">
@@ -13794,14 +14282,14 @@
       <c r="C76" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D76" s="89"/>
+      <c r="D76" s="107"/>
       <c r="E76" s="95"/>
       <c r="F76" s="92"/>
       <c r="G76" s="60">
         <v>44369</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I76" s="30"/>
       <c r="J76" s="17" t="s">
@@ -13817,14 +14305,14 @@
       <c r="C77" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D77" s="90"/>
+      <c r="D77" s="108"/>
       <c r="E77" s="96"/>
       <c r="F77" s="93"/>
       <c r="G77" s="60">
         <v>44369</v>
       </c>
       <c r="H77" s="84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I77" s="30"/>
       <c r="J77" s="63" t="s">
@@ -13843,23 +14331,23 @@
         <v>129</v>
       </c>
       <c r="D78" s="83" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E78" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F78" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G78" s="60">
         <v>44369</v>
       </c>
       <c r="H78" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I78" s="30"/>
       <c r="J78" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K78" s="11"/>
     </row>
@@ -13871,22 +14359,22 @@
         <v>55</v>
       </c>
       <c r="C79" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="D79" s="94" t="s">
+        <v>224</v>
+      </c>
+      <c r="E79" s="94" t="s">
+        <v>239</v>
+      </c>
+      <c r="F79" s="32" t="s">
         <v>192</v>
-      </c>
-      <c r="D79" s="94" t="s">
-        <v>225</v>
-      </c>
-      <c r="E79" s="94" t="s">
-        <v>240</v>
-      </c>
-      <c r="F79" s="32" t="s">
-        <v>193</v>
       </c>
       <c r="G79" s="60">
         <v>44369</v>
       </c>
       <c r="H79" s="84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I79" s="30"/>
       <c r="J79" s="63" t="s">
@@ -13905,13 +14393,13 @@
       <c r="D80" s="95"/>
       <c r="E80" s="95"/>
       <c r="F80" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G80" s="60">
         <v>44369</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I80" s="30"/>
       <c r="J80" s="17" t="s">
@@ -13930,13 +14418,13 @@
       <c r="D81" s="95"/>
       <c r="E81" s="95"/>
       <c r="F81" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G81" s="60">
         <v>44369</v>
       </c>
       <c r="H81" s="84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I81" s="30"/>
       <c r="J81" s="63" t="s">
@@ -13955,13 +14443,13 @@
       <c r="D82" s="95"/>
       <c r="E82" s="95"/>
       <c r="F82" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G82" s="60">
         <v>44369</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I82" s="30"/>
       <c r="J82" s="63" t="s">
@@ -13980,13 +14468,13 @@
       <c r="D83" s="95"/>
       <c r="E83" s="95"/>
       <c r="F83" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G83" s="60">
         <v>44369</v>
       </c>
       <c r="H83" s="84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I83" s="30"/>
       <c r="J83" s="17" t="s">
@@ -14005,13 +14493,13 @@
       <c r="D84" s="95"/>
       <c r="E84" s="95"/>
       <c r="F84" s="32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G84" s="60">
         <v>44369</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I84" s="30"/>
       <c r="J84" s="63" t="s">
@@ -14030,13 +14518,13 @@
       <c r="D85" s="95"/>
       <c r="E85" s="95"/>
       <c r="F85" s="32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G85" s="60">
         <v>44369</v>
       </c>
       <c r="H85" s="84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I85" s="30"/>
       <c r="J85" s="63" t="s">
@@ -14055,13 +14543,13 @@
       <c r="D86" s="95"/>
       <c r="E86" s="95"/>
       <c r="F86" s="32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G86" s="60">
         <v>44369</v>
       </c>
       <c r="H86" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I86" s="30"/>
       <c r="J86" s="17" t="s">
@@ -14080,13 +14568,13 @@
       <c r="D87" s="95"/>
       <c r="E87" s="95"/>
       <c r="F87" s="32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G87" s="60">
         <v>44369</v>
       </c>
       <c r="H87" s="84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I87" s="30"/>
       <c r="J87" s="63" t="s">
@@ -14105,13 +14593,13 @@
       <c r="D88" s="95"/>
       <c r="E88" s="95"/>
       <c r="F88" s="32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G88" s="60">
         <v>44369</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I88" s="30"/>
       <c r="J88" s="63" t="s">
@@ -14130,13 +14618,13 @@
       <c r="D89" s="95"/>
       <c r="E89" s="95"/>
       <c r="F89" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G89" s="60">
         <v>44369</v>
       </c>
       <c r="H89" s="84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I89" s="30"/>
       <c r="J89" s="17" t="s">
@@ -14155,13 +14643,13 @@
       <c r="D90" s="95"/>
       <c r="E90" s="95"/>
       <c r="F90" s="32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G90" s="60">
         <v>44369</v>
       </c>
       <c r="H90" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I90" s="30"/>
       <c r="J90" s="63" t="s">
@@ -14180,13 +14668,13 @@
       <c r="D91" s="95"/>
       <c r="E91" s="95"/>
       <c r="F91" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G91" s="60">
         <v>44369</v>
       </c>
       <c r="H91" s="84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I91" s="30"/>
       <c r="J91" s="63" t="s">
@@ -14200,18 +14688,18 @@
       </c>
       <c r="B92" s="72"/>
       <c r="C92" s="37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D92" s="95"/>
       <c r="E92" s="95"/>
       <c r="F92" s="31" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G92" s="60">
         <v>44369</v>
       </c>
       <c r="H92" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I92" s="30"/>
       <c r="J92" s="17" t="s">
@@ -14225,21 +14713,21 @@
       </c>
       <c r="B93" s="72"/>
       <c r="C93" s="37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D93" s="95"/>
       <c r="E93" s="95"/>
       <c r="F93" s="31" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G93" s="60">
         <v>44369</v>
       </c>
       <c r="H93" s="84" t="s">
+        <v>229</v>
+      </c>
+      <c r="I93" s="30" t="s">
         <v>230</v>
-      </c>
-      <c r="I93" s="30" t="s">
-        <v>231</v>
       </c>
       <c r="J93" s="63" t="s">
         <v>145</v>
@@ -14252,21 +14740,21 @@
       </c>
       <c r="B94" s="72"/>
       <c r="C94" s="37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D94" s="96"/>
       <c r="E94" s="96"/>
       <c r="F94" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G94" s="60">
         <v>44369</v>
       </c>
       <c r="H94" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="I94" s="30" t="s">
         <v>230</v>
-      </c>
-      <c r="I94" s="30" t="s">
-        <v>231</v>
       </c>
       <c r="J94" s="63" t="s">
         <v>145</v>
@@ -14278,25 +14766,25 @@
         <v>91</v>
       </c>
       <c r="B95" s="72" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C95" s="37" t="s">
         <v>132</v>
       </c>
       <c r="D95" s="72" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E95" s="37" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F95" s="31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G95" s="60">
         <v>44369</v>
       </c>
       <c r="H95" s="87" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I95" s="30"/>
       <c r="J95" s="17" t="s">
@@ -14309,19 +14797,19 @@
         <v>92</v>
       </c>
       <c r="B96" s="72" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C96" s="37" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D96" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="E96" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="E96" s="37" t="s">
-        <v>244</v>
-      </c>
       <c r="F96" s="37" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G96" s="88"/>
       <c r="H96" s="12"/>
@@ -14338,13 +14826,13 @@
         <v>59</v>
       </c>
       <c r="D97" s="72" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E97" s="37" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F97" s="37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G97" s="88"/>
       <c r="H97" s="87"/>
@@ -14360,16 +14848,16 @@
         <v>55</v>
       </c>
       <c r="C98" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D98" s="91" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E98" s="91" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F98" s="37" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G98" s="88"/>
       <c r="H98" s="12"/>
@@ -14385,10 +14873,10 @@
       <c r="C99" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D99" s="101"/>
+      <c r="D99" s="117"/>
       <c r="E99" s="92"/>
       <c r="F99" s="37" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G99" s="88"/>
       <c r="H99" s="87"/>
@@ -14404,10 +14892,10 @@
       <c r="C100" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D100" s="101"/>
+      <c r="D100" s="117"/>
       <c r="E100" s="92"/>
       <c r="F100" s="37" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G100" s="88"/>
       <c r="H100" s="12"/>
@@ -14423,10 +14911,10 @@
       <c r="C101" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D101" s="101"/>
+      <c r="D101" s="117"/>
       <c r="E101" s="92"/>
       <c r="F101" s="37" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G101" s="88"/>
       <c r="H101" s="87"/>
@@ -14442,10 +14930,10 @@
       <c r="C102" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D102" s="101"/>
+      <c r="D102" s="117"/>
       <c r="E102" s="92"/>
       <c r="F102" s="37" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G102" s="88"/>
       <c r="H102" s="12"/>
@@ -14461,10 +14949,10 @@
       <c r="C103" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D103" s="101"/>
+      <c r="D103" s="117"/>
       <c r="E103" s="92"/>
       <c r="F103" s="37" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G103" s="88"/>
       <c r="H103" s="87"/>
@@ -14480,10 +14968,10 @@
       <c r="C104" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D104" s="101"/>
+      <c r="D104" s="117"/>
       <c r="E104" s="92"/>
       <c r="F104" s="37" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G104" s="88"/>
       <c r="H104" s="12"/>
@@ -14499,10 +14987,10 @@
       <c r="C105" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D105" s="101"/>
+      <c r="D105" s="117"/>
       <c r="E105" s="92"/>
       <c r="F105" s="37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G105" s="88"/>
       <c r="H105" s="87"/>
@@ -14516,12 +15004,12 @@
       </c>
       <c r="B106" s="72"/>
       <c r="C106" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="D106" s="101"/>
+        <v>152</v>
+      </c>
+      <c r="D106" s="117"/>
       <c r="E106" s="92"/>
       <c r="F106" s="37" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G106" s="88"/>
       <c r="H106" s="12"/>
@@ -14535,12 +15023,12 @@
       </c>
       <c r="B107" s="72"/>
       <c r="C107" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="D107" s="101"/>
+        <v>153</v>
+      </c>
+      <c r="D107" s="117"/>
       <c r="E107" s="92"/>
       <c r="F107" s="37" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G107" s="88"/>
       <c r="H107" s="87"/>
@@ -14554,12 +15042,12 @@
       </c>
       <c r="B108" s="72"/>
       <c r="C108" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="D108" s="102"/>
+        <v>154</v>
+      </c>
+      <c r="D108" s="118"/>
       <c r="E108" s="93"/>
       <c r="F108" s="37" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G108" s="88"/>
       <c r="H108" s="12"/>
@@ -14572,19 +15060,19 @@
         <v>105</v>
       </c>
       <c r="B109" s="72" t="s">
+        <v>246</v>
+      </c>
+      <c r="C109" s="37" t="s">
         <v>247</v>
       </c>
-      <c r="C109" s="37" t="s">
-        <v>248</v>
-      </c>
       <c r="D109" s="86" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E109" s="37" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F109" s="37" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G109" s="88"/>
       <c r="H109" s="87"/>
@@ -14598,16 +15086,16 @@
       </c>
       <c r="B110" s="72"/>
       <c r="C110" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D110" s="86" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E110" s="37" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F110" s="37" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G110" s="88"/>
       <c r="H110" s="12"/>
@@ -14620,19 +15108,19 @@
         <v>107</v>
       </c>
       <c r="B111" s="72" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C111" s="37" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D111" s="72" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E111" s="37" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F111" s="37" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G111" s="88"/>
       <c r="H111" s="87"/>
@@ -14649,13 +15137,13 @@
         <v>83</v>
       </c>
       <c r="D112" s="72" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E112" s="37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F112" s="37" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G112" s="88"/>
       <c r="H112" s="12"/>
@@ -14668,19 +15156,19 @@
         <v>109</v>
       </c>
       <c r="B113" s="72" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C113" s="37" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D113" s="72" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E113" s="37" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F113" s="37" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G113" s="88"/>
       <c r="H113" s="87"/>
@@ -15353,6 +15841,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D98:D108"/>
+    <mergeCell ref="E98:E108"/>
+    <mergeCell ref="D79:D94"/>
+    <mergeCell ref="D42:D53"/>
+    <mergeCell ref="E42:E53"/>
+    <mergeCell ref="E66:E77"/>
+    <mergeCell ref="E79:E94"/>
+    <mergeCell ref="D66:D77"/>
     <mergeCell ref="F66:F77"/>
     <mergeCell ref="D54:D65"/>
     <mergeCell ref="E54:E65"/>
@@ -15367,14 +15863,6 @@
     <mergeCell ref="D20:D31"/>
     <mergeCell ref="D32:D41"/>
     <mergeCell ref="F42:F53"/>
-    <mergeCell ref="D98:D108"/>
-    <mergeCell ref="E98:E108"/>
-    <mergeCell ref="D79:D94"/>
-    <mergeCell ref="D42:D53"/>
-    <mergeCell ref="E42:E53"/>
-    <mergeCell ref="E66:E77"/>
-    <mergeCell ref="E79:E94"/>
-    <mergeCell ref="D66:D77"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/testcase_account_ver3.xlsx
+++ b/testcase_account_ver3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\7-Programming-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9585D786-787D-40C1-85BC-A8680726FF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E36AFBE-9FA1-46B9-B415-25374708BADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="373">
   <si>
     <t>作成者</t>
   </si>
@@ -6979,40 +6979,6 @@
     <t>アカウント削除確認画面で「削除する」ボタンを押す。</t>
   </si>
   <si>
-    <t>PHP MyAdminの登録の際にエラーが発生した場合、エラーが発生したため登録できませんでした。と画面の真ん中に表示させる。</t>
-    <rPh sb="12" eb="14">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>アカウント更新完了画面（エラー動作）</t>
     <rPh sb="5" eb="7">
       <t>コウシン</t>
@@ -7060,6 +7026,68 @@
     </rPh>
     <rPh sb="27" eb="29">
       <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PHP MyAdminの登録の際にエラーが発生した場合、「エラーが発生したためアカウント更新できません。」と赤文字で画面に表示させる。</t>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="54" eb="57">
+      <t>アカモジ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PHP MyAdminの登録の際にエラーが発生した場合、「エラーが発生したため削除できません。」と赤文字で画面に表示させる。</t>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="49" eb="52">
+      <t>アカモジ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -7682,6 +7710,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7699,15 +7736,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7730,10 +7758,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7759,15 +7796,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -8121,8 +8149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M173"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E64" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J56" sqref="J56"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A147" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92:A164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -8487,7 +8515,7 @@
       <c r="F12" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="94" t="s">
+      <c r="G12" s="97" t="s">
         <v>107</v>
       </c>
       <c r="H12" s="68">
@@ -8517,7 +8545,7 @@
       <c r="F13" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="95"/>
+      <c r="G13" s="98"/>
       <c r="H13" s="60">
         <v>44354</v>
       </c>
@@ -8545,7 +8573,7 @@
       <c r="F14" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="95"/>
+      <c r="G14" s="98"/>
       <c r="H14" s="60">
         <v>44354</v>
       </c>
@@ -8573,7 +8601,7 @@
       <c r="F15" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="95"/>
+      <c r="G15" s="98"/>
       <c r="H15" s="68">
         <v>44354</v>
       </c>
@@ -8601,7 +8629,7 @@
       <c r="F16" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="95"/>
+      <c r="G16" s="98"/>
       <c r="H16" s="60">
         <v>44354</v>
       </c>
@@ -8629,7 +8657,7 @@
       <c r="F17" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="95"/>
+      <c r="G17" s="98"/>
       <c r="H17" s="60">
         <v>44354</v>
       </c>
@@ -8657,7 +8685,7 @@
       <c r="F18" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="95"/>
+      <c r="G18" s="98"/>
       <c r="H18" s="68">
         <v>44354</v>
       </c>
@@ -8685,7 +8713,7 @@
       <c r="F19" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="95"/>
+      <c r="G19" s="98"/>
       <c r="H19" s="60">
         <v>44354</v>
       </c>
@@ -8713,7 +8741,7 @@
       <c r="F20" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="95"/>
+      <c r="G20" s="98"/>
       <c r="H20" s="60">
         <v>44354</v>
       </c>
@@ -8741,7 +8769,7 @@
       <c r="F21" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="95"/>
+      <c r="G21" s="98"/>
       <c r="H21" s="68">
         <v>44354</v>
       </c>
@@ -8769,7 +8797,7 @@
       <c r="F22" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="95"/>
+      <c r="G22" s="98"/>
       <c r="H22" s="60">
         <v>44354</v>
       </c>
@@ -8797,7 +8825,7 @@
       <c r="F23" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="96"/>
+      <c r="G23" s="99"/>
       <c r="H23" s="60">
         <v>44354</v>
       </c>
@@ -9255,7 +9283,7 @@
       <c r="F38" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="G38" s="91" t="s">
+      <c r="G38" s="94" t="s">
         <v>110</v>
       </c>
       <c r="H38" s="68">
@@ -9285,7 +9313,7 @@
       <c r="F39" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="G39" s="92"/>
+      <c r="G39" s="95"/>
       <c r="H39" s="68">
         <v>44354</v>
       </c>
@@ -9313,7 +9341,7 @@
       <c r="F40" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="G40" s="92"/>
+      <c r="G40" s="95"/>
       <c r="H40" s="68">
         <v>44354</v>
       </c>
@@ -9341,7 +9369,7 @@
       <c r="F41" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="G41" s="92"/>
+      <c r="G41" s="95"/>
       <c r="H41" s="68">
         <v>44354</v>
       </c>
@@ -9369,7 +9397,7 @@
       <c r="F42" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="G42" s="93"/>
+      <c r="G42" s="96"/>
       <c r="H42" s="68">
         <v>44354</v>
       </c>
@@ -9521,7 +9549,7 @@
       <c r="F47" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="G47" s="91" t="s">
+      <c r="G47" s="94" t="s">
         <v>110</v>
       </c>
       <c r="H47" s="68">
@@ -9551,7 +9579,7 @@
       <c r="F48" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="G48" s="93"/>
+      <c r="G48" s="96"/>
       <c r="H48" s="68">
         <v>44354</v>
       </c>
@@ -9809,7 +9837,7 @@
         <v>6</v>
       </c>
       <c r="J56" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K56" s="39" t="s">
         <v>148</v>
@@ -9832,7 +9860,7 @@
       <c r="E57" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F57" s="94" t="s">
+      <c r="F57" s="97" t="s">
         <v>234</v>
       </c>
       <c r="G57" s="32" t="s">
@@ -9864,7 +9892,7 @@
       <c r="E58" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F58" s="95"/>
+      <c r="F58" s="98"/>
       <c r="G58" s="32" t="s">
         <v>235</v>
       </c>
@@ -9894,7 +9922,7 @@
       <c r="E59" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="F59" s="95"/>
+      <c r="F59" s="98"/>
       <c r="G59" s="37" t="s">
         <v>262</v>
       </c>
@@ -9920,7 +9948,7 @@
         <v>16</v>
       </c>
       <c r="E60" s="105"/>
-      <c r="F60" s="95"/>
+      <c r="F60" s="98"/>
       <c r="G60" s="37" t="s">
         <v>263</v>
       </c>
@@ -9946,7 +9974,7 @@
         <v>17</v>
       </c>
       <c r="E61" s="105"/>
-      <c r="F61" s="95"/>
+      <c r="F61" s="98"/>
       <c r="G61" s="37" t="s">
         <v>264</v>
       </c>
@@ -9972,7 +10000,7 @@
         <v>18</v>
       </c>
       <c r="E62" s="105"/>
-      <c r="F62" s="95"/>
+      <c r="F62" s="98"/>
       <c r="G62" s="37" t="s">
         <v>265</v>
       </c>
@@ -9998,7 +10026,7 @@
         <v>19</v>
       </c>
       <c r="E63" s="105"/>
-      <c r="F63" s="95"/>
+      <c r="F63" s="98"/>
       <c r="G63" s="37" t="s">
         <v>266</v>
       </c>
@@ -10024,7 +10052,7 @@
         <v>20</v>
       </c>
       <c r="E64" s="105"/>
-      <c r="F64" s="95"/>
+      <c r="F64" s="98"/>
       <c r="G64" s="37" t="s">
         <v>267</v>
       </c>
@@ -10050,7 +10078,7 @@
         <v>22</v>
       </c>
       <c r="E65" s="105"/>
-      <c r="F65" s="95"/>
+      <c r="F65" s="98"/>
       <c r="G65" s="31" t="s">
         <v>274</v>
       </c>
@@ -10076,7 +10104,7 @@
         <v>27</v>
       </c>
       <c r="E66" s="105"/>
-      <c r="F66" s="95"/>
+      <c r="F66" s="98"/>
       <c r="G66" s="31" t="s">
         <v>275</v>
       </c>
@@ -10102,7 +10130,7 @@
         <v>152</v>
       </c>
       <c r="E67" s="105"/>
-      <c r="F67" s="95"/>
+      <c r="F67" s="98"/>
       <c r="G67" s="31" t="s">
         <v>276</v>
       </c>
@@ -10128,7 +10156,7 @@
         <v>153</v>
       </c>
       <c r="E68" s="105"/>
-      <c r="F68" s="95"/>
+      <c r="F68" s="98"/>
       <c r="G68" s="31" t="s">
         <v>277</v>
       </c>
@@ -10154,7 +10182,7 @@
         <v>154</v>
       </c>
       <c r="E69" s="105"/>
-      <c r="F69" s="95"/>
+      <c r="F69" s="98"/>
       <c r="G69" s="31" t="s">
         <v>277</v>
       </c>
@@ -10180,7 +10208,7 @@
         <v>247</v>
       </c>
       <c r="E70" s="105"/>
-      <c r="F70" s="95"/>
+      <c r="F70" s="98"/>
       <c r="G70" s="31" t="s">
         <v>272</v>
       </c>
@@ -10206,7 +10234,7 @@
         <v>248</v>
       </c>
       <c r="E71" s="106"/>
-      <c r="F71" s="96"/>
+      <c r="F71" s="99"/>
       <c r="G71" s="31" t="s">
         <v>273</v>
       </c>
@@ -10244,7 +10272,9 @@
       <c r="G72" s="31" t="s">
         <v>280</v>
       </c>
-      <c r="H72" s="68"/>
+      <c r="H72" s="68">
+        <v>44428</v>
+      </c>
       <c r="I72" s="12"/>
       <c r="J72" s="30"/>
       <c r="K72" s="39"/>
@@ -10261,16 +10291,18 @@
       <c r="D73" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E73" s="97" t="s">
+      <c r="E73" s="107" t="s">
         <v>55</v>
       </c>
-      <c r="F73" s="91" t="s">
+      <c r="F73" s="94" t="s">
         <v>279</v>
       </c>
       <c r="G73" s="31" t="s">
         <v>281</v>
       </c>
-      <c r="H73" s="12"/>
+      <c r="H73" s="68">
+        <v>44428</v>
+      </c>
       <c r="I73" s="12"/>
       <c r="J73" s="30"/>
       <c r="K73" s="39"/>
@@ -10285,8 +10317,8 @@
       <c r="D74" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E74" s="98"/>
-      <c r="F74" s="92"/>
+      <c r="E74" s="108"/>
+      <c r="F74" s="95"/>
       <c r="G74" s="31" t="s">
         <v>282</v>
       </c>
@@ -10305,8 +10337,8 @@
       <c r="D75" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="98"/>
-      <c r="F75" s="92"/>
+      <c r="E75" s="108"/>
+      <c r="F75" s="95"/>
       <c r="G75" s="31" t="s">
         <v>283</v>
       </c>
@@ -10325,8 +10357,8 @@
       <c r="D76" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E76" s="98"/>
-      <c r="F76" s="92"/>
+      <c r="E76" s="108"/>
+      <c r="F76" s="95"/>
       <c r="G76" s="31" t="s">
         <v>284</v>
       </c>
@@ -10345,8 +10377,8 @@
       <c r="D77" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E77" s="98"/>
-      <c r="F77" s="92"/>
+      <c r="E77" s="108"/>
+      <c r="F77" s="95"/>
       <c r="G77" s="31" t="s">
         <v>285</v>
       </c>
@@ -10365,8 +10397,8 @@
       <c r="D78" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E78" s="98"/>
-      <c r="F78" s="92"/>
+      <c r="E78" s="108"/>
+      <c r="F78" s="95"/>
       <c r="G78" s="31" t="s">
         <v>286</v>
       </c>
@@ -10385,8 +10417,8 @@
       <c r="D79" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E79" s="98"/>
-      <c r="F79" s="92"/>
+      <c r="E79" s="108"/>
+      <c r="F79" s="95"/>
       <c r="G79" s="31" t="s">
         <v>291</v>
       </c>
@@ -10405,8 +10437,8 @@
       <c r="D80" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E80" s="98"/>
-      <c r="F80" s="92"/>
+      <c r="E80" s="108"/>
+      <c r="F80" s="95"/>
       <c r="G80" s="31" t="s">
         <v>287</v>
       </c>
@@ -10425,8 +10457,8 @@
       <c r="D81" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E81" s="98"/>
-      <c r="F81" s="92"/>
+      <c r="E81" s="108"/>
+      <c r="F81" s="95"/>
       <c r="G81" s="31" t="s">
         <v>292</v>
       </c>
@@ -10445,8 +10477,8 @@
       <c r="D82" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E82" s="98"/>
-      <c r="F82" s="92"/>
+      <c r="E82" s="108"/>
+      <c r="F82" s="95"/>
       <c r="G82" s="31" t="s">
         <v>288</v>
       </c>
@@ -10465,8 +10497,8 @@
       <c r="D83" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E83" s="98"/>
-      <c r="F83" s="92"/>
+      <c r="E83" s="108"/>
+      <c r="F83" s="95"/>
       <c r="G83" s="31" t="s">
         <v>289</v>
       </c>
@@ -10485,8 +10517,8 @@
       <c r="D84" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E84" s="99"/>
-      <c r="F84" s="93"/>
+      <c r="E84" s="109"/>
+      <c r="F84" s="96"/>
       <c r="G84" s="31" t="s">
         <v>290</v>
       </c>
@@ -10533,10 +10565,10 @@
       <c r="D86" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E86" s="97" t="s">
+      <c r="E86" s="107" t="s">
         <v>55</v>
       </c>
-      <c r="F86" s="91" t="s">
+      <c r="F86" s="94" t="s">
         <v>303</v>
       </c>
       <c r="G86" s="31" t="s">
@@ -10557,8 +10589,8 @@
       <c r="D87" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="E87" s="98"/>
-      <c r="F87" s="92"/>
+      <c r="E87" s="108"/>
+      <c r="F87" s="95"/>
       <c r="G87" s="31" t="s">
         <v>307</v>
       </c>
@@ -10577,8 +10609,8 @@
       <c r="D88" s="25" t="s">
         <v>296</v>
       </c>
-      <c r="E88" s="98"/>
-      <c r="F88" s="92"/>
+      <c r="E88" s="108"/>
+      <c r="F88" s="95"/>
       <c r="G88" s="31" t="s">
         <v>306</v>
       </c>
@@ -10597,8 +10629,8 @@
       <c r="D89" s="25" t="s">
         <v>297</v>
       </c>
-      <c r="E89" s="99"/>
-      <c r="F89" s="93"/>
+      <c r="E89" s="109"/>
+      <c r="F89" s="96"/>
       <c r="G89" s="31" t="s">
         <v>308</v>
       </c>
@@ -10621,10 +10653,10 @@
       <c r="D90" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="E90" s="97" t="s">
+      <c r="E90" s="107" t="s">
         <v>55</v>
       </c>
-      <c r="F90" s="94" t="s">
+      <c r="F90" s="97" t="s">
         <v>302</v>
       </c>
       <c r="G90" s="30" t="s">
@@ -10647,8 +10679,8 @@
       <c r="D91" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="E91" s="98"/>
-      <c r="F91" s="95"/>
+      <c r="E91" s="108"/>
+      <c r="F91" s="98"/>
       <c r="G91" s="32" t="s">
         <v>300</v>
       </c>
@@ -10667,8 +10699,8 @@
       <c r="D92" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="E92" s="99"/>
-      <c r="F92" s="95"/>
+      <c r="E92" s="109"/>
+      <c r="F92" s="98"/>
       <c r="G92" s="32" t="s">
         <v>304</v>
       </c>
@@ -10694,7 +10726,7 @@
       <c r="E93" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F93" s="95"/>
+      <c r="F93" s="98"/>
       <c r="G93" s="32" t="s">
         <v>359</v>
       </c>
@@ -10716,7 +10748,7 @@
       <c r="E94" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F94" s="96"/>
+      <c r="F94" s="99"/>
       <c r="G94" s="32" t="s">
         <v>360</v>
       </c>
@@ -10727,7 +10759,9 @@
       <c r="L94" s="11"/>
     </row>
     <row r="95" spans="1:12" ht="47.25">
-      <c r="A95" s="12"/>
+      <c r="A95" s="12">
+        <v>90</v>
+      </c>
       <c r="B95" s="48"/>
       <c r="C95" s="37" t="s">
         <v>366</v>
@@ -10742,7 +10776,7 @@
         <v>367</v>
       </c>
       <c r="G95" s="32" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="H95" s="12"/>
       <c r="I95" s="12"/>
@@ -10752,7 +10786,7 @@
     </row>
     <row r="96" spans="1:12" ht="31.5">
       <c r="A96" s="12">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B96" s="48" t="s">
         <v>309</v>
@@ -10780,7 +10814,7 @@
     </row>
     <row r="97" spans="1:12" ht="47.25">
       <c r="A97" s="12">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B97" s="48"/>
       <c r="C97" s="25" t="s">
@@ -10789,10 +10823,10 @@
       <c r="D97" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E97" s="97" t="s">
+      <c r="E97" s="107" t="s">
         <v>55</v>
       </c>
-      <c r="F97" s="91" t="s">
+      <c r="F97" s="94" t="s">
         <v>310</v>
       </c>
       <c r="G97" s="31" t="s">
@@ -10806,15 +10840,15 @@
     </row>
     <row r="98" spans="1:12" ht="47.25">
       <c r="A98" s="12">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B98" s="48"/>
       <c r="C98" s="25"/>
       <c r="D98" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E98" s="98"/>
-      <c r="F98" s="92"/>
+      <c r="E98" s="108"/>
+      <c r="F98" s="95"/>
       <c r="G98" s="31" t="s">
         <v>315</v>
       </c>
@@ -10826,15 +10860,15 @@
     </row>
     <row r="99" spans="1:12" ht="47.25">
       <c r="A99" s="12">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B99" s="48"/>
       <c r="C99" s="25"/>
       <c r="D99" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E99" s="98"/>
-      <c r="F99" s="92"/>
+      <c r="E99" s="108"/>
+      <c r="F99" s="95"/>
       <c r="G99" s="31" t="s">
         <v>314</v>
       </c>
@@ -10846,15 +10880,15 @@
     </row>
     <row r="100" spans="1:12" ht="47.25">
       <c r="A100" s="12">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B100" s="48"/>
       <c r="C100" s="25"/>
       <c r="D100" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E100" s="98"/>
-      <c r="F100" s="92"/>
+      <c r="E100" s="108"/>
+      <c r="F100" s="95"/>
       <c r="G100" s="31" t="s">
         <v>313</v>
       </c>
@@ -10866,15 +10900,15 @@
     </row>
     <row r="101" spans="1:12" ht="47.25">
       <c r="A101" s="12">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B101" s="48"/>
       <c r="C101" s="25"/>
       <c r="D101" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E101" s="98"/>
-      <c r="F101" s="92"/>
+      <c r="E101" s="108"/>
+      <c r="F101" s="95"/>
       <c r="G101" s="31" t="s">
         <v>316</v>
       </c>
@@ -10886,15 +10920,15 @@
     </row>
     <row r="102" spans="1:12" ht="63">
       <c r="A102" s="12">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B102" s="48"/>
       <c r="C102" s="25"/>
       <c r="D102" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E102" s="98"/>
-      <c r="F102" s="92"/>
+      <c r="E102" s="108"/>
+      <c r="F102" s="95"/>
       <c r="G102" s="31" t="s">
         <v>317</v>
       </c>
@@ -10906,15 +10940,15 @@
     </row>
     <row r="103" spans="1:12" ht="47.25">
       <c r="A103" s="12">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B103" s="48"/>
       <c r="C103" s="25"/>
       <c r="D103" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E103" s="98"/>
-      <c r="F103" s="92"/>
+      <c r="E103" s="108"/>
+      <c r="F103" s="95"/>
       <c r="G103" s="31" t="s">
         <v>324</v>
       </c>
@@ -10926,15 +10960,15 @@
     </row>
     <row r="104" spans="1:12" ht="47.25">
       <c r="A104" s="12">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B104" s="48"/>
       <c r="C104" s="25"/>
       <c r="D104" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E104" s="98"/>
-      <c r="F104" s="92"/>
+      <c r="E104" s="108"/>
+      <c r="F104" s="95"/>
       <c r="G104" s="31" t="s">
         <v>319</v>
       </c>
@@ -10946,15 +10980,15 @@
     </row>
     <row r="105" spans="1:12" ht="47.25">
       <c r="A105" s="12">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B105" s="48"/>
       <c r="C105" s="25"/>
       <c r="D105" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E105" s="98"/>
-      <c r="F105" s="92"/>
+      <c r="E105" s="108"/>
+      <c r="F105" s="95"/>
       <c r="G105" s="31" t="s">
         <v>320</v>
       </c>
@@ -10966,15 +11000,15 @@
     </row>
     <row r="106" spans="1:12" ht="47.25">
       <c r="A106" s="12">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B106" s="48"/>
       <c r="C106" s="25"/>
       <c r="D106" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E106" s="98"/>
-      <c r="F106" s="92"/>
+      <c r="E106" s="108"/>
+      <c r="F106" s="95"/>
       <c r="G106" s="31" t="s">
         <v>321</v>
       </c>
@@ -10986,15 +11020,15 @@
     </row>
     <row r="107" spans="1:12" ht="47.25">
       <c r="A107" s="12">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B107" s="48"/>
       <c r="C107" s="25"/>
       <c r="D107" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E107" s="98"/>
-      <c r="F107" s="92"/>
+      <c r="E107" s="108"/>
+      <c r="F107" s="95"/>
       <c r="G107" s="31" t="s">
         <v>322</v>
       </c>
@@ -11006,15 +11040,15 @@
     </row>
     <row r="108" spans="1:12" ht="47.25">
       <c r="A108" s="12">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B108" s="48"/>
       <c r="C108" s="25"/>
       <c r="D108" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E108" s="99"/>
-      <c r="F108" s="93"/>
+      <c r="E108" s="109"/>
+      <c r="F108" s="96"/>
       <c r="G108" s="31" t="s">
         <v>323</v>
       </c>
@@ -11026,7 +11060,7 @@
     </row>
     <row r="109" spans="1:12" ht="31.5">
       <c r="A109" s="12">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B109" s="48"/>
       <c r="C109" s="25"/>
@@ -11050,7 +11084,7 @@
     </row>
     <row r="110" spans="1:12" ht="47.25">
       <c r="A110" s="12">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B110" s="48"/>
       <c r="C110" s="25" t="s">
@@ -11065,7 +11099,7 @@
       <c r="F110" s="31" t="s">
         <v>328</v>
       </c>
-      <c r="G110" s="94" t="s">
+      <c r="G110" s="97" t="s">
         <v>107</v>
       </c>
       <c r="H110" s="12"/>
@@ -11076,7 +11110,7 @@
     </row>
     <row r="111" spans="1:12" ht="47.25">
       <c r="A111" s="12">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B111" s="48"/>
       <c r="C111" s="25"/>
@@ -11089,7 +11123,7 @@
       <c r="F111" s="31" t="s">
         <v>329</v>
       </c>
-      <c r="G111" s="95"/>
+      <c r="G111" s="98"/>
       <c r="H111" s="12"/>
       <c r="I111" s="12"/>
       <c r="J111" s="30"/>
@@ -11098,7 +11132,7 @@
     </row>
     <row r="112" spans="1:12" ht="47.25">
       <c r="A112" s="12">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B112" s="48"/>
       <c r="C112" s="25"/>
@@ -11111,7 +11145,7 @@
       <c r="F112" s="31" t="s">
         <v>330</v>
       </c>
-      <c r="G112" s="95"/>
+      <c r="G112" s="98"/>
       <c r="H112" s="12"/>
       <c r="I112" s="12"/>
       <c r="J112" s="30"/>
@@ -11120,7 +11154,7 @@
     </row>
     <row r="113" spans="1:12" ht="47.25">
       <c r="A113" s="12">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B113" s="48"/>
       <c r="C113" s="25"/>
@@ -11133,7 +11167,7 @@
       <c r="F113" s="31" t="s">
         <v>330</v>
       </c>
-      <c r="G113" s="95"/>
+      <c r="G113" s="98"/>
       <c r="H113" s="12"/>
       <c r="I113" s="12"/>
       <c r="J113" s="30"/>
@@ -11142,7 +11176,7 @@
     </row>
     <row r="114" spans="1:12" ht="63">
       <c r="A114" s="12">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B114" s="48"/>
       <c r="C114" s="25"/>
@@ -11155,7 +11189,7 @@
       <c r="F114" s="31" t="s">
         <v>331</v>
       </c>
-      <c r="G114" s="95"/>
+      <c r="G114" s="98"/>
       <c r="H114" s="12"/>
       <c r="I114" s="12"/>
       <c r="J114" s="30"/>
@@ -11164,7 +11198,7 @@
     </row>
     <row r="115" spans="1:12" ht="63">
       <c r="A115" s="12">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B115" s="48"/>
       <c r="C115" s="25"/>
@@ -11177,7 +11211,7 @@
       <c r="F115" s="31" t="s">
         <v>347</v>
       </c>
-      <c r="G115" s="95"/>
+      <c r="G115" s="98"/>
       <c r="H115" s="12"/>
       <c r="I115" s="12"/>
       <c r="J115" s="30"/>
@@ -11186,7 +11220,7 @@
     </row>
     <row r="116" spans="1:12" ht="47.25">
       <c r="A116" s="12">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B116" s="48"/>
       <c r="C116" s="25"/>
@@ -11199,7 +11233,7 @@
       <c r="F116" s="31" t="s">
         <v>351</v>
       </c>
-      <c r="G116" s="95"/>
+      <c r="G116" s="98"/>
       <c r="H116" s="12"/>
       <c r="I116" s="12"/>
       <c r="J116" s="30"/>
@@ -11208,7 +11242,7 @@
     </row>
     <row r="117" spans="1:12" ht="47.25">
       <c r="A117" s="12">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B117" s="48"/>
       <c r="C117" s="25"/>
@@ -11221,7 +11255,7 @@
       <c r="F117" s="31" t="s">
         <v>332</v>
       </c>
-      <c r="G117" s="95"/>
+      <c r="G117" s="98"/>
       <c r="H117" s="12"/>
       <c r="I117" s="12"/>
       <c r="J117" s="30"/>
@@ -11230,7 +11264,7 @@
     </row>
     <row r="118" spans="1:12" ht="47.25">
       <c r="A118" s="12">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B118" s="48"/>
       <c r="C118" s="25"/>
@@ -11243,7 +11277,7 @@
       <c r="F118" s="31" t="s">
         <v>327</v>
       </c>
-      <c r="G118" s="95"/>
+      <c r="G118" s="98"/>
       <c r="H118" s="12"/>
       <c r="I118" s="12"/>
       <c r="J118" s="30"/>
@@ -11252,7 +11286,7 @@
     </row>
     <row r="119" spans="1:12" ht="63">
       <c r="A119" s="12">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B119" s="48"/>
       <c r="C119" s="25"/>
@@ -11265,7 +11299,7 @@
       <c r="F119" s="31" t="s">
         <v>333</v>
       </c>
-      <c r="G119" s="95"/>
+      <c r="G119" s="98"/>
       <c r="H119" s="12"/>
       <c r="I119" s="12"/>
       <c r="J119" s="30"/>
@@ -11274,7 +11308,7 @@
     </row>
     <row r="120" spans="1:12" ht="63">
       <c r="A120" s="12">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B120" s="48"/>
       <c r="C120" s="25"/>
@@ -11287,7 +11321,7 @@
       <c r="F120" s="31" t="s">
         <v>334</v>
       </c>
-      <c r="G120" s="95"/>
+      <c r="G120" s="98"/>
       <c r="H120" s="12"/>
       <c r="I120" s="12"/>
       <c r="J120" s="30"/>
@@ -11296,7 +11330,7 @@
     </row>
     <row r="121" spans="1:12" ht="47.25">
       <c r="A121" s="12">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B121" s="48"/>
       <c r="C121" s="25"/>
@@ -11309,7 +11343,7 @@
       <c r="F121" s="31" t="s">
         <v>326</v>
       </c>
-      <c r="G121" s="96"/>
+      <c r="G121" s="99"/>
       <c r="H121" s="12"/>
       <c r="I121" s="12"/>
       <c r="J121" s="30"/>
@@ -11318,7 +11352,7 @@
     </row>
     <row r="122" spans="1:12" ht="94.5">
       <c r="A122" s="12">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B122" s="48"/>
       <c r="C122" s="25" t="s">
@@ -11344,7 +11378,7 @@
     </row>
     <row r="123" spans="1:12" ht="94.5">
       <c r="A123" s="12">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B123" s="48"/>
       <c r="C123" s="25"/>
@@ -11368,7 +11402,7 @@
     </row>
     <row r="124" spans="1:12" ht="94.5">
       <c r="A124" s="12">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B124" s="48"/>
       <c r="C124" s="25"/>
@@ -11392,7 +11426,7 @@
     </row>
     <row r="125" spans="1:12" ht="94.5">
       <c r="A125" s="12">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B125" s="48"/>
       <c r="C125" s="25"/>
@@ -11416,7 +11450,7 @@
     </row>
     <row r="126" spans="1:12" ht="126">
       <c r="A126" s="12">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B126" s="48"/>
       <c r="C126" s="25"/>
@@ -11440,7 +11474,7 @@
     </row>
     <row r="127" spans="1:12" ht="110.25">
       <c r="A127" s="12">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B127" s="48"/>
       <c r="C127" s="25"/>
@@ -11464,7 +11498,7 @@
     </row>
     <row r="128" spans="1:12" ht="94.5">
       <c r="A128" s="12">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B128" s="48"/>
       <c r="C128" s="25"/>
@@ -11488,7 +11522,7 @@
     </row>
     <row r="129" spans="1:12" ht="47.25">
       <c r="A129" s="12">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B129" s="48"/>
       <c r="C129" s="25"/>
@@ -11512,7 +11546,7 @@
     </row>
     <row r="130" spans="1:12" ht="110.25">
       <c r="A130" s="12">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B130" s="48"/>
       <c r="C130" s="25"/>
@@ -11536,7 +11570,7 @@
     </row>
     <row r="131" spans="1:12" ht="110.25">
       <c r="A131" s="12">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B131" s="48"/>
       <c r="C131" s="25"/>
@@ -11560,7 +11594,7 @@
     </row>
     <row r="132" spans="1:12" ht="31.5">
       <c r="A132" s="12">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B132" s="48" t="s">
         <v>348</v>
@@ -11574,7 +11608,7 @@
       <c r="E132" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F132" s="91" t="s">
+      <c r="F132" s="94" t="s">
         <v>349</v>
       </c>
       <c r="G132" s="31" t="s">
@@ -11588,7 +11622,7 @@
     </row>
     <row r="133" spans="1:12" ht="31.5">
       <c r="A133" s="12">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B133" s="48"/>
       <c r="C133" s="25"/>
@@ -11598,7 +11632,7 @@
       <c r="E133" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F133" s="92"/>
+      <c r="F133" s="95"/>
       <c r="G133" s="32" t="s">
         <v>108</v>
       </c>
@@ -11610,7 +11644,7 @@
     </row>
     <row r="134" spans="1:12" ht="31.5">
       <c r="A134" s="12">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B134" s="48"/>
       <c r="C134" s="25"/>
@@ -11620,7 +11654,7 @@
       <c r="E134" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F134" s="92"/>
+      <c r="F134" s="95"/>
       <c r="G134" s="32" t="s">
         <v>109</v>
       </c>
@@ -11632,7 +11666,7 @@
     </row>
     <row r="135" spans="1:12" ht="31.5">
       <c r="A135" s="12">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B135" s="48"/>
       <c r="C135" s="25"/>
@@ -11642,7 +11676,7 @@
       <c r="E135" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F135" s="92"/>
+      <c r="F135" s="95"/>
       <c r="G135" s="32" t="s">
         <v>112</v>
       </c>
@@ -11654,7 +11688,7 @@
     </row>
     <row r="136" spans="1:12" ht="31.5">
       <c r="A136" s="12">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B136" s="48"/>
       <c r="C136" s="25"/>
@@ -11664,7 +11698,7 @@
       <c r="E136" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F136" s="92"/>
+      <c r="F136" s="95"/>
       <c r="G136" s="32" t="s">
         <v>113</v>
       </c>
@@ -11676,7 +11710,7 @@
     </row>
     <row r="137" spans="1:12" ht="31.5">
       <c r="A137" s="12">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B137" s="48"/>
       <c r="C137" s="25"/>
@@ -11686,7 +11720,7 @@
       <c r="E137" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F137" s="92"/>
+      <c r="F137" s="95"/>
       <c r="G137" s="32" t="s">
         <v>114</v>
       </c>
@@ -11698,7 +11732,7 @@
     </row>
     <row r="138" spans="1:12" ht="31.5">
       <c r="A138" s="12">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B138" s="48"/>
       <c r="C138" s="25"/>
@@ -11708,7 +11742,7 @@
       <c r="E138" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F138" s="92"/>
+      <c r="F138" s="95"/>
       <c r="G138" s="32" t="s">
         <v>111</v>
       </c>
@@ -11720,7 +11754,7 @@
     </row>
     <row r="139" spans="1:12" ht="31.5">
       <c r="A139" s="12">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B139" s="48"/>
       <c r="C139" s="25"/>
@@ -11730,7 +11764,7 @@
       <c r="E139" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F139" s="92"/>
+      <c r="F139" s="95"/>
       <c r="G139" s="32" t="s">
         <v>115</v>
       </c>
@@ -11742,7 +11776,7 @@
     </row>
     <row r="140" spans="1:12" ht="31.5">
       <c r="A140" s="12">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B140" s="48"/>
       <c r="C140" s="25"/>
@@ -11752,7 +11786,7 @@
       <c r="E140" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F140" s="92"/>
+      <c r="F140" s="95"/>
       <c r="G140" s="32" t="s">
         <v>108</v>
       </c>
@@ -11764,7 +11798,7 @@
     </row>
     <row r="141" spans="1:12" ht="31.5">
       <c r="A141" s="12">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B141" s="48"/>
       <c r="C141" s="25"/>
@@ -11774,7 +11808,7 @@
       <c r="E141" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F141" s="92"/>
+      <c r="F141" s="95"/>
       <c r="G141" s="32" t="s">
         <v>117</v>
       </c>
@@ -11786,7 +11820,7 @@
     </row>
     <row r="142" spans="1:12" ht="31.5">
       <c r="A142" s="12">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B142" s="48"/>
       <c r="C142" s="25"/>
@@ -11796,7 +11830,7 @@
       <c r="E142" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F142" s="92"/>
+      <c r="F142" s="95"/>
       <c r="G142" s="32" t="s">
         <v>108</v>
       </c>
@@ -11808,7 +11842,7 @@
     </row>
     <row r="143" spans="1:12" ht="31.5">
       <c r="A143" s="12">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B143" s="48"/>
       <c r="C143" s="25"/>
@@ -11818,7 +11852,7 @@
       <c r="E143" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F143" s="92"/>
+      <c r="F143" s="95"/>
       <c r="G143" s="32" t="s">
         <v>108</v>
       </c>
@@ -11830,7 +11864,7 @@
     </row>
     <row r="144" spans="1:12" ht="31.5">
       <c r="A144" s="12">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B144" s="48"/>
       <c r="C144" s="25"/>
@@ -11840,7 +11874,7 @@
       <c r="E144" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F144" s="92"/>
+      <c r="F144" s="95"/>
       <c r="G144" s="32" t="s">
         <v>116</v>
       </c>
@@ -11852,7 +11886,7 @@
     </row>
     <row r="145" spans="1:12" ht="31.5">
       <c r="A145" s="12">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B145" s="48"/>
       <c r="C145" s="25"/>
@@ -11862,7 +11896,7 @@
       <c r="E145" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F145" s="92"/>
+      <c r="F145" s="95"/>
       <c r="G145" s="31" t="s">
         <v>352</v>
       </c>
@@ -11874,7 +11908,7 @@
     </row>
     <row r="146" spans="1:12" ht="31.5">
       <c r="A146" s="12">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B146" s="48"/>
       <c r="C146" s="25"/>
@@ -11884,7 +11918,7 @@
       <c r="E146" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F146" s="93"/>
+      <c r="F146" s="96"/>
       <c r="G146" s="31" t="s">
         <v>353</v>
       </c>
@@ -11896,7 +11930,7 @@
     </row>
     <row r="147" spans="1:12" ht="31.5">
       <c r="A147" s="12">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B147" s="48" t="s">
         <v>354</v>
@@ -11910,7 +11944,7 @@
       <c r="E147" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F147" s="91" t="s">
+      <c r="F147" s="94" t="s">
         <v>355</v>
       </c>
       <c r="G147" s="31" t="s">
@@ -11924,7 +11958,7 @@
     </row>
     <row r="148" spans="1:12" ht="31.5">
       <c r="A148" s="12">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B148" s="48"/>
       <c r="C148" s="25"/>
@@ -11934,7 +11968,7 @@
       <c r="E148" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F148" s="92"/>
+      <c r="F148" s="95"/>
       <c r="G148" s="31" t="s">
         <v>357</v>
       </c>
@@ -11946,7 +11980,7 @@
     </row>
     <row r="149" spans="1:12" ht="31.5">
       <c r="A149" s="12">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B149" s="48"/>
       <c r="C149" s="25"/>
@@ -11956,7 +11990,7 @@
       <c r="E149" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F149" s="93"/>
+      <c r="F149" s="96"/>
       <c r="G149" s="32" t="s">
         <v>304</v>
       </c>
@@ -11968,7 +12002,7 @@
     </row>
     <row r="150" spans="1:12" ht="47.25" customHeight="1">
       <c r="A150" s="12">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B150" s="48" t="s">
         <v>358</v>
@@ -11979,13 +12013,13 @@
       <c r="D150" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E150" s="119" t="s">
+      <c r="E150" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="F150" s="91" t="s">
+      <c r="F150" s="94" t="s">
         <v>362</v>
       </c>
-      <c r="G150" s="94" t="s">
+      <c r="G150" s="97" t="s">
         <v>363</v>
       </c>
       <c r="H150" s="12"/>
@@ -11996,16 +12030,16 @@
     </row>
     <row r="151" spans="1:12" ht="11.25" customHeight="1">
       <c r="A151" s="12">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B151" s="48"/>
       <c r="C151" s="25"/>
       <c r="D151" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E151" s="107"/>
-      <c r="F151" s="92"/>
-      <c r="G151" s="95"/>
+      <c r="E151" s="92"/>
+      <c r="F151" s="95"/>
+      <c r="G151" s="98"/>
       <c r="H151" s="12"/>
       <c r="I151" s="12"/>
       <c r="J151" s="30"/>
@@ -12014,16 +12048,16 @@
     </row>
     <row r="152" spans="1:12" ht="11.25" customHeight="1">
       <c r="A152" s="12">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B152" s="48"/>
       <c r="C152" s="25"/>
       <c r="D152" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E152" s="107"/>
-      <c r="F152" s="92"/>
-      <c r="G152" s="95"/>
+      <c r="E152" s="92"/>
+      <c r="F152" s="95"/>
+      <c r="G152" s="98"/>
       <c r="H152" s="12"/>
       <c r="I152" s="12"/>
       <c r="J152" s="30"/>
@@ -12032,16 +12066,16 @@
     </row>
     <row r="153" spans="1:12" ht="11.25" customHeight="1">
       <c r="A153" s="12">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B153" s="48"/>
       <c r="C153" s="25"/>
       <c r="D153" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E153" s="107"/>
-      <c r="F153" s="92"/>
-      <c r="G153" s="95"/>
+      <c r="E153" s="92"/>
+      <c r="F153" s="95"/>
+      <c r="G153" s="98"/>
       <c r="H153" s="12"/>
       <c r="I153" s="12"/>
       <c r="J153" s="30"/>
@@ -12050,16 +12084,16 @@
     </row>
     <row r="154" spans="1:12" ht="11.25" customHeight="1">
       <c r="A154" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B154" s="48"/>
       <c r="C154" s="25"/>
       <c r="D154" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E154" s="107"/>
-      <c r="F154" s="92"/>
-      <c r="G154" s="95"/>
+      <c r="E154" s="92"/>
+      <c r="F154" s="95"/>
+      <c r="G154" s="98"/>
       <c r="H154" s="12"/>
       <c r="I154" s="12"/>
       <c r="J154" s="30"/>
@@ -12068,16 +12102,16 @@
     </row>
     <row r="155" spans="1:12" ht="11.25" customHeight="1">
       <c r="A155" s="12">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B155" s="48"/>
       <c r="C155" s="25"/>
       <c r="D155" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E155" s="107"/>
-      <c r="F155" s="92"/>
-      <c r="G155" s="95"/>
+      <c r="E155" s="92"/>
+      <c r="F155" s="95"/>
+      <c r="G155" s="98"/>
       <c r="H155" s="12"/>
       <c r="I155" s="12"/>
       <c r="J155" s="30"/>
@@ -12086,16 +12120,16 @@
     </row>
     <row r="156" spans="1:12" ht="11.25" customHeight="1">
       <c r="A156" s="12">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B156" s="48"/>
       <c r="C156" s="25"/>
       <c r="D156" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E156" s="107"/>
-      <c r="F156" s="92"/>
-      <c r="G156" s="95"/>
+      <c r="E156" s="92"/>
+      <c r="F156" s="95"/>
+      <c r="G156" s="98"/>
       <c r="H156" s="12"/>
       <c r="I156" s="12"/>
       <c r="J156" s="30"/>
@@ -12104,16 +12138,16 @@
     </row>
     <row r="157" spans="1:12" ht="11.25" customHeight="1">
       <c r="A157" s="12">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B157" s="48"/>
       <c r="C157" s="25"/>
       <c r="D157" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E157" s="107"/>
-      <c r="F157" s="92"/>
-      <c r="G157" s="95"/>
+      <c r="E157" s="92"/>
+      <c r="F157" s="95"/>
+      <c r="G157" s="98"/>
       <c r="H157" s="12"/>
       <c r="I157" s="12"/>
       <c r="J157" s="30"/>
@@ -12122,16 +12156,16 @@
     </row>
     <row r="158" spans="1:12" ht="11.25" customHeight="1">
       <c r="A158" s="12">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B158" s="48"/>
       <c r="C158" s="25"/>
       <c r="D158" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E158" s="107"/>
-      <c r="F158" s="92"/>
-      <c r="G158" s="95"/>
+      <c r="E158" s="92"/>
+      <c r="F158" s="95"/>
+      <c r="G158" s="98"/>
       <c r="H158" s="12"/>
       <c r="I158" s="12"/>
       <c r="J158" s="30"/>
@@ -12140,16 +12174,16 @@
     </row>
     <row r="159" spans="1:12" ht="11.25" customHeight="1">
       <c r="A159" s="12">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B159" s="48"/>
       <c r="C159" s="25"/>
       <c r="D159" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E159" s="107"/>
-      <c r="F159" s="92"/>
-      <c r="G159" s="95"/>
+      <c r="E159" s="92"/>
+      <c r="F159" s="95"/>
+      <c r="G159" s="98"/>
       <c r="H159" s="12"/>
       <c r="I159" s="12"/>
       <c r="J159" s="30"/>
@@ -12158,16 +12192,16 @@
     </row>
     <row r="160" spans="1:12" ht="11.25" customHeight="1">
       <c r="A160" s="12">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B160" s="48"/>
       <c r="C160" s="25"/>
       <c r="D160" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E160" s="107"/>
-      <c r="F160" s="92"/>
-      <c r="G160" s="95"/>
+      <c r="E160" s="92"/>
+      <c r="F160" s="95"/>
+      <c r="G160" s="98"/>
       <c r="H160" s="12"/>
       <c r="I160" s="12"/>
       <c r="J160" s="30"/>
@@ -12176,16 +12210,16 @@
     </row>
     <row r="161" spans="1:12" ht="11.25" customHeight="1">
       <c r="A161" s="12">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B161" s="48"/>
       <c r="C161" s="25"/>
       <c r="D161" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="E161" s="107"/>
-      <c r="F161" s="92"/>
-      <c r="G161" s="96"/>
+      <c r="E161" s="92"/>
+      <c r="F161" s="95"/>
+      <c r="G161" s="99"/>
       <c r="H161" s="12"/>
       <c r="I161" s="12"/>
       <c r="J161" s="30"/>
@@ -12194,15 +12228,15 @@
     </row>
     <row r="162" spans="1:12" ht="15.75">
       <c r="A162" s="12">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B162" s="48"/>
       <c r="C162" s="25"/>
       <c r="D162" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="E162" s="107"/>
-      <c r="F162" s="92"/>
+      <c r="E162" s="92"/>
+      <c r="F162" s="95"/>
       <c r="G162" s="31" t="s">
         <v>364</v>
       </c>
@@ -12214,15 +12248,15 @@
     </row>
     <row r="163" spans="1:12" ht="31.5">
       <c r="A163" s="12">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B163" s="48"/>
       <c r="C163" s="25"/>
       <c r="D163" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="E163" s="108"/>
-      <c r="F163" s="93"/>
+      <c r="E163" s="93"/>
+      <c r="F163" s="96"/>
       <c r="G163" s="31" t="s">
         <v>365</v>
       </c>
@@ -12234,11 +12268,11 @@
     </row>
     <row r="164" spans="1:12" ht="47.25">
       <c r="A164" s="12">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B164" s="48"/>
       <c r="C164" s="25" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D164" s="11" t="s">
         <v>136</v>
@@ -12247,10 +12281,10 @@
         <v>55</v>
       </c>
       <c r="F164" s="89" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G164" s="32" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="H164" s="12"/>
       <c r="I164" s="12"/>
@@ -12386,6 +12420,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="F147:F149"/>
+    <mergeCell ref="F90:F94"/>
+    <mergeCell ref="E97:E108"/>
+    <mergeCell ref="F97:F108"/>
     <mergeCell ref="E150:E163"/>
     <mergeCell ref="F150:F163"/>
     <mergeCell ref="G150:G161"/>
@@ -12402,10 +12440,6 @@
     <mergeCell ref="F86:F89"/>
     <mergeCell ref="E90:E92"/>
     <mergeCell ref="F132:F146"/>
-    <mergeCell ref="F147:F149"/>
-    <mergeCell ref="F90:F94"/>
-    <mergeCell ref="E97:E108"/>
-    <mergeCell ref="F97:F108"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -12442,7 +12476,7 @@
         <v>149</v>
       </c>
       <c r="B1" s="101"/>
-      <c r="C1" s="109"/>
+      <c r="C1" s="112"/>
       <c r="D1" s="53" t="s">
         <v>2</v>
       </c>
@@ -12467,7 +12501,7 @@
     <row r="2" spans="1:11" ht="18.75" customHeight="1">
       <c r="A2" s="102"/>
       <c r="B2" s="103"/>
-      <c r="C2" s="110"/>
+      <c r="C2" s="113"/>
       <c r="D2" s="53" t="s">
         <v>3</v>
       </c>
@@ -12635,13 +12669,13 @@
       <c r="C8" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="94" t="s">
+      <c r="D8" s="97" t="s">
         <v>206</v>
       </c>
       <c r="E8" s="80" t="s">
         <v>163</v>
       </c>
-      <c r="F8" s="94" t="s">
+      <c r="F8" s="97" t="s">
         <v>204</v>
       </c>
       <c r="G8" s="60">
@@ -12661,11 +12695,11 @@
       <c r="C9" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="95"/>
+      <c r="D9" s="98"/>
       <c r="E9" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="F9" s="95"/>
+      <c r="F9" s="98"/>
       <c r="G9" s="60">
         <v>44369</v>
       </c>
@@ -12683,11 +12717,11 @@
       <c r="C10" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="95"/>
+      <c r="D10" s="98"/>
       <c r="E10" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="95"/>
+      <c r="F10" s="98"/>
       <c r="G10" s="60">
         <v>44369</v>
       </c>
@@ -12705,11 +12739,11 @@
       <c r="C11" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="95"/>
+      <c r="D11" s="98"/>
       <c r="E11" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="95"/>
+      <c r="F11" s="98"/>
       <c r="G11" s="60">
         <v>44369</v>
       </c>
@@ -12727,11 +12761,11 @@
       <c r="C12" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="95"/>
+      <c r="D12" s="98"/>
       <c r="E12" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="95"/>
+      <c r="F12" s="98"/>
       <c r="G12" s="60">
         <v>44369</v>
       </c>
@@ -12749,11 +12783,11 @@
       <c r="C13" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="95"/>
+      <c r="D13" s="98"/>
       <c r="E13" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="95"/>
+      <c r="F13" s="98"/>
       <c r="G13" s="60">
         <v>44369</v>
       </c>
@@ -12771,11 +12805,11 @@
       <c r="C14" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="95"/>
+      <c r="D14" s="98"/>
       <c r="E14" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="95"/>
+      <c r="F14" s="98"/>
       <c r="G14" s="60">
         <v>44369</v>
       </c>
@@ -12793,11 +12827,11 @@
       <c r="C15" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="95"/>
+      <c r="D15" s="98"/>
       <c r="E15" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="95"/>
+      <c r="F15" s="98"/>
       <c r="G15" s="60">
         <v>44369</v>
       </c>
@@ -12815,11 +12849,11 @@
       <c r="C16" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="95"/>
+      <c r="D16" s="98"/>
       <c r="E16" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="95"/>
+      <c r="F16" s="98"/>
       <c r="G16" s="60">
         <v>44369</v>
       </c>
@@ -12837,11 +12871,11 @@
       <c r="C17" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="95"/>
+      <c r="D17" s="98"/>
       <c r="E17" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="95"/>
+      <c r="F17" s="98"/>
       <c r="G17" s="60">
         <v>44369</v>
       </c>
@@ -12859,11 +12893,11 @@
       <c r="C18" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="95"/>
+      <c r="D18" s="98"/>
       <c r="E18" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="95"/>
+      <c r="F18" s="98"/>
       <c r="G18" s="60">
         <v>44369</v>
       </c>
@@ -12881,11 +12915,11 @@
       <c r="C19" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="96"/>
+      <c r="D19" s="99"/>
       <c r="E19" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="96"/>
+      <c r="F19" s="99"/>
       <c r="G19" s="60">
         <v>44369</v>
       </c>
@@ -12906,13 +12940,13 @@
       <c r="C20" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="94" t="s">
+      <c r="D20" s="97" t="s">
         <v>205</v>
       </c>
-      <c r="E20" s="114" t="s">
+      <c r="E20" s="117" t="s">
         <v>203</v>
       </c>
-      <c r="F20" s="94" t="s">
+      <c r="F20" s="97" t="s">
         <v>190</v>
       </c>
       <c r="G20" s="60">
@@ -12935,9 +12969,9 @@
       <c r="C21" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="95"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="95"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="98"/>
       <c r="G21" s="60">
         <v>44369</v>
       </c>
@@ -12958,9 +12992,9 @@
       <c r="C22" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="95"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="95"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="98"/>
       <c r="G22" s="60">
         <v>44369</v>
       </c>
@@ -12981,9 +13015,9 @@
       <c r="C23" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="95"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="95"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="98"/>
       <c r="G23" s="60">
         <v>44369</v>
       </c>
@@ -13004,9 +13038,9 @@
       <c r="C24" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="95"/>
-      <c r="E24" s="115"/>
-      <c r="F24" s="96"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="99"/>
       <c r="G24" s="60">
         <v>44369</v>
       </c>
@@ -13027,8 +13061,8 @@
       <c r="C25" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="95"/>
-      <c r="E25" s="115"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="118"/>
       <c r="F25" s="31" t="s">
         <v>188</v>
       </c>
@@ -13052,9 +13086,9 @@
       <c r="C26" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="95"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="94" t="s">
+      <c r="D26" s="98"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="97" t="s">
         <v>189</v>
       </c>
       <c r="G26" s="60">
@@ -13077,9 +13111,9 @@
       <c r="C27" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="95"/>
-      <c r="E27" s="115"/>
-      <c r="F27" s="95"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="118"/>
+      <c r="F27" s="98"/>
       <c r="G27" s="60">
         <v>44369</v>
       </c>
@@ -13100,9 +13134,9 @@
       <c r="C28" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="95"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="95"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="118"/>
+      <c r="F28" s="98"/>
       <c r="G28" s="60">
         <v>44369</v>
       </c>
@@ -13123,9 +13157,9 @@
       <c r="C29" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="95"/>
-      <c r="E29" s="115"/>
-      <c r="F29" s="95"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="118"/>
+      <c r="F29" s="98"/>
       <c r="G29" s="60">
         <v>44369</v>
       </c>
@@ -13146,9 +13180,9 @@
       <c r="C30" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="95"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="95"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="98"/>
       <c r="G30" s="60">
         <v>44369</v>
       </c>
@@ -13169,9 +13203,9 @@
       <c r="C31" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="96"/>
-      <c r="E31" s="116"/>
-      <c r="F31" s="96"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="119"/>
+      <c r="F31" s="99"/>
       <c r="G31" s="60">
         <v>44369</v>
       </c>
@@ -13194,7 +13228,7 @@
       <c r="C32" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="94" t="s">
+      <c r="D32" s="97" t="s">
         <v>221</v>
       </c>
       <c r="E32" s="31" t="s">
@@ -13223,7 +13257,7 @@
       <c r="C33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="95"/>
+      <c r="D33" s="98"/>
       <c r="E33" s="31" t="s">
         <v>170</v>
       </c>
@@ -13250,7 +13284,7 @@
       <c r="C34" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="95"/>
+      <c r="D34" s="98"/>
       <c r="E34" s="31" t="s">
         <v>171</v>
       </c>
@@ -13277,7 +13311,7 @@
       <c r="C35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="95"/>
+      <c r="D35" s="98"/>
       <c r="E35" s="31" t="s">
         <v>171</v>
       </c>
@@ -13304,7 +13338,7 @@
       <c r="C36" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="95"/>
+      <c r="D36" s="98"/>
       <c r="E36" s="31" t="s">
         <v>172</v>
       </c>
@@ -13331,7 +13365,7 @@
       <c r="C37" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="95"/>
+      <c r="D37" s="98"/>
       <c r="E37" s="31" t="s">
         <v>173</v>
       </c>
@@ -13358,7 +13392,7 @@
       <c r="C38" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="95"/>
+      <c r="D38" s="98"/>
       <c r="E38" s="31" t="s">
         <v>174</v>
       </c>
@@ -13385,7 +13419,7 @@
       <c r="C39" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="95"/>
+      <c r="D39" s="98"/>
       <c r="E39" s="31" t="s">
         <v>175</v>
       </c>
@@ -13412,7 +13446,7 @@
       <c r="C40" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="95"/>
+      <c r="D40" s="98"/>
       <c r="E40" s="31" t="s">
         <v>176</v>
       </c>
@@ -13439,7 +13473,7 @@
       <c r="C41" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="96"/>
+      <c r="D41" s="99"/>
       <c r="E41" s="31" t="s">
         <v>177</v>
       </c>
@@ -13468,13 +13502,13 @@
       <c r="C42" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="94" t="s">
+      <c r="D42" s="97" t="s">
         <v>209</v>
       </c>
-      <c r="E42" s="91" t="s">
+      <c r="E42" s="94" t="s">
         <v>225</v>
       </c>
-      <c r="F42" s="91" t="s">
+      <c r="F42" s="94" t="s">
         <v>208</v>
       </c>
       <c r="G42" s="60">
@@ -13497,9 +13531,9 @@
       <c r="C43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="107"/>
-      <c r="E43" s="92"/>
-      <c r="F43" s="92"/>
+      <c r="D43" s="92"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="95"/>
       <c r="G43" s="60">
         <v>44369</v>
       </c>
@@ -13520,9 +13554,9 @@
       <c r="C44" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="107"/>
-      <c r="E44" s="92"/>
-      <c r="F44" s="92"/>
+      <c r="D44" s="92"/>
+      <c r="E44" s="95"/>
+      <c r="F44" s="95"/>
       <c r="G44" s="60">
         <v>44369</v>
       </c>
@@ -13543,9 +13577,9 @@
       <c r="C45" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="107"/>
-      <c r="E45" s="92"/>
-      <c r="F45" s="92"/>
+      <c r="D45" s="92"/>
+      <c r="E45" s="95"/>
+      <c r="F45" s="95"/>
       <c r="G45" s="60">
         <v>44369</v>
       </c>
@@ -13566,9 +13600,9 @@
       <c r="C46" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="107"/>
-      <c r="E46" s="92"/>
-      <c r="F46" s="92"/>
+      <c r="D46" s="92"/>
+      <c r="E46" s="95"/>
+      <c r="F46" s="95"/>
       <c r="G46" s="60">
         <v>44369</v>
       </c>
@@ -13589,9 +13623,9 @@
       <c r="C47" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="107"/>
-      <c r="E47" s="92"/>
-      <c r="F47" s="92"/>
+      <c r="D47" s="92"/>
+      <c r="E47" s="95"/>
+      <c r="F47" s="95"/>
       <c r="G47" s="60">
         <v>44369</v>
       </c>
@@ -13612,9 +13646,9 @@
       <c r="C48" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="107"/>
-      <c r="E48" s="92"/>
-      <c r="F48" s="92"/>
+      <c r="D48" s="92"/>
+      <c r="E48" s="95"/>
+      <c r="F48" s="95"/>
       <c r="G48" s="60">
         <v>44369</v>
       </c>
@@ -13635,9 +13669,9 @@
       <c r="C49" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D49" s="107"/>
-      <c r="E49" s="92"/>
-      <c r="F49" s="92"/>
+      <c r="D49" s="92"/>
+      <c r="E49" s="95"/>
+      <c r="F49" s="95"/>
       <c r="G49" s="60">
         <v>44369</v>
       </c>
@@ -13658,9 +13692,9 @@
       <c r="C50" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="107"/>
-      <c r="E50" s="92"/>
-      <c r="F50" s="92"/>
+      <c r="D50" s="92"/>
+      <c r="E50" s="95"/>
+      <c r="F50" s="95"/>
       <c r="G50" s="60">
         <v>44369</v>
       </c>
@@ -13681,9 +13715,9 @@
       <c r="C51" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D51" s="107"/>
-      <c r="E51" s="92"/>
-      <c r="F51" s="92"/>
+      <c r="D51" s="92"/>
+      <c r="E51" s="95"/>
+      <c r="F51" s="95"/>
       <c r="G51" s="60">
         <v>44369</v>
       </c>
@@ -13704,9 +13738,9 @@
       <c r="C52" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="107"/>
-      <c r="E52" s="92"/>
-      <c r="F52" s="92"/>
+      <c r="D52" s="92"/>
+      <c r="E52" s="95"/>
+      <c r="F52" s="95"/>
       <c r="G52" s="60">
         <v>44369</v>
       </c>
@@ -13727,9 +13761,9 @@
       <c r="C53" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="108"/>
-      <c r="E53" s="93"/>
-      <c r="F53" s="93"/>
+      <c r="D53" s="93"/>
+      <c r="E53" s="96"/>
+      <c r="F53" s="96"/>
       <c r="G53" s="60">
         <v>44369</v>
       </c>
@@ -13752,13 +13786,13 @@
       <c r="C54" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="94" t="s">
+      <c r="D54" s="97" t="s">
         <v>207</v>
       </c>
-      <c r="E54" s="91" t="s">
+      <c r="E54" s="94" t="s">
         <v>225</v>
       </c>
-      <c r="F54" s="111" t="s">
+      <c r="F54" s="114" t="s">
         <v>180</v>
       </c>
       <c r="G54" s="60">
@@ -13781,9 +13815,9 @@
       <c r="C55" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="107"/>
-      <c r="E55" s="92"/>
-      <c r="F55" s="112"/>
+      <c r="D55" s="92"/>
+      <c r="E55" s="95"/>
+      <c r="F55" s="115"/>
       <c r="G55" s="60">
         <v>44369</v>
       </c>
@@ -13804,9 +13838,9 @@
       <c r="C56" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="107"/>
-      <c r="E56" s="92"/>
-      <c r="F56" s="112"/>
+      <c r="D56" s="92"/>
+      <c r="E56" s="95"/>
+      <c r="F56" s="115"/>
       <c r="G56" s="60">
         <v>44369</v>
       </c>
@@ -13827,9 +13861,9 @@
       <c r="C57" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="107"/>
-      <c r="E57" s="92"/>
-      <c r="F57" s="112"/>
+      <c r="D57" s="92"/>
+      <c r="E57" s="95"/>
+      <c r="F57" s="115"/>
       <c r="G57" s="60">
         <v>44369</v>
       </c>
@@ -13850,9 +13884,9 @@
       <c r="C58" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="107"/>
-      <c r="E58" s="92"/>
-      <c r="F58" s="112"/>
+      <c r="D58" s="92"/>
+      <c r="E58" s="95"/>
+      <c r="F58" s="115"/>
       <c r="G58" s="60">
         <v>44369</v>
       </c>
@@ -13873,9 +13907,9 @@
       <c r="C59" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D59" s="107"/>
-      <c r="E59" s="92"/>
-      <c r="F59" s="113"/>
+      <c r="D59" s="92"/>
+      <c r="E59" s="95"/>
+      <c r="F59" s="116"/>
       <c r="G59" s="60">
         <v>44369</v>
       </c>
@@ -13896,8 +13930,8 @@
       <c r="C60" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="107"/>
-      <c r="E60" s="92"/>
+      <c r="D60" s="92"/>
+      <c r="E60" s="95"/>
       <c r="F60" s="32" t="s">
         <v>181</v>
       </c>
@@ -13921,8 +13955,8 @@
       <c r="C61" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="107"/>
-      <c r="E61" s="92"/>
+      <c r="D61" s="92"/>
+      <c r="E61" s="95"/>
       <c r="F61" s="32" t="s">
         <v>184</v>
       </c>
@@ -13946,8 +13980,8 @@
       <c r="C62" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D62" s="107"/>
-      <c r="E62" s="92"/>
+      <c r="D62" s="92"/>
+      <c r="E62" s="95"/>
       <c r="F62" s="32" t="s">
         <v>183</v>
       </c>
@@ -13971,9 +14005,9 @@
       <c r="C63" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D63" s="107"/>
-      <c r="E63" s="92"/>
-      <c r="F63" s="111" t="s">
+      <c r="D63" s="92"/>
+      <c r="E63" s="95"/>
+      <c r="F63" s="114" t="s">
         <v>184</v>
       </c>
       <c r="G63" s="60">
@@ -13996,9 +14030,9 @@
       <c r="C64" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D64" s="107"/>
-      <c r="E64" s="92"/>
-      <c r="F64" s="113"/>
+      <c r="D64" s="92"/>
+      <c r="E64" s="95"/>
+      <c r="F64" s="116"/>
       <c r="G64" s="60">
         <v>44369</v>
       </c>
@@ -14019,8 +14053,8 @@
       <c r="C65" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D65" s="108"/>
-      <c r="E65" s="93"/>
+      <c r="D65" s="93"/>
+      <c r="E65" s="96"/>
       <c r="F65" s="32" t="s">
         <v>182</v>
       </c>
@@ -14046,13 +14080,13 @@
       <c r="C66" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="94" t="s">
+      <c r="D66" s="97" t="s">
         <v>223</v>
       </c>
-      <c r="E66" s="94" t="s">
+      <c r="E66" s="97" t="s">
         <v>165</v>
       </c>
-      <c r="F66" s="91" t="s">
+      <c r="F66" s="94" t="s">
         <v>166</v>
       </c>
       <c r="G66" s="60">
@@ -14075,9 +14109,9 @@
       <c r="C67" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="107"/>
-      <c r="E67" s="95"/>
-      <c r="F67" s="92"/>
+      <c r="D67" s="92"/>
+      <c r="E67" s="98"/>
+      <c r="F67" s="95"/>
       <c r="G67" s="60">
         <v>44369</v>
       </c>
@@ -14098,9 +14132,9 @@
       <c r="C68" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D68" s="107"/>
-      <c r="E68" s="95"/>
-      <c r="F68" s="92"/>
+      <c r="D68" s="92"/>
+      <c r="E68" s="98"/>
+      <c r="F68" s="95"/>
       <c r="G68" s="60">
         <v>44369</v>
       </c>
@@ -14121,9 +14155,9 @@
       <c r="C69" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D69" s="107"/>
-      <c r="E69" s="95"/>
-      <c r="F69" s="92"/>
+      <c r="D69" s="92"/>
+      <c r="E69" s="98"/>
+      <c r="F69" s="95"/>
       <c r="G69" s="60">
         <v>44369</v>
       </c>
@@ -14144,9 +14178,9 @@
       <c r="C70" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="107"/>
-      <c r="E70" s="95"/>
-      <c r="F70" s="92"/>
+      <c r="D70" s="92"/>
+      <c r="E70" s="98"/>
+      <c r="F70" s="95"/>
       <c r="G70" s="60">
         <v>44369</v>
       </c>
@@ -14167,9 +14201,9 @@
       <c r="C71" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D71" s="107"/>
-      <c r="E71" s="95"/>
-      <c r="F71" s="92"/>
+      <c r="D71" s="92"/>
+      <c r="E71" s="98"/>
+      <c r="F71" s="95"/>
       <c r="G71" s="60">
         <v>44369</v>
       </c>
@@ -14190,9 +14224,9 @@
       <c r="C72" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="107"/>
-      <c r="E72" s="95"/>
-      <c r="F72" s="92"/>
+      <c r="D72" s="92"/>
+      <c r="E72" s="98"/>
+      <c r="F72" s="95"/>
       <c r="G72" s="60">
         <v>44369</v>
       </c>
@@ -14213,9 +14247,9 @@
       <c r="C73" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="107"/>
-      <c r="E73" s="95"/>
-      <c r="F73" s="92"/>
+      <c r="D73" s="92"/>
+      <c r="E73" s="98"/>
+      <c r="F73" s="95"/>
       <c r="G73" s="60">
         <v>44369</v>
       </c>
@@ -14236,9 +14270,9 @@
       <c r="C74" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D74" s="107"/>
-      <c r="E74" s="95"/>
-      <c r="F74" s="92"/>
+      <c r="D74" s="92"/>
+      <c r="E74" s="98"/>
+      <c r="F74" s="95"/>
       <c r="G74" s="60">
         <v>44369</v>
       </c>
@@ -14259,9 +14293,9 @@
       <c r="C75" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="107"/>
-      <c r="E75" s="95"/>
-      <c r="F75" s="92"/>
+      <c r="D75" s="92"/>
+      <c r="E75" s="98"/>
+      <c r="F75" s="95"/>
       <c r="G75" s="60">
         <v>44369</v>
       </c>
@@ -14282,9 +14316,9 @@
       <c r="C76" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D76" s="107"/>
-      <c r="E76" s="95"/>
-      <c r="F76" s="92"/>
+      <c r="D76" s="92"/>
+      <c r="E76" s="98"/>
+      <c r="F76" s="95"/>
       <c r="G76" s="60">
         <v>44369</v>
       </c>
@@ -14305,9 +14339,9 @@
       <c r="C77" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D77" s="108"/>
-      <c r="E77" s="96"/>
-      <c r="F77" s="93"/>
+      <c r="D77" s="93"/>
+      <c r="E77" s="99"/>
+      <c r="F77" s="96"/>
       <c r="G77" s="60">
         <v>44369</v>
       </c>
@@ -14361,10 +14395,10 @@
       <c r="C79" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="D79" s="94" t="s">
+      <c r="D79" s="97" t="s">
         <v>224</v>
       </c>
-      <c r="E79" s="94" t="s">
+      <c r="E79" s="97" t="s">
         <v>239</v>
       </c>
       <c r="F79" s="32" t="s">
@@ -14390,8 +14424,8 @@
       <c r="C80" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D80" s="95"/>
-      <c r="E80" s="95"/>
+      <c r="D80" s="98"/>
+      <c r="E80" s="98"/>
       <c r="F80" s="32" t="s">
         <v>193</v>
       </c>
@@ -14415,8 +14449,8 @@
       <c r="C81" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D81" s="95"/>
-      <c r="E81" s="95"/>
+      <c r="D81" s="98"/>
+      <c r="E81" s="98"/>
       <c r="F81" s="32" t="s">
         <v>210</v>
       </c>
@@ -14440,8 +14474,8 @@
       <c r="C82" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D82" s="95"/>
-      <c r="E82" s="95"/>
+      <c r="D82" s="98"/>
+      <c r="E82" s="98"/>
       <c r="F82" s="32" t="s">
         <v>211</v>
       </c>
@@ -14465,8 +14499,8 @@
       <c r="C83" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D83" s="95"/>
-      <c r="E83" s="95"/>
+      <c r="D83" s="98"/>
+      <c r="E83" s="98"/>
       <c r="F83" s="32" t="s">
         <v>212</v>
       </c>
@@ -14490,8 +14524,8 @@
       <c r="C84" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D84" s="95"/>
-      <c r="E84" s="95"/>
+      <c r="D84" s="98"/>
+      <c r="E84" s="98"/>
       <c r="F84" s="32" t="s">
         <v>213</v>
       </c>
@@ -14515,8 +14549,8 @@
       <c r="C85" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D85" s="95"/>
-      <c r="E85" s="95"/>
+      <c r="D85" s="98"/>
+      <c r="E85" s="98"/>
       <c r="F85" s="32" t="s">
         <v>214</v>
       </c>
@@ -14540,8 +14574,8 @@
       <c r="C86" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D86" s="95"/>
-      <c r="E86" s="95"/>
+      <c r="D86" s="98"/>
+      <c r="E86" s="98"/>
       <c r="F86" s="32" t="s">
         <v>215</v>
       </c>
@@ -14565,8 +14599,8 @@
       <c r="C87" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D87" s="95"/>
-      <c r="E87" s="95"/>
+      <c r="D87" s="98"/>
+      <c r="E87" s="98"/>
       <c r="F87" s="32" t="s">
         <v>216</v>
       </c>
@@ -14590,8 +14624,8 @@
       <c r="C88" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D88" s="95"/>
-      <c r="E88" s="95"/>
+      <c r="D88" s="98"/>
+      <c r="E88" s="98"/>
       <c r="F88" s="32" t="s">
         <v>217</v>
       </c>
@@ -14615,8 +14649,8 @@
       <c r="C89" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D89" s="95"/>
-      <c r="E89" s="95"/>
+      <c r="D89" s="98"/>
+      <c r="E89" s="98"/>
       <c r="F89" s="32" t="s">
         <v>218</v>
       </c>
@@ -14640,8 +14674,8 @@
       <c r="C90" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D90" s="95"/>
-      <c r="E90" s="95"/>
+      <c r="D90" s="98"/>
+      <c r="E90" s="98"/>
       <c r="F90" s="32" t="s">
         <v>219</v>
       </c>
@@ -14665,8 +14699,8 @@
       <c r="C91" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D91" s="95"/>
-      <c r="E91" s="95"/>
+      <c r="D91" s="98"/>
+      <c r="E91" s="98"/>
       <c r="F91" s="32" t="s">
         <v>220</v>
       </c>
@@ -14690,8 +14724,8 @@
       <c r="C92" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="D92" s="95"/>
-      <c r="E92" s="95"/>
+      <c r="D92" s="98"/>
+      <c r="E92" s="98"/>
       <c r="F92" s="31" t="s">
         <v>226</v>
       </c>
@@ -14715,8 +14749,8 @@
       <c r="C93" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="D93" s="95"/>
-      <c r="E93" s="95"/>
+      <c r="D93" s="98"/>
+      <c r="E93" s="98"/>
       <c r="F93" s="31" t="s">
         <v>227</v>
       </c>
@@ -14742,8 +14776,8 @@
       <c r="C94" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="D94" s="96"/>
-      <c r="E94" s="96"/>
+      <c r="D94" s="99"/>
+      <c r="E94" s="99"/>
       <c r="F94" s="31" t="s">
         <v>228</v>
       </c>
@@ -14850,10 +14884,10 @@
       <c r="C98" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="D98" s="91" t="s">
+      <c r="D98" s="94" t="s">
         <v>245</v>
       </c>
-      <c r="E98" s="91" t="s">
+      <c r="E98" s="94" t="s">
         <v>243</v>
       </c>
       <c r="F98" s="37" t="s">
@@ -14873,8 +14907,8 @@
       <c r="C99" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D99" s="117"/>
-      <c r="E99" s="92"/>
+      <c r="D99" s="110"/>
+      <c r="E99" s="95"/>
       <c r="F99" s="37" t="s">
         <v>263</v>
       </c>
@@ -14892,8 +14926,8 @@
       <c r="C100" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D100" s="117"/>
-      <c r="E100" s="92"/>
+      <c r="D100" s="110"/>
+      <c r="E100" s="95"/>
       <c r="F100" s="37" t="s">
         <v>264</v>
       </c>
@@ -14911,8 +14945,8 @@
       <c r="C101" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D101" s="117"/>
-      <c r="E101" s="92"/>
+      <c r="D101" s="110"/>
+      <c r="E101" s="95"/>
       <c r="F101" s="37" t="s">
         <v>265</v>
       </c>
@@ -14930,8 +14964,8 @@
       <c r="C102" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D102" s="117"/>
-      <c r="E102" s="92"/>
+      <c r="D102" s="110"/>
+      <c r="E102" s="95"/>
       <c r="F102" s="37" t="s">
         <v>266</v>
       </c>
@@ -14949,8 +14983,8 @@
       <c r="C103" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D103" s="117"/>
-      <c r="E103" s="92"/>
+      <c r="D103" s="110"/>
+      <c r="E103" s="95"/>
       <c r="F103" s="37" t="s">
         <v>267</v>
       </c>
@@ -14968,8 +15002,8 @@
       <c r="C104" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D104" s="117"/>
-      <c r="E104" s="92"/>
+      <c r="D104" s="110"/>
+      <c r="E104" s="95"/>
       <c r="F104" s="37" t="s">
         <v>268</v>
       </c>
@@ -14987,8 +15021,8 @@
       <c r="C105" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D105" s="117"/>
-      <c r="E105" s="92"/>
+      <c r="D105" s="110"/>
+      <c r="E105" s="95"/>
       <c r="F105" s="37" t="s">
         <v>269</v>
       </c>
@@ -15006,8 +15040,8 @@
       <c r="C106" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="D106" s="117"/>
-      <c r="E106" s="92"/>
+      <c r="D106" s="110"/>
+      <c r="E106" s="95"/>
       <c r="F106" s="37" t="s">
         <v>270</v>
       </c>
@@ -15025,8 +15059,8 @@
       <c r="C107" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="D107" s="117"/>
-      <c r="E107" s="92"/>
+      <c r="D107" s="110"/>
+      <c r="E107" s="95"/>
       <c r="F107" s="37" t="s">
         <v>271</v>
       </c>
@@ -15044,8 +15078,8 @@
       <c r="C108" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="D108" s="118"/>
-      <c r="E108" s="93"/>
+      <c r="D108" s="111"/>
+      <c r="E108" s="96"/>
       <c r="F108" s="37" t="s">
         <v>271</v>
       </c>
@@ -15841,14 +15875,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D98:D108"/>
-    <mergeCell ref="E98:E108"/>
-    <mergeCell ref="D79:D94"/>
-    <mergeCell ref="D42:D53"/>
-    <mergeCell ref="E42:E53"/>
-    <mergeCell ref="E66:E77"/>
-    <mergeCell ref="E79:E94"/>
-    <mergeCell ref="D66:D77"/>
     <mergeCell ref="F66:F77"/>
     <mergeCell ref="D54:D65"/>
     <mergeCell ref="E54:E65"/>
@@ -15863,6 +15889,14 @@
     <mergeCell ref="D20:D31"/>
     <mergeCell ref="D32:D41"/>
     <mergeCell ref="F42:F53"/>
+    <mergeCell ref="D98:D108"/>
+    <mergeCell ref="E98:E108"/>
+    <mergeCell ref="D79:D94"/>
+    <mergeCell ref="D42:D53"/>
+    <mergeCell ref="E42:E53"/>
+    <mergeCell ref="E66:E77"/>
+    <mergeCell ref="E79:E94"/>
+    <mergeCell ref="D66:D77"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/testcase_account_ver3.xlsx
+++ b/testcase_account_ver3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\7-Programming-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E36AFBE-9FA1-46B9-B415-25374708BADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3469B48-58E6-4A56-9C0B-A525D1AF3678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="373">
   <si>
     <t>作成者</t>
   </si>
@@ -5330,19 +5330,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>インターネットのタブが「アカウント削除画面」と表示される。</t>
-    <rPh sb="17" eb="19">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ガメンイチガメン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「一覧に戻る」と書かれたボタンが表示される。</t>
     <rPh sb="1" eb="3">
       <t>イチラン</t>
@@ -7087,6 +7074,22 @@
       <t>ガメン</t>
     </rPh>
     <rPh sb="56" eb="58">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>インターネットのタブが「アカウント削除確認画面」と表示される。</t>
+    <rPh sb="17" eb="19">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガメンイチガメン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -8149,8 +8152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M173"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A147" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92:A164"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A87" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -9837,7 +9840,7 @@
         <v>6</v>
       </c>
       <c r="J56" s="30" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K56" s="39" t="s">
         <v>148</v>
@@ -10275,7 +10278,9 @@
       <c r="H72" s="68">
         <v>44428</v>
       </c>
-      <c r="I72" s="12"/>
+      <c r="I72" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J72" s="30"/>
       <c r="K72" s="39"/>
       <c r="L72" s="11"/>
@@ -10303,7 +10308,9 @@
       <c r="H73" s="68">
         <v>44428</v>
       </c>
-      <c r="I73" s="12"/>
+      <c r="I73" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J73" s="30"/>
       <c r="K73" s="39"/>
       <c r="L73" s="11"/>
@@ -10322,8 +10329,12 @@
       <c r="G74" s="31" t="s">
         <v>282</v>
       </c>
-      <c r="H74" s="12"/>
-      <c r="I74" s="12"/>
+      <c r="H74" s="68">
+        <v>44428</v>
+      </c>
+      <c r="I74" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J74" s="30"/>
       <c r="K74" s="39"/>
       <c r="L74" s="11"/>
@@ -10342,8 +10353,12 @@
       <c r="G75" s="31" t="s">
         <v>283</v>
       </c>
-      <c r="H75" s="12"/>
-      <c r="I75" s="12"/>
+      <c r="H75" s="68">
+        <v>44428</v>
+      </c>
+      <c r="I75" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J75" s="30"/>
       <c r="K75" s="39"/>
       <c r="L75" s="11"/>
@@ -10362,8 +10377,12 @@
       <c r="G76" s="31" t="s">
         <v>284</v>
       </c>
-      <c r="H76" s="12"/>
-      <c r="I76" s="12"/>
+      <c r="H76" s="68">
+        <v>44428</v>
+      </c>
+      <c r="I76" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J76" s="30"/>
       <c r="K76" s="39"/>
       <c r="L76" s="11"/>
@@ -10382,8 +10401,12 @@
       <c r="G77" s="31" t="s">
         <v>285</v>
       </c>
-      <c r="H77" s="12"/>
-      <c r="I77" s="12"/>
+      <c r="H77" s="68">
+        <v>44428</v>
+      </c>
+      <c r="I77" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J77" s="30"/>
       <c r="K77" s="39"/>
       <c r="L77" s="11"/>
@@ -10402,8 +10425,12 @@
       <c r="G78" s="31" t="s">
         <v>286</v>
       </c>
-      <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
+      <c r="H78" s="68">
+        <v>44428</v>
+      </c>
+      <c r="I78" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J78" s="30"/>
       <c r="K78" s="39"/>
       <c r="L78" s="11"/>
@@ -10422,8 +10449,12 @@
       <c r="G79" s="31" t="s">
         <v>291</v>
       </c>
-      <c r="H79" s="12"/>
-      <c r="I79" s="12"/>
+      <c r="H79" s="68">
+        <v>44428</v>
+      </c>
+      <c r="I79" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J79" s="30"/>
       <c r="K79" s="39"/>
       <c r="L79" s="11"/>
@@ -10442,8 +10473,12 @@
       <c r="G80" s="31" t="s">
         <v>287</v>
       </c>
-      <c r="H80" s="12"/>
-      <c r="I80" s="12"/>
+      <c r="H80" s="68">
+        <v>44428</v>
+      </c>
+      <c r="I80" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J80" s="30"/>
       <c r="K80" s="39"/>
       <c r="L80" s="11"/>
@@ -10462,8 +10497,12 @@
       <c r="G81" s="31" t="s">
         <v>292</v>
       </c>
-      <c r="H81" s="12"/>
-      <c r="I81" s="12"/>
+      <c r="H81" s="68">
+        <v>44428</v>
+      </c>
+      <c r="I81" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J81" s="30"/>
       <c r="K81" s="39"/>
       <c r="L81" s="11"/>
@@ -10482,8 +10521,12 @@
       <c r="G82" s="31" t="s">
         <v>288</v>
       </c>
-      <c r="H82" s="12"/>
-      <c r="I82" s="12"/>
+      <c r="H82" s="68">
+        <v>44428</v>
+      </c>
+      <c r="I82" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J82" s="30"/>
       <c r="K82" s="39"/>
       <c r="L82" s="11"/>
@@ -10502,8 +10545,12 @@
       <c r="G83" s="31" t="s">
         <v>289</v>
       </c>
-      <c r="H83" s="12"/>
-      <c r="I83" s="12"/>
+      <c r="H83" s="68">
+        <v>44428</v>
+      </c>
+      <c r="I83" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J83" s="30"/>
       <c r="K83" s="39"/>
       <c r="L83" s="11"/>
@@ -10522,8 +10569,12 @@
       <c r="G84" s="31" t="s">
         <v>290</v>
       </c>
-      <c r="H84" s="12"/>
-      <c r="I84" s="12"/>
+      <c r="H84" s="68">
+        <v>44428</v>
+      </c>
+      <c r="I84" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J84" s="30"/>
       <c r="K84" s="39"/>
       <c r="L84" s="11"/>
@@ -10546,8 +10597,12 @@
       <c r="G85" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="H85" s="12"/>
-      <c r="I85" s="12"/>
+      <c r="H85" s="68">
+        <v>44428</v>
+      </c>
+      <c r="I85" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J85" s="30"/>
       <c r="K85" s="39"/>
       <c r="L85" s="11"/>
@@ -10572,9 +10627,11 @@
         <v>303</v>
       </c>
       <c r="G86" s="31" t="s">
-        <v>305</v>
-      </c>
-      <c r="H86" s="12"/>
+        <v>372</v>
+      </c>
+      <c r="H86" s="68">
+        <v>44428</v>
+      </c>
       <c r="I86" s="12"/>
       <c r="J86" s="30"/>
       <c r="K86" s="39"/>
@@ -10592,9 +10649,11 @@
       <c r="E87" s="108"/>
       <c r="F87" s="95"/>
       <c r="G87" s="31" t="s">
-        <v>307</v>
-      </c>
-      <c r="H87" s="12"/>
+        <v>306</v>
+      </c>
+      <c r="H87" s="68">
+        <v>44428</v>
+      </c>
       <c r="I87" s="12"/>
       <c r="J87" s="30"/>
       <c r="K87" s="39"/>
@@ -10612,9 +10671,11 @@
       <c r="E88" s="108"/>
       <c r="F88" s="95"/>
       <c r="G88" s="31" t="s">
-        <v>306</v>
-      </c>
-      <c r="H88" s="12"/>
+        <v>305</v>
+      </c>
+      <c r="H88" s="68">
+        <v>44428</v>
+      </c>
       <c r="I88" s="12"/>
       <c r="J88" s="30"/>
       <c r="K88" s="39"/>
@@ -10632,9 +10693,11 @@
       <c r="E89" s="109"/>
       <c r="F89" s="96"/>
       <c r="G89" s="31" t="s">
-        <v>308</v>
-      </c>
-      <c r="H89" s="12"/>
+        <v>307</v>
+      </c>
+      <c r="H89" s="68">
+        <v>44428</v>
+      </c>
       <c r="I89" s="12"/>
       <c r="J89" s="30"/>
       <c r="K89" s="39"/>
@@ -10662,7 +10725,9 @@
       <c r="G90" s="30" t="s">
         <v>301</v>
       </c>
-      <c r="H90" s="12"/>
+      <c r="H90" s="68">
+        <v>44428</v>
+      </c>
       <c r="I90" s="12"/>
       <c r="J90" s="30"/>
       <c r="K90" s="39"/>
@@ -10715,7 +10780,7 @@
         <v>88</v>
       </c>
       <c r="B93" s="48" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C93" s="37" t="s">
         <v>136</v>
@@ -10728,7 +10793,7 @@
       </c>
       <c r="F93" s="98"/>
       <c r="G93" s="32" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H93" s="12"/>
       <c r="I93" s="12"/>
@@ -10750,7 +10815,7 @@
       </c>
       <c r="F94" s="99"/>
       <c r="G94" s="32" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H94" s="12"/>
       <c r="I94" s="12"/>
@@ -10764,7 +10829,7 @@
       </c>
       <c r="B95" s="48"/>
       <c r="C95" s="37" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D95" s="23" t="s">
         <v>136</v>
@@ -10773,12 +10838,14 @@
         <v>55</v>
       </c>
       <c r="F95" s="89" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G95" s="32" t="s">
-        <v>372</v>
-      </c>
-      <c r="H95" s="12"/>
+        <v>371</v>
+      </c>
+      <c r="H95" s="68">
+        <v>44428</v>
+      </c>
       <c r="I95" s="12"/>
       <c r="J95" s="30"/>
       <c r="K95" s="39"/>
@@ -10789,7 +10856,7 @@
         <v>91</v>
       </c>
       <c r="B96" s="48" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C96" s="25" t="s">
         <v>78</v>
@@ -10801,7 +10868,7 @@
         <v>55</v>
       </c>
       <c r="F96" s="37" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G96" s="31" t="s">
         <v>280</v>
@@ -10827,10 +10894,10 @@
         <v>55</v>
       </c>
       <c r="F97" s="94" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G97" s="31" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H97" s="12"/>
       <c r="I97" s="12"/>
@@ -10850,7 +10917,7 @@
       <c r="E98" s="108"/>
       <c r="F98" s="95"/>
       <c r="G98" s="31" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H98" s="12"/>
       <c r="I98" s="12"/>
@@ -10870,7 +10937,7 @@
       <c r="E99" s="108"/>
       <c r="F99" s="95"/>
       <c r="G99" s="31" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H99" s="12"/>
       <c r="I99" s="12"/>
@@ -10890,7 +10957,7 @@
       <c r="E100" s="108"/>
       <c r="F100" s="95"/>
       <c r="G100" s="31" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H100" s="12"/>
       <c r="I100" s="12"/>
@@ -10910,7 +10977,7 @@
       <c r="E101" s="108"/>
       <c r="F101" s="95"/>
       <c r="G101" s="31" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H101" s="12"/>
       <c r="I101" s="12"/>
@@ -10930,7 +10997,7 @@
       <c r="E102" s="108"/>
       <c r="F102" s="95"/>
       <c r="G102" s="31" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H102" s="12"/>
       <c r="I102" s="12"/>
@@ -10950,7 +11017,7 @@
       <c r="E103" s="108"/>
       <c r="F103" s="95"/>
       <c r="G103" s="31" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H103" s="12"/>
       <c r="I103" s="12"/>
@@ -10970,7 +11037,7 @@
       <c r="E104" s="108"/>
       <c r="F104" s="95"/>
       <c r="G104" s="31" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H104" s="12"/>
       <c r="I104" s="12"/>
@@ -10990,7 +11057,7 @@
       <c r="E105" s="108"/>
       <c r="F105" s="95"/>
       <c r="G105" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H105" s="12"/>
       <c r="I105" s="12"/>
@@ -11010,7 +11077,7 @@
       <c r="E106" s="108"/>
       <c r="F106" s="95"/>
       <c r="G106" s="31" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H106" s="12"/>
       <c r="I106" s="12"/>
@@ -11030,7 +11097,7 @@
       <c r="E107" s="108"/>
       <c r="F107" s="95"/>
       <c r="G107" s="31" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H107" s="12"/>
       <c r="I107" s="12"/>
@@ -11050,7 +11117,7 @@
       <c r="E108" s="109"/>
       <c r="F108" s="96"/>
       <c r="G108" s="31" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H108" s="12"/>
       <c r="I108" s="12"/>
@@ -11071,10 +11138,10 @@
         <v>55</v>
       </c>
       <c r="F109" s="37" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G109" s="31" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H109" s="12"/>
       <c r="I109" s="12"/>
@@ -11088,7 +11155,7 @@
       </c>
       <c r="B110" s="48"/>
       <c r="C110" s="25" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D110" s="11" t="s">
         <v>16</v>
@@ -11097,7 +11164,7 @@
         <v>30</v>
       </c>
       <c r="F110" s="31" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G110" s="97" t="s">
         <v>107</v>
@@ -11121,7 +11188,7 @@
         <v>30</v>
       </c>
       <c r="F111" s="31" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G111" s="98"/>
       <c r="H111" s="12"/>
@@ -11143,7 +11210,7 @@
         <v>30</v>
       </c>
       <c r="F112" s="31" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G112" s="98"/>
       <c r="H112" s="12"/>
@@ -11165,7 +11232,7 @@
         <v>30</v>
       </c>
       <c r="F113" s="31" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G113" s="98"/>
       <c r="H113" s="12"/>
@@ -11187,7 +11254,7 @@
         <v>30</v>
       </c>
       <c r="F114" s="31" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G114" s="98"/>
       <c r="H114" s="12"/>
@@ -11209,7 +11276,7 @@
         <v>30</v>
       </c>
       <c r="F115" s="31" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G115" s="98"/>
       <c r="H115" s="12"/>
@@ -11231,7 +11298,7 @@
         <v>31</v>
       </c>
       <c r="F116" s="31" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G116" s="98"/>
       <c r="H116" s="12"/>
@@ -11253,7 +11320,7 @@
         <v>30</v>
       </c>
       <c r="F117" s="31" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G117" s="98"/>
       <c r="H117" s="12"/>
@@ -11275,7 +11342,7 @@
         <v>31</v>
       </c>
       <c r="F118" s="31" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G118" s="98"/>
       <c r="H118" s="12"/>
@@ -11297,7 +11364,7 @@
         <v>30</v>
       </c>
       <c r="F119" s="31" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G119" s="98"/>
       <c r="H119" s="12"/>
@@ -11319,7 +11386,7 @@
         <v>30</v>
       </c>
       <c r="F120" s="31" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G120" s="98"/>
       <c r="H120" s="12"/>
@@ -11341,7 +11408,7 @@
         <v>31</v>
       </c>
       <c r="F121" s="31" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G121" s="99"/>
       <c r="H121" s="12"/>
@@ -11356,7 +11423,7 @@
       </c>
       <c r="B122" s="48"/>
       <c r="C122" s="25" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D122" s="11" t="s">
         <v>16</v>
@@ -11365,7 +11432,7 @@
         <v>30</v>
       </c>
       <c r="F122" s="31" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G122" s="32" t="s">
         <v>99</v>
@@ -11389,7 +11456,7 @@
         <v>30</v>
       </c>
       <c r="F123" s="31" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G123" s="32" t="s">
         <v>98</v>
@@ -11413,7 +11480,7 @@
         <v>30</v>
       </c>
       <c r="F124" s="31" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G124" s="32" t="s">
         <v>100</v>
@@ -11437,7 +11504,7 @@
         <v>30</v>
       </c>
       <c r="F125" s="31" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G125" s="32" t="s">
         <v>101</v>
@@ -11461,7 +11528,7 @@
         <v>30</v>
       </c>
       <c r="F126" s="31" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G126" s="32" t="s">
         <v>89</v>
@@ -11485,10 +11552,10 @@
         <v>30</v>
       </c>
       <c r="F127" s="31" t="s">
+        <v>344</v>
+      </c>
+      <c r="G127" s="32" t="s">
         <v>345</v>
-      </c>
-      <c r="G127" s="32" t="s">
-        <v>346</v>
       </c>
       <c r="H127" s="12"/>
       <c r="I127" s="12"/>
@@ -11509,7 +11576,7 @@
         <v>30</v>
       </c>
       <c r="F128" s="31" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G128" s="32" t="s">
         <v>103</v>
@@ -11533,7 +11600,7 @@
         <v>31</v>
       </c>
       <c r="F129" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G129" s="32" t="s">
         <v>104</v>
@@ -11557,7 +11624,7 @@
         <v>30</v>
       </c>
       <c r="F130" s="31" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G130" s="32" t="s">
         <v>105</v>
@@ -11581,7 +11648,7 @@
         <v>30</v>
       </c>
       <c r="F131" s="31" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G131" s="32" t="s">
         <v>106</v>
@@ -11597,7 +11664,7 @@
         <v>127</v>
       </c>
       <c r="B132" s="48" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C132" s="25" t="s">
         <v>78</v>
@@ -11609,10 +11676,10 @@
         <v>55</v>
       </c>
       <c r="F132" s="94" t="s">
+        <v>348</v>
+      </c>
+      <c r="G132" s="31" t="s">
         <v>349</v>
-      </c>
-      <c r="G132" s="31" t="s">
-        <v>350</v>
       </c>
       <c r="H132" s="12"/>
       <c r="I132" s="12"/>
@@ -11898,7 +11965,7 @@
       </c>
       <c r="F145" s="95"/>
       <c r="G145" s="31" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H145" s="12"/>
       <c r="I145" s="12"/>
@@ -11920,7 +11987,7 @@
       </c>
       <c r="F146" s="96"/>
       <c r="G146" s="31" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H146" s="12"/>
       <c r="I146" s="12"/>
@@ -11933,7 +12000,7 @@
         <v>142</v>
       </c>
       <c r="B147" s="48" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C147" s="25" t="s">
         <v>78</v>
@@ -11945,10 +12012,10 @@
         <v>55</v>
       </c>
       <c r="F147" s="94" t="s">
+        <v>354</v>
+      </c>
+      <c r="G147" s="31" t="s">
         <v>355</v>
-      </c>
-      <c r="G147" s="31" t="s">
-        <v>356</v>
       </c>
       <c r="H147" s="12"/>
       <c r="I147" s="12"/>
@@ -11970,7 +12037,7 @@
       </c>
       <c r="F148" s="95"/>
       <c r="G148" s="31" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H148" s="12"/>
       <c r="I148" s="12"/>
@@ -12005,7 +12072,7 @@
         <v>145</v>
       </c>
       <c r="B150" s="48" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C150" s="25" t="s">
         <v>136</v>
@@ -12017,10 +12084,10 @@
         <v>55</v>
       </c>
       <c r="F150" s="94" t="s">
+        <v>361</v>
+      </c>
+      <c r="G150" s="97" t="s">
         <v>362</v>
-      </c>
-      <c r="G150" s="97" t="s">
-        <v>363</v>
       </c>
       <c r="H150" s="12"/>
       <c r="I150" s="12"/>
@@ -12215,7 +12282,7 @@
       <c r="B161" s="48"/>
       <c r="C161" s="25"/>
       <c r="D161" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E161" s="92"/>
       <c r="F161" s="95"/>
@@ -12238,7 +12305,7 @@
       <c r="E162" s="92"/>
       <c r="F162" s="95"/>
       <c r="G162" s="31" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H162" s="12"/>
       <c r="I162" s="12"/>
@@ -12258,7 +12325,7 @@
       <c r="E163" s="93"/>
       <c r="F163" s="96"/>
       <c r="G163" s="31" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H163" s="12"/>
       <c r="I163" s="12"/>
@@ -12272,7 +12339,7 @@
       </c>
       <c r="B164" s="48"/>
       <c r="C164" s="25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D164" s="11" t="s">
         <v>136</v>
@@ -12281,10 +12348,10 @@
         <v>55</v>
       </c>
       <c r="F164" s="89" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G164" s="32" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H164" s="12"/>
       <c r="I164" s="12"/>

--- a/testcase_account_ver3.xlsx
+++ b/testcase_account_ver3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\7-Programming-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3469B48-58E6-4A56-9C0B-A525D1AF3678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F070B52-F880-4F79-BC15-679BA04664E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="374">
   <si>
     <t>作成者</t>
   </si>
@@ -2332,16 +2332,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>赤字で「エラーが発生したためアカウント登録できません。」と表示される。</t>
-    <rPh sb="0" eb="2">
-      <t>アカジ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>アカウント登録完了画面（エラー動作）</t>
     <rPh sb="5" eb="9">
       <t>トウロクカンリョウ</t>
@@ -5330,22 +5320,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「一覧に戻る」と書かれたボタンが表示される。</t>
-    <rPh sb="1" eb="3">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「本当に削除してよろしいですか？」と画面の真ん中に30pxの文字の大きさで表示される。</t>
     <rPh sb="18" eb="20">
       <t>ガメン</t>
@@ -5368,19 +5342,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「登録する」と書かれたボタンが表示される。</t>
-    <rPh sb="1" eb="3">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>アカウント更新画面</t>
     <rPh sb="5" eb="9">
       <t>コウシンガメン</t>
@@ -7017,68 +6978,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>PHP MyAdminの登録の際にエラーが発生した場合、「エラーが発生したためアカウント更新できません。」と赤文字で画面に表示させる。</t>
-    <rPh sb="12" eb="14">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="54" eb="57">
-      <t>アカモジ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>PHP MyAdminの登録の際にエラーが発生した場合、「エラーが発生したため削除できません。」と赤文字で画面に表示させる。</t>
-    <rPh sb="12" eb="14">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="49" eb="52">
-      <t>アカモジ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>インターネットのタブが「アカウント削除確認画面」と表示される。</t>
     <rPh sb="17" eb="19">
       <t>サクジョ</t>
@@ -7090,6 +6989,132 @@
       <t>ガメンイチガメン</t>
     </rPh>
     <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PHP MyAdminの登録の際にエラーが発生した場合、「エラーが発生したため削除できません。」とエラーメッセージを赤文字で画面に表示させる。</t>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="58" eb="61">
+      <t>アカモジ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PHP MyAdminの登録の際にエラーが発生した場合、「エラーが発生したためアカウント更新できません。」とエラーメッセージを赤文字で画面に表示させる。</t>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="63" eb="66">
+      <t>アカモジ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>赤字で「エラーが発生したためアカウント登録できません。」とエラーメッセージが表示される。</t>
+    <rPh sb="0" eb="2">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タブのタイトルに「アカウント更新画面」と表示される。</t>
+    <rPh sb="14" eb="16">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「一覧に戻る」と書かれたボタンが画面中央寄せで表示される。</t>
+    <rPh sb="1" eb="3">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="16" eb="21">
+      <t>ガメンチュウオウヨ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「登録する」と書かれたボタンが画面中央寄せで「一覧に戻る」ボタンの下に表示される。</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -7713,15 +7738,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7739,6 +7755,24 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7760,21 +7794,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7799,6 +7818,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -8152,7 +8177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M173"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A87" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A86" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
@@ -8173,12 +8198,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
       <c r="E1" s="53" t="s">
         <v>2</v>
       </c>
@@ -8196,15 +8221,15 @@
         <v>8</v>
       </c>
       <c r="K1" s="51" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A2" s="102"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
       <c r="E2" s="53" t="s">
         <v>3</v>
       </c>
@@ -8305,7 +8330,7 @@
       </c>
       <c r="J5" s="66"/>
       <c r="K5" s="64" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L5" s="9"/>
     </row>
@@ -8337,7 +8362,7 @@
       </c>
       <c r="J6" s="66"/>
       <c r="K6" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L6" s="22"/>
     </row>
@@ -8369,7 +8394,7 @@
       </c>
       <c r="J7" s="66"/>
       <c r="K7" s="63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L7" s="22"/>
     </row>
@@ -8401,7 +8426,7 @@
       </c>
       <c r="J8" s="66"/>
       <c r="K8" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L8" s="22"/>
     </row>
@@ -8435,7 +8460,7 @@
       </c>
       <c r="J9" s="66"/>
       <c r="K9" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L9" s="22"/>
     </row>
@@ -8467,7 +8492,7 @@
       </c>
       <c r="J10" s="66"/>
       <c r="K10" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L10" s="22"/>
     </row>
@@ -8497,7 +8522,7 @@
       </c>
       <c r="J11" s="67"/>
       <c r="K11" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L11" s="22"/>
     </row>
@@ -8518,7 +8543,7 @@
       <c r="F12" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="97" t="s">
+      <c r="G12" s="94" t="s">
         <v>107</v>
       </c>
       <c r="H12" s="68">
@@ -8529,7 +8554,7 @@
       </c>
       <c r="J12" s="65"/>
       <c r="K12" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L12" s="11"/>
     </row>
@@ -8548,7 +8573,7 @@
       <c r="F13" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="98"/>
+      <c r="G13" s="95"/>
       <c r="H13" s="60">
         <v>44354</v>
       </c>
@@ -8557,7 +8582,7 @@
       </c>
       <c r="J13" s="65"/>
       <c r="K13" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L13" s="11"/>
     </row>
@@ -8576,7 +8601,7 @@
       <c r="F14" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="98"/>
+      <c r="G14" s="95"/>
       <c r="H14" s="60">
         <v>44354</v>
       </c>
@@ -8585,7 +8610,7 @@
       </c>
       <c r="J14" s="30"/>
       <c r="K14" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L14" s="11"/>
     </row>
@@ -8604,7 +8629,7 @@
       <c r="F15" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="98"/>
+      <c r="G15" s="95"/>
       <c r="H15" s="68">
         <v>44354</v>
       </c>
@@ -8613,7 +8638,7 @@
       </c>
       <c r="J15" s="65"/>
       <c r="K15" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L15" s="11"/>
     </row>
@@ -8632,7 +8657,7 @@
       <c r="F16" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="98"/>
+      <c r="G16" s="95"/>
       <c r="H16" s="60">
         <v>44354</v>
       </c>
@@ -8641,7 +8666,7 @@
       </c>
       <c r="J16" s="30"/>
       <c r="K16" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L16" s="11"/>
     </row>
@@ -8660,7 +8685,7 @@
       <c r="F17" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="98"/>
+      <c r="G17" s="95"/>
       <c r="H17" s="60">
         <v>44354</v>
       </c>
@@ -8669,7 +8694,7 @@
       </c>
       <c r="J17" s="67"/>
       <c r="K17" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L17" s="11"/>
     </row>
@@ -8688,7 +8713,7 @@
       <c r="F18" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="98"/>
+      <c r="G18" s="95"/>
       <c r="H18" s="68">
         <v>44354</v>
       </c>
@@ -8697,7 +8722,7 @@
       </c>
       <c r="J18" s="65"/>
       <c r="K18" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L18" s="11"/>
     </row>
@@ -8716,7 +8741,7 @@
       <c r="F19" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="98"/>
+      <c r="G19" s="95"/>
       <c r="H19" s="60">
         <v>44354</v>
       </c>
@@ -8725,7 +8750,7 @@
       </c>
       <c r="J19" s="65"/>
       <c r="K19" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L19" s="11"/>
     </row>
@@ -8744,7 +8769,7 @@
       <c r="F20" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="98"/>
+      <c r="G20" s="95"/>
       <c r="H20" s="60">
         <v>44354</v>
       </c>
@@ -8753,7 +8778,7 @@
       </c>
       <c r="J20" s="65"/>
       <c r="K20" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L20" s="11"/>
     </row>
@@ -8772,7 +8797,7 @@
       <c r="F21" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="98"/>
+      <c r="G21" s="95"/>
       <c r="H21" s="68">
         <v>44354</v>
       </c>
@@ -8781,7 +8806,7 @@
       </c>
       <c r="J21" s="30"/>
       <c r="K21" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L21" s="11"/>
     </row>
@@ -8800,7 +8825,7 @@
       <c r="F22" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="98"/>
+      <c r="G22" s="95"/>
       <c r="H22" s="60">
         <v>44354</v>
       </c>
@@ -8809,7 +8834,7 @@
       </c>
       <c r="J22" s="67"/>
       <c r="K22" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L22" s="11"/>
     </row>
@@ -8828,7 +8853,7 @@
       <c r="F23" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="99"/>
+      <c r="G23" s="96"/>
       <c r="H23" s="60">
         <v>44354</v>
       </c>
@@ -8837,7 +8862,7 @@
       </c>
       <c r="J23" s="30"/>
       <c r="K23" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L23" s="11"/>
     </row>
@@ -8869,7 +8894,7 @@
       </c>
       <c r="J24" s="65"/>
       <c r="K24" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L24" s="11"/>
     </row>
@@ -8899,7 +8924,7 @@
       </c>
       <c r="J25" s="65"/>
       <c r="K25" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L25" s="11"/>
     </row>
@@ -8929,7 +8954,7 @@
       </c>
       <c r="J26" s="65"/>
       <c r="K26" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L26" s="11"/>
     </row>
@@ -8959,7 +8984,7 @@
       </c>
       <c r="J27" s="65"/>
       <c r="K27" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L27" s="11"/>
     </row>
@@ -8989,7 +9014,7 @@
       </c>
       <c r="J28" s="30"/>
       <c r="K28" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L28" s="11"/>
     </row>
@@ -9019,7 +9044,7 @@
       </c>
       <c r="J29" s="67"/>
       <c r="K29" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L29" s="11"/>
     </row>
@@ -9049,7 +9074,7 @@
       </c>
       <c r="J30" s="30"/>
       <c r="K30" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L30" s="11"/>
     </row>
@@ -9079,7 +9104,7 @@
       </c>
       <c r="J31" s="67"/>
       <c r="K31" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L31" s="11"/>
     </row>
@@ -9109,7 +9134,7 @@
       </c>
       <c r="J32" s="30"/>
       <c r="K32" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L32" s="11"/>
     </row>
@@ -9139,7 +9164,7 @@
       </c>
       <c r="J33" s="65"/>
       <c r="K33" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L33" s="11"/>
     </row>
@@ -9171,7 +9196,7 @@
       </c>
       <c r="J34" s="65"/>
       <c r="K34" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L34" s="11"/>
     </row>
@@ -9205,7 +9230,7 @@
       </c>
       <c r="J35" s="65"/>
       <c r="K35" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L35" s="11"/>
     </row>
@@ -9237,7 +9262,7 @@
       </c>
       <c r="J36" s="65"/>
       <c r="K36" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L36" s="11"/>
     </row>
@@ -9267,7 +9292,7 @@
       </c>
       <c r="J37" s="65"/>
       <c r="K37" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L37" s="11"/>
     </row>
@@ -9286,7 +9311,7 @@
       <c r="F38" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="G38" s="94" t="s">
+      <c r="G38" s="91" t="s">
         <v>110</v>
       </c>
       <c r="H38" s="68">
@@ -9297,7 +9322,7 @@
       </c>
       <c r="J38" s="65"/>
       <c r="K38" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L38" s="11"/>
     </row>
@@ -9316,7 +9341,7 @@
       <c r="F39" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="G39" s="95"/>
+      <c r="G39" s="92"/>
       <c r="H39" s="68">
         <v>44354</v>
       </c>
@@ -9325,7 +9350,7 @@
       </c>
       <c r="J39" s="65"/>
       <c r="K39" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L39" s="11"/>
     </row>
@@ -9344,7 +9369,7 @@
       <c r="F40" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="G40" s="95"/>
+      <c r="G40" s="92"/>
       <c r="H40" s="68">
         <v>44354</v>
       </c>
@@ -9353,7 +9378,7 @@
       </c>
       <c r="J40" s="30"/>
       <c r="K40" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L40" s="11"/>
     </row>
@@ -9372,7 +9397,7 @@
       <c r="F41" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="G41" s="95"/>
+      <c r="G41" s="92"/>
       <c r="H41" s="68">
         <v>44354</v>
       </c>
@@ -9381,7 +9406,7 @@
       </c>
       <c r="J41" s="65"/>
       <c r="K41" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L41" s="11"/>
     </row>
@@ -9400,7 +9425,7 @@
       <c r="F42" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="G42" s="96"/>
+      <c r="G42" s="93"/>
       <c r="H42" s="68">
         <v>44354</v>
       </c>
@@ -9409,7 +9434,7 @@
       </c>
       <c r="J42" s="65"/>
       <c r="K42" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L42" s="11"/>
     </row>
@@ -9438,10 +9463,10 @@
         <v>6</v>
       </c>
       <c r="J43" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K43" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L43" s="11"/>
     </row>
@@ -9471,7 +9496,7 @@
       </c>
       <c r="J44" s="30"/>
       <c r="K44" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L44" s="11"/>
     </row>
@@ -9500,10 +9525,10 @@
         <v>6</v>
       </c>
       <c r="J45" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K45" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L45" s="11"/>
     </row>
@@ -9533,7 +9558,7 @@
       </c>
       <c r="J46" s="65"/>
       <c r="K46" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L46" s="11"/>
     </row>
@@ -9552,7 +9577,7 @@
       <c r="F47" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="G47" s="94" t="s">
+      <c r="G47" s="91" t="s">
         <v>110</v>
       </c>
       <c r="H47" s="68">
@@ -9563,7 +9588,7 @@
       </c>
       <c r="J47" s="30"/>
       <c r="K47" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L47" s="11"/>
     </row>
@@ -9582,7 +9607,7 @@
       <c r="F48" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="G48" s="96"/>
+      <c r="G48" s="93"/>
       <c r="H48" s="68">
         <v>44354</v>
       </c>
@@ -9591,7 +9616,7 @@
       </c>
       <c r="J48" s="67"/>
       <c r="K48" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L48" s="11"/>
     </row>
@@ -9621,7 +9646,7 @@
       </c>
       <c r="J49" s="30"/>
       <c r="K49" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L49" s="11"/>
     </row>
@@ -9651,7 +9676,7 @@
       </c>
       <c r="J50" s="30"/>
       <c r="K50" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L50" s="11"/>
     </row>
@@ -9683,7 +9708,7 @@
       </c>
       <c r="J51" s="30"/>
       <c r="K51" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L51" s="11"/>
     </row>
@@ -9717,7 +9742,7 @@
       </c>
       <c r="J52" s="30"/>
       <c r="K52" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L52" s="11"/>
     </row>
@@ -9727,7 +9752,7 @@
       </c>
       <c r="B53" s="48"/>
       <c r="C53" s="37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D53" s="23" t="s">
         <v>81</v>
@@ -9749,7 +9774,7 @@
       </c>
       <c r="J53" s="67"/>
       <c r="K53" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L53" s="11"/>
     </row>
@@ -9779,7 +9804,7 @@
       </c>
       <c r="J54" s="30"/>
       <c r="K54" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L54" s="11"/>
     </row>
@@ -9809,7 +9834,7 @@
       </c>
       <c r="J55" s="67"/>
       <c r="K55" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L55" s="11"/>
     </row>
@@ -9819,7 +9844,7 @@
       </c>
       <c r="B56" s="47"/>
       <c r="C56" s="37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D56" s="23" t="s">
         <v>136</v>
@@ -9831,7 +9856,7 @@
         <v>141</v>
       </c>
       <c r="G56" s="32" t="s">
-        <v>142</v>
+        <v>370</v>
       </c>
       <c r="H56" s="68">
         <v>44355</v>
@@ -9840,10 +9865,10 @@
         <v>6</v>
       </c>
       <c r="J56" s="30" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="K56" s="39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L56" s="11"/>
     </row>
@@ -9852,7 +9877,7 @@
         <v>52</v>
       </c>
       <c r="B57" s="48" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C57" s="37" t="s">
         <v>78</v>
@@ -9863,11 +9888,11 @@
       <c r="E57" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F57" s="97" t="s">
-        <v>234</v>
+      <c r="F57" s="94" t="s">
+        <v>233</v>
       </c>
       <c r="G57" s="32" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H57" s="68">
         <v>44376</v>
@@ -9877,7 +9902,7 @@
       </c>
       <c r="J57" s="30"/>
       <c r="K57" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L57" s="11"/>
     </row>
@@ -9887,7 +9912,7 @@
       </c>
       <c r="B58" s="49"/>
       <c r="C58" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D58" s="24" t="s">
         <v>81</v>
@@ -9895,9 +9920,9 @@
       <c r="E58" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F58" s="98"/>
+      <c r="F58" s="95"/>
       <c r="G58" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H58" s="68">
         <v>44376</v>
@@ -9907,7 +9932,7 @@
       </c>
       <c r="J58" s="30"/>
       <c r="K58" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L58" s="11"/>
     </row>
@@ -9917,17 +9942,17 @@
       </c>
       <c r="B59" s="48"/>
       <c r="C59" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="E59" s="104" t="s">
+        <v>190</v>
+      </c>
+      <c r="E59" s="107" t="s">
         <v>55</v>
       </c>
-      <c r="F59" s="98"/>
+      <c r="F59" s="95"/>
       <c r="G59" s="37" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H59" s="68">
         <v>44376</v>
@@ -9937,7 +9962,7 @@
       </c>
       <c r="J59" s="30"/>
       <c r="K59" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L59" s="11"/>
     </row>
@@ -9950,10 +9975,10 @@
       <c r="D60" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E60" s="105"/>
-      <c r="F60" s="98"/>
+      <c r="E60" s="108"/>
+      <c r="F60" s="95"/>
       <c r="G60" s="37" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H60" s="68">
         <v>44376</v>
@@ -9963,7 +9988,7 @@
       </c>
       <c r="J60" s="30"/>
       <c r="K60" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L60" s="11"/>
     </row>
@@ -9976,10 +10001,10 @@
       <c r="D61" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E61" s="105"/>
-      <c r="F61" s="98"/>
+      <c r="E61" s="108"/>
+      <c r="F61" s="95"/>
       <c r="G61" s="37" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H61" s="68">
         <v>44376</v>
@@ -9989,7 +10014,7 @@
       </c>
       <c r="J61" s="30"/>
       <c r="K61" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L61" s="11"/>
     </row>
@@ -10002,10 +10027,10 @@
       <c r="D62" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E62" s="105"/>
-      <c r="F62" s="98"/>
+      <c r="E62" s="108"/>
+      <c r="F62" s="95"/>
       <c r="G62" s="37" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H62" s="68">
         <v>44376</v>
@@ -10015,7 +10040,7 @@
       </c>
       <c r="J62" s="30"/>
       <c r="K62" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L62" s="11"/>
     </row>
@@ -10028,10 +10053,10 @@
       <c r="D63" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E63" s="105"/>
-      <c r="F63" s="98"/>
+      <c r="E63" s="108"/>
+      <c r="F63" s="95"/>
       <c r="G63" s="37" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H63" s="68">
         <v>44376</v>
@@ -10041,7 +10066,7 @@
       </c>
       <c r="J63" s="30"/>
       <c r="K63" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L63" s="11"/>
     </row>
@@ -10054,10 +10079,10 @@
       <c r="D64" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E64" s="105"/>
-      <c r="F64" s="98"/>
+      <c r="E64" s="108"/>
+      <c r="F64" s="95"/>
       <c r="G64" s="37" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H64" s="68">
         <v>44376</v>
@@ -10067,7 +10092,7 @@
       </c>
       <c r="J64" s="30"/>
       <c r="K64" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L64" s="11"/>
     </row>
@@ -10080,10 +10105,10 @@
       <c r="D65" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E65" s="105"/>
-      <c r="F65" s="98"/>
+      <c r="E65" s="108"/>
+      <c r="F65" s="95"/>
       <c r="G65" s="31" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H65" s="68">
         <v>44376</v>
@@ -10093,7 +10118,7 @@
       </c>
       <c r="J65" s="30"/>
       <c r="K65" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L65" s="11"/>
     </row>
@@ -10106,10 +10131,10 @@
       <c r="D66" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E66" s="105"/>
-      <c r="F66" s="98"/>
+      <c r="E66" s="108"/>
+      <c r="F66" s="95"/>
       <c r="G66" s="31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H66" s="68">
         <v>44376</v>
@@ -10119,7 +10144,7 @@
       </c>
       <c r="J66" s="30"/>
       <c r="K66" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L66" s="11"/>
     </row>
@@ -10130,12 +10155,12 @@
       <c r="B67" s="48"/>
       <c r="C67" s="25"/>
       <c r="D67" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="E67" s="105"/>
-      <c r="F67" s="98"/>
+        <v>151</v>
+      </c>
+      <c r="E67" s="108"/>
+      <c r="F67" s="95"/>
       <c r="G67" s="31" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H67" s="68">
         <v>44376</v>
@@ -10145,7 +10170,7 @@
       </c>
       <c r="J67" s="30"/>
       <c r="K67" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L67" s="11"/>
     </row>
@@ -10156,12 +10181,12 @@
       <c r="B68" s="48"/>
       <c r="C68" s="25"/>
       <c r="D68" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="E68" s="105"/>
-      <c r="F68" s="98"/>
+        <v>152</v>
+      </c>
+      <c r="E68" s="108"/>
+      <c r="F68" s="95"/>
       <c r="G68" s="31" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H68" s="68">
         <v>44376</v>
@@ -10171,7 +10196,7 @@
       </c>
       <c r="J68" s="30"/>
       <c r="K68" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L68" s="11"/>
     </row>
@@ -10182,12 +10207,12 @@
       <c r="B69" s="48"/>
       <c r="C69" s="25"/>
       <c r="D69" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="E69" s="105"/>
-      <c r="F69" s="98"/>
+        <v>153</v>
+      </c>
+      <c r="E69" s="108"/>
+      <c r="F69" s="95"/>
       <c r="G69" s="31" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H69" s="68">
         <v>44376</v>
@@ -10197,7 +10222,7 @@
       </c>
       <c r="J69" s="30"/>
       <c r="K69" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L69" s="11"/>
     </row>
@@ -10208,12 +10233,12 @@
       <c r="B70" s="48"/>
       <c r="C70" s="25"/>
       <c r="D70" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="E70" s="105"/>
-      <c r="F70" s="98"/>
+        <v>246</v>
+      </c>
+      <c r="E70" s="108"/>
+      <c r="F70" s="95"/>
       <c r="G70" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H70" s="68">
         <v>44376</v>
@@ -10223,7 +10248,7 @@
       </c>
       <c r="J70" s="30"/>
       <c r="K70" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L70" s="11"/>
     </row>
@@ -10234,12 +10259,12 @@
       <c r="B71" s="48"/>
       <c r="C71" s="25"/>
       <c r="D71" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="E71" s="106"/>
-      <c r="F71" s="99"/>
+        <v>247</v>
+      </c>
+      <c r="E71" s="109"/>
+      <c r="F71" s="96"/>
       <c r="G71" s="31" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H71" s="68">
         <v>44376</v>
@@ -10249,7 +10274,7 @@
       </c>
       <c r="J71" s="30"/>
       <c r="K71" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L71" s="11"/>
     </row>
@@ -10258,7 +10283,7 @@
         <v>67</v>
       </c>
       <c r="B72" s="48" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C72" s="25" t="s">
         <v>78</v>
@@ -10270,10 +10295,10 @@
         <v>55</v>
       </c>
       <c r="F72" s="37" t="s">
+        <v>278</v>
+      </c>
+      <c r="G72" s="31" t="s">
         <v>279</v>
-      </c>
-      <c r="G72" s="31" t="s">
-        <v>280</v>
       </c>
       <c r="H72" s="68">
         <v>44428</v>
@@ -10282,7 +10307,9 @@
         <v>6</v>
       </c>
       <c r="J72" s="30"/>
-      <c r="K72" s="39"/>
+      <c r="K72" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L72" s="11"/>
     </row>
     <row r="73" spans="1:12" ht="31.5">
@@ -10296,14 +10323,14 @@
       <c r="D73" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E73" s="107" t="s">
+      <c r="E73" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="F73" s="94" t="s">
-        <v>279</v>
+      <c r="F73" s="91" t="s">
+        <v>278</v>
       </c>
       <c r="G73" s="31" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H73" s="68">
         <v>44428</v>
@@ -10312,7 +10339,9 @@
         <v>6</v>
       </c>
       <c r="J73" s="30"/>
-      <c r="K73" s="39"/>
+      <c r="K73" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L73" s="11"/>
     </row>
     <row r="74" spans="1:12" ht="31.5">
@@ -10324,10 +10353,10 @@
       <c r="D74" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E74" s="108"/>
-      <c r="F74" s="95"/>
+      <c r="E74" s="98"/>
+      <c r="F74" s="92"/>
       <c r="G74" s="31" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H74" s="68">
         <v>44428</v>
@@ -10336,7 +10365,9 @@
         <v>6</v>
       </c>
       <c r="J74" s="30"/>
-      <c r="K74" s="39"/>
+      <c r="K74" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L74" s="11"/>
     </row>
     <row r="75" spans="1:12" ht="31.5">
@@ -10348,10 +10379,10 @@
       <c r="D75" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="108"/>
-      <c r="F75" s="95"/>
+      <c r="E75" s="98"/>
+      <c r="F75" s="92"/>
       <c r="G75" s="31" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H75" s="68">
         <v>44428</v>
@@ -10360,7 +10391,9 @@
         <v>6</v>
       </c>
       <c r="J75" s="30"/>
-      <c r="K75" s="39"/>
+      <c r="K75" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L75" s="11"/>
     </row>
     <row r="76" spans="1:12" ht="31.5">
@@ -10372,10 +10405,10 @@
       <c r="D76" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E76" s="108"/>
-      <c r="F76" s="95"/>
+      <c r="E76" s="98"/>
+      <c r="F76" s="92"/>
       <c r="G76" s="31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H76" s="68">
         <v>44428</v>
@@ -10384,7 +10417,9 @@
         <v>6</v>
       </c>
       <c r="J76" s="30"/>
-      <c r="K76" s="39"/>
+      <c r="K76" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L76" s="11"/>
     </row>
     <row r="77" spans="1:12" ht="31.5">
@@ -10396,10 +10431,10 @@
       <c r="D77" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E77" s="108"/>
-      <c r="F77" s="95"/>
+      <c r="E77" s="98"/>
+      <c r="F77" s="92"/>
       <c r="G77" s="31" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H77" s="68">
         <v>44428</v>
@@ -10408,7 +10443,9 @@
         <v>6</v>
       </c>
       <c r="J77" s="30"/>
-      <c r="K77" s="39"/>
+      <c r="K77" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L77" s="11"/>
     </row>
     <row r="78" spans="1:12" ht="47.25">
@@ -10420,10 +10457,10 @@
       <c r="D78" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E78" s="108"/>
-      <c r="F78" s="95"/>
+      <c r="E78" s="98"/>
+      <c r="F78" s="92"/>
       <c r="G78" s="31" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H78" s="68">
         <v>44428</v>
@@ -10432,7 +10469,9 @@
         <v>6</v>
       </c>
       <c r="J78" s="30"/>
-      <c r="K78" s="39"/>
+      <c r="K78" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L78" s="11"/>
     </row>
     <row r="79" spans="1:12" ht="31.5">
@@ -10444,10 +10483,10 @@
       <c r="D79" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E79" s="108"/>
-      <c r="F79" s="95"/>
+      <c r="E79" s="98"/>
+      <c r="F79" s="92"/>
       <c r="G79" s="31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H79" s="68">
         <v>44428</v>
@@ -10456,7 +10495,9 @@
         <v>6</v>
       </c>
       <c r="J79" s="30"/>
-      <c r="K79" s="39"/>
+      <c r="K79" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L79" s="11"/>
     </row>
     <row r="80" spans="1:12" ht="31.5">
@@ -10468,10 +10509,10 @@
       <c r="D80" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E80" s="108"/>
-      <c r="F80" s="95"/>
+      <c r="E80" s="98"/>
+      <c r="F80" s="92"/>
       <c r="G80" s="31" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H80" s="68">
         <v>44428</v>
@@ -10480,7 +10521,9 @@
         <v>6</v>
       </c>
       <c r="J80" s="30"/>
-      <c r="K80" s="39"/>
+      <c r="K80" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L80" s="11"/>
     </row>
     <row r="81" spans="1:12" ht="31.5">
@@ -10492,10 +10535,10 @@
       <c r="D81" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E81" s="108"/>
-      <c r="F81" s="95"/>
+      <c r="E81" s="98"/>
+      <c r="F81" s="92"/>
       <c r="G81" s="31" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H81" s="68">
         <v>44428</v>
@@ -10504,7 +10547,9 @@
         <v>6</v>
       </c>
       <c r="J81" s="30"/>
-      <c r="K81" s="39"/>
+      <c r="K81" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L81" s="11"/>
     </row>
     <row r="82" spans="1:12" ht="31.5">
@@ -10516,10 +10561,10 @@
       <c r="D82" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E82" s="108"/>
-      <c r="F82" s="95"/>
+      <c r="E82" s="98"/>
+      <c r="F82" s="92"/>
       <c r="G82" s="31" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H82" s="68">
         <v>44428</v>
@@ -10528,7 +10573,9 @@
         <v>6</v>
       </c>
       <c r="J82" s="30"/>
-      <c r="K82" s="39"/>
+      <c r="K82" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L82" s="11"/>
     </row>
     <row r="83" spans="1:12" ht="31.5">
@@ -10540,10 +10587,10 @@
       <c r="D83" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E83" s="108"/>
-      <c r="F83" s="95"/>
+      <c r="E83" s="98"/>
+      <c r="F83" s="92"/>
       <c r="G83" s="31" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H83" s="68">
         <v>44428</v>
@@ -10552,7 +10599,9 @@
         <v>6</v>
       </c>
       <c r="J83" s="30"/>
-      <c r="K83" s="39"/>
+      <c r="K83" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L83" s="11"/>
     </row>
     <row r="84" spans="1:12" ht="31.5">
@@ -10564,10 +10613,10 @@
       <c r="D84" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E84" s="109"/>
-      <c r="F84" s="96"/>
+      <c r="E84" s="99"/>
+      <c r="F84" s="93"/>
       <c r="G84" s="31" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H84" s="68">
         <v>44428</v>
@@ -10576,7 +10625,9 @@
         <v>6</v>
       </c>
       <c r="J84" s="30"/>
-      <c r="K84" s="39"/>
+      <c r="K84" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L84" s="11"/>
     </row>
     <row r="85" spans="1:12" ht="31.5">
@@ -10592,10 +10643,10 @@
         <v>55</v>
       </c>
       <c r="F85" s="37" t="s">
+        <v>292</v>
+      </c>
+      <c r="G85" s="31" t="s">
         <v>293</v>
-      </c>
-      <c r="G85" s="31" t="s">
-        <v>294</v>
       </c>
       <c r="H85" s="68">
         <v>44428</v>
@@ -10604,7 +10655,9 @@
         <v>6</v>
       </c>
       <c r="J85" s="30"/>
-      <c r="K85" s="39"/>
+      <c r="K85" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L85" s="11"/>
     </row>
     <row r="86" spans="1:12" ht="31.5">
@@ -10612,7 +10665,7 @@
         <v>81</v>
       </c>
       <c r="B86" s="48" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C86" s="25" t="s">
         <v>78</v>
@@ -10620,21 +10673,25 @@
       <c r="D86" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E86" s="107" t="s">
+      <c r="E86" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="F86" s="94" t="s">
-        <v>303</v>
+      <c r="F86" s="91" t="s">
+        <v>302</v>
       </c>
       <c r="G86" s="31" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="H86" s="68">
         <v>44428</v>
       </c>
-      <c r="I86" s="12"/>
+      <c r="I86" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J86" s="30"/>
-      <c r="K86" s="39"/>
+      <c r="K86" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L86" s="11"/>
     </row>
     <row r="87" spans="1:12" ht="31.5">
@@ -10646,61 +10703,73 @@
       <c r="D87" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="E87" s="108"/>
-      <c r="F87" s="95"/>
+      <c r="E87" s="98"/>
+      <c r="F87" s="92"/>
       <c r="G87" s="31" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H87" s="68">
         <v>44428</v>
       </c>
-      <c r="I87" s="12"/>
+      <c r="I87" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J87" s="30"/>
-      <c r="K87" s="39"/>
+      <c r="K87" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L87" s="11"/>
     </row>
-    <row r="88" spans="1:12" ht="11.25" customHeight="1">
+    <row r="88" spans="1:12" ht="31.5">
       <c r="A88" s="12">
         <v>83</v>
       </c>
       <c r="B88" s="48"/>
       <c r="C88" s="25"/>
       <c r="D88" s="25" t="s">
-        <v>296</v>
-      </c>
-      <c r="E88" s="108"/>
-      <c r="F88" s="95"/>
+        <v>295</v>
+      </c>
+      <c r="E88" s="98"/>
+      <c r="F88" s="92"/>
       <c r="G88" s="31" t="s">
-        <v>305</v>
+        <v>372</v>
       </c>
       <c r="H88" s="68">
         <v>44428</v>
       </c>
-      <c r="I88" s="12"/>
+      <c r="I88" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J88" s="30"/>
-      <c r="K88" s="39"/>
+      <c r="K88" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L88" s="11"/>
     </row>
-    <row r="89" spans="1:12" ht="11.25" customHeight="1">
+    <row r="89" spans="1:12" ht="31.5">
       <c r="A89" s="12">
         <v>84</v>
       </c>
       <c r="B89" s="48"/>
       <c r="C89" s="25"/>
       <c r="D89" s="25" t="s">
-        <v>297</v>
-      </c>
-      <c r="E89" s="109"/>
-      <c r="F89" s="96"/>
+        <v>296</v>
+      </c>
+      <c r="E89" s="99"/>
+      <c r="F89" s="93"/>
       <c r="G89" s="31" t="s">
-        <v>307</v>
+        <v>373</v>
       </c>
       <c r="H89" s="68">
         <v>44428</v>
       </c>
-      <c r="I89" s="12"/>
+      <c r="I89" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J89" s="30"/>
-      <c r="K89" s="39"/>
+      <c r="K89" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L89" s="11"/>
     </row>
     <row r="90" spans="1:12" ht="47.25">
@@ -10708,7 +10777,7 @@
         <v>85</v>
       </c>
       <c r="B90" s="48" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C90" s="37" t="s">
         <v>78</v>
@@ -10716,21 +10785,25 @@
       <c r="D90" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="E90" s="107" t="s">
+      <c r="E90" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="F90" s="97" t="s">
-        <v>302</v>
+      <c r="F90" s="94" t="s">
+        <v>301</v>
       </c>
       <c r="G90" s="30" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H90" s="68">
         <v>44428</v>
       </c>
-      <c r="I90" s="12"/>
+      <c r="I90" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J90" s="30"/>
-      <c r="K90" s="39"/>
+      <c r="K90" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L90" s="11"/>
     </row>
     <row r="91" spans="1:12" ht="31.5">
@@ -10739,20 +10812,26 @@
       </c>
       <c r="B91" s="48"/>
       <c r="C91" s="37" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D91" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="E91" s="108"/>
-      <c r="F91" s="98"/>
+      <c r="E91" s="98"/>
+      <c r="F91" s="95"/>
       <c r="G91" s="32" t="s">
-        <v>300</v>
-      </c>
-      <c r="H91" s="12"/>
-      <c r="I91" s="12"/>
+        <v>299</v>
+      </c>
+      <c r="H91" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I91" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J91" s="30"/>
-      <c r="K91" s="39"/>
+      <c r="K91" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L91" s="11"/>
     </row>
     <row r="92" spans="1:12" ht="31.5">
@@ -10764,15 +10843,21 @@
       <c r="D92" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="E92" s="109"/>
-      <c r="F92" s="98"/>
+      <c r="E92" s="99"/>
+      <c r="F92" s="95"/>
       <c r="G92" s="32" t="s">
-        <v>304</v>
-      </c>
-      <c r="H92" s="12"/>
-      <c r="I92" s="12"/>
+        <v>303</v>
+      </c>
+      <c r="H92" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I92" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J92" s="30"/>
-      <c r="K92" s="39"/>
+      <c r="K92" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L92" s="11"/>
     </row>
     <row r="93" spans="1:12" ht="31.5">
@@ -10780,25 +10865,31 @@
         <v>88</v>
       </c>
       <c r="B93" s="48" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C93" s="37" t="s">
         <v>136</v>
       </c>
       <c r="D93" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E93" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F93" s="98"/>
+      <c r="F93" s="95"/>
       <c r="G93" s="32" t="s">
-        <v>358</v>
-      </c>
-      <c r="H93" s="12"/>
-      <c r="I93" s="12"/>
+        <v>355</v>
+      </c>
+      <c r="H93" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I93" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J93" s="30"/>
-      <c r="K93" s="39"/>
+      <c r="K93" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L93" s="11"/>
     </row>
     <row r="94" spans="1:12" ht="31.5">
@@ -10808,19 +10899,25 @@
       <c r="B94" s="48"/>
       <c r="C94" s="37"/>
       <c r="D94" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E94" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F94" s="99"/>
+      <c r="F94" s="96"/>
       <c r="G94" s="32" t="s">
-        <v>359</v>
-      </c>
-      <c r="H94" s="12"/>
-      <c r="I94" s="12"/>
+        <v>356</v>
+      </c>
+      <c r="H94" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I94" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J94" s="30"/>
-      <c r="K94" s="39"/>
+      <c r="K94" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L94" s="11"/>
     </row>
     <row r="95" spans="1:12" ht="47.25">
@@ -10829,7 +10926,7 @@
       </c>
       <c r="B95" s="48"/>
       <c r="C95" s="37" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D95" s="23" t="s">
         <v>136</v>
@@ -10838,17 +10935,21 @@
         <v>55</v>
       </c>
       <c r="F95" s="89" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G95" s="32" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="H95" s="68">
-        <v>44428</v>
-      </c>
-      <c r="I95" s="12"/>
+        <v>44435</v>
+      </c>
+      <c r="I95" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J95" s="30"/>
-      <c r="K95" s="39"/>
+      <c r="K95" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L95" s="11"/>
     </row>
     <row r="96" spans="1:12" ht="31.5">
@@ -10856,7 +10957,7 @@
         <v>91</v>
       </c>
       <c r="B96" s="48" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C96" s="25" t="s">
         <v>78</v>
@@ -10868,10 +10969,10 @@
         <v>55</v>
       </c>
       <c r="F96" s="37" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G96" s="31" t="s">
-        <v>280</v>
+        <v>371</v>
       </c>
       <c r="H96" s="12"/>
       <c r="I96" s="12"/>
@@ -10890,14 +10991,14 @@
       <c r="D97" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E97" s="107" t="s">
+      <c r="E97" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="F97" s="94" t="s">
-        <v>309</v>
+      <c r="F97" s="91" t="s">
+        <v>306</v>
       </c>
       <c r="G97" s="31" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="H97" s="12"/>
       <c r="I97" s="12"/>
@@ -10914,10 +11015,10 @@
       <c r="D98" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E98" s="108"/>
-      <c r="F98" s="95"/>
+      <c r="E98" s="98"/>
+      <c r="F98" s="92"/>
       <c r="G98" s="31" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H98" s="12"/>
       <c r="I98" s="12"/>
@@ -10934,10 +11035,10 @@
       <c r="D99" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E99" s="108"/>
-      <c r="F99" s="95"/>
+      <c r="E99" s="98"/>
+      <c r="F99" s="92"/>
       <c r="G99" s="31" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H99" s="12"/>
       <c r="I99" s="12"/>
@@ -10954,10 +11055,10 @@
       <c r="D100" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E100" s="108"/>
-      <c r="F100" s="95"/>
+      <c r="E100" s="98"/>
+      <c r="F100" s="92"/>
       <c r="G100" s="31" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H100" s="12"/>
       <c r="I100" s="12"/>
@@ -10974,10 +11075,10 @@
       <c r="D101" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E101" s="108"/>
-      <c r="F101" s="95"/>
+      <c r="E101" s="98"/>
+      <c r="F101" s="92"/>
       <c r="G101" s="31" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H101" s="12"/>
       <c r="I101" s="12"/>
@@ -10994,10 +11095,10 @@
       <c r="D102" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E102" s="108"/>
-      <c r="F102" s="95"/>
+      <c r="E102" s="98"/>
+      <c r="F102" s="92"/>
       <c r="G102" s="31" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H102" s="12"/>
       <c r="I102" s="12"/>
@@ -11014,10 +11115,10 @@
       <c r="D103" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E103" s="108"/>
-      <c r="F103" s="95"/>
+      <c r="E103" s="98"/>
+      <c r="F103" s="92"/>
       <c r="G103" s="31" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H103" s="12"/>
       <c r="I103" s="12"/>
@@ -11034,10 +11135,10 @@
       <c r="D104" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E104" s="108"/>
-      <c r="F104" s="95"/>
+      <c r="E104" s="98"/>
+      <c r="F104" s="92"/>
       <c r="G104" s="31" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H104" s="12"/>
       <c r="I104" s="12"/>
@@ -11054,10 +11155,10 @@
       <c r="D105" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E105" s="108"/>
-      <c r="F105" s="95"/>
+      <c r="E105" s="98"/>
+      <c r="F105" s="92"/>
       <c r="G105" s="31" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H105" s="12"/>
       <c r="I105" s="12"/>
@@ -11074,10 +11175,10 @@
       <c r="D106" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E106" s="108"/>
-      <c r="F106" s="95"/>
+      <c r="E106" s="98"/>
+      <c r="F106" s="92"/>
       <c r="G106" s="31" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H106" s="12"/>
       <c r="I106" s="12"/>
@@ -11094,10 +11195,10 @@
       <c r="D107" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E107" s="108"/>
-      <c r="F107" s="95"/>
+      <c r="E107" s="98"/>
+      <c r="F107" s="92"/>
       <c r="G107" s="31" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H107" s="12"/>
       <c r="I107" s="12"/>
@@ -11114,10 +11215,10 @@
       <c r="D108" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E108" s="109"/>
-      <c r="F108" s="96"/>
+      <c r="E108" s="99"/>
+      <c r="F108" s="93"/>
       <c r="G108" s="31" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H108" s="12"/>
       <c r="I108" s="12"/>
@@ -11138,10 +11239,10 @@
         <v>55</v>
       </c>
       <c r="F109" s="37" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G109" s="31" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H109" s="12"/>
       <c r="I109" s="12"/>
@@ -11155,7 +11256,7 @@
       </c>
       <c r="B110" s="48"/>
       <c r="C110" s="25" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D110" s="11" t="s">
         <v>16</v>
@@ -11164,9 +11265,9 @@
         <v>30</v>
       </c>
       <c r="F110" s="31" t="s">
-        <v>327</v>
-      </c>
-      <c r="G110" s="97" t="s">
+        <v>324</v>
+      </c>
+      <c r="G110" s="94" t="s">
         <v>107</v>
       </c>
       <c r="H110" s="12"/>
@@ -11188,9 +11289,9 @@
         <v>30</v>
       </c>
       <c r="F111" s="31" t="s">
-        <v>328</v>
-      </c>
-      <c r="G111" s="98"/>
+        <v>325</v>
+      </c>
+      <c r="G111" s="95"/>
       <c r="H111" s="12"/>
       <c r="I111" s="12"/>
       <c r="J111" s="30"/>
@@ -11210,9 +11311,9 @@
         <v>30</v>
       </c>
       <c r="F112" s="31" t="s">
-        <v>329</v>
-      </c>
-      <c r="G112" s="98"/>
+        <v>326</v>
+      </c>
+      <c r="G112" s="95"/>
       <c r="H112" s="12"/>
       <c r="I112" s="12"/>
       <c r="J112" s="30"/>
@@ -11232,9 +11333,9 @@
         <v>30</v>
       </c>
       <c r="F113" s="31" t="s">
-        <v>329</v>
-      </c>
-      <c r="G113" s="98"/>
+        <v>326</v>
+      </c>
+      <c r="G113" s="95"/>
       <c r="H113" s="12"/>
       <c r="I113" s="12"/>
       <c r="J113" s="30"/>
@@ -11254,9 +11355,9 @@
         <v>30</v>
       </c>
       <c r="F114" s="31" t="s">
-        <v>330</v>
-      </c>
-      <c r="G114" s="98"/>
+        <v>327</v>
+      </c>
+      <c r="G114" s="95"/>
       <c r="H114" s="12"/>
       <c r="I114" s="12"/>
       <c r="J114" s="30"/>
@@ -11276,9 +11377,9 @@
         <v>30</v>
       </c>
       <c r="F115" s="31" t="s">
-        <v>346</v>
-      </c>
-      <c r="G115" s="98"/>
+        <v>343</v>
+      </c>
+      <c r="G115" s="95"/>
       <c r="H115" s="12"/>
       <c r="I115" s="12"/>
       <c r="J115" s="30"/>
@@ -11298,9 +11399,9 @@
         <v>31</v>
       </c>
       <c r="F116" s="31" t="s">
-        <v>350</v>
-      </c>
-      <c r="G116" s="98"/>
+        <v>347</v>
+      </c>
+      <c r="G116" s="95"/>
       <c r="H116" s="12"/>
       <c r="I116" s="12"/>
       <c r="J116" s="30"/>
@@ -11320,9 +11421,9 @@
         <v>30</v>
       </c>
       <c r="F117" s="31" t="s">
-        <v>331</v>
-      </c>
-      <c r="G117" s="98"/>
+        <v>328</v>
+      </c>
+      <c r="G117" s="95"/>
       <c r="H117" s="12"/>
       <c r="I117" s="12"/>
       <c r="J117" s="30"/>
@@ -11342,9 +11443,9 @@
         <v>31</v>
       </c>
       <c r="F118" s="31" t="s">
-        <v>326</v>
-      </c>
-      <c r="G118" s="98"/>
+        <v>323</v>
+      </c>
+      <c r="G118" s="95"/>
       <c r="H118" s="12"/>
       <c r="I118" s="12"/>
       <c r="J118" s="30"/>
@@ -11364,9 +11465,9 @@
         <v>30</v>
       </c>
       <c r="F119" s="31" t="s">
-        <v>332</v>
-      </c>
-      <c r="G119" s="98"/>
+        <v>329</v>
+      </c>
+      <c r="G119" s="95"/>
       <c r="H119" s="12"/>
       <c r="I119" s="12"/>
       <c r="J119" s="30"/>
@@ -11386,9 +11487,9 @@
         <v>30</v>
       </c>
       <c r="F120" s="31" t="s">
-        <v>333</v>
-      </c>
-      <c r="G120" s="98"/>
+        <v>330</v>
+      </c>
+      <c r="G120" s="95"/>
       <c r="H120" s="12"/>
       <c r="I120" s="12"/>
       <c r="J120" s="30"/>
@@ -11408,9 +11509,9 @@
         <v>31</v>
       </c>
       <c r="F121" s="31" t="s">
-        <v>325</v>
-      </c>
-      <c r="G121" s="99"/>
+        <v>322</v>
+      </c>
+      <c r="G121" s="96"/>
       <c r="H121" s="12"/>
       <c r="I121" s="12"/>
       <c r="J121" s="30"/>
@@ -11423,7 +11524,7 @@
       </c>
       <c r="B122" s="48"/>
       <c r="C122" s="25" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D122" s="11" t="s">
         <v>16</v>
@@ -11432,7 +11533,7 @@
         <v>30</v>
       </c>
       <c r="F122" s="31" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G122" s="32" t="s">
         <v>99</v>
@@ -11456,7 +11557,7 @@
         <v>30</v>
       </c>
       <c r="F123" s="31" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G123" s="32" t="s">
         <v>98</v>
@@ -11480,7 +11581,7 @@
         <v>30</v>
       </c>
       <c r="F124" s="31" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G124" s="32" t="s">
         <v>100</v>
@@ -11504,7 +11605,7 @@
         <v>30</v>
       </c>
       <c r="F125" s="31" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G125" s="32" t="s">
         <v>101</v>
@@ -11528,7 +11629,7 @@
         <v>30</v>
       </c>
       <c r="F126" s="31" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G126" s="32" t="s">
         <v>89</v>
@@ -11552,10 +11653,10 @@
         <v>30</v>
       </c>
       <c r="F127" s="31" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G127" s="32" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H127" s="12"/>
       <c r="I127" s="12"/>
@@ -11576,7 +11677,7 @@
         <v>30</v>
       </c>
       <c r="F128" s="31" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G128" s="32" t="s">
         <v>103</v>
@@ -11600,7 +11701,7 @@
         <v>31</v>
       </c>
       <c r="F129" s="31" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G129" s="32" t="s">
         <v>104</v>
@@ -11624,7 +11725,7 @@
         <v>30</v>
       </c>
       <c r="F130" s="31" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G130" s="32" t="s">
         <v>105</v>
@@ -11648,7 +11749,7 @@
         <v>30</v>
       </c>
       <c r="F131" s="31" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G131" s="32" t="s">
         <v>106</v>
@@ -11664,7 +11765,7 @@
         <v>127</v>
       </c>
       <c r="B132" s="48" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C132" s="25" t="s">
         <v>78</v>
@@ -11675,11 +11776,11 @@
       <c r="E132" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F132" s="94" t="s">
-        <v>348</v>
+      <c r="F132" s="91" t="s">
+        <v>345</v>
       </c>
       <c r="G132" s="31" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="H132" s="12"/>
       <c r="I132" s="12"/>
@@ -11699,7 +11800,7 @@
       <c r="E133" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F133" s="95"/>
+      <c r="F133" s="92"/>
       <c r="G133" s="32" t="s">
         <v>108</v>
       </c>
@@ -11721,7 +11822,7 @@
       <c r="E134" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F134" s="95"/>
+      <c r="F134" s="92"/>
       <c r="G134" s="32" t="s">
         <v>109</v>
       </c>
@@ -11743,7 +11844,7 @@
       <c r="E135" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F135" s="95"/>
+      <c r="F135" s="92"/>
       <c r="G135" s="32" t="s">
         <v>112</v>
       </c>
@@ -11765,7 +11866,7 @@
       <c r="E136" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F136" s="95"/>
+      <c r="F136" s="92"/>
       <c r="G136" s="32" t="s">
         <v>113</v>
       </c>
@@ -11787,7 +11888,7 @@
       <c r="E137" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F137" s="95"/>
+      <c r="F137" s="92"/>
       <c r="G137" s="32" t="s">
         <v>114</v>
       </c>
@@ -11809,7 +11910,7 @@
       <c r="E138" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F138" s="95"/>
+      <c r="F138" s="92"/>
       <c r="G138" s="32" t="s">
         <v>111</v>
       </c>
@@ -11831,7 +11932,7 @@
       <c r="E139" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F139" s="95"/>
+      <c r="F139" s="92"/>
       <c r="G139" s="32" t="s">
         <v>115</v>
       </c>
@@ -11853,7 +11954,7 @@
       <c r="E140" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F140" s="95"/>
+      <c r="F140" s="92"/>
       <c r="G140" s="32" t="s">
         <v>108</v>
       </c>
@@ -11875,7 +11976,7 @@
       <c r="E141" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F141" s="95"/>
+      <c r="F141" s="92"/>
       <c r="G141" s="32" t="s">
         <v>117</v>
       </c>
@@ -11897,7 +11998,7 @@
       <c r="E142" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F142" s="95"/>
+      <c r="F142" s="92"/>
       <c r="G142" s="32" t="s">
         <v>108</v>
       </c>
@@ -11919,7 +12020,7 @@
       <c r="E143" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F143" s="95"/>
+      <c r="F143" s="92"/>
       <c r="G143" s="32" t="s">
         <v>108</v>
       </c>
@@ -11941,7 +12042,7 @@
       <c r="E144" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F144" s="95"/>
+      <c r="F144" s="92"/>
       <c r="G144" s="32" t="s">
         <v>116</v>
       </c>
@@ -11963,9 +12064,9 @@
       <c r="E145" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F145" s="95"/>
+      <c r="F145" s="92"/>
       <c r="G145" s="31" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H145" s="12"/>
       <c r="I145" s="12"/>
@@ -11985,9 +12086,9 @@
       <c r="E146" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F146" s="96"/>
+      <c r="F146" s="93"/>
       <c r="G146" s="31" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H146" s="12"/>
       <c r="I146" s="12"/>
@@ -12000,7 +12101,7 @@
         <v>142</v>
       </c>
       <c r="B147" s="48" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C147" s="25" t="s">
         <v>78</v>
@@ -12011,11 +12112,11 @@
       <c r="E147" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F147" s="94" t="s">
-        <v>354</v>
+      <c r="F147" s="91" t="s">
+        <v>351</v>
       </c>
       <c r="G147" s="31" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H147" s="12"/>
       <c r="I147" s="12"/>
@@ -12035,9 +12136,9 @@
       <c r="E148" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F148" s="95"/>
+      <c r="F148" s="92"/>
       <c r="G148" s="31" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H148" s="12"/>
       <c r="I148" s="12"/>
@@ -12057,9 +12158,9 @@
       <c r="E149" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F149" s="96"/>
+      <c r="F149" s="93"/>
       <c r="G149" s="32" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H149" s="12"/>
       <c r="I149" s="12"/>
@@ -12072,7 +12173,7 @@
         <v>145</v>
       </c>
       <c r="B150" s="48" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C150" s="25" t="s">
         <v>136</v>
@@ -12080,14 +12181,14 @@
       <c r="D150" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E150" s="91" t="s">
+      <c r="E150" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="F150" s="94" t="s">
-        <v>361</v>
-      </c>
-      <c r="G150" s="97" t="s">
-        <v>362</v>
+      <c r="F150" s="91" t="s">
+        <v>358</v>
+      </c>
+      <c r="G150" s="94" t="s">
+        <v>359</v>
       </c>
       <c r="H150" s="12"/>
       <c r="I150" s="12"/>
@@ -12104,9 +12205,9 @@
       <c r="D151" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E151" s="92"/>
-      <c r="F151" s="95"/>
-      <c r="G151" s="98"/>
+      <c r="E151" s="101"/>
+      <c r="F151" s="92"/>
+      <c r="G151" s="95"/>
       <c r="H151" s="12"/>
       <c r="I151" s="12"/>
       <c r="J151" s="30"/>
@@ -12122,9 +12223,9 @@
       <c r="D152" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E152" s="92"/>
-      <c r="F152" s="95"/>
-      <c r="G152" s="98"/>
+      <c r="E152" s="101"/>
+      <c r="F152" s="92"/>
+      <c r="G152" s="95"/>
       <c r="H152" s="12"/>
       <c r="I152" s="12"/>
       <c r="J152" s="30"/>
@@ -12140,9 +12241,9 @@
       <c r="D153" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E153" s="92"/>
-      <c r="F153" s="95"/>
-      <c r="G153" s="98"/>
+      <c r="E153" s="101"/>
+      <c r="F153" s="92"/>
+      <c r="G153" s="95"/>
       <c r="H153" s="12"/>
       <c r="I153" s="12"/>
       <c r="J153" s="30"/>
@@ -12158,9 +12259,9 @@
       <c r="D154" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E154" s="92"/>
-      <c r="F154" s="95"/>
-      <c r="G154" s="98"/>
+      <c r="E154" s="101"/>
+      <c r="F154" s="92"/>
+      <c r="G154" s="95"/>
       <c r="H154" s="12"/>
       <c r="I154" s="12"/>
       <c r="J154" s="30"/>
@@ -12176,9 +12277,9 @@
       <c r="D155" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E155" s="92"/>
-      <c r="F155" s="95"/>
-      <c r="G155" s="98"/>
+      <c r="E155" s="101"/>
+      <c r="F155" s="92"/>
+      <c r="G155" s="95"/>
       <c r="H155" s="12"/>
       <c r="I155" s="12"/>
       <c r="J155" s="30"/>
@@ -12194,9 +12295,9 @@
       <c r="D156" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E156" s="92"/>
-      <c r="F156" s="95"/>
-      <c r="G156" s="98"/>
+      <c r="E156" s="101"/>
+      <c r="F156" s="92"/>
+      <c r="G156" s="95"/>
       <c r="H156" s="12"/>
       <c r="I156" s="12"/>
       <c r="J156" s="30"/>
@@ -12212,9 +12313,9 @@
       <c r="D157" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E157" s="92"/>
-      <c r="F157" s="95"/>
-      <c r="G157" s="98"/>
+      <c r="E157" s="101"/>
+      <c r="F157" s="92"/>
+      <c r="G157" s="95"/>
       <c r="H157" s="12"/>
       <c r="I157" s="12"/>
       <c r="J157" s="30"/>
@@ -12230,9 +12331,9 @@
       <c r="D158" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E158" s="92"/>
-      <c r="F158" s="95"/>
-      <c r="G158" s="98"/>
+      <c r="E158" s="101"/>
+      <c r="F158" s="92"/>
+      <c r="G158" s="95"/>
       <c r="H158" s="12"/>
       <c r="I158" s="12"/>
       <c r="J158" s="30"/>
@@ -12248,9 +12349,9 @@
       <c r="D159" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E159" s="92"/>
-      <c r="F159" s="95"/>
-      <c r="G159" s="98"/>
+      <c r="E159" s="101"/>
+      <c r="F159" s="92"/>
+      <c r="G159" s="95"/>
       <c r="H159" s="12"/>
       <c r="I159" s="12"/>
       <c r="J159" s="30"/>
@@ -12266,9 +12367,9 @@
       <c r="D160" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E160" s="92"/>
-      <c r="F160" s="95"/>
-      <c r="G160" s="98"/>
+      <c r="E160" s="101"/>
+      <c r="F160" s="92"/>
+      <c r="G160" s="95"/>
       <c r="H160" s="12"/>
       <c r="I160" s="12"/>
       <c r="J160" s="30"/>
@@ -12282,11 +12383,11 @@
       <c r="B161" s="48"/>
       <c r="C161" s="25"/>
       <c r="D161" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="E161" s="92"/>
-      <c r="F161" s="95"/>
-      <c r="G161" s="99"/>
+        <v>357</v>
+      </c>
+      <c r="E161" s="101"/>
+      <c r="F161" s="92"/>
+      <c r="G161" s="96"/>
       <c r="H161" s="12"/>
       <c r="I161" s="12"/>
       <c r="J161" s="30"/>
@@ -12300,12 +12401,12 @@
       <c r="B162" s="48"/>
       <c r="C162" s="25"/>
       <c r="D162" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="E162" s="92"/>
-      <c r="F162" s="95"/>
+        <v>151</v>
+      </c>
+      <c r="E162" s="101"/>
+      <c r="F162" s="92"/>
       <c r="G162" s="31" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H162" s="12"/>
       <c r="I162" s="12"/>
@@ -12320,12 +12421,12 @@
       <c r="B163" s="48"/>
       <c r="C163" s="25"/>
       <c r="D163" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E163" s="93"/>
-      <c r="F163" s="96"/>
+        <v>153</v>
+      </c>
+      <c r="E163" s="102"/>
+      <c r="F163" s="93"/>
       <c r="G163" s="31" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H163" s="12"/>
       <c r="I163" s="12"/>
@@ -12339,7 +12440,7 @@
       </c>
       <c r="B164" s="48"/>
       <c r="C164" s="25" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D164" s="11" t="s">
         <v>136</v>
@@ -12348,10 +12449,10 @@
         <v>55</v>
       </c>
       <c r="F164" s="89" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G164" s="32" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H164" s="12"/>
       <c r="I164" s="12"/>
@@ -12487,12 +12588,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="F147:F149"/>
-    <mergeCell ref="F90:F94"/>
-    <mergeCell ref="E97:E108"/>
-    <mergeCell ref="F97:F108"/>
-    <mergeCell ref="E150:E163"/>
-    <mergeCell ref="F150:F163"/>
     <mergeCell ref="G150:G161"/>
     <mergeCell ref="G110:G121"/>
     <mergeCell ref="A1:D2"/>
@@ -12507,6 +12602,12 @@
     <mergeCell ref="F86:F89"/>
     <mergeCell ref="E90:E92"/>
     <mergeCell ref="F132:F146"/>
+    <mergeCell ref="F147:F149"/>
+    <mergeCell ref="F90:F94"/>
+    <mergeCell ref="E97:E108"/>
+    <mergeCell ref="F97:F108"/>
+    <mergeCell ref="E150:E163"/>
+    <mergeCell ref="F150:F163"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -12539,11 +12640,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A1" s="100" t="s">
-        <v>149</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="112"/>
+      <c r="A1" s="103" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="104"/>
+      <c r="C1" s="110"/>
       <c r="D1" s="53" t="s">
         <v>2</v>
       </c>
@@ -12566,9 +12667,9 @@
       <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A2" s="102"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="113"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="111"/>
       <c r="D2" s="53" t="s">
         <v>3</v>
       </c>
@@ -12605,10 +12706,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="69" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="82" t="s">
         <v>150</v>
-      </c>
-      <c r="C4" s="82" t="s">
-        <v>151</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>13</v>
@@ -12640,7 +12741,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="76" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C5" s="27" t="s">
         <v>55</v>
@@ -12649,20 +12750,20 @@
         <v>58</v>
       </c>
       <c r="E5" s="78" t="s">
+        <v>155</v>
+      </c>
+      <c r="F5" s="79" t="s">
         <v>156</v>
-      </c>
-      <c r="F5" s="79" t="s">
-        <v>157</v>
       </c>
       <c r="G5" s="59">
         <v>44369</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I5" s="66"/>
       <c r="J5" s="64" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K5" s="9"/>
     </row>
@@ -12671,29 +12772,29 @@
         <v>2</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E6" s="80" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G6" s="60">
         <v>44369</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I6" s="66"/>
       <c r="J6" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K6" s="22"/>
     </row>
@@ -12706,23 +12807,23 @@
         <v>59</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E7" s="80" t="s">
+        <v>160</v>
+      </c>
+      <c r="F7" s="31" t="s">
         <v>161</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>162</v>
       </c>
       <c r="G7" s="60">
         <v>44369</v>
       </c>
       <c r="H7" s="61" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I7" s="66"/>
       <c r="J7" s="63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K7" s="22"/>
     </row>
@@ -12731,28 +12832,28 @@
         <v>4</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C8" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="97" t="s">
-        <v>206</v>
+      <c r="D8" s="94" t="s">
+        <v>205</v>
       </c>
       <c r="E8" s="80" t="s">
-        <v>163</v>
-      </c>
-      <c r="F8" s="97" t="s">
-        <v>204</v>
+        <v>162</v>
+      </c>
+      <c r="F8" s="94" t="s">
+        <v>203</v>
       </c>
       <c r="G8" s="60">
         <v>44369</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="24" customFormat="1" ht="31.5">
@@ -12762,19 +12863,19 @@
       <c r="C9" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="98"/>
+      <c r="D9" s="95"/>
       <c r="E9" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="F9" s="98"/>
+        <v>162</v>
+      </c>
+      <c r="F9" s="95"/>
       <c r="G9" s="60">
         <v>44369</v>
       </c>
       <c r="H9" s="84" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J9" s="63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="24" customFormat="1" ht="31.5">
@@ -12784,19 +12885,19 @@
       <c r="C10" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="98"/>
+      <c r="D10" s="95"/>
       <c r="E10" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="98"/>
+      <c r="F10" s="95"/>
       <c r="G10" s="60">
         <v>44369</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="24" customFormat="1" ht="31.5">
@@ -12806,19 +12907,19 @@
       <c r="C11" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="98"/>
+      <c r="D11" s="95"/>
       <c r="E11" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="98"/>
+      <c r="F11" s="95"/>
       <c r="G11" s="60">
         <v>44369</v>
       </c>
       <c r="H11" s="84" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J11" s="63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="24" customFormat="1" ht="47.25">
@@ -12828,19 +12929,19 @@
       <c r="C12" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="98"/>
+      <c r="D12" s="95"/>
       <c r="E12" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="98"/>
+      <c r="F12" s="95"/>
       <c r="G12" s="60">
         <v>44369</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="24" customFormat="1" ht="31.5">
@@ -12850,19 +12951,19 @@
       <c r="C13" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="98"/>
+      <c r="D13" s="95"/>
       <c r="E13" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="98"/>
+      <c r="F13" s="95"/>
       <c r="G13" s="60">
         <v>44369</v>
       </c>
       <c r="H13" s="84" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J13" s="63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="24" customFormat="1" ht="47.25">
@@ -12872,19 +12973,19 @@
       <c r="C14" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="98"/>
+      <c r="D14" s="95"/>
       <c r="E14" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="98"/>
+      <c r="F14" s="95"/>
       <c r="G14" s="60">
         <v>44369</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="24" customFormat="1" ht="31.5">
@@ -12894,19 +12995,19 @@
       <c r="C15" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="98"/>
+      <c r="D15" s="95"/>
       <c r="E15" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="98"/>
+      <c r="F15" s="95"/>
       <c r="G15" s="60">
         <v>44369</v>
       </c>
       <c r="H15" s="84" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J15" s="63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="24" customFormat="1" ht="31.5">
@@ -12916,19 +13017,19 @@
       <c r="C16" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="98"/>
+      <c r="D16" s="95"/>
       <c r="E16" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="98"/>
+      <c r="F16" s="95"/>
       <c r="G16" s="60">
         <v>44369</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="24" customFormat="1" ht="47.25">
@@ -12938,19 +13039,19 @@
       <c r="C17" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="98"/>
+      <c r="D17" s="95"/>
       <c r="E17" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="98"/>
+      <c r="F17" s="95"/>
       <c r="G17" s="60">
         <v>44369</v>
       </c>
       <c r="H17" s="84" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J17" s="63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="24" customFormat="1" ht="47.25">
@@ -12960,19 +13061,19 @@
       <c r="C18" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="98"/>
+      <c r="D18" s="95"/>
       <c r="E18" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="98"/>
+      <c r="F18" s="95"/>
       <c r="G18" s="60">
         <v>44369</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="24" customFormat="1" ht="47.25">
@@ -12982,19 +13083,19 @@
       <c r="C19" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="99"/>
+      <c r="D19" s="96"/>
       <c r="E19" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="99"/>
+      <c r="F19" s="96"/>
       <c r="G19" s="60">
         <v>44369</v>
       </c>
       <c r="H19" s="84" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J19" s="63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75">
@@ -13002,29 +13103,29 @@
         <v>16</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C20" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="97" t="s">
-        <v>205</v>
-      </c>
-      <c r="E20" s="117" t="s">
-        <v>203</v>
-      </c>
-      <c r="F20" s="97" t="s">
-        <v>190</v>
+      <c r="D20" s="94" t="s">
+        <v>204</v>
+      </c>
+      <c r="E20" s="115" t="s">
+        <v>202</v>
+      </c>
+      <c r="F20" s="94" t="s">
+        <v>189</v>
       </c>
       <c r="G20" s="60">
         <v>44369</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I20" s="66"/>
       <c r="J20" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K20" s="22"/>
     </row>
@@ -13036,18 +13137,18 @@
       <c r="C21" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="98"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="98"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="116"/>
+      <c r="F21" s="95"/>
       <c r="G21" s="60">
         <v>44369</v>
       </c>
       <c r="H21" s="84" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I21" s="66"/>
       <c r="J21" s="63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K21" s="22"/>
     </row>
@@ -13059,18 +13160,18 @@
       <c r="C22" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="98"/>
-      <c r="E22" s="118"/>
-      <c r="F22" s="98"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="95"/>
       <c r="G22" s="60">
         <v>44369</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I22" s="66"/>
       <c r="J22" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K22" s="22"/>
     </row>
@@ -13082,18 +13183,18 @@
       <c r="C23" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="98"/>
-      <c r="E23" s="118"/>
-      <c r="F23" s="98"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="116"/>
+      <c r="F23" s="95"/>
       <c r="G23" s="60">
         <v>44369</v>
       </c>
       <c r="H23" s="84" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I23" s="67"/>
       <c r="J23" s="63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K23" s="22"/>
     </row>
@@ -13105,18 +13206,18 @@
       <c r="C24" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="98"/>
-      <c r="E24" s="118"/>
-      <c r="F24" s="99"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="116"/>
+      <c r="F24" s="96"/>
       <c r="G24" s="60">
         <v>44369</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I24" s="65"/>
       <c r="J24" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K24" s="11"/>
     </row>
@@ -13128,20 +13229,20 @@
       <c r="C25" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="98"/>
-      <c r="E25" s="118"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="116"/>
       <c r="F25" s="31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G25" s="60">
         <v>44369</v>
       </c>
       <c r="H25" s="84" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I25" s="65"/>
       <c r="J25" s="63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K25" s="11"/>
     </row>
@@ -13153,20 +13254,20 @@
       <c r="C26" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="98"/>
-      <c r="E26" s="118"/>
-      <c r="F26" s="97" t="s">
-        <v>189</v>
+      <c r="D26" s="95"/>
+      <c r="E26" s="116"/>
+      <c r="F26" s="94" t="s">
+        <v>188</v>
       </c>
       <c r="G26" s="60">
         <v>44369</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I26" s="30"/>
       <c r="J26" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K26" s="11"/>
     </row>
@@ -13178,18 +13279,18 @@
       <c r="C27" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="98"/>
-      <c r="E27" s="118"/>
-      <c r="F27" s="98"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="116"/>
+      <c r="F27" s="95"/>
       <c r="G27" s="60">
         <v>44369</v>
       </c>
       <c r="H27" s="84" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I27" s="65"/>
       <c r="J27" s="63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K27" s="11"/>
     </row>
@@ -13201,18 +13302,18 @@
       <c r="C28" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="98"/>
-      <c r="E28" s="118"/>
-      <c r="F28" s="98"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="116"/>
+      <c r="F28" s="95"/>
       <c r="G28" s="60">
         <v>44369</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I28" s="30"/>
       <c r="J28" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K28" s="11"/>
     </row>
@@ -13224,18 +13325,18 @@
       <c r="C29" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="98"/>
-      <c r="E29" s="118"/>
-      <c r="F29" s="98"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="95"/>
       <c r="G29" s="60">
         <v>44369</v>
       </c>
       <c r="H29" s="84" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I29" s="67"/>
       <c r="J29" s="63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K29" s="11"/>
     </row>
@@ -13247,18 +13348,18 @@
       <c r="C30" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="98"/>
-      <c r="E30" s="118"/>
-      <c r="F30" s="98"/>
+      <c r="D30" s="95"/>
+      <c r="E30" s="116"/>
+      <c r="F30" s="95"/>
       <c r="G30" s="60">
         <v>44369</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I30" s="65"/>
       <c r="J30" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K30" s="11"/>
     </row>
@@ -13270,18 +13371,18 @@
       <c r="C31" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="99"/>
-      <c r="E31" s="119"/>
-      <c r="F31" s="99"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="117"/>
+      <c r="F31" s="96"/>
       <c r="G31" s="60">
         <v>44369</v>
       </c>
       <c r="H31" s="84" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I31" s="65"/>
       <c r="J31" s="63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K31" s="11"/>
     </row>
@@ -13295,24 +13396,24 @@
       <c r="C32" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="97" t="s">
-        <v>221</v>
+      <c r="D32" s="94" t="s">
+        <v>220</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G32" s="60">
         <v>44369</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I32" s="65"/>
       <c r="J32" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K32" s="11"/>
     </row>
@@ -13324,22 +13425,22 @@
       <c r="C33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="98"/>
+      <c r="D33" s="95"/>
       <c r="E33" s="31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F33" s="32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G33" s="60">
         <v>44369</v>
       </c>
       <c r="H33" s="84" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I33" s="30"/>
       <c r="J33" s="63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K33" s="11"/>
     </row>
@@ -13351,22 +13452,22 @@
       <c r="C34" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="98"/>
+      <c r="D34" s="95"/>
       <c r="E34" s="31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F34" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G34" s="60">
         <v>44369</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I34" s="67"/>
       <c r="J34" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K34" s="11"/>
     </row>
@@ -13378,22 +13479,22 @@
       <c r="C35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="98"/>
+      <c r="D35" s="95"/>
       <c r="E35" s="31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F35" s="32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G35" s="60">
         <v>44369</v>
       </c>
       <c r="H35" s="84" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I35" s="30"/>
       <c r="J35" s="63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K35" s="11"/>
     </row>
@@ -13405,22 +13506,22 @@
       <c r="C36" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="98"/>
+      <c r="D36" s="95"/>
       <c r="E36" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F36" s="32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G36" s="60">
         <v>44369</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I36" s="65"/>
       <c r="J36" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K36" s="11"/>
     </row>
@@ -13432,22 +13533,22 @@
       <c r="C37" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="98"/>
+      <c r="D37" s="95"/>
       <c r="E37" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F37" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G37" s="60">
         <v>44369</v>
       </c>
       <c r="H37" s="84" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I37" s="31"/>
       <c r="J37" s="63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K37" s="11"/>
     </row>
@@ -13459,22 +13560,22 @@
       <c r="C38" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="98"/>
+      <c r="D38" s="95"/>
       <c r="E38" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F38" s="32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G38" s="60">
         <v>44369</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I38" s="30"/>
       <c r="J38" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K38" s="11"/>
     </row>
@@ -13486,22 +13587,22 @@
       <c r="C39" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="98"/>
+      <c r="D39" s="95"/>
       <c r="E39" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F39" s="32" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G39" s="60">
         <v>44369</v>
       </c>
       <c r="H39" s="84" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I39" s="67"/>
       <c r="J39" s="63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K39" s="11"/>
     </row>
@@ -13513,22 +13614,22 @@
       <c r="C40" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="98"/>
+      <c r="D40" s="95"/>
       <c r="E40" s="31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F40" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G40" s="60">
         <v>44369</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I40" s="30"/>
       <c r="J40" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K40" s="11"/>
     </row>
@@ -13540,22 +13641,22 @@
       <c r="C41" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="99"/>
+      <c r="D41" s="96"/>
       <c r="E41" s="31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F41" s="32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G41" s="60">
         <v>44369</v>
       </c>
       <c r="H41" s="84" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I41" s="65"/>
       <c r="J41" s="63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K41" s="11"/>
     </row>
@@ -13564,29 +13665,29 @@
         <v>38</v>
       </c>
       <c r="B42" s="48" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C42" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="97" t="s">
-        <v>209</v>
-      </c>
-      <c r="E42" s="94" t="s">
-        <v>225</v>
-      </c>
-      <c r="F42" s="94" t="s">
+      <c r="D42" s="94" t="s">
         <v>208</v>
+      </c>
+      <c r="E42" s="91" t="s">
+        <v>224</v>
+      </c>
+      <c r="F42" s="91" t="s">
+        <v>207</v>
       </c>
       <c r="G42" s="60">
         <v>44369</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I42" s="65"/>
       <c r="J42" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K42" s="11"/>
     </row>
@@ -13598,18 +13699,18 @@
       <c r="C43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="92"/>
-      <c r="E43" s="95"/>
-      <c r="F43" s="95"/>
+      <c r="D43" s="101"/>
+      <c r="E43" s="92"/>
+      <c r="F43" s="92"/>
       <c r="G43" s="60">
         <v>44369</v>
       </c>
       <c r="H43" s="84" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I43" s="65"/>
       <c r="J43" s="63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K43" s="11"/>
     </row>
@@ -13621,18 +13722,18 @@
       <c r="C44" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="92"/>
-      <c r="E44" s="95"/>
-      <c r="F44" s="95"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="92"/>
+      <c r="F44" s="92"/>
       <c r="G44" s="60">
         <v>44369</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I44" s="65"/>
       <c r="J44" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K44" s="11"/>
     </row>
@@ -13644,18 +13745,18 @@
       <c r="C45" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="92"/>
-      <c r="E45" s="95"/>
-      <c r="F45" s="95"/>
+      <c r="D45" s="101"/>
+      <c r="E45" s="92"/>
+      <c r="F45" s="92"/>
       <c r="G45" s="60">
         <v>44369</v>
       </c>
       <c r="H45" s="84" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I45" s="65"/>
       <c r="J45" s="63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K45" s="11"/>
     </row>
@@ -13667,18 +13768,18 @@
       <c r="C46" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="92"/>
-      <c r="E46" s="95"/>
-      <c r="F46" s="95"/>
+      <c r="D46" s="101"/>
+      <c r="E46" s="92"/>
+      <c r="F46" s="92"/>
       <c r="G46" s="60">
         <v>44369</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I46" s="65"/>
       <c r="J46" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K46" s="11"/>
     </row>
@@ -13690,18 +13791,18 @@
       <c r="C47" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="92"/>
-      <c r="E47" s="95"/>
-      <c r="F47" s="95"/>
+      <c r="D47" s="101"/>
+      <c r="E47" s="92"/>
+      <c r="F47" s="92"/>
       <c r="G47" s="60">
         <v>44369</v>
       </c>
       <c r="H47" s="84" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I47" s="65"/>
       <c r="J47" s="63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K47" s="11"/>
     </row>
@@ -13713,18 +13814,18 @@
       <c r="C48" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="92"/>
-      <c r="E48" s="95"/>
-      <c r="F48" s="95"/>
+      <c r="D48" s="101"/>
+      <c r="E48" s="92"/>
+      <c r="F48" s="92"/>
       <c r="G48" s="60">
         <v>44369</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I48" s="30"/>
       <c r="J48" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K48" s="11"/>
     </row>
@@ -13736,18 +13837,18 @@
       <c r="C49" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D49" s="92"/>
-      <c r="E49" s="95"/>
-      <c r="F49" s="95"/>
+      <c r="D49" s="101"/>
+      <c r="E49" s="92"/>
+      <c r="F49" s="92"/>
       <c r="G49" s="60">
         <v>44369</v>
       </c>
       <c r="H49" s="84" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I49" s="65"/>
       <c r="J49" s="63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K49" s="11"/>
     </row>
@@ -13759,18 +13860,18 @@
       <c r="C50" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="92"/>
-      <c r="E50" s="95"/>
-      <c r="F50" s="95"/>
+      <c r="D50" s="101"/>
+      <c r="E50" s="92"/>
+      <c r="F50" s="92"/>
       <c r="G50" s="60">
         <v>44369</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I50" s="65"/>
       <c r="J50" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K50" s="11"/>
     </row>
@@ -13782,18 +13883,18 @@
       <c r="C51" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D51" s="92"/>
-      <c r="E51" s="95"/>
-      <c r="F51" s="95"/>
+      <c r="D51" s="101"/>
+      <c r="E51" s="92"/>
+      <c r="F51" s="92"/>
       <c r="G51" s="60">
         <v>44369</v>
       </c>
       <c r="H51" s="84" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I51" s="65"/>
       <c r="J51" s="63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K51" s="11"/>
     </row>
@@ -13805,18 +13906,18 @@
       <c r="C52" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="92"/>
-      <c r="E52" s="95"/>
-      <c r="F52" s="95"/>
+      <c r="D52" s="101"/>
+      <c r="E52" s="92"/>
+      <c r="F52" s="92"/>
       <c r="G52" s="60">
         <v>44369</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I52" s="30"/>
       <c r="J52" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K52" s="11"/>
     </row>
@@ -13828,18 +13929,18 @@
       <c r="C53" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="93"/>
-      <c r="E53" s="96"/>
-      <c r="F53" s="96"/>
+      <c r="D53" s="102"/>
+      <c r="E53" s="93"/>
+      <c r="F53" s="93"/>
       <c r="G53" s="60">
         <v>44369</v>
       </c>
       <c r="H53" s="84" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I53" s="65"/>
       <c r="J53" s="63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K53" s="11"/>
     </row>
@@ -13853,24 +13954,24 @@
       <c r="C54" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="97" t="s">
-        <v>207</v>
-      </c>
-      <c r="E54" s="94" t="s">
-        <v>225</v>
-      </c>
-      <c r="F54" s="114" t="s">
-        <v>180</v>
+      <c r="D54" s="94" t="s">
+        <v>206</v>
+      </c>
+      <c r="E54" s="91" t="s">
+        <v>224</v>
+      </c>
+      <c r="F54" s="112" t="s">
+        <v>179</v>
       </c>
       <c r="G54" s="60">
         <v>44369</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I54" s="65"/>
       <c r="J54" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K54" s="11"/>
     </row>
@@ -13882,18 +13983,18 @@
       <c r="C55" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="92"/>
-      <c r="E55" s="95"/>
-      <c r="F55" s="115"/>
+      <c r="D55" s="101"/>
+      <c r="E55" s="92"/>
+      <c r="F55" s="113"/>
       <c r="G55" s="60">
         <v>44369</v>
       </c>
       <c r="H55" s="84" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I55" s="65"/>
       <c r="J55" s="63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K55" s="11"/>
     </row>
@@ -13905,18 +14006,18 @@
       <c r="C56" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="92"/>
-      <c r="E56" s="95"/>
-      <c r="F56" s="115"/>
+      <c r="D56" s="101"/>
+      <c r="E56" s="92"/>
+      <c r="F56" s="113"/>
       <c r="G56" s="60">
         <v>44369</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I56" s="65"/>
       <c r="J56" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K56" s="11"/>
     </row>
@@ -13928,18 +14029,18 @@
       <c r="C57" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="92"/>
-      <c r="E57" s="95"/>
-      <c r="F57" s="115"/>
+      <c r="D57" s="101"/>
+      <c r="E57" s="92"/>
+      <c r="F57" s="113"/>
       <c r="G57" s="60">
         <v>44369</v>
       </c>
       <c r="H57" s="84" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I57" s="65"/>
       <c r="J57" s="63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K57" s="11"/>
     </row>
@@ -13951,18 +14052,18 @@
       <c r="C58" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="92"/>
-      <c r="E58" s="95"/>
-      <c r="F58" s="115"/>
+      <c r="D58" s="101"/>
+      <c r="E58" s="92"/>
+      <c r="F58" s="113"/>
       <c r="G58" s="60">
         <v>44369</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I58" s="65"/>
       <c r="J58" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K58" s="11"/>
     </row>
@@ -13974,18 +14075,18 @@
       <c r="C59" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D59" s="92"/>
-      <c r="E59" s="95"/>
-      <c r="F59" s="116"/>
+      <c r="D59" s="101"/>
+      <c r="E59" s="92"/>
+      <c r="F59" s="114"/>
       <c r="G59" s="60">
         <v>44369</v>
       </c>
       <c r="H59" s="84" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I59" s="65"/>
       <c r="J59" s="63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K59" s="11"/>
     </row>
@@ -13997,20 +14098,20 @@
       <c r="C60" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="92"/>
-      <c r="E60" s="95"/>
+      <c r="D60" s="101"/>
+      <c r="E60" s="92"/>
       <c r="F60" s="32" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G60" s="60">
         <v>44369</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I60" s="30"/>
       <c r="J60" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K60" s="11"/>
     </row>
@@ -14022,20 +14123,20 @@
       <c r="C61" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="92"/>
-      <c r="E61" s="95"/>
+      <c r="D61" s="101"/>
+      <c r="E61" s="92"/>
       <c r="F61" s="32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G61" s="60">
         <v>44369</v>
       </c>
       <c r="H61" s="84" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I61" s="65"/>
       <c r="J61" s="63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K61" s="11"/>
     </row>
@@ -14047,20 +14148,20 @@
       <c r="C62" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D62" s="92"/>
-      <c r="E62" s="95"/>
+      <c r="D62" s="101"/>
+      <c r="E62" s="92"/>
       <c r="F62" s="32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G62" s="60">
         <v>44369</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I62" s="65"/>
       <c r="J62" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K62" s="11"/>
     </row>
@@ -14072,20 +14173,20 @@
       <c r="C63" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D63" s="92"/>
-      <c r="E63" s="95"/>
-      <c r="F63" s="114" t="s">
-        <v>184</v>
+      <c r="D63" s="101"/>
+      <c r="E63" s="92"/>
+      <c r="F63" s="112" t="s">
+        <v>183</v>
       </c>
       <c r="G63" s="60">
         <v>44369</v>
       </c>
       <c r="H63" s="84" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I63" s="65"/>
       <c r="J63" s="63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K63" s="11"/>
     </row>
@@ -14097,18 +14198,18 @@
       <c r="C64" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D64" s="92"/>
-      <c r="E64" s="95"/>
-      <c r="F64" s="116"/>
+      <c r="D64" s="101"/>
+      <c r="E64" s="92"/>
+      <c r="F64" s="114"/>
       <c r="G64" s="60">
         <v>44369</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I64" s="30"/>
       <c r="J64" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K64" s="11"/>
     </row>
@@ -14120,20 +14221,20 @@
       <c r="C65" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D65" s="93"/>
-      <c r="E65" s="96"/>
+      <c r="D65" s="102"/>
+      <c r="E65" s="93"/>
       <c r="F65" s="32" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G65" s="60">
         <v>44369</v>
       </c>
       <c r="H65" s="84" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I65" s="65"/>
       <c r="J65" s="63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K65" s="11"/>
     </row>
@@ -14142,29 +14243,29 @@
         <v>62</v>
       </c>
       <c r="B66" s="75" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C66" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="97" t="s">
-        <v>223</v>
-      </c>
-      <c r="E66" s="97" t="s">
+      <c r="D66" s="94" t="s">
+        <v>222</v>
+      </c>
+      <c r="E66" s="94" t="s">
+        <v>164</v>
+      </c>
+      <c r="F66" s="91" t="s">
         <v>165</v>
-      </c>
-      <c r="F66" s="94" t="s">
-        <v>166</v>
       </c>
       <c r="G66" s="60">
         <v>44369</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I66" s="65"/>
       <c r="J66" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K66" s="11"/>
     </row>
@@ -14176,18 +14277,18 @@
       <c r="C67" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="92"/>
-      <c r="E67" s="98"/>
-      <c r="F67" s="95"/>
+      <c r="D67" s="101"/>
+      <c r="E67" s="95"/>
+      <c r="F67" s="92"/>
       <c r="G67" s="60">
         <v>44369</v>
       </c>
       <c r="H67" s="84" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I67" s="30"/>
       <c r="J67" s="63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K67" s="11"/>
     </row>
@@ -14199,18 +14300,18 @@
       <c r="C68" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D68" s="92"/>
-      <c r="E68" s="98"/>
-      <c r="F68" s="95"/>
+      <c r="D68" s="101"/>
+      <c r="E68" s="95"/>
+      <c r="F68" s="92"/>
       <c r="G68" s="60">
         <v>44369</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I68" s="67"/>
       <c r="J68" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K68" s="11"/>
     </row>
@@ -14222,18 +14323,18 @@
       <c r="C69" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D69" s="92"/>
-      <c r="E69" s="98"/>
-      <c r="F69" s="95"/>
+      <c r="D69" s="101"/>
+      <c r="E69" s="95"/>
+      <c r="F69" s="92"/>
       <c r="G69" s="60">
         <v>44369</v>
       </c>
       <c r="H69" s="84" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I69" s="30"/>
       <c r="J69" s="63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K69" s="11"/>
     </row>
@@ -14245,18 +14346,18 @@
       <c r="C70" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="92"/>
-      <c r="E70" s="98"/>
-      <c r="F70" s="95"/>
+      <c r="D70" s="101"/>
+      <c r="E70" s="95"/>
+      <c r="F70" s="92"/>
       <c r="G70" s="60">
         <v>44369</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I70" s="30"/>
       <c r="J70" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K70" s="11"/>
     </row>
@@ -14268,18 +14369,18 @@
       <c r="C71" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D71" s="92"/>
-      <c r="E71" s="98"/>
-      <c r="F71" s="95"/>
+      <c r="D71" s="101"/>
+      <c r="E71" s="95"/>
+      <c r="F71" s="92"/>
       <c r="G71" s="60">
         <v>44369</v>
       </c>
       <c r="H71" s="84" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I71" s="30"/>
       <c r="J71" s="63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K71" s="11"/>
     </row>
@@ -14291,18 +14392,18 @@
       <c r="C72" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="92"/>
-      <c r="E72" s="98"/>
-      <c r="F72" s="95"/>
+      <c r="D72" s="101"/>
+      <c r="E72" s="95"/>
+      <c r="F72" s="92"/>
       <c r="G72" s="60">
         <v>44369</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I72" s="30"/>
       <c r="J72" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K72" s="11"/>
     </row>
@@ -14314,18 +14415,18 @@
       <c r="C73" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="92"/>
-      <c r="E73" s="98"/>
-      <c r="F73" s="95"/>
+      <c r="D73" s="101"/>
+      <c r="E73" s="95"/>
+      <c r="F73" s="92"/>
       <c r="G73" s="60">
         <v>44369</v>
       </c>
       <c r="H73" s="84" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I73" s="67"/>
       <c r="J73" s="63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K73" s="11"/>
     </row>
@@ -14337,18 +14438,18 @@
       <c r="C74" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D74" s="92"/>
-      <c r="E74" s="98"/>
-      <c r="F74" s="95"/>
+      <c r="D74" s="101"/>
+      <c r="E74" s="95"/>
+      <c r="F74" s="92"/>
       <c r="G74" s="60">
         <v>44369</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I74" s="30"/>
       <c r="J74" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K74" s="11"/>
     </row>
@@ -14360,18 +14461,18 @@
       <c r="C75" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="92"/>
-      <c r="E75" s="98"/>
-      <c r="F75" s="95"/>
+      <c r="D75" s="101"/>
+      <c r="E75" s="95"/>
+      <c r="F75" s="92"/>
       <c r="G75" s="60">
         <v>44369</v>
       </c>
       <c r="H75" s="84" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I75" s="67"/>
       <c r="J75" s="63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K75" s="11"/>
     </row>
@@ -14383,18 +14484,18 @@
       <c r="C76" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D76" s="92"/>
-      <c r="E76" s="98"/>
-      <c r="F76" s="95"/>
+      <c r="D76" s="101"/>
+      <c r="E76" s="95"/>
+      <c r="F76" s="92"/>
       <c r="G76" s="60">
         <v>44369</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I76" s="30"/>
       <c r="J76" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K76" s="11"/>
     </row>
@@ -14406,18 +14507,18 @@
       <c r="C77" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D77" s="93"/>
-      <c r="E77" s="99"/>
-      <c r="F77" s="96"/>
+      <c r="D77" s="102"/>
+      <c r="E77" s="96"/>
+      <c r="F77" s="93"/>
       <c r="G77" s="60">
         <v>44369</v>
       </c>
       <c r="H77" s="84" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I77" s="30"/>
       <c r="J77" s="63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K77" s="11"/>
     </row>
@@ -14432,23 +14533,23 @@
         <v>129</v>
       </c>
       <c r="D78" s="83" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E78" s="31" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F78" s="32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G78" s="60">
         <v>44369</v>
       </c>
       <c r="H78" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I78" s="30"/>
       <c r="J78" s="39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K78" s="11"/>
     </row>
@@ -14460,26 +14561,26 @@
         <v>55</v>
       </c>
       <c r="C79" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="D79" s="94" t="s">
+        <v>223</v>
+      </c>
+      <c r="E79" s="94" t="s">
+        <v>238</v>
+      </c>
+      <c r="F79" s="32" t="s">
         <v>191</v>
-      </c>
-      <c r="D79" s="97" t="s">
-        <v>224</v>
-      </c>
-      <c r="E79" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="F79" s="32" t="s">
-        <v>192</v>
       </c>
       <c r="G79" s="60">
         <v>44369</v>
       </c>
       <c r="H79" s="84" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I79" s="30"/>
       <c r="J79" s="63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K79" s="11"/>
     </row>
@@ -14491,20 +14592,20 @@
       <c r="C80" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D80" s="98"/>
-      <c r="E80" s="98"/>
+      <c r="D80" s="95"/>
+      <c r="E80" s="95"/>
       <c r="F80" s="32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G80" s="60">
         <v>44369</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I80" s="30"/>
       <c r="J80" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K80" s="11"/>
     </row>
@@ -14516,20 +14617,20 @@
       <c r="C81" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D81" s="98"/>
-      <c r="E81" s="98"/>
+      <c r="D81" s="95"/>
+      <c r="E81" s="95"/>
       <c r="F81" s="32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G81" s="60">
         <v>44369</v>
       </c>
       <c r="H81" s="84" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I81" s="30"/>
       <c r="J81" s="63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K81" s="11"/>
     </row>
@@ -14541,20 +14642,20 @@
       <c r="C82" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D82" s="98"/>
-      <c r="E82" s="98"/>
+      <c r="D82" s="95"/>
+      <c r="E82" s="95"/>
       <c r="F82" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G82" s="60">
         <v>44369</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I82" s="30"/>
       <c r="J82" s="63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K82" s="11"/>
     </row>
@@ -14566,20 +14667,20 @@
       <c r="C83" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D83" s="98"/>
-      <c r="E83" s="98"/>
+      <c r="D83" s="95"/>
+      <c r="E83" s="95"/>
       <c r="F83" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G83" s="60">
         <v>44369</v>
       </c>
       <c r="H83" s="84" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I83" s="30"/>
       <c r="J83" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K83" s="11"/>
     </row>
@@ -14591,20 +14692,20 @@
       <c r="C84" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D84" s="98"/>
-      <c r="E84" s="98"/>
+      <c r="D84" s="95"/>
+      <c r="E84" s="95"/>
       <c r="F84" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G84" s="60">
         <v>44369</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I84" s="30"/>
       <c r="J84" s="63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K84" s="11"/>
     </row>
@@ -14616,20 +14717,20 @@
       <c r="C85" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D85" s="98"/>
-      <c r="E85" s="98"/>
+      <c r="D85" s="95"/>
+      <c r="E85" s="95"/>
       <c r="F85" s="32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G85" s="60">
         <v>44369</v>
       </c>
       <c r="H85" s="84" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I85" s="30"/>
       <c r="J85" s="63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K85" s="11"/>
     </row>
@@ -14641,20 +14742,20 @@
       <c r="C86" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D86" s="98"/>
-      <c r="E86" s="98"/>
+      <c r="D86" s="95"/>
+      <c r="E86" s="95"/>
       <c r="F86" s="32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G86" s="60">
         <v>44369</v>
       </c>
       <c r="H86" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I86" s="30"/>
       <c r="J86" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K86" s="11"/>
     </row>
@@ -14666,20 +14767,20 @@
       <c r="C87" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D87" s="98"/>
-      <c r="E87" s="98"/>
+      <c r="D87" s="95"/>
+      <c r="E87" s="95"/>
       <c r="F87" s="32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G87" s="60">
         <v>44369</v>
       </c>
       <c r="H87" s="84" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I87" s="30"/>
       <c r="J87" s="63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K87" s="11"/>
     </row>
@@ -14691,20 +14792,20 @@
       <c r="C88" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D88" s="98"/>
-      <c r="E88" s="98"/>
+      <c r="D88" s="95"/>
+      <c r="E88" s="95"/>
       <c r="F88" s="32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G88" s="60">
         <v>44369</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I88" s="30"/>
       <c r="J88" s="63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K88" s="11"/>
     </row>
@@ -14716,20 +14817,20 @@
       <c r="C89" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D89" s="98"/>
-      <c r="E89" s="98"/>
+      <c r="D89" s="95"/>
+      <c r="E89" s="95"/>
       <c r="F89" s="32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G89" s="60">
         <v>44369</v>
       </c>
       <c r="H89" s="84" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I89" s="30"/>
       <c r="J89" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K89" s="11"/>
     </row>
@@ -14741,20 +14842,20 @@
       <c r="C90" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D90" s="98"/>
-      <c r="E90" s="98"/>
+      <c r="D90" s="95"/>
+      <c r="E90" s="95"/>
       <c r="F90" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G90" s="60">
         <v>44369</v>
       </c>
       <c r="H90" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I90" s="30"/>
       <c r="J90" s="63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K90" s="11"/>
     </row>
@@ -14766,20 +14867,20 @@
       <c r="C91" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D91" s="98"/>
-      <c r="E91" s="98"/>
+      <c r="D91" s="95"/>
+      <c r="E91" s="95"/>
       <c r="F91" s="32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G91" s="60">
         <v>44369</v>
       </c>
       <c r="H91" s="84" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I91" s="30"/>
       <c r="J91" s="63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K91" s="11"/>
     </row>
@@ -14789,22 +14890,22 @@
       </c>
       <c r="B92" s="72"/>
       <c r="C92" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="D92" s="98"/>
-      <c r="E92" s="98"/>
+        <v>151</v>
+      </c>
+      <c r="D92" s="95"/>
+      <c r="E92" s="95"/>
       <c r="F92" s="31" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G92" s="60">
         <v>44369</v>
       </c>
       <c r="H92" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I92" s="30"/>
       <c r="J92" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K92" s="11"/>
     </row>
@@ -14814,24 +14915,24 @@
       </c>
       <c r="B93" s="72"/>
       <c r="C93" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="D93" s="98"/>
-      <c r="E93" s="98"/>
+        <v>152</v>
+      </c>
+      <c r="D93" s="95"/>
+      <c r="E93" s="95"/>
       <c r="F93" s="31" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G93" s="60">
         <v>44369</v>
       </c>
       <c r="H93" s="84" t="s">
+        <v>228</v>
+      </c>
+      <c r="I93" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="I93" s="30" t="s">
-        <v>230</v>
-      </c>
       <c r="J93" s="63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K93" s="11"/>
     </row>
@@ -14841,24 +14942,24 @@
       </c>
       <c r="B94" s="72"/>
       <c r="C94" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="D94" s="99"/>
-      <c r="E94" s="99"/>
+        <v>153</v>
+      </c>
+      <c r="D94" s="96"/>
+      <c r="E94" s="96"/>
       <c r="F94" s="31" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G94" s="60">
         <v>44369</v>
       </c>
       <c r="H94" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="I94" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="I94" s="30" t="s">
-        <v>230</v>
-      </c>
       <c r="J94" s="63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K94" s="11"/>
     </row>
@@ -14867,29 +14968,29 @@
         <v>91</v>
       </c>
       <c r="B95" s="72" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C95" s="37" t="s">
         <v>132</v>
       </c>
       <c r="D95" s="72" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E95" s="37" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F95" s="31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G95" s="60">
         <v>44369</v>
       </c>
       <c r="H95" s="87" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I95" s="30"/>
       <c r="J95" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K95" s="11"/>
     </row>
@@ -14898,19 +14999,19 @@
         <v>92</v>
       </c>
       <c r="B96" s="72" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C96" s="37" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D96" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="E96" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="E96" s="37" t="s">
-        <v>243</v>
-      </c>
       <c r="F96" s="37" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G96" s="88"/>
       <c r="H96" s="12"/>
@@ -14927,13 +15028,13 @@
         <v>59</v>
       </c>
       <c r="D97" s="72" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E97" s="37" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F97" s="37" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G97" s="88"/>
       <c r="H97" s="87"/>
@@ -14949,16 +15050,16 @@
         <v>55</v>
       </c>
       <c r="C98" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="D98" s="94" t="s">
-        <v>245</v>
-      </c>
-      <c r="E98" s="94" t="s">
-        <v>243</v>
+        <v>190</v>
+      </c>
+      <c r="D98" s="91" t="s">
+        <v>244</v>
+      </c>
+      <c r="E98" s="91" t="s">
+        <v>242</v>
       </c>
       <c r="F98" s="37" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G98" s="88"/>
       <c r="H98" s="12"/>
@@ -14974,10 +15075,10 @@
       <c r="C99" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D99" s="110"/>
-      <c r="E99" s="95"/>
+      <c r="D99" s="118"/>
+      <c r="E99" s="92"/>
       <c r="F99" s="37" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G99" s="88"/>
       <c r="H99" s="87"/>
@@ -14993,10 +15094,10 @@
       <c r="C100" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D100" s="110"/>
-      <c r="E100" s="95"/>
+      <c r="D100" s="118"/>
+      <c r="E100" s="92"/>
       <c r="F100" s="37" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G100" s="88"/>
       <c r="H100" s="12"/>
@@ -15012,10 +15113,10 @@
       <c r="C101" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D101" s="110"/>
-      <c r="E101" s="95"/>
+      <c r="D101" s="118"/>
+      <c r="E101" s="92"/>
       <c r="F101" s="37" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G101" s="88"/>
       <c r="H101" s="87"/>
@@ -15031,10 +15132,10 @@
       <c r="C102" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D102" s="110"/>
-      <c r="E102" s="95"/>
+      <c r="D102" s="118"/>
+      <c r="E102" s="92"/>
       <c r="F102" s="37" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G102" s="88"/>
       <c r="H102" s="12"/>
@@ -15050,10 +15151,10 @@
       <c r="C103" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D103" s="110"/>
-      <c r="E103" s="95"/>
+      <c r="D103" s="118"/>
+      <c r="E103" s="92"/>
       <c r="F103" s="37" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G103" s="88"/>
       <c r="H103" s="87"/>
@@ -15069,10 +15170,10 @@
       <c r="C104" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D104" s="110"/>
-      <c r="E104" s="95"/>
+      <c r="D104" s="118"/>
+      <c r="E104" s="92"/>
       <c r="F104" s="37" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G104" s="88"/>
       <c r="H104" s="12"/>
@@ -15088,10 +15189,10 @@
       <c r="C105" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D105" s="110"/>
-      <c r="E105" s="95"/>
+      <c r="D105" s="118"/>
+      <c r="E105" s="92"/>
       <c r="F105" s="37" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G105" s="88"/>
       <c r="H105" s="87"/>
@@ -15105,12 +15206,12 @@
       </c>
       <c r="B106" s="72"/>
       <c r="C106" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="D106" s="110"/>
-      <c r="E106" s="95"/>
+        <v>151</v>
+      </c>
+      <c r="D106" s="118"/>
+      <c r="E106" s="92"/>
       <c r="F106" s="37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G106" s="88"/>
       <c r="H106" s="12"/>
@@ -15124,12 +15225,12 @@
       </c>
       <c r="B107" s="72"/>
       <c r="C107" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="D107" s="110"/>
-      <c r="E107" s="95"/>
+        <v>152</v>
+      </c>
+      <c r="D107" s="118"/>
+      <c r="E107" s="92"/>
       <c r="F107" s="37" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G107" s="88"/>
       <c r="H107" s="87"/>
@@ -15143,12 +15244,12 @@
       </c>
       <c r="B108" s="72"/>
       <c r="C108" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="D108" s="111"/>
-      <c r="E108" s="96"/>
+        <v>153</v>
+      </c>
+      <c r="D108" s="119"/>
+      <c r="E108" s="93"/>
       <c r="F108" s="37" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G108" s="88"/>
       <c r="H108" s="12"/>
@@ -15161,19 +15262,19 @@
         <v>105</v>
       </c>
       <c r="B109" s="72" t="s">
+        <v>245</v>
+      </c>
+      <c r="C109" s="37" t="s">
         <v>246</v>
       </c>
-      <c r="C109" s="37" t="s">
-        <v>247</v>
-      </c>
       <c r="D109" s="86" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E109" s="37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F109" s="37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G109" s="88"/>
       <c r="H109" s="87"/>
@@ -15187,16 +15288,16 @@
       </c>
       <c r="B110" s="72"/>
       <c r="C110" s="37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D110" s="86" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E110" s="37" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F110" s="37" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G110" s="88"/>
       <c r="H110" s="12"/>
@@ -15209,19 +15310,19 @@
         <v>107</v>
       </c>
       <c r="B111" s="72" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C111" s="37" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D111" s="72" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E111" s="37" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F111" s="37" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G111" s="88"/>
       <c r="H111" s="87"/>
@@ -15238,13 +15339,13 @@
         <v>83</v>
       </c>
       <c r="D112" s="72" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E112" s="37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F112" s="37" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G112" s="88"/>
       <c r="H112" s="12"/>
@@ -15257,19 +15358,19 @@
         <v>109</v>
       </c>
       <c r="B113" s="72" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C113" s="37" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D113" s="72" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E113" s="37" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F113" s="37" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G113" s="88"/>
       <c r="H113" s="87"/>
@@ -15942,6 +16043,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D98:D108"/>
+    <mergeCell ref="E98:E108"/>
+    <mergeCell ref="D79:D94"/>
+    <mergeCell ref="D42:D53"/>
+    <mergeCell ref="E42:E53"/>
+    <mergeCell ref="E66:E77"/>
+    <mergeCell ref="E79:E94"/>
+    <mergeCell ref="D66:D77"/>
     <mergeCell ref="F66:F77"/>
     <mergeCell ref="D54:D65"/>
     <mergeCell ref="E54:E65"/>
@@ -15956,14 +16065,6 @@
     <mergeCell ref="D20:D31"/>
     <mergeCell ref="D32:D41"/>
     <mergeCell ref="F42:F53"/>
-    <mergeCell ref="D98:D108"/>
-    <mergeCell ref="E98:E108"/>
-    <mergeCell ref="D79:D94"/>
-    <mergeCell ref="D42:D53"/>
-    <mergeCell ref="E42:E53"/>
-    <mergeCell ref="E66:E77"/>
-    <mergeCell ref="E79:E94"/>
-    <mergeCell ref="D66:D77"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/testcase_account_ver3.xlsx
+++ b/testcase_account_ver3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\7-Programming-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F070B52-F880-4F79-BC15-679BA04664E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5D2F09-9AB0-4423-9299-CD1D570E8CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="374">
   <si>
     <t>作成者</t>
   </si>
@@ -8177,8 +8177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M173"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A86" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H96" sqref="H96"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K108" sqref="K108:K121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -10974,10 +10974,16 @@
       <c r="G96" s="31" t="s">
         <v>371</v>
       </c>
-      <c r="H96" s="12"/>
-      <c r="I96" s="12"/>
+      <c r="H96" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I96" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J96" s="30"/>
-      <c r="K96" s="39"/>
+      <c r="K96" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L96" s="11"/>
     </row>
     <row r="97" spans="1:12" ht="47.25">
@@ -11000,10 +11006,16 @@
       <c r="G97" s="31" t="s">
         <v>308</v>
       </c>
-      <c r="H97" s="12"/>
-      <c r="I97" s="12"/>
+      <c r="H97" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I97" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J97" s="30"/>
-      <c r="K97" s="39"/>
+      <c r="K97" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L97" s="11"/>
     </row>
     <row r="98" spans="1:12" ht="47.25">
@@ -11020,10 +11032,16 @@
       <c r="G98" s="31" t="s">
         <v>311</v>
       </c>
-      <c r="H98" s="12"/>
-      <c r="I98" s="12"/>
+      <c r="H98" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I98" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J98" s="30"/>
-      <c r="K98" s="39"/>
+      <c r="K98" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L98" s="11"/>
     </row>
     <row r="99" spans="1:12" ht="47.25">
@@ -11040,10 +11058,16 @@
       <c r="G99" s="31" t="s">
         <v>310</v>
       </c>
-      <c r="H99" s="12"/>
-      <c r="I99" s="12"/>
+      <c r="H99" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I99" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J99" s="30"/>
-      <c r="K99" s="39"/>
+      <c r="K99" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L99" s="11"/>
     </row>
     <row r="100" spans="1:12" ht="47.25">
@@ -11060,10 +11084,16 @@
       <c r="G100" s="31" t="s">
         <v>309</v>
       </c>
-      <c r="H100" s="12"/>
-      <c r="I100" s="12"/>
+      <c r="H100" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I100" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J100" s="30"/>
-      <c r="K100" s="39"/>
+      <c r="K100" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L100" s="11"/>
     </row>
     <row r="101" spans="1:12" ht="47.25">
@@ -11080,10 +11110,16 @@
       <c r="G101" s="31" t="s">
         <v>312</v>
       </c>
-      <c r="H101" s="12"/>
-      <c r="I101" s="12"/>
+      <c r="H101" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I101" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J101" s="30"/>
-      <c r="K101" s="39"/>
+      <c r="K101" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L101" s="11"/>
     </row>
     <row r="102" spans="1:12" ht="63">
@@ -11100,10 +11136,16 @@
       <c r="G102" s="31" t="s">
         <v>313</v>
       </c>
-      <c r="H102" s="12"/>
-      <c r="I102" s="12"/>
+      <c r="H102" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I102" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J102" s="30"/>
-      <c r="K102" s="39"/>
+      <c r="K102" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L102" s="11"/>
     </row>
     <row r="103" spans="1:12" ht="47.25">
@@ -11120,10 +11162,16 @@
       <c r="G103" s="31" t="s">
         <v>320</v>
       </c>
-      <c r="H103" s="12"/>
-      <c r="I103" s="12"/>
+      <c r="H103" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I103" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J103" s="30"/>
-      <c r="K103" s="39"/>
+      <c r="K103" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L103" s="11"/>
     </row>
     <row r="104" spans="1:12" ht="47.25">
@@ -11140,10 +11188,16 @@
       <c r="G104" s="31" t="s">
         <v>315</v>
       </c>
-      <c r="H104" s="12"/>
-      <c r="I104" s="12"/>
+      <c r="H104" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I104" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J104" s="30"/>
-      <c r="K104" s="39"/>
+      <c r="K104" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L104" s="11"/>
     </row>
     <row r="105" spans="1:12" ht="47.25">
@@ -11160,10 +11214,16 @@
       <c r="G105" s="31" t="s">
         <v>316</v>
       </c>
-      <c r="H105" s="12"/>
-      <c r="I105" s="12"/>
+      <c r="H105" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I105" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J105" s="30"/>
-      <c r="K105" s="39"/>
+      <c r="K105" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L105" s="11"/>
     </row>
     <row r="106" spans="1:12" ht="47.25">
@@ -11180,10 +11240,16 @@
       <c r="G106" s="31" t="s">
         <v>317</v>
       </c>
-      <c r="H106" s="12"/>
-      <c r="I106" s="12"/>
+      <c r="H106" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I106" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J106" s="30"/>
-      <c r="K106" s="39"/>
+      <c r="K106" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L106" s="11"/>
     </row>
     <row r="107" spans="1:12" ht="47.25">
@@ -11200,10 +11266,16 @@
       <c r="G107" s="31" t="s">
         <v>318</v>
       </c>
-      <c r="H107" s="12"/>
-      <c r="I107" s="12"/>
+      <c r="H107" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I107" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J107" s="30"/>
-      <c r="K107" s="39"/>
+      <c r="K107" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L107" s="11"/>
     </row>
     <row r="108" spans="1:12" ht="47.25">
@@ -11220,10 +11292,16 @@
       <c r="G108" s="31" t="s">
         <v>319</v>
       </c>
-      <c r="H108" s="12"/>
-      <c r="I108" s="12"/>
+      <c r="H108" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I108" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J108" s="30"/>
-      <c r="K108" s="39"/>
+      <c r="K108" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L108" s="11"/>
     </row>
     <row r="109" spans="1:12" ht="31.5">
@@ -11244,10 +11322,16 @@
       <c r="G109" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="H109" s="12"/>
-      <c r="I109" s="12"/>
+      <c r="H109" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I109" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J109" s="30"/>
-      <c r="K109" s="39"/>
+      <c r="K109" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L109" s="11"/>
     </row>
     <row r="110" spans="1:12" ht="47.25">
@@ -11270,10 +11354,16 @@
       <c r="G110" s="94" t="s">
         <v>107</v>
       </c>
-      <c r="H110" s="12"/>
-      <c r="I110" s="12"/>
+      <c r="H110" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I110" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J110" s="30"/>
-      <c r="K110" s="39"/>
+      <c r="K110" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L110" s="11"/>
     </row>
     <row r="111" spans="1:12" ht="47.25">
@@ -11292,10 +11382,16 @@
         <v>325</v>
       </c>
       <c r="G111" s="95"/>
-      <c r="H111" s="12"/>
-      <c r="I111" s="12"/>
+      <c r="H111" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I111" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J111" s="30"/>
-      <c r="K111" s="39"/>
+      <c r="K111" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L111" s="11"/>
     </row>
     <row r="112" spans="1:12" ht="47.25">
@@ -11314,10 +11410,16 @@
         <v>326</v>
       </c>
       <c r="G112" s="95"/>
-      <c r="H112" s="12"/>
-      <c r="I112" s="12"/>
+      <c r="H112" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I112" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J112" s="30"/>
-      <c r="K112" s="39"/>
+      <c r="K112" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L112" s="11"/>
     </row>
     <row r="113" spans="1:12" ht="47.25">
@@ -11336,10 +11438,16 @@
         <v>326</v>
       </c>
       <c r="G113" s="95"/>
-      <c r="H113" s="12"/>
-      <c r="I113" s="12"/>
+      <c r="H113" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I113" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J113" s="30"/>
-      <c r="K113" s="39"/>
+      <c r="K113" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L113" s="11"/>
     </row>
     <row r="114" spans="1:12" ht="63">
@@ -11358,10 +11466,16 @@
         <v>327</v>
       </c>
       <c r="G114" s="95"/>
-      <c r="H114" s="12"/>
-      <c r="I114" s="12"/>
+      <c r="H114" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I114" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J114" s="30"/>
-      <c r="K114" s="39"/>
+      <c r="K114" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L114" s="11"/>
     </row>
     <row r="115" spans="1:12" ht="63">
@@ -11380,10 +11494,16 @@
         <v>343</v>
       </c>
       <c r="G115" s="95"/>
-      <c r="H115" s="12"/>
-      <c r="I115" s="12"/>
+      <c r="H115" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I115" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J115" s="30"/>
-      <c r="K115" s="39"/>
+      <c r="K115" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L115" s="11"/>
     </row>
     <row r="116" spans="1:12" ht="47.25">
@@ -11402,10 +11522,16 @@
         <v>347</v>
       </c>
       <c r="G116" s="95"/>
-      <c r="H116" s="12"/>
-      <c r="I116" s="12"/>
+      <c r="H116" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I116" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J116" s="30"/>
-      <c r="K116" s="39"/>
+      <c r="K116" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L116" s="11"/>
     </row>
     <row r="117" spans="1:12" ht="47.25">
@@ -11424,10 +11550,16 @@
         <v>328</v>
       </c>
       <c r="G117" s="95"/>
-      <c r="H117" s="12"/>
-      <c r="I117" s="12"/>
+      <c r="H117" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I117" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J117" s="30"/>
-      <c r="K117" s="39"/>
+      <c r="K117" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L117" s="11"/>
     </row>
     <row r="118" spans="1:12" ht="47.25">
@@ -11446,10 +11578,16 @@
         <v>323</v>
       </c>
       <c r="G118" s="95"/>
-      <c r="H118" s="12"/>
-      <c r="I118" s="12"/>
+      <c r="H118" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I118" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J118" s="30"/>
-      <c r="K118" s="39"/>
+      <c r="K118" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L118" s="11"/>
     </row>
     <row r="119" spans="1:12" ht="63">
@@ -11468,10 +11606,16 @@
         <v>329</v>
       </c>
       <c r="G119" s="95"/>
-      <c r="H119" s="12"/>
-      <c r="I119" s="12"/>
+      <c r="H119" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I119" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J119" s="30"/>
-      <c r="K119" s="39"/>
+      <c r="K119" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L119" s="11"/>
     </row>
     <row r="120" spans="1:12" ht="63">
@@ -11490,10 +11634,16 @@
         <v>330</v>
       </c>
       <c r="G120" s="95"/>
-      <c r="H120" s="12"/>
-      <c r="I120" s="12"/>
+      <c r="H120" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I120" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J120" s="30"/>
-      <c r="K120" s="39"/>
+      <c r="K120" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L120" s="11"/>
     </row>
     <row r="121" spans="1:12" ht="47.25">
@@ -11512,10 +11662,16 @@
         <v>322</v>
       </c>
       <c r="G121" s="96"/>
-      <c r="H121" s="12"/>
-      <c r="I121" s="12"/>
+      <c r="H121" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I121" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J121" s="30"/>
-      <c r="K121" s="39"/>
+      <c r="K121" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L121" s="11"/>
     </row>
     <row r="122" spans="1:12" ht="94.5">

--- a/testcase_account_ver3.xlsx
+++ b/testcase_account_ver3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\7-Programming-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5D2F09-9AB0-4423-9299-CD1D570E8CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BFE619-7776-4175-A293-317AAE6C2747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="374">
   <si>
     <t>作成者</t>
   </si>
@@ -7738,6 +7738,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7747,14 +7768,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -7774,26 +7795,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7818,12 +7824,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -8177,8 +8177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M173"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K108" sqref="K108:K121"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K120" sqref="K120:K164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -8198,12 +8198,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
       <c r="E1" s="53" t="s">
         <v>2</v>
       </c>
@@ -8226,10 +8226,10 @@
       <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A2" s="105"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
+      <c r="A2" s="96"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
       <c r="E2" s="53" t="s">
         <v>3</v>
       </c>
@@ -8543,7 +8543,7 @@
       <c r="F12" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="94" t="s">
+      <c r="G12" s="91" t="s">
         <v>107</v>
       </c>
       <c r="H12" s="68">
@@ -8573,7 +8573,7 @@
       <c r="F13" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="95"/>
+      <c r="G13" s="92"/>
       <c r="H13" s="60">
         <v>44354</v>
       </c>
@@ -8601,7 +8601,7 @@
       <c r="F14" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="95"/>
+      <c r="G14" s="92"/>
       <c r="H14" s="60">
         <v>44354</v>
       </c>
@@ -8629,7 +8629,7 @@
       <c r="F15" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="95"/>
+      <c r="G15" s="92"/>
       <c r="H15" s="68">
         <v>44354</v>
       </c>
@@ -8657,7 +8657,7 @@
       <c r="F16" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="95"/>
+      <c r="G16" s="92"/>
       <c r="H16" s="60">
         <v>44354</v>
       </c>
@@ -8685,7 +8685,7 @@
       <c r="F17" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="95"/>
+      <c r="G17" s="92"/>
       <c r="H17" s="60">
         <v>44354</v>
       </c>
@@ -8713,7 +8713,7 @@
       <c r="F18" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="95"/>
+      <c r="G18" s="92"/>
       <c r="H18" s="68">
         <v>44354</v>
       </c>
@@ -8741,7 +8741,7 @@
       <c r="F19" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="95"/>
+      <c r="G19" s="92"/>
       <c r="H19" s="60">
         <v>44354</v>
       </c>
@@ -8769,7 +8769,7 @@
       <c r="F20" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="95"/>
+      <c r="G20" s="92"/>
       <c r="H20" s="60">
         <v>44354</v>
       </c>
@@ -8797,7 +8797,7 @@
       <c r="F21" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="95"/>
+      <c r="G21" s="92"/>
       <c r="H21" s="68">
         <v>44354</v>
       </c>
@@ -8825,7 +8825,7 @@
       <c r="F22" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="95"/>
+      <c r="G22" s="92"/>
       <c r="H22" s="60">
         <v>44354</v>
       </c>
@@ -8853,7 +8853,7 @@
       <c r="F23" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="96"/>
+      <c r="G23" s="93"/>
       <c r="H23" s="60">
         <v>44354</v>
       </c>
@@ -9311,7 +9311,7 @@
       <c r="F38" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="G38" s="91" t="s">
+      <c r="G38" s="98" t="s">
         <v>110</v>
       </c>
       <c r="H38" s="68">
@@ -9341,7 +9341,7 @@
       <c r="F39" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="G39" s="92"/>
+      <c r="G39" s="99"/>
       <c r="H39" s="68">
         <v>44354</v>
       </c>
@@ -9369,7 +9369,7 @@
       <c r="F40" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="G40" s="92"/>
+      <c r="G40" s="99"/>
       <c r="H40" s="68">
         <v>44354</v>
       </c>
@@ -9397,7 +9397,7 @@
       <c r="F41" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="G41" s="92"/>
+      <c r="G41" s="99"/>
       <c r="H41" s="68">
         <v>44354</v>
       </c>
@@ -9425,7 +9425,7 @@
       <c r="F42" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="G42" s="93"/>
+      <c r="G42" s="100"/>
       <c r="H42" s="68">
         <v>44354</v>
       </c>
@@ -9577,7 +9577,7 @@
       <c r="F47" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="G47" s="91" t="s">
+      <c r="G47" s="98" t="s">
         <v>110</v>
       </c>
       <c r="H47" s="68">
@@ -9607,7 +9607,7 @@
       <c r="F48" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="G48" s="93"/>
+      <c r="G48" s="100"/>
       <c r="H48" s="68">
         <v>44354</v>
       </c>
@@ -9888,7 +9888,7 @@
       <c r="E57" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F57" s="94" t="s">
+      <c r="F57" s="91" t="s">
         <v>233</v>
       </c>
       <c r="G57" s="32" t="s">
@@ -9920,7 +9920,7 @@
       <c r="E58" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F58" s="95"/>
+      <c r="F58" s="92"/>
       <c r="G58" s="32" t="s">
         <v>234</v>
       </c>
@@ -9947,10 +9947,10 @@
       <c r="D59" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="E59" s="107" t="s">
+      <c r="E59" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="F59" s="95"/>
+      <c r="F59" s="92"/>
       <c r="G59" s="37" t="s">
         <v>261</v>
       </c>
@@ -9975,8 +9975,8 @@
       <c r="D60" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E60" s="108"/>
-      <c r="F60" s="95"/>
+      <c r="E60" s="102"/>
+      <c r="F60" s="92"/>
       <c r="G60" s="37" t="s">
         <v>262</v>
       </c>
@@ -10001,8 +10001,8 @@
       <c r="D61" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E61" s="108"/>
-      <c r="F61" s="95"/>
+      <c r="E61" s="102"/>
+      <c r="F61" s="92"/>
       <c r="G61" s="37" t="s">
         <v>263</v>
       </c>
@@ -10027,8 +10027,8 @@
       <c r="D62" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E62" s="108"/>
-      <c r="F62" s="95"/>
+      <c r="E62" s="102"/>
+      <c r="F62" s="92"/>
       <c r="G62" s="37" t="s">
         <v>264</v>
       </c>
@@ -10053,8 +10053,8 @@
       <c r="D63" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E63" s="108"/>
-      <c r="F63" s="95"/>
+      <c r="E63" s="102"/>
+      <c r="F63" s="92"/>
       <c r="G63" s="37" t="s">
         <v>265</v>
       </c>
@@ -10079,8 +10079,8 @@
       <c r="D64" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E64" s="108"/>
-      <c r="F64" s="95"/>
+      <c r="E64" s="102"/>
+      <c r="F64" s="92"/>
       <c r="G64" s="37" t="s">
         <v>266</v>
       </c>
@@ -10105,8 +10105,8 @@
       <c r="D65" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E65" s="108"/>
-      <c r="F65" s="95"/>
+      <c r="E65" s="102"/>
+      <c r="F65" s="92"/>
       <c r="G65" s="31" t="s">
         <v>273</v>
       </c>
@@ -10131,8 +10131,8 @@
       <c r="D66" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E66" s="108"/>
-      <c r="F66" s="95"/>
+      <c r="E66" s="102"/>
+      <c r="F66" s="92"/>
       <c r="G66" s="31" t="s">
         <v>274</v>
       </c>
@@ -10157,8 +10157,8 @@
       <c r="D67" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="E67" s="108"/>
-      <c r="F67" s="95"/>
+      <c r="E67" s="102"/>
+      <c r="F67" s="92"/>
       <c r="G67" s="31" t="s">
         <v>275</v>
       </c>
@@ -10183,8 +10183,8 @@
       <c r="D68" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="E68" s="108"/>
-      <c r="F68" s="95"/>
+      <c r="E68" s="102"/>
+      <c r="F68" s="92"/>
       <c r="G68" s="31" t="s">
         <v>276</v>
       </c>
@@ -10209,8 +10209,8 @@
       <c r="D69" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="E69" s="108"/>
-      <c r="F69" s="95"/>
+      <c r="E69" s="102"/>
+      <c r="F69" s="92"/>
       <c r="G69" s="31" t="s">
         <v>276</v>
       </c>
@@ -10235,8 +10235,8 @@
       <c r="D70" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="E70" s="108"/>
-      <c r="F70" s="95"/>
+      <c r="E70" s="102"/>
+      <c r="F70" s="92"/>
       <c r="G70" s="31" t="s">
         <v>271</v>
       </c>
@@ -10261,8 +10261,8 @@
       <c r="D71" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="E71" s="109"/>
-      <c r="F71" s="96"/>
+      <c r="E71" s="103"/>
+      <c r="F71" s="93"/>
       <c r="G71" s="31" t="s">
         <v>272</v>
       </c>
@@ -10323,10 +10323,10 @@
       <c r="D73" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E73" s="97" t="s">
+      <c r="E73" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="F73" s="91" t="s">
+      <c r="F73" s="98" t="s">
         <v>278</v>
       </c>
       <c r="G73" s="31" t="s">
@@ -10353,8 +10353,8 @@
       <c r="D74" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E74" s="98"/>
-      <c r="F74" s="92"/>
+      <c r="E74" s="105"/>
+      <c r="F74" s="99"/>
       <c r="G74" s="31" t="s">
         <v>281</v>
       </c>
@@ -10379,8 +10379,8 @@
       <c r="D75" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="98"/>
-      <c r="F75" s="92"/>
+      <c r="E75" s="105"/>
+      <c r="F75" s="99"/>
       <c r="G75" s="31" t="s">
         <v>282</v>
       </c>
@@ -10405,8 +10405,8 @@
       <c r="D76" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E76" s="98"/>
-      <c r="F76" s="92"/>
+      <c r="E76" s="105"/>
+      <c r="F76" s="99"/>
       <c r="G76" s="31" t="s">
         <v>283</v>
       </c>
@@ -10431,8 +10431,8 @@
       <c r="D77" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E77" s="98"/>
-      <c r="F77" s="92"/>
+      <c r="E77" s="105"/>
+      <c r="F77" s="99"/>
       <c r="G77" s="31" t="s">
         <v>284</v>
       </c>
@@ -10457,8 +10457,8 @@
       <c r="D78" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E78" s="98"/>
-      <c r="F78" s="92"/>
+      <c r="E78" s="105"/>
+      <c r="F78" s="99"/>
       <c r="G78" s="31" t="s">
         <v>285</v>
       </c>
@@ -10483,8 +10483,8 @@
       <c r="D79" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E79" s="98"/>
-      <c r="F79" s="92"/>
+      <c r="E79" s="105"/>
+      <c r="F79" s="99"/>
       <c r="G79" s="31" t="s">
         <v>290</v>
       </c>
@@ -10509,8 +10509,8 @@
       <c r="D80" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E80" s="98"/>
-      <c r="F80" s="92"/>
+      <c r="E80" s="105"/>
+      <c r="F80" s="99"/>
       <c r="G80" s="31" t="s">
         <v>286</v>
       </c>
@@ -10535,8 +10535,8 @@
       <c r="D81" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E81" s="98"/>
-      <c r="F81" s="92"/>
+      <c r="E81" s="105"/>
+      <c r="F81" s="99"/>
       <c r="G81" s="31" t="s">
         <v>291</v>
       </c>
@@ -10561,8 +10561,8 @@
       <c r="D82" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E82" s="98"/>
-      <c r="F82" s="92"/>
+      <c r="E82" s="105"/>
+      <c r="F82" s="99"/>
       <c r="G82" s="31" t="s">
         <v>287</v>
       </c>
@@ -10587,8 +10587,8 @@
       <c r="D83" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E83" s="98"/>
-      <c r="F83" s="92"/>
+      <c r="E83" s="105"/>
+      <c r="F83" s="99"/>
       <c r="G83" s="31" t="s">
         <v>288</v>
       </c>
@@ -10613,8 +10613,8 @@
       <c r="D84" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E84" s="99"/>
-      <c r="F84" s="93"/>
+      <c r="E84" s="106"/>
+      <c r="F84" s="100"/>
       <c r="G84" s="31" t="s">
         <v>289</v>
       </c>
@@ -10673,10 +10673,10 @@
       <c r="D86" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E86" s="97" t="s">
+      <c r="E86" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="F86" s="91" t="s">
+      <c r="F86" s="98" t="s">
         <v>302</v>
       </c>
       <c r="G86" s="31" t="s">
@@ -10703,8 +10703,8 @@
       <c r="D87" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="E87" s="98"/>
-      <c r="F87" s="92"/>
+      <c r="E87" s="105"/>
+      <c r="F87" s="99"/>
       <c r="G87" s="31" t="s">
         <v>304</v>
       </c>
@@ -10729,8 +10729,8 @@
       <c r="D88" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="E88" s="98"/>
-      <c r="F88" s="92"/>
+      <c r="E88" s="105"/>
+      <c r="F88" s="99"/>
       <c r="G88" s="31" t="s">
         <v>372</v>
       </c>
@@ -10755,8 +10755,8 @@
       <c r="D89" s="25" t="s">
         <v>296</v>
       </c>
-      <c r="E89" s="99"/>
-      <c r="F89" s="93"/>
+      <c r="E89" s="106"/>
+      <c r="F89" s="100"/>
       <c r="G89" s="31" t="s">
         <v>373</v>
       </c>
@@ -10785,10 +10785,10 @@
       <c r="D90" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="E90" s="97" t="s">
+      <c r="E90" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="F90" s="94" t="s">
+      <c r="F90" s="91" t="s">
         <v>301</v>
       </c>
       <c r="G90" s="30" t="s">
@@ -10817,8 +10817,8 @@
       <c r="D91" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="E91" s="98"/>
-      <c r="F91" s="95"/>
+      <c r="E91" s="105"/>
+      <c r="F91" s="92"/>
       <c r="G91" s="32" t="s">
         <v>299</v>
       </c>
@@ -10843,8 +10843,8 @@
       <c r="D92" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="E92" s="99"/>
-      <c r="F92" s="95"/>
+      <c r="E92" s="106"/>
+      <c r="F92" s="92"/>
       <c r="G92" s="32" t="s">
         <v>303</v>
       </c>
@@ -10876,7 +10876,7 @@
       <c r="E93" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F93" s="95"/>
+      <c r="F93" s="92"/>
       <c r="G93" s="32" t="s">
         <v>355</v>
       </c>
@@ -10904,7 +10904,7 @@
       <c r="E94" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F94" s="96"/>
+      <c r="F94" s="93"/>
       <c r="G94" s="32" t="s">
         <v>356</v>
       </c>
@@ -10997,10 +10997,10 @@
       <c r="D97" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E97" s="97" t="s">
+      <c r="E97" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="F97" s="91" t="s">
+      <c r="F97" s="98" t="s">
         <v>306</v>
       </c>
       <c r="G97" s="31" t="s">
@@ -11027,8 +11027,8 @@
       <c r="D98" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E98" s="98"/>
-      <c r="F98" s="92"/>
+      <c r="E98" s="105"/>
+      <c r="F98" s="99"/>
       <c r="G98" s="31" t="s">
         <v>311</v>
       </c>
@@ -11053,8 +11053,8 @@
       <c r="D99" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E99" s="98"/>
-      <c r="F99" s="92"/>
+      <c r="E99" s="105"/>
+      <c r="F99" s="99"/>
       <c r="G99" s="31" t="s">
         <v>310</v>
       </c>
@@ -11079,8 +11079,8 @@
       <c r="D100" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E100" s="98"/>
-      <c r="F100" s="92"/>
+      <c r="E100" s="105"/>
+      <c r="F100" s="99"/>
       <c r="G100" s="31" t="s">
         <v>309</v>
       </c>
@@ -11105,8 +11105,8 @@
       <c r="D101" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E101" s="98"/>
-      <c r="F101" s="92"/>
+      <c r="E101" s="105"/>
+      <c r="F101" s="99"/>
       <c r="G101" s="31" t="s">
         <v>312</v>
       </c>
@@ -11131,8 +11131,8 @@
       <c r="D102" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E102" s="98"/>
-      <c r="F102" s="92"/>
+      <c r="E102" s="105"/>
+      <c r="F102" s="99"/>
       <c r="G102" s="31" t="s">
         <v>313</v>
       </c>
@@ -11157,8 +11157,8 @@
       <c r="D103" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E103" s="98"/>
-      <c r="F103" s="92"/>
+      <c r="E103" s="105"/>
+      <c r="F103" s="99"/>
       <c r="G103" s="31" t="s">
         <v>320</v>
       </c>
@@ -11183,8 +11183,8 @@
       <c r="D104" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E104" s="98"/>
-      <c r="F104" s="92"/>
+      <c r="E104" s="105"/>
+      <c r="F104" s="99"/>
       <c r="G104" s="31" t="s">
         <v>315</v>
       </c>
@@ -11209,8 +11209,8 @@
       <c r="D105" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E105" s="98"/>
-      <c r="F105" s="92"/>
+      <c r="E105" s="105"/>
+      <c r="F105" s="99"/>
       <c r="G105" s="31" t="s">
         <v>316</v>
       </c>
@@ -11235,8 +11235,8 @@
       <c r="D106" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E106" s="98"/>
-      <c r="F106" s="92"/>
+      <c r="E106" s="105"/>
+      <c r="F106" s="99"/>
       <c r="G106" s="31" t="s">
         <v>317</v>
       </c>
@@ -11261,8 +11261,8 @@
       <c r="D107" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E107" s="98"/>
-      <c r="F107" s="92"/>
+      <c r="E107" s="105"/>
+      <c r="F107" s="99"/>
       <c r="G107" s="31" t="s">
         <v>318</v>
       </c>
@@ -11287,8 +11287,8 @@
       <c r="D108" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E108" s="99"/>
-      <c r="F108" s="93"/>
+      <c r="E108" s="106"/>
+      <c r="F108" s="100"/>
       <c r="G108" s="31" t="s">
         <v>319</v>
       </c>
@@ -11351,7 +11351,7 @@
       <c r="F110" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="G110" s="94" t="s">
+      <c r="G110" s="91" t="s">
         <v>107</v>
       </c>
       <c r="H110" s="68">
@@ -11381,7 +11381,7 @@
       <c r="F111" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="G111" s="95"/>
+      <c r="G111" s="92"/>
       <c r="H111" s="68">
         <v>44435</v>
       </c>
@@ -11409,7 +11409,7 @@
       <c r="F112" s="31" t="s">
         <v>326</v>
       </c>
-      <c r="G112" s="95"/>
+      <c r="G112" s="92"/>
       <c r="H112" s="68">
         <v>44435</v>
       </c>
@@ -11437,7 +11437,7 @@
       <c r="F113" s="31" t="s">
         <v>326</v>
       </c>
-      <c r="G113" s="95"/>
+      <c r="G113" s="92"/>
       <c r="H113" s="68">
         <v>44435</v>
       </c>
@@ -11465,7 +11465,7 @@
       <c r="F114" s="31" t="s">
         <v>327</v>
       </c>
-      <c r="G114" s="95"/>
+      <c r="G114" s="92"/>
       <c r="H114" s="68">
         <v>44435</v>
       </c>
@@ -11493,7 +11493,7 @@
       <c r="F115" s="31" t="s">
         <v>343</v>
       </c>
-      <c r="G115" s="95"/>
+      <c r="G115" s="92"/>
       <c r="H115" s="68">
         <v>44435</v>
       </c>
@@ -11521,7 +11521,7 @@
       <c r="F116" s="31" t="s">
         <v>347</v>
       </c>
-      <c r="G116" s="95"/>
+      <c r="G116" s="92"/>
       <c r="H116" s="68">
         <v>44435</v>
       </c>
@@ -11549,7 +11549,7 @@
       <c r="F117" s="31" t="s">
         <v>328</v>
       </c>
-      <c r="G117" s="95"/>
+      <c r="G117" s="92"/>
       <c r="H117" s="68">
         <v>44435</v>
       </c>
@@ -11577,7 +11577,7 @@
       <c r="F118" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="G118" s="95"/>
+      <c r="G118" s="92"/>
       <c r="H118" s="68">
         <v>44435</v>
       </c>
@@ -11605,7 +11605,7 @@
       <c r="F119" s="31" t="s">
         <v>329</v>
       </c>
-      <c r="G119" s="95"/>
+      <c r="G119" s="92"/>
       <c r="H119" s="68">
         <v>44435</v>
       </c>
@@ -11633,7 +11633,7 @@
       <c r="F120" s="31" t="s">
         <v>330</v>
       </c>
-      <c r="G120" s="95"/>
+      <c r="G120" s="92"/>
       <c r="H120" s="68">
         <v>44435</v>
       </c>
@@ -11661,7 +11661,7 @@
       <c r="F121" s="31" t="s">
         <v>322</v>
       </c>
-      <c r="G121" s="96"/>
+      <c r="G121" s="93"/>
       <c r="H121" s="68">
         <v>44435</v>
       </c>
@@ -11694,10 +11694,16 @@
       <c r="G122" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="H122" s="12"/>
-      <c r="I122" s="12"/>
+      <c r="H122" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I122" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J122" s="30"/>
-      <c r="K122" s="39"/>
+      <c r="K122" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L122" s="11"/>
     </row>
     <row r="123" spans="1:12" ht="94.5">
@@ -11718,10 +11724,16 @@
       <c r="G123" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="H123" s="12"/>
-      <c r="I123" s="12"/>
+      <c r="H123" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I123" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J123" s="30"/>
-      <c r="K123" s="39"/>
+      <c r="K123" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L123" s="11"/>
     </row>
     <row r="124" spans="1:12" ht="94.5">
@@ -11742,10 +11754,16 @@
       <c r="G124" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="H124" s="12"/>
-      <c r="I124" s="12"/>
+      <c r="H124" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I124" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J124" s="30"/>
-      <c r="K124" s="39"/>
+      <c r="K124" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L124" s="11"/>
     </row>
     <row r="125" spans="1:12" ht="94.5">
@@ -11766,10 +11784,16 @@
       <c r="G125" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="H125" s="12"/>
-      <c r="I125" s="12"/>
+      <c r="H125" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I125" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J125" s="30"/>
-      <c r="K125" s="39"/>
+      <c r="K125" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L125" s="11"/>
     </row>
     <row r="126" spans="1:12" ht="126">
@@ -11790,10 +11814,16 @@
       <c r="G126" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="H126" s="12"/>
-      <c r="I126" s="12"/>
+      <c r="H126" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I126" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J126" s="30"/>
-      <c r="K126" s="39"/>
+      <c r="K126" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L126" s="11"/>
     </row>
     <row r="127" spans="1:12" ht="110.25">
@@ -11814,10 +11844,16 @@
       <c r="G127" s="32" t="s">
         <v>342</v>
       </c>
-      <c r="H127" s="12"/>
-      <c r="I127" s="12"/>
+      <c r="H127" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I127" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J127" s="30"/>
-      <c r="K127" s="39"/>
+      <c r="K127" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L127" s="11"/>
     </row>
     <row r="128" spans="1:12" ht="94.5">
@@ -11838,10 +11874,16 @@
       <c r="G128" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="H128" s="12"/>
-      <c r="I128" s="12"/>
+      <c r="H128" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I128" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J128" s="30"/>
-      <c r="K128" s="39"/>
+      <c r="K128" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L128" s="11"/>
     </row>
     <row r="129" spans="1:12" ht="47.25">
@@ -11862,10 +11904,16 @@
       <c r="G129" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="H129" s="12"/>
-      <c r="I129" s="12"/>
+      <c r="H129" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I129" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J129" s="30"/>
-      <c r="K129" s="39"/>
+      <c r="K129" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L129" s="11"/>
     </row>
     <row r="130" spans="1:12" ht="110.25">
@@ -11886,10 +11934,16 @@
       <c r="G130" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="H130" s="12"/>
-      <c r="I130" s="12"/>
+      <c r="H130" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I130" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J130" s="30"/>
-      <c r="K130" s="39"/>
+      <c r="K130" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L130" s="11"/>
     </row>
     <row r="131" spans="1:12" ht="110.25">
@@ -11910,10 +11964,16 @@
       <c r="G131" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="H131" s="12"/>
-      <c r="I131" s="12"/>
+      <c r="H131" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I131" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J131" s="30"/>
-      <c r="K131" s="39"/>
+      <c r="K131" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L131" s="11"/>
     </row>
     <row r="132" spans="1:12" ht="31.5">
@@ -11932,16 +11992,22 @@
       <c r="E132" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F132" s="91" t="s">
+      <c r="F132" s="98" t="s">
         <v>345</v>
       </c>
       <c r="G132" s="31" t="s">
         <v>346</v>
       </c>
-      <c r="H132" s="12"/>
-      <c r="I132" s="12"/>
+      <c r="H132" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I132" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J132" s="30"/>
-      <c r="K132" s="39"/>
+      <c r="K132" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L132" s="11"/>
     </row>
     <row r="133" spans="1:12" ht="31.5">
@@ -11956,14 +12022,20 @@
       <c r="E133" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F133" s="92"/>
+      <c r="F133" s="99"/>
       <c r="G133" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="H133" s="12"/>
-      <c r="I133" s="12"/>
+      <c r="H133" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I133" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J133" s="30"/>
-      <c r="K133" s="39"/>
+      <c r="K133" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L133" s="11"/>
     </row>
     <row r="134" spans="1:12" ht="31.5">
@@ -11978,14 +12050,20 @@
       <c r="E134" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F134" s="92"/>
+      <c r="F134" s="99"/>
       <c r="G134" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="H134" s="12"/>
-      <c r="I134" s="12"/>
+      <c r="H134" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I134" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J134" s="30"/>
-      <c r="K134" s="39"/>
+      <c r="K134" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L134" s="11"/>
     </row>
     <row r="135" spans="1:12" ht="31.5">
@@ -12000,14 +12078,20 @@
       <c r="E135" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F135" s="92"/>
+      <c r="F135" s="99"/>
       <c r="G135" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="H135" s="12"/>
-      <c r="I135" s="12"/>
+      <c r="H135" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I135" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J135" s="30"/>
-      <c r="K135" s="39"/>
+      <c r="K135" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L135" s="11"/>
     </row>
     <row r="136" spans="1:12" ht="31.5">
@@ -12022,14 +12106,20 @@
       <c r="E136" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F136" s="92"/>
+      <c r="F136" s="99"/>
       <c r="G136" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="H136" s="12"/>
-      <c r="I136" s="12"/>
+      <c r="H136" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I136" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J136" s="30"/>
-      <c r="K136" s="39"/>
+      <c r="K136" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L136" s="11"/>
     </row>
     <row r="137" spans="1:12" ht="31.5">
@@ -12044,14 +12134,20 @@
       <c r="E137" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F137" s="92"/>
+      <c r="F137" s="99"/>
       <c r="G137" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="H137" s="12"/>
-      <c r="I137" s="12"/>
+      <c r="H137" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I137" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J137" s="30"/>
-      <c r="K137" s="39"/>
+      <c r="K137" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L137" s="11"/>
     </row>
     <row r="138" spans="1:12" ht="31.5">
@@ -12066,14 +12162,20 @@
       <c r="E138" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F138" s="92"/>
+      <c r="F138" s="99"/>
       <c r="G138" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="H138" s="12"/>
-      <c r="I138" s="12"/>
+      <c r="H138" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I138" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J138" s="30"/>
-      <c r="K138" s="39"/>
+      <c r="K138" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L138" s="11"/>
     </row>
     <row r="139" spans="1:12" ht="31.5">
@@ -12088,14 +12190,20 @@
       <c r="E139" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F139" s="92"/>
+      <c r="F139" s="99"/>
       <c r="G139" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="H139" s="12"/>
-      <c r="I139" s="12"/>
+      <c r="H139" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I139" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J139" s="30"/>
-      <c r="K139" s="39"/>
+      <c r="K139" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L139" s="11"/>
     </row>
     <row r="140" spans="1:12" ht="31.5">
@@ -12110,14 +12218,20 @@
       <c r="E140" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F140" s="92"/>
+      <c r="F140" s="99"/>
       <c r="G140" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="H140" s="12"/>
-      <c r="I140" s="12"/>
+      <c r="H140" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I140" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J140" s="30"/>
-      <c r="K140" s="39"/>
+      <c r="K140" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L140" s="11"/>
     </row>
     <row r="141" spans="1:12" ht="31.5">
@@ -12132,14 +12246,20 @@
       <c r="E141" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F141" s="92"/>
+      <c r="F141" s="99"/>
       <c r="G141" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="H141" s="12"/>
-      <c r="I141" s="12"/>
+      <c r="H141" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I141" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J141" s="30"/>
-      <c r="K141" s="39"/>
+      <c r="K141" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L141" s="11"/>
     </row>
     <row r="142" spans="1:12" ht="31.5">
@@ -12154,14 +12274,20 @@
       <c r="E142" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F142" s="92"/>
+      <c r="F142" s="99"/>
       <c r="G142" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="H142" s="12"/>
-      <c r="I142" s="12"/>
+      <c r="H142" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I142" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J142" s="30"/>
-      <c r="K142" s="39"/>
+      <c r="K142" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L142" s="11"/>
     </row>
     <row r="143" spans="1:12" ht="31.5">
@@ -12176,14 +12302,20 @@
       <c r="E143" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F143" s="92"/>
+      <c r="F143" s="99"/>
       <c r="G143" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="H143" s="12"/>
-      <c r="I143" s="12"/>
+      <c r="H143" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I143" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J143" s="30"/>
-      <c r="K143" s="39"/>
+      <c r="K143" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L143" s="11"/>
     </row>
     <row r="144" spans="1:12" ht="31.5">
@@ -12198,14 +12330,20 @@
       <c r="E144" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F144" s="92"/>
+      <c r="F144" s="99"/>
       <c r="G144" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="H144" s="12"/>
-      <c r="I144" s="12"/>
+      <c r="H144" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I144" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J144" s="30"/>
-      <c r="K144" s="39"/>
+      <c r="K144" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L144" s="11"/>
     </row>
     <row r="145" spans="1:12" ht="31.5">
@@ -12220,14 +12358,20 @@
       <c r="E145" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F145" s="92"/>
+      <c r="F145" s="99"/>
       <c r="G145" s="31" t="s">
         <v>348</v>
       </c>
-      <c r="H145" s="12"/>
-      <c r="I145" s="12"/>
+      <c r="H145" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I145" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J145" s="30"/>
-      <c r="K145" s="39"/>
+      <c r="K145" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L145" s="11"/>
     </row>
     <row r="146" spans="1:12" ht="31.5">
@@ -12242,14 +12386,20 @@
       <c r="E146" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F146" s="93"/>
+      <c r="F146" s="100"/>
       <c r="G146" s="31" t="s">
         <v>349</v>
       </c>
-      <c r="H146" s="12"/>
-      <c r="I146" s="12"/>
+      <c r="H146" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I146" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J146" s="30"/>
-      <c r="K146" s="39"/>
+      <c r="K146" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L146" s="11"/>
     </row>
     <row r="147" spans="1:12" ht="31.5">
@@ -12268,16 +12418,22 @@
       <c r="E147" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F147" s="91" t="s">
+      <c r="F147" s="98" t="s">
         <v>351</v>
       </c>
       <c r="G147" s="31" t="s">
         <v>352</v>
       </c>
-      <c r="H147" s="12"/>
-      <c r="I147" s="12"/>
+      <c r="H147" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I147" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J147" s="30"/>
-      <c r="K147" s="39"/>
+      <c r="K147" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L147" s="11"/>
     </row>
     <row r="148" spans="1:12" ht="31.5">
@@ -12292,14 +12448,20 @@
       <c r="E148" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F148" s="92"/>
+      <c r="F148" s="99"/>
       <c r="G148" s="31" t="s">
         <v>353</v>
       </c>
-      <c r="H148" s="12"/>
-      <c r="I148" s="12"/>
+      <c r="H148" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I148" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J148" s="30"/>
-      <c r="K148" s="39"/>
+      <c r="K148" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L148" s="11"/>
     </row>
     <row r="149" spans="1:12" ht="31.5">
@@ -12314,14 +12476,20 @@
       <c r="E149" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F149" s="93"/>
+      <c r="F149" s="100"/>
       <c r="G149" s="32" t="s">
         <v>303</v>
       </c>
-      <c r="H149" s="12"/>
-      <c r="I149" s="12"/>
+      <c r="H149" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I149" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J149" s="30"/>
-      <c r="K149" s="39"/>
+      <c r="K149" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L149" s="11"/>
     </row>
     <row r="150" spans="1:12" ht="47.25" customHeight="1">
@@ -12337,19 +12505,25 @@
       <c r="D150" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E150" s="100" t="s">
+      <c r="E150" s="107" t="s">
         <v>55</v>
       </c>
-      <c r="F150" s="91" t="s">
+      <c r="F150" s="98" t="s">
         <v>358</v>
       </c>
-      <c r="G150" s="94" t="s">
+      <c r="G150" s="91" t="s">
         <v>359</v>
       </c>
-      <c r="H150" s="12"/>
-      <c r="I150" s="12"/>
+      <c r="H150" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I150" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J150" s="30"/>
-      <c r="K150" s="39"/>
+      <c r="K150" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L150" s="11"/>
     </row>
     <row r="151" spans="1:12" ht="11.25" customHeight="1">
@@ -12361,13 +12535,19 @@
       <c r="D151" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E151" s="101"/>
-      <c r="F151" s="92"/>
-      <c r="G151" s="95"/>
-      <c r="H151" s="12"/>
-      <c r="I151" s="12"/>
+      <c r="E151" s="108"/>
+      <c r="F151" s="99"/>
+      <c r="G151" s="92"/>
+      <c r="H151" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I151" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J151" s="30"/>
-      <c r="K151" s="39"/>
+      <c r="K151" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L151" s="11"/>
     </row>
     <row r="152" spans="1:12" ht="11.25" customHeight="1">
@@ -12379,13 +12559,19 @@
       <c r="D152" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E152" s="101"/>
-      <c r="F152" s="92"/>
-      <c r="G152" s="95"/>
-      <c r="H152" s="12"/>
-      <c r="I152" s="12"/>
+      <c r="E152" s="108"/>
+      <c r="F152" s="99"/>
+      <c r="G152" s="92"/>
+      <c r="H152" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I152" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J152" s="30"/>
-      <c r="K152" s="39"/>
+      <c r="K152" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L152" s="11"/>
     </row>
     <row r="153" spans="1:12" ht="11.25" customHeight="1">
@@ -12397,13 +12583,19 @@
       <c r="D153" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E153" s="101"/>
-      <c r="F153" s="92"/>
-      <c r="G153" s="95"/>
-      <c r="H153" s="12"/>
-      <c r="I153" s="12"/>
+      <c r="E153" s="108"/>
+      <c r="F153" s="99"/>
+      <c r="G153" s="92"/>
+      <c r="H153" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I153" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J153" s="30"/>
-      <c r="K153" s="39"/>
+      <c r="K153" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L153" s="11"/>
     </row>
     <row r="154" spans="1:12" ht="11.25" customHeight="1">
@@ -12415,13 +12607,19 @@
       <c r="D154" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E154" s="101"/>
-      <c r="F154" s="92"/>
-      <c r="G154" s="95"/>
-      <c r="H154" s="12"/>
-      <c r="I154" s="12"/>
+      <c r="E154" s="108"/>
+      <c r="F154" s="99"/>
+      <c r="G154" s="92"/>
+      <c r="H154" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I154" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J154" s="30"/>
-      <c r="K154" s="39"/>
+      <c r="K154" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L154" s="11"/>
     </row>
     <row r="155" spans="1:12" ht="11.25" customHeight="1">
@@ -12433,13 +12631,19 @@
       <c r="D155" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E155" s="101"/>
-      <c r="F155" s="92"/>
-      <c r="G155" s="95"/>
-      <c r="H155" s="12"/>
-      <c r="I155" s="12"/>
+      <c r="E155" s="108"/>
+      <c r="F155" s="99"/>
+      <c r="G155" s="92"/>
+      <c r="H155" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I155" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J155" s="30"/>
-      <c r="K155" s="39"/>
+      <c r="K155" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L155" s="11"/>
     </row>
     <row r="156" spans="1:12" ht="11.25" customHeight="1">
@@ -12451,13 +12655,19 @@
       <c r="D156" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E156" s="101"/>
-      <c r="F156" s="92"/>
-      <c r="G156" s="95"/>
-      <c r="H156" s="12"/>
-      <c r="I156" s="12"/>
+      <c r="E156" s="108"/>
+      <c r="F156" s="99"/>
+      <c r="G156" s="92"/>
+      <c r="H156" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I156" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J156" s="30"/>
-      <c r="K156" s="39"/>
+      <c r="K156" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L156" s="11"/>
     </row>
     <row r="157" spans="1:12" ht="11.25" customHeight="1">
@@ -12469,13 +12679,19 @@
       <c r="D157" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E157" s="101"/>
-      <c r="F157" s="92"/>
-      <c r="G157" s="95"/>
-      <c r="H157" s="12"/>
-      <c r="I157" s="12"/>
+      <c r="E157" s="108"/>
+      <c r="F157" s="99"/>
+      <c r="G157" s="92"/>
+      <c r="H157" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I157" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J157" s="30"/>
-      <c r="K157" s="39"/>
+      <c r="K157" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L157" s="11"/>
     </row>
     <row r="158" spans="1:12" ht="11.25" customHeight="1">
@@ -12487,13 +12703,19 @@
       <c r="D158" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E158" s="101"/>
-      <c r="F158" s="92"/>
-      <c r="G158" s="95"/>
-      <c r="H158" s="12"/>
-      <c r="I158" s="12"/>
+      <c r="E158" s="108"/>
+      <c r="F158" s="99"/>
+      <c r="G158" s="92"/>
+      <c r="H158" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I158" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J158" s="30"/>
-      <c r="K158" s="39"/>
+      <c r="K158" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L158" s="11"/>
     </row>
     <row r="159" spans="1:12" ht="11.25" customHeight="1">
@@ -12505,13 +12727,19 @@
       <c r="D159" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E159" s="101"/>
-      <c r="F159" s="92"/>
-      <c r="G159" s="95"/>
-      <c r="H159" s="12"/>
-      <c r="I159" s="12"/>
+      <c r="E159" s="108"/>
+      <c r="F159" s="99"/>
+      <c r="G159" s="92"/>
+      <c r="H159" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I159" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J159" s="30"/>
-      <c r="K159" s="39"/>
+      <c r="K159" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L159" s="11"/>
     </row>
     <row r="160" spans="1:12" ht="11.25" customHeight="1">
@@ -12523,13 +12751,19 @@
       <c r="D160" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E160" s="101"/>
-      <c r="F160" s="92"/>
-      <c r="G160" s="95"/>
-      <c r="H160" s="12"/>
-      <c r="I160" s="12"/>
+      <c r="E160" s="108"/>
+      <c r="F160" s="99"/>
+      <c r="G160" s="92"/>
+      <c r="H160" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I160" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J160" s="30"/>
-      <c r="K160" s="39"/>
+      <c r="K160" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L160" s="11"/>
     </row>
     <row r="161" spans="1:12" ht="11.25" customHeight="1">
@@ -12541,13 +12775,19 @@
       <c r="D161" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="E161" s="101"/>
-      <c r="F161" s="92"/>
-      <c r="G161" s="96"/>
-      <c r="H161" s="12"/>
-      <c r="I161" s="12"/>
+      <c r="E161" s="108"/>
+      <c r="F161" s="99"/>
+      <c r="G161" s="93"/>
+      <c r="H161" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I161" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J161" s="30"/>
-      <c r="K161" s="39"/>
+      <c r="K161" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L161" s="11"/>
     </row>
     <row r="162" spans="1:12" ht="15.75">
@@ -12559,15 +12799,21 @@
       <c r="D162" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="E162" s="101"/>
-      <c r="F162" s="92"/>
+      <c r="E162" s="108"/>
+      <c r="F162" s="99"/>
       <c r="G162" s="31" t="s">
         <v>360</v>
       </c>
-      <c r="H162" s="12"/>
-      <c r="I162" s="12"/>
+      <c r="H162" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I162" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J162" s="30"/>
-      <c r="K162" s="39"/>
+      <c r="K162" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L162" s="11"/>
     </row>
     <row r="163" spans="1:12" ht="31.5">
@@ -12579,15 +12825,21 @@
       <c r="D163" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="E163" s="102"/>
-      <c r="F163" s="93"/>
+      <c r="E163" s="109"/>
+      <c r="F163" s="100"/>
       <c r="G163" s="31" t="s">
         <v>361</v>
       </c>
-      <c r="H163" s="12"/>
-      <c r="I163" s="12"/>
+      <c r="H163" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I163" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J163" s="30"/>
-      <c r="K163" s="39"/>
+      <c r="K163" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L163" s="11"/>
     </row>
     <row r="164" spans="1:12" ht="47.25">
@@ -12610,10 +12862,16 @@
       <c r="G164" s="32" t="s">
         <v>369</v>
       </c>
-      <c r="H164" s="12"/>
-      <c r="I164" s="12"/>
+      <c r="H164" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I164" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J164" s="30"/>
-      <c r="K164" s="39"/>
+      <c r="K164" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L164" s="11"/>
     </row>
     <row r="165" spans="1:12" ht="11.25" customHeight="1">
@@ -12744,6 +13002,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="E97:E108"/>
+    <mergeCell ref="F97:F108"/>
+    <mergeCell ref="E150:E163"/>
+    <mergeCell ref="F150:F163"/>
     <mergeCell ref="G150:G161"/>
     <mergeCell ref="G110:G121"/>
     <mergeCell ref="A1:D2"/>
@@ -12760,10 +13022,6 @@
     <mergeCell ref="F132:F146"/>
     <mergeCell ref="F147:F149"/>
     <mergeCell ref="F90:F94"/>
-    <mergeCell ref="E97:E108"/>
-    <mergeCell ref="F97:F108"/>
-    <mergeCell ref="E150:E163"/>
-    <mergeCell ref="F150:F163"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -12796,11 +13054,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="94" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="110"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="112"/>
       <c r="D1" s="53" t="s">
         <v>2</v>
       </c>
@@ -12823,9 +13081,9 @@
       <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A2" s="105"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="111"/>
+      <c r="A2" s="96"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="113"/>
       <c r="D2" s="53" t="s">
         <v>3</v>
       </c>
@@ -12993,13 +13251,13 @@
       <c r="C8" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="94" t="s">
+      <c r="D8" s="91" t="s">
         <v>205</v>
       </c>
       <c r="E8" s="80" t="s">
         <v>162</v>
       </c>
-      <c r="F8" s="94" t="s">
+      <c r="F8" s="91" t="s">
         <v>203</v>
       </c>
       <c r="G8" s="60">
@@ -13019,11 +13277,11 @@
       <c r="C9" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="95"/>
+      <c r="D9" s="92"/>
       <c r="E9" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="F9" s="95"/>
+      <c r="F9" s="92"/>
       <c r="G9" s="60">
         <v>44369</v>
       </c>
@@ -13041,11 +13299,11 @@
       <c r="C10" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="95"/>
+      <c r="D10" s="92"/>
       <c r="E10" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="95"/>
+      <c r="F10" s="92"/>
       <c r="G10" s="60">
         <v>44369</v>
       </c>
@@ -13063,11 +13321,11 @@
       <c r="C11" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="95"/>
+      <c r="D11" s="92"/>
       <c r="E11" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="95"/>
+      <c r="F11" s="92"/>
       <c r="G11" s="60">
         <v>44369</v>
       </c>
@@ -13085,11 +13343,11 @@
       <c r="C12" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="95"/>
+      <c r="D12" s="92"/>
       <c r="E12" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="95"/>
+      <c r="F12" s="92"/>
       <c r="G12" s="60">
         <v>44369</v>
       </c>
@@ -13107,11 +13365,11 @@
       <c r="C13" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="95"/>
+      <c r="D13" s="92"/>
       <c r="E13" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="95"/>
+      <c r="F13" s="92"/>
       <c r="G13" s="60">
         <v>44369</v>
       </c>
@@ -13129,11 +13387,11 @@
       <c r="C14" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="95"/>
+      <c r="D14" s="92"/>
       <c r="E14" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="95"/>
+      <c r="F14" s="92"/>
       <c r="G14" s="60">
         <v>44369</v>
       </c>
@@ -13151,11 +13409,11 @@
       <c r="C15" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="95"/>
+      <c r="D15" s="92"/>
       <c r="E15" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="95"/>
+      <c r="F15" s="92"/>
       <c r="G15" s="60">
         <v>44369</v>
       </c>
@@ -13173,11 +13431,11 @@
       <c r="C16" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="95"/>
+      <c r="D16" s="92"/>
       <c r="E16" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="95"/>
+      <c r="F16" s="92"/>
       <c r="G16" s="60">
         <v>44369</v>
       </c>
@@ -13195,11 +13453,11 @@
       <c r="C17" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="95"/>
+      <c r="D17" s="92"/>
       <c r="E17" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="95"/>
+      <c r="F17" s="92"/>
       <c r="G17" s="60">
         <v>44369</v>
       </c>
@@ -13217,11 +13475,11 @@
       <c r="C18" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="95"/>
+      <c r="D18" s="92"/>
       <c r="E18" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="95"/>
+      <c r="F18" s="92"/>
       <c r="G18" s="60">
         <v>44369</v>
       </c>
@@ -13239,11 +13497,11 @@
       <c r="C19" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="96"/>
+      <c r="D19" s="93"/>
       <c r="E19" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="96"/>
+      <c r="F19" s="93"/>
       <c r="G19" s="60">
         <v>44369</v>
       </c>
@@ -13264,13 +13522,13 @@
       <c r="C20" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="94" t="s">
+      <c r="D20" s="91" t="s">
         <v>204</v>
       </c>
-      <c r="E20" s="115" t="s">
+      <c r="E20" s="117" t="s">
         <v>202</v>
       </c>
-      <c r="F20" s="94" t="s">
+      <c r="F20" s="91" t="s">
         <v>189</v>
       </c>
       <c r="G20" s="60">
@@ -13293,9 +13551,9 @@
       <c r="C21" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="95"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="95"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="92"/>
       <c r="G21" s="60">
         <v>44369</v>
       </c>
@@ -13316,9 +13574,9 @@
       <c r="C22" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="95"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="95"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="92"/>
       <c r="G22" s="60">
         <v>44369</v>
       </c>
@@ -13339,9 +13597,9 @@
       <c r="C23" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="95"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="95"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="92"/>
       <c r="G23" s="60">
         <v>44369</v>
       </c>
@@ -13362,9 +13620,9 @@
       <c r="C24" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="95"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="96"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="93"/>
       <c r="G24" s="60">
         <v>44369</v>
       </c>
@@ -13385,8 +13643,8 @@
       <c r="C25" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="95"/>
-      <c r="E25" s="116"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="118"/>
       <c r="F25" s="31" t="s">
         <v>187</v>
       </c>
@@ -13410,9 +13668,9 @@
       <c r="C26" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="95"/>
-      <c r="E26" s="116"/>
-      <c r="F26" s="94" t="s">
+      <c r="D26" s="92"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="91" t="s">
         <v>188</v>
       </c>
       <c r="G26" s="60">
@@ -13435,9 +13693,9 @@
       <c r="C27" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="95"/>
-      <c r="E27" s="116"/>
-      <c r="F27" s="95"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="118"/>
+      <c r="F27" s="92"/>
       <c r="G27" s="60">
         <v>44369</v>
       </c>
@@ -13458,9 +13716,9 @@
       <c r="C28" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="95"/>
-      <c r="E28" s="116"/>
-      <c r="F28" s="95"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="118"/>
+      <c r="F28" s="92"/>
       <c r="G28" s="60">
         <v>44369</v>
       </c>
@@ -13481,9 +13739,9 @@
       <c r="C29" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="95"/>
-      <c r="E29" s="116"/>
-      <c r="F29" s="95"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="118"/>
+      <c r="F29" s="92"/>
       <c r="G29" s="60">
         <v>44369</v>
       </c>
@@ -13504,9 +13762,9 @@
       <c r="C30" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="95"/>
-      <c r="E30" s="116"/>
-      <c r="F30" s="95"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="92"/>
       <c r="G30" s="60">
         <v>44369</v>
       </c>
@@ -13527,9 +13785,9 @@
       <c r="C31" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="96"/>
-      <c r="E31" s="117"/>
-      <c r="F31" s="96"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="119"/>
+      <c r="F31" s="93"/>
       <c r="G31" s="60">
         <v>44369</v>
       </c>
@@ -13552,7 +13810,7 @@
       <c r="C32" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="94" t="s">
+      <c r="D32" s="91" t="s">
         <v>220</v>
       </c>
       <c r="E32" s="31" t="s">
@@ -13581,7 +13839,7 @@
       <c r="C33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="95"/>
+      <c r="D33" s="92"/>
       <c r="E33" s="31" t="s">
         <v>169</v>
       </c>
@@ -13608,7 +13866,7 @@
       <c r="C34" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="95"/>
+      <c r="D34" s="92"/>
       <c r="E34" s="31" t="s">
         <v>170</v>
       </c>
@@ -13635,7 +13893,7 @@
       <c r="C35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="95"/>
+      <c r="D35" s="92"/>
       <c r="E35" s="31" t="s">
         <v>170</v>
       </c>
@@ -13662,7 +13920,7 @@
       <c r="C36" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="95"/>
+      <c r="D36" s="92"/>
       <c r="E36" s="31" t="s">
         <v>171</v>
       </c>
@@ -13689,7 +13947,7 @@
       <c r="C37" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="95"/>
+      <c r="D37" s="92"/>
       <c r="E37" s="31" t="s">
         <v>172</v>
       </c>
@@ -13716,7 +13974,7 @@
       <c r="C38" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="95"/>
+      <c r="D38" s="92"/>
       <c r="E38" s="31" t="s">
         <v>173</v>
       </c>
@@ -13743,7 +14001,7 @@
       <c r="C39" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="95"/>
+      <c r="D39" s="92"/>
       <c r="E39" s="31" t="s">
         <v>174</v>
       </c>
@@ -13770,7 +14028,7 @@
       <c r="C40" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="95"/>
+      <c r="D40" s="92"/>
       <c r="E40" s="31" t="s">
         <v>175</v>
       </c>
@@ -13797,7 +14055,7 @@
       <c r="C41" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="96"/>
+      <c r="D41" s="93"/>
       <c r="E41" s="31" t="s">
         <v>176</v>
       </c>
@@ -13826,13 +14084,13 @@
       <c r="C42" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="94" t="s">
+      <c r="D42" s="91" t="s">
         <v>208</v>
       </c>
-      <c r="E42" s="91" t="s">
+      <c r="E42" s="98" t="s">
         <v>224</v>
       </c>
-      <c r="F42" s="91" t="s">
+      <c r="F42" s="98" t="s">
         <v>207</v>
       </c>
       <c r="G42" s="60">
@@ -13855,9 +14113,9 @@
       <c r="C43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="101"/>
-      <c r="E43" s="92"/>
-      <c r="F43" s="92"/>
+      <c r="D43" s="108"/>
+      <c r="E43" s="99"/>
+      <c r="F43" s="99"/>
       <c r="G43" s="60">
         <v>44369</v>
       </c>
@@ -13878,9 +14136,9 @@
       <c r="C44" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="101"/>
-      <c r="E44" s="92"/>
-      <c r="F44" s="92"/>
+      <c r="D44" s="108"/>
+      <c r="E44" s="99"/>
+      <c r="F44" s="99"/>
       <c r="G44" s="60">
         <v>44369</v>
       </c>
@@ -13901,9 +14159,9 @@
       <c r="C45" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="101"/>
-      <c r="E45" s="92"/>
-      <c r="F45" s="92"/>
+      <c r="D45" s="108"/>
+      <c r="E45" s="99"/>
+      <c r="F45" s="99"/>
       <c r="G45" s="60">
         <v>44369</v>
       </c>
@@ -13924,9 +14182,9 @@
       <c r="C46" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="101"/>
-      <c r="E46" s="92"/>
-      <c r="F46" s="92"/>
+      <c r="D46" s="108"/>
+      <c r="E46" s="99"/>
+      <c r="F46" s="99"/>
       <c r="G46" s="60">
         <v>44369</v>
       </c>
@@ -13947,9 +14205,9 @@
       <c r="C47" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="101"/>
-      <c r="E47" s="92"/>
-      <c r="F47" s="92"/>
+      <c r="D47" s="108"/>
+      <c r="E47" s="99"/>
+      <c r="F47" s="99"/>
       <c r="G47" s="60">
         <v>44369</v>
       </c>
@@ -13970,9 +14228,9 @@
       <c r="C48" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="101"/>
-      <c r="E48" s="92"/>
-      <c r="F48" s="92"/>
+      <c r="D48" s="108"/>
+      <c r="E48" s="99"/>
+      <c r="F48" s="99"/>
       <c r="G48" s="60">
         <v>44369</v>
       </c>
@@ -13993,9 +14251,9 @@
       <c r="C49" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D49" s="101"/>
-      <c r="E49" s="92"/>
-      <c r="F49" s="92"/>
+      <c r="D49" s="108"/>
+      <c r="E49" s="99"/>
+      <c r="F49" s="99"/>
       <c r="G49" s="60">
         <v>44369</v>
       </c>
@@ -14016,9 +14274,9 @@
       <c r="C50" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="101"/>
-      <c r="E50" s="92"/>
-      <c r="F50" s="92"/>
+      <c r="D50" s="108"/>
+      <c r="E50" s="99"/>
+      <c r="F50" s="99"/>
       <c r="G50" s="60">
         <v>44369</v>
       </c>
@@ -14039,9 +14297,9 @@
       <c r="C51" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D51" s="101"/>
-      <c r="E51" s="92"/>
-      <c r="F51" s="92"/>
+      <c r="D51" s="108"/>
+      <c r="E51" s="99"/>
+      <c r="F51" s="99"/>
       <c r="G51" s="60">
         <v>44369</v>
       </c>
@@ -14062,9 +14320,9 @@
       <c r="C52" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="101"/>
-      <c r="E52" s="92"/>
-      <c r="F52" s="92"/>
+      <c r="D52" s="108"/>
+      <c r="E52" s="99"/>
+      <c r="F52" s="99"/>
       <c r="G52" s="60">
         <v>44369</v>
       </c>
@@ -14085,9 +14343,9 @@
       <c r="C53" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="102"/>
-      <c r="E53" s="93"/>
-      <c r="F53" s="93"/>
+      <c r="D53" s="109"/>
+      <c r="E53" s="100"/>
+      <c r="F53" s="100"/>
       <c r="G53" s="60">
         <v>44369</v>
       </c>
@@ -14110,13 +14368,13 @@
       <c r="C54" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="94" t="s">
+      <c r="D54" s="91" t="s">
         <v>206</v>
       </c>
-      <c r="E54" s="91" t="s">
+      <c r="E54" s="98" t="s">
         <v>224</v>
       </c>
-      <c r="F54" s="112" t="s">
+      <c r="F54" s="114" t="s">
         <v>179</v>
       </c>
       <c r="G54" s="60">
@@ -14139,9 +14397,9 @@
       <c r="C55" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="101"/>
-      <c r="E55" s="92"/>
-      <c r="F55" s="113"/>
+      <c r="D55" s="108"/>
+      <c r="E55" s="99"/>
+      <c r="F55" s="115"/>
       <c r="G55" s="60">
         <v>44369</v>
       </c>
@@ -14162,9 +14420,9 @@
       <c r="C56" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="101"/>
-      <c r="E56" s="92"/>
-      <c r="F56" s="113"/>
+      <c r="D56" s="108"/>
+      <c r="E56" s="99"/>
+      <c r="F56" s="115"/>
       <c r="G56" s="60">
         <v>44369</v>
       </c>
@@ -14185,9 +14443,9 @@
       <c r="C57" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="101"/>
-      <c r="E57" s="92"/>
-      <c r="F57" s="113"/>
+      <c r="D57" s="108"/>
+      <c r="E57" s="99"/>
+      <c r="F57" s="115"/>
       <c r="G57" s="60">
         <v>44369</v>
       </c>
@@ -14208,9 +14466,9 @@
       <c r="C58" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="101"/>
-      <c r="E58" s="92"/>
-      <c r="F58" s="113"/>
+      <c r="D58" s="108"/>
+      <c r="E58" s="99"/>
+      <c r="F58" s="115"/>
       <c r="G58" s="60">
         <v>44369</v>
       </c>
@@ -14231,9 +14489,9 @@
       <c r="C59" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D59" s="101"/>
-      <c r="E59" s="92"/>
-      <c r="F59" s="114"/>
+      <c r="D59" s="108"/>
+      <c r="E59" s="99"/>
+      <c r="F59" s="116"/>
       <c r="G59" s="60">
         <v>44369</v>
       </c>
@@ -14254,8 +14512,8 @@
       <c r="C60" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="101"/>
-      <c r="E60" s="92"/>
+      <c r="D60" s="108"/>
+      <c r="E60" s="99"/>
       <c r="F60" s="32" t="s">
         <v>180</v>
       </c>
@@ -14279,8 +14537,8 @@
       <c r="C61" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="101"/>
-      <c r="E61" s="92"/>
+      <c r="D61" s="108"/>
+      <c r="E61" s="99"/>
       <c r="F61" s="32" t="s">
         <v>183</v>
       </c>
@@ -14304,8 +14562,8 @@
       <c r="C62" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D62" s="101"/>
-      <c r="E62" s="92"/>
+      <c r="D62" s="108"/>
+      <c r="E62" s="99"/>
       <c r="F62" s="32" t="s">
         <v>182</v>
       </c>
@@ -14329,9 +14587,9 @@
       <c r="C63" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D63" s="101"/>
-      <c r="E63" s="92"/>
-      <c r="F63" s="112" t="s">
+      <c r="D63" s="108"/>
+      <c r="E63" s="99"/>
+      <c r="F63" s="114" t="s">
         <v>183</v>
       </c>
       <c r="G63" s="60">
@@ -14354,9 +14612,9 @@
       <c r="C64" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D64" s="101"/>
-      <c r="E64" s="92"/>
-      <c r="F64" s="114"/>
+      <c r="D64" s="108"/>
+      <c r="E64" s="99"/>
+      <c r="F64" s="116"/>
       <c r="G64" s="60">
         <v>44369</v>
       </c>
@@ -14377,8 +14635,8 @@
       <c r="C65" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D65" s="102"/>
-      <c r="E65" s="93"/>
+      <c r="D65" s="109"/>
+      <c r="E65" s="100"/>
       <c r="F65" s="32" t="s">
         <v>181</v>
       </c>
@@ -14404,13 +14662,13 @@
       <c r="C66" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="94" t="s">
+      <c r="D66" s="91" t="s">
         <v>222</v>
       </c>
-      <c r="E66" s="94" t="s">
+      <c r="E66" s="91" t="s">
         <v>164</v>
       </c>
-      <c r="F66" s="91" t="s">
+      <c r="F66" s="98" t="s">
         <v>165</v>
       </c>
       <c r="G66" s="60">
@@ -14433,9 +14691,9 @@
       <c r="C67" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="101"/>
-      <c r="E67" s="95"/>
-      <c r="F67" s="92"/>
+      <c r="D67" s="108"/>
+      <c r="E67" s="92"/>
+      <c r="F67" s="99"/>
       <c r="G67" s="60">
         <v>44369</v>
       </c>
@@ -14456,9 +14714,9 @@
       <c r="C68" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D68" s="101"/>
-      <c r="E68" s="95"/>
-      <c r="F68" s="92"/>
+      <c r="D68" s="108"/>
+      <c r="E68" s="92"/>
+      <c r="F68" s="99"/>
       <c r="G68" s="60">
         <v>44369</v>
       </c>
@@ -14479,9 +14737,9 @@
       <c r="C69" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D69" s="101"/>
-      <c r="E69" s="95"/>
-      <c r="F69" s="92"/>
+      <c r="D69" s="108"/>
+      <c r="E69" s="92"/>
+      <c r="F69" s="99"/>
       <c r="G69" s="60">
         <v>44369</v>
       </c>
@@ -14502,9 +14760,9 @@
       <c r="C70" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="101"/>
-      <c r="E70" s="95"/>
-      <c r="F70" s="92"/>
+      <c r="D70" s="108"/>
+      <c r="E70" s="92"/>
+      <c r="F70" s="99"/>
       <c r="G70" s="60">
         <v>44369</v>
       </c>
@@ -14525,9 +14783,9 @@
       <c r="C71" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D71" s="101"/>
-      <c r="E71" s="95"/>
-      <c r="F71" s="92"/>
+      <c r="D71" s="108"/>
+      <c r="E71" s="92"/>
+      <c r="F71" s="99"/>
       <c r="G71" s="60">
         <v>44369</v>
       </c>
@@ -14548,9 +14806,9 @@
       <c r="C72" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="101"/>
-      <c r="E72" s="95"/>
-      <c r="F72" s="92"/>
+      <c r="D72" s="108"/>
+      <c r="E72" s="92"/>
+      <c r="F72" s="99"/>
       <c r="G72" s="60">
         <v>44369</v>
       </c>
@@ -14571,9 +14829,9 @@
       <c r="C73" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="101"/>
-      <c r="E73" s="95"/>
-      <c r="F73" s="92"/>
+      <c r="D73" s="108"/>
+      <c r="E73" s="92"/>
+      <c r="F73" s="99"/>
       <c r="G73" s="60">
         <v>44369</v>
       </c>
@@ -14594,9 +14852,9 @@
       <c r="C74" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D74" s="101"/>
-      <c r="E74" s="95"/>
-      <c r="F74" s="92"/>
+      <c r="D74" s="108"/>
+      <c r="E74" s="92"/>
+      <c r="F74" s="99"/>
       <c r="G74" s="60">
         <v>44369</v>
       </c>
@@ -14617,9 +14875,9 @@
       <c r="C75" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="101"/>
-      <c r="E75" s="95"/>
-      <c r="F75" s="92"/>
+      <c r="D75" s="108"/>
+      <c r="E75" s="92"/>
+      <c r="F75" s="99"/>
       <c r="G75" s="60">
         <v>44369</v>
       </c>
@@ -14640,9 +14898,9 @@
       <c r="C76" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D76" s="101"/>
-      <c r="E76" s="95"/>
-      <c r="F76" s="92"/>
+      <c r="D76" s="108"/>
+      <c r="E76" s="92"/>
+      <c r="F76" s="99"/>
       <c r="G76" s="60">
         <v>44369</v>
       </c>
@@ -14663,9 +14921,9 @@
       <c r="C77" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D77" s="102"/>
-      <c r="E77" s="96"/>
-      <c r="F77" s="93"/>
+      <c r="D77" s="109"/>
+      <c r="E77" s="93"/>
+      <c r="F77" s="100"/>
       <c r="G77" s="60">
         <v>44369</v>
       </c>
@@ -14719,10 +14977,10 @@
       <c r="C79" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="D79" s="94" t="s">
+      <c r="D79" s="91" t="s">
         <v>223</v>
       </c>
-      <c r="E79" s="94" t="s">
+      <c r="E79" s="91" t="s">
         <v>238</v>
       </c>
       <c r="F79" s="32" t="s">
@@ -14748,8 +15006,8 @@
       <c r="C80" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D80" s="95"/>
-      <c r="E80" s="95"/>
+      <c r="D80" s="92"/>
+      <c r="E80" s="92"/>
       <c r="F80" s="32" t="s">
         <v>192</v>
       </c>
@@ -14773,8 +15031,8 @@
       <c r="C81" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D81" s="95"/>
-      <c r="E81" s="95"/>
+      <c r="D81" s="92"/>
+      <c r="E81" s="92"/>
       <c r="F81" s="32" t="s">
         <v>209</v>
       </c>
@@ -14798,8 +15056,8 @@
       <c r="C82" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D82" s="95"/>
-      <c r="E82" s="95"/>
+      <c r="D82" s="92"/>
+      <c r="E82" s="92"/>
       <c r="F82" s="32" t="s">
         <v>210</v>
       </c>
@@ -14823,8 +15081,8 @@
       <c r="C83" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D83" s="95"/>
-      <c r="E83" s="95"/>
+      <c r="D83" s="92"/>
+      <c r="E83" s="92"/>
       <c r="F83" s="32" t="s">
         <v>211</v>
       </c>
@@ -14848,8 +15106,8 @@
       <c r="C84" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D84" s="95"/>
-      <c r="E84" s="95"/>
+      <c r="D84" s="92"/>
+      <c r="E84" s="92"/>
       <c r="F84" s="32" t="s">
         <v>212</v>
       </c>
@@ -14873,8 +15131,8 @@
       <c r="C85" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D85" s="95"/>
-      <c r="E85" s="95"/>
+      <c r="D85" s="92"/>
+      <c r="E85" s="92"/>
       <c r="F85" s="32" t="s">
         <v>213</v>
       </c>
@@ -14898,8 +15156,8 @@
       <c r="C86" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D86" s="95"/>
-      <c r="E86" s="95"/>
+      <c r="D86" s="92"/>
+      <c r="E86" s="92"/>
       <c r="F86" s="32" t="s">
         <v>214</v>
       </c>
@@ -14923,8 +15181,8 @@
       <c r="C87" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D87" s="95"/>
-      <c r="E87" s="95"/>
+      <c r="D87" s="92"/>
+      <c r="E87" s="92"/>
       <c r="F87" s="32" t="s">
         <v>215</v>
       </c>
@@ -14948,8 +15206,8 @@
       <c r="C88" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D88" s="95"/>
-      <c r="E88" s="95"/>
+      <c r="D88" s="92"/>
+      <c r="E88" s="92"/>
       <c r="F88" s="32" t="s">
         <v>216</v>
       </c>
@@ -14973,8 +15231,8 @@
       <c r="C89" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D89" s="95"/>
-      <c r="E89" s="95"/>
+      <c r="D89" s="92"/>
+      <c r="E89" s="92"/>
       <c r="F89" s="32" t="s">
         <v>217</v>
       </c>
@@ -14998,8 +15256,8 @@
       <c r="C90" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D90" s="95"/>
-      <c r="E90" s="95"/>
+      <c r="D90" s="92"/>
+      <c r="E90" s="92"/>
       <c r="F90" s="32" t="s">
         <v>218</v>
       </c>
@@ -15023,8 +15281,8 @@
       <c r="C91" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D91" s="95"/>
-      <c r="E91" s="95"/>
+      <c r="D91" s="92"/>
+      <c r="E91" s="92"/>
       <c r="F91" s="32" t="s">
         <v>219</v>
       </c>
@@ -15048,8 +15306,8 @@
       <c r="C92" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="D92" s="95"/>
-      <c r="E92" s="95"/>
+      <c r="D92" s="92"/>
+      <c r="E92" s="92"/>
       <c r="F92" s="31" t="s">
         <v>225</v>
       </c>
@@ -15073,8 +15331,8 @@
       <c r="C93" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="D93" s="95"/>
-      <c r="E93" s="95"/>
+      <c r="D93" s="92"/>
+      <c r="E93" s="92"/>
       <c r="F93" s="31" t="s">
         <v>226</v>
       </c>
@@ -15100,8 +15358,8 @@
       <c r="C94" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="D94" s="96"/>
-      <c r="E94" s="96"/>
+      <c r="D94" s="93"/>
+      <c r="E94" s="93"/>
       <c r="F94" s="31" t="s">
         <v>227</v>
       </c>
@@ -15208,10 +15466,10 @@
       <c r="C98" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="D98" s="91" t="s">
+      <c r="D98" s="98" t="s">
         <v>244</v>
       </c>
-      <c r="E98" s="91" t="s">
+      <c r="E98" s="98" t="s">
         <v>242</v>
       </c>
       <c r="F98" s="37" t="s">
@@ -15231,8 +15489,8 @@
       <c r="C99" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D99" s="118"/>
-      <c r="E99" s="92"/>
+      <c r="D99" s="110"/>
+      <c r="E99" s="99"/>
       <c r="F99" s="37" t="s">
         <v>262</v>
       </c>
@@ -15250,8 +15508,8 @@
       <c r="C100" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D100" s="118"/>
-      <c r="E100" s="92"/>
+      <c r="D100" s="110"/>
+      <c r="E100" s="99"/>
       <c r="F100" s="37" t="s">
         <v>263</v>
       </c>
@@ -15269,8 +15527,8 @@
       <c r="C101" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D101" s="118"/>
-      <c r="E101" s="92"/>
+      <c r="D101" s="110"/>
+      <c r="E101" s="99"/>
       <c r="F101" s="37" t="s">
         <v>264</v>
       </c>
@@ -15288,8 +15546,8 @@
       <c r="C102" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D102" s="118"/>
-      <c r="E102" s="92"/>
+      <c r="D102" s="110"/>
+      <c r="E102" s="99"/>
       <c r="F102" s="37" t="s">
         <v>265</v>
       </c>
@@ -15307,8 +15565,8 @@
       <c r="C103" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D103" s="118"/>
-      <c r="E103" s="92"/>
+      <c r="D103" s="110"/>
+      <c r="E103" s="99"/>
       <c r="F103" s="37" t="s">
         <v>266</v>
       </c>
@@ -15326,8 +15584,8 @@
       <c r="C104" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D104" s="118"/>
-      <c r="E104" s="92"/>
+      <c r="D104" s="110"/>
+      <c r="E104" s="99"/>
       <c r="F104" s="37" t="s">
         <v>267</v>
       </c>
@@ -15345,8 +15603,8 @@
       <c r="C105" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D105" s="118"/>
-      <c r="E105" s="92"/>
+      <c r="D105" s="110"/>
+      <c r="E105" s="99"/>
       <c r="F105" s="37" t="s">
         <v>268</v>
       </c>
@@ -15364,8 +15622,8 @@
       <c r="C106" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="D106" s="118"/>
-      <c r="E106" s="92"/>
+      <c r="D106" s="110"/>
+      <c r="E106" s="99"/>
       <c r="F106" s="37" t="s">
         <v>269</v>
       </c>
@@ -15383,8 +15641,8 @@
       <c r="C107" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="D107" s="118"/>
-      <c r="E107" s="92"/>
+      <c r="D107" s="110"/>
+      <c r="E107" s="99"/>
       <c r="F107" s="37" t="s">
         <v>270</v>
       </c>
@@ -15402,8 +15660,8 @@
       <c r="C108" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="D108" s="119"/>
-      <c r="E108" s="93"/>
+      <c r="D108" s="111"/>
+      <c r="E108" s="100"/>
       <c r="F108" s="37" t="s">
         <v>270</v>
       </c>
@@ -16199,14 +16457,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D98:D108"/>
-    <mergeCell ref="E98:E108"/>
-    <mergeCell ref="D79:D94"/>
-    <mergeCell ref="D42:D53"/>
-    <mergeCell ref="E42:E53"/>
-    <mergeCell ref="E66:E77"/>
-    <mergeCell ref="E79:E94"/>
-    <mergeCell ref="D66:D77"/>
     <mergeCell ref="F66:F77"/>
     <mergeCell ref="D54:D65"/>
     <mergeCell ref="E54:E65"/>
@@ -16221,6 +16471,14 @@
     <mergeCell ref="D20:D31"/>
     <mergeCell ref="D32:D41"/>
     <mergeCell ref="F42:F53"/>
+    <mergeCell ref="D98:D108"/>
+    <mergeCell ref="E98:E108"/>
+    <mergeCell ref="D79:D94"/>
+    <mergeCell ref="D42:D53"/>
+    <mergeCell ref="E42:E53"/>
+    <mergeCell ref="E66:E77"/>
+    <mergeCell ref="E79:E94"/>
+    <mergeCell ref="D66:D77"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/testcase_account_ver3.xlsx
+++ b/testcase_account_ver3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\7-Programming-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BFE619-7776-4175-A293-317AAE6C2747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71396F1-D866-4E0F-AFDB-5FB325ED1A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="888" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単体テスト" sheetId="166" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="441">
   <si>
     <t>作成者</t>
   </si>
@@ -6953,31 +6953,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>調べて確認が必要。8/19追記：tryの関数を使用して完了。</t>
-    <rPh sb="0" eb="1">
-      <t>シラ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ツイキ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>インターネットのタブが「アカウント削除確認画面」と表示される。</t>
     <rPh sb="17" eb="19">
       <t>サクジョ</t>
@@ -7116,6 +7091,1336 @@
     </rPh>
     <rPh sb="35" eb="37">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面
+から
+アカウント削除画面</t>
+    <rPh sb="5" eb="9">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面の削除したいIDの削除ボタンを押す。</t>
+    <rPh sb="5" eb="9">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面で選択したIDに対応する「名前（姓）」が表示される。</t>
+    <rPh sb="5" eb="9">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面で選択したIDに対応する「名前（名）」が表示される。</t>
+    <rPh sb="5" eb="9">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面で選択したIDに対応する「カナ（姓）」が表示される。</t>
+    <rPh sb="5" eb="9">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面で選択したIDに対応する「カナ（名）」が表示される。</t>
+    <rPh sb="5" eb="9">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面で選択したIDに対応する「メールアドレス」が表示される。</t>
+    <rPh sb="5" eb="9">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面で選択したIDに対応する「パスワード」が表示される。</t>
+    <rPh sb="5" eb="9">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面で選択したIDに対応する「性別」が表示される。</t>
+    <rPh sb="5" eb="9">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面で選択したIDに対応する「郵便番号」が表示される。</t>
+    <rPh sb="5" eb="9">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面で選択したIDに対応する「住所（都道府県）」が表示される。</t>
+    <rPh sb="5" eb="9">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>トドウフケン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面で選択したIDに対応する「住所（市区町村）」が表示される。</t>
+    <rPh sb="5" eb="9">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>チョウソン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面で選択したIDに対応する「住所（番地）」が表示される。</t>
+    <rPh sb="5" eb="9">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面で選択したIDに対応する「アカウント権限」が表示される。</t>
+    <rPh sb="5" eb="9">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除画面にて、画面下の「確認する」ボタンを押す。</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除画面
+から
+アカウント削除確認画面</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除画面からアカウント削除確認画面へ遷移する。</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除確認画面</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「本当に削除してよろしいですか？」と画面中央寄せで文字の大きさ30pxで表示される。</t>
+    <rPh sb="1" eb="3">
+      <t>ホントウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="18" eb="23">
+      <t>ガメンチュウオウヨ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除確認画面
+から
+アカウント削除画面</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除確認画面
+から
+アカウント削除完了画面</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除確認画面にて、画面下の「戻って修正する」ボタンを押す。</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ガメンシタ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除確認画面にて、画面下の「登録する」ボタンを押す。</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ガメンシタ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除確認画面からアカウント削除完了画面へ遷移する。</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除確認画面からアカウント削除画面へ遷移する。</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除確認画面で表示されている「名前（姓）」の情報が表示される。</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除確認画面で表示されている「名前（名）」の情報が表示される。</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除確認画面で表示されている「カナ（姓）」の情報が表示される。</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除確認画面で表示されている「カナ（名）」の情報が表示される。</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除確認画面で表示されている「メールアドレス」の情報が表示される。</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除確認画面で表示されている「パスワード」の情報が表示される。</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除確認画面で表示されている「性別」の情報が表示される。</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除確認画面で表示されている「郵便番号」の情報が表示される。</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除確認画面で表示されている「住所（都道府県）」の情報が表示される。</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>トドウフケン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除確認画面で表示されている「住所（市区町村）」の情報が表示される。</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>チョウソン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除確認画面で表示されている「住所（番地）」の情報が表示される。</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除確認画面で表示されている「アカウント権限」の情報が表示される。</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面中央寄せで文字の大きさ30pxで「削除完了しました。」と表示される。</t>
+    <rPh sb="0" eb="5">
+      <t>ガメンチュウオウヨ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>サクジョカンリョウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除確認画面にて、画面下の「登録する」ボタンを押す。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除完了画面
+から
+PHP MyAdmin</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除フラグに削除が有効である「1」が表示される。</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボタンを押された時間を取得し、更新された時間として更新日時が変更されている。</t>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>コウシンニチジ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除完了画面
+から
+トップページ</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>調べて確認が必要。8/19追記：tryの関数を使用して完了。
+8/27追記：HTMLの中でそれぞれの場合エラー文が表示されるように変更。</t>
+    <rPh sb="0" eb="1">
+      <t>シラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ツイキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ツイキ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除完了画面にて、画面下の「TOPページに戻る」ボタンを押す。</t>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除完了画面からトップページへ遷移する。</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除完了画面
+（エラー動作）</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除確認画面にて、画面下の「登録する」ボタンを押す。</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DB登録に失敗した場合に「エラーが発生したためアカウント削除できません。」とエラーメッセージが表示される。</t>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除画面
+から
+アカウント一覧画面</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>イチランガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除確認画面
+から
+アカウント一覧画面</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>イチランガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除完了画面
+から
+アカウント一覧画面</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>イチランガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リンク</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除画面からアカウント一覧画面へ遷移する。</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除確認画面からアカウント一覧画面へ遷移する。</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除完了画面からアカウント一覧画面へ遷移する。</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除画面
+から
+アカウント登録画面</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除確認画面
+から
+アカウント登録画面</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除完了画面
+から
+アカウント登録画面</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除画面で上の「アカウント登録」と書かれたリンクを押す。</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除完了画面で上の「アカウント一覧」と書かれたリンクを押す。</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除確認画面で上の「アカウント一覧」と書かれたリンクを押す。</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除画面で上の「アカウント一覧」と書かれたリンクを押す。</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除確認画面で上の「アカウント登録」と書かれたリンクを押す。</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除完了画面で上の「アカウント登録」と書かれたリンクを押す。</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除画面からアカウント登録画面へ遷移する。</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除確認画面からアカウント登録画面へ遷移する。</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除完了画面からアカウント登録画面へ遷移する。</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -7466,7 +8771,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7729,14 +9034,41 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7760,15 +9092,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7776,30 +9099,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7824,6 +9123,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -8177,8 +9485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M173"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K120" sqref="K120:K164"/>
+    <sheetView showGridLines="0" topLeftCell="E58" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -8198,12 +9506,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
       <c r="E1" s="53" t="s">
         <v>2</v>
       </c>
@@ -8226,10 +9534,10 @@
       <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A2" s="96"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
       <c r="E2" s="53" t="s">
         <v>3</v>
       </c>
@@ -8543,7 +9851,7 @@
       <c r="F12" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="91" t="s">
+      <c r="G12" s="100" t="s">
         <v>107</v>
       </c>
       <c r="H12" s="68">
@@ -8573,7 +9881,7 @@
       <c r="F13" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="92"/>
+      <c r="G13" s="101"/>
       <c r="H13" s="60">
         <v>44354</v>
       </c>
@@ -8601,7 +9909,7 @@
       <c r="F14" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="92"/>
+      <c r="G14" s="101"/>
       <c r="H14" s="60">
         <v>44354</v>
       </c>
@@ -8629,7 +9937,7 @@
       <c r="F15" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="92"/>
+      <c r="G15" s="101"/>
       <c r="H15" s="68">
         <v>44354</v>
       </c>
@@ -8657,7 +9965,7 @@
       <c r="F16" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="92"/>
+      <c r="G16" s="101"/>
       <c r="H16" s="60">
         <v>44354</v>
       </c>
@@ -8685,7 +9993,7 @@
       <c r="F17" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="92"/>
+      <c r="G17" s="101"/>
       <c r="H17" s="60">
         <v>44354</v>
       </c>
@@ -8713,7 +10021,7 @@
       <c r="F18" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="92"/>
+      <c r="G18" s="101"/>
       <c r="H18" s="68">
         <v>44354</v>
       </c>
@@ -8741,7 +10049,7 @@
       <c r="F19" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="92"/>
+      <c r="G19" s="101"/>
       <c r="H19" s="60">
         <v>44354</v>
       </c>
@@ -8769,7 +10077,7 @@
       <c r="F20" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="92"/>
+      <c r="G20" s="101"/>
       <c r="H20" s="60">
         <v>44354</v>
       </c>
@@ -8797,7 +10105,7 @@
       <c r="F21" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="92"/>
+      <c r="G21" s="101"/>
       <c r="H21" s="68">
         <v>44354</v>
       </c>
@@ -8825,7 +10133,7 @@
       <c r="F22" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="92"/>
+      <c r="G22" s="101"/>
       <c r="H22" s="60">
         <v>44354</v>
       </c>
@@ -8853,7 +10161,7 @@
       <c r="F23" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="93"/>
+      <c r="G23" s="102"/>
       <c r="H23" s="60">
         <v>44354</v>
       </c>
@@ -9311,7 +10619,7 @@
       <c r="F38" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="G38" s="98" t="s">
+      <c r="G38" s="94" t="s">
         <v>110</v>
       </c>
       <c r="H38" s="68">
@@ -9341,7 +10649,7 @@
       <c r="F39" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="G39" s="99"/>
+      <c r="G39" s="95"/>
       <c r="H39" s="68">
         <v>44354</v>
       </c>
@@ -9369,7 +10677,7 @@
       <c r="F40" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="G40" s="99"/>
+      <c r="G40" s="95"/>
       <c r="H40" s="68">
         <v>44354</v>
       </c>
@@ -9397,7 +10705,7 @@
       <c r="F41" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="G41" s="99"/>
+      <c r="G41" s="95"/>
       <c r="H41" s="68">
         <v>44354</v>
       </c>
@@ -9425,7 +10733,7 @@
       <c r="F42" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="G42" s="100"/>
+      <c r="G42" s="96"/>
       <c r="H42" s="68">
         <v>44354</v>
       </c>
@@ -9577,7 +10885,7 @@
       <c r="F47" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="G47" s="98" t="s">
+      <c r="G47" s="94" t="s">
         <v>110</v>
       </c>
       <c r="H47" s="68">
@@ -9607,7 +10915,7 @@
       <c r="F48" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="G48" s="100"/>
+      <c r="G48" s="96"/>
       <c r="H48" s="68">
         <v>44354</v>
       </c>
@@ -9838,7 +11146,7 @@
       </c>
       <c r="L55" s="11"/>
     </row>
-    <row r="56" spans="1:12" ht="47.25">
+    <row r="56" spans="1:12" ht="63">
       <c r="A56" s="12">
         <v>51</v>
       </c>
@@ -9856,7 +11164,7 @@
         <v>141</v>
       </c>
       <c r="G56" s="32" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H56" s="68">
         <v>44355</v>
@@ -9865,10 +11173,10 @@
         <v>6</v>
       </c>
       <c r="J56" s="30" t="s">
-        <v>366</v>
+        <v>416</v>
       </c>
       <c r="K56" s="39" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L56" s="11"/>
     </row>
@@ -9888,7 +11196,7 @@
       <c r="E57" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F57" s="91" t="s">
+      <c r="F57" s="100" t="s">
         <v>233</v>
       </c>
       <c r="G57" s="32" t="s">
@@ -9920,7 +11228,7 @@
       <c r="E58" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F58" s="92"/>
+      <c r="F58" s="101"/>
       <c r="G58" s="32" t="s">
         <v>234</v>
       </c>
@@ -9947,10 +11255,10 @@
       <c r="D59" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="E59" s="101" t="s">
+      <c r="E59" s="107" t="s">
         <v>55</v>
       </c>
-      <c r="F59" s="92"/>
+      <c r="F59" s="101"/>
       <c r="G59" s="37" t="s">
         <v>261</v>
       </c>
@@ -9975,8 +11283,8 @@
       <c r="D60" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E60" s="102"/>
-      <c r="F60" s="92"/>
+      <c r="E60" s="108"/>
+      <c r="F60" s="101"/>
       <c r="G60" s="37" t="s">
         <v>262</v>
       </c>
@@ -10001,8 +11309,8 @@
       <c r="D61" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E61" s="102"/>
-      <c r="F61" s="92"/>
+      <c r="E61" s="108"/>
+      <c r="F61" s="101"/>
       <c r="G61" s="37" t="s">
         <v>263</v>
       </c>
@@ -10027,8 +11335,8 @@
       <c r="D62" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E62" s="102"/>
-      <c r="F62" s="92"/>
+      <c r="E62" s="108"/>
+      <c r="F62" s="101"/>
       <c r="G62" s="37" t="s">
         <v>264</v>
       </c>
@@ -10053,8 +11361,8 @@
       <c r="D63" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E63" s="102"/>
-      <c r="F63" s="92"/>
+      <c r="E63" s="108"/>
+      <c r="F63" s="101"/>
       <c r="G63" s="37" t="s">
         <v>265</v>
       </c>
@@ -10079,8 +11387,8 @@
       <c r="D64" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E64" s="102"/>
-      <c r="F64" s="92"/>
+      <c r="E64" s="108"/>
+      <c r="F64" s="101"/>
       <c r="G64" s="37" t="s">
         <v>266</v>
       </c>
@@ -10105,8 +11413,8 @@
       <c r="D65" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E65" s="102"/>
-      <c r="F65" s="92"/>
+      <c r="E65" s="108"/>
+      <c r="F65" s="101"/>
       <c r="G65" s="31" t="s">
         <v>273</v>
       </c>
@@ -10131,8 +11439,8 @@
       <c r="D66" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E66" s="102"/>
-      <c r="F66" s="92"/>
+      <c r="E66" s="108"/>
+      <c r="F66" s="101"/>
       <c r="G66" s="31" t="s">
         <v>274</v>
       </c>
@@ -10157,8 +11465,8 @@
       <c r="D67" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="E67" s="102"/>
-      <c r="F67" s="92"/>
+      <c r="E67" s="108"/>
+      <c r="F67" s="101"/>
       <c r="G67" s="31" t="s">
         <v>275</v>
       </c>
@@ -10183,8 +11491,8 @@
       <c r="D68" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="E68" s="102"/>
-      <c r="F68" s="92"/>
+      <c r="E68" s="108"/>
+      <c r="F68" s="101"/>
       <c r="G68" s="31" t="s">
         <v>276</v>
       </c>
@@ -10209,8 +11517,8 @@
       <c r="D69" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="E69" s="102"/>
-      <c r="F69" s="92"/>
+      <c r="E69" s="108"/>
+      <c r="F69" s="101"/>
       <c r="G69" s="31" t="s">
         <v>276</v>
       </c>
@@ -10235,8 +11543,8 @@
       <c r="D70" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="E70" s="102"/>
-      <c r="F70" s="92"/>
+      <c r="E70" s="108"/>
+      <c r="F70" s="101"/>
       <c r="G70" s="31" t="s">
         <v>271</v>
       </c>
@@ -10261,8 +11569,8 @@
       <c r="D71" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="E71" s="103"/>
-      <c r="F71" s="93"/>
+      <c r="E71" s="109"/>
+      <c r="F71" s="102"/>
       <c r="G71" s="31" t="s">
         <v>272</v>
       </c>
@@ -10323,10 +11631,10 @@
       <c r="D73" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E73" s="104" t="s">
+      <c r="E73" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="F73" s="98" t="s">
+      <c r="F73" s="94" t="s">
         <v>278</v>
       </c>
       <c r="G73" s="31" t="s">
@@ -10353,8 +11661,8 @@
       <c r="D74" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E74" s="105"/>
-      <c r="F74" s="99"/>
+      <c r="E74" s="92"/>
+      <c r="F74" s="95"/>
       <c r="G74" s="31" t="s">
         <v>281</v>
       </c>
@@ -10379,8 +11687,8 @@
       <c r="D75" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="105"/>
-      <c r="F75" s="99"/>
+      <c r="E75" s="92"/>
+      <c r="F75" s="95"/>
       <c r="G75" s="31" t="s">
         <v>282</v>
       </c>
@@ -10405,8 +11713,8 @@
       <c r="D76" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E76" s="105"/>
-      <c r="F76" s="99"/>
+      <c r="E76" s="92"/>
+      <c r="F76" s="95"/>
       <c r="G76" s="31" t="s">
         <v>283</v>
       </c>
@@ -10431,8 +11739,8 @@
       <c r="D77" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E77" s="105"/>
-      <c r="F77" s="99"/>
+      <c r="E77" s="92"/>
+      <c r="F77" s="95"/>
       <c r="G77" s="31" t="s">
         <v>284</v>
       </c>
@@ -10457,8 +11765,8 @@
       <c r="D78" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E78" s="105"/>
-      <c r="F78" s="99"/>
+      <c r="E78" s="92"/>
+      <c r="F78" s="95"/>
       <c r="G78" s="31" t="s">
         <v>285</v>
       </c>
@@ -10483,8 +11791,8 @@
       <c r="D79" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E79" s="105"/>
-      <c r="F79" s="99"/>
+      <c r="E79" s="92"/>
+      <c r="F79" s="95"/>
       <c r="G79" s="31" t="s">
         <v>290</v>
       </c>
@@ -10509,8 +11817,8 @@
       <c r="D80" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E80" s="105"/>
-      <c r="F80" s="99"/>
+      <c r="E80" s="92"/>
+      <c r="F80" s="95"/>
       <c r="G80" s="31" t="s">
         <v>286</v>
       </c>
@@ -10535,8 +11843,8 @@
       <c r="D81" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E81" s="105"/>
-      <c r="F81" s="99"/>
+      <c r="E81" s="92"/>
+      <c r="F81" s="95"/>
       <c r="G81" s="31" t="s">
         <v>291</v>
       </c>
@@ -10561,8 +11869,8 @@
       <c r="D82" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E82" s="105"/>
-      <c r="F82" s="99"/>
+      <c r="E82" s="92"/>
+      <c r="F82" s="95"/>
       <c r="G82" s="31" t="s">
         <v>287</v>
       </c>
@@ -10587,8 +11895,8 @@
       <c r="D83" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E83" s="105"/>
-      <c r="F83" s="99"/>
+      <c r="E83" s="92"/>
+      <c r="F83" s="95"/>
       <c r="G83" s="31" t="s">
         <v>288</v>
       </c>
@@ -10613,8 +11921,8 @@
       <c r="D84" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E84" s="106"/>
-      <c r="F84" s="100"/>
+      <c r="E84" s="93"/>
+      <c r="F84" s="96"/>
       <c r="G84" s="31" t="s">
         <v>289</v>
       </c>
@@ -10673,14 +11981,14 @@
       <c r="D86" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E86" s="104" t="s">
+      <c r="E86" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="F86" s="98" t="s">
+      <c r="F86" s="94" t="s">
         <v>302</v>
       </c>
       <c r="G86" s="31" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H86" s="68">
         <v>44428</v>
@@ -10703,8 +12011,8 @@
       <c r="D87" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="E87" s="105"/>
-      <c r="F87" s="99"/>
+      <c r="E87" s="92"/>
+      <c r="F87" s="95"/>
       <c r="G87" s="31" t="s">
         <v>304</v>
       </c>
@@ -10729,10 +12037,10 @@
       <c r="D88" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="E88" s="105"/>
-      <c r="F88" s="99"/>
+      <c r="E88" s="92"/>
+      <c r="F88" s="95"/>
       <c r="G88" s="31" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H88" s="68">
         <v>44428</v>
@@ -10755,10 +12063,10 @@
       <c r="D89" s="25" t="s">
         <v>296</v>
       </c>
-      <c r="E89" s="106"/>
-      <c r="F89" s="100"/>
+      <c r="E89" s="93"/>
+      <c r="F89" s="96"/>
       <c r="G89" s="31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H89" s="68">
         <v>44428</v>
@@ -10785,10 +12093,10 @@
       <c r="D90" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="E90" s="104" t="s">
+      <c r="E90" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="F90" s="91" t="s">
+      <c r="F90" s="100" t="s">
         <v>301</v>
       </c>
       <c r="G90" s="30" t="s">
@@ -10817,8 +12125,8 @@
       <c r="D91" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="E91" s="105"/>
-      <c r="F91" s="92"/>
+      <c r="E91" s="92"/>
+      <c r="F91" s="101"/>
       <c r="G91" s="32" t="s">
         <v>299</v>
       </c>
@@ -10843,8 +12151,8 @@
       <c r="D92" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="E92" s="106"/>
-      <c r="F92" s="92"/>
+      <c r="E92" s="93"/>
+      <c r="F92" s="101"/>
       <c r="G92" s="32" t="s">
         <v>303</v>
       </c>
@@ -10876,7 +12184,7 @@
       <c r="E93" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F93" s="92"/>
+      <c r="F93" s="101"/>
       <c r="G93" s="32" t="s">
         <v>355</v>
       </c>
@@ -10904,7 +12212,7 @@
       <c r="E94" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F94" s="93"/>
+      <c r="F94" s="102"/>
       <c r="G94" s="32" t="s">
         <v>356</v>
       </c>
@@ -10931,14 +12239,14 @@
       <c r="D95" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="E95" s="90" t="s">
+      <c r="E95" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="F95" s="89" t="s">
+      <c r="F95" s="88" t="s">
         <v>363</v>
       </c>
       <c r="G95" s="32" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H95" s="68">
         <v>44435</v>
@@ -10972,7 +12280,7 @@
         <v>306</v>
       </c>
       <c r="G96" s="31" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H96" s="68">
         <v>44435</v>
@@ -10997,10 +12305,10 @@
       <c r="D97" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E97" s="104" t="s">
+      <c r="E97" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="F97" s="98" t="s">
+      <c r="F97" s="94" t="s">
         <v>306</v>
       </c>
       <c r="G97" s="31" t="s">
@@ -11027,8 +12335,8 @@
       <c r="D98" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E98" s="105"/>
-      <c r="F98" s="99"/>
+      <c r="E98" s="92"/>
+      <c r="F98" s="95"/>
       <c r="G98" s="31" t="s">
         <v>311</v>
       </c>
@@ -11053,8 +12361,8 @@
       <c r="D99" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E99" s="105"/>
-      <c r="F99" s="99"/>
+      <c r="E99" s="92"/>
+      <c r="F99" s="95"/>
       <c r="G99" s="31" t="s">
         <v>310</v>
       </c>
@@ -11079,8 +12387,8 @@
       <c r="D100" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E100" s="105"/>
-      <c r="F100" s="99"/>
+      <c r="E100" s="92"/>
+      <c r="F100" s="95"/>
       <c r="G100" s="31" t="s">
         <v>309</v>
       </c>
@@ -11105,8 +12413,8 @@
       <c r="D101" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E101" s="105"/>
-      <c r="F101" s="99"/>
+      <c r="E101" s="92"/>
+      <c r="F101" s="95"/>
       <c r="G101" s="31" t="s">
         <v>312</v>
       </c>
@@ -11131,8 +12439,8 @@
       <c r="D102" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E102" s="105"/>
-      <c r="F102" s="99"/>
+      <c r="E102" s="92"/>
+      <c r="F102" s="95"/>
       <c r="G102" s="31" t="s">
         <v>313</v>
       </c>
@@ -11157,8 +12465,8 @@
       <c r="D103" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E103" s="105"/>
-      <c r="F103" s="99"/>
+      <c r="E103" s="92"/>
+      <c r="F103" s="95"/>
       <c r="G103" s="31" t="s">
         <v>320</v>
       </c>
@@ -11183,8 +12491,8 @@
       <c r="D104" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E104" s="105"/>
-      <c r="F104" s="99"/>
+      <c r="E104" s="92"/>
+      <c r="F104" s="95"/>
       <c r="G104" s="31" t="s">
         <v>315</v>
       </c>
@@ -11209,8 +12517,8 @@
       <c r="D105" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E105" s="105"/>
-      <c r="F105" s="99"/>
+      <c r="E105" s="92"/>
+      <c r="F105" s="95"/>
       <c r="G105" s="31" t="s">
         <v>316</v>
       </c>
@@ -11235,8 +12543,8 @@
       <c r="D106" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E106" s="105"/>
-      <c r="F106" s="99"/>
+      <c r="E106" s="92"/>
+      <c r="F106" s="95"/>
       <c r="G106" s="31" t="s">
         <v>317</v>
       </c>
@@ -11261,8 +12569,8 @@
       <c r="D107" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E107" s="105"/>
-      <c r="F107" s="99"/>
+      <c r="E107" s="92"/>
+      <c r="F107" s="95"/>
       <c r="G107" s="31" t="s">
         <v>318</v>
       </c>
@@ -11287,8 +12595,8 @@
       <c r="D108" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E108" s="106"/>
-      <c r="F108" s="100"/>
+      <c r="E108" s="93"/>
+      <c r="F108" s="96"/>
       <c r="G108" s="31" t="s">
         <v>319</v>
       </c>
@@ -11351,7 +12659,7 @@
       <c r="F110" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="G110" s="91" t="s">
+      <c r="G110" s="100" t="s">
         <v>107</v>
       </c>
       <c r="H110" s="68">
@@ -11381,7 +12689,7 @@
       <c r="F111" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="G111" s="92"/>
+      <c r="G111" s="101"/>
       <c r="H111" s="68">
         <v>44435</v>
       </c>
@@ -11409,7 +12717,7 @@
       <c r="F112" s="31" t="s">
         <v>326</v>
       </c>
-      <c r="G112" s="92"/>
+      <c r="G112" s="101"/>
       <c r="H112" s="68">
         <v>44435</v>
       </c>
@@ -11437,7 +12745,7 @@
       <c r="F113" s="31" t="s">
         <v>326</v>
       </c>
-      <c r="G113" s="92"/>
+      <c r="G113" s="101"/>
       <c r="H113" s="68">
         <v>44435</v>
       </c>
@@ -11465,7 +12773,7 @@
       <c r="F114" s="31" t="s">
         <v>327</v>
       </c>
-      <c r="G114" s="92"/>
+      <c r="G114" s="101"/>
       <c r="H114" s="68">
         <v>44435</v>
       </c>
@@ -11493,7 +12801,7 @@
       <c r="F115" s="31" t="s">
         <v>343</v>
       </c>
-      <c r="G115" s="92"/>
+      <c r="G115" s="101"/>
       <c r="H115" s="68">
         <v>44435</v>
       </c>
@@ -11521,7 +12829,7 @@
       <c r="F116" s="31" t="s">
         <v>347</v>
       </c>
-      <c r="G116" s="92"/>
+      <c r="G116" s="101"/>
       <c r="H116" s="68">
         <v>44435</v>
       </c>
@@ -11549,7 +12857,7 @@
       <c r="F117" s="31" t="s">
         <v>328</v>
       </c>
-      <c r="G117" s="92"/>
+      <c r="G117" s="101"/>
       <c r="H117" s="68">
         <v>44435</v>
       </c>
@@ -11577,7 +12885,7 @@
       <c r="F118" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="G118" s="92"/>
+      <c r="G118" s="101"/>
       <c r="H118" s="68">
         <v>44435</v>
       </c>
@@ -11605,7 +12913,7 @@
       <c r="F119" s="31" t="s">
         <v>329</v>
       </c>
-      <c r="G119" s="92"/>
+      <c r="G119" s="101"/>
       <c r="H119" s="68">
         <v>44435</v>
       </c>
@@ -11633,7 +12941,7 @@
       <c r="F120" s="31" t="s">
         <v>330</v>
       </c>
-      <c r="G120" s="92"/>
+      <c r="G120" s="101"/>
       <c r="H120" s="68">
         <v>44435</v>
       </c>
@@ -11661,7 +12969,7 @@
       <c r="F121" s="31" t="s">
         <v>322</v>
       </c>
-      <c r="G121" s="93"/>
+      <c r="G121" s="102"/>
       <c r="H121" s="68">
         <v>44435</v>
       </c>
@@ -11992,7 +13300,7 @@
       <c r="E132" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F132" s="98" t="s">
+      <c r="F132" s="94" t="s">
         <v>345</v>
       </c>
       <c r="G132" s="31" t="s">
@@ -12022,7 +13330,7 @@
       <c r="E133" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F133" s="99"/>
+      <c r="F133" s="95"/>
       <c r="G133" s="32" t="s">
         <v>108</v>
       </c>
@@ -12050,7 +13358,7 @@
       <c r="E134" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F134" s="99"/>
+      <c r="F134" s="95"/>
       <c r="G134" s="32" t="s">
         <v>109</v>
       </c>
@@ -12078,7 +13386,7 @@
       <c r="E135" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F135" s="99"/>
+      <c r="F135" s="95"/>
       <c r="G135" s="32" t="s">
         <v>112</v>
       </c>
@@ -12106,7 +13414,7 @@
       <c r="E136" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F136" s="99"/>
+      <c r="F136" s="95"/>
       <c r="G136" s="32" t="s">
         <v>113</v>
       </c>
@@ -12134,7 +13442,7 @@
       <c r="E137" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F137" s="99"/>
+      <c r="F137" s="95"/>
       <c r="G137" s="32" t="s">
         <v>114</v>
       </c>
@@ -12162,7 +13470,7 @@
       <c r="E138" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F138" s="99"/>
+      <c r="F138" s="95"/>
       <c r="G138" s="32" t="s">
         <v>111</v>
       </c>
@@ -12190,7 +13498,7 @@
       <c r="E139" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F139" s="99"/>
+      <c r="F139" s="95"/>
       <c r="G139" s="32" t="s">
         <v>115</v>
       </c>
@@ -12218,7 +13526,7 @@
       <c r="E140" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F140" s="99"/>
+      <c r="F140" s="95"/>
       <c r="G140" s="32" t="s">
         <v>108</v>
       </c>
@@ -12246,7 +13554,7 @@
       <c r="E141" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F141" s="99"/>
+      <c r="F141" s="95"/>
       <c r="G141" s="32" t="s">
         <v>117</v>
       </c>
@@ -12274,7 +13582,7 @@
       <c r="E142" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F142" s="99"/>
+      <c r="F142" s="95"/>
       <c r="G142" s="32" t="s">
         <v>108</v>
       </c>
@@ -12302,7 +13610,7 @@
       <c r="E143" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F143" s="99"/>
+      <c r="F143" s="95"/>
       <c r="G143" s="32" t="s">
         <v>108</v>
       </c>
@@ -12330,7 +13638,7 @@
       <c r="E144" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F144" s="99"/>
+      <c r="F144" s="95"/>
       <c r="G144" s="32" t="s">
         <v>116</v>
       </c>
@@ -12358,7 +13666,7 @@
       <c r="E145" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F145" s="99"/>
+      <c r="F145" s="95"/>
       <c r="G145" s="31" t="s">
         <v>348</v>
       </c>
@@ -12386,7 +13694,7 @@
       <c r="E146" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F146" s="100"/>
+      <c r="F146" s="96"/>
       <c r="G146" s="31" t="s">
         <v>349</v>
       </c>
@@ -12418,7 +13726,7 @@
       <c r="E147" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F147" s="98" t="s">
+      <c r="F147" s="94" t="s">
         <v>351</v>
       </c>
       <c r="G147" s="31" t="s">
@@ -12448,7 +13756,7 @@
       <c r="E148" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F148" s="99"/>
+      <c r="F148" s="95"/>
       <c r="G148" s="31" t="s">
         <v>353</v>
       </c>
@@ -12476,7 +13784,7 @@
       <c r="E149" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F149" s="100"/>
+      <c r="F149" s="96"/>
       <c r="G149" s="32" t="s">
         <v>303</v>
       </c>
@@ -12505,13 +13813,13 @@
       <c r="D150" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E150" s="107" t="s">
+      <c r="E150" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="F150" s="98" t="s">
+      <c r="F150" s="94" t="s">
         <v>358</v>
       </c>
-      <c r="G150" s="91" t="s">
+      <c r="G150" s="100" t="s">
         <v>359</v>
       </c>
       <c r="H150" s="68">
@@ -12535,9 +13843,9 @@
       <c r="D151" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E151" s="108"/>
-      <c r="F151" s="99"/>
-      <c r="G151" s="92"/>
+      <c r="E151" s="98"/>
+      <c r="F151" s="95"/>
+      <c r="G151" s="101"/>
       <c r="H151" s="68">
         <v>44435</v>
       </c>
@@ -12559,9 +13867,9 @@
       <c r="D152" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E152" s="108"/>
-      <c r="F152" s="99"/>
-      <c r="G152" s="92"/>
+      <c r="E152" s="98"/>
+      <c r="F152" s="95"/>
+      <c r="G152" s="101"/>
       <c r="H152" s="68">
         <v>44435</v>
       </c>
@@ -12583,9 +13891,9 @@
       <c r="D153" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E153" s="108"/>
-      <c r="F153" s="99"/>
-      <c r="G153" s="92"/>
+      <c r="E153" s="98"/>
+      <c r="F153" s="95"/>
+      <c r="G153" s="101"/>
       <c r="H153" s="68">
         <v>44435</v>
       </c>
@@ -12607,9 +13915,9 @@
       <c r="D154" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E154" s="108"/>
-      <c r="F154" s="99"/>
-      <c r="G154" s="92"/>
+      <c r="E154" s="98"/>
+      <c r="F154" s="95"/>
+      <c r="G154" s="101"/>
       <c r="H154" s="68">
         <v>44435</v>
       </c>
@@ -12631,9 +13939,9 @@
       <c r="D155" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E155" s="108"/>
-      <c r="F155" s="99"/>
-      <c r="G155" s="92"/>
+      <c r="E155" s="98"/>
+      <c r="F155" s="95"/>
+      <c r="G155" s="101"/>
       <c r="H155" s="68">
         <v>44435</v>
       </c>
@@ -12655,9 +13963,9 @@
       <c r="D156" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E156" s="108"/>
-      <c r="F156" s="99"/>
-      <c r="G156" s="92"/>
+      <c r="E156" s="98"/>
+      <c r="F156" s="95"/>
+      <c r="G156" s="101"/>
       <c r="H156" s="68">
         <v>44435</v>
       </c>
@@ -12679,9 +13987,9 @@
       <c r="D157" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E157" s="108"/>
-      <c r="F157" s="99"/>
-      <c r="G157" s="92"/>
+      <c r="E157" s="98"/>
+      <c r="F157" s="95"/>
+      <c r="G157" s="101"/>
       <c r="H157" s="68">
         <v>44435</v>
       </c>
@@ -12703,9 +14011,9 @@
       <c r="D158" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E158" s="108"/>
-      <c r="F158" s="99"/>
-      <c r="G158" s="92"/>
+      <c r="E158" s="98"/>
+      <c r="F158" s="95"/>
+      <c r="G158" s="101"/>
       <c r="H158" s="68">
         <v>44435</v>
       </c>
@@ -12727,9 +14035,9 @@
       <c r="D159" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E159" s="108"/>
-      <c r="F159" s="99"/>
-      <c r="G159" s="92"/>
+      <c r="E159" s="98"/>
+      <c r="F159" s="95"/>
+      <c r="G159" s="101"/>
       <c r="H159" s="68">
         <v>44435</v>
       </c>
@@ -12751,9 +14059,9 @@
       <c r="D160" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E160" s="108"/>
-      <c r="F160" s="99"/>
-      <c r="G160" s="92"/>
+      <c r="E160" s="98"/>
+      <c r="F160" s="95"/>
+      <c r="G160" s="101"/>
       <c r="H160" s="68">
         <v>44435</v>
       </c>
@@ -12775,9 +14083,9 @@
       <c r="D161" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="E161" s="108"/>
-      <c r="F161" s="99"/>
-      <c r="G161" s="93"/>
+      <c r="E161" s="98"/>
+      <c r="F161" s="95"/>
+      <c r="G161" s="102"/>
       <c r="H161" s="68">
         <v>44435</v>
       </c>
@@ -12799,8 +14107,8 @@
       <c r="D162" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="E162" s="108"/>
-      <c r="F162" s="99"/>
+      <c r="E162" s="98"/>
+      <c r="F162" s="95"/>
       <c r="G162" s="31" t="s">
         <v>360</v>
       </c>
@@ -12825,8 +14133,8 @@
       <c r="D163" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="E163" s="109"/>
-      <c r="F163" s="100"/>
+      <c r="E163" s="99"/>
+      <c r="F163" s="96"/>
       <c r="G163" s="31" t="s">
         <v>361</v>
       </c>
@@ -12853,14 +14161,14 @@
       <c r="D164" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="E164" s="90" t="s">
+      <c r="E164" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="F164" s="89" t="s">
+      <c r="F164" s="88" t="s">
         <v>365</v>
       </c>
       <c r="G164" s="32" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H164" s="68">
         <v>44435</v>
@@ -13002,26 +14310,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="E73:E84"/>
+    <mergeCell ref="F73:F84"/>
+    <mergeCell ref="E86:E89"/>
+    <mergeCell ref="F86:F89"/>
+    <mergeCell ref="E90:E92"/>
+    <mergeCell ref="F90:F94"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="G12:G23"/>
+    <mergeCell ref="G38:G42"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="E59:E71"/>
+    <mergeCell ref="F57:F71"/>
     <mergeCell ref="E97:E108"/>
     <mergeCell ref="F97:F108"/>
     <mergeCell ref="E150:E163"/>
     <mergeCell ref="F150:F163"/>
     <mergeCell ref="G150:G161"/>
     <mergeCell ref="G110:G121"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="G12:G23"/>
-    <mergeCell ref="G38:G42"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="E59:E71"/>
-    <mergeCell ref="F57:F71"/>
-    <mergeCell ref="E73:E84"/>
-    <mergeCell ref="F73:F84"/>
-    <mergeCell ref="E86:E89"/>
-    <mergeCell ref="F86:F89"/>
-    <mergeCell ref="E90:E92"/>
     <mergeCell ref="F132:F146"/>
     <mergeCell ref="F147:F149"/>
-    <mergeCell ref="F90:F94"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -13032,10 +14340,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9E524B-C67B-4990-A5C3-077E8DAB7E38}">
-  <dimension ref="A1:L164"/>
+  <dimension ref="A1:L345"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A101" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A118" sqref="A118:K164"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A145" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F153" sqref="F153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -13054,11 +14362,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="103" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="112"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="110"/>
       <c r="D1" s="53" t="s">
         <v>2</v>
       </c>
@@ -13081,9 +14389,9 @@
       <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A2" s="96"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="113"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="111"/>
       <c r="D2" s="53" t="s">
         <v>3</v>
       </c>
@@ -13251,13 +14559,13 @@
       <c r="C8" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="91" t="s">
+      <c r="D8" s="100" t="s">
         <v>205</v>
       </c>
       <c r="E8" s="80" t="s">
         <v>162</v>
       </c>
-      <c r="F8" s="91" t="s">
+      <c r="F8" s="100" t="s">
         <v>203</v>
       </c>
       <c r="G8" s="60">
@@ -13277,11 +14585,11 @@
       <c r="C9" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="92"/>
+      <c r="D9" s="101"/>
       <c r="E9" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="F9" s="92"/>
+      <c r="F9" s="101"/>
       <c r="G9" s="60">
         <v>44369</v>
       </c>
@@ -13299,11 +14607,11 @@
       <c r="C10" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="92"/>
+      <c r="D10" s="101"/>
       <c r="E10" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="92"/>
+      <c r="F10" s="101"/>
       <c r="G10" s="60">
         <v>44369</v>
       </c>
@@ -13321,11 +14629,11 @@
       <c r="C11" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="92"/>
+      <c r="D11" s="101"/>
       <c r="E11" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="92"/>
+      <c r="F11" s="101"/>
       <c r="G11" s="60">
         <v>44369</v>
       </c>
@@ -13343,11 +14651,11 @@
       <c r="C12" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="92"/>
+      <c r="D12" s="101"/>
       <c r="E12" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="92"/>
+      <c r="F12" s="101"/>
       <c r="G12" s="60">
         <v>44369</v>
       </c>
@@ -13365,11 +14673,11 @@
       <c r="C13" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="92"/>
+      <c r="D13" s="101"/>
       <c r="E13" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="92"/>
+      <c r="F13" s="101"/>
       <c r="G13" s="60">
         <v>44369</v>
       </c>
@@ -13387,11 +14695,11 @@
       <c r="C14" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="92"/>
+      <c r="D14" s="101"/>
       <c r="E14" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="92"/>
+      <c r="F14" s="101"/>
       <c r="G14" s="60">
         <v>44369</v>
       </c>
@@ -13409,11 +14717,11 @@
       <c r="C15" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="92"/>
+      <c r="D15" s="101"/>
       <c r="E15" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="92"/>
+      <c r="F15" s="101"/>
       <c r="G15" s="60">
         <v>44369</v>
       </c>
@@ -13431,11 +14739,11 @@
       <c r="C16" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="92"/>
+      <c r="D16" s="101"/>
       <c r="E16" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="92"/>
+      <c r="F16" s="101"/>
       <c r="G16" s="60">
         <v>44369</v>
       </c>
@@ -13453,11 +14761,11 @@
       <c r="C17" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="92"/>
+      <c r="D17" s="101"/>
       <c r="E17" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="92"/>
+      <c r="F17" s="101"/>
       <c r="G17" s="60">
         <v>44369</v>
       </c>
@@ -13475,11 +14783,11 @@
       <c r="C18" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="92"/>
+      <c r="D18" s="101"/>
       <c r="E18" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="92"/>
+      <c r="F18" s="101"/>
       <c r="G18" s="60">
         <v>44369</v>
       </c>
@@ -13497,11 +14805,11 @@
       <c r="C19" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="93"/>
+      <c r="D19" s="102"/>
       <c r="E19" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="93"/>
+      <c r="F19" s="102"/>
       <c r="G19" s="60">
         <v>44369</v>
       </c>
@@ -13522,13 +14830,13 @@
       <c r="C20" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="91" t="s">
+      <c r="D20" s="100" t="s">
         <v>204</v>
       </c>
-      <c r="E20" s="117" t="s">
+      <c r="E20" s="115" t="s">
         <v>202</v>
       </c>
-      <c r="F20" s="91" t="s">
+      <c r="F20" s="100" t="s">
         <v>189</v>
       </c>
       <c r="G20" s="60">
@@ -13551,9 +14859,9 @@
       <c r="C21" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="92"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="92"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="116"/>
+      <c r="F21" s="101"/>
       <c r="G21" s="60">
         <v>44369</v>
       </c>
@@ -13574,9 +14882,9 @@
       <c r="C22" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="92"/>
-      <c r="E22" s="118"/>
-      <c r="F22" s="92"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="101"/>
       <c r="G22" s="60">
         <v>44369</v>
       </c>
@@ -13597,9 +14905,9 @@
       <c r="C23" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="92"/>
-      <c r="E23" s="118"/>
-      <c r="F23" s="92"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="116"/>
+      <c r="F23" s="101"/>
       <c r="G23" s="60">
         <v>44369</v>
       </c>
@@ -13620,9 +14928,9 @@
       <c r="C24" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="92"/>
-      <c r="E24" s="118"/>
-      <c r="F24" s="93"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="116"/>
+      <c r="F24" s="102"/>
       <c r="G24" s="60">
         <v>44369</v>
       </c>
@@ -13643,8 +14951,8 @@
       <c r="C25" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="92"/>
-      <c r="E25" s="118"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="116"/>
       <c r="F25" s="31" t="s">
         <v>187</v>
       </c>
@@ -13668,9 +14976,9 @@
       <c r="C26" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="92"/>
-      <c r="E26" s="118"/>
-      <c r="F26" s="91" t="s">
+      <c r="D26" s="101"/>
+      <c r="E26" s="116"/>
+      <c r="F26" s="100" t="s">
         <v>188</v>
       </c>
       <c r="G26" s="60">
@@ -13693,9 +15001,9 @@
       <c r="C27" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="92"/>
-      <c r="E27" s="118"/>
-      <c r="F27" s="92"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="116"/>
+      <c r="F27" s="101"/>
       <c r="G27" s="60">
         <v>44369</v>
       </c>
@@ -13716,9 +15024,9 @@
       <c r="C28" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="92"/>
-      <c r="E28" s="118"/>
-      <c r="F28" s="92"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="116"/>
+      <c r="F28" s="101"/>
       <c r="G28" s="60">
         <v>44369</v>
       </c>
@@ -13739,9 +15047,9 @@
       <c r="C29" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="92"/>
-      <c r="E29" s="118"/>
-      <c r="F29" s="92"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="101"/>
       <c r="G29" s="60">
         <v>44369</v>
       </c>
@@ -13762,9 +15070,9 @@
       <c r="C30" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="92"/>
-      <c r="E30" s="118"/>
-      <c r="F30" s="92"/>
+      <c r="D30" s="101"/>
+      <c r="E30" s="116"/>
+      <c r="F30" s="101"/>
       <c r="G30" s="60">
         <v>44369</v>
       </c>
@@ -13785,9 +15093,9 @@
       <c r="C31" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="93"/>
-      <c r="E31" s="119"/>
-      <c r="F31" s="93"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="117"/>
+      <c r="F31" s="102"/>
       <c r="G31" s="60">
         <v>44369</v>
       </c>
@@ -13810,7 +15118,7 @@
       <c r="C32" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="91" t="s">
+      <c r="D32" s="100" t="s">
         <v>220</v>
       </c>
       <c r="E32" s="31" t="s">
@@ -13839,7 +15147,7 @@
       <c r="C33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="92"/>
+      <c r="D33" s="101"/>
       <c r="E33" s="31" t="s">
         <v>169</v>
       </c>
@@ -13866,7 +15174,7 @@
       <c r="C34" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="92"/>
+      <c r="D34" s="101"/>
       <c r="E34" s="31" t="s">
         <v>170</v>
       </c>
@@ -13893,7 +15201,7 @@
       <c r="C35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="92"/>
+      <c r="D35" s="101"/>
       <c r="E35" s="31" t="s">
         <v>170</v>
       </c>
@@ -13920,7 +15228,7 @@
       <c r="C36" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="92"/>
+      <c r="D36" s="101"/>
       <c r="E36" s="31" t="s">
         <v>171</v>
       </c>
@@ -13947,7 +15255,7 @@
       <c r="C37" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="92"/>
+      <c r="D37" s="101"/>
       <c r="E37" s="31" t="s">
         <v>172</v>
       </c>
@@ -13974,7 +15282,7 @@
       <c r="C38" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="92"/>
+      <c r="D38" s="101"/>
       <c r="E38" s="31" t="s">
         <v>173</v>
       </c>
@@ -14001,7 +15309,7 @@
       <c r="C39" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="92"/>
+      <c r="D39" s="101"/>
       <c r="E39" s="31" t="s">
         <v>174</v>
       </c>
@@ -14028,7 +15336,7 @@
       <c r="C40" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="92"/>
+      <c r="D40" s="101"/>
       <c r="E40" s="31" t="s">
         <v>175</v>
       </c>
@@ -14055,7 +15363,7 @@
       <c r="C41" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="93"/>
+      <c r="D41" s="102"/>
       <c r="E41" s="31" t="s">
         <v>176</v>
       </c>
@@ -14084,13 +15392,13 @@
       <c r="C42" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="91" t="s">
+      <c r="D42" s="100" t="s">
         <v>208</v>
       </c>
-      <c r="E42" s="98" t="s">
+      <c r="E42" s="94" t="s">
         <v>224</v>
       </c>
-      <c r="F42" s="98" t="s">
+      <c r="F42" s="94" t="s">
         <v>207</v>
       </c>
       <c r="G42" s="60">
@@ -14113,9 +15421,9 @@
       <c r="C43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="108"/>
-      <c r="E43" s="99"/>
-      <c r="F43" s="99"/>
+      <c r="D43" s="98"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="95"/>
       <c r="G43" s="60">
         <v>44369</v>
       </c>
@@ -14136,9 +15444,9 @@
       <c r="C44" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="108"/>
-      <c r="E44" s="99"/>
-      <c r="F44" s="99"/>
+      <c r="D44" s="98"/>
+      <c r="E44" s="95"/>
+      <c r="F44" s="95"/>
       <c r="G44" s="60">
         <v>44369</v>
       </c>
@@ -14159,9 +15467,9 @@
       <c r="C45" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="108"/>
-      <c r="E45" s="99"/>
-      <c r="F45" s="99"/>
+      <c r="D45" s="98"/>
+      <c r="E45" s="95"/>
+      <c r="F45" s="95"/>
       <c r="G45" s="60">
         <v>44369</v>
       </c>
@@ -14182,9 +15490,9 @@
       <c r="C46" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="108"/>
-      <c r="E46" s="99"/>
-      <c r="F46" s="99"/>
+      <c r="D46" s="98"/>
+      <c r="E46" s="95"/>
+      <c r="F46" s="95"/>
       <c r="G46" s="60">
         <v>44369</v>
       </c>
@@ -14205,9 +15513,9 @@
       <c r="C47" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="108"/>
-      <c r="E47" s="99"/>
-      <c r="F47" s="99"/>
+      <c r="D47" s="98"/>
+      <c r="E47" s="95"/>
+      <c r="F47" s="95"/>
       <c r="G47" s="60">
         <v>44369</v>
       </c>
@@ -14228,9 +15536,9 @@
       <c r="C48" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="108"/>
-      <c r="E48" s="99"/>
-      <c r="F48" s="99"/>
+      <c r="D48" s="98"/>
+      <c r="E48" s="95"/>
+      <c r="F48" s="95"/>
       <c r="G48" s="60">
         <v>44369</v>
       </c>
@@ -14251,9 +15559,9 @@
       <c r="C49" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D49" s="108"/>
-      <c r="E49" s="99"/>
-      <c r="F49" s="99"/>
+      <c r="D49" s="98"/>
+      <c r="E49" s="95"/>
+      <c r="F49" s="95"/>
       <c r="G49" s="60">
         <v>44369</v>
       </c>
@@ -14274,9 +15582,9 @@
       <c r="C50" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="108"/>
-      <c r="E50" s="99"/>
-      <c r="F50" s="99"/>
+      <c r="D50" s="98"/>
+      <c r="E50" s="95"/>
+      <c r="F50" s="95"/>
       <c r="G50" s="60">
         <v>44369</v>
       </c>
@@ -14297,9 +15605,9 @@
       <c r="C51" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D51" s="108"/>
-      <c r="E51" s="99"/>
-      <c r="F51" s="99"/>
+      <c r="D51" s="98"/>
+      <c r="E51" s="95"/>
+      <c r="F51" s="95"/>
       <c r="G51" s="60">
         <v>44369</v>
       </c>
@@ -14320,9 +15628,9 @@
       <c r="C52" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="108"/>
-      <c r="E52" s="99"/>
-      <c r="F52" s="99"/>
+      <c r="D52" s="98"/>
+      <c r="E52" s="95"/>
+      <c r="F52" s="95"/>
       <c r="G52" s="60">
         <v>44369</v>
       </c>
@@ -14343,9 +15651,9 @@
       <c r="C53" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="109"/>
-      <c r="E53" s="100"/>
-      <c r="F53" s="100"/>
+      <c r="D53" s="99"/>
+      <c r="E53" s="96"/>
+      <c r="F53" s="96"/>
       <c r="G53" s="60">
         <v>44369</v>
       </c>
@@ -14368,13 +15676,13 @@
       <c r="C54" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="91" t="s">
+      <c r="D54" s="100" t="s">
         <v>206</v>
       </c>
-      <c r="E54" s="98" t="s">
+      <c r="E54" s="94" t="s">
         <v>224</v>
       </c>
-      <c r="F54" s="114" t="s">
+      <c r="F54" s="112" t="s">
         <v>179</v>
       </c>
       <c r="G54" s="60">
@@ -14397,9 +15705,9 @@
       <c r="C55" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="108"/>
-      <c r="E55" s="99"/>
-      <c r="F55" s="115"/>
+      <c r="D55" s="98"/>
+      <c r="E55" s="95"/>
+      <c r="F55" s="113"/>
       <c r="G55" s="60">
         <v>44369</v>
       </c>
@@ -14420,9 +15728,9 @@
       <c r="C56" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="108"/>
-      <c r="E56" s="99"/>
-      <c r="F56" s="115"/>
+      <c r="D56" s="98"/>
+      <c r="E56" s="95"/>
+      <c r="F56" s="113"/>
       <c r="G56" s="60">
         <v>44369</v>
       </c>
@@ -14443,9 +15751,9 @@
       <c r="C57" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="108"/>
-      <c r="E57" s="99"/>
-      <c r="F57" s="115"/>
+      <c r="D57" s="98"/>
+      <c r="E57" s="95"/>
+      <c r="F57" s="113"/>
       <c r="G57" s="60">
         <v>44369</v>
       </c>
@@ -14466,9 +15774,9 @@
       <c r="C58" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="108"/>
-      <c r="E58" s="99"/>
-      <c r="F58" s="115"/>
+      <c r="D58" s="98"/>
+      <c r="E58" s="95"/>
+      <c r="F58" s="113"/>
       <c r="G58" s="60">
         <v>44369</v>
       </c>
@@ -14489,9 +15797,9 @@
       <c r="C59" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D59" s="108"/>
-      <c r="E59" s="99"/>
-      <c r="F59" s="116"/>
+      <c r="D59" s="98"/>
+      <c r="E59" s="95"/>
+      <c r="F59" s="114"/>
       <c r="G59" s="60">
         <v>44369</v>
       </c>
@@ -14512,8 +15820,8 @@
       <c r="C60" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="108"/>
-      <c r="E60" s="99"/>
+      <c r="D60" s="98"/>
+      <c r="E60" s="95"/>
       <c r="F60" s="32" t="s">
         <v>180</v>
       </c>
@@ -14537,8 +15845,8 @@
       <c r="C61" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="108"/>
-      <c r="E61" s="99"/>
+      <c r="D61" s="98"/>
+      <c r="E61" s="95"/>
       <c r="F61" s="32" t="s">
         <v>183</v>
       </c>
@@ -14562,8 +15870,8 @@
       <c r="C62" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D62" s="108"/>
-      <c r="E62" s="99"/>
+      <c r="D62" s="98"/>
+      <c r="E62" s="95"/>
       <c r="F62" s="32" t="s">
         <v>182</v>
       </c>
@@ -14587,9 +15895,9 @@
       <c r="C63" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D63" s="108"/>
-      <c r="E63" s="99"/>
-      <c r="F63" s="114" t="s">
+      <c r="D63" s="98"/>
+      <c r="E63" s="95"/>
+      <c r="F63" s="112" t="s">
         <v>183</v>
       </c>
       <c r="G63" s="60">
@@ -14612,9 +15920,9 @@
       <c r="C64" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D64" s="108"/>
-      <c r="E64" s="99"/>
-      <c r="F64" s="116"/>
+      <c r="D64" s="98"/>
+      <c r="E64" s="95"/>
+      <c r="F64" s="114"/>
       <c r="G64" s="60">
         <v>44369</v>
       </c>
@@ -14635,8 +15943,8 @@
       <c r="C65" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D65" s="109"/>
-      <c r="E65" s="100"/>
+      <c r="D65" s="99"/>
+      <c r="E65" s="96"/>
       <c r="F65" s="32" t="s">
         <v>181</v>
       </c>
@@ -14662,13 +15970,13 @@
       <c r="C66" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="91" t="s">
+      <c r="D66" s="100" t="s">
         <v>222</v>
       </c>
-      <c r="E66" s="91" t="s">
+      <c r="E66" s="100" t="s">
         <v>164</v>
       </c>
-      <c r="F66" s="98" t="s">
+      <c r="F66" s="94" t="s">
         <v>165</v>
       </c>
       <c r="G66" s="60">
@@ -14691,9 +15999,9 @@
       <c r="C67" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="108"/>
-      <c r="E67" s="92"/>
-      <c r="F67" s="99"/>
+      <c r="D67" s="98"/>
+      <c r="E67" s="101"/>
+      <c r="F67" s="95"/>
       <c r="G67" s="60">
         <v>44369</v>
       </c>
@@ -14714,9 +16022,9 @@
       <c r="C68" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D68" s="108"/>
-      <c r="E68" s="92"/>
-      <c r="F68" s="99"/>
+      <c r="D68" s="98"/>
+      <c r="E68" s="101"/>
+      <c r="F68" s="95"/>
       <c r="G68" s="60">
         <v>44369</v>
       </c>
@@ -14737,9 +16045,9 @@
       <c r="C69" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D69" s="108"/>
-      <c r="E69" s="92"/>
-      <c r="F69" s="99"/>
+      <c r="D69" s="98"/>
+      <c r="E69" s="101"/>
+      <c r="F69" s="95"/>
       <c r="G69" s="60">
         <v>44369</v>
       </c>
@@ -14760,9 +16068,9 @@
       <c r="C70" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="108"/>
-      <c r="E70" s="92"/>
-      <c r="F70" s="99"/>
+      <c r="D70" s="98"/>
+      <c r="E70" s="101"/>
+      <c r="F70" s="95"/>
       <c r="G70" s="60">
         <v>44369</v>
       </c>
@@ -14783,9 +16091,9 @@
       <c r="C71" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D71" s="108"/>
-      <c r="E71" s="92"/>
-      <c r="F71" s="99"/>
+      <c r="D71" s="98"/>
+      <c r="E71" s="101"/>
+      <c r="F71" s="95"/>
       <c r="G71" s="60">
         <v>44369</v>
       </c>
@@ -14806,9 +16114,9 @@
       <c r="C72" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="108"/>
-      <c r="E72" s="92"/>
-      <c r="F72" s="99"/>
+      <c r="D72" s="98"/>
+      <c r="E72" s="101"/>
+      <c r="F72" s="95"/>
       <c r="G72" s="60">
         <v>44369</v>
       </c>
@@ -14829,9 +16137,9 @@
       <c r="C73" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="108"/>
-      <c r="E73" s="92"/>
-      <c r="F73" s="99"/>
+      <c r="D73" s="98"/>
+      <c r="E73" s="101"/>
+      <c r="F73" s="95"/>
       <c r="G73" s="60">
         <v>44369</v>
       </c>
@@ -14852,9 +16160,9 @@
       <c r="C74" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D74" s="108"/>
-      <c r="E74" s="92"/>
-      <c r="F74" s="99"/>
+      <c r="D74" s="98"/>
+      <c r="E74" s="101"/>
+      <c r="F74" s="95"/>
       <c r="G74" s="60">
         <v>44369</v>
       </c>
@@ -14875,9 +16183,9 @@
       <c r="C75" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="108"/>
-      <c r="E75" s="92"/>
-      <c r="F75" s="99"/>
+      <c r="D75" s="98"/>
+      <c r="E75" s="101"/>
+      <c r="F75" s="95"/>
       <c r="G75" s="60">
         <v>44369</v>
       </c>
@@ -14898,9 +16206,9 @@
       <c r="C76" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D76" s="108"/>
-      <c r="E76" s="92"/>
-      <c r="F76" s="99"/>
+      <c r="D76" s="98"/>
+      <c r="E76" s="101"/>
+      <c r="F76" s="95"/>
       <c r="G76" s="60">
         <v>44369</v>
       </c>
@@ -14921,9 +16229,9 @@
       <c r="C77" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D77" s="109"/>
-      <c r="E77" s="93"/>
-      <c r="F77" s="100"/>
+      <c r="D77" s="99"/>
+      <c r="E77" s="102"/>
+      <c r="F77" s="96"/>
       <c r="G77" s="60">
         <v>44369</v>
       </c>
@@ -14977,10 +16285,10 @@
       <c r="C79" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="D79" s="91" t="s">
+      <c r="D79" s="100" t="s">
         <v>223</v>
       </c>
-      <c r="E79" s="91" t="s">
+      <c r="E79" s="100" t="s">
         <v>238</v>
       </c>
       <c r="F79" s="32" t="s">
@@ -15006,8 +16314,8 @@
       <c r="C80" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D80" s="92"/>
-      <c r="E80" s="92"/>
+      <c r="D80" s="101"/>
+      <c r="E80" s="101"/>
       <c r="F80" s="32" t="s">
         <v>192</v>
       </c>
@@ -15031,8 +16339,8 @@
       <c r="C81" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D81" s="92"/>
-      <c r="E81" s="92"/>
+      <c r="D81" s="101"/>
+      <c r="E81" s="101"/>
       <c r="F81" s="32" t="s">
         <v>209</v>
       </c>
@@ -15056,8 +16364,8 @@
       <c r="C82" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D82" s="92"/>
-      <c r="E82" s="92"/>
+      <c r="D82" s="101"/>
+      <c r="E82" s="101"/>
       <c r="F82" s="32" t="s">
         <v>210</v>
       </c>
@@ -15081,8 +16389,8 @@
       <c r="C83" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D83" s="92"/>
-      <c r="E83" s="92"/>
+      <c r="D83" s="101"/>
+      <c r="E83" s="101"/>
       <c r="F83" s="32" t="s">
         <v>211</v>
       </c>
@@ -15106,8 +16414,8 @@
       <c r="C84" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D84" s="92"/>
-      <c r="E84" s="92"/>
+      <c r="D84" s="101"/>
+      <c r="E84" s="101"/>
       <c r="F84" s="32" t="s">
         <v>212</v>
       </c>
@@ -15131,8 +16439,8 @@
       <c r="C85" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D85" s="92"/>
-      <c r="E85" s="92"/>
+      <c r="D85" s="101"/>
+      <c r="E85" s="101"/>
       <c r="F85" s="32" t="s">
         <v>213</v>
       </c>
@@ -15156,8 +16464,8 @@
       <c r="C86" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D86" s="92"/>
-      <c r="E86" s="92"/>
+      <c r="D86" s="101"/>
+      <c r="E86" s="101"/>
       <c r="F86" s="32" t="s">
         <v>214</v>
       </c>
@@ -15181,8 +16489,8 @@
       <c r="C87" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D87" s="92"/>
-      <c r="E87" s="92"/>
+      <c r="D87" s="101"/>
+      <c r="E87" s="101"/>
       <c r="F87" s="32" t="s">
         <v>215</v>
       </c>
@@ -15206,8 +16514,8 @@
       <c r="C88" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D88" s="92"/>
-      <c r="E88" s="92"/>
+      <c r="D88" s="101"/>
+      <c r="E88" s="101"/>
       <c r="F88" s="32" t="s">
         <v>216</v>
       </c>
@@ -15231,8 +16539,8 @@
       <c r="C89" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D89" s="92"/>
-      <c r="E89" s="92"/>
+      <c r="D89" s="101"/>
+      <c r="E89" s="101"/>
       <c r="F89" s="32" t="s">
         <v>217</v>
       </c>
@@ -15256,8 +16564,8 @@
       <c r="C90" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D90" s="92"/>
-      <c r="E90" s="92"/>
+      <c r="D90" s="101"/>
+      <c r="E90" s="101"/>
       <c r="F90" s="32" t="s">
         <v>218</v>
       </c>
@@ -15281,8 +16589,8 @@
       <c r="C91" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D91" s="92"/>
-      <c r="E91" s="92"/>
+      <c r="D91" s="101"/>
+      <c r="E91" s="101"/>
       <c r="F91" s="32" t="s">
         <v>219</v>
       </c>
@@ -15306,8 +16614,8 @@
       <c r="C92" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="D92" s="92"/>
-      <c r="E92" s="92"/>
+      <c r="D92" s="101"/>
+      <c r="E92" s="101"/>
       <c r="F92" s="31" t="s">
         <v>225</v>
       </c>
@@ -15331,8 +16639,8 @@
       <c r="C93" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="D93" s="92"/>
-      <c r="E93" s="92"/>
+      <c r="D93" s="101"/>
+      <c r="E93" s="101"/>
       <c r="F93" s="31" t="s">
         <v>226</v>
       </c>
@@ -15358,8 +16666,8 @@
       <c r="C94" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="D94" s="93"/>
-      <c r="E94" s="93"/>
+      <c r="D94" s="102"/>
+      <c r="E94" s="102"/>
       <c r="F94" s="31" t="s">
         <v>227</v>
       </c>
@@ -15427,10 +16735,16 @@
       <c r="F96" s="37" t="s">
         <v>239</v>
       </c>
-      <c r="G96" s="88"/>
-      <c r="H96" s="12"/>
+      <c r="G96" s="60">
+        <v>44369</v>
+      </c>
+      <c r="H96" s="90" t="s">
+        <v>228</v>
+      </c>
       <c r="I96" s="32"/>
-      <c r="J96" s="17"/>
+      <c r="J96" s="63" t="s">
+        <v>144</v>
+      </c>
       <c r="K96" s="17"/>
     </row>
     <row r="97" spans="1:11" ht="47.25">
@@ -15450,10 +16764,16 @@
       <c r="F97" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="G97" s="88"/>
-      <c r="H97" s="87"/>
+      <c r="G97" s="60">
+        <v>44369</v>
+      </c>
+      <c r="H97" s="12" t="s">
+        <v>228</v>
+      </c>
       <c r="I97" s="32"/>
-      <c r="J97" s="17"/>
+      <c r="J97" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K97" s="17"/>
     </row>
     <row r="98" spans="1:11" ht="31.5">
@@ -15466,19 +16786,25 @@
       <c r="C98" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="D98" s="98" t="s">
+      <c r="D98" s="94" t="s">
         <v>244</v>
       </c>
-      <c r="E98" s="98" t="s">
+      <c r="E98" s="94" t="s">
         <v>242</v>
       </c>
       <c r="F98" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="G98" s="88"/>
-      <c r="H98" s="12"/>
+      <c r="G98" s="60">
+        <v>44369</v>
+      </c>
+      <c r="H98" s="90" t="s">
+        <v>228</v>
+      </c>
       <c r="I98" s="32"/>
-      <c r="J98" s="17"/>
+      <c r="J98" s="63" t="s">
+        <v>144</v>
+      </c>
       <c r="K98" s="17"/>
     </row>
     <row r="99" spans="1:11" ht="31.5">
@@ -15489,15 +16815,21 @@
       <c r="C99" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D99" s="110"/>
-      <c r="E99" s="99"/>
+      <c r="D99" s="118"/>
+      <c r="E99" s="95"/>
       <c r="F99" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="G99" s="88"/>
-      <c r="H99" s="87"/>
+      <c r="G99" s="60">
+        <v>44369</v>
+      </c>
+      <c r="H99" s="90" t="s">
+        <v>228</v>
+      </c>
       <c r="I99" s="32"/>
-      <c r="J99" s="17"/>
+      <c r="J99" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K99" s="17"/>
     </row>
     <row r="100" spans="1:11" ht="31.5">
@@ -15508,15 +16840,21 @@
       <c r="C100" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D100" s="110"/>
-      <c r="E100" s="99"/>
+      <c r="D100" s="118"/>
+      <c r="E100" s="95"/>
       <c r="F100" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="G100" s="88"/>
-      <c r="H100" s="12"/>
+      <c r="G100" s="60">
+        <v>44369</v>
+      </c>
+      <c r="H100" s="12" t="s">
+        <v>228</v>
+      </c>
       <c r="I100" s="32"/>
-      <c r="J100" s="17"/>
+      <c r="J100" s="63" t="s">
+        <v>144</v>
+      </c>
       <c r="K100" s="17"/>
     </row>
     <row r="101" spans="1:11" ht="31.5">
@@ -15527,15 +16865,21 @@
       <c r="C101" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D101" s="110"/>
-      <c r="E101" s="99"/>
+      <c r="D101" s="118"/>
+      <c r="E101" s="95"/>
       <c r="F101" s="37" t="s">
         <v>264</v>
       </c>
-      <c r="G101" s="88"/>
-      <c r="H101" s="87"/>
+      <c r="G101" s="60">
+        <v>44369</v>
+      </c>
+      <c r="H101" s="90" t="s">
+        <v>228</v>
+      </c>
       <c r="I101" s="32"/>
-      <c r="J101" s="17"/>
+      <c r="J101" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K101" s="17"/>
     </row>
     <row r="102" spans="1:11" ht="31.5">
@@ -15546,15 +16890,21 @@
       <c r="C102" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D102" s="110"/>
-      <c r="E102" s="99"/>
+      <c r="D102" s="118"/>
+      <c r="E102" s="95"/>
       <c r="F102" s="37" t="s">
         <v>265</v>
       </c>
-      <c r="G102" s="88"/>
-      <c r="H102" s="12"/>
+      <c r="G102" s="60">
+        <v>44369</v>
+      </c>
+      <c r="H102" s="90" t="s">
+        <v>228</v>
+      </c>
       <c r="I102" s="32"/>
-      <c r="J102" s="17"/>
+      <c r="J102" s="63" t="s">
+        <v>144</v>
+      </c>
       <c r="K102" s="17"/>
     </row>
     <row r="103" spans="1:11" ht="31.5">
@@ -15565,15 +16915,21 @@
       <c r="C103" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D103" s="110"/>
-      <c r="E103" s="99"/>
+      <c r="D103" s="118"/>
+      <c r="E103" s="95"/>
       <c r="F103" s="37" t="s">
         <v>266</v>
       </c>
-      <c r="G103" s="88"/>
-      <c r="H103" s="87"/>
+      <c r="G103" s="60">
+        <v>44369</v>
+      </c>
+      <c r="H103" s="12" t="s">
+        <v>228</v>
+      </c>
       <c r="I103" s="32"/>
-      <c r="J103" s="17"/>
+      <c r="J103" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K103" s="17"/>
     </row>
     <row r="104" spans="1:11" ht="31.5">
@@ -15584,15 +16940,21 @@
       <c r="C104" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D104" s="110"/>
-      <c r="E104" s="99"/>
+      <c r="D104" s="118"/>
+      <c r="E104" s="95"/>
       <c r="F104" s="37" t="s">
         <v>267</v>
       </c>
-      <c r="G104" s="88"/>
-      <c r="H104" s="12"/>
+      <c r="G104" s="60">
+        <v>44369</v>
+      </c>
+      <c r="H104" s="90" t="s">
+        <v>228</v>
+      </c>
       <c r="I104" s="32"/>
-      <c r="J104" s="17"/>
+      <c r="J104" s="63" t="s">
+        <v>144</v>
+      </c>
       <c r="K104" s="17"/>
     </row>
     <row r="105" spans="1:11" ht="31.5">
@@ -15603,15 +16965,21 @@
       <c r="C105" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D105" s="110"/>
-      <c r="E105" s="99"/>
+      <c r="D105" s="118"/>
+      <c r="E105" s="95"/>
       <c r="F105" s="37" t="s">
         <v>268</v>
       </c>
-      <c r="G105" s="88"/>
-      <c r="H105" s="87"/>
+      <c r="G105" s="60">
+        <v>44369</v>
+      </c>
+      <c r="H105" s="90" t="s">
+        <v>228</v>
+      </c>
       <c r="I105" s="32"/>
-      <c r="J105" s="17"/>
+      <c r="J105" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K105" s="17"/>
     </row>
     <row r="106" spans="1:11" ht="31.5">
@@ -15622,15 +16990,21 @@
       <c r="C106" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="D106" s="110"/>
-      <c r="E106" s="99"/>
+      <c r="D106" s="118"/>
+      <c r="E106" s="95"/>
       <c r="F106" s="37" t="s">
         <v>269</v>
       </c>
-      <c r="G106" s="88"/>
-      <c r="H106" s="12"/>
+      <c r="G106" s="60">
+        <v>44369</v>
+      </c>
+      <c r="H106" s="12" t="s">
+        <v>228</v>
+      </c>
       <c r="I106" s="32"/>
-      <c r="J106" s="17"/>
+      <c r="J106" s="63" t="s">
+        <v>144</v>
+      </c>
       <c r="K106" s="17"/>
     </row>
     <row r="107" spans="1:11" ht="31.5">
@@ -15641,15 +17015,21 @@
       <c r="C107" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="D107" s="110"/>
-      <c r="E107" s="99"/>
+      <c r="D107" s="118"/>
+      <c r="E107" s="95"/>
       <c r="F107" s="37" t="s">
         <v>270</v>
       </c>
-      <c r="G107" s="88"/>
-      <c r="H107" s="87"/>
+      <c r="G107" s="60">
+        <v>44369</v>
+      </c>
+      <c r="H107" s="90" t="s">
+        <v>228</v>
+      </c>
       <c r="I107" s="32"/>
-      <c r="J107" s="17"/>
+      <c r="J107" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K107" s="17"/>
     </row>
     <row r="108" spans="1:11" ht="31.5">
@@ -15660,15 +17040,21 @@
       <c r="C108" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="D108" s="111"/>
-      <c r="E108" s="100"/>
+      <c r="D108" s="119"/>
+      <c r="E108" s="96"/>
       <c r="F108" s="37" t="s">
         <v>270</v>
       </c>
-      <c r="G108" s="88"/>
-      <c r="H108" s="12"/>
+      <c r="G108" s="60">
+        <v>44369</v>
+      </c>
+      <c r="H108" s="90" t="s">
+        <v>228</v>
+      </c>
       <c r="I108" s="32"/>
-      <c r="J108" s="17"/>
+      <c r="J108" s="63" t="s">
+        <v>144</v>
+      </c>
       <c r="K108" s="17"/>
     </row>
     <row r="109" spans="1:11" ht="47.25">
@@ -15690,10 +17076,16 @@
       <c r="F109" s="37" t="s">
         <v>256</v>
       </c>
-      <c r="G109" s="88"/>
-      <c r="H109" s="87"/>
+      <c r="G109" s="60">
+        <v>44369</v>
+      </c>
+      <c r="H109" s="12" t="s">
+        <v>228</v>
+      </c>
       <c r="I109" s="32"/>
-      <c r="J109" s="17"/>
+      <c r="J109" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K109" s="17"/>
     </row>
     <row r="110" spans="1:11" ht="47.25">
@@ -15713,10 +17105,16 @@
       <c r="F110" s="37" t="s">
         <v>257</v>
       </c>
-      <c r="G110" s="88"/>
-      <c r="H110" s="12"/>
+      <c r="G110" s="60">
+        <v>44369</v>
+      </c>
+      <c r="H110" s="90" t="s">
+        <v>228</v>
+      </c>
       <c r="I110" s="32"/>
-      <c r="J110" s="17"/>
+      <c r="J110" s="63" t="s">
+        <v>144</v>
+      </c>
       <c r="K110" s="17"/>
     </row>
     <row r="111" spans="1:11" ht="47.25">
@@ -15738,10 +17136,16 @@
       <c r="F111" s="37" t="s">
         <v>259</v>
       </c>
-      <c r="G111" s="88"/>
-      <c r="H111" s="87"/>
+      <c r="G111" s="60">
+        <v>44369</v>
+      </c>
+      <c r="H111" s="90" t="s">
+        <v>228</v>
+      </c>
       <c r="I111" s="32"/>
-      <c r="J111" s="17"/>
+      <c r="J111" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K111" s="17"/>
     </row>
     <row r="112" spans="1:11" ht="47.25">
@@ -15761,10 +17165,16 @@
       <c r="F112" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="G112" s="88"/>
-      <c r="H112" s="12"/>
+      <c r="G112" s="60">
+        <v>44369</v>
+      </c>
+      <c r="H112" s="12" t="s">
+        <v>228</v>
+      </c>
       <c r="I112" s="32"/>
-      <c r="J112" s="17"/>
+      <c r="J112" s="63" t="s">
+        <v>144</v>
+      </c>
       <c r="K112" s="17"/>
     </row>
     <row r="113" spans="1:11" ht="47.25">
@@ -15786,513 +17196,761 @@
       <c r="F113" s="37" t="s">
         <v>258</v>
       </c>
-      <c r="G113" s="88"/>
-      <c r="H113" s="87"/>
+      <c r="G113" s="60">
+        <v>44369</v>
+      </c>
+      <c r="H113" s="90" t="s">
+        <v>228</v>
+      </c>
       <c r="I113" s="32"/>
-      <c r="J113" s="17"/>
+      <c r="J113" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K113" s="17"/>
     </row>
-    <row r="114" spans="1:11" ht="15.75">
+    <row r="114" spans="1:11" ht="47.25" customHeight="1">
       <c r="A114" s="17"/>
-      <c r="B114" s="72"/>
-      <c r="C114" s="37"/>
-      <c r="D114" s="72"/>
-      <c r="E114" s="37"/>
-      <c r="F114" s="37"/>
+      <c r="B114" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="C114" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D114" s="94" t="s">
+        <v>373</v>
+      </c>
+      <c r="E114" s="94" t="s">
+        <v>374</v>
+      </c>
+      <c r="F114" s="37" t="s">
+        <v>375</v>
+      </c>
       <c r="G114" s="17"/>
       <c r="H114" s="17"/>
       <c r="I114" s="32"/>
       <c r="J114" s="17"/>
       <c r="K114" s="17"/>
     </row>
-    <row r="115" spans="1:11" ht="11.25" customHeight="1">
+    <row r="115" spans="1:11" ht="31.5">
       <c r="A115" s="17"/>
       <c r="B115" s="72"/>
-      <c r="C115" s="37"/>
-      <c r="D115" s="73"/>
-      <c r="E115" s="37"/>
-      <c r="F115" s="37"/>
+      <c r="C115" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D115" s="95"/>
+      <c r="E115" s="95"/>
+      <c r="F115" s="37" t="s">
+        <v>376</v>
+      </c>
       <c r="G115" s="17"/>
       <c r="H115" s="17"/>
       <c r="I115" s="32"/>
       <c r="J115" s="17"/>
       <c r="K115" s="17"/>
     </row>
-    <row r="116" spans="1:11" ht="11.25" customHeight="1">
+    <row r="116" spans="1:11" ht="31.5">
       <c r="A116" s="17"/>
       <c r="B116" s="72"/>
-      <c r="C116" s="37"/>
-      <c r="D116" s="73"/>
-      <c r="E116" s="37"/>
-      <c r="F116" s="37"/>
+      <c r="C116" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D116" s="95"/>
+      <c r="E116" s="95"/>
+      <c r="F116" s="37" t="s">
+        <v>377</v>
+      </c>
       <c r="G116" s="17"/>
       <c r="H116" s="17"/>
       <c r="I116" s="32"/>
       <c r="J116" s="17"/>
       <c r="K116" s="17"/>
     </row>
-    <row r="117" spans="1:11" ht="11.25" customHeight="1">
+    <row r="117" spans="1:11" ht="31.5">
       <c r="A117" s="17"/>
       <c r="B117" s="72"/>
-      <c r="C117" s="37"/>
-      <c r="D117" s="73"/>
-      <c r="E117" s="37"/>
-      <c r="F117" s="37"/>
+      <c r="C117" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D117" s="95"/>
+      <c r="E117" s="95"/>
+      <c r="F117" s="37" t="s">
+        <v>378</v>
+      </c>
       <c r="G117" s="17"/>
       <c r="H117" s="17"/>
       <c r="I117" s="32"/>
       <c r="J117" s="17"/>
       <c r="K117" s="17"/>
     </row>
-    <row r="118" spans="1:11" ht="11.25" customHeight="1">
+    <row r="118" spans="1:11" ht="31.5">
       <c r="A118" s="17"/>
       <c r="B118" s="72"/>
-      <c r="C118" s="37"/>
-      <c r="D118" s="73"/>
-      <c r="E118" s="37"/>
-      <c r="F118" s="37"/>
+      <c r="C118" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D118" s="95"/>
+      <c r="E118" s="95"/>
+      <c r="F118" s="37" t="s">
+        <v>379</v>
+      </c>
       <c r="G118" s="17"/>
       <c r="H118" s="17"/>
       <c r="I118" s="32"/>
       <c r="J118" s="17"/>
       <c r="K118" s="17"/>
     </row>
-    <row r="119" spans="1:11" ht="11.25" customHeight="1">
+    <row r="119" spans="1:11" ht="31.5">
       <c r="A119" s="17"/>
       <c r="B119" s="72"/>
-      <c r="C119" s="37"/>
-      <c r="D119" s="73"/>
-      <c r="E119" s="37"/>
-      <c r="F119" s="37"/>
+      <c r="C119" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D119" s="95"/>
+      <c r="E119" s="95"/>
+      <c r="F119" s="37" t="s">
+        <v>380</v>
+      </c>
       <c r="G119" s="17"/>
       <c r="H119" s="17"/>
       <c r="I119" s="32"/>
       <c r="J119" s="17"/>
       <c r="K119" s="17"/>
     </row>
-    <row r="120" spans="1:11" ht="11.25" customHeight="1">
+    <row r="120" spans="1:11" ht="31.5">
       <c r="A120" s="17"/>
       <c r="B120" s="72"/>
-      <c r="C120" s="37"/>
-      <c r="D120" s="73"/>
-      <c r="E120" s="37"/>
-      <c r="F120" s="37"/>
+      <c r="C120" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D120" s="95"/>
+      <c r="E120" s="95"/>
+      <c r="F120" s="37" t="s">
+        <v>381</v>
+      </c>
       <c r="G120" s="17"/>
       <c r="H120" s="17"/>
       <c r="I120" s="32"/>
       <c r="J120" s="17"/>
       <c r="K120" s="17"/>
     </row>
-    <row r="121" spans="1:11" ht="11.25" customHeight="1">
+    <row r="121" spans="1:11" ht="31.5">
       <c r="A121" s="17"/>
       <c r="B121" s="72"/>
-      <c r="C121" s="37"/>
-      <c r="D121" s="73"/>
-      <c r="E121" s="37"/>
-      <c r="F121" s="37"/>
+      <c r="C121" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D121" s="95"/>
+      <c r="E121" s="95"/>
+      <c r="F121" s="37" t="s">
+        <v>382</v>
+      </c>
       <c r="G121" s="17"/>
       <c r="H121" s="17"/>
       <c r="I121" s="32"/>
       <c r="J121" s="17"/>
       <c r="K121" s="17"/>
     </row>
-    <row r="122" spans="1:11" ht="11.25" customHeight="1">
+    <row r="122" spans="1:11" ht="31.5">
       <c r="A122" s="17"/>
       <c r="B122" s="72"/>
-      <c r="C122" s="37"/>
-      <c r="D122" s="73"/>
-      <c r="E122" s="37"/>
-      <c r="F122" s="37"/>
+      <c r="C122" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D122" s="95"/>
+      <c r="E122" s="95"/>
+      <c r="F122" s="37" t="s">
+        <v>383</v>
+      </c>
       <c r="G122" s="17"/>
       <c r="H122" s="17"/>
       <c r="I122" s="32"/>
       <c r="J122" s="17"/>
       <c r="K122" s="17"/>
     </row>
-    <row r="123" spans="1:11" ht="11.25" customHeight="1">
+    <row r="123" spans="1:11" ht="31.5">
       <c r="A123" s="17"/>
       <c r="B123" s="72"/>
-      <c r="C123" s="37"/>
-      <c r="D123" s="73"/>
-      <c r="E123" s="37"/>
-      <c r="F123" s="37"/>
+      <c r="C123" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D123" s="95"/>
+      <c r="E123" s="95"/>
+      <c r="F123" s="37" t="s">
+        <v>384</v>
+      </c>
       <c r="G123" s="17"/>
       <c r="H123" s="17"/>
       <c r="I123" s="32"/>
       <c r="J123" s="17"/>
       <c r="K123" s="17"/>
     </row>
-    <row r="124" spans="1:11" ht="11.25" customHeight="1">
+    <row r="124" spans="1:11" ht="31.5">
       <c r="A124" s="17"/>
       <c r="B124" s="72"/>
-      <c r="C124" s="37"/>
-      <c r="D124" s="73"/>
-      <c r="E124" s="37"/>
-      <c r="F124" s="37"/>
+      <c r="C124" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D124" s="95"/>
+      <c r="E124" s="95"/>
+      <c r="F124" s="37" t="s">
+        <v>385</v>
+      </c>
       <c r="G124" s="17"/>
       <c r="H124" s="17"/>
       <c r="I124" s="32"/>
       <c r="J124" s="17"/>
       <c r="K124" s="17"/>
     </row>
-    <row r="125" spans="1:11" ht="11.25" customHeight="1">
+    <row r="125" spans="1:11" ht="31.5">
       <c r="A125" s="17"/>
       <c r="B125" s="72"/>
-      <c r="C125" s="37"/>
-      <c r="D125" s="73"/>
-      <c r="E125" s="37"/>
-      <c r="F125" s="37"/>
+      <c r="C125" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D125" s="96"/>
+      <c r="E125" s="96"/>
+      <c r="F125" s="37" t="s">
+        <v>386</v>
+      </c>
       <c r="G125" s="17"/>
       <c r="H125" s="17"/>
       <c r="I125" s="32"/>
       <c r="J125" s="17"/>
       <c r="K125" s="17"/>
     </row>
-    <row r="126" spans="1:11" ht="11.25" customHeight="1">
+    <row r="126" spans="1:11" ht="47.25">
       <c r="A126" s="17"/>
-      <c r="B126" s="72"/>
-      <c r="C126" s="37"/>
-      <c r="D126" s="73"/>
-      <c r="E126" s="37"/>
-      <c r="F126" s="37"/>
+      <c r="B126" s="72" t="s">
+        <v>157</v>
+      </c>
+      <c r="C126" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D126" s="72" t="s">
+        <v>388</v>
+      </c>
+      <c r="E126" s="120" t="s">
+        <v>387</v>
+      </c>
+      <c r="F126" s="37" t="s">
+        <v>389</v>
+      </c>
       <c r="G126" s="17"/>
       <c r="H126" s="17"/>
       <c r="I126" s="32"/>
       <c r="J126" s="17"/>
       <c r="K126" s="17"/>
     </row>
-    <row r="127" spans="1:11" ht="11.25" customHeight="1">
+    <row r="127" spans="1:11" ht="31.5">
       <c r="A127" s="17"/>
-      <c r="B127" s="72"/>
-      <c r="C127" s="37"/>
-      <c r="D127" s="73"/>
-      <c r="E127" s="37"/>
-      <c r="F127" s="37"/>
+      <c r="B127" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="C127" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="D127" s="37" t="s">
+        <v>390</v>
+      </c>
+      <c r="E127" s="120" t="s">
+        <v>387</v>
+      </c>
+      <c r="F127" s="37" t="s">
+        <v>391</v>
+      </c>
       <c r="G127" s="17"/>
       <c r="H127" s="17"/>
       <c r="I127" s="32"/>
       <c r="J127" s="17"/>
       <c r="K127" s="17"/>
     </row>
-    <row r="128" spans="1:11" ht="11.25" customHeight="1">
+    <row r="128" spans="1:11" ht="47.25">
       <c r="A128" s="17"/>
-      <c r="B128" s="72"/>
-      <c r="C128" s="37"/>
-      <c r="D128" s="73"/>
-      <c r="E128" s="37"/>
-      <c r="F128" s="37"/>
+      <c r="B128" s="72" t="s">
+        <v>157</v>
+      </c>
+      <c r="C128" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="D128" s="72" t="s">
+        <v>392</v>
+      </c>
+      <c r="E128" s="72" t="s">
+        <v>394</v>
+      </c>
+      <c r="F128" s="37" t="s">
+        <v>397</v>
+      </c>
       <c r="G128" s="17"/>
       <c r="H128" s="17"/>
       <c r="I128" s="32"/>
       <c r="J128" s="17"/>
       <c r="K128" s="17"/>
     </row>
-    <row r="129" spans="1:11" ht="11.25" customHeight="1">
+    <row r="129" spans="1:11" ht="31.5">
       <c r="A129" s="17"/>
-      <c r="B129" s="72"/>
-      <c r="C129" s="37"/>
-      <c r="D129" s="73"/>
-      <c r="E129" s="37"/>
-      <c r="F129" s="37"/>
+      <c r="B129" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="C129" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D129" s="94" t="s">
+        <v>392</v>
+      </c>
+      <c r="E129" s="94" t="s">
+        <v>394</v>
+      </c>
+      <c r="F129" s="37" t="s">
+        <v>398</v>
+      </c>
       <c r="G129" s="17"/>
       <c r="H129" s="17"/>
       <c r="I129" s="32"/>
       <c r="J129" s="17"/>
       <c r="K129" s="17"/>
     </row>
-    <row r="130" spans="1:11" ht="11.25" customHeight="1">
+    <row r="130" spans="1:11" ht="31.5">
       <c r="A130" s="17"/>
       <c r="B130" s="72"/>
-      <c r="C130" s="37"/>
-      <c r="D130" s="73"/>
-      <c r="E130" s="37"/>
-      <c r="F130" s="37"/>
+      <c r="C130" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D130" s="95"/>
+      <c r="E130" s="95"/>
+      <c r="F130" s="37" t="s">
+        <v>399</v>
+      </c>
       <c r="G130" s="17"/>
       <c r="H130" s="17"/>
       <c r="I130" s="32"/>
       <c r="J130" s="17"/>
       <c r="K130" s="17"/>
     </row>
-    <row r="131" spans="1:11" ht="11.25" customHeight="1">
+    <row r="131" spans="1:11" ht="31.5">
       <c r="A131" s="17"/>
       <c r="B131" s="72"/>
-      <c r="C131" s="37"/>
-      <c r="D131" s="73"/>
-      <c r="E131" s="37"/>
-      <c r="F131" s="37"/>
+      <c r="C131" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D131" s="95"/>
+      <c r="E131" s="95"/>
+      <c r="F131" s="37" t="s">
+        <v>400</v>
+      </c>
       <c r="G131" s="17"/>
       <c r="H131" s="17"/>
       <c r="I131" s="32"/>
       <c r="J131" s="17"/>
       <c r="K131" s="17"/>
     </row>
-    <row r="132" spans="1:11" ht="11.25" customHeight="1">
+    <row r="132" spans="1:11" ht="31.5">
       <c r="A132" s="17"/>
       <c r="B132" s="72"/>
-      <c r="C132" s="37"/>
-      <c r="D132" s="73"/>
-      <c r="E132" s="37"/>
-      <c r="F132" s="37"/>
+      <c r="C132" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D132" s="95"/>
+      <c r="E132" s="95"/>
+      <c r="F132" s="37" t="s">
+        <v>401</v>
+      </c>
       <c r="G132" s="17"/>
       <c r="H132" s="17"/>
       <c r="I132" s="32"/>
       <c r="J132" s="17"/>
       <c r="K132" s="17"/>
     </row>
-    <row r="133" spans="1:11" ht="11.25" customHeight="1">
+    <row r="133" spans="1:11" ht="31.5">
       <c r="A133" s="17"/>
       <c r="B133" s="72"/>
-      <c r="C133" s="37"/>
-      <c r="D133" s="73"/>
-      <c r="E133" s="37"/>
-      <c r="F133" s="37"/>
+      <c r="C133" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D133" s="95"/>
+      <c r="E133" s="95"/>
+      <c r="F133" s="37" t="s">
+        <v>402</v>
+      </c>
       <c r="G133" s="17"/>
       <c r="H133" s="17"/>
       <c r="I133" s="32"/>
       <c r="J133" s="17"/>
       <c r="K133" s="17"/>
     </row>
-    <row r="134" spans="1:11" ht="11.25" customHeight="1">
+    <row r="134" spans="1:11" ht="31.5">
       <c r="A134" s="17"/>
       <c r="B134" s="72"/>
-      <c r="C134" s="37"/>
-      <c r="D134" s="73"/>
-      <c r="E134" s="37"/>
-      <c r="F134" s="37"/>
+      <c r="C134" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D134" s="95"/>
+      <c r="E134" s="95"/>
+      <c r="F134" s="37" t="s">
+        <v>403</v>
+      </c>
       <c r="G134" s="17"/>
       <c r="H134" s="17"/>
       <c r="I134" s="32"/>
       <c r="J134" s="17"/>
       <c r="K134" s="17"/>
     </row>
-    <row r="135" spans="1:11" ht="11.25" customHeight="1">
+    <row r="135" spans="1:11" ht="31.5">
       <c r="A135" s="17"/>
       <c r="B135" s="72"/>
-      <c r="C135" s="37"/>
-      <c r="D135" s="73"/>
-      <c r="E135" s="37"/>
-      <c r="F135" s="37"/>
+      <c r="C135" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D135" s="95"/>
+      <c r="E135" s="95"/>
+      <c r="F135" s="37" t="s">
+        <v>404</v>
+      </c>
       <c r="G135" s="17"/>
       <c r="H135" s="17"/>
       <c r="I135" s="32"/>
       <c r="J135" s="17"/>
       <c r="K135" s="17"/>
     </row>
-    <row r="136" spans="1:11" ht="11.25" customHeight="1">
+    <row r="136" spans="1:11" ht="31.5">
       <c r="A136" s="17"/>
       <c r="B136" s="72"/>
-      <c r="C136" s="37"/>
-      <c r="D136" s="73"/>
-      <c r="E136" s="37"/>
-      <c r="F136" s="37"/>
+      <c r="C136" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D136" s="95"/>
+      <c r="E136" s="95"/>
+      <c r="F136" s="37" t="s">
+        <v>405</v>
+      </c>
       <c r="G136" s="17"/>
       <c r="H136" s="17"/>
       <c r="I136" s="32"/>
       <c r="J136" s="17"/>
       <c r="K136" s="17"/>
     </row>
-    <row r="137" spans="1:11" ht="11.25" customHeight="1">
+    <row r="137" spans="1:11" ht="31.5">
       <c r="A137" s="17"/>
       <c r="B137" s="72"/>
-      <c r="C137" s="37"/>
-      <c r="D137" s="73"/>
-      <c r="E137" s="37"/>
-      <c r="F137" s="37"/>
+      <c r="C137" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D137" s="95"/>
+      <c r="E137" s="95"/>
+      <c r="F137" s="37" t="s">
+        <v>406</v>
+      </c>
       <c r="G137" s="17"/>
       <c r="H137" s="17"/>
       <c r="I137" s="32"/>
       <c r="J137" s="17"/>
       <c r="K137" s="17"/>
     </row>
-    <row r="138" spans="1:11" ht="11.25" customHeight="1">
+    <row r="138" spans="1:11" ht="31.5">
       <c r="A138" s="17"/>
       <c r="B138" s="72"/>
-      <c r="C138" s="37"/>
-      <c r="D138" s="73"/>
-      <c r="E138" s="37"/>
-      <c r="F138" s="37"/>
+      <c r="C138" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D138" s="95"/>
+      <c r="E138" s="95"/>
+      <c r="F138" s="37" t="s">
+        <v>407</v>
+      </c>
       <c r="G138" s="17"/>
       <c r="H138" s="17"/>
       <c r="I138" s="32"/>
       <c r="J138" s="17"/>
       <c r="K138" s="17"/>
     </row>
-    <row r="139" spans="1:11" ht="11.25" customHeight="1">
+    <row r="139" spans="1:11" ht="31.5">
       <c r="A139" s="17"/>
       <c r="B139" s="72"/>
-      <c r="C139" s="37"/>
-      <c r="D139" s="73"/>
-      <c r="E139" s="37"/>
-      <c r="F139" s="37"/>
+      <c r="C139" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D139" s="95"/>
+      <c r="E139" s="95"/>
+      <c r="F139" s="37" t="s">
+        <v>408</v>
+      </c>
       <c r="G139" s="17"/>
       <c r="H139" s="17"/>
       <c r="I139" s="32"/>
       <c r="J139" s="17"/>
       <c r="K139" s="17"/>
     </row>
-    <row r="140" spans="1:11" ht="11.25" customHeight="1">
+    <row r="140" spans="1:11" ht="31.5">
       <c r="A140" s="17"/>
       <c r="B140" s="72"/>
-      <c r="C140" s="37"/>
-      <c r="D140" s="73"/>
-      <c r="E140" s="37"/>
-      <c r="F140" s="37"/>
+      <c r="C140" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D140" s="96"/>
+      <c r="E140" s="96"/>
+      <c r="F140" s="37" t="s">
+        <v>409</v>
+      </c>
       <c r="G140" s="17"/>
       <c r="H140" s="17"/>
       <c r="I140" s="32"/>
       <c r="J140" s="17"/>
       <c r="K140" s="17"/>
     </row>
-    <row r="141" spans="1:11" ht="11.25" customHeight="1">
+    <row r="141" spans="1:11" ht="47.25">
       <c r="A141" s="17"/>
-      <c r="B141" s="72"/>
-      <c r="C141" s="37"/>
-      <c r="D141" s="73"/>
-      <c r="E141" s="37"/>
-      <c r="F141" s="37"/>
+      <c r="B141" s="72" t="s">
+        <v>157</v>
+      </c>
+      <c r="C141" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="D141" s="72" t="s">
+        <v>393</v>
+      </c>
+      <c r="E141" s="72" t="s">
+        <v>395</v>
+      </c>
+      <c r="F141" s="37" t="s">
+        <v>396</v>
+      </c>
       <c r="G141" s="17"/>
       <c r="H141" s="17"/>
       <c r="I141" s="32"/>
       <c r="J141" s="17"/>
       <c r="K141" s="17"/>
     </row>
-    <row r="142" spans="1:11" ht="11.25" customHeight="1">
+    <row r="142" spans="1:11" ht="47.25">
       <c r="A142" s="17"/>
-      <c r="B142" s="72"/>
-      <c r="C142" s="37"/>
-      <c r="D142" s="73"/>
-      <c r="E142" s="37"/>
-      <c r="F142" s="37"/>
+      <c r="B142" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="C142" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="D142" s="72" t="s">
+        <v>393</v>
+      </c>
+      <c r="E142" s="72" t="s">
+        <v>395</v>
+      </c>
+      <c r="F142" s="37" t="s">
+        <v>410</v>
+      </c>
       <c r="G142" s="17"/>
       <c r="H142" s="17"/>
       <c r="I142" s="32"/>
       <c r="J142" s="17"/>
       <c r="K142" s="17"/>
     </row>
-    <row r="143" spans="1:11" ht="11.25" customHeight="1">
+    <row r="143" spans="1:11" ht="15.75">
       <c r="A143" s="17"/>
-      <c r="B143" s="72"/>
-      <c r="C143" s="37"/>
-      <c r="D143" s="73"/>
-      <c r="E143" s="37"/>
-      <c r="F143" s="37"/>
+      <c r="B143" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="C143" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="D143" s="94" t="s">
+        <v>412</v>
+      </c>
+      <c r="E143" s="94" t="s">
+        <v>411</v>
+      </c>
+      <c r="F143" s="37" t="s">
+        <v>413</v>
+      </c>
       <c r="G143" s="17"/>
       <c r="H143" s="17"/>
       <c r="I143" s="32"/>
       <c r="J143" s="17"/>
       <c r="K143" s="17"/>
     </row>
-    <row r="144" spans="1:11" ht="11.25" customHeight="1">
+    <row r="144" spans="1:11" ht="31.5">
       <c r="A144" s="17"/>
       <c r="B144" s="72"/>
-      <c r="C144" s="37"/>
-      <c r="D144" s="73"/>
-      <c r="E144" s="37"/>
-      <c r="F144" s="37"/>
+      <c r="C144" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="D144" s="96"/>
+      <c r="E144" s="96"/>
+      <c r="F144" s="37" t="s">
+        <v>414</v>
+      </c>
       <c r="G144" s="17"/>
       <c r="H144" s="17"/>
       <c r="I144" s="32"/>
       <c r="J144" s="17"/>
       <c r="K144" s="17"/>
     </row>
-    <row r="145" spans="1:11" ht="11.25" customHeight="1">
+    <row r="145" spans="1:11" ht="47.25">
       <c r="A145" s="17"/>
-      <c r="B145" s="72"/>
-      <c r="C145" s="37"/>
-      <c r="D145" s="73"/>
-      <c r="E145" s="37"/>
-      <c r="F145" s="37"/>
+      <c r="B145" s="72" t="s">
+        <v>157</v>
+      </c>
+      <c r="C145" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="D145" s="72" t="s">
+        <v>415</v>
+      </c>
+      <c r="E145" s="72" t="s">
+        <v>417</v>
+      </c>
+      <c r="F145" s="37" t="s">
+        <v>418</v>
+      </c>
       <c r="G145" s="17"/>
       <c r="H145" s="17"/>
       <c r="I145" s="32"/>
       <c r="J145" s="17"/>
       <c r="K145" s="17"/>
     </row>
-    <row r="146" spans="1:11" ht="11.25" customHeight="1">
+    <row r="146" spans="1:11" ht="31.5">
       <c r="A146" s="17"/>
-      <c r="B146" s="72"/>
-      <c r="C146" s="37"/>
-      <c r="D146" s="73"/>
-      <c r="E146" s="37"/>
-      <c r="F146" s="37"/>
+      <c r="B146" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C146" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="D146" s="83" t="s">
+        <v>419</v>
+      </c>
+      <c r="E146" s="31" t="s">
+        <v>420</v>
+      </c>
+      <c r="F146" s="32" t="s">
+        <v>421</v>
+      </c>
       <c r="G146" s="17"/>
       <c r="H146" s="17"/>
       <c r="I146" s="32"/>
       <c r="J146" s="17"/>
       <c r="K146" s="17"/>
     </row>
-    <row r="147" spans="1:11" ht="11.25" customHeight="1">
+    <row r="147" spans="1:11" ht="47.25">
       <c r="A147" s="17"/>
-      <c r="B147" s="72"/>
-      <c r="C147" s="37"/>
-      <c r="D147" s="73"/>
-      <c r="E147" s="37"/>
-      <c r="F147" s="37"/>
+      <c r="B147" s="72" t="s">
+        <v>157</v>
+      </c>
+      <c r="C147" s="37" t="s">
+        <v>425</v>
+      </c>
+      <c r="D147" s="72" t="s">
+        <v>422</v>
+      </c>
+      <c r="E147" s="72" t="s">
+        <v>435</v>
+      </c>
+      <c r="F147" s="37" t="s">
+        <v>426</v>
+      </c>
       <c r="G147" s="17"/>
       <c r="H147" s="17"/>
       <c r="I147" s="32"/>
       <c r="J147" s="17"/>
       <c r="K147" s="17"/>
     </row>
-    <row r="148" spans="1:11" ht="11.25" customHeight="1">
+    <row r="148" spans="1:11" ht="47.25">
       <c r="A148" s="17"/>
       <c r="B148" s="72"/>
-      <c r="C148" s="37"/>
-      <c r="D148" s="73"/>
-      <c r="E148" s="37"/>
-      <c r="F148" s="37"/>
+      <c r="C148" s="37" t="s">
+        <v>425</v>
+      </c>
+      <c r="D148" s="72" t="s">
+        <v>423</v>
+      </c>
+      <c r="E148" s="72" t="s">
+        <v>434</v>
+      </c>
+      <c r="F148" s="37" t="s">
+        <v>427</v>
+      </c>
       <c r="G148" s="17"/>
       <c r="H148" s="17"/>
       <c r="I148" s="32"/>
       <c r="J148" s="17"/>
       <c r="K148" s="17"/>
     </row>
-    <row r="149" spans="1:11" ht="11.25" customHeight="1">
+    <row r="149" spans="1:11" ht="47.25">
       <c r="A149" s="17"/>
       <c r="B149" s="72"/>
-      <c r="C149" s="37"/>
-      <c r="D149" s="73"/>
-      <c r="E149" s="37"/>
-      <c r="F149" s="37"/>
+      <c r="C149" s="37" t="s">
+        <v>425</v>
+      </c>
+      <c r="D149" s="72" t="s">
+        <v>424</v>
+      </c>
+      <c r="E149" s="72" t="s">
+        <v>433</v>
+      </c>
+      <c r="F149" s="37" t="s">
+        <v>428</v>
+      </c>
       <c r="G149" s="17"/>
       <c r="H149" s="17"/>
       <c r="I149" s="32"/>
       <c r="J149" s="17"/>
       <c r="K149" s="17"/>
     </row>
-    <row r="150" spans="1:11" ht="11.25" customHeight="1">
+    <row r="150" spans="1:11" ht="47.25">
       <c r="A150" s="17"/>
       <c r="B150" s="72"/>
-      <c r="C150" s="37"/>
-      <c r="D150" s="73"/>
-      <c r="E150" s="37"/>
-      <c r="F150" s="37"/>
+      <c r="C150" s="37" t="s">
+        <v>425</v>
+      </c>
+      <c r="D150" s="72" t="s">
+        <v>429</v>
+      </c>
+      <c r="E150" s="72" t="s">
+        <v>432</v>
+      </c>
+      <c r="F150" s="37" t="s">
+        <v>438</v>
+      </c>
       <c r="G150" s="17"/>
       <c r="H150" s="17"/>
       <c r="I150" s="32"/>
       <c r="J150" s="17"/>
       <c r="K150" s="17"/>
     </row>
-    <row r="151" spans="1:11" ht="11.25" customHeight="1">
+    <row r="151" spans="1:11" ht="47.25">
       <c r="A151" s="17"/>
       <c r="B151" s="72"/>
-      <c r="C151" s="37"/>
-      <c r="D151" s="73"/>
-      <c r="E151" s="37"/>
-      <c r="F151" s="37"/>
+      <c r="C151" s="37" t="s">
+        <v>425</v>
+      </c>
+      <c r="D151" s="72" t="s">
+        <v>430</v>
+      </c>
+      <c r="E151" s="72" t="s">
+        <v>436</v>
+      </c>
+      <c r="F151" s="37" t="s">
+        <v>439</v>
+      </c>
       <c r="G151" s="17"/>
       <c r="H151" s="17"/>
       <c r="I151" s="32"/>
       <c r="J151" s="17"/>
       <c r="K151" s="17"/>
     </row>
-    <row r="152" spans="1:11" ht="11.25" customHeight="1">
+    <row r="152" spans="1:11" ht="47.25">
       <c r="A152" s="17"/>
       <c r="B152" s="72"/>
-      <c r="C152" s="37"/>
-      <c r="D152" s="73"/>
-      <c r="E152" s="37"/>
-      <c r="F152" s="37"/>
+      <c r="C152" s="37" t="s">
+        <v>425</v>
+      </c>
+      <c r="D152" s="72" t="s">
+        <v>431</v>
+      </c>
+      <c r="E152" s="72" t="s">
+        <v>437</v>
+      </c>
+      <c r="F152" s="37" t="s">
+        <v>440</v>
+      </c>
       <c r="G152" s="17"/>
       <c r="H152" s="17"/>
       <c r="I152" s="32"/>
@@ -16455,8 +18113,2375 @@
       <c r="J164" s="17"/>
       <c r="K164" s="17"/>
     </row>
+    <row r="165" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A165" s="17"/>
+      <c r="B165" s="72"/>
+      <c r="C165" s="37"/>
+      <c r="D165" s="73"/>
+      <c r="E165" s="37"/>
+      <c r="F165" s="37"/>
+      <c r="G165" s="17"/>
+      <c r="H165" s="17"/>
+      <c r="I165" s="32"/>
+      <c r="J165" s="17"/>
+      <c r="K165" s="17"/>
+    </row>
+    <row r="166" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A166" s="17"/>
+      <c r="B166" s="72"/>
+      <c r="C166" s="37"/>
+      <c r="D166" s="73"/>
+      <c r="E166" s="37"/>
+      <c r="F166" s="37"/>
+      <c r="G166" s="17"/>
+      <c r="H166" s="17"/>
+      <c r="I166" s="32"/>
+      <c r="J166" s="17"/>
+      <c r="K166" s="17"/>
+    </row>
+    <row r="167" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A167" s="17"/>
+      <c r="B167" s="72"/>
+      <c r="C167" s="37"/>
+      <c r="D167" s="73"/>
+      <c r="E167" s="37"/>
+      <c r="F167" s="37"/>
+      <c r="G167" s="17"/>
+      <c r="H167" s="17"/>
+      <c r="I167" s="32"/>
+      <c r="J167" s="17"/>
+      <c r="K167" s="17"/>
+    </row>
+    <row r="168" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A168" s="17"/>
+      <c r="B168" s="72"/>
+      <c r="C168" s="37"/>
+      <c r="D168" s="73"/>
+      <c r="E168" s="37"/>
+      <c r="F168" s="37"/>
+      <c r="G168" s="17"/>
+      <c r="H168" s="17"/>
+      <c r="I168" s="32"/>
+      <c r="J168" s="17"/>
+      <c r="K168" s="17"/>
+    </row>
+    <row r="169" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A169" s="17"/>
+      <c r="B169" s="72"/>
+      <c r="C169" s="37"/>
+      <c r="D169" s="73"/>
+      <c r="E169" s="37"/>
+      <c r="F169" s="37"/>
+      <c r="G169" s="17"/>
+      <c r="H169" s="17"/>
+      <c r="I169" s="32"/>
+      <c r="J169" s="17"/>
+      <c r="K169" s="17"/>
+    </row>
+    <row r="170" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A170" s="17"/>
+      <c r="B170" s="72"/>
+      <c r="C170" s="37"/>
+      <c r="D170" s="73"/>
+      <c r="E170" s="37"/>
+      <c r="F170" s="37"/>
+      <c r="G170" s="17"/>
+      <c r="H170" s="17"/>
+      <c r="I170" s="32"/>
+      <c r="J170" s="17"/>
+      <c r="K170" s="17"/>
+    </row>
+    <row r="171" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A171" s="17"/>
+      <c r="B171" s="72"/>
+      <c r="C171" s="37"/>
+      <c r="D171" s="73"/>
+      <c r="E171" s="37"/>
+      <c r="F171" s="37"/>
+      <c r="G171" s="17"/>
+      <c r="H171" s="17"/>
+      <c r="I171" s="32"/>
+      <c r="J171" s="17"/>
+      <c r="K171" s="17"/>
+    </row>
+    <row r="172" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A172" s="17"/>
+      <c r="B172" s="72"/>
+      <c r="C172" s="37"/>
+      <c r="D172" s="73"/>
+      <c r="E172" s="37"/>
+      <c r="F172" s="37"/>
+      <c r="G172" s="17"/>
+      <c r="H172" s="17"/>
+      <c r="I172" s="32"/>
+      <c r="J172" s="17"/>
+      <c r="K172" s="17"/>
+    </row>
+    <row r="173" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A173" s="17"/>
+      <c r="B173" s="72"/>
+      <c r="C173" s="37"/>
+      <c r="D173" s="73"/>
+      <c r="E173" s="37"/>
+      <c r="F173" s="37"/>
+      <c r="G173" s="17"/>
+      <c r="H173" s="17"/>
+      <c r="I173" s="32"/>
+      <c r="J173" s="17"/>
+      <c r="K173" s="17"/>
+    </row>
+    <row r="174" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A174" s="17"/>
+      <c r="B174" s="72"/>
+      <c r="C174" s="37"/>
+      <c r="D174" s="73"/>
+      <c r="E174" s="37"/>
+      <c r="F174" s="37"/>
+      <c r="G174" s="17"/>
+      <c r="H174" s="17"/>
+      <c r="I174" s="32"/>
+      <c r="J174" s="17"/>
+      <c r="K174" s="17"/>
+    </row>
+    <row r="175" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A175" s="17"/>
+      <c r="B175" s="72"/>
+      <c r="C175" s="37"/>
+      <c r="D175" s="73"/>
+      <c r="E175" s="37"/>
+      <c r="F175" s="37"/>
+      <c r="G175" s="17"/>
+      <c r="H175" s="17"/>
+      <c r="I175" s="32"/>
+      <c r="J175" s="17"/>
+      <c r="K175" s="17"/>
+    </row>
+    <row r="176" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A176" s="17"/>
+      <c r="B176" s="72"/>
+      <c r="C176" s="37"/>
+      <c r="D176" s="73"/>
+      <c r="E176" s="37"/>
+      <c r="F176" s="37"/>
+      <c r="G176" s="17"/>
+      <c r="H176" s="17"/>
+      <c r="I176" s="32"/>
+      <c r="J176" s="17"/>
+      <c r="K176" s="17"/>
+    </row>
+    <row r="177" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A177" s="17"/>
+      <c r="B177" s="72"/>
+      <c r="C177" s="37"/>
+      <c r="D177" s="73"/>
+      <c r="E177" s="37"/>
+      <c r="F177" s="37"/>
+      <c r="G177" s="17"/>
+      <c r="H177" s="17"/>
+      <c r="I177" s="32"/>
+      <c r="J177" s="17"/>
+      <c r="K177" s="17"/>
+    </row>
+    <row r="178" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A178" s="17"/>
+      <c r="B178" s="72"/>
+      <c r="C178" s="37"/>
+      <c r="D178" s="73"/>
+      <c r="E178" s="37"/>
+      <c r="F178" s="37"/>
+      <c r="G178" s="17"/>
+      <c r="H178" s="17"/>
+      <c r="I178" s="32"/>
+      <c r="J178" s="17"/>
+      <c r="K178" s="17"/>
+    </row>
+    <row r="179" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A179" s="17"/>
+      <c r="B179" s="72"/>
+      <c r="C179" s="37"/>
+      <c r="D179" s="73"/>
+      <c r="E179" s="37"/>
+      <c r="F179" s="37"/>
+      <c r="G179" s="17"/>
+      <c r="H179" s="17"/>
+      <c r="I179" s="32"/>
+      <c r="J179" s="17"/>
+      <c r="K179" s="17"/>
+    </row>
+    <row r="180" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A180" s="17"/>
+      <c r="B180" s="72"/>
+      <c r="C180" s="37"/>
+      <c r="D180" s="73"/>
+      <c r="E180" s="37"/>
+      <c r="F180" s="37"/>
+      <c r="G180" s="17"/>
+      <c r="H180" s="17"/>
+      <c r="I180" s="32"/>
+      <c r="J180" s="17"/>
+      <c r="K180" s="17"/>
+    </row>
+    <row r="181" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A181" s="17"/>
+      <c r="B181" s="72"/>
+      <c r="C181" s="37"/>
+      <c r="D181" s="73"/>
+      <c r="E181" s="37"/>
+      <c r="F181" s="37"/>
+      <c r="G181" s="17"/>
+      <c r="H181" s="17"/>
+      <c r="I181" s="32"/>
+      <c r="J181" s="17"/>
+      <c r="K181" s="17"/>
+    </row>
+    <row r="182" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A182" s="17"/>
+      <c r="B182" s="72"/>
+      <c r="C182" s="37"/>
+      <c r="D182" s="73"/>
+      <c r="E182" s="37"/>
+      <c r="F182" s="37"/>
+      <c r="G182" s="17"/>
+      <c r="H182" s="17"/>
+      <c r="I182" s="32"/>
+      <c r="J182" s="17"/>
+      <c r="K182" s="17"/>
+    </row>
+    <row r="183" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A183" s="17"/>
+      <c r="B183" s="72"/>
+      <c r="C183" s="37"/>
+      <c r="D183" s="73"/>
+      <c r="E183" s="37"/>
+      <c r="F183" s="37"/>
+      <c r="G183" s="17"/>
+      <c r="H183" s="17"/>
+      <c r="I183" s="32"/>
+      <c r="J183" s="17"/>
+      <c r="K183" s="17"/>
+    </row>
+    <row r="184" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A184" s="17"/>
+      <c r="B184" s="72"/>
+      <c r="C184" s="37"/>
+      <c r="D184" s="73"/>
+      <c r="E184" s="37"/>
+      <c r="F184" s="37"/>
+      <c r="G184" s="17"/>
+      <c r="H184" s="17"/>
+      <c r="I184" s="32"/>
+      <c r="J184" s="17"/>
+      <c r="K184" s="17"/>
+    </row>
+    <row r="185" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A185" s="17"/>
+      <c r="B185" s="72"/>
+      <c r="C185" s="37"/>
+      <c r="D185" s="73"/>
+      <c r="E185" s="37"/>
+      <c r="F185" s="37"/>
+      <c r="G185" s="17"/>
+      <c r="H185" s="17"/>
+      <c r="I185" s="32"/>
+      <c r="J185" s="17"/>
+      <c r="K185" s="17"/>
+    </row>
+    <row r="186" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A186" s="17"/>
+      <c r="B186" s="72"/>
+      <c r="C186" s="37"/>
+      <c r="D186" s="73"/>
+      <c r="E186" s="37"/>
+      <c r="F186" s="37"/>
+      <c r="G186" s="17"/>
+      <c r="H186" s="17"/>
+      <c r="I186" s="32"/>
+      <c r="J186" s="17"/>
+      <c r="K186" s="17"/>
+    </row>
+    <row r="187" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A187" s="17"/>
+      <c r="B187" s="72"/>
+      <c r="C187" s="37"/>
+      <c r="D187" s="73"/>
+      <c r="E187" s="37"/>
+      <c r="F187" s="37"/>
+      <c r="G187" s="17"/>
+      <c r="H187" s="17"/>
+      <c r="I187" s="32"/>
+      <c r="J187" s="17"/>
+      <c r="K187" s="17"/>
+    </row>
+    <row r="188" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A188" s="17"/>
+      <c r="B188" s="72"/>
+      <c r="C188" s="37"/>
+      <c r="D188" s="73"/>
+      <c r="E188" s="37"/>
+      <c r="F188" s="37"/>
+      <c r="G188" s="17"/>
+      <c r="H188" s="17"/>
+      <c r="I188" s="32"/>
+      <c r="J188" s="17"/>
+      <c r="K188" s="17"/>
+    </row>
+    <row r="189" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A189" s="17"/>
+      <c r="B189" s="72"/>
+      <c r="C189" s="37"/>
+      <c r="D189" s="73"/>
+      <c r="E189" s="37"/>
+      <c r="F189" s="37"/>
+      <c r="G189" s="17"/>
+      <c r="H189" s="17"/>
+      <c r="I189" s="32"/>
+      <c r="J189" s="17"/>
+      <c r="K189" s="17"/>
+    </row>
+    <row r="190" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A190" s="17"/>
+      <c r="B190" s="72"/>
+      <c r="C190" s="37"/>
+      <c r="D190" s="73"/>
+      <c r="E190" s="37"/>
+      <c r="F190" s="37"/>
+      <c r="G190" s="17"/>
+      <c r="H190" s="17"/>
+      <c r="I190" s="32"/>
+      <c r="J190" s="17"/>
+      <c r="K190" s="17"/>
+    </row>
+    <row r="191" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A191" s="17"/>
+      <c r="B191" s="72"/>
+      <c r="C191" s="37"/>
+      <c r="D191" s="73"/>
+      <c r="E191" s="37"/>
+      <c r="F191" s="37"/>
+      <c r="G191" s="17"/>
+      <c r="H191" s="17"/>
+      <c r="I191" s="32"/>
+      <c r="J191" s="17"/>
+      <c r="K191" s="17"/>
+    </row>
+    <row r="192" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A192" s="17"/>
+      <c r="B192" s="72"/>
+      <c r="C192" s="37"/>
+      <c r="D192" s="73"/>
+      <c r="E192" s="37"/>
+      <c r="F192" s="37"/>
+      <c r="G192" s="17"/>
+      <c r="H192" s="17"/>
+      <c r="I192" s="32"/>
+      <c r="J192" s="17"/>
+      <c r="K192" s="17"/>
+    </row>
+    <row r="193" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A193" s="17"/>
+      <c r="B193" s="72"/>
+      <c r="C193" s="37"/>
+      <c r="D193" s="73"/>
+      <c r="E193" s="37"/>
+      <c r="F193" s="37"/>
+      <c r="G193" s="17"/>
+      <c r="H193" s="17"/>
+      <c r="I193" s="32"/>
+      <c r="J193" s="17"/>
+      <c r="K193" s="17"/>
+    </row>
+    <row r="194" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A194" s="17"/>
+      <c r="B194" s="72"/>
+      <c r="C194" s="37"/>
+      <c r="D194" s="73"/>
+      <c r="E194" s="37"/>
+      <c r="F194" s="37"/>
+      <c r="G194" s="17"/>
+      <c r="H194" s="17"/>
+      <c r="I194" s="32"/>
+      <c r="J194" s="17"/>
+      <c r="K194" s="17"/>
+    </row>
+    <row r="195" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A195" s="17"/>
+      <c r="B195" s="72"/>
+      <c r="C195" s="37"/>
+      <c r="D195" s="73"/>
+      <c r="E195" s="37"/>
+      <c r="F195" s="37"/>
+      <c r="G195" s="17"/>
+      <c r="H195" s="17"/>
+      <c r="I195" s="32"/>
+      <c r="J195" s="17"/>
+      <c r="K195" s="17"/>
+    </row>
+    <row r="196" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A196" s="17"/>
+      <c r="B196" s="72"/>
+      <c r="C196" s="37"/>
+      <c r="D196" s="73"/>
+      <c r="E196" s="37"/>
+      <c r="F196" s="37"/>
+      <c r="G196" s="17"/>
+      <c r="H196" s="17"/>
+      <c r="I196" s="32"/>
+      <c r="J196" s="17"/>
+      <c r="K196" s="17"/>
+    </row>
+    <row r="197" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A197" s="17"/>
+      <c r="B197" s="72"/>
+      <c r="C197" s="37"/>
+      <c r="D197" s="73"/>
+      <c r="E197" s="37"/>
+      <c r="F197" s="37"/>
+      <c r="G197" s="17"/>
+      <c r="H197" s="17"/>
+      <c r="I197" s="32"/>
+      <c r="J197" s="17"/>
+      <c r="K197" s="17"/>
+    </row>
+    <row r="198" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A198" s="17"/>
+      <c r="B198" s="72"/>
+      <c r="C198" s="37"/>
+      <c r="D198" s="73"/>
+      <c r="E198" s="37"/>
+      <c r="F198" s="37"/>
+      <c r="G198" s="17"/>
+      <c r="H198" s="17"/>
+      <c r="I198" s="32"/>
+      <c r="J198" s="17"/>
+      <c r="K198" s="17"/>
+    </row>
+    <row r="199" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A199" s="17"/>
+      <c r="B199" s="72"/>
+      <c r="C199" s="37"/>
+      <c r="D199" s="73"/>
+      <c r="E199" s="37"/>
+      <c r="F199" s="37"/>
+      <c r="G199" s="17"/>
+      <c r="H199" s="17"/>
+      <c r="I199" s="32"/>
+      <c r="J199" s="17"/>
+      <c r="K199" s="17"/>
+    </row>
+    <row r="200" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A200" s="17"/>
+      <c r="B200" s="72"/>
+      <c r="C200" s="37"/>
+      <c r="D200" s="73"/>
+      <c r="E200" s="37"/>
+      <c r="F200" s="37"/>
+      <c r="G200" s="17"/>
+      <c r="H200" s="17"/>
+      <c r="I200" s="32"/>
+      <c r="J200" s="17"/>
+      <c r="K200" s="17"/>
+    </row>
+    <row r="201" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A201" s="17"/>
+      <c r="B201" s="72"/>
+      <c r="C201" s="37"/>
+      <c r="D201" s="73"/>
+      <c r="E201" s="37"/>
+      <c r="F201" s="37"/>
+      <c r="G201" s="17"/>
+      <c r="H201" s="17"/>
+      <c r="I201" s="32"/>
+      <c r="J201" s="17"/>
+      <c r="K201" s="17"/>
+    </row>
+    <row r="202" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A202" s="17"/>
+      <c r="B202" s="72"/>
+      <c r="C202" s="37"/>
+      <c r="D202" s="73"/>
+      <c r="E202" s="37"/>
+      <c r="F202" s="37"/>
+      <c r="G202" s="17"/>
+      <c r="H202" s="17"/>
+      <c r="I202" s="32"/>
+      <c r="J202" s="17"/>
+      <c r="K202" s="17"/>
+    </row>
+    <row r="203" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A203" s="17"/>
+      <c r="B203" s="72"/>
+      <c r="C203" s="37"/>
+      <c r="D203" s="73"/>
+      <c r="E203" s="37"/>
+      <c r="F203" s="37"/>
+      <c r="G203" s="17"/>
+      <c r="H203" s="17"/>
+      <c r="I203" s="32"/>
+      <c r="J203" s="17"/>
+      <c r="K203" s="17"/>
+    </row>
+    <row r="204" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A204" s="17"/>
+      <c r="B204" s="72"/>
+      <c r="C204" s="37"/>
+      <c r="D204" s="73"/>
+      <c r="E204" s="37"/>
+      <c r="F204" s="37"/>
+      <c r="G204" s="17"/>
+      <c r="H204" s="17"/>
+      <c r="I204" s="32"/>
+      <c r="J204" s="17"/>
+      <c r="K204" s="17"/>
+    </row>
+    <row r="205" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A205" s="17"/>
+      <c r="B205" s="72"/>
+      <c r="C205" s="37"/>
+      <c r="D205" s="73"/>
+      <c r="E205" s="37"/>
+      <c r="F205" s="37"/>
+      <c r="G205" s="17"/>
+      <c r="H205" s="17"/>
+      <c r="I205" s="32"/>
+      <c r="J205" s="17"/>
+      <c r="K205" s="17"/>
+    </row>
+    <row r="206" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A206" s="17"/>
+      <c r="B206" s="72"/>
+      <c r="C206" s="37"/>
+      <c r="D206" s="73"/>
+      <c r="E206" s="37"/>
+      <c r="F206" s="37"/>
+      <c r="G206" s="17"/>
+      <c r="H206" s="17"/>
+      <c r="I206" s="32"/>
+      <c r="J206" s="17"/>
+      <c r="K206" s="17"/>
+    </row>
+    <row r="207" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A207" s="17"/>
+      <c r="B207" s="72"/>
+      <c r="C207" s="37"/>
+      <c r="D207" s="73"/>
+      <c r="E207" s="37"/>
+      <c r="F207" s="37"/>
+      <c r="G207" s="17"/>
+      <c r="H207" s="17"/>
+      <c r="I207" s="32"/>
+      <c r="J207" s="17"/>
+      <c r="K207" s="17"/>
+    </row>
+    <row r="208" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A208" s="17"/>
+      <c r="B208" s="72"/>
+      <c r="C208" s="37"/>
+      <c r="D208" s="73"/>
+      <c r="E208" s="37"/>
+      <c r="F208" s="37"/>
+      <c r="G208" s="17"/>
+      <c r="H208" s="17"/>
+      <c r="I208" s="32"/>
+      <c r="J208" s="17"/>
+      <c r="K208" s="17"/>
+    </row>
+    <row r="209" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A209" s="17"/>
+      <c r="B209" s="72"/>
+      <c r="C209" s="37"/>
+      <c r="D209" s="73"/>
+      <c r="E209" s="37"/>
+      <c r="F209" s="37"/>
+      <c r="G209" s="17"/>
+      <c r="H209" s="17"/>
+      <c r="I209" s="32"/>
+      <c r="J209" s="17"/>
+      <c r="K209" s="17"/>
+    </row>
+    <row r="210" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A210" s="17"/>
+      <c r="B210" s="72"/>
+      <c r="C210" s="37"/>
+      <c r="D210" s="73"/>
+      <c r="E210" s="37"/>
+      <c r="F210" s="37"/>
+      <c r="G210" s="17"/>
+      <c r="H210" s="17"/>
+      <c r="I210" s="32"/>
+      <c r="J210" s="17"/>
+      <c r="K210" s="17"/>
+    </row>
+    <row r="211" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A211" s="17"/>
+      <c r="B211" s="72"/>
+      <c r="C211" s="37"/>
+      <c r="D211" s="73"/>
+      <c r="E211" s="37"/>
+      <c r="F211" s="37"/>
+      <c r="G211" s="17"/>
+      <c r="H211" s="17"/>
+      <c r="I211" s="32"/>
+      <c r="J211" s="17"/>
+      <c r="K211" s="17"/>
+    </row>
+    <row r="212" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A212" s="17"/>
+      <c r="B212" s="72"/>
+      <c r="C212" s="37"/>
+      <c r="D212" s="73"/>
+      <c r="E212" s="37"/>
+      <c r="F212" s="37"/>
+      <c r="G212" s="17"/>
+      <c r="H212" s="17"/>
+      <c r="I212" s="32"/>
+      <c r="J212" s="17"/>
+      <c r="K212" s="17"/>
+    </row>
+    <row r="213" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A213" s="17"/>
+      <c r="B213" s="72"/>
+      <c r="C213" s="37"/>
+      <c r="D213" s="73"/>
+      <c r="E213" s="37"/>
+      <c r="F213" s="37"/>
+      <c r="G213" s="17"/>
+      <c r="H213" s="17"/>
+      <c r="I213" s="32"/>
+      <c r="J213" s="17"/>
+      <c r="K213" s="17"/>
+    </row>
+    <row r="214" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A214" s="17"/>
+      <c r="B214" s="72"/>
+      <c r="C214" s="37"/>
+      <c r="D214" s="73"/>
+      <c r="E214" s="37"/>
+      <c r="F214" s="37"/>
+      <c r="G214" s="17"/>
+      <c r="H214" s="17"/>
+      <c r="I214" s="32"/>
+      <c r="J214" s="17"/>
+      <c r="K214" s="17"/>
+    </row>
+    <row r="215" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A215" s="17"/>
+      <c r="B215" s="72"/>
+      <c r="C215" s="37"/>
+      <c r="D215" s="73"/>
+      <c r="E215" s="37"/>
+      <c r="F215" s="37"/>
+      <c r="G215" s="17"/>
+      <c r="H215" s="17"/>
+      <c r="I215" s="32"/>
+      <c r="J215" s="17"/>
+      <c r="K215" s="17"/>
+    </row>
+    <row r="216" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A216" s="17"/>
+      <c r="B216" s="72"/>
+      <c r="C216" s="37"/>
+      <c r="D216" s="73"/>
+      <c r="E216" s="37"/>
+      <c r="F216" s="37"/>
+      <c r="G216" s="17"/>
+      <c r="H216" s="17"/>
+      <c r="I216" s="32"/>
+      <c r="J216" s="17"/>
+      <c r="K216" s="17"/>
+    </row>
+    <row r="217" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A217" s="17"/>
+      <c r="B217" s="72"/>
+      <c r="C217" s="37"/>
+      <c r="D217" s="73"/>
+      <c r="E217" s="37"/>
+      <c r="F217" s="37"/>
+      <c r="G217" s="17"/>
+      <c r="H217" s="17"/>
+      <c r="I217" s="32"/>
+      <c r="J217" s="17"/>
+      <c r="K217" s="17"/>
+    </row>
+    <row r="218" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A218" s="17"/>
+      <c r="B218" s="72"/>
+      <c r="C218" s="37"/>
+      <c r="D218" s="73"/>
+      <c r="E218" s="37"/>
+      <c r="F218" s="37"/>
+      <c r="G218" s="17"/>
+      <c r="H218" s="17"/>
+      <c r="I218" s="32"/>
+      <c r="J218" s="17"/>
+      <c r="K218" s="17"/>
+    </row>
+    <row r="219" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A219" s="17"/>
+      <c r="B219" s="72"/>
+      <c r="C219" s="37"/>
+      <c r="D219" s="73"/>
+      <c r="E219" s="37"/>
+      <c r="F219" s="37"/>
+      <c r="G219" s="17"/>
+      <c r="H219" s="17"/>
+      <c r="I219" s="32"/>
+      <c r="J219" s="17"/>
+      <c r="K219" s="17"/>
+    </row>
+    <row r="220" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A220" s="17"/>
+      <c r="B220" s="72"/>
+      <c r="C220" s="37"/>
+      <c r="D220" s="73"/>
+      <c r="E220" s="37"/>
+      <c r="F220" s="37"/>
+      <c r="G220" s="17"/>
+      <c r="H220" s="17"/>
+      <c r="I220" s="32"/>
+      <c r="J220" s="17"/>
+      <c r="K220" s="17"/>
+    </row>
+    <row r="221" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A221" s="17"/>
+      <c r="B221" s="72"/>
+      <c r="C221" s="37"/>
+      <c r="D221" s="73"/>
+      <c r="E221" s="37"/>
+      <c r="F221" s="37"/>
+      <c r="G221" s="17"/>
+      <c r="H221" s="17"/>
+      <c r="I221" s="32"/>
+      <c r="J221" s="17"/>
+      <c r="K221" s="17"/>
+    </row>
+    <row r="222" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A222" s="17"/>
+      <c r="B222" s="72"/>
+      <c r="C222" s="37"/>
+      <c r="D222" s="73"/>
+      <c r="E222" s="37"/>
+      <c r="F222" s="37"/>
+      <c r="G222" s="17"/>
+      <c r="H222" s="17"/>
+      <c r="I222" s="32"/>
+      <c r="J222" s="17"/>
+      <c r="K222" s="17"/>
+    </row>
+    <row r="223" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A223" s="17"/>
+      <c r="B223" s="72"/>
+      <c r="C223" s="37"/>
+      <c r="D223" s="73"/>
+      <c r="E223" s="37"/>
+      <c r="F223" s="37"/>
+      <c r="G223" s="17"/>
+      <c r="H223" s="17"/>
+      <c r="I223" s="32"/>
+      <c r="J223" s="17"/>
+      <c r="K223" s="17"/>
+    </row>
+    <row r="224" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A224" s="17"/>
+      <c r="B224" s="72"/>
+      <c r="C224" s="37"/>
+      <c r="D224" s="73"/>
+      <c r="E224" s="37"/>
+      <c r="F224" s="37"/>
+      <c r="G224" s="17"/>
+      <c r="H224" s="17"/>
+      <c r="I224" s="32"/>
+      <c r="J224" s="17"/>
+      <c r="K224" s="17"/>
+    </row>
+    <row r="225" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A225" s="17"/>
+      <c r="B225" s="72"/>
+      <c r="C225" s="37"/>
+      <c r="D225" s="73"/>
+      <c r="E225" s="37"/>
+      <c r="F225" s="37"/>
+      <c r="G225" s="17"/>
+      <c r="H225" s="17"/>
+      <c r="I225" s="32"/>
+      <c r="J225" s="17"/>
+      <c r="K225" s="17"/>
+    </row>
+    <row r="226" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A226" s="17"/>
+      <c r="B226" s="72"/>
+      <c r="C226" s="37"/>
+      <c r="D226" s="73"/>
+      <c r="E226" s="37"/>
+      <c r="F226" s="37"/>
+      <c r="G226" s="17"/>
+      <c r="H226" s="17"/>
+      <c r="I226" s="32"/>
+      <c r="J226" s="17"/>
+      <c r="K226" s="17"/>
+    </row>
+    <row r="227" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A227" s="17"/>
+      <c r="B227" s="72"/>
+      <c r="C227" s="37"/>
+      <c r="D227" s="73"/>
+      <c r="E227" s="37"/>
+      <c r="F227" s="37"/>
+      <c r="G227" s="17"/>
+      <c r="H227" s="17"/>
+      <c r="I227" s="32"/>
+      <c r="J227" s="17"/>
+      <c r="K227" s="17"/>
+    </row>
+    <row r="228" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A228" s="17"/>
+      <c r="B228" s="72"/>
+      <c r="C228" s="37"/>
+      <c r="D228" s="73"/>
+      <c r="E228" s="37"/>
+      <c r="F228" s="37"/>
+      <c r="G228" s="17"/>
+      <c r="H228" s="17"/>
+      <c r="I228" s="32"/>
+      <c r="J228" s="17"/>
+      <c r="K228" s="17"/>
+    </row>
+    <row r="229" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A229" s="17"/>
+      <c r="B229" s="72"/>
+      <c r="C229" s="37"/>
+      <c r="D229" s="73"/>
+      <c r="E229" s="37"/>
+      <c r="F229" s="37"/>
+      <c r="G229" s="17"/>
+      <c r="H229" s="17"/>
+      <c r="I229" s="32"/>
+      <c r="J229" s="17"/>
+      <c r="K229" s="17"/>
+    </row>
+    <row r="230" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A230" s="17"/>
+      <c r="B230" s="72"/>
+      <c r="C230" s="37"/>
+      <c r="D230" s="73"/>
+      <c r="E230" s="37"/>
+      <c r="F230" s="37"/>
+      <c r="G230" s="17"/>
+      <c r="H230" s="17"/>
+      <c r="I230" s="32"/>
+      <c r="J230" s="17"/>
+      <c r="K230" s="17"/>
+    </row>
+    <row r="231" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A231" s="17"/>
+      <c r="B231" s="72"/>
+      <c r="C231" s="37"/>
+      <c r="D231" s="73"/>
+      <c r="E231" s="37"/>
+      <c r="F231" s="37"/>
+      <c r="G231" s="17"/>
+      <c r="H231" s="17"/>
+      <c r="I231" s="32"/>
+      <c r="J231" s="17"/>
+      <c r="K231" s="17"/>
+    </row>
+    <row r="232" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A232" s="17"/>
+      <c r="B232" s="72"/>
+      <c r="C232" s="37"/>
+      <c r="D232" s="73"/>
+      <c r="E232" s="37"/>
+      <c r="F232" s="37"/>
+      <c r="G232" s="17"/>
+      <c r="H232" s="17"/>
+      <c r="I232" s="32"/>
+      <c r="J232" s="17"/>
+      <c r="K232" s="17"/>
+    </row>
+    <row r="233" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A233" s="17"/>
+      <c r="B233" s="72"/>
+      <c r="C233" s="37"/>
+      <c r="D233" s="73"/>
+      <c r="E233" s="37"/>
+      <c r="F233" s="37"/>
+      <c r="G233" s="17"/>
+      <c r="H233" s="17"/>
+      <c r="I233" s="32"/>
+      <c r="J233" s="17"/>
+      <c r="K233" s="17"/>
+    </row>
+    <row r="234" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A234" s="17"/>
+      <c r="B234" s="72"/>
+      <c r="C234" s="37"/>
+      <c r="D234" s="73"/>
+      <c r="E234" s="37"/>
+      <c r="F234" s="37"/>
+      <c r="G234" s="17"/>
+      <c r="H234" s="17"/>
+      <c r="I234" s="32"/>
+      <c r="J234" s="17"/>
+      <c r="K234" s="17"/>
+    </row>
+    <row r="235" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A235" s="17"/>
+      <c r="B235" s="72"/>
+      <c r="C235" s="37"/>
+      <c r="D235" s="73"/>
+      <c r="E235" s="37"/>
+      <c r="F235" s="37"/>
+      <c r="G235" s="17"/>
+      <c r="H235" s="17"/>
+      <c r="I235" s="32"/>
+      <c r="J235" s="17"/>
+      <c r="K235" s="17"/>
+    </row>
+    <row r="236" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A236" s="17"/>
+      <c r="B236" s="72"/>
+      <c r="C236" s="37"/>
+      <c r="D236" s="73"/>
+      <c r="E236" s="37"/>
+      <c r="F236" s="37"/>
+      <c r="G236" s="17"/>
+      <c r="H236" s="17"/>
+      <c r="I236" s="32"/>
+      <c r="J236" s="17"/>
+      <c r="K236" s="17"/>
+    </row>
+    <row r="237" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A237" s="17"/>
+      <c r="B237" s="72"/>
+      <c r="C237" s="37"/>
+      <c r="D237" s="73"/>
+      <c r="E237" s="37"/>
+      <c r="F237" s="37"/>
+      <c r="G237" s="17"/>
+      <c r="H237" s="17"/>
+      <c r="I237" s="32"/>
+      <c r="J237" s="17"/>
+      <c r="K237" s="17"/>
+    </row>
+    <row r="238" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A238" s="17"/>
+      <c r="B238" s="72"/>
+      <c r="C238" s="37"/>
+      <c r="D238" s="73"/>
+      <c r="E238" s="37"/>
+      <c r="F238" s="37"/>
+      <c r="G238" s="17"/>
+      <c r="H238" s="17"/>
+      <c r="I238" s="32"/>
+      <c r="J238" s="17"/>
+      <c r="K238" s="17"/>
+    </row>
+    <row r="239" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A239" s="17"/>
+      <c r="B239" s="72"/>
+      <c r="C239" s="37"/>
+      <c r="D239" s="73"/>
+      <c r="E239" s="37"/>
+      <c r="F239" s="37"/>
+      <c r="G239" s="17"/>
+      <c r="H239" s="17"/>
+      <c r="I239" s="32"/>
+      <c r="J239" s="17"/>
+      <c r="K239" s="17"/>
+    </row>
+    <row r="240" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A240" s="17"/>
+      <c r="B240" s="72"/>
+      <c r="C240" s="37"/>
+      <c r="D240" s="73"/>
+      <c r="E240" s="37"/>
+      <c r="F240" s="37"/>
+      <c r="G240" s="17"/>
+      <c r="H240" s="17"/>
+      <c r="I240" s="32"/>
+      <c r="J240" s="17"/>
+      <c r="K240" s="17"/>
+    </row>
+    <row r="241" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A241" s="17"/>
+      <c r="B241" s="72"/>
+      <c r="C241" s="37"/>
+      <c r="D241" s="73"/>
+      <c r="E241" s="37"/>
+      <c r="F241" s="37"/>
+      <c r="G241" s="17"/>
+      <c r="H241" s="17"/>
+      <c r="I241" s="32"/>
+      <c r="J241" s="17"/>
+      <c r="K241" s="17"/>
+    </row>
+    <row r="242" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A242" s="17"/>
+      <c r="B242" s="72"/>
+      <c r="C242" s="37"/>
+      <c r="D242" s="73"/>
+      <c r="E242" s="37"/>
+      <c r="F242" s="37"/>
+      <c r="G242" s="17"/>
+      <c r="H242" s="17"/>
+      <c r="I242" s="32"/>
+      <c r="J242" s="17"/>
+      <c r="K242" s="17"/>
+    </row>
+    <row r="243" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A243" s="17"/>
+      <c r="B243" s="72"/>
+      <c r="C243" s="37"/>
+      <c r="D243" s="73"/>
+      <c r="E243" s="37"/>
+      <c r="F243" s="37"/>
+      <c r="G243" s="17"/>
+      <c r="H243" s="17"/>
+      <c r="I243" s="32"/>
+      <c r="J243" s="17"/>
+      <c r="K243" s="17"/>
+    </row>
+    <row r="244" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A244" s="17"/>
+      <c r="B244" s="72"/>
+      <c r="C244" s="37"/>
+      <c r="D244" s="73"/>
+      <c r="E244" s="37"/>
+      <c r="F244" s="37"/>
+      <c r="G244" s="17"/>
+      <c r="H244" s="17"/>
+      <c r="I244" s="32"/>
+      <c r="J244" s="17"/>
+      <c r="K244" s="17"/>
+    </row>
+    <row r="245" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A245" s="17"/>
+      <c r="B245" s="72"/>
+      <c r="C245" s="37"/>
+      <c r="D245" s="73"/>
+      <c r="E245" s="37"/>
+      <c r="F245" s="37"/>
+      <c r="G245" s="17"/>
+      <c r="H245" s="17"/>
+      <c r="I245" s="32"/>
+      <c r="J245" s="17"/>
+      <c r="K245" s="17"/>
+    </row>
+    <row r="246" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A246" s="17"/>
+      <c r="B246" s="72"/>
+      <c r="C246" s="37"/>
+      <c r="D246" s="73"/>
+      <c r="E246" s="37"/>
+      <c r="F246" s="37"/>
+      <c r="G246" s="17"/>
+      <c r="H246" s="17"/>
+      <c r="I246" s="32"/>
+      <c r="J246" s="17"/>
+      <c r="K246" s="17"/>
+    </row>
+    <row r="247" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A247" s="17"/>
+      <c r="B247" s="72"/>
+      <c r="C247" s="37"/>
+      <c r="D247" s="73"/>
+      <c r="E247" s="37"/>
+      <c r="F247" s="37"/>
+      <c r="G247" s="17"/>
+      <c r="H247" s="17"/>
+      <c r="I247" s="32"/>
+      <c r="J247" s="17"/>
+      <c r="K247" s="17"/>
+    </row>
+    <row r="248" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A248" s="17"/>
+      <c r="B248" s="72"/>
+      <c r="C248" s="37"/>
+      <c r="D248" s="73"/>
+      <c r="E248" s="37"/>
+      <c r="F248" s="37"/>
+      <c r="G248" s="17"/>
+      <c r="H248" s="17"/>
+      <c r="I248" s="32"/>
+      <c r="J248" s="17"/>
+      <c r="K248" s="17"/>
+    </row>
+    <row r="249" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A249" s="17"/>
+      <c r="B249" s="72"/>
+      <c r="C249" s="37"/>
+      <c r="D249" s="73"/>
+      <c r="E249" s="37"/>
+      <c r="F249" s="37"/>
+      <c r="G249" s="17"/>
+      <c r="H249" s="17"/>
+      <c r="I249" s="32"/>
+      <c r="J249" s="17"/>
+      <c r="K249" s="17"/>
+    </row>
+    <row r="250" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A250" s="17"/>
+      <c r="B250" s="72"/>
+      <c r="C250" s="37"/>
+      <c r="D250" s="73"/>
+      <c r="E250" s="37"/>
+      <c r="F250" s="37"/>
+      <c r="G250" s="17"/>
+      <c r="H250" s="17"/>
+      <c r="I250" s="32"/>
+      <c r="J250" s="17"/>
+      <c r="K250" s="17"/>
+    </row>
+    <row r="251" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A251" s="17"/>
+      <c r="B251" s="72"/>
+      <c r="C251" s="37"/>
+      <c r="D251" s="73"/>
+      <c r="E251" s="37"/>
+      <c r="F251" s="37"/>
+      <c r="G251" s="17"/>
+      <c r="H251" s="17"/>
+      <c r="I251" s="32"/>
+      <c r="J251" s="17"/>
+      <c r="K251" s="17"/>
+    </row>
+    <row r="252" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A252" s="17"/>
+      <c r="B252" s="72"/>
+      <c r="C252" s="37"/>
+      <c r="D252" s="73"/>
+      <c r="E252" s="37"/>
+      <c r="F252" s="37"/>
+      <c r="G252" s="17"/>
+      <c r="H252" s="17"/>
+      <c r="I252" s="32"/>
+      <c r="J252" s="17"/>
+      <c r="K252" s="17"/>
+    </row>
+    <row r="253" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A253" s="17"/>
+      <c r="B253" s="72"/>
+      <c r="C253" s="37"/>
+      <c r="D253" s="73"/>
+      <c r="E253" s="37"/>
+      <c r="F253" s="37"/>
+      <c r="G253" s="17"/>
+      <c r="H253" s="17"/>
+      <c r="I253" s="32"/>
+      <c r="J253" s="17"/>
+      <c r="K253" s="17"/>
+    </row>
+    <row r="254" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A254" s="17"/>
+      <c r="B254" s="72"/>
+      <c r="C254" s="37"/>
+      <c r="D254" s="73"/>
+      <c r="E254" s="37"/>
+      <c r="F254" s="37"/>
+      <c r="G254" s="17"/>
+      <c r="H254" s="17"/>
+      <c r="I254" s="32"/>
+      <c r="J254" s="17"/>
+      <c r="K254" s="17"/>
+    </row>
+    <row r="255" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A255" s="17"/>
+      <c r="B255" s="72"/>
+      <c r="C255" s="37"/>
+      <c r="D255" s="73"/>
+      <c r="E255" s="37"/>
+      <c r="F255" s="37"/>
+      <c r="G255" s="17"/>
+      <c r="H255" s="17"/>
+      <c r="I255" s="32"/>
+      <c r="J255" s="17"/>
+      <c r="K255" s="17"/>
+    </row>
+    <row r="256" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A256" s="17"/>
+      <c r="B256" s="72"/>
+      <c r="C256" s="37"/>
+      <c r="D256" s="73"/>
+      <c r="E256" s="37"/>
+      <c r="F256" s="37"/>
+      <c r="G256" s="17"/>
+      <c r="H256" s="17"/>
+      <c r="I256" s="32"/>
+      <c r="J256" s="17"/>
+      <c r="K256" s="17"/>
+    </row>
+    <row r="257" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A257" s="17"/>
+      <c r="B257" s="72"/>
+      <c r="C257" s="37"/>
+      <c r="D257" s="73"/>
+      <c r="E257" s="37"/>
+      <c r="F257" s="37"/>
+      <c r="G257" s="17"/>
+      <c r="H257" s="17"/>
+      <c r="I257" s="32"/>
+      <c r="J257" s="17"/>
+      <c r="K257" s="17"/>
+    </row>
+    <row r="258" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A258" s="17"/>
+      <c r="B258" s="72"/>
+      <c r="C258" s="37"/>
+      <c r="D258" s="73"/>
+      <c r="E258" s="37"/>
+      <c r="F258" s="37"/>
+      <c r="G258" s="17"/>
+      <c r="H258" s="17"/>
+      <c r="I258" s="32"/>
+      <c r="J258" s="17"/>
+      <c r="K258" s="17"/>
+    </row>
+    <row r="259" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A259" s="17"/>
+      <c r="B259" s="72"/>
+      <c r="C259" s="37"/>
+      <c r="D259" s="73"/>
+      <c r="E259" s="37"/>
+      <c r="F259" s="37"/>
+      <c r="G259" s="17"/>
+      <c r="H259" s="17"/>
+      <c r="I259" s="32"/>
+      <c r="J259" s="17"/>
+      <c r="K259" s="17"/>
+    </row>
+    <row r="260" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A260" s="17"/>
+      <c r="B260" s="72"/>
+      <c r="C260" s="37"/>
+      <c r="D260" s="73"/>
+      <c r="E260" s="37"/>
+      <c r="F260" s="37"/>
+      <c r="G260" s="17"/>
+      <c r="H260" s="17"/>
+      <c r="I260" s="32"/>
+      <c r="J260" s="17"/>
+      <c r="K260" s="17"/>
+    </row>
+    <row r="261" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A261" s="17"/>
+      <c r="B261" s="72"/>
+      <c r="C261" s="37"/>
+      <c r="D261" s="73"/>
+      <c r="E261" s="37"/>
+      <c r="F261" s="37"/>
+      <c r="G261" s="17"/>
+      <c r="H261" s="17"/>
+      <c r="I261" s="32"/>
+      <c r="J261" s="17"/>
+      <c r="K261" s="17"/>
+    </row>
+    <row r="262" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A262" s="17"/>
+      <c r="B262" s="72"/>
+      <c r="C262" s="37"/>
+      <c r="D262" s="73"/>
+      <c r="E262" s="37"/>
+      <c r="F262" s="37"/>
+      <c r="G262" s="17"/>
+      <c r="H262" s="17"/>
+      <c r="I262" s="32"/>
+      <c r="J262" s="17"/>
+      <c r="K262" s="17"/>
+    </row>
+    <row r="263" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A263" s="17"/>
+      <c r="B263" s="72"/>
+      <c r="C263" s="37"/>
+      <c r="D263" s="73"/>
+      <c r="E263" s="37"/>
+      <c r="F263" s="37"/>
+      <c r="G263" s="17"/>
+      <c r="H263" s="17"/>
+      <c r="I263" s="32"/>
+      <c r="J263" s="17"/>
+      <c r="K263" s="17"/>
+    </row>
+    <row r="264" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A264" s="17"/>
+      <c r="B264" s="72"/>
+      <c r="C264" s="37"/>
+      <c r="D264" s="73"/>
+      <c r="E264" s="37"/>
+      <c r="F264" s="37"/>
+      <c r="G264" s="17"/>
+      <c r="H264" s="17"/>
+      <c r="I264" s="32"/>
+      <c r="J264" s="17"/>
+      <c r="K264" s="17"/>
+    </row>
+    <row r="265" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A265" s="17"/>
+      <c r="B265" s="72"/>
+      <c r="C265" s="37"/>
+      <c r="D265" s="73"/>
+      <c r="E265" s="37"/>
+      <c r="F265" s="37"/>
+      <c r="G265" s="17"/>
+      <c r="H265" s="17"/>
+      <c r="I265" s="32"/>
+      <c r="J265" s="17"/>
+      <c r="K265" s="17"/>
+    </row>
+    <row r="266" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A266" s="17"/>
+      <c r="B266" s="72"/>
+      <c r="C266" s="37"/>
+      <c r="D266" s="73"/>
+      <c r="E266" s="37"/>
+      <c r="F266" s="37"/>
+      <c r="G266" s="17"/>
+      <c r="H266" s="17"/>
+      <c r="I266" s="32"/>
+      <c r="J266" s="17"/>
+      <c r="K266" s="17"/>
+    </row>
+    <row r="267" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A267" s="17"/>
+      <c r="B267" s="72"/>
+      <c r="C267" s="37"/>
+      <c r="D267" s="73"/>
+      <c r="E267" s="37"/>
+      <c r="F267" s="37"/>
+      <c r="G267" s="17"/>
+      <c r="H267" s="17"/>
+      <c r="I267" s="32"/>
+      <c r="J267" s="17"/>
+      <c r="K267" s="17"/>
+    </row>
+    <row r="268" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A268" s="17"/>
+      <c r="B268" s="72"/>
+      <c r="C268" s="37"/>
+      <c r="D268" s="73"/>
+      <c r="E268" s="37"/>
+      <c r="F268" s="37"/>
+      <c r="G268" s="17"/>
+      <c r="H268" s="17"/>
+      <c r="I268" s="32"/>
+      <c r="J268" s="17"/>
+      <c r="K268" s="17"/>
+    </row>
+    <row r="269" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A269" s="17"/>
+      <c r="B269" s="72"/>
+      <c r="C269" s="37"/>
+      <c r="D269" s="73"/>
+      <c r="E269" s="37"/>
+      <c r="F269" s="37"/>
+      <c r="G269" s="17"/>
+      <c r="H269" s="17"/>
+      <c r="I269" s="32"/>
+      <c r="J269" s="17"/>
+      <c r="K269" s="17"/>
+    </row>
+    <row r="270" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A270" s="17"/>
+      <c r="B270" s="72"/>
+      <c r="C270" s="37"/>
+      <c r="D270" s="73"/>
+      <c r="E270" s="37"/>
+      <c r="F270" s="37"/>
+      <c r="G270" s="17"/>
+      <c r="H270" s="17"/>
+      <c r="I270" s="32"/>
+      <c r="J270" s="17"/>
+      <c r="K270" s="17"/>
+    </row>
+    <row r="271" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A271" s="17"/>
+      <c r="B271" s="72"/>
+      <c r="C271" s="37"/>
+      <c r="D271" s="73"/>
+      <c r="E271" s="37"/>
+      <c r="F271" s="37"/>
+      <c r="G271" s="17"/>
+      <c r="H271" s="17"/>
+      <c r="I271" s="32"/>
+      <c r="J271" s="17"/>
+      <c r="K271" s="17"/>
+    </row>
+    <row r="272" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A272" s="17"/>
+      <c r="B272" s="72"/>
+      <c r="C272" s="37"/>
+      <c r="D272" s="73"/>
+      <c r="E272" s="37"/>
+      <c r="F272" s="37"/>
+      <c r="G272" s="17"/>
+      <c r="H272" s="17"/>
+      <c r="I272" s="32"/>
+      <c r="J272" s="17"/>
+      <c r="K272" s="17"/>
+    </row>
+    <row r="273" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A273" s="17"/>
+      <c r="B273" s="72"/>
+      <c r="C273" s="37"/>
+      <c r="D273" s="73"/>
+      <c r="E273" s="37"/>
+      <c r="F273" s="37"/>
+      <c r="G273" s="17"/>
+      <c r="H273" s="17"/>
+      <c r="I273" s="32"/>
+      <c r="J273" s="17"/>
+      <c r="K273" s="17"/>
+    </row>
+    <row r="274" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A274" s="17"/>
+      <c r="B274" s="72"/>
+      <c r="C274" s="37"/>
+      <c r="D274" s="73"/>
+      <c r="E274" s="37"/>
+      <c r="F274" s="37"/>
+      <c r="G274" s="17"/>
+      <c r="H274" s="17"/>
+      <c r="I274" s="32"/>
+      <c r="J274" s="17"/>
+      <c r="K274" s="17"/>
+    </row>
+    <row r="275" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A275" s="17"/>
+      <c r="B275" s="72"/>
+      <c r="C275" s="37"/>
+      <c r="D275" s="73"/>
+      <c r="E275" s="37"/>
+      <c r="F275" s="37"/>
+      <c r="G275" s="17"/>
+      <c r="H275" s="17"/>
+      <c r="I275" s="32"/>
+      <c r="J275" s="17"/>
+      <c r="K275" s="17"/>
+    </row>
+    <row r="276" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A276" s="17"/>
+      <c r="B276" s="72"/>
+      <c r="C276" s="37"/>
+      <c r="D276" s="73"/>
+      <c r="E276" s="37"/>
+      <c r="F276" s="37"/>
+      <c r="G276" s="17"/>
+      <c r="H276" s="17"/>
+      <c r="I276" s="32"/>
+      <c r="J276" s="17"/>
+      <c r="K276" s="17"/>
+    </row>
+    <row r="277" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A277" s="17"/>
+      <c r="B277" s="72"/>
+      <c r="C277" s="37"/>
+      <c r="D277" s="73"/>
+      <c r="E277" s="37"/>
+      <c r="F277" s="37"/>
+      <c r="G277" s="17"/>
+      <c r="H277" s="17"/>
+      <c r="I277" s="32"/>
+      <c r="J277" s="17"/>
+      <c r="K277" s="17"/>
+    </row>
+    <row r="278" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A278" s="17"/>
+      <c r="B278" s="72"/>
+      <c r="C278" s="37"/>
+      <c r="D278" s="73"/>
+      <c r="E278" s="37"/>
+      <c r="F278" s="37"/>
+      <c r="G278" s="17"/>
+      <c r="H278" s="17"/>
+      <c r="I278" s="32"/>
+      <c r="J278" s="17"/>
+      <c r="K278" s="17"/>
+    </row>
+    <row r="279" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A279" s="17"/>
+      <c r="B279" s="72"/>
+      <c r="C279" s="37"/>
+      <c r="D279" s="73"/>
+      <c r="E279" s="37"/>
+      <c r="F279" s="37"/>
+      <c r="G279" s="17"/>
+      <c r="H279" s="17"/>
+      <c r="I279" s="32"/>
+      <c r="J279" s="17"/>
+      <c r="K279" s="17"/>
+    </row>
+    <row r="280" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A280" s="17"/>
+      <c r="B280" s="72"/>
+      <c r="C280" s="37"/>
+      <c r="D280" s="73"/>
+      <c r="E280" s="37"/>
+      <c r="F280" s="37"/>
+      <c r="G280" s="17"/>
+      <c r="H280" s="17"/>
+      <c r="I280" s="32"/>
+      <c r="J280" s="17"/>
+      <c r="K280" s="17"/>
+    </row>
+    <row r="281" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A281" s="17"/>
+      <c r="B281" s="72"/>
+      <c r="C281" s="37"/>
+      <c r="D281" s="73"/>
+      <c r="E281" s="37"/>
+      <c r="F281" s="37"/>
+      <c r="G281" s="17"/>
+      <c r="H281" s="17"/>
+      <c r="I281" s="32"/>
+      <c r="J281" s="17"/>
+      <c r="K281" s="17"/>
+    </row>
+    <row r="282" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A282" s="17"/>
+      <c r="B282" s="72"/>
+      <c r="C282" s="37"/>
+      <c r="D282" s="73"/>
+      <c r="E282" s="37"/>
+      <c r="F282" s="37"/>
+      <c r="G282" s="17"/>
+      <c r="H282" s="17"/>
+      <c r="I282" s="32"/>
+      <c r="J282" s="17"/>
+      <c r="K282" s="17"/>
+    </row>
+    <row r="283" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A283" s="17"/>
+      <c r="B283" s="72"/>
+      <c r="C283" s="37"/>
+      <c r="D283" s="73"/>
+      <c r="E283" s="37"/>
+      <c r="F283" s="37"/>
+      <c r="G283" s="17"/>
+      <c r="H283" s="17"/>
+      <c r="I283" s="32"/>
+      <c r="J283" s="17"/>
+      <c r="K283" s="17"/>
+    </row>
+    <row r="284" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A284" s="17"/>
+      <c r="B284" s="72"/>
+      <c r="C284" s="37"/>
+      <c r="D284" s="73"/>
+      <c r="E284" s="37"/>
+      <c r="F284" s="37"/>
+      <c r="G284" s="17"/>
+      <c r="H284" s="17"/>
+      <c r="I284" s="32"/>
+      <c r="J284" s="17"/>
+      <c r="K284" s="17"/>
+    </row>
+    <row r="285" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A285" s="17"/>
+      <c r="B285" s="72"/>
+      <c r="C285" s="37"/>
+      <c r="D285" s="73"/>
+      <c r="E285" s="37"/>
+      <c r="F285" s="37"/>
+      <c r="G285" s="17"/>
+      <c r="H285" s="17"/>
+      <c r="I285" s="32"/>
+      <c r="J285" s="17"/>
+      <c r="K285" s="17"/>
+    </row>
+    <row r="286" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A286" s="17"/>
+      <c r="B286" s="72"/>
+      <c r="C286" s="37"/>
+      <c r="D286" s="73"/>
+      <c r="E286" s="37"/>
+      <c r="F286" s="37"/>
+      <c r="G286" s="17"/>
+      <c r="H286" s="17"/>
+      <c r="I286" s="32"/>
+      <c r="J286" s="17"/>
+      <c r="K286" s="17"/>
+    </row>
+    <row r="287" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A287" s="17"/>
+      <c r="B287" s="72"/>
+      <c r="C287" s="37"/>
+      <c r="D287" s="73"/>
+      <c r="E287" s="37"/>
+      <c r="F287" s="37"/>
+      <c r="G287" s="17"/>
+      <c r="H287" s="17"/>
+      <c r="I287" s="32"/>
+      <c r="J287" s="17"/>
+      <c r="K287" s="17"/>
+    </row>
+    <row r="288" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A288" s="17"/>
+      <c r="B288" s="72"/>
+      <c r="C288" s="37"/>
+      <c r="D288" s="73"/>
+      <c r="E288" s="37"/>
+      <c r="F288" s="37"/>
+      <c r="G288" s="17"/>
+      <c r="H288" s="17"/>
+      <c r="I288" s="32"/>
+      <c r="J288" s="17"/>
+      <c r="K288" s="17"/>
+    </row>
+    <row r="289" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A289" s="17"/>
+      <c r="B289" s="72"/>
+      <c r="C289" s="37"/>
+      <c r="D289" s="73"/>
+      <c r="E289" s="37"/>
+      <c r="F289" s="37"/>
+      <c r="G289" s="17"/>
+      <c r="H289" s="17"/>
+      <c r="I289" s="32"/>
+      <c r="J289" s="17"/>
+      <c r="K289" s="17"/>
+    </row>
+    <row r="290" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A290" s="17"/>
+      <c r="B290" s="72"/>
+      <c r="C290" s="37"/>
+      <c r="D290" s="73"/>
+      <c r="E290" s="37"/>
+      <c r="F290" s="37"/>
+      <c r="G290" s="17"/>
+      <c r="H290" s="17"/>
+      <c r="I290" s="32"/>
+      <c r="J290" s="17"/>
+      <c r="K290" s="17"/>
+    </row>
+    <row r="291" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A291" s="17"/>
+      <c r="B291" s="72"/>
+      <c r="C291" s="37"/>
+      <c r="D291" s="73"/>
+      <c r="E291" s="37"/>
+      <c r="F291" s="37"/>
+      <c r="G291" s="17"/>
+      <c r="H291" s="17"/>
+      <c r="I291" s="32"/>
+      <c r="J291" s="17"/>
+      <c r="K291" s="17"/>
+    </row>
+    <row r="292" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A292" s="17"/>
+      <c r="B292" s="72"/>
+      <c r="C292" s="37"/>
+      <c r="D292" s="73"/>
+      <c r="E292" s="37"/>
+      <c r="F292" s="37"/>
+      <c r="G292" s="17"/>
+      <c r="H292" s="17"/>
+      <c r="I292" s="32"/>
+      <c r="J292" s="17"/>
+      <c r="K292" s="17"/>
+    </row>
+    <row r="293" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A293" s="17"/>
+      <c r="B293" s="72"/>
+      <c r="C293" s="37"/>
+      <c r="D293" s="73"/>
+      <c r="E293" s="37"/>
+      <c r="F293" s="37"/>
+      <c r="G293" s="17"/>
+      <c r="H293" s="17"/>
+      <c r="I293" s="32"/>
+      <c r="J293" s="17"/>
+      <c r="K293" s="17"/>
+    </row>
+    <row r="294" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A294" s="17"/>
+      <c r="B294" s="72"/>
+      <c r="C294" s="37"/>
+      <c r="D294" s="73"/>
+      <c r="E294" s="37"/>
+      <c r="F294" s="37"/>
+      <c r="G294" s="17"/>
+      <c r="H294" s="17"/>
+      <c r="I294" s="32"/>
+      <c r="J294" s="17"/>
+      <c r="K294" s="17"/>
+    </row>
+    <row r="295" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A295" s="17"/>
+      <c r="B295" s="72"/>
+      <c r="C295" s="37"/>
+      <c r="D295" s="73"/>
+      <c r="E295" s="37"/>
+      <c r="F295" s="37"/>
+      <c r="G295" s="17"/>
+      <c r="H295" s="17"/>
+      <c r="I295" s="32"/>
+      <c r="J295" s="17"/>
+      <c r="K295" s="17"/>
+    </row>
+    <row r="296" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A296" s="17"/>
+      <c r="B296" s="72"/>
+      <c r="C296" s="37"/>
+      <c r="D296" s="73"/>
+      <c r="E296" s="37"/>
+      <c r="F296" s="37"/>
+      <c r="G296" s="17"/>
+      <c r="H296" s="17"/>
+      <c r="I296" s="32"/>
+      <c r="J296" s="17"/>
+      <c r="K296" s="17"/>
+    </row>
+    <row r="297" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A297" s="17"/>
+      <c r="B297" s="72"/>
+      <c r="C297" s="37"/>
+      <c r="D297" s="73"/>
+      <c r="E297" s="37"/>
+      <c r="F297" s="37"/>
+      <c r="G297" s="17"/>
+      <c r="H297" s="17"/>
+      <c r="I297" s="32"/>
+      <c r="J297" s="17"/>
+      <c r="K297" s="17"/>
+    </row>
+    <row r="298" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A298" s="17"/>
+      <c r="B298" s="72"/>
+      <c r="C298" s="37"/>
+      <c r="D298" s="73"/>
+      <c r="E298" s="37"/>
+      <c r="F298" s="37"/>
+      <c r="G298" s="17"/>
+      <c r="H298" s="17"/>
+      <c r="I298" s="32"/>
+      <c r="J298" s="17"/>
+      <c r="K298" s="17"/>
+    </row>
+    <row r="299" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A299" s="17"/>
+      <c r="B299" s="72"/>
+      <c r="C299" s="37"/>
+      <c r="D299" s="73"/>
+      <c r="E299" s="37"/>
+      <c r="F299" s="37"/>
+      <c r="G299" s="17"/>
+      <c r="H299" s="17"/>
+      <c r="I299" s="32"/>
+      <c r="J299" s="17"/>
+      <c r="K299" s="17"/>
+    </row>
+    <row r="300" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A300" s="17"/>
+      <c r="B300" s="72"/>
+      <c r="C300" s="37"/>
+      <c r="D300" s="73"/>
+      <c r="E300" s="37"/>
+      <c r="F300" s="37"/>
+      <c r="G300" s="17"/>
+      <c r="H300" s="17"/>
+      <c r="I300" s="32"/>
+      <c r="J300" s="17"/>
+      <c r="K300" s="17"/>
+    </row>
+    <row r="301" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A301" s="17"/>
+      <c r="B301" s="72"/>
+      <c r="C301" s="37"/>
+      <c r="D301" s="73"/>
+      <c r="E301" s="37"/>
+      <c r="F301" s="37"/>
+      <c r="G301" s="17"/>
+      <c r="H301" s="17"/>
+      <c r="I301" s="32"/>
+      <c r="J301" s="17"/>
+      <c r="K301" s="17"/>
+    </row>
+    <row r="302" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A302" s="17"/>
+      <c r="B302" s="72"/>
+      <c r="C302" s="37"/>
+      <c r="D302" s="73"/>
+      <c r="E302" s="37"/>
+      <c r="F302" s="37"/>
+      <c r="G302" s="17"/>
+      <c r="H302" s="17"/>
+      <c r="I302" s="32"/>
+      <c r="J302" s="17"/>
+      <c r="K302" s="17"/>
+    </row>
+    <row r="303" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A303" s="17"/>
+      <c r="B303" s="72"/>
+      <c r="C303" s="37"/>
+      <c r="D303" s="73"/>
+      <c r="E303" s="37"/>
+      <c r="F303" s="37"/>
+      <c r="G303" s="17"/>
+      <c r="H303" s="17"/>
+      <c r="I303" s="32"/>
+      <c r="J303" s="17"/>
+      <c r="K303" s="17"/>
+    </row>
+    <row r="304" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A304" s="17"/>
+      <c r="B304" s="72"/>
+      <c r="C304" s="37"/>
+      <c r="D304" s="73"/>
+      <c r="E304" s="37"/>
+      <c r="F304" s="37"/>
+      <c r="G304" s="17"/>
+      <c r="H304" s="17"/>
+      <c r="I304" s="32"/>
+      <c r="J304" s="17"/>
+      <c r="K304" s="17"/>
+    </row>
+    <row r="305" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A305" s="17"/>
+      <c r="B305" s="72"/>
+      <c r="C305" s="37"/>
+      <c r="D305" s="73"/>
+      <c r="E305" s="37"/>
+      <c r="F305" s="37"/>
+      <c r="G305" s="17"/>
+      <c r="H305" s="17"/>
+      <c r="I305" s="32"/>
+      <c r="J305" s="17"/>
+      <c r="K305" s="17"/>
+    </row>
+    <row r="306" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A306" s="17"/>
+      <c r="B306" s="72"/>
+      <c r="C306" s="37"/>
+      <c r="D306" s="73"/>
+      <c r="E306" s="37"/>
+      <c r="F306" s="37"/>
+      <c r="G306" s="17"/>
+      <c r="H306" s="17"/>
+      <c r="I306" s="32"/>
+      <c r="J306" s="17"/>
+      <c r="K306" s="17"/>
+    </row>
+    <row r="307" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A307" s="17"/>
+      <c r="B307" s="72"/>
+      <c r="C307" s="37"/>
+      <c r="D307" s="73"/>
+      <c r="E307" s="37"/>
+      <c r="F307" s="37"/>
+      <c r="G307" s="17"/>
+      <c r="H307" s="17"/>
+      <c r="I307" s="32"/>
+      <c r="J307" s="17"/>
+      <c r="K307" s="17"/>
+    </row>
+    <row r="308" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A308" s="17"/>
+      <c r="B308" s="72"/>
+      <c r="C308" s="37"/>
+      <c r="D308" s="73"/>
+      <c r="E308" s="37"/>
+      <c r="F308" s="37"/>
+      <c r="G308" s="17"/>
+      <c r="H308" s="17"/>
+      <c r="I308" s="32"/>
+      <c r="J308" s="17"/>
+      <c r="K308" s="17"/>
+    </row>
+    <row r="309" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A309" s="17"/>
+      <c r="B309" s="72"/>
+      <c r="C309" s="37"/>
+      <c r="D309" s="73"/>
+      <c r="E309" s="37"/>
+      <c r="F309" s="37"/>
+      <c r="G309" s="17"/>
+      <c r="H309" s="17"/>
+      <c r="I309" s="32"/>
+      <c r="J309" s="17"/>
+      <c r="K309" s="17"/>
+    </row>
+    <row r="310" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A310" s="17"/>
+      <c r="B310" s="72"/>
+      <c r="C310" s="37"/>
+      <c r="D310" s="73"/>
+      <c r="E310" s="37"/>
+      <c r="F310" s="37"/>
+      <c r="G310" s="17"/>
+      <c r="H310" s="17"/>
+      <c r="I310" s="32"/>
+      <c r="J310" s="17"/>
+      <c r="K310" s="17"/>
+    </row>
+    <row r="311" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A311" s="17"/>
+      <c r="B311" s="72"/>
+      <c r="C311" s="37"/>
+      <c r="D311" s="73"/>
+      <c r="E311" s="37"/>
+      <c r="F311" s="37"/>
+      <c r="G311" s="17"/>
+      <c r="H311" s="17"/>
+      <c r="I311" s="32"/>
+      <c r="J311" s="17"/>
+      <c r="K311" s="17"/>
+    </row>
+    <row r="312" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A312" s="17"/>
+      <c r="B312" s="72"/>
+      <c r="C312" s="37"/>
+      <c r="D312" s="73"/>
+      <c r="E312" s="37"/>
+      <c r="F312" s="37"/>
+      <c r="G312" s="17"/>
+      <c r="H312" s="17"/>
+      <c r="I312" s="32"/>
+      <c r="J312" s="17"/>
+      <c r="K312" s="17"/>
+    </row>
+    <row r="313" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A313" s="17"/>
+      <c r="B313" s="72"/>
+      <c r="C313" s="37"/>
+      <c r="D313" s="73"/>
+      <c r="E313" s="37"/>
+      <c r="F313" s="37"/>
+      <c r="G313" s="17"/>
+      <c r="H313" s="17"/>
+      <c r="I313" s="32"/>
+      <c r="J313" s="17"/>
+      <c r="K313" s="17"/>
+    </row>
+    <row r="314" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A314" s="17"/>
+      <c r="B314" s="72"/>
+      <c r="C314" s="37"/>
+      <c r="D314" s="73"/>
+      <c r="E314" s="37"/>
+      <c r="F314" s="37"/>
+      <c r="G314" s="17"/>
+      <c r="H314" s="17"/>
+      <c r="I314" s="32"/>
+      <c r="J314" s="17"/>
+      <c r="K314" s="17"/>
+    </row>
+    <row r="315" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A315" s="17"/>
+      <c r="B315" s="72"/>
+      <c r="C315" s="37"/>
+      <c r="D315" s="73"/>
+      <c r="E315" s="37"/>
+      <c r="F315" s="37"/>
+      <c r="G315" s="17"/>
+      <c r="H315" s="17"/>
+      <c r="I315" s="32"/>
+      <c r="J315" s="17"/>
+      <c r="K315" s="17"/>
+    </row>
+    <row r="316" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A316" s="17"/>
+      <c r="B316" s="72"/>
+      <c r="C316" s="37"/>
+      <c r="D316" s="73"/>
+      <c r="E316" s="37"/>
+      <c r="F316" s="37"/>
+      <c r="G316" s="17"/>
+      <c r="H316" s="17"/>
+      <c r="I316" s="32"/>
+      <c r="J316" s="17"/>
+      <c r="K316" s="17"/>
+    </row>
+    <row r="317" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A317" s="17"/>
+      <c r="B317" s="72"/>
+      <c r="C317" s="37"/>
+      <c r="D317" s="73"/>
+      <c r="E317" s="37"/>
+      <c r="F317" s="37"/>
+      <c r="G317" s="17"/>
+      <c r="H317" s="17"/>
+      <c r="I317" s="32"/>
+      <c r="J317" s="17"/>
+      <c r="K317" s="17"/>
+    </row>
+    <row r="318" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A318" s="17"/>
+      <c r="B318" s="72"/>
+      <c r="C318" s="37"/>
+      <c r="D318" s="73"/>
+      <c r="E318" s="37"/>
+      <c r="F318" s="37"/>
+      <c r="G318" s="17"/>
+      <c r="H318" s="17"/>
+      <c r="I318" s="32"/>
+      <c r="J318" s="17"/>
+      <c r="K318" s="17"/>
+    </row>
+    <row r="319" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A319" s="17"/>
+      <c r="B319" s="72"/>
+      <c r="C319" s="37"/>
+      <c r="D319" s="73"/>
+      <c r="E319" s="37"/>
+      <c r="F319" s="37"/>
+      <c r="G319" s="17"/>
+      <c r="H319" s="17"/>
+      <c r="I319" s="32"/>
+      <c r="J319" s="17"/>
+      <c r="K319" s="17"/>
+    </row>
+    <row r="320" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A320" s="17"/>
+      <c r="B320" s="72"/>
+      <c r="C320" s="37"/>
+      <c r="D320" s="73"/>
+      <c r="E320" s="37"/>
+      <c r="F320" s="37"/>
+      <c r="G320" s="17"/>
+      <c r="H320" s="17"/>
+      <c r="I320" s="32"/>
+      <c r="J320" s="17"/>
+      <c r="K320" s="17"/>
+    </row>
+    <row r="321" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A321" s="17"/>
+      <c r="B321" s="72"/>
+      <c r="C321" s="37"/>
+      <c r="D321" s="73"/>
+      <c r="E321" s="37"/>
+      <c r="F321" s="37"/>
+      <c r="G321" s="17"/>
+      <c r="H321" s="17"/>
+      <c r="I321" s="32"/>
+      <c r="J321" s="17"/>
+      <c r="K321" s="17"/>
+    </row>
+    <row r="322" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A322" s="17"/>
+      <c r="B322" s="72"/>
+      <c r="C322" s="37"/>
+      <c r="D322" s="73"/>
+      <c r="E322" s="37"/>
+      <c r="F322" s="37"/>
+      <c r="G322" s="17"/>
+      <c r="H322" s="17"/>
+      <c r="I322" s="32"/>
+      <c r="J322" s="17"/>
+      <c r="K322" s="17"/>
+    </row>
+    <row r="323" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A323" s="17"/>
+      <c r="B323" s="72"/>
+      <c r="C323" s="37"/>
+      <c r="D323" s="73"/>
+      <c r="E323" s="37"/>
+      <c r="F323" s="37"/>
+      <c r="G323" s="17"/>
+      <c r="H323" s="17"/>
+      <c r="I323" s="32"/>
+      <c r="J323" s="17"/>
+      <c r="K323" s="17"/>
+    </row>
+    <row r="324" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A324" s="17"/>
+      <c r="B324" s="72"/>
+      <c r="C324" s="37"/>
+      <c r="D324" s="73"/>
+      <c r="E324" s="37"/>
+      <c r="F324" s="37"/>
+      <c r="G324" s="17"/>
+      <c r="H324" s="17"/>
+      <c r="I324" s="32"/>
+      <c r="J324" s="17"/>
+      <c r="K324" s="17"/>
+    </row>
+    <row r="325" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A325" s="17"/>
+      <c r="B325" s="72"/>
+      <c r="C325" s="37"/>
+      <c r="D325" s="73"/>
+      <c r="E325" s="37"/>
+      <c r="F325" s="37"/>
+      <c r="G325" s="17"/>
+      <c r="H325" s="17"/>
+      <c r="I325" s="32"/>
+      <c r="J325" s="17"/>
+      <c r="K325" s="17"/>
+    </row>
+    <row r="326" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A326" s="17"/>
+      <c r="B326" s="72"/>
+      <c r="C326" s="37"/>
+      <c r="D326" s="73"/>
+      <c r="E326" s="37"/>
+      <c r="F326" s="37"/>
+      <c r="G326" s="17"/>
+      <c r="H326" s="17"/>
+      <c r="I326" s="32"/>
+      <c r="J326" s="17"/>
+      <c r="K326" s="17"/>
+    </row>
+    <row r="327" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A327" s="17"/>
+      <c r="B327" s="72"/>
+      <c r="C327" s="37"/>
+      <c r="D327" s="73"/>
+      <c r="E327" s="37"/>
+      <c r="F327" s="37"/>
+      <c r="G327" s="17"/>
+      <c r="H327" s="17"/>
+      <c r="I327" s="32"/>
+      <c r="J327" s="17"/>
+      <c r="K327" s="17"/>
+    </row>
+    <row r="328" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A328" s="17"/>
+      <c r="B328" s="72"/>
+      <c r="C328" s="37"/>
+      <c r="D328" s="73"/>
+      <c r="E328" s="37"/>
+      <c r="F328" s="37"/>
+      <c r="G328" s="17"/>
+      <c r="H328" s="17"/>
+      <c r="I328" s="32"/>
+      <c r="J328" s="17"/>
+      <c r="K328" s="17"/>
+    </row>
+    <row r="329" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A329" s="17"/>
+      <c r="B329" s="72"/>
+      <c r="C329" s="37"/>
+      <c r="D329" s="73"/>
+      <c r="E329" s="37"/>
+      <c r="F329" s="37"/>
+      <c r="G329" s="17"/>
+      <c r="H329" s="17"/>
+      <c r="I329" s="32"/>
+      <c r="J329" s="17"/>
+      <c r="K329" s="17"/>
+    </row>
+    <row r="330" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A330" s="17"/>
+      <c r="B330" s="72"/>
+      <c r="C330" s="37"/>
+      <c r="D330" s="73"/>
+      <c r="E330" s="37"/>
+      <c r="F330" s="37"/>
+      <c r="G330" s="17"/>
+      <c r="H330" s="17"/>
+      <c r="I330" s="32"/>
+      <c r="J330" s="17"/>
+      <c r="K330" s="17"/>
+    </row>
+    <row r="331" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A331" s="17"/>
+      <c r="B331" s="72"/>
+      <c r="C331" s="37"/>
+      <c r="D331" s="73"/>
+      <c r="E331" s="37"/>
+      <c r="F331" s="37"/>
+      <c r="G331" s="17"/>
+      <c r="H331" s="17"/>
+      <c r="I331" s="32"/>
+      <c r="J331" s="17"/>
+      <c r="K331" s="17"/>
+    </row>
+    <row r="332" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A332" s="17"/>
+      <c r="B332" s="72"/>
+      <c r="C332" s="37"/>
+      <c r="D332" s="73"/>
+      <c r="E332" s="37"/>
+      <c r="F332" s="37"/>
+      <c r="G332" s="17"/>
+      <c r="H332" s="17"/>
+      <c r="I332" s="32"/>
+      <c r="J332" s="17"/>
+      <c r="K332" s="17"/>
+    </row>
+    <row r="333" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A333" s="17"/>
+      <c r="B333" s="72"/>
+      <c r="C333" s="37"/>
+      <c r="D333" s="73"/>
+      <c r="E333" s="37"/>
+      <c r="F333" s="37"/>
+      <c r="G333" s="17"/>
+      <c r="H333" s="17"/>
+      <c r="I333" s="32"/>
+      <c r="J333" s="17"/>
+      <c r="K333" s="17"/>
+    </row>
+    <row r="334" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A334" s="17"/>
+      <c r="B334" s="72"/>
+      <c r="C334" s="37"/>
+      <c r="D334" s="73"/>
+      <c r="E334" s="37"/>
+      <c r="F334" s="37"/>
+      <c r="G334" s="17"/>
+      <c r="H334" s="17"/>
+      <c r="I334" s="32"/>
+      <c r="J334" s="17"/>
+      <c r="K334" s="17"/>
+    </row>
+    <row r="335" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A335" s="17"/>
+      <c r="B335" s="72"/>
+      <c r="C335" s="37"/>
+      <c r="D335" s="73"/>
+      <c r="E335" s="37"/>
+      <c r="F335" s="37"/>
+      <c r="G335" s="17"/>
+      <c r="H335" s="17"/>
+      <c r="I335" s="32"/>
+      <c r="J335" s="17"/>
+      <c r="K335" s="17"/>
+    </row>
+    <row r="336" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A336" s="17"/>
+      <c r="B336" s="72"/>
+      <c r="C336" s="37"/>
+      <c r="D336" s="73"/>
+      <c r="E336" s="37"/>
+      <c r="F336" s="37"/>
+      <c r="G336" s="17"/>
+      <c r="H336" s="17"/>
+      <c r="I336" s="32"/>
+      <c r="J336" s="17"/>
+      <c r="K336" s="17"/>
+    </row>
+    <row r="337" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A337" s="17"/>
+      <c r="B337" s="72"/>
+      <c r="C337" s="37"/>
+      <c r="D337" s="73"/>
+      <c r="E337" s="37"/>
+      <c r="F337" s="37"/>
+      <c r="G337" s="17"/>
+      <c r="H337" s="17"/>
+      <c r="I337" s="32"/>
+      <c r="J337" s="17"/>
+      <c r="K337" s="17"/>
+    </row>
+    <row r="338" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A338" s="17"/>
+      <c r="B338" s="72"/>
+      <c r="C338" s="37"/>
+      <c r="D338" s="73"/>
+      <c r="E338" s="37"/>
+      <c r="F338" s="37"/>
+      <c r="G338" s="17"/>
+      <c r="H338" s="17"/>
+      <c r="I338" s="32"/>
+      <c r="J338" s="17"/>
+      <c r="K338" s="17"/>
+    </row>
+    <row r="339" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A339" s="17"/>
+      <c r="B339" s="72"/>
+      <c r="C339" s="37"/>
+      <c r="D339" s="73"/>
+      <c r="E339" s="37"/>
+      <c r="F339" s="37"/>
+      <c r="G339" s="17"/>
+      <c r="H339" s="17"/>
+      <c r="I339" s="32"/>
+      <c r="J339" s="17"/>
+      <c r="K339" s="17"/>
+    </row>
+    <row r="340" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A340" s="17"/>
+      <c r="B340" s="72"/>
+      <c r="C340" s="37"/>
+      <c r="D340" s="73"/>
+      <c r="E340" s="37"/>
+      <c r="F340" s="37"/>
+      <c r="G340" s="17"/>
+      <c r="H340" s="17"/>
+      <c r="I340" s="32"/>
+      <c r="J340" s="17"/>
+      <c r="K340" s="17"/>
+    </row>
+    <row r="341" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A341" s="17"/>
+      <c r="B341" s="72"/>
+      <c r="C341" s="37"/>
+      <c r="D341" s="73"/>
+      <c r="E341" s="37"/>
+      <c r="F341" s="37"/>
+      <c r="G341" s="17"/>
+      <c r="H341" s="17"/>
+      <c r="I341" s="32"/>
+      <c r="J341" s="17"/>
+      <c r="K341" s="17"/>
+    </row>
+    <row r="342" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A342" s="17"/>
+      <c r="B342" s="72"/>
+      <c r="C342" s="37"/>
+      <c r="D342" s="73"/>
+      <c r="E342" s="37"/>
+      <c r="F342" s="37"/>
+      <c r="G342" s="17"/>
+      <c r="H342" s="17"/>
+      <c r="I342" s="32"/>
+      <c r="J342" s="17"/>
+      <c r="K342" s="17"/>
+    </row>
+    <row r="343" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A343" s="17"/>
+      <c r="B343" s="72"/>
+      <c r="C343" s="37"/>
+      <c r="D343" s="73"/>
+      <c r="E343" s="37"/>
+      <c r="F343" s="37"/>
+      <c r="G343" s="17"/>
+      <c r="H343" s="17"/>
+      <c r="I343" s="32"/>
+      <c r="J343" s="17"/>
+      <c r="K343" s="17"/>
+    </row>
+    <row r="344" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A344" s="17"/>
+      <c r="B344" s="72"/>
+      <c r="C344" s="37"/>
+      <c r="D344" s="73"/>
+      <c r="E344" s="37"/>
+      <c r="F344" s="37"/>
+      <c r="G344" s="17"/>
+      <c r="H344" s="17"/>
+      <c r="I344" s="32"/>
+      <c r="J344" s="17"/>
+      <c r="K344" s="17"/>
+    </row>
+    <row r="345" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A345" s="17"/>
+      <c r="B345" s="72"/>
+      <c r="C345" s="37"/>
+      <c r="D345" s="73"/>
+      <c r="E345" s="37"/>
+      <c r="F345" s="37"/>
+      <c r="G345" s="17"/>
+      <c r="H345" s="17"/>
+      <c r="I345" s="32"/>
+      <c r="J345" s="17"/>
+      <c r="K345" s="17"/>
+    </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="28">
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="D114:D125"/>
+    <mergeCell ref="E114:E125"/>
+    <mergeCell ref="D129:D140"/>
+    <mergeCell ref="E129:E140"/>
+    <mergeCell ref="D98:D108"/>
+    <mergeCell ref="E98:E108"/>
+    <mergeCell ref="D79:D94"/>
+    <mergeCell ref="D42:D53"/>
+    <mergeCell ref="E42:E53"/>
+    <mergeCell ref="E66:E77"/>
+    <mergeCell ref="E79:E94"/>
+    <mergeCell ref="D66:D77"/>
     <mergeCell ref="F66:F77"/>
     <mergeCell ref="D54:D65"/>
     <mergeCell ref="E54:E65"/>
@@ -16471,14 +20496,6 @@
     <mergeCell ref="D20:D31"/>
     <mergeCell ref="D32:D41"/>
     <mergeCell ref="F42:F53"/>
-    <mergeCell ref="D98:D108"/>
-    <mergeCell ref="E98:E108"/>
-    <mergeCell ref="D79:D94"/>
-    <mergeCell ref="D42:D53"/>
-    <mergeCell ref="E42:E53"/>
-    <mergeCell ref="E66:E77"/>
-    <mergeCell ref="E79:E94"/>
-    <mergeCell ref="D66:D77"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/testcase_account_ver3.xlsx
+++ b/testcase_account_ver3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\7-Programming-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71396F1-D866-4E0F-AFDB-5FB325ED1A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA7A7A0-735D-4EF5-9607-CEDA70D9ADA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="888" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1661" uniqueCount="490">
   <si>
     <t>作成者</t>
   </si>
@@ -2412,10 +2412,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>×</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>結合テスト仕様書</t>
     <rPh sb="0" eb="2">
       <t>ケツゴウ</t>
@@ -7126,234 +7122,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>アカウント一覧画面で選択したIDに対応する「名前（姓）」が表示される。</t>
-    <rPh sb="5" eb="9">
-      <t>イチランガメン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アカウント一覧画面で選択したIDに対応する「名前（名）」が表示される。</t>
-    <rPh sb="5" eb="9">
-      <t>イチランガメン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アカウント一覧画面で選択したIDに対応する「カナ（姓）」が表示される。</t>
-    <rPh sb="5" eb="9">
-      <t>イチランガメン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アカウント一覧画面で選択したIDに対応する「カナ（名）」が表示される。</t>
-    <rPh sb="5" eb="9">
-      <t>イチランガメン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アカウント一覧画面で選択したIDに対応する「メールアドレス」が表示される。</t>
-    <rPh sb="5" eb="9">
-      <t>イチランガメン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アカウント一覧画面で選択したIDに対応する「パスワード」が表示される。</t>
-    <rPh sb="5" eb="9">
-      <t>イチランガメン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アカウント一覧画面で選択したIDに対応する「性別」が表示される。</t>
-    <rPh sb="5" eb="9">
-      <t>イチランガメン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>セイベツ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アカウント一覧画面で選択したIDに対応する「郵便番号」が表示される。</t>
-    <rPh sb="5" eb="9">
-      <t>イチランガメン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="22" eb="26">
-      <t>ユウビンバンゴウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アカウント一覧画面で選択したIDに対応する「住所（都道府県）」が表示される。</t>
-    <rPh sb="5" eb="9">
-      <t>イチランガメン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="25" eb="29">
-      <t>トドウフケン</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アカウント一覧画面で選択したIDに対応する「住所（市区町村）」が表示される。</t>
-    <rPh sb="5" eb="9">
-      <t>イチランガメン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>シク</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>チョウソン</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アカウント一覧画面で選択したIDに対応する「住所（番地）」が表示される。</t>
-    <rPh sb="5" eb="9">
-      <t>イチランガメン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>バンチ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アカウント一覧画面で選択したIDに対応する「アカウント権限」が表示される。</t>
-    <rPh sb="5" eb="9">
-      <t>イチランガメン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>アカウント削除画面にて、画面下の「確認する」ボタンを押す。</t>
     <rPh sb="5" eb="7">
       <t>サクジョ</t>
@@ -7456,27 +7224,6 @@
   <si>
     <t>アカウント削除確認画面
 から
-アカウント削除画面</t>
-    <rPh sb="5" eb="7">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アカウント削除確認画面
-から
 アカウント削除完了画面</t>
     <rPh sb="5" eb="7">
       <t>サクジョ</t>
@@ -7496,31 +7243,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>アカウント削除確認画面にて、画面下の「戻って修正する」ボタンを押す。</t>
-    <rPh sb="5" eb="7">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>ガメンシタ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>アカウント削除確認画面にて、画面下の「登録する」ボタンを押す。</t>
     <rPh sb="5" eb="7">
       <t>サクジョ</t>
@@ -7552,292 +7274,6 @@
     </rPh>
     <rPh sb="20" eb="22">
       <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アカウント削除確認画面からアカウント削除画面へ遷移する。</t>
-    <rPh sb="5" eb="7">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アカウント削除確認画面で表示されている「名前（姓）」の情報が表示される。</t>
-    <rPh sb="5" eb="7">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>カクニンガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アカウント削除確認画面で表示されている「名前（名）」の情報が表示される。</t>
-    <rPh sb="5" eb="7">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>カクニンガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アカウント削除確認画面で表示されている「カナ（姓）」の情報が表示される。</t>
-    <rPh sb="5" eb="7">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>カクニンガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アカウント削除確認画面で表示されている「カナ（名）」の情報が表示される。</t>
-    <rPh sb="5" eb="7">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>カクニンガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アカウント削除確認画面で表示されている「メールアドレス」の情報が表示される。</t>
-    <rPh sb="5" eb="7">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>カクニンガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アカウント削除確認画面で表示されている「パスワード」の情報が表示される。</t>
-    <rPh sb="5" eb="7">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>カクニンガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アカウント削除確認画面で表示されている「性別」の情報が表示される。</t>
-    <rPh sb="5" eb="7">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>カクニンガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>セイベツ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アカウント削除確認画面で表示されている「郵便番号」の情報が表示される。</t>
-    <rPh sb="5" eb="7">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>カクニンガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="20" eb="24">
-      <t>ユウビンバンゴウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アカウント削除確認画面で表示されている「住所（都道府県）」の情報が表示される。</t>
-    <rPh sb="5" eb="7">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>カクニンガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="23" eb="27">
-      <t>トドウフケン</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アカウント削除確認画面で表示されている「住所（市区町村）」の情報が表示される。</t>
-    <rPh sb="5" eb="7">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>カクニンガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>シク</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>チョウソン</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アカウント削除確認画面で表示されている「住所（番地）」の情報が表示される。</t>
-    <rPh sb="5" eb="7">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>カクニンガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>バンチ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アカウント削除確認画面で表示されている「アカウント権限」の情報が表示される。</t>
-    <rPh sb="5" eb="7">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>カクニンガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -8030,25 +7466,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>DB登録に失敗した場合に「エラーが発生したためアカウント削除できません。」とエラーメッセージが表示される。</t>
-    <rPh sb="2" eb="4">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>アカウント削除画面
 から
 アカウント一覧画面</t>
@@ -8422,6 +7839,1605 @@
     <rPh sb="23" eb="25">
       <t>センイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>名前（姓）の右隣にアカウント一覧画面で選択したIDに対応する「名前（姓）」が表示される。</t>
+    <rPh sb="6" eb="8">
+      <t>ミギトナリ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>名前（名）の右隣にアカウント一覧画面で選択したIDに対応する「名前（名）」が表示される。</t>
+    <rPh sb="6" eb="8">
+      <t>ミギトナリ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カナ（姓）の右隣にアカウント一覧画面で選択したIDに対応する「カナ（姓）」が表示される。</t>
+    <rPh sb="6" eb="8">
+      <t>ミギトナリ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カナ（名）の右隣にアカウント一覧画面で選択したIDに対応する「カナ（名）」が表示される。</t>
+    <rPh sb="6" eb="8">
+      <t>ミギトナリ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メールアドレスの右隣にアカウント一覧画面で選択したIDに対応する「メールアドレス」が表示される。</t>
+    <rPh sb="8" eb="10">
+      <t>ミギトナリ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パスワードの下に改行し「※セキュリティ上、パスワードを非表示にしています。」と赤文字で表示される。</t>
+    <rPh sb="6" eb="7">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カイギョウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>性別の右隣にアカウント一覧画面で選択したIDに対応する「性別」が表示される。</t>
+    <rPh sb="3" eb="5">
+      <t>ミギトナリ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>郵便番号の右隣にアカウント一覧画面で選択したIDに対応する「郵便番号」が表示される。</t>
+    <rPh sb="5" eb="7">
+      <t>ミギトナリ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="30" eb="34">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>住所（都道府県）の右隣にアカウント一覧画面で選択したIDに対応する「住所（都道府県）」が表示される。</t>
+    <rPh sb="9" eb="11">
+      <t>ミギトナリ</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="37" eb="41">
+      <t>トドウフケン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>住所（市区町村）の右隣にアカウント一覧画面で選択したIDに対応する「住所（市区町村）」が表示される。</t>
+    <rPh sb="9" eb="11">
+      <t>ミギトナリ</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>シク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>チョウソン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>住所（番地）の右隣にアカウント一覧画面で選択したIDに対応する「住所（番地）」が表示される。</t>
+    <rPh sb="7" eb="9">
+      <t>ミギトナリ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント権限の右隣にアカウント一覧画面で選択したIDに対応する「アカウント権限」が表示される。</t>
+    <rPh sb="8" eb="10">
+      <t>ミギトナリ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面
+から
+アカウント更新画面</t>
+    <rPh sb="5" eb="9">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面の更新したいIDの更新ボタンを押す。</t>
+    <rPh sb="5" eb="9">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新画面からアカウント更新確認画面へ遷移すること。</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新画面
+から
+アカウント更新確認画面
+（正常動作）</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="26" eb="30">
+      <t>セイジョウドウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新画面
+から
+アカウント更新確認画面
+（エラー動作：画面遷移なし）</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新画面の画面下にある「確認する」ボタンを押す。</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ガメンシタ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新画面
+から
+アカウント更新確認画面</t>
+    <rPh sb="5" eb="9">
+      <t>コウシンガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>見出しで「郵便番号」を表示。1回改行し、その下に入力された内容が表示されるようにする。</t>
+    <rPh sb="0" eb="2">
+      <t>ミダ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カイギョウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>見出しで「住所（都道府県）」を表示。1回改行し、その下に選択された内容が表示されるようにする。</t>
+    <rPh sb="0" eb="2">
+      <t>ミダ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カイギョウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>見出しで「住所（市区町村）」を表示。1回改行し、その下に入力された内容が表示されるようにする。</t>
+    <rPh sb="0" eb="2">
+      <t>ミダ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カイギョウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>見出しで「住所（番地）」を表示。1回改行し、その下に入力された内容が表示されるようにする。</t>
+    <rPh sb="0" eb="2">
+      <t>ミダ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カイギョウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新確認画面
+から
+アカウント更新画面</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>コウシンガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新確認画面の画面下にある「戻って修正する」ボタンを押す。</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新確認画面からアカウント更新画面へ遷移する。</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新確認画面からアカウント更新画面に遷移した際にテキストボックスに入力された文字が維持されたまま表示される。</t>
+  </si>
+  <si>
+    <t>アカウント更新確認画面からアカウント更新画面に遷移した際にテキストボックスに入力された文字が維持されたまま表示される。</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>イジ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新確認画面からアカウント更新画面に遷移した際にラジオボタンで選択した内容が維持され、表示される。</t>
+    <rPh sb="36" eb="38">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>イジ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新確認画面からアカウント更新画面に遷移した際にプルダウンで選択した内容が維持され、表示される。</t>
+  </si>
+  <si>
+    <t>アカウント更新確認画面からアカウント更新画面に遷移した際にプルダウンで選択した内容が維持され、表示される。</t>
+    <rPh sb="35" eb="37">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>イジ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新確認画面
+から
+アカウント更新完了画面</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新確認画面の画面下にある「登録する」ボタンを押す。</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新確認画面からアカウント更新完了画面へ遷移する。</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新確認画面
+から
+アカウント更新完了画面</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DB登録に失敗した場合に「エラーが発生したためアカウント更新できません。」とエラーメッセージが赤文字で表示される。</t>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="47" eb="50">
+      <t>アカモジ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DB登録に失敗した場合に「エラーが発生したためアカウント削除できません。」とエラーメッセージが赤文字で表示される。</t>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="47" eb="50">
+      <t>アカモジ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8/31追記：赤文字で表示されるように変更完了。</t>
+    <rPh sb="4" eb="6">
+      <t>ツイキ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>アカモジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>ヘンコウカンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新完了画面
+から
+PHP MyAdmin</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新確認画面の画面下にある「登録する」ボタンを押す。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新完了画面（エラー動作）</t>
+    <rPh sb="5" eb="11">
+      <t>コウシンカンリョウガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新完了画面（正常動作）</t>
+    <rPh sb="5" eb="11">
+      <t>コウシンカンリョウガメン</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>セイジョウドウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DB登録が成功した場合、「更新完了しました。」と画面中央寄せで文字の大きさ30pxで表示される。</t>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="24" eb="29">
+      <t>ガメンチュウオウヨ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新完了画面
+から
+トップページ</t>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新完了画面にて、画面下の「TOPページに戻る」ボタンを押す。</t>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新完了画面からトップページへ遷移する。</t>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新画面
+から
+アカウント一覧画面</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>イチランガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新画面で上の「アカウント一覧」と書かれたリンクを押す。</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新画面からアカウント一覧画面へ遷移する。</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新確認画面
+から
+アカウント一覧画面</t>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>イチランガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新確認画面で上の「アカウント一覧」と書かれたリンクを押す。</t>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新確認画面からアカウント一覧画面へ遷移する。</t>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新完了画面
+から
+アカウント一覧画面</t>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>イチランガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新完了画面で上の「アカウント一覧」と書かれたリンクを押す。</t>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新完了画面からアカウント一覧画面へ遷移する。</t>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新画面
+から
+アカウント登録画面</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新画面で上の「アカウント登録」と書かれたリンクを押す。</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新画面からアカウント登録画面へ遷移する。</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新確認画面
+から
+アカウント登録画面</t>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新確認画面で上の「アカウント登録」と書かれたリンクを押す。</t>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新確認画面からアカウント登録画面へ遷移する。</t>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新完了画面
+から
+アカウント登録画面</t>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新完了画面で上の「アカウント登録」と書かれたリンクを押す。</t>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新完了画面からアカウント登録画面へ遷移する。</t>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新確認画面で表示されている内容がPHP MyAdminのlesson01のacountというテーブルの中にあるカラム名「authority」に更新され、表示される。</t>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新確認画面で表示されている内容がPHP MyAdminのlesson01のacountというテーブルの中にあるカラム名「family_name」に更新された場合は変更されて表示、更新されない場合は元データのまま表示される。</t>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新確認画面で表示されている内容がPHP MyAdminのlesson01のacountというテーブルの中にあるカラム名「last_name」に更新された場合は変更されて表示、更新されない場合は元データのまま表示される。</t>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新確認画面で表示されている内容がPHP MyAdminのlesson01のacountというテーブルの中にあるカラム名「family_name_kana」に更新された場合は変更されて表示、更新されない場合は元データのまま表示される。</t>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新確認画面で表示されている内容がPHP MyAdminのlesson01のacountというテーブルの中にあるカラム名「last_name_kana」に更新された場合は変更されて表示、更新されない場合は元データのまま表示される。</t>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新確認画面で表示されている内容がPHP MyAdminのlesson01のacountというテーブルの中にあるカラム名「mail」に更新された場合は変更されて表示、更新されない場合は元データのまま表示される。</t>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新確認画面で表示されている内容がPHP MyAdminのlesson01のacountというテーブルの中にあるカラム名「password」に更新された場合は変更されてハッシュ化された状態で表示、更新されない場合は元データのまま表示される。</t>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新確認画面で表示されている内容がPHP MyAdminのlesson01のacountというテーブルの中にあるカラム名「gender」に更新された場合は変更されて表示、更新されない場合は元データのまま表示される。</t>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新確認画面で表示されている内容がPHP MyAdminのlesson01のacountというテーブルの中にあるカラム名「postal_code」に更新された場合は変更されて表示、更新されない場合は元データのまま表示される。</t>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新確認画面で表示されている内容がPHP MyAdminのlesson01のacountというテーブルの中にあるカラム名「prefecture」に更新された場合は変更されて表示、更新されない場合は元データのまま表示される。</t>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新確認画面で表示されている内容がPHP MyAdminのlesson01のacountというテーブルの中にあるカラム名「address_1」に更新された場合は変更されて表示、更新されない場合は元データのまま表示される。</t>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新確認画面で表示されている内容がPHP MyAdminのlesson01のacountというテーブルの中にあるカラム名「address_2」に更新された場合は変更されて表示、更新されない場合は元データのまま表示される。</t>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DB登録をする際に削除フラグで無効の意味を示す「0」がPHP MyAdminのlesson01のacountというテーブルの中のカラム名「delete_flag」に更新された場合は変更されて表示、更新されない場合は元データのまま表示される。</t>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イミ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>シメ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DB登録をする際に自動的に時間のデータを取得し、PHP MyAdminのlesson01のacountというテーブルの中のカラム名「update_time」に更新された場合は変更されて表示、更新されない場合は元データのまま表示される。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -9028,9 +10044,6 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9042,6 +10055,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -9060,15 +10079,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9100,6 +10110,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9123,15 +10148,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -9485,8 +10501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M173"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E58" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K57" sqref="K57"/>
+    <sheetView showGridLines="0" topLeftCell="A129" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D145" sqref="D145:D146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -9506,12 +10522,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
       <c r="E1" s="53" t="s">
         <v>2</v>
       </c>
@@ -9529,15 +10545,15 @@
         <v>8</v>
       </c>
       <c r="K1" s="51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A2" s="105"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
       <c r="E2" s="53" t="s">
         <v>3</v>
       </c>
@@ -9851,7 +10867,7 @@
       <c r="F12" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="100" t="s">
+      <c r="G12" s="98" t="s">
         <v>107</v>
       </c>
       <c r="H12" s="68">
@@ -9881,7 +10897,7 @@
       <c r="F13" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="101"/>
+      <c r="G13" s="99"/>
       <c r="H13" s="60">
         <v>44354</v>
       </c>
@@ -9909,7 +10925,7 @@
       <c r="F14" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="101"/>
+      <c r="G14" s="99"/>
       <c r="H14" s="60">
         <v>44354</v>
       </c>
@@ -9937,7 +10953,7 @@
       <c r="F15" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="101"/>
+      <c r="G15" s="99"/>
       <c r="H15" s="68">
         <v>44354</v>
       </c>
@@ -9965,7 +10981,7 @@
       <c r="F16" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="101"/>
+      <c r="G16" s="99"/>
       <c r="H16" s="60">
         <v>44354</v>
       </c>
@@ -9993,7 +11009,7 @@
       <c r="F17" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="101"/>
+      <c r="G17" s="99"/>
       <c r="H17" s="60">
         <v>44354</v>
       </c>
@@ -10021,7 +11037,7 @@
       <c r="F18" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="101"/>
+      <c r="G18" s="99"/>
       <c r="H18" s="68">
         <v>44354</v>
       </c>
@@ -10049,7 +11065,7 @@
       <c r="F19" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="101"/>
+      <c r="G19" s="99"/>
       <c r="H19" s="60">
         <v>44354</v>
       </c>
@@ -10077,7 +11093,7 @@
       <c r="F20" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="101"/>
+      <c r="G20" s="99"/>
       <c r="H20" s="60">
         <v>44354</v>
       </c>
@@ -10105,7 +11121,7 @@
       <c r="F21" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="101"/>
+      <c r="G21" s="99"/>
       <c r="H21" s="68">
         <v>44354</v>
       </c>
@@ -10133,7 +11149,7 @@
       <c r="F22" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="101"/>
+      <c r="G22" s="99"/>
       <c r="H22" s="60">
         <v>44354</v>
       </c>
@@ -10161,7 +11177,7 @@
       <c r="F23" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="102"/>
+      <c r="G23" s="100"/>
       <c r="H23" s="60">
         <v>44354</v>
       </c>
@@ -10619,7 +11635,7 @@
       <c r="F38" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="G38" s="94" t="s">
+      <c r="G38" s="95" t="s">
         <v>110</v>
       </c>
       <c r="H38" s="68">
@@ -10649,7 +11665,7 @@
       <c r="F39" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="G39" s="95"/>
+      <c r="G39" s="96"/>
       <c r="H39" s="68">
         <v>44354</v>
       </c>
@@ -10677,7 +11693,7 @@
       <c r="F40" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="G40" s="95"/>
+      <c r="G40" s="96"/>
       <c r="H40" s="68">
         <v>44354</v>
       </c>
@@ -10705,7 +11721,7 @@
       <c r="F41" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="G41" s="95"/>
+      <c r="G41" s="96"/>
       <c r="H41" s="68">
         <v>44354</v>
       </c>
@@ -10733,7 +11749,7 @@
       <c r="F42" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="G42" s="96"/>
+      <c r="G42" s="97"/>
       <c r="H42" s="68">
         <v>44354</v>
       </c>
@@ -10885,7 +11901,7 @@
       <c r="F47" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="G47" s="94" t="s">
+      <c r="G47" s="95" t="s">
         <v>110</v>
       </c>
       <c r="H47" s="68">
@@ -10915,7 +11931,7 @@
       <c r="F48" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="G48" s="96"/>
+      <c r="G48" s="97"/>
       <c r="H48" s="68">
         <v>44354</v>
       </c>
@@ -11164,7 +12180,7 @@
         <v>141</v>
       </c>
       <c r="G56" s="32" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H56" s="68">
         <v>44355</v>
@@ -11173,7 +12189,7 @@
         <v>6</v>
       </c>
       <c r="J56" s="30" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="K56" s="39" t="s">
         <v>144</v>
@@ -11185,7 +12201,7 @@
         <v>52</v>
       </c>
       <c r="B57" s="48" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C57" s="37" t="s">
         <v>78</v>
@@ -11196,11 +12212,11 @@
       <c r="E57" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F57" s="100" t="s">
-        <v>233</v>
+      <c r="F57" s="98" t="s">
+        <v>232</v>
       </c>
       <c r="G57" s="32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H57" s="68">
         <v>44376</v>
@@ -11220,7 +12236,7 @@
       </c>
       <c r="B58" s="49"/>
       <c r="C58" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D58" s="24" t="s">
         <v>81</v>
@@ -11228,9 +12244,9 @@
       <c r="E58" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F58" s="101"/>
+      <c r="F58" s="99"/>
       <c r="G58" s="32" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H58" s="68">
         <v>44376</v>
@@ -11250,17 +12266,17 @@
       </c>
       <c r="B59" s="48"/>
       <c r="C59" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="E59" s="107" t="s">
+        <v>189</v>
+      </c>
+      <c r="E59" s="105" t="s">
         <v>55</v>
       </c>
-      <c r="F59" s="101"/>
+      <c r="F59" s="99"/>
       <c r="G59" s="37" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H59" s="68">
         <v>44376</v>
@@ -11283,10 +12299,10 @@
       <c r="D60" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E60" s="108"/>
-      <c r="F60" s="101"/>
+      <c r="E60" s="106"/>
+      <c r="F60" s="99"/>
       <c r="G60" s="37" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H60" s="68">
         <v>44376</v>
@@ -11309,10 +12325,10 @@
       <c r="D61" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E61" s="108"/>
-      <c r="F61" s="101"/>
+      <c r="E61" s="106"/>
+      <c r="F61" s="99"/>
       <c r="G61" s="37" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H61" s="68">
         <v>44376</v>
@@ -11335,10 +12351,10 @@
       <c r="D62" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E62" s="108"/>
-      <c r="F62" s="101"/>
+      <c r="E62" s="106"/>
+      <c r="F62" s="99"/>
       <c r="G62" s="37" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H62" s="68">
         <v>44376</v>
@@ -11361,10 +12377,10 @@
       <c r="D63" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E63" s="108"/>
-      <c r="F63" s="101"/>
+      <c r="E63" s="106"/>
+      <c r="F63" s="99"/>
       <c r="G63" s="37" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H63" s="68">
         <v>44376</v>
@@ -11387,10 +12403,10 @@
       <c r="D64" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E64" s="108"/>
-      <c r="F64" s="101"/>
+      <c r="E64" s="106"/>
+      <c r="F64" s="99"/>
       <c r="G64" s="37" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H64" s="68">
         <v>44376</v>
@@ -11413,10 +12429,10 @@
       <c r="D65" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E65" s="108"/>
-      <c r="F65" s="101"/>
+      <c r="E65" s="106"/>
+      <c r="F65" s="99"/>
       <c r="G65" s="31" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H65" s="68">
         <v>44376</v>
@@ -11439,10 +12455,10 @@
       <c r="D66" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E66" s="108"/>
-      <c r="F66" s="101"/>
+      <c r="E66" s="106"/>
+      <c r="F66" s="99"/>
       <c r="G66" s="31" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H66" s="68">
         <v>44376</v>
@@ -11463,12 +12479,12 @@
       <c r="B67" s="48"/>
       <c r="C67" s="25"/>
       <c r="D67" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="E67" s="108"/>
-      <c r="F67" s="101"/>
+        <v>150</v>
+      </c>
+      <c r="E67" s="106"/>
+      <c r="F67" s="99"/>
       <c r="G67" s="31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H67" s="68">
         <v>44376</v>
@@ -11489,12 +12505,12 @@
       <c r="B68" s="48"/>
       <c r="C68" s="25"/>
       <c r="D68" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="E68" s="108"/>
-      <c r="F68" s="101"/>
+        <v>151</v>
+      </c>
+      <c r="E68" s="106"/>
+      <c r="F68" s="99"/>
       <c r="G68" s="31" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H68" s="68">
         <v>44376</v>
@@ -11515,12 +12531,12 @@
       <c r="B69" s="48"/>
       <c r="C69" s="25"/>
       <c r="D69" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="E69" s="108"/>
-      <c r="F69" s="101"/>
+        <v>152</v>
+      </c>
+      <c r="E69" s="106"/>
+      <c r="F69" s="99"/>
       <c r="G69" s="31" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H69" s="68">
         <v>44376</v>
@@ -11541,12 +12557,12 @@
       <c r="B70" s="48"/>
       <c r="C70" s="25"/>
       <c r="D70" s="24" t="s">
-        <v>246</v>
-      </c>
-      <c r="E70" s="108"/>
-      <c r="F70" s="101"/>
+        <v>245</v>
+      </c>
+      <c r="E70" s="106"/>
+      <c r="F70" s="99"/>
       <c r="G70" s="31" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H70" s="68">
         <v>44376</v>
@@ -11567,12 +12583,12 @@
       <c r="B71" s="48"/>
       <c r="C71" s="25"/>
       <c r="D71" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="E71" s="109"/>
-      <c r="F71" s="102"/>
+        <v>246</v>
+      </c>
+      <c r="E71" s="107"/>
+      <c r="F71" s="100"/>
       <c r="G71" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H71" s="68">
         <v>44376</v>
@@ -11591,7 +12607,7 @@
         <v>67</v>
       </c>
       <c r="B72" s="48" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C72" s="25" t="s">
         <v>78</v>
@@ -11603,10 +12619,10 @@
         <v>55</v>
       </c>
       <c r="F72" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="G72" s="31" t="s">
         <v>278</v>
-      </c>
-      <c r="G72" s="31" t="s">
-        <v>279</v>
       </c>
       <c r="H72" s="68">
         <v>44428</v>
@@ -11631,14 +12647,14 @@
       <c r="D73" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E73" s="91" t="s">
+      <c r="E73" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="F73" s="94" t="s">
-        <v>278</v>
+      <c r="F73" s="95" t="s">
+        <v>277</v>
       </c>
       <c r="G73" s="31" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H73" s="68">
         <v>44428</v>
@@ -11661,10 +12677,10 @@
       <c r="D74" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E74" s="92"/>
-      <c r="F74" s="95"/>
+      <c r="E74" s="93"/>
+      <c r="F74" s="96"/>
       <c r="G74" s="31" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H74" s="68">
         <v>44428</v>
@@ -11687,10 +12703,10 @@
       <c r="D75" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="92"/>
-      <c r="F75" s="95"/>
+      <c r="E75" s="93"/>
+      <c r="F75" s="96"/>
       <c r="G75" s="31" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H75" s="68">
         <v>44428</v>
@@ -11713,10 +12729,10 @@
       <c r="D76" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E76" s="92"/>
-      <c r="F76" s="95"/>
+      <c r="E76" s="93"/>
+      <c r="F76" s="96"/>
       <c r="G76" s="31" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H76" s="68">
         <v>44428</v>
@@ -11739,10 +12755,10 @@
       <c r="D77" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E77" s="92"/>
-      <c r="F77" s="95"/>
+      <c r="E77" s="93"/>
+      <c r="F77" s="96"/>
       <c r="G77" s="31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H77" s="68">
         <v>44428</v>
@@ -11765,10 +12781,10 @@
       <c r="D78" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E78" s="92"/>
-      <c r="F78" s="95"/>
+      <c r="E78" s="93"/>
+      <c r="F78" s="96"/>
       <c r="G78" s="31" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H78" s="68">
         <v>44428</v>
@@ -11791,10 +12807,10 @@
       <c r="D79" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E79" s="92"/>
-      <c r="F79" s="95"/>
+      <c r="E79" s="93"/>
+      <c r="F79" s="96"/>
       <c r="G79" s="31" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H79" s="68">
         <v>44428</v>
@@ -11817,10 +12833,10 @@
       <c r="D80" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E80" s="92"/>
-      <c r="F80" s="95"/>
+      <c r="E80" s="93"/>
+      <c r="F80" s="96"/>
       <c r="G80" s="31" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H80" s="68">
         <v>44428</v>
@@ -11843,10 +12859,10 @@
       <c r="D81" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E81" s="92"/>
-      <c r="F81" s="95"/>
+      <c r="E81" s="93"/>
+      <c r="F81" s="96"/>
       <c r="G81" s="31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H81" s="68">
         <v>44428</v>
@@ -11869,10 +12885,10 @@
       <c r="D82" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E82" s="92"/>
-      <c r="F82" s="95"/>
+      <c r="E82" s="93"/>
+      <c r="F82" s="96"/>
       <c r="G82" s="31" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H82" s="68">
         <v>44428</v>
@@ -11895,10 +12911,10 @@
       <c r="D83" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E83" s="92"/>
-      <c r="F83" s="95"/>
+      <c r="E83" s="93"/>
+      <c r="F83" s="96"/>
       <c r="G83" s="31" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H83" s="68">
         <v>44428</v>
@@ -11921,10 +12937,10 @@
       <c r="D84" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E84" s="93"/>
-      <c r="F84" s="96"/>
+      <c r="E84" s="94"/>
+      <c r="F84" s="97"/>
       <c r="G84" s="31" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H84" s="68">
         <v>44428</v>
@@ -11951,10 +12967,10 @@
         <v>55</v>
       </c>
       <c r="F85" s="37" t="s">
+        <v>291</v>
+      </c>
+      <c r="G85" s="31" t="s">
         <v>292</v>
-      </c>
-      <c r="G85" s="31" t="s">
-        <v>293</v>
       </c>
       <c r="H85" s="68">
         <v>44428</v>
@@ -11973,7 +12989,7 @@
         <v>81</v>
       </c>
       <c r="B86" s="48" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C86" s="25" t="s">
         <v>78</v>
@@ -11981,14 +12997,14 @@
       <c r="D86" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E86" s="91" t="s">
+      <c r="E86" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="F86" s="94" t="s">
-        <v>302</v>
+      <c r="F86" s="95" t="s">
+        <v>301</v>
       </c>
       <c r="G86" s="31" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H86" s="68">
         <v>44428</v>
@@ -12011,10 +13027,10 @@
       <c r="D87" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="E87" s="92"/>
-      <c r="F87" s="95"/>
+      <c r="E87" s="93"/>
+      <c r="F87" s="96"/>
       <c r="G87" s="31" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H87" s="68">
         <v>44428</v>
@@ -12035,12 +13051,12 @@
       <c r="B88" s="48"/>
       <c r="C88" s="25"/>
       <c r="D88" s="25" t="s">
-        <v>295</v>
-      </c>
-      <c r="E88" s="92"/>
-      <c r="F88" s="95"/>
+        <v>294</v>
+      </c>
+      <c r="E88" s="93"/>
+      <c r="F88" s="96"/>
       <c r="G88" s="31" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H88" s="68">
         <v>44428</v>
@@ -12061,12 +13077,12 @@
       <c r="B89" s="48"/>
       <c r="C89" s="25"/>
       <c r="D89" s="25" t="s">
-        <v>296</v>
-      </c>
-      <c r="E89" s="93"/>
-      <c r="F89" s="96"/>
+        <v>295</v>
+      </c>
+      <c r="E89" s="94"/>
+      <c r="F89" s="97"/>
       <c r="G89" s="31" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H89" s="68">
         <v>44428</v>
@@ -12085,7 +13101,7 @@
         <v>85</v>
       </c>
       <c r="B90" s="48" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C90" s="37" t="s">
         <v>78</v>
@@ -12093,14 +13109,14 @@
       <c r="D90" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="E90" s="91" t="s">
+      <c r="E90" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="F90" s="100" t="s">
-        <v>301</v>
+      <c r="F90" s="98" t="s">
+        <v>300</v>
       </c>
       <c r="G90" s="30" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H90" s="68">
         <v>44428</v>
@@ -12120,15 +13136,15 @@
       </c>
       <c r="B91" s="48"/>
       <c r="C91" s="37" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D91" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="E91" s="92"/>
-      <c r="F91" s="101"/>
+      <c r="E91" s="93"/>
+      <c r="F91" s="99"/>
       <c r="G91" s="32" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H91" s="68">
         <v>44435</v>
@@ -12151,10 +13167,10 @@
       <c r="D92" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="E92" s="93"/>
-      <c r="F92" s="101"/>
+      <c r="E92" s="94"/>
+      <c r="F92" s="99"/>
       <c r="G92" s="32" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H92" s="68">
         <v>44435</v>
@@ -12173,20 +13189,20 @@
         <v>88</v>
       </c>
       <c r="B93" s="48" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C93" s="37" t="s">
         <v>136</v>
       </c>
       <c r="D93" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E93" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F93" s="101"/>
+      <c r="F93" s="99"/>
       <c r="G93" s="32" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H93" s="68">
         <v>44435</v>
@@ -12207,14 +13223,14 @@
       <c r="B94" s="48"/>
       <c r="C94" s="37"/>
       <c r="D94" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E94" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F94" s="102"/>
+      <c r="F94" s="100"/>
       <c r="G94" s="32" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H94" s="68">
         <v>44435</v>
@@ -12234,19 +13250,19 @@
       </c>
       <c r="B95" s="48"/>
       <c r="C95" s="37" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D95" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="E95" s="89" t="s">
+      <c r="E95" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="F95" s="88" t="s">
-        <v>363</v>
+      <c r="F95" s="87" t="s">
+        <v>362</v>
       </c>
       <c r="G95" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H95" s="68">
         <v>44435</v>
@@ -12265,7 +13281,7 @@
         <v>91</v>
       </c>
       <c r="B96" s="48" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C96" s="25" t="s">
         <v>78</v>
@@ -12277,10 +13293,10 @@
         <v>55</v>
       </c>
       <c r="F96" s="37" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G96" s="31" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H96" s="68">
         <v>44435</v>
@@ -12305,14 +13321,14 @@
       <c r="D97" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E97" s="91" t="s">
+      <c r="E97" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="F97" s="94" t="s">
-        <v>306</v>
+      <c r="F97" s="95" t="s">
+        <v>305</v>
       </c>
       <c r="G97" s="31" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H97" s="68">
         <v>44435</v>
@@ -12335,10 +13351,10 @@
       <c r="D98" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E98" s="92"/>
-      <c r="F98" s="95"/>
+      <c r="E98" s="93"/>
+      <c r="F98" s="96"/>
       <c r="G98" s="31" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H98" s="68">
         <v>44435</v>
@@ -12361,10 +13377,10 @@
       <c r="D99" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E99" s="92"/>
-      <c r="F99" s="95"/>
+      <c r="E99" s="93"/>
+      <c r="F99" s="96"/>
       <c r="G99" s="31" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H99" s="68">
         <v>44435</v>
@@ -12387,10 +13403,10 @@
       <c r="D100" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E100" s="92"/>
-      <c r="F100" s="95"/>
+      <c r="E100" s="93"/>
+      <c r="F100" s="96"/>
       <c r="G100" s="31" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H100" s="68">
         <v>44435</v>
@@ -12413,10 +13429,10 @@
       <c r="D101" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E101" s="92"/>
-      <c r="F101" s="95"/>
+      <c r="E101" s="93"/>
+      <c r="F101" s="96"/>
       <c r="G101" s="31" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H101" s="68">
         <v>44435</v>
@@ -12439,10 +13455,10 @@
       <c r="D102" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E102" s="92"/>
-      <c r="F102" s="95"/>
+      <c r="E102" s="93"/>
+      <c r="F102" s="96"/>
       <c r="G102" s="31" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H102" s="68">
         <v>44435</v>
@@ -12465,10 +13481,10 @@
       <c r="D103" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E103" s="92"/>
-      <c r="F103" s="95"/>
+      <c r="E103" s="93"/>
+      <c r="F103" s="96"/>
       <c r="G103" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H103" s="68">
         <v>44435</v>
@@ -12491,10 +13507,10 @@
       <c r="D104" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E104" s="92"/>
-      <c r="F104" s="95"/>
+      <c r="E104" s="93"/>
+      <c r="F104" s="96"/>
       <c r="G104" s="31" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H104" s="68">
         <v>44435</v>
@@ -12517,10 +13533,10 @@
       <c r="D105" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E105" s="92"/>
-      <c r="F105" s="95"/>
+      <c r="E105" s="93"/>
+      <c r="F105" s="96"/>
       <c r="G105" s="31" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H105" s="68">
         <v>44435</v>
@@ -12543,10 +13559,10 @@
       <c r="D106" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E106" s="92"/>
-      <c r="F106" s="95"/>
+      <c r="E106" s="93"/>
+      <c r="F106" s="96"/>
       <c r="G106" s="31" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H106" s="68">
         <v>44435</v>
@@ -12569,10 +13585,10 @@
       <c r="D107" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E107" s="92"/>
-      <c r="F107" s="95"/>
+      <c r="E107" s="93"/>
+      <c r="F107" s="96"/>
       <c r="G107" s="31" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H107" s="68">
         <v>44435</v>
@@ -12595,10 +13611,10 @@
       <c r="D108" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E108" s="93"/>
-      <c r="F108" s="96"/>
+      <c r="E108" s="94"/>
+      <c r="F108" s="97"/>
       <c r="G108" s="31" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H108" s="68">
         <v>44435</v>
@@ -12625,10 +13641,10 @@
         <v>55</v>
       </c>
       <c r="F109" s="37" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G109" s="31" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H109" s="68">
         <v>44435</v>
@@ -12648,7 +13664,7 @@
       </c>
       <c r="B110" s="48"/>
       <c r="C110" s="25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D110" s="11" t="s">
         <v>16</v>
@@ -12657,9 +13673,9 @@
         <v>30</v>
       </c>
       <c r="F110" s="31" t="s">
-        <v>324</v>
-      </c>
-      <c r="G110" s="100" t="s">
+        <v>323</v>
+      </c>
+      <c r="G110" s="98" t="s">
         <v>107</v>
       </c>
       <c r="H110" s="68">
@@ -12687,9 +13703,9 @@
         <v>30</v>
       </c>
       <c r="F111" s="31" t="s">
-        <v>325</v>
-      </c>
-      <c r="G111" s="101"/>
+        <v>324</v>
+      </c>
+      <c r="G111" s="99"/>
       <c r="H111" s="68">
         <v>44435</v>
       </c>
@@ -12715,9 +13731,9 @@
         <v>30</v>
       </c>
       <c r="F112" s="31" t="s">
-        <v>326</v>
-      </c>
-      <c r="G112" s="101"/>
+        <v>325</v>
+      </c>
+      <c r="G112" s="99"/>
       <c r="H112" s="68">
         <v>44435</v>
       </c>
@@ -12743,9 +13759,9 @@
         <v>30</v>
       </c>
       <c r="F113" s="31" t="s">
-        <v>326</v>
-      </c>
-      <c r="G113" s="101"/>
+        <v>325</v>
+      </c>
+      <c r="G113" s="99"/>
       <c r="H113" s="68">
         <v>44435</v>
       </c>
@@ -12771,9 +13787,9 @@
         <v>30</v>
       </c>
       <c r="F114" s="31" t="s">
-        <v>327</v>
-      </c>
-      <c r="G114" s="101"/>
+        <v>326</v>
+      </c>
+      <c r="G114" s="99"/>
       <c r="H114" s="68">
         <v>44435</v>
       </c>
@@ -12799,9 +13815,9 @@
         <v>30</v>
       </c>
       <c r="F115" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="G115" s="101"/>
+        <v>342</v>
+      </c>
+      <c r="G115" s="99"/>
       <c r="H115" s="68">
         <v>44435</v>
       </c>
@@ -12827,9 +13843,9 @@
         <v>31</v>
       </c>
       <c r="F116" s="31" t="s">
-        <v>347</v>
-      </c>
-      <c r="G116" s="101"/>
+        <v>346</v>
+      </c>
+      <c r="G116" s="99"/>
       <c r="H116" s="68">
         <v>44435</v>
       </c>
@@ -12855,9 +13871,9 @@
         <v>30</v>
       </c>
       <c r="F117" s="31" t="s">
-        <v>328</v>
-      </c>
-      <c r="G117" s="101"/>
+        <v>327</v>
+      </c>
+      <c r="G117" s="99"/>
       <c r="H117" s="68">
         <v>44435</v>
       </c>
@@ -12883,9 +13899,9 @@
         <v>31</v>
       </c>
       <c r="F118" s="31" t="s">
-        <v>323</v>
-      </c>
-      <c r="G118" s="101"/>
+        <v>322</v>
+      </c>
+      <c r="G118" s="99"/>
       <c r="H118" s="68">
         <v>44435</v>
       </c>
@@ -12911,9 +13927,9 @@
         <v>30</v>
       </c>
       <c r="F119" s="31" t="s">
-        <v>329</v>
-      </c>
-      <c r="G119" s="101"/>
+        <v>328</v>
+      </c>
+      <c r="G119" s="99"/>
       <c r="H119" s="68">
         <v>44435</v>
       </c>
@@ -12939,9 +13955,9 @@
         <v>30</v>
       </c>
       <c r="F120" s="31" t="s">
-        <v>330</v>
-      </c>
-      <c r="G120" s="101"/>
+        <v>329</v>
+      </c>
+      <c r="G120" s="99"/>
       <c r="H120" s="68">
         <v>44435</v>
       </c>
@@ -12967,9 +13983,9 @@
         <v>31</v>
       </c>
       <c r="F121" s="31" t="s">
-        <v>322</v>
-      </c>
-      <c r="G121" s="102"/>
+        <v>321</v>
+      </c>
+      <c r="G121" s="100"/>
       <c r="H121" s="68">
         <v>44435</v>
       </c>
@@ -12988,7 +14004,7 @@
       </c>
       <c r="B122" s="48"/>
       <c r="C122" s="25" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D122" s="11" t="s">
         <v>16</v>
@@ -12997,7 +14013,7 @@
         <v>30</v>
       </c>
       <c r="F122" s="31" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G122" s="32" t="s">
         <v>99</v>
@@ -13027,7 +14043,7 @@
         <v>30</v>
       </c>
       <c r="F123" s="31" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G123" s="32" t="s">
         <v>98</v>
@@ -13057,7 +14073,7 @@
         <v>30</v>
       </c>
       <c r="F124" s="31" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G124" s="32" t="s">
         <v>100</v>
@@ -13087,7 +14103,7 @@
         <v>30</v>
       </c>
       <c r="F125" s="31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G125" s="32" t="s">
         <v>101</v>
@@ -13117,7 +14133,7 @@
         <v>30</v>
       </c>
       <c r="F126" s="31" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G126" s="32" t="s">
         <v>89</v>
@@ -13147,10 +14163,10 @@
         <v>30</v>
       </c>
       <c r="F127" s="31" t="s">
+        <v>340</v>
+      </c>
+      <c r="G127" s="32" t="s">
         <v>341</v>
-      </c>
-      <c r="G127" s="32" t="s">
-        <v>342</v>
       </c>
       <c r="H127" s="68">
         <v>44435</v>
@@ -13177,7 +14193,7 @@
         <v>30</v>
       </c>
       <c r="F128" s="31" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G128" s="32" t="s">
         <v>103</v>
@@ -13207,7 +14223,7 @@
         <v>31</v>
       </c>
       <c r="F129" s="31" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G129" s="32" t="s">
         <v>104</v>
@@ -13237,7 +14253,7 @@
         <v>30</v>
       </c>
       <c r="F130" s="31" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G130" s="32" t="s">
         <v>105</v>
@@ -13267,7 +14283,7 @@
         <v>30</v>
       </c>
       <c r="F131" s="31" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G131" s="32" t="s">
         <v>106</v>
@@ -13289,7 +14305,7 @@
         <v>127</v>
       </c>
       <c r="B132" s="48" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C132" s="25" t="s">
         <v>78</v>
@@ -13300,11 +14316,11 @@
       <c r="E132" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F132" s="94" t="s">
+      <c r="F132" s="95" t="s">
+        <v>344</v>
+      </c>
+      <c r="G132" s="31" t="s">
         <v>345</v>
-      </c>
-      <c r="G132" s="31" t="s">
-        <v>346</v>
       </c>
       <c r="H132" s="68">
         <v>44435</v>
@@ -13330,7 +14346,7 @@
       <c r="E133" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F133" s="95"/>
+      <c r="F133" s="96"/>
       <c r="G133" s="32" t="s">
         <v>108</v>
       </c>
@@ -13358,7 +14374,7 @@
       <c r="E134" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F134" s="95"/>
+      <c r="F134" s="96"/>
       <c r="G134" s="32" t="s">
         <v>109</v>
       </c>
@@ -13386,7 +14402,7 @@
       <c r="E135" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F135" s="95"/>
+      <c r="F135" s="96"/>
       <c r="G135" s="32" t="s">
         <v>112</v>
       </c>
@@ -13414,7 +14430,7 @@
       <c r="E136" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F136" s="95"/>
+      <c r="F136" s="96"/>
       <c r="G136" s="32" t="s">
         <v>113</v>
       </c>
@@ -13442,7 +14458,7 @@
       <c r="E137" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F137" s="95"/>
+      <c r="F137" s="96"/>
       <c r="G137" s="32" t="s">
         <v>114</v>
       </c>
@@ -13470,7 +14486,7 @@
       <c r="E138" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F138" s="95"/>
+      <c r="F138" s="96"/>
       <c r="G138" s="32" t="s">
         <v>111</v>
       </c>
@@ -13498,7 +14514,7 @@
       <c r="E139" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F139" s="95"/>
+      <c r="F139" s="96"/>
       <c r="G139" s="32" t="s">
         <v>115</v>
       </c>
@@ -13526,9 +14542,9 @@
       <c r="E140" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F140" s="95"/>
+      <c r="F140" s="96"/>
       <c r="G140" s="32" t="s">
-        <v>108</v>
+        <v>431</v>
       </c>
       <c r="H140" s="68">
         <v>44435</v>
@@ -13554,9 +14570,9 @@
       <c r="E141" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F141" s="95"/>
+      <c r="F141" s="96"/>
       <c r="G141" s="32" t="s">
-        <v>117</v>
+        <v>432</v>
       </c>
       <c r="H141" s="68">
         <v>44435</v>
@@ -13582,9 +14598,9 @@
       <c r="E142" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F142" s="95"/>
+      <c r="F142" s="96"/>
       <c r="G142" s="32" t="s">
-        <v>108</v>
+        <v>433</v>
       </c>
       <c r="H142" s="68">
         <v>44435</v>
@@ -13610,9 +14626,9 @@
       <c r="E143" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F143" s="95"/>
+      <c r="F143" s="96"/>
       <c r="G143" s="32" t="s">
-        <v>108</v>
+        <v>434</v>
       </c>
       <c r="H143" s="68">
         <v>44435</v>
@@ -13638,7 +14654,7 @@
       <c r="E144" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F144" s="95"/>
+      <c r="F144" s="96"/>
       <c r="G144" s="32" t="s">
         <v>116</v>
       </c>
@@ -13666,9 +14682,9 @@
       <c r="E145" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F145" s="95"/>
+      <c r="F145" s="96"/>
       <c r="G145" s="31" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H145" s="68">
         <v>44435</v>
@@ -13694,9 +14710,9 @@
       <c r="E146" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F146" s="96"/>
+      <c r="F146" s="97"/>
       <c r="G146" s="31" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H146" s="68">
         <v>44435</v>
@@ -13715,7 +14731,7 @@
         <v>142</v>
       </c>
       <c r="B147" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C147" s="25" t="s">
         <v>78</v>
@@ -13726,11 +14742,11 @@
       <c r="E147" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F147" s="94" t="s">
+      <c r="F147" s="95" t="s">
+        <v>350</v>
+      </c>
+      <c r="G147" s="31" t="s">
         <v>351</v>
-      </c>
-      <c r="G147" s="31" t="s">
-        <v>352</v>
       </c>
       <c r="H147" s="68">
         <v>44435</v>
@@ -13756,9 +14772,9 @@
       <c r="E148" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F148" s="95"/>
+      <c r="F148" s="96"/>
       <c r="G148" s="31" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H148" s="68">
         <v>44435</v>
@@ -13784,9 +14800,9 @@
       <c r="E149" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F149" s="96"/>
+      <c r="F149" s="97"/>
       <c r="G149" s="32" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H149" s="68">
         <v>44435</v>
@@ -13805,7 +14821,7 @@
         <v>145</v>
       </c>
       <c r="B150" s="48" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C150" s="25" t="s">
         <v>136</v>
@@ -13813,14 +14829,14 @@
       <c r="D150" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E150" s="97" t="s">
+      <c r="E150" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="F150" s="94" t="s">
+      <c r="F150" s="95" t="s">
+        <v>357</v>
+      </c>
+      <c r="G150" s="98" t="s">
         <v>358</v>
-      </c>
-      <c r="G150" s="100" t="s">
-        <v>359</v>
       </c>
       <c r="H150" s="68">
         <v>44435</v>
@@ -13843,9 +14859,9 @@
       <c r="D151" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E151" s="98"/>
-      <c r="F151" s="95"/>
-      <c r="G151" s="101"/>
+      <c r="E151" s="109"/>
+      <c r="F151" s="96"/>
+      <c r="G151" s="99"/>
       <c r="H151" s="68">
         <v>44435</v>
       </c>
@@ -13867,9 +14883,9 @@
       <c r="D152" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E152" s="98"/>
-      <c r="F152" s="95"/>
-      <c r="G152" s="101"/>
+      <c r="E152" s="109"/>
+      <c r="F152" s="96"/>
+      <c r="G152" s="99"/>
       <c r="H152" s="68">
         <v>44435</v>
       </c>
@@ -13891,9 +14907,9 @@
       <c r="D153" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E153" s="98"/>
-      <c r="F153" s="95"/>
-      <c r="G153" s="101"/>
+      <c r="E153" s="109"/>
+      <c r="F153" s="96"/>
+      <c r="G153" s="99"/>
       <c r="H153" s="68">
         <v>44435</v>
       </c>
@@ -13915,9 +14931,9 @@
       <c r="D154" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E154" s="98"/>
-      <c r="F154" s="95"/>
-      <c r="G154" s="101"/>
+      <c r="E154" s="109"/>
+      <c r="F154" s="96"/>
+      <c r="G154" s="99"/>
       <c r="H154" s="68">
         <v>44435</v>
       </c>
@@ -13939,9 +14955,9 @@
       <c r="D155" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E155" s="98"/>
-      <c r="F155" s="95"/>
-      <c r="G155" s="101"/>
+      <c r="E155" s="109"/>
+      <c r="F155" s="96"/>
+      <c r="G155" s="99"/>
       <c r="H155" s="68">
         <v>44435</v>
       </c>
@@ -13963,9 +14979,9 @@
       <c r="D156" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E156" s="98"/>
-      <c r="F156" s="95"/>
-      <c r="G156" s="101"/>
+      <c r="E156" s="109"/>
+      <c r="F156" s="96"/>
+      <c r="G156" s="99"/>
       <c r="H156" s="68">
         <v>44435</v>
       </c>
@@ -13987,9 +15003,9 @@
       <c r="D157" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E157" s="98"/>
-      <c r="F157" s="95"/>
-      <c r="G157" s="101"/>
+      <c r="E157" s="109"/>
+      <c r="F157" s="96"/>
+      <c r="G157" s="99"/>
       <c r="H157" s="68">
         <v>44435</v>
       </c>
@@ -14011,9 +15027,9 @@
       <c r="D158" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E158" s="98"/>
-      <c r="F158" s="95"/>
-      <c r="G158" s="101"/>
+      <c r="E158" s="109"/>
+      <c r="F158" s="96"/>
+      <c r="G158" s="99"/>
       <c r="H158" s="68">
         <v>44435</v>
       </c>
@@ -14035,9 +15051,9 @@
       <c r="D159" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E159" s="98"/>
-      <c r="F159" s="95"/>
-      <c r="G159" s="101"/>
+      <c r="E159" s="109"/>
+      <c r="F159" s="96"/>
+      <c r="G159" s="99"/>
       <c r="H159" s="68">
         <v>44435</v>
       </c>
@@ -14059,9 +15075,9 @@
       <c r="D160" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E160" s="98"/>
-      <c r="F160" s="95"/>
-      <c r="G160" s="101"/>
+      <c r="E160" s="109"/>
+      <c r="F160" s="96"/>
+      <c r="G160" s="99"/>
       <c r="H160" s="68">
         <v>44435</v>
       </c>
@@ -14081,11 +15097,11 @@
       <c r="B161" s="48"/>
       <c r="C161" s="25"/>
       <c r="D161" s="11" t="s">
-        <v>357</v>
-      </c>
-      <c r="E161" s="98"/>
-      <c r="F161" s="95"/>
-      <c r="G161" s="102"/>
+        <v>356</v>
+      </c>
+      <c r="E161" s="109"/>
+      <c r="F161" s="96"/>
+      <c r="G161" s="100"/>
       <c r="H161" s="68">
         <v>44435</v>
       </c>
@@ -14105,12 +15121,12 @@
       <c r="B162" s="48"/>
       <c r="C162" s="25"/>
       <c r="D162" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="E162" s="98"/>
-      <c r="F162" s="95"/>
+        <v>150</v>
+      </c>
+      <c r="E162" s="109"/>
+      <c r="F162" s="96"/>
       <c r="G162" s="31" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H162" s="68">
         <v>44435</v>
@@ -14131,12 +15147,12 @@
       <c r="B163" s="48"/>
       <c r="C163" s="25"/>
       <c r="D163" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="E163" s="99"/>
-      <c r="F163" s="96"/>
+        <v>152</v>
+      </c>
+      <c r="E163" s="110"/>
+      <c r="F163" s="97"/>
       <c r="G163" s="31" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H163" s="68">
         <v>44435</v>
@@ -14156,19 +15172,19 @@
       </c>
       <c r="B164" s="48"/>
       <c r="C164" s="25" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D164" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="E164" s="89" t="s">
+      <c r="E164" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="F164" s="88" t="s">
-        <v>365</v>
+      <c r="F164" s="87" t="s">
+        <v>364</v>
       </c>
       <c r="G164" s="32" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H164" s="68">
         <v>44435</v>
@@ -14310,18 +15326,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="E73:E84"/>
-    <mergeCell ref="F73:F84"/>
-    <mergeCell ref="E86:E89"/>
-    <mergeCell ref="F86:F89"/>
-    <mergeCell ref="E90:E92"/>
-    <mergeCell ref="F90:F94"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="G12:G23"/>
-    <mergeCell ref="G38:G42"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="E59:E71"/>
-    <mergeCell ref="F57:F71"/>
     <mergeCell ref="E97:E108"/>
     <mergeCell ref="F97:F108"/>
     <mergeCell ref="E150:E163"/>
@@ -14330,6 +15334,18 @@
     <mergeCell ref="G110:G121"/>
     <mergeCell ref="F132:F146"/>
     <mergeCell ref="F147:F149"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="G12:G23"/>
+    <mergeCell ref="G38:G42"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="E59:E71"/>
+    <mergeCell ref="F57:F71"/>
+    <mergeCell ref="E73:E84"/>
+    <mergeCell ref="F73:F84"/>
+    <mergeCell ref="E86:E89"/>
+    <mergeCell ref="F86:F89"/>
+    <mergeCell ref="E90:E92"/>
+    <mergeCell ref="F90:F94"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -14340,10 +15356,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9E524B-C67B-4990-A5C3-077E8DAB7E38}">
-  <dimension ref="A1:L345"/>
+  <dimension ref="A1:L346"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A145" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F153" sqref="F153"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A155" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -14362,11 +15378,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A1" s="103" t="s">
-        <v>148</v>
-      </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="110"/>
+      <c r="A1" s="101" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="102"/>
+      <c r="C1" s="113"/>
       <c r="D1" s="53" t="s">
         <v>2</v>
       </c>
@@ -14389,9 +15405,9 @@
       <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A2" s="105"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="111"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="114"/>
       <c r="D2" s="53" t="s">
         <v>3</v>
       </c>
@@ -14428,10 +15444,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="69" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="82" t="s">
         <v>149</v>
-      </c>
-      <c r="C4" s="82" t="s">
-        <v>150</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>13</v>
@@ -14463,7 +15479,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="76" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C5" s="27" t="s">
         <v>55</v>
@@ -14472,16 +15488,16 @@
         <v>58</v>
       </c>
       <c r="E5" s="78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="79" t="s">
         <v>155</v>
-      </c>
-      <c r="F5" s="79" t="s">
-        <v>156</v>
       </c>
       <c r="G5" s="59">
         <v>44369</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I5" s="66"/>
       <c r="J5" s="64" t="s">
@@ -14494,25 +15510,25 @@
         <v>2</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E6" s="80" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G6" s="60">
         <v>44369</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I6" s="66"/>
       <c r="J6" s="17" t="s">
@@ -14529,19 +15545,19 @@
         <v>59</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E7" s="80" t="s">
+        <v>159</v>
+      </c>
+      <c r="F7" s="31" t="s">
         <v>160</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>161</v>
       </c>
       <c r="G7" s="60">
         <v>44369</v>
       </c>
       <c r="H7" s="61" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I7" s="66"/>
       <c r="J7" s="63" t="s">
@@ -14554,25 +15570,25 @@
         <v>4</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C8" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="100" t="s">
-        <v>205</v>
+      <c r="D8" s="98" t="s">
+        <v>204</v>
       </c>
       <c r="E8" s="80" t="s">
-        <v>162</v>
-      </c>
-      <c r="F8" s="100" t="s">
-        <v>203</v>
+        <v>161</v>
+      </c>
+      <c r="F8" s="98" t="s">
+        <v>202</v>
       </c>
       <c r="G8" s="60">
         <v>44369</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J8" s="17" t="s">
         <v>144</v>
@@ -14585,16 +15601,16 @@
       <c r="C9" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="101"/>
+      <c r="D9" s="99"/>
       <c r="E9" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="F9" s="101"/>
+        <v>161</v>
+      </c>
+      <c r="F9" s="99"/>
       <c r="G9" s="60">
         <v>44369</v>
       </c>
       <c r="H9" s="84" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J9" s="63" t="s">
         <v>144</v>
@@ -14607,16 +15623,16 @@
       <c r="C10" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="101"/>
+      <c r="D10" s="99"/>
       <c r="E10" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="101"/>
+      <c r="F10" s="99"/>
       <c r="G10" s="60">
         <v>44369</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J10" s="17" t="s">
         <v>144</v>
@@ -14629,16 +15645,16 @@
       <c r="C11" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="101"/>
+      <c r="D11" s="99"/>
       <c r="E11" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="101"/>
+      <c r="F11" s="99"/>
       <c r="G11" s="60">
         <v>44369</v>
       </c>
       <c r="H11" s="84" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J11" s="63" t="s">
         <v>144</v>
@@ -14651,16 +15667,16 @@
       <c r="C12" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="101"/>
+      <c r="D12" s="99"/>
       <c r="E12" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="101"/>
+      <c r="F12" s="99"/>
       <c r="G12" s="60">
         <v>44369</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J12" s="17" t="s">
         <v>144</v>
@@ -14673,16 +15689,16 @@
       <c r="C13" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="101"/>
+      <c r="D13" s="99"/>
       <c r="E13" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="101"/>
+      <c r="F13" s="99"/>
       <c r="G13" s="60">
         <v>44369</v>
       </c>
       <c r="H13" s="84" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J13" s="63" t="s">
         <v>144</v>
@@ -14695,16 +15711,16 @@
       <c r="C14" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="101"/>
+      <c r="D14" s="99"/>
       <c r="E14" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="101"/>
+      <c r="F14" s="99"/>
       <c r="G14" s="60">
         <v>44369</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J14" s="17" t="s">
         <v>144</v>
@@ -14717,16 +15733,16 @@
       <c r="C15" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="101"/>
+      <c r="D15" s="99"/>
       <c r="E15" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="101"/>
+      <c r="F15" s="99"/>
       <c r="G15" s="60">
         <v>44369</v>
       </c>
       <c r="H15" s="84" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J15" s="63" t="s">
         <v>144</v>
@@ -14739,16 +15755,16 @@
       <c r="C16" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="101"/>
+      <c r="D16" s="99"/>
       <c r="E16" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="101"/>
+      <c r="F16" s="99"/>
       <c r="G16" s="60">
         <v>44369</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J16" s="17" t="s">
         <v>144</v>
@@ -14761,16 +15777,16 @@
       <c r="C17" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="101"/>
+      <c r="D17" s="99"/>
       <c r="E17" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="101"/>
+      <c r="F17" s="99"/>
       <c r="G17" s="60">
         <v>44369</v>
       </c>
       <c r="H17" s="84" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J17" s="63" t="s">
         <v>144</v>
@@ -14783,16 +15799,16 @@
       <c r="C18" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="101"/>
+      <c r="D18" s="99"/>
       <c r="E18" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="101"/>
+      <c r="F18" s="99"/>
       <c r="G18" s="60">
         <v>44369</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J18" s="17" t="s">
         <v>144</v>
@@ -14805,16 +15821,16 @@
       <c r="C19" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="102"/>
+      <c r="D19" s="100"/>
       <c r="E19" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="102"/>
+      <c r="F19" s="100"/>
       <c r="G19" s="60">
         <v>44369</v>
       </c>
       <c r="H19" s="84" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J19" s="63" t="s">
         <v>144</v>
@@ -14825,25 +15841,25 @@
         <v>16</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C20" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="100" t="s">
-        <v>204</v>
-      </c>
-      <c r="E20" s="115" t="s">
-        <v>202</v>
-      </c>
-      <c r="F20" s="100" t="s">
-        <v>189</v>
+      <c r="D20" s="98" t="s">
+        <v>203</v>
+      </c>
+      <c r="E20" s="118" t="s">
+        <v>201</v>
+      </c>
+      <c r="F20" s="98" t="s">
+        <v>188</v>
       </c>
       <c r="G20" s="60">
         <v>44369</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I20" s="66"/>
       <c r="J20" s="17" t="s">
@@ -14859,14 +15875,14 @@
       <c r="C21" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="101"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="101"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="99"/>
       <c r="G21" s="60">
         <v>44369</v>
       </c>
       <c r="H21" s="84" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I21" s="66"/>
       <c r="J21" s="63" t="s">
@@ -14882,14 +15898,14 @@
       <c r="C22" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="101"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="101"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="99"/>
       <c r="G22" s="60">
         <v>44369</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I22" s="66"/>
       <c r="J22" s="17" t="s">
@@ -14905,14 +15921,14 @@
       <c r="C23" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="101"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="101"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="99"/>
       <c r="G23" s="60">
         <v>44369</v>
       </c>
       <c r="H23" s="84" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I23" s="67"/>
       <c r="J23" s="63" t="s">
@@ -14928,14 +15944,14 @@
       <c r="C24" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="101"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="102"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="100"/>
       <c r="G24" s="60">
         <v>44369</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I24" s="65"/>
       <c r="J24" s="17" t="s">
@@ -14951,16 +15967,16 @@
       <c r="C25" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="101"/>
-      <c r="E25" s="116"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="119"/>
       <c r="F25" s="31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G25" s="60">
         <v>44369</v>
       </c>
       <c r="H25" s="84" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I25" s="65"/>
       <c r="J25" s="63" t="s">
@@ -14976,16 +15992,16 @@
       <c r="C26" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="101"/>
-      <c r="E26" s="116"/>
-      <c r="F26" s="100" t="s">
-        <v>188</v>
+      <c r="D26" s="99"/>
+      <c r="E26" s="119"/>
+      <c r="F26" s="98" t="s">
+        <v>187</v>
       </c>
       <c r="G26" s="60">
         <v>44369</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I26" s="30"/>
       <c r="J26" s="17" t="s">
@@ -15001,14 +16017,14 @@
       <c r="C27" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="101"/>
-      <c r="E27" s="116"/>
-      <c r="F27" s="101"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="119"/>
+      <c r="F27" s="99"/>
       <c r="G27" s="60">
         <v>44369</v>
       </c>
       <c r="H27" s="84" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I27" s="65"/>
       <c r="J27" s="63" t="s">
@@ -15024,14 +16040,14 @@
       <c r="C28" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="101"/>
-      <c r="E28" s="116"/>
-      <c r="F28" s="101"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="99"/>
       <c r="G28" s="60">
         <v>44369</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I28" s="30"/>
       <c r="J28" s="17" t="s">
@@ -15047,14 +16063,14 @@
       <c r="C29" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="101"/>
-      <c r="E29" s="116"/>
-      <c r="F29" s="101"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="119"/>
+      <c r="F29" s="99"/>
       <c r="G29" s="60">
         <v>44369</v>
       </c>
       <c r="H29" s="84" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I29" s="67"/>
       <c r="J29" s="63" t="s">
@@ -15070,14 +16086,14 @@
       <c r="C30" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="101"/>
-      <c r="E30" s="116"/>
-      <c r="F30" s="101"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="119"/>
+      <c r="F30" s="99"/>
       <c r="G30" s="60">
         <v>44369</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I30" s="65"/>
       <c r="J30" s="17" t="s">
@@ -15093,14 +16109,14 @@
       <c r="C31" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="102"/>
-      <c r="E31" s="117"/>
-      <c r="F31" s="102"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="120"/>
+      <c r="F31" s="100"/>
       <c r="G31" s="60">
         <v>44369</v>
       </c>
       <c r="H31" s="84" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I31" s="65"/>
       <c r="J31" s="63" t="s">
@@ -15118,20 +16134,20 @@
       <c r="C32" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="100" t="s">
-        <v>220</v>
+      <c r="D32" s="98" t="s">
+        <v>219</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G32" s="60">
         <v>44369</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I32" s="65"/>
       <c r="J32" s="17" t="s">
@@ -15147,18 +16163,18 @@
       <c r="C33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="101"/>
+      <c r="D33" s="99"/>
       <c r="E33" s="31" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F33" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G33" s="60">
         <v>44369</v>
       </c>
       <c r="H33" s="84" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I33" s="30"/>
       <c r="J33" s="63" t="s">
@@ -15174,18 +16190,18 @@
       <c r="C34" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="101"/>
+      <c r="D34" s="99"/>
       <c r="E34" s="31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F34" s="32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G34" s="60">
         <v>44369</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I34" s="67"/>
       <c r="J34" s="17" t="s">
@@ -15201,18 +16217,18 @@
       <c r="C35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="101"/>
+      <c r="D35" s="99"/>
       <c r="E35" s="31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F35" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G35" s="60">
         <v>44369</v>
       </c>
       <c r="H35" s="84" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I35" s="30"/>
       <c r="J35" s="63" t="s">
@@ -15228,18 +16244,18 @@
       <c r="C36" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="101"/>
+      <c r="D36" s="99"/>
       <c r="E36" s="31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F36" s="32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G36" s="60">
         <v>44369</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I36" s="65"/>
       <c r="J36" s="17" t="s">
@@ -15255,18 +16271,18 @@
       <c r="C37" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="101"/>
+      <c r="D37" s="99"/>
       <c r="E37" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F37" s="32" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G37" s="60">
         <v>44369</v>
       </c>
       <c r="H37" s="84" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I37" s="31"/>
       <c r="J37" s="63" t="s">
@@ -15282,18 +16298,18 @@
       <c r="C38" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="101"/>
+      <c r="D38" s="99"/>
       <c r="E38" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F38" s="32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G38" s="60">
         <v>44369</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I38" s="30"/>
       <c r="J38" s="17" t="s">
@@ -15309,18 +16325,18 @@
       <c r="C39" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="101"/>
+      <c r="D39" s="99"/>
       <c r="E39" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F39" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G39" s="60">
         <v>44369</v>
       </c>
       <c r="H39" s="84" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I39" s="67"/>
       <c r="J39" s="63" t="s">
@@ -15336,18 +16352,18 @@
       <c r="C40" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="101"/>
+      <c r="D40" s="99"/>
       <c r="E40" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F40" s="32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G40" s="60">
         <v>44369</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I40" s="30"/>
       <c r="J40" s="17" t="s">
@@ -15363,18 +16379,18 @@
       <c r="C41" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="102"/>
+      <c r="D41" s="100"/>
       <c r="E41" s="31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F41" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G41" s="60">
         <v>44369</v>
       </c>
       <c r="H41" s="84" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I41" s="65"/>
       <c r="J41" s="63" t="s">
@@ -15387,25 +16403,25 @@
         <v>38</v>
       </c>
       <c r="B42" s="48" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C42" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="100" t="s">
-        <v>208</v>
-      </c>
-      <c r="E42" s="94" t="s">
-        <v>224</v>
-      </c>
-      <c r="F42" s="94" t="s">
+      <c r="D42" s="98" t="s">
         <v>207</v>
+      </c>
+      <c r="E42" s="95" t="s">
+        <v>223</v>
+      </c>
+      <c r="F42" s="95" t="s">
+        <v>206</v>
       </c>
       <c r="G42" s="60">
         <v>44369</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I42" s="65"/>
       <c r="J42" s="17" t="s">
@@ -15421,14 +16437,14 @@
       <c r="C43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="98"/>
-      <c r="E43" s="95"/>
-      <c r="F43" s="95"/>
+      <c r="D43" s="109"/>
+      <c r="E43" s="96"/>
+      <c r="F43" s="96"/>
       <c r="G43" s="60">
         <v>44369</v>
       </c>
       <c r="H43" s="84" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I43" s="65"/>
       <c r="J43" s="63" t="s">
@@ -15444,14 +16460,14 @@
       <c r="C44" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="98"/>
-      <c r="E44" s="95"/>
-      <c r="F44" s="95"/>
+      <c r="D44" s="109"/>
+      <c r="E44" s="96"/>
+      <c r="F44" s="96"/>
       <c r="G44" s="60">
         <v>44369</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I44" s="65"/>
       <c r="J44" s="17" t="s">
@@ -15467,14 +16483,14 @@
       <c r="C45" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="98"/>
-      <c r="E45" s="95"/>
-      <c r="F45" s="95"/>
+      <c r="D45" s="109"/>
+      <c r="E45" s="96"/>
+      <c r="F45" s="96"/>
       <c r="G45" s="60">
         <v>44369</v>
       </c>
       <c r="H45" s="84" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I45" s="65"/>
       <c r="J45" s="63" t="s">
@@ -15490,14 +16506,14 @@
       <c r="C46" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="98"/>
-      <c r="E46" s="95"/>
-      <c r="F46" s="95"/>
+      <c r="D46" s="109"/>
+      <c r="E46" s="96"/>
+      <c r="F46" s="96"/>
       <c r="G46" s="60">
         <v>44369</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I46" s="65"/>
       <c r="J46" s="17" t="s">
@@ -15513,14 +16529,14 @@
       <c r="C47" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="98"/>
-      <c r="E47" s="95"/>
-      <c r="F47" s="95"/>
+      <c r="D47" s="109"/>
+      <c r="E47" s="96"/>
+      <c r="F47" s="96"/>
       <c r="G47" s="60">
         <v>44369</v>
       </c>
       <c r="H47" s="84" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I47" s="65"/>
       <c r="J47" s="63" t="s">
@@ -15536,14 +16552,14 @@
       <c r="C48" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="98"/>
-      <c r="E48" s="95"/>
-      <c r="F48" s="95"/>
+      <c r="D48" s="109"/>
+      <c r="E48" s="96"/>
+      <c r="F48" s="96"/>
       <c r="G48" s="60">
         <v>44369</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I48" s="30"/>
       <c r="J48" s="17" t="s">
@@ -15559,14 +16575,14 @@
       <c r="C49" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D49" s="98"/>
-      <c r="E49" s="95"/>
-      <c r="F49" s="95"/>
+      <c r="D49" s="109"/>
+      <c r="E49" s="96"/>
+      <c r="F49" s="96"/>
       <c r="G49" s="60">
         <v>44369</v>
       </c>
       <c r="H49" s="84" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I49" s="65"/>
       <c r="J49" s="63" t="s">
@@ -15582,14 +16598,14 @@
       <c r="C50" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="98"/>
-      <c r="E50" s="95"/>
-      <c r="F50" s="95"/>
+      <c r="D50" s="109"/>
+      <c r="E50" s="96"/>
+      <c r="F50" s="96"/>
       <c r="G50" s="60">
         <v>44369</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I50" s="65"/>
       <c r="J50" s="17" t="s">
@@ -15605,14 +16621,14 @@
       <c r="C51" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D51" s="98"/>
-      <c r="E51" s="95"/>
-      <c r="F51" s="95"/>
+      <c r="D51" s="109"/>
+      <c r="E51" s="96"/>
+      <c r="F51" s="96"/>
       <c r="G51" s="60">
         <v>44369</v>
       </c>
       <c r="H51" s="84" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I51" s="65"/>
       <c r="J51" s="63" t="s">
@@ -15628,14 +16644,14 @@
       <c r="C52" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="98"/>
-      <c r="E52" s="95"/>
-      <c r="F52" s="95"/>
+      <c r="D52" s="109"/>
+      <c r="E52" s="96"/>
+      <c r="F52" s="96"/>
       <c r="G52" s="60">
         <v>44369</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I52" s="30"/>
       <c r="J52" s="17" t="s">
@@ -15651,14 +16667,14 @@
       <c r="C53" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="99"/>
-      <c r="E53" s="96"/>
-      <c r="F53" s="96"/>
+      <c r="D53" s="110"/>
+      <c r="E53" s="97"/>
+      <c r="F53" s="97"/>
       <c r="G53" s="60">
         <v>44369</v>
       </c>
       <c r="H53" s="84" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I53" s="65"/>
       <c r="J53" s="63" t="s">
@@ -15676,20 +16692,20 @@
       <c r="C54" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="100" t="s">
-        <v>206</v>
-      </c>
-      <c r="E54" s="94" t="s">
-        <v>224</v>
-      </c>
-      <c r="F54" s="112" t="s">
-        <v>179</v>
+      <c r="D54" s="98" t="s">
+        <v>205</v>
+      </c>
+      <c r="E54" s="95" t="s">
+        <v>223</v>
+      </c>
+      <c r="F54" s="115" t="s">
+        <v>178</v>
       </c>
       <c r="G54" s="60">
         <v>44369</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I54" s="65"/>
       <c r="J54" s="17" t="s">
@@ -15705,14 +16721,14 @@
       <c r="C55" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="98"/>
-      <c r="E55" s="95"/>
-      <c r="F55" s="113"/>
+      <c r="D55" s="109"/>
+      <c r="E55" s="96"/>
+      <c r="F55" s="116"/>
       <c r="G55" s="60">
         <v>44369</v>
       </c>
       <c r="H55" s="84" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I55" s="65"/>
       <c r="J55" s="63" t="s">
@@ -15728,14 +16744,14 @@
       <c r="C56" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="98"/>
-      <c r="E56" s="95"/>
-      <c r="F56" s="113"/>
+      <c r="D56" s="109"/>
+      <c r="E56" s="96"/>
+      <c r="F56" s="116"/>
       <c r="G56" s="60">
         <v>44369</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I56" s="65"/>
       <c r="J56" s="17" t="s">
@@ -15751,14 +16767,14 @@
       <c r="C57" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="98"/>
-      <c r="E57" s="95"/>
-      <c r="F57" s="113"/>
+      <c r="D57" s="109"/>
+      <c r="E57" s="96"/>
+      <c r="F57" s="116"/>
       <c r="G57" s="60">
         <v>44369</v>
       </c>
       <c r="H57" s="84" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I57" s="65"/>
       <c r="J57" s="63" t="s">
@@ -15774,14 +16790,14 @@
       <c r="C58" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="98"/>
-      <c r="E58" s="95"/>
-      <c r="F58" s="113"/>
+      <c r="D58" s="109"/>
+      <c r="E58" s="96"/>
+      <c r="F58" s="116"/>
       <c r="G58" s="60">
         <v>44369</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I58" s="65"/>
       <c r="J58" s="17" t="s">
@@ -15797,14 +16813,14 @@
       <c r="C59" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D59" s="98"/>
-      <c r="E59" s="95"/>
-      <c r="F59" s="114"/>
+      <c r="D59" s="109"/>
+      <c r="E59" s="96"/>
+      <c r="F59" s="117"/>
       <c r="G59" s="60">
         <v>44369</v>
       </c>
       <c r="H59" s="84" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I59" s="65"/>
       <c r="J59" s="63" t="s">
@@ -15820,16 +16836,16 @@
       <c r="C60" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="98"/>
-      <c r="E60" s="95"/>
+      <c r="D60" s="109"/>
+      <c r="E60" s="96"/>
       <c r="F60" s="32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G60" s="60">
         <v>44369</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I60" s="30"/>
       <c r="J60" s="17" t="s">
@@ -15845,16 +16861,16 @@
       <c r="C61" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="98"/>
-      <c r="E61" s="95"/>
+      <c r="D61" s="109"/>
+      <c r="E61" s="96"/>
       <c r="F61" s="32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G61" s="60">
         <v>44369</v>
       </c>
       <c r="H61" s="84" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I61" s="65"/>
       <c r="J61" s="63" t="s">
@@ -15870,16 +16886,16 @@
       <c r="C62" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D62" s="98"/>
-      <c r="E62" s="95"/>
+      <c r="D62" s="109"/>
+      <c r="E62" s="96"/>
       <c r="F62" s="32" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G62" s="60">
         <v>44369</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I62" s="65"/>
       <c r="J62" s="17" t="s">
@@ -15895,16 +16911,16 @@
       <c r="C63" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D63" s="98"/>
-      <c r="E63" s="95"/>
-      <c r="F63" s="112" t="s">
-        <v>183</v>
+      <c r="D63" s="109"/>
+      <c r="E63" s="96"/>
+      <c r="F63" s="115" t="s">
+        <v>182</v>
       </c>
       <c r="G63" s="60">
         <v>44369</v>
       </c>
       <c r="H63" s="84" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I63" s="65"/>
       <c r="J63" s="63" t="s">
@@ -15920,14 +16936,14 @@
       <c r="C64" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D64" s="98"/>
-      <c r="E64" s="95"/>
-      <c r="F64" s="114"/>
+      <c r="D64" s="109"/>
+      <c r="E64" s="96"/>
+      <c r="F64" s="117"/>
       <c r="G64" s="60">
         <v>44369</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I64" s="30"/>
       <c r="J64" s="17" t="s">
@@ -15943,16 +16959,16 @@
       <c r="C65" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D65" s="99"/>
-      <c r="E65" s="96"/>
+      <c r="D65" s="110"/>
+      <c r="E65" s="97"/>
       <c r="F65" s="32" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G65" s="60">
         <v>44369</v>
       </c>
       <c r="H65" s="84" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I65" s="65"/>
       <c r="J65" s="63" t="s">
@@ -15965,25 +16981,25 @@
         <v>62</v>
       </c>
       <c r="B66" s="75" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C66" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="100" t="s">
-        <v>222</v>
-      </c>
-      <c r="E66" s="100" t="s">
+      <c r="D66" s="98" t="s">
+        <v>221</v>
+      </c>
+      <c r="E66" s="98" t="s">
+        <v>163</v>
+      </c>
+      <c r="F66" s="95" t="s">
         <v>164</v>
-      </c>
-      <c r="F66" s="94" t="s">
-        <v>165</v>
       </c>
       <c r="G66" s="60">
         <v>44369</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I66" s="65"/>
       <c r="J66" s="17" t="s">
@@ -15999,14 +17015,14 @@
       <c r="C67" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="98"/>
-      <c r="E67" s="101"/>
-      <c r="F67" s="95"/>
+      <c r="D67" s="109"/>
+      <c r="E67" s="99"/>
+      <c r="F67" s="96"/>
       <c r="G67" s="60">
         <v>44369</v>
       </c>
       <c r="H67" s="84" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I67" s="30"/>
       <c r="J67" s="63" t="s">
@@ -16022,14 +17038,14 @@
       <c r="C68" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D68" s="98"/>
-      <c r="E68" s="101"/>
-      <c r="F68" s="95"/>
+      <c r="D68" s="109"/>
+      <c r="E68" s="99"/>
+      <c r="F68" s="96"/>
       <c r="G68" s="60">
         <v>44369</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I68" s="67"/>
       <c r="J68" s="17" t="s">
@@ -16045,14 +17061,14 @@
       <c r="C69" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D69" s="98"/>
-      <c r="E69" s="101"/>
-      <c r="F69" s="95"/>
+      <c r="D69" s="109"/>
+      <c r="E69" s="99"/>
+      <c r="F69" s="96"/>
       <c r="G69" s="60">
         <v>44369</v>
       </c>
       <c r="H69" s="84" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I69" s="30"/>
       <c r="J69" s="63" t="s">
@@ -16068,14 +17084,14 @@
       <c r="C70" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="98"/>
-      <c r="E70" s="101"/>
-      <c r="F70" s="95"/>
+      <c r="D70" s="109"/>
+      <c r="E70" s="99"/>
+      <c r="F70" s="96"/>
       <c r="G70" s="60">
         <v>44369</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I70" s="30"/>
       <c r="J70" s="17" t="s">
@@ -16091,14 +17107,14 @@
       <c r="C71" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D71" s="98"/>
-      <c r="E71" s="101"/>
-      <c r="F71" s="95"/>
+      <c r="D71" s="109"/>
+      <c r="E71" s="99"/>
+      <c r="F71" s="96"/>
       <c r="G71" s="60">
         <v>44369</v>
       </c>
       <c r="H71" s="84" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I71" s="30"/>
       <c r="J71" s="63" t="s">
@@ -16114,14 +17130,14 @@
       <c r="C72" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="98"/>
-      <c r="E72" s="101"/>
-      <c r="F72" s="95"/>
+      <c r="D72" s="109"/>
+      <c r="E72" s="99"/>
+      <c r="F72" s="96"/>
       <c r="G72" s="60">
         <v>44369</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I72" s="30"/>
       <c r="J72" s="17" t="s">
@@ -16137,14 +17153,14 @@
       <c r="C73" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="98"/>
-      <c r="E73" s="101"/>
-      <c r="F73" s="95"/>
+      <c r="D73" s="109"/>
+      <c r="E73" s="99"/>
+      <c r="F73" s="96"/>
       <c r="G73" s="60">
         <v>44369</v>
       </c>
       <c r="H73" s="84" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I73" s="67"/>
       <c r="J73" s="63" t="s">
@@ -16160,14 +17176,14 @@
       <c r="C74" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D74" s="98"/>
-      <c r="E74" s="101"/>
-      <c r="F74" s="95"/>
+      <c r="D74" s="109"/>
+      <c r="E74" s="99"/>
+      <c r="F74" s="96"/>
       <c r="G74" s="60">
         <v>44369</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I74" s="30"/>
       <c r="J74" s="17" t="s">
@@ -16183,14 +17199,14 @@
       <c r="C75" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="98"/>
-      <c r="E75" s="101"/>
-      <c r="F75" s="95"/>
+      <c r="D75" s="109"/>
+      <c r="E75" s="99"/>
+      <c r="F75" s="96"/>
       <c r="G75" s="60">
         <v>44369</v>
       </c>
       <c r="H75" s="84" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I75" s="67"/>
       <c r="J75" s="63" t="s">
@@ -16206,14 +17222,14 @@
       <c r="C76" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D76" s="98"/>
-      <c r="E76" s="101"/>
-      <c r="F76" s="95"/>
+      <c r="D76" s="109"/>
+      <c r="E76" s="99"/>
+      <c r="F76" s="96"/>
       <c r="G76" s="60">
         <v>44369</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I76" s="30"/>
       <c r="J76" s="17" t="s">
@@ -16229,14 +17245,14 @@
       <c r="C77" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D77" s="99"/>
-      <c r="E77" s="102"/>
-      <c r="F77" s="96"/>
+      <c r="D77" s="110"/>
+      <c r="E77" s="100"/>
+      <c r="F77" s="97"/>
       <c r="G77" s="60">
         <v>44369</v>
       </c>
       <c r="H77" s="84" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I77" s="30"/>
       <c r="J77" s="63" t="s">
@@ -16255,23 +17271,25 @@
         <v>129</v>
       </c>
       <c r="D78" s="83" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E78" s="31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F78" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G78" s="60">
         <v>44369</v>
       </c>
       <c r="H78" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="I78" s="30"/>
+        <v>227</v>
+      </c>
+      <c r="I78" s="30" t="s">
+        <v>449</v>
+      </c>
       <c r="J78" s="39" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K78" s="11"/>
     </row>
@@ -16283,22 +17301,22 @@
         <v>55</v>
       </c>
       <c r="C79" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="D79" s="98" t="s">
+        <v>222</v>
+      </c>
+      <c r="E79" s="98" t="s">
+        <v>237</v>
+      </c>
+      <c r="F79" s="32" t="s">
         <v>190</v>
-      </c>
-      <c r="D79" s="100" t="s">
-        <v>223</v>
-      </c>
-      <c r="E79" s="100" t="s">
-        <v>238</v>
-      </c>
-      <c r="F79" s="32" t="s">
-        <v>191</v>
       </c>
       <c r="G79" s="60">
         <v>44369</v>
       </c>
       <c r="H79" s="84" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I79" s="30"/>
       <c r="J79" s="63" t="s">
@@ -16314,16 +17332,16 @@
       <c r="C80" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D80" s="101"/>
-      <c r="E80" s="101"/>
+      <c r="D80" s="99"/>
+      <c r="E80" s="99"/>
       <c r="F80" s="32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G80" s="60">
         <v>44369</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I80" s="30"/>
       <c r="J80" s="17" t="s">
@@ -16339,16 +17357,16 @@
       <c r="C81" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D81" s="101"/>
-      <c r="E81" s="101"/>
+      <c r="D81" s="99"/>
+      <c r="E81" s="99"/>
       <c r="F81" s="32" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G81" s="60">
         <v>44369</v>
       </c>
       <c r="H81" s="84" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I81" s="30"/>
       <c r="J81" s="63" t="s">
@@ -16364,16 +17382,16 @@
       <c r="C82" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D82" s="101"/>
-      <c r="E82" s="101"/>
+      <c r="D82" s="99"/>
+      <c r="E82" s="99"/>
       <c r="F82" s="32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G82" s="60">
         <v>44369</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I82" s="30"/>
       <c r="J82" s="63" t="s">
@@ -16389,16 +17407,16 @@
       <c r="C83" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D83" s="101"/>
-      <c r="E83" s="101"/>
+      <c r="D83" s="99"/>
+      <c r="E83" s="99"/>
       <c r="F83" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G83" s="60">
         <v>44369</v>
       </c>
       <c r="H83" s="84" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I83" s="30"/>
       <c r="J83" s="17" t="s">
@@ -16414,16 +17432,16 @@
       <c r="C84" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D84" s="101"/>
-      <c r="E84" s="101"/>
+      <c r="D84" s="99"/>
+      <c r="E84" s="99"/>
       <c r="F84" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G84" s="60">
         <v>44369</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I84" s="30"/>
       <c r="J84" s="63" t="s">
@@ -16439,16 +17457,16 @@
       <c r="C85" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D85" s="101"/>
-      <c r="E85" s="101"/>
+      <c r="D85" s="99"/>
+      <c r="E85" s="99"/>
       <c r="F85" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G85" s="60">
         <v>44369</v>
       </c>
       <c r="H85" s="84" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I85" s="30"/>
       <c r="J85" s="63" t="s">
@@ -16464,16 +17482,16 @@
       <c r="C86" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D86" s="101"/>
-      <c r="E86" s="101"/>
+      <c r="D86" s="99"/>
+      <c r="E86" s="99"/>
       <c r="F86" s="32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G86" s="60">
         <v>44369</v>
       </c>
       <c r="H86" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I86" s="30"/>
       <c r="J86" s="17" t="s">
@@ -16489,16 +17507,16 @@
       <c r="C87" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D87" s="101"/>
-      <c r="E87" s="101"/>
+      <c r="D87" s="99"/>
+      <c r="E87" s="99"/>
       <c r="F87" s="32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G87" s="60">
         <v>44369</v>
       </c>
       <c r="H87" s="84" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I87" s="30"/>
       <c r="J87" s="63" t="s">
@@ -16514,16 +17532,16 @@
       <c r="C88" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D88" s="101"/>
-      <c r="E88" s="101"/>
+      <c r="D88" s="99"/>
+      <c r="E88" s="99"/>
       <c r="F88" s="32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G88" s="60">
         <v>44369</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I88" s="30"/>
       <c r="J88" s="63" t="s">
@@ -16539,16 +17557,16 @@
       <c r="C89" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D89" s="101"/>
-      <c r="E89" s="101"/>
+      <c r="D89" s="99"/>
+      <c r="E89" s="99"/>
       <c r="F89" s="32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G89" s="60">
         <v>44369</v>
       </c>
       <c r="H89" s="84" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I89" s="30"/>
       <c r="J89" s="17" t="s">
@@ -16564,16 +17582,16 @@
       <c r="C90" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D90" s="101"/>
-      <c r="E90" s="101"/>
+      <c r="D90" s="99"/>
+      <c r="E90" s="99"/>
       <c r="F90" s="32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G90" s="60">
         <v>44369</v>
       </c>
       <c r="H90" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I90" s="30"/>
       <c r="J90" s="63" t="s">
@@ -16589,16 +17607,16 @@
       <c r="C91" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D91" s="101"/>
-      <c r="E91" s="101"/>
+      <c r="D91" s="99"/>
+      <c r="E91" s="99"/>
       <c r="F91" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G91" s="60">
         <v>44369</v>
       </c>
       <c r="H91" s="84" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I91" s="30"/>
       <c r="J91" s="63" t="s">
@@ -16612,18 +17630,18 @@
       </c>
       <c r="B92" s="72"/>
       <c r="C92" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="D92" s="101"/>
-      <c r="E92" s="101"/>
+        <v>150</v>
+      </c>
+      <c r="D92" s="99"/>
+      <c r="E92" s="99"/>
       <c r="F92" s="31" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G92" s="60">
         <v>44369</v>
       </c>
       <c r="H92" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I92" s="30"/>
       <c r="J92" s="17" t="s">
@@ -16637,21 +17655,21 @@
       </c>
       <c r="B93" s="72"/>
       <c r="C93" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="D93" s="101"/>
-      <c r="E93" s="101"/>
+        <v>151</v>
+      </c>
+      <c r="D93" s="99"/>
+      <c r="E93" s="99"/>
       <c r="F93" s="31" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G93" s="60">
         <v>44369</v>
       </c>
       <c r="H93" s="84" t="s">
+        <v>227</v>
+      </c>
+      <c r="I93" s="30" t="s">
         <v>228</v>
-      </c>
-      <c r="I93" s="30" t="s">
-        <v>229</v>
       </c>
       <c r="J93" s="63" t="s">
         <v>144</v>
@@ -16664,21 +17682,21 @@
       </c>
       <c r="B94" s="72"/>
       <c r="C94" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="D94" s="102"/>
-      <c r="E94" s="102"/>
+        <v>152</v>
+      </c>
+      <c r="D94" s="100"/>
+      <c r="E94" s="100"/>
       <c r="F94" s="31" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G94" s="60">
         <v>44369</v>
       </c>
       <c r="H94" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="I94" s="30" t="s">
         <v>228</v>
-      </c>
-      <c r="I94" s="30" t="s">
-        <v>229</v>
       </c>
       <c r="J94" s="63" t="s">
         <v>144</v>
@@ -16690,25 +17708,25 @@
         <v>91</v>
       </c>
       <c r="B95" s="72" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C95" s="37" t="s">
         <v>132</v>
       </c>
       <c r="D95" s="72" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E95" s="37" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F95" s="31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G95" s="60">
         <v>44369</v>
       </c>
-      <c r="H95" s="87" t="s">
-        <v>228</v>
+      <c r="H95" s="86" t="s">
+        <v>227</v>
       </c>
       <c r="I95" s="30"/>
       <c r="J95" s="17" t="s">
@@ -16721,25 +17739,25 @@
         <v>92</v>
       </c>
       <c r="B96" s="72" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C96" s="37" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D96" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="E96" s="37" t="s">
         <v>241</v>
       </c>
-      <c r="E96" s="37" t="s">
-        <v>242</v>
-      </c>
       <c r="F96" s="37" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G96" s="60">
         <v>44369</v>
       </c>
-      <c r="H96" s="90" t="s">
-        <v>228</v>
+      <c r="H96" s="89" t="s">
+        <v>227</v>
       </c>
       <c r="I96" s="32"/>
       <c r="J96" s="63" t="s">
@@ -16756,19 +17774,19 @@
         <v>59</v>
       </c>
       <c r="D97" s="72" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E97" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F97" s="37" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G97" s="60">
         <v>44369</v>
       </c>
       <c r="H97" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I97" s="32"/>
       <c r="J97" s="17" t="s">
@@ -16784,22 +17802,22 @@
         <v>55</v>
       </c>
       <c r="C98" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="D98" s="94" t="s">
-        <v>244</v>
-      </c>
-      <c r="E98" s="94" t="s">
-        <v>242</v>
+        <v>189</v>
+      </c>
+      <c r="D98" s="95" t="s">
+        <v>243</v>
+      </c>
+      <c r="E98" s="95" t="s">
+        <v>241</v>
       </c>
       <c r="F98" s="37" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G98" s="60">
         <v>44369</v>
       </c>
-      <c r="H98" s="90" t="s">
-        <v>228</v>
+      <c r="H98" s="89" t="s">
+        <v>227</v>
       </c>
       <c r="I98" s="32"/>
       <c r="J98" s="63" t="s">
@@ -16815,16 +17833,16 @@
       <c r="C99" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D99" s="118"/>
-      <c r="E99" s="95"/>
+      <c r="D99" s="111"/>
+      <c r="E99" s="96"/>
       <c r="F99" s="37" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G99" s="60">
         <v>44369</v>
       </c>
-      <c r="H99" s="90" t="s">
-        <v>228</v>
+      <c r="H99" s="89" t="s">
+        <v>227</v>
       </c>
       <c r="I99" s="32"/>
       <c r="J99" s="17" t="s">
@@ -16840,16 +17858,16 @@
       <c r="C100" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D100" s="118"/>
-      <c r="E100" s="95"/>
+      <c r="D100" s="111"/>
+      <c r="E100" s="96"/>
       <c r="F100" s="37" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G100" s="60">
         <v>44369</v>
       </c>
       <c r="H100" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I100" s="32"/>
       <c r="J100" s="63" t="s">
@@ -16865,16 +17883,16 @@
       <c r="C101" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D101" s="118"/>
-      <c r="E101" s="95"/>
+      <c r="D101" s="111"/>
+      <c r="E101" s="96"/>
       <c r="F101" s="37" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G101" s="60">
         <v>44369</v>
       </c>
-      <c r="H101" s="90" t="s">
-        <v>228</v>
+      <c r="H101" s="89" t="s">
+        <v>227</v>
       </c>
       <c r="I101" s="32"/>
       <c r="J101" s="17" t="s">
@@ -16890,16 +17908,16 @@
       <c r="C102" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D102" s="118"/>
-      <c r="E102" s="95"/>
+      <c r="D102" s="111"/>
+      <c r="E102" s="96"/>
       <c r="F102" s="37" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G102" s="60">
         <v>44369</v>
       </c>
-      <c r="H102" s="90" t="s">
-        <v>228</v>
+      <c r="H102" s="89" t="s">
+        <v>227</v>
       </c>
       <c r="I102" s="32"/>
       <c r="J102" s="63" t="s">
@@ -16915,16 +17933,16 @@
       <c r="C103" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D103" s="118"/>
-      <c r="E103" s="95"/>
+      <c r="D103" s="111"/>
+      <c r="E103" s="96"/>
       <c r="F103" s="37" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G103" s="60">
         <v>44369</v>
       </c>
       <c r="H103" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I103" s="32"/>
       <c r="J103" s="17" t="s">
@@ -16940,16 +17958,16 @@
       <c r="C104" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D104" s="118"/>
-      <c r="E104" s="95"/>
+      <c r="D104" s="111"/>
+      <c r="E104" s="96"/>
       <c r="F104" s="37" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G104" s="60">
         <v>44369</v>
       </c>
-      <c r="H104" s="90" t="s">
-        <v>228</v>
+      <c r="H104" s="89" t="s">
+        <v>227</v>
       </c>
       <c r="I104" s="32"/>
       <c r="J104" s="63" t="s">
@@ -16965,16 +17983,16 @@
       <c r="C105" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D105" s="118"/>
-      <c r="E105" s="95"/>
+      <c r="D105" s="111"/>
+      <c r="E105" s="96"/>
       <c r="F105" s="37" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G105" s="60">
         <v>44369</v>
       </c>
-      <c r="H105" s="90" t="s">
-        <v>228</v>
+      <c r="H105" s="89" t="s">
+        <v>227</v>
       </c>
       <c r="I105" s="32"/>
       <c r="J105" s="17" t="s">
@@ -16988,18 +18006,18 @@
       </c>
       <c r="B106" s="72"/>
       <c r="C106" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="D106" s="118"/>
-      <c r="E106" s="95"/>
+        <v>150</v>
+      </c>
+      <c r="D106" s="111"/>
+      <c r="E106" s="96"/>
       <c r="F106" s="37" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G106" s="60">
         <v>44369</v>
       </c>
       <c r="H106" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I106" s="32"/>
       <c r="J106" s="63" t="s">
@@ -17013,18 +18031,18 @@
       </c>
       <c r="B107" s="72"/>
       <c r="C107" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="D107" s="118"/>
-      <c r="E107" s="95"/>
+        <v>151</v>
+      </c>
+      <c r="D107" s="111"/>
+      <c r="E107" s="96"/>
       <c r="F107" s="37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G107" s="60">
         <v>44369</v>
       </c>
-      <c r="H107" s="90" t="s">
-        <v>228</v>
+      <c r="H107" s="89" t="s">
+        <v>227</v>
       </c>
       <c r="I107" s="32"/>
       <c r="J107" s="17" t="s">
@@ -17038,18 +18056,18 @@
       </c>
       <c r="B108" s="72"/>
       <c r="C108" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="D108" s="119"/>
-      <c r="E108" s="96"/>
+        <v>152</v>
+      </c>
+      <c r="D108" s="112"/>
+      <c r="E108" s="97"/>
       <c r="F108" s="37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G108" s="60">
         <v>44369</v>
       </c>
-      <c r="H108" s="90" t="s">
-        <v>228</v>
+      <c r="H108" s="89" t="s">
+        <v>227</v>
       </c>
       <c r="I108" s="32"/>
       <c r="J108" s="63" t="s">
@@ -17062,25 +18080,25 @@
         <v>105</v>
       </c>
       <c r="B109" s="72" t="s">
+        <v>244</v>
+      </c>
+      <c r="C109" s="37" t="s">
         <v>245</v>
       </c>
-      <c r="C109" s="37" t="s">
-        <v>246</v>
-      </c>
-      <c r="D109" s="86" t="s">
-        <v>248</v>
+      <c r="D109" s="90" t="s">
+        <v>247</v>
       </c>
       <c r="E109" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F109" s="37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G109" s="60">
         <v>44369</v>
       </c>
       <c r="H109" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I109" s="32"/>
       <c r="J109" s="17" t="s">
@@ -17094,22 +18112,22 @@
       </c>
       <c r="B110" s="72"/>
       <c r="C110" s="37" t="s">
-        <v>247</v>
-      </c>
-      <c r="D110" s="86" t="s">
-        <v>249</v>
+        <v>246</v>
+      </c>
+      <c r="D110" s="90" t="s">
+        <v>248</v>
       </c>
       <c r="E110" s="37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F110" s="37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G110" s="60">
         <v>44369</v>
       </c>
-      <c r="H110" s="90" t="s">
-        <v>228</v>
+      <c r="H110" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="I110" s="32"/>
       <c r="J110" s="63" t="s">
@@ -17122,25 +18140,25 @@
         <v>107</v>
       </c>
       <c r="B111" s="72" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C111" s="37" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D111" s="72" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E111" s="37" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F111" s="37" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G111" s="60">
         <v>44369</v>
       </c>
-      <c r="H111" s="90" t="s">
-        <v>228</v>
+      <c r="H111" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="I111" s="32"/>
       <c r="J111" s="17" t="s">
@@ -17157,19 +18175,19 @@
         <v>83</v>
       </c>
       <c r="D112" s="72" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E112" s="37" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F112" s="37" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G112" s="60">
         <v>44369</v>
       </c>
       <c r="H112" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I112" s="32"/>
       <c r="J112" s="63" t="s">
@@ -17182,25 +18200,25 @@
         <v>109</v>
       </c>
       <c r="B113" s="72" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C113" s="37" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D113" s="72" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E113" s="37" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F113" s="37" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G113" s="60">
         <v>44369</v>
       </c>
-      <c r="H113" s="90" t="s">
-        <v>228</v>
+      <c r="H113" s="89" t="s">
+        <v>227</v>
       </c>
       <c r="I113" s="32"/>
       <c r="J113" s="17" t="s">
@@ -17209,21 +18227,23 @@
       <c r="K113" s="17"/>
     </row>
     <row r="114" spans="1:11" ht="47.25" customHeight="1">
-      <c r="A114" s="17"/>
+      <c r="A114" s="12">
+        <v>110</v>
+      </c>
       <c r="B114" s="72" t="s">
         <v>55</v>
       </c>
       <c r="C114" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D114" s="94" t="s">
+      <c r="D114" s="95" t="s">
+        <v>372</v>
+      </c>
+      <c r="E114" s="95" t="s">
         <v>373</v>
       </c>
-      <c r="E114" s="94" t="s">
-        <v>374</v>
-      </c>
       <c r="F114" s="37" t="s">
-        <v>375</v>
+        <v>412</v>
       </c>
       <c r="G114" s="17"/>
       <c r="H114" s="17"/>
@@ -17232,15 +18252,17 @@
       <c r="K114" s="17"/>
     </row>
     <row r="115" spans="1:11" ht="31.5">
-      <c r="A115" s="17"/>
+      <c r="A115" s="12">
+        <v>111</v>
+      </c>
       <c r="B115" s="72"/>
       <c r="C115" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D115" s="95"/>
-      <c r="E115" s="95"/>
+      <c r="D115" s="96"/>
+      <c r="E115" s="96"/>
       <c r="F115" s="37" t="s">
-        <v>376</v>
+        <v>413</v>
       </c>
       <c r="G115" s="17"/>
       <c r="H115" s="17"/>
@@ -17249,15 +18271,17 @@
       <c r="K115" s="17"/>
     </row>
     <row r="116" spans="1:11" ht="31.5">
-      <c r="A116" s="17"/>
+      <c r="A116" s="12">
+        <v>112</v>
+      </c>
       <c r="B116" s="72"/>
       <c r="C116" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D116" s="95"/>
-      <c r="E116" s="95"/>
+      <c r="D116" s="96"/>
+      <c r="E116" s="96"/>
       <c r="F116" s="37" t="s">
-        <v>377</v>
+        <v>414</v>
       </c>
       <c r="G116" s="17"/>
       <c r="H116" s="17"/>
@@ -17266,15 +18290,17 @@
       <c r="K116" s="17"/>
     </row>
     <row r="117" spans="1:11" ht="31.5">
-      <c r="A117" s="17"/>
+      <c r="A117" s="12">
+        <v>113</v>
+      </c>
       <c r="B117" s="72"/>
       <c r="C117" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D117" s="95"/>
-      <c r="E117" s="95"/>
+      <c r="D117" s="96"/>
+      <c r="E117" s="96"/>
       <c r="F117" s="37" t="s">
-        <v>378</v>
+        <v>415</v>
       </c>
       <c r="G117" s="17"/>
       <c r="H117" s="17"/>
@@ -17283,15 +18309,17 @@
       <c r="K117" s="17"/>
     </row>
     <row r="118" spans="1:11" ht="31.5">
-      <c r="A118" s="17"/>
+      <c r="A118" s="12">
+        <v>114</v>
+      </c>
       <c r="B118" s="72"/>
       <c r="C118" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D118" s="95"/>
-      <c r="E118" s="95"/>
+      <c r="D118" s="96"/>
+      <c r="E118" s="96"/>
       <c r="F118" s="37" t="s">
-        <v>379</v>
+        <v>416</v>
       </c>
       <c r="G118" s="17"/>
       <c r="H118" s="17"/>
@@ -17300,15 +18328,17 @@
       <c r="K118" s="17"/>
     </row>
     <row r="119" spans="1:11" ht="31.5">
-      <c r="A119" s="17"/>
+      <c r="A119" s="12">
+        <v>115</v>
+      </c>
       <c r="B119" s="72"/>
       <c r="C119" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D119" s="95"/>
-      <c r="E119" s="95"/>
+      <c r="D119" s="96"/>
+      <c r="E119" s="96"/>
       <c r="F119" s="37" t="s">
-        <v>380</v>
+        <v>417</v>
       </c>
       <c r="G119" s="17"/>
       <c r="H119" s="17"/>
@@ -17317,15 +18347,17 @@
       <c r="K119" s="17"/>
     </row>
     <row r="120" spans="1:11" ht="31.5">
-      <c r="A120" s="17"/>
+      <c r="A120" s="12">
+        <v>116</v>
+      </c>
       <c r="B120" s="72"/>
       <c r="C120" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D120" s="95"/>
-      <c r="E120" s="95"/>
+      <c r="D120" s="96"/>
+      <c r="E120" s="96"/>
       <c r="F120" s="37" t="s">
-        <v>381</v>
+        <v>418</v>
       </c>
       <c r="G120" s="17"/>
       <c r="H120" s="17"/>
@@ -17334,15 +18366,17 @@
       <c r="K120" s="17"/>
     </row>
     <row r="121" spans="1:11" ht="31.5">
-      <c r="A121" s="17"/>
+      <c r="A121" s="12">
+        <v>117</v>
+      </c>
       <c r="B121" s="72"/>
       <c r="C121" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D121" s="95"/>
-      <c r="E121" s="95"/>
+      <c r="D121" s="96"/>
+      <c r="E121" s="96"/>
       <c r="F121" s="37" t="s">
-        <v>382</v>
+        <v>419</v>
       </c>
       <c r="G121" s="17"/>
       <c r="H121" s="17"/>
@@ -17351,15 +18385,17 @@
       <c r="K121" s="17"/>
     </row>
     <row r="122" spans="1:11" ht="31.5">
-      <c r="A122" s="17"/>
+      <c r="A122" s="12">
+        <v>118</v>
+      </c>
       <c r="B122" s="72"/>
       <c r="C122" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D122" s="95"/>
-      <c r="E122" s="95"/>
+      <c r="D122" s="96"/>
+      <c r="E122" s="96"/>
       <c r="F122" s="37" t="s">
-        <v>383</v>
+        <v>420</v>
       </c>
       <c r="G122" s="17"/>
       <c r="H122" s="17"/>
@@ -17368,15 +18404,17 @@
       <c r="K122" s="17"/>
     </row>
     <row r="123" spans="1:11" ht="31.5">
-      <c r="A123" s="17"/>
+      <c r="A123" s="12">
+        <v>119</v>
+      </c>
       <c r="B123" s="72"/>
       <c r="C123" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D123" s="95"/>
-      <c r="E123" s="95"/>
+      <c r="D123" s="96"/>
+      <c r="E123" s="96"/>
       <c r="F123" s="37" t="s">
-        <v>384</v>
+        <v>421</v>
       </c>
       <c r="G123" s="17"/>
       <c r="H123" s="17"/>
@@ -17385,15 +18423,17 @@
       <c r="K123" s="17"/>
     </row>
     <row r="124" spans="1:11" ht="31.5">
-      <c r="A124" s="17"/>
+      <c r="A124" s="12">
+        <v>120</v>
+      </c>
       <c r="B124" s="72"/>
       <c r="C124" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D124" s="95"/>
-      <c r="E124" s="95"/>
+      <c r="D124" s="96"/>
+      <c r="E124" s="96"/>
       <c r="F124" s="37" t="s">
-        <v>385</v>
+        <v>422</v>
       </c>
       <c r="G124" s="17"/>
       <c r="H124" s="17"/>
@@ -17402,15 +18442,17 @@
       <c r="K124" s="17"/>
     </row>
     <row r="125" spans="1:11" ht="31.5">
-      <c r="A125" s="17"/>
+      <c r="A125" s="12">
+        <v>121</v>
+      </c>
       <c r="B125" s="72"/>
       <c r="C125" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D125" s="96"/>
-      <c r="E125" s="96"/>
+      <c r="D125" s="97"/>
+      <c r="E125" s="97"/>
       <c r="F125" s="37" t="s">
-        <v>386</v>
+        <v>423</v>
       </c>
       <c r="G125" s="17"/>
       <c r="H125" s="17"/>
@@ -17419,21 +18461,23 @@
       <c r="K125" s="17"/>
     </row>
     <row r="126" spans="1:11" ht="47.25">
-      <c r="A126" s="17"/>
+      <c r="A126" s="12">
+        <v>122</v>
+      </c>
       <c r="B126" s="72" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C126" s="37" t="s">
         <v>49</v>
       </c>
       <c r="D126" s="72" t="s">
-        <v>388</v>
-      </c>
-      <c r="E126" s="120" t="s">
-        <v>387</v>
+        <v>375</v>
+      </c>
+      <c r="E126" s="91" t="s">
+        <v>374</v>
       </c>
       <c r="F126" s="37" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="G126" s="17"/>
       <c r="H126" s="17"/>
@@ -17442,7 +18486,9 @@
       <c r="K126" s="17"/>
     </row>
     <row r="127" spans="1:11" ht="31.5">
-      <c r="A127" s="17"/>
+      <c r="A127" s="12">
+        <v>123</v>
+      </c>
       <c r="B127" s="72" t="s">
         <v>55</v>
       </c>
@@ -17450,13 +18496,13 @@
         <v>136</v>
       </c>
       <c r="D127" s="37" t="s">
-        <v>390</v>
-      </c>
-      <c r="E127" s="120" t="s">
-        <v>387</v>
+        <v>377</v>
+      </c>
+      <c r="E127" s="91" t="s">
+        <v>374</v>
       </c>
       <c r="F127" s="37" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="G127" s="17"/>
       <c r="H127" s="17"/>
@@ -17465,21 +18511,23 @@
       <c r="K127" s="17"/>
     </row>
     <row r="128" spans="1:11" ht="47.25">
-      <c r="A128" s="17"/>
+      <c r="A128" s="12">
+        <v>124</v>
+      </c>
       <c r="B128" s="72" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C128" s="37" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D128" s="72" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="E128" s="72" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="F128" s="37" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="G128" s="17"/>
       <c r="H128" s="17"/>
@@ -17487,22 +18535,24 @@
       <c r="J128" s="17"/>
       <c r="K128" s="17"/>
     </row>
-    <row r="129" spans="1:11" ht="31.5">
-      <c r="A129" s="17"/>
+    <row r="129" spans="1:11" ht="47.25">
+      <c r="A129" s="12">
+        <v>125</v>
+      </c>
       <c r="B129" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="C129" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D129" s="94" t="s">
-        <v>392</v>
-      </c>
-      <c r="E129" s="94" t="s">
-        <v>394</v>
+      <c r="C129" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="D129" s="72" t="s">
+        <v>379</v>
+      </c>
+      <c r="E129" s="72" t="s">
+        <v>380</v>
       </c>
       <c r="F129" s="37" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="G129" s="17"/>
       <c r="H129" s="17"/>
@@ -17510,16 +18560,24 @@
       <c r="J129" s="17"/>
       <c r="K129" s="17"/>
     </row>
-    <row r="130" spans="1:11" ht="31.5">
-      <c r="A130" s="17"/>
-      <c r="B130" s="72"/>
-      <c r="C130" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D130" s="95"/>
-      <c r="E130" s="95"/>
+    <row r="130" spans="1:11" ht="15.75">
+      <c r="A130" s="12">
+        <v>126</v>
+      </c>
+      <c r="B130" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="C130" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="D130" s="95" t="s">
+        <v>384</v>
+      </c>
+      <c r="E130" s="95" t="s">
+        <v>383</v>
+      </c>
       <c r="F130" s="37" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="G130" s="17"/>
       <c r="H130" s="17"/>
@@ -17528,15 +18586,17 @@
       <c r="K130" s="17"/>
     </row>
     <row r="131" spans="1:11" ht="31.5">
-      <c r="A131" s="17"/>
+      <c r="A131" s="12">
+        <v>127</v>
+      </c>
       <c r="B131" s="72"/>
-      <c r="C131" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D131" s="95"/>
-      <c r="E131" s="95"/>
+      <c r="C131" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="D131" s="97"/>
+      <c r="E131" s="97"/>
       <c r="F131" s="37" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="G131" s="17"/>
       <c r="H131" s="17"/>
@@ -17544,16 +18604,24 @@
       <c r="J131" s="17"/>
       <c r="K131" s="17"/>
     </row>
-    <row r="132" spans="1:11" ht="31.5">
-      <c r="A132" s="17"/>
-      <c r="B132" s="72"/>
-      <c r="C132" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D132" s="95"/>
-      <c r="E132" s="95"/>
+    <row r="132" spans="1:11" ht="47.25">
+      <c r="A132" s="12">
+        <v>128</v>
+      </c>
+      <c r="B132" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="C132" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="D132" s="72" t="s">
+        <v>387</v>
+      </c>
+      <c r="E132" s="72" t="s">
+        <v>389</v>
+      </c>
       <c r="F132" s="37" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="G132" s="17"/>
       <c r="H132" s="17"/>
@@ -17561,16 +18629,24 @@
       <c r="J132" s="17"/>
       <c r="K132" s="17"/>
     </row>
-    <row r="133" spans="1:11" ht="31.5">
-      <c r="A133" s="17"/>
-      <c r="B133" s="72"/>
-      <c r="C133" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D133" s="95"/>
-      <c r="E133" s="95"/>
-      <c r="F133" s="37" t="s">
-        <v>402</v>
+    <row r="133" spans="1:11" ht="47.25">
+      <c r="A133" s="12">
+        <v>129</v>
+      </c>
+      <c r="B133" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C133" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="D133" s="83" t="s">
+        <v>391</v>
+      </c>
+      <c r="E133" s="31" t="s">
+        <v>392</v>
+      </c>
+      <c r="F133" s="32" t="s">
+        <v>448</v>
       </c>
       <c r="G133" s="17"/>
       <c r="H133" s="17"/>
@@ -17578,16 +18654,24 @@
       <c r="J133" s="17"/>
       <c r="K133" s="17"/>
     </row>
-    <row r="134" spans="1:11" ht="31.5">
-      <c r="A134" s="17"/>
-      <c r="B134" s="72"/>
-      <c r="C134" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D134" s="95"/>
-      <c r="E134" s="95"/>
+    <row r="134" spans="1:11" ht="47.25">
+      <c r="A134" s="12">
+        <v>130</v>
+      </c>
+      <c r="B134" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="C134" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="D134" s="72" t="s">
+        <v>393</v>
+      </c>
+      <c r="E134" s="72" t="s">
+        <v>406</v>
+      </c>
       <c r="F134" s="37" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="G134" s="17"/>
       <c r="H134" s="17"/>
@@ -17595,16 +18679,22 @@
       <c r="J134" s="17"/>
       <c r="K134" s="17"/>
     </row>
-    <row r="135" spans="1:11" ht="31.5">
-      <c r="A135" s="17"/>
+    <row r="135" spans="1:11" ht="47.25">
+      <c r="A135" s="12">
+        <v>131</v>
+      </c>
       <c r="B135" s="72"/>
-      <c r="C135" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D135" s="95"/>
-      <c r="E135" s="95"/>
+      <c r="C135" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="D135" s="72" t="s">
+        <v>394</v>
+      </c>
+      <c r="E135" s="72" t="s">
+        <v>405</v>
+      </c>
       <c r="F135" s="37" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="G135" s="17"/>
       <c r="H135" s="17"/>
@@ -17612,16 +18702,22 @@
       <c r="J135" s="17"/>
       <c r="K135" s="17"/>
     </row>
-    <row r="136" spans="1:11" ht="31.5">
-      <c r="A136" s="17"/>
+    <row r="136" spans="1:11" ht="47.25">
+      <c r="A136" s="12">
+        <v>132</v>
+      </c>
       <c r="B136" s="72"/>
-      <c r="C136" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D136" s="95"/>
-      <c r="E136" s="95"/>
+      <c r="C136" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="D136" s="72" t="s">
+        <v>395</v>
+      </c>
+      <c r="E136" s="72" t="s">
+        <v>404</v>
+      </c>
       <c r="F136" s="37" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="G136" s="17"/>
       <c r="H136" s="17"/>
@@ -17629,16 +18725,22 @@
       <c r="J136" s="17"/>
       <c r="K136" s="17"/>
     </row>
-    <row r="137" spans="1:11" ht="31.5">
-      <c r="A137" s="17"/>
+    <row r="137" spans="1:11" ht="47.25">
+      <c r="A137" s="12">
+        <v>133</v>
+      </c>
       <c r="B137" s="72"/>
-      <c r="C137" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D137" s="95"/>
-      <c r="E137" s="95"/>
+      <c r="C137" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="D137" s="72" t="s">
+        <v>400</v>
+      </c>
+      <c r="E137" s="72" t="s">
+        <v>403</v>
+      </c>
       <c r="F137" s="37" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="G137" s="17"/>
       <c r="H137" s="17"/>
@@ -17646,16 +18748,22 @@
       <c r="J137" s="17"/>
       <c r="K137" s="17"/>
     </row>
-    <row r="138" spans="1:11" ht="31.5">
-      <c r="A138" s="17"/>
+    <row r="138" spans="1:11" ht="47.25">
+      <c r="A138" s="12">
+        <v>134</v>
+      </c>
       <c r="B138" s="72"/>
-      <c r="C138" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D138" s="95"/>
-      <c r="E138" s="95"/>
+      <c r="C138" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="D138" s="72" t="s">
+        <v>401</v>
+      </c>
+      <c r="E138" s="72" t="s">
+        <v>407</v>
+      </c>
       <c r="F138" s="37" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="G138" s="17"/>
       <c r="H138" s="17"/>
@@ -17663,16 +18771,22 @@
       <c r="J138" s="17"/>
       <c r="K138" s="17"/>
     </row>
-    <row r="139" spans="1:11" ht="31.5">
-      <c r="A139" s="17"/>
+    <row r="139" spans="1:11" ht="47.25">
+      <c r="A139" s="12">
+        <v>135</v>
+      </c>
       <c r="B139" s="72"/>
-      <c r="C139" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D139" s="95"/>
-      <c r="E139" s="95"/>
+      <c r="C139" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="D139" s="72" t="s">
+        <v>402</v>
+      </c>
+      <c r="E139" s="72" t="s">
+        <v>408</v>
+      </c>
       <c r="F139" s="37" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="G139" s="17"/>
       <c r="H139" s="17"/>
@@ -17680,16 +18794,24 @@
       <c r="J139" s="17"/>
       <c r="K139" s="17"/>
     </row>
-    <row r="140" spans="1:11" ht="31.5">
-      <c r="A140" s="17"/>
-      <c r="B140" s="72"/>
+    <row r="140" spans="1:11" ht="47.25">
+      <c r="A140" s="12">
+        <v>136</v>
+      </c>
+      <c r="B140" s="72" t="s">
+        <v>55</v>
+      </c>
       <c r="C140" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D140" s="96"/>
-      <c r="E140" s="96"/>
-      <c r="F140" s="37" t="s">
-        <v>409</v>
+        <v>16</v>
+      </c>
+      <c r="D140" s="95" t="s">
+        <v>424</v>
+      </c>
+      <c r="E140" s="95" t="s">
+        <v>425</v>
+      </c>
+      <c r="F140" s="31" t="s">
+        <v>307</v>
       </c>
       <c r="G140" s="17"/>
       <c r="H140" s="17"/>
@@ -17698,21 +18820,17 @@
       <c r="K140" s="17"/>
     </row>
     <row r="141" spans="1:11" ht="47.25">
-      <c r="A141" s="17"/>
-      <c r="B141" s="72" t="s">
-        <v>157</v>
-      </c>
-      <c r="C141" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="D141" s="72" t="s">
-        <v>393</v>
-      </c>
-      <c r="E141" s="72" t="s">
-        <v>395</v>
-      </c>
-      <c r="F141" s="37" t="s">
-        <v>396</v>
+      <c r="A141" s="12">
+        <v>137</v>
+      </c>
+      <c r="B141" s="72"/>
+      <c r="C141" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D141" s="96"/>
+      <c r="E141" s="96"/>
+      <c r="F141" s="31" t="s">
+        <v>310</v>
       </c>
       <c r="G141" s="17"/>
       <c r="H141" s="17"/>
@@ -17721,21 +18839,17 @@
       <c r="K141" s="17"/>
     </row>
     <row r="142" spans="1:11" ht="47.25">
-      <c r="A142" s="17"/>
-      <c r="B142" s="72" t="s">
-        <v>55</v>
-      </c>
-      <c r="C142" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="D142" s="72" t="s">
-        <v>393</v>
-      </c>
-      <c r="E142" s="72" t="s">
-        <v>395</v>
-      </c>
-      <c r="F142" s="37" t="s">
-        <v>410</v>
+      <c r="A142" s="12">
+        <v>138</v>
+      </c>
+      <c r="B142" s="72"/>
+      <c r="C142" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D142" s="96"/>
+      <c r="E142" s="96"/>
+      <c r="F142" s="31" t="s">
+        <v>309</v>
       </c>
       <c r="G142" s="17"/>
       <c r="H142" s="17"/>
@@ -17743,22 +18857,18 @@
       <c r="J142" s="17"/>
       <c r="K142" s="17"/>
     </row>
-    <row r="143" spans="1:11" ht="15.75">
-      <c r="A143" s="17"/>
-      <c r="B143" s="72" t="s">
-        <v>55</v>
-      </c>
-      <c r="C143" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="D143" s="94" t="s">
-        <v>412</v>
-      </c>
-      <c r="E143" s="94" t="s">
-        <v>411</v>
-      </c>
-      <c r="F143" s="37" t="s">
-        <v>413</v>
+    <row r="143" spans="1:11" ht="47.25">
+      <c r="A143" s="12">
+        <v>139</v>
+      </c>
+      <c r="B143" s="72"/>
+      <c r="C143" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D143" s="96"/>
+      <c r="E143" s="96"/>
+      <c r="F143" s="31" t="s">
+        <v>308</v>
       </c>
       <c r="G143" s="17"/>
       <c r="H143" s="17"/>
@@ -17766,16 +18876,18 @@
       <c r="J143" s="17"/>
       <c r="K143" s="17"/>
     </row>
-    <row r="144" spans="1:11" ht="31.5">
-      <c r="A144" s="17"/>
+    <row r="144" spans="1:11" ht="47.25">
+      <c r="A144" s="12">
+        <v>140</v>
+      </c>
       <c r="B144" s="72"/>
-      <c r="C144" s="37" t="s">
-        <v>153</v>
+      <c r="C144" s="24" t="s">
+        <v>20</v>
       </c>
       <c r="D144" s="96"/>
       <c r="E144" s="96"/>
-      <c r="F144" s="37" t="s">
-        <v>414</v>
+      <c r="F144" s="31" t="s">
+        <v>311</v>
       </c>
       <c r="G144" s="17"/>
       <c r="H144" s="17"/>
@@ -17783,22 +18895,18 @@
       <c r="J144" s="17"/>
       <c r="K144" s="17"/>
     </row>
-    <row r="145" spans="1:11" ht="47.25">
-      <c r="A145" s="17"/>
-      <c r="B145" s="72" t="s">
-        <v>157</v>
-      </c>
-      <c r="C145" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="D145" s="72" t="s">
-        <v>415</v>
-      </c>
-      <c r="E145" s="72" t="s">
-        <v>417</v>
-      </c>
-      <c r="F145" s="37" t="s">
-        <v>418</v>
+    <row r="145" spans="1:11" ht="63">
+      <c r="A145" s="12">
+        <v>141</v>
+      </c>
+      <c r="B145" s="72"/>
+      <c r="C145" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D145" s="96"/>
+      <c r="E145" s="96"/>
+      <c r="F145" s="31" t="s">
+        <v>312</v>
       </c>
       <c r="G145" s="17"/>
       <c r="H145" s="17"/>
@@ -17806,22 +18914,18 @@
       <c r="J145" s="17"/>
       <c r="K145" s="17"/>
     </row>
-    <row r="146" spans="1:11" ht="31.5">
-      <c r="A146" s="17"/>
-      <c r="B146" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="C146" s="25" t="s">
-        <v>297</v>
-      </c>
-      <c r="D146" s="83" t="s">
-        <v>419</v>
-      </c>
-      <c r="E146" s="31" t="s">
-        <v>420</v>
-      </c>
-      <c r="F146" s="32" t="s">
-        <v>421</v>
+    <row r="146" spans="1:11" ht="47.25">
+      <c r="A146" s="12">
+        <v>142</v>
+      </c>
+      <c r="B146" s="72"/>
+      <c r="C146" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D146" s="96"/>
+      <c r="E146" s="96"/>
+      <c r="F146" s="31" t="s">
+        <v>319</v>
       </c>
       <c r="G146" s="17"/>
       <c r="H146" s="17"/>
@@ -17830,21 +18934,17 @@
       <c r="K146" s="17"/>
     </row>
     <row r="147" spans="1:11" ht="47.25">
-      <c r="A147" s="17"/>
-      <c r="B147" s="72" t="s">
-        <v>157</v>
-      </c>
-      <c r="C147" s="37" t="s">
-        <v>425</v>
-      </c>
-      <c r="D147" s="72" t="s">
-        <v>422</v>
-      </c>
-      <c r="E147" s="72" t="s">
-        <v>435</v>
-      </c>
-      <c r="F147" s="37" t="s">
-        <v>426</v>
+      <c r="A147" s="12">
+        <v>143</v>
+      </c>
+      <c r="B147" s="72"/>
+      <c r="C147" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D147" s="96"/>
+      <c r="E147" s="96"/>
+      <c r="F147" s="31" t="s">
+        <v>314</v>
       </c>
       <c r="G147" s="17"/>
       <c r="H147" s="17"/>
@@ -17853,19 +18953,17 @@
       <c r="K147" s="17"/>
     </row>
     <row r="148" spans="1:11" ht="47.25">
-      <c r="A148" s="17"/>
+      <c r="A148" s="12">
+        <v>144</v>
+      </c>
       <c r="B148" s="72"/>
-      <c r="C148" s="37" t="s">
-        <v>425</v>
-      </c>
-      <c r="D148" s="72" t="s">
-        <v>423</v>
-      </c>
-      <c r="E148" s="72" t="s">
-        <v>434</v>
-      </c>
-      <c r="F148" s="37" t="s">
-        <v>427</v>
+      <c r="C148" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D148" s="96"/>
+      <c r="E148" s="96"/>
+      <c r="F148" s="31" t="s">
+        <v>315</v>
       </c>
       <c r="G148" s="17"/>
       <c r="H148" s="17"/>
@@ -17874,19 +18972,17 @@
       <c r="K148" s="17"/>
     </row>
     <row r="149" spans="1:11" ht="47.25">
-      <c r="A149" s="17"/>
+      <c r="A149" s="12">
+        <v>145</v>
+      </c>
       <c r="B149" s="72"/>
-      <c r="C149" s="37" t="s">
-        <v>425</v>
-      </c>
-      <c r="D149" s="72" t="s">
-        <v>424</v>
-      </c>
-      <c r="E149" s="72" t="s">
-        <v>433</v>
-      </c>
-      <c r="F149" s="37" t="s">
-        <v>428</v>
+      <c r="C149" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D149" s="96"/>
+      <c r="E149" s="96"/>
+      <c r="F149" s="31" t="s">
+        <v>316</v>
       </c>
       <c r="G149" s="17"/>
       <c r="H149" s="17"/>
@@ -17895,19 +18991,17 @@
       <c r="K149" s="17"/>
     </row>
     <row r="150" spans="1:11" ht="47.25">
-      <c r="A150" s="17"/>
+      <c r="A150" s="12">
+        <v>146</v>
+      </c>
       <c r="B150" s="72"/>
-      <c r="C150" s="37" t="s">
-        <v>425</v>
-      </c>
-      <c r="D150" s="72" t="s">
-        <v>429</v>
-      </c>
-      <c r="E150" s="72" t="s">
-        <v>432</v>
-      </c>
-      <c r="F150" s="37" t="s">
-        <v>438</v>
+      <c r="C150" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D150" s="96"/>
+      <c r="E150" s="96"/>
+      <c r="F150" s="31" t="s">
+        <v>317</v>
       </c>
       <c r="G150" s="17"/>
       <c r="H150" s="17"/>
@@ -17916,19 +19010,17 @@
       <c r="K150" s="17"/>
     </row>
     <row r="151" spans="1:11" ht="47.25">
-      <c r="A151" s="17"/>
+      <c r="A151" s="12">
+        <v>147</v>
+      </c>
       <c r="B151" s="72"/>
-      <c r="C151" s="37" t="s">
-        <v>425</v>
-      </c>
-      <c r="D151" s="72" t="s">
-        <v>430</v>
-      </c>
-      <c r="E151" s="72" t="s">
-        <v>436</v>
-      </c>
-      <c r="F151" s="37" t="s">
-        <v>439</v>
+      <c r="C151" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D151" s="97"/>
+      <c r="E151" s="97"/>
+      <c r="F151" s="31" t="s">
+        <v>318</v>
       </c>
       <c r="G151" s="17"/>
       <c r="H151" s="17"/>
@@ -17937,19 +19029,23 @@
       <c r="K151" s="17"/>
     </row>
     <row r="152" spans="1:11" ht="47.25">
-      <c r="A152" s="17"/>
-      <c r="B152" s="72"/>
-      <c r="C152" s="37" t="s">
-        <v>425</v>
-      </c>
-      <c r="D152" s="72" t="s">
-        <v>431</v>
-      </c>
-      <c r="E152" s="72" t="s">
-        <v>437</v>
-      </c>
-      <c r="F152" s="37" t="s">
-        <v>440</v>
+      <c r="A152" s="12">
+        <v>148</v>
+      </c>
+      <c r="B152" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="C152" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D152" s="95" t="s">
+        <v>427</v>
+      </c>
+      <c r="E152" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="F152" s="95" t="s">
+        <v>426</v>
       </c>
       <c r="G152" s="17"/>
       <c r="H152" s="17"/>
@@ -17957,442 +19053,682 @@
       <c r="J152" s="17"/>
       <c r="K152" s="17"/>
     </row>
-    <row r="153" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A153" s="17"/>
+    <row r="153" spans="1:11" ht="47.25">
+      <c r="A153" s="12">
+        <v>149</v>
+      </c>
       <c r="B153" s="72"/>
-      <c r="C153" s="37"/>
-      <c r="D153" s="73"/>
-      <c r="E153" s="37"/>
-      <c r="F153" s="37"/>
+      <c r="C153" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D153" s="96"/>
+      <c r="E153" s="31" t="s">
+        <v>324</v>
+      </c>
+      <c r="F153" s="96"/>
       <c r="G153" s="17"/>
       <c r="H153" s="17"/>
       <c r="I153" s="32"/>
       <c r="J153" s="17"/>
       <c r="K153" s="17"/>
     </row>
-    <row r="154" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A154" s="17"/>
+    <row r="154" spans="1:11" ht="47.25">
+      <c r="A154" s="12">
+        <v>150</v>
+      </c>
       <c r="B154" s="72"/>
-      <c r="C154" s="37"/>
-      <c r="D154" s="73"/>
-      <c r="E154" s="37"/>
-      <c r="F154" s="37"/>
+      <c r="C154" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D154" s="96"/>
+      <c r="E154" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="F154" s="96"/>
       <c r="G154" s="17"/>
       <c r="H154" s="17"/>
       <c r="I154" s="32"/>
       <c r="J154" s="17"/>
       <c r="K154" s="17"/>
     </row>
-    <row r="155" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A155" s="17"/>
+    <row r="155" spans="1:11" ht="47.25">
+      <c r="A155" s="12">
+        <v>151</v>
+      </c>
       <c r="B155" s="72"/>
-      <c r="C155" s="37"/>
-      <c r="D155" s="73"/>
-      <c r="E155" s="37"/>
-      <c r="F155" s="37"/>
+      <c r="C155" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D155" s="96"/>
+      <c r="E155" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="F155" s="96"/>
       <c r="G155" s="17"/>
       <c r="H155" s="17"/>
       <c r="I155" s="32"/>
       <c r="J155" s="17"/>
       <c r="K155" s="17"/>
     </row>
-    <row r="156" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A156" s="17"/>
+    <row r="156" spans="1:11" ht="63">
+      <c r="A156" s="12">
+        <v>152</v>
+      </c>
       <c r="B156" s="72"/>
-      <c r="C156" s="37"/>
-      <c r="D156" s="73"/>
-      <c r="E156" s="37"/>
-      <c r="F156" s="37"/>
+      <c r="C156" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D156" s="96"/>
+      <c r="E156" s="31" t="s">
+        <v>326</v>
+      </c>
+      <c r="F156" s="96"/>
       <c r="G156" s="17"/>
       <c r="H156" s="17"/>
       <c r="I156" s="32"/>
       <c r="J156" s="17"/>
       <c r="K156" s="17"/>
     </row>
-    <row r="157" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A157" s="17"/>
+    <row r="157" spans="1:11" ht="63">
+      <c r="A157" s="12">
+        <v>153</v>
+      </c>
       <c r="B157" s="72"/>
-      <c r="C157" s="37"/>
-      <c r="D157" s="73"/>
-      <c r="E157" s="37"/>
-      <c r="F157" s="37"/>
+      <c r="C157" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D157" s="96"/>
+      <c r="E157" s="31" t="s">
+        <v>342</v>
+      </c>
+      <c r="F157" s="96"/>
       <c r="G157" s="17"/>
       <c r="H157" s="17"/>
       <c r="I157" s="32"/>
       <c r="J157" s="17"/>
       <c r="K157" s="17"/>
     </row>
-    <row r="158" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A158" s="17"/>
+    <row r="158" spans="1:11" ht="47.25">
+      <c r="A158" s="12">
+        <v>154</v>
+      </c>
       <c r="B158" s="72"/>
-      <c r="C158" s="37"/>
-      <c r="D158" s="73"/>
-      <c r="E158" s="37"/>
-      <c r="F158" s="37"/>
+      <c r="C158" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D158" s="96"/>
+      <c r="E158" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="F158" s="96"/>
       <c r="G158" s="17"/>
       <c r="H158" s="17"/>
       <c r="I158" s="32"/>
       <c r="J158" s="17"/>
       <c r="K158" s="17"/>
     </row>
-    <row r="159" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A159" s="17"/>
+    <row r="159" spans="1:11" ht="47.25">
+      <c r="A159" s="12">
+        <v>155</v>
+      </c>
       <c r="B159" s="72"/>
-      <c r="C159" s="37"/>
-      <c r="D159" s="73"/>
-      <c r="E159" s="37"/>
-      <c r="F159" s="37"/>
+      <c r="C159" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D159" s="96"/>
+      <c r="E159" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="F159" s="96"/>
       <c r="G159" s="17"/>
       <c r="H159" s="17"/>
       <c r="I159" s="32"/>
       <c r="J159" s="17"/>
       <c r="K159" s="17"/>
     </row>
-    <row r="160" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A160" s="17"/>
+    <row r="160" spans="1:11" ht="47.25">
+      <c r="A160" s="12">
+        <v>156</v>
+      </c>
       <c r="B160" s="72"/>
-      <c r="C160" s="37"/>
-      <c r="D160" s="73"/>
-      <c r="E160" s="37"/>
-      <c r="F160" s="37"/>
+      <c r="C160" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D160" s="96"/>
+      <c r="E160" s="31" t="s">
+        <v>322</v>
+      </c>
+      <c r="F160" s="96"/>
       <c r="G160" s="17"/>
       <c r="H160" s="17"/>
       <c r="I160" s="32"/>
       <c r="J160" s="17"/>
       <c r="K160" s="17"/>
     </row>
-    <row r="161" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A161" s="17"/>
+    <row r="161" spans="1:11" ht="63">
+      <c r="A161" s="12">
+        <v>157</v>
+      </c>
       <c r="B161" s="72"/>
-      <c r="C161" s="37"/>
-      <c r="D161" s="73"/>
-      <c r="E161" s="37"/>
-      <c r="F161" s="37"/>
+      <c r="C161" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D161" s="96"/>
+      <c r="E161" s="31" t="s">
+        <v>328</v>
+      </c>
+      <c r="F161" s="96"/>
       <c r="G161" s="17"/>
       <c r="H161" s="17"/>
       <c r="I161" s="32"/>
       <c r="J161" s="17"/>
       <c r="K161" s="17"/>
     </row>
-    <row r="162" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A162" s="17"/>
+    <row r="162" spans="1:11" ht="63">
+      <c r="A162" s="12">
+        <v>158</v>
+      </c>
       <c r="B162" s="72"/>
-      <c r="C162" s="37"/>
-      <c r="D162" s="73"/>
-      <c r="E162" s="37"/>
-      <c r="F162" s="37"/>
+      <c r="C162" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D162" s="96"/>
+      <c r="E162" s="31" t="s">
+        <v>329</v>
+      </c>
+      <c r="F162" s="96"/>
       <c r="G162" s="17"/>
       <c r="H162" s="17"/>
       <c r="I162" s="32"/>
       <c r="J162" s="17"/>
       <c r="K162" s="17"/>
     </row>
-    <row r="163" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A163" s="17"/>
+    <row r="163" spans="1:11" ht="47.25">
+      <c r="A163" s="12">
+        <v>159</v>
+      </c>
       <c r="B163" s="72"/>
-      <c r="C163" s="37"/>
-      <c r="D163" s="73"/>
-      <c r="E163" s="37"/>
-      <c r="F163" s="37"/>
+      <c r="C163" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D163" s="97"/>
+      <c r="E163" s="31" t="s">
+        <v>321</v>
+      </c>
+      <c r="F163" s="97"/>
       <c r="G163" s="17"/>
       <c r="H163" s="17"/>
       <c r="I163" s="32"/>
       <c r="J163" s="17"/>
       <c r="K163" s="17"/>
     </row>
-    <row r="164" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A164" s="17"/>
-      <c r="B164" s="72"/>
-      <c r="C164" s="37"/>
-      <c r="D164" s="73"/>
-      <c r="E164" s="37"/>
-      <c r="F164" s="37"/>
+    <row r="164" spans="1:11" ht="94.5">
+      <c r="A164" s="12">
+        <v>160</v>
+      </c>
+      <c r="B164" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="C164" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D164" s="95" t="s">
+        <v>428</v>
+      </c>
+      <c r="E164" s="31" t="s">
+        <v>331</v>
+      </c>
+      <c r="F164" s="32" t="s">
+        <v>99</v>
+      </c>
       <c r="G164" s="17"/>
       <c r="H164" s="17"/>
       <c r="I164" s="32"/>
       <c r="J164" s="17"/>
       <c r="K164" s="17"/>
     </row>
-    <row r="165" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A165" s="17"/>
+    <row r="165" spans="1:11" ht="94.5">
+      <c r="A165" s="12">
+        <v>161</v>
+      </c>
       <c r="B165" s="72"/>
-      <c r="C165" s="37"/>
-      <c r="D165" s="73"/>
-      <c r="E165" s="37"/>
-      <c r="F165" s="37"/>
+      <c r="C165" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D165" s="96"/>
+      <c r="E165" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="F165" s="32" t="s">
+        <v>98</v>
+      </c>
       <c r="G165" s="17"/>
       <c r="H165" s="17"/>
       <c r="I165" s="32"/>
       <c r="J165" s="17"/>
       <c r="K165" s="17"/>
     </row>
-    <row r="166" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A166" s="17"/>
+    <row r="166" spans="1:11" ht="94.5">
+      <c r="A166" s="12">
+        <v>162</v>
+      </c>
       <c r="B166" s="72"/>
-      <c r="C166" s="37"/>
-      <c r="D166" s="73"/>
-      <c r="E166" s="37"/>
-      <c r="F166" s="37"/>
+      <c r="C166" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D166" s="96"/>
+      <c r="E166" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="F166" s="32" t="s">
+        <v>100</v>
+      </c>
       <c r="G166" s="17"/>
       <c r="H166" s="17"/>
       <c r="I166" s="32"/>
       <c r="J166" s="17"/>
       <c r="K166" s="17"/>
     </row>
-    <row r="167" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A167" s="17"/>
+    <row r="167" spans="1:11" ht="94.5">
+      <c r="A167" s="12">
+        <v>163</v>
+      </c>
       <c r="B167" s="72"/>
-      <c r="C167" s="37"/>
-      <c r="D167" s="73"/>
-      <c r="E167" s="37"/>
-      <c r="F167" s="37"/>
+      <c r="C167" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D167" s="96"/>
+      <c r="E167" s="31" t="s">
+        <v>334</v>
+      </c>
+      <c r="F167" s="32" t="s">
+        <v>101</v>
+      </c>
       <c r="G167" s="17"/>
       <c r="H167" s="17"/>
       <c r="I167" s="32"/>
       <c r="J167" s="17"/>
       <c r="K167" s="17"/>
     </row>
-    <row r="168" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A168" s="17"/>
+    <row r="168" spans="1:11" ht="126">
+      <c r="A168" s="12">
+        <v>164</v>
+      </c>
       <c r="B168" s="72"/>
-      <c r="C168" s="37"/>
-      <c r="D168" s="73"/>
-      <c r="E168" s="37"/>
-      <c r="F168" s="37"/>
+      <c r="C168" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D168" s="96"/>
+      <c r="E168" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="F168" s="32" t="s">
+        <v>89</v>
+      </c>
       <c r="G168" s="17"/>
       <c r="H168" s="17"/>
       <c r="I168" s="32"/>
       <c r="J168" s="17"/>
       <c r="K168" s="17"/>
     </row>
-    <row r="169" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A169" s="17"/>
+    <row r="169" spans="1:11" ht="110.25">
+      <c r="A169" s="12">
+        <v>165</v>
+      </c>
       <c r="B169" s="72"/>
-      <c r="C169" s="37"/>
-      <c r="D169" s="73"/>
-      <c r="E169" s="37"/>
-      <c r="F169" s="37"/>
+      <c r="C169" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D169" s="96"/>
+      <c r="E169" s="31" t="s">
+        <v>340</v>
+      </c>
+      <c r="F169" s="32" t="s">
+        <v>341</v>
+      </c>
       <c r="G169" s="17"/>
       <c r="H169" s="17"/>
       <c r="I169" s="32"/>
       <c r="J169" s="17"/>
       <c r="K169" s="17"/>
     </row>
-    <row r="170" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A170" s="17"/>
+    <row r="170" spans="1:11" ht="94.5">
+      <c r="A170" s="12">
+        <v>166</v>
+      </c>
       <c r="B170" s="72"/>
-      <c r="C170" s="37"/>
-      <c r="D170" s="73"/>
-      <c r="E170" s="37"/>
-      <c r="F170" s="37"/>
+      <c r="C170" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D170" s="96"/>
+      <c r="E170" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="F170" s="32" t="s">
+        <v>103</v>
+      </c>
       <c r="G170" s="17"/>
       <c r="H170" s="17"/>
       <c r="I170" s="32"/>
       <c r="J170" s="17"/>
       <c r="K170" s="17"/>
     </row>
-    <row r="171" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A171" s="17"/>
+    <row r="171" spans="1:11" ht="47.25">
+      <c r="A171" s="12">
+        <v>167</v>
+      </c>
       <c r="B171" s="72"/>
-      <c r="C171" s="37"/>
-      <c r="D171" s="73"/>
-      <c r="E171" s="37"/>
-      <c r="F171" s="37"/>
+      <c r="C171" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D171" s="96"/>
+      <c r="E171" s="31" t="s">
+        <v>337</v>
+      </c>
+      <c r="F171" s="32" t="s">
+        <v>104</v>
+      </c>
       <c r="G171" s="17"/>
       <c r="H171" s="17"/>
       <c r="I171" s="32"/>
       <c r="J171" s="17"/>
       <c r="K171" s="17"/>
     </row>
-    <row r="172" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A172" s="17"/>
+    <row r="172" spans="1:11" ht="110.25">
+      <c r="A172" s="12">
+        <v>168</v>
+      </c>
       <c r="B172" s="72"/>
-      <c r="C172" s="37"/>
-      <c r="D172" s="73"/>
-      <c r="E172" s="37"/>
-      <c r="F172" s="37"/>
+      <c r="C172" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D172" s="96"/>
+      <c r="E172" s="31" t="s">
+        <v>338</v>
+      </c>
+      <c r="F172" s="32" t="s">
+        <v>105</v>
+      </c>
       <c r="G172" s="17"/>
       <c r="H172" s="17"/>
       <c r="I172" s="32"/>
       <c r="J172" s="17"/>
       <c r="K172" s="17"/>
     </row>
-    <row r="173" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A173" s="17"/>
+    <row r="173" spans="1:11" ht="110.25">
+      <c r="A173" s="12">
+        <v>169</v>
+      </c>
       <c r="B173" s="72"/>
-      <c r="C173" s="37"/>
-      <c r="D173" s="73"/>
-      <c r="E173" s="37"/>
-      <c r="F173" s="37"/>
+      <c r="C173" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D173" s="97"/>
+      <c r="E173" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="F173" s="32" t="s">
+        <v>106</v>
+      </c>
       <c r="G173" s="17"/>
       <c r="H173" s="17"/>
       <c r="I173" s="32"/>
       <c r="J173" s="17"/>
       <c r="K173" s="17"/>
     </row>
-    <row r="174" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A174" s="17"/>
-      <c r="B174" s="72"/>
-      <c r="C174" s="37"/>
-      <c r="D174" s="73"/>
-      <c r="E174" s="37"/>
-      <c r="F174" s="37"/>
+    <row r="174" spans="1:11" ht="31.5">
+      <c r="A174" s="12">
+        <v>170</v>
+      </c>
+      <c r="B174" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="C174" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D174" s="95" t="s">
+        <v>430</v>
+      </c>
+      <c r="E174" s="95" t="s">
+        <v>429</v>
+      </c>
+      <c r="F174" s="32" t="s">
+        <v>108</v>
+      </c>
       <c r="G174" s="17"/>
       <c r="H174" s="17"/>
       <c r="I174" s="32"/>
       <c r="J174" s="17"/>
       <c r="K174" s="17"/>
     </row>
-    <row r="175" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A175" s="17"/>
+    <row r="175" spans="1:11" ht="31.5">
+      <c r="A175" s="12">
+        <v>171</v>
+      </c>
       <c r="B175" s="72"/>
-      <c r="C175" s="37"/>
-      <c r="D175" s="73"/>
-      <c r="E175" s="37"/>
-      <c r="F175" s="37"/>
+      <c r="C175" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D175" s="96"/>
+      <c r="E175" s="96"/>
+      <c r="F175" s="32" t="s">
+        <v>109</v>
+      </c>
       <c r="G175" s="17"/>
       <c r="H175" s="17"/>
       <c r="I175" s="32"/>
       <c r="J175" s="17"/>
       <c r="K175" s="17"/>
     </row>
-    <row r="176" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A176" s="17"/>
+    <row r="176" spans="1:11" ht="31.5">
+      <c r="A176" s="12">
+        <v>172</v>
+      </c>
       <c r="B176" s="72"/>
-      <c r="C176" s="37"/>
-      <c r="D176" s="73"/>
-      <c r="E176" s="37"/>
-      <c r="F176" s="37"/>
+      <c r="C176" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D176" s="96"/>
+      <c r="E176" s="96"/>
+      <c r="F176" s="32" t="s">
+        <v>112</v>
+      </c>
       <c r="G176" s="17"/>
       <c r="H176" s="17"/>
       <c r="I176" s="32"/>
       <c r="J176" s="17"/>
       <c r="K176" s="17"/>
     </row>
-    <row r="177" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A177" s="17"/>
+    <row r="177" spans="1:11" ht="31.5">
+      <c r="A177" s="12">
+        <v>173</v>
+      </c>
       <c r="B177" s="72"/>
-      <c r="C177" s="37"/>
-      <c r="D177" s="73"/>
-      <c r="E177" s="37"/>
-      <c r="F177" s="37"/>
+      <c r="C177" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D177" s="96"/>
+      <c r="E177" s="96"/>
+      <c r="F177" s="32" t="s">
+        <v>113</v>
+      </c>
       <c r="G177" s="17"/>
       <c r="H177" s="17"/>
       <c r="I177" s="32"/>
       <c r="J177" s="17"/>
       <c r="K177" s="17"/>
     </row>
-    <row r="178" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A178" s="17"/>
+    <row r="178" spans="1:11" ht="31.5">
+      <c r="A178" s="12">
+        <v>174</v>
+      </c>
       <c r="B178" s="72"/>
-      <c r="C178" s="37"/>
-      <c r="D178" s="73"/>
-      <c r="E178" s="37"/>
-      <c r="F178" s="37"/>
+      <c r="C178" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D178" s="96"/>
+      <c r="E178" s="96"/>
+      <c r="F178" s="32" t="s">
+        <v>114</v>
+      </c>
       <c r="G178" s="17"/>
       <c r="H178" s="17"/>
       <c r="I178" s="32"/>
       <c r="J178" s="17"/>
       <c r="K178" s="17"/>
     </row>
-    <row r="179" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A179" s="17"/>
+    <row r="179" spans="1:11" ht="31.5">
+      <c r="A179" s="12">
+        <v>175</v>
+      </c>
       <c r="B179" s="72"/>
-      <c r="C179" s="37"/>
-      <c r="D179" s="73"/>
-      <c r="E179" s="37"/>
-      <c r="F179" s="37"/>
+      <c r="C179" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D179" s="96"/>
+      <c r="E179" s="96"/>
+      <c r="F179" s="32" t="s">
+        <v>111</v>
+      </c>
       <c r="G179" s="17"/>
       <c r="H179" s="17"/>
       <c r="I179" s="32"/>
       <c r="J179" s="17"/>
       <c r="K179" s="17"/>
     </row>
-    <row r="180" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A180" s="17"/>
+    <row r="180" spans="1:11" ht="31.5">
+      <c r="A180" s="12">
+        <v>176</v>
+      </c>
       <c r="B180" s="72"/>
-      <c r="C180" s="37"/>
-      <c r="D180" s="73"/>
-      <c r="E180" s="37"/>
-      <c r="F180" s="37"/>
+      <c r="C180" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D180" s="96"/>
+      <c r="E180" s="96"/>
+      <c r="F180" s="32" t="s">
+        <v>115</v>
+      </c>
       <c r="G180" s="17"/>
       <c r="H180" s="17"/>
       <c r="I180" s="32"/>
       <c r="J180" s="17"/>
       <c r="K180" s="17"/>
     </row>
-    <row r="181" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A181" s="17"/>
+    <row r="181" spans="1:11" ht="31.5">
+      <c r="A181" s="12">
+        <v>177</v>
+      </c>
       <c r="B181" s="72"/>
-      <c r="C181" s="37"/>
-      <c r="D181" s="73"/>
-      <c r="E181" s="37"/>
-      <c r="F181" s="37"/>
+      <c r="C181" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D181" s="96"/>
+      <c r="E181" s="96"/>
+      <c r="F181" s="32" t="s">
+        <v>431</v>
+      </c>
       <c r="G181" s="17"/>
       <c r="H181" s="17"/>
       <c r="I181" s="32"/>
       <c r="J181" s="17"/>
       <c r="K181" s="17"/>
     </row>
-    <row r="182" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A182" s="17"/>
+    <row r="182" spans="1:11" ht="31.5">
+      <c r="A182" s="12">
+        <v>178</v>
+      </c>
       <c r="B182" s="72"/>
-      <c r="C182" s="37"/>
-      <c r="D182" s="73"/>
-      <c r="E182" s="37"/>
-      <c r="F182" s="37"/>
+      <c r="C182" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D182" s="96"/>
+      <c r="E182" s="96"/>
+      <c r="F182" s="32" t="s">
+        <v>432</v>
+      </c>
       <c r="G182" s="17"/>
       <c r="H182" s="17"/>
       <c r="I182" s="32"/>
       <c r="J182" s="17"/>
       <c r="K182" s="17"/>
     </row>
-    <row r="183" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A183" s="17"/>
+    <row r="183" spans="1:11" ht="31.5">
+      <c r="A183" s="12">
+        <v>179</v>
+      </c>
       <c r="B183" s="72"/>
-      <c r="C183" s="37"/>
-      <c r="D183" s="73"/>
-      <c r="E183" s="37"/>
-      <c r="F183" s="37"/>
+      <c r="C183" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D183" s="96"/>
+      <c r="E183" s="96"/>
+      <c r="F183" s="32" t="s">
+        <v>433</v>
+      </c>
       <c r="G183" s="17"/>
       <c r="H183" s="17"/>
       <c r="I183" s="32"/>
       <c r="J183" s="17"/>
       <c r="K183" s="17"/>
     </row>
-    <row r="184" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A184" s="17"/>
+    <row r="184" spans="1:11" ht="31.5">
+      <c r="A184" s="12">
+        <v>180</v>
+      </c>
       <c r="B184" s="72"/>
-      <c r="C184" s="37"/>
-      <c r="D184" s="73"/>
-      <c r="E184" s="37"/>
-      <c r="F184" s="37"/>
+      <c r="C184" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D184" s="96"/>
+      <c r="E184" s="96"/>
+      <c r="F184" s="32" t="s">
+        <v>434</v>
+      </c>
       <c r="G184" s="17"/>
       <c r="H184" s="17"/>
       <c r="I184" s="32"/>
       <c r="J184" s="17"/>
       <c r="K184" s="17"/>
     </row>
-    <row r="185" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A185" s="17"/>
+    <row r="185" spans="1:11" ht="31.5">
+      <c r="A185" s="12">
+        <v>181</v>
+      </c>
       <c r="B185" s="72"/>
-      <c r="C185" s="37"/>
-      <c r="D185" s="73"/>
-      <c r="E185" s="37"/>
-      <c r="F185" s="37"/>
+      <c r="C185" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D185" s="97"/>
+      <c r="E185" s="97"/>
+      <c r="F185" s="32" t="s">
+        <v>116</v>
+      </c>
       <c r="G185" s="17"/>
       <c r="H185" s="17"/>
       <c r="I185" s="32"/>
       <c r="J185" s="17"/>
       <c r="K185" s="17"/>
     </row>
-    <row r="186" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A186" s="17"/>
-      <c r="B186" s="72"/>
-      <c r="C186" s="37"/>
-      <c r="D186" s="73"/>
-      <c r="E186" s="37"/>
-      <c r="F186" s="37"/>
+    <row r="186" spans="1:11" ht="47.25">
+      <c r="A186" s="12">
+        <v>182</v>
+      </c>
+      <c r="B186" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="C186" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D186" s="90" t="s">
+        <v>435</v>
+      </c>
+      <c r="E186" s="72" t="s">
+        <v>436</v>
+      </c>
+      <c r="F186" s="32" t="s">
+        <v>437</v>
+      </c>
       <c r="G186" s="17"/>
       <c r="H186" s="17"/>
       <c r="I186" s="32"/>
@@ -18400,12 +19736,24 @@
       <c r="K186" s="17"/>
     </row>
     <row r="187" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A187" s="17"/>
-      <c r="B187" s="72"/>
-      <c r="C187" s="37"/>
-      <c r="D187" s="73"/>
-      <c r="E187" s="37"/>
-      <c r="F187" s="37"/>
+      <c r="A187" s="12">
+        <v>183</v>
+      </c>
+      <c r="B187" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="C187" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D187" s="95" t="s">
+        <v>435</v>
+      </c>
+      <c r="E187" s="95" t="s">
+        <v>436</v>
+      </c>
+      <c r="F187" s="115" t="s">
+        <v>439</v>
+      </c>
       <c r="G187" s="17"/>
       <c r="H187" s="17"/>
       <c r="I187" s="32"/>
@@ -18413,12 +19761,16 @@
       <c r="K187" s="17"/>
     </row>
     <row r="188" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A188" s="17"/>
+      <c r="A188" s="12">
+        <v>184</v>
+      </c>
       <c r="B188" s="72"/>
-      <c r="C188" s="37"/>
-      <c r="D188" s="73"/>
-      <c r="E188" s="37"/>
-      <c r="F188" s="37"/>
+      <c r="C188" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D188" s="96"/>
+      <c r="E188" s="96"/>
+      <c r="F188" s="116"/>
       <c r="G188" s="17"/>
       <c r="H188" s="17"/>
       <c r="I188" s="32"/>
@@ -18426,12 +19778,16 @@
       <c r="K188" s="17"/>
     </row>
     <row r="189" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A189" s="17"/>
+      <c r="A189" s="12">
+        <v>185</v>
+      </c>
       <c r="B189" s="72"/>
-      <c r="C189" s="37"/>
-      <c r="D189" s="73"/>
-      <c r="E189" s="37"/>
-      <c r="F189" s="37"/>
+      <c r="C189" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D189" s="96"/>
+      <c r="E189" s="96"/>
+      <c r="F189" s="116"/>
       <c r="G189" s="17"/>
       <c r="H189" s="17"/>
       <c r="I189" s="32"/>
@@ -18439,12 +19795,16 @@
       <c r="K189" s="17"/>
     </row>
     <row r="190" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A190" s="17"/>
+      <c r="A190" s="12">
+        <v>186</v>
+      </c>
       <c r="B190" s="72"/>
-      <c r="C190" s="37"/>
-      <c r="D190" s="73"/>
-      <c r="E190" s="37"/>
-      <c r="F190" s="37"/>
+      <c r="C190" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D190" s="96"/>
+      <c r="E190" s="96"/>
+      <c r="F190" s="116"/>
       <c r="G190" s="17"/>
       <c r="H190" s="17"/>
       <c r="I190" s="32"/>
@@ -18452,415 +19812,655 @@
       <c r="K190" s="17"/>
     </row>
     <row r="191" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A191" s="17"/>
+      <c r="A191" s="12">
+        <v>187</v>
+      </c>
       <c r="B191" s="72"/>
-      <c r="C191" s="37"/>
-      <c r="D191" s="73"/>
-      <c r="E191" s="37"/>
-      <c r="F191" s="37"/>
+      <c r="C191" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D191" s="96"/>
+      <c r="E191" s="96"/>
+      <c r="F191" s="116"/>
       <c r="G191" s="17"/>
       <c r="H191" s="17"/>
       <c r="I191" s="32"/>
       <c r="J191" s="17"/>
       <c r="K191" s="17"/>
     </row>
-    <row r="192" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A192" s="17"/>
+    <row r="192" spans="1:11" ht="12" customHeight="1">
+      <c r="A192" s="12">
+        <v>188</v>
+      </c>
       <c r="B192" s="72"/>
-      <c r="C192" s="37"/>
-      <c r="D192" s="73"/>
-      <c r="E192" s="37"/>
-      <c r="F192" s="37"/>
+      <c r="C192" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D192" s="96"/>
+      <c r="E192" s="96"/>
+      <c r="F192" s="117"/>
       <c r="G192" s="17"/>
       <c r="H192" s="17"/>
       <c r="I192" s="32"/>
       <c r="J192" s="17"/>
       <c r="K192" s="17"/>
     </row>
-    <row r="193" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A193" s="17"/>
+    <row r="193" spans="1:11" ht="31.5">
+      <c r="A193" s="12">
+        <v>189</v>
+      </c>
       <c r="B193" s="72"/>
-      <c r="C193" s="37"/>
-      <c r="D193" s="73"/>
-      <c r="E193" s="37"/>
-      <c r="F193" s="37"/>
+      <c r="C193" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D193" s="96"/>
+      <c r="E193" s="96"/>
+      <c r="F193" s="32" t="s">
+        <v>440</v>
+      </c>
       <c r="G193" s="17"/>
       <c r="H193" s="17"/>
       <c r="I193" s="32"/>
       <c r="J193" s="17"/>
       <c r="K193" s="17"/>
     </row>
-    <row r="194" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A194" s="17"/>
+    <row r="194" spans="1:11" ht="47.25">
+      <c r="A194" s="12">
+        <v>190</v>
+      </c>
       <c r="B194" s="72"/>
-      <c r="C194" s="37"/>
-      <c r="D194" s="73"/>
-      <c r="E194" s="37"/>
-      <c r="F194" s="37"/>
+      <c r="C194" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D194" s="96"/>
+      <c r="E194" s="96"/>
+      <c r="F194" s="32" t="s">
+        <v>438</v>
+      </c>
       <c r="G194" s="17"/>
       <c r="H194" s="17"/>
       <c r="I194" s="32"/>
       <c r="J194" s="17"/>
       <c r="K194" s="17"/>
     </row>
-    <row r="195" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A195" s="17"/>
+    <row r="195" spans="1:11" ht="31.5">
+      <c r="A195" s="12">
+        <v>191</v>
+      </c>
       <c r="B195" s="72"/>
-      <c r="C195" s="37"/>
-      <c r="D195" s="73"/>
-      <c r="E195" s="37"/>
-      <c r="F195" s="37"/>
+      <c r="C195" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D195" s="96"/>
+      <c r="E195" s="96"/>
+      <c r="F195" s="32" t="s">
+        <v>442</v>
+      </c>
       <c r="G195" s="17"/>
       <c r="H195" s="17"/>
       <c r="I195" s="32"/>
       <c r="J195" s="17"/>
       <c r="K195" s="17"/>
     </row>
-    <row r="196" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A196" s="17"/>
+    <row r="196" spans="1:11" ht="24" customHeight="1">
+      <c r="A196" s="12">
+        <v>192</v>
+      </c>
       <c r="B196" s="72"/>
-      <c r="C196" s="37"/>
-      <c r="D196" s="73"/>
-      <c r="E196" s="37"/>
-      <c r="F196" s="37"/>
+      <c r="C196" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D196" s="96"/>
+      <c r="E196" s="96"/>
+      <c r="F196" s="115" t="s">
+        <v>438</v>
+      </c>
       <c r="G196" s="17"/>
       <c r="H196" s="17"/>
       <c r="I196" s="32"/>
       <c r="J196" s="17"/>
       <c r="K196" s="17"/>
     </row>
-    <row r="197" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A197" s="17"/>
+    <row r="197" spans="1:11" ht="27" customHeight="1">
+      <c r="A197" s="12">
+        <v>193</v>
+      </c>
       <c r="B197" s="72"/>
-      <c r="C197" s="37"/>
-      <c r="D197" s="73"/>
-      <c r="E197" s="37"/>
-      <c r="F197" s="37"/>
+      <c r="C197" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D197" s="96"/>
+      <c r="E197" s="96"/>
+      <c r="F197" s="117"/>
       <c r="G197" s="17"/>
       <c r="H197" s="17"/>
       <c r="I197" s="32"/>
       <c r="J197" s="17"/>
       <c r="K197" s="17"/>
     </row>
-    <row r="198" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A198" s="17"/>
+    <row r="198" spans="1:11" ht="31.5">
+      <c r="A198" s="12">
+        <v>194</v>
+      </c>
       <c r="B198" s="72"/>
-      <c r="C198" s="37"/>
-      <c r="D198" s="73"/>
-      <c r="E198" s="37"/>
-      <c r="F198" s="37"/>
+      <c r="C198" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D198" s="97"/>
+      <c r="E198" s="97"/>
+      <c r="F198" s="32" t="s">
+        <v>441</v>
+      </c>
       <c r="G198" s="17"/>
       <c r="H198" s="17"/>
       <c r="I198" s="32"/>
       <c r="J198" s="17"/>
       <c r="K198" s="17"/>
     </row>
-    <row r="199" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A199" s="17"/>
-      <c r="B199" s="72"/>
-      <c r="C199" s="37"/>
-      <c r="D199" s="73"/>
-      <c r="E199" s="37"/>
-      <c r="F199" s="37"/>
+    <row r="199" spans="1:11" ht="47.25">
+      <c r="A199" s="12">
+        <v>195</v>
+      </c>
+      <c r="B199" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="C199" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="D199" s="72" t="s">
+        <v>443</v>
+      </c>
+      <c r="E199" s="72" t="s">
+        <v>444</v>
+      </c>
+      <c r="F199" s="37" t="s">
+        <v>445</v>
+      </c>
       <c r="G199" s="17"/>
       <c r="H199" s="17"/>
       <c r="I199" s="32"/>
       <c r="J199" s="17"/>
       <c r="K199" s="17"/>
     </row>
-    <row r="200" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A200" s="17"/>
-      <c r="B200" s="72"/>
-      <c r="C200" s="37"/>
-      <c r="D200" s="73"/>
-      <c r="E200" s="37"/>
-      <c r="F200" s="37"/>
+    <row r="200" spans="1:11" ht="47.25">
+      <c r="A200" s="12">
+        <v>196</v>
+      </c>
+      <c r="B200" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="C200" s="37" t="s">
+        <v>453</v>
+      </c>
+      <c r="D200" s="72" t="s">
+        <v>446</v>
+      </c>
+      <c r="E200" s="72" t="s">
+        <v>444</v>
+      </c>
+      <c r="F200" s="37" t="s">
+        <v>454</v>
+      </c>
       <c r="G200" s="17"/>
       <c r="H200" s="17"/>
       <c r="I200" s="32"/>
       <c r="J200" s="17"/>
       <c r="K200" s="17"/>
     </row>
-    <row r="201" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A201" s="17"/>
+    <row r="201" spans="1:11" ht="63">
+      <c r="A201" s="12">
+        <v>197</v>
+      </c>
       <c r="B201" s="72"/>
-      <c r="C201" s="37"/>
-      <c r="D201" s="73"/>
-      <c r="E201" s="37"/>
-      <c r="F201" s="37"/>
+      <c r="C201" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D201" s="95" t="s">
+        <v>450</v>
+      </c>
+      <c r="E201" s="95" t="s">
+        <v>451</v>
+      </c>
+      <c r="F201" s="32" t="s">
+        <v>477</v>
+      </c>
       <c r="G201" s="17"/>
       <c r="H201" s="17"/>
       <c r="I201" s="32"/>
       <c r="J201" s="17"/>
       <c r="K201" s="17"/>
     </row>
-    <row r="202" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A202" s="17"/>
+    <row r="202" spans="1:11" ht="63">
+      <c r="A202" s="12">
+        <v>198</v>
+      </c>
       <c r="B202" s="72"/>
-      <c r="C202" s="37"/>
-      <c r="D202" s="73"/>
-      <c r="E202" s="37"/>
-      <c r="F202" s="37"/>
+      <c r="C202" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D202" s="96"/>
+      <c r="E202" s="96"/>
+      <c r="F202" s="32" t="s">
+        <v>478</v>
+      </c>
       <c r="G202" s="17"/>
       <c r="H202" s="17"/>
       <c r="I202" s="32"/>
       <c r="J202" s="17"/>
       <c r="K202" s="17"/>
     </row>
-    <row r="203" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A203" s="17"/>
+    <row r="203" spans="1:11" ht="63">
+      <c r="A203" s="12">
+        <v>199</v>
+      </c>
       <c r="B203" s="72"/>
-      <c r="C203" s="37"/>
-      <c r="D203" s="73"/>
-      <c r="E203" s="37"/>
-      <c r="F203" s="37"/>
+      <c r="C203" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D203" s="96"/>
+      <c r="E203" s="96"/>
+      <c r="F203" s="32" t="s">
+        <v>479</v>
+      </c>
       <c r="G203" s="17"/>
       <c r="H203" s="17"/>
       <c r="I203" s="32"/>
       <c r="J203" s="17"/>
       <c r="K203" s="17"/>
     </row>
-    <row r="204" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A204" s="17"/>
+    <row r="204" spans="1:11" ht="63">
+      <c r="A204" s="12">
+        <v>200</v>
+      </c>
       <c r="B204" s="72"/>
-      <c r="C204" s="37"/>
-      <c r="D204" s="73"/>
-      <c r="E204" s="37"/>
-      <c r="F204" s="37"/>
+      <c r="C204" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D204" s="96"/>
+      <c r="E204" s="96"/>
+      <c r="F204" s="32" t="s">
+        <v>480</v>
+      </c>
       <c r="G204" s="17"/>
       <c r="H204" s="17"/>
       <c r="I204" s="32"/>
       <c r="J204" s="17"/>
       <c r="K204" s="17"/>
     </row>
-    <row r="205" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A205" s="17"/>
+    <row r="205" spans="1:11" ht="63">
+      <c r="A205" s="12">
+        <v>201</v>
+      </c>
       <c r="B205" s="72"/>
-      <c r="C205" s="37"/>
-      <c r="D205" s="73"/>
-      <c r="E205" s="37"/>
-      <c r="F205" s="37"/>
+      <c r="C205" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D205" s="96"/>
+      <c r="E205" s="96"/>
+      <c r="F205" s="32" t="s">
+        <v>481</v>
+      </c>
       <c r="G205" s="17"/>
       <c r="H205" s="17"/>
       <c r="I205" s="32"/>
       <c r="J205" s="17"/>
       <c r="K205" s="17"/>
     </row>
-    <row r="206" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A206" s="17"/>
+    <row r="206" spans="1:11" ht="78.75">
+      <c r="A206" s="12">
+        <v>202</v>
+      </c>
       <c r="B206" s="72"/>
-      <c r="C206" s="37"/>
-      <c r="D206" s="73"/>
-      <c r="E206" s="37"/>
-      <c r="F206" s="37"/>
+      <c r="C206" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D206" s="96"/>
+      <c r="E206" s="96"/>
+      <c r="F206" s="32" t="s">
+        <v>482</v>
+      </c>
       <c r="G206" s="17"/>
       <c r="H206" s="17"/>
       <c r="I206" s="32"/>
       <c r="J206" s="17"/>
       <c r="K206" s="17"/>
     </row>
-    <row r="207" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A207" s="17"/>
+    <row r="207" spans="1:11" ht="63">
+      <c r="A207" s="12">
+        <v>203</v>
+      </c>
       <c r="B207" s="72"/>
-      <c r="C207" s="37"/>
-      <c r="D207" s="73"/>
-      <c r="E207" s="37"/>
-      <c r="F207" s="37"/>
+      <c r="C207" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D207" s="96"/>
+      <c r="E207" s="96"/>
+      <c r="F207" s="32" t="s">
+        <v>483</v>
+      </c>
       <c r="G207" s="17"/>
       <c r="H207" s="17"/>
       <c r="I207" s="32"/>
       <c r="J207" s="17"/>
       <c r="K207" s="17"/>
     </row>
-    <row r="208" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A208" s="17"/>
+    <row r="208" spans="1:11" ht="63">
+      <c r="A208" s="12">
+        <v>204</v>
+      </c>
       <c r="B208" s="72"/>
-      <c r="C208" s="37"/>
-      <c r="D208" s="73"/>
-      <c r="E208" s="37"/>
-      <c r="F208" s="37"/>
+      <c r="C208" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D208" s="96"/>
+      <c r="E208" s="96"/>
+      <c r="F208" s="32" t="s">
+        <v>484</v>
+      </c>
       <c r="G208" s="17"/>
       <c r="H208" s="17"/>
       <c r="I208" s="32"/>
       <c r="J208" s="17"/>
       <c r="K208" s="17"/>
     </row>
-    <row r="209" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A209" s="17"/>
+    <row r="209" spans="1:11" ht="63">
+      <c r="A209" s="12">
+        <v>205</v>
+      </c>
       <c r="B209" s="72"/>
-      <c r="C209" s="37"/>
-      <c r="D209" s="73"/>
-      <c r="E209" s="37"/>
-      <c r="F209" s="37"/>
+      <c r="C209" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D209" s="96"/>
+      <c r="E209" s="96"/>
+      <c r="F209" s="32" t="s">
+        <v>485</v>
+      </c>
       <c r="G209" s="17"/>
       <c r="H209" s="17"/>
       <c r="I209" s="32"/>
       <c r="J209" s="17"/>
       <c r="K209" s="17"/>
     </row>
-    <row r="210" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A210" s="17"/>
+    <row r="210" spans="1:11" ht="63">
+      <c r="A210" s="12">
+        <v>206</v>
+      </c>
       <c r="B210" s="72"/>
-      <c r="C210" s="37"/>
-      <c r="D210" s="73"/>
-      <c r="E210" s="37"/>
-      <c r="F210" s="37"/>
+      <c r="C210" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D210" s="96"/>
+      <c r="E210" s="96"/>
+      <c r="F210" s="32" t="s">
+        <v>486</v>
+      </c>
       <c r="G210" s="17"/>
       <c r="H210" s="17"/>
       <c r="I210" s="32"/>
       <c r="J210" s="17"/>
       <c r="K210" s="17"/>
     </row>
-    <row r="211" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A211" s="17"/>
+    <row r="211" spans="1:11" ht="63">
+      <c r="A211" s="12">
+        <v>207</v>
+      </c>
       <c r="B211" s="72"/>
-      <c r="C211" s="37"/>
-      <c r="D211" s="73"/>
-      <c r="E211" s="37"/>
-      <c r="F211" s="37"/>
+      <c r="C211" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D211" s="96"/>
+      <c r="E211" s="96"/>
+      <c r="F211" s="32" t="s">
+        <v>487</v>
+      </c>
       <c r="G211" s="17"/>
       <c r="H211" s="17"/>
       <c r="I211" s="32"/>
       <c r="J211" s="17"/>
       <c r="K211" s="17"/>
     </row>
-    <row r="212" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A212" s="17"/>
+    <row r="212" spans="1:11" ht="47.25">
+      <c r="A212" s="12">
+        <v>208</v>
+      </c>
       <c r="B212" s="72"/>
-      <c r="C212" s="37"/>
-      <c r="D212" s="73"/>
-      <c r="E212" s="37"/>
-      <c r="F212" s="37"/>
+      <c r="C212" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D212" s="96"/>
+      <c r="E212" s="96"/>
+      <c r="F212" s="32" t="s">
+        <v>476</v>
+      </c>
       <c r="G212" s="17"/>
       <c r="H212" s="17"/>
       <c r="I212" s="32"/>
       <c r="J212" s="17"/>
       <c r="K212" s="17"/>
     </row>
-    <row r="213" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A213" s="17"/>
+    <row r="213" spans="1:11" ht="63">
+      <c r="A213" s="12">
+        <v>209</v>
+      </c>
       <c r="B213" s="72"/>
-      <c r="C213" s="37"/>
-      <c r="D213" s="73"/>
-      <c r="E213" s="37"/>
-      <c r="F213" s="37"/>
+      <c r="C213" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="D213" s="96"/>
+      <c r="E213" s="96"/>
+      <c r="F213" s="31" t="s">
+        <v>488</v>
+      </c>
       <c r="G213" s="17"/>
       <c r="H213" s="17"/>
       <c r="I213" s="32"/>
       <c r="J213" s="17"/>
       <c r="K213" s="17"/>
     </row>
-    <row r="214" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A214" s="17"/>
+    <row r="214" spans="1:11" ht="63">
+      <c r="A214" s="12">
+        <v>210</v>
+      </c>
       <c r="B214" s="72"/>
-      <c r="C214" s="37"/>
-      <c r="D214" s="73"/>
-      <c r="E214" s="37"/>
-      <c r="F214" s="37"/>
+      <c r="C214" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="D214" s="97"/>
+      <c r="E214" s="97"/>
+      <c r="F214" s="31" t="s">
+        <v>489</v>
+      </c>
       <c r="G214" s="17"/>
       <c r="H214" s="17"/>
       <c r="I214" s="32"/>
       <c r="J214" s="17"/>
       <c r="K214" s="17"/>
     </row>
-    <row r="215" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A215" s="17"/>
-      <c r="B215" s="72"/>
-      <c r="C215" s="37"/>
-      <c r="D215" s="73"/>
-      <c r="E215" s="37"/>
-      <c r="F215" s="37"/>
+    <row r="215" spans="1:11" ht="47.25">
+      <c r="A215" s="12">
+        <v>211</v>
+      </c>
+      <c r="B215" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="C215" s="37" t="s">
+        <v>452</v>
+      </c>
+      <c r="D215" s="72" t="s">
+        <v>446</v>
+      </c>
+      <c r="E215" s="72" t="s">
+        <v>444</v>
+      </c>
+      <c r="F215" s="32" t="s">
+        <v>447</v>
+      </c>
       <c r="G215" s="17"/>
       <c r="H215" s="17"/>
       <c r="I215" s="32"/>
       <c r="J215" s="17"/>
       <c r="K215" s="17"/>
     </row>
-    <row r="216" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A216" s="17"/>
-      <c r="B216" s="72"/>
-      <c r="C216" s="37"/>
-      <c r="D216" s="73"/>
-      <c r="E216" s="37"/>
-      <c r="F216" s="37"/>
+    <row r="216" spans="1:11" ht="47.25">
+      <c r="A216" s="12">
+        <v>212</v>
+      </c>
+      <c r="B216" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="C216" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="D216" s="72" t="s">
+        <v>455</v>
+      </c>
+      <c r="E216" s="72" t="s">
+        <v>456</v>
+      </c>
+      <c r="F216" s="37" t="s">
+        <v>457</v>
+      </c>
       <c r="G216" s="17"/>
       <c r="H216" s="17"/>
       <c r="I216" s="32"/>
       <c r="J216" s="17"/>
       <c r="K216" s="17"/>
     </row>
-    <row r="217" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A217" s="17"/>
-      <c r="B217" s="72"/>
-      <c r="C217" s="37"/>
-      <c r="D217" s="73"/>
-      <c r="E217" s="37"/>
-      <c r="F217" s="37"/>
+    <row r="217" spans="1:11" ht="47.25">
+      <c r="A217" s="12">
+        <v>213</v>
+      </c>
+      <c r="B217" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="C217" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="D217" s="72" t="s">
+        <v>458</v>
+      </c>
+      <c r="E217" s="72" t="s">
+        <v>459</v>
+      </c>
+      <c r="F217" s="37" t="s">
+        <v>460</v>
+      </c>
       <c r="G217" s="17"/>
       <c r="H217" s="17"/>
       <c r="I217" s="32"/>
       <c r="J217" s="17"/>
       <c r="K217" s="17"/>
     </row>
-    <row r="218" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A218" s="17"/>
+    <row r="218" spans="1:11" ht="47.25">
+      <c r="A218" s="12">
+        <v>214</v>
+      </c>
       <c r="B218" s="72"/>
-      <c r="C218" s="37"/>
-      <c r="D218" s="73"/>
-      <c r="E218" s="37"/>
-      <c r="F218" s="37"/>
+      <c r="C218" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="D218" s="72" t="s">
+        <v>461</v>
+      </c>
+      <c r="E218" s="72" t="s">
+        <v>462</v>
+      </c>
+      <c r="F218" s="37" t="s">
+        <v>463</v>
+      </c>
       <c r="G218" s="17"/>
       <c r="H218" s="17"/>
       <c r="I218" s="32"/>
       <c r="J218" s="17"/>
       <c r="K218" s="17"/>
     </row>
-    <row r="219" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A219" s="17"/>
+    <row r="219" spans="1:11" ht="47.25">
+      <c r="A219" s="12">
+        <v>215</v>
+      </c>
       <c r="B219" s="72"/>
-      <c r="C219" s="37"/>
-      <c r="D219" s="73"/>
-      <c r="E219" s="37"/>
-      <c r="F219" s="37"/>
+      <c r="C219" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="D219" s="72" t="s">
+        <v>464</v>
+      </c>
+      <c r="E219" s="72" t="s">
+        <v>465</v>
+      </c>
+      <c r="F219" s="37" t="s">
+        <v>466</v>
+      </c>
       <c r="G219" s="17"/>
       <c r="H219" s="17"/>
       <c r="I219" s="32"/>
       <c r="J219" s="17"/>
       <c r="K219" s="17"/>
     </row>
-    <row r="220" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A220" s="17"/>
+    <row r="220" spans="1:11" ht="47.25">
+      <c r="A220" s="12">
+        <v>216</v>
+      </c>
       <c r="B220" s="72"/>
-      <c r="C220" s="37"/>
-      <c r="D220" s="73"/>
-      <c r="E220" s="37"/>
-      <c r="F220" s="37"/>
+      <c r="C220" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="D220" s="72" t="s">
+        <v>467</v>
+      </c>
+      <c r="E220" s="72" t="s">
+        <v>468</v>
+      </c>
+      <c r="F220" s="37" t="s">
+        <v>469</v>
+      </c>
       <c r="G220" s="17"/>
       <c r="H220" s="17"/>
       <c r="I220" s="32"/>
       <c r="J220" s="17"/>
       <c r="K220" s="17"/>
     </row>
-    <row r="221" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A221" s="17"/>
+    <row r="221" spans="1:11" ht="47.25">
+      <c r="A221" s="12">
+        <v>217</v>
+      </c>
       <c r="B221" s="72"/>
-      <c r="C221" s="37"/>
-      <c r="D221" s="73"/>
-      <c r="E221" s="37"/>
-      <c r="F221" s="37"/>
+      <c r="C221" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="D221" s="72" t="s">
+        <v>470</v>
+      </c>
+      <c r="E221" s="72" t="s">
+        <v>471</v>
+      </c>
+      <c r="F221" s="37" t="s">
+        <v>472</v>
+      </c>
       <c r="G221" s="17"/>
       <c r="H221" s="17"/>
       <c r="I221" s="32"/>
       <c r="J221" s="17"/>
       <c r="K221" s="17"/>
     </row>
-    <row r="222" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A222" s="17"/>
+    <row r="222" spans="1:11" ht="47.25">
+      <c r="A222" s="12">
+        <v>218</v>
+      </c>
       <c r="B222" s="72"/>
-      <c r="C222" s="37"/>
-      <c r="D222" s="73"/>
-      <c r="E222" s="37"/>
-      <c r="F222" s="37"/>
+      <c r="C222" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="D222" s="72" t="s">
+        <v>473</v>
+      </c>
+      <c r="E222" s="72" t="s">
+        <v>474</v>
+      </c>
+      <c r="F222" s="37" t="s">
+        <v>475</v>
+      </c>
       <c r="G222" s="17"/>
       <c r="H222" s="17"/>
       <c r="I222" s="32"/>
@@ -18870,7 +20470,7 @@
     <row r="223" spans="1:11" ht="11.25" customHeight="1">
       <c r="A223" s="17"/>
       <c r="B223" s="72"/>
-      <c r="C223" s="37"/>
+      <c r="C223" s="24"/>
       <c r="D223" s="73"/>
       <c r="E223" s="37"/>
       <c r="F223" s="37"/>
@@ -18883,7 +20483,7 @@
     <row r="224" spans="1:11" ht="11.25" customHeight="1">
       <c r="A224" s="17"/>
       <c r="B224" s="72"/>
-      <c r="C224" s="37"/>
+      <c r="C224" s="24"/>
       <c r="D224" s="73"/>
       <c r="E224" s="37"/>
       <c r="F224" s="37"/>
@@ -18896,7 +20496,7 @@
     <row r="225" spans="1:11" ht="11.25" customHeight="1">
       <c r="A225" s="17"/>
       <c r="B225" s="72"/>
-      <c r="C225" s="37"/>
+      <c r="C225" s="24"/>
       <c r="D225" s="73"/>
       <c r="E225" s="37"/>
       <c r="F225" s="37"/>
@@ -18909,7 +20509,7 @@
     <row r="226" spans="1:11" ht="11.25" customHeight="1">
       <c r="A226" s="17"/>
       <c r="B226" s="72"/>
-      <c r="C226" s="37"/>
+      <c r="C226" s="24"/>
       <c r="D226" s="73"/>
       <c r="E226" s="37"/>
       <c r="F226" s="37"/>
@@ -18922,7 +20522,7 @@
     <row r="227" spans="1:11" ht="11.25" customHeight="1">
       <c r="A227" s="17"/>
       <c r="B227" s="72"/>
-      <c r="C227" s="37"/>
+      <c r="C227" s="24"/>
       <c r="D227" s="73"/>
       <c r="E227" s="37"/>
       <c r="F227" s="37"/>
@@ -20466,22 +22066,34 @@
       <c r="J345" s="17"/>
       <c r="K345" s="17"/>
     </row>
+    <row r="346" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A346" s="17"/>
+      <c r="B346" s="72"/>
+      <c r="C346" s="37"/>
+      <c r="D346" s="73"/>
+      <c r="E346" s="37"/>
+      <c r="F346" s="37"/>
+      <c r="G346" s="17"/>
+      <c r="H346" s="17"/>
+      <c r="I346" s="32"/>
+      <c r="J346" s="17"/>
+      <c r="K346" s="17"/>
+    </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="D143:D144"/>
-    <mergeCell ref="E143:E144"/>
-    <mergeCell ref="D114:D125"/>
-    <mergeCell ref="E114:E125"/>
-    <mergeCell ref="D129:D140"/>
-    <mergeCell ref="E129:E140"/>
-    <mergeCell ref="D98:D108"/>
-    <mergeCell ref="E98:E108"/>
-    <mergeCell ref="D79:D94"/>
-    <mergeCell ref="D42:D53"/>
-    <mergeCell ref="E42:E53"/>
-    <mergeCell ref="E66:E77"/>
-    <mergeCell ref="E79:E94"/>
-    <mergeCell ref="D66:D77"/>
+  <mergeCells count="39">
+    <mergeCell ref="F187:F192"/>
+    <mergeCell ref="F196:F197"/>
+    <mergeCell ref="D201:D214"/>
+    <mergeCell ref="E201:E214"/>
+    <mergeCell ref="E174:E185"/>
+    <mergeCell ref="D174:D185"/>
+    <mergeCell ref="D187:D198"/>
+    <mergeCell ref="E187:E198"/>
+    <mergeCell ref="D140:D151"/>
+    <mergeCell ref="E140:E151"/>
+    <mergeCell ref="D152:D163"/>
+    <mergeCell ref="F152:F163"/>
+    <mergeCell ref="D164:D173"/>
     <mergeCell ref="F66:F77"/>
     <mergeCell ref="D54:D65"/>
     <mergeCell ref="E54:E65"/>
@@ -20496,6 +22108,18 @@
     <mergeCell ref="D20:D31"/>
     <mergeCell ref="D32:D41"/>
     <mergeCell ref="F42:F53"/>
+    <mergeCell ref="D98:D108"/>
+    <mergeCell ref="E98:E108"/>
+    <mergeCell ref="D79:D94"/>
+    <mergeCell ref="D42:D53"/>
+    <mergeCell ref="E42:E53"/>
+    <mergeCell ref="E66:E77"/>
+    <mergeCell ref="E79:E94"/>
+    <mergeCell ref="D66:D77"/>
+    <mergeCell ref="D130:D131"/>
+    <mergeCell ref="E130:E131"/>
+    <mergeCell ref="D114:D125"/>
+    <mergeCell ref="E114:E125"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/testcase_account_ver3.xlsx
+++ b/testcase_account_ver3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\7-Programming-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA7A7A0-735D-4EF5-9607-CEDA70D9ADA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58890029-5DDD-4688-9030-3032F25D0726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="888" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1661" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="498">
   <si>
     <t>作成者</t>
   </si>
@@ -9438,6 +9438,144 @@
   </si>
   <si>
     <t>DB登録をする際に自動的に時間のデータを取得し、PHP MyAdminのlesson01のacountというテーブルの中のカラム名「update_time」に更新された場合は変更されて表示、更新されない場合は元データのまま表示される。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「戻って修正する」になってしまっているので、「前に戻る」ボタンへ変更が必要。</t>
+    <rPh sb="1" eb="2">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除確認画面
+から
+アカウント削除画面</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除確認画面にて、画面下の「前に戻る」ボタンを押す。</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ガメンシタ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除確認画面からアカウント削除画面へ遷移する。</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>サクジョガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除確認画面
+から
+アカウント削除画面</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除画面で表示されていた内容が再度表示される。</t>
+    <rPh sb="5" eb="9">
+      <t>サクジョガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「戻って修正する」になってしまっているので、「前に戻る」ボタンへ変更が必要。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新確認画面の画面下にある「前に戻る」ボタンを押す。</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -9787,7 +9925,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -10081,6 +10219,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10110,27 +10257,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -10140,6 +10266,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -10148,6 +10280,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -10522,12 +10666,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
       <c r="E1" s="53" t="s">
         <v>2</v>
       </c>
@@ -10550,10 +10694,10 @@
       <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A2" s="103"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
+      <c r="A2" s="106"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
       <c r="E2" s="53" t="s">
         <v>3</v>
       </c>
@@ -10867,7 +11011,7 @@
       <c r="F12" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="98" t="s">
+      <c r="G12" s="101" t="s">
         <v>107</v>
       </c>
       <c r="H12" s="68">
@@ -10897,7 +11041,7 @@
       <c r="F13" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="99"/>
+      <c r="G13" s="102"/>
       <c r="H13" s="60">
         <v>44354</v>
       </c>
@@ -10925,7 +11069,7 @@
       <c r="F14" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="99"/>
+      <c r="G14" s="102"/>
       <c r="H14" s="60">
         <v>44354</v>
       </c>
@@ -10953,7 +11097,7 @@
       <c r="F15" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="99"/>
+      <c r="G15" s="102"/>
       <c r="H15" s="68">
         <v>44354</v>
       </c>
@@ -10981,7 +11125,7 @@
       <c r="F16" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="99"/>
+      <c r="G16" s="102"/>
       <c r="H16" s="60">
         <v>44354</v>
       </c>
@@ -11009,7 +11153,7 @@
       <c r="F17" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="99"/>
+      <c r="G17" s="102"/>
       <c r="H17" s="60">
         <v>44354</v>
       </c>
@@ -11037,7 +11181,7 @@
       <c r="F18" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="99"/>
+      <c r="G18" s="102"/>
       <c r="H18" s="68">
         <v>44354</v>
       </c>
@@ -11065,7 +11209,7 @@
       <c r="F19" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="99"/>
+      <c r="G19" s="102"/>
       <c r="H19" s="60">
         <v>44354</v>
       </c>
@@ -11093,7 +11237,7 @@
       <c r="F20" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="99"/>
+      <c r="G20" s="102"/>
       <c r="H20" s="60">
         <v>44354</v>
       </c>
@@ -11121,7 +11265,7 @@
       <c r="F21" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="99"/>
+      <c r="G21" s="102"/>
       <c r="H21" s="68">
         <v>44354</v>
       </c>
@@ -11149,7 +11293,7 @@
       <c r="F22" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="99"/>
+      <c r="G22" s="102"/>
       <c r="H22" s="60">
         <v>44354</v>
       </c>
@@ -11177,7 +11321,7 @@
       <c r="F23" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="100"/>
+      <c r="G23" s="103"/>
       <c r="H23" s="60">
         <v>44354</v>
       </c>
@@ -12212,7 +12356,7 @@
       <c r="E57" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F57" s="98" t="s">
+      <c r="F57" s="101" t="s">
         <v>232</v>
       </c>
       <c r="G57" s="32" t="s">
@@ -12244,7 +12388,7 @@
       <c r="E58" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F58" s="99"/>
+      <c r="F58" s="102"/>
       <c r="G58" s="32" t="s">
         <v>233</v>
       </c>
@@ -12271,10 +12415,10 @@
       <c r="D59" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="E59" s="105" t="s">
+      <c r="E59" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="F59" s="99"/>
+      <c r="F59" s="102"/>
       <c r="G59" s="37" t="s">
         <v>260</v>
       </c>
@@ -12299,8 +12443,8 @@
       <c r="D60" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E60" s="106"/>
-      <c r="F60" s="99"/>
+      <c r="E60" s="109"/>
+      <c r="F60" s="102"/>
       <c r="G60" s="37" t="s">
         <v>261</v>
       </c>
@@ -12325,8 +12469,8 @@
       <c r="D61" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E61" s="106"/>
-      <c r="F61" s="99"/>
+      <c r="E61" s="109"/>
+      <c r="F61" s="102"/>
       <c r="G61" s="37" t="s">
         <v>262</v>
       </c>
@@ -12351,8 +12495,8 @@
       <c r="D62" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E62" s="106"/>
-      <c r="F62" s="99"/>
+      <c r="E62" s="109"/>
+      <c r="F62" s="102"/>
       <c r="G62" s="37" t="s">
         <v>263</v>
       </c>
@@ -12377,8 +12521,8 @@
       <c r="D63" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E63" s="106"/>
-      <c r="F63" s="99"/>
+      <c r="E63" s="109"/>
+      <c r="F63" s="102"/>
       <c r="G63" s="37" t="s">
         <v>264</v>
       </c>
@@ -12403,8 +12547,8 @@
       <c r="D64" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E64" s="106"/>
-      <c r="F64" s="99"/>
+      <c r="E64" s="109"/>
+      <c r="F64" s="102"/>
       <c r="G64" s="37" t="s">
         <v>265</v>
       </c>
@@ -12429,8 +12573,8 @@
       <c r="D65" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E65" s="106"/>
-      <c r="F65" s="99"/>
+      <c r="E65" s="109"/>
+      <c r="F65" s="102"/>
       <c r="G65" s="31" t="s">
         <v>272</v>
       </c>
@@ -12455,8 +12599,8 @@
       <c r="D66" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E66" s="106"/>
-      <c r="F66" s="99"/>
+      <c r="E66" s="109"/>
+      <c r="F66" s="102"/>
       <c r="G66" s="31" t="s">
         <v>273</v>
       </c>
@@ -12481,8 +12625,8 @@
       <c r="D67" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="E67" s="106"/>
-      <c r="F67" s="99"/>
+      <c r="E67" s="109"/>
+      <c r="F67" s="102"/>
       <c r="G67" s="31" t="s">
         <v>274</v>
       </c>
@@ -12507,8 +12651,8 @@
       <c r="D68" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="E68" s="106"/>
-      <c r="F68" s="99"/>
+      <c r="E68" s="109"/>
+      <c r="F68" s="102"/>
       <c r="G68" s="31" t="s">
         <v>275</v>
       </c>
@@ -12533,8 +12677,8 @@
       <c r="D69" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="E69" s="106"/>
-      <c r="F69" s="99"/>
+      <c r="E69" s="109"/>
+      <c r="F69" s="102"/>
       <c r="G69" s="31" t="s">
         <v>275</v>
       </c>
@@ -12559,8 +12703,8 @@
       <c r="D70" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="E70" s="106"/>
-      <c r="F70" s="99"/>
+      <c r="E70" s="109"/>
+      <c r="F70" s="102"/>
       <c r="G70" s="31" t="s">
         <v>270</v>
       </c>
@@ -12585,8 +12729,8 @@
       <c r="D71" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="E71" s="107"/>
-      <c r="F71" s="100"/>
+      <c r="E71" s="110"/>
+      <c r="F71" s="103"/>
       <c r="G71" s="31" t="s">
         <v>271</v>
       </c>
@@ -13112,7 +13256,7 @@
       <c r="E90" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="F90" s="98" t="s">
+      <c r="F90" s="101" t="s">
         <v>300</v>
       </c>
       <c r="G90" s="30" t="s">
@@ -13142,7 +13286,7 @@
         <v>136</v>
       </c>
       <c r="E91" s="93"/>
-      <c r="F91" s="99"/>
+      <c r="F91" s="102"/>
       <c r="G91" s="32" t="s">
         <v>298</v>
       </c>
@@ -13168,7 +13312,7 @@
         <v>132</v>
       </c>
       <c r="E92" s="94"/>
-      <c r="F92" s="99"/>
+      <c r="F92" s="102"/>
       <c r="G92" s="32" t="s">
         <v>302</v>
       </c>
@@ -13200,7 +13344,7 @@
       <c r="E93" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F93" s="99"/>
+      <c r="F93" s="102"/>
       <c r="G93" s="32" t="s">
         <v>354</v>
       </c>
@@ -13228,7 +13372,7 @@
       <c r="E94" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F94" s="100"/>
+      <c r="F94" s="103"/>
       <c r="G94" s="32" t="s">
         <v>355</v>
       </c>
@@ -13675,7 +13819,7 @@
       <c r="F110" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="G110" s="98" t="s">
+      <c r="G110" s="101" t="s">
         <v>107</v>
       </c>
       <c r="H110" s="68">
@@ -13705,7 +13849,7 @@
       <c r="F111" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="G111" s="99"/>
+      <c r="G111" s="102"/>
       <c r="H111" s="68">
         <v>44435</v>
       </c>
@@ -13733,7 +13877,7 @@
       <c r="F112" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="G112" s="99"/>
+      <c r="G112" s="102"/>
       <c r="H112" s="68">
         <v>44435</v>
       </c>
@@ -13761,7 +13905,7 @@
       <c r="F113" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="G113" s="99"/>
+      <c r="G113" s="102"/>
       <c r="H113" s="68">
         <v>44435</v>
       </c>
@@ -13789,7 +13933,7 @@
       <c r="F114" s="31" t="s">
         <v>326</v>
       </c>
-      <c r="G114" s="99"/>
+      <c r="G114" s="102"/>
       <c r="H114" s="68">
         <v>44435</v>
       </c>
@@ -13817,7 +13961,7 @@
       <c r="F115" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="G115" s="99"/>
+      <c r="G115" s="102"/>
       <c r="H115" s="68">
         <v>44435</v>
       </c>
@@ -13845,7 +13989,7 @@
       <c r="F116" s="31" t="s">
         <v>346</v>
       </c>
-      <c r="G116" s="99"/>
+      <c r="G116" s="102"/>
       <c r="H116" s="68">
         <v>44435</v>
       </c>
@@ -13873,7 +14017,7 @@
       <c r="F117" s="31" t="s">
         <v>327</v>
       </c>
-      <c r="G117" s="99"/>
+      <c r="G117" s="102"/>
       <c r="H117" s="68">
         <v>44435</v>
       </c>
@@ -13901,7 +14045,7 @@
       <c r="F118" s="31" t="s">
         <v>322</v>
       </c>
-      <c r="G118" s="99"/>
+      <c r="G118" s="102"/>
       <c r="H118" s="68">
         <v>44435</v>
       </c>
@@ -13929,7 +14073,7 @@
       <c r="F119" s="31" t="s">
         <v>328</v>
       </c>
-      <c r="G119" s="99"/>
+      <c r="G119" s="102"/>
       <c r="H119" s="68">
         <v>44435</v>
       </c>
@@ -13957,7 +14101,7 @@
       <c r="F120" s="31" t="s">
         <v>329</v>
       </c>
-      <c r="G120" s="99"/>
+      <c r="G120" s="102"/>
       <c r="H120" s="68">
         <v>44435</v>
       </c>
@@ -13985,7 +14129,7 @@
       <c r="F121" s="31" t="s">
         <v>321</v>
       </c>
-      <c r="G121" s="100"/>
+      <c r="G121" s="103"/>
       <c r="H121" s="68">
         <v>44435</v>
       </c>
@@ -14829,13 +14973,13 @@
       <c r="D150" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E150" s="108" t="s">
+      <c r="E150" s="98" t="s">
         <v>55</v>
       </c>
       <c r="F150" s="95" t="s">
         <v>357</v>
       </c>
-      <c r="G150" s="98" t="s">
+      <c r="G150" s="101" t="s">
         <v>358</v>
       </c>
       <c r="H150" s="68">
@@ -14859,9 +15003,9 @@
       <c r="D151" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E151" s="109"/>
+      <c r="E151" s="99"/>
       <c r="F151" s="96"/>
-      <c r="G151" s="99"/>
+      <c r="G151" s="102"/>
       <c r="H151" s="68">
         <v>44435</v>
       </c>
@@ -14883,9 +15027,9 @@
       <c r="D152" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E152" s="109"/>
+      <c r="E152" s="99"/>
       <c r="F152" s="96"/>
-      <c r="G152" s="99"/>
+      <c r="G152" s="102"/>
       <c r="H152" s="68">
         <v>44435</v>
       </c>
@@ -14907,9 +15051,9 @@
       <c r="D153" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E153" s="109"/>
+      <c r="E153" s="99"/>
       <c r="F153" s="96"/>
-      <c r="G153" s="99"/>
+      <c r="G153" s="102"/>
       <c r="H153" s="68">
         <v>44435</v>
       </c>
@@ -14931,9 +15075,9 @@
       <c r="D154" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E154" s="109"/>
+      <c r="E154" s="99"/>
       <c r="F154" s="96"/>
-      <c r="G154" s="99"/>
+      <c r="G154" s="102"/>
       <c r="H154" s="68">
         <v>44435</v>
       </c>
@@ -14955,9 +15099,9 @@
       <c r="D155" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E155" s="109"/>
+      <c r="E155" s="99"/>
       <c r="F155" s="96"/>
-      <c r="G155" s="99"/>
+      <c r="G155" s="102"/>
       <c r="H155" s="68">
         <v>44435</v>
       </c>
@@ -14979,9 +15123,9 @@
       <c r="D156" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E156" s="109"/>
+      <c r="E156" s="99"/>
       <c r="F156" s="96"/>
-      <c r="G156" s="99"/>
+      <c r="G156" s="102"/>
       <c r="H156" s="68">
         <v>44435</v>
       </c>
@@ -15003,9 +15147,9 @@
       <c r="D157" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E157" s="109"/>
+      <c r="E157" s="99"/>
       <c r="F157" s="96"/>
-      <c r="G157" s="99"/>
+      <c r="G157" s="102"/>
       <c r="H157" s="68">
         <v>44435</v>
       </c>
@@ -15027,9 +15171,9 @@
       <c r="D158" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E158" s="109"/>
+      <c r="E158" s="99"/>
       <c r="F158" s="96"/>
-      <c r="G158" s="99"/>
+      <c r="G158" s="102"/>
       <c r="H158" s="68">
         <v>44435</v>
       </c>
@@ -15051,9 +15195,9 @@
       <c r="D159" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E159" s="109"/>
+      <c r="E159" s="99"/>
       <c r="F159" s="96"/>
-      <c r="G159" s="99"/>
+      <c r="G159" s="102"/>
       <c r="H159" s="68">
         <v>44435</v>
       </c>
@@ -15075,9 +15219,9 @@
       <c r="D160" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E160" s="109"/>
+      <c r="E160" s="99"/>
       <c r="F160" s="96"/>
-      <c r="G160" s="99"/>
+      <c r="G160" s="102"/>
       <c r="H160" s="68">
         <v>44435</v>
       </c>
@@ -15099,9 +15243,9 @@
       <c r="D161" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="E161" s="109"/>
+      <c r="E161" s="99"/>
       <c r="F161" s="96"/>
-      <c r="G161" s="100"/>
+      <c r="G161" s="103"/>
       <c r="H161" s="68">
         <v>44435</v>
       </c>
@@ -15123,7 +15267,7 @@
       <c r="D162" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="E162" s="109"/>
+      <c r="E162" s="99"/>
       <c r="F162" s="96"/>
       <c r="G162" s="31" t="s">
         <v>359</v>
@@ -15149,7 +15293,7 @@
       <c r="D163" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="E163" s="110"/>
+      <c r="E163" s="100"/>
       <c r="F163" s="97"/>
       <c r="G163" s="31" t="s">
         <v>360</v>
@@ -15326,6 +15470,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="E73:E84"/>
+    <mergeCell ref="F73:F84"/>
+    <mergeCell ref="E86:E89"/>
+    <mergeCell ref="F86:F89"/>
+    <mergeCell ref="E90:E92"/>
+    <mergeCell ref="F90:F94"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="G12:G23"/>
+    <mergeCell ref="G38:G42"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="E59:E71"/>
+    <mergeCell ref="F57:F71"/>
     <mergeCell ref="E97:E108"/>
     <mergeCell ref="F97:F108"/>
     <mergeCell ref="E150:E163"/>
@@ -15334,18 +15490,6 @@
     <mergeCell ref="G110:G121"/>
     <mergeCell ref="F132:F146"/>
     <mergeCell ref="F147:F149"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="G12:G23"/>
-    <mergeCell ref="G38:G42"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="E59:E71"/>
-    <mergeCell ref="F57:F71"/>
-    <mergeCell ref="E73:E84"/>
-    <mergeCell ref="F73:F84"/>
-    <mergeCell ref="E86:E89"/>
-    <mergeCell ref="F86:F89"/>
-    <mergeCell ref="E90:E92"/>
-    <mergeCell ref="F90:F94"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -15356,10 +15500,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9E524B-C67B-4990-A5C3-077E8DAB7E38}">
-  <dimension ref="A1:L346"/>
+  <dimension ref="A1:L359"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A155" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E110" sqref="E110"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B138" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G143" sqref="G143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -15370,7 +15514,8 @@
     <col min="4" max="4" width="20.125" style="6" customWidth="1"/>
     <col min="5" max="5" width="35.625" style="38" customWidth="1"/>
     <col min="6" max="6" width="42.625" style="38" customWidth="1"/>
-    <col min="7" max="8" width="10.625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="10.625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.625" style="4" customWidth="1"/>
     <col min="9" max="9" width="27.75" style="50" customWidth="1"/>
     <col min="10" max="10" width="15.375" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.625" style="4" customWidth="1"/>
@@ -15378,11 +15523,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="104" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="113"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="114"/>
       <c r="D1" s="53" t="s">
         <v>2</v>
       </c>
@@ -15405,9 +15550,9 @@
       <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A2" s="103"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="114"/>
+      <c r="A2" s="106"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="115"/>
       <c r="D2" s="53" t="s">
         <v>3</v>
       </c>
@@ -15434,7 +15579,7 @@
       <c r="D3" s="52"/>
       <c r="E3" s="34"/>
       <c r="F3" s="56"/>
-      <c r="G3" s="5"/>
+      <c r="G3" s="121"/>
       <c r="H3" s="5"/>
       <c r="I3" s="44"/>
       <c r="K3" s="14"/>
@@ -15575,13 +15720,13 @@
       <c r="C8" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="98" t="s">
+      <c r="D8" s="101" t="s">
         <v>204</v>
       </c>
       <c r="E8" s="80" t="s">
         <v>161</v>
       </c>
-      <c r="F8" s="98" t="s">
+      <c r="F8" s="101" t="s">
         <v>202</v>
       </c>
       <c r="G8" s="60">
@@ -15601,11 +15746,11 @@
       <c r="C9" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="99"/>
+      <c r="D9" s="102"/>
       <c r="E9" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="F9" s="99"/>
+      <c r="F9" s="102"/>
       <c r="G9" s="60">
         <v>44369</v>
       </c>
@@ -15623,11 +15768,11 @@
       <c r="C10" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="99"/>
+      <c r="D10" s="102"/>
       <c r="E10" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="99"/>
+      <c r="F10" s="102"/>
       <c r="G10" s="60">
         <v>44369</v>
       </c>
@@ -15645,11 +15790,11 @@
       <c r="C11" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="99"/>
+      <c r="D11" s="102"/>
       <c r="E11" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="99"/>
+      <c r="F11" s="102"/>
       <c r="G11" s="60">
         <v>44369</v>
       </c>
@@ -15667,11 +15812,11 @@
       <c r="C12" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="99"/>
+      <c r="D12" s="102"/>
       <c r="E12" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="99"/>
+      <c r="F12" s="102"/>
       <c r="G12" s="60">
         <v>44369</v>
       </c>
@@ -15689,11 +15834,11 @@
       <c r="C13" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="99"/>
+      <c r="D13" s="102"/>
       <c r="E13" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="99"/>
+      <c r="F13" s="102"/>
       <c r="G13" s="60">
         <v>44369</v>
       </c>
@@ -15711,11 +15856,11 @@
       <c r="C14" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="99"/>
+      <c r="D14" s="102"/>
       <c r="E14" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="99"/>
+      <c r="F14" s="102"/>
       <c r="G14" s="60">
         <v>44369</v>
       </c>
@@ -15733,11 +15878,11 @@
       <c r="C15" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="99"/>
+      <c r="D15" s="102"/>
       <c r="E15" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="99"/>
+      <c r="F15" s="102"/>
       <c r="G15" s="60">
         <v>44369</v>
       </c>
@@ -15755,11 +15900,11 @@
       <c r="C16" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="99"/>
+      <c r="D16" s="102"/>
       <c r="E16" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="99"/>
+      <c r="F16" s="102"/>
       <c r="G16" s="60">
         <v>44369</v>
       </c>
@@ -15777,11 +15922,11 @@
       <c r="C17" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="99"/>
+      <c r="D17" s="102"/>
       <c r="E17" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="99"/>
+      <c r="F17" s="102"/>
       <c r="G17" s="60">
         <v>44369</v>
       </c>
@@ -15799,11 +15944,11 @@
       <c r="C18" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="99"/>
+      <c r="D18" s="102"/>
       <c r="E18" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="99"/>
+      <c r="F18" s="102"/>
       <c r="G18" s="60">
         <v>44369</v>
       </c>
@@ -15821,11 +15966,11 @@
       <c r="C19" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="100"/>
+      <c r="D19" s="103"/>
       <c r="E19" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="100"/>
+      <c r="F19" s="103"/>
       <c r="G19" s="60">
         <v>44369</v>
       </c>
@@ -15846,13 +15991,13 @@
       <c r="C20" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="98" t="s">
+      <c r="D20" s="101" t="s">
         <v>203</v>
       </c>
-      <c r="E20" s="118" t="s">
+      <c r="E20" s="116" t="s">
         <v>201</v>
       </c>
-      <c r="F20" s="98" t="s">
+      <c r="F20" s="101" t="s">
         <v>188</v>
       </c>
       <c r="G20" s="60">
@@ -15875,9 +16020,9 @@
       <c r="C21" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="99"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="99"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="102"/>
       <c r="G21" s="60">
         <v>44369</v>
       </c>
@@ -15898,9 +16043,9 @@
       <c r="C22" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="99"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="99"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="102"/>
       <c r="G22" s="60">
         <v>44369</v>
       </c>
@@ -15921,9 +16066,9 @@
       <c r="C23" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="99"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="99"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="102"/>
       <c r="G23" s="60">
         <v>44369</v>
       </c>
@@ -15944,9 +16089,9 @@
       <c r="C24" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="99"/>
-      <c r="E24" s="119"/>
-      <c r="F24" s="100"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="103"/>
       <c r="G24" s="60">
         <v>44369</v>
       </c>
@@ -15967,8 +16112,8 @@
       <c r="C25" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="99"/>
-      <c r="E25" s="119"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="117"/>
       <c r="F25" s="31" t="s">
         <v>186</v>
       </c>
@@ -15992,9 +16137,9 @@
       <c r="C26" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="99"/>
-      <c r="E26" s="119"/>
-      <c r="F26" s="98" t="s">
+      <c r="D26" s="102"/>
+      <c r="E26" s="117"/>
+      <c r="F26" s="101" t="s">
         <v>187</v>
       </c>
       <c r="G26" s="60">
@@ -16017,9 +16162,9 @@
       <c r="C27" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="99"/>
-      <c r="E27" s="119"/>
-      <c r="F27" s="99"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="117"/>
+      <c r="F27" s="102"/>
       <c r="G27" s="60">
         <v>44369</v>
       </c>
@@ -16040,9 +16185,9 @@
       <c r="C28" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="99"/>
-      <c r="E28" s="119"/>
-      <c r="F28" s="99"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="102"/>
       <c r="G28" s="60">
         <v>44369</v>
       </c>
@@ -16063,9 +16208,9 @@
       <c r="C29" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="99"/>
-      <c r="E29" s="119"/>
-      <c r="F29" s="99"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="117"/>
+      <c r="F29" s="102"/>
       <c r="G29" s="60">
         <v>44369</v>
       </c>
@@ -16086,9 +16231,9 @@
       <c r="C30" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="99"/>
-      <c r="E30" s="119"/>
-      <c r="F30" s="99"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="102"/>
       <c r="G30" s="60">
         <v>44369</v>
       </c>
@@ -16109,9 +16254,9 @@
       <c r="C31" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="100"/>
-      <c r="E31" s="120"/>
-      <c r="F31" s="100"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="118"/>
+      <c r="F31" s="103"/>
       <c r="G31" s="60">
         <v>44369</v>
       </c>
@@ -16134,7 +16279,7 @@
       <c r="C32" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="98" t="s">
+      <c r="D32" s="101" t="s">
         <v>219</v>
       </c>
       <c r="E32" s="31" t="s">
@@ -16163,7 +16308,7 @@
       <c r="C33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="99"/>
+      <c r="D33" s="102"/>
       <c r="E33" s="31" t="s">
         <v>168</v>
       </c>
@@ -16190,7 +16335,7 @@
       <c r="C34" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="99"/>
+      <c r="D34" s="102"/>
       <c r="E34" s="31" t="s">
         <v>169</v>
       </c>
@@ -16217,7 +16362,7 @@
       <c r="C35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="99"/>
+      <c r="D35" s="102"/>
       <c r="E35" s="31" t="s">
         <v>169</v>
       </c>
@@ -16244,7 +16389,7 @@
       <c r="C36" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="99"/>
+      <c r="D36" s="102"/>
       <c r="E36" s="31" t="s">
         <v>170</v>
       </c>
@@ -16271,7 +16416,7 @@
       <c r="C37" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="99"/>
+      <c r="D37" s="102"/>
       <c r="E37" s="31" t="s">
         <v>171</v>
       </c>
@@ -16298,7 +16443,7 @@
       <c r="C38" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="99"/>
+      <c r="D38" s="102"/>
       <c r="E38" s="31" t="s">
         <v>172</v>
       </c>
@@ -16325,7 +16470,7 @@
       <c r="C39" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="99"/>
+      <c r="D39" s="102"/>
       <c r="E39" s="31" t="s">
         <v>173</v>
       </c>
@@ -16352,7 +16497,7 @@
       <c r="C40" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="99"/>
+      <c r="D40" s="102"/>
       <c r="E40" s="31" t="s">
         <v>174</v>
       </c>
@@ -16379,7 +16524,7 @@
       <c r="C41" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="100"/>
+      <c r="D41" s="103"/>
       <c r="E41" s="31" t="s">
         <v>175</v>
       </c>
@@ -16408,7 +16553,7 @@
       <c r="C42" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="98" t="s">
+      <c r="D42" s="101" t="s">
         <v>207</v>
       </c>
       <c r="E42" s="95" t="s">
@@ -16437,7 +16582,7 @@
       <c r="C43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="109"/>
+      <c r="D43" s="99"/>
       <c r="E43" s="96"/>
       <c r="F43" s="96"/>
       <c r="G43" s="60">
@@ -16460,7 +16605,7 @@
       <c r="C44" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="109"/>
+      <c r="D44" s="99"/>
       <c r="E44" s="96"/>
       <c r="F44" s="96"/>
       <c r="G44" s="60">
@@ -16483,7 +16628,7 @@
       <c r="C45" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="109"/>
+      <c r="D45" s="99"/>
       <c r="E45" s="96"/>
       <c r="F45" s="96"/>
       <c r="G45" s="60">
@@ -16506,7 +16651,7 @@
       <c r="C46" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="109"/>
+      <c r="D46" s="99"/>
       <c r="E46" s="96"/>
       <c r="F46" s="96"/>
       <c r="G46" s="60">
@@ -16529,7 +16674,7 @@
       <c r="C47" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="109"/>
+      <c r="D47" s="99"/>
       <c r="E47" s="96"/>
       <c r="F47" s="96"/>
       <c r="G47" s="60">
@@ -16552,7 +16697,7 @@
       <c r="C48" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="109"/>
+      <c r="D48" s="99"/>
       <c r="E48" s="96"/>
       <c r="F48" s="96"/>
       <c r="G48" s="60">
@@ -16575,7 +16720,7 @@
       <c r="C49" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D49" s="109"/>
+      <c r="D49" s="99"/>
       <c r="E49" s="96"/>
       <c r="F49" s="96"/>
       <c r="G49" s="60">
@@ -16598,7 +16743,7 @@
       <c r="C50" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="109"/>
+      <c r="D50" s="99"/>
       <c r="E50" s="96"/>
       <c r="F50" s="96"/>
       <c r="G50" s="60">
@@ -16621,7 +16766,7 @@
       <c r="C51" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D51" s="109"/>
+      <c r="D51" s="99"/>
       <c r="E51" s="96"/>
       <c r="F51" s="96"/>
       <c r="G51" s="60">
@@ -16644,7 +16789,7 @@
       <c r="C52" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="109"/>
+      <c r="D52" s="99"/>
       <c r="E52" s="96"/>
       <c r="F52" s="96"/>
       <c r="G52" s="60">
@@ -16667,7 +16812,7 @@
       <c r="C53" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="110"/>
+      <c r="D53" s="100"/>
       <c r="E53" s="97"/>
       <c r="F53" s="97"/>
       <c r="G53" s="60">
@@ -16692,13 +16837,13 @@
       <c r="C54" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="98" t="s">
+      <c r="D54" s="101" t="s">
         <v>205</v>
       </c>
       <c r="E54" s="95" t="s">
         <v>223</v>
       </c>
-      <c r="F54" s="115" t="s">
+      <c r="F54" s="111" t="s">
         <v>178</v>
       </c>
       <c r="G54" s="60">
@@ -16721,9 +16866,9 @@
       <c r="C55" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="109"/>
+      <c r="D55" s="99"/>
       <c r="E55" s="96"/>
-      <c r="F55" s="116"/>
+      <c r="F55" s="112"/>
       <c r="G55" s="60">
         <v>44369</v>
       </c>
@@ -16744,9 +16889,9 @@
       <c r="C56" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="109"/>
+      <c r="D56" s="99"/>
       <c r="E56" s="96"/>
-      <c r="F56" s="116"/>
+      <c r="F56" s="112"/>
       <c r="G56" s="60">
         <v>44369</v>
       </c>
@@ -16767,9 +16912,9 @@
       <c r="C57" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="109"/>
+      <c r="D57" s="99"/>
       <c r="E57" s="96"/>
-      <c r="F57" s="116"/>
+      <c r="F57" s="112"/>
       <c r="G57" s="60">
         <v>44369</v>
       </c>
@@ -16790,9 +16935,9 @@
       <c r="C58" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="109"/>
+      <c r="D58" s="99"/>
       <c r="E58" s="96"/>
-      <c r="F58" s="116"/>
+      <c r="F58" s="112"/>
       <c r="G58" s="60">
         <v>44369</v>
       </c>
@@ -16813,9 +16958,9 @@
       <c r="C59" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D59" s="109"/>
+      <c r="D59" s="99"/>
       <c r="E59" s="96"/>
-      <c r="F59" s="117"/>
+      <c r="F59" s="113"/>
       <c r="G59" s="60">
         <v>44369</v>
       </c>
@@ -16836,7 +16981,7 @@
       <c r="C60" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="109"/>
+      <c r="D60" s="99"/>
       <c r="E60" s="96"/>
       <c r="F60" s="32" t="s">
         <v>179</v>
@@ -16861,7 +17006,7 @@
       <c r="C61" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="109"/>
+      <c r="D61" s="99"/>
       <c r="E61" s="96"/>
       <c r="F61" s="32" t="s">
         <v>182</v>
@@ -16886,7 +17031,7 @@
       <c r="C62" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D62" s="109"/>
+      <c r="D62" s="99"/>
       <c r="E62" s="96"/>
       <c r="F62" s="32" t="s">
         <v>181</v>
@@ -16911,9 +17056,9 @@
       <c r="C63" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D63" s="109"/>
+      <c r="D63" s="99"/>
       <c r="E63" s="96"/>
-      <c r="F63" s="115" t="s">
+      <c r="F63" s="111" t="s">
         <v>182</v>
       </c>
       <c r="G63" s="60">
@@ -16936,9 +17081,9 @@
       <c r="C64" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D64" s="109"/>
+      <c r="D64" s="99"/>
       <c r="E64" s="96"/>
-      <c r="F64" s="117"/>
+      <c r="F64" s="113"/>
       <c r="G64" s="60">
         <v>44369</v>
       </c>
@@ -16959,7 +17104,7 @@
       <c r="C65" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D65" s="110"/>
+      <c r="D65" s="100"/>
       <c r="E65" s="97"/>
       <c r="F65" s="32" t="s">
         <v>180</v>
@@ -16986,10 +17131,10 @@
       <c r="C66" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="98" t="s">
+      <c r="D66" s="101" t="s">
         <v>221</v>
       </c>
-      <c r="E66" s="98" t="s">
+      <c r="E66" s="101" t="s">
         <v>163</v>
       </c>
       <c r="F66" s="95" t="s">
@@ -17015,8 +17160,8 @@
       <c r="C67" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="109"/>
-      <c r="E67" s="99"/>
+      <c r="D67" s="99"/>
+      <c r="E67" s="102"/>
       <c r="F67" s="96"/>
       <c r="G67" s="60">
         <v>44369</v>
@@ -17038,8 +17183,8 @@
       <c r="C68" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D68" s="109"/>
-      <c r="E68" s="99"/>
+      <c r="D68" s="99"/>
+      <c r="E68" s="102"/>
       <c r="F68" s="96"/>
       <c r="G68" s="60">
         <v>44369</v>
@@ -17061,8 +17206,8 @@
       <c r="C69" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D69" s="109"/>
-      <c r="E69" s="99"/>
+      <c r="D69" s="99"/>
+      <c r="E69" s="102"/>
       <c r="F69" s="96"/>
       <c r="G69" s="60">
         <v>44369</v>
@@ -17084,8 +17229,8 @@
       <c r="C70" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="109"/>
-      <c r="E70" s="99"/>
+      <c r="D70" s="99"/>
+      <c r="E70" s="102"/>
       <c r="F70" s="96"/>
       <c r="G70" s="60">
         <v>44369</v>
@@ -17107,8 +17252,8 @@
       <c r="C71" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D71" s="109"/>
-      <c r="E71" s="99"/>
+      <c r="D71" s="99"/>
+      <c r="E71" s="102"/>
       <c r="F71" s="96"/>
       <c r="G71" s="60">
         <v>44369</v>
@@ -17130,8 +17275,8 @@
       <c r="C72" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="109"/>
-      <c r="E72" s="99"/>
+      <c r="D72" s="99"/>
+      <c r="E72" s="102"/>
       <c r="F72" s="96"/>
       <c r="G72" s="60">
         <v>44369</v>
@@ -17153,8 +17298,8 @@
       <c r="C73" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="109"/>
-      <c r="E73" s="99"/>
+      <c r="D73" s="99"/>
+      <c r="E73" s="102"/>
       <c r="F73" s="96"/>
       <c r="G73" s="60">
         <v>44369</v>
@@ -17176,8 +17321,8 @@
       <c r="C74" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D74" s="109"/>
-      <c r="E74" s="99"/>
+      <c r="D74" s="99"/>
+      <c r="E74" s="102"/>
       <c r="F74" s="96"/>
       <c r="G74" s="60">
         <v>44369</v>
@@ -17199,8 +17344,8 @@
       <c r="C75" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="109"/>
-      <c r="E75" s="99"/>
+      <c r="D75" s="99"/>
+      <c r="E75" s="102"/>
       <c r="F75" s="96"/>
       <c r="G75" s="60">
         <v>44369</v>
@@ -17222,8 +17367,8 @@
       <c r="C76" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D76" s="109"/>
-      <c r="E76" s="99"/>
+      <c r="D76" s="99"/>
+      <c r="E76" s="102"/>
       <c r="F76" s="96"/>
       <c r="G76" s="60">
         <v>44369</v>
@@ -17245,8 +17390,8 @@
       <c r="C77" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D77" s="110"/>
-      <c r="E77" s="100"/>
+      <c r="D77" s="100"/>
+      <c r="E77" s="103"/>
       <c r="F77" s="97"/>
       <c r="G77" s="60">
         <v>44369</v>
@@ -17303,10 +17448,10 @@
       <c r="C79" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="D79" s="98" t="s">
+      <c r="D79" s="101" t="s">
         <v>222</v>
       </c>
-      <c r="E79" s="98" t="s">
+      <c r="E79" s="101" t="s">
         <v>237</v>
       </c>
       <c r="F79" s="32" t="s">
@@ -17332,8 +17477,8 @@
       <c r="C80" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D80" s="99"/>
-      <c r="E80" s="99"/>
+      <c r="D80" s="102"/>
+      <c r="E80" s="102"/>
       <c r="F80" s="32" t="s">
         <v>191</v>
       </c>
@@ -17357,8 +17502,8 @@
       <c r="C81" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D81" s="99"/>
-      <c r="E81" s="99"/>
+      <c r="D81" s="102"/>
+      <c r="E81" s="102"/>
       <c r="F81" s="32" t="s">
         <v>208</v>
       </c>
@@ -17382,8 +17527,8 @@
       <c r="C82" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D82" s="99"/>
-      <c r="E82" s="99"/>
+      <c r="D82" s="102"/>
+      <c r="E82" s="102"/>
       <c r="F82" s="32" t="s">
         <v>209</v>
       </c>
@@ -17407,8 +17552,8 @@
       <c r="C83" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D83" s="99"/>
-      <c r="E83" s="99"/>
+      <c r="D83" s="102"/>
+      <c r="E83" s="102"/>
       <c r="F83" s="32" t="s">
         <v>210</v>
       </c>
@@ -17432,8 +17577,8 @@
       <c r="C84" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D84" s="99"/>
-      <c r="E84" s="99"/>
+      <c r="D84" s="102"/>
+      <c r="E84" s="102"/>
       <c r="F84" s="32" t="s">
         <v>211</v>
       </c>
@@ -17457,8 +17602,8 @@
       <c r="C85" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D85" s="99"/>
-      <c r="E85" s="99"/>
+      <c r="D85" s="102"/>
+      <c r="E85" s="102"/>
       <c r="F85" s="32" t="s">
         <v>212</v>
       </c>
@@ -17482,8 +17627,8 @@
       <c r="C86" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D86" s="99"/>
-      <c r="E86" s="99"/>
+      <c r="D86" s="102"/>
+      <c r="E86" s="102"/>
       <c r="F86" s="32" t="s">
         <v>213</v>
       </c>
@@ -17507,8 +17652,8 @@
       <c r="C87" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D87" s="99"/>
-      <c r="E87" s="99"/>
+      <c r="D87" s="102"/>
+      <c r="E87" s="102"/>
       <c r="F87" s="32" t="s">
         <v>214</v>
       </c>
@@ -17532,8 +17677,8 @@
       <c r="C88" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D88" s="99"/>
-      <c r="E88" s="99"/>
+      <c r="D88" s="102"/>
+      <c r="E88" s="102"/>
       <c r="F88" s="32" t="s">
         <v>215</v>
       </c>
@@ -17557,8 +17702,8 @@
       <c r="C89" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D89" s="99"/>
-      <c r="E89" s="99"/>
+      <c r="D89" s="102"/>
+      <c r="E89" s="102"/>
       <c r="F89" s="32" t="s">
         <v>216</v>
       </c>
@@ -17582,8 +17727,8 @@
       <c r="C90" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D90" s="99"/>
-      <c r="E90" s="99"/>
+      <c r="D90" s="102"/>
+      <c r="E90" s="102"/>
       <c r="F90" s="32" t="s">
         <v>217</v>
       </c>
@@ -17607,8 +17752,8 @@
       <c r="C91" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D91" s="99"/>
-      <c r="E91" s="99"/>
+      <c r="D91" s="102"/>
+      <c r="E91" s="102"/>
       <c r="F91" s="32" t="s">
         <v>218</v>
       </c>
@@ -17632,8 +17777,8 @@
       <c r="C92" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="D92" s="99"/>
-      <c r="E92" s="99"/>
+      <c r="D92" s="102"/>
+      <c r="E92" s="102"/>
       <c r="F92" s="31" t="s">
         <v>224</v>
       </c>
@@ -17657,8 +17802,8 @@
       <c r="C93" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="D93" s="99"/>
-      <c r="E93" s="99"/>
+      <c r="D93" s="102"/>
+      <c r="E93" s="102"/>
       <c r="F93" s="31" t="s">
         <v>225</v>
       </c>
@@ -17684,8 +17829,8 @@
       <c r="C94" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="D94" s="100"/>
-      <c r="E94" s="100"/>
+      <c r="D94" s="103"/>
+      <c r="E94" s="103"/>
       <c r="F94" s="31" t="s">
         <v>226</v>
       </c>
@@ -17833,7 +17978,7 @@
       <c r="C99" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D99" s="111"/>
+      <c r="D99" s="119"/>
       <c r="E99" s="96"/>
       <c r="F99" s="37" t="s">
         <v>261</v>
@@ -17858,7 +18003,7 @@
       <c r="C100" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D100" s="111"/>
+      <c r="D100" s="119"/>
       <c r="E100" s="96"/>
       <c r="F100" s="37" t="s">
         <v>262</v>
@@ -17883,7 +18028,7 @@
       <c r="C101" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D101" s="111"/>
+      <c r="D101" s="119"/>
       <c r="E101" s="96"/>
       <c r="F101" s="37" t="s">
         <v>263</v>
@@ -17908,7 +18053,7 @@
       <c r="C102" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D102" s="111"/>
+      <c r="D102" s="119"/>
       <c r="E102" s="96"/>
       <c r="F102" s="37" t="s">
         <v>264</v>
@@ -17933,7 +18078,7 @@
       <c r="C103" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D103" s="111"/>
+      <c r="D103" s="119"/>
       <c r="E103" s="96"/>
       <c r="F103" s="37" t="s">
         <v>265</v>
@@ -17958,7 +18103,7 @@
       <c r="C104" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D104" s="111"/>
+      <c r="D104" s="119"/>
       <c r="E104" s="96"/>
       <c r="F104" s="37" t="s">
         <v>266</v>
@@ -17983,7 +18128,7 @@
       <c r="C105" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D105" s="111"/>
+      <c r="D105" s="119"/>
       <c r="E105" s="96"/>
       <c r="F105" s="37" t="s">
         <v>267</v>
@@ -18008,7 +18153,7 @@
       <c r="C106" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="D106" s="111"/>
+      <c r="D106" s="119"/>
       <c r="E106" s="96"/>
       <c r="F106" s="37" t="s">
         <v>268</v>
@@ -18033,7 +18178,7 @@
       <c r="C107" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="D107" s="111"/>
+      <c r="D107" s="119"/>
       <c r="E107" s="96"/>
       <c r="F107" s="37" t="s">
         <v>269</v>
@@ -18058,7 +18203,7 @@
       <c r="C108" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="D108" s="112"/>
+      <c r="D108" s="120"/>
       <c r="E108" s="97"/>
       <c r="F108" s="37" t="s">
         <v>269</v>
@@ -18217,7 +18362,7 @@
       <c r="G113" s="60">
         <v>44369</v>
       </c>
-      <c r="H113" s="89" t="s">
+      <c r="H113" s="12" t="s">
         <v>227</v>
       </c>
       <c r="I113" s="32"/>
@@ -18245,10 +18390,16 @@
       <c r="F114" s="37" t="s">
         <v>412</v>
       </c>
-      <c r="G114" s="17"/>
-      <c r="H114" s="17"/>
+      <c r="G114" s="122">
+        <v>44439</v>
+      </c>
+      <c r="H114" s="12" t="s">
+        <v>227</v>
+      </c>
       <c r="I114" s="32"/>
-      <c r="J114" s="17"/>
+      <c r="J114" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K114" s="17"/>
     </row>
     <row r="115" spans="1:11" ht="31.5">
@@ -18264,10 +18415,16 @@
       <c r="F115" s="37" t="s">
         <v>413</v>
       </c>
-      <c r="G115" s="17"/>
-      <c r="H115" s="17"/>
+      <c r="G115" s="122">
+        <v>44439</v>
+      </c>
+      <c r="H115" s="12" t="s">
+        <v>227</v>
+      </c>
       <c r="I115" s="32"/>
-      <c r="J115" s="17"/>
+      <c r="J115" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K115" s="17"/>
     </row>
     <row r="116" spans="1:11" ht="31.5">
@@ -18283,10 +18440,16 @@
       <c r="F116" s="37" t="s">
         <v>414</v>
       </c>
-      <c r="G116" s="17"/>
-      <c r="H116" s="17"/>
+      <c r="G116" s="122">
+        <v>44439</v>
+      </c>
+      <c r="H116" s="12" t="s">
+        <v>227</v>
+      </c>
       <c r="I116" s="32"/>
-      <c r="J116" s="17"/>
+      <c r="J116" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K116" s="17"/>
     </row>
     <row r="117" spans="1:11" ht="31.5">
@@ -18302,10 +18465,16 @@
       <c r="F117" s="37" t="s">
         <v>415</v>
       </c>
-      <c r="G117" s="17"/>
-      <c r="H117" s="17"/>
+      <c r="G117" s="122">
+        <v>44439</v>
+      </c>
+      <c r="H117" s="12" t="s">
+        <v>227</v>
+      </c>
       <c r="I117" s="32"/>
-      <c r="J117" s="17"/>
+      <c r="J117" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K117" s="17"/>
     </row>
     <row r="118" spans="1:11" ht="31.5">
@@ -18321,10 +18490,16 @@
       <c r="F118" s="37" t="s">
         <v>416</v>
       </c>
-      <c r="G118" s="17"/>
-      <c r="H118" s="17"/>
+      <c r="G118" s="122">
+        <v>44439</v>
+      </c>
+      <c r="H118" s="12" t="s">
+        <v>227</v>
+      </c>
       <c r="I118" s="32"/>
-      <c r="J118" s="17"/>
+      <c r="J118" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K118" s="17"/>
     </row>
     <row r="119" spans="1:11" ht="31.5">
@@ -18340,10 +18515,16 @@
       <c r="F119" s="37" t="s">
         <v>417</v>
       </c>
-      <c r="G119" s="17"/>
-      <c r="H119" s="17"/>
+      <c r="G119" s="122">
+        <v>44439</v>
+      </c>
+      <c r="H119" s="12" t="s">
+        <v>227</v>
+      </c>
       <c r="I119" s="32"/>
-      <c r="J119" s="17"/>
+      <c r="J119" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K119" s="17"/>
     </row>
     <row r="120" spans="1:11" ht="31.5">
@@ -18359,10 +18540,16 @@
       <c r="F120" s="37" t="s">
         <v>418</v>
       </c>
-      <c r="G120" s="17"/>
-      <c r="H120" s="17"/>
+      <c r="G120" s="122">
+        <v>44439</v>
+      </c>
+      <c r="H120" s="12" t="s">
+        <v>227</v>
+      </c>
       <c r="I120" s="32"/>
-      <c r="J120" s="17"/>
+      <c r="J120" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K120" s="17"/>
     </row>
     <row r="121" spans="1:11" ht="31.5">
@@ -18378,10 +18565,16 @@
       <c r="F121" s="37" t="s">
         <v>419</v>
       </c>
-      <c r="G121" s="17"/>
-      <c r="H121" s="17"/>
+      <c r="G121" s="122">
+        <v>44439</v>
+      </c>
+      <c r="H121" s="12" t="s">
+        <v>227</v>
+      </c>
       <c r="I121" s="32"/>
-      <c r="J121" s="17"/>
+      <c r="J121" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K121" s="17"/>
     </row>
     <row r="122" spans="1:11" ht="31.5">
@@ -18397,10 +18590,16 @@
       <c r="F122" s="37" t="s">
         <v>420</v>
       </c>
-      <c r="G122" s="17"/>
-      <c r="H122" s="17"/>
+      <c r="G122" s="122">
+        <v>44439</v>
+      </c>
+      <c r="H122" s="12" t="s">
+        <v>227</v>
+      </c>
       <c r="I122" s="32"/>
-      <c r="J122" s="17"/>
+      <c r="J122" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K122" s="17"/>
     </row>
     <row r="123" spans="1:11" ht="31.5">
@@ -18416,10 +18615,16 @@
       <c r="F123" s="37" t="s">
         <v>421</v>
       </c>
-      <c r="G123" s="17"/>
-      <c r="H123" s="17"/>
+      <c r="G123" s="122">
+        <v>44439</v>
+      </c>
+      <c r="H123" s="12" t="s">
+        <v>227</v>
+      </c>
       <c r="I123" s="32"/>
-      <c r="J123" s="17"/>
+      <c r="J123" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K123" s="17"/>
     </row>
     <row r="124" spans="1:11" ht="31.5">
@@ -18435,10 +18640,16 @@
       <c r="F124" s="37" t="s">
         <v>422</v>
       </c>
-      <c r="G124" s="17"/>
-      <c r="H124" s="17"/>
+      <c r="G124" s="122">
+        <v>44439</v>
+      </c>
+      <c r="H124" s="12" t="s">
+        <v>227</v>
+      </c>
       <c r="I124" s="32"/>
-      <c r="J124" s="17"/>
+      <c r="J124" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K124" s="17"/>
     </row>
     <row r="125" spans="1:11" ht="31.5">
@@ -18454,10 +18665,16 @@
       <c r="F125" s="37" t="s">
         <v>423</v>
       </c>
-      <c r="G125" s="17"/>
-      <c r="H125" s="17"/>
+      <c r="G125" s="122">
+        <v>44439</v>
+      </c>
+      <c r="H125" s="12" t="s">
+        <v>227</v>
+      </c>
       <c r="I125" s="32"/>
-      <c r="J125" s="17"/>
+      <c r="J125" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K125" s="17"/>
     </row>
     <row r="126" spans="1:11" ht="47.25">
@@ -18479,10 +18696,16 @@
       <c r="F126" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="G126" s="17"/>
-      <c r="H126" s="17"/>
+      <c r="G126" s="122">
+        <v>44439</v>
+      </c>
+      <c r="H126" s="12" t="s">
+        <v>227</v>
+      </c>
       <c r="I126" s="32"/>
-      <c r="J126" s="17"/>
+      <c r="J126" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K126" s="17"/>
     </row>
     <row r="127" spans="1:11" ht="31.5">
@@ -18504,411 +18727,435 @@
       <c r="F127" s="37" t="s">
         <v>378</v>
       </c>
-      <c r="G127" s="17"/>
-      <c r="H127" s="17"/>
+      <c r="G127" s="122">
+        <v>44439</v>
+      </c>
+      <c r="H127" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I127" s="32"/>
-      <c r="J127" s="17"/>
+      <c r="J127" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K127" s="17"/>
     </row>
     <row r="128" spans="1:11" ht="47.25">
-      <c r="A128" s="12">
-        <v>124</v>
-      </c>
+      <c r="A128" s="12"/>
       <c r="B128" s="72" t="s">
         <v>156</v>
       </c>
       <c r="C128" s="37" t="s">
-        <v>121</v>
+        <v>294</v>
       </c>
       <c r="D128" s="72" t="s">
-        <v>379</v>
-      </c>
-      <c r="E128" s="72" t="s">
-        <v>380</v>
+        <v>491</v>
+      </c>
+      <c r="E128" s="91" t="s">
+        <v>492</v>
       </c>
       <c r="F128" s="37" t="s">
-        <v>381</v>
-      </c>
-      <c r="G128" s="17"/>
-      <c r="H128" s="17"/>
-      <c r="I128" s="32"/>
-      <c r="J128" s="17"/>
+        <v>493</v>
+      </c>
+      <c r="G128" s="122">
+        <v>44439</v>
+      </c>
+      <c r="H128" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="I128" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="J128" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K128" s="17"/>
     </row>
-    <row r="129" spans="1:11" ht="47.25">
-      <c r="A129" s="12">
-        <v>125</v>
-      </c>
+    <row r="129" spans="1:11" ht="15.75">
+      <c r="A129" s="12"/>
       <c r="B129" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="C129" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="D129" s="72" t="s">
-        <v>379</v>
-      </c>
-      <c r="E129" s="72" t="s">
-        <v>380</v>
-      </c>
-      <c r="F129" s="37" t="s">
-        <v>382</v>
-      </c>
-      <c r="G129" s="17"/>
-      <c r="H129" s="17"/>
+      <c r="C129" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D129" s="95" t="s">
+        <v>494</v>
+      </c>
+      <c r="E129" s="101" t="s">
+        <v>492</v>
+      </c>
+      <c r="F129" s="95" t="s">
+        <v>495</v>
+      </c>
+      <c r="G129" s="122">
+        <v>44439</v>
+      </c>
+      <c r="H129" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I129" s="32"/>
-      <c r="J129" s="17"/>
+      <c r="J129" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K129" s="17"/>
     </row>
     <row r="130" spans="1:11" ht="15.75">
-      <c r="A130" s="12">
-        <v>126</v>
-      </c>
-      <c r="B130" s="72" t="s">
-        <v>55</v>
-      </c>
-      <c r="C130" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="D130" s="95" t="s">
-        <v>384</v>
-      </c>
-      <c r="E130" s="95" t="s">
-        <v>383</v>
-      </c>
-      <c r="F130" s="37" t="s">
-        <v>385</v>
-      </c>
-      <c r="G130" s="17"/>
-      <c r="H130" s="17"/>
+      <c r="A130" s="12"/>
+      <c r="B130" s="72"/>
+      <c r="C130" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D130" s="96"/>
+      <c r="E130" s="102"/>
+      <c r="F130" s="96"/>
+      <c r="G130" s="122">
+        <v>44439</v>
+      </c>
+      <c r="H130" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I130" s="32"/>
-      <c r="J130" s="17"/>
+      <c r="J130" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K130" s="17"/>
     </row>
-    <row r="131" spans="1:11" ht="31.5">
-      <c r="A131" s="12">
-        <v>127</v>
-      </c>
+    <row r="131" spans="1:11" ht="15.75">
+      <c r="A131" s="12"/>
       <c r="B131" s="72"/>
-      <c r="C131" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="D131" s="97"/>
-      <c r="E131" s="97"/>
-      <c r="F131" s="37" t="s">
-        <v>386</v>
-      </c>
-      <c r="G131" s="17"/>
-      <c r="H131" s="17"/>
+      <c r="C131" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D131" s="96"/>
+      <c r="E131" s="102"/>
+      <c r="F131" s="96"/>
+      <c r="G131" s="122">
+        <v>44439</v>
+      </c>
+      <c r="H131" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I131" s="32"/>
-      <c r="J131" s="17"/>
+      <c r="J131" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K131" s="17"/>
     </row>
-    <row r="132" spans="1:11" ht="47.25">
-      <c r="A132" s="12">
-        <v>128</v>
-      </c>
-      <c r="B132" s="72" t="s">
-        <v>156</v>
-      </c>
-      <c r="C132" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="D132" s="72" t="s">
-        <v>387</v>
-      </c>
-      <c r="E132" s="72" t="s">
-        <v>389</v>
-      </c>
-      <c r="F132" s="37" t="s">
-        <v>390</v>
-      </c>
-      <c r="G132" s="17"/>
-      <c r="H132" s="17"/>
+    <row r="132" spans="1:11" ht="15.75">
+      <c r="A132" s="12"/>
+      <c r="B132" s="72"/>
+      <c r="C132" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D132" s="96"/>
+      <c r="E132" s="102"/>
+      <c r="F132" s="96"/>
+      <c r="G132" s="122">
+        <v>44439</v>
+      </c>
+      <c r="H132" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I132" s="32"/>
-      <c r="J132" s="17"/>
+      <c r="J132" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K132" s="17"/>
     </row>
-    <row r="133" spans="1:11" ht="47.25">
-      <c r="A133" s="12">
-        <v>129</v>
-      </c>
-      <c r="B133" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="C133" s="25" t="s">
-        <v>296</v>
-      </c>
-      <c r="D133" s="83" t="s">
-        <v>391</v>
-      </c>
-      <c r="E133" s="31" t="s">
-        <v>392</v>
-      </c>
-      <c r="F133" s="32" t="s">
-        <v>448</v>
-      </c>
-      <c r="G133" s="17"/>
-      <c r="H133" s="17"/>
+    <row r="133" spans="1:11" ht="15.75">
+      <c r="A133" s="12"/>
+      <c r="B133" s="72"/>
+      <c r="C133" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D133" s="96"/>
+      <c r="E133" s="102"/>
+      <c r="F133" s="96"/>
+      <c r="G133" s="122">
+        <v>44439</v>
+      </c>
+      <c r="H133" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I133" s="32"/>
-      <c r="J133" s="17"/>
+      <c r="J133" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K133" s="17"/>
     </row>
-    <row r="134" spans="1:11" ht="47.25">
-      <c r="A134" s="12">
-        <v>130</v>
-      </c>
-      <c r="B134" s="72" t="s">
-        <v>156</v>
-      </c>
-      <c r="C134" s="37" t="s">
-        <v>396</v>
-      </c>
-      <c r="D134" s="72" t="s">
-        <v>393</v>
-      </c>
-      <c r="E134" s="72" t="s">
-        <v>406</v>
-      </c>
-      <c r="F134" s="37" t="s">
-        <v>397</v>
-      </c>
-      <c r="G134" s="17"/>
-      <c r="H134" s="17"/>
+    <row r="134" spans="1:11" ht="15.75">
+      <c r="A134" s="12"/>
+      <c r="B134" s="72"/>
+      <c r="C134" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D134" s="96"/>
+      <c r="E134" s="102"/>
+      <c r="F134" s="96"/>
+      <c r="G134" s="122">
+        <v>44439</v>
+      </c>
+      <c r="H134" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I134" s="32"/>
-      <c r="J134" s="17"/>
+      <c r="J134" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K134" s="17"/>
     </row>
-    <row r="135" spans="1:11" ht="47.25">
-      <c r="A135" s="12">
-        <v>131</v>
-      </c>
+    <row r="135" spans="1:11" ht="15.75">
+      <c r="A135" s="12"/>
       <c r="B135" s="72"/>
-      <c r="C135" s="37" t="s">
-        <v>396</v>
-      </c>
-      <c r="D135" s="72" t="s">
-        <v>394</v>
-      </c>
-      <c r="E135" s="72" t="s">
-        <v>405</v>
-      </c>
-      <c r="F135" s="37" t="s">
-        <v>398</v>
-      </c>
-      <c r="G135" s="17"/>
-      <c r="H135" s="17"/>
+      <c r="C135" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D135" s="96"/>
+      <c r="E135" s="102"/>
+      <c r="F135" s="96"/>
+      <c r="G135" s="122">
+        <v>44439</v>
+      </c>
+      <c r="H135" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I135" s="32"/>
-      <c r="J135" s="17"/>
+      <c r="J135" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K135" s="17"/>
     </row>
-    <row r="136" spans="1:11" ht="47.25">
-      <c r="A136" s="12">
-        <v>132</v>
-      </c>
+    <row r="136" spans="1:11" ht="15.75">
+      <c r="A136" s="12"/>
       <c r="B136" s="72"/>
-      <c r="C136" s="37" t="s">
-        <v>396</v>
-      </c>
-      <c r="D136" s="72" t="s">
-        <v>395</v>
-      </c>
-      <c r="E136" s="72" t="s">
-        <v>404</v>
-      </c>
-      <c r="F136" s="37" t="s">
-        <v>399</v>
-      </c>
-      <c r="G136" s="17"/>
-      <c r="H136" s="17"/>
+      <c r="C136" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D136" s="96"/>
+      <c r="E136" s="102"/>
+      <c r="F136" s="96"/>
+      <c r="G136" s="122">
+        <v>44439</v>
+      </c>
+      <c r="H136" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I136" s="32"/>
-      <c r="J136" s="17"/>
+      <c r="J136" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K136" s="17"/>
     </row>
-    <row r="137" spans="1:11" ht="47.25">
-      <c r="A137" s="12">
-        <v>133</v>
-      </c>
+    <row r="137" spans="1:11" ht="15.75">
+      <c r="A137" s="12"/>
       <c r="B137" s="72"/>
-      <c r="C137" s="37" t="s">
-        <v>396</v>
-      </c>
-      <c r="D137" s="72" t="s">
-        <v>400</v>
-      </c>
-      <c r="E137" s="72" t="s">
-        <v>403</v>
-      </c>
-      <c r="F137" s="37" t="s">
-        <v>409</v>
-      </c>
-      <c r="G137" s="17"/>
-      <c r="H137" s="17"/>
+      <c r="C137" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D137" s="96"/>
+      <c r="E137" s="102"/>
+      <c r="F137" s="96"/>
+      <c r="G137" s="122">
+        <v>44439</v>
+      </c>
+      <c r="H137" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I137" s="32"/>
-      <c r="J137" s="17"/>
+      <c r="J137" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K137" s="17"/>
     </row>
-    <row r="138" spans="1:11" ht="47.25">
-      <c r="A138" s="12">
-        <v>134</v>
-      </c>
+    <row r="138" spans="1:11" ht="15.75">
+      <c r="A138" s="12"/>
       <c r="B138" s="72"/>
-      <c r="C138" s="37" t="s">
-        <v>396</v>
-      </c>
-      <c r="D138" s="72" t="s">
-        <v>401</v>
-      </c>
-      <c r="E138" s="72" t="s">
-        <v>407</v>
-      </c>
-      <c r="F138" s="37" t="s">
-        <v>410</v>
-      </c>
-      <c r="G138" s="17"/>
-      <c r="H138" s="17"/>
+      <c r="C138" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D138" s="96"/>
+      <c r="E138" s="102"/>
+      <c r="F138" s="96"/>
+      <c r="G138" s="122">
+        <v>44439</v>
+      </c>
+      <c r="H138" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I138" s="32"/>
-      <c r="J138" s="17"/>
+      <c r="J138" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K138" s="17"/>
     </row>
-    <row r="139" spans="1:11" ht="47.25">
-      <c r="A139" s="12">
-        <v>135</v>
-      </c>
+    <row r="139" spans="1:11" ht="15.75">
+      <c r="A139" s="12"/>
       <c r="B139" s="72"/>
-      <c r="C139" s="37" t="s">
-        <v>396</v>
-      </c>
-      <c r="D139" s="72" t="s">
-        <v>402</v>
-      </c>
-      <c r="E139" s="72" t="s">
-        <v>408</v>
-      </c>
-      <c r="F139" s="37" t="s">
-        <v>411</v>
-      </c>
-      <c r="G139" s="17"/>
-      <c r="H139" s="17"/>
+      <c r="C139" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D139" s="96"/>
+      <c r="E139" s="102"/>
+      <c r="F139" s="96"/>
+      <c r="G139" s="122">
+        <v>44439</v>
+      </c>
+      <c r="H139" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I139" s="32"/>
-      <c r="J139" s="17"/>
+      <c r="J139" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K139" s="17"/>
     </row>
-    <row r="140" spans="1:11" ht="47.25">
-      <c r="A140" s="12">
-        <v>136</v>
-      </c>
-      <c r="B140" s="72" t="s">
-        <v>55</v>
-      </c>
+    <row r="140" spans="1:11" ht="15.75">
+      <c r="A140" s="12"/>
+      <c r="B140" s="72"/>
       <c r="C140" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D140" s="95" t="s">
-        <v>424</v>
-      </c>
-      <c r="E140" s="95" t="s">
-        <v>425</v>
-      </c>
-      <c r="F140" s="31" t="s">
-        <v>307</v>
-      </c>
-      <c r="G140" s="17"/>
-      <c r="H140" s="17"/>
+        <v>27</v>
+      </c>
+      <c r="D140" s="97"/>
+      <c r="E140" s="103"/>
+      <c r="F140" s="97"/>
+      <c r="G140" s="122">
+        <v>44439</v>
+      </c>
+      <c r="H140" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I140" s="32"/>
-      <c r="J140" s="17"/>
+      <c r="J140" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K140" s="17"/>
     </row>
     <row r="141" spans="1:11" ht="47.25">
       <c r="A141" s="12">
-        <v>137</v>
-      </c>
-      <c r="B141" s="72"/>
-      <c r="C141" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D141" s="96"/>
-      <c r="E141" s="96"/>
-      <c r="F141" s="31" t="s">
-        <v>310</v>
-      </c>
-      <c r="G141" s="17"/>
-      <c r="H141" s="17"/>
+        <v>124</v>
+      </c>
+      <c r="B141" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="C141" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="D141" s="72" t="s">
+        <v>379</v>
+      </c>
+      <c r="E141" s="72" t="s">
+        <v>380</v>
+      </c>
+      <c r="F141" s="37" t="s">
+        <v>381</v>
+      </c>
+      <c r="G141" s="122">
+        <v>44439</v>
+      </c>
+      <c r="H141" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I141" s="32"/>
-      <c r="J141" s="17"/>
+      <c r="J141" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K141" s="17"/>
     </row>
     <row r="142" spans="1:11" ht="47.25">
       <c r="A142" s="12">
-        <v>138</v>
-      </c>
-      <c r="B142" s="72"/>
-      <c r="C142" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D142" s="96"/>
-      <c r="E142" s="96"/>
-      <c r="F142" s="31" t="s">
-        <v>309</v>
-      </c>
-      <c r="G142" s="17"/>
-      <c r="H142" s="17"/>
+        <v>125</v>
+      </c>
+      <c r="B142" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="C142" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="D142" s="72" t="s">
+        <v>379</v>
+      </c>
+      <c r="E142" s="72" t="s">
+        <v>380</v>
+      </c>
+      <c r="F142" s="37" t="s">
+        <v>382</v>
+      </c>
+      <c r="G142" s="122">
+        <v>44439</v>
+      </c>
+      <c r="H142" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I142" s="32"/>
-      <c r="J142" s="17"/>
+      <c r="J142" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K142" s="17"/>
     </row>
-    <row r="143" spans="1:11" ht="47.25">
+    <row r="143" spans="1:11" ht="15.75">
       <c r="A143" s="12">
-        <v>139</v>
-      </c>
-      <c r="B143" s="72"/>
-      <c r="C143" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D143" s="96"/>
-      <c r="E143" s="96"/>
-      <c r="F143" s="31" t="s">
-        <v>308</v>
-      </c>
-      <c r="G143" s="17"/>
+        <v>126</v>
+      </c>
+      <c r="B143" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="C143" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="D143" s="95" t="s">
+        <v>384</v>
+      </c>
+      <c r="E143" s="95" t="s">
+        <v>383</v>
+      </c>
+      <c r="F143" s="37" t="s">
+        <v>385</v>
+      </c>
+      <c r="G143" s="73"/>
       <c r="H143" s="17"/>
       <c r="I143" s="32"/>
       <c r="J143" s="17"/>
       <c r="K143" s="17"/>
     </row>
-    <row r="144" spans="1:11" ht="47.25">
+    <row r="144" spans="1:11" ht="31.5">
       <c r="A144" s="12">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B144" s="72"/>
-      <c r="C144" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D144" s="96"/>
-      <c r="E144" s="96"/>
-      <c r="F144" s="31" t="s">
-        <v>311</v>
-      </c>
-      <c r="G144" s="17"/>
+      <c r="C144" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="D144" s="97"/>
+      <c r="E144" s="97"/>
+      <c r="F144" s="37" t="s">
+        <v>386</v>
+      </c>
+      <c r="G144" s="73"/>
       <c r="H144" s="17"/>
       <c r="I144" s="32"/>
       <c r="J144" s="17"/>
       <c r="K144" s="17"/>
     </row>
-    <row r="145" spans="1:11" ht="63">
+    <row r="145" spans="1:11" ht="47.25">
       <c r="A145" s="12">
-        <v>141</v>
-      </c>
-      <c r="B145" s="72"/>
-      <c r="C145" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D145" s="96"/>
-      <c r="E145" s="96"/>
-      <c r="F145" s="31" t="s">
-        <v>312</v>
-      </c>
-      <c r="G145" s="17"/>
+        <v>128</v>
+      </c>
+      <c r="B145" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="C145" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="D145" s="72" t="s">
+        <v>387</v>
+      </c>
+      <c r="E145" s="72" t="s">
+        <v>389</v>
+      </c>
+      <c r="F145" s="37" t="s">
+        <v>390</v>
+      </c>
+      <c r="G145" s="73"/>
       <c r="H145" s="17"/>
       <c r="I145" s="32"/>
       <c r="J145" s="17"/>
@@ -18916,18 +19163,24 @@
     </row>
     <row r="146" spans="1:11" ht="47.25">
       <c r="A146" s="12">
-        <v>142</v>
-      </c>
-      <c r="B146" s="72"/>
-      <c r="C146" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D146" s="96"/>
-      <c r="E146" s="96"/>
-      <c r="F146" s="31" t="s">
-        <v>319</v>
-      </c>
-      <c r="G146" s="17"/>
+        <v>129</v>
+      </c>
+      <c r="B146" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C146" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="D146" s="83" t="s">
+        <v>391</v>
+      </c>
+      <c r="E146" s="31" t="s">
+        <v>392</v>
+      </c>
+      <c r="F146" s="32" t="s">
+        <v>448</v>
+      </c>
+      <c r="G146" s="73"/>
       <c r="H146" s="17"/>
       <c r="I146" s="32"/>
       <c r="J146" s="17"/>
@@ -18935,18 +19188,24 @@
     </row>
     <row r="147" spans="1:11" ht="47.25">
       <c r="A147" s="12">
-        <v>143</v>
-      </c>
-      <c r="B147" s="72"/>
-      <c r="C147" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D147" s="96"/>
-      <c r="E147" s="96"/>
-      <c r="F147" s="31" t="s">
-        <v>314</v>
-      </c>
-      <c r="G147" s="17"/>
+        <v>130</v>
+      </c>
+      <c r="B147" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="C147" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="D147" s="72" t="s">
+        <v>393</v>
+      </c>
+      <c r="E147" s="72" t="s">
+        <v>406</v>
+      </c>
+      <c r="F147" s="37" t="s">
+        <v>397</v>
+      </c>
+      <c r="G147" s="73"/>
       <c r="H147" s="17"/>
       <c r="I147" s="32"/>
       <c r="J147" s="17"/>
@@ -18954,18 +19213,22 @@
     </row>
     <row r="148" spans="1:11" ht="47.25">
       <c r="A148" s="12">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="B148" s="72"/>
-      <c r="C148" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D148" s="96"/>
-      <c r="E148" s="96"/>
-      <c r="F148" s="31" t="s">
-        <v>315</v>
-      </c>
-      <c r="G148" s="17"/>
+      <c r="C148" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="D148" s="72" t="s">
+        <v>394</v>
+      </c>
+      <c r="E148" s="72" t="s">
+        <v>405</v>
+      </c>
+      <c r="F148" s="37" t="s">
+        <v>398</v>
+      </c>
+      <c r="G148" s="73"/>
       <c r="H148" s="17"/>
       <c r="I148" s="32"/>
       <c r="J148" s="17"/>
@@ -18973,18 +19236,22 @@
     </row>
     <row r="149" spans="1:11" ht="47.25">
       <c r="A149" s="12">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="B149" s="72"/>
-      <c r="C149" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D149" s="96"/>
-      <c r="E149" s="96"/>
-      <c r="F149" s="31" t="s">
-        <v>316</v>
-      </c>
-      <c r="G149" s="17"/>
+      <c r="C149" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="D149" s="72" t="s">
+        <v>395</v>
+      </c>
+      <c r="E149" s="72" t="s">
+        <v>404</v>
+      </c>
+      <c r="F149" s="37" t="s">
+        <v>399</v>
+      </c>
+      <c r="G149" s="73"/>
       <c r="H149" s="17"/>
       <c r="I149" s="32"/>
       <c r="J149" s="17"/>
@@ -18992,18 +19259,22 @@
     </row>
     <row r="150" spans="1:11" ht="47.25">
       <c r="A150" s="12">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="B150" s="72"/>
-      <c r="C150" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D150" s="96"/>
-      <c r="E150" s="96"/>
-      <c r="F150" s="31" t="s">
-        <v>317</v>
-      </c>
-      <c r="G150" s="17"/>
+      <c r="C150" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="D150" s="72" t="s">
+        <v>400</v>
+      </c>
+      <c r="E150" s="72" t="s">
+        <v>403</v>
+      </c>
+      <c r="F150" s="37" t="s">
+        <v>409</v>
+      </c>
+      <c r="G150" s="73"/>
       <c r="H150" s="17"/>
       <c r="I150" s="32"/>
       <c r="J150" s="17"/>
@@ -19011,18 +19282,22 @@
     </row>
     <row r="151" spans="1:11" ht="47.25">
       <c r="A151" s="12">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="B151" s="72"/>
-      <c r="C151" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D151" s="97"/>
-      <c r="E151" s="97"/>
-      <c r="F151" s="31" t="s">
-        <v>318</v>
-      </c>
-      <c r="G151" s="17"/>
+      <c r="C151" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="D151" s="72" t="s">
+        <v>401</v>
+      </c>
+      <c r="E151" s="72" t="s">
+        <v>407</v>
+      </c>
+      <c r="F151" s="37" t="s">
+        <v>410</v>
+      </c>
+      <c r="G151" s="73"/>
       <c r="H151" s="17"/>
       <c r="I151" s="32"/>
       <c r="J151" s="17"/>
@@ -19030,24 +19305,22 @@
     </row>
     <row r="152" spans="1:11" ht="47.25">
       <c r="A152" s="12">
-        <v>148</v>
-      </c>
-      <c r="B152" s="72" t="s">
-        <v>156</v>
-      </c>
-      <c r="C152" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D152" s="95" t="s">
-        <v>427</v>
-      </c>
-      <c r="E152" s="31" t="s">
-        <v>323</v>
-      </c>
-      <c r="F152" s="95" t="s">
-        <v>426</v>
-      </c>
-      <c r="G152" s="17"/>
+        <v>135</v>
+      </c>
+      <c r="B152" s="72"/>
+      <c r="C152" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="D152" s="72" t="s">
+        <v>402</v>
+      </c>
+      <c r="E152" s="72" t="s">
+        <v>408</v>
+      </c>
+      <c r="F152" s="37" t="s">
+        <v>411</v>
+      </c>
+      <c r="G152" s="73"/>
       <c r="H152" s="17"/>
       <c r="I152" s="32"/>
       <c r="J152" s="17"/>
@@ -19055,18 +19328,24 @@
     </row>
     <row r="153" spans="1:11" ht="47.25">
       <c r="A153" s="12">
-        <v>149</v>
-      </c>
-      <c r="B153" s="72"/>
+        <v>136</v>
+      </c>
+      <c r="B153" s="72" t="s">
+        <v>55</v>
+      </c>
       <c r="C153" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D153" s="96"/>
-      <c r="E153" s="31" t="s">
-        <v>324</v>
-      </c>
-      <c r="F153" s="96"/>
-      <c r="G153" s="17"/>
+        <v>16</v>
+      </c>
+      <c r="D153" s="95" t="s">
+        <v>424</v>
+      </c>
+      <c r="E153" s="95" t="s">
+        <v>425</v>
+      </c>
+      <c r="F153" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="G153" s="73"/>
       <c r="H153" s="17"/>
       <c r="I153" s="32"/>
       <c r="J153" s="17"/>
@@ -19074,18 +19353,18 @@
     </row>
     <row r="154" spans="1:11" ht="47.25">
       <c r="A154" s="12">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="B154" s="72"/>
       <c r="C154" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D154" s="96"/>
-      <c r="E154" s="31" t="s">
-        <v>325</v>
-      </c>
-      <c r="F154" s="96"/>
-      <c r="G154" s="17"/>
+      <c r="E154" s="96"/>
+      <c r="F154" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="G154" s="73"/>
       <c r="H154" s="17"/>
       <c r="I154" s="32"/>
       <c r="J154" s="17"/>
@@ -19093,75 +19372,75 @@
     </row>
     <row r="155" spans="1:11" ht="47.25">
       <c r="A155" s="12">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="B155" s="72"/>
       <c r="C155" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D155" s="96"/>
-      <c r="E155" s="31" t="s">
-        <v>325</v>
-      </c>
-      <c r="F155" s="96"/>
-      <c r="G155" s="17"/>
+      <c r="E155" s="96"/>
+      <c r="F155" s="31" t="s">
+        <v>309</v>
+      </c>
+      <c r="G155" s="73"/>
       <c r="H155" s="17"/>
       <c r="I155" s="32"/>
       <c r="J155" s="17"/>
       <c r="K155" s="17"/>
     </row>
-    <row r="156" spans="1:11" ht="63">
+    <row r="156" spans="1:11" ht="47.25">
       <c r="A156" s="12">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="B156" s="72"/>
       <c r="C156" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D156" s="96"/>
-      <c r="E156" s="31" t="s">
-        <v>326</v>
-      </c>
-      <c r="F156" s="96"/>
-      <c r="G156" s="17"/>
+      <c r="E156" s="96"/>
+      <c r="F156" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="G156" s="73"/>
       <c r="H156" s="17"/>
       <c r="I156" s="32"/>
       <c r="J156" s="17"/>
       <c r="K156" s="17"/>
     </row>
-    <row r="157" spans="1:11" ht="63">
+    <row r="157" spans="1:11" ht="47.25">
       <c r="A157" s="12">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B157" s="72"/>
       <c r="C157" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D157" s="96"/>
-      <c r="E157" s="31" t="s">
-        <v>342</v>
-      </c>
-      <c r="F157" s="96"/>
-      <c r="G157" s="17"/>
+      <c r="E157" s="96"/>
+      <c r="F157" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="G157" s="73"/>
       <c r="H157" s="17"/>
       <c r="I157" s="32"/>
       <c r="J157" s="17"/>
       <c r="K157" s="17"/>
     </row>
-    <row r="158" spans="1:11" ht="47.25">
+    <row r="158" spans="1:11" ht="63">
       <c r="A158" s="12">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="B158" s="72"/>
       <c r="C158" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D158" s="96"/>
-      <c r="E158" s="31" t="s">
-        <v>346</v>
-      </c>
-      <c r="F158" s="96"/>
-      <c r="G158" s="17"/>
+      <c r="E158" s="96"/>
+      <c r="F158" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="G158" s="73"/>
       <c r="H158" s="17"/>
       <c r="I158" s="32"/>
       <c r="J158" s="17"/>
@@ -19169,18 +19448,18 @@
     </row>
     <row r="159" spans="1:11" ht="47.25">
       <c r="A159" s="12">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="B159" s="72"/>
       <c r="C159" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D159" s="96"/>
-      <c r="E159" s="31" t="s">
-        <v>327</v>
-      </c>
-      <c r="F159" s="96"/>
-      <c r="G159" s="17"/>
+      <c r="E159" s="96"/>
+      <c r="F159" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="G159" s="73"/>
       <c r="H159" s="17"/>
       <c r="I159" s="32"/>
       <c r="J159" s="17"/>
@@ -19188,56 +19467,56 @@
     </row>
     <row r="160" spans="1:11" ht="47.25">
       <c r="A160" s="12">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B160" s="72"/>
       <c r="C160" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D160" s="96"/>
-      <c r="E160" s="31" t="s">
-        <v>322</v>
-      </c>
-      <c r="F160" s="96"/>
-      <c r="G160" s="17"/>
+      <c r="E160" s="96"/>
+      <c r="F160" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="G160" s="73"/>
       <c r="H160" s="17"/>
       <c r="I160" s="32"/>
       <c r="J160" s="17"/>
       <c r="K160" s="17"/>
     </row>
-    <row r="161" spans="1:11" ht="63">
+    <row r="161" spans="1:11" ht="47.25">
       <c r="A161" s="12">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="B161" s="72"/>
       <c r="C161" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D161" s="96"/>
-      <c r="E161" s="31" t="s">
-        <v>328</v>
-      </c>
-      <c r="F161" s="96"/>
-      <c r="G161" s="17"/>
+      <c r="E161" s="96"/>
+      <c r="F161" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="G161" s="73"/>
       <c r="H161" s="17"/>
       <c r="I161" s="32"/>
       <c r="J161" s="17"/>
       <c r="K161" s="17"/>
     </row>
-    <row r="162" spans="1:11" ht="63">
+    <row r="162" spans="1:11" ht="47.25">
       <c r="A162" s="12">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="B162" s="72"/>
       <c r="C162" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D162" s="96"/>
-      <c r="E162" s="31" t="s">
-        <v>329</v>
-      </c>
-      <c r="F162" s="96"/>
-      <c r="G162" s="17"/>
+      <c r="E162" s="96"/>
+      <c r="F162" s="31" t="s">
+        <v>316</v>
+      </c>
+      <c r="G162" s="73"/>
       <c r="H162" s="17"/>
       <c r="I162" s="32"/>
       <c r="J162" s="17"/>
@@ -19245,169 +19524,157 @@
     </row>
     <row r="163" spans="1:11" ht="47.25">
       <c r="A163" s="12">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="B163" s="72"/>
       <c r="C163" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D163" s="97"/>
-      <c r="E163" s="31" t="s">
-        <v>321</v>
-      </c>
-      <c r="F163" s="97"/>
-      <c r="G163" s="17"/>
+        <v>26</v>
+      </c>
+      <c r="D163" s="96"/>
+      <c r="E163" s="96"/>
+      <c r="F163" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="G163" s="73"/>
       <c r="H163" s="17"/>
       <c r="I163" s="32"/>
       <c r="J163" s="17"/>
       <c r="K163" s="17"/>
     </row>
-    <row r="164" spans="1:11" ht="94.5">
+    <row r="164" spans="1:11" ht="47.25">
       <c r="A164" s="12">
-        <v>160</v>
-      </c>
-      <c r="B164" s="72" t="s">
-        <v>55</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="B164" s="72"/>
       <c r="C164" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D164" s="95" t="s">
-        <v>428</v>
-      </c>
-      <c r="E164" s="31" t="s">
-        <v>331</v>
-      </c>
-      <c r="F164" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="G164" s="17"/>
+        <v>27</v>
+      </c>
+      <c r="D164" s="97"/>
+      <c r="E164" s="97"/>
+      <c r="F164" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="G164" s="73"/>
       <c r="H164" s="17"/>
       <c r="I164" s="32"/>
       <c r="J164" s="17"/>
       <c r="K164" s="17"/>
     </row>
-    <row r="165" spans="1:11" ht="94.5">
+    <row r="165" spans="1:11" ht="47.25">
       <c r="A165" s="12">
-        <v>161</v>
-      </c>
-      <c r="B165" s="72"/>
+        <v>148</v>
+      </c>
+      <c r="B165" s="72" t="s">
+        <v>156</v>
+      </c>
       <c r="C165" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D165" s="96"/>
+        <v>16</v>
+      </c>
+      <c r="D165" s="95" t="s">
+        <v>427</v>
+      </c>
       <c r="E165" s="31" t="s">
-        <v>332</v>
-      </c>
-      <c r="F165" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="G165" s="17"/>
+        <v>323</v>
+      </c>
+      <c r="F165" s="95" t="s">
+        <v>426</v>
+      </c>
+      <c r="G165" s="73"/>
       <c r="H165" s="17"/>
       <c r="I165" s="32"/>
       <c r="J165" s="17"/>
       <c r="K165" s="17"/>
     </row>
-    <row r="166" spans="1:11" ht="94.5">
+    <row r="166" spans="1:11" ht="47.25">
       <c r="A166" s="12">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="B166" s="72"/>
       <c r="C166" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D166" s="96"/>
       <c r="E166" s="31" t="s">
-        <v>333</v>
-      </c>
-      <c r="F166" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="G166" s="17"/>
+        <v>324</v>
+      </c>
+      <c r="F166" s="96"/>
+      <c r="G166" s="73"/>
       <c r="H166" s="17"/>
       <c r="I166" s="32"/>
       <c r="J166" s="17"/>
       <c r="K166" s="17"/>
     </row>
-    <row r="167" spans="1:11" ht="94.5">
+    <row r="167" spans="1:11" ht="47.25">
       <c r="A167" s="12">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="B167" s="72"/>
       <c r="C167" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D167" s="96"/>
       <c r="E167" s="31" t="s">
-        <v>334</v>
-      </c>
-      <c r="F167" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="G167" s="17"/>
+        <v>325</v>
+      </c>
+      <c r="F167" s="96"/>
+      <c r="G167" s="73"/>
       <c r="H167" s="17"/>
       <c r="I167" s="32"/>
       <c r="J167" s="17"/>
       <c r="K167" s="17"/>
     </row>
-    <row r="168" spans="1:11" ht="126">
+    <row r="168" spans="1:11" ht="47.25">
       <c r="A168" s="12">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="B168" s="72"/>
       <c r="C168" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D168" s="96"/>
       <c r="E168" s="31" t="s">
-        <v>335</v>
-      </c>
-      <c r="F168" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="G168" s="17"/>
+        <v>325</v>
+      </c>
+      <c r="F168" s="96"/>
+      <c r="G168" s="73"/>
       <c r="H168" s="17"/>
       <c r="I168" s="32"/>
       <c r="J168" s="17"/>
       <c r="K168" s="17"/>
     </row>
-    <row r="169" spans="1:11" ht="110.25">
+    <row r="169" spans="1:11" ht="63">
       <c r="A169" s="12">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="B169" s="72"/>
       <c r="C169" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D169" s="96"/>
       <c r="E169" s="31" t="s">
-        <v>340</v>
-      </c>
-      <c r="F169" s="32" t="s">
-        <v>341</v>
-      </c>
-      <c r="G169" s="17"/>
+        <v>326</v>
+      </c>
+      <c r="F169" s="96"/>
+      <c r="G169" s="73"/>
       <c r="H169" s="17"/>
       <c r="I169" s="32"/>
       <c r="J169" s="17"/>
       <c r="K169" s="17"/>
     </row>
-    <row r="170" spans="1:11" ht="94.5">
+    <row r="170" spans="1:11" ht="63">
       <c r="A170" s="12">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="B170" s="72"/>
       <c r="C170" s="24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D170" s="96"/>
       <c r="E170" s="31" t="s">
-        <v>336</v>
-      </c>
-      <c r="F170" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="G170" s="17"/>
+        <v>342</v>
+      </c>
+      <c r="F170" s="96"/>
+      <c r="G170" s="73"/>
       <c r="H170" s="17"/>
       <c r="I170" s="32"/>
       <c r="J170" s="17"/>
@@ -19415,329 +19682,335 @@
     </row>
     <row r="171" spans="1:11" ht="47.25">
       <c r="A171" s="12">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="B171" s="72"/>
       <c r="C171" s="24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D171" s="96"/>
       <c r="E171" s="31" t="s">
-        <v>337</v>
-      </c>
-      <c r="F171" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="G171" s="17"/>
+        <v>346</v>
+      </c>
+      <c r="F171" s="96"/>
+      <c r="G171" s="73"/>
       <c r="H171" s="17"/>
       <c r="I171" s="32"/>
       <c r="J171" s="17"/>
       <c r="K171" s="17"/>
     </row>
-    <row r="172" spans="1:11" ht="110.25">
+    <row r="172" spans="1:11" ht="47.25">
       <c r="A172" s="12">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="B172" s="72"/>
       <c r="C172" s="24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D172" s="96"/>
       <c r="E172" s="31" t="s">
-        <v>338</v>
-      </c>
-      <c r="F172" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="G172" s="17"/>
+        <v>327</v>
+      </c>
+      <c r="F172" s="96"/>
+      <c r="G172" s="73"/>
       <c r="H172" s="17"/>
       <c r="I172" s="32"/>
       <c r="J172" s="17"/>
       <c r="K172" s="17"/>
     </row>
-    <row r="173" spans="1:11" ht="110.25">
+    <row r="173" spans="1:11" ht="47.25">
       <c r="A173" s="12">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="B173" s="72"/>
       <c r="C173" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D173" s="97"/>
+        <v>24</v>
+      </c>
+      <c r="D173" s="96"/>
       <c r="E173" s="31" t="s">
-        <v>339</v>
-      </c>
-      <c r="F173" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="G173" s="17"/>
+        <v>322</v>
+      </c>
+      <c r="F173" s="96"/>
+      <c r="G173" s="73"/>
       <c r="H173" s="17"/>
       <c r="I173" s="32"/>
       <c r="J173" s="17"/>
       <c r="K173" s="17"/>
     </row>
-    <row r="174" spans="1:11" ht="31.5">
+    <row r="174" spans="1:11" ht="63">
       <c r="A174" s="12">
-        <v>170</v>
-      </c>
-      <c r="B174" s="72" t="s">
-        <v>55</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="B174" s="72"/>
       <c r="C174" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D174" s="95" t="s">
-        <v>430</v>
-      </c>
-      <c r="E174" s="95" t="s">
-        <v>429</v>
-      </c>
-      <c r="F174" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="G174" s="17"/>
+        <v>25</v>
+      </c>
+      <c r="D174" s="96"/>
+      <c r="E174" s="31" t="s">
+        <v>328</v>
+      </c>
+      <c r="F174" s="96"/>
+      <c r="G174" s="73"/>
       <c r="H174" s="17"/>
       <c r="I174" s="32"/>
       <c r="J174" s="17"/>
       <c r="K174" s="17"/>
     </row>
-    <row r="175" spans="1:11" ht="31.5">
+    <row r="175" spans="1:11" ht="63">
       <c r="A175" s="12">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="B175" s="72"/>
       <c r="C175" s="24" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D175" s="96"/>
-      <c r="E175" s="96"/>
-      <c r="F175" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="G175" s="17"/>
+      <c r="E175" s="31" t="s">
+        <v>329</v>
+      </c>
+      <c r="F175" s="96"/>
+      <c r="G175" s="73"/>
       <c r="H175" s="17"/>
       <c r="I175" s="32"/>
       <c r="J175" s="17"/>
       <c r="K175" s="17"/>
     </row>
-    <row r="176" spans="1:11" ht="31.5">
+    <row r="176" spans="1:11" ht="47.25">
       <c r="A176" s="12">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="B176" s="72"/>
       <c r="C176" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D176" s="96"/>
-      <c r="E176" s="96"/>
-      <c r="F176" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="G176" s="17"/>
+        <v>27</v>
+      </c>
+      <c r="D176" s="97"/>
+      <c r="E176" s="31" t="s">
+        <v>321</v>
+      </c>
+      <c r="F176" s="97"/>
+      <c r="G176" s="73"/>
       <c r="H176" s="17"/>
       <c r="I176" s="32"/>
       <c r="J176" s="17"/>
       <c r="K176" s="17"/>
     </row>
-    <row r="177" spans="1:11" ht="31.5">
+    <row r="177" spans="1:11" ht="94.5">
       <c r="A177" s="12">
-        <v>173</v>
-      </c>
-      <c r="B177" s="72"/>
+        <v>160</v>
+      </c>
+      <c r="B177" s="72" t="s">
+        <v>55</v>
+      </c>
       <c r="C177" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D177" s="96"/>
-      <c r="E177" s="96"/>
+        <v>16</v>
+      </c>
+      <c r="D177" s="95" t="s">
+        <v>428</v>
+      </c>
+      <c r="E177" s="31" t="s">
+        <v>331</v>
+      </c>
       <c r="F177" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="G177" s="17"/>
+        <v>99</v>
+      </c>
+      <c r="G177" s="73"/>
       <c r="H177" s="17"/>
       <c r="I177" s="32"/>
       <c r="J177" s="17"/>
       <c r="K177" s="17"/>
     </row>
-    <row r="178" spans="1:11" ht="31.5">
+    <row r="178" spans="1:11" ht="94.5">
       <c r="A178" s="12">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="B178" s="72"/>
       <c r="C178" s="24" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D178" s="96"/>
-      <c r="E178" s="96"/>
+      <c r="E178" s="31" t="s">
+        <v>332</v>
+      </c>
       <c r="F178" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="G178" s="17"/>
+        <v>98</v>
+      </c>
+      <c r="G178" s="73"/>
       <c r="H178" s="17"/>
       <c r="I178" s="32"/>
       <c r="J178" s="17"/>
       <c r="K178" s="17"/>
     </row>
-    <row r="179" spans="1:11" ht="31.5">
+    <row r="179" spans="1:11" ht="94.5">
       <c r="A179" s="12">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="B179" s="72"/>
       <c r="C179" s="24" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D179" s="96"/>
-      <c r="E179" s="96"/>
+      <c r="E179" s="31" t="s">
+        <v>333</v>
+      </c>
       <c r="F179" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="G179" s="17"/>
+        <v>100</v>
+      </c>
+      <c r="G179" s="73"/>
       <c r="H179" s="17"/>
       <c r="I179" s="32"/>
       <c r="J179" s="17"/>
       <c r="K179" s="17"/>
     </row>
-    <row r="180" spans="1:11" ht="31.5">
+    <row r="180" spans="1:11" ht="94.5">
       <c r="A180" s="12">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="B180" s="72"/>
       <c r="C180" s="24" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D180" s="96"/>
-      <c r="E180" s="96"/>
+      <c r="E180" s="31" t="s">
+        <v>334</v>
+      </c>
       <c r="F180" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="G180" s="17"/>
+        <v>101</v>
+      </c>
+      <c r="G180" s="73"/>
       <c r="H180" s="17"/>
       <c r="I180" s="32"/>
       <c r="J180" s="17"/>
       <c r="K180" s="17"/>
     </row>
-    <row r="181" spans="1:11" ht="31.5">
+    <row r="181" spans="1:11" ht="126">
       <c r="A181" s="12">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B181" s="72"/>
       <c r="C181" s="24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D181" s="96"/>
-      <c r="E181" s="96"/>
+      <c r="E181" s="31" t="s">
+        <v>335</v>
+      </c>
       <c r="F181" s="32" t="s">
-        <v>431</v>
-      </c>
-      <c r="G181" s="17"/>
+        <v>89</v>
+      </c>
+      <c r="G181" s="73"/>
       <c r="H181" s="17"/>
       <c r="I181" s="32"/>
       <c r="J181" s="17"/>
       <c r="K181" s="17"/>
     </row>
-    <row r="182" spans="1:11" ht="31.5">
+    <row r="182" spans="1:11" ht="110.25">
       <c r="A182" s="12">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="B182" s="72"/>
       <c r="C182" s="24" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D182" s="96"/>
-      <c r="E182" s="96"/>
+      <c r="E182" s="31" t="s">
+        <v>340</v>
+      </c>
       <c r="F182" s="32" t="s">
-        <v>432</v>
-      </c>
-      <c r="G182" s="17"/>
+        <v>341</v>
+      </c>
+      <c r="G182" s="73"/>
       <c r="H182" s="17"/>
       <c r="I182" s="32"/>
       <c r="J182" s="17"/>
       <c r="K182" s="17"/>
     </row>
-    <row r="183" spans="1:11" ht="31.5">
+    <row r="183" spans="1:11" ht="94.5">
       <c r="A183" s="12">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="B183" s="72"/>
       <c r="C183" s="24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D183" s="96"/>
-      <c r="E183" s="96"/>
+      <c r="E183" s="31" t="s">
+        <v>336</v>
+      </c>
       <c r="F183" s="32" t="s">
-        <v>433</v>
-      </c>
-      <c r="G183" s="17"/>
+        <v>103</v>
+      </c>
+      <c r="G183" s="73"/>
       <c r="H183" s="17"/>
       <c r="I183" s="32"/>
       <c r="J183" s="17"/>
       <c r="K183" s="17"/>
     </row>
-    <row r="184" spans="1:11" ht="31.5">
+    <row r="184" spans="1:11" ht="47.25">
       <c r="A184" s="12">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="B184" s="72"/>
       <c r="C184" s="24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D184" s="96"/>
-      <c r="E184" s="96"/>
+      <c r="E184" s="31" t="s">
+        <v>337</v>
+      </c>
       <c r="F184" s="32" t="s">
-        <v>434</v>
-      </c>
-      <c r="G184" s="17"/>
+        <v>104</v>
+      </c>
+      <c r="G184" s="73"/>
       <c r="H184" s="17"/>
       <c r="I184" s="32"/>
       <c r="J184" s="17"/>
       <c r="K184" s="17"/>
     </row>
-    <row r="185" spans="1:11" ht="31.5">
+    <row r="185" spans="1:11" ht="110.25">
       <c r="A185" s="12">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="B185" s="72"/>
       <c r="C185" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D185" s="97"/>
-      <c r="E185" s="97"/>
+        <v>25</v>
+      </c>
+      <c r="D185" s="96"/>
+      <c r="E185" s="31" t="s">
+        <v>338</v>
+      </c>
       <c r="F185" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="G185" s="17"/>
+        <v>105</v>
+      </c>
+      <c r="G185" s="73"/>
       <c r="H185" s="17"/>
       <c r="I185" s="32"/>
       <c r="J185" s="17"/>
       <c r="K185" s="17"/>
     </row>
-    <row r="186" spans="1:11" ht="47.25">
+    <row r="186" spans="1:11" ht="110.25">
       <c r="A186" s="12">
-        <v>182</v>
-      </c>
-      <c r="B186" s="72" t="s">
-        <v>156</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="B186" s="72"/>
       <c r="C186" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="D186" s="90" t="s">
-        <v>435</v>
-      </c>
-      <c r="E186" s="72" t="s">
-        <v>436</v>
+        <v>26</v>
+      </c>
+      <c r="D186" s="97"/>
+      <c r="E186" s="31" t="s">
+        <v>339</v>
       </c>
       <c r="F186" s="32" t="s">
-        <v>437</v>
-      </c>
-      <c r="G186" s="17"/>
+        <v>106</v>
+      </c>
+      <c r="G186" s="73"/>
       <c r="H186" s="17"/>
       <c r="I186" s="32"/>
       <c r="J186" s="17"/>
       <c r="K186" s="17"/>
     </row>
-    <row r="187" spans="1:11" ht="11.25" customHeight="1">
+    <row r="187" spans="1:11" ht="31.5">
       <c r="A187" s="12">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="B187" s="72" t="s">
         <v>55</v>
@@ -19746,23 +20019,23 @@
         <v>16</v>
       </c>
       <c r="D187" s="95" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="E187" s="95" t="s">
-        <v>436</v>
-      </c>
-      <c r="F187" s="115" t="s">
-        <v>439</v>
-      </c>
-      <c r="G187" s="17"/>
+        <v>429</v>
+      </c>
+      <c r="F187" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="G187" s="73"/>
       <c r="H187" s="17"/>
       <c r="I187" s="32"/>
       <c r="J187" s="17"/>
       <c r="K187" s="17"/>
     </row>
-    <row r="188" spans="1:11" ht="11.25" customHeight="1">
+    <row r="188" spans="1:11" ht="31.5">
       <c r="A188" s="12">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="B188" s="72"/>
       <c r="C188" s="24" t="s">
@@ -19770,16 +20043,18 @@
       </c>
       <c r="D188" s="96"/>
       <c r="E188" s="96"/>
-      <c r="F188" s="116"/>
-      <c r="G188" s="17"/>
+      <c r="F188" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="G188" s="73"/>
       <c r="H188" s="17"/>
       <c r="I188" s="32"/>
       <c r="J188" s="17"/>
       <c r="K188" s="17"/>
     </row>
-    <row r="189" spans="1:11" ht="11.25" customHeight="1">
+    <row r="189" spans="1:11" ht="31.5">
       <c r="A189" s="12">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="B189" s="72"/>
       <c r="C189" s="24" t="s">
@@ -19787,16 +20062,18 @@
       </c>
       <c r="D189" s="96"/>
       <c r="E189" s="96"/>
-      <c r="F189" s="116"/>
-      <c r="G189" s="17"/>
+      <c r="F189" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G189" s="73"/>
       <c r="H189" s="17"/>
       <c r="I189" s="32"/>
       <c r="J189" s="17"/>
       <c r="K189" s="17"/>
     </row>
-    <row r="190" spans="1:11" ht="11.25" customHeight="1">
+    <row r="190" spans="1:11" ht="31.5">
       <c r="A190" s="12">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="B190" s="72"/>
       <c r="C190" s="24" t="s">
@@ -19804,16 +20081,18 @@
       </c>
       <c r="D190" s="96"/>
       <c r="E190" s="96"/>
-      <c r="F190" s="116"/>
-      <c r="G190" s="17"/>
+      <c r="F190" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="G190" s="73"/>
       <c r="H190" s="17"/>
       <c r="I190" s="32"/>
       <c r="J190" s="17"/>
       <c r="K190" s="17"/>
     </row>
-    <row r="191" spans="1:11" ht="11.25" customHeight="1">
+    <row r="191" spans="1:11" ht="31.5">
       <c r="A191" s="12">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="B191" s="72"/>
       <c r="C191" s="24" t="s">
@@ -19821,16 +20100,18 @@
       </c>
       <c r="D191" s="96"/>
       <c r="E191" s="96"/>
-      <c r="F191" s="116"/>
-      <c r="G191" s="17"/>
+      <c r="F191" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="G191" s="73"/>
       <c r="H191" s="17"/>
       <c r="I191" s="32"/>
       <c r="J191" s="17"/>
       <c r="K191" s="17"/>
     </row>
-    <row r="192" spans="1:11" ht="12" customHeight="1">
+    <row r="192" spans="1:11" ht="31.5">
       <c r="A192" s="12">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="B192" s="72"/>
       <c r="C192" s="24" t="s">
@@ -19838,8 +20119,10 @@
       </c>
       <c r="D192" s="96"/>
       <c r="E192" s="96"/>
-      <c r="F192" s="117"/>
-      <c r="G192" s="17"/>
+      <c r="F192" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="G192" s="73"/>
       <c r="H192" s="17"/>
       <c r="I192" s="32"/>
       <c r="J192" s="17"/>
@@ -19847,7 +20130,7 @@
     </row>
     <row r="193" spans="1:11" ht="31.5">
       <c r="A193" s="12">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="B193" s="72"/>
       <c r="C193" s="24" t="s">
@@ -19856,17 +20139,17 @@
       <c r="D193" s="96"/>
       <c r="E193" s="96"/>
       <c r="F193" s="32" t="s">
-        <v>440</v>
-      </c>
-      <c r="G193" s="17"/>
+        <v>115</v>
+      </c>
+      <c r="G193" s="73"/>
       <c r="H193" s="17"/>
       <c r="I193" s="32"/>
       <c r="J193" s="17"/>
       <c r="K193" s="17"/>
     </row>
-    <row r="194" spans="1:11" ht="47.25">
+    <row r="194" spans="1:11" ht="31.5">
       <c r="A194" s="12">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="B194" s="72"/>
       <c r="C194" s="24" t="s">
@@ -19875,9 +20158,9 @@
       <c r="D194" s="96"/>
       <c r="E194" s="96"/>
       <c r="F194" s="32" t="s">
-        <v>438</v>
-      </c>
-      <c r="G194" s="17"/>
+        <v>431</v>
+      </c>
+      <c r="G194" s="73"/>
       <c r="H194" s="17"/>
       <c r="I194" s="32"/>
       <c r="J194" s="17"/>
@@ -19885,7 +20168,7 @@
     </row>
     <row r="195" spans="1:11" ht="31.5">
       <c r="A195" s="12">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="B195" s="72"/>
       <c r="C195" s="24" t="s">
@@ -19894,17 +20177,17 @@
       <c r="D195" s="96"/>
       <c r="E195" s="96"/>
       <c r="F195" s="32" t="s">
-        <v>442</v>
-      </c>
-      <c r="G195" s="17"/>
+        <v>432</v>
+      </c>
+      <c r="G195" s="73"/>
       <c r="H195" s="17"/>
       <c r="I195" s="32"/>
       <c r="J195" s="17"/>
       <c r="K195" s="17"/>
     </row>
-    <row r="196" spans="1:11" ht="24" customHeight="1">
+    <row r="196" spans="1:11" ht="31.5">
       <c r="A196" s="12">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="B196" s="72"/>
       <c r="C196" s="24" t="s">
@@ -19912,18 +20195,18 @@
       </c>
       <c r="D196" s="96"/>
       <c r="E196" s="96"/>
-      <c r="F196" s="115" t="s">
-        <v>438</v>
-      </c>
-      <c r="G196" s="17"/>
+      <c r="F196" s="32" t="s">
+        <v>433</v>
+      </c>
+      <c r="G196" s="73"/>
       <c r="H196" s="17"/>
       <c r="I196" s="32"/>
       <c r="J196" s="17"/>
       <c r="K196" s="17"/>
     </row>
-    <row r="197" spans="1:11" ht="27" customHeight="1">
+    <row r="197" spans="1:11" ht="31.5">
       <c r="A197" s="12">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="B197" s="72"/>
       <c r="C197" s="24" t="s">
@@ -19931,8 +20214,10 @@
       </c>
       <c r="D197" s="96"/>
       <c r="E197" s="96"/>
-      <c r="F197" s="117"/>
-      <c r="G197" s="17"/>
+      <c r="F197" s="32" t="s">
+        <v>434</v>
+      </c>
+      <c r="G197" s="73"/>
       <c r="H197" s="17"/>
       <c r="I197" s="32"/>
       <c r="J197" s="17"/>
@@ -19940,7 +20225,7 @@
     </row>
     <row r="198" spans="1:11" ht="31.5">
       <c r="A198" s="12">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="B198" s="72"/>
       <c r="C198" s="24" t="s">
@@ -19949,9 +20234,9 @@
       <c r="D198" s="97"/>
       <c r="E198" s="97"/>
       <c r="F198" s="32" t="s">
-        <v>441</v>
-      </c>
-      <c r="G198" s="17"/>
+        <v>116</v>
+      </c>
+      <c r="G198" s="73"/>
       <c r="H198" s="17"/>
       <c r="I198" s="32"/>
       <c r="J198" s="17"/>
@@ -19959,262 +20244,248 @@
     </row>
     <row r="199" spans="1:11" ht="47.25">
       <c r="A199" s="12">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="B199" s="72" t="s">
         <v>156</v>
       </c>
-      <c r="C199" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="D199" s="72" t="s">
-        <v>443</v>
+      <c r="C199" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="D199" s="90" t="s">
+        <v>435</v>
       </c>
       <c r="E199" s="72" t="s">
-        <v>444</v>
-      </c>
-      <c r="F199" s="37" t="s">
-        <v>445</v>
-      </c>
-      <c r="G199" s="17"/>
+        <v>497</v>
+      </c>
+      <c r="F199" s="32" t="s">
+        <v>437</v>
+      </c>
+      <c r="G199" s="73"/>
       <c r="H199" s="17"/>
-      <c r="I199" s="32"/>
+      <c r="I199" s="32" t="s">
+        <v>496</v>
+      </c>
       <c r="J199" s="17"/>
       <c r="K199" s="17"/>
     </row>
-    <row r="200" spans="1:11" ht="47.25">
+    <row r="200" spans="1:11" ht="11.25" customHeight="1">
       <c r="A200" s="12">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="B200" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="C200" s="37" t="s">
-        <v>453</v>
-      </c>
-      <c r="D200" s="72" t="s">
-        <v>446</v>
-      </c>
-      <c r="E200" s="72" t="s">
-        <v>444</v>
-      </c>
-      <c r="F200" s="37" t="s">
-        <v>454</v>
-      </c>
-      <c r="G200" s="17"/>
+      <c r="C200" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D200" s="95" t="s">
+        <v>435</v>
+      </c>
+      <c r="E200" s="95" t="s">
+        <v>436</v>
+      </c>
+      <c r="F200" s="111" t="s">
+        <v>439</v>
+      </c>
+      <c r="G200" s="73"/>
       <c r="H200" s="17"/>
       <c r="I200" s="32"/>
       <c r="J200" s="17"/>
       <c r="K200" s="17"/>
     </row>
-    <row r="201" spans="1:11" ht="63">
+    <row r="201" spans="1:11" ht="11.25" customHeight="1">
       <c r="A201" s="12">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="B201" s="72"/>
       <c r="C201" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D201" s="95" t="s">
-        <v>450</v>
-      </c>
-      <c r="E201" s="95" t="s">
-        <v>451</v>
-      </c>
-      <c r="F201" s="32" t="s">
-        <v>477</v>
-      </c>
-      <c r="G201" s="17"/>
+        <v>17</v>
+      </c>
+      <c r="D201" s="96"/>
+      <c r="E201" s="96"/>
+      <c r="F201" s="112"/>
+      <c r="G201" s="73"/>
       <c r="H201" s="17"/>
       <c r="I201" s="32"/>
       <c r="J201" s="17"/>
       <c r="K201" s="17"/>
     </row>
-    <row r="202" spans="1:11" ht="63">
+    <row r="202" spans="1:11" ht="11.25" customHeight="1">
       <c r="A202" s="12">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="B202" s="72"/>
       <c r="C202" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D202" s="96"/>
       <c r="E202" s="96"/>
-      <c r="F202" s="32" t="s">
-        <v>478</v>
-      </c>
-      <c r="G202" s="17"/>
+      <c r="F202" s="112"/>
+      <c r="G202" s="73"/>
       <c r="H202" s="17"/>
       <c r="I202" s="32"/>
       <c r="J202" s="17"/>
       <c r="K202" s="17"/>
     </row>
-    <row r="203" spans="1:11" ht="63">
+    <row r="203" spans="1:11" ht="11.25" customHeight="1">
       <c r="A203" s="12">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="B203" s="72"/>
       <c r="C203" s="24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D203" s="96"/>
       <c r="E203" s="96"/>
-      <c r="F203" s="32" t="s">
-        <v>479</v>
-      </c>
-      <c r="G203" s="17"/>
+      <c r="F203" s="112"/>
+      <c r="G203" s="73"/>
       <c r="H203" s="17"/>
       <c r="I203" s="32"/>
       <c r="J203" s="17"/>
       <c r="K203" s="17"/>
     </row>
-    <row r="204" spans="1:11" ht="63">
+    <row r="204" spans="1:11" ht="11.25" customHeight="1">
       <c r="A204" s="12">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="B204" s="72"/>
       <c r="C204" s="24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D204" s="96"/>
       <c r="E204" s="96"/>
-      <c r="F204" s="32" t="s">
-        <v>480</v>
-      </c>
-      <c r="G204" s="17"/>
+      <c r="F204" s="112"/>
+      <c r="G204" s="73"/>
       <c r="H204" s="17"/>
       <c r="I204" s="32"/>
       <c r="J204" s="17"/>
       <c r="K204" s="17"/>
     </row>
-    <row r="205" spans="1:11" ht="63">
+    <row r="205" spans="1:11" ht="12" customHeight="1">
       <c r="A205" s="12">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="B205" s="72"/>
       <c r="C205" s="24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D205" s="96"/>
       <c r="E205" s="96"/>
-      <c r="F205" s="32" t="s">
-        <v>481</v>
-      </c>
-      <c r="G205" s="17"/>
+      <c r="F205" s="113"/>
+      <c r="G205" s="73"/>
       <c r="H205" s="17"/>
       <c r="I205" s="32"/>
       <c r="J205" s="17"/>
       <c r="K205" s="17"/>
     </row>
-    <row r="206" spans="1:11" ht="78.75">
+    <row r="206" spans="1:11" ht="31.5">
       <c r="A206" s="12">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B206" s="72"/>
       <c r="C206" s="24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D206" s="96"/>
       <c r="E206" s="96"/>
       <c r="F206" s="32" t="s">
-        <v>482</v>
-      </c>
-      <c r="G206" s="17"/>
+        <v>440</v>
+      </c>
+      <c r="G206" s="73"/>
       <c r="H206" s="17"/>
       <c r="I206" s="32"/>
       <c r="J206" s="17"/>
       <c r="K206" s="17"/>
     </row>
-    <row r="207" spans="1:11" ht="63">
+    <row r="207" spans="1:11" ht="47.25">
       <c r="A207" s="12">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="B207" s="72"/>
       <c r="C207" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D207" s="96"/>
       <c r="E207" s="96"/>
       <c r="F207" s="32" t="s">
-        <v>483</v>
-      </c>
-      <c r="G207" s="17"/>
+        <v>438</v>
+      </c>
+      <c r="G207" s="73"/>
       <c r="H207" s="17"/>
       <c r="I207" s="32"/>
       <c r="J207" s="17"/>
       <c r="K207" s="17"/>
     </row>
-    <row r="208" spans="1:11" ht="63">
+    <row r="208" spans="1:11" ht="31.5">
       <c r="A208" s="12">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="B208" s="72"/>
       <c r="C208" s="24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D208" s="96"/>
       <c r="E208" s="96"/>
       <c r="F208" s="32" t="s">
-        <v>484</v>
-      </c>
-      <c r="G208" s="17"/>
+        <v>442</v>
+      </c>
+      <c r="G208" s="73"/>
       <c r="H208" s="17"/>
       <c r="I208" s="32"/>
       <c r="J208" s="17"/>
       <c r="K208" s="17"/>
     </row>
-    <row r="209" spans="1:11" ht="63">
+    <row r="209" spans="1:11" ht="24" customHeight="1">
       <c r="A209" s="12">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="B209" s="72"/>
       <c r="C209" s="24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D209" s="96"/>
       <c r="E209" s="96"/>
-      <c r="F209" s="32" t="s">
-        <v>485</v>
-      </c>
-      <c r="G209" s="17"/>
+      <c r="F209" s="111" t="s">
+        <v>438</v>
+      </c>
+      <c r="G209" s="73"/>
       <c r="H209" s="17"/>
       <c r="I209" s="32"/>
       <c r="J209" s="17"/>
       <c r="K209" s="17"/>
     </row>
-    <row r="210" spans="1:11" ht="63">
+    <row r="210" spans="1:11" ht="27" customHeight="1">
       <c r="A210" s="12">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="B210" s="72"/>
       <c r="C210" s="24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D210" s="96"/>
       <c r="E210" s="96"/>
-      <c r="F210" s="32" t="s">
-        <v>486</v>
-      </c>
-      <c r="G210" s="17"/>
+      <c r="F210" s="113"/>
+      <c r="G210" s="73"/>
       <c r="H210" s="17"/>
       <c r="I210" s="32"/>
       <c r="J210" s="17"/>
       <c r="K210" s="17"/>
     </row>
-    <row r="211" spans="1:11" ht="63">
+    <row r="211" spans="1:11" ht="31.5">
       <c r="A211" s="12">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="B211" s="72"/>
       <c r="C211" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D211" s="96"/>
-      <c r="E211" s="96"/>
+        <v>27</v>
+      </c>
+      <c r="D211" s="97"/>
+      <c r="E211" s="97"/>
       <c r="F211" s="32" t="s">
-        <v>487</v>
-      </c>
-      <c r="G211" s="17"/>
+        <v>441</v>
+      </c>
+      <c r="G211" s="73"/>
       <c r="H211" s="17"/>
       <c r="I211" s="32"/>
       <c r="J211" s="17"/>
@@ -20222,37 +20493,49 @@
     </row>
     <row r="212" spans="1:11" ht="47.25">
       <c r="A212" s="12">
-        <v>208</v>
-      </c>
-      <c r="B212" s="72"/>
-      <c r="C212" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D212" s="96"/>
-      <c r="E212" s="96"/>
-      <c r="F212" s="32" t="s">
-        <v>476</v>
-      </c>
-      <c r="G212" s="17"/>
+        <v>195</v>
+      </c>
+      <c r="B212" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="C212" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="D212" s="72" t="s">
+        <v>443</v>
+      </c>
+      <c r="E212" s="72" t="s">
+        <v>444</v>
+      </c>
+      <c r="F212" s="37" t="s">
+        <v>445</v>
+      </c>
+      <c r="G212" s="73"/>
       <c r="H212" s="17"/>
       <c r="I212" s="32"/>
       <c r="J212" s="17"/>
       <c r="K212" s="17"/>
     </row>
-    <row r="213" spans="1:11" ht="63">
+    <row r="213" spans="1:11" ht="47.25">
       <c r="A213" s="12">
-        <v>209</v>
-      </c>
-      <c r="B213" s="72"/>
-      <c r="C213" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="D213" s="96"/>
-      <c r="E213" s="96"/>
-      <c r="F213" s="31" t="s">
-        <v>488</v>
-      </c>
-      <c r="G213" s="17"/>
+        <v>196</v>
+      </c>
+      <c r="B213" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="C213" s="37" t="s">
+        <v>453</v>
+      </c>
+      <c r="D213" s="72" t="s">
+        <v>446</v>
+      </c>
+      <c r="E213" s="72" t="s">
+        <v>444</v>
+      </c>
+      <c r="F213" s="37" t="s">
+        <v>454</v>
+      </c>
+      <c r="G213" s="73"/>
       <c r="H213" s="17"/>
       <c r="I213" s="32"/>
       <c r="J213" s="17"/>
@@ -20260,377 +20543,459 @@
     </row>
     <row r="214" spans="1:11" ht="63">
       <c r="A214" s="12">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B214" s="72"/>
       <c r="C214" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="D214" s="97"/>
-      <c r="E214" s="97"/>
-      <c r="F214" s="31" t="s">
-        <v>489</v>
-      </c>
-      <c r="G214" s="17"/>
+        <v>16</v>
+      </c>
+      <c r="D214" s="95" t="s">
+        <v>450</v>
+      </c>
+      <c r="E214" s="95" t="s">
+        <v>451</v>
+      </c>
+      <c r="F214" s="32" t="s">
+        <v>477</v>
+      </c>
+      <c r="G214" s="73"/>
       <c r="H214" s="17"/>
       <c r="I214" s="32"/>
       <c r="J214" s="17"/>
       <c r="K214" s="17"/>
     </row>
-    <row r="215" spans="1:11" ht="47.25">
+    <row r="215" spans="1:11" ht="63">
       <c r="A215" s="12">
-        <v>211</v>
-      </c>
-      <c r="B215" s="72" t="s">
-        <v>55</v>
-      </c>
-      <c r="C215" s="37" t="s">
-        <v>452</v>
-      </c>
-      <c r="D215" s="72" t="s">
-        <v>446</v>
-      </c>
-      <c r="E215" s="72" t="s">
-        <v>444</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="B215" s="72"/>
+      <c r="C215" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D215" s="96"/>
+      <c r="E215" s="96"/>
       <c r="F215" s="32" t="s">
-        <v>447</v>
-      </c>
-      <c r="G215" s="17"/>
+        <v>478</v>
+      </c>
+      <c r="G215" s="73"/>
       <c r="H215" s="17"/>
       <c r="I215" s="32"/>
       <c r="J215" s="17"/>
       <c r="K215" s="17"/>
     </row>
-    <row r="216" spans="1:11" ht="47.25">
+    <row r="216" spans="1:11" ht="63">
       <c r="A216" s="12">
-        <v>212</v>
-      </c>
-      <c r="B216" s="72" t="s">
-        <v>156</v>
-      </c>
-      <c r="C216" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="D216" s="72" t="s">
-        <v>455</v>
-      </c>
-      <c r="E216" s="72" t="s">
-        <v>456</v>
-      </c>
-      <c r="F216" s="37" t="s">
-        <v>457</v>
-      </c>
-      <c r="G216" s="17"/>
+        <v>199</v>
+      </c>
+      <c r="B216" s="72"/>
+      <c r="C216" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D216" s="96"/>
+      <c r="E216" s="96"/>
+      <c r="F216" s="32" t="s">
+        <v>479</v>
+      </c>
+      <c r="G216" s="73"/>
       <c r="H216" s="17"/>
       <c r="I216" s="32"/>
       <c r="J216" s="17"/>
       <c r="K216" s="17"/>
     </row>
-    <row r="217" spans="1:11" ht="47.25">
+    <row r="217" spans="1:11" ht="63">
       <c r="A217" s="12">
-        <v>213</v>
-      </c>
-      <c r="B217" s="72" t="s">
-        <v>156</v>
-      </c>
-      <c r="C217" s="37" t="s">
-        <v>396</v>
-      </c>
-      <c r="D217" s="72" t="s">
-        <v>458</v>
-      </c>
-      <c r="E217" s="72" t="s">
-        <v>459</v>
-      </c>
-      <c r="F217" s="37" t="s">
-        <v>460</v>
-      </c>
-      <c r="G217" s="17"/>
+        <v>200</v>
+      </c>
+      <c r="B217" s="72"/>
+      <c r="C217" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D217" s="96"/>
+      <c r="E217" s="96"/>
+      <c r="F217" s="32" t="s">
+        <v>480</v>
+      </c>
+      <c r="G217" s="73"/>
       <c r="H217" s="17"/>
       <c r="I217" s="32"/>
       <c r="J217" s="17"/>
       <c r="K217" s="17"/>
     </row>
-    <row r="218" spans="1:11" ht="47.25">
+    <row r="218" spans="1:11" ht="63">
       <c r="A218" s="12">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="B218" s="72"/>
-      <c r="C218" s="37" t="s">
-        <v>396</v>
-      </c>
-      <c r="D218" s="72" t="s">
-        <v>461</v>
-      </c>
-      <c r="E218" s="72" t="s">
-        <v>462</v>
-      </c>
-      <c r="F218" s="37" t="s">
-        <v>463</v>
-      </c>
-      <c r="G218" s="17"/>
+      <c r="C218" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D218" s="96"/>
+      <c r="E218" s="96"/>
+      <c r="F218" s="32" t="s">
+        <v>481</v>
+      </c>
+      <c r="G218" s="73"/>
       <c r="H218" s="17"/>
       <c r="I218" s="32"/>
       <c r="J218" s="17"/>
       <c r="K218" s="17"/>
     </row>
-    <row r="219" spans="1:11" ht="47.25">
+    <row r="219" spans="1:11" ht="78.75">
       <c r="A219" s="12">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="B219" s="72"/>
-      <c r="C219" s="37" t="s">
-        <v>396</v>
-      </c>
-      <c r="D219" s="72" t="s">
-        <v>464</v>
-      </c>
-      <c r="E219" s="72" t="s">
-        <v>465</v>
-      </c>
-      <c r="F219" s="37" t="s">
-        <v>466</v>
-      </c>
-      <c r="G219" s="17"/>
+      <c r="C219" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D219" s="96"/>
+      <c r="E219" s="96"/>
+      <c r="F219" s="32" t="s">
+        <v>482</v>
+      </c>
+      <c r="G219" s="73"/>
       <c r="H219" s="17"/>
       <c r="I219" s="32"/>
       <c r="J219" s="17"/>
       <c r="K219" s="17"/>
     </row>
-    <row r="220" spans="1:11" ht="47.25">
+    <row r="220" spans="1:11" ht="63">
       <c r="A220" s="12">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="B220" s="72"/>
-      <c r="C220" s="37" t="s">
-        <v>396</v>
-      </c>
-      <c r="D220" s="72" t="s">
-        <v>467</v>
-      </c>
-      <c r="E220" s="72" t="s">
-        <v>468</v>
-      </c>
-      <c r="F220" s="37" t="s">
-        <v>469</v>
-      </c>
-      <c r="G220" s="17"/>
+      <c r="C220" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D220" s="96"/>
+      <c r="E220" s="96"/>
+      <c r="F220" s="32" t="s">
+        <v>483</v>
+      </c>
+      <c r="G220" s="73"/>
       <c r="H220" s="17"/>
       <c r="I220" s="32"/>
       <c r="J220" s="17"/>
       <c r="K220" s="17"/>
     </row>
-    <row r="221" spans="1:11" ht="47.25">
+    <row r="221" spans="1:11" ht="63">
       <c r="A221" s="12">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="B221" s="72"/>
-      <c r="C221" s="37" t="s">
-        <v>396</v>
-      </c>
-      <c r="D221" s="72" t="s">
-        <v>470</v>
-      </c>
-      <c r="E221" s="72" t="s">
-        <v>471</v>
-      </c>
-      <c r="F221" s="37" t="s">
-        <v>472</v>
-      </c>
-      <c r="G221" s="17"/>
+      <c r="C221" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D221" s="96"/>
+      <c r="E221" s="96"/>
+      <c r="F221" s="32" t="s">
+        <v>484</v>
+      </c>
+      <c r="G221" s="73"/>
       <c r="H221" s="17"/>
       <c r="I221" s="32"/>
       <c r="J221" s="17"/>
       <c r="K221" s="17"/>
     </row>
-    <row r="222" spans="1:11" ht="47.25">
+    <row r="222" spans="1:11" ht="63">
       <c r="A222" s="12">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="B222" s="72"/>
-      <c r="C222" s="37" t="s">
-        <v>396</v>
-      </c>
-      <c r="D222" s="72" t="s">
-        <v>473</v>
-      </c>
-      <c r="E222" s="72" t="s">
-        <v>474</v>
-      </c>
-      <c r="F222" s="37" t="s">
-        <v>475</v>
-      </c>
-      <c r="G222" s="17"/>
+      <c r="C222" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D222" s="96"/>
+      <c r="E222" s="96"/>
+      <c r="F222" s="32" t="s">
+        <v>485</v>
+      </c>
+      <c r="G222" s="73"/>
       <c r="H222" s="17"/>
       <c r="I222" s="32"/>
       <c r="J222" s="17"/>
       <c r="K222" s="17"/>
     </row>
-    <row r="223" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A223" s="17"/>
+    <row r="223" spans="1:11" ht="63">
+      <c r="A223" s="12">
+        <v>206</v>
+      </c>
       <c r="B223" s="72"/>
-      <c r="C223" s="24"/>
-      <c r="D223" s="73"/>
-      <c r="E223" s="37"/>
-      <c r="F223" s="37"/>
-      <c r="G223" s="17"/>
+      <c r="C223" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D223" s="96"/>
+      <c r="E223" s="96"/>
+      <c r="F223" s="32" t="s">
+        <v>486</v>
+      </c>
+      <c r="G223" s="73"/>
       <c r="H223" s="17"/>
       <c r="I223" s="32"/>
       <c r="J223" s="17"/>
       <c r="K223" s="17"/>
     </row>
-    <row r="224" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A224" s="17"/>
+    <row r="224" spans="1:11" ht="63">
+      <c r="A224" s="12">
+        <v>207</v>
+      </c>
       <c r="B224" s="72"/>
-      <c r="C224" s="24"/>
-      <c r="D224" s="73"/>
-      <c r="E224" s="37"/>
-      <c r="F224" s="37"/>
-      <c r="G224" s="17"/>
+      <c r="C224" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D224" s="96"/>
+      <c r="E224" s="96"/>
+      <c r="F224" s="32" t="s">
+        <v>487</v>
+      </c>
+      <c r="G224" s="73"/>
       <c r="H224" s="17"/>
       <c r="I224" s="32"/>
       <c r="J224" s="17"/>
       <c r="K224" s="17"/>
     </row>
-    <row r="225" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A225" s="17"/>
+    <row r="225" spans="1:11" ht="47.25">
+      <c r="A225" s="12">
+        <v>208</v>
+      </c>
       <c r="B225" s="72"/>
-      <c r="C225" s="24"/>
-      <c r="D225" s="73"/>
-      <c r="E225" s="37"/>
-      <c r="F225" s="37"/>
-      <c r="G225" s="17"/>
+      <c r="C225" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D225" s="96"/>
+      <c r="E225" s="96"/>
+      <c r="F225" s="32" t="s">
+        <v>476</v>
+      </c>
+      <c r="G225" s="73"/>
       <c r="H225" s="17"/>
       <c r="I225" s="32"/>
       <c r="J225" s="17"/>
       <c r="K225" s="17"/>
     </row>
-    <row r="226" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A226" s="17"/>
+    <row r="226" spans="1:11" ht="63">
+      <c r="A226" s="12">
+        <v>209</v>
+      </c>
       <c r="B226" s="72"/>
-      <c r="C226" s="24"/>
-      <c r="D226" s="73"/>
-      <c r="E226" s="37"/>
-      <c r="F226" s="37"/>
-      <c r="G226" s="17"/>
+      <c r="C226" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="D226" s="96"/>
+      <c r="E226" s="96"/>
+      <c r="F226" s="31" t="s">
+        <v>488</v>
+      </c>
+      <c r="G226" s="73"/>
       <c r="H226" s="17"/>
       <c r="I226" s="32"/>
       <c r="J226" s="17"/>
       <c r="K226" s="17"/>
     </row>
-    <row r="227" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A227" s="17"/>
+    <row r="227" spans="1:11" ht="63">
+      <c r="A227" s="12">
+        <v>210</v>
+      </c>
       <c r="B227" s="72"/>
-      <c r="C227" s="24"/>
-      <c r="D227" s="73"/>
-      <c r="E227" s="37"/>
-      <c r="F227" s="37"/>
-      <c r="G227" s="17"/>
+      <c r="C227" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="D227" s="97"/>
+      <c r="E227" s="97"/>
+      <c r="F227" s="31" t="s">
+        <v>489</v>
+      </c>
+      <c r="G227" s="73"/>
       <c r="H227" s="17"/>
       <c r="I227" s="32"/>
       <c r="J227" s="17"/>
       <c r="K227" s="17"/>
     </row>
-    <row r="228" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A228" s="17"/>
-      <c r="B228" s="72"/>
-      <c r="C228" s="37"/>
-      <c r="D228" s="73"/>
-      <c r="E228" s="37"/>
-      <c r="F228" s="37"/>
-      <c r="G228" s="17"/>
+    <row r="228" spans="1:11" ht="47.25">
+      <c r="A228" s="12">
+        <v>211</v>
+      </c>
+      <c r="B228" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="C228" s="37" t="s">
+        <v>452</v>
+      </c>
+      <c r="D228" s="72" t="s">
+        <v>446</v>
+      </c>
+      <c r="E228" s="72" t="s">
+        <v>444</v>
+      </c>
+      <c r="F228" s="32" t="s">
+        <v>447</v>
+      </c>
+      <c r="G228" s="73"/>
       <c r="H228" s="17"/>
       <c r="I228" s="32"/>
       <c r="J228" s="17"/>
       <c r="K228" s="17"/>
     </row>
-    <row r="229" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A229" s="17"/>
-      <c r="B229" s="72"/>
-      <c r="C229" s="37"/>
-      <c r="D229" s="73"/>
-      <c r="E229" s="37"/>
-      <c r="F229" s="37"/>
-      <c r="G229" s="17"/>
+    <row r="229" spans="1:11" ht="47.25">
+      <c r="A229" s="12">
+        <v>212</v>
+      </c>
+      <c r="B229" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="C229" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="D229" s="72" t="s">
+        <v>455</v>
+      </c>
+      <c r="E229" s="72" t="s">
+        <v>456</v>
+      </c>
+      <c r="F229" s="37" t="s">
+        <v>457</v>
+      </c>
+      <c r="G229" s="73"/>
       <c r="H229" s="17"/>
       <c r="I229" s="32"/>
       <c r="J229" s="17"/>
       <c r="K229" s="17"/>
     </row>
-    <row r="230" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A230" s="17"/>
-      <c r="B230" s="72"/>
-      <c r="C230" s="37"/>
-      <c r="D230" s="73"/>
-      <c r="E230" s="37"/>
-      <c r="F230" s="37"/>
-      <c r="G230" s="17"/>
+    <row r="230" spans="1:11" ht="47.25">
+      <c r="A230" s="12">
+        <v>213</v>
+      </c>
+      <c r="B230" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="C230" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="D230" s="72" t="s">
+        <v>458</v>
+      </c>
+      <c r="E230" s="72" t="s">
+        <v>459</v>
+      </c>
+      <c r="F230" s="37" t="s">
+        <v>460</v>
+      </c>
+      <c r="G230" s="73"/>
       <c r="H230" s="17"/>
       <c r="I230" s="32"/>
       <c r="J230" s="17"/>
       <c r="K230" s="17"/>
     </row>
-    <row r="231" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A231" s="17"/>
+    <row r="231" spans="1:11" ht="47.25">
+      <c r="A231" s="12">
+        <v>214</v>
+      </c>
       <c r="B231" s="72"/>
-      <c r="C231" s="37"/>
-      <c r="D231" s="73"/>
-      <c r="E231" s="37"/>
-      <c r="F231" s="37"/>
-      <c r="G231" s="17"/>
+      <c r="C231" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="D231" s="72" t="s">
+        <v>461</v>
+      </c>
+      <c r="E231" s="72" t="s">
+        <v>462</v>
+      </c>
+      <c r="F231" s="37" t="s">
+        <v>463</v>
+      </c>
+      <c r="G231" s="73"/>
       <c r="H231" s="17"/>
       <c r="I231" s="32"/>
       <c r="J231" s="17"/>
       <c r="K231" s="17"/>
     </row>
-    <row r="232" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A232" s="17"/>
+    <row r="232" spans="1:11" ht="47.25">
+      <c r="A232" s="12">
+        <v>215</v>
+      </c>
       <c r="B232" s="72"/>
-      <c r="C232" s="37"/>
-      <c r="D232" s="73"/>
-      <c r="E232" s="37"/>
-      <c r="F232" s="37"/>
-      <c r="G232" s="17"/>
+      <c r="C232" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="D232" s="72" t="s">
+        <v>464</v>
+      </c>
+      <c r="E232" s="72" t="s">
+        <v>465</v>
+      </c>
+      <c r="F232" s="37" t="s">
+        <v>466</v>
+      </c>
+      <c r="G232" s="73"/>
       <c r="H232" s="17"/>
       <c r="I232" s="32"/>
       <c r="J232" s="17"/>
       <c r="K232" s="17"/>
     </row>
-    <row r="233" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A233" s="17"/>
+    <row r="233" spans="1:11" ht="47.25">
+      <c r="A233" s="12">
+        <v>216</v>
+      </c>
       <c r="B233" s="72"/>
-      <c r="C233" s="37"/>
-      <c r="D233" s="73"/>
-      <c r="E233" s="37"/>
-      <c r="F233" s="37"/>
-      <c r="G233" s="17"/>
+      <c r="C233" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="D233" s="72" t="s">
+        <v>467</v>
+      </c>
+      <c r="E233" s="72" t="s">
+        <v>468</v>
+      </c>
+      <c r="F233" s="37" t="s">
+        <v>469</v>
+      </c>
+      <c r="G233" s="73"/>
       <c r="H233" s="17"/>
       <c r="I233" s="32"/>
       <c r="J233" s="17"/>
       <c r="K233" s="17"/>
     </row>
-    <row r="234" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A234" s="17"/>
+    <row r="234" spans="1:11" ht="47.25">
+      <c r="A234" s="12">
+        <v>217</v>
+      </c>
       <c r="B234" s="72"/>
-      <c r="C234" s="37"/>
-      <c r="D234" s="73"/>
-      <c r="E234" s="37"/>
-      <c r="F234" s="37"/>
-      <c r="G234" s="17"/>
+      <c r="C234" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="D234" s="72" t="s">
+        <v>470</v>
+      </c>
+      <c r="E234" s="72" t="s">
+        <v>471</v>
+      </c>
+      <c r="F234" s="37" t="s">
+        <v>472</v>
+      </c>
+      <c r="G234" s="73"/>
       <c r="H234" s="17"/>
       <c r="I234" s="32"/>
       <c r="J234" s="17"/>
       <c r="K234" s="17"/>
     </row>
-    <row r="235" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A235" s="17"/>
+    <row r="235" spans="1:11" ht="47.25">
+      <c r="A235" s="12">
+        <v>218</v>
+      </c>
       <c r="B235" s="72"/>
-      <c r="C235" s="37"/>
-      <c r="D235" s="73"/>
-      <c r="E235" s="37"/>
-      <c r="F235" s="37"/>
-      <c r="G235" s="17"/>
+      <c r="C235" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="D235" s="72" t="s">
+        <v>473</v>
+      </c>
+      <c r="E235" s="72" t="s">
+        <v>474</v>
+      </c>
+      <c r="F235" s="37" t="s">
+        <v>475</v>
+      </c>
+      <c r="G235" s="73"/>
       <c r="H235" s="17"/>
       <c r="I235" s="32"/>
       <c r="J235" s="17"/>
@@ -20639,11 +21004,11 @@
     <row r="236" spans="1:11" ht="11.25" customHeight="1">
       <c r="A236" s="17"/>
       <c r="B236" s="72"/>
-      <c r="C236" s="37"/>
+      <c r="C236" s="24"/>
       <c r="D236" s="73"/>
       <c r="E236" s="37"/>
       <c r="F236" s="37"/>
-      <c r="G236" s="17"/>
+      <c r="G236" s="73"/>
       <c r="H236" s="17"/>
       <c r="I236" s="32"/>
       <c r="J236" s="17"/>
@@ -20652,11 +21017,11 @@
     <row r="237" spans="1:11" ht="11.25" customHeight="1">
       <c r="A237" s="17"/>
       <c r="B237" s="72"/>
-      <c r="C237" s="37"/>
+      <c r="C237" s="24"/>
       <c r="D237" s="73"/>
       <c r="E237" s="37"/>
       <c r="F237" s="37"/>
-      <c r="G237" s="17"/>
+      <c r="G237" s="73"/>
       <c r="H237" s="17"/>
       <c r="I237" s="32"/>
       <c r="J237" s="17"/>
@@ -20665,11 +21030,11 @@
     <row r="238" spans="1:11" ht="11.25" customHeight="1">
       <c r="A238" s="17"/>
       <c r="B238" s="72"/>
-      <c r="C238" s="37"/>
+      <c r="C238" s="24"/>
       <c r="D238" s="73"/>
       <c r="E238" s="37"/>
       <c r="F238" s="37"/>
-      <c r="G238" s="17"/>
+      <c r="G238" s="73"/>
       <c r="H238" s="17"/>
       <c r="I238" s="32"/>
       <c r="J238" s="17"/>
@@ -20678,11 +21043,11 @@
     <row r="239" spans="1:11" ht="11.25" customHeight="1">
       <c r="A239" s="17"/>
       <c r="B239" s="72"/>
-      <c r="C239" s="37"/>
+      <c r="C239" s="24"/>
       <c r="D239" s="73"/>
       <c r="E239" s="37"/>
       <c r="F239" s="37"/>
-      <c r="G239" s="17"/>
+      <c r="G239" s="73"/>
       <c r="H239" s="17"/>
       <c r="I239" s="32"/>
       <c r="J239" s="17"/>
@@ -20691,11 +21056,11 @@
     <row r="240" spans="1:11" ht="11.25" customHeight="1">
       <c r="A240" s="17"/>
       <c r="B240" s="72"/>
-      <c r="C240" s="37"/>
+      <c r="C240" s="24"/>
       <c r="D240" s="73"/>
       <c r="E240" s="37"/>
       <c r="F240" s="37"/>
-      <c r="G240" s="17"/>
+      <c r="G240" s="73"/>
       <c r="H240" s="17"/>
       <c r="I240" s="32"/>
       <c r="J240" s="17"/>
@@ -20708,7 +21073,7 @@
       <c r="D241" s="73"/>
       <c r="E241" s="37"/>
       <c r="F241" s="37"/>
-      <c r="G241" s="17"/>
+      <c r="G241" s="73"/>
       <c r="H241" s="17"/>
       <c r="I241" s="32"/>
       <c r="J241" s="17"/>
@@ -20721,7 +21086,7 @@
       <c r="D242" s="73"/>
       <c r="E242" s="37"/>
       <c r="F242" s="37"/>
-      <c r="G242" s="17"/>
+      <c r="G242" s="73"/>
       <c r="H242" s="17"/>
       <c r="I242" s="32"/>
       <c r="J242" s="17"/>
@@ -20734,7 +21099,7 @@
       <c r="D243" s="73"/>
       <c r="E243" s="37"/>
       <c r="F243" s="37"/>
-      <c r="G243" s="17"/>
+      <c r="G243" s="73"/>
       <c r="H243" s="17"/>
       <c r="I243" s="32"/>
       <c r="J243" s="17"/>
@@ -20747,7 +21112,7 @@
       <c r="D244" s="73"/>
       <c r="E244" s="37"/>
       <c r="F244" s="37"/>
-      <c r="G244" s="17"/>
+      <c r="G244" s="73"/>
       <c r="H244" s="17"/>
       <c r="I244" s="32"/>
       <c r="J244" s="17"/>
@@ -20760,7 +21125,7 @@
       <c r="D245" s="73"/>
       <c r="E245" s="37"/>
       <c r="F245" s="37"/>
-      <c r="G245" s="17"/>
+      <c r="G245" s="73"/>
       <c r="H245" s="17"/>
       <c r="I245" s="32"/>
       <c r="J245" s="17"/>
@@ -20773,7 +21138,7 @@
       <c r="D246" s="73"/>
       <c r="E246" s="37"/>
       <c r="F246" s="37"/>
-      <c r="G246" s="17"/>
+      <c r="G246" s="73"/>
       <c r="H246" s="17"/>
       <c r="I246" s="32"/>
       <c r="J246" s="17"/>
@@ -20786,7 +21151,7 @@
       <c r="D247" s="73"/>
       <c r="E247" s="37"/>
       <c r="F247" s="37"/>
-      <c r="G247" s="17"/>
+      <c r="G247" s="73"/>
       <c r="H247" s="17"/>
       <c r="I247" s="32"/>
       <c r="J247" s="17"/>
@@ -20799,7 +21164,7 @@
       <c r="D248" s="73"/>
       <c r="E248" s="37"/>
       <c r="F248" s="37"/>
-      <c r="G248" s="17"/>
+      <c r="G248" s="73"/>
       <c r="H248" s="17"/>
       <c r="I248" s="32"/>
       <c r="J248" s="17"/>
@@ -20812,7 +21177,7 @@
       <c r="D249" s="73"/>
       <c r="E249" s="37"/>
       <c r="F249" s="37"/>
-      <c r="G249" s="17"/>
+      <c r="G249" s="73"/>
       <c r="H249" s="17"/>
       <c r="I249" s="32"/>
       <c r="J249" s="17"/>
@@ -20825,7 +21190,7 @@
       <c r="D250" s="73"/>
       <c r="E250" s="37"/>
       <c r="F250" s="37"/>
-      <c r="G250" s="17"/>
+      <c r="G250" s="73"/>
       <c r="H250" s="17"/>
       <c r="I250" s="32"/>
       <c r="J250" s="17"/>
@@ -20838,7 +21203,7 @@
       <c r="D251" s="73"/>
       <c r="E251" s="37"/>
       <c r="F251" s="37"/>
-      <c r="G251" s="17"/>
+      <c r="G251" s="73"/>
       <c r="H251" s="17"/>
       <c r="I251" s="32"/>
       <c r="J251" s="17"/>
@@ -20851,7 +21216,7 @@
       <c r="D252" s="73"/>
       <c r="E252" s="37"/>
       <c r="F252" s="37"/>
-      <c r="G252" s="17"/>
+      <c r="G252" s="73"/>
       <c r="H252" s="17"/>
       <c r="I252" s="32"/>
       <c r="J252" s="17"/>
@@ -20864,7 +21229,7 @@
       <c r="D253" s="73"/>
       <c r="E253" s="37"/>
       <c r="F253" s="37"/>
-      <c r="G253" s="17"/>
+      <c r="G253" s="73"/>
       <c r="H253" s="17"/>
       <c r="I253" s="32"/>
       <c r="J253" s="17"/>
@@ -20877,7 +21242,7 @@
       <c r="D254" s="73"/>
       <c r="E254" s="37"/>
       <c r="F254" s="37"/>
-      <c r="G254" s="17"/>
+      <c r="G254" s="73"/>
       <c r="H254" s="17"/>
       <c r="I254" s="32"/>
       <c r="J254" s="17"/>
@@ -20890,7 +21255,7 @@
       <c r="D255" s="73"/>
       <c r="E255" s="37"/>
       <c r="F255" s="37"/>
-      <c r="G255" s="17"/>
+      <c r="G255" s="73"/>
       <c r="H255" s="17"/>
       <c r="I255" s="32"/>
       <c r="J255" s="17"/>
@@ -20903,7 +21268,7 @@
       <c r="D256" s="73"/>
       <c r="E256" s="37"/>
       <c r="F256" s="37"/>
-      <c r="G256" s="17"/>
+      <c r="G256" s="73"/>
       <c r="H256" s="17"/>
       <c r="I256" s="32"/>
       <c r="J256" s="17"/>
@@ -20916,7 +21281,7 @@
       <c r="D257" s="73"/>
       <c r="E257" s="37"/>
       <c r="F257" s="37"/>
-      <c r="G257" s="17"/>
+      <c r="G257" s="73"/>
       <c r="H257" s="17"/>
       <c r="I257" s="32"/>
       <c r="J257" s="17"/>
@@ -20929,7 +21294,7 @@
       <c r="D258" s="73"/>
       <c r="E258" s="37"/>
       <c r="F258" s="37"/>
-      <c r="G258" s="17"/>
+      <c r="G258" s="73"/>
       <c r="H258" s="17"/>
       <c r="I258" s="32"/>
       <c r="J258" s="17"/>
@@ -20942,7 +21307,7 @@
       <c r="D259" s="73"/>
       <c r="E259" s="37"/>
       <c r="F259" s="37"/>
-      <c r="G259" s="17"/>
+      <c r="G259" s="73"/>
       <c r="H259" s="17"/>
       <c r="I259" s="32"/>
       <c r="J259" s="17"/>
@@ -20955,7 +21320,7 @@
       <c r="D260" s="73"/>
       <c r="E260" s="37"/>
       <c r="F260" s="37"/>
-      <c r="G260" s="17"/>
+      <c r="G260" s="73"/>
       <c r="H260" s="17"/>
       <c r="I260" s="32"/>
       <c r="J260" s="17"/>
@@ -20968,7 +21333,7 @@
       <c r="D261" s="73"/>
       <c r="E261" s="37"/>
       <c r="F261" s="37"/>
-      <c r="G261" s="17"/>
+      <c r="G261" s="73"/>
       <c r="H261" s="17"/>
       <c r="I261" s="32"/>
       <c r="J261" s="17"/>
@@ -20981,7 +21346,7 @@
       <c r="D262" s="73"/>
       <c r="E262" s="37"/>
       <c r="F262" s="37"/>
-      <c r="G262" s="17"/>
+      <c r="G262" s="73"/>
       <c r="H262" s="17"/>
       <c r="I262" s="32"/>
       <c r="J262" s="17"/>
@@ -20994,7 +21359,7 @@
       <c r="D263" s="73"/>
       <c r="E263" s="37"/>
       <c r="F263" s="37"/>
-      <c r="G263" s="17"/>
+      <c r="G263" s="73"/>
       <c r="H263" s="17"/>
       <c r="I263" s="32"/>
       <c r="J263" s="17"/>
@@ -21007,7 +21372,7 @@
       <c r="D264" s="73"/>
       <c r="E264" s="37"/>
       <c r="F264" s="37"/>
-      <c r="G264" s="17"/>
+      <c r="G264" s="73"/>
       <c r="H264" s="17"/>
       <c r="I264" s="32"/>
       <c r="J264" s="17"/>
@@ -21020,7 +21385,7 @@
       <c r="D265" s="73"/>
       <c r="E265" s="37"/>
       <c r="F265" s="37"/>
-      <c r="G265" s="17"/>
+      <c r="G265" s="73"/>
       <c r="H265" s="17"/>
       <c r="I265" s="32"/>
       <c r="J265" s="17"/>
@@ -21033,7 +21398,7 @@
       <c r="D266" s="73"/>
       <c r="E266" s="37"/>
       <c r="F266" s="37"/>
-      <c r="G266" s="17"/>
+      <c r="G266" s="73"/>
       <c r="H266" s="17"/>
       <c r="I266" s="32"/>
       <c r="J266" s="17"/>
@@ -21046,7 +21411,7 @@
       <c r="D267" s="73"/>
       <c r="E267" s="37"/>
       <c r="F267" s="37"/>
-      <c r="G267" s="17"/>
+      <c r="G267" s="73"/>
       <c r="H267" s="17"/>
       <c r="I267" s="32"/>
       <c r="J267" s="17"/>
@@ -21059,7 +21424,7 @@
       <c r="D268" s="73"/>
       <c r="E268" s="37"/>
       <c r="F268" s="37"/>
-      <c r="G268" s="17"/>
+      <c r="G268" s="73"/>
       <c r="H268" s="17"/>
       <c r="I268" s="32"/>
       <c r="J268" s="17"/>
@@ -21072,7 +21437,7 @@
       <c r="D269" s="73"/>
       <c r="E269" s="37"/>
       <c r="F269" s="37"/>
-      <c r="G269" s="17"/>
+      <c r="G269" s="73"/>
       <c r="H269" s="17"/>
       <c r="I269" s="32"/>
       <c r="J269" s="17"/>
@@ -21085,7 +21450,7 @@
       <c r="D270" s="73"/>
       <c r="E270" s="37"/>
       <c r="F270" s="37"/>
-      <c r="G270" s="17"/>
+      <c r="G270" s="73"/>
       <c r="H270" s="17"/>
       <c r="I270" s="32"/>
       <c r="J270" s="17"/>
@@ -21098,7 +21463,7 @@
       <c r="D271" s="73"/>
       <c r="E271" s="37"/>
       <c r="F271" s="37"/>
-      <c r="G271" s="17"/>
+      <c r="G271" s="73"/>
       <c r="H271" s="17"/>
       <c r="I271" s="32"/>
       <c r="J271" s="17"/>
@@ -21111,7 +21476,7 @@
       <c r="D272" s="73"/>
       <c r="E272" s="37"/>
       <c r="F272" s="37"/>
-      <c r="G272" s="17"/>
+      <c r="G272" s="73"/>
       <c r="H272" s="17"/>
       <c r="I272" s="32"/>
       <c r="J272" s="17"/>
@@ -21124,7 +21489,7 @@
       <c r="D273" s="73"/>
       <c r="E273" s="37"/>
       <c r="F273" s="37"/>
-      <c r="G273" s="17"/>
+      <c r="G273" s="73"/>
       <c r="H273" s="17"/>
       <c r="I273" s="32"/>
       <c r="J273" s="17"/>
@@ -21137,7 +21502,7 @@
       <c r="D274" s="73"/>
       <c r="E274" s="37"/>
       <c r="F274" s="37"/>
-      <c r="G274" s="17"/>
+      <c r="G274" s="73"/>
       <c r="H274" s="17"/>
       <c r="I274" s="32"/>
       <c r="J274" s="17"/>
@@ -21150,7 +21515,7 @@
       <c r="D275" s="73"/>
       <c r="E275" s="37"/>
       <c r="F275" s="37"/>
-      <c r="G275" s="17"/>
+      <c r="G275" s="73"/>
       <c r="H275" s="17"/>
       <c r="I275" s="32"/>
       <c r="J275" s="17"/>
@@ -21163,7 +21528,7 @@
       <c r="D276" s="73"/>
       <c r="E276" s="37"/>
       <c r="F276" s="37"/>
-      <c r="G276" s="17"/>
+      <c r="G276" s="73"/>
       <c r="H276" s="17"/>
       <c r="I276" s="32"/>
       <c r="J276" s="17"/>
@@ -21176,7 +21541,7 @@
       <c r="D277" s="73"/>
       <c r="E277" s="37"/>
       <c r="F277" s="37"/>
-      <c r="G277" s="17"/>
+      <c r="G277" s="73"/>
       <c r="H277" s="17"/>
       <c r="I277" s="32"/>
       <c r="J277" s="17"/>
@@ -21189,7 +21554,7 @@
       <c r="D278" s="73"/>
       <c r="E278" s="37"/>
       <c r="F278" s="37"/>
-      <c r="G278" s="17"/>
+      <c r="G278" s="73"/>
       <c r="H278" s="17"/>
       <c r="I278" s="32"/>
       <c r="J278" s="17"/>
@@ -21202,7 +21567,7 @@
       <c r="D279" s="73"/>
       <c r="E279" s="37"/>
       <c r="F279" s="37"/>
-      <c r="G279" s="17"/>
+      <c r="G279" s="73"/>
       <c r="H279" s="17"/>
       <c r="I279" s="32"/>
       <c r="J279" s="17"/>
@@ -21215,7 +21580,7 @@
       <c r="D280" s="73"/>
       <c r="E280" s="37"/>
       <c r="F280" s="37"/>
-      <c r="G280" s="17"/>
+      <c r="G280" s="73"/>
       <c r="H280" s="17"/>
       <c r="I280" s="32"/>
       <c r="J280" s="17"/>
@@ -21228,7 +21593,7 @@
       <c r="D281" s="73"/>
       <c r="E281" s="37"/>
       <c r="F281" s="37"/>
-      <c r="G281" s="17"/>
+      <c r="G281" s="73"/>
       <c r="H281" s="17"/>
       <c r="I281" s="32"/>
       <c r="J281" s="17"/>
@@ -21241,7 +21606,7 @@
       <c r="D282" s="73"/>
       <c r="E282" s="37"/>
       <c r="F282" s="37"/>
-      <c r="G282" s="17"/>
+      <c r="G282" s="73"/>
       <c r="H282" s="17"/>
       <c r="I282" s="32"/>
       <c r="J282" s="17"/>
@@ -21254,7 +21619,7 @@
       <c r="D283" s="73"/>
       <c r="E283" s="37"/>
       <c r="F283" s="37"/>
-      <c r="G283" s="17"/>
+      <c r="G283" s="73"/>
       <c r="H283" s="17"/>
       <c r="I283" s="32"/>
       <c r="J283" s="17"/>
@@ -21267,7 +21632,7 @@
       <c r="D284" s="73"/>
       <c r="E284" s="37"/>
       <c r="F284" s="37"/>
-      <c r="G284" s="17"/>
+      <c r="G284" s="73"/>
       <c r="H284" s="17"/>
       <c r="I284" s="32"/>
       <c r="J284" s="17"/>
@@ -21280,7 +21645,7 @@
       <c r="D285" s="73"/>
       <c r="E285" s="37"/>
       <c r="F285" s="37"/>
-      <c r="G285" s="17"/>
+      <c r="G285" s="73"/>
       <c r="H285" s="17"/>
       <c r="I285" s="32"/>
       <c r="J285" s="17"/>
@@ -21293,7 +21658,7 @@
       <c r="D286" s="73"/>
       <c r="E286" s="37"/>
       <c r="F286" s="37"/>
-      <c r="G286" s="17"/>
+      <c r="G286" s="73"/>
       <c r="H286" s="17"/>
       <c r="I286" s="32"/>
       <c r="J286" s="17"/>
@@ -21306,7 +21671,7 @@
       <c r="D287" s="73"/>
       <c r="E287" s="37"/>
       <c r="F287" s="37"/>
-      <c r="G287" s="17"/>
+      <c r="G287" s="73"/>
       <c r="H287" s="17"/>
       <c r="I287" s="32"/>
       <c r="J287" s="17"/>
@@ -21319,7 +21684,7 @@
       <c r="D288" s="73"/>
       <c r="E288" s="37"/>
       <c r="F288" s="37"/>
-      <c r="G288" s="17"/>
+      <c r="G288" s="73"/>
       <c r="H288" s="17"/>
       <c r="I288" s="32"/>
       <c r="J288" s="17"/>
@@ -21332,7 +21697,7 @@
       <c r="D289" s="73"/>
       <c r="E289" s="37"/>
       <c r="F289" s="37"/>
-      <c r="G289" s="17"/>
+      <c r="G289" s="73"/>
       <c r="H289" s="17"/>
       <c r="I289" s="32"/>
       <c r="J289" s="17"/>
@@ -21345,7 +21710,7 @@
       <c r="D290" s="73"/>
       <c r="E290" s="37"/>
       <c r="F290" s="37"/>
-      <c r="G290" s="17"/>
+      <c r="G290" s="73"/>
       <c r="H290" s="17"/>
       <c r="I290" s="32"/>
       <c r="J290" s="17"/>
@@ -21358,7 +21723,7 @@
       <c r="D291" s="73"/>
       <c r="E291" s="37"/>
       <c r="F291" s="37"/>
-      <c r="G291" s="17"/>
+      <c r="G291" s="73"/>
       <c r="H291" s="17"/>
       <c r="I291" s="32"/>
       <c r="J291" s="17"/>
@@ -21371,7 +21736,7 @@
       <c r="D292" s="73"/>
       <c r="E292" s="37"/>
       <c r="F292" s="37"/>
-      <c r="G292" s="17"/>
+      <c r="G292" s="73"/>
       <c r="H292" s="17"/>
       <c r="I292" s="32"/>
       <c r="J292" s="17"/>
@@ -21384,7 +21749,7 @@
       <c r="D293" s="73"/>
       <c r="E293" s="37"/>
       <c r="F293" s="37"/>
-      <c r="G293" s="17"/>
+      <c r="G293" s="73"/>
       <c r="H293" s="17"/>
       <c r="I293" s="32"/>
       <c r="J293" s="17"/>
@@ -21397,7 +21762,7 @@
       <c r="D294" s="73"/>
       <c r="E294" s="37"/>
       <c r="F294" s="37"/>
-      <c r="G294" s="17"/>
+      <c r="G294" s="73"/>
       <c r="H294" s="17"/>
       <c r="I294" s="32"/>
       <c r="J294" s="17"/>
@@ -21410,7 +21775,7 @@
       <c r="D295" s="73"/>
       <c r="E295" s="37"/>
       <c r="F295" s="37"/>
-      <c r="G295" s="17"/>
+      <c r="G295" s="73"/>
       <c r="H295" s="17"/>
       <c r="I295" s="32"/>
       <c r="J295" s="17"/>
@@ -21423,7 +21788,7 @@
       <c r="D296" s="73"/>
       <c r="E296" s="37"/>
       <c r="F296" s="37"/>
-      <c r="G296" s="17"/>
+      <c r="G296" s="73"/>
       <c r="H296" s="17"/>
       <c r="I296" s="32"/>
       <c r="J296" s="17"/>
@@ -21436,7 +21801,7 @@
       <c r="D297" s="73"/>
       <c r="E297" s="37"/>
       <c r="F297" s="37"/>
-      <c r="G297" s="17"/>
+      <c r="G297" s="73"/>
       <c r="H297" s="17"/>
       <c r="I297" s="32"/>
       <c r="J297" s="17"/>
@@ -21449,7 +21814,7 @@
       <c r="D298" s="73"/>
       <c r="E298" s="37"/>
       <c r="F298" s="37"/>
-      <c r="G298" s="17"/>
+      <c r="G298" s="73"/>
       <c r="H298" s="17"/>
       <c r="I298" s="32"/>
       <c r="J298" s="17"/>
@@ -21462,7 +21827,7 @@
       <c r="D299" s="73"/>
       <c r="E299" s="37"/>
       <c r="F299" s="37"/>
-      <c r="G299" s="17"/>
+      <c r="G299" s="73"/>
       <c r="H299" s="17"/>
       <c r="I299" s="32"/>
       <c r="J299" s="17"/>
@@ -21475,7 +21840,7 @@
       <c r="D300" s="73"/>
       <c r="E300" s="37"/>
       <c r="F300" s="37"/>
-      <c r="G300" s="17"/>
+      <c r="G300" s="73"/>
       <c r="H300" s="17"/>
       <c r="I300" s="32"/>
       <c r="J300" s="17"/>
@@ -21488,7 +21853,7 @@
       <c r="D301" s="73"/>
       <c r="E301" s="37"/>
       <c r="F301" s="37"/>
-      <c r="G301" s="17"/>
+      <c r="G301" s="73"/>
       <c r="H301" s="17"/>
       <c r="I301" s="32"/>
       <c r="J301" s="17"/>
@@ -21501,7 +21866,7 @@
       <c r="D302" s="73"/>
       <c r="E302" s="37"/>
       <c r="F302" s="37"/>
-      <c r="G302" s="17"/>
+      <c r="G302" s="73"/>
       <c r="H302" s="17"/>
       <c r="I302" s="32"/>
       <c r="J302" s="17"/>
@@ -21514,7 +21879,7 @@
       <c r="D303" s="73"/>
       <c r="E303" s="37"/>
       <c r="F303" s="37"/>
-      <c r="G303" s="17"/>
+      <c r="G303" s="73"/>
       <c r="H303" s="17"/>
       <c r="I303" s="32"/>
       <c r="J303" s="17"/>
@@ -21527,7 +21892,7 @@
       <c r="D304" s="73"/>
       <c r="E304" s="37"/>
       <c r="F304" s="37"/>
-      <c r="G304" s="17"/>
+      <c r="G304" s="73"/>
       <c r="H304" s="17"/>
       <c r="I304" s="32"/>
       <c r="J304" s="17"/>
@@ -21540,7 +21905,7 @@
       <c r="D305" s="73"/>
       <c r="E305" s="37"/>
       <c r="F305" s="37"/>
-      <c r="G305" s="17"/>
+      <c r="G305" s="73"/>
       <c r="H305" s="17"/>
       <c r="I305" s="32"/>
       <c r="J305" s="17"/>
@@ -21553,7 +21918,7 @@
       <c r="D306" s="73"/>
       <c r="E306" s="37"/>
       <c r="F306" s="37"/>
-      <c r="G306" s="17"/>
+      <c r="G306" s="73"/>
       <c r="H306" s="17"/>
       <c r="I306" s="32"/>
       <c r="J306" s="17"/>
@@ -21566,7 +21931,7 @@
       <c r="D307" s="73"/>
       <c r="E307" s="37"/>
       <c r="F307" s="37"/>
-      <c r="G307" s="17"/>
+      <c r="G307" s="73"/>
       <c r="H307" s="17"/>
       <c r="I307" s="32"/>
       <c r="J307" s="17"/>
@@ -21579,7 +21944,7 @@
       <c r="D308" s="73"/>
       <c r="E308" s="37"/>
       <c r="F308" s="37"/>
-      <c r="G308" s="17"/>
+      <c r="G308" s="73"/>
       <c r="H308" s="17"/>
       <c r="I308" s="32"/>
       <c r="J308" s="17"/>
@@ -21592,7 +21957,7 @@
       <c r="D309" s="73"/>
       <c r="E309" s="37"/>
       <c r="F309" s="37"/>
-      <c r="G309" s="17"/>
+      <c r="G309" s="73"/>
       <c r="H309" s="17"/>
       <c r="I309" s="32"/>
       <c r="J309" s="17"/>
@@ -21605,7 +21970,7 @@
       <c r="D310" s="73"/>
       <c r="E310" s="37"/>
       <c r="F310" s="37"/>
-      <c r="G310" s="17"/>
+      <c r="G310" s="73"/>
       <c r="H310" s="17"/>
       <c r="I310" s="32"/>
       <c r="J310" s="17"/>
@@ -21618,7 +21983,7 @@
       <c r="D311" s="73"/>
       <c r="E311" s="37"/>
       <c r="F311" s="37"/>
-      <c r="G311" s="17"/>
+      <c r="G311" s="73"/>
       <c r="H311" s="17"/>
       <c r="I311" s="32"/>
       <c r="J311" s="17"/>
@@ -21631,7 +21996,7 @@
       <c r="D312" s="73"/>
       <c r="E312" s="37"/>
       <c r="F312" s="37"/>
-      <c r="G312" s="17"/>
+      <c r="G312" s="73"/>
       <c r="H312" s="17"/>
       <c r="I312" s="32"/>
       <c r="J312" s="17"/>
@@ -21644,7 +22009,7 @@
       <c r="D313" s="73"/>
       <c r="E313" s="37"/>
       <c r="F313" s="37"/>
-      <c r="G313" s="17"/>
+      <c r="G313" s="73"/>
       <c r="H313" s="17"/>
       <c r="I313" s="32"/>
       <c r="J313" s="17"/>
@@ -21657,7 +22022,7 @@
       <c r="D314" s="73"/>
       <c r="E314" s="37"/>
       <c r="F314" s="37"/>
-      <c r="G314" s="17"/>
+      <c r="G314" s="73"/>
       <c r="H314" s="17"/>
       <c r="I314" s="32"/>
       <c r="J314" s="17"/>
@@ -21670,7 +22035,7 @@
       <c r="D315" s="73"/>
       <c r="E315" s="37"/>
       <c r="F315" s="37"/>
-      <c r="G315" s="17"/>
+      <c r="G315" s="73"/>
       <c r="H315" s="17"/>
       <c r="I315" s="32"/>
       <c r="J315" s="17"/>
@@ -21683,7 +22048,7 @@
       <c r="D316" s="73"/>
       <c r="E316" s="37"/>
       <c r="F316" s="37"/>
-      <c r="G316" s="17"/>
+      <c r="G316" s="73"/>
       <c r="H316" s="17"/>
       <c r="I316" s="32"/>
       <c r="J316" s="17"/>
@@ -21696,7 +22061,7 @@
       <c r="D317" s="73"/>
       <c r="E317" s="37"/>
       <c r="F317" s="37"/>
-      <c r="G317" s="17"/>
+      <c r="G317" s="73"/>
       <c r="H317" s="17"/>
       <c r="I317" s="32"/>
       <c r="J317" s="17"/>
@@ -21709,7 +22074,7 @@
       <c r="D318" s="73"/>
       <c r="E318" s="37"/>
       <c r="F318" s="37"/>
-      <c r="G318" s="17"/>
+      <c r="G318" s="73"/>
       <c r="H318" s="17"/>
       <c r="I318" s="32"/>
       <c r="J318" s="17"/>
@@ -21722,7 +22087,7 @@
       <c r="D319" s="73"/>
       <c r="E319" s="37"/>
       <c r="F319" s="37"/>
-      <c r="G319" s="17"/>
+      <c r="G319" s="73"/>
       <c r="H319" s="17"/>
       <c r="I319" s="32"/>
       <c r="J319" s="17"/>
@@ -21735,7 +22100,7 @@
       <c r="D320" s="73"/>
       <c r="E320" s="37"/>
       <c r="F320" s="37"/>
-      <c r="G320" s="17"/>
+      <c r="G320" s="73"/>
       <c r="H320" s="17"/>
       <c r="I320" s="32"/>
       <c r="J320" s="17"/>
@@ -21748,7 +22113,7 @@
       <c r="D321" s="73"/>
       <c r="E321" s="37"/>
       <c r="F321" s="37"/>
-      <c r="G321" s="17"/>
+      <c r="G321" s="73"/>
       <c r="H321" s="17"/>
       <c r="I321" s="32"/>
       <c r="J321" s="17"/>
@@ -21761,7 +22126,7 @@
       <c r="D322" s="73"/>
       <c r="E322" s="37"/>
       <c r="F322" s="37"/>
-      <c r="G322" s="17"/>
+      <c r="G322" s="73"/>
       <c r="H322" s="17"/>
       <c r="I322" s="32"/>
       <c r="J322" s="17"/>
@@ -21774,7 +22139,7 @@
       <c r="D323" s="73"/>
       <c r="E323" s="37"/>
       <c r="F323" s="37"/>
-      <c r="G323" s="17"/>
+      <c r="G323" s="73"/>
       <c r="H323" s="17"/>
       <c r="I323" s="32"/>
       <c r="J323" s="17"/>
@@ -21787,7 +22152,7 @@
       <c r="D324" s="73"/>
       <c r="E324" s="37"/>
       <c r="F324" s="37"/>
-      <c r="G324" s="17"/>
+      <c r="G324" s="73"/>
       <c r="H324" s="17"/>
       <c r="I324" s="32"/>
       <c r="J324" s="17"/>
@@ -21800,7 +22165,7 @@
       <c r="D325" s="73"/>
       <c r="E325" s="37"/>
       <c r="F325" s="37"/>
-      <c r="G325" s="17"/>
+      <c r="G325" s="73"/>
       <c r="H325" s="17"/>
       <c r="I325" s="32"/>
       <c r="J325" s="17"/>
@@ -21813,7 +22178,7 @@
       <c r="D326" s="73"/>
       <c r="E326" s="37"/>
       <c r="F326" s="37"/>
-      <c r="G326" s="17"/>
+      <c r="G326" s="73"/>
       <c r="H326" s="17"/>
       <c r="I326" s="32"/>
       <c r="J326" s="17"/>
@@ -21826,7 +22191,7 @@
       <c r="D327" s="73"/>
       <c r="E327" s="37"/>
       <c r="F327" s="37"/>
-      <c r="G327" s="17"/>
+      <c r="G327" s="73"/>
       <c r="H327" s="17"/>
       <c r="I327" s="32"/>
       <c r="J327" s="17"/>
@@ -21839,7 +22204,7 @@
       <c r="D328" s="73"/>
       <c r="E328" s="37"/>
       <c r="F328" s="37"/>
-      <c r="G328" s="17"/>
+      <c r="G328" s="73"/>
       <c r="H328" s="17"/>
       <c r="I328" s="32"/>
       <c r="J328" s="17"/>
@@ -21852,7 +22217,7 @@
       <c r="D329" s="73"/>
       <c r="E329" s="37"/>
       <c r="F329" s="37"/>
-      <c r="G329" s="17"/>
+      <c r="G329" s="73"/>
       <c r="H329" s="17"/>
       <c r="I329" s="32"/>
       <c r="J329" s="17"/>
@@ -21865,7 +22230,7 @@
       <c r="D330" s="73"/>
       <c r="E330" s="37"/>
       <c r="F330" s="37"/>
-      <c r="G330" s="17"/>
+      <c r="G330" s="73"/>
       <c r="H330" s="17"/>
       <c r="I330" s="32"/>
       <c r="J330" s="17"/>
@@ -21878,7 +22243,7 @@
       <c r="D331" s="73"/>
       <c r="E331" s="37"/>
       <c r="F331" s="37"/>
-      <c r="G331" s="17"/>
+      <c r="G331" s="73"/>
       <c r="H331" s="17"/>
       <c r="I331" s="32"/>
       <c r="J331" s="17"/>
@@ -21891,7 +22256,7 @@
       <c r="D332" s="73"/>
       <c r="E332" s="37"/>
       <c r="F332" s="37"/>
-      <c r="G332" s="17"/>
+      <c r="G332" s="73"/>
       <c r="H332" s="17"/>
       <c r="I332" s="32"/>
       <c r="J332" s="17"/>
@@ -21904,7 +22269,7 @@
       <c r="D333" s="73"/>
       <c r="E333" s="37"/>
       <c r="F333" s="37"/>
-      <c r="G333" s="17"/>
+      <c r="G333" s="73"/>
       <c r="H333" s="17"/>
       <c r="I333" s="32"/>
       <c r="J333" s="17"/>
@@ -21917,7 +22282,7 @@
       <c r="D334" s="73"/>
       <c r="E334" s="37"/>
       <c r="F334" s="37"/>
-      <c r="G334" s="17"/>
+      <c r="G334" s="73"/>
       <c r="H334" s="17"/>
       <c r="I334" s="32"/>
       <c r="J334" s="17"/>
@@ -21930,7 +22295,7 @@
       <c r="D335" s="73"/>
       <c r="E335" s="37"/>
       <c r="F335" s="37"/>
-      <c r="G335" s="17"/>
+      <c r="G335" s="73"/>
       <c r="H335" s="17"/>
       <c r="I335" s="32"/>
       <c r="J335" s="17"/>
@@ -21943,7 +22308,7 @@
       <c r="D336" s="73"/>
       <c r="E336" s="37"/>
       <c r="F336" s="37"/>
-      <c r="G336" s="17"/>
+      <c r="G336" s="73"/>
       <c r="H336" s="17"/>
       <c r="I336" s="32"/>
       <c r="J336" s="17"/>
@@ -21956,7 +22321,7 @@
       <c r="D337" s="73"/>
       <c r="E337" s="37"/>
       <c r="F337" s="37"/>
-      <c r="G337" s="17"/>
+      <c r="G337" s="73"/>
       <c r="H337" s="17"/>
       <c r="I337" s="32"/>
       <c r="J337" s="17"/>
@@ -21969,7 +22334,7 @@
       <c r="D338" s="73"/>
       <c r="E338" s="37"/>
       <c r="F338" s="37"/>
-      <c r="G338" s="17"/>
+      <c r="G338" s="73"/>
       <c r="H338" s="17"/>
       <c r="I338" s="32"/>
       <c r="J338" s="17"/>
@@ -21982,7 +22347,7 @@
       <c r="D339" s="73"/>
       <c r="E339" s="37"/>
       <c r="F339" s="37"/>
-      <c r="G339" s="17"/>
+      <c r="G339" s="73"/>
       <c r="H339" s="17"/>
       <c r="I339" s="32"/>
       <c r="J339" s="17"/>
@@ -21995,7 +22360,7 @@
       <c r="D340" s="73"/>
       <c r="E340" s="37"/>
       <c r="F340" s="37"/>
-      <c r="G340" s="17"/>
+      <c r="G340" s="73"/>
       <c r="H340" s="17"/>
       <c r="I340" s="32"/>
       <c r="J340" s="17"/>
@@ -22008,7 +22373,7 @@
       <c r="D341" s="73"/>
       <c r="E341" s="37"/>
       <c r="F341" s="37"/>
-      <c r="G341" s="17"/>
+      <c r="G341" s="73"/>
       <c r="H341" s="17"/>
       <c r="I341" s="32"/>
       <c r="J341" s="17"/>
@@ -22021,7 +22386,7 @@
       <c r="D342" s="73"/>
       <c r="E342" s="37"/>
       <c r="F342" s="37"/>
-      <c r="G342" s="17"/>
+      <c r="G342" s="73"/>
       <c r="H342" s="17"/>
       <c r="I342" s="32"/>
       <c r="J342" s="17"/>
@@ -22034,7 +22399,7 @@
       <c r="D343" s="73"/>
       <c r="E343" s="37"/>
       <c r="F343" s="37"/>
-      <c r="G343" s="17"/>
+      <c r="G343" s="73"/>
       <c r="H343" s="17"/>
       <c r="I343" s="32"/>
       <c r="J343" s="17"/>
@@ -22047,7 +22412,7 @@
       <c r="D344" s="73"/>
       <c r="E344" s="37"/>
       <c r="F344" s="37"/>
-      <c r="G344" s="17"/>
+      <c r="G344" s="73"/>
       <c r="H344" s="17"/>
       <c r="I344" s="32"/>
       <c r="J344" s="17"/>
@@ -22060,7 +22425,7 @@
       <c r="D345" s="73"/>
       <c r="E345" s="37"/>
       <c r="F345" s="37"/>
-      <c r="G345" s="17"/>
+      <c r="G345" s="73"/>
       <c r="H345" s="17"/>
       <c r="I345" s="32"/>
       <c r="J345" s="17"/>
@@ -22073,27 +22438,198 @@
       <c r="D346" s="73"/>
       <c r="E346" s="37"/>
       <c r="F346" s="37"/>
-      <c r="G346" s="17"/>
+      <c r="G346" s="73"/>
       <c r="H346" s="17"/>
       <c r="I346" s="32"/>
       <c r="J346" s="17"/>
       <c r="K346" s="17"/>
     </row>
+    <row r="347" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A347" s="17"/>
+      <c r="B347" s="72"/>
+      <c r="C347" s="37"/>
+      <c r="D347" s="73"/>
+      <c r="E347" s="37"/>
+      <c r="F347" s="37"/>
+      <c r="G347" s="73"/>
+      <c r="H347" s="17"/>
+      <c r="I347" s="32"/>
+      <c r="J347" s="17"/>
+      <c r="K347" s="17"/>
+    </row>
+    <row r="348" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A348" s="17"/>
+      <c r="B348" s="72"/>
+      <c r="C348" s="37"/>
+      <c r="D348" s="73"/>
+      <c r="E348" s="37"/>
+      <c r="F348" s="37"/>
+      <c r="G348" s="73"/>
+      <c r="H348" s="17"/>
+      <c r="I348" s="32"/>
+      <c r="J348" s="17"/>
+      <c r="K348" s="17"/>
+    </row>
+    <row r="349" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A349" s="17"/>
+      <c r="B349" s="72"/>
+      <c r="C349" s="37"/>
+      <c r="D349" s="73"/>
+      <c r="E349" s="37"/>
+      <c r="F349" s="37"/>
+      <c r="G349" s="73"/>
+      <c r="H349" s="17"/>
+      <c r="I349" s="32"/>
+      <c r="J349" s="17"/>
+      <c r="K349" s="17"/>
+    </row>
+    <row r="350" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A350" s="17"/>
+      <c r="B350" s="72"/>
+      <c r="C350" s="37"/>
+      <c r="D350" s="73"/>
+      <c r="E350" s="37"/>
+      <c r="F350" s="37"/>
+      <c r="G350" s="73"/>
+      <c r="H350" s="17"/>
+      <c r="I350" s="32"/>
+      <c r="J350" s="17"/>
+      <c r="K350" s="17"/>
+    </row>
+    <row r="351" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A351" s="17"/>
+      <c r="B351" s="72"/>
+      <c r="C351" s="37"/>
+      <c r="D351" s="73"/>
+      <c r="E351" s="37"/>
+      <c r="F351" s="37"/>
+      <c r="G351" s="73"/>
+      <c r="H351" s="17"/>
+      <c r="I351" s="32"/>
+      <c r="J351" s="17"/>
+      <c r="K351" s="17"/>
+    </row>
+    <row r="352" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A352" s="17"/>
+      <c r="B352" s="72"/>
+      <c r="C352" s="37"/>
+      <c r="D352" s="73"/>
+      <c r="E352" s="37"/>
+      <c r="F352" s="37"/>
+      <c r="G352" s="73"/>
+      <c r="H352" s="17"/>
+      <c r="I352" s="32"/>
+      <c r="J352" s="17"/>
+      <c r="K352" s="17"/>
+    </row>
+    <row r="353" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A353" s="17"/>
+      <c r="B353" s="72"/>
+      <c r="C353" s="37"/>
+      <c r="D353" s="73"/>
+      <c r="E353" s="37"/>
+      <c r="F353" s="37"/>
+      <c r="G353" s="73"/>
+      <c r="H353" s="17"/>
+      <c r="I353" s="32"/>
+      <c r="J353" s="17"/>
+      <c r="K353" s="17"/>
+    </row>
+    <row r="354" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A354" s="17"/>
+      <c r="B354" s="72"/>
+      <c r="C354" s="37"/>
+      <c r="D354" s="73"/>
+      <c r="E354" s="37"/>
+      <c r="F354" s="37"/>
+      <c r="G354" s="73"/>
+      <c r="H354" s="17"/>
+      <c r="I354" s="32"/>
+      <c r="J354" s="17"/>
+      <c r="K354" s="17"/>
+    </row>
+    <row r="355" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A355" s="17"/>
+      <c r="B355" s="72"/>
+      <c r="C355" s="37"/>
+      <c r="D355" s="73"/>
+      <c r="E355" s="37"/>
+      <c r="F355" s="37"/>
+      <c r="G355" s="73"/>
+      <c r="H355" s="17"/>
+      <c r="I355" s="32"/>
+      <c r="J355" s="17"/>
+      <c r="K355" s="17"/>
+    </row>
+    <row r="356" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A356" s="17"/>
+      <c r="B356" s="72"/>
+      <c r="C356" s="37"/>
+      <c r="D356" s="73"/>
+      <c r="E356" s="37"/>
+      <c r="F356" s="37"/>
+      <c r="G356" s="73"/>
+      <c r="H356" s="17"/>
+      <c r="I356" s="32"/>
+      <c r="J356" s="17"/>
+      <c r="K356" s="17"/>
+    </row>
+    <row r="357" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A357" s="17"/>
+      <c r="B357" s="72"/>
+      <c r="C357" s="37"/>
+      <c r="D357" s="73"/>
+      <c r="E357" s="37"/>
+      <c r="F357" s="37"/>
+      <c r="G357" s="73"/>
+      <c r="H357" s="17"/>
+      <c r="I357" s="32"/>
+      <c r="J357" s="17"/>
+      <c r="K357" s="17"/>
+    </row>
+    <row r="358" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A358" s="17"/>
+      <c r="B358" s="72"/>
+      <c r="C358" s="37"/>
+      <c r="D358" s="73"/>
+      <c r="E358" s="37"/>
+      <c r="F358" s="37"/>
+      <c r="G358" s="73"/>
+      <c r="H358" s="17"/>
+      <c r="I358" s="32"/>
+      <c r="J358" s="17"/>
+      <c r="K358" s="17"/>
+    </row>
+    <row r="359" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A359" s="17"/>
+      <c r="B359" s="72"/>
+      <c r="C359" s="37"/>
+      <c r="D359" s="73"/>
+      <c r="E359" s="37"/>
+      <c r="F359" s="37"/>
+      <c r="G359" s="73"/>
+      <c r="H359" s="17"/>
+      <c r="I359" s="32"/>
+      <c r="J359" s="17"/>
+      <c r="K359" s="17"/>
+    </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="F187:F192"/>
-    <mergeCell ref="F196:F197"/>
-    <mergeCell ref="D201:D214"/>
-    <mergeCell ref="E201:E214"/>
-    <mergeCell ref="E174:E185"/>
-    <mergeCell ref="D174:D185"/>
-    <mergeCell ref="D187:D198"/>
-    <mergeCell ref="E187:E198"/>
-    <mergeCell ref="D140:D151"/>
-    <mergeCell ref="E140:E151"/>
-    <mergeCell ref="D152:D163"/>
-    <mergeCell ref="F152:F163"/>
-    <mergeCell ref="D164:D173"/>
+  <mergeCells count="42">
+    <mergeCell ref="F129:F140"/>
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="D114:D125"/>
+    <mergeCell ref="E114:E125"/>
+    <mergeCell ref="D129:D140"/>
+    <mergeCell ref="E129:E140"/>
+    <mergeCell ref="D98:D108"/>
+    <mergeCell ref="E98:E108"/>
+    <mergeCell ref="D79:D94"/>
+    <mergeCell ref="D42:D53"/>
+    <mergeCell ref="E42:E53"/>
+    <mergeCell ref="E66:E77"/>
+    <mergeCell ref="E79:E94"/>
+    <mergeCell ref="D66:D77"/>
     <mergeCell ref="F66:F77"/>
     <mergeCell ref="D54:D65"/>
     <mergeCell ref="E54:E65"/>
@@ -22108,18 +22644,19 @@
     <mergeCell ref="D20:D31"/>
     <mergeCell ref="D32:D41"/>
     <mergeCell ref="F42:F53"/>
-    <mergeCell ref="D98:D108"/>
-    <mergeCell ref="E98:E108"/>
-    <mergeCell ref="D79:D94"/>
-    <mergeCell ref="D42:D53"/>
-    <mergeCell ref="E42:E53"/>
-    <mergeCell ref="E66:E77"/>
-    <mergeCell ref="E79:E94"/>
-    <mergeCell ref="D66:D77"/>
-    <mergeCell ref="D130:D131"/>
-    <mergeCell ref="E130:E131"/>
-    <mergeCell ref="D114:D125"/>
-    <mergeCell ref="E114:E125"/>
+    <mergeCell ref="D153:D164"/>
+    <mergeCell ref="E153:E164"/>
+    <mergeCell ref="D165:D176"/>
+    <mergeCell ref="F165:F176"/>
+    <mergeCell ref="D177:D186"/>
+    <mergeCell ref="F200:F205"/>
+    <mergeCell ref="F209:F210"/>
+    <mergeCell ref="D214:D227"/>
+    <mergeCell ref="E214:E227"/>
+    <mergeCell ref="E187:E198"/>
+    <mergeCell ref="D187:D198"/>
+    <mergeCell ref="D200:D211"/>
+    <mergeCell ref="E200:E211"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/testcase_account_ver3.xlsx
+++ b/testcase_account_ver3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\7-Programming-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58890029-5DDD-4688-9030-3032F25D0726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEEFB2D2-5592-419E-BB0E-5AE53FCBA3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="888" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1965" uniqueCount="516">
   <si>
     <t>作成者</t>
   </si>
@@ -9441,28 +9441,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「戻って修正する」になってしまっているので、「前に戻る」ボタンへ変更が必要。</t>
-    <rPh sb="1" eb="2">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>アカウント削除確認画面
 から
 アカウント削除画面</t>
@@ -9547,10 +9525,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「戻って修正する」になってしまっているので、「前に戻る」ボタンへ変更が必要。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>アカウント更新確認画面の画面下にある「前に戻る」ボタンを押す。</t>
     <rPh sb="5" eb="7">
       <t>コウシン</t>
@@ -9575,6 +9549,321 @@
     </rPh>
     <rPh sb="28" eb="29">
       <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除画面
+から
+トップページ</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除確認画面
+から
+トップページ</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除完了画面で上の「トップ」と書かれたリンクを押す。</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除画面で上の「トップ」と書かれたリンクを押す。</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除確認画面で上の「トップ」と書かれたリンクを押す。</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除確認画面からトップページへ遷移する。</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除画面からトップページへ遷移する。</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新画面
+から
+トップページ</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新確認画面
+から
+トップページ</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新完了画面
+から
+トップページ</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新画面で上の「トップ」と書かれたリンクを押す。</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新確認画面で上の「トップ」と書かれたリンクを押す。</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新完了画面で上の「トップ」と書かれたリンクを押す。</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新画面からトップページへ遷移する。</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新確認画面からトップページへ遷移する。</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新完了画面からトップページへ遷移する。</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8/31：「戻って修正する」になってしまっているので、「前に戻る」ボタンへ変更が必要。</t>
+    <rPh sb="6" eb="7">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8/31：「戻って修正する」になってしまっているので、「前に戻る」ボタンへ表示の変更が必要。</t>
+    <rPh sb="37" eb="39">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9/1：リンク付けができていなかったため、リンク付けを行う。</t>
+    <rPh sb="7" eb="8">
+      <t>ヅ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヅ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -10200,6 +10489,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -10217,15 +10512,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -10257,6 +10543,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -10266,12 +10573,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -10280,18 +10581,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -10666,12 +10955,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
       <c r="E1" s="53" t="s">
         <v>2</v>
       </c>
@@ -10694,10 +10983,10 @@
       <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A2" s="106"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
       <c r="E2" s="53" t="s">
         <v>3</v>
       </c>
@@ -11011,7 +11300,7 @@
       <c r="F12" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="101" t="s">
+      <c r="G12" s="100" t="s">
         <v>107</v>
       </c>
       <c r="H12" s="68">
@@ -11041,7 +11330,7 @@
       <c r="F13" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="102"/>
+      <c r="G13" s="101"/>
       <c r="H13" s="60">
         <v>44354</v>
       </c>
@@ -11069,7 +11358,7 @@
       <c r="F14" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="102"/>
+      <c r="G14" s="101"/>
       <c r="H14" s="60">
         <v>44354</v>
       </c>
@@ -11097,7 +11386,7 @@
       <c r="F15" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="102"/>
+      <c r="G15" s="101"/>
       <c r="H15" s="68">
         <v>44354</v>
       </c>
@@ -11125,7 +11414,7 @@
       <c r="F16" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="102"/>
+      <c r="G16" s="101"/>
       <c r="H16" s="60">
         <v>44354</v>
       </c>
@@ -11153,7 +11442,7 @@
       <c r="F17" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="102"/>
+      <c r="G17" s="101"/>
       <c r="H17" s="60">
         <v>44354</v>
       </c>
@@ -11181,7 +11470,7 @@
       <c r="F18" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="102"/>
+      <c r="G18" s="101"/>
       <c r="H18" s="68">
         <v>44354</v>
       </c>
@@ -11209,7 +11498,7 @@
       <c r="F19" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="102"/>
+      <c r="G19" s="101"/>
       <c r="H19" s="60">
         <v>44354</v>
       </c>
@@ -11237,7 +11526,7 @@
       <c r="F20" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="102"/>
+      <c r="G20" s="101"/>
       <c r="H20" s="60">
         <v>44354</v>
       </c>
@@ -11265,7 +11554,7 @@
       <c r="F21" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="102"/>
+      <c r="G21" s="101"/>
       <c r="H21" s="68">
         <v>44354</v>
       </c>
@@ -11293,7 +11582,7 @@
       <c r="F22" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="102"/>
+      <c r="G22" s="101"/>
       <c r="H22" s="60">
         <v>44354</v>
       </c>
@@ -11321,7 +11610,7 @@
       <c r="F23" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="103"/>
+      <c r="G23" s="102"/>
       <c r="H23" s="60">
         <v>44354</v>
       </c>
@@ -11779,7 +12068,7 @@
       <c r="F38" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="G38" s="95" t="s">
+      <c r="G38" s="97" t="s">
         <v>110</v>
       </c>
       <c r="H38" s="68">
@@ -11809,7 +12098,7 @@
       <c r="F39" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="G39" s="96"/>
+      <c r="G39" s="98"/>
       <c r="H39" s="68">
         <v>44354</v>
       </c>
@@ -11837,7 +12126,7 @@
       <c r="F40" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="G40" s="96"/>
+      <c r="G40" s="98"/>
       <c r="H40" s="68">
         <v>44354</v>
       </c>
@@ -11865,7 +12154,7 @@
       <c r="F41" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="G41" s="96"/>
+      <c r="G41" s="98"/>
       <c r="H41" s="68">
         <v>44354</v>
       </c>
@@ -11893,7 +12182,7 @@
       <c r="F42" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="G42" s="97"/>
+      <c r="G42" s="99"/>
       <c r="H42" s="68">
         <v>44354</v>
       </c>
@@ -12045,7 +12334,7 @@
       <c r="F47" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="G47" s="95" t="s">
+      <c r="G47" s="97" t="s">
         <v>110</v>
       </c>
       <c r="H47" s="68">
@@ -12075,7 +12364,7 @@
       <c r="F48" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="G48" s="97"/>
+      <c r="G48" s="99"/>
       <c r="H48" s="68">
         <v>44354</v>
       </c>
@@ -12356,7 +12645,7 @@
       <c r="E57" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F57" s="101" t="s">
+      <c r="F57" s="100" t="s">
         <v>232</v>
       </c>
       <c r="G57" s="32" t="s">
@@ -12388,7 +12677,7 @@
       <c r="E58" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F58" s="102"/>
+      <c r="F58" s="101"/>
       <c r="G58" s="32" t="s">
         <v>233</v>
       </c>
@@ -12415,10 +12704,10 @@
       <c r="D59" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="E59" s="108" t="s">
+      <c r="E59" s="107" t="s">
         <v>55</v>
       </c>
-      <c r="F59" s="102"/>
+      <c r="F59" s="101"/>
       <c r="G59" s="37" t="s">
         <v>260</v>
       </c>
@@ -12443,8 +12732,8 @@
       <c r="D60" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E60" s="109"/>
-      <c r="F60" s="102"/>
+      <c r="E60" s="108"/>
+      <c r="F60" s="101"/>
       <c r="G60" s="37" t="s">
         <v>261</v>
       </c>
@@ -12469,8 +12758,8 @@
       <c r="D61" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E61" s="109"/>
-      <c r="F61" s="102"/>
+      <c r="E61" s="108"/>
+      <c r="F61" s="101"/>
       <c r="G61" s="37" t="s">
         <v>262</v>
       </c>
@@ -12495,8 +12784,8 @@
       <c r="D62" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E62" s="109"/>
-      <c r="F62" s="102"/>
+      <c r="E62" s="108"/>
+      <c r="F62" s="101"/>
       <c r="G62" s="37" t="s">
         <v>263</v>
       </c>
@@ -12521,8 +12810,8 @@
       <c r="D63" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E63" s="109"/>
-      <c r="F63" s="102"/>
+      <c r="E63" s="108"/>
+      <c r="F63" s="101"/>
       <c r="G63" s="37" t="s">
         <v>264</v>
       </c>
@@ -12547,8 +12836,8 @@
       <c r="D64" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E64" s="109"/>
-      <c r="F64" s="102"/>
+      <c r="E64" s="108"/>
+      <c r="F64" s="101"/>
       <c r="G64" s="37" t="s">
         <v>265</v>
       </c>
@@ -12573,8 +12862,8 @@
       <c r="D65" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E65" s="109"/>
-      <c r="F65" s="102"/>
+      <c r="E65" s="108"/>
+      <c r="F65" s="101"/>
       <c r="G65" s="31" t="s">
         <v>272</v>
       </c>
@@ -12599,8 +12888,8 @@
       <c r="D66" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E66" s="109"/>
-      <c r="F66" s="102"/>
+      <c r="E66" s="108"/>
+      <c r="F66" s="101"/>
       <c r="G66" s="31" t="s">
         <v>273</v>
       </c>
@@ -12625,8 +12914,8 @@
       <c r="D67" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="E67" s="109"/>
-      <c r="F67" s="102"/>
+      <c r="E67" s="108"/>
+      <c r="F67" s="101"/>
       <c r="G67" s="31" t="s">
         <v>274</v>
       </c>
@@ -12651,8 +12940,8 @@
       <c r="D68" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="E68" s="109"/>
-      <c r="F68" s="102"/>
+      <c r="E68" s="108"/>
+      <c r="F68" s="101"/>
       <c r="G68" s="31" t="s">
         <v>275</v>
       </c>
@@ -12677,8 +12966,8 @@
       <c r="D69" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="E69" s="109"/>
-      <c r="F69" s="102"/>
+      <c r="E69" s="108"/>
+      <c r="F69" s="101"/>
       <c r="G69" s="31" t="s">
         <v>275</v>
       </c>
@@ -12703,8 +12992,8 @@
       <c r="D70" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="E70" s="109"/>
-      <c r="F70" s="102"/>
+      <c r="E70" s="108"/>
+      <c r="F70" s="101"/>
       <c r="G70" s="31" t="s">
         <v>270</v>
       </c>
@@ -12729,8 +13018,8 @@
       <c r="D71" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="E71" s="110"/>
-      <c r="F71" s="103"/>
+      <c r="E71" s="109"/>
+      <c r="F71" s="102"/>
       <c r="G71" s="31" t="s">
         <v>271</v>
       </c>
@@ -12791,10 +13080,10 @@
       <c r="D73" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E73" s="92" t="s">
+      <c r="E73" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="F73" s="95" t="s">
+      <c r="F73" s="97" t="s">
         <v>277</v>
       </c>
       <c r="G73" s="31" t="s">
@@ -12821,8 +13110,8 @@
       <c r="D74" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E74" s="93"/>
-      <c r="F74" s="96"/>
+      <c r="E74" s="95"/>
+      <c r="F74" s="98"/>
       <c r="G74" s="31" t="s">
         <v>280</v>
       </c>
@@ -12847,8 +13136,8 @@
       <c r="D75" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="93"/>
-      <c r="F75" s="96"/>
+      <c r="E75" s="95"/>
+      <c r="F75" s="98"/>
       <c r="G75" s="31" t="s">
         <v>281</v>
       </c>
@@ -12873,8 +13162,8 @@
       <c r="D76" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E76" s="93"/>
-      <c r="F76" s="96"/>
+      <c r="E76" s="95"/>
+      <c r="F76" s="98"/>
       <c r="G76" s="31" t="s">
         <v>282</v>
       </c>
@@ -12899,8 +13188,8 @@
       <c r="D77" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E77" s="93"/>
-      <c r="F77" s="96"/>
+      <c r="E77" s="95"/>
+      <c r="F77" s="98"/>
       <c r="G77" s="31" t="s">
         <v>283</v>
       </c>
@@ -12925,8 +13214,8 @@
       <c r="D78" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E78" s="93"/>
-      <c r="F78" s="96"/>
+      <c r="E78" s="95"/>
+      <c r="F78" s="98"/>
       <c r="G78" s="31" t="s">
         <v>284</v>
       </c>
@@ -12951,8 +13240,8 @@
       <c r="D79" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E79" s="93"/>
-      <c r="F79" s="96"/>
+      <c r="E79" s="95"/>
+      <c r="F79" s="98"/>
       <c r="G79" s="31" t="s">
         <v>289</v>
       </c>
@@ -12977,8 +13266,8 @@
       <c r="D80" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E80" s="93"/>
-      <c r="F80" s="96"/>
+      <c r="E80" s="95"/>
+      <c r="F80" s="98"/>
       <c r="G80" s="31" t="s">
         <v>285</v>
       </c>
@@ -13003,8 +13292,8 @@
       <c r="D81" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E81" s="93"/>
-      <c r="F81" s="96"/>
+      <c r="E81" s="95"/>
+      <c r="F81" s="98"/>
       <c r="G81" s="31" t="s">
         <v>290</v>
       </c>
@@ -13029,8 +13318,8 @@
       <c r="D82" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E82" s="93"/>
-      <c r="F82" s="96"/>
+      <c r="E82" s="95"/>
+      <c r="F82" s="98"/>
       <c r="G82" s="31" t="s">
         <v>286</v>
       </c>
@@ -13055,8 +13344,8 @@
       <c r="D83" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E83" s="93"/>
-      <c r="F83" s="96"/>
+      <c r="E83" s="95"/>
+      <c r="F83" s="98"/>
       <c r="G83" s="31" t="s">
         <v>287</v>
       </c>
@@ -13081,8 +13370,8 @@
       <c r="D84" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E84" s="94"/>
-      <c r="F84" s="97"/>
+      <c r="E84" s="96"/>
+      <c r="F84" s="99"/>
       <c r="G84" s="31" t="s">
         <v>288</v>
       </c>
@@ -13141,10 +13430,10 @@
       <c r="D86" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E86" s="92" t="s">
+      <c r="E86" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="F86" s="95" t="s">
+      <c r="F86" s="97" t="s">
         <v>301</v>
       </c>
       <c r="G86" s="31" t="s">
@@ -13171,8 +13460,8 @@
       <c r="D87" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="E87" s="93"/>
-      <c r="F87" s="96"/>
+      <c r="E87" s="95"/>
+      <c r="F87" s="98"/>
       <c r="G87" s="31" t="s">
         <v>303</v>
       </c>
@@ -13197,8 +13486,8 @@
       <c r="D88" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="E88" s="93"/>
-      <c r="F88" s="96"/>
+      <c r="E88" s="95"/>
+      <c r="F88" s="98"/>
       <c r="G88" s="31" t="s">
         <v>370</v>
       </c>
@@ -13223,8 +13512,8 @@
       <c r="D89" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="E89" s="94"/>
-      <c r="F89" s="97"/>
+      <c r="E89" s="96"/>
+      <c r="F89" s="99"/>
       <c r="G89" s="31" t="s">
         <v>371</v>
       </c>
@@ -13253,10 +13542,10 @@
       <c r="D90" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="E90" s="92" t="s">
+      <c r="E90" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="F90" s="101" t="s">
+      <c r="F90" s="100" t="s">
         <v>300</v>
       </c>
       <c r="G90" s="30" t="s">
@@ -13285,8 +13574,8 @@
       <c r="D91" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="E91" s="93"/>
-      <c r="F91" s="102"/>
+      <c r="E91" s="95"/>
+      <c r="F91" s="101"/>
       <c r="G91" s="32" t="s">
         <v>298</v>
       </c>
@@ -13311,8 +13600,8 @@
       <c r="D92" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="E92" s="94"/>
-      <c r="F92" s="102"/>
+      <c r="E92" s="96"/>
+      <c r="F92" s="101"/>
       <c r="G92" s="32" t="s">
         <v>302</v>
       </c>
@@ -13344,7 +13633,7 @@
       <c r="E93" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F93" s="102"/>
+      <c r="F93" s="101"/>
       <c r="G93" s="32" t="s">
         <v>354</v>
       </c>
@@ -13372,7 +13661,7 @@
       <c r="E94" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F94" s="103"/>
+      <c r="F94" s="102"/>
       <c r="G94" s="32" t="s">
         <v>355</v>
       </c>
@@ -13465,10 +13754,10 @@
       <c r="D97" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E97" s="92" t="s">
+      <c r="E97" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="F97" s="95" t="s">
+      <c r="F97" s="97" t="s">
         <v>305</v>
       </c>
       <c r="G97" s="31" t="s">
@@ -13495,8 +13784,8 @@
       <c r="D98" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E98" s="93"/>
-      <c r="F98" s="96"/>
+      <c r="E98" s="95"/>
+      <c r="F98" s="98"/>
       <c r="G98" s="31" t="s">
         <v>310</v>
       </c>
@@ -13521,8 +13810,8 @@
       <c r="D99" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E99" s="93"/>
-      <c r="F99" s="96"/>
+      <c r="E99" s="95"/>
+      <c r="F99" s="98"/>
       <c r="G99" s="31" t="s">
         <v>309</v>
       </c>
@@ -13547,8 +13836,8 @@
       <c r="D100" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E100" s="93"/>
-      <c r="F100" s="96"/>
+      <c r="E100" s="95"/>
+      <c r="F100" s="98"/>
       <c r="G100" s="31" t="s">
         <v>308</v>
       </c>
@@ -13573,8 +13862,8 @@
       <c r="D101" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E101" s="93"/>
-      <c r="F101" s="96"/>
+      <c r="E101" s="95"/>
+      <c r="F101" s="98"/>
       <c r="G101" s="31" t="s">
         <v>311</v>
       </c>
@@ -13599,8 +13888,8 @@
       <c r="D102" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E102" s="93"/>
-      <c r="F102" s="96"/>
+      <c r="E102" s="95"/>
+      <c r="F102" s="98"/>
       <c r="G102" s="31" t="s">
         <v>312</v>
       </c>
@@ -13625,8 +13914,8 @@
       <c r="D103" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E103" s="93"/>
-      <c r="F103" s="96"/>
+      <c r="E103" s="95"/>
+      <c r="F103" s="98"/>
       <c r="G103" s="31" t="s">
         <v>319</v>
       </c>
@@ -13651,8 +13940,8 @@
       <c r="D104" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E104" s="93"/>
-      <c r="F104" s="96"/>
+      <c r="E104" s="95"/>
+      <c r="F104" s="98"/>
       <c r="G104" s="31" t="s">
         <v>314</v>
       </c>
@@ -13677,8 +13966,8 @@
       <c r="D105" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E105" s="93"/>
-      <c r="F105" s="96"/>
+      <c r="E105" s="95"/>
+      <c r="F105" s="98"/>
       <c r="G105" s="31" t="s">
         <v>315</v>
       </c>
@@ -13703,8 +13992,8 @@
       <c r="D106" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E106" s="93"/>
-      <c r="F106" s="96"/>
+      <c r="E106" s="95"/>
+      <c r="F106" s="98"/>
       <c r="G106" s="31" t="s">
         <v>316</v>
       </c>
@@ -13729,8 +14018,8 @@
       <c r="D107" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E107" s="93"/>
-      <c r="F107" s="96"/>
+      <c r="E107" s="95"/>
+      <c r="F107" s="98"/>
       <c r="G107" s="31" t="s">
         <v>317</v>
       </c>
@@ -13755,8 +14044,8 @@
       <c r="D108" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E108" s="94"/>
-      <c r="F108" s="97"/>
+      <c r="E108" s="96"/>
+      <c r="F108" s="99"/>
       <c r="G108" s="31" t="s">
         <v>318</v>
       </c>
@@ -13819,7 +14108,7 @@
       <c r="F110" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="G110" s="101" t="s">
+      <c r="G110" s="100" t="s">
         <v>107</v>
       </c>
       <c r="H110" s="68">
@@ -13849,7 +14138,7 @@
       <c r="F111" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="G111" s="102"/>
+      <c r="G111" s="101"/>
       <c r="H111" s="68">
         <v>44435</v>
       </c>
@@ -13877,7 +14166,7 @@
       <c r="F112" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="G112" s="102"/>
+      <c r="G112" s="101"/>
       <c r="H112" s="68">
         <v>44435</v>
       </c>
@@ -13905,7 +14194,7 @@
       <c r="F113" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="G113" s="102"/>
+      <c r="G113" s="101"/>
       <c r="H113" s="68">
         <v>44435</v>
       </c>
@@ -13933,7 +14222,7 @@
       <c r="F114" s="31" t="s">
         <v>326</v>
       </c>
-      <c r="G114" s="102"/>
+      <c r="G114" s="101"/>
       <c r="H114" s="68">
         <v>44435</v>
       </c>
@@ -13961,7 +14250,7 @@
       <c r="F115" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="G115" s="102"/>
+      <c r="G115" s="101"/>
       <c r="H115" s="68">
         <v>44435</v>
       </c>
@@ -13989,7 +14278,7 @@
       <c r="F116" s="31" t="s">
         <v>346</v>
       </c>
-      <c r="G116" s="102"/>
+      <c r="G116" s="101"/>
       <c r="H116" s="68">
         <v>44435</v>
       </c>
@@ -14017,7 +14306,7 @@
       <c r="F117" s="31" t="s">
         <v>327</v>
       </c>
-      <c r="G117" s="102"/>
+      <c r="G117" s="101"/>
       <c r="H117" s="68">
         <v>44435</v>
       </c>
@@ -14045,7 +14334,7 @@
       <c r="F118" s="31" t="s">
         <v>322</v>
       </c>
-      <c r="G118" s="102"/>
+      <c r="G118" s="101"/>
       <c r="H118" s="68">
         <v>44435</v>
       </c>
@@ -14073,7 +14362,7 @@
       <c r="F119" s="31" t="s">
         <v>328</v>
       </c>
-      <c r="G119" s="102"/>
+      <c r="G119" s="101"/>
       <c r="H119" s="68">
         <v>44435</v>
       </c>
@@ -14101,7 +14390,7 @@
       <c r="F120" s="31" t="s">
         <v>329</v>
       </c>
-      <c r="G120" s="102"/>
+      <c r="G120" s="101"/>
       <c r="H120" s="68">
         <v>44435</v>
       </c>
@@ -14129,7 +14418,7 @@
       <c r="F121" s="31" t="s">
         <v>321</v>
       </c>
-      <c r="G121" s="103"/>
+      <c r="G121" s="102"/>
       <c r="H121" s="68">
         <v>44435</v>
       </c>
@@ -14460,7 +14749,7 @@
       <c r="E132" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F132" s="95" t="s">
+      <c r="F132" s="97" t="s">
         <v>344</v>
       </c>
       <c r="G132" s="31" t="s">
@@ -14490,7 +14779,7 @@
       <c r="E133" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F133" s="96"/>
+      <c r="F133" s="98"/>
       <c r="G133" s="32" t="s">
         <v>108</v>
       </c>
@@ -14518,7 +14807,7 @@
       <c r="E134" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F134" s="96"/>
+      <c r="F134" s="98"/>
       <c r="G134" s="32" t="s">
         <v>109</v>
       </c>
@@ -14546,7 +14835,7 @@
       <c r="E135" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F135" s="96"/>
+      <c r="F135" s="98"/>
       <c r="G135" s="32" t="s">
         <v>112</v>
       </c>
@@ -14574,7 +14863,7 @@
       <c r="E136" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F136" s="96"/>
+      <c r="F136" s="98"/>
       <c r="G136" s="32" t="s">
         <v>113</v>
       </c>
@@ -14602,7 +14891,7 @@
       <c r="E137" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F137" s="96"/>
+      <c r="F137" s="98"/>
       <c r="G137" s="32" t="s">
         <v>114</v>
       </c>
@@ -14630,7 +14919,7 @@
       <c r="E138" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F138" s="96"/>
+      <c r="F138" s="98"/>
       <c r="G138" s="32" t="s">
         <v>111</v>
       </c>
@@ -14658,7 +14947,7 @@
       <c r="E139" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F139" s="96"/>
+      <c r="F139" s="98"/>
       <c r="G139" s="32" t="s">
         <v>115</v>
       </c>
@@ -14686,7 +14975,7 @@
       <c r="E140" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F140" s="96"/>
+      <c r="F140" s="98"/>
       <c r="G140" s="32" t="s">
         <v>431</v>
       </c>
@@ -14714,7 +15003,7 @@
       <c r="E141" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F141" s="96"/>
+      <c r="F141" s="98"/>
       <c r="G141" s="32" t="s">
         <v>432</v>
       </c>
@@ -14742,7 +15031,7 @@
       <c r="E142" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F142" s="96"/>
+      <c r="F142" s="98"/>
       <c r="G142" s="32" t="s">
         <v>433</v>
       </c>
@@ -14770,7 +15059,7 @@
       <c r="E143" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F143" s="96"/>
+      <c r="F143" s="98"/>
       <c r="G143" s="32" t="s">
         <v>434</v>
       </c>
@@ -14798,7 +15087,7 @@
       <c r="E144" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F144" s="96"/>
+      <c r="F144" s="98"/>
       <c r="G144" s="32" t="s">
         <v>116</v>
       </c>
@@ -14826,7 +15115,7 @@
       <c r="E145" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F145" s="96"/>
+      <c r="F145" s="98"/>
       <c r="G145" s="31" t="s">
         <v>347</v>
       </c>
@@ -14854,7 +15143,7 @@
       <c r="E146" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F146" s="97"/>
+      <c r="F146" s="99"/>
       <c r="G146" s="31" t="s">
         <v>348</v>
       </c>
@@ -14886,7 +15175,7 @@
       <c r="E147" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F147" s="95" t="s">
+      <c r="F147" s="97" t="s">
         <v>350</v>
       </c>
       <c r="G147" s="31" t="s">
@@ -14916,7 +15205,7 @@
       <c r="E148" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F148" s="96"/>
+      <c r="F148" s="98"/>
       <c r="G148" s="31" t="s">
         <v>352</v>
       </c>
@@ -14944,7 +15233,7 @@
       <c r="E149" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F149" s="97"/>
+      <c r="F149" s="99"/>
       <c r="G149" s="32" t="s">
         <v>302</v>
       </c>
@@ -14973,13 +15262,13 @@
       <c r="D150" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E150" s="98" t="s">
+      <c r="E150" s="110" t="s">
         <v>55</v>
       </c>
-      <c r="F150" s="95" t="s">
+      <c r="F150" s="97" t="s">
         <v>357</v>
       </c>
-      <c r="G150" s="101" t="s">
+      <c r="G150" s="100" t="s">
         <v>358</v>
       </c>
       <c r="H150" s="68">
@@ -15003,9 +15292,9 @@
       <c r="D151" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E151" s="99"/>
-      <c r="F151" s="96"/>
-      <c r="G151" s="102"/>
+      <c r="E151" s="111"/>
+      <c r="F151" s="98"/>
+      <c r="G151" s="101"/>
       <c r="H151" s="68">
         <v>44435</v>
       </c>
@@ -15027,9 +15316,9 @@
       <c r="D152" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E152" s="99"/>
-      <c r="F152" s="96"/>
-      <c r="G152" s="102"/>
+      <c r="E152" s="111"/>
+      <c r="F152" s="98"/>
+      <c r="G152" s="101"/>
       <c r="H152" s="68">
         <v>44435</v>
       </c>
@@ -15051,9 +15340,9 @@
       <c r="D153" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E153" s="99"/>
-      <c r="F153" s="96"/>
-      <c r="G153" s="102"/>
+      <c r="E153" s="111"/>
+      <c r="F153" s="98"/>
+      <c r="G153" s="101"/>
       <c r="H153" s="68">
         <v>44435</v>
       </c>
@@ -15075,9 +15364,9 @@
       <c r="D154" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E154" s="99"/>
-      <c r="F154" s="96"/>
-      <c r="G154" s="102"/>
+      <c r="E154" s="111"/>
+      <c r="F154" s="98"/>
+      <c r="G154" s="101"/>
       <c r="H154" s="68">
         <v>44435</v>
       </c>
@@ -15099,9 +15388,9 @@
       <c r="D155" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E155" s="99"/>
-      <c r="F155" s="96"/>
-      <c r="G155" s="102"/>
+      <c r="E155" s="111"/>
+      <c r="F155" s="98"/>
+      <c r="G155" s="101"/>
       <c r="H155" s="68">
         <v>44435</v>
       </c>
@@ -15123,9 +15412,9 @@
       <c r="D156" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E156" s="99"/>
-      <c r="F156" s="96"/>
-      <c r="G156" s="102"/>
+      <c r="E156" s="111"/>
+      <c r="F156" s="98"/>
+      <c r="G156" s="101"/>
       <c r="H156" s="68">
         <v>44435</v>
       </c>
@@ -15147,9 +15436,9 @@
       <c r="D157" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E157" s="99"/>
-      <c r="F157" s="96"/>
-      <c r="G157" s="102"/>
+      <c r="E157" s="111"/>
+      <c r="F157" s="98"/>
+      <c r="G157" s="101"/>
       <c r="H157" s="68">
         <v>44435</v>
       </c>
@@ -15171,9 +15460,9 @@
       <c r="D158" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E158" s="99"/>
-      <c r="F158" s="96"/>
-      <c r="G158" s="102"/>
+      <c r="E158" s="111"/>
+      <c r="F158" s="98"/>
+      <c r="G158" s="101"/>
       <c r="H158" s="68">
         <v>44435</v>
       </c>
@@ -15195,9 +15484,9 @@
       <c r="D159" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E159" s="99"/>
-      <c r="F159" s="96"/>
-      <c r="G159" s="102"/>
+      <c r="E159" s="111"/>
+      <c r="F159" s="98"/>
+      <c r="G159" s="101"/>
       <c r="H159" s="68">
         <v>44435</v>
       </c>
@@ -15219,9 +15508,9 @@
       <c r="D160" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E160" s="99"/>
-      <c r="F160" s="96"/>
-      <c r="G160" s="102"/>
+      <c r="E160" s="111"/>
+      <c r="F160" s="98"/>
+      <c r="G160" s="101"/>
       <c r="H160" s="68">
         <v>44435</v>
       </c>
@@ -15243,9 +15532,9 @@
       <c r="D161" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="E161" s="99"/>
-      <c r="F161" s="96"/>
-      <c r="G161" s="103"/>
+      <c r="E161" s="111"/>
+      <c r="F161" s="98"/>
+      <c r="G161" s="102"/>
       <c r="H161" s="68">
         <v>44435</v>
       </c>
@@ -15267,8 +15556,8 @@
       <c r="D162" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="E162" s="99"/>
-      <c r="F162" s="96"/>
+      <c r="E162" s="111"/>
+      <c r="F162" s="98"/>
       <c r="G162" s="31" t="s">
         <v>359</v>
       </c>
@@ -15293,8 +15582,8 @@
       <c r="D163" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="E163" s="100"/>
-      <c r="F163" s="97"/>
+      <c r="E163" s="112"/>
+      <c r="F163" s="99"/>
       <c r="G163" s="31" t="s">
         <v>360</v>
       </c>
@@ -15470,18 +15759,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="E73:E84"/>
-    <mergeCell ref="F73:F84"/>
-    <mergeCell ref="E86:E89"/>
-    <mergeCell ref="F86:F89"/>
-    <mergeCell ref="E90:E92"/>
-    <mergeCell ref="F90:F94"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="G12:G23"/>
-    <mergeCell ref="G38:G42"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="E59:E71"/>
-    <mergeCell ref="F57:F71"/>
     <mergeCell ref="E97:E108"/>
     <mergeCell ref="F97:F108"/>
     <mergeCell ref="E150:E163"/>
@@ -15490,6 +15767,18 @@
     <mergeCell ref="G110:G121"/>
     <mergeCell ref="F132:F146"/>
     <mergeCell ref="F147:F149"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="G12:G23"/>
+    <mergeCell ref="G38:G42"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="E59:E71"/>
+    <mergeCell ref="F57:F71"/>
+    <mergeCell ref="E73:E84"/>
+    <mergeCell ref="F73:F84"/>
+    <mergeCell ref="E86:E89"/>
+    <mergeCell ref="F86:F89"/>
+    <mergeCell ref="E90:E92"/>
+    <mergeCell ref="F90:F94"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -15500,10 +15789,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9E524B-C67B-4990-A5C3-077E8DAB7E38}">
-  <dimension ref="A1:L359"/>
+  <dimension ref="A1:L362"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B138" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G143" sqref="G143"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D234" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I241" sqref="I241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -15523,11 +15812,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="103" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="114"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="115"/>
       <c r="D1" s="53" t="s">
         <v>2</v>
       </c>
@@ -15550,9 +15839,9 @@
       <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A2" s="106"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="115"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="116"/>
       <c r="D2" s="53" t="s">
         <v>3</v>
       </c>
@@ -15579,7 +15868,7 @@
       <c r="D3" s="52"/>
       <c r="E3" s="34"/>
       <c r="F3" s="56"/>
-      <c r="G3" s="121"/>
+      <c r="G3" s="92"/>
       <c r="H3" s="5"/>
       <c r="I3" s="44"/>
       <c r="K3" s="14"/>
@@ -15720,13 +16009,13 @@
       <c r="C8" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="101" t="s">
+      <c r="D8" s="100" t="s">
         <v>204</v>
       </c>
       <c r="E8" s="80" t="s">
         <v>161</v>
       </c>
-      <c r="F8" s="101" t="s">
+      <c r="F8" s="100" t="s">
         <v>202</v>
       </c>
       <c r="G8" s="60">
@@ -15746,11 +16035,11 @@
       <c r="C9" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="102"/>
+      <c r="D9" s="101"/>
       <c r="E9" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="F9" s="102"/>
+      <c r="F9" s="101"/>
       <c r="G9" s="60">
         <v>44369</v>
       </c>
@@ -15768,11 +16057,11 @@
       <c r="C10" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="102"/>
+      <c r="D10" s="101"/>
       <c r="E10" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="102"/>
+      <c r="F10" s="101"/>
       <c r="G10" s="60">
         <v>44369</v>
       </c>
@@ -15790,11 +16079,11 @@
       <c r="C11" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="102"/>
+      <c r="D11" s="101"/>
       <c r="E11" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="102"/>
+      <c r="F11" s="101"/>
       <c r="G11" s="60">
         <v>44369</v>
       </c>
@@ -15812,11 +16101,11 @@
       <c r="C12" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="102"/>
+      <c r="D12" s="101"/>
       <c r="E12" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="102"/>
+      <c r="F12" s="101"/>
       <c r="G12" s="60">
         <v>44369</v>
       </c>
@@ -15834,11 +16123,11 @@
       <c r="C13" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="102"/>
+      <c r="D13" s="101"/>
       <c r="E13" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="102"/>
+      <c r="F13" s="101"/>
       <c r="G13" s="60">
         <v>44369</v>
       </c>
@@ -15856,11 +16145,11 @@
       <c r="C14" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="102"/>
+      <c r="D14" s="101"/>
       <c r="E14" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="102"/>
+      <c r="F14" s="101"/>
       <c r="G14" s="60">
         <v>44369</v>
       </c>
@@ -15878,11 +16167,11 @@
       <c r="C15" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="102"/>
+      <c r="D15" s="101"/>
       <c r="E15" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="102"/>
+      <c r="F15" s="101"/>
       <c r="G15" s="60">
         <v>44369</v>
       </c>
@@ -15900,11 +16189,11 @@
       <c r="C16" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="102"/>
+      <c r="D16" s="101"/>
       <c r="E16" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="102"/>
+      <c r="F16" s="101"/>
       <c r="G16" s="60">
         <v>44369</v>
       </c>
@@ -15922,11 +16211,11 @@
       <c r="C17" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="102"/>
+      <c r="D17" s="101"/>
       <c r="E17" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="102"/>
+      <c r="F17" s="101"/>
       <c r="G17" s="60">
         <v>44369</v>
       </c>
@@ -15944,11 +16233,11 @@
       <c r="C18" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="102"/>
+      <c r="D18" s="101"/>
       <c r="E18" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="102"/>
+      <c r="F18" s="101"/>
       <c r="G18" s="60">
         <v>44369</v>
       </c>
@@ -15966,11 +16255,11 @@
       <c r="C19" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="103"/>
+      <c r="D19" s="102"/>
       <c r="E19" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="103"/>
+      <c r="F19" s="102"/>
       <c r="G19" s="60">
         <v>44369</v>
       </c>
@@ -15991,13 +16280,13 @@
       <c r="C20" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="101" t="s">
+      <c r="D20" s="100" t="s">
         <v>203</v>
       </c>
-      <c r="E20" s="116" t="s">
+      <c r="E20" s="120" t="s">
         <v>201</v>
       </c>
-      <c r="F20" s="101" t="s">
+      <c r="F20" s="100" t="s">
         <v>188</v>
       </c>
       <c r="G20" s="60">
@@ -16020,9 +16309,9 @@
       <c r="C21" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="102"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="102"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="101"/>
       <c r="G21" s="60">
         <v>44369</v>
       </c>
@@ -16043,9 +16332,9 @@
       <c r="C22" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="102"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="102"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="121"/>
+      <c r="F22" s="101"/>
       <c r="G22" s="60">
         <v>44369</v>
       </c>
@@ -16066,9 +16355,9 @@
       <c r="C23" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="102"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="102"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="121"/>
+      <c r="F23" s="101"/>
       <c r="G23" s="60">
         <v>44369</v>
       </c>
@@ -16089,9 +16378,9 @@
       <c r="C24" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="102"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="103"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="121"/>
+      <c r="F24" s="102"/>
       <c r="G24" s="60">
         <v>44369</v>
       </c>
@@ -16112,8 +16401,8 @@
       <c r="C25" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="102"/>
-      <c r="E25" s="117"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="121"/>
       <c r="F25" s="31" t="s">
         <v>186</v>
       </c>
@@ -16137,9 +16426,9 @@
       <c r="C26" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="102"/>
-      <c r="E26" s="117"/>
-      <c r="F26" s="101" t="s">
+      <c r="D26" s="101"/>
+      <c r="E26" s="121"/>
+      <c r="F26" s="100" t="s">
         <v>187</v>
       </c>
       <c r="G26" s="60">
@@ -16162,9 +16451,9 @@
       <c r="C27" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="102"/>
-      <c r="E27" s="117"/>
-      <c r="F27" s="102"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="121"/>
+      <c r="F27" s="101"/>
       <c r="G27" s="60">
         <v>44369</v>
       </c>
@@ -16185,9 +16474,9 @@
       <c r="C28" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="102"/>
-      <c r="E28" s="117"/>
-      <c r="F28" s="102"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="121"/>
+      <c r="F28" s="101"/>
       <c r="G28" s="60">
         <v>44369</v>
       </c>
@@ -16208,9 +16497,9 @@
       <c r="C29" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="102"/>
-      <c r="E29" s="117"/>
-      <c r="F29" s="102"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="121"/>
+      <c r="F29" s="101"/>
       <c r="G29" s="60">
         <v>44369</v>
       </c>
@@ -16231,9 +16520,9 @@
       <c r="C30" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="102"/>
-      <c r="E30" s="117"/>
-      <c r="F30" s="102"/>
+      <c r="D30" s="101"/>
+      <c r="E30" s="121"/>
+      <c r="F30" s="101"/>
       <c r="G30" s="60">
         <v>44369</v>
       </c>
@@ -16254,9 +16543,9 @@
       <c r="C31" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="103"/>
-      <c r="E31" s="118"/>
-      <c r="F31" s="103"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="122"/>
+      <c r="F31" s="102"/>
       <c r="G31" s="60">
         <v>44369</v>
       </c>
@@ -16279,7 +16568,7 @@
       <c r="C32" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="101" t="s">
+      <c r="D32" s="100" t="s">
         <v>219</v>
       </c>
       <c r="E32" s="31" t="s">
@@ -16308,7 +16597,7 @@
       <c r="C33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="102"/>
+      <c r="D33" s="101"/>
       <c r="E33" s="31" t="s">
         <v>168</v>
       </c>
@@ -16335,7 +16624,7 @@
       <c r="C34" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="102"/>
+      <c r="D34" s="101"/>
       <c r="E34" s="31" t="s">
         <v>169</v>
       </c>
@@ -16362,7 +16651,7 @@
       <c r="C35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="102"/>
+      <c r="D35" s="101"/>
       <c r="E35" s="31" t="s">
         <v>169</v>
       </c>
@@ -16389,7 +16678,7 @@
       <c r="C36" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="102"/>
+      <c r="D36" s="101"/>
       <c r="E36" s="31" t="s">
         <v>170</v>
       </c>
@@ -16416,7 +16705,7 @@
       <c r="C37" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="102"/>
+      <c r="D37" s="101"/>
       <c r="E37" s="31" t="s">
         <v>171</v>
       </c>
@@ -16443,7 +16732,7 @@
       <c r="C38" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="102"/>
+      <c r="D38" s="101"/>
       <c r="E38" s="31" t="s">
         <v>172</v>
       </c>
@@ -16470,7 +16759,7 @@
       <c r="C39" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="102"/>
+      <c r="D39" s="101"/>
       <c r="E39" s="31" t="s">
         <v>173</v>
       </c>
@@ -16497,7 +16786,7 @@
       <c r="C40" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="102"/>
+      <c r="D40" s="101"/>
       <c r="E40" s="31" t="s">
         <v>174</v>
       </c>
@@ -16524,7 +16813,7 @@
       <c r="C41" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="103"/>
+      <c r="D41" s="102"/>
       <c r="E41" s="31" t="s">
         <v>175</v>
       </c>
@@ -16553,13 +16842,13 @@
       <c r="C42" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="101" t="s">
+      <c r="D42" s="100" t="s">
         <v>207</v>
       </c>
-      <c r="E42" s="95" t="s">
+      <c r="E42" s="97" t="s">
         <v>223</v>
       </c>
-      <c r="F42" s="95" t="s">
+      <c r="F42" s="97" t="s">
         <v>206</v>
       </c>
       <c r="G42" s="60">
@@ -16582,9 +16871,9 @@
       <c r="C43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="99"/>
-      <c r="E43" s="96"/>
-      <c r="F43" s="96"/>
+      <c r="D43" s="111"/>
+      <c r="E43" s="98"/>
+      <c r="F43" s="98"/>
       <c r="G43" s="60">
         <v>44369</v>
       </c>
@@ -16605,9 +16894,9 @@
       <c r="C44" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="99"/>
-      <c r="E44" s="96"/>
-      <c r="F44" s="96"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="98"/>
+      <c r="F44" s="98"/>
       <c r="G44" s="60">
         <v>44369</v>
       </c>
@@ -16628,9 +16917,9 @@
       <c r="C45" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="99"/>
-      <c r="E45" s="96"/>
-      <c r="F45" s="96"/>
+      <c r="D45" s="111"/>
+      <c r="E45" s="98"/>
+      <c r="F45" s="98"/>
       <c r="G45" s="60">
         <v>44369</v>
       </c>
@@ -16651,9 +16940,9 @@
       <c r="C46" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="99"/>
-      <c r="E46" s="96"/>
-      <c r="F46" s="96"/>
+      <c r="D46" s="111"/>
+      <c r="E46" s="98"/>
+      <c r="F46" s="98"/>
       <c r="G46" s="60">
         <v>44369</v>
       </c>
@@ -16674,9 +16963,9 @@
       <c r="C47" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="99"/>
-      <c r="E47" s="96"/>
-      <c r="F47" s="96"/>
+      <c r="D47" s="111"/>
+      <c r="E47" s="98"/>
+      <c r="F47" s="98"/>
       <c r="G47" s="60">
         <v>44369</v>
       </c>
@@ -16697,9 +16986,9 @@
       <c r="C48" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="99"/>
-      <c r="E48" s="96"/>
-      <c r="F48" s="96"/>
+      <c r="D48" s="111"/>
+      <c r="E48" s="98"/>
+      <c r="F48" s="98"/>
       <c r="G48" s="60">
         <v>44369</v>
       </c>
@@ -16720,9 +17009,9 @@
       <c r="C49" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D49" s="99"/>
-      <c r="E49" s="96"/>
-      <c r="F49" s="96"/>
+      <c r="D49" s="111"/>
+      <c r="E49" s="98"/>
+      <c r="F49" s="98"/>
       <c r="G49" s="60">
         <v>44369</v>
       </c>
@@ -16743,9 +17032,9 @@
       <c r="C50" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="99"/>
-      <c r="E50" s="96"/>
-      <c r="F50" s="96"/>
+      <c r="D50" s="111"/>
+      <c r="E50" s="98"/>
+      <c r="F50" s="98"/>
       <c r="G50" s="60">
         <v>44369</v>
       </c>
@@ -16766,9 +17055,9 @@
       <c r="C51" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D51" s="99"/>
-      <c r="E51" s="96"/>
-      <c r="F51" s="96"/>
+      <c r="D51" s="111"/>
+      <c r="E51" s="98"/>
+      <c r="F51" s="98"/>
       <c r="G51" s="60">
         <v>44369</v>
       </c>
@@ -16789,9 +17078,9 @@
       <c r="C52" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="99"/>
-      <c r="E52" s="96"/>
-      <c r="F52" s="96"/>
+      <c r="D52" s="111"/>
+      <c r="E52" s="98"/>
+      <c r="F52" s="98"/>
       <c r="G52" s="60">
         <v>44369</v>
       </c>
@@ -16812,9 +17101,9 @@
       <c r="C53" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="100"/>
-      <c r="E53" s="97"/>
-      <c r="F53" s="97"/>
+      <c r="D53" s="112"/>
+      <c r="E53" s="99"/>
+      <c r="F53" s="99"/>
       <c r="G53" s="60">
         <v>44369</v>
       </c>
@@ -16837,13 +17126,13 @@
       <c r="C54" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="101" t="s">
+      <c r="D54" s="100" t="s">
         <v>205</v>
       </c>
-      <c r="E54" s="95" t="s">
+      <c r="E54" s="97" t="s">
         <v>223</v>
       </c>
-      <c r="F54" s="111" t="s">
+      <c r="F54" s="117" t="s">
         <v>178</v>
       </c>
       <c r="G54" s="60">
@@ -16866,9 +17155,9 @@
       <c r="C55" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="99"/>
-      <c r="E55" s="96"/>
-      <c r="F55" s="112"/>
+      <c r="D55" s="111"/>
+      <c r="E55" s="98"/>
+      <c r="F55" s="118"/>
       <c r="G55" s="60">
         <v>44369</v>
       </c>
@@ -16889,9 +17178,9 @@
       <c r="C56" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="99"/>
-      <c r="E56" s="96"/>
-      <c r="F56" s="112"/>
+      <c r="D56" s="111"/>
+      <c r="E56" s="98"/>
+      <c r="F56" s="118"/>
       <c r="G56" s="60">
         <v>44369</v>
       </c>
@@ -16912,9 +17201,9 @@
       <c r="C57" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="99"/>
-      <c r="E57" s="96"/>
-      <c r="F57" s="112"/>
+      <c r="D57" s="111"/>
+      <c r="E57" s="98"/>
+      <c r="F57" s="118"/>
       <c r="G57" s="60">
         <v>44369</v>
       </c>
@@ -16935,9 +17224,9 @@
       <c r="C58" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="99"/>
-      <c r="E58" s="96"/>
-      <c r="F58" s="112"/>
+      <c r="D58" s="111"/>
+      <c r="E58" s="98"/>
+      <c r="F58" s="118"/>
       <c r="G58" s="60">
         <v>44369</v>
       </c>
@@ -16958,9 +17247,9 @@
       <c r="C59" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D59" s="99"/>
-      <c r="E59" s="96"/>
-      <c r="F59" s="113"/>
+      <c r="D59" s="111"/>
+      <c r="E59" s="98"/>
+      <c r="F59" s="119"/>
       <c r="G59" s="60">
         <v>44369</v>
       </c>
@@ -16981,8 +17270,8 @@
       <c r="C60" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="99"/>
-      <c r="E60" s="96"/>
+      <c r="D60" s="111"/>
+      <c r="E60" s="98"/>
       <c r="F60" s="32" t="s">
         <v>179</v>
       </c>
@@ -17006,8 +17295,8 @@
       <c r="C61" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="99"/>
-      <c r="E61" s="96"/>
+      <c r="D61" s="111"/>
+      <c r="E61" s="98"/>
       <c r="F61" s="32" t="s">
         <v>182</v>
       </c>
@@ -17031,8 +17320,8 @@
       <c r="C62" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D62" s="99"/>
-      <c r="E62" s="96"/>
+      <c r="D62" s="111"/>
+      <c r="E62" s="98"/>
       <c r="F62" s="32" t="s">
         <v>181</v>
       </c>
@@ -17056,9 +17345,9 @@
       <c r="C63" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D63" s="99"/>
-      <c r="E63" s="96"/>
-      <c r="F63" s="111" t="s">
+      <c r="D63" s="111"/>
+      <c r="E63" s="98"/>
+      <c r="F63" s="117" t="s">
         <v>182</v>
       </c>
       <c r="G63" s="60">
@@ -17081,9 +17370,9 @@
       <c r="C64" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D64" s="99"/>
-      <c r="E64" s="96"/>
-      <c r="F64" s="113"/>
+      <c r="D64" s="111"/>
+      <c r="E64" s="98"/>
+      <c r="F64" s="119"/>
       <c r="G64" s="60">
         <v>44369</v>
       </c>
@@ -17104,8 +17393,8 @@
       <c r="C65" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D65" s="100"/>
-      <c r="E65" s="97"/>
+      <c r="D65" s="112"/>
+      <c r="E65" s="99"/>
       <c r="F65" s="32" t="s">
         <v>180</v>
       </c>
@@ -17131,13 +17420,13 @@
       <c r="C66" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="101" t="s">
+      <c r="D66" s="100" t="s">
         <v>221</v>
       </c>
-      <c r="E66" s="101" t="s">
+      <c r="E66" s="100" t="s">
         <v>163</v>
       </c>
-      <c r="F66" s="95" t="s">
+      <c r="F66" s="97" t="s">
         <v>164</v>
       </c>
       <c r="G66" s="60">
@@ -17160,9 +17449,9 @@
       <c r="C67" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="99"/>
-      <c r="E67" s="102"/>
-      <c r="F67" s="96"/>
+      <c r="D67" s="111"/>
+      <c r="E67" s="101"/>
+      <c r="F67" s="98"/>
       <c r="G67" s="60">
         <v>44369</v>
       </c>
@@ -17183,9 +17472,9 @@
       <c r="C68" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D68" s="99"/>
-      <c r="E68" s="102"/>
-      <c r="F68" s="96"/>
+      <c r="D68" s="111"/>
+      <c r="E68" s="101"/>
+      <c r="F68" s="98"/>
       <c r="G68" s="60">
         <v>44369</v>
       </c>
@@ -17206,9 +17495,9 @@
       <c r="C69" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D69" s="99"/>
-      <c r="E69" s="102"/>
-      <c r="F69" s="96"/>
+      <c r="D69" s="111"/>
+      <c r="E69" s="101"/>
+      <c r="F69" s="98"/>
       <c r="G69" s="60">
         <v>44369</v>
       </c>
@@ -17229,9 +17518,9 @@
       <c r="C70" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="99"/>
-      <c r="E70" s="102"/>
-      <c r="F70" s="96"/>
+      <c r="D70" s="111"/>
+      <c r="E70" s="101"/>
+      <c r="F70" s="98"/>
       <c r="G70" s="60">
         <v>44369</v>
       </c>
@@ -17252,9 +17541,9 @@
       <c r="C71" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D71" s="99"/>
-      <c r="E71" s="102"/>
-      <c r="F71" s="96"/>
+      <c r="D71" s="111"/>
+      <c r="E71" s="101"/>
+      <c r="F71" s="98"/>
       <c r="G71" s="60">
         <v>44369</v>
       </c>
@@ -17275,9 +17564,9 @@
       <c r="C72" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="99"/>
-      <c r="E72" s="102"/>
-      <c r="F72" s="96"/>
+      <c r="D72" s="111"/>
+      <c r="E72" s="101"/>
+      <c r="F72" s="98"/>
       <c r="G72" s="60">
         <v>44369</v>
       </c>
@@ -17298,9 +17587,9 @@
       <c r="C73" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="99"/>
-      <c r="E73" s="102"/>
-      <c r="F73" s="96"/>
+      <c r="D73" s="111"/>
+      <c r="E73" s="101"/>
+      <c r="F73" s="98"/>
       <c r="G73" s="60">
         <v>44369</v>
       </c>
@@ -17321,9 +17610,9 @@
       <c r="C74" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D74" s="99"/>
-      <c r="E74" s="102"/>
-      <c r="F74" s="96"/>
+      <c r="D74" s="111"/>
+      <c r="E74" s="101"/>
+      <c r="F74" s="98"/>
       <c r="G74" s="60">
         <v>44369</v>
       </c>
@@ -17344,9 +17633,9 @@
       <c r="C75" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="99"/>
-      <c r="E75" s="102"/>
-      <c r="F75" s="96"/>
+      <c r="D75" s="111"/>
+      <c r="E75" s="101"/>
+      <c r="F75" s="98"/>
       <c r="G75" s="60">
         <v>44369</v>
       </c>
@@ -17367,9 +17656,9 @@
       <c r="C76" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D76" s="99"/>
-      <c r="E76" s="102"/>
-      <c r="F76" s="96"/>
+      <c r="D76" s="111"/>
+      <c r="E76" s="101"/>
+      <c r="F76" s="98"/>
       <c r="G76" s="60">
         <v>44369</v>
       </c>
@@ -17390,9 +17679,9 @@
       <c r="C77" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D77" s="100"/>
-      <c r="E77" s="103"/>
-      <c r="F77" s="97"/>
+      <c r="D77" s="112"/>
+      <c r="E77" s="102"/>
+      <c r="F77" s="99"/>
       <c r="G77" s="60">
         <v>44369</v>
       </c>
@@ -17448,10 +17737,10 @@
       <c r="C79" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="D79" s="101" t="s">
+      <c r="D79" s="100" t="s">
         <v>222</v>
       </c>
-      <c r="E79" s="101" t="s">
+      <c r="E79" s="100" t="s">
         <v>237</v>
       </c>
       <c r="F79" s="32" t="s">
@@ -17477,8 +17766,8 @@
       <c r="C80" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D80" s="102"/>
-      <c r="E80" s="102"/>
+      <c r="D80" s="101"/>
+      <c r="E80" s="101"/>
       <c r="F80" s="32" t="s">
         <v>191</v>
       </c>
@@ -17502,8 +17791,8 @@
       <c r="C81" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D81" s="102"/>
-      <c r="E81" s="102"/>
+      <c r="D81" s="101"/>
+      <c r="E81" s="101"/>
       <c r="F81" s="32" t="s">
         <v>208</v>
       </c>
@@ -17527,8 +17816,8 @@
       <c r="C82" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D82" s="102"/>
-      <c r="E82" s="102"/>
+      <c r="D82" s="101"/>
+      <c r="E82" s="101"/>
       <c r="F82" s="32" t="s">
         <v>209</v>
       </c>
@@ -17552,8 +17841,8 @@
       <c r="C83" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D83" s="102"/>
-      <c r="E83" s="102"/>
+      <c r="D83" s="101"/>
+      <c r="E83" s="101"/>
       <c r="F83" s="32" t="s">
         <v>210</v>
       </c>
@@ -17577,8 +17866,8 @@
       <c r="C84" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D84" s="102"/>
-      <c r="E84" s="102"/>
+      <c r="D84" s="101"/>
+      <c r="E84" s="101"/>
       <c r="F84" s="32" t="s">
         <v>211</v>
       </c>
@@ -17602,8 +17891,8 @@
       <c r="C85" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D85" s="102"/>
-      <c r="E85" s="102"/>
+      <c r="D85" s="101"/>
+      <c r="E85" s="101"/>
       <c r="F85" s="32" t="s">
         <v>212</v>
       </c>
@@ -17627,8 +17916,8 @@
       <c r="C86" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D86" s="102"/>
-      <c r="E86" s="102"/>
+      <c r="D86" s="101"/>
+      <c r="E86" s="101"/>
       <c r="F86" s="32" t="s">
         <v>213</v>
       </c>
@@ -17652,8 +17941,8 @@
       <c r="C87" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D87" s="102"/>
-      <c r="E87" s="102"/>
+      <c r="D87" s="101"/>
+      <c r="E87" s="101"/>
       <c r="F87" s="32" t="s">
         <v>214</v>
       </c>
@@ -17677,8 +17966,8 @@
       <c r="C88" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D88" s="102"/>
-      <c r="E88" s="102"/>
+      <c r="D88" s="101"/>
+      <c r="E88" s="101"/>
       <c r="F88" s="32" t="s">
         <v>215</v>
       </c>
@@ -17702,8 +17991,8 @@
       <c r="C89" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D89" s="102"/>
-      <c r="E89" s="102"/>
+      <c r="D89" s="101"/>
+      <c r="E89" s="101"/>
       <c r="F89" s="32" t="s">
         <v>216</v>
       </c>
@@ -17727,8 +18016,8 @@
       <c r="C90" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D90" s="102"/>
-      <c r="E90" s="102"/>
+      <c r="D90" s="101"/>
+      <c r="E90" s="101"/>
       <c r="F90" s="32" t="s">
         <v>217</v>
       </c>
@@ -17752,8 +18041,8 @@
       <c r="C91" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D91" s="102"/>
-      <c r="E91" s="102"/>
+      <c r="D91" s="101"/>
+      <c r="E91" s="101"/>
       <c r="F91" s="32" t="s">
         <v>218</v>
       </c>
@@ -17777,8 +18066,8 @@
       <c r="C92" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="D92" s="102"/>
-      <c r="E92" s="102"/>
+      <c r="D92" s="101"/>
+      <c r="E92" s="101"/>
       <c r="F92" s="31" t="s">
         <v>224</v>
       </c>
@@ -17802,8 +18091,8 @@
       <c r="C93" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="D93" s="102"/>
-      <c r="E93" s="102"/>
+      <c r="D93" s="101"/>
+      <c r="E93" s="101"/>
       <c r="F93" s="31" t="s">
         <v>225</v>
       </c>
@@ -17829,8 +18118,8 @@
       <c r="C94" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="D94" s="103"/>
-      <c r="E94" s="103"/>
+      <c r="D94" s="102"/>
+      <c r="E94" s="102"/>
       <c r="F94" s="31" t="s">
         <v>226</v>
       </c>
@@ -17949,10 +18238,10 @@
       <c r="C98" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="D98" s="95" t="s">
+      <c r="D98" s="97" t="s">
         <v>243</v>
       </c>
-      <c r="E98" s="95" t="s">
+      <c r="E98" s="97" t="s">
         <v>241</v>
       </c>
       <c r="F98" s="37" t="s">
@@ -17978,8 +18267,8 @@
       <c r="C99" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D99" s="119"/>
-      <c r="E99" s="96"/>
+      <c r="D99" s="113"/>
+      <c r="E99" s="98"/>
       <c r="F99" s="37" t="s">
         <v>261</v>
       </c>
@@ -18003,8 +18292,8 @@
       <c r="C100" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D100" s="119"/>
-      <c r="E100" s="96"/>
+      <c r="D100" s="113"/>
+      <c r="E100" s="98"/>
       <c r="F100" s="37" t="s">
         <v>262</v>
       </c>
@@ -18028,8 +18317,8 @@
       <c r="C101" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D101" s="119"/>
-      <c r="E101" s="96"/>
+      <c r="D101" s="113"/>
+      <c r="E101" s="98"/>
       <c r="F101" s="37" t="s">
         <v>263</v>
       </c>
@@ -18053,8 +18342,8 @@
       <c r="C102" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D102" s="119"/>
-      <c r="E102" s="96"/>
+      <c r="D102" s="113"/>
+      <c r="E102" s="98"/>
       <c r="F102" s="37" t="s">
         <v>264</v>
       </c>
@@ -18078,8 +18367,8 @@
       <c r="C103" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D103" s="119"/>
-      <c r="E103" s="96"/>
+      <c r="D103" s="113"/>
+      <c r="E103" s="98"/>
       <c r="F103" s="37" t="s">
         <v>265</v>
       </c>
@@ -18103,8 +18392,8 @@
       <c r="C104" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D104" s="119"/>
-      <c r="E104" s="96"/>
+      <c r="D104" s="113"/>
+      <c r="E104" s="98"/>
       <c r="F104" s="37" t="s">
         <v>266</v>
       </c>
@@ -18128,8 +18417,8 @@
       <c r="C105" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D105" s="119"/>
-      <c r="E105" s="96"/>
+      <c r="D105" s="113"/>
+      <c r="E105" s="98"/>
       <c r="F105" s="37" t="s">
         <v>267</v>
       </c>
@@ -18153,8 +18442,8 @@
       <c r="C106" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="D106" s="119"/>
-      <c r="E106" s="96"/>
+      <c r="D106" s="113"/>
+      <c r="E106" s="98"/>
       <c r="F106" s="37" t="s">
         <v>268</v>
       </c>
@@ -18178,8 +18467,8 @@
       <c r="C107" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="D107" s="119"/>
-      <c r="E107" s="96"/>
+      <c r="D107" s="113"/>
+      <c r="E107" s="98"/>
       <c r="F107" s="37" t="s">
         <v>269</v>
       </c>
@@ -18203,8 +18492,8 @@
       <c r="C108" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="D108" s="120"/>
-      <c r="E108" s="97"/>
+      <c r="D108" s="114"/>
+      <c r="E108" s="99"/>
       <c r="F108" s="37" t="s">
         <v>269</v>
       </c>
@@ -18381,16 +18670,16 @@
       <c r="C114" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D114" s="95" t="s">
+      <c r="D114" s="97" t="s">
         <v>372</v>
       </c>
-      <c r="E114" s="95" t="s">
+      <c r="E114" s="97" t="s">
         <v>373</v>
       </c>
       <c r="F114" s="37" t="s">
         <v>412</v>
       </c>
-      <c r="G114" s="122">
+      <c r="G114" s="93">
         <v>44439</v>
       </c>
       <c r="H114" s="12" t="s">
@@ -18410,12 +18699,12 @@
       <c r="C115" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D115" s="96"/>
-      <c r="E115" s="96"/>
+      <c r="D115" s="98"/>
+      <c r="E115" s="98"/>
       <c r="F115" s="37" t="s">
         <v>413</v>
       </c>
-      <c r="G115" s="122">
+      <c r="G115" s="93">
         <v>44439</v>
       </c>
       <c r="H115" s="12" t="s">
@@ -18435,12 +18724,12 @@
       <c r="C116" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D116" s="96"/>
-      <c r="E116" s="96"/>
+      <c r="D116" s="98"/>
+      <c r="E116" s="98"/>
       <c r="F116" s="37" t="s">
         <v>414</v>
       </c>
-      <c r="G116" s="122">
+      <c r="G116" s="93">
         <v>44439</v>
       </c>
       <c r="H116" s="12" t="s">
@@ -18460,12 +18749,12 @@
       <c r="C117" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D117" s="96"/>
-      <c r="E117" s="96"/>
+      <c r="D117" s="98"/>
+      <c r="E117" s="98"/>
       <c r="F117" s="37" t="s">
         <v>415</v>
       </c>
-      <c r="G117" s="122">
+      <c r="G117" s="93">
         <v>44439</v>
       </c>
       <c r="H117" s="12" t="s">
@@ -18485,12 +18774,12 @@
       <c r="C118" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D118" s="96"/>
-      <c r="E118" s="96"/>
+      <c r="D118" s="98"/>
+      <c r="E118" s="98"/>
       <c r="F118" s="37" t="s">
         <v>416</v>
       </c>
-      <c r="G118" s="122">
+      <c r="G118" s="93">
         <v>44439</v>
       </c>
       <c r="H118" s="12" t="s">
@@ -18510,12 +18799,12 @@
       <c r="C119" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D119" s="96"/>
-      <c r="E119" s="96"/>
+      <c r="D119" s="98"/>
+      <c r="E119" s="98"/>
       <c r="F119" s="37" t="s">
         <v>417</v>
       </c>
-      <c r="G119" s="122">
+      <c r="G119" s="93">
         <v>44439</v>
       </c>
       <c r="H119" s="12" t="s">
@@ -18535,12 +18824,12 @@
       <c r="C120" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D120" s="96"/>
-      <c r="E120" s="96"/>
+      <c r="D120" s="98"/>
+      <c r="E120" s="98"/>
       <c r="F120" s="37" t="s">
         <v>418</v>
       </c>
-      <c r="G120" s="122">
+      <c r="G120" s="93">
         <v>44439</v>
       </c>
       <c r="H120" s="12" t="s">
@@ -18560,12 +18849,12 @@
       <c r="C121" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D121" s="96"/>
-      <c r="E121" s="96"/>
+      <c r="D121" s="98"/>
+      <c r="E121" s="98"/>
       <c r="F121" s="37" t="s">
         <v>419</v>
       </c>
-      <c r="G121" s="122">
+      <c r="G121" s="93">
         <v>44439</v>
       </c>
       <c r="H121" s="12" t="s">
@@ -18585,12 +18874,12 @@
       <c r="C122" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D122" s="96"/>
-      <c r="E122" s="96"/>
+      <c r="D122" s="98"/>
+      <c r="E122" s="98"/>
       <c r="F122" s="37" t="s">
         <v>420</v>
       </c>
-      <c r="G122" s="122">
+      <c r="G122" s="93">
         <v>44439</v>
       </c>
       <c r="H122" s="12" t="s">
@@ -18610,12 +18899,12 @@
       <c r="C123" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D123" s="96"/>
-      <c r="E123" s="96"/>
+      <c r="D123" s="98"/>
+      <c r="E123" s="98"/>
       <c r="F123" s="37" t="s">
         <v>421</v>
       </c>
-      <c r="G123" s="122">
+      <c r="G123" s="93">
         <v>44439</v>
       </c>
       <c r="H123" s="12" t="s">
@@ -18635,12 +18924,12 @@
       <c r="C124" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D124" s="96"/>
-      <c r="E124" s="96"/>
+      <c r="D124" s="98"/>
+      <c r="E124" s="98"/>
       <c r="F124" s="37" t="s">
         <v>422</v>
       </c>
-      <c r="G124" s="122">
+      <c r="G124" s="93">
         <v>44439</v>
       </c>
       <c r="H124" s="12" t="s">
@@ -18660,12 +18949,12 @@
       <c r="C125" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D125" s="97"/>
-      <c r="E125" s="97"/>
+      <c r="D125" s="99"/>
+      <c r="E125" s="99"/>
       <c r="F125" s="37" t="s">
         <v>423</v>
       </c>
-      <c r="G125" s="122">
+      <c r="G125" s="93">
         <v>44439</v>
       </c>
       <c r="H125" s="12" t="s">
@@ -18696,7 +18985,7 @@
       <c r="F126" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="G126" s="122">
+      <c r="G126" s="93">
         <v>44439</v>
       </c>
       <c r="H126" s="12" t="s">
@@ -18727,7 +19016,7 @@
       <c r="F127" s="37" t="s">
         <v>378</v>
       </c>
-      <c r="G127" s="122">
+      <c r="G127" s="93">
         <v>44439</v>
       </c>
       <c r="H127" s="17" t="s">
@@ -18748,22 +19037,22 @@
         <v>294</v>
       </c>
       <c r="D128" s="72" t="s">
+        <v>490</v>
+      </c>
+      <c r="E128" s="91" t="s">
         <v>491</v>
       </c>
-      <c r="E128" s="91" t="s">
+      <c r="F128" s="37" t="s">
         <v>492</v>
       </c>
-      <c r="F128" s="37" t="s">
-        <v>493</v>
-      </c>
-      <c r="G128" s="122">
+      <c r="G128" s="93">
         <v>44439</v>
       </c>
       <c r="H128" s="17" t="s">
         <v>227</v>
       </c>
       <c r="I128" s="32" t="s">
-        <v>490</v>
+        <v>513</v>
       </c>
       <c r="J128" s="17" t="s">
         <v>144</v>
@@ -18778,16 +19067,16 @@
       <c r="C129" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D129" s="95" t="s">
+      <c r="D129" s="97" t="s">
+        <v>493</v>
+      </c>
+      <c r="E129" s="100" t="s">
+        <v>491</v>
+      </c>
+      <c r="F129" s="97" t="s">
         <v>494</v>
       </c>
-      <c r="E129" s="101" t="s">
-        <v>492</v>
-      </c>
-      <c r="F129" s="95" t="s">
-        <v>495</v>
-      </c>
-      <c r="G129" s="122">
+      <c r="G129" s="93">
         <v>44439</v>
       </c>
       <c r="H129" s="17" t="s">
@@ -18805,10 +19094,10 @@
       <c r="C130" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D130" s="96"/>
-      <c r="E130" s="102"/>
-      <c r="F130" s="96"/>
-      <c r="G130" s="122">
+      <c r="D130" s="98"/>
+      <c r="E130" s="101"/>
+      <c r="F130" s="98"/>
+      <c r="G130" s="93">
         <v>44439</v>
       </c>
       <c r="H130" s="17" t="s">
@@ -18826,10 +19115,10 @@
       <c r="C131" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D131" s="96"/>
-      <c r="E131" s="102"/>
-      <c r="F131" s="96"/>
-      <c r="G131" s="122">
+      <c r="D131" s="98"/>
+      <c r="E131" s="101"/>
+      <c r="F131" s="98"/>
+      <c r="G131" s="93">
         <v>44439</v>
       </c>
       <c r="H131" s="17" t="s">
@@ -18847,10 +19136,10 @@
       <c r="C132" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D132" s="96"/>
-      <c r="E132" s="102"/>
-      <c r="F132" s="96"/>
-      <c r="G132" s="122">
+      <c r="D132" s="98"/>
+      <c r="E132" s="101"/>
+      <c r="F132" s="98"/>
+      <c r="G132" s="93">
         <v>44439</v>
       </c>
       <c r="H132" s="17" t="s">
@@ -18868,10 +19157,10 @@
       <c r="C133" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D133" s="96"/>
-      <c r="E133" s="102"/>
-      <c r="F133" s="96"/>
-      <c r="G133" s="122">
+      <c r="D133" s="98"/>
+      <c r="E133" s="101"/>
+      <c r="F133" s="98"/>
+      <c r="G133" s="93">
         <v>44439</v>
       </c>
       <c r="H133" s="17" t="s">
@@ -18889,10 +19178,10 @@
       <c r="C134" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D134" s="96"/>
-      <c r="E134" s="102"/>
-      <c r="F134" s="96"/>
-      <c r="G134" s="122">
+      <c r="D134" s="98"/>
+      <c r="E134" s="101"/>
+      <c r="F134" s="98"/>
+      <c r="G134" s="93">
         <v>44439</v>
       </c>
       <c r="H134" s="17" t="s">
@@ -18910,10 +19199,10 @@
       <c r="C135" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D135" s="96"/>
-      <c r="E135" s="102"/>
-      <c r="F135" s="96"/>
-      <c r="G135" s="122">
+      <c r="D135" s="98"/>
+      <c r="E135" s="101"/>
+      <c r="F135" s="98"/>
+      <c r="G135" s="93">
         <v>44439</v>
       </c>
       <c r="H135" s="17" t="s">
@@ -18931,10 +19220,10 @@
       <c r="C136" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D136" s="96"/>
-      <c r="E136" s="102"/>
-      <c r="F136" s="96"/>
-      <c r="G136" s="122">
+      <c r="D136" s="98"/>
+      <c r="E136" s="101"/>
+      <c r="F136" s="98"/>
+      <c r="G136" s="93">
         <v>44439</v>
       </c>
       <c r="H136" s="17" t="s">
@@ -18952,10 +19241,10 @@
       <c r="C137" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D137" s="96"/>
-      <c r="E137" s="102"/>
-      <c r="F137" s="96"/>
-      <c r="G137" s="122">
+      <c r="D137" s="98"/>
+      <c r="E137" s="101"/>
+      <c r="F137" s="98"/>
+      <c r="G137" s="93">
         <v>44439</v>
       </c>
       <c r="H137" s="17" t="s">
@@ -18973,10 +19262,10 @@
       <c r="C138" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D138" s="96"/>
-      <c r="E138" s="102"/>
-      <c r="F138" s="96"/>
-      <c r="G138" s="122">
+      <c r="D138" s="98"/>
+      <c r="E138" s="101"/>
+      <c r="F138" s="98"/>
+      <c r="G138" s="93">
         <v>44439</v>
       </c>
       <c r="H138" s="17" t="s">
@@ -18994,10 +19283,10 @@
       <c r="C139" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D139" s="96"/>
-      <c r="E139" s="102"/>
-      <c r="F139" s="96"/>
-      <c r="G139" s="122">
+      <c r="D139" s="98"/>
+      <c r="E139" s="101"/>
+      <c r="F139" s="98"/>
+      <c r="G139" s="93">
         <v>44439</v>
       </c>
       <c r="H139" s="17" t="s">
@@ -19015,10 +19304,10 @@
       <c r="C140" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D140" s="97"/>
-      <c r="E140" s="103"/>
-      <c r="F140" s="97"/>
-      <c r="G140" s="122">
+      <c r="D140" s="99"/>
+      <c r="E140" s="102"/>
+      <c r="F140" s="99"/>
+      <c r="G140" s="93">
         <v>44439</v>
       </c>
       <c r="H140" s="17" t="s">
@@ -19049,7 +19338,7 @@
       <c r="F141" s="37" t="s">
         <v>381</v>
       </c>
-      <c r="G141" s="122">
+      <c r="G141" s="93">
         <v>44439</v>
       </c>
       <c r="H141" s="17" t="s">
@@ -19080,7 +19369,7 @@
       <c r="F142" s="37" t="s">
         <v>382</v>
       </c>
-      <c r="G142" s="122">
+      <c r="G142" s="93">
         <v>44439</v>
       </c>
       <c r="H142" s="17" t="s">
@@ -19102,19 +19391,25 @@
       <c r="C143" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="D143" s="95" t="s">
+      <c r="D143" s="97" t="s">
         <v>384</v>
       </c>
-      <c r="E143" s="95" t="s">
+      <c r="E143" s="97" t="s">
         <v>383</v>
       </c>
       <c r="F143" s="37" t="s">
         <v>385</v>
       </c>
-      <c r="G143" s="73"/>
-      <c r="H143" s="17"/>
+      <c r="G143" s="93">
+        <v>44439</v>
+      </c>
+      <c r="H143" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I143" s="32"/>
-      <c r="J143" s="17"/>
+      <c r="J143" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K143" s="17"/>
     </row>
     <row r="144" spans="1:11" ht="31.5">
@@ -19125,15 +19420,21 @@
       <c r="C144" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="D144" s="97"/>
-      <c r="E144" s="97"/>
+      <c r="D144" s="99"/>
+      <c r="E144" s="99"/>
       <c r="F144" s="37" t="s">
         <v>386</v>
       </c>
-      <c r="G144" s="73"/>
-      <c r="H144" s="17"/>
+      <c r="G144" s="93">
+        <v>44439</v>
+      </c>
+      <c r="H144" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I144" s="32"/>
-      <c r="J144" s="17"/>
+      <c r="J144" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K144" s="17"/>
     </row>
     <row r="145" spans="1:11" ht="47.25">
@@ -19155,10 +19456,16 @@
       <c r="F145" s="37" t="s">
         <v>390</v>
       </c>
-      <c r="G145" s="73"/>
-      <c r="H145" s="17"/>
+      <c r="G145" s="93">
+        <v>44439</v>
+      </c>
+      <c r="H145" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I145" s="32"/>
-      <c r="J145" s="17"/>
+      <c r="J145" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K145" s="17"/>
     </row>
     <row r="146" spans="1:11" ht="47.25">
@@ -19180,10 +19487,16 @@
       <c r="F146" s="32" t="s">
         <v>448</v>
       </c>
-      <c r="G146" s="73"/>
-      <c r="H146" s="17"/>
+      <c r="G146" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H146" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I146" s="32"/>
-      <c r="J146" s="17"/>
+      <c r="J146" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K146" s="17"/>
     </row>
     <row r="147" spans="1:11" ht="47.25">
@@ -19205,10 +19518,16 @@
       <c r="F147" s="37" t="s">
         <v>397</v>
       </c>
-      <c r="G147" s="73"/>
-      <c r="H147" s="17"/>
+      <c r="G147" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H147" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I147" s="32"/>
-      <c r="J147" s="17"/>
+      <c r="J147" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K147" s="17"/>
     </row>
     <row r="148" spans="1:11" ht="47.25">
@@ -19228,10 +19547,16 @@
       <c r="F148" s="37" t="s">
         <v>398</v>
       </c>
-      <c r="G148" s="73"/>
-      <c r="H148" s="17"/>
+      <c r="G148" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H148" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I148" s="32"/>
-      <c r="J148" s="17"/>
+      <c r="J148" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K148" s="17"/>
     </row>
     <row r="149" spans="1:11" ht="47.25">
@@ -19251,10 +19576,16 @@
       <c r="F149" s="37" t="s">
         <v>399</v>
       </c>
-      <c r="G149" s="73"/>
-      <c r="H149" s="17"/>
+      <c r="G149" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H149" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I149" s="32"/>
-      <c r="J149" s="17"/>
+      <c r="J149" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K149" s="17"/>
     </row>
     <row r="150" spans="1:11" ht="47.25">
@@ -19274,10 +19605,16 @@
       <c r="F150" s="37" t="s">
         <v>409</v>
       </c>
-      <c r="G150" s="73"/>
-      <c r="H150" s="17"/>
+      <c r="G150" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H150" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I150" s="32"/>
-      <c r="J150" s="17"/>
+      <c r="J150" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K150" s="17"/>
     </row>
     <row r="151" spans="1:11" ht="47.25">
@@ -19297,10 +19634,16 @@
       <c r="F151" s="37" t="s">
         <v>410</v>
       </c>
-      <c r="G151" s="73"/>
-      <c r="H151" s="17"/>
+      <c r="G151" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H151" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I151" s="32"/>
-      <c r="J151" s="17"/>
+      <c r="J151" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K151" s="17"/>
     </row>
     <row r="152" spans="1:11" ht="47.25">
@@ -19320,35 +19663,45 @@
       <c r="F152" s="37" t="s">
         <v>411</v>
       </c>
-      <c r="G152" s="73"/>
-      <c r="H152" s="17"/>
+      <c r="G152" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H152" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I152" s="32"/>
-      <c r="J152" s="17"/>
+      <c r="J152" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K152" s="17"/>
     </row>
     <row r="153" spans="1:11" ht="47.25">
       <c r="A153" s="12">
         <v>136</v>
       </c>
-      <c r="B153" s="72" t="s">
-        <v>55</v>
-      </c>
-      <c r="C153" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D153" s="95" t="s">
-        <v>424</v>
-      </c>
-      <c r="E153" s="95" t="s">
-        <v>425</v>
-      </c>
-      <c r="F153" s="31" t="s">
-        <v>307</v>
-      </c>
-      <c r="G153" s="73"/>
-      <c r="H153" s="17"/>
+      <c r="B153" s="72"/>
+      <c r="C153" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="D153" s="72" t="s">
+        <v>496</v>
+      </c>
+      <c r="E153" s="72" t="s">
+        <v>499</v>
+      </c>
+      <c r="F153" s="37" t="s">
+        <v>502</v>
+      </c>
+      <c r="G153" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H153" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I153" s="32"/>
-      <c r="J153" s="17"/>
+      <c r="J153" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K153" s="17"/>
     </row>
     <row r="154" spans="1:11" ht="47.25">
@@ -19356,18 +19709,28 @@
         <v>137</v>
       </c>
       <c r="B154" s="72"/>
-      <c r="C154" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D154" s="96"/>
-      <c r="E154" s="96"/>
-      <c r="F154" s="31" t="s">
-        <v>310</v>
-      </c>
-      <c r="G154" s="73"/>
-      <c r="H154" s="17"/>
+      <c r="C154" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="D154" s="72" t="s">
+        <v>497</v>
+      </c>
+      <c r="E154" s="72" t="s">
+        <v>500</v>
+      </c>
+      <c r="F154" s="37" t="s">
+        <v>501</v>
+      </c>
+      <c r="G154" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H154" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I154" s="32"/>
-      <c r="J154" s="17"/>
+      <c r="J154" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K154" s="17"/>
     </row>
     <row r="155" spans="1:11" ht="47.25">
@@ -19375,37 +19738,59 @@
         <v>138</v>
       </c>
       <c r="B155" s="72"/>
-      <c r="C155" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D155" s="96"/>
-      <c r="E155" s="96"/>
-      <c r="F155" s="31" t="s">
-        <v>309</v>
-      </c>
-      <c r="G155" s="73"/>
-      <c r="H155" s="17"/>
+      <c r="C155" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="D155" s="72" t="s">
+        <v>387</v>
+      </c>
+      <c r="E155" s="72" t="s">
+        <v>498</v>
+      </c>
+      <c r="F155" s="37" t="s">
+        <v>390</v>
+      </c>
+      <c r="G155" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H155" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I155" s="32"/>
-      <c r="J155" s="17"/>
+      <c r="J155" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K155" s="17"/>
     </row>
     <row r="156" spans="1:11" ht="47.25">
       <c r="A156" s="12">
         <v>139</v>
       </c>
-      <c r="B156" s="72"/>
+      <c r="B156" s="72" t="s">
+        <v>55</v>
+      </c>
       <c r="C156" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D156" s="96"/>
-      <c r="E156" s="96"/>
+        <v>16</v>
+      </c>
+      <c r="D156" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E156" s="97" t="s">
+        <v>425</v>
+      </c>
       <c r="F156" s="31" t="s">
-        <v>308</v>
-      </c>
-      <c r="G156" s="73"/>
-      <c r="H156" s="17"/>
+        <v>307</v>
+      </c>
+      <c r="G156" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H156" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I156" s="32"/>
-      <c r="J156" s="17"/>
+      <c r="J156" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K156" s="17"/>
     </row>
     <row r="157" spans="1:11" ht="47.25">
@@ -19414,36 +19799,48 @@
       </c>
       <c r="B157" s="72"/>
       <c r="C157" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D157" s="96"/>
-      <c r="E157" s="96"/>
+        <v>17</v>
+      </c>
+      <c r="D157" s="98"/>
+      <c r="E157" s="98"/>
       <c r="F157" s="31" t="s">
-        <v>311</v>
-      </c>
-      <c r="G157" s="73"/>
-      <c r="H157" s="17"/>
+        <v>310</v>
+      </c>
+      <c r="G157" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H157" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I157" s="32"/>
-      <c r="J157" s="17"/>
+      <c r="J157" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K157" s="17"/>
     </row>
-    <row r="158" spans="1:11" ht="63">
+    <row r="158" spans="1:11" ht="47.25">
       <c r="A158" s="12">
         <v>141</v>
       </c>
       <c r="B158" s="72"/>
       <c r="C158" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D158" s="96"/>
-      <c r="E158" s="96"/>
+        <v>18</v>
+      </c>
+      <c r="D158" s="98"/>
+      <c r="E158" s="98"/>
       <c r="F158" s="31" t="s">
-        <v>312</v>
-      </c>
-      <c r="G158" s="73"/>
-      <c r="H158" s="17"/>
+        <v>309</v>
+      </c>
+      <c r="G158" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H158" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I158" s="32"/>
-      <c r="J158" s="17"/>
+      <c r="J158" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K158" s="17"/>
     </row>
     <row r="159" spans="1:11" ht="47.25">
@@ -19452,17 +19849,23 @@
       </c>
       <c r="B159" s="72"/>
       <c r="C159" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D159" s="96"/>
-      <c r="E159" s="96"/>
+        <v>19</v>
+      </c>
+      <c r="D159" s="98"/>
+      <c r="E159" s="98"/>
       <c r="F159" s="31" t="s">
-        <v>319</v>
-      </c>
-      <c r="G159" s="73"/>
-      <c r="H159" s="17"/>
+        <v>308</v>
+      </c>
+      <c r="G159" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H159" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I159" s="32"/>
-      <c r="J159" s="17"/>
+      <c r="J159" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K159" s="17"/>
     </row>
     <row r="160" spans="1:11" ht="47.25">
@@ -19471,36 +19874,48 @@
       </c>
       <c r="B160" s="72"/>
       <c r="C160" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D160" s="96"/>
-      <c r="E160" s="96"/>
+        <v>20</v>
+      </c>
+      <c r="D160" s="98"/>
+      <c r="E160" s="98"/>
       <c r="F160" s="31" t="s">
-        <v>314</v>
-      </c>
-      <c r="G160" s="73"/>
-      <c r="H160" s="17"/>
+        <v>311</v>
+      </c>
+      <c r="G160" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H160" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I160" s="32"/>
-      <c r="J160" s="17"/>
+      <c r="J160" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K160" s="17"/>
     </row>
-    <row r="161" spans="1:11" ht="47.25">
+    <row r="161" spans="1:11" ht="63">
       <c r="A161" s="12">
         <v>144</v>
       </c>
       <c r="B161" s="72"/>
       <c r="C161" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D161" s="96"/>
-      <c r="E161" s="96"/>
+        <v>21</v>
+      </c>
+      <c r="D161" s="98"/>
+      <c r="E161" s="98"/>
       <c r="F161" s="31" t="s">
-        <v>315</v>
-      </c>
-      <c r="G161" s="73"/>
-      <c r="H161" s="17"/>
+        <v>312</v>
+      </c>
+      <c r="G161" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H161" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I161" s="32"/>
-      <c r="J161" s="17"/>
+      <c r="J161" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K161" s="17"/>
     </row>
     <row r="162" spans="1:11" ht="47.25">
@@ -19509,17 +19924,23 @@
       </c>
       <c r="B162" s="72"/>
       <c r="C162" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D162" s="96"/>
-      <c r="E162" s="96"/>
+        <v>22</v>
+      </c>
+      <c r="D162" s="98"/>
+      <c r="E162" s="98"/>
       <c r="F162" s="31" t="s">
-        <v>316</v>
-      </c>
-      <c r="G162" s="73"/>
-      <c r="H162" s="17"/>
+        <v>319</v>
+      </c>
+      <c r="G162" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H162" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I162" s="32"/>
-      <c r="J162" s="17"/>
+      <c r="J162" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K162" s="17"/>
     </row>
     <row r="163" spans="1:11" ht="47.25">
@@ -19528,17 +19949,23 @@
       </c>
       <c r="B163" s="72"/>
       <c r="C163" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D163" s="96"/>
-      <c r="E163" s="96"/>
+        <v>23</v>
+      </c>
+      <c r="D163" s="98"/>
+      <c r="E163" s="98"/>
       <c r="F163" s="31" t="s">
-        <v>317</v>
-      </c>
-      <c r="G163" s="73"/>
-      <c r="H163" s="17"/>
+        <v>314</v>
+      </c>
+      <c r="G163" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H163" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I163" s="32"/>
-      <c r="J163" s="17"/>
+      <c r="J163" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K163" s="17"/>
     </row>
     <row r="164" spans="1:11" ht="47.25">
@@ -19547,42 +19974,48 @@
       </c>
       <c r="B164" s="72"/>
       <c r="C164" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D164" s="97"/>
-      <c r="E164" s="97"/>
+        <v>24</v>
+      </c>
+      <c r="D164" s="98"/>
+      <c r="E164" s="98"/>
       <c r="F164" s="31" t="s">
-        <v>318</v>
-      </c>
-      <c r="G164" s="73"/>
-      <c r="H164" s="17"/>
+        <v>315</v>
+      </c>
+      <c r="G164" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H164" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I164" s="32"/>
-      <c r="J164" s="17"/>
+      <c r="J164" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K164" s="17"/>
     </row>
     <row r="165" spans="1:11" ht="47.25">
       <c r="A165" s="12">
         <v>148</v>
       </c>
-      <c r="B165" s="72" t="s">
-        <v>156</v>
-      </c>
+      <c r="B165" s="72"/>
       <c r="C165" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D165" s="95" t="s">
-        <v>427</v>
-      </c>
-      <c r="E165" s="31" t="s">
-        <v>323</v>
-      </c>
-      <c r="F165" s="95" t="s">
-        <v>426</v>
-      </c>
-      <c r="G165" s="73"/>
-      <c r="H165" s="17"/>
+        <v>25</v>
+      </c>
+      <c r="D165" s="98"/>
+      <c r="E165" s="98"/>
+      <c r="F165" s="31" t="s">
+        <v>316</v>
+      </c>
+      <c r="G165" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H165" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I165" s="32"/>
-      <c r="J165" s="17"/>
+      <c r="J165" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K165" s="17"/>
     </row>
     <row r="166" spans="1:11" ht="47.25">
@@ -19591,17 +20024,23 @@
       </c>
       <c r="B166" s="72"/>
       <c r="C166" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D166" s="96"/>
-      <c r="E166" s="31" t="s">
-        <v>324</v>
-      </c>
-      <c r="F166" s="96"/>
-      <c r="G166" s="73"/>
-      <c r="H166" s="17"/>
+        <v>26</v>
+      </c>
+      <c r="D166" s="98"/>
+      <c r="E166" s="98"/>
+      <c r="F166" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="G166" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H166" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I166" s="32"/>
-      <c r="J166" s="17"/>
+      <c r="J166" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K166" s="17"/>
     </row>
     <row r="167" spans="1:11" ht="47.25">
@@ -19610,74 +20049,104 @@
       </c>
       <c r="B167" s="72"/>
       <c r="C167" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D167" s="96"/>
-      <c r="E167" s="31" t="s">
-        <v>325</v>
-      </c>
-      <c r="F167" s="96"/>
-      <c r="G167" s="73"/>
-      <c r="H167" s="17"/>
+        <v>27</v>
+      </c>
+      <c r="D167" s="99"/>
+      <c r="E167" s="99"/>
+      <c r="F167" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="G167" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H167" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I167" s="32"/>
-      <c r="J167" s="17"/>
+      <c r="J167" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K167" s="17"/>
     </row>
     <row r="168" spans="1:11" ht="47.25">
       <c r="A168" s="12">
         <v>151</v>
       </c>
-      <c r="B168" s="72"/>
+      <c r="B168" s="72" t="s">
+        <v>156</v>
+      </c>
       <c r="C168" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D168" s="96"/>
+        <v>16</v>
+      </c>
+      <c r="D168" s="97" t="s">
+        <v>427</v>
+      </c>
       <c r="E168" s="31" t="s">
-        <v>325</v>
-      </c>
-      <c r="F168" s="96"/>
-      <c r="G168" s="73"/>
-      <c r="H168" s="17"/>
+        <v>323</v>
+      </c>
+      <c r="F168" s="97" t="s">
+        <v>426</v>
+      </c>
+      <c r="G168" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H168" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I168" s="32"/>
-      <c r="J168" s="17"/>
+      <c r="J168" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K168" s="17"/>
     </row>
-    <row r="169" spans="1:11" ht="63">
+    <row r="169" spans="1:11" ht="47.25">
       <c r="A169" s="12">
         <v>152</v>
       </c>
       <c r="B169" s="72"/>
       <c r="C169" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D169" s="96"/>
+        <v>17</v>
+      </c>
+      <c r="D169" s="98"/>
       <c r="E169" s="31" t="s">
-        <v>326</v>
-      </c>
-      <c r="F169" s="96"/>
-      <c r="G169" s="73"/>
-      <c r="H169" s="17"/>
+        <v>324</v>
+      </c>
+      <c r="F169" s="98"/>
+      <c r="G169" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H169" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I169" s="32"/>
-      <c r="J169" s="17"/>
+      <c r="J169" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K169" s="17"/>
     </row>
-    <row r="170" spans="1:11" ht="63">
+    <row r="170" spans="1:11" ht="47.25">
       <c r="A170" s="12">
         <v>153</v>
       </c>
       <c r="B170" s="72"/>
       <c r="C170" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D170" s="96"/>
+        <v>18</v>
+      </c>
+      <c r="D170" s="98"/>
       <c r="E170" s="31" t="s">
-        <v>342</v>
-      </c>
-      <c r="F170" s="96"/>
-      <c r="G170" s="73"/>
-      <c r="H170" s="17"/>
+        <v>325</v>
+      </c>
+      <c r="F170" s="98"/>
+      <c r="G170" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H170" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I170" s="32"/>
-      <c r="J170" s="17"/>
+      <c r="J170" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K170" s="17"/>
     </row>
     <row r="171" spans="1:11" ht="47.25">
@@ -19686,93 +20155,123 @@
       </c>
       <c r="B171" s="72"/>
       <c r="C171" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D171" s="96"/>
+        <v>19</v>
+      </c>
+      <c r="D171" s="98"/>
       <c r="E171" s="31" t="s">
-        <v>346</v>
-      </c>
-      <c r="F171" s="96"/>
-      <c r="G171" s="73"/>
-      <c r="H171" s="17"/>
+        <v>325</v>
+      </c>
+      <c r="F171" s="98"/>
+      <c r="G171" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H171" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I171" s="32"/>
-      <c r="J171" s="17"/>
+      <c r="J171" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K171" s="17"/>
     </row>
-    <row r="172" spans="1:11" ht="47.25">
+    <row r="172" spans="1:11" ht="63">
       <c r="A172" s="12">
         <v>155</v>
       </c>
       <c r="B172" s="72"/>
       <c r="C172" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D172" s="96"/>
+        <v>20</v>
+      </c>
+      <c r="D172" s="98"/>
       <c r="E172" s="31" t="s">
-        <v>327</v>
-      </c>
-      <c r="F172" s="96"/>
-      <c r="G172" s="73"/>
-      <c r="H172" s="17"/>
+        <v>326</v>
+      </c>
+      <c r="F172" s="98"/>
+      <c r="G172" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H172" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I172" s="32"/>
-      <c r="J172" s="17"/>
+      <c r="J172" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K172" s="17"/>
     </row>
-    <row r="173" spans="1:11" ht="47.25">
+    <row r="173" spans="1:11" ht="63">
       <c r="A173" s="12">
         <v>156</v>
       </c>
       <c r="B173" s="72"/>
       <c r="C173" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D173" s="96"/>
+        <v>21</v>
+      </c>
+      <c r="D173" s="98"/>
       <c r="E173" s="31" t="s">
-        <v>322</v>
-      </c>
-      <c r="F173" s="96"/>
-      <c r="G173" s="73"/>
-      <c r="H173" s="17"/>
+        <v>342</v>
+      </c>
+      <c r="F173" s="98"/>
+      <c r="G173" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H173" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I173" s="32"/>
-      <c r="J173" s="17"/>
+      <c r="J173" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K173" s="17"/>
     </row>
-    <row r="174" spans="1:11" ht="63">
+    <row r="174" spans="1:11" ht="47.25">
       <c r="A174" s="12">
         <v>157</v>
       </c>
       <c r="B174" s="72"/>
       <c r="C174" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D174" s="96"/>
+        <v>22</v>
+      </c>
+      <c r="D174" s="98"/>
       <c r="E174" s="31" t="s">
-        <v>328</v>
-      </c>
-      <c r="F174" s="96"/>
-      <c r="G174" s="73"/>
-      <c r="H174" s="17"/>
+        <v>346</v>
+      </c>
+      <c r="F174" s="98"/>
+      <c r="G174" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H174" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I174" s="32"/>
-      <c r="J174" s="17"/>
+      <c r="J174" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K174" s="17"/>
     </row>
-    <row r="175" spans="1:11" ht="63">
+    <row r="175" spans="1:11" ht="47.25">
       <c r="A175" s="12">
         <v>158</v>
       </c>
       <c r="B175" s="72"/>
       <c r="C175" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D175" s="96"/>
+        <v>23</v>
+      </c>
+      <c r="D175" s="98"/>
       <c r="E175" s="31" t="s">
-        <v>329</v>
-      </c>
-      <c r="F175" s="96"/>
-      <c r="G175" s="73"/>
-      <c r="H175" s="17"/>
+        <v>327</v>
+      </c>
+      <c r="F175" s="98"/>
+      <c r="G175" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H175" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I175" s="32"/>
-      <c r="J175" s="17"/>
+      <c r="J175" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K175" s="17"/>
     </row>
     <row r="176" spans="1:11" ht="47.25">
@@ -19781,147 +20280,183 @@
       </c>
       <c r="B176" s="72"/>
       <c r="C176" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D176" s="97"/>
+        <v>24</v>
+      </c>
+      <c r="D176" s="98"/>
       <c r="E176" s="31" t="s">
-        <v>321</v>
-      </c>
-      <c r="F176" s="97"/>
-      <c r="G176" s="73"/>
-      <c r="H176" s="17"/>
+        <v>322</v>
+      </c>
+      <c r="F176" s="98"/>
+      <c r="G176" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H176" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I176" s="32"/>
-      <c r="J176" s="17"/>
+      <c r="J176" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K176" s="17"/>
     </row>
-    <row r="177" spans="1:11" ht="94.5">
+    <row r="177" spans="1:11" ht="63">
       <c r="A177" s="12">
         <v>160</v>
       </c>
-      <c r="B177" s="72" t="s">
-        <v>55</v>
-      </c>
+      <c r="B177" s="72"/>
       <c r="C177" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D177" s="95" t="s">
-        <v>428</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D177" s="98"/>
       <c r="E177" s="31" t="s">
-        <v>331</v>
-      </c>
-      <c r="F177" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="G177" s="73"/>
-      <c r="H177" s="17"/>
+        <v>328</v>
+      </c>
+      <c r="F177" s="98"/>
+      <c r="G177" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H177" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I177" s="32"/>
-      <c r="J177" s="17"/>
+      <c r="J177" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K177" s="17"/>
     </row>
-    <row r="178" spans="1:11" ht="94.5">
+    <row r="178" spans="1:11" ht="63">
       <c r="A178" s="12">
         <v>161</v>
       </c>
       <c r="B178" s="72"/>
       <c r="C178" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D178" s="96"/>
+        <v>26</v>
+      </c>
+      <c r="D178" s="98"/>
       <c r="E178" s="31" t="s">
-        <v>332</v>
-      </c>
-      <c r="F178" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="G178" s="73"/>
-      <c r="H178" s="17"/>
+        <v>329</v>
+      </c>
+      <c r="F178" s="98"/>
+      <c r="G178" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H178" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I178" s="32"/>
-      <c r="J178" s="17"/>
+      <c r="J178" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K178" s="17"/>
     </row>
-    <row r="179" spans="1:11" ht="94.5">
+    <row r="179" spans="1:11" ht="47.25">
       <c r="A179" s="12">
         <v>162</v>
       </c>
       <c r="B179" s="72"/>
       <c r="C179" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D179" s="96"/>
+        <v>27</v>
+      </c>
+      <c r="D179" s="99"/>
       <c r="E179" s="31" t="s">
-        <v>333</v>
-      </c>
-      <c r="F179" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="G179" s="73"/>
-      <c r="H179" s="17"/>
+        <v>321</v>
+      </c>
+      <c r="F179" s="99"/>
+      <c r="G179" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H179" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I179" s="32"/>
-      <c r="J179" s="17"/>
+      <c r="J179" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K179" s="17"/>
     </row>
     <row r="180" spans="1:11" ht="94.5">
       <c r="A180" s="12">
         <v>163</v>
       </c>
-      <c r="B180" s="72"/>
+      <c r="B180" s="72" t="s">
+        <v>55</v>
+      </c>
       <c r="C180" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D180" s="96"/>
+        <v>16</v>
+      </c>
+      <c r="D180" s="97" t="s">
+        <v>428</v>
+      </c>
       <c r="E180" s="31" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F180" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="G180" s="73"/>
-      <c r="H180" s="17"/>
+        <v>99</v>
+      </c>
+      <c r="G180" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H180" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I180" s="32"/>
-      <c r="J180" s="17"/>
+      <c r="J180" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K180" s="17"/>
     </row>
-    <row r="181" spans="1:11" ht="126">
+    <row r="181" spans="1:11" ht="94.5">
       <c r="A181" s="12">
         <v>164</v>
       </c>
       <c r="B181" s="72"/>
       <c r="C181" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D181" s="96"/>
+        <v>17</v>
+      </c>
+      <c r="D181" s="98"/>
       <c r="E181" s="31" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F181" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="G181" s="73"/>
-      <c r="H181" s="17"/>
+        <v>98</v>
+      </c>
+      <c r="G181" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H181" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I181" s="32"/>
-      <c r="J181" s="17"/>
+      <c r="J181" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K181" s="17"/>
     </row>
-    <row r="182" spans="1:11" ht="110.25">
+    <row r="182" spans="1:11" ht="94.5">
       <c r="A182" s="12">
         <v>165</v>
       </c>
       <c r="B182" s="72"/>
       <c r="C182" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D182" s="96"/>
+        <v>18</v>
+      </c>
+      <c r="D182" s="98"/>
       <c r="E182" s="31" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="F182" s="32" t="s">
-        <v>341</v>
-      </c>
-      <c r="G182" s="73"/>
-      <c r="H182" s="17"/>
+        <v>100</v>
+      </c>
+      <c r="G182" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H182" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I182" s="32"/>
-      <c r="J182" s="17"/>
+      <c r="J182" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K182" s="17"/>
     </row>
     <row r="183" spans="1:11" ht="94.5">
@@ -19930,40 +20465,52 @@
       </c>
       <c r="B183" s="72"/>
       <c r="C183" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D183" s="96"/>
+        <v>19</v>
+      </c>
+      <c r="D183" s="98"/>
       <c r="E183" s="31" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F183" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="G183" s="73"/>
-      <c r="H183" s="17"/>
+        <v>101</v>
+      </c>
+      <c r="G183" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H183" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I183" s="32"/>
-      <c r="J183" s="17"/>
+      <c r="J183" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K183" s="17"/>
     </row>
-    <row r="184" spans="1:11" ht="47.25">
+    <row r="184" spans="1:11" ht="126">
       <c r="A184" s="12">
         <v>167</v>
       </c>
       <c r="B184" s="72"/>
       <c r="C184" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D184" s="96"/>
+        <v>20</v>
+      </c>
+      <c r="D184" s="98"/>
       <c r="E184" s="31" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F184" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="G184" s="73"/>
-      <c r="H184" s="17"/>
+        <v>89</v>
+      </c>
+      <c r="G184" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H184" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I184" s="32"/>
-      <c r="J184" s="17"/>
+      <c r="J184" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K184" s="17"/>
     </row>
     <row r="185" spans="1:11" ht="110.25">
@@ -19972,122 +20519,164 @@
       </c>
       <c r="B185" s="72"/>
       <c r="C185" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D185" s="96"/>
+        <v>21</v>
+      </c>
+      <c r="D185" s="98"/>
       <c r="E185" s="31" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F185" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="G185" s="73"/>
-      <c r="H185" s="17"/>
+        <v>341</v>
+      </c>
+      <c r="G185" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H185" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I185" s="32"/>
-      <c r="J185" s="17"/>
+      <c r="J185" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K185" s="17"/>
     </row>
-    <row r="186" spans="1:11" ht="110.25">
+    <row r="186" spans="1:11" ht="94.5">
       <c r="A186" s="12">
         <v>169</v>
       </c>
       <c r="B186" s="72"/>
       <c r="C186" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D186" s="97"/>
+        <v>23</v>
+      </c>
+      <c r="D186" s="98"/>
       <c r="E186" s="31" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F186" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="G186" s="73"/>
-      <c r="H186" s="17"/>
+        <v>103</v>
+      </c>
+      <c r="G186" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H186" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I186" s="32"/>
-      <c r="J186" s="17"/>
+      <c r="J186" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K186" s="17"/>
     </row>
-    <row r="187" spans="1:11" ht="31.5">
+    <row r="187" spans="1:11" ht="47.25">
       <c r="A187" s="12">
         <v>170</v>
       </c>
-      <c r="B187" s="72" t="s">
-        <v>55</v>
-      </c>
+      <c r="B187" s="72"/>
       <c r="C187" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D187" s="95" t="s">
-        <v>430</v>
-      </c>
-      <c r="E187" s="95" t="s">
-        <v>429</v>
+        <v>24</v>
+      </c>
+      <c r="D187" s="98"/>
+      <c r="E187" s="31" t="s">
+        <v>337</v>
       </c>
       <c r="F187" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="G187" s="73"/>
-      <c r="H187" s="17"/>
+        <v>104</v>
+      </c>
+      <c r="G187" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H187" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I187" s="32"/>
-      <c r="J187" s="17"/>
+      <c r="J187" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K187" s="17"/>
     </row>
-    <row r="188" spans="1:11" ht="31.5">
+    <row r="188" spans="1:11" ht="110.25">
       <c r="A188" s="12">
         <v>171</v>
       </c>
       <c r="B188" s="72"/>
       <c r="C188" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D188" s="96"/>
-      <c r="E188" s="96"/>
+        <v>25</v>
+      </c>
+      <c r="D188" s="98"/>
+      <c r="E188" s="31" t="s">
+        <v>338</v>
+      </c>
       <c r="F188" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="G188" s="73"/>
-      <c r="H188" s="17"/>
+        <v>105</v>
+      </c>
+      <c r="G188" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H188" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I188" s="32"/>
-      <c r="J188" s="17"/>
+      <c r="J188" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K188" s="17"/>
     </row>
-    <row r="189" spans="1:11" ht="31.5">
+    <row r="189" spans="1:11" ht="110.25">
       <c r="A189" s="12">
         <v>172</v>
       </c>
       <c r="B189" s="72"/>
       <c r="C189" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D189" s="96"/>
-      <c r="E189" s="96"/>
+        <v>26</v>
+      </c>
+      <c r="D189" s="99"/>
+      <c r="E189" s="31" t="s">
+        <v>339</v>
+      </c>
       <c r="F189" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="G189" s="73"/>
-      <c r="H189" s="17"/>
+        <v>106</v>
+      </c>
+      <c r="G189" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H189" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I189" s="32"/>
-      <c r="J189" s="17"/>
+      <c r="J189" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K189" s="17"/>
     </row>
     <row r="190" spans="1:11" ht="31.5">
       <c r="A190" s="12">
         <v>173</v>
       </c>
-      <c r="B190" s="72"/>
+      <c r="B190" s="72" t="s">
+        <v>55</v>
+      </c>
       <c r="C190" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D190" s="96"/>
-      <c r="E190" s="96"/>
+        <v>16</v>
+      </c>
+      <c r="D190" s="97" t="s">
+        <v>430</v>
+      </c>
+      <c r="E190" s="97" t="s">
+        <v>429</v>
+      </c>
       <c r="F190" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="G190" s="73"/>
-      <c r="H190" s="17"/>
+        <v>108</v>
+      </c>
+      <c r="G190" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H190" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I190" s="32"/>
-      <c r="J190" s="17"/>
+      <c r="J190" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K190" s="17"/>
     </row>
     <row r="191" spans="1:11" ht="31.5">
@@ -20096,17 +20685,23 @@
       </c>
       <c r="B191" s="72"/>
       <c r="C191" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D191" s="96"/>
-      <c r="E191" s="96"/>
+        <v>17</v>
+      </c>
+      <c r="D191" s="98"/>
+      <c r="E191" s="98"/>
       <c r="F191" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="G191" s="73"/>
-      <c r="H191" s="17"/>
+        <v>109</v>
+      </c>
+      <c r="G191" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H191" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I191" s="32"/>
-      <c r="J191" s="17"/>
+      <c r="J191" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K191" s="17"/>
     </row>
     <row r="192" spans="1:11" ht="31.5">
@@ -20115,17 +20710,23 @@
       </c>
       <c r="B192" s="72"/>
       <c r="C192" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D192" s="96"/>
-      <c r="E192" s="96"/>
+        <v>18</v>
+      </c>
+      <c r="D192" s="98"/>
+      <c r="E192" s="98"/>
       <c r="F192" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="G192" s="73"/>
-      <c r="H192" s="17"/>
+        <v>112</v>
+      </c>
+      <c r="G192" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H192" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I192" s="32"/>
-      <c r="J192" s="17"/>
+      <c r="J192" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K192" s="17"/>
     </row>
     <row r="193" spans="1:11" ht="31.5">
@@ -20134,17 +20735,23 @@
       </c>
       <c r="B193" s="72"/>
       <c r="C193" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D193" s="96"/>
-      <c r="E193" s="96"/>
+        <v>19</v>
+      </c>
+      <c r="D193" s="98"/>
+      <c r="E193" s="98"/>
       <c r="F193" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="G193" s="73"/>
-      <c r="H193" s="17"/>
+        <v>113</v>
+      </c>
+      <c r="G193" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H193" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I193" s="32"/>
-      <c r="J193" s="17"/>
+      <c r="J193" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K193" s="17"/>
     </row>
     <row r="194" spans="1:11" ht="31.5">
@@ -20153,17 +20760,23 @@
       </c>
       <c r="B194" s="72"/>
       <c r="C194" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D194" s="96"/>
-      <c r="E194" s="96"/>
+        <v>20</v>
+      </c>
+      <c r="D194" s="98"/>
+      <c r="E194" s="98"/>
       <c r="F194" s="32" t="s">
-        <v>431</v>
-      </c>
-      <c r="G194" s="73"/>
-      <c r="H194" s="17"/>
+        <v>114</v>
+      </c>
+      <c r="G194" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H194" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I194" s="32"/>
-      <c r="J194" s="17"/>
+      <c r="J194" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K194" s="17"/>
     </row>
     <row r="195" spans="1:11" ht="31.5">
@@ -20172,17 +20785,23 @@
       </c>
       <c r="B195" s="72"/>
       <c r="C195" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D195" s="96"/>
-      <c r="E195" s="96"/>
+        <v>21</v>
+      </c>
+      <c r="D195" s="98"/>
+      <c r="E195" s="98"/>
       <c r="F195" s="32" t="s">
-        <v>432</v>
-      </c>
-      <c r="G195" s="73"/>
-      <c r="H195" s="17"/>
+        <v>111</v>
+      </c>
+      <c r="G195" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H195" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I195" s="32"/>
-      <c r="J195" s="17"/>
+      <c r="J195" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K195" s="17"/>
     </row>
     <row r="196" spans="1:11" ht="31.5">
@@ -20191,17 +20810,23 @@
       </c>
       <c r="B196" s="72"/>
       <c r="C196" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D196" s="96"/>
-      <c r="E196" s="96"/>
+        <v>22</v>
+      </c>
+      <c r="D196" s="98"/>
+      <c r="E196" s="98"/>
       <c r="F196" s="32" t="s">
-        <v>433</v>
-      </c>
-      <c r="G196" s="73"/>
-      <c r="H196" s="17"/>
+        <v>115</v>
+      </c>
+      <c r="G196" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H196" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I196" s="32"/>
-      <c r="J196" s="17"/>
+      <c r="J196" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K196" s="17"/>
     </row>
     <row r="197" spans="1:11" ht="31.5">
@@ -20210,17 +20835,23 @@
       </c>
       <c r="B197" s="72"/>
       <c r="C197" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D197" s="96"/>
-      <c r="E197" s="96"/>
+        <v>23</v>
+      </c>
+      <c r="D197" s="98"/>
+      <c r="E197" s="98"/>
       <c r="F197" s="32" t="s">
-        <v>434</v>
-      </c>
-      <c r="G197" s="73"/>
-      <c r="H197" s="17"/>
+        <v>431</v>
+      </c>
+      <c r="G197" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H197" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I197" s="32"/>
-      <c r="J197" s="17"/>
+      <c r="J197" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K197" s="17"/>
     </row>
     <row r="198" spans="1:11" ht="31.5">
@@ -20229,120 +20860,162 @@
       </c>
       <c r="B198" s="72"/>
       <c r="C198" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D198" s="97"/>
-      <c r="E198" s="97"/>
+        <v>24</v>
+      </c>
+      <c r="D198" s="98"/>
+      <c r="E198" s="98"/>
       <c r="F198" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="G198" s="73"/>
-      <c r="H198" s="17"/>
+        <v>432</v>
+      </c>
+      <c r="G198" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H198" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I198" s="32"/>
-      <c r="J198" s="17"/>
+      <c r="J198" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K198" s="17"/>
     </row>
-    <row r="199" spans="1:11" ht="47.25">
+    <row r="199" spans="1:11" ht="31.5">
       <c r="A199" s="12">
         <v>182</v>
       </c>
-      <c r="B199" s="72" t="s">
-        <v>156</v>
-      </c>
+      <c r="B199" s="72"/>
       <c r="C199" s="24" t="s">
-        <v>294</v>
-      </c>
-      <c r="D199" s="90" t="s">
-        <v>435</v>
-      </c>
-      <c r="E199" s="72" t="s">
-        <v>497</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D199" s="98"/>
+      <c r="E199" s="98"/>
       <c r="F199" s="32" t="s">
-        <v>437</v>
-      </c>
-      <c r="G199" s="73"/>
-      <c r="H199" s="17"/>
-      <c r="I199" s="32" t="s">
-        <v>496</v>
-      </c>
-      <c r="J199" s="17"/>
+        <v>433</v>
+      </c>
+      <c r="G199" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H199" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="I199" s="32"/>
+      <c r="J199" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K199" s="17"/>
     </row>
-    <row r="200" spans="1:11" ht="11.25" customHeight="1">
+    <row r="200" spans="1:11" ht="31.5">
       <c r="A200" s="12">
         <v>183</v>
       </c>
-      <c r="B200" s="72" t="s">
-        <v>55</v>
-      </c>
+      <c r="B200" s="72"/>
       <c r="C200" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D200" s="95" t="s">
-        <v>435</v>
-      </c>
-      <c r="E200" s="95" t="s">
-        <v>436</v>
-      </c>
-      <c r="F200" s="111" t="s">
-        <v>439</v>
-      </c>
-      <c r="G200" s="73"/>
-      <c r="H200" s="17"/>
+        <v>26</v>
+      </c>
+      <c r="D200" s="98"/>
+      <c r="E200" s="98"/>
+      <c r="F200" s="32" t="s">
+        <v>434</v>
+      </c>
+      <c r="G200" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H200" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I200" s="32"/>
-      <c r="J200" s="17"/>
+      <c r="J200" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K200" s="17"/>
     </row>
-    <row r="201" spans="1:11" ht="11.25" customHeight="1">
+    <row r="201" spans="1:11" ht="31.5">
       <c r="A201" s="12">
         <v>184</v>
       </c>
       <c r="B201" s="72"/>
       <c r="C201" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D201" s="96"/>
-      <c r="E201" s="96"/>
-      <c r="F201" s="112"/>
-      <c r="G201" s="73"/>
-      <c r="H201" s="17"/>
+        <v>27</v>
+      </c>
+      <c r="D201" s="99"/>
+      <c r="E201" s="99"/>
+      <c r="F201" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="G201" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H201" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I201" s="32"/>
-      <c r="J201" s="17"/>
+      <c r="J201" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K201" s="17"/>
     </row>
-    <row r="202" spans="1:11" ht="11.25" customHeight="1">
+    <row r="202" spans="1:11" ht="47.25">
       <c r="A202" s="12">
         <v>185</v>
       </c>
-      <c r="B202" s="72"/>
+      <c r="B202" s="72" t="s">
+        <v>156</v>
+      </c>
       <c r="C202" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D202" s="96"/>
-      <c r="E202" s="96"/>
-      <c r="F202" s="112"/>
-      <c r="G202" s="73"/>
-      <c r="H202" s="17"/>
-      <c r="I202" s="32"/>
-      <c r="J202" s="17"/>
+        <v>294</v>
+      </c>
+      <c r="D202" s="90" t="s">
+        <v>435</v>
+      </c>
+      <c r="E202" s="72" t="s">
+        <v>495</v>
+      </c>
+      <c r="F202" s="32" t="s">
+        <v>437</v>
+      </c>
+      <c r="G202" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H202" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="I202" s="32" t="s">
+        <v>514</v>
+      </c>
+      <c r="J202" s="17" t="s">
+        <v>512</v>
+      </c>
       <c r="K202" s="17"/>
     </row>
     <row r="203" spans="1:11" ht="11.25" customHeight="1">
       <c r="A203" s="12">
         <v>186</v>
       </c>
-      <c r="B203" s="72"/>
+      <c r="B203" s="72" t="s">
+        <v>55</v>
+      </c>
       <c r="C203" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D203" s="96"/>
-      <c r="E203" s="96"/>
-      <c r="F203" s="112"/>
-      <c r="G203" s="73"/>
-      <c r="H203" s="17"/>
+        <v>16</v>
+      </c>
+      <c r="D203" s="97" t="s">
+        <v>435</v>
+      </c>
+      <c r="E203" s="97" t="s">
+        <v>436</v>
+      </c>
+      <c r="F203" s="117" t="s">
+        <v>439</v>
+      </c>
+      <c r="G203" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H203" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I203" s="32"/>
-      <c r="J203" s="17"/>
+      <c r="J203" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K203" s="17"/>
     </row>
     <row r="204" spans="1:11" ht="11.25" customHeight="1">
@@ -20351,125 +21024,163 @@
       </c>
       <c r="B204" s="72"/>
       <c r="C204" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D204" s="96"/>
-      <c r="E204" s="96"/>
-      <c r="F204" s="112"/>
-      <c r="G204" s="73"/>
-      <c r="H204" s="17"/>
+        <v>17</v>
+      </c>
+      <c r="D204" s="98"/>
+      <c r="E204" s="98"/>
+      <c r="F204" s="118"/>
+      <c r="G204" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H204" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I204" s="32"/>
-      <c r="J204" s="17"/>
+      <c r="J204" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K204" s="17"/>
     </row>
-    <row r="205" spans="1:11" ht="12" customHeight="1">
+    <row r="205" spans="1:11" ht="11.25" customHeight="1">
       <c r="A205" s="12">
         <v>188</v>
       </c>
       <c r="B205" s="72"/>
       <c r="C205" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D205" s="96"/>
-      <c r="E205" s="96"/>
-      <c r="F205" s="113"/>
-      <c r="G205" s="73"/>
-      <c r="H205" s="17"/>
+        <v>18</v>
+      </c>
+      <c r="D205" s="98"/>
+      <c r="E205" s="98"/>
+      <c r="F205" s="118"/>
+      <c r="G205" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H205" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I205" s="32"/>
-      <c r="J205" s="17"/>
+      <c r="J205" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K205" s="17"/>
     </row>
-    <row r="206" spans="1:11" ht="31.5">
+    <row r="206" spans="1:11" ht="11.25" customHeight="1">
       <c r="A206" s="12">
         <v>189</v>
       </c>
       <c r="B206" s="72"/>
       <c r="C206" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D206" s="96"/>
-      <c r="E206" s="96"/>
-      <c r="F206" s="32" t="s">
-        <v>440</v>
-      </c>
-      <c r="G206" s="73"/>
-      <c r="H206" s="17"/>
+        <v>19</v>
+      </c>
+      <c r="D206" s="98"/>
+      <c r="E206" s="98"/>
+      <c r="F206" s="118"/>
+      <c r="G206" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H206" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I206" s="32"/>
-      <c r="J206" s="17"/>
+      <c r="J206" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K206" s="17"/>
     </row>
-    <row r="207" spans="1:11" ht="47.25">
+    <row r="207" spans="1:11" ht="11.25" customHeight="1">
       <c r="A207" s="12">
         <v>190</v>
       </c>
       <c r="B207" s="72"/>
       <c r="C207" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D207" s="96"/>
-      <c r="E207" s="96"/>
-      <c r="F207" s="32" t="s">
-        <v>438</v>
-      </c>
-      <c r="G207" s="73"/>
-      <c r="H207" s="17"/>
+        <v>20</v>
+      </c>
+      <c r="D207" s="98"/>
+      <c r="E207" s="98"/>
+      <c r="F207" s="118"/>
+      <c r="G207" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H207" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I207" s="32"/>
-      <c r="J207" s="17"/>
+      <c r="J207" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K207" s="17"/>
     </row>
-    <row r="208" spans="1:11" ht="31.5">
+    <row r="208" spans="1:11" ht="12" customHeight="1">
       <c r="A208" s="12">
         <v>191</v>
       </c>
       <c r="B208" s="72"/>
       <c r="C208" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D208" s="96"/>
-      <c r="E208" s="96"/>
-      <c r="F208" s="32" t="s">
-        <v>442</v>
-      </c>
-      <c r="G208" s="73"/>
-      <c r="H208" s="17"/>
+        <v>21</v>
+      </c>
+      <c r="D208" s="98"/>
+      <c r="E208" s="98"/>
+      <c r="F208" s="119"/>
+      <c r="G208" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H208" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I208" s="32"/>
-      <c r="J208" s="17"/>
+      <c r="J208" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K208" s="17"/>
     </row>
-    <row r="209" spans="1:11" ht="24" customHeight="1">
+    <row r="209" spans="1:11" ht="31.5">
       <c r="A209" s="12">
         <v>192</v>
       </c>
       <c r="B209" s="72"/>
       <c r="C209" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D209" s="96"/>
-      <c r="E209" s="96"/>
-      <c r="F209" s="111" t="s">
-        <v>438</v>
-      </c>
-      <c r="G209" s="73"/>
-      <c r="H209" s="17"/>
+        <v>22</v>
+      </c>
+      <c r="D209" s="98"/>
+      <c r="E209" s="98"/>
+      <c r="F209" s="32" t="s">
+        <v>440</v>
+      </c>
+      <c r="G209" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H209" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I209" s="32"/>
-      <c r="J209" s="17"/>
+      <c r="J209" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K209" s="17"/>
     </row>
-    <row r="210" spans="1:11" ht="27" customHeight="1">
+    <row r="210" spans="1:11" ht="47.25">
       <c r="A210" s="12">
         <v>193</v>
       </c>
       <c r="B210" s="72"/>
       <c r="C210" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D210" s="96"/>
-      <c r="E210" s="96"/>
-      <c r="F210" s="113"/>
-      <c r="G210" s="73"/>
-      <c r="H210" s="17"/>
+        <v>23</v>
+      </c>
+      <c r="D210" s="98"/>
+      <c r="E210" s="98"/>
+      <c r="F210" s="32" t="s">
+        <v>438</v>
+      </c>
+      <c r="G210" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H210" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I210" s="32"/>
-      <c r="J210" s="17"/>
+      <c r="J210" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K210" s="17"/>
     </row>
     <row r="211" spans="1:11" ht="31.5">
@@ -20478,128 +21189,158 @@
       </c>
       <c r="B211" s="72"/>
       <c r="C211" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D211" s="97"/>
-      <c r="E211" s="97"/>
+        <v>24</v>
+      </c>
+      <c r="D211" s="98"/>
+      <c r="E211" s="98"/>
       <c r="F211" s="32" t="s">
-        <v>441</v>
-      </c>
-      <c r="G211" s="73"/>
-      <c r="H211" s="17"/>
+        <v>442</v>
+      </c>
+      <c r="G211" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H211" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I211" s="32"/>
-      <c r="J211" s="17"/>
+      <c r="J211" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K211" s="17"/>
     </row>
-    <row r="212" spans="1:11" ht="47.25">
+    <row r="212" spans="1:11" ht="24" customHeight="1">
       <c r="A212" s="12">
         <v>195</v>
       </c>
-      <c r="B212" s="72" t="s">
-        <v>156</v>
-      </c>
-      <c r="C212" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="D212" s="72" t="s">
-        <v>443</v>
-      </c>
-      <c r="E212" s="72" t="s">
-        <v>444</v>
-      </c>
-      <c r="F212" s="37" t="s">
-        <v>445</v>
-      </c>
-      <c r="G212" s="73"/>
-      <c r="H212" s="17"/>
+      <c r="B212" s="72"/>
+      <c r="C212" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D212" s="98"/>
+      <c r="E212" s="98"/>
+      <c r="F212" s="117" t="s">
+        <v>438</v>
+      </c>
+      <c r="G212" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H212" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I212" s="32"/>
-      <c r="J212" s="17"/>
+      <c r="J212" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K212" s="17"/>
     </row>
-    <row r="213" spans="1:11" ht="47.25">
+    <row r="213" spans="1:11" ht="27" customHeight="1">
       <c r="A213" s="12">
         <v>196</v>
       </c>
-      <c r="B213" s="72" t="s">
-        <v>55</v>
-      </c>
-      <c r="C213" s="37" t="s">
-        <v>453</v>
-      </c>
-      <c r="D213" s="72" t="s">
-        <v>446</v>
-      </c>
-      <c r="E213" s="72" t="s">
-        <v>444</v>
-      </c>
-      <c r="F213" s="37" t="s">
-        <v>454</v>
-      </c>
-      <c r="G213" s="73"/>
-      <c r="H213" s="17"/>
+      <c r="B213" s="72"/>
+      <c r="C213" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D213" s="98"/>
+      <c r="E213" s="98"/>
+      <c r="F213" s="119"/>
+      <c r="G213" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H213" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I213" s="32"/>
-      <c r="J213" s="17"/>
+      <c r="J213" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K213" s="17"/>
     </row>
-    <row r="214" spans="1:11" ht="63">
+    <row r="214" spans="1:11" ht="31.5">
       <c r="A214" s="12">
         <v>197</v>
       </c>
       <c r="B214" s="72"/>
       <c r="C214" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D214" s="95" t="s">
-        <v>450</v>
-      </c>
-      <c r="E214" s="95" t="s">
-        <v>451</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D214" s="99"/>
+      <c r="E214" s="99"/>
       <c r="F214" s="32" t="s">
-        <v>477</v>
-      </c>
-      <c r="G214" s="73"/>
-      <c r="H214" s="17"/>
+        <v>441</v>
+      </c>
+      <c r="G214" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H214" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I214" s="32"/>
-      <c r="J214" s="17"/>
+      <c r="J214" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K214" s="17"/>
     </row>
-    <row r="215" spans="1:11" ht="63">
+    <row r="215" spans="1:11" ht="47.25">
       <c r="A215" s="12">
         <v>198</v>
       </c>
-      <c r="B215" s="72"/>
-      <c r="C215" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D215" s="96"/>
-      <c r="E215" s="96"/>
-      <c r="F215" s="32" t="s">
-        <v>478</v>
-      </c>
-      <c r="G215" s="73"/>
-      <c r="H215" s="17"/>
+      <c r="B215" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="C215" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="D215" s="72" t="s">
+        <v>443</v>
+      </c>
+      <c r="E215" s="72" t="s">
+        <v>444</v>
+      </c>
+      <c r="F215" s="37" t="s">
+        <v>445</v>
+      </c>
+      <c r="G215" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H215" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I215" s="32"/>
-      <c r="J215" s="17"/>
+      <c r="J215" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K215" s="17"/>
     </row>
-    <row r="216" spans="1:11" ht="63">
+    <row r="216" spans="1:11" ht="47.25">
       <c r="A216" s="12">
         <v>199</v>
       </c>
-      <c r="B216" s="72"/>
-      <c r="C216" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D216" s="96"/>
-      <c r="E216" s="96"/>
-      <c r="F216" s="32" t="s">
-        <v>479</v>
-      </c>
-      <c r="G216" s="73"/>
-      <c r="H216" s="17"/>
+      <c r="B216" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="C216" s="37" t="s">
+        <v>453</v>
+      </c>
+      <c r="D216" s="72" t="s">
+        <v>446</v>
+      </c>
+      <c r="E216" s="72" t="s">
+        <v>444</v>
+      </c>
+      <c r="F216" s="37" t="s">
+        <v>454</v>
+      </c>
+      <c r="G216" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H216" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I216" s="32"/>
-      <c r="J216" s="17"/>
+      <c r="J216" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K216" s="17"/>
     </row>
     <row r="217" spans="1:11" ht="63">
@@ -20608,17 +21349,27 @@
       </c>
       <c r="B217" s="72"/>
       <c r="C217" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D217" s="96"/>
-      <c r="E217" s="96"/>
+        <v>16</v>
+      </c>
+      <c r="D217" s="97" t="s">
+        <v>450</v>
+      </c>
+      <c r="E217" s="97" t="s">
+        <v>451</v>
+      </c>
       <c r="F217" s="32" t="s">
-        <v>480</v>
-      </c>
-      <c r="G217" s="73"/>
-      <c r="H217" s="17"/>
+        <v>477</v>
+      </c>
+      <c r="G217" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H217" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I217" s="32"/>
-      <c r="J217" s="17"/>
+      <c r="J217" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K217" s="17"/>
     </row>
     <row r="218" spans="1:11" ht="63">
@@ -20627,36 +21378,48 @@
       </c>
       <c r="B218" s="72"/>
       <c r="C218" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D218" s="96"/>
-      <c r="E218" s="96"/>
+        <v>17</v>
+      </c>
+      <c r="D218" s="98"/>
+      <c r="E218" s="98"/>
       <c r="F218" s="32" t="s">
-        <v>481</v>
-      </c>
-      <c r="G218" s="73"/>
-      <c r="H218" s="17"/>
+        <v>478</v>
+      </c>
+      <c r="G218" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H218" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I218" s="32"/>
-      <c r="J218" s="17"/>
+      <c r="J218" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K218" s="17"/>
     </row>
-    <row r="219" spans="1:11" ht="78.75">
+    <row r="219" spans="1:11" ht="63">
       <c r="A219" s="12">
         <v>202</v>
       </c>
       <c r="B219" s="72"/>
       <c r="C219" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D219" s="96"/>
-      <c r="E219" s="96"/>
+        <v>18</v>
+      </c>
+      <c r="D219" s="98"/>
+      <c r="E219" s="98"/>
       <c r="F219" s="32" t="s">
-        <v>482</v>
-      </c>
-      <c r="G219" s="73"/>
-      <c r="H219" s="17"/>
+        <v>479</v>
+      </c>
+      <c r="G219" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H219" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I219" s="32"/>
-      <c r="J219" s="17"/>
+      <c r="J219" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K219" s="17"/>
     </row>
     <row r="220" spans="1:11" ht="63">
@@ -20665,17 +21428,23 @@
       </c>
       <c r="B220" s="72"/>
       <c r="C220" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D220" s="96"/>
-      <c r="E220" s="96"/>
+        <v>19</v>
+      </c>
+      <c r="D220" s="98"/>
+      <c r="E220" s="98"/>
       <c r="F220" s="32" t="s">
-        <v>483</v>
-      </c>
-      <c r="G220" s="73"/>
-      <c r="H220" s="17"/>
+        <v>480</v>
+      </c>
+      <c r="G220" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H220" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I220" s="32"/>
-      <c r="J220" s="17"/>
+      <c r="J220" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K220" s="17"/>
     </row>
     <row r="221" spans="1:11" ht="63">
@@ -20684,36 +21453,48 @@
       </c>
       <c r="B221" s="72"/>
       <c r="C221" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D221" s="96"/>
-      <c r="E221" s="96"/>
+        <v>20</v>
+      </c>
+      <c r="D221" s="98"/>
+      <c r="E221" s="98"/>
       <c r="F221" s="32" t="s">
-        <v>484</v>
-      </c>
-      <c r="G221" s="73"/>
-      <c r="H221" s="17"/>
+        <v>481</v>
+      </c>
+      <c r="G221" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H221" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I221" s="32"/>
-      <c r="J221" s="17"/>
+      <c r="J221" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K221" s="17"/>
     </row>
-    <row r="222" spans="1:11" ht="63">
+    <row r="222" spans="1:11" ht="78.75">
       <c r="A222" s="12">
         <v>205</v>
       </c>
       <c r="B222" s="72"/>
       <c r="C222" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D222" s="96"/>
-      <c r="E222" s="96"/>
+        <v>21</v>
+      </c>
+      <c r="D222" s="98"/>
+      <c r="E222" s="98"/>
       <c r="F222" s="32" t="s">
-        <v>485</v>
-      </c>
-      <c r="G222" s="73"/>
-      <c r="H222" s="17"/>
+        <v>482</v>
+      </c>
+      <c r="G222" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H222" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I222" s="32"/>
-      <c r="J222" s="17"/>
+      <c r="J222" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K222" s="17"/>
     </row>
     <row r="223" spans="1:11" ht="63">
@@ -20722,17 +21503,23 @@
       </c>
       <c r="B223" s="72"/>
       <c r="C223" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D223" s="96"/>
-      <c r="E223" s="96"/>
+        <v>22</v>
+      </c>
+      <c r="D223" s="98"/>
+      <c r="E223" s="98"/>
       <c r="F223" s="32" t="s">
-        <v>486</v>
-      </c>
-      <c r="G223" s="73"/>
-      <c r="H223" s="17"/>
+        <v>483</v>
+      </c>
+      <c r="G223" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H223" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I223" s="32"/>
-      <c r="J223" s="17"/>
+      <c r="J223" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K223" s="17"/>
     </row>
     <row r="224" spans="1:11" ht="63">
@@ -20741,36 +21528,48 @@
       </c>
       <c r="B224" s="72"/>
       <c r="C224" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D224" s="96"/>
-      <c r="E224" s="96"/>
+        <v>23</v>
+      </c>
+      <c r="D224" s="98"/>
+      <c r="E224" s="98"/>
       <c r="F224" s="32" t="s">
-        <v>487</v>
-      </c>
-      <c r="G224" s="73"/>
-      <c r="H224" s="17"/>
+        <v>484</v>
+      </c>
+      <c r="G224" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H224" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I224" s="32"/>
-      <c r="J224" s="17"/>
+      <c r="J224" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K224" s="17"/>
     </row>
-    <row r="225" spans="1:11" ht="47.25">
+    <row r="225" spans="1:11" ht="63">
       <c r="A225" s="12">
         <v>208</v>
       </c>
       <c r="B225" s="72"/>
       <c r="C225" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D225" s="96"/>
-      <c r="E225" s="96"/>
+        <v>24</v>
+      </c>
+      <c r="D225" s="98"/>
+      <c r="E225" s="98"/>
       <c r="F225" s="32" t="s">
-        <v>476</v>
-      </c>
-      <c r="G225" s="73"/>
-      <c r="H225" s="17"/>
+        <v>485</v>
+      </c>
+      <c r="G225" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H225" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I225" s="32"/>
-      <c r="J225" s="17"/>
+      <c r="J225" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K225" s="17"/>
     </row>
     <row r="226" spans="1:11" ht="63">
@@ -20779,17 +21578,23 @@
       </c>
       <c r="B226" s="72"/>
       <c r="C226" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="D226" s="96"/>
-      <c r="E226" s="96"/>
-      <c r="F226" s="31" t="s">
-        <v>488</v>
-      </c>
-      <c r="G226" s="73"/>
-      <c r="H226" s="17"/>
+        <v>25</v>
+      </c>
+      <c r="D226" s="98"/>
+      <c r="E226" s="98"/>
+      <c r="F226" s="32" t="s">
+        <v>486</v>
+      </c>
+      <c r="G226" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H226" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I226" s="32"/>
-      <c r="J226" s="17"/>
+      <c r="J226" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K226" s="17"/>
     </row>
     <row r="227" spans="1:11" ht="63">
@@ -20798,161 +21603,191 @@
       </c>
       <c r="B227" s="72"/>
       <c r="C227" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="D227" s="97"/>
-      <c r="E227" s="97"/>
-      <c r="F227" s="31" t="s">
-        <v>489</v>
-      </c>
-      <c r="G227" s="73"/>
-      <c r="H227" s="17"/>
+        <v>26</v>
+      </c>
+      <c r="D227" s="98"/>
+      <c r="E227" s="98"/>
+      <c r="F227" s="32" t="s">
+        <v>487</v>
+      </c>
+      <c r="G227" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H227" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I227" s="32"/>
-      <c r="J227" s="17"/>
+      <c r="J227" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K227" s="17"/>
     </row>
     <row r="228" spans="1:11" ht="47.25">
       <c r="A228" s="12">
         <v>211</v>
       </c>
-      <c r="B228" s="72" t="s">
-        <v>55</v>
-      </c>
-      <c r="C228" s="37" t="s">
-        <v>452</v>
-      </c>
-      <c r="D228" s="72" t="s">
-        <v>446</v>
-      </c>
-      <c r="E228" s="72" t="s">
-        <v>444</v>
-      </c>
+      <c r="B228" s="72"/>
+      <c r="C228" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D228" s="98"/>
+      <c r="E228" s="98"/>
       <c r="F228" s="32" t="s">
-        <v>447</v>
-      </c>
-      <c r="G228" s="73"/>
-      <c r="H228" s="17"/>
+        <v>476</v>
+      </c>
+      <c r="G228" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H228" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I228" s="32"/>
-      <c r="J228" s="17"/>
+      <c r="J228" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K228" s="17"/>
     </row>
-    <row r="229" spans="1:11" ht="47.25">
+    <row r="229" spans="1:11" ht="63">
       <c r="A229" s="12">
         <v>212</v>
       </c>
-      <c r="B229" s="72" t="s">
-        <v>156</v>
-      </c>
-      <c r="C229" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="D229" s="72" t="s">
-        <v>455</v>
-      </c>
-      <c r="E229" s="72" t="s">
-        <v>456</v>
-      </c>
-      <c r="F229" s="37" t="s">
-        <v>457</v>
-      </c>
-      <c r="G229" s="73"/>
-      <c r="H229" s="17"/>
+      <c r="B229" s="72"/>
+      <c r="C229" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="D229" s="98"/>
+      <c r="E229" s="98"/>
+      <c r="F229" s="31" t="s">
+        <v>488</v>
+      </c>
+      <c r="G229" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H229" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I229" s="32"/>
-      <c r="J229" s="17"/>
+      <c r="J229" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K229" s="17"/>
     </row>
-    <row r="230" spans="1:11" ht="47.25">
+    <row r="230" spans="1:11" ht="63">
       <c r="A230" s="12">
         <v>213</v>
       </c>
-      <c r="B230" s="72" t="s">
-        <v>156</v>
-      </c>
-      <c r="C230" s="37" t="s">
-        <v>396</v>
-      </c>
-      <c r="D230" s="72" t="s">
-        <v>458</v>
-      </c>
-      <c r="E230" s="72" t="s">
-        <v>459</v>
-      </c>
-      <c r="F230" s="37" t="s">
-        <v>460</v>
-      </c>
-      <c r="G230" s="73"/>
-      <c r="H230" s="17"/>
+      <c r="B230" s="72"/>
+      <c r="C230" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="D230" s="99"/>
+      <c r="E230" s="99"/>
+      <c r="F230" s="31" t="s">
+        <v>489</v>
+      </c>
+      <c r="G230" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H230" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I230" s="32"/>
-      <c r="J230" s="17"/>
+      <c r="J230" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K230" s="17"/>
     </row>
     <row r="231" spans="1:11" ht="47.25">
       <c r="A231" s="12">
         <v>214</v>
       </c>
-      <c r="B231" s="72"/>
+      <c r="B231" s="72" t="s">
+        <v>55</v>
+      </c>
       <c r="C231" s="37" t="s">
-        <v>396</v>
+        <v>452</v>
       </c>
       <c r="D231" s="72" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="E231" s="72" t="s">
-        <v>462</v>
-      </c>
-      <c r="F231" s="37" t="s">
-        <v>463</v>
-      </c>
-      <c r="G231" s="73"/>
-      <c r="H231" s="17"/>
+        <v>444</v>
+      </c>
+      <c r="F231" s="32" t="s">
+        <v>447</v>
+      </c>
+      <c r="G231" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H231" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I231" s="32"/>
-      <c r="J231" s="17"/>
+      <c r="J231" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K231" s="17"/>
     </row>
     <row r="232" spans="1:11" ht="47.25">
       <c r="A232" s="12">
         <v>215</v>
       </c>
-      <c r="B232" s="72"/>
+      <c r="B232" s="72" t="s">
+        <v>156</v>
+      </c>
       <c r="C232" s="37" t="s">
-        <v>396</v>
+        <v>132</v>
       </c>
       <c r="D232" s="72" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="E232" s="72" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="F232" s="37" t="s">
-        <v>466</v>
-      </c>
-      <c r="G232" s="73"/>
-      <c r="H232" s="17"/>
+        <v>457</v>
+      </c>
+      <c r="G232" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H232" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I232" s="32"/>
-      <c r="J232" s="17"/>
+      <c r="J232" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K232" s="17"/>
     </row>
     <row r="233" spans="1:11" ht="47.25">
       <c r="A233" s="12">
         <v>216</v>
       </c>
-      <c r="B233" s="72"/>
+      <c r="B233" s="72" t="s">
+        <v>156</v>
+      </c>
       <c r="C233" s="37" t="s">
         <v>396</v>
       </c>
       <c r="D233" s="72" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="E233" s="72" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="F233" s="37" t="s">
-        <v>469</v>
-      </c>
-      <c r="G233" s="73"/>
-      <c r="H233" s="17"/>
+        <v>460</v>
+      </c>
+      <c r="G233" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H233" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I233" s="32"/>
-      <c r="J233" s="17"/>
+      <c r="J233" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K233" s="17"/>
     </row>
     <row r="234" spans="1:11" ht="47.25">
@@ -20964,18 +21799,24 @@
         <v>396</v>
       </c>
       <c r="D234" s="72" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="E234" s="72" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="F234" s="37" t="s">
-        <v>472</v>
-      </c>
-      <c r="G234" s="73"/>
-      <c r="H234" s="17"/>
+        <v>463</v>
+      </c>
+      <c r="G234" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H234" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I234" s="32"/>
-      <c r="J234" s="17"/>
+      <c r="J234" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K234" s="17"/>
     </row>
     <row r="235" spans="1:11" ht="47.25">
@@ -20987,102 +21828,206 @@
         <v>396</v>
       </c>
       <c r="D235" s="72" t="s">
+        <v>464</v>
+      </c>
+      <c r="E235" s="72" t="s">
+        <v>465</v>
+      </c>
+      <c r="F235" s="37" t="s">
+        <v>466</v>
+      </c>
+      <c r="G235" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H235" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="I235" s="32"/>
+      <c r="J235" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="K235" s="17"/>
+    </row>
+    <row r="236" spans="1:11" ht="47.25">
+      <c r="A236" s="12">
+        <v>219</v>
+      </c>
+      <c r="B236" s="72"/>
+      <c r="C236" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="D236" s="72" t="s">
+        <v>467</v>
+      </c>
+      <c r="E236" s="72" t="s">
+        <v>468</v>
+      </c>
+      <c r="F236" s="37" t="s">
+        <v>469</v>
+      </c>
+      <c r="G236" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H236" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="I236" s="32"/>
+      <c r="J236" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="K236" s="17"/>
+    </row>
+    <row r="237" spans="1:11" ht="47.25">
+      <c r="A237" s="12">
+        <v>220</v>
+      </c>
+      <c r="B237" s="72"/>
+      <c r="C237" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="D237" s="72" t="s">
+        <v>470</v>
+      </c>
+      <c r="E237" s="72" t="s">
+        <v>471</v>
+      </c>
+      <c r="F237" s="37" t="s">
+        <v>472</v>
+      </c>
+      <c r="G237" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H237" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="I237" s="32"/>
+      <c r="J237" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="K237" s="17"/>
+    </row>
+    <row r="238" spans="1:11" ht="47.25">
+      <c r="A238" s="12">
+        <v>221</v>
+      </c>
+      <c r="B238" s="72"/>
+      <c r="C238" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="D238" s="72" t="s">
         <v>473</v>
       </c>
-      <c r="E235" s="72" t="s">
+      <c r="E238" s="72" t="s">
         <v>474</v>
       </c>
-      <c r="F235" s="37" t="s">
+      <c r="F238" s="37" t="s">
         <v>475</v>
       </c>
-      <c r="G235" s="73"/>
-      <c r="H235" s="17"/>
-      <c r="I235" s="32"/>
-      <c r="J235" s="17"/>
-      <c r="K235" s="17"/>
-    </row>
-    <row r="236" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A236" s="17"/>
-      <c r="B236" s="72"/>
-      <c r="C236" s="24"/>
-      <c r="D236" s="73"/>
-      <c r="E236" s="37"/>
-      <c r="F236" s="37"/>
-      <c r="G236" s="73"/>
-      <c r="H236" s="17"/>
-      <c r="I236" s="32"/>
-      <c r="J236" s="17"/>
-      <c r="K236" s="17"/>
-    </row>
-    <row r="237" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A237" s="17"/>
-      <c r="B237" s="72"/>
-      <c r="C237" s="24"/>
-      <c r="D237" s="73"/>
-      <c r="E237" s="37"/>
-      <c r="F237" s="37"/>
-      <c r="G237" s="73"/>
-      <c r="H237" s="17"/>
-      <c r="I237" s="32"/>
-      <c r="J237" s="17"/>
-      <c r="K237" s="17"/>
-    </row>
-    <row r="238" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A238" s="17"/>
-      <c r="B238" s="72"/>
-      <c r="C238" s="24"/>
-      <c r="D238" s="73"/>
-      <c r="E238" s="37"/>
-      <c r="F238" s="37"/>
-      <c r="G238" s="73"/>
-      <c r="H238" s="17"/>
+      <c r="G238" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H238" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I238" s="32"/>
-      <c r="J238" s="17"/>
+      <c r="J238" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K238" s="17"/>
     </row>
-    <row r="239" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A239" s="17"/>
+    <row r="239" spans="1:11" ht="47.25">
+      <c r="A239" s="12">
+        <v>222</v>
+      </c>
       <c r="B239" s="72"/>
-      <c r="C239" s="24"/>
-      <c r="D239" s="73"/>
-      <c r="E239" s="37"/>
-      <c r="F239" s="37"/>
-      <c r="G239" s="73"/>
-      <c r="H239" s="17"/>
+      <c r="C239" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="D239" s="72" t="s">
+        <v>503</v>
+      </c>
+      <c r="E239" s="72" t="s">
+        <v>506</v>
+      </c>
+      <c r="F239" s="37" t="s">
+        <v>509</v>
+      </c>
+      <c r="G239" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H239" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I239" s="32"/>
-      <c r="J239" s="17"/>
+      <c r="J239" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K239" s="17"/>
     </row>
-    <row r="240" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A240" s="17"/>
+    <row r="240" spans="1:11" ht="47.25">
+      <c r="A240" s="12">
+        <v>223</v>
+      </c>
       <c r="B240" s="72"/>
-      <c r="C240" s="24"/>
-      <c r="D240" s="73"/>
-      <c r="E240" s="37"/>
-      <c r="F240" s="37"/>
-      <c r="G240" s="73"/>
-      <c r="H240" s="17"/>
-      <c r="I240" s="32"/>
-      <c r="J240" s="17"/>
+      <c r="C240" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="D240" s="72" t="s">
+        <v>504</v>
+      </c>
+      <c r="E240" s="72" t="s">
+        <v>507</v>
+      </c>
+      <c r="F240" s="37" t="s">
+        <v>510</v>
+      </c>
+      <c r="G240" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H240" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="I240" s="32" t="s">
+        <v>515</v>
+      </c>
+      <c r="J240" s="17" t="s">
+        <v>512</v>
+      </c>
       <c r="K240" s="17"/>
     </row>
-    <row r="241" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A241" s="17"/>
+    <row r="241" spans="1:11" ht="47.25">
+      <c r="A241" s="12">
+        <v>224</v>
+      </c>
       <c r="B241" s="72"/>
-      <c r="C241" s="37"/>
-      <c r="D241" s="73"/>
-      <c r="E241" s="37"/>
-      <c r="F241" s="37"/>
-      <c r="G241" s="73"/>
-      <c r="H241" s="17"/>
+      <c r="C241" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="D241" s="72" t="s">
+        <v>505</v>
+      </c>
+      <c r="E241" s="72" t="s">
+        <v>508</v>
+      </c>
+      <c r="F241" s="37" t="s">
+        <v>511</v>
+      </c>
+      <c r="G241" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H241" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I241" s="32"/>
-      <c r="J241" s="17"/>
+      <c r="J241" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K241" s="17"/>
     </row>
     <row r="242" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A242" s="17"/>
+      <c r="A242" s="12"/>
       <c r="B242" s="72"/>
-      <c r="C242" s="37"/>
+      <c r="C242" s="24"/>
       <c r="D242" s="73"/>
       <c r="E242" s="37"/>
       <c r="F242" s="37"/>
@@ -21095,7 +22040,7 @@
     <row r="243" spans="1:11" ht="11.25" customHeight="1">
       <c r="A243" s="17"/>
       <c r="B243" s="72"/>
-      <c r="C243" s="37"/>
+      <c r="C243" s="24"/>
       <c r="D243" s="73"/>
       <c r="E243" s="37"/>
       <c r="F243" s="37"/>
@@ -22613,23 +23558,60 @@
       <c r="J359" s="17"/>
       <c r="K359" s="17"/>
     </row>
+    <row r="360" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A360" s="17"/>
+      <c r="B360" s="72"/>
+      <c r="C360" s="37"/>
+      <c r="D360" s="73"/>
+      <c r="E360" s="37"/>
+      <c r="F360" s="37"/>
+      <c r="G360" s="73"/>
+      <c r="H360" s="17"/>
+      <c r="I360" s="32"/>
+      <c r="J360" s="17"/>
+      <c r="K360" s="17"/>
+    </row>
+    <row r="361" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A361" s="17"/>
+      <c r="B361" s="72"/>
+      <c r="C361" s="37"/>
+      <c r="D361" s="73"/>
+      <c r="E361" s="37"/>
+      <c r="F361" s="37"/>
+      <c r="G361" s="73"/>
+      <c r="H361" s="17"/>
+      <c r="I361" s="32"/>
+      <c r="J361" s="17"/>
+      <c r="K361" s="17"/>
+    </row>
+    <row r="362" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A362" s="17"/>
+      <c r="B362" s="72"/>
+      <c r="C362" s="37"/>
+      <c r="D362" s="73"/>
+      <c r="E362" s="37"/>
+      <c r="F362" s="37"/>
+      <c r="G362" s="73"/>
+      <c r="H362" s="17"/>
+      <c r="I362" s="32"/>
+      <c r="J362" s="17"/>
+      <c r="K362" s="17"/>
+    </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="F129:F140"/>
-    <mergeCell ref="D143:D144"/>
-    <mergeCell ref="E143:E144"/>
-    <mergeCell ref="D114:D125"/>
-    <mergeCell ref="E114:E125"/>
-    <mergeCell ref="D129:D140"/>
-    <mergeCell ref="E129:E140"/>
-    <mergeCell ref="D98:D108"/>
-    <mergeCell ref="E98:E108"/>
-    <mergeCell ref="D79:D94"/>
-    <mergeCell ref="D42:D53"/>
-    <mergeCell ref="E42:E53"/>
-    <mergeCell ref="E66:E77"/>
-    <mergeCell ref="E79:E94"/>
-    <mergeCell ref="D66:D77"/>
+    <mergeCell ref="F203:F208"/>
+    <mergeCell ref="F212:F213"/>
+    <mergeCell ref="D217:D230"/>
+    <mergeCell ref="E217:E230"/>
+    <mergeCell ref="E190:E201"/>
+    <mergeCell ref="D190:D201"/>
+    <mergeCell ref="D203:D214"/>
+    <mergeCell ref="E203:E214"/>
+    <mergeCell ref="D156:D167"/>
+    <mergeCell ref="E156:E167"/>
+    <mergeCell ref="D168:D179"/>
+    <mergeCell ref="F168:F179"/>
+    <mergeCell ref="D180:D189"/>
     <mergeCell ref="F66:F77"/>
     <mergeCell ref="D54:D65"/>
     <mergeCell ref="E54:E65"/>
@@ -22644,19 +23626,21 @@
     <mergeCell ref="D20:D31"/>
     <mergeCell ref="D32:D41"/>
     <mergeCell ref="F42:F53"/>
-    <mergeCell ref="D153:D164"/>
-    <mergeCell ref="E153:E164"/>
-    <mergeCell ref="D165:D176"/>
-    <mergeCell ref="F165:F176"/>
-    <mergeCell ref="D177:D186"/>
-    <mergeCell ref="F200:F205"/>
-    <mergeCell ref="F209:F210"/>
-    <mergeCell ref="D214:D227"/>
-    <mergeCell ref="E214:E227"/>
-    <mergeCell ref="E187:E198"/>
-    <mergeCell ref="D187:D198"/>
-    <mergeCell ref="D200:D211"/>
-    <mergeCell ref="E200:E211"/>
+    <mergeCell ref="D98:D108"/>
+    <mergeCell ref="E98:E108"/>
+    <mergeCell ref="D79:D94"/>
+    <mergeCell ref="D42:D53"/>
+    <mergeCell ref="E42:E53"/>
+    <mergeCell ref="E66:E77"/>
+    <mergeCell ref="E79:E94"/>
+    <mergeCell ref="D66:D77"/>
+    <mergeCell ref="F129:F140"/>
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="D114:D125"/>
+    <mergeCell ref="E114:E125"/>
+    <mergeCell ref="D129:D140"/>
+    <mergeCell ref="E129:E140"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/testcase_account_ver3.xlsx
+++ b/testcase_account_ver3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\7-Programming-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEEFB2D2-5592-419E-BB0E-5AE53FCBA3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062E2BE2-0D90-4810-88BB-175F4F0D4120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="888" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1965" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1967" uniqueCount="517">
   <si>
     <t>作成者</t>
   </si>
@@ -8649,22 +8649,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>8/31追記：赤文字で表示されるように変更完了。</t>
-    <rPh sb="4" eb="6">
-      <t>ツイキ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>アカモジ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="19" eb="23">
-      <t>ヘンコウカンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>アカウント更新完了画面
 から
 PHP MyAdmin</t>
@@ -9864,6 +9848,45 @@
     </rPh>
     <rPh sb="27" eb="28">
       <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9/1：エラーメッセージが空欄の場合でもエラー表示の画面になるように変更する。</t>
+    <rPh sb="13" eb="15">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8/31追記：赤文字で表示されるように変更完了。
+9/1追記：エラーメッセージが空欄の場合でもエラー表示の画面になるように変更する。</t>
+    <rPh sb="4" eb="6">
+      <t>ツイキ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>アカモジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>ヘンコウカンリョウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ツイキ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -10514,6 +10537,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10543,27 +10575,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -10573,6 +10584,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -10581,6 +10598,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -10955,12 +10978,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
       <c r="E1" s="53" t="s">
         <v>2</v>
       </c>
@@ -10983,10 +11006,10 @@
       <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A2" s="105"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
+      <c r="A2" s="108"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
       <c r="E2" s="53" t="s">
         <v>3</v>
       </c>
@@ -11300,7 +11323,7 @@
       <c r="F12" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="100" t="s">
+      <c r="G12" s="103" t="s">
         <v>107</v>
       </c>
       <c r="H12" s="68">
@@ -11330,7 +11353,7 @@
       <c r="F13" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="101"/>
+      <c r="G13" s="104"/>
       <c r="H13" s="60">
         <v>44354</v>
       </c>
@@ -11358,7 +11381,7 @@
       <c r="F14" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="101"/>
+      <c r="G14" s="104"/>
       <c r="H14" s="60">
         <v>44354</v>
       </c>
@@ -11386,7 +11409,7 @@
       <c r="F15" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="101"/>
+      <c r="G15" s="104"/>
       <c r="H15" s="68">
         <v>44354</v>
       </c>
@@ -11414,7 +11437,7 @@
       <c r="F16" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="101"/>
+      <c r="G16" s="104"/>
       <c r="H16" s="60">
         <v>44354</v>
       </c>
@@ -11442,7 +11465,7 @@
       <c r="F17" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="101"/>
+      <c r="G17" s="104"/>
       <c r="H17" s="60">
         <v>44354</v>
       </c>
@@ -11470,7 +11493,7 @@
       <c r="F18" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="101"/>
+      <c r="G18" s="104"/>
       <c r="H18" s="68">
         <v>44354</v>
       </c>
@@ -11498,7 +11521,7 @@
       <c r="F19" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="101"/>
+      <c r="G19" s="104"/>
       <c r="H19" s="60">
         <v>44354</v>
       </c>
@@ -11526,7 +11549,7 @@
       <c r="F20" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="101"/>
+      <c r="G20" s="104"/>
       <c r="H20" s="60">
         <v>44354</v>
       </c>
@@ -11554,7 +11577,7 @@
       <c r="F21" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="101"/>
+      <c r="G21" s="104"/>
       <c r="H21" s="68">
         <v>44354</v>
       </c>
@@ -11582,7 +11605,7 @@
       <c r="F22" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="101"/>
+      <c r="G22" s="104"/>
       <c r="H22" s="60">
         <v>44354</v>
       </c>
@@ -11610,7 +11633,7 @@
       <c r="F23" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="102"/>
+      <c r="G23" s="105"/>
       <c r="H23" s="60">
         <v>44354</v>
       </c>
@@ -12645,7 +12668,7 @@
       <c r="E57" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F57" s="100" t="s">
+      <c r="F57" s="103" t="s">
         <v>232</v>
       </c>
       <c r="G57" s="32" t="s">
@@ -12677,7 +12700,7 @@
       <c r="E58" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F58" s="101"/>
+      <c r="F58" s="104"/>
       <c r="G58" s="32" t="s">
         <v>233</v>
       </c>
@@ -12704,10 +12727,10 @@
       <c r="D59" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="E59" s="107" t="s">
+      <c r="E59" s="110" t="s">
         <v>55</v>
       </c>
-      <c r="F59" s="101"/>
+      <c r="F59" s="104"/>
       <c r="G59" s="37" t="s">
         <v>260</v>
       </c>
@@ -12732,8 +12755,8 @@
       <c r="D60" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E60" s="108"/>
-      <c r="F60" s="101"/>
+      <c r="E60" s="111"/>
+      <c r="F60" s="104"/>
       <c r="G60" s="37" t="s">
         <v>261</v>
       </c>
@@ -12758,8 +12781,8 @@
       <c r="D61" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E61" s="108"/>
-      <c r="F61" s="101"/>
+      <c r="E61" s="111"/>
+      <c r="F61" s="104"/>
       <c r="G61" s="37" t="s">
         <v>262</v>
       </c>
@@ -12784,8 +12807,8 @@
       <c r="D62" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E62" s="108"/>
-      <c r="F62" s="101"/>
+      <c r="E62" s="111"/>
+      <c r="F62" s="104"/>
       <c r="G62" s="37" t="s">
         <v>263</v>
       </c>
@@ -12810,8 +12833,8 @@
       <c r="D63" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E63" s="108"/>
-      <c r="F63" s="101"/>
+      <c r="E63" s="111"/>
+      <c r="F63" s="104"/>
       <c r="G63" s="37" t="s">
         <v>264</v>
       </c>
@@ -12836,8 +12859,8 @@
       <c r="D64" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E64" s="108"/>
-      <c r="F64" s="101"/>
+      <c r="E64" s="111"/>
+      <c r="F64" s="104"/>
       <c r="G64" s="37" t="s">
         <v>265</v>
       </c>
@@ -12862,8 +12885,8 @@
       <c r="D65" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E65" s="108"/>
-      <c r="F65" s="101"/>
+      <c r="E65" s="111"/>
+      <c r="F65" s="104"/>
       <c r="G65" s="31" t="s">
         <v>272</v>
       </c>
@@ -12888,8 +12911,8 @@
       <c r="D66" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E66" s="108"/>
-      <c r="F66" s="101"/>
+      <c r="E66" s="111"/>
+      <c r="F66" s="104"/>
       <c r="G66" s="31" t="s">
         <v>273</v>
       </c>
@@ -12914,8 +12937,8 @@
       <c r="D67" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="E67" s="108"/>
-      <c r="F67" s="101"/>
+      <c r="E67" s="111"/>
+      <c r="F67" s="104"/>
       <c r="G67" s="31" t="s">
         <v>274</v>
       </c>
@@ -12940,8 +12963,8 @@
       <c r="D68" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="E68" s="108"/>
-      <c r="F68" s="101"/>
+      <c r="E68" s="111"/>
+      <c r="F68" s="104"/>
       <c r="G68" s="31" t="s">
         <v>275</v>
       </c>
@@ -12966,8 +12989,8 @@
       <c r="D69" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="E69" s="108"/>
-      <c r="F69" s="101"/>
+      <c r="E69" s="111"/>
+      <c r="F69" s="104"/>
       <c r="G69" s="31" t="s">
         <v>275</v>
       </c>
@@ -12992,8 +13015,8 @@
       <c r="D70" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="E70" s="108"/>
-      <c r="F70" s="101"/>
+      <c r="E70" s="111"/>
+      <c r="F70" s="104"/>
       <c r="G70" s="31" t="s">
         <v>270</v>
       </c>
@@ -13018,8 +13041,8 @@
       <c r="D71" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="E71" s="109"/>
-      <c r="F71" s="102"/>
+      <c r="E71" s="112"/>
+      <c r="F71" s="105"/>
       <c r="G71" s="31" t="s">
         <v>271</v>
       </c>
@@ -13545,7 +13568,7 @@
       <c r="E90" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="F90" s="100" t="s">
+      <c r="F90" s="103" t="s">
         <v>300</v>
       </c>
       <c r="G90" s="30" t="s">
@@ -13575,7 +13598,7 @@
         <v>136</v>
       </c>
       <c r="E91" s="95"/>
-      <c r="F91" s="101"/>
+      <c r="F91" s="104"/>
       <c r="G91" s="32" t="s">
         <v>298</v>
       </c>
@@ -13601,7 +13624,7 @@
         <v>132</v>
       </c>
       <c r="E92" s="96"/>
-      <c r="F92" s="101"/>
+      <c r="F92" s="104"/>
       <c r="G92" s="32" t="s">
         <v>302</v>
       </c>
@@ -13633,7 +13656,7 @@
       <c r="E93" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F93" s="101"/>
+      <c r="F93" s="104"/>
       <c r="G93" s="32" t="s">
         <v>354</v>
       </c>
@@ -13661,7 +13684,7 @@
       <c r="E94" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F94" s="102"/>
+      <c r="F94" s="105"/>
       <c r="G94" s="32" t="s">
         <v>355</v>
       </c>
@@ -14108,7 +14131,7 @@
       <c r="F110" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="G110" s="100" t="s">
+      <c r="G110" s="103" t="s">
         <v>107</v>
       </c>
       <c r="H110" s="68">
@@ -14138,7 +14161,7 @@
       <c r="F111" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="G111" s="101"/>
+      <c r="G111" s="104"/>
       <c r="H111" s="68">
         <v>44435</v>
       </c>
@@ -14166,7 +14189,7 @@
       <c r="F112" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="G112" s="101"/>
+      <c r="G112" s="104"/>
       <c r="H112" s="68">
         <v>44435</v>
       </c>
@@ -14194,7 +14217,7 @@
       <c r="F113" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="G113" s="101"/>
+      <c r="G113" s="104"/>
       <c r="H113" s="68">
         <v>44435</v>
       </c>
@@ -14222,7 +14245,7 @@
       <c r="F114" s="31" t="s">
         <v>326</v>
       </c>
-      <c r="G114" s="101"/>
+      <c r="G114" s="104"/>
       <c r="H114" s="68">
         <v>44435</v>
       </c>
@@ -14250,7 +14273,7 @@
       <c r="F115" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="G115" s="101"/>
+      <c r="G115" s="104"/>
       <c r="H115" s="68">
         <v>44435</v>
       </c>
@@ -14278,7 +14301,7 @@
       <c r="F116" s="31" t="s">
         <v>346</v>
       </c>
-      <c r="G116" s="101"/>
+      <c r="G116" s="104"/>
       <c r="H116" s="68">
         <v>44435</v>
       </c>
@@ -14306,7 +14329,7 @@
       <c r="F117" s="31" t="s">
         <v>327</v>
       </c>
-      <c r="G117" s="101"/>
+      <c r="G117" s="104"/>
       <c r="H117" s="68">
         <v>44435</v>
       </c>
@@ -14334,7 +14357,7 @@
       <c r="F118" s="31" t="s">
         <v>322</v>
       </c>
-      <c r="G118" s="101"/>
+      <c r="G118" s="104"/>
       <c r="H118" s="68">
         <v>44435</v>
       </c>
@@ -14362,7 +14385,7 @@
       <c r="F119" s="31" t="s">
         <v>328</v>
       </c>
-      <c r="G119" s="101"/>
+      <c r="G119" s="104"/>
       <c r="H119" s="68">
         <v>44435</v>
       </c>
@@ -14390,7 +14413,7 @@
       <c r="F120" s="31" t="s">
         <v>329</v>
       </c>
-      <c r="G120" s="101"/>
+      <c r="G120" s="104"/>
       <c r="H120" s="68">
         <v>44435</v>
       </c>
@@ -14418,7 +14441,7 @@
       <c r="F121" s="31" t="s">
         <v>321</v>
       </c>
-      <c r="G121" s="102"/>
+      <c r="G121" s="105"/>
       <c r="H121" s="68">
         <v>44435</v>
       </c>
@@ -15262,13 +15285,13 @@
       <c r="D150" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E150" s="110" t="s">
+      <c r="E150" s="100" t="s">
         <v>55</v>
       </c>
       <c r="F150" s="97" t="s">
         <v>357</v>
       </c>
-      <c r="G150" s="100" t="s">
+      <c r="G150" s="103" t="s">
         <v>358</v>
       </c>
       <c r="H150" s="68">
@@ -15292,9 +15315,9 @@
       <c r="D151" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E151" s="111"/>
+      <c r="E151" s="101"/>
       <c r="F151" s="98"/>
-      <c r="G151" s="101"/>
+      <c r="G151" s="104"/>
       <c r="H151" s="68">
         <v>44435</v>
       </c>
@@ -15316,9 +15339,9 @@
       <c r="D152" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E152" s="111"/>
+      <c r="E152" s="101"/>
       <c r="F152" s="98"/>
-      <c r="G152" s="101"/>
+      <c r="G152" s="104"/>
       <c r="H152" s="68">
         <v>44435</v>
       </c>
@@ -15340,9 +15363,9 @@
       <c r="D153" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E153" s="111"/>
+      <c r="E153" s="101"/>
       <c r="F153" s="98"/>
-      <c r="G153" s="101"/>
+      <c r="G153" s="104"/>
       <c r="H153" s="68">
         <v>44435</v>
       </c>
@@ -15364,9 +15387,9 @@
       <c r="D154" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E154" s="111"/>
+      <c r="E154" s="101"/>
       <c r="F154" s="98"/>
-      <c r="G154" s="101"/>
+      <c r="G154" s="104"/>
       <c r="H154" s="68">
         <v>44435</v>
       </c>
@@ -15388,9 +15411,9 @@
       <c r="D155" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E155" s="111"/>
+      <c r="E155" s="101"/>
       <c r="F155" s="98"/>
-      <c r="G155" s="101"/>
+      <c r="G155" s="104"/>
       <c r="H155" s="68">
         <v>44435</v>
       </c>
@@ -15412,9 +15435,9 @@
       <c r="D156" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E156" s="111"/>
+      <c r="E156" s="101"/>
       <c r="F156" s="98"/>
-      <c r="G156" s="101"/>
+      <c r="G156" s="104"/>
       <c r="H156" s="68">
         <v>44435</v>
       </c>
@@ -15436,9 +15459,9 @@
       <c r="D157" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E157" s="111"/>
+      <c r="E157" s="101"/>
       <c r="F157" s="98"/>
-      <c r="G157" s="101"/>
+      <c r="G157" s="104"/>
       <c r="H157" s="68">
         <v>44435</v>
       </c>
@@ -15460,9 +15483,9 @@
       <c r="D158" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E158" s="111"/>
+      <c r="E158" s="101"/>
       <c r="F158" s="98"/>
-      <c r="G158" s="101"/>
+      <c r="G158" s="104"/>
       <c r="H158" s="68">
         <v>44435</v>
       </c>
@@ -15484,9 +15507,9 @@
       <c r="D159" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E159" s="111"/>
+      <c r="E159" s="101"/>
       <c r="F159" s="98"/>
-      <c r="G159" s="101"/>
+      <c r="G159" s="104"/>
       <c r="H159" s="68">
         <v>44435</v>
       </c>
@@ -15508,9 +15531,9 @@
       <c r="D160" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E160" s="111"/>
+      <c r="E160" s="101"/>
       <c r="F160" s="98"/>
-      <c r="G160" s="101"/>
+      <c r="G160" s="104"/>
       <c r="H160" s="68">
         <v>44435</v>
       </c>
@@ -15532,9 +15555,9 @@
       <c r="D161" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="E161" s="111"/>
+      <c r="E161" s="101"/>
       <c r="F161" s="98"/>
-      <c r="G161" s="102"/>
+      <c r="G161" s="105"/>
       <c r="H161" s="68">
         <v>44435</v>
       </c>
@@ -15556,7 +15579,7 @@
       <c r="D162" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="E162" s="111"/>
+      <c r="E162" s="101"/>
       <c r="F162" s="98"/>
       <c r="G162" s="31" t="s">
         <v>359</v>
@@ -15582,7 +15605,7 @@
       <c r="D163" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="E163" s="112"/>
+      <c r="E163" s="102"/>
       <c r="F163" s="99"/>
       <c r="G163" s="31" t="s">
         <v>360</v>
@@ -15759,6 +15782,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="E73:E84"/>
+    <mergeCell ref="F73:F84"/>
+    <mergeCell ref="E86:E89"/>
+    <mergeCell ref="F86:F89"/>
+    <mergeCell ref="E90:E92"/>
+    <mergeCell ref="F90:F94"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="G12:G23"/>
+    <mergeCell ref="G38:G42"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="E59:E71"/>
+    <mergeCell ref="F57:F71"/>
     <mergeCell ref="E97:E108"/>
     <mergeCell ref="F97:F108"/>
     <mergeCell ref="E150:E163"/>
@@ -15767,18 +15802,6 @@
     <mergeCell ref="G110:G121"/>
     <mergeCell ref="F132:F146"/>
     <mergeCell ref="F147:F149"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="G12:G23"/>
-    <mergeCell ref="G38:G42"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="E59:E71"/>
-    <mergeCell ref="F57:F71"/>
-    <mergeCell ref="E73:E84"/>
-    <mergeCell ref="F73:F84"/>
-    <mergeCell ref="E86:E89"/>
-    <mergeCell ref="F86:F89"/>
-    <mergeCell ref="E90:E92"/>
-    <mergeCell ref="F90:F94"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -15791,8 +15814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9E524B-C67B-4990-A5C3-077E8DAB7E38}">
   <dimension ref="A1:L362"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D234" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I241" sqref="I241"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D244" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J232" sqref="J232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -15812,11 +15835,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="106" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="115"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="116"/>
       <c r="D1" s="53" t="s">
         <v>2</v>
       </c>
@@ -15839,9 +15862,9 @@
       <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A2" s="105"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="116"/>
+      <c r="A2" s="108"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="117"/>
       <c r="D2" s="53" t="s">
         <v>3</v>
       </c>
@@ -16009,13 +16032,13 @@
       <c r="C8" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="100" t="s">
+      <c r="D8" s="103" t="s">
         <v>204</v>
       </c>
       <c r="E8" s="80" t="s">
         <v>161</v>
       </c>
-      <c r="F8" s="100" t="s">
+      <c r="F8" s="103" t="s">
         <v>202</v>
       </c>
       <c r="G8" s="60">
@@ -16035,11 +16058,11 @@
       <c r="C9" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="101"/>
+      <c r="D9" s="104"/>
       <c r="E9" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="F9" s="101"/>
+      <c r="F9" s="104"/>
       <c r="G9" s="60">
         <v>44369</v>
       </c>
@@ -16057,11 +16080,11 @@
       <c r="C10" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="101"/>
+      <c r="D10" s="104"/>
       <c r="E10" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="101"/>
+      <c r="F10" s="104"/>
       <c r="G10" s="60">
         <v>44369</v>
       </c>
@@ -16079,11 +16102,11 @@
       <c r="C11" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="101"/>
+      <c r="D11" s="104"/>
       <c r="E11" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="101"/>
+      <c r="F11" s="104"/>
       <c r="G11" s="60">
         <v>44369</v>
       </c>
@@ -16101,11 +16124,11 @@
       <c r="C12" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="101"/>
+      <c r="D12" s="104"/>
       <c r="E12" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="101"/>
+      <c r="F12" s="104"/>
       <c r="G12" s="60">
         <v>44369</v>
       </c>
@@ -16123,11 +16146,11 @@
       <c r="C13" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="101"/>
+      <c r="D13" s="104"/>
       <c r="E13" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="101"/>
+      <c r="F13" s="104"/>
       <c r="G13" s="60">
         <v>44369</v>
       </c>
@@ -16145,11 +16168,11 @@
       <c r="C14" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="101"/>
+      <c r="D14" s="104"/>
       <c r="E14" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="101"/>
+      <c r="F14" s="104"/>
       <c r="G14" s="60">
         <v>44369</v>
       </c>
@@ -16167,11 +16190,11 @@
       <c r="C15" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="101"/>
+      <c r="D15" s="104"/>
       <c r="E15" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="101"/>
+      <c r="F15" s="104"/>
       <c r="G15" s="60">
         <v>44369</v>
       </c>
@@ -16189,11 +16212,11 @@
       <c r="C16" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="101"/>
+      <c r="D16" s="104"/>
       <c r="E16" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="101"/>
+      <c r="F16" s="104"/>
       <c r="G16" s="60">
         <v>44369</v>
       </c>
@@ -16211,11 +16234,11 @@
       <c r="C17" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="101"/>
+      <c r="D17" s="104"/>
       <c r="E17" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="101"/>
+      <c r="F17" s="104"/>
       <c r="G17" s="60">
         <v>44369</v>
       </c>
@@ -16233,11 +16256,11 @@
       <c r="C18" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="101"/>
+      <c r="D18" s="104"/>
       <c r="E18" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="101"/>
+      <c r="F18" s="104"/>
       <c r="G18" s="60">
         <v>44369</v>
       </c>
@@ -16255,11 +16278,11 @@
       <c r="C19" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="102"/>
+      <c r="D19" s="105"/>
       <c r="E19" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="102"/>
+      <c r="F19" s="105"/>
       <c r="G19" s="60">
         <v>44369</v>
       </c>
@@ -16280,13 +16303,13 @@
       <c r="C20" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="100" t="s">
+      <c r="D20" s="103" t="s">
         <v>203</v>
       </c>
-      <c r="E20" s="120" t="s">
+      <c r="E20" s="118" t="s">
         <v>201</v>
       </c>
-      <c r="F20" s="100" t="s">
+      <c r="F20" s="103" t="s">
         <v>188</v>
       </c>
       <c r="G20" s="60">
@@ -16309,9 +16332,9 @@
       <c r="C21" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="101"/>
-      <c r="E21" s="121"/>
-      <c r="F21" s="101"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="104"/>
       <c r="G21" s="60">
         <v>44369</v>
       </c>
@@ -16332,9 +16355,9 @@
       <c r="C22" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="101"/>
-      <c r="E22" s="121"/>
-      <c r="F22" s="101"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="104"/>
       <c r="G22" s="60">
         <v>44369</v>
       </c>
@@ -16355,9 +16378,9 @@
       <c r="C23" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="101"/>
-      <c r="E23" s="121"/>
-      <c r="F23" s="101"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="104"/>
       <c r="G23" s="60">
         <v>44369</v>
       </c>
@@ -16378,9 +16401,9 @@
       <c r="C24" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="101"/>
-      <c r="E24" s="121"/>
-      <c r="F24" s="102"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="105"/>
       <c r="G24" s="60">
         <v>44369</v>
       </c>
@@ -16401,8 +16424,8 @@
       <c r="C25" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="101"/>
-      <c r="E25" s="121"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="119"/>
       <c r="F25" s="31" t="s">
         <v>186</v>
       </c>
@@ -16426,9 +16449,9 @@
       <c r="C26" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="101"/>
-      <c r="E26" s="121"/>
-      <c r="F26" s="100" t="s">
+      <c r="D26" s="104"/>
+      <c r="E26" s="119"/>
+      <c r="F26" s="103" t="s">
         <v>187</v>
       </c>
       <c r="G26" s="60">
@@ -16451,9 +16474,9 @@
       <c r="C27" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="101"/>
-      <c r="E27" s="121"/>
-      <c r="F27" s="101"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="119"/>
+      <c r="F27" s="104"/>
       <c r="G27" s="60">
         <v>44369</v>
       </c>
@@ -16474,9 +16497,9 @@
       <c r="C28" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="101"/>
-      <c r="E28" s="121"/>
-      <c r="F28" s="101"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="104"/>
       <c r="G28" s="60">
         <v>44369</v>
       </c>
@@ -16497,9 +16520,9 @@
       <c r="C29" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="101"/>
-      <c r="E29" s="121"/>
-      <c r="F29" s="101"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="119"/>
+      <c r="F29" s="104"/>
       <c r="G29" s="60">
         <v>44369</v>
       </c>
@@ -16520,9 +16543,9 @@
       <c r="C30" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="101"/>
-      <c r="E30" s="121"/>
-      <c r="F30" s="101"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="119"/>
+      <c r="F30" s="104"/>
       <c r="G30" s="60">
         <v>44369</v>
       </c>
@@ -16543,9 +16566,9 @@
       <c r="C31" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="102"/>
-      <c r="E31" s="122"/>
-      <c r="F31" s="102"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="120"/>
+      <c r="F31" s="105"/>
       <c r="G31" s="60">
         <v>44369</v>
       </c>
@@ -16568,7 +16591,7 @@
       <c r="C32" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="100" t="s">
+      <c r="D32" s="103" t="s">
         <v>219</v>
       </c>
       <c r="E32" s="31" t="s">
@@ -16597,7 +16620,7 @@
       <c r="C33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="101"/>
+      <c r="D33" s="104"/>
       <c r="E33" s="31" t="s">
         <v>168</v>
       </c>
@@ -16624,7 +16647,7 @@
       <c r="C34" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="101"/>
+      <c r="D34" s="104"/>
       <c r="E34" s="31" t="s">
         <v>169</v>
       </c>
@@ -16651,7 +16674,7 @@
       <c r="C35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="101"/>
+      <c r="D35" s="104"/>
       <c r="E35" s="31" t="s">
         <v>169</v>
       </c>
@@ -16678,7 +16701,7 @@
       <c r="C36" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="101"/>
+      <c r="D36" s="104"/>
       <c r="E36" s="31" t="s">
         <v>170</v>
       </c>
@@ -16705,7 +16728,7 @@
       <c r="C37" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="101"/>
+      <c r="D37" s="104"/>
       <c r="E37" s="31" t="s">
         <v>171</v>
       </c>
@@ -16732,7 +16755,7 @@
       <c r="C38" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="101"/>
+      <c r="D38" s="104"/>
       <c r="E38" s="31" t="s">
         <v>172</v>
       </c>
@@ -16759,7 +16782,7 @@
       <c r="C39" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="101"/>
+      <c r="D39" s="104"/>
       <c r="E39" s="31" t="s">
         <v>173</v>
       </c>
@@ -16786,7 +16809,7 @@
       <c r="C40" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="101"/>
+      <c r="D40" s="104"/>
       <c r="E40" s="31" t="s">
         <v>174</v>
       </c>
@@ -16813,7 +16836,7 @@
       <c r="C41" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="102"/>
+      <c r="D41" s="105"/>
       <c r="E41" s="31" t="s">
         <v>175</v>
       </c>
@@ -16842,7 +16865,7 @@
       <c r="C42" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="100" t="s">
+      <c r="D42" s="103" t="s">
         <v>207</v>
       </c>
       <c r="E42" s="97" t="s">
@@ -16871,7 +16894,7 @@
       <c r="C43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="111"/>
+      <c r="D43" s="101"/>
       <c r="E43" s="98"/>
       <c r="F43" s="98"/>
       <c r="G43" s="60">
@@ -16894,7 +16917,7 @@
       <c r="C44" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="111"/>
+      <c r="D44" s="101"/>
       <c r="E44" s="98"/>
       <c r="F44" s="98"/>
       <c r="G44" s="60">
@@ -16917,7 +16940,7 @@
       <c r="C45" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="111"/>
+      <c r="D45" s="101"/>
       <c r="E45" s="98"/>
       <c r="F45" s="98"/>
       <c r="G45" s="60">
@@ -16940,7 +16963,7 @@
       <c r="C46" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="111"/>
+      <c r="D46" s="101"/>
       <c r="E46" s="98"/>
       <c r="F46" s="98"/>
       <c r="G46" s="60">
@@ -16963,7 +16986,7 @@
       <c r="C47" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="111"/>
+      <c r="D47" s="101"/>
       <c r="E47" s="98"/>
       <c r="F47" s="98"/>
       <c r="G47" s="60">
@@ -16986,7 +17009,7 @@
       <c r="C48" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="111"/>
+      <c r="D48" s="101"/>
       <c r="E48" s="98"/>
       <c r="F48" s="98"/>
       <c r="G48" s="60">
@@ -17009,7 +17032,7 @@
       <c r="C49" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D49" s="111"/>
+      <c r="D49" s="101"/>
       <c r="E49" s="98"/>
       <c r="F49" s="98"/>
       <c r="G49" s="60">
@@ -17032,7 +17055,7 @@
       <c r="C50" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="111"/>
+      <c r="D50" s="101"/>
       <c r="E50" s="98"/>
       <c r="F50" s="98"/>
       <c r="G50" s="60">
@@ -17055,7 +17078,7 @@
       <c r="C51" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D51" s="111"/>
+      <c r="D51" s="101"/>
       <c r="E51" s="98"/>
       <c r="F51" s="98"/>
       <c r="G51" s="60">
@@ -17078,7 +17101,7 @@
       <c r="C52" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="111"/>
+      <c r="D52" s="101"/>
       <c r="E52" s="98"/>
       <c r="F52" s="98"/>
       <c r="G52" s="60">
@@ -17101,7 +17124,7 @@
       <c r="C53" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="112"/>
+      <c r="D53" s="102"/>
       <c r="E53" s="99"/>
       <c r="F53" s="99"/>
       <c r="G53" s="60">
@@ -17126,13 +17149,13 @@
       <c r="C54" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="100" t="s">
+      <c r="D54" s="103" t="s">
         <v>205</v>
       </c>
       <c r="E54" s="97" t="s">
         <v>223</v>
       </c>
-      <c r="F54" s="117" t="s">
+      <c r="F54" s="113" t="s">
         <v>178</v>
       </c>
       <c r="G54" s="60">
@@ -17155,9 +17178,9 @@
       <c r="C55" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="111"/>
+      <c r="D55" s="101"/>
       <c r="E55" s="98"/>
-      <c r="F55" s="118"/>
+      <c r="F55" s="114"/>
       <c r="G55" s="60">
         <v>44369</v>
       </c>
@@ -17178,9 +17201,9 @@
       <c r="C56" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="111"/>
+      <c r="D56" s="101"/>
       <c r="E56" s="98"/>
-      <c r="F56" s="118"/>
+      <c r="F56" s="114"/>
       <c r="G56" s="60">
         <v>44369</v>
       </c>
@@ -17201,9 +17224,9 @@
       <c r="C57" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="111"/>
+      <c r="D57" s="101"/>
       <c r="E57" s="98"/>
-      <c r="F57" s="118"/>
+      <c r="F57" s="114"/>
       <c r="G57" s="60">
         <v>44369</v>
       </c>
@@ -17224,9 +17247,9 @@
       <c r="C58" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="111"/>
+      <c r="D58" s="101"/>
       <c r="E58" s="98"/>
-      <c r="F58" s="118"/>
+      <c r="F58" s="114"/>
       <c r="G58" s="60">
         <v>44369</v>
       </c>
@@ -17247,9 +17270,9 @@
       <c r="C59" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D59" s="111"/>
+      <c r="D59" s="101"/>
       <c r="E59" s="98"/>
-      <c r="F59" s="119"/>
+      <c r="F59" s="115"/>
       <c r="G59" s="60">
         <v>44369</v>
       </c>
@@ -17270,7 +17293,7 @@
       <c r="C60" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="111"/>
+      <c r="D60" s="101"/>
       <c r="E60" s="98"/>
       <c r="F60" s="32" t="s">
         <v>179</v>
@@ -17295,7 +17318,7 @@
       <c r="C61" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="111"/>
+      <c r="D61" s="101"/>
       <c r="E61" s="98"/>
       <c r="F61" s="32" t="s">
         <v>182</v>
@@ -17320,7 +17343,7 @@
       <c r="C62" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D62" s="111"/>
+      <c r="D62" s="101"/>
       <c r="E62" s="98"/>
       <c r="F62" s="32" t="s">
         <v>181</v>
@@ -17345,9 +17368,9 @@
       <c r="C63" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D63" s="111"/>
+      <c r="D63" s="101"/>
       <c r="E63" s="98"/>
-      <c r="F63" s="117" t="s">
+      <c r="F63" s="113" t="s">
         <v>182</v>
       </c>
       <c r="G63" s="60">
@@ -17370,9 +17393,9 @@
       <c r="C64" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D64" s="111"/>
+      <c r="D64" s="101"/>
       <c r="E64" s="98"/>
-      <c r="F64" s="119"/>
+      <c r="F64" s="115"/>
       <c r="G64" s="60">
         <v>44369</v>
       </c>
@@ -17393,7 +17416,7 @@
       <c r="C65" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D65" s="112"/>
+      <c r="D65" s="102"/>
       <c r="E65" s="99"/>
       <c r="F65" s="32" t="s">
         <v>180</v>
@@ -17420,10 +17443,10 @@
       <c r="C66" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="100" t="s">
+      <c r="D66" s="103" t="s">
         <v>221</v>
       </c>
-      <c r="E66" s="100" t="s">
+      <c r="E66" s="103" t="s">
         <v>163</v>
       </c>
       <c r="F66" s="97" t="s">
@@ -17449,8 +17472,8 @@
       <c r="C67" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="111"/>
-      <c r="E67" s="101"/>
+      <c r="D67" s="101"/>
+      <c r="E67" s="104"/>
       <c r="F67" s="98"/>
       <c r="G67" s="60">
         <v>44369</v>
@@ -17472,8 +17495,8 @@
       <c r="C68" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D68" s="111"/>
-      <c r="E68" s="101"/>
+      <c r="D68" s="101"/>
+      <c r="E68" s="104"/>
       <c r="F68" s="98"/>
       <c r="G68" s="60">
         <v>44369</v>
@@ -17495,8 +17518,8 @@
       <c r="C69" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D69" s="111"/>
-      <c r="E69" s="101"/>
+      <c r="D69" s="101"/>
+      <c r="E69" s="104"/>
       <c r="F69" s="98"/>
       <c r="G69" s="60">
         <v>44369</v>
@@ -17518,8 +17541,8 @@
       <c r="C70" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="111"/>
-      <c r="E70" s="101"/>
+      <c r="D70" s="101"/>
+      <c r="E70" s="104"/>
       <c r="F70" s="98"/>
       <c r="G70" s="60">
         <v>44369</v>
@@ -17541,8 +17564,8 @@
       <c r="C71" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D71" s="111"/>
-      <c r="E71" s="101"/>
+      <c r="D71" s="101"/>
+      <c r="E71" s="104"/>
       <c r="F71" s="98"/>
       <c r="G71" s="60">
         <v>44369</v>
@@ -17564,8 +17587,8 @@
       <c r="C72" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="111"/>
-      <c r="E72" s="101"/>
+      <c r="D72" s="101"/>
+      <c r="E72" s="104"/>
       <c r="F72" s="98"/>
       <c r="G72" s="60">
         <v>44369</v>
@@ -17587,8 +17610,8 @@
       <c r="C73" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="111"/>
-      <c r="E73" s="101"/>
+      <c r="D73" s="101"/>
+      <c r="E73" s="104"/>
       <c r="F73" s="98"/>
       <c r="G73" s="60">
         <v>44369</v>
@@ -17610,8 +17633,8 @@
       <c r="C74" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D74" s="111"/>
-      <c r="E74" s="101"/>
+      <c r="D74" s="101"/>
+      <c r="E74" s="104"/>
       <c r="F74" s="98"/>
       <c r="G74" s="60">
         <v>44369</v>
@@ -17633,8 +17656,8 @@
       <c r="C75" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="111"/>
-      <c r="E75" s="101"/>
+      <c r="D75" s="101"/>
+      <c r="E75" s="104"/>
       <c r="F75" s="98"/>
       <c r="G75" s="60">
         <v>44369</v>
@@ -17656,8 +17679,8 @@
       <c r="C76" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D76" s="111"/>
-      <c r="E76" s="101"/>
+      <c r="D76" s="101"/>
+      <c r="E76" s="104"/>
       <c r="F76" s="98"/>
       <c r="G76" s="60">
         <v>44369</v>
@@ -17679,8 +17702,8 @@
       <c r="C77" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D77" s="112"/>
-      <c r="E77" s="102"/>
+      <c r="D77" s="102"/>
+      <c r="E77" s="105"/>
       <c r="F77" s="99"/>
       <c r="G77" s="60">
         <v>44369</v>
@@ -17694,7 +17717,7 @@
       </c>
       <c r="K77" s="11"/>
     </row>
-    <row r="78" spans="1:11" ht="31.5">
+    <row r="78" spans="1:11" ht="78.75">
       <c r="A78" s="12">
         <v>74</v>
       </c>
@@ -17720,10 +17743,10 @@
         <v>227</v>
       </c>
       <c r="I78" s="30" t="s">
-        <v>449</v>
+        <v>516</v>
       </c>
       <c r="J78" s="39" t="s">
-        <v>144</v>
+        <v>511</v>
       </c>
       <c r="K78" s="11"/>
     </row>
@@ -17737,10 +17760,10 @@
       <c r="C79" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="D79" s="100" t="s">
+      <c r="D79" s="103" t="s">
         <v>222</v>
       </c>
-      <c r="E79" s="100" t="s">
+      <c r="E79" s="103" t="s">
         <v>237</v>
       </c>
       <c r="F79" s="32" t="s">
@@ -17766,8 +17789,8 @@
       <c r="C80" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D80" s="101"/>
-      <c r="E80" s="101"/>
+      <c r="D80" s="104"/>
+      <c r="E80" s="104"/>
       <c r="F80" s="32" t="s">
         <v>191</v>
       </c>
@@ -17791,8 +17814,8 @@
       <c r="C81" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D81" s="101"/>
-      <c r="E81" s="101"/>
+      <c r="D81" s="104"/>
+      <c r="E81" s="104"/>
       <c r="F81" s="32" t="s">
         <v>208</v>
       </c>
@@ -17816,8 +17839,8 @@
       <c r="C82" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D82" s="101"/>
-      <c r="E82" s="101"/>
+      <c r="D82" s="104"/>
+      <c r="E82" s="104"/>
       <c r="F82" s="32" t="s">
         <v>209</v>
       </c>
@@ -17841,8 +17864,8 @@
       <c r="C83" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D83" s="101"/>
-      <c r="E83" s="101"/>
+      <c r="D83" s="104"/>
+      <c r="E83" s="104"/>
       <c r="F83" s="32" t="s">
         <v>210</v>
       </c>
@@ -17866,8 +17889,8 @@
       <c r="C84" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D84" s="101"/>
-      <c r="E84" s="101"/>
+      <c r="D84" s="104"/>
+      <c r="E84" s="104"/>
       <c r="F84" s="32" t="s">
         <v>211</v>
       </c>
@@ -17891,8 +17914,8 @@
       <c r="C85" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D85" s="101"/>
-      <c r="E85" s="101"/>
+      <c r="D85" s="104"/>
+      <c r="E85" s="104"/>
       <c r="F85" s="32" t="s">
         <v>212</v>
       </c>
@@ -17916,8 +17939,8 @@
       <c r="C86" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D86" s="101"/>
-      <c r="E86" s="101"/>
+      <c r="D86" s="104"/>
+      <c r="E86" s="104"/>
       <c r="F86" s="32" t="s">
         <v>213</v>
       </c>
@@ -17941,8 +17964,8 @@
       <c r="C87" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D87" s="101"/>
-      <c r="E87" s="101"/>
+      <c r="D87" s="104"/>
+      <c r="E87" s="104"/>
       <c r="F87" s="32" t="s">
         <v>214</v>
       </c>
@@ -17966,8 +17989,8 @@
       <c r="C88" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D88" s="101"/>
-      <c r="E88" s="101"/>
+      <c r="D88" s="104"/>
+      <c r="E88" s="104"/>
       <c r="F88" s="32" t="s">
         <v>215</v>
       </c>
@@ -17991,8 +18014,8 @@
       <c r="C89" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D89" s="101"/>
-      <c r="E89" s="101"/>
+      <c r="D89" s="104"/>
+      <c r="E89" s="104"/>
       <c r="F89" s="32" t="s">
         <v>216</v>
       </c>
@@ -18016,8 +18039,8 @@
       <c r="C90" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D90" s="101"/>
-      <c r="E90" s="101"/>
+      <c r="D90" s="104"/>
+      <c r="E90" s="104"/>
       <c r="F90" s="32" t="s">
         <v>217</v>
       </c>
@@ -18041,8 +18064,8 @@
       <c r="C91" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D91" s="101"/>
-      <c r="E91" s="101"/>
+      <c r="D91" s="104"/>
+      <c r="E91" s="104"/>
       <c r="F91" s="32" t="s">
         <v>218</v>
       </c>
@@ -18066,8 +18089,8 @@
       <c r="C92" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="D92" s="101"/>
-      <c r="E92" s="101"/>
+      <c r="D92" s="104"/>
+      <c r="E92" s="104"/>
       <c r="F92" s="31" t="s">
         <v>224</v>
       </c>
@@ -18091,8 +18114,8 @@
       <c r="C93" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="D93" s="101"/>
-      <c r="E93" s="101"/>
+      <c r="D93" s="104"/>
+      <c r="E93" s="104"/>
       <c r="F93" s="31" t="s">
         <v>225</v>
       </c>
@@ -18118,8 +18141,8 @@
       <c r="C94" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="D94" s="102"/>
-      <c r="E94" s="102"/>
+      <c r="D94" s="105"/>
+      <c r="E94" s="105"/>
       <c r="F94" s="31" t="s">
         <v>226</v>
       </c>
@@ -18267,7 +18290,7 @@
       <c r="C99" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D99" s="113"/>
+      <c r="D99" s="121"/>
       <c r="E99" s="98"/>
       <c r="F99" s="37" t="s">
         <v>261</v>
@@ -18292,7 +18315,7 @@
       <c r="C100" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D100" s="113"/>
+      <c r="D100" s="121"/>
       <c r="E100" s="98"/>
       <c r="F100" s="37" t="s">
         <v>262</v>
@@ -18317,7 +18340,7 @@
       <c r="C101" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D101" s="113"/>
+      <c r="D101" s="121"/>
       <c r="E101" s="98"/>
       <c r="F101" s="37" t="s">
         <v>263</v>
@@ -18342,7 +18365,7 @@
       <c r="C102" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D102" s="113"/>
+      <c r="D102" s="121"/>
       <c r="E102" s="98"/>
       <c r="F102" s="37" t="s">
         <v>264</v>
@@ -18367,7 +18390,7 @@
       <c r="C103" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D103" s="113"/>
+      <c r="D103" s="121"/>
       <c r="E103" s="98"/>
       <c r="F103" s="37" t="s">
         <v>265</v>
@@ -18392,7 +18415,7 @@
       <c r="C104" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D104" s="113"/>
+      <c r="D104" s="121"/>
       <c r="E104" s="98"/>
       <c r="F104" s="37" t="s">
         <v>266</v>
@@ -18417,7 +18440,7 @@
       <c r="C105" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D105" s="113"/>
+      <c r="D105" s="121"/>
       <c r="E105" s="98"/>
       <c r="F105" s="37" t="s">
         <v>267</v>
@@ -18442,7 +18465,7 @@
       <c r="C106" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="D106" s="113"/>
+      <c r="D106" s="121"/>
       <c r="E106" s="98"/>
       <c r="F106" s="37" t="s">
         <v>268</v>
@@ -18467,7 +18490,7 @@
       <c r="C107" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="D107" s="113"/>
+      <c r="D107" s="121"/>
       <c r="E107" s="98"/>
       <c r="F107" s="37" t="s">
         <v>269</v>
@@ -18492,7 +18515,7 @@
       <c r="C108" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="D108" s="114"/>
+      <c r="D108" s="122"/>
       <c r="E108" s="99"/>
       <c r="F108" s="37" t="s">
         <v>269</v>
@@ -19037,13 +19060,13 @@
         <v>294</v>
       </c>
       <c r="D128" s="72" t="s">
+        <v>489</v>
+      </c>
+      <c r="E128" s="91" t="s">
         <v>490</v>
       </c>
-      <c r="E128" s="91" t="s">
+      <c r="F128" s="37" t="s">
         <v>491</v>
-      </c>
-      <c r="F128" s="37" t="s">
-        <v>492</v>
       </c>
       <c r="G128" s="93">
         <v>44439</v>
@@ -19052,10 +19075,10 @@
         <v>227</v>
       </c>
       <c r="I128" s="32" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J128" s="17" t="s">
-        <v>144</v>
+        <v>511</v>
       </c>
       <c r="K128" s="17"/>
     </row>
@@ -19068,13 +19091,13 @@
         <v>16</v>
       </c>
       <c r="D129" s="97" t="s">
+        <v>492</v>
+      </c>
+      <c r="E129" s="103" t="s">
+        <v>490</v>
+      </c>
+      <c r="F129" s="97" t="s">
         <v>493</v>
-      </c>
-      <c r="E129" s="100" t="s">
-        <v>491</v>
-      </c>
-      <c r="F129" s="97" t="s">
-        <v>494</v>
       </c>
       <c r="G129" s="93">
         <v>44439</v>
@@ -19095,7 +19118,7 @@
         <v>17</v>
       </c>
       <c r="D130" s="98"/>
-      <c r="E130" s="101"/>
+      <c r="E130" s="104"/>
       <c r="F130" s="98"/>
       <c r="G130" s="93">
         <v>44439</v>
@@ -19116,7 +19139,7 @@
         <v>18</v>
       </c>
       <c r="D131" s="98"/>
-      <c r="E131" s="101"/>
+      <c r="E131" s="104"/>
       <c r="F131" s="98"/>
       <c r="G131" s="93">
         <v>44439</v>
@@ -19137,7 +19160,7 @@
         <v>19</v>
       </c>
       <c r="D132" s="98"/>
-      <c r="E132" s="101"/>
+      <c r="E132" s="104"/>
       <c r="F132" s="98"/>
       <c r="G132" s="93">
         <v>44439</v>
@@ -19158,7 +19181,7 @@
         <v>20</v>
       </c>
       <c r="D133" s="98"/>
-      <c r="E133" s="101"/>
+      <c r="E133" s="104"/>
       <c r="F133" s="98"/>
       <c r="G133" s="93">
         <v>44439</v>
@@ -19179,7 +19202,7 @@
         <v>21</v>
       </c>
       <c r="D134" s="98"/>
-      <c r="E134" s="101"/>
+      <c r="E134" s="104"/>
       <c r="F134" s="98"/>
       <c r="G134" s="93">
         <v>44439</v>
@@ -19200,7 +19223,7 @@
         <v>22</v>
       </c>
       <c r="D135" s="98"/>
-      <c r="E135" s="101"/>
+      <c r="E135" s="104"/>
       <c r="F135" s="98"/>
       <c r="G135" s="93">
         <v>44439</v>
@@ -19221,7 +19244,7 @@
         <v>23</v>
       </c>
       <c r="D136" s="98"/>
-      <c r="E136" s="101"/>
+      <c r="E136" s="104"/>
       <c r="F136" s="98"/>
       <c r="G136" s="93">
         <v>44439</v>
@@ -19242,7 +19265,7 @@
         <v>24</v>
       </c>
       <c r="D137" s="98"/>
-      <c r="E137" s="101"/>
+      <c r="E137" s="104"/>
       <c r="F137" s="98"/>
       <c r="G137" s="93">
         <v>44439</v>
@@ -19263,7 +19286,7 @@
         <v>25</v>
       </c>
       <c r="D138" s="98"/>
-      <c r="E138" s="101"/>
+      <c r="E138" s="104"/>
       <c r="F138" s="98"/>
       <c r="G138" s="93">
         <v>44439</v>
@@ -19284,7 +19307,7 @@
         <v>26</v>
       </c>
       <c r="D139" s="98"/>
-      <c r="E139" s="101"/>
+      <c r="E139" s="104"/>
       <c r="F139" s="98"/>
       <c r="G139" s="93">
         <v>44439</v>
@@ -19305,7 +19328,7 @@
         <v>27</v>
       </c>
       <c r="D140" s="99"/>
-      <c r="E140" s="102"/>
+      <c r="E140" s="105"/>
       <c r="F140" s="99"/>
       <c r="G140" s="93">
         <v>44439</v>
@@ -19493,9 +19516,11 @@
       <c r="H146" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="I146" s="32"/>
+      <c r="I146" s="32" t="s">
+        <v>515</v>
+      </c>
       <c r="J146" s="17" t="s">
-        <v>144</v>
+        <v>511</v>
       </c>
       <c r="K146" s="17"/>
     </row>
@@ -19684,13 +19709,13 @@
         <v>396</v>
       </c>
       <c r="D153" s="72" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E153" s="72" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F153" s="37" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G153" s="93">
         <v>44440</v>
@@ -19713,13 +19738,13 @@
         <v>396</v>
       </c>
       <c r="D154" s="72" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E154" s="72" t="s">
+        <v>499</v>
+      </c>
+      <c r="F154" s="37" t="s">
         <v>500</v>
-      </c>
-      <c r="F154" s="37" t="s">
-        <v>501</v>
       </c>
       <c r="G154" s="93">
         <v>44440</v>
@@ -19745,7 +19770,7 @@
         <v>387</v>
       </c>
       <c r="E155" s="72" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F155" s="37" t="s">
         <v>390</v>
@@ -20968,7 +20993,7 @@
         <v>435</v>
       </c>
       <c r="E202" s="72" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F202" s="32" t="s">
         <v>437</v>
@@ -20980,10 +21005,10 @@
         <v>227</v>
       </c>
       <c r="I202" s="32" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J202" s="17" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="K202" s="17"/>
     </row>
@@ -21003,7 +21028,7 @@
       <c r="E203" s="97" t="s">
         <v>436</v>
       </c>
-      <c r="F203" s="117" t="s">
+      <c r="F203" s="113" t="s">
         <v>439</v>
       </c>
       <c r="G203" s="93">
@@ -21028,7 +21053,7 @@
       </c>
       <c r="D204" s="98"/>
       <c r="E204" s="98"/>
-      <c r="F204" s="118"/>
+      <c r="F204" s="114"/>
       <c r="G204" s="93">
         <v>44440</v>
       </c>
@@ -21051,7 +21076,7 @@
       </c>
       <c r="D205" s="98"/>
       <c r="E205" s="98"/>
-      <c r="F205" s="118"/>
+      <c r="F205" s="114"/>
       <c r="G205" s="93">
         <v>44440</v>
       </c>
@@ -21074,7 +21099,7 @@
       </c>
       <c r="D206" s="98"/>
       <c r="E206" s="98"/>
-      <c r="F206" s="118"/>
+      <c r="F206" s="114"/>
       <c r="G206" s="93">
         <v>44440</v>
       </c>
@@ -21097,7 +21122,7 @@
       </c>
       <c r="D207" s="98"/>
       <c r="E207" s="98"/>
-      <c r="F207" s="118"/>
+      <c r="F207" s="114"/>
       <c r="G207" s="93">
         <v>44440</v>
       </c>
@@ -21120,7 +21145,7 @@
       </c>
       <c r="D208" s="98"/>
       <c r="E208" s="98"/>
-      <c r="F208" s="119"/>
+      <c r="F208" s="115"/>
       <c r="G208" s="93">
         <v>44440</v>
       </c>
@@ -21218,7 +21243,7 @@
       </c>
       <c r="D212" s="98"/>
       <c r="E212" s="98"/>
-      <c r="F212" s="117" t="s">
+      <c r="F212" s="113" t="s">
         <v>438</v>
       </c>
       <c r="G212" s="93">
@@ -21243,7 +21268,7 @@
       </c>
       <c r="D213" s="98"/>
       <c r="E213" s="98"/>
-      <c r="F213" s="119"/>
+      <c r="F213" s="115"/>
       <c r="G213" s="93">
         <v>44440</v>
       </c>
@@ -21320,7 +21345,7 @@
         <v>55</v>
       </c>
       <c r="C216" s="37" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D216" s="72" t="s">
         <v>446</v>
@@ -21329,7 +21354,7 @@
         <v>444</v>
       </c>
       <c r="F216" s="37" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G216" s="93">
         <v>44440</v>
@@ -21352,13 +21377,13 @@
         <v>16</v>
       </c>
       <c r="D217" s="97" t="s">
+        <v>449</v>
+      </c>
+      <c r="E217" s="97" t="s">
         <v>450</v>
       </c>
-      <c r="E217" s="97" t="s">
-        <v>451</v>
-      </c>
       <c r="F217" s="32" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G217" s="93">
         <v>44440</v>
@@ -21383,7 +21408,7 @@
       <c r="D218" s="98"/>
       <c r="E218" s="98"/>
       <c r="F218" s="32" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G218" s="93">
         <v>44440</v>
@@ -21408,7 +21433,7 @@
       <c r="D219" s="98"/>
       <c r="E219" s="98"/>
       <c r="F219" s="32" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G219" s="93">
         <v>44440</v>
@@ -21433,7 +21458,7 @@
       <c r="D220" s="98"/>
       <c r="E220" s="98"/>
       <c r="F220" s="32" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G220" s="93">
         <v>44440</v>
@@ -21458,7 +21483,7 @@
       <c r="D221" s="98"/>
       <c r="E221" s="98"/>
       <c r="F221" s="32" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G221" s="93">
         <v>44440</v>
@@ -21483,7 +21508,7 @@
       <c r="D222" s="98"/>
       <c r="E222" s="98"/>
       <c r="F222" s="32" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G222" s="93">
         <v>44440</v>
@@ -21508,7 +21533,7 @@
       <c r="D223" s="98"/>
       <c r="E223" s="98"/>
       <c r="F223" s="32" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G223" s="93">
         <v>44440</v>
@@ -21533,7 +21558,7 @@
       <c r="D224" s="98"/>
       <c r="E224" s="98"/>
       <c r="F224" s="32" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G224" s="93">
         <v>44440</v>
@@ -21558,7 +21583,7 @@
       <c r="D225" s="98"/>
       <c r="E225" s="98"/>
       <c r="F225" s="32" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G225" s="93">
         <v>44440</v>
@@ -21583,7 +21608,7 @@
       <c r="D226" s="98"/>
       <c r="E226" s="98"/>
       <c r="F226" s="32" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G226" s="93">
         <v>44440</v>
@@ -21608,7 +21633,7 @@
       <c r="D227" s="98"/>
       <c r="E227" s="98"/>
       <c r="F227" s="32" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G227" s="93">
         <v>44440</v>
@@ -21633,7 +21658,7 @@
       <c r="D228" s="98"/>
       <c r="E228" s="98"/>
       <c r="F228" s="32" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G228" s="93">
         <v>44440</v>
@@ -21658,7 +21683,7 @@
       <c r="D229" s="98"/>
       <c r="E229" s="98"/>
       <c r="F229" s="31" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G229" s="93">
         <v>44440</v>
@@ -21683,7 +21708,7 @@
       <c r="D230" s="99"/>
       <c r="E230" s="99"/>
       <c r="F230" s="31" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G230" s="93">
         <v>44440</v>
@@ -21705,7 +21730,7 @@
         <v>55</v>
       </c>
       <c r="C231" s="37" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D231" s="72" t="s">
         <v>446</v>
@@ -21722,9 +21747,11 @@
       <c r="H231" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="I231" s="32"/>
+      <c r="I231" s="32" t="s">
+        <v>515</v>
+      </c>
       <c r="J231" s="17" t="s">
-        <v>144</v>
+        <v>511</v>
       </c>
       <c r="K231" s="17"/>
     </row>
@@ -21739,13 +21766,13 @@
         <v>132</v>
       </c>
       <c r="D232" s="72" t="s">
+        <v>454</v>
+      </c>
+      <c r="E232" s="72" t="s">
         <v>455</v>
       </c>
-      <c r="E232" s="72" t="s">
+      <c r="F232" s="37" t="s">
         <v>456</v>
-      </c>
-      <c r="F232" s="37" t="s">
-        <v>457</v>
       </c>
       <c r="G232" s="93">
         <v>44440</v>
@@ -21770,13 +21797,13 @@
         <v>396</v>
       </c>
       <c r="D233" s="72" t="s">
+        <v>457</v>
+      </c>
+      <c r="E233" s="72" t="s">
         <v>458</v>
       </c>
-      <c r="E233" s="72" t="s">
+      <c r="F233" s="37" t="s">
         <v>459</v>
-      </c>
-      <c r="F233" s="37" t="s">
-        <v>460</v>
       </c>
       <c r="G233" s="93">
         <v>44440</v>
@@ -21799,13 +21826,13 @@
         <v>396</v>
       </c>
       <c r="D234" s="72" t="s">
+        <v>460</v>
+      </c>
+      <c r="E234" s="72" t="s">
         <v>461</v>
       </c>
-      <c r="E234" s="72" t="s">
+      <c r="F234" s="37" t="s">
         <v>462</v>
-      </c>
-      <c r="F234" s="37" t="s">
-        <v>463</v>
       </c>
       <c r="G234" s="93">
         <v>44440</v>
@@ -21828,13 +21855,13 @@
         <v>396</v>
       </c>
       <c r="D235" s="72" t="s">
+        <v>463</v>
+      </c>
+      <c r="E235" s="72" t="s">
         <v>464</v>
       </c>
-      <c r="E235" s="72" t="s">
+      <c r="F235" s="37" t="s">
         <v>465</v>
-      </c>
-      <c r="F235" s="37" t="s">
-        <v>466</v>
       </c>
       <c r="G235" s="93">
         <v>44440</v>
@@ -21857,13 +21884,13 @@
         <v>396</v>
       </c>
       <c r="D236" s="72" t="s">
+        <v>466</v>
+      </c>
+      <c r="E236" s="72" t="s">
         <v>467</v>
       </c>
-      <c r="E236" s="72" t="s">
+      <c r="F236" s="37" t="s">
         <v>468</v>
-      </c>
-      <c r="F236" s="37" t="s">
-        <v>469</v>
       </c>
       <c r="G236" s="93">
         <v>44440</v>
@@ -21886,13 +21913,13 @@
         <v>396</v>
       </c>
       <c r="D237" s="72" t="s">
+        <v>469</v>
+      </c>
+      <c r="E237" s="72" t="s">
         <v>470</v>
       </c>
-      <c r="E237" s="72" t="s">
+      <c r="F237" s="37" t="s">
         <v>471</v>
-      </c>
-      <c r="F237" s="37" t="s">
-        <v>472</v>
       </c>
       <c r="G237" s="93">
         <v>44440</v>
@@ -21915,13 +21942,13 @@
         <v>396</v>
       </c>
       <c r="D238" s="72" t="s">
+        <v>472</v>
+      </c>
+      <c r="E238" s="72" t="s">
         <v>473</v>
       </c>
-      <c r="E238" s="72" t="s">
+      <c r="F238" s="37" t="s">
         <v>474</v>
-      </c>
-      <c r="F238" s="37" t="s">
-        <v>475</v>
       </c>
       <c r="G238" s="93">
         <v>44440</v>
@@ -21944,13 +21971,13 @@
         <v>396</v>
       </c>
       <c r="D239" s="72" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E239" s="72" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F239" s="37" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G239" s="93">
         <v>44440</v>
@@ -21973,13 +22000,13 @@
         <v>396</v>
       </c>
       <c r="D240" s="72" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E240" s="72" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F240" s="37" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G240" s="93">
         <v>44440</v>
@@ -21988,10 +22015,10 @@
         <v>227</v>
       </c>
       <c r="I240" s="32" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J240" s="17" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="K240" s="17"/>
     </row>
@@ -22004,13 +22031,13 @@
         <v>396</v>
       </c>
       <c r="D241" s="72" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E241" s="72" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F241" s="37" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G241" s="93">
         <v>44440</v>
@@ -23599,19 +23626,21 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="F203:F208"/>
-    <mergeCell ref="F212:F213"/>
-    <mergeCell ref="D217:D230"/>
-    <mergeCell ref="E217:E230"/>
-    <mergeCell ref="E190:E201"/>
-    <mergeCell ref="D190:D201"/>
-    <mergeCell ref="D203:D214"/>
-    <mergeCell ref="E203:E214"/>
-    <mergeCell ref="D156:D167"/>
-    <mergeCell ref="E156:E167"/>
-    <mergeCell ref="D168:D179"/>
-    <mergeCell ref="F168:F179"/>
-    <mergeCell ref="D180:D189"/>
+    <mergeCell ref="F129:F140"/>
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="D114:D125"/>
+    <mergeCell ref="E114:E125"/>
+    <mergeCell ref="D129:D140"/>
+    <mergeCell ref="E129:E140"/>
+    <mergeCell ref="D98:D108"/>
+    <mergeCell ref="E98:E108"/>
+    <mergeCell ref="D79:D94"/>
+    <mergeCell ref="D42:D53"/>
+    <mergeCell ref="E42:E53"/>
+    <mergeCell ref="E66:E77"/>
+    <mergeCell ref="E79:E94"/>
+    <mergeCell ref="D66:D77"/>
     <mergeCell ref="F66:F77"/>
     <mergeCell ref="D54:D65"/>
     <mergeCell ref="E54:E65"/>
@@ -23626,21 +23655,19 @@
     <mergeCell ref="D20:D31"/>
     <mergeCell ref="D32:D41"/>
     <mergeCell ref="F42:F53"/>
-    <mergeCell ref="D98:D108"/>
-    <mergeCell ref="E98:E108"/>
-    <mergeCell ref="D79:D94"/>
-    <mergeCell ref="D42:D53"/>
-    <mergeCell ref="E42:E53"/>
-    <mergeCell ref="E66:E77"/>
-    <mergeCell ref="E79:E94"/>
-    <mergeCell ref="D66:D77"/>
-    <mergeCell ref="F129:F140"/>
-    <mergeCell ref="D143:D144"/>
-    <mergeCell ref="E143:E144"/>
-    <mergeCell ref="D114:D125"/>
-    <mergeCell ref="E114:E125"/>
-    <mergeCell ref="D129:D140"/>
-    <mergeCell ref="E129:E140"/>
+    <mergeCell ref="D156:D167"/>
+    <mergeCell ref="E156:E167"/>
+    <mergeCell ref="D168:D179"/>
+    <mergeCell ref="F168:F179"/>
+    <mergeCell ref="D180:D189"/>
+    <mergeCell ref="F203:F208"/>
+    <mergeCell ref="F212:F213"/>
+    <mergeCell ref="D217:D230"/>
+    <mergeCell ref="E217:E230"/>
+    <mergeCell ref="E190:E201"/>
+    <mergeCell ref="D190:D201"/>
+    <mergeCell ref="D203:D214"/>
+    <mergeCell ref="E203:E214"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/testcase_account_ver3.xlsx
+++ b/testcase_account_ver3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\7-Programming-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062E2BE2-0D90-4810-88BB-175F4F0D4120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6089397B-B04B-4A4C-AF10-390638E75A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="888" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1967" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1969" uniqueCount="518">
   <si>
     <t>作成者</t>
   </si>
@@ -7372,50 +7372,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>調べて確認が必要。8/19追記：tryの関数を使用して完了。
-8/27追記：HTMLの中でそれぞれの場合エラー文が表示されるように変更。</t>
-    <rPh sb="0" eb="1">
-      <t>シラ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ツイキ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ツイキ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>アカウント削除完了画面にて、画面下の「TOPページに戻る」ボタンを押す。</t>
     <rPh sb="7" eb="9">
       <t>カンリョウ</t>
@@ -9886,6 +9842,58 @@
       <t>ヘンコウカンリョウ</t>
     </rPh>
     <rPh sb="28" eb="30">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9/1：エラーメッセージが空欄の場合でもエラー表示の画面になるように変更する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>調べて確認が必要。8/19追記：tryの関数を使用して完了。
+8/27追記：HTMLの中でそれぞれの場合エラー文が表示されるように変更。
+9/1追記：エラーメッセージが空欄の場合でもエラー表示の画面になるように変更する。</t>
+    <rPh sb="0" eb="1">
+      <t>シラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ツイキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ツイキ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
       <t>ツイキ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -10537,15 +10545,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10575,6 +10574,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -10584,12 +10604,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -10598,12 +10612,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -10957,8 +10965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M173"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A129" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D145" sqref="D145:D146"/>
+    <sheetView showGridLines="0" topLeftCell="E147" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K165" sqref="K165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -10978,12 +10986,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
       <c r="E1" s="53" t="s">
         <v>2</v>
       </c>
@@ -11006,10 +11014,10 @@
       <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A2" s="108"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
       <c r="E2" s="53" t="s">
         <v>3</v>
       </c>
@@ -11323,7 +11331,7 @@
       <c r="F12" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="103" t="s">
+      <c r="G12" s="100" t="s">
         <v>107</v>
       </c>
       <c r="H12" s="68">
@@ -11353,7 +11361,7 @@
       <c r="F13" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="104"/>
+      <c r="G13" s="101"/>
       <c r="H13" s="60">
         <v>44354</v>
       </c>
@@ -11381,7 +11389,7 @@
       <c r="F14" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="104"/>
+      <c r="G14" s="101"/>
       <c r="H14" s="60">
         <v>44354</v>
       </c>
@@ -11409,7 +11417,7 @@
       <c r="F15" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="104"/>
+      <c r="G15" s="101"/>
       <c r="H15" s="68">
         <v>44354</v>
       </c>
@@ -11437,7 +11445,7 @@
       <c r="F16" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="104"/>
+      <c r="G16" s="101"/>
       <c r="H16" s="60">
         <v>44354</v>
       </c>
@@ -11465,7 +11473,7 @@
       <c r="F17" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="104"/>
+      <c r="G17" s="101"/>
       <c r="H17" s="60">
         <v>44354</v>
       </c>
@@ -11493,7 +11501,7 @@
       <c r="F18" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="104"/>
+      <c r="G18" s="101"/>
       <c r="H18" s="68">
         <v>44354</v>
       </c>
@@ -11521,7 +11529,7 @@
       <c r="F19" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="104"/>
+      <c r="G19" s="101"/>
       <c r="H19" s="60">
         <v>44354</v>
       </c>
@@ -11549,7 +11557,7 @@
       <c r="F20" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="104"/>
+      <c r="G20" s="101"/>
       <c r="H20" s="60">
         <v>44354</v>
       </c>
@@ -11577,7 +11585,7 @@
       <c r="F21" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="104"/>
+      <c r="G21" s="101"/>
       <c r="H21" s="68">
         <v>44354</v>
       </c>
@@ -11605,7 +11613,7 @@
       <c r="F22" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="104"/>
+      <c r="G22" s="101"/>
       <c r="H22" s="60">
         <v>44354</v>
       </c>
@@ -11633,7 +11641,7 @@
       <c r="F23" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="105"/>
+      <c r="G23" s="102"/>
       <c r="H23" s="60">
         <v>44354</v>
       </c>
@@ -12618,7 +12626,7 @@
       </c>
       <c r="L55" s="11"/>
     </row>
-    <row r="56" spans="1:12" ht="63">
+    <row r="56" spans="1:12" ht="110.25">
       <c r="A56" s="12">
         <v>51</v>
       </c>
@@ -12645,10 +12653,10 @@
         <v>6</v>
       </c>
       <c r="J56" s="30" t="s">
-        <v>388</v>
+        <v>517</v>
       </c>
       <c r="K56" s="39" t="s">
-        <v>144</v>
+        <v>510</v>
       </c>
       <c r="L56" s="11"/>
     </row>
@@ -12668,7 +12676,7 @@
       <c r="E57" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F57" s="103" t="s">
+      <c r="F57" s="100" t="s">
         <v>232</v>
       </c>
       <c r="G57" s="32" t="s">
@@ -12700,7 +12708,7 @@
       <c r="E58" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F58" s="104"/>
+      <c r="F58" s="101"/>
       <c r="G58" s="32" t="s">
         <v>233</v>
       </c>
@@ -12727,10 +12735,10 @@
       <c r="D59" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="E59" s="110" t="s">
+      <c r="E59" s="107" t="s">
         <v>55</v>
       </c>
-      <c r="F59" s="104"/>
+      <c r="F59" s="101"/>
       <c r="G59" s="37" t="s">
         <v>260</v>
       </c>
@@ -12755,8 +12763,8 @@
       <c r="D60" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E60" s="111"/>
-      <c r="F60" s="104"/>
+      <c r="E60" s="108"/>
+      <c r="F60" s="101"/>
       <c r="G60" s="37" t="s">
         <v>261</v>
       </c>
@@ -12781,8 +12789,8 @@
       <c r="D61" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E61" s="111"/>
-      <c r="F61" s="104"/>
+      <c r="E61" s="108"/>
+      <c r="F61" s="101"/>
       <c r="G61" s="37" t="s">
         <v>262</v>
       </c>
@@ -12807,8 +12815,8 @@
       <c r="D62" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E62" s="111"/>
-      <c r="F62" s="104"/>
+      <c r="E62" s="108"/>
+      <c r="F62" s="101"/>
       <c r="G62" s="37" t="s">
         <v>263</v>
       </c>
@@ -12833,8 +12841,8 @@
       <c r="D63" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E63" s="111"/>
-      <c r="F63" s="104"/>
+      <c r="E63" s="108"/>
+      <c r="F63" s="101"/>
       <c r="G63" s="37" t="s">
         <v>264</v>
       </c>
@@ -12859,8 +12867,8 @@
       <c r="D64" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E64" s="111"/>
-      <c r="F64" s="104"/>
+      <c r="E64" s="108"/>
+      <c r="F64" s="101"/>
       <c r="G64" s="37" t="s">
         <v>265</v>
       </c>
@@ -12885,8 +12893,8 @@
       <c r="D65" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E65" s="111"/>
-      <c r="F65" s="104"/>
+      <c r="E65" s="108"/>
+      <c r="F65" s="101"/>
       <c r="G65" s="31" t="s">
         <v>272</v>
       </c>
@@ -12911,8 +12919,8 @@
       <c r="D66" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E66" s="111"/>
-      <c r="F66" s="104"/>
+      <c r="E66" s="108"/>
+      <c r="F66" s="101"/>
       <c r="G66" s="31" t="s">
         <v>273</v>
       </c>
@@ -12937,8 +12945,8 @@
       <c r="D67" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="E67" s="111"/>
-      <c r="F67" s="104"/>
+      <c r="E67" s="108"/>
+      <c r="F67" s="101"/>
       <c r="G67" s="31" t="s">
         <v>274</v>
       </c>
@@ -12963,8 +12971,8 @@
       <c r="D68" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="E68" s="111"/>
-      <c r="F68" s="104"/>
+      <c r="E68" s="108"/>
+      <c r="F68" s="101"/>
       <c r="G68" s="31" t="s">
         <v>275</v>
       </c>
@@ -12989,8 +12997,8 @@
       <c r="D69" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="E69" s="111"/>
-      <c r="F69" s="104"/>
+      <c r="E69" s="108"/>
+      <c r="F69" s="101"/>
       <c r="G69" s="31" t="s">
         <v>275</v>
       </c>
@@ -13015,8 +13023,8 @@
       <c r="D70" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="E70" s="111"/>
-      <c r="F70" s="104"/>
+      <c r="E70" s="108"/>
+      <c r="F70" s="101"/>
       <c r="G70" s="31" t="s">
         <v>270</v>
       </c>
@@ -13041,8 +13049,8 @@
       <c r="D71" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="E71" s="112"/>
-      <c r="F71" s="105"/>
+      <c r="E71" s="109"/>
+      <c r="F71" s="102"/>
       <c r="G71" s="31" t="s">
         <v>271</v>
       </c>
@@ -13568,7 +13576,7 @@
       <c r="E90" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="F90" s="103" t="s">
+      <c r="F90" s="100" t="s">
         <v>300</v>
       </c>
       <c r="G90" s="30" t="s">
@@ -13598,7 +13606,7 @@
         <v>136</v>
       </c>
       <c r="E91" s="95"/>
-      <c r="F91" s="104"/>
+      <c r="F91" s="101"/>
       <c r="G91" s="32" t="s">
         <v>298</v>
       </c>
@@ -13624,7 +13632,7 @@
         <v>132</v>
       </c>
       <c r="E92" s="96"/>
-      <c r="F92" s="104"/>
+      <c r="F92" s="101"/>
       <c r="G92" s="32" t="s">
         <v>302</v>
       </c>
@@ -13656,7 +13664,7 @@
       <c r="E93" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F93" s="104"/>
+      <c r="F93" s="101"/>
       <c r="G93" s="32" t="s">
         <v>354</v>
       </c>
@@ -13684,7 +13692,7 @@
       <c r="E94" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F94" s="105"/>
+      <c r="F94" s="102"/>
       <c r="G94" s="32" t="s">
         <v>355</v>
       </c>
@@ -13726,9 +13734,11 @@
       <c r="I95" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J95" s="30"/>
+      <c r="J95" s="30" t="s">
+        <v>516</v>
+      </c>
       <c r="K95" s="39" t="s">
-        <v>144</v>
+        <v>510</v>
       </c>
       <c r="L95" s="11"/>
     </row>
@@ -14131,7 +14141,7 @@
       <c r="F110" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="G110" s="103" t="s">
+      <c r="G110" s="100" t="s">
         <v>107</v>
       </c>
       <c r="H110" s="68">
@@ -14161,7 +14171,7 @@
       <c r="F111" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="G111" s="104"/>
+      <c r="G111" s="101"/>
       <c r="H111" s="68">
         <v>44435</v>
       </c>
@@ -14189,7 +14199,7 @@
       <c r="F112" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="G112" s="104"/>
+      <c r="G112" s="101"/>
       <c r="H112" s="68">
         <v>44435</v>
       </c>
@@ -14217,7 +14227,7 @@
       <c r="F113" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="G113" s="104"/>
+      <c r="G113" s="101"/>
       <c r="H113" s="68">
         <v>44435</v>
       </c>
@@ -14245,7 +14255,7 @@
       <c r="F114" s="31" t="s">
         <v>326</v>
       </c>
-      <c r="G114" s="104"/>
+      <c r="G114" s="101"/>
       <c r="H114" s="68">
         <v>44435</v>
       </c>
@@ -14273,7 +14283,7 @@
       <c r="F115" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="G115" s="104"/>
+      <c r="G115" s="101"/>
       <c r="H115" s="68">
         <v>44435</v>
       </c>
@@ -14301,7 +14311,7 @@
       <c r="F116" s="31" t="s">
         <v>346</v>
       </c>
-      <c r="G116" s="104"/>
+      <c r="G116" s="101"/>
       <c r="H116" s="68">
         <v>44435</v>
       </c>
@@ -14329,7 +14339,7 @@
       <c r="F117" s="31" t="s">
         <v>327</v>
       </c>
-      <c r="G117" s="104"/>
+      <c r="G117" s="101"/>
       <c r="H117" s="68">
         <v>44435</v>
       </c>
@@ -14357,7 +14367,7 @@
       <c r="F118" s="31" t="s">
         <v>322</v>
       </c>
-      <c r="G118" s="104"/>
+      <c r="G118" s="101"/>
       <c r="H118" s="68">
         <v>44435</v>
       </c>
@@ -14385,7 +14395,7 @@
       <c r="F119" s="31" t="s">
         <v>328</v>
       </c>
-      <c r="G119" s="104"/>
+      <c r="G119" s="101"/>
       <c r="H119" s="68">
         <v>44435</v>
       </c>
@@ -14413,7 +14423,7 @@
       <c r="F120" s="31" t="s">
         <v>329</v>
       </c>
-      <c r="G120" s="104"/>
+      <c r="G120" s="101"/>
       <c r="H120" s="68">
         <v>44435</v>
       </c>
@@ -14441,7 +14451,7 @@
       <c r="F121" s="31" t="s">
         <v>321</v>
       </c>
-      <c r="G121" s="105"/>
+      <c r="G121" s="102"/>
       <c r="H121" s="68">
         <v>44435</v>
       </c>
@@ -15000,7 +15010,7 @@
       </c>
       <c r="F140" s="98"/>
       <c r="G140" s="32" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H140" s="68">
         <v>44435</v>
@@ -15028,7 +15038,7 @@
       </c>
       <c r="F141" s="98"/>
       <c r="G141" s="32" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H141" s="68">
         <v>44435</v>
@@ -15056,7 +15066,7 @@
       </c>
       <c r="F142" s="98"/>
       <c r="G142" s="32" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H142" s="68">
         <v>44435</v>
@@ -15084,7 +15094,7 @@
       </c>
       <c r="F143" s="98"/>
       <c r="G143" s="32" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H143" s="68">
         <v>44435</v>
@@ -15285,13 +15295,13 @@
       <c r="D150" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E150" s="100" t="s">
+      <c r="E150" s="110" t="s">
         <v>55</v>
       </c>
       <c r="F150" s="97" t="s">
         <v>357</v>
       </c>
-      <c r="G150" s="103" t="s">
+      <c r="G150" s="100" t="s">
         <v>358</v>
       </c>
       <c r="H150" s="68">
@@ -15315,9 +15325,9 @@
       <c r="D151" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E151" s="101"/>
+      <c r="E151" s="111"/>
       <c r="F151" s="98"/>
-      <c r="G151" s="104"/>
+      <c r="G151" s="101"/>
       <c r="H151" s="68">
         <v>44435</v>
       </c>
@@ -15339,9 +15349,9 @@
       <c r="D152" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E152" s="101"/>
+      <c r="E152" s="111"/>
       <c r="F152" s="98"/>
-      <c r="G152" s="104"/>
+      <c r="G152" s="101"/>
       <c r="H152" s="68">
         <v>44435</v>
       </c>
@@ -15363,9 +15373,9 @@
       <c r="D153" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E153" s="101"/>
+      <c r="E153" s="111"/>
       <c r="F153" s="98"/>
-      <c r="G153" s="104"/>
+      <c r="G153" s="101"/>
       <c r="H153" s="68">
         <v>44435</v>
       </c>
@@ -15387,9 +15397,9 @@
       <c r="D154" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E154" s="101"/>
+      <c r="E154" s="111"/>
       <c r="F154" s="98"/>
-      <c r="G154" s="104"/>
+      <c r="G154" s="101"/>
       <c r="H154" s="68">
         <v>44435</v>
       </c>
@@ -15411,9 +15421,9 @@
       <c r="D155" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E155" s="101"/>
+      <c r="E155" s="111"/>
       <c r="F155" s="98"/>
-      <c r="G155" s="104"/>
+      <c r="G155" s="101"/>
       <c r="H155" s="68">
         <v>44435</v>
       </c>
@@ -15435,9 +15445,9 @@
       <c r="D156" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E156" s="101"/>
+      <c r="E156" s="111"/>
       <c r="F156" s="98"/>
-      <c r="G156" s="104"/>
+      <c r="G156" s="101"/>
       <c r="H156" s="68">
         <v>44435</v>
       </c>
@@ -15459,9 +15469,9 @@
       <c r="D157" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E157" s="101"/>
+      <c r="E157" s="111"/>
       <c r="F157" s="98"/>
-      <c r="G157" s="104"/>
+      <c r="G157" s="101"/>
       <c r="H157" s="68">
         <v>44435</v>
       </c>
@@ -15483,9 +15493,9 @@
       <c r="D158" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E158" s="101"/>
+      <c r="E158" s="111"/>
       <c r="F158" s="98"/>
-      <c r="G158" s="104"/>
+      <c r="G158" s="101"/>
       <c r="H158" s="68">
         <v>44435</v>
       </c>
@@ -15507,9 +15517,9 @@
       <c r="D159" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E159" s="101"/>
+      <c r="E159" s="111"/>
       <c r="F159" s="98"/>
-      <c r="G159" s="104"/>
+      <c r="G159" s="101"/>
       <c r="H159" s="68">
         <v>44435</v>
       </c>
@@ -15531,9 +15541,9 @@
       <c r="D160" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E160" s="101"/>
+      <c r="E160" s="111"/>
       <c r="F160" s="98"/>
-      <c r="G160" s="104"/>
+      <c r="G160" s="101"/>
       <c r="H160" s="68">
         <v>44435</v>
       </c>
@@ -15555,9 +15565,9 @@
       <c r="D161" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="E161" s="101"/>
+      <c r="E161" s="111"/>
       <c r="F161" s="98"/>
-      <c r="G161" s="105"/>
+      <c r="G161" s="102"/>
       <c r="H161" s="68">
         <v>44435</v>
       </c>
@@ -15579,7 +15589,7 @@
       <c r="D162" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="E162" s="101"/>
+      <c r="E162" s="111"/>
       <c r="F162" s="98"/>
       <c r="G162" s="31" t="s">
         <v>359</v>
@@ -15605,7 +15615,7 @@
       <c r="D163" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="E163" s="102"/>
+      <c r="E163" s="112"/>
       <c r="F163" s="99"/>
       <c r="G163" s="31" t="s">
         <v>360</v>
@@ -15648,9 +15658,11 @@
       <c r="I164" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J164" s="30"/>
+      <c r="J164" s="30" t="s">
+        <v>516</v>
+      </c>
       <c r="K164" s="39" t="s">
-        <v>144</v>
+        <v>510</v>
       </c>
       <c r="L164" s="11"/>
     </row>
@@ -15782,18 +15794,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="E73:E84"/>
-    <mergeCell ref="F73:F84"/>
-    <mergeCell ref="E86:E89"/>
-    <mergeCell ref="F86:F89"/>
-    <mergeCell ref="E90:E92"/>
-    <mergeCell ref="F90:F94"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="G12:G23"/>
-    <mergeCell ref="G38:G42"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="E59:E71"/>
-    <mergeCell ref="F57:F71"/>
     <mergeCell ref="E97:E108"/>
     <mergeCell ref="F97:F108"/>
     <mergeCell ref="E150:E163"/>
@@ -15802,6 +15802,18 @@
     <mergeCell ref="G110:G121"/>
     <mergeCell ref="F132:F146"/>
     <mergeCell ref="F147:F149"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="G12:G23"/>
+    <mergeCell ref="G38:G42"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="E59:E71"/>
+    <mergeCell ref="F57:F71"/>
+    <mergeCell ref="E73:E84"/>
+    <mergeCell ref="F73:F84"/>
+    <mergeCell ref="E86:E89"/>
+    <mergeCell ref="F86:F89"/>
+    <mergeCell ref="E90:E92"/>
+    <mergeCell ref="F90:F94"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -15814,8 +15826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9E524B-C67B-4990-A5C3-077E8DAB7E38}">
   <dimension ref="A1:L362"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D244" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J232" sqref="J232"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D235" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I146" sqref="I146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -15835,11 +15847,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="103" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="116"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="115"/>
       <c r="D1" s="53" t="s">
         <v>2</v>
       </c>
@@ -15862,9 +15874,9 @@
       <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A2" s="108"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="117"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="116"/>
       <c r="D2" s="53" t="s">
         <v>3</v>
       </c>
@@ -16032,13 +16044,13 @@
       <c r="C8" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="103" t="s">
+      <c r="D8" s="100" t="s">
         <v>204</v>
       </c>
       <c r="E8" s="80" t="s">
         <v>161</v>
       </c>
-      <c r="F8" s="103" t="s">
+      <c r="F8" s="100" t="s">
         <v>202</v>
       </c>
       <c r="G8" s="60">
@@ -16058,11 +16070,11 @@
       <c r="C9" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="104"/>
+      <c r="D9" s="101"/>
       <c r="E9" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="F9" s="104"/>
+      <c r="F9" s="101"/>
       <c r="G9" s="60">
         <v>44369</v>
       </c>
@@ -16080,11 +16092,11 @@
       <c r="C10" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="104"/>
+      <c r="D10" s="101"/>
       <c r="E10" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="104"/>
+      <c r="F10" s="101"/>
       <c r="G10" s="60">
         <v>44369</v>
       </c>
@@ -16102,11 +16114,11 @@
       <c r="C11" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="104"/>
+      <c r="D11" s="101"/>
       <c r="E11" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="104"/>
+      <c r="F11" s="101"/>
       <c r="G11" s="60">
         <v>44369</v>
       </c>
@@ -16124,11 +16136,11 @@
       <c r="C12" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="104"/>
+      <c r="D12" s="101"/>
       <c r="E12" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="104"/>
+      <c r="F12" s="101"/>
       <c r="G12" s="60">
         <v>44369</v>
       </c>
@@ -16146,11 +16158,11 @@
       <c r="C13" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="104"/>
+      <c r="D13" s="101"/>
       <c r="E13" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="104"/>
+      <c r="F13" s="101"/>
       <c r="G13" s="60">
         <v>44369</v>
       </c>
@@ -16168,11 +16180,11 @@
       <c r="C14" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="104"/>
+      <c r="D14" s="101"/>
       <c r="E14" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="104"/>
+      <c r="F14" s="101"/>
       <c r="G14" s="60">
         <v>44369</v>
       </c>
@@ -16190,11 +16202,11 @@
       <c r="C15" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="104"/>
+      <c r="D15" s="101"/>
       <c r="E15" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="104"/>
+      <c r="F15" s="101"/>
       <c r="G15" s="60">
         <v>44369</v>
       </c>
@@ -16212,11 +16224,11 @@
       <c r="C16" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="104"/>
+      <c r="D16" s="101"/>
       <c r="E16" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="104"/>
+      <c r="F16" s="101"/>
       <c r="G16" s="60">
         <v>44369</v>
       </c>
@@ -16234,11 +16246,11 @@
       <c r="C17" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="104"/>
+      <c r="D17" s="101"/>
       <c r="E17" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="104"/>
+      <c r="F17" s="101"/>
       <c r="G17" s="60">
         <v>44369</v>
       </c>
@@ -16256,11 +16268,11 @@
       <c r="C18" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="104"/>
+      <c r="D18" s="101"/>
       <c r="E18" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="104"/>
+      <c r="F18" s="101"/>
       <c r="G18" s="60">
         <v>44369</v>
       </c>
@@ -16278,11 +16290,11 @@
       <c r="C19" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="105"/>
+      <c r="D19" s="102"/>
       <c r="E19" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="105"/>
+      <c r="F19" s="102"/>
       <c r="G19" s="60">
         <v>44369</v>
       </c>
@@ -16303,13 +16315,13 @@
       <c r="C20" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="103" t="s">
+      <c r="D20" s="100" t="s">
         <v>203</v>
       </c>
-      <c r="E20" s="118" t="s">
+      <c r="E20" s="120" t="s">
         <v>201</v>
       </c>
-      <c r="F20" s="103" t="s">
+      <c r="F20" s="100" t="s">
         <v>188</v>
       </c>
       <c r="G20" s="60">
@@ -16332,9 +16344,9 @@
       <c r="C21" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="104"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="104"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="101"/>
       <c r="G21" s="60">
         <v>44369</v>
       </c>
@@ -16355,9 +16367,9 @@
       <c r="C22" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="104"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="104"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="121"/>
+      <c r="F22" s="101"/>
       <c r="G22" s="60">
         <v>44369</v>
       </c>
@@ -16378,9 +16390,9 @@
       <c r="C23" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="104"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="104"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="121"/>
+      <c r="F23" s="101"/>
       <c r="G23" s="60">
         <v>44369</v>
       </c>
@@ -16401,9 +16413,9 @@
       <c r="C24" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="104"/>
-      <c r="E24" s="119"/>
-      <c r="F24" s="105"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="121"/>
+      <c r="F24" s="102"/>
       <c r="G24" s="60">
         <v>44369</v>
       </c>
@@ -16424,8 +16436,8 @@
       <c r="C25" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="104"/>
-      <c r="E25" s="119"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="121"/>
       <c r="F25" s="31" t="s">
         <v>186</v>
       </c>
@@ -16449,9 +16461,9 @@
       <c r="C26" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="104"/>
-      <c r="E26" s="119"/>
-      <c r="F26" s="103" t="s">
+      <c r="D26" s="101"/>
+      <c r="E26" s="121"/>
+      <c r="F26" s="100" t="s">
         <v>187</v>
       </c>
       <c r="G26" s="60">
@@ -16474,9 +16486,9 @@
       <c r="C27" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="104"/>
-      <c r="E27" s="119"/>
-      <c r="F27" s="104"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="121"/>
+      <c r="F27" s="101"/>
       <c r="G27" s="60">
         <v>44369</v>
       </c>
@@ -16497,9 +16509,9 @@
       <c r="C28" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="104"/>
-      <c r="E28" s="119"/>
-      <c r="F28" s="104"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="121"/>
+      <c r="F28" s="101"/>
       <c r="G28" s="60">
         <v>44369</v>
       </c>
@@ -16520,9 +16532,9 @@
       <c r="C29" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="104"/>
-      <c r="E29" s="119"/>
-      <c r="F29" s="104"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="121"/>
+      <c r="F29" s="101"/>
       <c r="G29" s="60">
         <v>44369</v>
       </c>
@@ -16543,9 +16555,9 @@
       <c r="C30" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="104"/>
-      <c r="E30" s="119"/>
-      <c r="F30" s="104"/>
+      <c r="D30" s="101"/>
+      <c r="E30" s="121"/>
+      <c r="F30" s="101"/>
       <c r="G30" s="60">
         <v>44369</v>
       </c>
@@ -16566,9 +16578,9 @@
       <c r="C31" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="105"/>
-      <c r="E31" s="120"/>
-      <c r="F31" s="105"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="122"/>
+      <c r="F31" s="102"/>
       <c r="G31" s="60">
         <v>44369</v>
       </c>
@@ -16591,7 +16603,7 @@
       <c r="C32" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="103" t="s">
+      <c r="D32" s="100" t="s">
         <v>219</v>
       </c>
       <c r="E32" s="31" t="s">
@@ -16620,7 +16632,7 @@
       <c r="C33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="104"/>
+      <c r="D33" s="101"/>
       <c r="E33" s="31" t="s">
         <v>168</v>
       </c>
@@ -16647,7 +16659,7 @@
       <c r="C34" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="104"/>
+      <c r="D34" s="101"/>
       <c r="E34" s="31" t="s">
         <v>169</v>
       </c>
@@ -16674,7 +16686,7 @@
       <c r="C35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="104"/>
+      <c r="D35" s="101"/>
       <c r="E35" s="31" t="s">
         <v>169</v>
       </c>
@@ -16701,7 +16713,7 @@
       <c r="C36" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="104"/>
+      <c r="D36" s="101"/>
       <c r="E36" s="31" t="s">
         <v>170</v>
       </c>
@@ -16728,7 +16740,7 @@
       <c r="C37" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="104"/>
+      <c r="D37" s="101"/>
       <c r="E37" s="31" t="s">
         <v>171</v>
       </c>
@@ -16755,7 +16767,7 @@
       <c r="C38" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="104"/>
+      <c r="D38" s="101"/>
       <c r="E38" s="31" t="s">
         <v>172</v>
       </c>
@@ -16782,7 +16794,7 @@
       <c r="C39" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="104"/>
+      <c r="D39" s="101"/>
       <c r="E39" s="31" t="s">
         <v>173</v>
       </c>
@@ -16809,7 +16821,7 @@
       <c r="C40" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="104"/>
+      <c r="D40" s="101"/>
       <c r="E40" s="31" t="s">
         <v>174</v>
       </c>
@@ -16836,7 +16848,7 @@
       <c r="C41" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="105"/>
+      <c r="D41" s="102"/>
       <c r="E41" s="31" t="s">
         <v>175</v>
       </c>
@@ -16865,7 +16877,7 @@
       <c r="C42" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="103" t="s">
+      <c r="D42" s="100" t="s">
         <v>207</v>
       </c>
       <c r="E42" s="97" t="s">
@@ -16894,7 +16906,7 @@
       <c r="C43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="101"/>
+      <c r="D43" s="111"/>
       <c r="E43" s="98"/>
       <c r="F43" s="98"/>
       <c r="G43" s="60">
@@ -16917,7 +16929,7 @@
       <c r="C44" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="101"/>
+      <c r="D44" s="111"/>
       <c r="E44" s="98"/>
       <c r="F44" s="98"/>
       <c r="G44" s="60">
@@ -16940,7 +16952,7 @@
       <c r="C45" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="101"/>
+      <c r="D45" s="111"/>
       <c r="E45" s="98"/>
       <c r="F45" s="98"/>
       <c r="G45" s="60">
@@ -16963,7 +16975,7 @@
       <c r="C46" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="101"/>
+      <c r="D46" s="111"/>
       <c r="E46" s="98"/>
       <c r="F46" s="98"/>
       <c r="G46" s="60">
@@ -16986,7 +16998,7 @@
       <c r="C47" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="101"/>
+      <c r="D47" s="111"/>
       <c r="E47" s="98"/>
       <c r="F47" s="98"/>
       <c r="G47" s="60">
@@ -17009,7 +17021,7 @@
       <c r="C48" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="101"/>
+      <c r="D48" s="111"/>
       <c r="E48" s="98"/>
       <c r="F48" s="98"/>
       <c r="G48" s="60">
@@ -17032,7 +17044,7 @@
       <c r="C49" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D49" s="101"/>
+      <c r="D49" s="111"/>
       <c r="E49" s="98"/>
       <c r="F49" s="98"/>
       <c r="G49" s="60">
@@ -17055,7 +17067,7 @@
       <c r="C50" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="101"/>
+      <c r="D50" s="111"/>
       <c r="E50" s="98"/>
       <c r="F50" s="98"/>
       <c r="G50" s="60">
@@ -17078,7 +17090,7 @@
       <c r="C51" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D51" s="101"/>
+      <c r="D51" s="111"/>
       <c r="E51" s="98"/>
       <c r="F51" s="98"/>
       <c r="G51" s="60">
@@ -17101,7 +17113,7 @@
       <c r="C52" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="101"/>
+      <c r="D52" s="111"/>
       <c r="E52" s="98"/>
       <c r="F52" s="98"/>
       <c r="G52" s="60">
@@ -17124,7 +17136,7 @@
       <c r="C53" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="102"/>
+      <c r="D53" s="112"/>
       <c r="E53" s="99"/>
       <c r="F53" s="99"/>
       <c r="G53" s="60">
@@ -17149,13 +17161,13 @@
       <c r="C54" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="103" t="s">
+      <c r="D54" s="100" t="s">
         <v>205</v>
       </c>
       <c r="E54" s="97" t="s">
         <v>223</v>
       </c>
-      <c r="F54" s="113" t="s">
+      <c r="F54" s="117" t="s">
         <v>178</v>
       </c>
       <c r="G54" s="60">
@@ -17178,9 +17190,9 @@
       <c r="C55" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="101"/>
+      <c r="D55" s="111"/>
       <c r="E55" s="98"/>
-      <c r="F55" s="114"/>
+      <c r="F55" s="118"/>
       <c r="G55" s="60">
         <v>44369</v>
       </c>
@@ -17201,9 +17213,9 @@
       <c r="C56" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="101"/>
+      <c r="D56" s="111"/>
       <c r="E56" s="98"/>
-      <c r="F56" s="114"/>
+      <c r="F56" s="118"/>
       <c r="G56" s="60">
         <v>44369</v>
       </c>
@@ -17224,9 +17236,9 @@
       <c r="C57" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="101"/>
+      <c r="D57" s="111"/>
       <c r="E57" s="98"/>
-      <c r="F57" s="114"/>
+      <c r="F57" s="118"/>
       <c r="G57" s="60">
         <v>44369</v>
       </c>
@@ -17247,9 +17259,9 @@
       <c r="C58" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="101"/>
+      <c r="D58" s="111"/>
       <c r="E58" s="98"/>
-      <c r="F58" s="114"/>
+      <c r="F58" s="118"/>
       <c r="G58" s="60">
         <v>44369</v>
       </c>
@@ -17270,9 +17282,9 @@
       <c r="C59" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D59" s="101"/>
+      <c r="D59" s="111"/>
       <c r="E59" s="98"/>
-      <c r="F59" s="115"/>
+      <c r="F59" s="119"/>
       <c r="G59" s="60">
         <v>44369</v>
       </c>
@@ -17293,7 +17305,7 @@
       <c r="C60" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="101"/>
+      <c r="D60" s="111"/>
       <c r="E60" s="98"/>
       <c r="F60" s="32" t="s">
         <v>179</v>
@@ -17318,7 +17330,7 @@
       <c r="C61" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="101"/>
+      <c r="D61" s="111"/>
       <c r="E61" s="98"/>
       <c r="F61" s="32" t="s">
         <v>182</v>
@@ -17343,7 +17355,7 @@
       <c r="C62" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D62" s="101"/>
+      <c r="D62" s="111"/>
       <c r="E62" s="98"/>
       <c r="F62" s="32" t="s">
         <v>181</v>
@@ -17368,9 +17380,9 @@
       <c r="C63" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D63" s="101"/>
+      <c r="D63" s="111"/>
       <c r="E63" s="98"/>
-      <c r="F63" s="113" t="s">
+      <c r="F63" s="117" t="s">
         <v>182</v>
       </c>
       <c r="G63" s="60">
@@ -17393,9 +17405,9 @@
       <c r="C64" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D64" s="101"/>
+      <c r="D64" s="111"/>
       <c r="E64" s="98"/>
-      <c r="F64" s="115"/>
+      <c r="F64" s="119"/>
       <c r="G64" s="60">
         <v>44369</v>
       </c>
@@ -17416,7 +17428,7 @@
       <c r="C65" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D65" s="102"/>
+      <c r="D65" s="112"/>
       <c r="E65" s="99"/>
       <c r="F65" s="32" t="s">
         <v>180</v>
@@ -17443,10 +17455,10 @@
       <c r="C66" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="103" t="s">
+      <c r="D66" s="100" t="s">
         <v>221</v>
       </c>
-      <c r="E66" s="103" t="s">
+      <c r="E66" s="100" t="s">
         <v>163</v>
       </c>
       <c r="F66" s="97" t="s">
@@ -17472,8 +17484,8 @@
       <c r="C67" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="101"/>
-      <c r="E67" s="104"/>
+      <c r="D67" s="111"/>
+      <c r="E67" s="101"/>
       <c r="F67" s="98"/>
       <c r="G67" s="60">
         <v>44369</v>
@@ -17495,8 +17507,8 @@
       <c r="C68" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D68" s="101"/>
-      <c r="E68" s="104"/>
+      <c r="D68" s="111"/>
+      <c r="E68" s="101"/>
       <c r="F68" s="98"/>
       <c r="G68" s="60">
         <v>44369</v>
@@ -17518,8 +17530,8 @@
       <c r="C69" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D69" s="101"/>
-      <c r="E69" s="104"/>
+      <c r="D69" s="111"/>
+      <c r="E69" s="101"/>
       <c r="F69" s="98"/>
       <c r="G69" s="60">
         <v>44369</v>
@@ -17541,8 +17553,8 @@
       <c r="C70" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="101"/>
-      <c r="E70" s="104"/>
+      <c r="D70" s="111"/>
+      <c r="E70" s="101"/>
       <c r="F70" s="98"/>
       <c r="G70" s="60">
         <v>44369</v>
@@ -17564,8 +17576,8 @@
       <c r="C71" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D71" s="101"/>
-      <c r="E71" s="104"/>
+      <c r="D71" s="111"/>
+      <c r="E71" s="101"/>
       <c r="F71" s="98"/>
       <c r="G71" s="60">
         <v>44369</v>
@@ -17587,8 +17599,8 @@
       <c r="C72" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="101"/>
-      <c r="E72" s="104"/>
+      <c r="D72" s="111"/>
+      <c r="E72" s="101"/>
       <c r="F72" s="98"/>
       <c r="G72" s="60">
         <v>44369</v>
@@ -17610,8 +17622,8 @@
       <c r="C73" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="101"/>
-      <c r="E73" s="104"/>
+      <c r="D73" s="111"/>
+      <c r="E73" s="101"/>
       <c r="F73" s="98"/>
       <c r="G73" s="60">
         <v>44369</v>
@@ -17633,8 +17645,8 @@
       <c r="C74" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D74" s="101"/>
-      <c r="E74" s="104"/>
+      <c r="D74" s="111"/>
+      <c r="E74" s="101"/>
       <c r="F74" s="98"/>
       <c r="G74" s="60">
         <v>44369</v>
@@ -17656,8 +17668,8 @@
       <c r="C75" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="101"/>
-      <c r="E75" s="104"/>
+      <c r="D75" s="111"/>
+      <c r="E75" s="101"/>
       <c r="F75" s="98"/>
       <c r="G75" s="60">
         <v>44369</v>
@@ -17679,8 +17691,8 @@
       <c r="C76" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D76" s="101"/>
-      <c r="E76" s="104"/>
+      <c r="D76" s="111"/>
+      <c r="E76" s="101"/>
       <c r="F76" s="98"/>
       <c r="G76" s="60">
         <v>44369</v>
@@ -17702,8 +17714,8 @@
       <c r="C77" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D77" s="102"/>
-      <c r="E77" s="105"/>
+      <c r="D77" s="112"/>
+      <c r="E77" s="102"/>
       <c r="F77" s="99"/>
       <c r="G77" s="60">
         <v>44369</v>
@@ -17743,10 +17755,10 @@
         <v>227</v>
       </c>
       <c r="I78" s="30" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J78" s="39" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K78" s="11"/>
     </row>
@@ -17760,10 +17772,10 @@
       <c r="C79" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="D79" s="103" t="s">
+      <c r="D79" s="100" t="s">
         <v>222</v>
       </c>
-      <c r="E79" s="103" t="s">
+      <c r="E79" s="100" t="s">
         <v>237</v>
       </c>
       <c r="F79" s="32" t="s">
@@ -17789,8 +17801,8 @@
       <c r="C80" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D80" s="104"/>
-      <c r="E80" s="104"/>
+      <c r="D80" s="101"/>
+      <c r="E80" s="101"/>
       <c r="F80" s="32" t="s">
         <v>191</v>
       </c>
@@ -17814,8 +17826,8 @@
       <c r="C81" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D81" s="104"/>
-      <c r="E81" s="104"/>
+      <c r="D81" s="101"/>
+      <c r="E81" s="101"/>
       <c r="F81" s="32" t="s">
         <v>208</v>
       </c>
@@ -17839,8 +17851,8 @@
       <c r="C82" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D82" s="104"/>
-      <c r="E82" s="104"/>
+      <c r="D82" s="101"/>
+      <c r="E82" s="101"/>
       <c r="F82" s="32" t="s">
         <v>209</v>
       </c>
@@ -17864,8 +17876,8 @@
       <c r="C83" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D83" s="104"/>
-      <c r="E83" s="104"/>
+      <c r="D83" s="101"/>
+      <c r="E83" s="101"/>
       <c r="F83" s="32" t="s">
         <v>210</v>
       </c>
@@ -17889,8 +17901,8 @@
       <c r="C84" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D84" s="104"/>
-      <c r="E84" s="104"/>
+      <c r="D84" s="101"/>
+      <c r="E84" s="101"/>
       <c r="F84" s="32" t="s">
         <v>211</v>
       </c>
@@ -17914,8 +17926,8 @@
       <c r="C85" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D85" s="104"/>
-      <c r="E85" s="104"/>
+      <c r="D85" s="101"/>
+      <c r="E85" s="101"/>
       <c r="F85" s="32" t="s">
         <v>212</v>
       </c>
@@ -17939,8 +17951,8 @@
       <c r="C86" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D86" s="104"/>
-      <c r="E86" s="104"/>
+      <c r="D86" s="101"/>
+      <c r="E86" s="101"/>
       <c r="F86" s="32" t="s">
         <v>213</v>
       </c>
@@ -17964,8 +17976,8 @@
       <c r="C87" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D87" s="104"/>
-      <c r="E87" s="104"/>
+      <c r="D87" s="101"/>
+      <c r="E87" s="101"/>
       <c r="F87" s="32" t="s">
         <v>214</v>
       </c>
@@ -17989,8 +18001,8 @@
       <c r="C88" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D88" s="104"/>
-      <c r="E88" s="104"/>
+      <c r="D88" s="101"/>
+      <c r="E88" s="101"/>
       <c r="F88" s="32" t="s">
         <v>215</v>
       </c>
@@ -18014,8 +18026,8 @@
       <c r="C89" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D89" s="104"/>
-      <c r="E89" s="104"/>
+      <c r="D89" s="101"/>
+      <c r="E89" s="101"/>
       <c r="F89" s="32" t="s">
         <v>216</v>
       </c>
@@ -18039,8 +18051,8 @@
       <c r="C90" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D90" s="104"/>
-      <c r="E90" s="104"/>
+      <c r="D90" s="101"/>
+      <c r="E90" s="101"/>
       <c r="F90" s="32" t="s">
         <v>217</v>
       </c>
@@ -18064,8 +18076,8 @@
       <c r="C91" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D91" s="104"/>
-      <c r="E91" s="104"/>
+      <c r="D91" s="101"/>
+      <c r="E91" s="101"/>
       <c r="F91" s="32" t="s">
         <v>218</v>
       </c>
@@ -18089,8 +18101,8 @@
       <c r="C92" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="D92" s="104"/>
-      <c r="E92" s="104"/>
+      <c r="D92" s="101"/>
+      <c r="E92" s="101"/>
       <c r="F92" s="31" t="s">
         <v>224</v>
       </c>
@@ -18114,8 +18126,8 @@
       <c r="C93" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="D93" s="104"/>
-      <c r="E93" s="104"/>
+      <c r="D93" s="101"/>
+      <c r="E93" s="101"/>
       <c r="F93" s="31" t="s">
         <v>225</v>
       </c>
@@ -18141,8 +18153,8 @@
       <c r="C94" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="D94" s="105"/>
-      <c r="E94" s="105"/>
+      <c r="D94" s="102"/>
+      <c r="E94" s="102"/>
       <c r="F94" s="31" t="s">
         <v>226</v>
       </c>
@@ -18290,7 +18302,7 @@
       <c r="C99" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D99" s="121"/>
+      <c r="D99" s="113"/>
       <c r="E99" s="98"/>
       <c r="F99" s="37" t="s">
         <v>261</v>
@@ -18315,7 +18327,7 @@
       <c r="C100" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D100" s="121"/>
+      <c r="D100" s="113"/>
       <c r="E100" s="98"/>
       <c r="F100" s="37" t="s">
         <v>262</v>
@@ -18340,7 +18352,7 @@
       <c r="C101" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D101" s="121"/>
+      <c r="D101" s="113"/>
       <c r="E101" s="98"/>
       <c r="F101" s="37" t="s">
         <v>263</v>
@@ -18365,7 +18377,7 @@
       <c r="C102" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D102" s="121"/>
+      <c r="D102" s="113"/>
       <c r="E102" s="98"/>
       <c r="F102" s="37" t="s">
         <v>264</v>
@@ -18390,7 +18402,7 @@
       <c r="C103" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D103" s="121"/>
+      <c r="D103" s="113"/>
       <c r="E103" s="98"/>
       <c r="F103" s="37" t="s">
         <v>265</v>
@@ -18415,7 +18427,7 @@
       <c r="C104" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D104" s="121"/>
+      <c r="D104" s="113"/>
       <c r="E104" s="98"/>
       <c r="F104" s="37" t="s">
         <v>266</v>
@@ -18440,7 +18452,7 @@
       <c r="C105" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D105" s="121"/>
+      <c r="D105" s="113"/>
       <c r="E105" s="98"/>
       <c r="F105" s="37" t="s">
         <v>267</v>
@@ -18465,7 +18477,7 @@
       <c r="C106" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="D106" s="121"/>
+      <c r="D106" s="113"/>
       <c r="E106" s="98"/>
       <c r="F106" s="37" t="s">
         <v>268</v>
@@ -18490,7 +18502,7 @@
       <c r="C107" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="D107" s="121"/>
+      <c r="D107" s="113"/>
       <c r="E107" s="98"/>
       <c r="F107" s="37" t="s">
         <v>269</v>
@@ -18515,7 +18527,7 @@
       <c r="C108" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="D108" s="122"/>
+      <c r="D108" s="114"/>
       <c r="E108" s="99"/>
       <c r="F108" s="37" t="s">
         <v>269</v>
@@ -18700,7 +18712,7 @@
         <v>373</v>
       </c>
       <c r="F114" s="37" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G114" s="93">
         <v>44439</v>
@@ -18725,7 +18737,7 @@
       <c r="D115" s="98"/>
       <c r="E115" s="98"/>
       <c r="F115" s="37" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G115" s="93">
         <v>44439</v>
@@ -18750,7 +18762,7 @@
       <c r="D116" s="98"/>
       <c r="E116" s="98"/>
       <c r="F116" s="37" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G116" s="93">
         <v>44439</v>
@@ -18775,7 +18787,7 @@
       <c r="D117" s="98"/>
       <c r="E117" s="98"/>
       <c r="F117" s="37" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G117" s="93">
         <v>44439</v>
@@ -18800,7 +18812,7 @@
       <c r="D118" s="98"/>
       <c r="E118" s="98"/>
       <c r="F118" s="37" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G118" s="93">
         <v>44439</v>
@@ -18825,7 +18837,7 @@
       <c r="D119" s="98"/>
       <c r="E119" s="98"/>
       <c r="F119" s="37" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G119" s="93">
         <v>44439</v>
@@ -18850,7 +18862,7 @@
       <c r="D120" s="98"/>
       <c r="E120" s="98"/>
       <c r="F120" s="37" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G120" s="93">
         <v>44439</v>
@@ -18875,7 +18887,7 @@
       <c r="D121" s="98"/>
       <c r="E121" s="98"/>
       <c r="F121" s="37" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G121" s="93">
         <v>44439</v>
@@ -18900,7 +18912,7 @@
       <c r="D122" s="98"/>
       <c r="E122" s="98"/>
       <c r="F122" s="37" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G122" s="93">
         <v>44439</v>
@@ -18925,7 +18937,7 @@
       <c r="D123" s="98"/>
       <c r="E123" s="98"/>
       <c r="F123" s="37" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G123" s="93">
         <v>44439</v>
@@ -18950,7 +18962,7 @@
       <c r="D124" s="98"/>
       <c r="E124" s="98"/>
       <c r="F124" s="37" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G124" s="93">
         <v>44439</v>
@@ -18975,7 +18987,7 @@
       <c r="D125" s="99"/>
       <c r="E125" s="99"/>
       <c r="F125" s="37" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G125" s="93">
         <v>44439</v>
@@ -19060,13 +19072,13 @@
         <v>294</v>
       </c>
       <c r="D128" s="72" t="s">
+        <v>488</v>
+      </c>
+      <c r="E128" s="91" t="s">
         <v>489</v>
       </c>
-      <c r="E128" s="91" t="s">
+      <c r="F128" s="37" t="s">
         <v>490</v>
-      </c>
-      <c r="F128" s="37" t="s">
-        <v>491</v>
       </c>
       <c r="G128" s="93">
         <v>44439</v>
@@ -19075,10 +19087,10 @@
         <v>227</v>
       </c>
       <c r="I128" s="32" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J128" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K128" s="17"/>
     </row>
@@ -19091,13 +19103,13 @@
         <v>16</v>
       </c>
       <c r="D129" s="97" t="s">
+        <v>491</v>
+      </c>
+      <c r="E129" s="100" t="s">
+        <v>489</v>
+      </c>
+      <c r="F129" s="97" t="s">
         <v>492</v>
-      </c>
-      <c r="E129" s="103" t="s">
-        <v>490</v>
-      </c>
-      <c r="F129" s="97" t="s">
-        <v>493</v>
       </c>
       <c r="G129" s="93">
         <v>44439</v>
@@ -19118,7 +19130,7 @@
         <v>17</v>
       </c>
       <c r="D130" s="98"/>
-      <c r="E130" s="104"/>
+      <c r="E130" s="101"/>
       <c r="F130" s="98"/>
       <c r="G130" s="93">
         <v>44439</v>
@@ -19139,7 +19151,7 @@
         <v>18</v>
       </c>
       <c r="D131" s="98"/>
-      <c r="E131" s="104"/>
+      <c r="E131" s="101"/>
       <c r="F131" s="98"/>
       <c r="G131" s="93">
         <v>44439</v>
@@ -19160,7 +19172,7 @@
         <v>19</v>
       </c>
       <c r="D132" s="98"/>
-      <c r="E132" s="104"/>
+      <c r="E132" s="101"/>
       <c r="F132" s="98"/>
       <c r="G132" s="93">
         <v>44439</v>
@@ -19181,7 +19193,7 @@
         <v>20</v>
       </c>
       <c r="D133" s="98"/>
-      <c r="E133" s="104"/>
+      <c r="E133" s="101"/>
       <c r="F133" s="98"/>
       <c r="G133" s="93">
         <v>44439</v>
@@ -19202,7 +19214,7 @@
         <v>21</v>
       </c>
       <c r="D134" s="98"/>
-      <c r="E134" s="104"/>
+      <c r="E134" s="101"/>
       <c r="F134" s="98"/>
       <c r="G134" s="93">
         <v>44439</v>
@@ -19223,7 +19235,7 @@
         <v>22</v>
       </c>
       <c r="D135" s="98"/>
-      <c r="E135" s="104"/>
+      <c r="E135" s="101"/>
       <c r="F135" s="98"/>
       <c r="G135" s="93">
         <v>44439</v>
@@ -19244,7 +19256,7 @@
         <v>23</v>
       </c>
       <c r="D136" s="98"/>
-      <c r="E136" s="104"/>
+      <c r="E136" s="101"/>
       <c r="F136" s="98"/>
       <c r="G136" s="93">
         <v>44439</v>
@@ -19265,7 +19277,7 @@
         <v>24</v>
       </c>
       <c r="D137" s="98"/>
-      <c r="E137" s="104"/>
+      <c r="E137" s="101"/>
       <c r="F137" s="98"/>
       <c r="G137" s="93">
         <v>44439</v>
@@ -19286,7 +19298,7 @@
         <v>25</v>
       </c>
       <c r="D138" s="98"/>
-      <c r="E138" s="104"/>
+      <c r="E138" s="101"/>
       <c r="F138" s="98"/>
       <c r="G138" s="93">
         <v>44439</v>
@@ -19307,7 +19319,7 @@
         <v>26</v>
       </c>
       <c r="D139" s="98"/>
-      <c r="E139" s="104"/>
+      <c r="E139" s="101"/>
       <c r="F139" s="98"/>
       <c r="G139" s="93">
         <v>44439</v>
@@ -19328,7 +19340,7 @@
         <v>27</v>
       </c>
       <c r="D140" s="99"/>
-      <c r="E140" s="105"/>
+      <c r="E140" s="102"/>
       <c r="F140" s="99"/>
       <c r="G140" s="93">
         <v>44439</v>
@@ -19474,10 +19486,10 @@
         <v>387</v>
       </c>
       <c r="E145" s="72" t="s">
+        <v>388</v>
+      </c>
+      <c r="F145" s="37" t="s">
         <v>389</v>
-      </c>
-      <c r="F145" s="37" t="s">
-        <v>390</v>
       </c>
       <c r="G145" s="93">
         <v>44439</v>
@@ -19502,13 +19514,13 @@
         <v>296</v>
       </c>
       <c r="D146" s="83" t="s">
+        <v>390</v>
+      </c>
+      <c r="E146" s="31" t="s">
         <v>391</v>
       </c>
-      <c r="E146" s="31" t="s">
-        <v>392</v>
-      </c>
       <c r="F146" s="32" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G146" s="93">
         <v>44440</v>
@@ -19517,10 +19529,10 @@
         <v>227</v>
       </c>
       <c r="I146" s="32" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J146" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K146" s="17"/>
     </row>
@@ -19532,16 +19544,16 @@
         <v>156</v>
       </c>
       <c r="C147" s="37" t="s">
+        <v>395</v>
+      </c>
+      <c r="D147" s="72" t="s">
+        <v>392</v>
+      </c>
+      <c r="E147" s="72" t="s">
+        <v>405</v>
+      </c>
+      <c r="F147" s="37" t="s">
         <v>396</v>
-      </c>
-      <c r="D147" s="72" t="s">
-        <v>393</v>
-      </c>
-      <c r="E147" s="72" t="s">
-        <v>406</v>
-      </c>
-      <c r="F147" s="37" t="s">
-        <v>397</v>
       </c>
       <c r="G147" s="93">
         <v>44440</v>
@@ -19561,16 +19573,16 @@
       </c>
       <c r="B148" s="72"/>
       <c r="C148" s="37" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D148" s="72" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E148" s="72" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F148" s="37" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G148" s="93">
         <v>44440</v>
@@ -19590,16 +19602,16 @@
       </c>
       <c r="B149" s="72"/>
       <c r="C149" s="37" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D149" s="72" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E149" s="72" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F149" s="37" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G149" s="93">
         <v>44440</v>
@@ -19619,16 +19631,16 @@
       </c>
       <c r="B150" s="72"/>
       <c r="C150" s="37" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D150" s="72" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E150" s="72" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F150" s="37" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G150" s="93">
         <v>44440</v>
@@ -19648,16 +19660,16 @@
       </c>
       <c r="B151" s="72"/>
       <c r="C151" s="37" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D151" s="72" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E151" s="72" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F151" s="37" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G151" s="93">
         <v>44440</v>
@@ -19677,16 +19689,16 @@
       </c>
       <c r="B152" s="72"/>
       <c r="C152" s="37" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D152" s="72" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E152" s="72" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F152" s="37" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G152" s="93">
         <v>44440</v>
@@ -19706,16 +19718,16 @@
       </c>
       <c r="B153" s="72"/>
       <c r="C153" s="37" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D153" s="72" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E153" s="72" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F153" s="37" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G153" s="93">
         <v>44440</v>
@@ -19735,16 +19747,16 @@
       </c>
       <c r="B154" s="72"/>
       <c r="C154" s="37" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D154" s="72" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E154" s="72" t="s">
+        <v>498</v>
+      </c>
+      <c r="F154" s="37" t="s">
         <v>499</v>
-      </c>
-      <c r="F154" s="37" t="s">
-        <v>500</v>
       </c>
       <c r="G154" s="93">
         <v>44440</v>
@@ -19764,16 +19776,16 @@
       </c>
       <c r="B155" s="72"/>
       <c r="C155" s="37" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D155" s="72" t="s">
         <v>387</v>
       </c>
       <c r="E155" s="72" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F155" s="37" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G155" s="93">
         <v>44440</v>
@@ -19798,10 +19810,10 @@
         <v>16</v>
       </c>
       <c r="D156" s="97" t="s">
+        <v>423</v>
+      </c>
+      <c r="E156" s="97" t="s">
         <v>424</v>
-      </c>
-      <c r="E156" s="97" t="s">
-        <v>425</v>
       </c>
       <c r="F156" s="31" t="s">
         <v>307</v>
@@ -20104,13 +20116,13 @@
         <v>16</v>
       </c>
       <c r="D168" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E168" s="31" t="s">
         <v>323</v>
       </c>
       <c r="F168" s="97" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G168" s="93">
         <v>44440</v>
@@ -20410,7 +20422,7 @@
         <v>16</v>
       </c>
       <c r="D180" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E180" s="31" t="s">
         <v>331</v>
@@ -20684,10 +20696,10 @@
         <v>16</v>
       </c>
       <c r="D190" s="97" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E190" s="97" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F190" s="32" t="s">
         <v>108</v>
@@ -20865,7 +20877,7 @@
       <c r="D197" s="98"/>
       <c r="E197" s="98"/>
       <c r="F197" s="32" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G197" s="93">
         <v>44440</v>
@@ -20890,7 +20902,7 @@
       <c r="D198" s="98"/>
       <c r="E198" s="98"/>
       <c r="F198" s="32" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G198" s="93">
         <v>44440</v>
@@ -20915,7 +20927,7 @@
       <c r="D199" s="98"/>
       <c r="E199" s="98"/>
       <c r="F199" s="32" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G199" s="93">
         <v>44440</v>
@@ -20940,7 +20952,7 @@
       <c r="D200" s="98"/>
       <c r="E200" s="98"/>
       <c r="F200" s="32" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G200" s="93">
         <v>44440</v>
@@ -20990,13 +21002,13 @@
         <v>294</v>
       </c>
       <c r="D202" s="90" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E202" s="72" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F202" s="32" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G202" s="93">
         <v>44440</v>
@@ -21005,10 +21017,10 @@
         <v>227</v>
       </c>
       <c r="I202" s="32" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J202" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K202" s="17"/>
     </row>
@@ -21023,13 +21035,13 @@
         <v>16</v>
       </c>
       <c r="D203" s="97" t="s">
+        <v>434</v>
+      </c>
+      <c r="E203" s="97" t="s">
         <v>435</v>
       </c>
-      <c r="E203" s="97" t="s">
-        <v>436</v>
-      </c>
-      <c r="F203" s="113" t="s">
-        <v>439</v>
+      <c r="F203" s="117" t="s">
+        <v>438</v>
       </c>
       <c r="G203" s="93">
         <v>44440</v>
@@ -21053,7 +21065,7 @@
       </c>
       <c r="D204" s="98"/>
       <c r="E204" s="98"/>
-      <c r="F204" s="114"/>
+      <c r="F204" s="118"/>
       <c r="G204" s="93">
         <v>44440</v>
       </c>
@@ -21076,7 +21088,7 @@
       </c>
       <c r="D205" s="98"/>
       <c r="E205" s="98"/>
-      <c r="F205" s="114"/>
+      <c r="F205" s="118"/>
       <c r="G205" s="93">
         <v>44440</v>
       </c>
@@ -21099,7 +21111,7 @@
       </c>
       <c r="D206" s="98"/>
       <c r="E206" s="98"/>
-      <c r="F206" s="114"/>
+      <c r="F206" s="118"/>
       <c r="G206" s="93">
         <v>44440</v>
       </c>
@@ -21122,7 +21134,7 @@
       </c>
       <c r="D207" s="98"/>
       <c r="E207" s="98"/>
-      <c r="F207" s="114"/>
+      <c r="F207" s="118"/>
       <c r="G207" s="93">
         <v>44440</v>
       </c>
@@ -21145,7 +21157,7 @@
       </c>
       <c r="D208" s="98"/>
       <c r="E208" s="98"/>
-      <c r="F208" s="115"/>
+      <c r="F208" s="119"/>
       <c r="G208" s="93">
         <v>44440</v>
       </c>
@@ -21169,7 +21181,7 @@
       <c r="D209" s="98"/>
       <c r="E209" s="98"/>
       <c r="F209" s="32" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G209" s="93">
         <v>44440</v>
@@ -21194,7 +21206,7 @@
       <c r="D210" s="98"/>
       <c r="E210" s="98"/>
       <c r="F210" s="32" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G210" s="93">
         <v>44440</v>
@@ -21219,7 +21231,7 @@
       <c r="D211" s="98"/>
       <c r="E211" s="98"/>
       <c r="F211" s="32" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G211" s="93">
         <v>44440</v>
@@ -21243,8 +21255,8 @@
       </c>
       <c r="D212" s="98"/>
       <c r="E212" s="98"/>
-      <c r="F212" s="113" t="s">
-        <v>438</v>
+      <c r="F212" s="117" t="s">
+        <v>437</v>
       </c>
       <c r="G212" s="93">
         <v>44440</v>
@@ -21268,7 +21280,7 @@
       </c>
       <c r="D213" s="98"/>
       <c r="E213" s="98"/>
-      <c r="F213" s="115"/>
+      <c r="F213" s="119"/>
       <c r="G213" s="93">
         <v>44440</v>
       </c>
@@ -21292,7 +21304,7 @@
       <c r="D214" s="99"/>
       <c r="E214" s="99"/>
       <c r="F214" s="32" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G214" s="93">
         <v>44440</v>
@@ -21317,13 +21329,13 @@
         <v>121</v>
       </c>
       <c r="D215" s="72" t="s">
+        <v>442</v>
+      </c>
+      <c r="E215" s="72" t="s">
         <v>443</v>
       </c>
-      <c r="E215" s="72" t="s">
+      <c r="F215" s="37" t="s">
         <v>444</v>
-      </c>
-      <c r="F215" s="37" t="s">
-        <v>445</v>
       </c>
       <c r="G215" s="93">
         <v>44440</v>
@@ -21345,16 +21357,16 @@
         <v>55</v>
       </c>
       <c r="C216" s="37" t="s">
+        <v>451</v>
+      </c>
+      <c r="D216" s="72" t="s">
+        <v>445</v>
+      </c>
+      <c r="E216" s="72" t="s">
+        <v>443</v>
+      </c>
+      <c r="F216" s="37" t="s">
         <v>452</v>
-      </c>
-      <c r="D216" s="72" t="s">
-        <v>446</v>
-      </c>
-      <c r="E216" s="72" t="s">
-        <v>444</v>
-      </c>
-      <c r="F216" s="37" t="s">
-        <v>453</v>
       </c>
       <c r="G216" s="93">
         <v>44440</v>
@@ -21377,13 +21389,13 @@
         <v>16</v>
       </c>
       <c r="D217" s="97" t="s">
+        <v>448</v>
+      </c>
+      <c r="E217" s="97" t="s">
         <v>449</v>
       </c>
-      <c r="E217" s="97" t="s">
-        <v>450</v>
-      </c>
       <c r="F217" s="32" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G217" s="93">
         <v>44440</v>
@@ -21408,7 +21420,7 @@
       <c r="D218" s="98"/>
       <c r="E218" s="98"/>
       <c r="F218" s="32" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G218" s="93">
         <v>44440</v>
@@ -21433,7 +21445,7 @@
       <c r="D219" s="98"/>
       <c r="E219" s="98"/>
       <c r="F219" s="32" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G219" s="93">
         <v>44440</v>
@@ -21458,7 +21470,7 @@
       <c r="D220" s="98"/>
       <c r="E220" s="98"/>
       <c r="F220" s="32" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G220" s="93">
         <v>44440</v>
@@ -21483,7 +21495,7 @@
       <c r="D221" s="98"/>
       <c r="E221" s="98"/>
       <c r="F221" s="32" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G221" s="93">
         <v>44440</v>
@@ -21508,7 +21520,7 @@
       <c r="D222" s="98"/>
       <c r="E222" s="98"/>
       <c r="F222" s="32" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G222" s="93">
         <v>44440</v>
@@ -21533,7 +21545,7 @@
       <c r="D223" s="98"/>
       <c r="E223" s="98"/>
       <c r="F223" s="32" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G223" s="93">
         <v>44440</v>
@@ -21558,7 +21570,7 @@
       <c r="D224" s="98"/>
       <c r="E224" s="98"/>
       <c r="F224" s="32" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G224" s="93">
         <v>44440</v>
@@ -21583,7 +21595,7 @@
       <c r="D225" s="98"/>
       <c r="E225" s="98"/>
       <c r="F225" s="32" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G225" s="93">
         <v>44440</v>
@@ -21608,7 +21620,7 @@
       <c r="D226" s="98"/>
       <c r="E226" s="98"/>
       <c r="F226" s="32" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G226" s="93">
         <v>44440</v>
@@ -21633,7 +21645,7 @@
       <c r="D227" s="98"/>
       <c r="E227" s="98"/>
       <c r="F227" s="32" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G227" s="93">
         <v>44440</v>
@@ -21658,7 +21670,7 @@
       <c r="D228" s="98"/>
       <c r="E228" s="98"/>
       <c r="F228" s="32" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G228" s="93">
         <v>44440</v>
@@ -21683,7 +21695,7 @@
       <c r="D229" s="98"/>
       <c r="E229" s="98"/>
       <c r="F229" s="31" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G229" s="93">
         <v>44440</v>
@@ -21708,7 +21720,7 @@
       <c r="D230" s="99"/>
       <c r="E230" s="99"/>
       <c r="F230" s="31" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G230" s="93">
         <v>44440</v>
@@ -21730,16 +21742,16 @@
         <v>55</v>
       </c>
       <c r="C231" s="37" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D231" s="72" t="s">
+        <v>445</v>
+      </c>
+      <c r="E231" s="72" t="s">
+        <v>443</v>
+      </c>
+      <c r="F231" s="32" t="s">
         <v>446</v>
-      </c>
-      <c r="E231" s="72" t="s">
-        <v>444</v>
-      </c>
-      <c r="F231" s="32" t="s">
-        <v>447</v>
       </c>
       <c r="G231" s="93">
         <v>44440</v>
@@ -21748,10 +21760,10 @@
         <v>227</v>
       </c>
       <c r="I231" s="32" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J231" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K231" s="17"/>
     </row>
@@ -21766,13 +21778,13 @@
         <v>132</v>
       </c>
       <c r="D232" s="72" t="s">
+        <v>453</v>
+      </c>
+      <c r="E232" s="72" t="s">
         <v>454</v>
       </c>
-      <c r="E232" s="72" t="s">
+      <c r="F232" s="37" t="s">
         <v>455</v>
-      </c>
-      <c r="F232" s="37" t="s">
-        <v>456</v>
       </c>
       <c r="G232" s="93">
         <v>44440</v>
@@ -21794,16 +21806,16 @@
         <v>156</v>
       </c>
       <c r="C233" s="37" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D233" s="72" t="s">
+        <v>456</v>
+      </c>
+      <c r="E233" s="72" t="s">
         <v>457</v>
       </c>
-      <c r="E233" s="72" t="s">
+      <c r="F233" s="37" t="s">
         <v>458</v>
-      </c>
-      <c r="F233" s="37" t="s">
-        <v>459</v>
       </c>
       <c r="G233" s="93">
         <v>44440</v>
@@ -21823,16 +21835,16 @@
       </c>
       <c r="B234" s="72"/>
       <c r="C234" s="37" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D234" s="72" t="s">
+        <v>459</v>
+      </c>
+      <c r="E234" s="72" t="s">
         <v>460</v>
       </c>
-      <c r="E234" s="72" t="s">
+      <c r="F234" s="37" t="s">
         <v>461</v>
-      </c>
-      <c r="F234" s="37" t="s">
-        <v>462</v>
       </c>
       <c r="G234" s="93">
         <v>44440</v>
@@ -21852,16 +21864,16 @@
       </c>
       <c r="B235" s="72"/>
       <c r="C235" s="37" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D235" s="72" t="s">
+        <v>462</v>
+      </c>
+      <c r="E235" s="72" t="s">
         <v>463</v>
       </c>
-      <c r="E235" s="72" t="s">
+      <c r="F235" s="37" t="s">
         <v>464</v>
-      </c>
-      <c r="F235" s="37" t="s">
-        <v>465</v>
       </c>
       <c r="G235" s="93">
         <v>44440</v>
@@ -21881,16 +21893,16 @@
       </c>
       <c r="B236" s="72"/>
       <c r="C236" s="37" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D236" s="72" t="s">
+        <v>465</v>
+      </c>
+      <c r="E236" s="72" t="s">
         <v>466</v>
       </c>
-      <c r="E236" s="72" t="s">
+      <c r="F236" s="37" t="s">
         <v>467</v>
-      </c>
-      <c r="F236" s="37" t="s">
-        <v>468</v>
       </c>
       <c r="G236" s="93">
         <v>44440</v>
@@ -21910,16 +21922,16 @@
       </c>
       <c r="B237" s="72"/>
       <c r="C237" s="37" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D237" s="72" t="s">
+        <v>468</v>
+      </c>
+      <c r="E237" s="72" t="s">
         <v>469</v>
       </c>
-      <c r="E237" s="72" t="s">
+      <c r="F237" s="37" t="s">
         <v>470</v>
-      </c>
-      <c r="F237" s="37" t="s">
-        <v>471</v>
       </c>
       <c r="G237" s="93">
         <v>44440</v>
@@ -21939,16 +21951,16 @@
       </c>
       <c r="B238" s="72"/>
       <c r="C238" s="37" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D238" s="72" t="s">
+        <v>471</v>
+      </c>
+      <c r="E238" s="72" t="s">
         <v>472</v>
       </c>
-      <c r="E238" s="72" t="s">
+      <c r="F238" s="37" t="s">
         <v>473</v>
-      </c>
-      <c r="F238" s="37" t="s">
-        <v>474</v>
       </c>
       <c r="G238" s="93">
         <v>44440</v>
@@ -21968,16 +21980,16 @@
       </c>
       <c r="B239" s="72"/>
       <c r="C239" s="37" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D239" s="72" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E239" s="72" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F239" s="37" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G239" s="93">
         <v>44440</v>
@@ -21997,16 +22009,16 @@
       </c>
       <c r="B240" s="72"/>
       <c r="C240" s="37" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D240" s="72" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E240" s="72" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F240" s="37" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G240" s="93">
         <v>44440</v>
@@ -22015,10 +22027,10 @@
         <v>227</v>
       </c>
       <c r="I240" s="32" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J240" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K240" s="17"/>
     </row>
@@ -22028,16 +22040,16 @@
       </c>
       <c r="B241" s="72"/>
       <c r="C241" s="37" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D241" s="72" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E241" s="72" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F241" s="37" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G241" s="93">
         <v>44440</v>
@@ -23626,21 +23638,19 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="F129:F140"/>
-    <mergeCell ref="D143:D144"/>
-    <mergeCell ref="E143:E144"/>
-    <mergeCell ref="D114:D125"/>
-    <mergeCell ref="E114:E125"/>
-    <mergeCell ref="D129:D140"/>
-    <mergeCell ref="E129:E140"/>
-    <mergeCell ref="D98:D108"/>
-    <mergeCell ref="E98:E108"/>
-    <mergeCell ref="D79:D94"/>
-    <mergeCell ref="D42:D53"/>
-    <mergeCell ref="E42:E53"/>
-    <mergeCell ref="E66:E77"/>
-    <mergeCell ref="E79:E94"/>
-    <mergeCell ref="D66:D77"/>
+    <mergeCell ref="F203:F208"/>
+    <mergeCell ref="F212:F213"/>
+    <mergeCell ref="D217:D230"/>
+    <mergeCell ref="E217:E230"/>
+    <mergeCell ref="E190:E201"/>
+    <mergeCell ref="D190:D201"/>
+    <mergeCell ref="D203:D214"/>
+    <mergeCell ref="E203:E214"/>
+    <mergeCell ref="D156:D167"/>
+    <mergeCell ref="E156:E167"/>
+    <mergeCell ref="D168:D179"/>
+    <mergeCell ref="F168:F179"/>
+    <mergeCell ref="D180:D189"/>
     <mergeCell ref="F66:F77"/>
     <mergeCell ref="D54:D65"/>
     <mergeCell ref="E54:E65"/>
@@ -23655,19 +23665,21 @@
     <mergeCell ref="D20:D31"/>
     <mergeCell ref="D32:D41"/>
     <mergeCell ref="F42:F53"/>
-    <mergeCell ref="D156:D167"/>
-    <mergeCell ref="E156:E167"/>
-    <mergeCell ref="D168:D179"/>
-    <mergeCell ref="F168:F179"/>
-    <mergeCell ref="D180:D189"/>
-    <mergeCell ref="F203:F208"/>
-    <mergeCell ref="F212:F213"/>
-    <mergeCell ref="D217:D230"/>
-    <mergeCell ref="E217:E230"/>
-    <mergeCell ref="E190:E201"/>
-    <mergeCell ref="D190:D201"/>
-    <mergeCell ref="D203:D214"/>
-    <mergeCell ref="E203:E214"/>
+    <mergeCell ref="D98:D108"/>
+    <mergeCell ref="E98:E108"/>
+    <mergeCell ref="D79:D94"/>
+    <mergeCell ref="D42:D53"/>
+    <mergeCell ref="E42:E53"/>
+    <mergeCell ref="E66:E77"/>
+    <mergeCell ref="E79:E94"/>
+    <mergeCell ref="D66:D77"/>
+    <mergeCell ref="F129:F140"/>
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="D114:D125"/>
+    <mergeCell ref="E114:E125"/>
+    <mergeCell ref="D129:D140"/>
+    <mergeCell ref="E129:E140"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/testcase_account_ver3.xlsx
+++ b/testcase_account_ver3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\7-Programming-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6089397B-B04B-4A4C-AF10-390638E75A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A3D193-B2FE-404B-92BB-2C0117B3A4F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="888" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="888" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単体テスト" sheetId="166" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1969" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1989" uniqueCount="530">
   <si>
     <t>作成者</t>
   </si>
@@ -9895,6 +9895,200 @@
     </rPh>
     <rPh sb="72" eb="74">
       <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラー動作</t>
+    <rPh sb="3" eb="5">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面
+から
+アカウント削除画面</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>サクジョガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面の削除したいIDの削除ボタンを押す。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除フラグが1の場合、「すでに削除されているため表示できません。」と表示させるようにする。</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>齊藤実佳</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>次の課題に入る前に行う。</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面の更新したいIDの更新ボタンを押す。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除フラグが1の場合、「すでに削除されているため更新できません。」と表示させるようにする。</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9/6：チェックを入れない状態でも、テキストボックスに入力を行うと次の画面へ遷移してしまう。</t>
+    <rPh sb="9" eb="10">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9/6：チェックを入れていない状態でテキストボックスに入力されている状態だと、エラー動作の内容が飛ばされてしまうため、修正必要。</t>
+    <rPh sb="9" eb="10">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="59" eb="63">
+      <t>シュウセイヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9/6：パスワードを更新しない場合でも現在は空白のままハッシュ化されている状態のため、更新しない状態を維持することが必要。</t>
+    <rPh sb="10" eb="12">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>イジ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9/6：パスワードを更新しない場合、メッセージで「パスワードは更新されません」と表示させるようにする。</t>
+    <rPh sb="10" eb="12">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -10245,7 +10439,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -10526,6 +10720,12 @@
     <xf numFmtId="56" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -10543,6 +10743,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -10574,27 +10783,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -10604,6 +10792,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -10612,6 +10806,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -10971,27 +11171,27 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="50" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="50" customWidth="1"/>
     <col min="3" max="3" width="17" style="38" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="16" customWidth="1"/>
-    <col min="5" max="5" width="18.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.625" style="38" customWidth="1"/>
-    <col min="7" max="7" width="42.625" style="38" customWidth="1"/>
-    <col min="8" max="9" width="10.625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="27.75" style="50" customWidth="1"/>
-    <col min="11" max="11" width="15.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" style="38" customWidth="1"/>
+    <col min="7" max="7" width="42.6640625" style="38" customWidth="1"/>
+    <col min="8" max="9" width="10.6640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="27.77734375" style="50" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" style="4" customWidth="1"/>
     <col min="14" max="16384" width="7" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
       <c r="E1" s="53" t="s">
         <v>2</v>
       </c>
@@ -11014,10 +11214,10 @@
       <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A2" s="105"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
       <c r="E2" s="53" t="s">
         <v>3</v>
       </c>
@@ -11088,7 +11288,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="63">
+    <row r="5" spans="1:12" ht="60">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -11122,7 +11322,7 @@
       </c>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:12" ht="47.25">
+    <row r="6" spans="1:12" ht="45">
       <c r="A6" s="12">
         <v>2</v>
       </c>
@@ -11154,7 +11354,7 @@
       </c>
       <c r="L6" s="22"/>
     </row>
-    <row r="7" spans="1:12" ht="78.75">
+    <row r="7" spans="1:12" ht="75">
       <c r="A7" s="12">
         <v>3</v>
       </c>
@@ -11186,7 +11386,7 @@
       </c>
       <c r="L7" s="22"/>
     </row>
-    <row r="8" spans="1:12" ht="63">
+    <row r="8" spans="1:12" ht="74.400000000000006">
       <c r="A8" s="12">
         <v>4</v>
       </c>
@@ -11218,7 +11418,7 @@
       </c>
       <c r="L8" s="22"/>
     </row>
-    <row r="9" spans="1:12" ht="63">
+    <row r="9" spans="1:12" ht="60">
       <c r="A9" s="12">
         <v>5</v>
       </c>
@@ -11252,7 +11452,7 @@
       </c>
       <c r="L9" s="22"/>
     </row>
-    <row r="10" spans="1:12" ht="78.75">
+    <row r="10" spans="1:12" ht="75">
       <c r="A10" s="12">
         <v>6</v>
       </c>
@@ -11284,7 +11484,7 @@
       </c>
       <c r="L10" s="22"/>
     </row>
-    <row r="11" spans="1:12" ht="31.5">
+    <row r="11" spans="1:12" ht="30">
       <c r="A11" s="12"/>
       <c r="B11" s="47"/>
       <c r="C11" s="28" t="s">
@@ -11314,7 +11514,7 @@
       </c>
       <c r="L11" s="22"/>
     </row>
-    <row r="12" spans="1:12" ht="47.25">
+    <row r="12" spans="1:12" ht="45">
       <c r="A12" s="12">
         <v>7</v>
       </c>
@@ -11331,7 +11531,7 @@
       <c r="F12" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="100" t="s">
+      <c r="G12" s="105" t="s">
         <v>107</v>
       </c>
       <c r="H12" s="68">
@@ -11346,7 +11546,7 @@
       </c>
       <c r="L12" s="11"/>
     </row>
-    <row r="13" spans="1:12" ht="31.5">
+    <row r="13" spans="1:12" ht="30">
       <c r="A13" s="12">
         <v>8</v>
       </c>
@@ -11361,7 +11561,7 @@
       <c r="F13" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="101"/>
+      <c r="G13" s="106"/>
       <c r="H13" s="60">
         <v>44354</v>
       </c>
@@ -11374,7 +11574,7 @@
       </c>
       <c r="L13" s="11"/>
     </row>
-    <row r="14" spans="1:12" ht="31.5">
+    <row r="14" spans="1:12" ht="30">
       <c r="A14" s="12">
         <v>9</v>
       </c>
@@ -11389,7 +11589,7 @@
       <c r="F14" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="101"/>
+      <c r="G14" s="106"/>
       <c r="H14" s="60">
         <v>44354</v>
       </c>
@@ -11402,7 +11602,7 @@
       </c>
       <c r="L14" s="11"/>
     </row>
-    <row r="15" spans="1:12" ht="31.5">
+    <row r="15" spans="1:12" ht="30">
       <c r="A15" s="12">
         <v>10</v>
       </c>
@@ -11417,7 +11617,7 @@
       <c r="F15" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="101"/>
+      <c r="G15" s="106"/>
       <c r="H15" s="68">
         <v>44354</v>
       </c>
@@ -11430,7 +11630,7 @@
       </c>
       <c r="L15" s="11"/>
     </row>
-    <row r="16" spans="1:12" ht="47.25">
+    <row r="16" spans="1:12" ht="45">
       <c r="A16" s="12">
         <v>11</v>
       </c>
@@ -11445,7 +11645,7 @@
       <c r="F16" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="101"/>
+      <c r="G16" s="106"/>
       <c r="H16" s="60">
         <v>44354</v>
       </c>
@@ -11458,7 +11658,7 @@
       </c>
       <c r="L16" s="11"/>
     </row>
-    <row r="17" spans="1:12" ht="31.5">
+    <row r="17" spans="1:12" ht="30">
       <c r="A17" s="12">
         <v>12</v>
       </c>
@@ -11473,7 +11673,7 @@
       <c r="F17" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="101"/>
+      <c r="G17" s="106"/>
       <c r="H17" s="60">
         <v>44354</v>
       </c>
@@ -11486,7 +11686,7 @@
       </c>
       <c r="L17" s="11"/>
     </row>
-    <row r="18" spans="1:12" ht="47.25">
+    <row r="18" spans="1:12" ht="45">
       <c r="A18" s="12">
         <v>13</v>
       </c>
@@ -11501,7 +11701,7 @@
       <c r="F18" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="101"/>
+      <c r="G18" s="106"/>
       <c r="H18" s="68">
         <v>44354</v>
       </c>
@@ -11514,7 +11714,7 @@
       </c>
       <c r="L18" s="11"/>
     </row>
-    <row r="19" spans="1:12" ht="31.5">
+    <row r="19" spans="1:12" ht="30">
       <c r="A19" s="12">
         <v>14</v>
       </c>
@@ -11529,7 +11729,7 @@
       <c r="F19" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="101"/>
+      <c r="G19" s="106"/>
       <c r="H19" s="60">
         <v>44354</v>
       </c>
@@ -11542,7 +11742,7 @@
       </c>
       <c r="L19" s="11"/>
     </row>
-    <row r="20" spans="1:12" ht="31.5">
+    <row r="20" spans="1:12" ht="45">
       <c r="A20" s="12">
         <v>15</v>
       </c>
@@ -11557,7 +11757,7 @@
       <c r="F20" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="101"/>
+      <c r="G20" s="106"/>
       <c r="H20" s="60">
         <v>44354</v>
       </c>
@@ -11570,7 +11770,7 @@
       </c>
       <c r="L20" s="11"/>
     </row>
-    <row r="21" spans="1:12" ht="47.25">
+    <row r="21" spans="1:12" ht="45">
       <c r="A21" s="12">
         <v>16</v>
       </c>
@@ -11585,7 +11785,7 @@
       <c r="F21" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="101"/>
+      <c r="G21" s="106"/>
       <c r="H21" s="68">
         <v>44354</v>
       </c>
@@ -11598,7 +11798,7 @@
       </c>
       <c r="L21" s="11"/>
     </row>
-    <row r="22" spans="1:12" ht="47.25">
+    <row r="22" spans="1:12" ht="45">
       <c r="A22" s="12">
         <v>17</v>
       </c>
@@ -11613,7 +11813,7 @@
       <c r="F22" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="101"/>
+      <c r="G22" s="106"/>
       <c r="H22" s="60">
         <v>44354</v>
       </c>
@@ -11626,7 +11826,7 @@
       </c>
       <c r="L22" s="11"/>
     </row>
-    <row r="23" spans="1:12" ht="47.25">
+    <row r="23" spans="1:12" ht="45">
       <c r="A23" s="12">
         <v>18</v>
       </c>
@@ -11641,7 +11841,7 @@
       <c r="F23" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="102"/>
+      <c r="G23" s="107"/>
       <c r="H23" s="60">
         <v>44354</v>
       </c>
@@ -11654,7 +11854,7 @@
       </c>
       <c r="L23" s="11"/>
     </row>
-    <row r="24" spans="1:12" ht="94.5">
+    <row r="24" spans="1:12" ht="105">
       <c r="A24" s="12">
         <v>19</v>
       </c>
@@ -11686,7 +11886,7 @@
       </c>
       <c r="L24" s="11"/>
     </row>
-    <row r="25" spans="1:12" ht="94.5">
+    <row r="25" spans="1:12" ht="105">
       <c r="A25" s="12">
         <v>20</v>
       </c>
@@ -11716,7 +11916,7 @@
       </c>
       <c r="L25" s="11"/>
     </row>
-    <row r="26" spans="1:12" ht="94.5">
+    <row r="26" spans="1:12" ht="105">
       <c r="A26" s="12">
         <v>21</v>
       </c>
@@ -11746,7 +11946,7 @@
       </c>
       <c r="L26" s="11"/>
     </row>
-    <row r="27" spans="1:12" ht="94.5">
+    <row r="27" spans="1:12" ht="105">
       <c r="A27" s="12">
         <v>22</v>
       </c>
@@ -11776,7 +11976,7 @@
       </c>
       <c r="L27" s="11"/>
     </row>
-    <row r="28" spans="1:12" ht="126">
+    <row r="28" spans="1:12" ht="120">
       <c r="A28" s="12">
         <v>23</v>
       </c>
@@ -11806,7 +12006,7 @@
       </c>
       <c r="L28" s="11"/>
     </row>
-    <row r="29" spans="1:12" ht="94.5">
+    <row r="29" spans="1:12" ht="90">
       <c r="A29" s="12">
         <v>24</v>
       </c>
@@ -11836,7 +12036,7 @@
       </c>
       <c r="L29" s="11"/>
     </row>
-    <row r="30" spans="1:12" ht="94.5">
+    <row r="30" spans="1:12" ht="90">
       <c r="A30" s="12">
         <v>25</v>
       </c>
@@ -11866,7 +12066,7 @@
       </c>
       <c r="L30" s="11"/>
     </row>
-    <row r="31" spans="1:12" ht="47.25">
+    <row r="31" spans="1:12" ht="45">
       <c r="A31" s="12">
         <v>26</v>
       </c>
@@ -11896,7 +12096,7 @@
       </c>
       <c r="L31" s="11"/>
     </row>
-    <row r="32" spans="1:12" ht="110.25">
+    <row r="32" spans="1:12" ht="120">
       <c r="A32" s="12">
         <v>27</v>
       </c>
@@ -11926,7 +12126,7 @@
       </c>
       <c r="L32" s="11"/>
     </row>
-    <row r="33" spans="1:12" ht="110.25">
+    <row r="33" spans="1:12" ht="120">
       <c r="A33" s="12">
         <v>28</v>
       </c>
@@ -11956,7 +12156,7 @@
       </c>
       <c r="L33" s="11"/>
     </row>
-    <row r="34" spans="1:12" ht="31.5">
+    <row r="34" spans="1:12" ht="30">
       <c r="A34" s="12">
         <v>29</v>
       </c>
@@ -11988,7 +12188,7 @@
       </c>
       <c r="L34" s="11"/>
     </row>
-    <row r="35" spans="1:12" ht="63">
+    <row r="35" spans="1:12" ht="60">
       <c r="A35" s="12">
         <v>30</v>
       </c>
@@ -12022,7 +12222,7 @@
       </c>
       <c r="L35" s="11"/>
     </row>
-    <row r="36" spans="1:12" ht="31.5">
+    <row r="36" spans="1:12" ht="45">
       <c r="A36" s="12">
         <v>31</v>
       </c>
@@ -12054,7 +12254,7 @@
       </c>
       <c r="L36" s="11"/>
     </row>
-    <row r="37" spans="1:12" ht="63">
+    <row r="37" spans="1:12" ht="75">
       <c r="A37" s="12">
         <v>32</v>
       </c>
@@ -12084,7 +12284,7 @@
       </c>
       <c r="L37" s="11"/>
     </row>
-    <row r="38" spans="1:12" ht="31.5">
+    <row r="38" spans="1:12" ht="45">
       <c r="A38" s="12">
         <v>33</v>
       </c>
@@ -12099,7 +12299,7 @@
       <c r="F38" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="G38" s="97" t="s">
+      <c r="G38" s="99" t="s">
         <v>110</v>
       </c>
       <c r="H38" s="68">
@@ -12114,7 +12314,7 @@
       </c>
       <c r="L38" s="11"/>
     </row>
-    <row r="39" spans="1:12" ht="31.5">
+    <row r="39" spans="1:12" ht="45">
       <c r="A39" s="12">
         <v>34</v>
       </c>
@@ -12129,7 +12329,7 @@
       <c r="F39" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="G39" s="98"/>
+      <c r="G39" s="100"/>
       <c r="H39" s="68">
         <v>44354</v>
       </c>
@@ -12142,7 +12342,7 @@
       </c>
       <c r="L39" s="11"/>
     </row>
-    <row r="40" spans="1:12" ht="31.5">
+    <row r="40" spans="1:12" ht="45">
       <c r="A40" s="12">
         <v>35</v>
       </c>
@@ -12157,7 +12357,7 @@
       <c r="F40" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="G40" s="98"/>
+      <c r="G40" s="100"/>
       <c r="H40" s="68">
         <v>44354</v>
       </c>
@@ -12170,7 +12370,7 @@
       </c>
       <c r="L40" s="11"/>
     </row>
-    <row r="41" spans="1:12" ht="31.5">
+    <row r="41" spans="1:12" ht="45">
       <c r="A41" s="12">
         <v>36</v>
       </c>
@@ -12185,7 +12385,7 @@
       <c r="F41" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="G41" s="98"/>
+      <c r="G41" s="100"/>
       <c r="H41" s="68">
         <v>44354</v>
       </c>
@@ -12198,7 +12398,7 @@
       </c>
       <c r="L41" s="11"/>
     </row>
-    <row r="42" spans="1:12" ht="31.5">
+    <row r="42" spans="1:12" ht="45">
       <c r="A42" s="12">
         <v>37</v>
       </c>
@@ -12213,7 +12413,7 @@
       <c r="F42" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="G42" s="99"/>
+      <c r="G42" s="101"/>
       <c r="H42" s="68">
         <v>44354</v>
       </c>
@@ -12226,7 +12426,7 @@
       </c>
       <c r="L42" s="11"/>
     </row>
-    <row r="43" spans="1:12" ht="47.25">
+    <row r="43" spans="1:12" ht="45">
       <c r="A43" s="12">
         <v>38</v>
       </c>
@@ -12258,7 +12458,7 @@
       </c>
       <c r="L43" s="11"/>
     </row>
-    <row r="44" spans="1:12" ht="31.5">
+    <row r="44" spans="1:12" ht="45">
       <c r="A44" s="12">
         <v>39</v>
       </c>
@@ -12288,7 +12488,7 @@
       </c>
       <c r="L44" s="11"/>
     </row>
-    <row r="45" spans="1:12" ht="31.5">
+    <row r="45" spans="1:12" ht="45">
       <c r="A45" s="12">
         <v>40</v>
       </c>
@@ -12320,7 +12520,7 @@
       </c>
       <c r="L45" s="11"/>
     </row>
-    <row r="46" spans="1:12" ht="31.5">
+    <row r="46" spans="1:12" ht="45">
       <c r="A46" s="12">
         <v>41</v>
       </c>
@@ -12350,7 +12550,7 @@
       </c>
       <c r="L46" s="11"/>
     </row>
-    <row r="47" spans="1:12" ht="31.5">
+    <row r="47" spans="1:12" ht="45">
       <c r="A47" s="12">
         <v>42</v>
       </c>
@@ -12365,7 +12565,7 @@
       <c r="F47" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="G47" s="97" t="s">
+      <c r="G47" s="99" t="s">
         <v>110</v>
       </c>
       <c r="H47" s="68">
@@ -12380,7 +12580,7 @@
       </c>
       <c r="L47" s="11"/>
     </row>
-    <row r="48" spans="1:12" ht="31.5">
+    <row r="48" spans="1:12" ht="45">
       <c r="A48" s="12">
         <v>43</v>
       </c>
@@ -12395,7 +12595,7 @@
       <c r="F48" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="G48" s="99"/>
+      <c r="G48" s="101"/>
       <c r="H48" s="68">
         <v>44354</v>
       </c>
@@ -12408,7 +12608,7 @@
       </c>
       <c r="L48" s="11"/>
     </row>
-    <row r="49" spans="1:12" ht="47.25">
+    <row r="49" spans="1:12" ht="45">
       <c r="A49" s="12">
         <v>44</v>
       </c>
@@ -12438,7 +12638,7 @@
       </c>
       <c r="L49" s="11"/>
     </row>
-    <row r="50" spans="1:12" ht="47.25">
+    <row r="50" spans="1:12" ht="45">
       <c r="A50" s="12">
         <v>45</v>
       </c>
@@ -12468,7 +12668,7 @@
       </c>
       <c r="L50" s="11"/>
     </row>
-    <row r="51" spans="1:12" ht="47.25">
+    <row r="51" spans="1:12" ht="45">
       <c r="A51" s="12">
         <v>46</v>
       </c>
@@ -12500,7 +12700,7 @@
       </c>
       <c r="L51" s="11"/>
     </row>
-    <row r="52" spans="1:12" ht="63">
+    <row r="52" spans="1:12" ht="60">
       <c r="A52" s="12">
         <v>47</v>
       </c>
@@ -12534,7 +12734,7 @@
       </c>
       <c r="L52" s="11"/>
     </row>
-    <row r="53" spans="1:12" ht="31.5">
+    <row r="53" spans="1:12" ht="30">
       <c r="A53" s="12">
         <v>48</v>
       </c>
@@ -12566,7 +12766,7 @@
       </c>
       <c r="L53" s="11"/>
     </row>
-    <row r="54" spans="1:12" ht="31.5">
+    <row r="54" spans="1:12" ht="45">
       <c r="A54" s="12">
         <v>49</v>
       </c>
@@ -12596,7 +12796,7 @@
       </c>
       <c r="L54" s="11"/>
     </row>
-    <row r="55" spans="1:12" ht="31.5">
+    <row r="55" spans="1:12" ht="45">
       <c r="A55" s="12">
         <v>50</v>
       </c>
@@ -12626,7 +12826,7 @@
       </c>
       <c r="L55" s="11"/>
     </row>
-    <row r="56" spans="1:12" ht="110.25">
+    <row r="56" spans="1:12" ht="120">
       <c r="A56" s="12">
         <v>51</v>
       </c>
@@ -12660,7 +12860,7 @@
       </c>
       <c r="L56" s="11"/>
     </row>
-    <row r="57" spans="1:12" ht="31.5">
+    <row r="57" spans="1:12" ht="30">
       <c r="A57" s="12">
         <v>52</v>
       </c>
@@ -12676,7 +12876,7 @@
       <c r="E57" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F57" s="100" t="s">
+      <c r="F57" s="105" t="s">
         <v>232</v>
       </c>
       <c r="G57" s="32" t="s">
@@ -12694,7 +12894,7 @@
       </c>
       <c r="L57" s="11"/>
     </row>
-    <row r="58" spans="1:12" ht="31.5">
+    <row r="58" spans="1:12" ht="30">
       <c r="A58" s="12">
         <v>53</v>
       </c>
@@ -12708,7 +12908,7 @@
       <c r="E58" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F58" s="101"/>
+      <c r="F58" s="106"/>
       <c r="G58" s="32" t="s">
         <v>233</v>
       </c>
@@ -12724,7 +12924,7 @@
       </c>
       <c r="L58" s="11"/>
     </row>
-    <row r="59" spans="1:12" ht="31.5">
+    <row r="59" spans="1:12" ht="30">
       <c r="A59" s="12">
         <v>54</v>
       </c>
@@ -12735,10 +12935,10 @@
       <c r="D59" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="E59" s="107" t="s">
+      <c r="E59" s="112" t="s">
         <v>55</v>
       </c>
-      <c r="F59" s="101"/>
+      <c r="F59" s="106"/>
       <c r="G59" s="37" t="s">
         <v>260</v>
       </c>
@@ -12754,7 +12954,7 @@
       </c>
       <c r="L59" s="11"/>
     </row>
-    <row r="60" spans="1:12" ht="31.5">
+    <row r="60" spans="1:12" ht="30">
       <c r="A60" s="12">
         <v>55</v>
       </c>
@@ -12763,8 +12963,8 @@
       <c r="D60" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E60" s="108"/>
-      <c r="F60" s="101"/>
+      <c r="E60" s="113"/>
+      <c r="F60" s="106"/>
       <c r="G60" s="37" t="s">
         <v>261</v>
       </c>
@@ -12780,7 +12980,7 @@
       </c>
       <c r="L60" s="11"/>
     </row>
-    <row r="61" spans="1:12" ht="31.5">
+    <row r="61" spans="1:12" ht="30">
       <c r="A61" s="12">
         <v>56</v>
       </c>
@@ -12789,8 +12989,8 @@
       <c r="D61" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E61" s="108"/>
-      <c r="F61" s="101"/>
+      <c r="E61" s="113"/>
+      <c r="F61" s="106"/>
       <c r="G61" s="37" t="s">
         <v>262</v>
       </c>
@@ -12806,7 +13006,7 @@
       </c>
       <c r="L61" s="11"/>
     </row>
-    <row r="62" spans="1:12" ht="31.5">
+    <row r="62" spans="1:12" ht="30">
       <c r="A62" s="12">
         <v>57</v>
       </c>
@@ -12815,8 +13015,8 @@
       <c r="D62" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E62" s="108"/>
-      <c r="F62" s="101"/>
+      <c r="E62" s="113"/>
+      <c r="F62" s="106"/>
       <c r="G62" s="37" t="s">
         <v>263</v>
       </c>
@@ -12832,7 +13032,7 @@
       </c>
       <c r="L62" s="11"/>
     </row>
-    <row r="63" spans="1:12" ht="31.5">
+    <row r="63" spans="1:12" ht="30">
       <c r="A63" s="12">
         <v>58</v>
       </c>
@@ -12841,8 +13041,8 @@
       <c r="D63" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E63" s="108"/>
-      <c r="F63" s="101"/>
+      <c r="E63" s="113"/>
+      <c r="F63" s="106"/>
       <c r="G63" s="37" t="s">
         <v>264</v>
       </c>
@@ -12858,7 +13058,7 @@
       </c>
       <c r="L63" s="11"/>
     </row>
-    <row r="64" spans="1:12" ht="31.5">
+    <row r="64" spans="1:12" ht="30">
       <c r="A64" s="12">
         <v>59</v>
       </c>
@@ -12867,8 +13067,8 @@
       <c r="D64" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E64" s="108"/>
-      <c r="F64" s="101"/>
+      <c r="E64" s="113"/>
+      <c r="F64" s="106"/>
       <c r="G64" s="37" t="s">
         <v>265</v>
       </c>
@@ -12884,7 +13084,7 @@
       </c>
       <c r="L64" s="11"/>
     </row>
-    <row r="65" spans="1:12" ht="31.5">
+    <row r="65" spans="1:12" ht="30">
       <c r="A65" s="12">
         <v>60</v>
       </c>
@@ -12893,8 +13093,8 @@
       <c r="D65" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E65" s="108"/>
-      <c r="F65" s="101"/>
+      <c r="E65" s="113"/>
+      <c r="F65" s="106"/>
       <c r="G65" s="31" t="s">
         <v>272</v>
       </c>
@@ -12910,7 +13110,7 @@
       </c>
       <c r="L65" s="11"/>
     </row>
-    <row r="66" spans="1:12" ht="31.5">
+    <row r="66" spans="1:12" ht="45">
       <c r="A66" s="12">
         <v>61</v>
       </c>
@@ -12919,8 +13119,8 @@
       <c r="D66" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E66" s="108"/>
-      <c r="F66" s="101"/>
+      <c r="E66" s="113"/>
+      <c r="F66" s="106"/>
       <c r="G66" s="31" t="s">
         <v>273</v>
       </c>
@@ -12936,7 +13136,7 @@
       </c>
       <c r="L66" s="11"/>
     </row>
-    <row r="67" spans="1:12" ht="31.5">
+    <row r="67" spans="1:12" ht="45">
       <c r="A67" s="12">
         <v>62</v>
       </c>
@@ -12945,8 +13145,8 @@
       <c r="D67" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="E67" s="108"/>
-      <c r="F67" s="101"/>
+      <c r="E67" s="113"/>
+      <c r="F67" s="106"/>
       <c r="G67" s="31" t="s">
         <v>274</v>
       </c>
@@ -12962,7 +13162,7 @@
       </c>
       <c r="L67" s="11"/>
     </row>
-    <row r="68" spans="1:12" ht="31.5">
+    <row r="68" spans="1:12" ht="30">
       <c r="A68" s="12">
         <v>63</v>
       </c>
@@ -12971,8 +13171,8 @@
       <c r="D68" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="E68" s="108"/>
-      <c r="F68" s="101"/>
+      <c r="E68" s="113"/>
+      <c r="F68" s="106"/>
       <c r="G68" s="31" t="s">
         <v>275</v>
       </c>
@@ -12988,7 +13188,7 @@
       </c>
       <c r="L68" s="11"/>
     </row>
-    <row r="69" spans="1:12" ht="31.5">
+    <row r="69" spans="1:12" ht="30">
       <c r="A69" s="12">
         <v>64</v>
       </c>
@@ -12997,8 +13197,8 @@
       <c r="D69" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="E69" s="108"/>
-      <c r="F69" s="101"/>
+      <c r="E69" s="113"/>
+      <c r="F69" s="106"/>
       <c r="G69" s="31" t="s">
         <v>275</v>
       </c>
@@ -13014,7 +13214,7 @@
       </c>
       <c r="L69" s="11"/>
     </row>
-    <row r="70" spans="1:12" ht="31.5">
+    <row r="70" spans="1:12" ht="30">
       <c r="A70" s="12">
         <v>65</v>
       </c>
@@ -13023,8 +13223,8 @@
       <c r="D70" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="E70" s="108"/>
-      <c r="F70" s="101"/>
+      <c r="E70" s="113"/>
+      <c r="F70" s="106"/>
       <c r="G70" s="31" t="s">
         <v>270</v>
       </c>
@@ -13040,7 +13240,7 @@
       </c>
       <c r="L70" s="11"/>
     </row>
-    <row r="71" spans="1:12" ht="31.5">
+    <row r="71" spans="1:12" ht="30">
       <c r="A71" s="12">
         <v>66</v>
       </c>
@@ -13049,8 +13249,8 @@
       <c r="D71" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="E71" s="109"/>
-      <c r="F71" s="102"/>
+      <c r="E71" s="114"/>
+      <c r="F71" s="107"/>
       <c r="G71" s="31" t="s">
         <v>271</v>
       </c>
@@ -13066,7 +13266,7 @@
       </c>
       <c r="L71" s="11"/>
     </row>
-    <row r="72" spans="1:12" ht="31.5">
+    <row r="72" spans="1:12" ht="30">
       <c r="A72" s="12">
         <v>67</v>
       </c>
@@ -13100,7 +13300,7 @@
       </c>
       <c r="L72" s="11"/>
     </row>
-    <row r="73" spans="1:12" ht="31.5">
+    <row r="73" spans="1:12" ht="30">
       <c r="A73" s="12">
         <v>68</v>
       </c>
@@ -13111,10 +13311,10 @@
       <c r="D73" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E73" s="94" t="s">
+      <c r="E73" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="F73" s="97" t="s">
+      <c r="F73" s="99" t="s">
         <v>277</v>
       </c>
       <c r="G73" s="31" t="s">
@@ -13132,7 +13332,7 @@
       </c>
       <c r="L73" s="11"/>
     </row>
-    <row r="74" spans="1:12" ht="31.5">
+    <row r="74" spans="1:12" ht="30">
       <c r="A74" s="12">
         <v>69</v>
       </c>
@@ -13141,8 +13341,8 @@
       <c r="D74" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E74" s="95"/>
-      <c r="F74" s="98"/>
+      <c r="E74" s="97"/>
+      <c r="F74" s="100"/>
       <c r="G74" s="31" t="s">
         <v>280</v>
       </c>
@@ -13158,7 +13358,7 @@
       </c>
       <c r="L74" s="11"/>
     </row>
-    <row r="75" spans="1:12" ht="31.5">
+    <row r="75" spans="1:12" ht="30">
       <c r="A75" s="12">
         <v>70</v>
       </c>
@@ -13167,8 +13367,8 @@
       <c r="D75" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="95"/>
-      <c r="F75" s="98"/>
+      <c r="E75" s="97"/>
+      <c r="F75" s="100"/>
       <c r="G75" s="31" t="s">
         <v>281</v>
       </c>
@@ -13184,7 +13384,7 @@
       </c>
       <c r="L75" s="11"/>
     </row>
-    <row r="76" spans="1:12" ht="31.5">
+    <row r="76" spans="1:12" ht="30">
       <c r="A76" s="12">
         <v>71</v>
       </c>
@@ -13193,8 +13393,8 @@
       <c r="D76" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E76" s="95"/>
-      <c r="F76" s="98"/>
+      <c r="E76" s="97"/>
+      <c r="F76" s="100"/>
       <c r="G76" s="31" t="s">
         <v>282</v>
       </c>
@@ -13210,7 +13410,7 @@
       </c>
       <c r="L76" s="11"/>
     </row>
-    <row r="77" spans="1:12" ht="31.5">
+    <row r="77" spans="1:12" ht="30">
       <c r="A77" s="12">
         <v>72</v>
       </c>
@@ -13219,8 +13419,8 @@
       <c r="D77" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E77" s="95"/>
-      <c r="F77" s="98"/>
+      <c r="E77" s="97"/>
+      <c r="F77" s="100"/>
       <c r="G77" s="31" t="s">
         <v>283</v>
       </c>
@@ -13236,7 +13436,7 @@
       </c>
       <c r="L77" s="11"/>
     </row>
-    <row r="78" spans="1:12" ht="47.25">
+    <row r="78" spans="1:12" ht="45">
       <c r="A78" s="12">
         <v>73</v>
       </c>
@@ -13245,8 +13445,8 @@
       <c r="D78" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E78" s="95"/>
-      <c r="F78" s="98"/>
+      <c r="E78" s="97"/>
+      <c r="F78" s="100"/>
       <c r="G78" s="31" t="s">
         <v>284</v>
       </c>
@@ -13262,7 +13462,7 @@
       </c>
       <c r="L78" s="11"/>
     </row>
-    <row r="79" spans="1:12" ht="31.5">
+    <row r="79" spans="1:12" ht="30">
       <c r="A79" s="12">
         <v>74</v>
       </c>
@@ -13271,8 +13471,8 @@
       <c r="D79" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E79" s="95"/>
-      <c r="F79" s="98"/>
+      <c r="E79" s="97"/>
+      <c r="F79" s="100"/>
       <c r="G79" s="31" t="s">
         <v>289</v>
       </c>
@@ -13288,7 +13488,7 @@
       </c>
       <c r="L79" s="11"/>
     </row>
-    <row r="80" spans="1:12" ht="31.5">
+    <row r="80" spans="1:12" ht="30">
       <c r="A80" s="12">
         <v>75</v>
       </c>
@@ -13297,8 +13497,8 @@
       <c r="D80" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E80" s="95"/>
-      <c r="F80" s="98"/>
+      <c r="E80" s="97"/>
+      <c r="F80" s="100"/>
       <c r="G80" s="31" t="s">
         <v>285</v>
       </c>
@@ -13314,7 +13514,7 @@
       </c>
       <c r="L80" s="11"/>
     </row>
-    <row r="81" spans="1:12" ht="31.5">
+    <row r="81" spans="1:12" ht="45">
       <c r="A81" s="12">
         <v>76</v>
       </c>
@@ -13323,8 +13523,8 @@
       <c r="D81" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E81" s="95"/>
-      <c r="F81" s="98"/>
+      <c r="E81" s="97"/>
+      <c r="F81" s="100"/>
       <c r="G81" s="31" t="s">
         <v>290</v>
       </c>
@@ -13340,7 +13540,7 @@
       </c>
       <c r="L81" s="11"/>
     </row>
-    <row r="82" spans="1:12" ht="31.5">
+    <row r="82" spans="1:12" ht="45">
       <c r="A82" s="12">
         <v>77</v>
       </c>
@@ -13349,8 +13549,8 @@
       <c r="D82" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E82" s="95"/>
-      <c r="F82" s="98"/>
+      <c r="E82" s="97"/>
+      <c r="F82" s="100"/>
       <c r="G82" s="31" t="s">
         <v>286</v>
       </c>
@@ -13366,7 +13566,7 @@
       </c>
       <c r="L82" s="11"/>
     </row>
-    <row r="83" spans="1:12" ht="31.5">
+    <row r="83" spans="1:12" ht="30">
       <c r="A83" s="12">
         <v>78</v>
       </c>
@@ -13375,8 +13575,8 @@
       <c r="D83" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E83" s="95"/>
-      <c r="F83" s="98"/>
+      <c r="E83" s="97"/>
+      <c r="F83" s="100"/>
       <c r="G83" s="31" t="s">
         <v>287</v>
       </c>
@@ -13392,7 +13592,7 @@
       </c>
       <c r="L83" s="11"/>
     </row>
-    <row r="84" spans="1:12" ht="31.5">
+    <row r="84" spans="1:12" ht="30">
       <c r="A84" s="12">
         <v>79</v>
       </c>
@@ -13401,8 +13601,8 @@
       <c r="D84" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E84" s="96"/>
-      <c r="F84" s="99"/>
+      <c r="E84" s="98"/>
+      <c r="F84" s="101"/>
       <c r="G84" s="31" t="s">
         <v>288</v>
       </c>
@@ -13418,7 +13618,7 @@
       </c>
       <c r="L84" s="11"/>
     </row>
-    <row r="85" spans="1:12" ht="31.5">
+    <row r="85" spans="1:12" ht="30">
       <c r="A85" s="12">
         <v>80</v>
       </c>
@@ -13448,7 +13648,7 @@
       </c>
       <c r="L85" s="11"/>
     </row>
-    <row r="86" spans="1:12" ht="31.5">
+    <row r="86" spans="1:12" ht="30">
       <c r="A86" s="12">
         <v>81</v>
       </c>
@@ -13461,10 +13661,10 @@
       <c r="D86" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E86" s="94" t="s">
+      <c r="E86" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="F86" s="97" t="s">
+      <c r="F86" s="99" t="s">
         <v>301</v>
       </c>
       <c r="G86" s="31" t="s">
@@ -13482,7 +13682,7 @@
       </c>
       <c r="L86" s="11"/>
     </row>
-    <row r="87" spans="1:12" ht="31.5">
+    <row r="87" spans="1:12" ht="30">
       <c r="A87" s="12">
         <v>82</v>
       </c>
@@ -13491,8 +13691,8 @@
       <c r="D87" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="E87" s="95"/>
-      <c r="F87" s="98"/>
+      <c r="E87" s="97"/>
+      <c r="F87" s="100"/>
       <c r="G87" s="31" t="s">
         <v>303</v>
       </c>
@@ -13508,7 +13708,7 @@
       </c>
       <c r="L87" s="11"/>
     </row>
-    <row r="88" spans="1:12" ht="31.5">
+    <row r="88" spans="1:12" ht="30">
       <c r="A88" s="12">
         <v>83</v>
       </c>
@@ -13517,8 +13717,8 @@
       <c r="D88" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="E88" s="95"/>
-      <c r="F88" s="98"/>
+      <c r="E88" s="97"/>
+      <c r="F88" s="100"/>
       <c r="G88" s="31" t="s">
         <v>370</v>
       </c>
@@ -13534,7 +13734,7 @@
       </c>
       <c r="L88" s="11"/>
     </row>
-    <row r="89" spans="1:12" ht="31.5">
+    <row r="89" spans="1:12" ht="30">
       <c r="A89" s="12">
         <v>84</v>
       </c>
@@ -13543,8 +13743,8 @@
       <c r="D89" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="E89" s="96"/>
-      <c r="F89" s="99"/>
+      <c r="E89" s="98"/>
+      <c r="F89" s="101"/>
       <c r="G89" s="31" t="s">
         <v>371</v>
       </c>
@@ -13560,7 +13760,7 @@
       </c>
       <c r="L89" s="11"/>
     </row>
-    <row r="90" spans="1:12" ht="47.25">
+    <row r="90" spans="1:12" ht="45">
       <c r="A90" s="12">
         <v>85</v>
       </c>
@@ -13573,10 +13773,10 @@
       <c r="D90" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="E90" s="94" t="s">
+      <c r="E90" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="F90" s="100" t="s">
+      <c r="F90" s="105" t="s">
         <v>300</v>
       </c>
       <c r="G90" s="30" t="s">
@@ -13594,7 +13794,7 @@
       </c>
       <c r="L90" s="11"/>
     </row>
-    <row r="91" spans="1:12" ht="31.5">
+    <row r="91" spans="1:12" ht="30">
       <c r="A91" s="12">
         <v>86</v>
       </c>
@@ -13605,8 +13805,8 @@
       <c r="D91" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="E91" s="95"/>
-      <c r="F91" s="101"/>
+      <c r="E91" s="97"/>
+      <c r="F91" s="106"/>
       <c r="G91" s="32" t="s">
         <v>298</v>
       </c>
@@ -13622,7 +13822,7 @@
       </c>
       <c r="L91" s="11"/>
     </row>
-    <row r="92" spans="1:12" ht="31.5">
+    <row r="92" spans="1:12" ht="30">
       <c r="A92" s="12">
         <v>87</v>
       </c>
@@ -13631,8 +13831,8 @@
       <c r="D92" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="E92" s="96"/>
-      <c r="F92" s="101"/>
+      <c r="E92" s="98"/>
+      <c r="F92" s="106"/>
       <c r="G92" s="32" t="s">
         <v>302</v>
       </c>
@@ -13648,7 +13848,7 @@
       </c>
       <c r="L92" s="11"/>
     </row>
-    <row r="93" spans="1:12" ht="31.5">
+    <row r="93" spans="1:12" ht="30">
       <c r="A93" s="12">
         <v>88</v>
       </c>
@@ -13664,7 +13864,7 @@
       <c r="E93" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F93" s="101"/>
+      <c r="F93" s="106"/>
       <c r="G93" s="32" t="s">
         <v>354</v>
       </c>
@@ -13680,7 +13880,7 @@
       </c>
       <c r="L93" s="11"/>
     </row>
-    <row r="94" spans="1:12" ht="31.5">
+    <row r="94" spans="1:12" ht="30">
       <c r="A94" s="12">
         <v>89</v>
       </c>
@@ -13692,7 +13892,7 @@
       <c r="E94" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F94" s="102"/>
+      <c r="F94" s="107"/>
       <c r="G94" s="32" t="s">
         <v>355</v>
       </c>
@@ -13708,7 +13908,7 @@
       </c>
       <c r="L94" s="11"/>
     </row>
-    <row r="95" spans="1:12" ht="47.25">
+    <row r="95" spans="1:12" ht="45">
       <c r="A95" s="12">
         <v>90</v>
       </c>
@@ -13742,7 +13942,7 @@
       </c>
       <c r="L95" s="11"/>
     </row>
-    <row r="96" spans="1:12" ht="31.5">
+    <row r="96" spans="1:12" ht="30">
       <c r="A96" s="12">
         <v>91</v>
       </c>
@@ -13776,7 +13976,7 @@
       </c>
       <c r="L96" s="11"/>
     </row>
-    <row r="97" spans="1:12" ht="47.25">
+    <row r="97" spans="1:12" ht="45">
       <c r="A97" s="12">
         <v>92</v>
       </c>
@@ -13787,10 +13987,10 @@
       <c r="D97" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E97" s="94" t="s">
+      <c r="E97" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="F97" s="97" t="s">
+      <c r="F97" s="99" t="s">
         <v>305</v>
       </c>
       <c r="G97" s="31" t="s">
@@ -13808,7 +14008,7 @@
       </c>
       <c r="L97" s="11"/>
     </row>
-    <row r="98" spans="1:12" ht="47.25">
+    <row r="98" spans="1:12" ht="45">
       <c r="A98" s="12">
         <v>93</v>
       </c>
@@ -13817,8 +14017,8 @@
       <c r="D98" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E98" s="95"/>
-      <c r="F98" s="98"/>
+      <c r="E98" s="97"/>
+      <c r="F98" s="100"/>
       <c r="G98" s="31" t="s">
         <v>310</v>
       </c>
@@ -13834,7 +14034,7 @@
       </c>
       <c r="L98" s="11"/>
     </row>
-    <row r="99" spans="1:12" ht="47.25">
+    <row r="99" spans="1:12" ht="45">
       <c r="A99" s="12">
         <v>94</v>
       </c>
@@ -13843,8 +14043,8 @@
       <c r="D99" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E99" s="95"/>
-      <c r="F99" s="98"/>
+      <c r="E99" s="97"/>
+      <c r="F99" s="100"/>
       <c r="G99" s="31" t="s">
         <v>309</v>
       </c>
@@ -13860,7 +14060,7 @@
       </c>
       <c r="L99" s="11"/>
     </row>
-    <row r="100" spans="1:12" ht="47.25">
+    <row r="100" spans="1:12" ht="45">
       <c r="A100" s="12">
         <v>95</v>
       </c>
@@ -13869,8 +14069,8 @@
       <c r="D100" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E100" s="95"/>
-      <c r="F100" s="98"/>
+      <c r="E100" s="97"/>
+      <c r="F100" s="100"/>
       <c r="G100" s="31" t="s">
         <v>308</v>
       </c>
@@ -13886,7 +14086,7 @@
       </c>
       <c r="L100" s="11"/>
     </row>
-    <row r="101" spans="1:12" ht="47.25">
+    <row r="101" spans="1:12" ht="45">
       <c r="A101" s="12">
         <v>96</v>
       </c>
@@ -13895,8 +14095,8 @@
       <c r="D101" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E101" s="95"/>
-      <c r="F101" s="98"/>
+      <c r="E101" s="97"/>
+      <c r="F101" s="100"/>
       <c r="G101" s="31" t="s">
         <v>311</v>
       </c>
@@ -13912,7 +14112,7 @@
       </c>
       <c r="L101" s="11"/>
     </row>
-    <row r="102" spans="1:12" ht="63">
+    <row r="102" spans="1:12" ht="75">
       <c r="A102" s="12">
         <v>97</v>
       </c>
@@ -13921,8 +14121,8 @@
       <c r="D102" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E102" s="95"/>
-      <c r="F102" s="98"/>
+      <c r="E102" s="97"/>
+      <c r="F102" s="100"/>
       <c r="G102" s="31" t="s">
         <v>312</v>
       </c>
@@ -13938,7 +14138,7 @@
       </c>
       <c r="L102" s="11"/>
     </row>
-    <row r="103" spans="1:12" ht="47.25">
+    <row r="103" spans="1:12" ht="45">
       <c r="A103" s="12">
         <v>98</v>
       </c>
@@ -13947,8 +14147,8 @@
       <c r="D103" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E103" s="95"/>
-      <c r="F103" s="98"/>
+      <c r="E103" s="97"/>
+      <c r="F103" s="100"/>
       <c r="G103" s="31" t="s">
         <v>319</v>
       </c>
@@ -13964,7 +14164,7 @@
       </c>
       <c r="L103" s="11"/>
     </row>
-    <row r="104" spans="1:12" ht="47.25">
+    <row r="104" spans="1:12" ht="45">
       <c r="A104" s="12">
         <v>99</v>
       </c>
@@ -13973,8 +14173,8 @@
       <c r="D104" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E104" s="95"/>
-      <c r="F104" s="98"/>
+      <c r="E104" s="97"/>
+      <c r="F104" s="100"/>
       <c r="G104" s="31" t="s">
         <v>314</v>
       </c>
@@ -13990,7 +14190,7 @@
       </c>
       <c r="L104" s="11"/>
     </row>
-    <row r="105" spans="1:12" ht="47.25">
+    <row r="105" spans="1:12" ht="60">
       <c r="A105" s="12">
         <v>100</v>
       </c>
@@ -13999,8 +14199,8 @@
       <c r="D105" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E105" s="95"/>
-      <c r="F105" s="98"/>
+      <c r="E105" s="97"/>
+      <c r="F105" s="100"/>
       <c r="G105" s="31" t="s">
         <v>315</v>
       </c>
@@ -14016,7 +14216,7 @@
       </c>
       <c r="L105" s="11"/>
     </row>
-    <row r="106" spans="1:12" ht="47.25">
+    <row r="106" spans="1:12" ht="45">
       <c r="A106" s="12">
         <v>101</v>
       </c>
@@ -14025,8 +14225,8 @@
       <c r="D106" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E106" s="95"/>
-      <c r="F106" s="98"/>
+      <c r="E106" s="97"/>
+      <c r="F106" s="100"/>
       <c r="G106" s="31" t="s">
         <v>316</v>
       </c>
@@ -14042,7 +14242,7 @@
       </c>
       <c r="L106" s="11"/>
     </row>
-    <row r="107" spans="1:12" ht="47.25">
+    <row r="107" spans="1:12" ht="45">
       <c r="A107" s="12">
         <v>102</v>
       </c>
@@ -14051,8 +14251,8 @@
       <c r="D107" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E107" s="95"/>
-      <c r="F107" s="98"/>
+      <c r="E107" s="97"/>
+      <c r="F107" s="100"/>
       <c r="G107" s="31" t="s">
         <v>317</v>
       </c>
@@ -14068,7 +14268,7 @@
       </c>
       <c r="L107" s="11"/>
     </row>
-    <row r="108" spans="1:12" ht="47.25">
+    <row r="108" spans="1:12" ht="45">
       <c r="A108" s="12">
         <v>103</v>
       </c>
@@ -14077,8 +14277,8 @@
       <c r="D108" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E108" s="96"/>
-      <c r="F108" s="99"/>
+      <c r="E108" s="98"/>
+      <c r="F108" s="101"/>
       <c r="G108" s="31" t="s">
         <v>318</v>
       </c>
@@ -14094,7 +14294,7 @@
       </c>
       <c r="L108" s="11"/>
     </row>
-    <row r="109" spans="1:12" ht="31.5">
+    <row r="109" spans="1:12" ht="30">
       <c r="A109" s="12">
         <v>104</v>
       </c>
@@ -14124,7 +14324,7 @@
       </c>
       <c r="L109" s="11"/>
     </row>
-    <row r="110" spans="1:12" ht="47.25">
+    <row r="110" spans="1:12" ht="60">
       <c r="A110" s="12">
         <v>105</v>
       </c>
@@ -14141,7 +14341,7 @@
       <c r="F110" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="G110" s="100" t="s">
+      <c r="G110" s="105" t="s">
         <v>107</v>
       </c>
       <c r="H110" s="68">
@@ -14156,7 +14356,7 @@
       </c>
       <c r="L110" s="11"/>
     </row>
-    <row r="111" spans="1:12" ht="47.25">
+    <row r="111" spans="1:12" ht="60">
       <c r="A111" s="12">
         <v>106</v>
       </c>
@@ -14171,7 +14371,7 @@
       <c r="F111" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="G111" s="101"/>
+      <c r="G111" s="106"/>
       <c r="H111" s="68">
         <v>44435</v>
       </c>
@@ -14184,7 +14384,7 @@
       </c>
       <c r="L111" s="11"/>
     </row>
-    <row r="112" spans="1:12" ht="47.25">
+    <row r="112" spans="1:12" ht="60">
       <c r="A112" s="12">
         <v>107</v>
       </c>
@@ -14199,7 +14399,7 @@
       <c r="F112" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="G112" s="101"/>
+      <c r="G112" s="106"/>
       <c r="H112" s="68">
         <v>44435</v>
       </c>
@@ -14212,7 +14412,7 @@
       </c>
       <c r="L112" s="11"/>
     </row>
-    <row r="113" spans="1:12" ht="47.25">
+    <row r="113" spans="1:12" ht="60">
       <c r="A113" s="12">
         <v>108</v>
       </c>
@@ -14227,7 +14427,7 @@
       <c r="F113" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="G113" s="101"/>
+      <c r="G113" s="106"/>
       <c r="H113" s="68">
         <v>44435</v>
       </c>
@@ -14240,7 +14440,7 @@
       </c>
       <c r="L113" s="11"/>
     </row>
-    <row r="114" spans="1:12" ht="63">
+    <row r="114" spans="1:12" ht="75">
       <c r="A114" s="12">
         <v>109</v>
       </c>
@@ -14255,7 +14455,7 @@
       <c r="F114" s="31" t="s">
         <v>326</v>
       </c>
-      <c r="G114" s="101"/>
+      <c r="G114" s="106"/>
       <c r="H114" s="68">
         <v>44435</v>
       </c>
@@ -14268,7 +14468,7 @@
       </c>
       <c r="L114" s="11"/>
     </row>
-    <row r="115" spans="1:12" ht="63">
+    <row r="115" spans="1:12" ht="60">
       <c r="A115" s="12">
         <v>110</v>
       </c>
@@ -14283,7 +14483,7 @@
       <c r="F115" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="G115" s="101"/>
+      <c r="G115" s="106"/>
       <c r="H115" s="68">
         <v>44435</v>
       </c>
@@ -14296,7 +14496,7 @@
       </c>
       <c r="L115" s="11"/>
     </row>
-    <row r="116" spans="1:12" ht="47.25">
+    <row r="116" spans="1:12" ht="60">
       <c r="A116" s="12">
         <v>111</v>
       </c>
@@ -14311,7 +14511,7 @@
       <c r="F116" s="31" t="s">
         <v>346</v>
       </c>
-      <c r="G116" s="101"/>
+      <c r="G116" s="106"/>
       <c r="H116" s="68">
         <v>44435</v>
       </c>
@@ -14324,7 +14524,7 @@
       </c>
       <c r="L116" s="11"/>
     </row>
-    <row r="117" spans="1:12" ht="47.25">
+    <row r="117" spans="1:12" ht="45">
       <c r="A117" s="12">
         <v>112</v>
       </c>
@@ -14339,7 +14539,7 @@
       <c r="F117" s="31" t="s">
         <v>327</v>
       </c>
-      <c r="G117" s="101"/>
+      <c r="G117" s="106"/>
       <c r="H117" s="68">
         <v>44435</v>
       </c>
@@ -14352,7 +14552,7 @@
       </c>
       <c r="L117" s="11"/>
     </row>
-    <row r="118" spans="1:12" ht="47.25">
+    <row r="118" spans="1:12" ht="45">
       <c r="A118" s="12">
         <v>113</v>
       </c>
@@ -14367,7 +14567,7 @@
       <c r="F118" s="31" t="s">
         <v>322</v>
       </c>
-      <c r="G118" s="101"/>
+      <c r="G118" s="106"/>
       <c r="H118" s="68">
         <v>44435</v>
       </c>
@@ -14380,7 +14580,7 @@
       </c>
       <c r="L118" s="11"/>
     </row>
-    <row r="119" spans="1:12" ht="63">
+    <row r="119" spans="1:12" ht="60">
       <c r="A119" s="12">
         <v>114</v>
       </c>
@@ -14395,7 +14595,7 @@
       <c r="F119" s="31" t="s">
         <v>328</v>
       </c>
-      <c r="G119" s="101"/>
+      <c r="G119" s="106"/>
       <c r="H119" s="68">
         <v>44435</v>
       </c>
@@ -14408,7 +14608,7 @@
       </c>
       <c r="L119" s="11"/>
     </row>
-    <row r="120" spans="1:12" ht="63">
+    <row r="120" spans="1:12" ht="60">
       <c r="A120" s="12">
         <v>115</v>
       </c>
@@ -14423,7 +14623,7 @@
       <c r="F120" s="31" t="s">
         <v>329</v>
       </c>
-      <c r="G120" s="101"/>
+      <c r="G120" s="106"/>
       <c r="H120" s="68">
         <v>44435</v>
       </c>
@@ -14436,7 +14636,7 @@
       </c>
       <c r="L120" s="11"/>
     </row>
-    <row r="121" spans="1:12" ht="47.25">
+    <row r="121" spans="1:12" ht="60">
       <c r="A121" s="12">
         <v>116</v>
       </c>
@@ -14451,7 +14651,7 @@
       <c r="F121" s="31" t="s">
         <v>321</v>
       </c>
-      <c r="G121" s="102"/>
+      <c r="G121" s="107"/>
       <c r="H121" s="68">
         <v>44435</v>
       </c>
@@ -14464,7 +14664,7 @@
       </c>
       <c r="L121" s="11"/>
     </row>
-    <row r="122" spans="1:12" ht="94.5">
+    <row r="122" spans="1:12" ht="105">
       <c r="A122" s="12">
         <v>117</v>
       </c>
@@ -14496,7 +14696,7 @@
       </c>
       <c r="L122" s="11"/>
     </row>
-    <row r="123" spans="1:12" ht="94.5">
+    <row r="123" spans="1:12" ht="105">
       <c r="A123" s="12">
         <v>118</v>
       </c>
@@ -14526,7 +14726,7 @@
       </c>
       <c r="L123" s="11"/>
     </row>
-    <row r="124" spans="1:12" ht="94.5">
+    <row r="124" spans="1:12" ht="105">
       <c r="A124" s="12">
         <v>119</v>
       </c>
@@ -14556,7 +14756,7 @@
       </c>
       <c r="L124" s="11"/>
     </row>
-    <row r="125" spans="1:12" ht="94.5">
+    <row r="125" spans="1:12" ht="105">
       <c r="A125" s="12">
         <v>120</v>
       </c>
@@ -14586,7 +14786,7 @@
       </c>
       <c r="L125" s="11"/>
     </row>
-    <row r="126" spans="1:12" ht="126">
+    <row r="126" spans="1:12" ht="120">
       <c r="A126" s="12">
         <v>121</v>
       </c>
@@ -14616,7 +14816,7 @@
       </c>
       <c r="L126" s="11"/>
     </row>
-    <row r="127" spans="1:12" ht="110.25">
+    <row r="127" spans="1:12" ht="105">
       <c r="A127" s="12">
         <v>122</v>
       </c>
@@ -14646,7 +14846,7 @@
       </c>
       <c r="L127" s="11"/>
     </row>
-    <row r="128" spans="1:12" ht="94.5">
+    <row r="128" spans="1:12" ht="90">
       <c r="A128" s="12">
         <v>123</v>
       </c>
@@ -14676,7 +14876,7 @@
       </c>
       <c r="L128" s="11"/>
     </row>
-    <row r="129" spans="1:12" ht="47.25">
+    <row r="129" spans="1:12" ht="45">
       <c r="A129" s="12">
         <v>124</v>
       </c>
@@ -14706,7 +14906,7 @@
       </c>
       <c r="L129" s="11"/>
     </row>
-    <row r="130" spans="1:12" ht="110.25">
+    <row r="130" spans="1:12" ht="120">
       <c r="A130" s="12">
         <v>125</v>
       </c>
@@ -14736,7 +14936,7 @@
       </c>
       <c r="L130" s="11"/>
     </row>
-    <row r="131" spans="1:12" ht="110.25">
+    <row r="131" spans="1:12" ht="120">
       <c r="A131" s="12">
         <v>126</v>
       </c>
@@ -14766,7 +14966,7 @@
       </c>
       <c r="L131" s="11"/>
     </row>
-    <row r="132" spans="1:12" ht="31.5">
+    <row r="132" spans="1:12" ht="30">
       <c r="A132" s="12">
         <v>127</v>
       </c>
@@ -14782,7 +14982,7 @@
       <c r="E132" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F132" s="97" t="s">
+      <c r="F132" s="99" t="s">
         <v>344</v>
       </c>
       <c r="G132" s="31" t="s">
@@ -14800,7 +15000,7 @@
       </c>
       <c r="L132" s="11"/>
     </row>
-    <row r="133" spans="1:12" ht="31.5">
+    <row r="133" spans="1:12" ht="30">
       <c r="A133" s="12">
         <v>128</v>
       </c>
@@ -14812,7 +15012,7 @@
       <c r="E133" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F133" s="98"/>
+      <c r="F133" s="100"/>
       <c r="G133" s="32" t="s">
         <v>108</v>
       </c>
@@ -14828,7 +15028,7 @@
       </c>
       <c r="L133" s="11"/>
     </row>
-    <row r="134" spans="1:12" ht="31.5">
+    <row r="134" spans="1:12" ht="30">
       <c r="A134" s="12">
         <v>129</v>
       </c>
@@ -14840,7 +15040,7 @@
       <c r="E134" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F134" s="98"/>
+      <c r="F134" s="100"/>
       <c r="G134" s="32" t="s">
         <v>109</v>
       </c>
@@ -14856,7 +15056,7 @@
       </c>
       <c r="L134" s="11"/>
     </row>
-    <row r="135" spans="1:12" ht="31.5">
+    <row r="135" spans="1:12" ht="30">
       <c r="A135" s="12">
         <v>130</v>
       </c>
@@ -14868,7 +15068,7 @@
       <c r="E135" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F135" s="98"/>
+      <c r="F135" s="100"/>
       <c r="G135" s="32" t="s">
         <v>112</v>
       </c>
@@ -14884,7 +15084,7 @@
       </c>
       <c r="L135" s="11"/>
     </row>
-    <row r="136" spans="1:12" ht="31.5">
+    <row r="136" spans="1:12" ht="30">
       <c r="A136" s="12">
         <v>131</v>
       </c>
@@ -14896,7 +15096,7 @@
       <c r="E136" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F136" s="98"/>
+      <c r="F136" s="100"/>
       <c r="G136" s="32" t="s">
         <v>113</v>
       </c>
@@ -14912,7 +15112,7 @@
       </c>
       <c r="L136" s="11"/>
     </row>
-    <row r="137" spans="1:12" ht="31.5">
+    <row r="137" spans="1:12" ht="30">
       <c r="A137" s="12">
         <v>132</v>
       </c>
@@ -14924,7 +15124,7 @@
       <c r="E137" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F137" s="98"/>
+      <c r="F137" s="100"/>
       <c r="G137" s="32" t="s">
         <v>114</v>
       </c>
@@ -14940,7 +15140,7 @@
       </c>
       <c r="L137" s="11"/>
     </row>
-    <row r="138" spans="1:12" ht="31.5">
+    <row r="138" spans="1:12" ht="30">
       <c r="A138" s="12">
         <v>133</v>
       </c>
@@ -14952,7 +15152,7 @@
       <c r="E138" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F138" s="98"/>
+      <c r="F138" s="100"/>
       <c r="G138" s="32" t="s">
         <v>111</v>
       </c>
@@ -14968,7 +15168,7 @@
       </c>
       <c r="L138" s="11"/>
     </row>
-    <row r="139" spans="1:12" ht="31.5">
+    <row r="139" spans="1:12" ht="30">
       <c r="A139" s="12">
         <v>134</v>
       </c>
@@ -14980,7 +15180,7 @@
       <c r="E139" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F139" s="98"/>
+      <c r="F139" s="100"/>
       <c r="G139" s="32" t="s">
         <v>115</v>
       </c>
@@ -14996,7 +15196,7 @@
       </c>
       <c r="L139" s="11"/>
     </row>
-    <row r="140" spans="1:12" ht="31.5">
+    <row r="140" spans="1:12" ht="30">
       <c r="A140" s="12">
         <v>135</v>
       </c>
@@ -15008,7 +15208,7 @@
       <c r="E140" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F140" s="98"/>
+      <c r="F140" s="100"/>
       <c r="G140" s="32" t="s">
         <v>430</v>
       </c>
@@ -15024,7 +15224,7 @@
       </c>
       <c r="L140" s="11"/>
     </row>
-    <row r="141" spans="1:12" ht="31.5">
+    <row r="141" spans="1:12" ht="30">
       <c r="A141" s="12">
         <v>136</v>
       </c>
@@ -15036,7 +15236,7 @@
       <c r="E141" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F141" s="98"/>
+      <c r="F141" s="100"/>
       <c r="G141" s="32" t="s">
         <v>431</v>
       </c>
@@ -15052,7 +15252,7 @@
       </c>
       <c r="L141" s="11"/>
     </row>
-    <row r="142" spans="1:12" ht="31.5">
+    <row r="142" spans="1:12" ht="30">
       <c r="A142" s="12">
         <v>137</v>
       </c>
@@ -15064,7 +15264,7 @@
       <c r="E142" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F142" s="98"/>
+      <c r="F142" s="100"/>
       <c r="G142" s="32" t="s">
         <v>432</v>
       </c>
@@ -15080,7 +15280,7 @@
       </c>
       <c r="L142" s="11"/>
     </row>
-    <row r="143" spans="1:12" ht="31.5">
+    <row r="143" spans="1:12" ht="30">
       <c r="A143" s="12">
         <v>138</v>
       </c>
@@ -15092,7 +15292,7 @@
       <c r="E143" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F143" s="98"/>
+      <c r="F143" s="100"/>
       <c r="G143" s="32" t="s">
         <v>433</v>
       </c>
@@ -15108,7 +15308,7 @@
       </c>
       <c r="L143" s="11"/>
     </row>
-    <row r="144" spans="1:12" ht="31.5">
+    <row r="144" spans="1:12" ht="30">
       <c r="A144" s="12">
         <v>139</v>
       </c>
@@ -15120,7 +15320,7 @@
       <c r="E144" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F144" s="98"/>
+      <c r="F144" s="100"/>
       <c r="G144" s="32" t="s">
         <v>116</v>
       </c>
@@ -15136,7 +15336,7 @@
       </c>
       <c r="L144" s="11"/>
     </row>
-    <row r="145" spans="1:12" ht="31.5">
+    <row r="145" spans="1:12" ht="30">
       <c r="A145" s="12">
         <v>140</v>
       </c>
@@ -15148,7 +15348,7 @@
       <c r="E145" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F145" s="98"/>
+      <c r="F145" s="100"/>
       <c r="G145" s="31" t="s">
         <v>347</v>
       </c>
@@ -15164,7 +15364,7 @@
       </c>
       <c r="L145" s="11"/>
     </row>
-    <row r="146" spans="1:12" ht="31.5">
+    <row r="146" spans="1:12" ht="30">
       <c r="A146" s="12">
         <v>141</v>
       </c>
@@ -15176,7 +15376,7 @@
       <c r="E146" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F146" s="99"/>
+      <c r="F146" s="101"/>
       <c r="G146" s="31" t="s">
         <v>348</v>
       </c>
@@ -15192,7 +15392,7 @@
       </c>
       <c r="L146" s="11"/>
     </row>
-    <row r="147" spans="1:12" ht="31.5">
+    <row r="147" spans="1:12" ht="30">
       <c r="A147" s="12">
         <v>142</v>
       </c>
@@ -15208,7 +15408,7 @@
       <c r="E147" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F147" s="97" t="s">
+      <c r="F147" s="99" t="s">
         <v>350</v>
       </c>
       <c r="G147" s="31" t="s">
@@ -15226,7 +15426,7 @@
       </c>
       <c r="L147" s="11"/>
     </row>
-    <row r="148" spans="1:12" ht="31.5">
+    <row r="148" spans="1:12" ht="30">
       <c r="A148" s="12">
         <v>143</v>
       </c>
@@ -15238,7 +15438,7 @@
       <c r="E148" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F148" s="98"/>
+      <c r="F148" s="100"/>
       <c r="G148" s="31" t="s">
         <v>352</v>
       </c>
@@ -15254,7 +15454,7 @@
       </c>
       <c r="L148" s="11"/>
     </row>
-    <row r="149" spans="1:12" ht="31.5">
+    <row r="149" spans="1:12" ht="30">
       <c r="A149" s="12">
         <v>144</v>
       </c>
@@ -15266,7 +15466,7 @@
       <c r="E149" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F149" s="99"/>
+      <c r="F149" s="101"/>
       <c r="G149" s="32" t="s">
         <v>302</v>
       </c>
@@ -15295,13 +15495,13 @@
       <c r="D150" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E150" s="110" t="s">
+      <c r="E150" s="102" t="s">
         <v>55</v>
       </c>
-      <c r="F150" s="97" t="s">
+      <c r="F150" s="99" t="s">
         <v>357</v>
       </c>
-      <c r="G150" s="100" t="s">
+      <c r="G150" s="105" t="s">
         <v>358</v>
       </c>
       <c r="H150" s="68">
@@ -15325,9 +15525,9 @@
       <c r="D151" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E151" s="111"/>
-      <c r="F151" s="98"/>
-      <c r="G151" s="101"/>
+      <c r="E151" s="103"/>
+      <c r="F151" s="100"/>
+      <c r="G151" s="106"/>
       <c r="H151" s="68">
         <v>44435</v>
       </c>
@@ -15349,9 +15549,9 @@
       <c r="D152" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E152" s="111"/>
-      <c r="F152" s="98"/>
-      <c r="G152" s="101"/>
+      <c r="E152" s="103"/>
+      <c r="F152" s="100"/>
+      <c r="G152" s="106"/>
       <c r="H152" s="68">
         <v>44435</v>
       </c>
@@ -15373,9 +15573,9 @@
       <c r="D153" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E153" s="111"/>
-      <c r="F153" s="98"/>
-      <c r="G153" s="101"/>
+      <c r="E153" s="103"/>
+      <c r="F153" s="100"/>
+      <c r="G153" s="106"/>
       <c r="H153" s="68">
         <v>44435</v>
       </c>
@@ -15397,9 +15597,9 @@
       <c r="D154" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E154" s="111"/>
-      <c r="F154" s="98"/>
-      <c r="G154" s="101"/>
+      <c r="E154" s="103"/>
+      <c r="F154" s="100"/>
+      <c r="G154" s="106"/>
       <c r="H154" s="68">
         <v>44435</v>
       </c>
@@ -15421,9 +15621,9 @@
       <c r="D155" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E155" s="111"/>
-      <c r="F155" s="98"/>
-      <c r="G155" s="101"/>
+      <c r="E155" s="103"/>
+      <c r="F155" s="100"/>
+      <c r="G155" s="106"/>
       <c r="H155" s="68">
         <v>44435</v>
       </c>
@@ -15445,9 +15645,9 @@
       <c r="D156" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E156" s="111"/>
-      <c r="F156" s="98"/>
-      <c r="G156" s="101"/>
+      <c r="E156" s="103"/>
+      <c r="F156" s="100"/>
+      <c r="G156" s="106"/>
       <c r="H156" s="68">
         <v>44435</v>
       </c>
@@ -15469,9 +15669,9 @@
       <c r="D157" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E157" s="111"/>
-      <c r="F157" s="98"/>
-      <c r="G157" s="101"/>
+      <c r="E157" s="103"/>
+      <c r="F157" s="100"/>
+      <c r="G157" s="106"/>
       <c r="H157" s="68">
         <v>44435</v>
       </c>
@@ -15493,9 +15693,9 @@
       <c r="D158" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E158" s="111"/>
-      <c r="F158" s="98"/>
-      <c r="G158" s="101"/>
+      <c r="E158" s="103"/>
+      <c r="F158" s="100"/>
+      <c r="G158" s="106"/>
       <c r="H158" s="68">
         <v>44435</v>
       </c>
@@ -15517,9 +15717,9 @@
       <c r="D159" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E159" s="111"/>
-      <c r="F159" s="98"/>
-      <c r="G159" s="101"/>
+      <c r="E159" s="103"/>
+      <c r="F159" s="100"/>
+      <c r="G159" s="106"/>
       <c r="H159" s="68">
         <v>44435</v>
       </c>
@@ -15541,9 +15741,9 @@
       <c r="D160" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E160" s="111"/>
-      <c r="F160" s="98"/>
-      <c r="G160" s="101"/>
+      <c r="E160" s="103"/>
+      <c r="F160" s="100"/>
+      <c r="G160" s="106"/>
       <c r="H160" s="68">
         <v>44435</v>
       </c>
@@ -15565,9 +15765,9 @@
       <c r="D161" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="E161" s="111"/>
-      <c r="F161" s="98"/>
-      <c r="G161" s="102"/>
+      <c r="E161" s="103"/>
+      <c r="F161" s="100"/>
+      <c r="G161" s="107"/>
       <c r="H161" s="68">
         <v>44435</v>
       </c>
@@ -15580,7 +15780,7 @@
       </c>
       <c r="L161" s="11"/>
     </row>
-    <row r="162" spans="1:12" ht="15.75">
+    <row r="162" spans="1:12" ht="15">
       <c r="A162" s="12">
         <v>157</v>
       </c>
@@ -15589,8 +15789,8 @@
       <c r="D162" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="E162" s="111"/>
-      <c r="F162" s="98"/>
+      <c r="E162" s="103"/>
+      <c r="F162" s="100"/>
       <c r="G162" s="31" t="s">
         <v>359</v>
       </c>
@@ -15606,7 +15806,7 @@
       </c>
       <c r="L162" s="11"/>
     </row>
-    <row r="163" spans="1:12" ht="31.5">
+    <row r="163" spans="1:12" ht="30">
       <c r="A163" s="12">
         <v>158</v>
       </c>
@@ -15615,8 +15815,8 @@
       <c r="D163" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="E163" s="112"/>
-      <c r="F163" s="99"/>
+      <c r="E163" s="104"/>
+      <c r="F163" s="101"/>
       <c r="G163" s="31" t="s">
         <v>360</v>
       </c>
@@ -15632,7 +15832,7 @@
       </c>
       <c r="L163" s="11"/>
     </row>
-    <row r="164" spans="1:12" ht="47.25">
+    <row r="164" spans="1:12" ht="45">
       <c r="A164" s="12">
         <v>159</v>
       </c>
@@ -15794,6 +15994,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="E73:E84"/>
+    <mergeCell ref="F73:F84"/>
+    <mergeCell ref="E86:E89"/>
+    <mergeCell ref="F86:F89"/>
+    <mergeCell ref="E90:E92"/>
+    <mergeCell ref="F90:F94"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="G12:G23"/>
+    <mergeCell ref="G38:G42"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="E59:E71"/>
+    <mergeCell ref="F57:F71"/>
     <mergeCell ref="E97:E108"/>
     <mergeCell ref="F97:F108"/>
     <mergeCell ref="E150:E163"/>
@@ -15802,18 +16014,6 @@
     <mergeCell ref="G110:G121"/>
     <mergeCell ref="F132:F146"/>
     <mergeCell ref="F147:F149"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="G12:G23"/>
-    <mergeCell ref="G38:G42"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="E59:E71"/>
-    <mergeCell ref="F57:F71"/>
-    <mergeCell ref="E73:E84"/>
-    <mergeCell ref="F73:F84"/>
-    <mergeCell ref="E86:E89"/>
-    <mergeCell ref="F86:F89"/>
-    <mergeCell ref="E90:E92"/>
-    <mergeCell ref="F90:F94"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -15824,34 +16024,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9E524B-C67B-4990-A5C3-077E8DAB7E38}">
-  <dimension ref="A1:L362"/>
+  <dimension ref="A1:L364"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D235" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I146" sqref="I146"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A233" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C235" sqref="C235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="71" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="35.625" style="38" customWidth="1"/>
-    <col min="6" max="6" width="42.625" style="38" customWidth="1"/>
-    <col min="7" max="7" width="10.625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="10.625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="27.75" style="50" customWidth="1"/>
-    <col min="10" max="10" width="15.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" style="71" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="35.6640625" style="38" customWidth="1"/>
+    <col min="6" max="6" width="42.6640625" style="38" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="27.77734375" style="50" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" style="4" customWidth="1"/>
     <col min="13" max="16384" width="7" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="108" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="115"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="118"/>
       <c r="D1" s="53" t="s">
         <v>2</v>
       </c>
@@ -15874,9 +16074,9 @@
       <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A2" s="105"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="116"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="119"/>
       <c r="D2" s="53" t="s">
         <v>3</v>
       </c>
@@ -15943,7 +16143,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="47.25">
+    <row r="5" spans="1:11" ht="45">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -15974,7 +16174,7 @@
       </c>
       <c r="K5" s="9"/>
     </row>
-    <row r="6" spans="1:11" ht="31.5">
+    <row r="6" spans="1:11" ht="30">
       <c r="A6" s="12">
         <v>2</v>
       </c>
@@ -16005,7 +16205,7 @@
       </c>
       <c r="K6" s="22"/>
     </row>
-    <row r="7" spans="1:11" ht="31.5">
+    <row r="7" spans="1:11" ht="30">
       <c r="A7" s="12">
         <v>3</v>
       </c>
@@ -16034,7 +16234,7 @@
       </c>
       <c r="K7" s="22"/>
     </row>
-    <row r="8" spans="1:11" s="24" customFormat="1" ht="31.5">
+    <row r="8" spans="1:11" s="24" customFormat="1" ht="30">
       <c r="A8" s="12">
         <v>4</v>
       </c>
@@ -16044,13 +16244,13 @@
       <c r="C8" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="100" t="s">
+      <c r="D8" s="105" t="s">
         <v>204</v>
       </c>
       <c r="E8" s="80" t="s">
         <v>161</v>
       </c>
-      <c r="F8" s="100" t="s">
+      <c r="F8" s="105" t="s">
         <v>202</v>
       </c>
       <c r="G8" s="60">
@@ -16063,18 +16263,18 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="24" customFormat="1" ht="31.5">
+    <row r="9" spans="1:11" s="24" customFormat="1" ht="30">
       <c r="A9" s="12">
         <v>5</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="101"/>
+      <c r="D9" s="106"/>
       <c r="E9" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="F9" s="101"/>
+      <c r="F9" s="106"/>
       <c r="G9" s="60">
         <v>44369</v>
       </c>
@@ -16085,18 +16285,18 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="24" customFormat="1" ht="31.5">
+    <row r="10" spans="1:11" s="24" customFormat="1" ht="30">
       <c r="A10" s="12">
         <v>6</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="101"/>
+      <c r="D10" s="106"/>
       <c r="E10" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="101"/>
+      <c r="F10" s="106"/>
       <c r="G10" s="60">
         <v>44369</v>
       </c>
@@ -16107,18 +16307,18 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="24" customFormat="1" ht="31.5">
+    <row r="11" spans="1:11" s="24" customFormat="1" ht="30">
       <c r="A11" s="12">
         <v>7</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="101"/>
+      <c r="D11" s="106"/>
       <c r="E11" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="101"/>
+      <c r="F11" s="106"/>
       <c r="G11" s="60">
         <v>44369</v>
       </c>
@@ -16129,18 +16329,18 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="24" customFormat="1" ht="47.25">
+    <row r="12" spans="1:11" s="24" customFormat="1" ht="45">
       <c r="A12" s="12">
         <v>8</v>
       </c>
       <c r="C12" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="101"/>
+      <c r="D12" s="106"/>
       <c r="E12" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="101"/>
+      <c r="F12" s="106"/>
       <c r="G12" s="60">
         <v>44369</v>
       </c>
@@ -16151,18 +16351,18 @@
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="24" customFormat="1" ht="31.5">
+    <row r="13" spans="1:11" s="24" customFormat="1" ht="30">
       <c r="A13" s="12">
         <v>9</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="101"/>
+      <c r="D13" s="106"/>
       <c r="E13" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="101"/>
+      <c r="F13" s="106"/>
       <c r="G13" s="60">
         <v>44369</v>
       </c>
@@ -16173,18 +16373,18 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="24" customFormat="1" ht="47.25">
+    <row r="14" spans="1:11" s="24" customFormat="1" ht="45">
       <c r="A14" s="12">
         <v>10</v>
       </c>
       <c r="C14" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="101"/>
+      <c r="D14" s="106"/>
       <c r="E14" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="101"/>
+      <c r="F14" s="106"/>
       <c r="G14" s="60">
         <v>44369</v>
       </c>
@@ -16195,18 +16395,18 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="24" customFormat="1" ht="31.5">
+    <row r="15" spans="1:11" s="24" customFormat="1" ht="30">
       <c r="A15" s="12">
         <v>11</v>
       </c>
       <c r="C15" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="101"/>
+      <c r="D15" s="106"/>
       <c r="E15" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="101"/>
+      <c r="F15" s="106"/>
       <c r="G15" s="60">
         <v>44369</v>
       </c>
@@ -16217,18 +16417,18 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="24" customFormat="1" ht="31.5">
+    <row r="16" spans="1:11" s="24" customFormat="1" ht="45">
       <c r="A16" s="12">
         <v>12</v>
       </c>
       <c r="C16" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="101"/>
+      <c r="D16" s="106"/>
       <c r="E16" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="101"/>
+      <c r="F16" s="106"/>
       <c r="G16" s="60">
         <v>44369</v>
       </c>
@@ -16239,18 +16439,18 @@
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="24" customFormat="1" ht="47.25">
+    <row r="17" spans="1:11" s="24" customFormat="1" ht="45">
       <c r="A17" s="12">
         <v>13</v>
       </c>
       <c r="C17" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="101"/>
+      <c r="D17" s="106"/>
       <c r="E17" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="101"/>
+      <c r="F17" s="106"/>
       <c r="G17" s="60">
         <v>44369</v>
       </c>
@@ -16261,18 +16461,18 @@
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="24" customFormat="1" ht="47.25">
+    <row r="18" spans="1:11" s="24" customFormat="1" ht="45">
       <c r="A18" s="12">
         <v>14</v>
       </c>
       <c r="C18" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="101"/>
+      <c r="D18" s="106"/>
       <c r="E18" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="101"/>
+      <c r="F18" s="106"/>
       <c r="G18" s="60">
         <v>44369</v>
       </c>
@@ -16283,18 +16483,18 @@
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="24" customFormat="1" ht="47.25">
+    <row r="19" spans="1:11" s="24" customFormat="1" ht="45">
       <c r="A19" s="12">
         <v>15</v>
       </c>
       <c r="C19" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="102"/>
+      <c r="D19" s="107"/>
       <c r="E19" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="102"/>
+      <c r="F19" s="107"/>
       <c r="G19" s="60">
         <v>44369</v>
       </c>
@@ -16305,7 +16505,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75">
+    <row r="20" spans="1:11" ht="15">
       <c r="A20" s="12">
         <v>16</v>
       </c>
@@ -16315,13 +16515,13 @@
       <c r="C20" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="100" t="s">
+      <c r="D20" s="105" t="s">
         <v>203</v>
       </c>
       <c r="E20" s="120" t="s">
         <v>201</v>
       </c>
-      <c r="F20" s="100" t="s">
+      <c r="F20" s="105" t="s">
         <v>188</v>
       </c>
       <c r="G20" s="60">
@@ -16336,7 +16536,7 @@
       </c>
       <c r="K20" s="22"/>
     </row>
-    <row r="21" spans="1:11" ht="15.75">
+    <row r="21" spans="1:11" ht="15">
       <c r="A21" s="12">
         <v>17</v>
       </c>
@@ -16344,9 +16544,9 @@
       <c r="C21" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="101"/>
+      <c r="D21" s="106"/>
       <c r="E21" s="121"/>
-      <c r="F21" s="101"/>
+      <c r="F21" s="106"/>
       <c r="G21" s="60">
         <v>44369</v>
       </c>
@@ -16359,7 +16559,7 @@
       </c>
       <c r="K21" s="22"/>
     </row>
-    <row r="22" spans="1:11" ht="15.75">
+    <row r="22" spans="1:11" ht="15">
       <c r="A22" s="12">
         <v>18</v>
       </c>
@@ -16367,9 +16567,9 @@
       <c r="C22" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="101"/>
+      <c r="D22" s="106"/>
       <c r="E22" s="121"/>
-      <c r="F22" s="101"/>
+      <c r="F22" s="106"/>
       <c r="G22" s="60">
         <v>44369</v>
       </c>
@@ -16382,7 +16582,7 @@
       </c>
       <c r="K22" s="22"/>
     </row>
-    <row r="23" spans="1:11" ht="15.75">
+    <row r="23" spans="1:11" ht="15">
       <c r="A23" s="12">
         <v>19</v>
       </c>
@@ -16390,9 +16590,9 @@
       <c r="C23" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="101"/>
+      <c r="D23" s="106"/>
       <c r="E23" s="121"/>
-      <c r="F23" s="101"/>
+      <c r="F23" s="106"/>
       <c r="G23" s="60">
         <v>44369</v>
       </c>
@@ -16405,7 +16605,7 @@
       </c>
       <c r="K23" s="22"/>
     </row>
-    <row r="24" spans="1:11" ht="15.75">
+    <row r="24" spans="1:11" ht="15">
       <c r="A24" s="12">
         <v>20</v>
       </c>
@@ -16413,9 +16613,9 @@
       <c r="C24" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="101"/>
+      <c r="D24" s="106"/>
       <c r="E24" s="121"/>
-      <c r="F24" s="102"/>
+      <c r="F24" s="107"/>
       <c r="G24" s="60">
         <v>44369</v>
       </c>
@@ -16428,7 +16628,7 @@
       </c>
       <c r="K24" s="11"/>
     </row>
-    <row r="25" spans="1:11" ht="31.5">
+    <row r="25" spans="1:11" ht="30">
       <c r="A25" s="12">
         <v>21</v>
       </c>
@@ -16436,7 +16636,7 @@
       <c r="C25" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="101"/>
+      <c r="D25" s="106"/>
       <c r="E25" s="121"/>
       <c r="F25" s="31" t="s">
         <v>186</v>
@@ -16453,7 +16653,7 @@
       </c>
       <c r="K25" s="11"/>
     </row>
-    <row r="26" spans="1:11" ht="15.75">
+    <row r="26" spans="1:11" ht="15">
       <c r="A26" s="12">
         <v>22</v>
       </c>
@@ -16461,9 +16661,9 @@
       <c r="C26" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="101"/>
+      <c r="D26" s="106"/>
       <c r="E26" s="121"/>
-      <c r="F26" s="100" t="s">
+      <c r="F26" s="105" t="s">
         <v>187</v>
       </c>
       <c r="G26" s="60">
@@ -16478,7 +16678,7 @@
       </c>
       <c r="K26" s="11"/>
     </row>
-    <row r="27" spans="1:11" ht="15.75">
+    <row r="27" spans="1:11" ht="15">
       <c r="A27" s="12">
         <v>23</v>
       </c>
@@ -16486,9 +16686,9 @@
       <c r="C27" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="101"/>
+      <c r="D27" s="106"/>
       <c r="E27" s="121"/>
-      <c r="F27" s="101"/>
+      <c r="F27" s="106"/>
       <c r="G27" s="60">
         <v>44369</v>
       </c>
@@ -16501,7 +16701,7 @@
       </c>
       <c r="K27" s="11"/>
     </row>
-    <row r="28" spans="1:11" ht="15.75">
+    <row r="28" spans="1:11" ht="15">
       <c r="A28" s="12">
         <v>24</v>
       </c>
@@ -16509,9 +16709,9 @@
       <c r="C28" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="101"/>
+      <c r="D28" s="106"/>
       <c r="E28" s="121"/>
-      <c r="F28" s="101"/>
+      <c r="F28" s="106"/>
       <c r="G28" s="60">
         <v>44369</v>
       </c>
@@ -16524,7 +16724,7 @@
       </c>
       <c r="K28" s="11"/>
     </row>
-    <row r="29" spans="1:11" ht="15.75">
+    <row r="29" spans="1:11" ht="15">
       <c r="A29" s="12">
         <v>25</v>
       </c>
@@ -16532,9 +16732,9 @@
       <c r="C29" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="101"/>
+      <c r="D29" s="106"/>
       <c r="E29" s="121"/>
-      <c r="F29" s="101"/>
+      <c r="F29" s="106"/>
       <c r="G29" s="60">
         <v>44369</v>
       </c>
@@ -16547,7 +16747,7 @@
       </c>
       <c r="K29" s="11"/>
     </row>
-    <row r="30" spans="1:11" ht="15.75">
+    <row r="30" spans="1:11" ht="15">
       <c r="A30" s="12">
         <v>26</v>
       </c>
@@ -16555,9 +16755,9 @@
       <c r="C30" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="101"/>
+      <c r="D30" s="106"/>
       <c r="E30" s="121"/>
-      <c r="F30" s="101"/>
+      <c r="F30" s="106"/>
       <c r="G30" s="60">
         <v>44369</v>
       </c>
@@ -16570,7 +16770,7 @@
       </c>
       <c r="K30" s="11"/>
     </row>
-    <row r="31" spans="1:11" ht="15.75">
+    <row r="31" spans="1:11" ht="15">
       <c r="A31" s="12">
         <v>27</v>
       </c>
@@ -16578,9 +16778,9 @@
       <c r="C31" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="102"/>
+      <c r="D31" s="107"/>
       <c r="E31" s="122"/>
-      <c r="F31" s="102"/>
+      <c r="F31" s="107"/>
       <c r="G31" s="60">
         <v>44369</v>
       </c>
@@ -16593,7 +16793,7 @@
       </c>
       <c r="K31" s="11"/>
     </row>
-    <row r="32" spans="1:11" ht="94.5">
+    <row r="32" spans="1:11" ht="105">
       <c r="A32" s="12">
         <v>28</v>
       </c>
@@ -16603,7 +16803,7 @@
       <c r="C32" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="100" t="s">
+      <c r="D32" s="105" t="s">
         <v>219</v>
       </c>
       <c r="E32" s="31" t="s">
@@ -16624,7 +16824,7 @@
       </c>
       <c r="K32" s="11"/>
     </row>
-    <row r="33" spans="1:11" ht="94.5">
+    <row r="33" spans="1:11" ht="105">
       <c r="A33" s="12">
         <v>29</v>
       </c>
@@ -16632,7 +16832,7 @@
       <c r="C33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="101"/>
+      <c r="D33" s="106"/>
       <c r="E33" s="31" t="s">
         <v>168</v>
       </c>
@@ -16651,7 +16851,7 @@
       </c>
       <c r="K33" s="11"/>
     </row>
-    <row r="34" spans="1:11" ht="94.5">
+    <row r="34" spans="1:11" ht="105">
       <c r="A34" s="12">
         <v>30</v>
       </c>
@@ -16659,7 +16859,7 @@
       <c r="C34" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="101"/>
+      <c r="D34" s="106"/>
       <c r="E34" s="31" t="s">
         <v>169</v>
       </c>
@@ -16678,7 +16878,7 @@
       </c>
       <c r="K34" s="11"/>
     </row>
-    <row r="35" spans="1:11" ht="94.5">
+    <row r="35" spans="1:11" ht="105">
       <c r="A35" s="12">
         <v>31</v>
       </c>
@@ -16686,7 +16886,7 @@
       <c r="C35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="101"/>
+      <c r="D35" s="106"/>
       <c r="E35" s="31" t="s">
         <v>169</v>
       </c>
@@ -16705,7 +16905,7 @@
       </c>
       <c r="K35" s="11"/>
     </row>
-    <row r="36" spans="1:11" ht="126">
+    <row r="36" spans="1:11" ht="135">
       <c r="A36" s="12">
         <v>32</v>
       </c>
@@ -16713,7 +16913,7 @@
       <c r="C36" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="101"/>
+      <c r="D36" s="106"/>
       <c r="E36" s="31" t="s">
         <v>170</v>
       </c>
@@ -16732,7 +16932,7 @@
       </c>
       <c r="K36" s="11"/>
     </row>
-    <row r="37" spans="1:11" ht="78.75">
+    <row r="37" spans="1:11" ht="90">
       <c r="A37" s="12">
         <v>33</v>
       </c>
@@ -16740,7 +16940,7 @@
       <c r="C37" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="101"/>
+      <c r="D37" s="106"/>
       <c r="E37" s="31" t="s">
         <v>171</v>
       </c>
@@ -16759,7 +16959,7 @@
       </c>
       <c r="K37" s="11"/>
     </row>
-    <row r="38" spans="1:11" ht="94.5">
+    <row r="38" spans="1:11" ht="105">
       <c r="A38" s="12">
         <v>34</v>
       </c>
@@ -16767,7 +16967,7 @@
       <c r="C38" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="101"/>
+      <c r="D38" s="106"/>
       <c r="E38" s="31" t="s">
         <v>172</v>
       </c>
@@ -16786,7 +16986,7 @@
       </c>
       <c r="K38" s="11"/>
     </row>
-    <row r="39" spans="1:11" ht="31.5">
+    <row r="39" spans="1:11" ht="45">
       <c r="A39" s="12">
         <v>35</v>
       </c>
@@ -16794,7 +16994,7 @@
       <c r="C39" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="101"/>
+      <c r="D39" s="106"/>
       <c r="E39" s="31" t="s">
         <v>173</v>
       </c>
@@ -16813,7 +17013,7 @@
       </c>
       <c r="K39" s="11"/>
     </row>
-    <row r="40" spans="1:11" ht="110.25">
+    <row r="40" spans="1:11" ht="120">
       <c r="A40" s="12">
         <v>36</v>
       </c>
@@ -16821,7 +17021,7 @@
       <c r="C40" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="101"/>
+      <c r="D40" s="106"/>
       <c r="E40" s="31" t="s">
         <v>174</v>
       </c>
@@ -16840,7 +17040,7 @@
       </c>
       <c r="K40" s="11"/>
     </row>
-    <row r="41" spans="1:11" ht="126">
+    <row r="41" spans="1:11" ht="135">
       <c r="A41" s="12">
         <v>37</v>
       </c>
@@ -16848,7 +17048,7 @@
       <c r="C41" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="102"/>
+      <c r="D41" s="107"/>
       <c r="E41" s="31" t="s">
         <v>175</v>
       </c>
@@ -16877,13 +17077,13 @@
       <c r="C42" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="100" t="s">
+      <c r="D42" s="105" t="s">
         <v>207</v>
       </c>
-      <c r="E42" s="97" t="s">
+      <c r="E42" s="99" t="s">
         <v>223</v>
       </c>
-      <c r="F42" s="97" t="s">
+      <c r="F42" s="99" t="s">
         <v>206</v>
       </c>
       <c r="G42" s="60">
@@ -16898,7 +17098,7 @@
       </c>
       <c r="K42" s="11"/>
     </row>
-    <row r="43" spans="1:11" ht="15.75">
+    <row r="43" spans="1:11" ht="15">
       <c r="A43" s="12">
         <v>39</v>
       </c>
@@ -16906,9 +17106,9 @@
       <c r="C43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="111"/>
-      <c r="E43" s="98"/>
-      <c r="F43" s="98"/>
+      <c r="D43" s="103"/>
+      <c r="E43" s="100"/>
+      <c r="F43" s="100"/>
       <c r="G43" s="60">
         <v>44369</v>
       </c>
@@ -16921,7 +17121,7 @@
       </c>
       <c r="K43" s="11"/>
     </row>
-    <row r="44" spans="1:11" ht="15.75">
+    <row r="44" spans="1:11" ht="15">
       <c r="A44" s="12">
         <v>40</v>
       </c>
@@ -16929,9 +17129,9 @@
       <c r="C44" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="111"/>
-      <c r="E44" s="98"/>
-      <c r="F44" s="98"/>
+      <c r="D44" s="103"/>
+      <c r="E44" s="100"/>
+      <c r="F44" s="100"/>
       <c r="G44" s="60">
         <v>44369</v>
       </c>
@@ -16944,7 +17144,7 @@
       </c>
       <c r="K44" s="11"/>
     </row>
-    <row r="45" spans="1:11" ht="15.75">
+    <row r="45" spans="1:11" ht="15">
       <c r="A45" s="12">
         <v>41</v>
       </c>
@@ -16952,9 +17152,9 @@
       <c r="C45" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="111"/>
-      <c r="E45" s="98"/>
-      <c r="F45" s="98"/>
+      <c r="D45" s="103"/>
+      <c r="E45" s="100"/>
+      <c r="F45" s="100"/>
       <c r="G45" s="60">
         <v>44369</v>
       </c>
@@ -16967,7 +17167,7 @@
       </c>
       <c r="K45" s="11"/>
     </row>
-    <row r="46" spans="1:11" ht="15.75">
+    <row r="46" spans="1:11" ht="15">
       <c r="A46" s="12">
         <v>42</v>
       </c>
@@ -16975,9 +17175,9 @@
       <c r="C46" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="111"/>
-      <c r="E46" s="98"/>
-      <c r="F46" s="98"/>
+      <c r="D46" s="103"/>
+      <c r="E46" s="100"/>
+      <c r="F46" s="100"/>
       <c r="G46" s="60">
         <v>44369</v>
       </c>
@@ -16990,7 +17190,7 @@
       </c>
       <c r="K46" s="11"/>
     </row>
-    <row r="47" spans="1:11" ht="15.75">
+    <row r="47" spans="1:11" ht="15">
       <c r="A47" s="12">
         <v>43</v>
       </c>
@@ -16998,9 +17198,9 @@
       <c r="C47" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="111"/>
-      <c r="E47" s="98"/>
-      <c r="F47" s="98"/>
+      <c r="D47" s="103"/>
+      <c r="E47" s="100"/>
+      <c r="F47" s="100"/>
       <c r="G47" s="60">
         <v>44369</v>
       </c>
@@ -17013,7 +17213,7 @@
       </c>
       <c r="K47" s="11"/>
     </row>
-    <row r="48" spans="1:11" ht="15.75">
+    <row r="48" spans="1:11" ht="15">
       <c r="A48" s="12">
         <v>44</v>
       </c>
@@ -17021,9 +17221,9 @@
       <c r="C48" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="111"/>
-      <c r="E48" s="98"/>
-      <c r="F48" s="98"/>
+      <c r="D48" s="103"/>
+      <c r="E48" s="100"/>
+      <c r="F48" s="100"/>
       <c r="G48" s="60">
         <v>44369</v>
       </c>
@@ -17036,7 +17236,7 @@
       </c>
       <c r="K48" s="11"/>
     </row>
-    <row r="49" spans="1:11" ht="15.75">
+    <row r="49" spans="1:11" ht="15">
       <c r="A49" s="12">
         <v>45</v>
       </c>
@@ -17044,9 +17244,9 @@
       <c r="C49" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D49" s="111"/>
-      <c r="E49" s="98"/>
-      <c r="F49" s="98"/>
+      <c r="D49" s="103"/>
+      <c r="E49" s="100"/>
+      <c r="F49" s="100"/>
       <c r="G49" s="60">
         <v>44369</v>
       </c>
@@ -17059,7 +17259,7 @@
       </c>
       <c r="K49" s="11"/>
     </row>
-    <row r="50" spans="1:11" ht="15.75">
+    <row r="50" spans="1:11" ht="15">
       <c r="A50" s="12">
         <v>46</v>
       </c>
@@ -17067,9 +17267,9 @@
       <c r="C50" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="111"/>
-      <c r="E50" s="98"/>
-      <c r="F50" s="98"/>
+      <c r="D50" s="103"/>
+      <c r="E50" s="100"/>
+      <c r="F50" s="100"/>
       <c r="G50" s="60">
         <v>44369</v>
       </c>
@@ -17082,7 +17282,7 @@
       </c>
       <c r="K50" s="11"/>
     </row>
-    <row r="51" spans="1:11" ht="15.75">
+    <row r="51" spans="1:11" ht="15">
       <c r="A51" s="12">
         <v>47</v>
       </c>
@@ -17090,9 +17290,9 @@
       <c r="C51" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D51" s="111"/>
-      <c r="E51" s="98"/>
-      <c r="F51" s="98"/>
+      <c r="D51" s="103"/>
+      <c r="E51" s="100"/>
+      <c r="F51" s="100"/>
       <c r="G51" s="60">
         <v>44369</v>
       </c>
@@ -17105,7 +17305,7 @@
       </c>
       <c r="K51" s="11"/>
     </row>
-    <row r="52" spans="1:11" ht="29.45" customHeight="1">
+    <row r="52" spans="1:11" ht="29.4" customHeight="1">
       <c r="A52" s="12">
         <v>48</v>
       </c>
@@ -17113,9 +17313,9 @@
       <c r="C52" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="111"/>
-      <c r="E52" s="98"/>
-      <c r="F52" s="98"/>
+      <c r="D52" s="103"/>
+      <c r="E52" s="100"/>
+      <c r="F52" s="100"/>
       <c r="G52" s="60">
         <v>44369</v>
       </c>
@@ -17128,7 +17328,7 @@
       </c>
       <c r="K52" s="11"/>
     </row>
-    <row r="53" spans="1:11" ht="15.75">
+    <row r="53" spans="1:11" ht="15">
       <c r="A53" s="12">
         <v>49</v>
       </c>
@@ -17136,9 +17336,9 @@
       <c r="C53" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="112"/>
-      <c r="E53" s="99"/>
-      <c r="F53" s="99"/>
+      <c r="D53" s="104"/>
+      <c r="E53" s="101"/>
+      <c r="F53" s="101"/>
       <c r="G53" s="60">
         <v>44369</v>
       </c>
@@ -17161,13 +17361,13 @@
       <c r="C54" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="100" t="s">
+      <c r="D54" s="105" t="s">
         <v>205</v>
       </c>
-      <c r="E54" s="97" t="s">
+      <c r="E54" s="99" t="s">
         <v>223</v>
       </c>
-      <c r="F54" s="117" t="s">
+      <c r="F54" s="115" t="s">
         <v>178</v>
       </c>
       <c r="G54" s="60">
@@ -17182,7 +17382,7 @@
       </c>
       <c r="K54" s="11"/>
     </row>
-    <row r="55" spans="1:11" ht="15.75">
+    <row r="55" spans="1:11" ht="15">
       <c r="A55" s="12">
         <v>51</v>
       </c>
@@ -17190,9 +17390,9 @@
       <c r="C55" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="111"/>
-      <c r="E55" s="98"/>
-      <c r="F55" s="118"/>
+      <c r="D55" s="103"/>
+      <c r="E55" s="100"/>
+      <c r="F55" s="116"/>
       <c r="G55" s="60">
         <v>44369</v>
       </c>
@@ -17205,7 +17405,7 @@
       </c>
       <c r="K55" s="11"/>
     </row>
-    <row r="56" spans="1:11" ht="15.75">
+    <row r="56" spans="1:11" ht="15">
       <c r="A56" s="12">
         <v>52</v>
       </c>
@@ -17213,9 +17413,9 @@
       <c r="C56" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="111"/>
-      <c r="E56" s="98"/>
-      <c r="F56" s="118"/>
+      <c r="D56" s="103"/>
+      <c r="E56" s="100"/>
+      <c r="F56" s="116"/>
       <c r="G56" s="60">
         <v>44369</v>
       </c>
@@ -17228,7 +17428,7 @@
       </c>
       <c r="K56" s="11"/>
     </row>
-    <row r="57" spans="1:11" ht="15.75">
+    <row r="57" spans="1:11" ht="15">
       <c r="A57" s="12">
         <v>53</v>
       </c>
@@ -17236,9 +17436,9 @@
       <c r="C57" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="111"/>
-      <c r="E57" s="98"/>
-      <c r="F57" s="118"/>
+      <c r="D57" s="103"/>
+      <c r="E57" s="100"/>
+      <c r="F57" s="116"/>
       <c r="G57" s="60">
         <v>44369</v>
       </c>
@@ -17251,7 +17451,7 @@
       </c>
       <c r="K57" s="11"/>
     </row>
-    <row r="58" spans="1:11" ht="15.75">
+    <row r="58" spans="1:11" ht="15">
       <c r="A58" s="12">
         <v>54</v>
       </c>
@@ -17259,9 +17459,9 @@
       <c r="C58" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="111"/>
-      <c r="E58" s="98"/>
-      <c r="F58" s="118"/>
+      <c r="D58" s="103"/>
+      <c r="E58" s="100"/>
+      <c r="F58" s="116"/>
       <c r="G58" s="60">
         <v>44369</v>
       </c>
@@ -17274,7 +17474,7 @@
       </c>
       <c r="K58" s="11"/>
     </row>
-    <row r="59" spans="1:11" ht="15.75">
+    <row r="59" spans="1:11" ht="15">
       <c r="A59" s="12">
         <v>55</v>
       </c>
@@ -17282,9 +17482,9 @@
       <c r="C59" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D59" s="111"/>
-      <c r="E59" s="98"/>
-      <c r="F59" s="119"/>
+      <c r="D59" s="103"/>
+      <c r="E59" s="100"/>
+      <c r="F59" s="117"/>
       <c r="G59" s="60">
         <v>44369</v>
       </c>
@@ -17297,7 +17497,7 @@
       </c>
       <c r="K59" s="11"/>
     </row>
-    <row r="60" spans="1:11" ht="31.5">
+    <row r="60" spans="1:11" ht="45">
       <c r="A60" s="12">
         <v>56</v>
       </c>
@@ -17305,8 +17505,8 @@
       <c r="C60" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="111"/>
-      <c r="E60" s="98"/>
+      <c r="D60" s="103"/>
+      <c r="E60" s="100"/>
       <c r="F60" s="32" t="s">
         <v>179</v>
       </c>
@@ -17322,7 +17522,7 @@
       </c>
       <c r="K60" s="11"/>
     </row>
-    <row r="61" spans="1:11" ht="47.25">
+    <row r="61" spans="1:11" ht="45">
       <c r="A61" s="12">
         <v>57</v>
       </c>
@@ -17330,8 +17530,8 @@
       <c r="C61" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="111"/>
-      <c r="E61" s="98"/>
+      <c r="D61" s="103"/>
+      <c r="E61" s="100"/>
       <c r="F61" s="32" t="s">
         <v>182</v>
       </c>
@@ -17347,7 +17547,7 @@
       </c>
       <c r="K61" s="11"/>
     </row>
-    <row r="62" spans="1:11" ht="31.5">
+    <row r="62" spans="1:11" ht="45">
       <c r="A62" s="12">
         <v>58</v>
       </c>
@@ -17355,8 +17555,8 @@
       <c r="C62" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D62" s="111"/>
-      <c r="E62" s="98"/>
+      <c r="D62" s="103"/>
+      <c r="E62" s="100"/>
       <c r="F62" s="32" t="s">
         <v>181</v>
       </c>
@@ -17372,7 +17572,7 @@
       </c>
       <c r="K62" s="11"/>
     </row>
-    <row r="63" spans="1:11" ht="15.75">
+    <row r="63" spans="1:11" ht="15">
       <c r="A63" s="12">
         <v>59</v>
       </c>
@@ -17380,9 +17580,9 @@
       <c r="C63" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D63" s="111"/>
-      <c r="E63" s="98"/>
-      <c r="F63" s="117" t="s">
+      <c r="D63" s="103"/>
+      <c r="E63" s="100"/>
+      <c r="F63" s="115" t="s">
         <v>182</v>
       </c>
       <c r="G63" s="60">
@@ -17397,7 +17597,7 @@
       </c>
       <c r="K63" s="11"/>
     </row>
-    <row r="64" spans="1:11" ht="29.45" customHeight="1">
+    <row r="64" spans="1:11" ht="29.4" customHeight="1">
       <c r="A64" s="12">
         <v>60</v>
       </c>
@@ -17405,9 +17605,9 @@
       <c r="C64" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D64" s="111"/>
-      <c r="E64" s="98"/>
-      <c r="F64" s="119"/>
+      <c r="D64" s="103"/>
+      <c r="E64" s="100"/>
+      <c r="F64" s="117"/>
       <c r="G64" s="60">
         <v>44369</v>
       </c>
@@ -17420,7 +17620,7 @@
       </c>
       <c r="K64" s="11"/>
     </row>
-    <row r="65" spans="1:11" ht="31.5">
+    <row r="65" spans="1:11" ht="45">
       <c r="A65" s="12">
         <v>61</v>
       </c>
@@ -17428,8 +17628,8 @@
       <c r="C65" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D65" s="112"/>
-      <c r="E65" s="99"/>
+      <c r="D65" s="104"/>
+      <c r="E65" s="101"/>
       <c r="F65" s="32" t="s">
         <v>180</v>
       </c>
@@ -17455,13 +17655,13 @@
       <c r="C66" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="100" t="s">
+      <c r="D66" s="105" t="s">
         <v>221</v>
       </c>
-      <c r="E66" s="100" t="s">
+      <c r="E66" s="105" t="s">
         <v>163</v>
       </c>
-      <c r="F66" s="97" t="s">
+      <c r="F66" s="99" t="s">
         <v>164</v>
       </c>
       <c r="G66" s="60">
@@ -17476,7 +17676,7 @@
       </c>
       <c r="K66" s="11"/>
     </row>
-    <row r="67" spans="1:11" ht="15.75">
+    <row r="67" spans="1:11" ht="15">
       <c r="A67" s="12">
         <v>63</v>
       </c>
@@ -17484,9 +17684,9 @@
       <c r="C67" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="111"/>
-      <c r="E67" s="101"/>
-      <c r="F67" s="98"/>
+      <c r="D67" s="103"/>
+      <c r="E67" s="106"/>
+      <c r="F67" s="100"/>
       <c r="G67" s="60">
         <v>44369</v>
       </c>
@@ -17499,7 +17699,7 @@
       </c>
       <c r="K67" s="11"/>
     </row>
-    <row r="68" spans="1:11" ht="15.75">
+    <row r="68" spans="1:11" ht="15">
       <c r="A68" s="12">
         <v>64</v>
       </c>
@@ -17507,9 +17707,9 @@
       <c r="C68" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D68" s="111"/>
-      <c r="E68" s="101"/>
-      <c r="F68" s="98"/>
+      <c r="D68" s="103"/>
+      <c r="E68" s="106"/>
+      <c r="F68" s="100"/>
       <c r="G68" s="60">
         <v>44369</v>
       </c>
@@ -17522,7 +17722,7 @@
       </c>
       <c r="K68" s="11"/>
     </row>
-    <row r="69" spans="1:11" ht="15.75">
+    <row r="69" spans="1:11" ht="15">
       <c r="A69" s="12">
         <v>65</v>
       </c>
@@ -17530,9 +17730,9 @@
       <c r="C69" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D69" s="111"/>
-      <c r="E69" s="101"/>
-      <c r="F69" s="98"/>
+      <c r="D69" s="103"/>
+      <c r="E69" s="106"/>
+      <c r="F69" s="100"/>
       <c r="G69" s="60">
         <v>44369</v>
       </c>
@@ -17545,7 +17745,7 @@
       </c>
       <c r="K69" s="11"/>
     </row>
-    <row r="70" spans="1:11" ht="15.75">
+    <row r="70" spans="1:11" ht="15">
       <c r="A70" s="12">
         <v>66</v>
       </c>
@@ -17553,9 +17753,9 @@
       <c r="C70" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="111"/>
-      <c r="E70" s="101"/>
-      <c r="F70" s="98"/>
+      <c r="D70" s="103"/>
+      <c r="E70" s="106"/>
+      <c r="F70" s="100"/>
       <c r="G70" s="60">
         <v>44369</v>
       </c>
@@ -17568,7 +17768,7 @@
       </c>
       <c r="K70" s="11"/>
     </row>
-    <row r="71" spans="1:11" ht="15.75">
+    <row r="71" spans="1:11" ht="15">
       <c r="A71" s="12">
         <v>67</v>
       </c>
@@ -17576,9 +17776,9 @@
       <c r="C71" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D71" s="111"/>
-      <c r="E71" s="101"/>
-      <c r="F71" s="98"/>
+      <c r="D71" s="103"/>
+      <c r="E71" s="106"/>
+      <c r="F71" s="100"/>
       <c r="G71" s="60">
         <v>44369</v>
       </c>
@@ -17591,7 +17791,7 @@
       </c>
       <c r="K71" s="11"/>
     </row>
-    <row r="72" spans="1:11" ht="15.75">
+    <row r="72" spans="1:11" ht="15">
       <c r="A72" s="12">
         <v>68</v>
       </c>
@@ -17599,9 +17799,9 @@
       <c r="C72" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="111"/>
-      <c r="E72" s="101"/>
-      <c r="F72" s="98"/>
+      <c r="D72" s="103"/>
+      <c r="E72" s="106"/>
+      <c r="F72" s="100"/>
       <c r="G72" s="60">
         <v>44369</v>
       </c>
@@ -17614,7 +17814,7 @@
       </c>
       <c r="K72" s="11"/>
     </row>
-    <row r="73" spans="1:11" ht="15.75">
+    <row r="73" spans="1:11" ht="15">
       <c r="A73" s="12">
         <v>69</v>
       </c>
@@ -17622,9 +17822,9 @@
       <c r="C73" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="111"/>
-      <c r="E73" s="101"/>
-      <c r="F73" s="98"/>
+      <c r="D73" s="103"/>
+      <c r="E73" s="106"/>
+      <c r="F73" s="100"/>
       <c r="G73" s="60">
         <v>44369</v>
       </c>
@@ -17637,7 +17837,7 @@
       </c>
       <c r="K73" s="11"/>
     </row>
-    <row r="74" spans="1:11" ht="15.75">
+    <row r="74" spans="1:11" ht="15">
       <c r="A74" s="12">
         <v>70</v>
       </c>
@@ -17645,9 +17845,9 @@
       <c r="C74" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D74" s="111"/>
-      <c r="E74" s="101"/>
-      <c r="F74" s="98"/>
+      <c r="D74" s="103"/>
+      <c r="E74" s="106"/>
+      <c r="F74" s="100"/>
       <c r="G74" s="60">
         <v>44369</v>
       </c>
@@ -17660,7 +17860,7 @@
       </c>
       <c r="K74" s="11"/>
     </row>
-    <row r="75" spans="1:11" ht="15.75">
+    <row r="75" spans="1:11" ht="15">
       <c r="A75" s="12">
         <v>71</v>
       </c>
@@ -17668,9 +17868,9 @@
       <c r="C75" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="111"/>
-      <c r="E75" s="101"/>
-      <c r="F75" s="98"/>
+      <c r="D75" s="103"/>
+      <c r="E75" s="106"/>
+      <c r="F75" s="100"/>
       <c r="G75" s="60">
         <v>44369</v>
       </c>
@@ -17683,7 +17883,7 @@
       </c>
       <c r="K75" s="11"/>
     </row>
-    <row r="76" spans="1:11" ht="15.75">
+    <row r="76" spans="1:11" ht="15">
       <c r="A76" s="12">
         <v>72</v>
       </c>
@@ -17691,9 +17891,9 @@
       <c r="C76" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D76" s="111"/>
-      <c r="E76" s="101"/>
-      <c r="F76" s="98"/>
+      <c r="D76" s="103"/>
+      <c r="E76" s="106"/>
+      <c r="F76" s="100"/>
       <c r="G76" s="60">
         <v>44369</v>
       </c>
@@ -17706,7 +17906,7 @@
       </c>
       <c r="K76" s="11"/>
     </row>
-    <row r="77" spans="1:11" ht="15.75">
+    <row r="77" spans="1:11" ht="15">
       <c r="A77" s="12">
         <v>73</v>
       </c>
@@ -17714,9 +17914,9 @@
       <c r="C77" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D77" s="112"/>
-      <c r="E77" s="102"/>
-      <c r="F77" s="99"/>
+      <c r="D77" s="104"/>
+      <c r="E77" s="107"/>
+      <c r="F77" s="101"/>
       <c r="G77" s="60">
         <v>44369</v>
       </c>
@@ -17729,7 +17929,7 @@
       </c>
       <c r="K77" s="11"/>
     </row>
-    <row r="78" spans="1:11" ht="78.75">
+    <row r="78" spans="1:11" ht="75">
       <c r="A78" s="12">
         <v>74</v>
       </c>
@@ -17772,10 +17972,10 @@
       <c r="C79" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="D79" s="100" t="s">
+      <c r="D79" s="105" t="s">
         <v>222</v>
       </c>
-      <c r="E79" s="100" t="s">
+      <c r="E79" s="105" t="s">
         <v>237</v>
       </c>
       <c r="F79" s="32" t="s">
@@ -17793,7 +17993,7 @@
       </c>
       <c r="K79" s="11"/>
     </row>
-    <row r="80" spans="1:11" ht="47.25">
+    <row r="80" spans="1:11" ht="45">
       <c r="A80" s="12">
         <v>76</v>
       </c>
@@ -17801,8 +18001,8 @@
       <c r="C80" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D80" s="101"/>
-      <c r="E80" s="101"/>
+      <c r="D80" s="106"/>
+      <c r="E80" s="106"/>
       <c r="F80" s="32" t="s">
         <v>191</v>
       </c>
@@ -17818,7 +18018,7 @@
       </c>
       <c r="K80" s="11"/>
     </row>
-    <row r="81" spans="1:11" ht="47.25">
+    <row r="81" spans="1:11" ht="45">
       <c r="A81" s="12">
         <v>77</v>
       </c>
@@ -17826,8 +18026,8 @@
       <c r="C81" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D81" s="101"/>
-      <c r="E81" s="101"/>
+      <c r="D81" s="106"/>
+      <c r="E81" s="106"/>
       <c r="F81" s="32" t="s">
         <v>208</v>
       </c>
@@ -17843,7 +18043,7 @@
       </c>
       <c r="K81" s="11"/>
     </row>
-    <row r="82" spans="1:11" ht="47.25">
+    <row r="82" spans="1:11" ht="45">
       <c r="A82" s="12">
         <v>78</v>
       </c>
@@ -17851,8 +18051,8 @@
       <c r="C82" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D82" s="101"/>
-      <c r="E82" s="101"/>
+      <c r="D82" s="106"/>
+      <c r="E82" s="106"/>
       <c r="F82" s="32" t="s">
         <v>209</v>
       </c>
@@ -17868,7 +18068,7 @@
       </c>
       <c r="K82" s="11"/>
     </row>
-    <row r="83" spans="1:11" ht="47.25">
+    <row r="83" spans="1:11" ht="45">
       <c r="A83" s="12">
         <v>79</v>
       </c>
@@ -17876,8 +18076,8 @@
       <c r="C83" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D83" s="101"/>
-      <c r="E83" s="101"/>
+      <c r="D83" s="106"/>
+      <c r="E83" s="106"/>
       <c r="F83" s="32" t="s">
         <v>210</v>
       </c>
@@ -17893,7 +18093,7 @@
       </c>
       <c r="K83" s="11"/>
     </row>
-    <row r="84" spans="1:11" ht="47.25">
+    <row r="84" spans="1:11" ht="45">
       <c r="A84" s="12">
         <v>80</v>
       </c>
@@ -17901,8 +18101,8 @@
       <c r="C84" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D84" s="101"/>
-      <c r="E84" s="101"/>
+      <c r="D84" s="106"/>
+      <c r="E84" s="106"/>
       <c r="F84" s="32" t="s">
         <v>211</v>
       </c>
@@ -17918,7 +18118,7 @@
       </c>
       <c r="K84" s="11"/>
     </row>
-    <row r="85" spans="1:11" ht="47.25">
+    <row r="85" spans="1:11" ht="45">
       <c r="A85" s="12">
         <v>81</v>
       </c>
@@ -17926,8 +18126,8 @@
       <c r="C85" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D85" s="101"/>
-      <c r="E85" s="101"/>
+      <c r="D85" s="106"/>
+      <c r="E85" s="106"/>
       <c r="F85" s="32" t="s">
         <v>212</v>
       </c>
@@ -17943,7 +18143,7 @@
       </c>
       <c r="K85" s="11"/>
     </row>
-    <row r="86" spans="1:11" ht="47.25">
+    <row r="86" spans="1:11" ht="45">
       <c r="A86" s="12">
         <v>82</v>
       </c>
@@ -17951,8 +18151,8 @@
       <c r="C86" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D86" s="101"/>
-      <c r="E86" s="101"/>
+      <c r="D86" s="106"/>
+      <c r="E86" s="106"/>
       <c r="F86" s="32" t="s">
         <v>213</v>
       </c>
@@ -17968,7 +18168,7 @@
       </c>
       <c r="K86" s="11"/>
     </row>
-    <row r="87" spans="1:11" ht="47.25">
+    <row r="87" spans="1:11" ht="45">
       <c r="A87" s="12">
         <v>83</v>
       </c>
@@ -17976,8 +18176,8 @@
       <c r="C87" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D87" s="101"/>
-      <c r="E87" s="101"/>
+      <c r="D87" s="106"/>
+      <c r="E87" s="106"/>
       <c r="F87" s="32" t="s">
         <v>214</v>
       </c>
@@ -17993,7 +18193,7 @@
       </c>
       <c r="K87" s="11"/>
     </row>
-    <row r="88" spans="1:11" ht="47.25">
+    <row r="88" spans="1:11" ht="45">
       <c r="A88" s="12">
         <v>84</v>
       </c>
@@ -18001,8 +18201,8 @@
       <c r="C88" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D88" s="101"/>
-      <c r="E88" s="101"/>
+      <c r="D88" s="106"/>
+      <c r="E88" s="106"/>
       <c r="F88" s="32" t="s">
         <v>215</v>
       </c>
@@ -18018,7 +18218,7 @@
       </c>
       <c r="K88" s="11"/>
     </row>
-    <row r="89" spans="1:11" ht="47.25">
+    <row r="89" spans="1:11" ht="45">
       <c r="A89" s="12">
         <v>85</v>
       </c>
@@ -18026,8 +18226,8 @@
       <c r="C89" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D89" s="101"/>
-      <c r="E89" s="101"/>
+      <c r="D89" s="106"/>
+      <c r="E89" s="106"/>
       <c r="F89" s="32" t="s">
         <v>216</v>
       </c>
@@ -18043,7 +18243,7 @@
       </c>
       <c r="K89" s="11"/>
     </row>
-    <row r="90" spans="1:11" ht="47.25">
+    <row r="90" spans="1:11" ht="45">
       <c r="A90" s="12">
         <v>86</v>
       </c>
@@ -18051,8 +18251,8 @@
       <c r="C90" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D90" s="101"/>
-      <c r="E90" s="101"/>
+      <c r="D90" s="106"/>
+      <c r="E90" s="106"/>
       <c r="F90" s="32" t="s">
         <v>217</v>
       </c>
@@ -18068,7 +18268,7 @@
       </c>
       <c r="K90" s="11"/>
     </row>
-    <row r="91" spans="1:11" ht="47.25">
+    <row r="91" spans="1:11" ht="45">
       <c r="A91" s="12">
         <v>87</v>
       </c>
@@ -18076,8 +18276,8 @@
       <c r="C91" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D91" s="101"/>
-      <c r="E91" s="101"/>
+      <c r="D91" s="106"/>
+      <c r="E91" s="106"/>
       <c r="F91" s="32" t="s">
         <v>218</v>
       </c>
@@ -18093,7 +18293,7 @@
       </c>
       <c r="K91" s="11"/>
     </row>
-    <row r="92" spans="1:11" ht="47.25">
+    <row r="92" spans="1:11" ht="45">
       <c r="A92" s="12">
         <v>88</v>
       </c>
@@ -18101,8 +18301,8 @@
       <c r="C92" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="D92" s="101"/>
-      <c r="E92" s="101"/>
+      <c r="D92" s="106"/>
+      <c r="E92" s="106"/>
       <c r="F92" s="31" t="s">
         <v>224</v>
       </c>
@@ -18118,7 +18318,7 @@
       </c>
       <c r="K92" s="11"/>
     </row>
-    <row r="93" spans="1:11" ht="47.25">
+    <row r="93" spans="1:11" ht="45">
       <c r="A93" s="12">
         <v>89</v>
       </c>
@@ -18126,8 +18326,8 @@
       <c r="C93" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="D93" s="101"/>
-      <c r="E93" s="101"/>
+      <c r="D93" s="106"/>
+      <c r="E93" s="106"/>
       <c r="F93" s="31" t="s">
         <v>225</v>
       </c>
@@ -18145,7 +18345,7 @@
       </c>
       <c r="K93" s="11"/>
     </row>
-    <row r="94" spans="1:11" ht="47.25">
+    <row r="94" spans="1:11" ht="45">
       <c r="A94" s="12">
         <v>90</v>
       </c>
@@ -18153,8 +18353,8 @@
       <c r="C94" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="D94" s="102"/>
-      <c r="E94" s="102"/>
+      <c r="D94" s="107"/>
+      <c r="E94" s="107"/>
       <c r="F94" s="31" t="s">
         <v>226</v>
       </c>
@@ -18172,7 +18372,7 @@
       </c>
       <c r="K94" s="11"/>
     </row>
-    <row r="95" spans="1:11" ht="31.5">
+    <row r="95" spans="1:11" ht="45">
       <c r="A95" s="12">
         <v>91</v>
       </c>
@@ -18203,7 +18403,7 @@
       </c>
       <c r="K95" s="11"/>
     </row>
-    <row r="96" spans="1:11" ht="31.5">
+    <row r="96" spans="1:11" ht="30">
       <c r="A96" s="12">
         <v>92</v>
       </c>
@@ -18234,7 +18434,7 @@
       </c>
       <c r="K96" s="17"/>
     </row>
-    <row r="97" spans="1:11" ht="47.25">
+    <row r="97" spans="1:11" ht="45">
       <c r="A97" s="12">
         <v>93</v>
       </c>
@@ -18263,7 +18463,7 @@
       </c>
       <c r="K97" s="17"/>
     </row>
-    <row r="98" spans="1:11" ht="31.5">
+    <row r="98" spans="1:11" ht="30">
       <c r="A98" s="12">
         <v>94</v>
       </c>
@@ -18273,10 +18473,10 @@
       <c r="C98" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="D98" s="97" t="s">
+      <c r="D98" s="99" t="s">
         <v>243</v>
       </c>
-      <c r="E98" s="97" t="s">
+      <c r="E98" s="99" t="s">
         <v>241</v>
       </c>
       <c r="F98" s="37" t="s">
@@ -18294,7 +18494,7 @@
       </c>
       <c r="K98" s="17"/>
     </row>
-    <row r="99" spans="1:11" ht="31.5">
+    <row r="99" spans="1:11" ht="30">
       <c r="A99" s="12">
         <v>95</v>
       </c>
@@ -18302,8 +18502,8 @@
       <c r="C99" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D99" s="113"/>
-      <c r="E99" s="98"/>
+      <c r="D99" s="123"/>
+      <c r="E99" s="100"/>
       <c r="F99" s="37" t="s">
         <v>261</v>
       </c>
@@ -18319,7 +18519,7 @@
       </c>
       <c r="K99" s="17"/>
     </row>
-    <row r="100" spans="1:11" ht="31.5">
+    <row r="100" spans="1:11" ht="30">
       <c r="A100" s="12">
         <v>96</v>
       </c>
@@ -18327,8 +18527,8 @@
       <c r="C100" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D100" s="113"/>
-      <c r="E100" s="98"/>
+      <c r="D100" s="123"/>
+      <c r="E100" s="100"/>
       <c r="F100" s="37" t="s">
         <v>262</v>
       </c>
@@ -18344,7 +18544,7 @@
       </c>
       <c r="K100" s="17"/>
     </row>
-    <row r="101" spans="1:11" ht="31.5">
+    <row r="101" spans="1:11" ht="30">
       <c r="A101" s="12">
         <v>97</v>
       </c>
@@ -18352,8 +18552,8 @@
       <c r="C101" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D101" s="113"/>
-      <c r="E101" s="98"/>
+      <c r="D101" s="123"/>
+      <c r="E101" s="100"/>
       <c r="F101" s="37" t="s">
         <v>263</v>
       </c>
@@ -18369,7 +18569,7 @@
       </c>
       <c r="K101" s="17"/>
     </row>
-    <row r="102" spans="1:11" ht="31.5">
+    <row r="102" spans="1:11" ht="30">
       <c r="A102" s="12">
         <v>98</v>
       </c>
@@ -18377,8 +18577,8 @@
       <c r="C102" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D102" s="113"/>
-      <c r="E102" s="98"/>
+      <c r="D102" s="123"/>
+      <c r="E102" s="100"/>
       <c r="F102" s="37" t="s">
         <v>264</v>
       </c>
@@ -18394,7 +18594,7 @@
       </c>
       <c r="K102" s="17"/>
     </row>
-    <row r="103" spans="1:11" ht="31.5">
+    <row r="103" spans="1:11" ht="30">
       <c r="A103" s="12">
         <v>99</v>
       </c>
@@ -18402,8 +18602,8 @@
       <c r="C103" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D103" s="113"/>
-      <c r="E103" s="98"/>
+      <c r="D103" s="123"/>
+      <c r="E103" s="100"/>
       <c r="F103" s="37" t="s">
         <v>265</v>
       </c>
@@ -18419,7 +18619,7 @@
       </c>
       <c r="K103" s="17"/>
     </row>
-    <row r="104" spans="1:11" ht="31.5">
+    <row r="104" spans="1:11" ht="30">
       <c r="A104" s="12">
         <v>100</v>
       </c>
@@ -18427,8 +18627,8 @@
       <c r="C104" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D104" s="113"/>
-      <c r="E104" s="98"/>
+      <c r="D104" s="123"/>
+      <c r="E104" s="100"/>
       <c r="F104" s="37" t="s">
         <v>266</v>
       </c>
@@ -18444,7 +18644,7 @@
       </c>
       <c r="K104" s="17"/>
     </row>
-    <row r="105" spans="1:11" ht="31.5">
+    <row r="105" spans="1:11" ht="30">
       <c r="A105" s="12">
         <v>101</v>
       </c>
@@ -18452,8 +18652,8 @@
       <c r="C105" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D105" s="113"/>
-      <c r="E105" s="98"/>
+      <c r="D105" s="123"/>
+      <c r="E105" s="100"/>
       <c r="F105" s="37" t="s">
         <v>267</v>
       </c>
@@ -18469,7 +18669,7 @@
       </c>
       <c r="K105" s="17"/>
     </row>
-    <row r="106" spans="1:11" ht="31.5">
+    <row r="106" spans="1:11" ht="30">
       <c r="A106" s="12">
         <v>102</v>
       </c>
@@ -18477,8 +18677,8 @@
       <c r="C106" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="D106" s="113"/>
-      <c r="E106" s="98"/>
+      <c r="D106" s="123"/>
+      <c r="E106" s="100"/>
       <c r="F106" s="37" t="s">
         <v>268</v>
       </c>
@@ -18494,7 +18694,7 @@
       </c>
       <c r="K106" s="17"/>
     </row>
-    <row r="107" spans="1:11" ht="31.5">
+    <row r="107" spans="1:11" ht="30">
       <c r="A107" s="12">
         <v>103</v>
       </c>
@@ -18502,8 +18702,8 @@
       <c r="C107" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="D107" s="113"/>
-      <c r="E107" s="98"/>
+      <c r="D107" s="123"/>
+      <c r="E107" s="100"/>
       <c r="F107" s="37" t="s">
         <v>269</v>
       </c>
@@ -18519,7 +18719,7 @@
       </c>
       <c r="K107" s="17"/>
     </row>
-    <row r="108" spans="1:11" ht="31.5">
+    <row r="108" spans="1:11" ht="30">
       <c r="A108" s="12">
         <v>104</v>
       </c>
@@ -18527,8 +18727,8 @@
       <c r="C108" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="D108" s="114"/>
-      <c r="E108" s="99"/>
+      <c r="D108" s="124"/>
+      <c r="E108" s="101"/>
       <c r="F108" s="37" t="s">
         <v>269</v>
       </c>
@@ -18544,7 +18744,7 @@
       </c>
       <c r="K108" s="17"/>
     </row>
-    <row r="109" spans="1:11" ht="47.25">
+    <row r="109" spans="1:11" ht="45">
       <c r="A109" s="12">
         <v>105</v>
       </c>
@@ -18575,7 +18775,7 @@
       </c>
       <c r="K109" s="17"/>
     </row>
-    <row r="110" spans="1:11" ht="47.25">
+    <row r="110" spans="1:11" ht="45">
       <c r="A110" s="12">
         <v>106</v>
       </c>
@@ -18604,7 +18804,7 @@
       </c>
       <c r="K110" s="17"/>
     </row>
-    <row r="111" spans="1:11" ht="47.25">
+    <row r="111" spans="1:11" ht="45">
       <c r="A111" s="12">
         <v>107</v>
       </c>
@@ -18635,7 +18835,7 @@
       </c>
       <c r="K111" s="17"/>
     </row>
-    <row r="112" spans="1:11" ht="47.25">
+    <row r="112" spans="1:11" ht="45">
       <c r="A112" s="12">
         <v>108</v>
       </c>
@@ -18664,7 +18864,7 @@
       </c>
       <c r="K112" s="17"/>
     </row>
-    <row r="113" spans="1:11" ht="47.25">
+    <row r="113" spans="1:11" ht="45">
       <c r="A113" s="12">
         <v>109</v>
       </c>
@@ -18705,10 +18905,10 @@
       <c r="C114" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D114" s="97" t="s">
+      <c r="D114" s="99" t="s">
         <v>372</v>
       </c>
-      <c r="E114" s="97" t="s">
+      <c r="E114" s="99" t="s">
         <v>373</v>
       </c>
       <c r="F114" s="37" t="s">
@@ -18726,7 +18926,7 @@
       </c>
       <c r="K114" s="17"/>
     </row>
-    <row r="115" spans="1:11" ht="31.5">
+    <row r="115" spans="1:11" ht="30">
       <c r="A115" s="12">
         <v>111</v>
       </c>
@@ -18734,8 +18934,8 @@
       <c r="C115" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D115" s="98"/>
-      <c r="E115" s="98"/>
+      <c r="D115" s="100"/>
+      <c r="E115" s="100"/>
       <c r="F115" s="37" t="s">
         <v>412</v>
       </c>
@@ -18751,7 +18951,7 @@
       </c>
       <c r="K115" s="17"/>
     </row>
-    <row r="116" spans="1:11" ht="31.5">
+    <row r="116" spans="1:11" ht="30">
       <c r="A116" s="12">
         <v>112</v>
       </c>
@@ -18759,8 +18959,8 @@
       <c r="C116" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D116" s="98"/>
-      <c r="E116" s="98"/>
+      <c r="D116" s="100"/>
+      <c r="E116" s="100"/>
       <c r="F116" s="37" t="s">
         <v>413</v>
       </c>
@@ -18776,7 +18976,7 @@
       </c>
       <c r="K116" s="17"/>
     </row>
-    <row r="117" spans="1:11" ht="31.5">
+    <row r="117" spans="1:11" ht="30">
       <c r="A117" s="12">
         <v>113</v>
       </c>
@@ -18784,8 +18984,8 @@
       <c r="C117" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D117" s="98"/>
-      <c r="E117" s="98"/>
+      <c r="D117" s="100"/>
+      <c r="E117" s="100"/>
       <c r="F117" s="37" t="s">
         <v>414</v>
       </c>
@@ -18801,7 +19001,7 @@
       </c>
       <c r="K117" s="17"/>
     </row>
-    <row r="118" spans="1:11" ht="31.5">
+    <row r="118" spans="1:11" ht="30">
       <c r="A118" s="12">
         <v>114</v>
       </c>
@@ -18809,8 +19009,8 @@
       <c r="C118" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D118" s="98"/>
-      <c r="E118" s="98"/>
+      <c r="D118" s="100"/>
+      <c r="E118" s="100"/>
       <c r="F118" s="37" t="s">
         <v>415</v>
       </c>
@@ -18826,7 +19026,7 @@
       </c>
       <c r="K118" s="17"/>
     </row>
-    <row r="119" spans="1:11" ht="31.5">
+    <row r="119" spans="1:11" ht="30">
       <c r="A119" s="12">
         <v>115</v>
       </c>
@@ -18834,8 +19034,8 @@
       <c r="C119" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D119" s="98"/>
-      <c r="E119" s="98"/>
+      <c r="D119" s="100"/>
+      <c r="E119" s="100"/>
       <c r="F119" s="37" t="s">
         <v>416</v>
       </c>
@@ -18851,7 +19051,7 @@
       </c>
       <c r="K119" s="17"/>
     </row>
-    <row r="120" spans="1:11" ht="31.5">
+    <row r="120" spans="1:11" ht="30">
       <c r="A120" s="12">
         <v>116</v>
       </c>
@@ -18859,8 +19059,8 @@
       <c r="C120" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D120" s="98"/>
-      <c r="E120" s="98"/>
+      <c r="D120" s="100"/>
+      <c r="E120" s="100"/>
       <c r="F120" s="37" t="s">
         <v>417</v>
       </c>
@@ -18876,7 +19076,7 @@
       </c>
       <c r="K120" s="17"/>
     </row>
-    <row r="121" spans="1:11" ht="31.5">
+    <row r="121" spans="1:11" ht="30">
       <c r="A121" s="12">
         <v>117</v>
       </c>
@@ -18884,8 +19084,8 @@
       <c r="C121" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D121" s="98"/>
-      <c r="E121" s="98"/>
+      <c r="D121" s="100"/>
+      <c r="E121" s="100"/>
       <c r="F121" s="37" t="s">
         <v>418</v>
       </c>
@@ -18901,7 +19101,7 @@
       </c>
       <c r="K121" s="17"/>
     </row>
-    <row r="122" spans="1:11" ht="31.5">
+    <row r="122" spans="1:11" ht="30">
       <c r="A122" s="12">
         <v>118</v>
       </c>
@@ -18909,8 +19109,8 @@
       <c r="C122" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D122" s="98"/>
-      <c r="E122" s="98"/>
+      <c r="D122" s="100"/>
+      <c r="E122" s="100"/>
       <c r="F122" s="37" t="s">
         <v>419</v>
       </c>
@@ -18926,7 +19126,7 @@
       </c>
       <c r="K122" s="17"/>
     </row>
-    <row r="123" spans="1:11" ht="31.5">
+    <row r="123" spans="1:11" ht="30">
       <c r="A123" s="12">
         <v>119</v>
       </c>
@@ -18934,8 +19134,8 @@
       <c r="C123" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D123" s="98"/>
-      <c r="E123" s="98"/>
+      <c r="D123" s="100"/>
+      <c r="E123" s="100"/>
       <c r="F123" s="37" t="s">
         <v>420</v>
       </c>
@@ -18951,7 +19151,7 @@
       </c>
       <c r="K123" s="17"/>
     </row>
-    <row r="124" spans="1:11" ht="31.5">
+    <row r="124" spans="1:11" ht="30">
       <c r="A124" s="12">
         <v>120</v>
       </c>
@@ -18959,8 +19159,8 @@
       <c r="C124" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D124" s="98"/>
-      <c r="E124" s="98"/>
+      <c r="D124" s="100"/>
+      <c r="E124" s="100"/>
       <c r="F124" s="37" t="s">
         <v>421</v>
       </c>
@@ -18976,7 +19176,7 @@
       </c>
       <c r="K124" s="17"/>
     </row>
-    <row r="125" spans="1:11" ht="31.5">
+    <row r="125" spans="1:11" ht="30">
       <c r="A125" s="12">
         <v>121</v>
       </c>
@@ -18984,8 +19184,8 @@
       <c r="C125" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D125" s="99"/>
-      <c r="E125" s="99"/>
+      <c r="D125" s="101"/>
+      <c r="E125" s="101"/>
       <c r="F125" s="37" t="s">
         <v>422</v>
       </c>
@@ -19001,61 +19201,63 @@
       </c>
       <c r="K125" s="17"/>
     </row>
-    <row r="126" spans="1:11" ht="47.25">
+    <row r="126" spans="1:11" ht="45">
       <c r="A126" s="12">
         <v>122</v>
       </c>
       <c r="B126" s="72" t="s">
-        <v>156</v>
-      </c>
-      <c r="C126" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="D126" s="72" t="s">
-        <v>375</v>
-      </c>
-      <c r="E126" s="91" t="s">
-        <v>374</v>
+        <v>55</v>
+      </c>
+      <c r="C126" s="24" t="s">
+        <v>518</v>
+      </c>
+      <c r="D126" s="95" t="s">
+        <v>519</v>
+      </c>
+      <c r="E126" s="94" t="s">
+        <v>520</v>
       </c>
       <c r="F126" s="37" t="s">
-        <v>376</v>
+        <v>521</v>
       </c>
       <c r="G126" s="93">
-        <v>44439</v>
+        <v>44445</v>
       </c>
       <c r="H126" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="I126" s="32"/>
+      <c r="I126" s="32" t="s">
+        <v>523</v>
+      </c>
       <c r="J126" s="17" t="s">
-        <v>144</v>
+        <v>510</v>
       </c>
       <c r="K126" s="17"/>
     </row>
-    <row r="127" spans="1:11" ht="31.5">
+    <row r="127" spans="1:11" ht="45">
       <c r="A127" s="12">
         <v>123</v>
       </c>
       <c r="B127" s="72" t="s">
-        <v>55</v>
+        <v>156</v>
       </c>
       <c r="C127" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="D127" s="37" t="s">
-        <v>377</v>
+        <v>49</v>
+      </c>
+      <c r="D127" s="72" t="s">
+        <v>375</v>
       </c>
       <c r="E127" s="91" t="s">
         <v>374</v>
       </c>
       <c r="F127" s="37" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G127" s="93">
         <v>44439</v>
       </c>
-      <c r="H127" s="17" t="s">
-        <v>227</v>
+      <c r="H127" s="12" t="s">
+        <v>522</v>
       </c>
       <c r="I127" s="32"/>
       <c r="J127" s="17" t="s">
@@ -19063,22 +19265,24 @@
       </c>
       <c r="K127" s="17"/>
     </row>
-    <row r="128" spans="1:11" ht="47.25">
-      <c r="A128" s="12"/>
+    <row r="128" spans="1:11" ht="30">
+      <c r="A128" s="12">
+        <v>124</v>
+      </c>
       <c r="B128" s="72" t="s">
-        <v>156</v>
+        <v>55</v>
       </c>
       <c r="C128" s="37" t="s">
-        <v>294</v>
-      </c>
-      <c r="D128" s="72" t="s">
-        <v>488</v>
+        <v>136</v>
+      </c>
+      <c r="D128" s="37" t="s">
+        <v>377</v>
       </c>
       <c r="E128" s="91" t="s">
-        <v>489</v>
+        <v>374</v>
       </c>
       <c r="F128" s="37" t="s">
-        <v>490</v>
+        <v>378</v>
       </c>
       <c r="G128" s="93">
         <v>44439</v>
@@ -19086,30 +19290,30 @@
       <c r="H128" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="I128" s="32" t="s">
-        <v>511</v>
-      </c>
+      <c r="I128" s="32"/>
       <c r="J128" s="17" t="s">
-        <v>510</v>
+        <v>144</v>
       </c>
       <c r="K128" s="17"/>
     </row>
-    <row r="129" spans="1:11" ht="15.75">
-      <c r="A129" s="12"/>
+    <row r="129" spans="1:11" ht="45">
+      <c r="A129" s="12">
+        <v>125</v>
+      </c>
       <c r="B129" s="72" t="s">
-        <v>55</v>
-      </c>
-      <c r="C129" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D129" s="97" t="s">
-        <v>491</v>
-      </c>
-      <c r="E129" s="100" t="s">
+        <v>156</v>
+      </c>
+      <c r="C129" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="D129" s="72" t="s">
+        <v>488</v>
+      </c>
+      <c r="E129" s="91" t="s">
         <v>489</v>
       </c>
-      <c r="F129" s="97" t="s">
-        <v>492</v>
+      <c r="F129" s="37" t="s">
+        <v>490</v>
       </c>
       <c r="G129" s="93">
         <v>44439</v>
@@ -19117,21 +19321,33 @@
       <c r="H129" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="I129" s="32"/>
+      <c r="I129" s="32" t="s">
+        <v>511</v>
+      </c>
       <c r="J129" s="17" t="s">
-        <v>144</v>
+        <v>510</v>
       </c>
       <c r="K129" s="17"/>
     </row>
-    <row r="130" spans="1:11" ht="15.75">
-      <c r="A130" s="12"/>
-      <c r="B130" s="72"/>
+    <row r="130" spans="1:11" ht="15">
+      <c r="A130" s="12">
+        <v>126</v>
+      </c>
+      <c r="B130" s="72" t="s">
+        <v>55</v>
+      </c>
       <c r="C130" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D130" s="98"/>
-      <c r="E130" s="101"/>
-      <c r="F130" s="98"/>
+        <v>16</v>
+      </c>
+      <c r="D130" s="99" t="s">
+        <v>491</v>
+      </c>
+      <c r="E130" s="105" t="s">
+        <v>489</v>
+      </c>
+      <c r="F130" s="99" t="s">
+        <v>492</v>
+      </c>
       <c r="G130" s="93">
         <v>44439</v>
       </c>
@@ -19144,15 +19360,17 @@
       </c>
       <c r="K130" s="17"/>
     </row>
-    <row r="131" spans="1:11" ht="15.75">
-      <c r="A131" s="12"/>
+    <row r="131" spans="1:11" ht="15">
+      <c r="A131" s="12">
+        <v>127</v>
+      </c>
       <c r="B131" s="72"/>
       <c r="C131" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D131" s="98"/>
-      <c r="E131" s="101"/>
-      <c r="F131" s="98"/>
+        <v>17</v>
+      </c>
+      <c r="D131" s="100"/>
+      <c r="E131" s="106"/>
+      <c r="F131" s="100"/>
       <c r="G131" s="93">
         <v>44439</v>
       </c>
@@ -19165,15 +19383,17 @@
       </c>
       <c r="K131" s="17"/>
     </row>
-    <row r="132" spans="1:11" ht="15.75">
-      <c r="A132" s="12"/>
+    <row r="132" spans="1:11" ht="15">
+      <c r="A132" s="12">
+        <v>128</v>
+      </c>
       <c r="B132" s="72"/>
       <c r="C132" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D132" s="98"/>
-      <c r="E132" s="101"/>
-      <c r="F132" s="98"/>
+        <v>18</v>
+      </c>
+      <c r="D132" s="100"/>
+      <c r="E132" s="106"/>
+      <c r="F132" s="100"/>
       <c r="G132" s="93">
         <v>44439</v>
       </c>
@@ -19186,15 +19406,17 @@
       </c>
       <c r="K132" s="17"/>
     </row>
-    <row r="133" spans="1:11" ht="15.75">
-      <c r="A133" s="12"/>
+    <row r="133" spans="1:11" ht="15">
+      <c r="A133" s="12">
+        <v>129</v>
+      </c>
       <c r="B133" s="72"/>
       <c r="C133" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D133" s="98"/>
-      <c r="E133" s="101"/>
-      <c r="F133" s="98"/>
+        <v>19</v>
+      </c>
+      <c r="D133" s="100"/>
+      <c r="E133" s="106"/>
+      <c r="F133" s="100"/>
       <c r="G133" s="93">
         <v>44439</v>
       </c>
@@ -19207,15 +19429,17 @@
       </c>
       <c r="K133" s="17"/>
     </row>
-    <row r="134" spans="1:11" ht="15.75">
-      <c r="A134" s="12"/>
+    <row r="134" spans="1:11" ht="15">
+      <c r="A134" s="12">
+        <v>130</v>
+      </c>
       <c r="B134" s="72"/>
       <c r="C134" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D134" s="98"/>
-      <c r="E134" s="101"/>
-      <c r="F134" s="98"/>
+        <v>20</v>
+      </c>
+      <c r="D134" s="100"/>
+      <c r="E134" s="106"/>
+      <c r="F134" s="100"/>
       <c r="G134" s="93">
         <v>44439</v>
       </c>
@@ -19228,15 +19452,17 @@
       </c>
       <c r="K134" s="17"/>
     </row>
-    <row r="135" spans="1:11" ht="15.75">
-      <c r="A135" s="12"/>
+    <row r="135" spans="1:11" ht="15">
+      <c r="A135" s="12">
+        <v>131</v>
+      </c>
       <c r="B135" s="72"/>
       <c r="C135" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D135" s="98"/>
-      <c r="E135" s="101"/>
-      <c r="F135" s="98"/>
+        <v>21</v>
+      </c>
+      <c r="D135" s="100"/>
+      <c r="E135" s="106"/>
+      <c r="F135" s="100"/>
       <c r="G135" s="93">
         <v>44439</v>
       </c>
@@ -19249,15 +19475,17 @@
       </c>
       <c r="K135" s="17"/>
     </row>
-    <row r="136" spans="1:11" ht="15.75">
-      <c r="A136" s="12"/>
+    <row r="136" spans="1:11" ht="15">
+      <c r="A136" s="12">
+        <v>132</v>
+      </c>
       <c r="B136" s="72"/>
       <c r="C136" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D136" s="98"/>
-      <c r="E136" s="101"/>
-      <c r="F136" s="98"/>
+        <v>22</v>
+      </c>
+      <c r="D136" s="100"/>
+      <c r="E136" s="106"/>
+      <c r="F136" s="100"/>
       <c r="G136" s="93">
         <v>44439</v>
       </c>
@@ -19270,15 +19498,17 @@
       </c>
       <c r="K136" s="17"/>
     </row>
-    <row r="137" spans="1:11" ht="15.75">
-      <c r="A137" s="12"/>
+    <row r="137" spans="1:11" ht="15">
+      <c r="A137" s="12">
+        <v>133</v>
+      </c>
       <c r="B137" s="72"/>
       <c r="C137" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D137" s="98"/>
-      <c r="E137" s="101"/>
-      <c r="F137" s="98"/>
+        <v>23</v>
+      </c>
+      <c r="D137" s="100"/>
+      <c r="E137" s="106"/>
+      <c r="F137" s="100"/>
       <c r="G137" s="93">
         <v>44439</v>
       </c>
@@ -19291,15 +19521,17 @@
       </c>
       <c r="K137" s="17"/>
     </row>
-    <row r="138" spans="1:11" ht="15.75">
-      <c r="A138" s="12"/>
+    <row r="138" spans="1:11" ht="15">
+      <c r="A138" s="12">
+        <v>134</v>
+      </c>
       <c r="B138" s="72"/>
       <c r="C138" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D138" s="98"/>
-      <c r="E138" s="101"/>
-      <c r="F138" s="98"/>
+        <v>24</v>
+      </c>
+      <c r="D138" s="100"/>
+      <c r="E138" s="106"/>
+      <c r="F138" s="100"/>
       <c r="G138" s="93">
         <v>44439</v>
       </c>
@@ -19312,15 +19544,17 @@
       </c>
       <c r="K138" s="17"/>
     </row>
-    <row r="139" spans="1:11" ht="15.75">
-      <c r="A139" s="12"/>
+    <row r="139" spans="1:11" ht="15">
+      <c r="A139" s="12">
+        <v>135</v>
+      </c>
       <c r="B139" s="72"/>
       <c r="C139" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D139" s="98"/>
-      <c r="E139" s="101"/>
-      <c r="F139" s="98"/>
+        <v>25</v>
+      </c>
+      <c r="D139" s="100"/>
+      <c r="E139" s="106"/>
+      <c r="F139" s="100"/>
       <c r="G139" s="93">
         <v>44439</v>
       </c>
@@ -19333,15 +19567,17 @@
       </c>
       <c r="K139" s="17"/>
     </row>
-    <row r="140" spans="1:11" ht="15.75">
-      <c r="A140" s="12"/>
+    <row r="140" spans="1:11" ht="15">
+      <c r="A140" s="12">
+        <v>136</v>
+      </c>
       <c r="B140" s="72"/>
       <c r="C140" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D140" s="99"/>
-      <c r="E140" s="102"/>
-      <c r="F140" s="99"/>
+        <v>26</v>
+      </c>
+      <c r="D140" s="100"/>
+      <c r="E140" s="106"/>
+      <c r="F140" s="100"/>
       <c r="G140" s="93">
         <v>44439</v>
       </c>
@@ -19354,25 +19590,17 @@
       </c>
       <c r="K140" s="17"/>
     </row>
-    <row r="141" spans="1:11" ht="47.25">
+    <row r="141" spans="1:11" ht="15">
       <c r="A141" s="12">
-        <v>124</v>
-      </c>
-      <c r="B141" s="72" t="s">
-        <v>156</v>
-      </c>
-      <c r="C141" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="D141" s="72" t="s">
-        <v>379</v>
-      </c>
-      <c r="E141" s="72" t="s">
-        <v>380</v>
-      </c>
-      <c r="F141" s="37" t="s">
-        <v>381</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="B141" s="72"/>
+      <c r="C141" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D141" s="101"/>
+      <c r="E141" s="107"/>
+      <c r="F141" s="101"/>
       <c r="G141" s="93">
         <v>44439</v>
       </c>
@@ -19385,15 +19613,15 @@
       </c>
       <c r="K141" s="17"/>
     </row>
-    <row r="142" spans="1:11" ht="47.25">
+    <row r="142" spans="1:11" ht="45">
       <c r="A142" s="12">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="B142" s="72" t="s">
-        <v>55</v>
+        <v>156</v>
       </c>
       <c r="C142" s="37" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="D142" s="72" t="s">
         <v>379</v>
@@ -19402,7 +19630,7 @@
         <v>380</v>
       </c>
       <c r="F142" s="37" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G142" s="93">
         <v>44439</v>
@@ -19416,24 +19644,24 @@
       </c>
       <c r="K142" s="17"/>
     </row>
-    <row r="143" spans="1:11" ht="15.75">
+    <row r="143" spans="1:11" ht="45">
       <c r="A143" s="12">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="B143" s="72" t="s">
         <v>55</v>
       </c>
       <c r="C143" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="D143" s="97" t="s">
-        <v>384</v>
-      </c>
-      <c r="E143" s="97" t="s">
-        <v>383</v>
+        <v>136</v>
+      </c>
+      <c r="D143" s="72" t="s">
+        <v>379</v>
+      </c>
+      <c r="E143" s="72" t="s">
+        <v>380</v>
       </c>
       <c r="F143" s="37" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G143" s="93">
         <v>44439</v>
@@ -19447,18 +19675,24 @@
       </c>
       <c r="K143" s="17"/>
     </row>
-    <row r="144" spans="1:11" ht="31.5">
+    <row r="144" spans="1:11" ht="15">
       <c r="A144" s="12">
-        <v>127</v>
-      </c>
-      <c r="B144" s="72"/>
+        <v>140</v>
+      </c>
+      <c r="B144" s="72" t="s">
+        <v>55</v>
+      </c>
       <c r="C144" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="D144" s="99"/>
-      <c r="E144" s="99"/>
+        <v>150</v>
+      </c>
+      <c r="D144" s="99" t="s">
+        <v>384</v>
+      </c>
+      <c r="E144" s="99" t="s">
+        <v>383</v>
+      </c>
       <c r="F144" s="37" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G144" s="93">
         <v>44439</v>
@@ -19472,24 +19706,18 @@
       </c>
       <c r="K144" s="17"/>
     </row>
-    <row r="145" spans="1:11" ht="47.25">
+    <row r="145" spans="1:11" ht="30">
       <c r="A145" s="12">
-        <v>128</v>
-      </c>
-      <c r="B145" s="72" t="s">
-        <v>156</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="B145" s="72"/>
       <c r="C145" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="D145" s="72" t="s">
-        <v>387</v>
-      </c>
-      <c r="E145" s="72" t="s">
-        <v>388</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="D145" s="101"/>
+      <c r="E145" s="101"/>
       <c r="F145" s="37" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G145" s="93">
         <v>44439</v>
@@ -19503,57 +19731,55 @@
       </c>
       <c r="K145" s="17"/>
     </row>
-    <row r="146" spans="1:11" ht="47.25">
+    <row r="146" spans="1:11" ht="45">
       <c r="A146" s="12">
-        <v>129</v>
-      </c>
-      <c r="B146" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="C146" s="25" t="s">
-        <v>296</v>
-      </c>
-      <c r="D146" s="83" t="s">
-        <v>390</v>
-      </c>
-      <c r="E146" s="31" t="s">
-        <v>391</v>
-      </c>
-      <c r="F146" s="32" t="s">
-        <v>447</v>
+        <v>142</v>
+      </c>
+      <c r="B146" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="C146" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="D146" s="72" t="s">
+        <v>387</v>
+      </c>
+      <c r="E146" s="72" t="s">
+        <v>388</v>
+      </c>
+      <c r="F146" s="37" t="s">
+        <v>389</v>
       </c>
       <c r="G146" s="93">
-        <v>44440</v>
+        <v>44439</v>
       </c>
       <c r="H146" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="I146" s="32" t="s">
-        <v>514</v>
-      </c>
+      <c r="I146" s="32"/>
       <c r="J146" s="17" t="s">
-        <v>510</v>
+        <v>144</v>
       </c>
       <c r="K146" s="17"/>
     </row>
-    <row r="147" spans="1:11" ht="47.25">
+    <row r="147" spans="1:11" ht="45">
       <c r="A147" s="12">
-        <v>130</v>
-      </c>
-      <c r="B147" s="72" t="s">
-        <v>156</v>
-      </c>
-      <c r="C147" s="37" t="s">
-        <v>395</v>
-      </c>
-      <c r="D147" s="72" t="s">
-        <v>392</v>
-      </c>
-      <c r="E147" s="72" t="s">
-        <v>405</v>
-      </c>
-      <c r="F147" s="37" t="s">
-        <v>396</v>
+        <v>143</v>
+      </c>
+      <c r="B147" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C147" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="D147" s="83" t="s">
+        <v>390</v>
+      </c>
+      <c r="E147" s="31" t="s">
+        <v>391</v>
+      </c>
+      <c r="F147" s="32" t="s">
+        <v>447</v>
       </c>
       <c r="G147" s="93">
         <v>44440</v>
@@ -19561,28 +19787,32 @@
       <c r="H147" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="I147" s="32"/>
+      <c r="I147" s="32" t="s">
+        <v>514</v>
+      </c>
       <c r="J147" s="17" t="s">
-        <v>144</v>
+        <v>510</v>
       </c>
       <c r="K147" s="17"/>
     </row>
-    <row r="148" spans="1:11" ht="47.25">
+    <row r="148" spans="1:11" ht="45">
       <c r="A148" s="12">
-        <v>131</v>
-      </c>
-      <c r="B148" s="72"/>
+        <v>144</v>
+      </c>
+      <c r="B148" s="72" t="s">
+        <v>156</v>
+      </c>
       <c r="C148" s="37" t="s">
         <v>395</v>
       </c>
       <c r="D148" s="72" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E148" s="72" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F148" s="37" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G148" s="93">
         <v>44440</v>
@@ -19596,22 +19826,22 @@
       </c>
       <c r="K148" s="17"/>
     </row>
-    <row r="149" spans="1:11" ht="47.25">
+    <row r="149" spans="1:11" ht="45">
       <c r="A149" s="12">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="B149" s="72"/>
       <c r="C149" s="37" t="s">
         <v>395</v>
       </c>
       <c r="D149" s="72" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E149" s="72" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F149" s="37" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G149" s="93">
         <v>44440</v>
@@ -19625,22 +19855,22 @@
       </c>
       <c r="K149" s="17"/>
     </row>
-    <row r="150" spans="1:11" ht="47.25">
+    <row r="150" spans="1:11" ht="45">
       <c r="A150" s="12">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B150" s="72"/>
       <c r="C150" s="37" t="s">
         <v>395</v>
       </c>
       <c r="D150" s="72" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="E150" s="72" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F150" s="37" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="G150" s="93">
         <v>44440</v>
@@ -19654,22 +19884,22 @@
       </c>
       <c r="K150" s="17"/>
     </row>
-    <row r="151" spans="1:11" ht="47.25">
+    <row r="151" spans="1:11" ht="45">
       <c r="A151" s="12">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="B151" s="72"/>
       <c r="C151" s="37" t="s">
         <v>395</v>
       </c>
       <c r="D151" s="72" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E151" s="72" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="F151" s="37" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G151" s="93">
         <v>44440</v>
@@ -19683,22 +19913,22 @@
       </c>
       <c r="K151" s="17"/>
     </row>
-    <row r="152" spans="1:11" ht="47.25">
+    <row r="152" spans="1:11" ht="45">
       <c r="A152" s="12">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="B152" s="72"/>
       <c r="C152" s="37" t="s">
         <v>395</v>
       </c>
       <c r="D152" s="72" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E152" s="72" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F152" s="37" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G152" s="93">
         <v>44440</v>
@@ -19712,22 +19942,22 @@
       </c>
       <c r="K152" s="17"/>
     </row>
-    <row r="153" spans="1:11" ht="47.25">
+    <row r="153" spans="1:11" ht="45">
       <c r="A153" s="12">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B153" s="72"/>
       <c r="C153" s="37" t="s">
         <v>395</v>
       </c>
       <c r="D153" s="72" t="s">
-        <v>494</v>
+        <v>401</v>
       </c>
       <c r="E153" s="72" t="s">
-        <v>497</v>
+        <v>407</v>
       </c>
       <c r="F153" s="37" t="s">
-        <v>500</v>
+        <v>410</v>
       </c>
       <c r="G153" s="93">
         <v>44440</v>
@@ -19741,22 +19971,22 @@
       </c>
       <c r="K153" s="17"/>
     </row>
-    <row r="154" spans="1:11" ht="47.25">
+    <row r="154" spans="1:11" ht="45">
       <c r="A154" s="12">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="B154" s="72"/>
       <c r="C154" s="37" t="s">
         <v>395</v>
       </c>
       <c r="D154" s="72" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E154" s="72" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F154" s="37" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G154" s="93">
         <v>44440</v>
@@ -19770,22 +20000,22 @@
       </c>
       <c r="K154" s="17"/>
     </row>
-    <row r="155" spans="1:11" ht="47.25">
+    <row r="155" spans="1:11" ht="45">
       <c r="A155" s="12">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="B155" s="72"/>
       <c r="C155" s="37" t="s">
         <v>395</v>
       </c>
       <c r="D155" s="72" t="s">
-        <v>387</v>
+        <v>495</v>
       </c>
       <c r="E155" s="72" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="F155" s="37" t="s">
-        <v>389</v>
+        <v>499</v>
       </c>
       <c r="G155" s="93">
         <v>44440</v>
@@ -19799,24 +20029,22 @@
       </c>
       <c r="K155" s="17"/>
     </row>
-    <row r="156" spans="1:11" ht="47.25">
+    <row r="156" spans="1:11" ht="45">
       <c r="A156" s="12">
-        <v>139</v>
-      </c>
-      <c r="B156" s="72" t="s">
-        <v>55</v>
-      </c>
-      <c r="C156" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D156" s="97" t="s">
-        <v>423</v>
-      </c>
-      <c r="E156" s="97" t="s">
-        <v>424</v>
-      </c>
-      <c r="F156" s="31" t="s">
-        <v>307</v>
+        <v>152</v>
+      </c>
+      <c r="B156" s="72"/>
+      <c r="C156" s="37" t="s">
+        <v>395</v>
+      </c>
+      <c r="D156" s="72" t="s">
+        <v>387</v>
+      </c>
+      <c r="E156" s="72" t="s">
+        <v>496</v>
+      </c>
+      <c r="F156" s="37" t="s">
+        <v>389</v>
       </c>
       <c r="G156" s="93">
         <v>44440</v>
@@ -19830,18 +20058,24 @@
       </c>
       <c r="K156" s="17"/>
     </row>
-    <row r="157" spans="1:11" ht="47.25">
+    <row r="157" spans="1:11" ht="45">
       <c r="A157" s="12">
-        <v>140</v>
-      </c>
-      <c r="B157" s="72"/>
+        <v>153</v>
+      </c>
+      <c r="B157" s="72" t="s">
+        <v>55</v>
+      </c>
       <c r="C157" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D157" s="98"/>
-      <c r="E157" s="98"/>
+        <v>16</v>
+      </c>
+      <c r="D157" s="99" t="s">
+        <v>423</v>
+      </c>
+      <c r="E157" s="99" t="s">
+        <v>424</v>
+      </c>
       <c r="F157" s="31" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G157" s="93">
         <v>44440</v>
@@ -19855,18 +20089,18 @@
       </c>
       <c r="K157" s="17"/>
     </row>
-    <row r="158" spans="1:11" ht="47.25">
+    <row r="158" spans="1:11" ht="45">
       <c r="A158" s="12">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="B158" s="72"/>
       <c r="C158" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D158" s="98"/>
-      <c r="E158" s="98"/>
+        <v>17</v>
+      </c>
+      <c r="D158" s="100"/>
+      <c r="E158" s="100"/>
       <c r="F158" s="31" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G158" s="93">
         <v>44440</v>
@@ -19880,18 +20114,18 @@
       </c>
       <c r="K158" s="17"/>
     </row>
-    <row r="159" spans="1:11" ht="47.25">
+    <row r="159" spans="1:11" ht="45">
       <c r="A159" s="12">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="B159" s="72"/>
       <c r="C159" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D159" s="98"/>
-      <c r="E159" s="98"/>
+        <v>18</v>
+      </c>
+      <c r="D159" s="100"/>
+      <c r="E159" s="100"/>
       <c r="F159" s="31" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G159" s="93">
         <v>44440</v>
@@ -19905,18 +20139,18 @@
       </c>
       <c r="K159" s="17"/>
     </row>
-    <row r="160" spans="1:11" ht="47.25">
+    <row r="160" spans="1:11" ht="45">
       <c r="A160" s="12">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="B160" s="72"/>
       <c r="C160" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D160" s="98"/>
-      <c r="E160" s="98"/>
+        <v>19</v>
+      </c>
+      <c r="D160" s="100"/>
+      <c r="E160" s="100"/>
       <c r="F160" s="31" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G160" s="93">
         <v>44440</v>
@@ -19930,18 +20164,18 @@
       </c>
       <c r="K160" s="17"/>
     </row>
-    <row r="161" spans="1:11" ht="63">
+    <row r="161" spans="1:11" ht="45">
       <c r="A161" s="12">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="B161" s="72"/>
       <c r="C161" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D161" s="98"/>
-      <c r="E161" s="98"/>
+        <v>20</v>
+      </c>
+      <c r="D161" s="100"/>
+      <c r="E161" s="100"/>
       <c r="F161" s="31" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G161" s="93">
         <v>44440</v>
@@ -19955,18 +20189,18 @@
       </c>
       <c r="K161" s="17"/>
     </row>
-    <row r="162" spans="1:11" ht="47.25">
+    <row r="162" spans="1:11" ht="75">
       <c r="A162" s="12">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="B162" s="72"/>
       <c r="C162" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D162" s="98"/>
-      <c r="E162" s="98"/>
+        <v>21</v>
+      </c>
+      <c r="D162" s="100"/>
+      <c r="E162" s="100"/>
       <c r="F162" s="31" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="G162" s="93">
         <v>44440</v>
@@ -19980,18 +20214,18 @@
       </c>
       <c r="K162" s="17"/>
     </row>
-    <row r="163" spans="1:11" ht="47.25">
+    <row r="163" spans="1:11" ht="45">
       <c r="A163" s="12">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="B163" s="72"/>
       <c r="C163" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D163" s="98"/>
-      <c r="E163" s="98"/>
+        <v>22</v>
+      </c>
+      <c r="D163" s="100"/>
+      <c r="E163" s="100"/>
       <c r="F163" s="31" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="G163" s="93">
         <v>44440</v>
@@ -20005,18 +20239,18 @@
       </c>
       <c r="K163" s="17"/>
     </row>
-    <row r="164" spans="1:11" ht="47.25">
+    <row r="164" spans="1:11" ht="45">
       <c r="A164" s="12">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="B164" s="72"/>
       <c r="C164" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D164" s="98"/>
-      <c r="E164" s="98"/>
+        <v>23</v>
+      </c>
+      <c r="D164" s="100"/>
+      <c r="E164" s="100"/>
       <c r="F164" s="31" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G164" s="93">
         <v>44440</v>
@@ -20030,18 +20264,18 @@
       </c>
       <c r="K164" s="17"/>
     </row>
-    <row r="165" spans="1:11" ht="47.25">
+    <row r="165" spans="1:11" ht="60">
       <c r="A165" s="12">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B165" s="72"/>
       <c r="C165" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D165" s="98"/>
-      <c r="E165" s="98"/>
+        <v>24</v>
+      </c>
+      <c r="D165" s="100"/>
+      <c r="E165" s="100"/>
       <c r="F165" s="31" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G165" s="93">
         <v>44440</v>
@@ -20055,18 +20289,18 @@
       </c>
       <c r="K165" s="17"/>
     </row>
-    <row r="166" spans="1:11" ht="47.25">
+    <row r="166" spans="1:11" ht="45">
       <c r="A166" s="12">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="B166" s="72"/>
       <c r="C166" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D166" s="98"/>
-      <c r="E166" s="98"/>
+        <v>25</v>
+      </c>
+      <c r="D166" s="100"/>
+      <c r="E166" s="100"/>
       <c r="F166" s="31" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G166" s="93">
         <v>44440</v>
@@ -20080,18 +20314,18 @@
       </c>
       <c r="K166" s="17"/>
     </row>
-    <row r="167" spans="1:11" ht="47.25">
+    <row r="167" spans="1:11" ht="45">
       <c r="A167" s="12">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="B167" s="72"/>
       <c r="C167" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D167" s="99"/>
-      <c r="E167" s="99"/>
+        <v>26</v>
+      </c>
+      <c r="D167" s="100"/>
+      <c r="E167" s="100"/>
       <c r="F167" s="31" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G167" s="93">
         <v>44440</v>
@@ -20105,24 +20339,18 @@
       </c>
       <c r="K167" s="17"/>
     </row>
-    <row r="168" spans="1:11" ht="47.25">
+    <row r="168" spans="1:11" ht="45">
       <c r="A168" s="12">
-        <v>151</v>
-      </c>
-      <c r="B168" s="72" t="s">
-        <v>156</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="B168" s="72"/>
       <c r="C168" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D168" s="97" t="s">
-        <v>426</v>
-      </c>
-      <c r="E168" s="31" t="s">
-        <v>323</v>
-      </c>
-      <c r="F168" s="97" t="s">
-        <v>425</v>
+        <v>27</v>
+      </c>
+      <c r="D168" s="101"/>
+      <c r="E168" s="101"/>
+      <c r="F168" s="31" t="s">
+        <v>318</v>
       </c>
       <c r="G168" s="93">
         <v>44440</v>
@@ -20136,44 +20364,58 @@
       </c>
       <c r="K168" s="17"/>
     </row>
-    <row r="169" spans="1:11" ht="47.25">
+    <row r="169" spans="1:11" ht="45">
       <c r="A169" s="12">
-        <v>152</v>
-      </c>
-      <c r="B169" s="72"/>
+        <v>165</v>
+      </c>
+      <c r="B169" s="72" t="s">
+        <v>55</v>
+      </c>
       <c r="C169" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D169" s="98"/>
-      <c r="E169" s="31" t="s">
-        <v>324</v>
-      </c>
-      <c r="F169" s="98"/>
+        <v>518</v>
+      </c>
+      <c r="D169" s="94" t="s">
+        <v>423</v>
+      </c>
+      <c r="E169" s="95" t="s">
+        <v>524</v>
+      </c>
+      <c r="F169" s="91" t="s">
+        <v>525</v>
+      </c>
       <c r="G169" s="93">
-        <v>44440</v>
+        <v>44445</v>
       </c>
       <c r="H169" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="I169" s="32"/>
+      <c r="I169" s="32" t="s">
+        <v>523</v>
+      </c>
       <c r="J169" s="17" t="s">
-        <v>144</v>
+        <v>510</v>
       </c>
       <c r="K169" s="17"/>
     </row>
-    <row r="170" spans="1:11" ht="47.25">
+    <row r="170" spans="1:11" ht="60">
       <c r="A170" s="12">
-        <v>153</v>
-      </c>
-      <c r="B170" s="72"/>
+        <v>166</v>
+      </c>
+      <c r="B170" s="72" t="s">
+        <v>156</v>
+      </c>
       <c r="C170" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D170" s="98"/>
+        <v>16</v>
+      </c>
+      <c r="D170" s="99" t="s">
+        <v>426</v>
+      </c>
       <c r="E170" s="31" t="s">
-        <v>325</v>
-      </c>
-      <c r="F170" s="98"/>
+        <v>323</v>
+      </c>
+      <c r="F170" s="99" t="s">
+        <v>425</v>
+      </c>
       <c r="G170" s="93">
         <v>44440</v>
       </c>
@@ -20186,19 +20428,19 @@
       </c>
       <c r="K170" s="17"/>
     </row>
-    <row r="171" spans="1:11" ht="47.25">
+    <row r="171" spans="1:11" ht="60">
       <c r="A171" s="12">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="B171" s="72"/>
       <c r="C171" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D171" s="98"/>
+        <v>17</v>
+      </c>
+      <c r="D171" s="100"/>
       <c r="E171" s="31" t="s">
-        <v>325</v>
-      </c>
-      <c r="F171" s="98"/>
+        <v>324</v>
+      </c>
+      <c r="F171" s="100"/>
       <c r="G171" s="93">
         <v>44440</v>
       </c>
@@ -20211,19 +20453,19 @@
       </c>
       <c r="K171" s="17"/>
     </row>
-    <row r="172" spans="1:11" ht="63">
+    <row r="172" spans="1:11" ht="60">
       <c r="A172" s="12">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="B172" s="72"/>
       <c r="C172" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D172" s="98"/>
+        <v>18</v>
+      </c>
+      <c r="D172" s="100"/>
       <c r="E172" s="31" t="s">
-        <v>326</v>
-      </c>
-      <c r="F172" s="98"/>
+        <v>325</v>
+      </c>
+      <c r="F172" s="100"/>
       <c r="G172" s="93">
         <v>44440</v>
       </c>
@@ -20236,19 +20478,19 @@
       </c>
       <c r="K172" s="17"/>
     </row>
-    <row r="173" spans="1:11" ht="63">
+    <row r="173" spans="1:11" ht="60">
       <c r="A173" s="12">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="B173" s="72"/>
       <c r="C173" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D173" s="98"/>
+        <v>19</v>
+      </c>
+      <c r="D173" s="100"/>
       <c r="E173" s="31" t="s">
-        <v>342</v>
-      </c>
-      <c r="F173" s="98"/>
+        <v>325</v>
+      </c>
+      <c r="F173" s="100"/>
       <c r="G173" s="93">
         <v>44440</v>
       </c>
@@ -20261,19 +20503,19 @@
       </c>
       <c r="K173" s="17"/>
     </row>
-    <row r="174" spans="1:11" ht="47.25">
+    <row r="174" spans="1:11" ht="75">
       <c r="A174" s="12">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="B174" s="72"/>
       <c r="C174" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D174" s="98"/>
+        <v>20</v>
+      </c>
+      <c r="D174" s="100"/>
       <c r="E174" s="31" t="s">
-        <v>346</v>
-      </c>
-      <c r="F174" s="98"/>
+        <v>326</v>
+      </c>
+      <c r="F174" s="100"/>
       <c r="G174" s="93">
         <v>44440</v>
       </c>
@@ -20286,44 +20528,46 @@
       </c>
       <c r="K174" s="17"/>
     </row>
-    <row r="175" spans="1:11" ht="47.25">
+    <row r="175" spans="1:11" ht="60">
       <c r="A175" s="12">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="B175" s="72"/>
       <c r="C175" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D175" s="98"/>
+        <v>21</v>
+      </c>
+      <c r="D175" s="100"/>
       <c r="E175" s="31" t="s">
-        <v>327</v>
-      </c>
-      <c r="F175" s="98"/>
+        <v>342</v>
+      </c>
+      <c r="F175" s="100"/>
       <c r="G175" s="93">
         <v>44440</v>
       </c>
       <c r="H175" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="I175" s="32"/>
+      <c r="I175" s="32" t="s">
+        <v>526</v>
+      </c>
       <c r="J175" s="17" t="s">
-        <v>144</v>
+        <v>510</v>
       </c>
       <c r="K175" s="17"/>
     </row>
-    <row r="176" spans="1:11" ht="47.25">
+    <row r="176" spans="1:11" ht="60">
       <c r="A176" s="12">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="B176" s="72"/>
       <c r="C176" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D176" s="98"/>
+        <v>22</v>
+      </c>
+      <c r="D176" s="100"/>
       <c r="E176" s="31" t="s">
-        <v>322</v>
-      </c>
-      <c r="F176" s="98"/>
+        <v>346</v>
+      </c>
+      <c r="F176" s="100"/>
       <c r="G176" s="93">
         <v>44440</v>
       </c>
@@ -20336,19 +20580,19 @@
       </c>
       <c r="K176" s="17"/>
     </row>
-    <row r="177" spans="1:11" ht="63">
+    <row r="177" spans="1:11" ht="45">
       <c r="A177" s="12">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="B177" s="72"/>
       <c r="C177" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D177" s="98"/>
+        <v>23</v>
+      </c>
+      <c r="D177" s="100"/>
       <c r="E177" s="31" t="s">
-        <v>328</v>
-      </c>
-      <c r="F177" s="98"/>
+        <v>327</v>
+      </c>
+      <c r="F177" s="100"/>
       <c r="G177" s="93">
         <v>44440</v>
       </c>
@@ -20361,19 +20605,19 @@
       </c>
       <c r="K177" s="17"/>
     </row>
-    <row r="178" spans="1:11" ht="63">
+    <row r="178" spans="1:11" ht="45">
       <c r="A178" s="12">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="B178" s="72"/>
       <c r="C178" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D178" s="98"/>
+        <v>24</v>
+      </c>
+      <c r="D178" s="100"/>
       <c r="E178" s="31" t="s">
-        <v>329</v>
-      </c>
-      <c r="F178" s="98"/>
+        <v>322</v>
+      </c>
+      <c r="F178" s="100"/>
       <c r="G178" s="93">
         <v>44440</v>
       </c>
@@ -20386,19 +20630,19 @@
       </c>
       <c r="K178" s="17"/>
     </row>
-    <row r="179" spans="1:11" ht="47.25">
+    <row r="179" spans="1:11" ht="60">
       <c r="A179" s="12">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="B179" s="72"/>
       <c r="C179" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D179" s="99"/>
+        <v>25</v>
+      </c>
+      <c r="D179" s="100"/>
       <c r="E179" s="31" t="s">
-        <v>321</v>
-      </c>
-      <c r="F179" s="99"/>
+        <v>328</v>
+      </c>
+      <c r="F179" s="100"/>
       <c r="G179" s="93">
         <v>44440</v>
       </c>
@@ -20411,25 +20655,19 @@
       </c>
       <c r="K179" s="17"/>
     </row>
-    <row r="180" spans="1:11" ht="94.5">
+    <row r="180" spans="1:11" ht="60">
       <c r="A180" s="12">
-        <v>163</v>
-      </c>
-      <c r="B180" s="72" t="s">
-        <v>55</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="B180" s="72"/>
       <c r="C180" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D180" s="97" t="s">
-        <v>427</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D180" s="100"/>
       <c r="E180" s="31" t="s">
-        <v>331</v>
-      </c>
-      <c r="F180" s="32" t="s">
-        <v>99</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="F180" s="100"/>
       <c r="G180" s="93">
         <v>44440</v>
       </c>
@@ -20442,21 +20680,19 @@
       </c>
       <c r="K180" s="17"/>
     </row>
-    <row r="181" spans="1:11" ht="94.5">
+    <row r="181" spans="1:11" ht="60">
       <c r="A181" s="12">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="B181" s="72"/>
       <c r="C181" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D181" s="98"/>
+        <v>27</v>
+      </c>
+      <c r="D181" s="101"/>
       <c r="E181" s="31" t="s">
-        <v>332</v>
-      </c>
-      <c r="F181" s="32" t="s">
-        <v>98</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="F181" s="101"/>
       <c r="G181" s="93">
         <v>44440</v>
       </c>
@@ -20469,20 +20705,24 @@
       </c>
       <c r="K181" s="17"/>
     </row>
-    <row r="182" spans="1:11" ht="94.5">
+    <row r="182" spans="1:11" ht="105">
       <c r="A182" s="12">
-        <v>165</v>
-      </c>
-      <c r="B182" s="72"/>
+        <v>178</v>
+      </c>
+      <c r="B182" s="72" t="s">
+        <v>55</v>
+      </c>
       <c r="C182" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D182" s="98"/>
+        <v>16</v>
+      </c>
+      <c r="D182" s="99" t="s">
+        <v>427</v>
+      </c>
       <c r="E182" s="31" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F182" s="32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G182" s="93">
         <v>44440</v>
@@ -20496,20 +20736,20 @@
       </c>
       <c r="K182" s="17"/>
     </row>
-    <row r="183" spans="1:11" ht="94.5">
+    <row r="183" spans="1:11" ht="105">
       <c r="A183" s="12">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="B183" s="72"/>
       <c r="C183" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D183" s="98"/>
+        <v>17</v>
+      </c>
+      <c r="D183" s="100"/>
       <c r="E183" s="31" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F183" s="32" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G183" s="93">
         <v>44440</v>
@@ -20523,20 +20763,20 @@
       </c>
       <c r="K183" s="17"/>
     </row>
-    <row r="184" spans="1:11" ht="126">
+    <row r="184" spans="1:11" ht="105">
       <c r="A184" s="12">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="B184" s="72"/>
       <c r="C184" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D184" s="98"/>
+        <v>18</v>
+      </c>
+      <c r="D184" s="100"/>
       <c r="E184" s="31" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F184" s="32" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="G184" s="93">
         <v>44440</v>
@@ -20550,20 +20790,20 @@
       </c>
       <c r="K184" s="17"/>
     </row>
-    <row r="185" spans="1:11" ht="110.25">
+    <row r="185" spans="1:11" ht="105">
       <c r="A185" s="12">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="B185" s="72"/>
       <c r="C185" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D185" s="98"/>
+        <v>19</v>
+      </c>
+      <c r="D185" s="100"/>
       <c r="E185" s="31" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="F185" s="32" t="s">
-        <v>341</v>
+        <v>101</v>
       </c>
       <c r="G185" s="93">
         <v>44440</v>
@@ -20577,20 +20817,20 @@
       </c>
       <c r="K185" s="17"/>
     </row>
-    <row r="186" spans="1:11" ht="94.5">
+    <row r="186" spans="1:11" ht="120">
       <c r="A186" s="12">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="B186" s="72"/>
       <c r="C186" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D186" s="98"/>
+        <v>20</v>
+      </c>
+      <c r="D186" s="100"/>
       <c r="E186" s="31" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F186" s="32" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="G186" s="93">
         <v>44440</v>
@@ -20604,20 +20844,20 @@
       </c>
       <c r="K186" s="17"/>
     </row>
-    <row r="187" spans="1:11" ht="47.25">
+    <row r="187" spans="1:11" ht="105">
       <c r="A187" s="12">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="B187" s="72"/>
       <c r="C187" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D187" s="98"/>
+        <v>21</v>
+      </c>
+      <c r="D187" s="100"/>
       <c r="E187" s="31" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="F187" s="32" t="s">
-        <v>104</v>
+        <v>341</v>
       </c>
       <c r="G187" s="93">
         <v>44440</v>
@@ -20625,26 +20865,28 @@
       <c r="H187" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="I187" s="32"/>
+      <c r="I187" s="32" t="s">
+        <v>527</v>
+      </c>
       <c r="J187" s="17" t="s">
-        <v>144</v>
+        <v>510</v>
       </c>
       <c r="K187" s="17"/>
     </row>
-    <row r="188" spans="1:11" ht="110.25">
+    <row r="188" spans="1:11" ht="90">
       <c r="A188" s="12">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="B188" s="72"/>
       <c r="C188" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D188" s="98"/>
+        <v>23</v>
+      </c>
+      <c r="D188" s="100"/>
       <c r="E188" s="31" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F188" s="32" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G188" s="93">
         <v>44440</v>
@@ -20658,20 +20900,20 @@
       </c>
       <c r="K188" s="17"/>
     </row>
-    <row r="189" spans="1:11" ht="110.25">
+    <row r="189" spans="1:11" ht="45">
       <c r="A189" s="12">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="B189" s="72"/>
       <c r="C189" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D189" s="99"/>
+        <v>24</v>
+      </c>
+      <c r="D189" s="100"/>
       <c r="E189" s="31" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F189" s="32" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G189" s="93">
         <v>44440</v>
@@ -20685,24 +20927,20 @@
       </c>
       <c r="K189" s="17"/>
     </row>
-    <row r="190" spans="1:11" ht="31.5">
+    <row r="190" spans="1:11" ht="120">
       <c r="A190" s="12">
-        <v>173</v>
-      </c>
-      <c r="B190" s="72" t="s">
-        <v>55</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="B190" s="72"/>
       <c r="C190" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D190" s="97" t="s">
-        <v>429</v>
-      </c>
-      <c r="E190" s="97" t="s">
-        <v>428</v>
+        <v>25</v>
+      </c>
+      <c r="D190" s="100"/>
+      <c r="E190" s="31" t="s">
+        <v>338</v>
       </c>
       <c r="F190" s="32" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G190" s="93">
         <v>44440</v>
@@ -20716,18 +20954,20 @@
       </c>
       <c r="K190" s="17"/>
     </row>
-    <row r="191" spans="1:11" ht="31.5">
+    <row r="191" spans="1:11" ht="120">
       <c r="A191" s="12">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="B191" s="72"/>
       <c r="C191" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D191" s="98"/>
-      <c r="E191" s="98"/>
+        <v>26</v>
+      </c>
+      <c r="D191" s="101"/>
+      <c r="E191" s="31" t="s">
+        <v>339</v>
+      </c>
       <c r="F191" s="32" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G191" s="93">
         <v>44440</v>
@@ -20741,18 +20981,24 @@
       </c>
       <c r="K191" s="17"/>
     </row>
-    <row r="192" spans="1:11" ht="31.5">
+    <row r="192" spans="1:11" ht="30">
       <c r="A192" s="12">
-        <v>175</v>
-      </c>
-      <c r="B192" s="72"/>
+        <v>188</v>
+      </c>
+      <c r="B192" s="72" t="s">
+        <v>55</v>
+      </c>
       <c r="C192" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D192" s="98"/>
-      <c r="E192" s="98"/>
+        <v>16</v>
+      </c>
+      <c r="D192" s="99" t="s">
+        <v>429</v>
+      </c>
+      <c r="E192" s="99" t="s">
+        <v>428</v>
+      </c>
       <c r="F192" s="32" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G192" s="93">
         <v>44440</v>
@@ -20766,18 +21012,18 @@
       </c>
       <c r="K192" s="17"/>
     </row>
-    <row r="193" spans="1:11" ht="31.5">
+    <row r="193" spans="1:11" ht="30">
       <c r="A193" s="12">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="B193" s="72"/>
       <c r="C193" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D193" s="98"/>
-      <c r="E193" s="98"/>
+        <v>17</v>
+      </c>
+      <c r="D193" s="100"/>
+      <c r="E193" s="100"/>
       <c r="F193" s="32" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G193" s="93">
         <v>44440</v>
@@ -20791,18 +21037,18 @@
       </c>
       <c r="K193" s="17"/>
     </row>
-    <row r="194" spans="1:11" ht="31.5">
+    <row r="194" spans="1:11" ht="30">
       <c r="A194" s="12">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="B194" s="72"/>
       <c r="C194" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D194" s="98"/>
-      <c r="E194" s="98"/>
+        <v>18</v>
+      </c>
+      <c r="D194" s="100"/>
+      <c r="E194" s="100"/>
       <c r="F194" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G194" s="93">
         <v>44440</v>
@@ -20816,18 +21062,18 @@
       </c>
       <c r="K194" s="17"/>
     </row>
-    <row r="195" spans="1:11" ht="31.5">
+    <row r="195" spans="1:11" ht="30">
       <c r="A195" s="12">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="B195" s="72"/>
       <c r="C195" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D195" s="98"/>
-      <c r="E195" s="98"/>
+        <v>19</v>
+      </c>
+      <c r="D195" s="100"/>
+      <c r="E195" s="100"/>
       <c r="F195" s="32" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G195" s="93">
         <v>44440</v>
@@ -20841,18 +21087,18 @@
       </c>
       <c r="K195" s="17"/>
     </row>
-    <row r="196" spans="1:11" ht="31.5">
+    <row r="196" spans="1:11" ht="30">
       <c r="A196" s="12">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="B196" s="72"/>
       <c r="C196" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D196" s="98"/>
-      <c r="E196" s="98"/>
+        <v>20</v>
+      </c>
+      <c r="D196" s="100"/>
+      <c r="E196" s="100"/>
       <c r="F196" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G196" s="93">
         <v>44440</v>
@@ -20866,18 +21112,18 @@
       </c>
       <c r="K196" s="17"/>
     </row>
-    <row r="197" spans="1:11" ht="31.5">
+    <row r="197" spans="1:11" ht="60">
       <c r="A197" s="12">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="B197" s="72"/>
       <c r="C197" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D197" s="98"/>
-      <c r="E197" s="98"/>
+        <v>21</v>
+      </c>
+      <c r="D197" s="100"/>
+      <c r="E197" s="100"/>
       <c r="F197" s="32" t="s">
-        <v>430</v>
+        <v>111</v>
       </c>
       <c r="G197" s="93">
         <v>44440</v>
@@ -20885,24 +21131,26 @@
       <c r="H197" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="I197" s="32"/>
+      <c r="I197" s="32" t="s">
+        <v>529</v>
+      </c>
       <c r="J197" s="17" t="s">
-        <v>144</v>
+        <v>510</v>
       </c>
       <c r="K197" s="17"/>
     </row>
-    <row r="198" spans="1:11" ht="31.5">
+    <row r="198" spans="1:11" ht="30">
       <c r="A198" s="12">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="B198" s="72"/>
       <c r="C198" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D198" s="98"/>
-      <c r="E198" s="98"/>
+        <v>22</v>
+      </c>
+      <c r="D198" s="100"/>
+      <c r="E198" s="100"/>
       <c r="F198" s="32" t="s">
-        <v>431</v>
+        <v>115</v>
       </c>
       <c r="G198" s="93">
         <v>44440</v>
@@ -20916,18 +21164,18 @@
       </c>
       <c r="K198" s="17"/>
     </row>
-    <row r="199" spans="1:11" ht="31.5">
+    <row r="199" spans="1:11" ht="30">
       <c r="A199" s="12">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="B199" s="72"/>
       <c r="C199" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D199" s="98"/>
-      <c r="E199" s="98"/>
+        <v>23</v>
+      </c>
+      <c r="D199" s="100"/>
+      <c r="E199" s="100"/>
       <c r="F199" s="32" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G199" s="93">
         <v>44440</v>
@@ -20941,18 +21189,18 @@
       </c>
       <c r="K199" s="17"/>
     </row>
-    <row r="200" spans="1:11" ht="31.5">
+    <row r="200" spans="1:11" ht="30">
       <c r="A200" s="12">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="B200" s="72"/>
       <c r="C200" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D200" s="98"/>
-      <c r="E200" s="98"/>
+        <v>24</v>
+      </c>
+      <c r="D200" s="100"/>
+      <c r="E200" s="100"/>
       <c r="F200" s="32" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G200" s="93">
         <v>44440</v>
@@ -20966,18 +21214,18 @@
       </c>
       <c r="K200" s="17"/>
     </row>
-    <row r="201" spans="1:11" ht="31.5">
+    <row r="201" spans="1:11" ht="30">
       <c r="A201" s="12">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="B201" s="72"/>
       <c r="C201" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D201" s="99"/>
-      <c r="E201" s="99"/>
+        <v>25</v>
+      </c>
+      <c r="D201" s="100"/>
+      <c r="E201" s="100"/>
       <c r="F201" s="32" t="s">
-        <v>116</v>
+        <v>432</v>
       </c>
       <c r="G201" s="93">
         <v>44440</v>
@@ -20991,24 +21239,18 @@
       </c>
       <c r="K201" s="17"/>
     </row>
-    <row r="202" spans="1:11" ht="47.25">
+    <row r="202" spans="1:11" ht="30">
       <c r="A202" s="12">
-        <v>185</v>
-      </c>
-      <c r="B202" s="72" t="s">
-        <v>156</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="B202" s="72"/>
       <c r="C202" s="24" t="s">
-        <v>294</v>
-      </c>
-      <c r="D202" s="90" t="s">
-        <v>434</v>
-      </c>
-      <c r="E202" s="72" t="s">
-        <v>493</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D202" s="100"/>
+      <c r="E202" s="100"/>
       <c r="F202" s="32" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G202" s="93">
         <v>44440</v>
@@ -21016,32 +21258,24 @@
       <c r="H202" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="I202" s="32" t="s">
-        <v>512</v>
-      </c>
+      <c r="I202" s="32"/>
       <c r="J202" s="17" t="s">
-        <v>510</v>
+        <v>144</v>
       </c>
       <c r="K202" s="17"/>
     </row>
-    <row r="203" spans="1:11" ht="11.25" customHeight="1">
+    <row r="203" spans="1:11" ht="30">
       <c r="A203" s="12">
-        <v>186</v>
-      </c>
-      <c r="B203" s="72" t="s">
-        <v>55</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="B203" s="72"/>
       <c r="C203" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D203" s="97" t="s">
-        <v>434</v>
-      </c>
-      <c r="E203" s="97" t="s">
-        <v>435</v>
-      </c>
-      <c r="F203" s="117" t="s">
-        <v>438</v>
+        <v>27</v>
+      </c>
+      <c r="D203" s="101"/>
+      <c r="E203" s="101"/>
+      <c r="F203" s="32" t="s">
+        <v>116</v>
       </c>
       <c r="G203" s="93">
         <v>44440</v>
@@ -21055,40 +21289,58 @@
       </c>
       <c r="K203" s="17"/>
     </row>
-    <row r="204" spans="1:11" ht="11.25" customHeight="1">
+    <row r="204" spans="1:11" ht="45">
       <c r="A204" s="12">
-        <v>187</v>
-      </c>
-      <c r="B204" s="72"/>
+        <v>200</v>
+      </c>
+      <c r="B204" s="72" t="s">
+        <v>156</v>
+      </c>
       <c r="C204" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D204" s="98"/>
-      <c r="E204" s="98"/>
-      <c r="F204" s="118"/>
+        <v>294</v>
+      </c>
+      <c r="D204" s="90" t="s">
+        <v>434</v>
+      </c>
+      <c r="E204" s="72" t="s">
+        <v>493</v>
+      </c>
+      <c r="F204" s="32" t="s">
+        <v>436</v>
+      </c>
       <c r="G204" s="93">
         <v>44440</v>
       </c>
       <c r="H204" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="I204" s="32"/>
+      <c r="I204" s="32" t="s">
+        <v>512</v>
+      </c>
       <c r="J204" s="17" t="s">
-        <v>144</v>
+        <v>510</v>
       </c>
       <c r="K204" s="17"/>
     </row>
     <row r="205" spans="1:11" ht="11.25" customHeight="1">
       <c r="A205" s="12">
-        <v>188</v>
-      </c>
-      <c r="B205" s="72"/>
+        <v>201</v>
+      </c>
+      <c r="B205" s="72" t="s">
+        <v>55</v>
+      </c>
       <c r="C205" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D205" s="98"/>
-      <c r="E205" s="98"/>
-      <c r="F205" s="118"/>
+        <v>16</v>
+      </c>
+      <c r="D205" s="99" t="s">
+        <v>434</v>
+      </c>
+      <c r="E205" s="99" t="s">
+        <v>435</v>
+      </c>
+      <c r="F205" s="115" t="s">
+        <v>438</v>
+      </c>
       <c r="G205" s="93">
         <v>44440</v>
       </c>
@@ -21103,15 +21355,15 @@
     </row>
     <row r="206" spans="1:11" ht="11.25" customHeight="1">
       <c r="A206" s="12">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="B206" s="72"/>
       <c r="C206" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D206" s="98"/>
-      <c r="E206" s="98"/>
-      <c r="F206" s="118"/>
+        <v>17</v>
+      </c>
+      <c r="D206" s="100"/>
+      <c r="E206" s="100"/>
+      <c r="F206" s="116"/>
       <c r="G206" s="93">
         <v>44440</v>
       </c>
@@ -21126,15 +21378,15 @@
     </row>
     <row r="207" spans="1:11" ht="11.25" customHeight="1">
       <c r="A207" s="12">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="B207" s="72"/>
       <c r="C207" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D207" s="98"/>
-      <c r="E207" s="98"/>
-      <c r="F207" s="118"/>
+        <v>18</v>
+      </c>
+      <c r="D207" s="100"/>
+      <c r="E207" s="100"/>
+      <c r="F207" s="116"/>
       <c r="G207" s="93">
         <v>44440</v>
       </c>
@@ -21147,17 +21399,17 @@
       </c>
       <c r="K207" s="17"/>
     </row>
-    <row r="208" spans="1:11" ht="12" customHeight="1">
+    <row r="208" spans="1:11" ht="11.25" customHeight="1">
       <c r="A208" s="12">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="B208" s="72"/>
       <c r="C208" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D208" s="98"/>
-      <c r="E208" s="98"/>
-      <c r="F208" s="119"/>
+        <v>19</v>
+      </c>
+      <c r="D208" s="100"/>
+      <c r="E208" s="100"/>
+      <c r="F208" s="116"/>
       <c r="G208" s="93">
         <v>44440</v>
       </c>
@@ -21170,19 +21422,17 @@
       </c>
       <c r="K208" s="17"/>
     </row>
-    <row r="209" spans="1:11" ht="31.5">
+    <row r="209" spans="1:11" ht="11.25" customHeight="1">
       <c r="A209" s="12">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="B209" s="72"/>
       <c r="C209" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D209" s="98"/>
-      <c r="E209" s="98"/>
-      <c r="F209" s="32" t="s">
-        <v>439</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D209" s="100"/>
+      <c r="E209" s="100"/>
+      <c r="F209" s="116"/>
       <c r="G209" s="93">
         <v>44440</v>
       </c>
@@ -21195,19 +21445,17 @@
       </c>
       <c r="K209" s="17"/>
     </row>
-    <row r="210" spans="1:11" ht="47.25">
+    <row r="210" spans="1:11" ht="12" customHeight="1">
       <c r="A210" s="12">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="B210" s="72"/>
       <c r="C210" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D210" s="98"/>
-      <c r="E210" s="98"/>
-      <c r="F210" s="32" t="s">
-        <v>437</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D210" s="100"/>
+      <c r="E210" s="100"/>
+      <c r="F210" s="117"/>
       <c r="G210" s="93">
         <v>44440</v>
       </c>
@@ -21220,18 +21468,18 @@
       </c>
       <c r="K210" s="17"/>
     </row>
-    <row r="211" spans="1:11" ht="31.5">
+    <row r="211" spans="1:11" ht="45">
       <c r="A211" s="12">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="B211" s="72"/>
       <c r="C211" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D211" s="98"/>
-      <c r="E211" s="98"/>
+        <v>22</v>
+      </c>
+      <c r="D211" s="100"/>
+      <c r="E211" s="100"/>
       <c r="F211" s="32" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G211" s="93">
         <v>44440</v>
@@ -21245,17 +21493,17 @@
       </c>
       <c r="K211" s="17"/>
     </row>
-    <row r="212" spans="1:11" ht="24" customHeight="1">
+    <row r="212" spans="1:11" ht="45">
       <c r="A212" s="12">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="B212" s="72"/>
       <c r="C212" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D212" s="98"/>
-      <c r="E212" s="98"/>
-      <c r="F212" s="117" t="s">
+        <v>23</v>
+      </c>
+      <c r="D212" s="100"/>
+      <c r="E212" s="100"/>
+      <c r="F212" s="32" t="s">
         <v>437</v>
       </c>
       <c r="G212" s="93">
@@ -21270,17 +21518,19 @@
       </c>
       <c r="K212" s="17"/>
     </row>
-    <row r="213" spans="1:11" ht="27" customHeight="1">
+    <row r="213" spans="1:11" ht="45">
       <c r="A213" s="12">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="B213" s="72"/>
       <c r="C213" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D213" s="98"/>
-      <c r="E213" s="98"/>
-      <c r="F213" s="119"/>
+        <v>24</v>
+      </c>
+      <c r="D213" s="100"/>
+      <c r="E213" s="100"/>
+      <c r="F213" s="32" t="s">
+        <v>441</v>
+      </c>
       <c r="G213" s="93">
         <v>44440</v>
       </c>
@@ -21293,18 +21543,18 @@
       </c>
       <c r="K213" s="17"/>
     </row>
-    <row r="214" spans="1:11" ht="31.5">
+    <row r="214" spans="1:11" ht="24" customHeight="1">
       <c r="A214" s="12">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="B214" s="72"/>
       <c r="C214" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D214" s="99"/>
-      <c r="E214" s="99"/>
-      <c r="F214" s="32" t="s">
-        <v>440</v>
+        <v>25</v>
+      </c>
+      <c r="D214" s="100"/>
+      <c r="E214" s="100"/>
+      <c r="F214" s="115" t="s">
+        <v>437</v>
       </c>
       <c r="G214" s="93">
         <v>44440</v>
@@ -21318,25 +21568,17 @@
       </c>
       <c r="K214" s="17"/>
     </row>
-    <row r="215" spans="1:11" ht="47.25">
+    <row r="215" spans="1:11" ht="27" customHeight="1">
       <c r="A215" s="12">
-        <v>198</v>
-      </c>
-      <c r="B215" s="72" t="s">
-        <v>156</v>
-      </c>
-      <c r="C215" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="D215" s="72" t="s">
-        <v>442</v>
-      </c>
-      <c r="E215" s="72" t="s">
-        <v>443</v>
-      </c>
-      <c r="F215" s="37" t="s">
-        <v>444</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="B215" s="72"/>
+      <c r="C215" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D215" s="100"/>
+      <c r="E215" s="100"/>
+      <c r="F215" s="117"/>
       <c r="G215" s="93">
         <v>44440</v>
       </c>
@@ -21349,24 +21591,18 @@
       </c>
       <c r="K215" s="17"/>
     </row>
-    <row r="216" spans="1:11" ht="47.25">
+    <row r="216" spans="1:11" ht="45">
       <c r="A216" s="12">
-        <v>199</v>
-      </c>
-      <c r="B216" s="72" t="s">
-        <v>55</v>
-      </c>
-      <c r="C216" s="37" t="s">
-        <v>451</v>
-      </c>
-      <c r="D216" s="72" t="s">
-        <v>445</v>
-      </c>
-      <c r="E216" s="72" t="s">
-        <v>443</v>
-      </c>
-      <c r="F216" s="37" t="s">
-        <v>452</v>
+        <v>212</v>
+      </c>
+      <c r="B216" s="72"/>
+      <c r="C216" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D216" s="101"/>
+      <c r="E216" s="101"/>
+      <c r="F216" s="32" t="s">
+        <v>440</v>
       </c>
       <c r="G216" s="93">
         <v>44440</v>
@@ -21380,22 +21616,24 @@
       </c>
       <c r="K216" s="17"/>
     </row>
-    <row r="217" spans="1:11" ht="63">
+    <row r="217" spans="1:11" ht="45">
       <c r="A217" s="12">
-        <v>200</v>
-      </c>
-      <c r="B217" s="72"/>
-      <c r="C217" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D217" s="97" t="s">
-        <v>448</v>
-      </c>
-      <c r="E217" s="97" t="s">
-        <v>449</v>
-      </c>
-      <c r="F217" s="32" t="s">
-        <v>475</v>
+        <v>213</v>
+      </c>
+      <c r="B217" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="C217" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="D217" s="72" t="s">
+        <v>442</v>
+      </c>
+      <c r="E217" s="72" t="s">
+        <v>443</v>
+      </c>
+      <c r="F217" s="37" t="s">
+        <v>444</v>
       </c>
       <c r="G217" s="93">
         <v>44440</v>
@@ -21409,18 +21647,24 @@
       </c>
       <c r="K217" s="17"/>
     </row>
-    <row r="218" spans="1:11" ht="63">
+    <row r="218" spans="1:11" ht="45">
       <c r="A218" s="12">
-        <v>201</v>
-      </c>
-      <c r="B218" s="72"/>
-      <c r="C218" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D218" s="98"/>
-      <c r="E218" s="98"/>
-      <c r="F218" s="32" t="s">
-        <v>476</v>
+        <v>214</v>
+      </c>
+      <c r="B218" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="C218" s="37" t="s">
+        <v>451</v>
+      </c>
+      <c r="D218" s="72" t="s">
+        <v>445</v>
+      </c>
+      <c r="E218" s="72" t="s">
+        <v>443</v>
+      </c>
+      <c r="F218" s="37" t="s">
+        <v>452</v>
       </c>
       <c r="G218" s="93">
         <v>44440</v>
@@ -21434,18 +21678,22 @@
       </c>
       <c r="K218" s="17"/>
     </row>
-    <row r="219" spans="1:11" ht="63">
+    <row r="219" spans="1:11" ht="75">
       <c r="A219" s="12">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="B219" s="72"/>
       <c r="C219" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D219" s="98"/>
-      <c r="E219" s="98"/>
+        <v>16</v>
+      </c>
+      <c r="D219" s="99" t="s">
+        <v>448</v>
+      </c>
+      <c r="E219" s="99" t="s">
+        <v>449</v>
+      </c>
       <c r="F219" s="32" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G219" s="93">
         <v>44440</v>
@@ -21459,18 +21707,18 @@
       </c>
       <c r="K219" s="17"/>
     </row>
-    <row r="220" spans="1:11" ht="63">
+    <row r="220" spans="1:11" ht="75">
       <c r="A220" s="12">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="B220" s="72"/>
       <c r="C220" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D220" s="98"/>
-      <c r="E220" s="98"/>
+        <v>17</v>
+      </c>
+      <c r="D220" s="100"/>
+      <c r="E220" s="100"/>
       <c r="F220" s="32" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G220" s="93">
         <v>44440</v>
@@ -21484,18 +21732,18 @@
       </c>
       <c r="K220" s="17"/>
     </row>
-    <row r="221" spans="1:11" ht="63">
+    <row r="221" spans="1:11" ht="75">
       <c r="A221" s="12">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="B221" s="72"/>
       <c r="C221" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D221" s="98"/>
-      <c r="E221" s="98"/>
+        <v>18</v>
+      </c>
+      <c r="D221" s="100"/>
+      <c r="E221" s="100"/>
       <c r="F221" s="32" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G221" s="93">
         <v>44440</v>
@@ -21509,18 +21757,18 @@
       </c>
       <c r="K221" s="17"/>
     </row>
-    <row r="222" spans="1:11" ht="78.75">
+    <row r="222" spans="1:11" ht="75">
       <c r="A222" s="12">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="B222" s="72"/>
       <c r="C222" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D222" s="98"/>
-      <c r="E222" s="98"/>
+        <v>19</v>
+      </c>
+      <c r="D222" s="100"/>
+      <c r="E222" s="100"/>
       <c r="F222" s="32" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G222" s="93">
         <v>44440</v>
@@ -21534,18 +21782,18 @@
       </c>
       <c r="K222" s="17"/>
     </row>
-    <row r="223" spans="1:11" ht="63">
+    <row r="223" spans="1:11" ht="60">
       <c r="A223" s="12">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="B223" s="72"/>
       <c r="C223" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D223" s="98"/>
-      <c r="E223" s="98"/>
+        <v>20</v>
+      </c>
+      <c r="D223" s="100"/>
+      <c r="E223" s="100"/>
       <c r="F223" s="32" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G223" s="93">
         <v>44440</v>
@@ -21559,18 +21807,18 @@
       </c>
       <c r="K223" s="17"/>
     </row>
-    <row r="224" spans="1:11" ht="63">
+    <row r="224" spans="1:11" ht="75">
       <c r="A224" s="12">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="B224" s="72"/>
       <c r="C224" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D224" s="98"/>
-      <c r="E224" s="98"/>
+        <v>21</v>
+      </c>
+      <c r="D224" s="100"/>
+      <c r="E224" s="100"/>
       <c r="F224" s="32" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G224" s="93">
         <v>44440</v>
@@ -21578,24 +21826,26 @@
       <c r="H224" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="I224" s="32"/>
+      <c r="I224" s="32" t="s">
+        <v>528</v>
+      </c>
       <c r="J224" s="17" t="s">
-        <v>144</v>
+        <v>510</v>
       </c>
       <c r="K224" s="17"/>
     </row>
-    <row r="225" spans="1:11" ht="63">
+    <row r="225" spans="1:11" ht="60">
       <c r="A225" s="12">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B225" s="72"/>
       <c r="C225" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D225" s="98"/>
-      <c r="E225" s="98"/>
+        <v>22</v>
+      </c>
+      <c r="D225" s="100"/>
+      <c r="E225" s="100"/>
       <c r="F225" s="32" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G225" s="93">
         <v>44440</v>
@@ -21609,18 +21859,18 @@
       </c>
       <c r="K225" s="17"/>
     </row>
-    <row r="226" spans="1:11" ht="63">
+    <row r="226" spans="1:11" ht="75">
       <c r="A226" s="12">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="B226" s="72"/>
       <c r="C226" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D226" s="98"/>
-      <c r="E226" s="98"/>
+        <v>23</v>
+      </c>
+      <c r="D226" s="100"/>
+      <c r="E226" s="100"/>
       <c r="F226" s="32" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G226" s="93">
         <v>44440</v>
@@ -21634,18 +21884,18 @@
       </c>
       <c r="K226" s="17"/>
     </row>
-    <row r="227" spans="1:11" ht="63">
+    <row r="227" spans="1:11" ht="75">
       <c r="A227" s="12">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="B227" s="72"/>
       <c r="C227" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D227" s="98"/>
-      <c r="E227" s="98"/>
+        <v>24</v>
+      </c>
+      <c r="D227" s="100"/>
+      <c r="E227" s="100"/>
       <c r="F227" s="32" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G227" s="93">
         <v>44440</v>
@@ -21659,18 +21909,18 @@
       </c>
       <c r="K227" s="17"/>
     </row>
-    <row r="228" spans="1:11" ht="47.25">
+    <row r="228" spans="1:11" ht="75">
       <c r="A228" s="12">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="B228" s="72"/>
       <c r="C228" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D228" s="98"/>
-      <c r="E228" s="98"/>
+        <v>25</v>
+      </c>
+      <c r="D228" s="100"/>
+      <c r="E228" s="100"/>
       <c r="F228" s="32" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="G228" s="93">
         <v>44440</v>
@@ -21684,18 +21934,18 @@
       </c>
       <c r="K228" s="17"/>
     </row>
-    <row r="229" spans="1:11" ht="63">
+    <row r="229" spans="1:11" ht="75">
       <c r="A229" s="12">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="B229" s="72"/>
       <c r="C229" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="D229" s="98"/>
-      <c r="E229" s="98"/>
-      <c r="F229" s="31" t="s">
-        <v>486</v>
+        <v>26</v>
+      </c>
+      <c r="D229" s="100"/>
+      <c r="E229" s="100"/>
+      <c r="F229" s="32" t="s">
+        <v>485</v>
       </c>
       <c r="G229" s="93">
         <v>44440</v>
@@ -21709,18 +21959,18 @@
       </c>
       <c r="K229" s="17"/>
     </row>
-    <row r="230" spans="1:11" ht="63">
+    <row r="230" spans="1:11" ht="45">
       <c r="A230" s="12">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="B230" s="72"/>
       <c r="C230" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="D230" s="99"/>
-      <c r="E230" s="99"/>
-      <c r="F230" s="31" t="s">
-        <v>487</v>
+        <v>27</v>
+      </c>
+      <c r="D230" s="100"/>
+      <c r="E230" s="100"/>
+      <c r="F230" s="32" t="s">
+        <v>474</v>
       </c>
       <c r="G230" s="93">
         <v>44440</v>
@@ -21734,24 +21984,18 @@
       </c>
       <c r="K230" s="17"/>
     </row>
-    <row r="231" spans="1:11" ht="47.25">
+    <row r="231" spans="1:11" ht="75">
       <c r="A231" s="12">
-        <v>214</v>
-      </c>
-      <c r="B231" s="72" t="s">
-        <v>55</v>
-      </c>
-      <c r="C231" s="37" t="s">
-        <v>450</v>
-      </c>
-      <c r="D231" s="72" t="s">
-        <v>445</v>
-      </c>
-      <c r="E231" s="72" t="s">
-        <v>443</v>
-      </c>
-      <c r="F231" s="32" t="s">
-        <v>446</v>
+        <v>227</v>
+      </c>
+      <c r="B231" s="72"/>
+      <c r="C231" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="D231" s="100"/>
+      <c r="E231" s="100"/>
+      <c r="F231" s="31" t="s">
+        <v>486</v>
       </c>
       <c r="G231" s="93">
         <v>44440</v>
@@ -21759,32 +22003,24 @@
       <c r="H231" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="I231" s="32" t="s">
-        <v>514</v>
-      </c>
+      <c r="I231" s="32"/>
       <c r="J231" s="17" t="s">
-        <v>510</v>
+        <v>144</v>
       </c>
       <c r="K231" s="17"/>
     </row>
-    <row r="232" spans="1:11" ht="47.25">
+    <row r="232" spans="1:11" ht="75">
       <c r="A232" s="12">
-        <v>215</v>
-      </c>
-      <c r="B232" s="72" t="s">
-        <v>156</v>
-      </c>
-      <c r="C232" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="D232" s="72" t="s">
-        <v>453</v>
-      </c>
-      <c r="E232" s="72" t="s">
-        <v>454</v>
-      </c>
-      <c r="F232" s="37" t="s">
-        <v>455</v>
+        <v>228</v>
+      </c>
+      <c r="B232" s="72"/>
+      <c r="C232" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="D232" s="101"/>
+      <c r="E232" s="101"/>
+      <c r="F232" s="31" t="s">
+        <v>487</v>
       </c>
       <c r="G232" s="93">
         <v>44440</v>
@@ -21798,24 +22034,24 @@
       </c>
       <c r="K232" s="17"/>
     </row>
-    <row r="233" spans="1:11" ht="47.25">
+    <row r="233" spans="1:11" ht="45">
       <c r="A233" s="12">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="B233" s="72" t="s">
-        <v>156</v>
+        <v>55</v>
       </c>
       <c r="C233" s="37" t="s">
-        <v>395</v>
+        <v>450</v>
       </c>
       <c r="D233" s="72" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="E233" s="72" t="s">
-        <v>457</v>
-      </c>
-      <c r="F233" s="37" t="s">
-        <v>458</v>
+        <v>443</v>
+      </c>
+      <c r="F233" s="32" t="s">
+        <v>446</v>
       </c>
       <c r="G233" s="93">
         <v>44440</v>
@@ -21823,28 +22059,32 @@
       <c r="H233" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="I233" s="32"/>
+      <c r="I233" s="32" t="s">
+        <v>514</v>
+      </c>
       <c r="J233" s="17" t="s">
-        <v>144</v>
+        <v>510</v>
       </c>
       <c r="K233" s="17"/>
     </row>
-    <row r="234" spans="1:11" ht="47.25">
+    <row r="234" spans="1:11" ht="45">
       <c r="A234" s="12">
-        <v>217</v>
-      </c>
-      <c r="B234" s="72"/>
+        <v>230</v>
+      </c>
+      <c r="B234" s="72" t="s">
+        <v>156</v>
+      </c>
       <c r="C234" s="37" t="s">
-        <v>395</v>
+        <v>132</v>
       </c>
       <c r="D234" s="72" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="E234" s="72" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="F234" s="37" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="G234" s="93">
         <v>44440</v>
@@ -21858,22 +22098,24 @@
       </c>
       <c r="K234" s="17"/>
     </row>
-    <row r="235" spans="1:11" ht="47.25">
+    <row r="235" spans="1:11" ht="45">
       <c r="A235" s="12">
-        <v>218</v>
-      </c>
-      <c r="B235" s="72"/>
+        <v>231</v>
+      </c>
+      <c r="B235" s="72" t="s">
+        <v>156</v>
+      </c>
       <c r="C235" s="37" t="s">
         <v>395</v>
       </c>
       <c r="D235" s="72" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="E235" s="72" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F235" s="37" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G235" s="93">
         <v>44440</v>
@@ -21887,22 +22129,22 @@
       </c>
       <c r="K235" s="17"/>
     </row>
-    <row r="236" spans="1:11" ht="47.25">
+    <row r="236" spans="1:11" ht="45">
       <c r="A236" s="12">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="B236" s="72"/>
       <c r="C236" s="37" t="s">
         <v>395</v>
       </c>
       <c r="D236" s="72" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="E236" s="72" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="F236" s="37" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="G236" s="93">
         <v>44440</v>
@@ -21916,22 +22158,22 @@
       </c>
       <c r="K236" s="17"/>
     </row>
-    <row r="237" spans="1:11" ht="47.25">
+    <row r="237" spans="1:11" ht="45">
       <c r="A237" s="12">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="B237" s="72"/>
       <c r="C237" s="37" t="s">
         <v>395</v>
       </c>
       <c r="D237" s="72" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="E237" s="72" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="F237" s="37" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="G237" s="93">
         <v>44440</v>
@@ -21945,22 +22187,22 @@
       </c>
       <c r="K237" s="17"/>
     </row>
-    <row r="238" spans="1:11" ht="47.25">
+    <row r="238" spans="1:11" ht="45">
       <c r="A238" s="12">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="B238" s="72"/>
       <c r="C238" s="37" t="s">
         <v>395</v>
       </c>
       <c r="D238" s="72" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="E238" s="72" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="F238" s="37" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="G238" s="93">
         <v>44440</v>
@@ -21974,22 +22216,22 @@
       </c>
       <c r="K238" s="17"/>
     </row>
-    <row r="239" spans="1:11" ht="47.25">
+    <row r="239" spans="1:11" ht="45">
       <c r="A239" s="12">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="B239" s="72"/>
       <c r="C239" s="37" t="s">
         <v>395</v>
       </c>
       <c r="D239" s="72" t="s">
-        <v>501</v>
+        <v>468</v>
       </c>
       <c r="E239" s="72" t="s">
-        <v>504</v>
+        <v>469</v>
       </c>
       <c r="F239" s="37" t="s">
-        <v>507</v>
+        <v>470</v>
       </c>
       <c r="G239" s="93">
         <v>44440</v>
@@ -22003,22 +22245,22 @@
       </c>
       <c r="K239" s="17"/>
     </row>
-    <row r="240" spans="1:11" ht="47.25">
+    <row r="240" spans="1:11" ht="45">
       <c r="A240" s="12">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="B240" s="72"/>
       <c r="C240" s="37" t="s">
         <v>395</v>
       </c>
       <c r="D240" s="72" t="s">
-        <v>502</v>
+        <v>471</v>
       </c>
       <c r="E240" s="72" t="s">
-        <v>505</v>
+        <v>472</v>
       </c>
       <c r="F240" s="37" t="s">
-        <v>508</v>
+        <v>473</v>
       </c>
       <c r="G240" s="93">
         <v>44440</v>
@@ -22026,30 +22268,28 @@
       <c r="H240" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="I240" s="32" t="s">
-        <v>513</v>
-      </c>
+      <c r="I240" s="32"/>
       <c r="J240" s="17" t="s">
-        <v>510</v>
+        <v>144</v>
       </c>
       <c r="K240" s="17"/>
     </row>
-    <row r="241" spans="1:11" ht="47.25">
+    <row r="241" spans="1:11" ht="45">
       <c r="A241" s="12">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="B241" s="72"/>
       <c r="C241" s="37" t="s">
         <v>395</v>
       </c>
       <c r="D241" s="72" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E241" s="72" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F241" s="37" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G241" s="93">
         <v>44440</v>
@@ -22063,36 +22303,70 @@
       </c>
       <c r="K241" s="17"/>
     </row>
-    <row r="242" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A242" s="12"/>
+    <row r="242" spans="1:11" ht="45">
+      <c r="A242" s="12">
+        <v>238</v>
+      </c>
       <c r="B242" s="72"/>
-      <c r="C242" s="24"/>
-      <c r="D242" s="73"/>
-      <c r="E242" s="37"/>
-      <c r="F242" s="37"/>
-      <c r="G242" s="73"/>
-      <c r="H242" s="17"/>
-      <c r="I242" s="32"/>
-      <c r="J242" s="17"/>
+      <c r="C242" s="37" t="s">
+        <v>395</v>
+      </c>
+      <c r="D242" s="72" t="s">
+        <v>502</v>
+      </c>
+      <c r="E242" s="72" t="s">
+        <v>505</v>
+      </c>
+      <c r="F242" s="37" t="s">
+        <v>508</v>
+      </c>
+      <c r="G242" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H242" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="I242" s="32" t="s">
+        <v>513</v>
+      </c>
+      <c r="J242" s="17" t="s">
+        <v>510</v>
+      </c>
       <c r="K242" s="17"/>
     </row>
-    <row r="243" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A243" s="17"/>
+    <row r="243" spans="1:11" ht="45">
+      <c r="A243" s="12">
+        <v>239</v>
+      </c>
       <c r="B243" s="72"/>
-      <c r="C243" s="24"/>
-      <c r="D243" s="73"/>
-      <c r="E243" s="37"/>
-      <c r="F243" s="37"/>
-      <c r="G243" s="73"/>
-      <c r="H243" s="17"/>
+      <c r="C243" s="37" t="s">
+        <v>395</v>
+      </c>
+      <c r="D243" s="72" t="s">
+        <v>503</v>
+      </c>
+      <c r="E243" s="72" t="s">
+        <v>506</v>
+      </c>
+      <c r="F243" s="37" t="s">
+        <v>509</v>
+      </c>
+      <c r="G243" s="93">
+        <v>44440</v>
+      </c>
+      <c r="H243" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I243" s="32"/>
-      <c r="J243" s="17"/>
+      <c r="J243" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K243" s="17"/>
     </row>
     <row r="244" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A244" s="17"/>
+      <c r="A244" s="12"/>
       <c r="B244" s="72"/>
-      <c r="C244" s="37"/>
+      <c r="C244" s="24"/>
       <c r="D244" s="73"/>
       <c r="E244" s="37"/>
       <c r="F244" s="37"/>
@@ -22105,7 +22379,7 @@
     <row r="245" spans="1:11" ht="11.25" customHeight="1">
       <c r="A245" s="17"/>
       <c r="B245" s="72"/>
-      <c r="C245" s="37"/>
+      <c r="C245" s="24"/>
       <c r="D245" s="73"/>
       <c r="E245" s="37"/>
       <c r="F245" s="37"/>
@@ -23636,21 +23910,49 @@
       <c r="J362" s="17"/>
       <c r="K362" s="17"/>
     </row>
+    <row r="363" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A363" s="17"/>
+      <c r="B363" s="72"/>
+      <c r="C363" s="37"/>
+      <c r="D363" s="73"/>
+      <c r="E363" s="37"/>
+      <c r="F363" s="37"/>
+      <c r="G363" s="73"/>
+      <c r="H363" s="17"/>
+      <c r="I363" s="32"/>
+      <c r="J363" s="17"/>
+      <c r="K363" s="17"/>
+    </row>
+    <row r="364" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A364" s="17"/>
+      <c r="B364" s="72"/>
+      <c r="C364" s="37"/>
+      <c r="D364" s="73"/>
+      <c r="E364" s="37"/>
+      <c r="F364" s="37"/>
+      <c r="G364" s="73"/>
+      <c r="H364" s="17"/>
+      <c r="I364" s="32"/>
+      <c r="J364" s="17"/>
+      <c r="K364" s="17"/>
+    </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="F203:F208"/>
-    <mergeCell ref="F212:F213"/>
-    <mergeCell ref="D217:D230"/>
-    <mergeCell ref="E217:E230"/>
-    <mergeCell ref="E190:E201"/>
-    <mergeCell ref="D190:D201"/>
-    <mergeCell ref="D203:D214"/>
-    <mergeCell ref="E203:E214"/>
-    <mergeCell ref="D156:D167"/>
-    <mergeCell ref="E156:E167"/>
-    <mergeCell ref="D168:D179"/>
-    <mergeCell ref="F168:F179"/>
-    <mergeCell ref="D180:D189"/>
+    <mergeCell ref="F130:F141"/>
+    <mergeCell ref="D144:D145"/>
+    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="D114:D125"/>
+    <mergeCell ref="E114:E125"/>
+    <mergeCell ref="D130:D141"/>
+    <mergeCell ref="E130:E141"/>
+    <mergeCell ref="D98:D108"/>
+    <mergeCell ref="E98:E108"/>
+    <mergeCell ref="D79:D94"/>
+    <mergeCell ref="D42:D53"/>
+    <mergeCell ref="E42:E53"/>
+    <mergeCell ref="E66:E77"/>
+    <mergeCell ref="E79:E94"/>
+    <mergeCell ref="D66:D77"/>
     <mergeCell ref="F66:F77"/>
     <mergeCell ref="D54:D65"/>
     <mergeCell ref="E54:E65"/>
@@ -23665,21 +23967,19 @@
     <mergeCell ref="D20:D31"/>
     <mergeCell ref="D32:D41"/>
     <mergeCell ref="F42:F53"/>
-    <mergeCell ref="D98:D108"/>
-    <mergeCell ref="E98:E108"/>
-    <mergeCell ref="D79:D94"/>
-    <mergeCell ref="D42:D53"/>
-    <mergeCell ref="E42:E53"/>
-    <mergeCell ref="E66:E77"/>
-    <mergeCell ref="E79:E94"/>
-    <mergeCell ref="D66:D77"/>
-    <mergeCell ref="F129:F140"/>
-    <mergeCell ref="D143:D144"/>
-    <mergeCell ref="E143:E144"/>
-    <mergeCell ref="D114:D125"/>
-    <mergeCell ref="E114:E125"/>
-    <mergeCell ref="D129:D140"/>
-    <mergeCell ref="E129:E140"/>
+    <mergeCell ref="D157:D168"/>
+    <mergeCell ref="E157:E168"/>
+    <mergeCell ref="D170:D181"/>
+    <mergeCell ref="F170:F181"/>
+    <mergeCell ref="D182:D191"/>
+    <mergeCell ref="F205:F210"/>
+    <mergeCell ref="F214:F215"/>
+    <mergeCell ref="D219:D232"/>
+    <mergeCell ref="E219:E232"/>
+    <mergeCell ref="E192:E203"/>
+    <mergeCell ref="D192:D203"/>
+    <mergeCell ref="D205:D216"/>
+    <mergeCell ref="E205:E216"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/testcase_account_ver3.xlsx
+++ b/testcase_account_ver3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\7-Programming-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A3D193-B2FE-404B-92BB-2C0117B3A4F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3873473-AC09-46EC-9D1C-3D339BD0D317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="888" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単体テスト" sheetId="166" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1989" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2007" uniqueCount="538">
   <si>
     <t>作成者</t>
   </si>
@@ -10088,6 +10088,122 @@
       <t>コウシン</t>
     </rPh>
     <rPh sb="40" eb="42">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除画面</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面に表示されている「削除」と書かれたボタンを押す。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除フラグが1の場合、「削除されているため、表示できません。」と表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9/8：左のチェックボックスにチェック入れていない状態でも編集することができてしまう。</t>
+    <rPh sb="4" eb="5">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チェックがない状態だとエラー動作のチェックをしないようにしているため、誤った内容を入力しても文字チェックされていない。</t>
+    <rPh sb="7" eb="9">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>アヤマ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新しない状態でも、PHP MyAdminで更新すると値が変わってしまうため修正必要。</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="38" eb="42">
+      <t>シュウセイヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面に表示されている「更新」と書かれたボタンを押す。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除フラグが1の場合、「削除されているため、更新できません。」と表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -10439,7 +10555,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -10729,6 +10845,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -10743,15 +10865,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -10783,6 +10896,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -10792,12 +10926,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -10806,12 +10934,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -11163,10 +11285,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M173"/>
+  <dimension ref="A1:M175"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E147" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K165" sqref="K165"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A168" sqref="A168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -11186,12 +11308,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
       <c r="E1" s="53" t="s">
         <v>2</v>
       </c>
@@ -11214,10 +11336,10 @@
       <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A2" s="110"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
+      <c r="A2" s="109"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
       <c r="E2" s="53" t="s">
         <v>3</v>
       </c>
@@ -11531,7 +11653,7 @@
       <c r="F12" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="105" t="s">
+      <c r="G12" s="104" t="s">
         <v>107</v>
       </c>
       <c r="H12" s="68">
@@ -11561,7 +11683,7 @@
       <c r="F13" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="106"/>
+      <c r="G13" s="105"/>
       <c r="H13" s="60">
         <v>44354</v>
       </c>
@@ -11589,7 +11711,7 @@
       <c r="F14" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="106"/>
+      <c r="G14" s="105"/>
       <c r="H14" s="60">
         <v>44354</v>
       </c>
@@ -11617,7 +11739,7 @@
       <c r="F15" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="106"/>
+      <c r="G15" s="105"/>
       <c r="H15" s="68">
         <v>44354</v>
       </c>
@@ -11645,7 +11767,7 @@
       <c r="F16" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="106"/>
+      <c r="G16" s="105"/>
       <c r="H16" s="60">
         <v>44354</v>
       </c>
@@ -11673,7 +11795,7 @@
       <c r="F17" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="106"/>
+      <c r="G17" s="105"/>
       <c r="H17" s="60">
         <v>44354</v>
       </c>
@@ -11701,7 +11823,7 @@
       <c r="F18" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="106"/>
+      <c r="G18" s="105"/>
       <c r="H18" s="68">
         <v>44354</v>
       </c>
@@ -11729,7 +11851,7 @@
       <c r="F19" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="106"/>
+      <c r="G19" s="105"/>
       <c r="H19" s="60">
         <v>44354</v>
       </c>
@@ -11757,7 +11879,7 @@
       <c r="F20" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="106"/>
+      <c r="G20" s="105"/>
       <c r="H20" s="60">
         <v>44354</v>
       </c>
@@ -11785,7 +11907,7 @@
       <c r="F21" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="106"/>
+      <c r="G21" s="105"/>
       <c r="H21" s="68">
         <v>44354</v>
       </c>
@@ -11813,7 +11935,7 @@
       <c r="F22" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="106"/>
+      <c r="G22" s="105"/>
       <c r="H22" s="60">
         <v>44354</v>
       </c>
@@ -11841,7 +11963,7 @@
       <c r="F23" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="107"/>
+      <c r="G23" s="106"/>
       <c r="H23" s="60">
         <v>44354</v>
       </c>
@@ -12299,7 +12421,7 @@
       <c r="F38" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="G38" s="99" t="s">
+      <c r="G38" s="101" t="s">
         <v>110</v>
       </c>
       <c r="H38" s="68">
@@ -12329,7 +12451,7 @@
       <c r="F39" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="G39" s="100"/>
+      <c r="G39" s="102"/>
       <c r="H39" s="68">
         <v>44354</v>
       </c>
@@ -12357,7 +12479,7 @@
       <c r="F40" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="G40" s="100"/>
+      <c r="G40" s="102"/>
       <c r="H40" s="68">
         <v>44354</v>
       </c>
@@ -12385,7 +12507,7 @@
       <c r="F41" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="G41" s="100"/>
+      <c r="G41" s="102"/>
       <c r="H41" s="68">
         <v>44354</v>
       </c>
@@ -12413,7 +12535,7 @@
       <c r="F42" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="G42" s="101"/>
+      <c r="G42" s="103"/>
       <c r="H42" s="68">
         <v>44354</v>
       </c>
@@ -12565,7 +12687,7 @@
       <c r="F47" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="G47" s="99" t="s">
+      <c r="G47" s="101" t="s">
         <v>110</v>
       </c>
       <c r="H47" s="68">
@@ -12595,7 +12717,7 @@
       <c r="F48" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="G48" s="101"/>
+      <c r="G48" s="103"/>
       <c r="H48" s="68">
         <v>44354</v>
       </c>
@@ -12876,7 +12998,7 @@
       <c r="E57" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F57" s="105" t="s">
+      <c r="F57" s="104" t="s">
         <v>232</v>
       </c>
       <c r="G57" s="32" t="s">
@@ -12908,7 +13030,7 @@
       <c r="E58" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F58" s="106"/>
+      <c r="F58" s="105"/>
       <c r="G58" s="32" t="s">
         <v>233</v>
       </c>
@@ -12935,10 +13057,10 @@
       <c r="D59" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="E59" s="112" t="s">
+      <c r="E59" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="F59" s="106"/>
+      <c r="F59" s="105"/>
       <c r="G59" s="37" t="s">
         <v>260</v>
       </c>
@@ -12963,8 +13085,8 @@
       <c r="D60" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E60" s="113"/>
-      <c r="F60" s="106"/>
+      <c r="E60" s="112"/>
+      <c r="F60" s="105"/>
       <c r="G60" s="37" t="s">
         <v>261</v>
       </c>
@@ -12989,8 +13111,8 @@
       <c r="D61" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E61" s="113"/>
-      <c r="F61" s="106"/>
+      <c r="E61" s="112"/>
+      <c r="F61" s="105"/>
       <c r="G61" s="37" t="s">
         <v>262</v>
       </c>
@@ -13015,8 +13137,8 @@
       <c r="D62" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E62" s="113"/>
-      <c r="F62" s="106"/>
+      <c r="E62" s="112"/>
+      <c r="F62" s="105"/>
       <c r="G62" s="37" t="s">
         <v>263</v>
       </c>
@@ -13041,8 +13163,8 @@
       <c r="D63" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E63" s="113"/>
-      <c r="F63" s="106"/>
+      <c r="E63" s="112"/>
+      <c r="F63" s="105"/>
       <c r="G63" s="37" t="s">
         <v>264</v>
       </c>
@@ -13067,8 +13189,8 @@
       <c r="D64" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E64" s="113"/>
-      <c r="F64" s="106"/>
+      <c r="E64" s="112"/>
+      <c r="F64" s="105"/>
       <c r="G64" s="37" t="s">
         <v>265</v>
       </c>
@@ -13093,8 +13215,8 @@
       <c r="D65" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E65" s="113"/>
-      <c r="F65" s="106"/>
+      <c r="E65" s="112"/>
+      <c r="F65" s="105"/>
       <c r="G65" s="31" t="s">
         <v>272</v>
       </c>
@@ -13119,8 +13241,8 @@
       <c r="D66" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E66" s="113"/>
-      <c r="F66" s="106"/>
+      <c r="E66" s="112"/>
+      <c r="F66" s="105"/>
       <c r="G66" s="31" t="s">
         <v>273</v>
       </c>
@@ -13145,8 +13267,8 @@
       <c r="D67" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="E67" s="113"/>
-      <c r="F67" s="106"/>
+      <c r="E67" s="112"/>
+      <c r="F67" s="105"/>
       <c r="G67" s="31" t="s">
         <v>274</v>
       </c>
@@ -13171,8 +13293,8 @@
       <c r="D68" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="E68" s="113"/>
-      <c r="F68" s="106"/>
+      <c r="E68" s="112"/>
+      <c r="F68" s="105"/>
       <c r="G68" s="31" t="s">
         <v>275</v>
       </c>
@@ -13197,8 +13319,8 @@
       <c r="D69" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="E69" s="113"/>
-      <c r="F69" s="106"/>
+      <c r="E69" s="112"/>
+      <c r="F69" s="105"/>
       <c r="G69" s="31" t="s">
         <v>275</v>
       </c>
@@ -13223,8 +13345,8 @@
       <c r="D70" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="E70" s="113"/>
-      <c r="F70" s="106"/>
+      <c r="E70" s="112"/>
+      <c r="F70" s="105"/>
       <c r="G70" s="31" t="s">
         <v>270</v>
       </c>
@@ -13249,8 +13371,8 @@
       <c r="D71" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="E71" s="114"/>
-      <c r="F71" s="107"/>
+      <c r="E71" s="113"/>
+      <c r="F71" s="106"/>
       <c r="G71" s="31" t="s">
         <v>271</v>
       </c>
@@ -13311,10 +13433,10 @@
       <c r="D73" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E73" s="96" t="s">
+      <c r="E73" s="98" t="s">
         <v>55</v>
       </c>
-      <c r="F73" s="99" t="s">
+      <c r="F73" s="101" t="s">
         <v>277</v>
       </c>
       <c r="G73" s="31" t="s">
@@ -13341,8 +13463,8 @@
       <c r="D74" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E74" s="97"/>
-      <c r="F74" s="100"/>
+      <c r="E74" s="99"/>
+      <c r="F74" s="102"/>
       <c r="G74" s="31" t="s">
         <v>280</v>
       </c>
@@ -13367,8 +13489,8 @@
       <c r="D75" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="97"/>
-      <c r="F75" s="100"/>
+      <c r="E75" s="99"/>
+      <c r="F75" s="102"/>
       <c r="G75" s="31" t="s">
         <v>281</v>
       </c>
@@ -13393,8 +13515,8 @@
       <c r="D76" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E76" s="97"/>
-      <c r="F76" s="100"/>
+      <c r="E76" s="99"/>
+      <c r="F76" s="102"/>
       <c r="G76" s="31" t="s">
         <v>282</v>
       </c>
@@ -13419,8 +13541,8 @@
       <c r="D77" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E77" s="97"/>
-      <c r="F77" s="100"/>
+      <c r="E77" s="99"/>
+      <c r="F77" s="102"/>
       <c r="G77" s="31" t="s">
         <v>283</v>
       </c>
@@ -13445,8 +13567,8 @@
       <c r="D78" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E78" s="97"/>
-      <c r="F78" s="100"/>
+      <c r="E78" s="99"/>
+      <c r="F78" s="102"/>
       <c r="G78" s="31" t="s">
         <v>284</v>
       </c>
@@ -13471,8 +13593,8 @@
       <c r="D79" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E79" s="97"/>
-      <c r="F79" s="100"/>
+      <c r="E79" s="99"/>
+      <c r="F79" s="102"/>
       <c r="G79" s="31" t="s">
         <v>289</v>
       </c>
@@ -13497,8 +13619,8 @@
       <c r="D80" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E80" s="97"/>
-      <c r="F80" s="100"/>
+      <c r="E80" s="99"/>
+      <c r="F80" s="102"/>
       <c r="G80" s="31" t="s">
         <v>285</v>
       </c>
@@ -13523,8 +13645,8 @@
       <c r="D81" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E81" s="97"/>
-      <c r="F81" s="100"/>
+      <c r="E81" s="99"/>
+      <c r="F81" s="102"/>
       <c r="G81" s="31" t="s">
         <v>290</v>
       </c>
@@ -13549,8 +13671,8 @@
       <c r="D82" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E82" s="97"/>
-      <c r="F82" s="100"/>
+      <c r="E82" s="99"/>
+      <c r="F82" s="102"/>
       <c r="G82" s="31" t="s">
         <v>286</v>
       </c>
@@ -13575,8 +13697,8 @@
       <c r="D83" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E83" s="97"/>
-      <c r="F83" s="100"/>
+      <c r="E83" s="99"/>
+      <c r="F83" s="102"/>
       <c r="G83" s="31" t="s">
         <v>287</v>
       </c>
@@ -13601,8 +13723,8 @@
       <c r="D84" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E84" s="98"/>
-      <c r="F84" s="101"/>
+      <c r="E84" s="100"/>
+      <c r="F84" s="103"/>
       <c r="G84" s="31" t="s">
         <v>288</v>
       </c>
@@ -13653,32 +13775,32 @@
         <v>81</v>
       </c>
       <c r="B86" s="48" t="s">
-        <v>293</v>
+        <v>530</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>78</v>
+        <v>518</v>
       </c>
       <c r="D86" s="24" t="s">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="E86" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="F86" s="99" t="s">
-        <v>301</v>
+      <c r="F86" s="97" t="s">
+        <v>531</v>
       </c>
       <c r="G86" s="31" t="s">
-        <v>365</v>
+        <v>532</v>
       </c>
       <c r="H86" s="68">
-        <v>44428</v>
+        <v>44447</v>
       </c>
       <c r="I86" s="12" t="s">
         <v>6</v>
       </c>
       <c r="J86" s="30"/>
       <c r="K86" s="39" t="s">
-        <v>144</v>
+        <v>510</v>
       </c>
       <c r="L86" s="11"/>
     </row>
@@ -13686,15 +13808,23 @@
       <c r="A87" s="12">
         <v>82</v>
       </c>
-      <c r="B87" s="48"/>
-      <c r="C87" s="25"/>
-      <c r="D87" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="E87" s="97"/>
-      <c r="F87" s="100"/>
+      <c r="B87" s="48" t="s">
+        <v>293</v>
+      </c>
+      <c r="C87" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D87" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E87" s="98" t="s">
+        <v>55</v>
+      </c>
+      <c r="F87" s="101" t="s">
+        <v>301</v>
+      </c>
       <c r="G87" s="31" t="s">
-        <v>303</v>
+        <v>365</v>
       </c>
       <c r="H87" s="68">
         <v>44428</v>
@@ -13715,12 +13845,12 @@
       <c r="B88" s="48"/>
       <c r="C88" s="25"/>
       <c r="D88" s="25" t="s">
-        <v>294</v>
-      </c>
-      <c r="E88" s="97"/>
-      <c r="F88" s="100"/>
+        <v>136</v>
+      </c>
+      <c r="E88" s="99"/>
+      <c r="F88" s="102"/>
       <c r="G88" s="31" t="s">
-        <v>370</v>
+        <v>303</v>
       </c>
       <c r="H88" s="68">
         <v>44428</v>
@@ -13741,12 +13871,12 @@
       <c r="B89" s="48"/>
       <c r="C89" s="25"/>
       <c r="D89" s="25" t="s">
-        <v>295</v>
-      </c>
-      <c r="E89" s="98"/>
-      <c r="F89" s="101"/>
+        <v>294</v>
+      </c>
+      <c r="E89" s="99"/>
+      <c r="F89" s="102"/>
       <c r="G89" s="31" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H89" s="68">
         <v>44428</v>
@@ -13760,27 +13890,19 @@
       </c>
       <c r="L89" s="11"/>
     </row>
-    <row r="90" spans="1:12" ht="45">
+    <row r="90" spans="1:12" ht="30">
       <c r="A90" s="12">
         <v>85</v>
       </c>
-      <c r="B90" s="48" t="s">
-        <v>296</v>
-      </c>
-      <c r="C90" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="D90" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E90" s="96" t="s">
-        <v>55</v>
-      </c>
-      <c r="F90" s="105" t="s">
-        <v>300</v>
-      </c>
-      <c r="G90" s="30" t="s">
-        <v>299</v>
+      <c r="B90" s="48"/>
+      <c r="C90" s="25"/>
+      <c r="D90" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="E90" s="100"/>
+      <c r="F90" s="103"/>
+      <c r="G90" s="31" t="s">
+        <v>371</v>
       </c>
       <c r="H90" s="68">
         <v>44428</v>
@@ -13794,24 +13916,30 @@
       </c>
       <c r="L90" s="11"/>
     </row>
-    <row r="91" spans="1:12" ht="30">
+    <row r="91" spans="1:12" ht="45">
       <c r="A91" s="12">
         <v>86</v>
       </c>
-      <c r="B91" s="48"/>
+      <c r="B91" s="48" t="s">
+        <v>296</v>
+      </c>
       <c r="C91" s="37" t="s">
-        <v>297</v>
+        <v>78</v>
       </c>
       <c r="D91" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="E91" s="97"/>
-      <c r="F91" s="106"/>
-      <c r="G91" s="32" t="s">
-        <v>298</v>
+        <v>79</v>
+      </c>
+      <c r="E91" s="98" t="s">
+        <v>55</v>
+      </c>
+      <c r="F91" s="104" t="s">
+        <v>300</v>
+      </c>
+      <c r="G91" s="30" t="s">
+        <v>299</v>
       </c>
       <c r="H91" s="68">
-        <v>44435</v>
+        <v>44428</v>
       </c>
       <c r="I91" s="12" t="s">
         <v>6</v>
@@ -13827,14 +13955,16 @@
         <v>87</v>
       </c>
       <c r="B92" s="48"/>
-      <c r="C92" s="37"/>
+      <c r="C92" s="37" t="s">
+        <v>297</v>
+      </c>
       <c r="D92" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="E92" s="98"/>
-      <c r="F92" s="106"/>
+        <v>136</v>
+      </c>
+      <c r="E92" s="99"/>
+      <c r="F92" s="105"/>
       <c r="G92" s="32" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H92" s="68">
         <v>44435</v>
@@ -13852,21 +13982,15 @@
       <c r="A93" s="12">
         <v>88</v>
       </c>
-      <c r="B93" s="48" t="s">
-        <v>353</v>
-      </c>
-      <c r="C93" s="37" t="s">
-        <v>136</v>
-      </c>
+      <c r="B93" s="48"/>
+      <c r="C93" s="37"/>
       <c r="D93" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="E93" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="F93" s="106"/>
+        <v>132</v>
+      </c>
+      <c r="E93" s="100"/>
+      <c r="F93" s="105"/>
       <c r="G93" s="32" t="s">
-        <v>354</v>
+        <v>302</v>
       </c>
       <c r="H93" s="68">
         <v>44435</v>
@@ -13884,17 +14008,21 @@
       <c r="A94" s="12">
         <v>89</v>
       </c>
-      <c r="B94" s="48"/>
-      <c r="C94" s="37"/>
+      <c r="B94" s="48" t="s">
+        <v>353</v>
+      </c>
+      <c r="C94" s="37" t="s">
+        <v>136</v>
+      </c>
       <c r="D94" s="23" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E94" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F94" s="107"/>
+      <c r="F94" s="105"/>
       <c r="G94" s="32" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H94" s="68">
         <v>44435</v>
@@ -13908,25 +14036,21 @@
       </c>
       <c r="L94" s="11"/>
     </row>
-    <row r="95" spans="1:12" ht="45">
+    <row r="95" spans="1:12" ht="30">
       <c r="A95" s="12">
         <v>90</v>
       </c>
       <c r="B95" s="48"/>
-      <c r="C95" s="37" t="s">
-        <v>361</v>
-      </c>
+      <c r="C95" s="37"/>
       <c r="D95" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="E95" s="88" t="s">
+        <v>152</v>
+      </c>
+      <c r="E95" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F95" s="87" t="s">
-        <v>362</v>
-      </c>
+      <c r="F95" s="106"/>
       <c r="G95" s="32" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="H95" s="68">
         <v>44435</v>
@@ -13934,35 +14058,31 @@
       <c r="I95" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J95" s="30" t="s">
-        <v>516</v>
-      </c>
+      <c r="J95" s="30"/>
       <c r="K95" s="39" t="s">
-        <v>510</v>
+        <v>144</v>
       </c>
       <c r="L95" s="11"/>
     </row>
-    <row r="96" spans="1:12" ht="30">
+    <row r="96" spans="1:12" ht="45">
       <c r="A96" s="12">
         <v>91</v>
       </c>
-      <c r="B96" s="48" t="s">
-        <v>304</v>
-      </c>
-      <c r="C96" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="D96" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="E96" s="24" t="s">
+      <c r="B96" s="48"/>
+      <c r="C96" s="37" t="s">
+        <v>361</v>
+      </c>
+      <c r="D96" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="E96" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="F96" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="G96" s="31" t="s">
-        <v>369</v>
+      <c r="F96" s="87" t="s">
+        <v>362</v>
+      </c>
+      <c r="G96" s="32" t="s">
+        <v>366</v>
       </c>
       <c r="H96" s="68">
         <v>44435</v>
@@ -13970,31 +14090,35 @@
       <c r="I96" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J96" s="30"/>
+      <c r="J96" s="30" t="s">
+        <v>516</v>
+      </c>
       <c r="K96" s="39" t="s">
-        <v>144</v>
+        <v>510</v>
       </c>
       <c r="L96" s="11"/>
     </row>
-    <row r="97" spans="1:12" ht="45">
+    <row r="97" spans="1:12" ht="30">
       <c r="A97" s="12">
         <v>92</v>
       </c>
-      <c r="B97" s="48"/>
+      <c r="B97" s="48" t="s">
+        <v>304</v>
+      </c>
       <c r="C97" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="D97" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E97" s="96" t="s">
+        <v>78</v>
+      </c>
+      <c r="D97" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E97" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F97" s="99" t="s">
+      <c r="F97" s="37" t="s">
         <v>305</v>
       </c>
       <c r="G97" s="31" t="s">
-        <v>307</v>
+        <v>369</v>
       </c>
       <c r="H97" s="68">
         <v>44435</v>
@@ -14013,14 +14137,20 @@
         <v>93</v>
       </c>
       <c r="B98" s="48"/>
-      <c r="C98" s="25"/>
+      <c r="C98" s="25" t="s">
+        <v>126</v>
+      </c>
       <c r="D98" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E98" s="97"/>
-      <c r="F98" s="100"/>
+        <v>16</v>
+      </c>
+      <c r="E98" s="98" t="s">
+        <v>55</v>
+      </c>
+      <c r="F98" s="101" t="s">
+        <v>305</v>
+      </c>
       <c r="G98" s="31" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="H98" s="68">
         <v>44435</v>
@@ -14041,12 +14171,12 @@
       <c r="B99" s="48"/>
       <c r="C99" s="25"/>
       <c r="D99" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E99" s="97"/>
-      <c r="F99" s="100"/>
+        <v>17</v>
+      </c>
+      <c r="E99" s="99"/>
+      <c r="F99" s="102"/>
       <c r="G99" s="31" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H99" s="68">
         <v>44435</v>
@@ -14067,12 +14197,12 @@
       <c r="B100" s="48"/>
       <c r="C100" s="25"/>
       <c r="D100" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E100" s="97"/>
-      <c r="F100" s="100"/>
+        <v>18</v>
+      </c>
+      <c r="E100" s="99"/>
+      <c r="F100" s="102"/>
       <c r="G100" s="31" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H100" s="68">
         <v>44435</v>
@@ -14093,12 +14223,12 @@
       <c r="B101" s="48"/>
       <c r="C101" s="25"/>
       <c r="D101" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E101" s="97"/>
-      <c r="F101" s="100"/>
+        <v>19</v>
+      </c>
+      <c r="E101" s="99"/>
+      <c r="F101" s="102"/>
       <c r="G101" s="31" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="H101" s="68">
         <v>44435</v>
@@ -14112,19 +14242,19 @@
       </c>
       <c r="L101" s="11"/>
     </row>
-    <row r="102" spans="1:12" ht="75">
+    <row r="102" spans="1:12" ht="45">
       <c r="A102" s="12">
         <v>97</v>
       </c>
       <c r="B102" s="48"/>
       <c r="C102" s="25"/>
       <c r="D102" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E102" s="97"/>
-      <c r="F102" s="100"/>
+        <v>20</v>
+      </c>
+      <c r="E102" s="99"/>
+      <c r="F102" s="102"/>
       <c r="G102" s="31" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H102" s="68">
         <v>44435</v>
@@ -14138,19 +14268,19 @@
       </c>
       <c r="L102" s="11"/>
     </row>
-    <row r="103" spans="1:12" ht="45">
+    <row r="103" spans="1:12" ht="75">
       <c r="A103" s="12">
         <v>98</v>
       </c>
       <c r="B103" s="48"/>
       <c r="C103" s="25"/>
       <c r="D103" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E103" s="97"/>
-      <c r="F103" s="100"/>
+        <v>21</v>
+      </c>
+      <c r="E103" s="99"/>
+      <c r="F103" s="102"/>
       <c r="G103" s="31" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="H103" s="68">
         <v>44435</v>
@@ -14171,12 +14301,12 @@
       <c r="B104" s="48"/>
       <c r="C104" s="25"/>
       <c r="D104" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E104" s="97"/>
-      <c r="F104" s="100"/>
+        <v>22</v>
+      </c>
+      <c r="E104" s="99"/>
+      <c r="F104" s="102"/>
       <c r="G104" s="31" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="H104" s="68">
         <v>44435</v>
@@ -14190,19 +14320,19 @@
       </c>
       <c r="L104" s="11"/>
     </row>
-    <row r="105" spans="1:12" ht="60">
+    <row r="105" spans="1:12" ht="45">
       <c r="A105" s="12">
         <v>100</v>
       </c>
       <c r="B105" s="48"/>
       <c r="C105" s="25"/>
       <c r="D105" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E105" s="97"/>
-      <c r="F105" s="100"/>
+        <v>23</v>
+      </c>
+      <c r="E105" s="99"/>
+      <c r="F105" s="102"/>
       <c r="G105" s="31" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H105" s="68">
         <v>44435</v>
@@ -14216,19 +14346,19 @@
       </c>
       <c r="L105" s="11"/>
     </row>
-    <row r="106" spans="1:12" ht="45">
+    <row r="106" spans="1:12" ht="60">
       <c r="A106" s="12">
         <v>101</v>
       </c>
       <c r="B106" s="48"/>
       <c r="C106" s="25"/>
       <c r="D106" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E106" s="97"/>
-      <c r="F106" s="100"/>
+        <v>24</v>
+      </c>
+      <c r="E106" s="99"/>
+      <c r="F106" s="102"/>
       <c r="G106" s="31" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H106" s="68">
         <v>44435</v>
@@ -14249,12 +14379,12 @@
       <c r="B107" s="48"/>
       <c r="C107" s="25"/>
       <c r="D107" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E107" s="97"/>
-      <c r="F107" s="100"/>
+        <v>25</v>
+      </c>
+      <c r="E107" s="99"/>
+      <c r="F107" s="102"/>
       <c r="G107" s="31" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H107" s="68">
         <v>44435</v>
@@ -14275,12 +14405,12 @@
       <c r="B108" s="48"/>
       <c r="C108" s="25"/>
       <c r="D108" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E108" s="98"/>
-      <c r="F108" s="101"/>
+        <v>26</v>
+      </c>
+      <c r="E108" s="99"/>
+      <c r="F108" s="102"/>
       <c r="G108" s="31" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H108" s="68">
         <v>44435</v>
@@ -14294,23 +14424,19 @@
       </c>
       <c r="L108" s="11"/>
     </row>
-    <row r="109" spans="1:12" ht="30">
+    <row r="109" spans="1:12" ht="45">
       <c r="A109" s="12">
         <v>104</v>
       </c>
       <c r="B109" s="48"/>
       <c r="C109" s="25"/>
-      <c r="D109" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="E109" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="F109" s="37" t="s">
-        <v>306</v>
-      </c>
+      <c r="D109" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E109" s="100"/>
+      <c r="F109" s="103"/>
       <c r="G109" s="31" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="H109" s="68">
         <v>44435</v>
@@ -14324,25 +14450,23 @@
       </c>
       <c r="L109" s="11"/>
     </row>
-    <row r="110" spans="1:12" ht="60">
+    <row r="110" spans="1:12" ht="30">
       <c r="A110" s="12">
         <v>105</v>
       </c>
       <c r="B110" s="48"/>
-      <c r="C110" s="25" t="s">
-        <v>320</v>
-      </c>
-      <c r="D110" s="11" t="s">
-        <v>16</v>
+      <c r="C110" s="25"/>
+      <c r="D110" s="24" t="s">
+        <v>49</v>
       </c>
       <c r="E110" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="F110" s="31" t="s">
-        <v>323</v>
-      </c>
-      <c r="G110" s="105" t="s">
-        <v>107</v>
+        <v>55</v>
+      </c>
+      <c r="F110" s="37" t="s">
+        <v>306</v>
+      </c>
+      <c r="G110" s="31" t="s">
+        <v>313</v>
       </c>
       <c r="H110" s="68">
         <v>44435</v>
@@ -14356,31 +14480,35 @@
       </c>
       <c r="L110" s="11"/>
     </row>
-    <row r="111" spans="1:12" ht="60">
+    <row r="111" spans="1:12" ht="30">
       <c r="A111" s="12">
         <v>106</v>
       </c>
       <c r="B111" s="48"/>
-      <c r="C111" s="25"/>
-      <c r="D111" s="11" t="s">
-        <v>17</v>
+      <c r="C111" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="D111" s="24" t="s">
+        <v>136</v>
       </c>
       <c r="E111" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="F111" s="31" t="s">
-        <v>324</v>
-      </c>
-      <c r="G111" s="106"/>
+        <v>55</v>
+      </c>
+      <c r="F111" s="37" t="s">
+        <v>536</v>
+      </c>
+      <c r="G111" s="91" t="s">
+        <v>537</v>
+      </c>
       <c r="H111" s="68">
-        <v>44435</v>
+        <v>44447</v>
       </c>
       <c r="I111" s="12" t="s">
         <v>6</v>
       </c>
       <c r="J111" s="30"/>
       <c r="K111" s="39" t="s">
-        <v>144</v>
+        <v>510</v>
       </c>
       <c r="L111" s="11"/>
     </row>
@@ -14389,17 +14517,21 @@
         <v>107</v>
       </c>
       <c r="B112" s="48"/>
-      <c r="C112" s="25"/>
+      <c r="C112" s="25" t="s">
+        <v>320</v>
+      </c>
       <c r="D112" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E112" s="24" t="s">
         <v>30</v>
       </c>
       <c r="F112" s="31" t="s">
-        <v>325</v>
-      </c>
-      <c r="G112" s="106"/>
+        <v>323</v>
+      </c>
+      <c r="G112" s="104" t="s">
+        <v>107</v>
+      </c>
       <c r="H112" s="68">
         <v>44435</v>
       </c>
@@ -14419,15 +14551,15 @@
       <c r="B113" s="48"/>
       <c r="C113" s="25"/>
       <c r="D113" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E113" s="24" t="s">
         <v>30</v>
       </c>
       <c r="F113" s="31" t="s">
-        <v>325</v>
-      </c>
-      <c r="G113" s="106"/>
+        <v>324</v>
+      </c>
+      <c r="G113" s="105"/>
       <c r="H113" s="68">
         <v>44435</v>
       </c>
@@ -14440,22 +14572,22 @@
       </c>
       <c r="L113" s="11"/>
     </row>
-    <row r="114" spans="1:12" ht="75">
+    <row r="114" spans="1:12" ht="60">
       <c r="A114" s="12">
         <v>109</v>
       </c>
       <c r="B114" s="48"/>
       <c r="C114" s="25"/>
       <c r="D114" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E114" s="24" t="s">
         <v>30</v>
       </c>
       <c r="F114" s="31" t="s">
-        <v>326</v>
-      </c>
-      <c r="G114" s="106"/>
+        <v>325</v>
+      </c>
+      <c r="G114" s="105"/>
       <c r="H114" s="68">
         <v>44435</v>
       </c>
@@ -14475,15 +14607,15 @@
       <c r="B115" s="48"/>
       <c r="C115" s="25"/>
       <c r="D115" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E115" s="24" t="s">
         <v>30</v>
       </c>
       <c r="F115" s="31" t="s">
-        <v>342</v>
-      </c>
-      <c r="G115" s="106"/>
+        <v>325</v>
+      </c>
+      <c r="G115" s="105"/>
       <c r="H115" s="68">
         <v>44435</v>
       </c>
@@ -14496,22 +14628,22 @@
       </c>
       <c r="L115" s="11"/>
     </row>
-    <row r="116" spans="1:12" ht="60">
+    <row r="116" spans="1:12" ht="75">
       <c r="A116" s="12">
         <v>111</v>
       </c>
       <c r="B116" s="48"/>
       <c r="C116" s="25"/>
       <c r="D116" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E116" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F116" s="31" t="s">
-        <v>346</v>
-      </c>
-      <c r="G116" s="106"/>
+        <v>326</v>
+      </c>
+      <c r="G116" s="105"/>
       <c r="H116" s="68">
         <v>44435</v>
       </c>
@@ -14524,50 +14656,52 @@
       </c>
       <c r="L116" s="11"/>
     </row>
-    <row r="117" spans="1:12" ht="45">
+    <row r="117" spans="1:12" ht="60">
       <c r="A117" s="12">
         <v>112</v>
       </c>
       <c r="B117" s="48"/>
       <c r="C117" s="25"/>
       <c r="D117" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E117" s="24" t="s">
         <v>30</v>
       </c>
       <c r="F117" s="31" t="s">
-        <v>327</v>
-      </c>
-      <c r="G117" s="106"/>
+        <v>342</v>
+      </c>
+      <c r="G117" s="105"/>
       <c r="H117" s="68">
-        <v>44435</v>
+        <v>44447</v>
       </c>
       <c r="I117" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J117" s="30"/>
+      <c r="J117" s="30" t="s">
+        <v>533</v>
+      </c>
       <c r="K117" s="39" t="s">
-        <v>144</v>
+        <v>510</v>
       </c>
       <c r="L117" s="11"/>
     </row>
-    <row r="118" spans="1:12" ht="45">
+    <row r="118" spans="1:12" ht="60">
       <c r="A118" s="12">
         <v>113</v>
       </c>
       <c r="B118" s="48"/>
       <c r="C118" s="25"/>
       <c r="D118" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E118" s="24" t="s">
         <v>31</v>
       </c>
       <c r="F118" s="31" t="s">
-        <v>322</v>
-      </c>
-      <c r="G118" s="106"/>
+        <v>346</v>
+      </c>
+      <c r="G118" s="105"/>
       <c r="H118" s="68">
         <v>44435</v>
       </c>
@@ -14580,22 +14714,22 @@
       </c>
       <c r="L118" s="11"/>
     </row>
-    <row r="119" spans="1:12" ht="60">
+    <row r="119" spans="1:12" ht="45">
       <c r="A119" s="12">
         <v>114</v>
       </c>
       <c r="B119" s="48"/>
       <c r="C119" s="25"/>
       <c r="D119" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E119" s="24" t="s">
         <v>30</v>
       </c>
       <c r="F119" s="31" t="s">
-        <v>328</v>
-      </c>
-      <c r="G119" s="106"/>
+        <v>327</v>
+      </c>
+      <c r="G119" s="105"/>
       <c r="H119" s="68">
         <v>44435</v>
       </c>
@@ -14608,22 +14742,22 @@
       </c>
       <c r="L119" s="11"/>
     </row>
-    <row r="120" spans="1:12" ht="60">
+    <row r="120" spans="1:12" ht="45">
       <c r="A120" s="12">
         <v>115</v>
       </c>
       <c r="B120" s="48"/>
       <c r="C120" s="25"/>
       <c r="D120" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E120" s="24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F120" s="31" t="s">
-        <v>329</v>
-      </c>
-      <c r="G120" s="106"/>
+        <v>322</v>
+      </c>
+      <c r="G120" s="105"/>
       <c r="H120" s="68">
         <v>44435</v>
       </c>
@@ -14643,15 +14777,15 @@
       <c r="B121" s="48"/>
       <c r="C121" s="25"/>
       <c r="D121" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E121" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F121" s="31" t="s">
-        <v>321</v>
-      </c>
-      <c r="G121" s="107"/>
+        <v>328</v>
+      </c>
+      <c r="G121" s="105"/>
       <c r="H121" s="68">
         <v>44435</v>
       </c>
@@ -14664,26 +14798,22 @@
       </c>
       <c r="L121" s="11"/>
     </row>
-    <row r="122" spans="1:12" ht="105">
+    <row r="122" spans="1:12" ht="60">
       <c r="A122" s="12">
         <v>117</v>
       </c>
       <c r="B122" s="48"/>
-      <c r="C122" s="25" t="s">
-        <v>330</v>
-      </c>
+      <c r="C122" s="25"/>
       <c r="D122" s="11" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E122" s="24" t="s">
         <v>30</v>
       </c>
       <c r="F122" s="31" t="s">
-        <v>331</v>
-      </c>
-      <c r="G122" s="32" t="s">
-        <v>99</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="G122" s="105"/>
       <c r="H122" s="68">
         <v>44435</v>
       </c>
@@ -14696,24 +14826,22 @@
       </c>
       <c r="L122" s="11"/>
     </row>
-    <row r="123" spans="1:12" ht="105">
+    <row r="123" spans="1:12" ht="60">
       <c r="A123" s="12">
         <v>118</v>
       </c>
       <c r="B123" s="48"/>
       <c r="C123" s="25"/>
       <c r="D123" s="11" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E123" s="24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F123" s="31" t="s">
-        <v>332</v>
-      </c>
-      <c r="G123" s="32" t="s">
-        <v>98</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="G123" s="106"/>
       <c r="H123" s="68">
         <v>44435</v>
       </c>
@@ -14731,18 +14859,20 @@
         <v>119</v>
       </c>
       <c r="B124" s="48"/>
-      <c r="C124" s="25"/>
+      <c r="C124" s="25" t="s">
+        <v>330</v>
+      </c>
       <c r="D124" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E124" s="24" t="s">
         <v>30</v>
       </c>
       <c r="F124" s="31" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G124" s="32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H124" s="68">
         <v>44435</v>
@@ -14763,16 +14893,16 @@
       <c r="B125" s="48"/>
       <c r="C125" s="25"/>
       <c r="D125" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E125" s="24" t="s">
         <v>30</v>
       </c>
       <c r="F125" s="31" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G125" s="32" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H125" s="68">
         <v>44435</v>
@@ -14786,23 +14916,23 @@
       </c>
       <c r="L125" s="11"/>
     </row>
-    <row r="126" spans="1:12" ht="120">
+    <row r="126" spans="1:12" ht="105">
       <c r="A126" s="12">
         <v>121</v>
       </c>
       <c r="B126" s="48"/>
       <c r="C126" s="25"/>
       <c r="D126" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E126" s="24" t="s">
         <v>30</v>
       </c>
       <c r="F126" s="31" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G126" s="32" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="H126" s="68">
         <v>44435</v>
@@ -14823,16 +14953,16 @@
       <c r="B127" s="48"/>
       <c r="C127" s="25"/>
       <c r="D127" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E127" s="24" t="s">
         <v>30</v>
       </c>
       <c r="F127" s="31" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="G127" s="32" t="s">
-        <v>341</v>
+        <v>101</v>
       </c>
       <c r="H127" s="68">
         <v>44435</v>
@@ -14846,23 +14976,23 @@
       </c>
       <c r="L127" s="11"/>
     </row>
-    <row r="128" spans="1:12" ht="90">
+    <row r="128" spans="1:12" ht="120">
       <c r="A128" s="12">
         <v>123</v>
       </c>
       <c r="B128" s="48"/>
       <c r="C128" s="25"/>
       <c r="D128" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E128" s="24" t="s">
         <v>30</v>
       </c>
       <c r="F128" s="31" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G128" s="32" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="H128" s="68">
         <v>44435</v>
@@ -14876,53 +15006,55 @@
       </c>
       <c r="L128" s="11"/>
     </row>
-    <row r="129" spans="1:12" ht="45">
+    <row r="129" spans="1:12" ht="105">
       <c r="A129" s="12">
         <v>124</v>
       </c>
       <c r="B129" s="48"/>
       <c r="C129" s="25"/>
       <c r="D129" s="11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E129" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F129" s="31" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="G129" s="32" t="s">
-        <v>104</v>
+        <v>341</v>
       </c>
       <c r="H129" s="68">
-        <v>44435</v>
+        <v>44447</v>
       </c>
       <c r="I129" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J129" s="30"/>
+      <c r="J129" s="30" t="s">
+        <v>534</v>
+      </c>
       <c r="K129" s="39" t="s">
-        <v>144</v>
+        <v>510</v>
       </c>
       <c r="L129" s="11"/>
     </row>
-    <row r="130" spans="1:12" ht="120">
+    <row r="130" spans="1:12" ht="90">
       <c r="A130" s="12">
         <v>125</v>
       </c>
       <c r="B130" s="48"/>
       <c r="C130" s="25"/>
       <c r="D130" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E130" s="24" t="s">
         <v>30</v>
       </c>
       <c r="F130" s="31" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G130" s="32" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H130" s="68">
         <v>44435</v>
@@ -14936,23 +15068,23 @@
       </c>
       <c r="L130" s="11"/>
     </row>
-    <row r="131" spans="1:12" ht="120">
+    <row r="131" spans="1:12" ht="45">
       <c r="A131" s="12">
         <v>126</v>
       </c>
       <c r="B131" s="48"/>
       <c r="C131" s="25"/>
       <c r="D131" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E131" s="24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F131" s="31" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G131" s="32" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H131" s="68">
         <v>44435</v>
@@ -14966,27 +15098,23 @@
       </c>
       <c r="L131" s="11"/>
     </row>
-    <row r="132" spans="1:12" ht="30">
+    <row r="132" spans="1:12" ht="120">
       <c r="A132" s="12">
         <v>127</v>
       </c>
-      <c r="B132" s="48" t="s">
-        <v>343</v>
-      </c>
-      <c r="C132" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="D132" s="24" t="s">
-        <v>79</v>
+      <c r="B132" s="48"/>
+      <c r="C132" s="25"/>
+      <c r="D132" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="E132" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="F132" s="99" t="s">
-        <v>344</v>
-      </c>
-      <c r="G132" s="31" t="s">
-        <v>345</v>
+        <v>30</v>
+      </c>
+      <c r="F132" s="31" t="s">
+        <v>338</v>
+      </c>
+      <c r="G132" s="32" t="s">
+        <v>105</v>
       </c>
       <c r="H132" s="68">
         <v>44435</v>
@@ -15000,21 +15128,23 @@
       </c>
       <c r="L132" s="11"/>
     </row>
-    <row r="133" spans="1:12" ht="30">
+    <row r="133" spans="1:12" ht="120">
       <c r="A133" s="12">
         <v>128</v>
       </c>
       <c r="B133" s="48"/>
       <c r="C133" s="25"/>
       <c r="D133" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E133" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="F133" s="100"/>
+        <v>26</v>
+      </c>
+      <c r="E133" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F133" s="31" t="s">
+        <v>339</v>
+      </c>
       <c r="G133" s="32" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H133" s="68">
         <v>44435</v>
@@ -15032,17 +15162,23 @@
       <c r="A134" s="12">
         <v>129</v>
       </c>
-      <c r="B134" s="48"/>
-      <c r="C134" s="25"/>
-      <c r="D134" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E134" s="23" t="s">
+      <c r="B134" s="48" t="s">
+        <v>343</v>
+      </c>
+      <c r="C134" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D134" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E134" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F134" s="100"/>
-      <c r="G134" s="32" t="s">
-        <v>109</v>
+      <c r="F134" s="101" t="s">
+        <v>344</v>
+      </c>
+      <c r="G134" s="31" t="s">
+        <v>345</v>
       </c>
       <c r="H134" s="68">
         <v>44435</v>
@@ -15063,14 +15199,14 @@
       <c r="B135" s="48"/>
       <c r="C135" s="25"/>
       <c r="D135" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E135" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F135" s="100"/>
+      <c r="F135" s="102"/>
       <c r="G135" s="32" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H135" s="68">
         <v>44435</v>
@@ -15091,14 +15227,14 @@
       <c r="B136" s="48"/>
       <c r="C136" s="25"/>
       <c r="D136" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E136" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F136" s="100"/>
+      <c r="F136" s="102"/>
       <c r="G136" s="32" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H136" s="68">
         <v>44435</v>
@@ -15119,14 +15255,14 @@
       <c r="B137" s="48"/>
       <c r="C137" s="25"/>
       <c r="D137" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E137" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F137" s="100"/>
+      <c r="F137" s="102"/>
       <c r="G137" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H137" s="68">
         <v>44435</v>
@@ -15147,14 +15283,14 @@
       <c r="B138" s="48"/>
       <c r="C138" s="25"/>
       <c r="D138" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E138" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F138" s="100"/>
+      <c r="F138" s="102"/>
       <c r="G138" s="32" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H138" s="68">
         <v>44435</v>
@@ -15175,14 +15311,14 @@
       <c r="B139" s="48"/>
       <c r="C139" s="25"/>
       <c r="D139" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E139" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F139" s="100"/>
+      <c r="F139" s="102"/>
       <c r="G139" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H139" s="68">
         <v>44435</v>
@@ -15203,14 +15339,14 @@
       <c r="B140" s="48"/>
       <c r="C140" s="25"/>
       <c r="D140" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E140" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F140" s="100"/>
+      <c r="F140" s="102"/>
       <c r="G140" s="32" t="s">
-        <v>430</v>
+        <v>111</v>
       </c>
       <c r="H140" s="68">
         <v>44435</v>
@@ -15231,14 +15367,14 @@
       <c r="B141" s="48"/>
       <c r="C141" s="25"/>
       <c r="D141" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E141" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F141" s="100"/>
+      <c r="F141" s="102"/>
       <c r="G141" s="32" t="s">
-        <v>431</v>
+        <v>115</v>
       </c>
       <c r="H141" s="68">
         <v>44435</v>
@@ -15259,14 +15395,14 @@
       <c r="B142" s="48"/>
       <c r="C142" s="25"/>
       <c r="D142" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E142" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F142" s="100"/>
+      <c r="F142" s="102"/>
       <c r="G142" s="32" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H142" s="68">
         <v>44435</v>
@@ -15287,14 +15423,14 @@
       <c r="B143" s="48"/>
       <c r="C143" s="25"/>
       <c r="D143" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E143" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F143" s="100"/>
+      <c r="F143" s="102"/>
       <c r="G143" s="32" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H143" s="68">
         <v>44435</v>
@@ -15315,14 +15451,14 @@
       <c r="B144" s="48"/>
       <c r="C144" s="25"/>
       <c r="D144" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E144" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F144" s="100"/>
+      <c r="F144" s="102"/>
       <c r="G144" s="32" t="s">
-        <v>116</v>
+        <v>432</v>
       </c>
       <c r="H144" s="68">
         <v>44435</v>
@@ -15342,15 +15478,15 @@
       </c>
       <c r="B145" s="48"/>
       <c r="C145" s="25"/>
-      <c r="D145" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="E145" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="F145" s="100"/>
-      <c r="G145" s="31" t="s">
-        <v>347</v>
+      <c r="D145" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E145" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F145" s="102"/>
+      <c r="G145" s="32" t="s">
+        <v>433</v>
       </c>
       <c r="H145" s="68">
         <v>44435</v>
@@ -15370,15 +15506,15 @@
       </c>
       <c r="B146" s="48"/>
       <c r="C146" s="25"/>
-      <c r="D146" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="E146" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="F146" s="101"/>
-      <c r="G146" s="31" t="s">
-        <v>348</v>
+      <c r="D146" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E146" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F146" s="102"/>
+      <c r="G146" s="32" t="s">
+        <v>116</v>
       </c>
       <c r="H146" s="68">
         <v>44435</v>
@@ -15396,23 +15532,17 @@
       <c r="A147" s="12">
         <v>142</v>
       </c>
-      <c r="B147" s="48" t="s">
-        <v>349</v>
-      </c>
-      <c r="C147" s="25" t="s">
-        <v>78</v>
-      </c>
+      <c r="B147" s="48"/>
+      <c r="C147" s="25"/>
       <c r="D147" s="24" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="E147" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="F147" s="99" t="s">
-        <v>350</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="F147" s="102"/>
       <c r="G147" s="31" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="H147" s="68">
         <v>44435</v>
@@ -15432,15 +15562,15 @@
       </c>
       <c r="B148" s="48"/>
       <c r="C148" s="25"/>
-      <c r="D148" s="23" t="s">
-        <v>136</v>
+      <c r="D148" s="24" t="s">
+        <v>121</v>
       </c>
       <c r="E148" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="F148" s="100"/>
+        <v>122</v>
+      </c>
+      <c r="F148" s="103"/>
       <c r="G148" s="31" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H148" s="68">
         <v>44435</v>
@@ -15458,17 +15588,23 @@
       <c r="A149" s="12">
         <v>144</v>
       </c>
-      <c r="B149" s="48"/>
-      <c r="C149" s="25"/>
-      <c r="D149" s="23" t="s">
-        <v>132</v>
+      <c r="B149" s="48" t="s">
+        <v>349</v>
+      </c>
+      <c r="C149" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D149" s="24" t="s">
+        <v>79</v>
       </c>
       <c r="E149" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="F149" s="101"/>
-      <c r="G149" s="32" t="s">
-        <v>302</v>
+        <v>55</v>
+      </c>
+      <c r="F149" s="101" t="s">
+        <v>350</v>
+      </c>
+      <c r="G149" s="31" t="s">
+        <v>351</v>
       </c>
       <c r="H149" s="68">
         <v>44435</v>
@@ -15482,27 +15618,21 @@
       </c>
       <c r="L149" s="11"/>
     </row>
-    <row r="150" spans="1:12" ht="47.25" customHeight="1">
+    <row r="150" spans="1:12" ht="30">
       <c r="A150" s="12">
         <v>145</v>
       </c>
-      <c r="B150" s="48" t="s">
-        <v>353</v>
-      </c>
-      <c r="C150" s="25" t="s">
+      <c r="B150" s="48"/>
+      <c r="C150" s="25"/>
+      <c r="D150" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="D150" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E150" s="102" t="s">
+      <c r="E150" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F150" s="99" t="s">
-        <v>357</v>
-      </c>
-      <c r="G150" s="105" t="s">
-        <v>358</v>
+      <c r="F150" s="102"/>
+      <c r="G150" s="31" t="s">
+        <v>352</v>
       </c>
       <c r="H150" s="68">
         <v>44435</v>
@@ -15516,18 +15646,22 @@
       </c>
       <c r="L150" s="11"/>
     </row>
-    <row r="151" spans="1:12" ht="11.25" customHeight="1">
+    <row r="151" spans="1:12" ht="30">
       <c r="A151" s="12">
         <v>146</v>
       </c>
       <c r="B151" s="48"/>
       <c r="C151" s="25"/>
-      <c r="D151" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E151" s="103"/>
-      <c r="F151" s="100"/>
-      <c r="G151" s="106"/>
+      <c r="D151" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E151" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="F151" s="103"/>
+      <c r="G151" s="32" t="s">
+        <v>302</v>
+      </c>
       <c r="H151" s="68">
         <v>44435</v>
       </c>
@@ -15540,18 +15674,28 @@
       </c>
       <c r="L151" s="11"/>
     </row>
-    <row r="152" spans="1:12" ht="11.25" customHeight="1">
+    <row r="152" spans="1:12" ht="47.25" customHeight="1">
       <c r="A152" s="12">
         <v>147</v>
       </c>
-      <c r="B152" s="48"/>
-      <c r="C152" s="25"/>
+      <c r="B152" s="48" t="s">
+        <v>353</v>
+      </c>
+      <c r="C152" s="25" t="s">
+        <v>136</v>
+      </c>
       <c r="D152" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E152" s="103"/>
-      <c r="F152" s="100"/>
-      <c r="G152" s="106"/>
+        <v>16</v>
+      </c>
+      <c r="E152" s="114" t="s">
+        <v>55</v>
+      </c>
+      <c r="F152" s="101" t="s">
+        <v>357</v>
+      </c>
+      <c r="G152" s="104" t="s">
+        <v>358</v>
+      </c>
       <c r="H152" s="68">
         <v>44435</v>
       </c>
@@ -15571,11 +15715,11 @@
       <c r="B153" s="48"/>
       <c r="C153" s="25"/>
       <c r="D153" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E153" s="103"/>
-      <c r="F153" s="100"/>
-      <c r="G153" s="106"/>
+        <v>17</v>
+      </c>
+      <c r="E153" s="115"/>
+      <c r="F153" s="102"/>
+      <c r="G153" s="105"/>
       <c r="H153" s="68">
         <v>44435</v>
       </c>
@@ -15595,11 +15739,11 @@
       <c r="B154" s="48"/>
       <c r="C154" s="25"/>
       <c r="D154" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E154" s="103"/>
-      <c r="F154" s="100"/>
-      <c r="G154" s="106"/>
+        <v>18</v>
+      </c>
+      <c r="E154" s="115"/>
+      <c r="F154" s="102"/>
+      <c r="G154" s="105"/>
       <c r="H154" s="68">
         <v>44435</v>
       </c>
@@ -15619,11 +15763,11 @@
       <c r="B155" s="48"/>
       <c r="C155" s="25"/>
       <c r="D155" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E155" s="103"/>
-      <c r="F155" s="100"/>
-      <c r="G155" s="106"/>
+        <v>19</v>
+      </c>
+      <c r="E155" s="115"/>
+      <c r="F155" s="102"/>
+      <c r="G155" s="105"/>
       <c r="H155" s="68">
         <v>44435</v>
       </c>
@@ -15643,11 +15787,11 @@
       <c r="B156" s="48"/>
       <c r="C156" s="25"/>
       <c r="D156" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E156" s="103"/>
-      <c r="F156" s="100"/>
-      <c r="G156" s="106"/>
+        <v>20</v>
+      </c>
+      <c r="E156" s="115"/>
+      <c r="F156" s="102"/>
+      <c r="G156" s="105"/>
       <c r="H156" s="68">
         <v>44435</v>
       </c>
@@ -15660,27 +15804,29 @@
       </c>
       <c r="L156" s="11"/>
     </row>
-    <row r="157" spans="1:12" ht="11.25" customHeight="1">
+    <row r="157" spans="1:12" ht="45">
       <c r="A157" s="12">
         <v>152</v>
       </c>
       <c r="B157" s="48"/>
       <c r="C157" s="25"/>
       <c r="D157" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E157" s="103"/>
-      <c r="F157" s="100"/>
-      <c r="G157" s="106"/>
+        <v>21</v>
+      </c>
+      <c r="E157" s="115"/>
+      <c r="F157" s="102"/>
+      <c r="G157" s="105"/>
       <c r="H157" s="68">
-        <v>44435</v>
+        <v>44447</v>
       </c>
       <c r="I157" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J157" s="30"/>
+      <c r="J157" s="30" t="s">
+        <v>535</v>
+      </c>
       <c r="K157" s="39" t="s">
-        <v>144</v>
+        <v>510</v>
       </c>
       <c r="L157" s="11"/>
     </row>
@@ -15691,11 +15837,11 @@
       <c r="B158" s="48"/>
       <c r="C158" s="25"/>
       <c r="D158" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E158" s="103"/>
-      <c r="F158" s="100"/>
-      <c r="G158" s="106"/>
+        <v>22</v>
+      </c>
+      <c r="E158" s="115"/>
+      <c r="F158" s="102"/>
+      <c r="G158" s="105"/>
       <c r="H158" s="68">
         <v>44435</v>
       </c>
@@ -15715,11 +15861,11 @@
       <c r="B159" s="48"/>
       <c r="C159" s="25"/>
       <c r="D159" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E159" s="103"/>
-      <c r="F159" s="100"/>
-      <c r="G159" s="106"/>
+        <v>23</v>
+      </c>
+      <c r="E159" s="115"/>
+      <c r="F159" s="102"/>
+      <c r="G159" s="105"/>
       <c r="H159" s="68">
         <v>44435</v>
       </c>
@@ -15739,11 +15885,11 @@
       <c r="B160" s="48"/>
       <c r="C160" s="25"/>
       <c r="D160" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E160" s="103"/>
-      <c r="F160" s="100"/>
-      <c r="G160" s="106"/>
+        <v>24</v>
+      </c>
+      <c r="E160" s="115"/>
+      <c r="F160" s="102"/>
+      <c r="G160" s="105"/>
       <c r="H160" s="68">
         <v>44435</v>
       </c>
@@ -15763,11 +15909,11 @@
       <c r="B161" s="48"/>
       <c r="C161" s="25"/>
       <c r="D161" s="11" t="s">
-        <v>356</v>
-      </c>
-      <c r="E161" s="103"/>
-      <c r="F161" s="100"/>
-      <c r="G161" s="107"/>
+        <v>25</v>
+      </c>
+      <c r="E161" s="115"/>
+      <c r="F161" s="102"/>
+      <c r="G161" s="105"/>
       <c r="H161" s="68">
         <v>44435</v>
       </c>
@@ -15780,20 +15926,18 @@
       </c>
       <c r="L161" s="11"/>
     </row>
-    <row r="162" spans="1:12" ht="15">
+    <row r="162" spans="1:12" ht="11.25" customHeight="1">
       <c r="A162" s="12">
         <v>157</v>
       </c>
       <c r="B162" s="48"/>
       <c r="C162" s="25"/>
       <c r="D162" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="E162" s="103"/>
-      <c r="F162" s="100"/>
-      <c r="G162" s="31" t="s">
-        <v>359</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E162" s="115"/>
+      <c r="F162" s="102"/>
+      <c r="G162" s="105"/>
       <c r="H162" s="68">
         <v>44435</v>
       </c>
@@ -15806,20 +15950,18 @@
       </c>
       <c r="L162" s="11"/>
     </row>
-    <row r="163" spans="1:12" ht="30">
+    <row r="163" spans="1:12" ht="11.25" customHeight="1">
       <c r="A163" s="12">
         <v>158</v>
       </c>
       <c r="B163" s="48"/>
       <c r="C163" s="25"/>
       <c r="D163" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="E163" s="104"/>
-      <c r="F163" s="101"/>
-      <c r="G163" s="31" t="s">
-        <v>360</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="E163" s="115"/>
+      <c r="F163" s="102"/>
+      <c r="G163" s="106"/>
       <c r="H163" s="68">
         <v>44435</v>
       </c>
@@ -15832,25 +15974,19 @@
       </c>
       <c r="L163" s="11"/>
     </row>
-    <row r="164" spans="1:12" ht="45">
+    <row r="164" spans="1:12" ht="15">
       <c r="A164" s="12">
         <v>159</v>
       </c>
       <c r="B164" s="48"/>
-      <c r="C164" s="25" t="s">
-        <v>363</v>
-      </c>
+      <c r="C164" s="25"/>
       <c r="D164" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="E164" s="88" t="s">
-        <v>55</v>
-      </c>
-      <c r="F164" s="87" t="s">
-        <v>364</v>
-      </c>
-      <c r="G164" s="32" t="s">
-        <v>367</v>
+        <v>150</v>
+      </c>
+      <c r="E164" s="115"/>
+      <c r="F164" s="102"/>
+      <c r="G164" s="31" t="s">
+        <v>359</v>
       </c>
       <c r="H164" s="68">
         <v>44435</v>
@@ -15858,40 +15994,70 @@
       <c r="I164" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J164" s="30" t="s">
-        <v>516</v>
-      </c>
+      <c r="J164" s="30"/>
       <c r="K164" s="39" t="s">
-        <v>510</v>
+        <v>144</v>
       </c>
       <c r="L164" s="11"/>
     </row>
-    <row r="165" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A165" s="12"/>
+    <row r="165" spans="1:12" ht="30">
+      <c r="A165" s="12">
+        <v>160</v>
+      </c>
       <c r="B165" s="48"/>
       <c r="C165" s="25"/>
-      <c r="D165" s="11"/>
-      <c r="E165" s="24"/>
-      <c r="F165" s="37"/>
-      <c r="G165" s="31"/>
-      <c r="H165" s="12"/>
-      <c r="I165" s="12"/>
+      <c r="D165" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E165" s="116"/>
+      <c r="F165" s="103"/>
+      <c r="G165" s="31" t="s">
+        <v>360</v>
+      </c>
+      <c r="H165" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I165" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J165" s="30"/>
-      <c r="K165" s="39"/>
+      <c r="K165" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L165" s="11"/>
     </row>
-    <row r="166" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A166" s="12"/>
+    <row r="166" spans="1:12" ht="45">
+      <c r="A166" s="12">
+        <v>161</v>
+      </c>
       <c r="B166" s="48"/>
-      <c r="C166" s="25"/>
-      <c r="D166" s="11"/>
-      <c r="E166" s="24"/>
-      <c r="F166" s="37"/>
-      <c r="G166" s="31"/>
-      <c r="H166" s="12"/>
-      <c r="I166" s="12"/>
-      <c r="J166" s="30"/>
-      <c r="K166" s="39"/>
+      <c r="C166" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="D166" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E166" s="88" t="s">
+        <v>55</v>
+      </c>
+      <c r="F166" s="87" t="s">
+        <v>364</v>
+      </c>
+      <c r="G166" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="H166" s="68">
+        <v>44435</v>
+      </c>
+      <c r="I166" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J166" s="30" t="s">
+        <v>516</v>
+      </c>
+      <c r="K166" s="39" t="s">
+        <v>510</v>
+      </c>
       <c r="L166" s="11"/>
     </row>
     <row r="167" spans="1:12" ht="11.25" customHeight="1">
@@ -15992,28 +16158,56 @@
       <c r="K173" s="39"/>
       <c r="L173" s="11"/>
     </row>
+    <row r="174" spans="1:12" ht="11.25" customHeight="1">
+      <c r="A174" s="12"/>
+      <c r="B174" s="48"/>
+      <c r="C174" s="25"/>
+      <c r="D174" s="11"/>
+      <c r="E174" s="24"/>
+      <c r="F174" s="37"/>
+      <c r="G174" s="31"/>
+      <c r="H174" s="12"/>
+      <c r="I174" s="12"/>
+      <c r="J174" s="30"/>
+      <c r="K174" s="39"/>
+      <c r="L174" s="11"/>
+    </row>
+    <row r="175" spans="1:12" ht="11.25" customHeight="1">
+      <c r="A175" s="12"/>
+      <c r="B175" s="48"/>
+      <c r="C175" s="25"/>
+      <c r="D175" s="11"/>
+      <c r="E175" s="24"/>
+      <c r="F175" s="37"/>
+      <c r="G175" s="31"/>
+      <c r="H175" s="12"/>
+      <c r="I175" s="12"/>
+      <c r="J175" s="30"/>
+      <c r="K175" s="39"/>
+      <c r="L175" s="11"/>
+    </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="E73:E84"/>
-    <mergeCell ref="F73:F84"/>
-    <mergeCell ref="E86:E89"/>
-    <mergeCell ref="F86:F89"/>
-    <mergeCell ref="E90:E92"/>
-    <mergeCell ref="F90:F94"/>
+    <mergeCell ref="E98:E109"/>
+    <mergeCell ref="F98:F109"/>
+    <mergeCell ref="E152:E165"/>
+    <mergeCell ref="F152:F165"/>
+    <mergeCell ref="G152:G163"/>
+    <mergeCell ref="G112:G123"/>
+    <mergeCell ref="F134:F148"/>
+    <mergeCell ref="F149:F151"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="G12:G23"/>
     <mergeCell ref="G38:G42"/>
     <mergeCell ref="G47:G48"/>
     <mergeCell ref="E59:E71"/>
     <mergeCell ref="F57:F71"/>
-    <mergeCell ref="E97:E108"/>
-    <mergeCell ref="F97:F108"/>
-    <mergeCell ref="E150:E163"/>
-    <mergeCell ref="F150:F163"/>
-    <mergeCell ref="G150:G161"/>
-    <mergeCell ref="G110:G121"/>
-    <mergeCell ref="F132:F146"/>
-    <mergeCell ref="F147:F149"/>
+    <mergeCell ref="E73:E84"/>
+    <mergeCell ref="F73:F84"/>
+    <mergeCell ref="E87:E90"/>
+    <mergeCell ref="F87:F90"/>
+    <mergeCell ref="E91:E93"/>
+    <mergeCell ref="F91:F95"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -16026,8 +16220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9E524B-C67B-4990-A5C3-077E8DAB7E38}">
   <dimension ref="A1:L364"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A233" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C235" sqref="C235"/>
+    <sheetView showGridLines="0" topLeftCell="A121" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G176" sqref="G176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -16047,11 +16241,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="107" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="118"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="119"/>
       <c r="D1" s="53" t="s">
         <v>2</v>
       </c>
@@ -16074,9 +16268,9 @@
       <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A2" s="110"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="119"/>
+      <c r="A2" s="109"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="120"/>
       <c r="D2" s="53" t="s">
         <v>3</v>
       </c>
@@ -16244,13 +16438,13 @@
       <c r="C8" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="105" t="s">
+      <c r="D8" s="104" t="s">
         <v>204</v>
       </c>
       <c r="E8" s="80" t="s">
         <v>161</v>
       </c>
-      <c r="F8" s="105" t="s">
+      <c r="F8" s="104" t="s">
         <v>202</v>
       </c>
       <c r="G8" s="60">
@@ -16270,11 +16464,11 @@
       <c r="C9" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="106"/>
+      <c r="D9" s="105"/>
       <c r="E9" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="F9" s="106"/>
+      <c r="F9" s="105"/>
       <c r="G9" s="60">
         <v>44369</v>
       </c>
@@ -16292,11 +16486,11 @@
       <c r="C10" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="106"/>
+      <c r="D10" s="105"/>
       <c r="E10" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="106"/>
+      <c r="F10" s="105"/>
       <c r="G10" s="60">
         <v>44369</v>
       </c>
@@ -16314,11 +16508,11 @@
       <c r="C11" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="106"/>
+      <c r="D11" s="105"/>
       <c r="E11" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="106"/>
+      <c r="F11" s="105"/>
       <c r="G11" s="60">
         <v>44369</v>
       </c>
@@ -16336,11 +16530,11 @@
       <c r="C12" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="106"/>
+      <c r="D12" s="105"/>
       <c r="E12" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="106"/>
+      <c r="F12" s="105"/>
       <c r="G12" s="60">
         <v>44369</v>
       </c>
@@ -16358,11 +16552,11 @@
       <c r="C13" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="106"/>
+      <c r="D13" s="105"/>
       <c r="E13" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="106"/>
+      <c r="F13" s="105"/>
       <c r="G13" s="60">
         <v>44369</v>
       </c>
@@ -16380,11 +16574,11 @@
       <c r="C14" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="106"/>
+      <c r="D14" s="105"/>
       <c r="E14" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="106"/>
+      <c r="F14" s="105"/>
       <c r="G14" s="60">
         <v>44369</v>
       </c>
@@ -16402,11 +16596,11 @@
       <c r="C15" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="106"/>
+      <c r="D15" s="105"/>
       <c r="E15" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="106"/>
+      <c r="F15" s="105"/>
       <c r="G15" s="60">
         <v>44369</v>
       </c>
@@ -16424,11 +16618,11 @@
       <c r="C16" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="106"/>
+      <c r="D16" s="105"/>
       <c r="E16" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="106"/>
+      <c r="F16" s="105"/>
       <c r="G16" s="60">
         <v>44369</v>
       </c>
@@ -16446,11 +16640,11 @@
       <c r="C17" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="106"/>
+      <c r="D17" s="105"/>
       <c r="E17" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="106"/>
+      <c r="F17" s="105"/>
       <c r="G17" s="60">
         <v>44369</v>
       </c>
@@ -16468,11 +16662,11 @@
       <c r="C18" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="106"/>
+      <c r="D18" s="105"/>
       <c r="E18" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="106"/>
+      <c r="F18" s="105"/>
       <c r="G18" s="60">
         <v>44369</v>
       </c>
@@ -16490,11 +16684,11 @@
       <c r="C19" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="107"/>
+      <c r="D19" s="106"/>
       <c r="E19" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="107"/>
+      <c r="F19" s="106"/>
       <c r="G19" s="60">
         <v>44369</v>
       </c>
@@ -16515,13 +16709,13 @@
       <c r="C20" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="105" t="s">
+      <c r="D20" s="104" t="s">
         <v>203</v>
       </c>
-      <c r="E20" s="120" t="s">
+      <c r="E20" s="124" t="s">
         <v>201</v>
       </c>
-      <c r="F20" s="105" t="s">
+      <c r="F20" s="104" t="s">
         <v>188</v>
       </c>
       <c r="G20" s="60">
@@ -16544,9 +16738,9 @@
       <c r="C21" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="106"/>
-      <c r="E21" s="121"/>
-      <c r="F21" s="106"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="105"/>
       <c r="G21" s="60">
         <v>44369</v>
       </c>
@@ -16567,9 +16761,9 @@
       <c r="C22" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="106"/>
-      <c r="E22" s="121"/>
-      <c r="F22" s="106"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="105"/>
       <c r="G22" s="60">
         <v>44369</v>
       </c>
@@ -16590,9 +16784,9 @@
       <c r="C23" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="106"/>
-      <c r="E23" s="121"/>
-      <c r="F23" s="106"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="105"/>
       <c r="G23" s="60">
         <v>44369</v>
       </c>
@@ -16613,9 +16807,9 @@
       <c r="C24" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="106"/>
-      <c r="E24" s="121"/>
-      <c r="F24" s="107"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="106"/>
       <c r="G24" s="60">
         <v>44369</v>
       </c>
@@ -16636,8 +16830,8 @@
       <c r="C25" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="106"/>
-      <c r="E25" s="121"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="125"/>
       <c r="F25" s="31" t="s">
         <v>186</v>
       </c>
@@ -16661,9 +16855,9 @@
       <c r="C26" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="106"/>
-      <c r="E26" s="121"/>
-      <c r="F26" s="105" t="s">
+      <c r="D26" s="105"/>
+      <c r="E26" s="125"/>
+      <c r="F26" s="104" t="s">
         <v>187</v>
       </c>
       <c r="G26" s="60">
@@ -16686,9 +16880,9 @@
       <c r="C27" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="106"/>
-      <c r="E27" s="121"/>
-      <c r="F27" s="106"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="125"/>
+      <c r="F27" s="105"/>
       <c r="G27" s="60">
         <v>44369</v>
       </c>
@@ -16709,9 +16903,9 @@
       <c r="C28" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="106"/>
-      <c r="E28" s="121"/>
-      <c r="F28" s="106"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="125"/>
+      <c r="F28" s="105"/>
       <c r="G28" s="60">
         <v>44369</v>
       </c>
@@ -16732,9 +16926,9 @@
       <c r="C29" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="106"/>
-      <c r="E29" s="121"/>
-      <c r="F29" s="106"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="125"/>
+      <c r="F29" s="105"/>
       <c r="G29" s="60">
         <v>44369</v>
       </c>
@@ -16755,9 +16949,9 @@
       <c r="C30" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="106"/>
-      <c r="E30" s="121"/>
-      <c r="F30" s="106"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="125"/>
+      <c r="F30" s="105"/>
       <c r="G30" s="60">
         <v>44369</v>
       </c>
@@ -16778,9 +16972,9 @@
       <c r="C31" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="107"/>
-      <c r="E31" s="122"/>
-      <c r="F31" s="107"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="126"/>
+      <c r="F31" s="106"/>
       <c r="G31" s="60">
         <v>44369</v>
       </c>
@@ -16803,7 +16997,7 @@
       <c r="C32" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="105" t="s">
+      <c r="D32" s="104" t="s">
         <v>219</v>
       </c>
       <c r="E32" s="31" t="s">
@@ -16832,7 +17026,7 @@
       <c r="C33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="106"/>
+      <c r="D33" s="105"/>
       <c r="E33" s="31" t="s">
         <v>168</v>
       </c>
@@ -16859,7 +17053,7 @@
       <c r="C34" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="106"/>
+      <c r="D34" s="105"/>
       <c r="E34" s="31" t="s">
         <v>169</v>
       </c>
@@ -16886,7 +17080,7 @@
       <c r="C35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="106"/>
+      <c r="D35" s="105"/>
       <c r="E35" s="31" t="s">
         <v>169</v>
       </c>
@@ -16913,7 +17107,7 @@
       <c r="C36" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="106"/>
+      <c r="D36" s="105"/>
       <c r="E36" s="31" t="s">
         <v>170</v>
       </c>
@@ -16940,7 +17134,7 @@
       <c r="C37" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="106"/>
+      <c r="D37" s="105"/>
       <c r="E37" s="31" t="s">
         <v>171</v>
       </c>
@@ -16967,7 +17161,7 @@
       <c r="C38" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="106"/>
+      <c r="D38" s="105"/>
       <c r="E38" s="31" t="s">
         <v>172</v>
       </c>
@@ -16994,7 +17188,7 @@
       <c r="C39" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="106"/>
+      <c r="D39" s="105"/>
       <c r="E39" s="31" t="s">
         <v>173</v>
       </c>
@@ -17021,7 +17215,7 @@
       <c r="C40" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="106"/>
+      <c r="D40" s="105"/>
       <c r="E40" s="31" t="s">
         <v>174</v>
       </c>
@@ -17048,7 +17242,7 @@
       <c r="C41" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="107"/>
+      <c r="D41" s="106"/>
       <c r="E41" s="31" t="s">
         <v>175</v>
       </c>
@@ -17077,13 +17271,13 @@
       <c r="C42" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="105" t="s">
+      <c r="D42" s="104" t="s">
         <v>207</v>
       </c>
-      <c r="E42" s="99" t="s">
+      <c r="E42" s="101" t="s">
         <v>223</v>
       </c>
-      <c r="F42" s="99" t="s">
+      <c r="F42" s="101" t="s">
         <v>206</v>
       </c>
       <c r="G42" s="60">
@@ -17106,9 +17300,9 @@
       <c r="C43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="103"/>
-      <c r="E43" s="100"/>
-      <c r="F43" s="100"/>
+      <c r="D43" s="115"/>
+      <c r="E43" s="102"/>
+      <c r="F43" s="102"/>
       <c r="G43" s="60">
         <v>44369</v>
       </c>
@@ -17129,9 +17323,9 @@
       <c r="C44" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="103"/>
-      <c r="E44" s="100"/>
-      <c r="F44" s="100"/>
+      <c r="D44" s="115"/>
+      <c r="E44" s="102"/>
+      <c r="F44" s="102"/>
       <c r="G44" s="60">
         <v>44369</v>
       </c>
@@ -17152,9 +17346,9 @@
       <c r="C45" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="103"/>
-      <c r="E45" s="100"/>
-      <c r="F45" s="100"/>
+      <c r="D45" s="115"/>
+      <c r="E45" s="102"/>
+      <c r="F45" s="102"/>
       <c r="G45" s="60">
         <v>44369</v>
       </c>
@@ -17175,9 +17369,9 @@
       <c r="C46" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="103"/>
-      <c r="E46" s="100"/>
-      <c r="F46" s="100"/>
+      <c r="D46" s="115"/>
+      <c r="E46" s="102"/>
+      <c r="F46" s="102"/>
       <c r="G46" s="60">
         <v>44369</v>
       </c>
@@ -17198,9 +17392,9 @@
       <c r="C47" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="103"/>
-      <c r="E47" s="100"/>
-      <c r="F47" s="100"/>
+      <c r="D47" s="115"/>
+      <c r="E47" s="102"/>
+      <c r="F47" s="102"/>
       <c r="G47" s="60">
         <v>44369</v>
       </c>
@@ -17221,9 +17415,9 @@
       <c r="C48" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="103"/>
-      <c r="E48" s="100"/>
-      <c r="F48" s="100"/>
+      <c r="D48" s="115"/>
+      <c r="E48" s="102"/>
+      <c r="F48" s="102"/>
       <c r="G48" s="60">
         <v>44369</v>
       </c>
@@ -17244,9 +17438,9 @@
       <c r="C49" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D49" s="103"/>
-      <c r="E49" s="100"/>
-      <c r="F49" s="100"/>
+      <c r="D49" s="115"/>
+      <c r="E49" s="102"/>
+      <c r="F49" s="102"/>
       <c r="G49" s="60">
         <v>44369</v>
       </c>
@@ -17267,9 +17461,9 @@
       <c r="C50" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="103"/>
-      <c r="E50" s="100"/>
-      <c r="F50" s="100"/>
+      <c r="D50" s="115"/>
+      <c r="E50" s="102"/>
+      <c r="F50" s="102"/>
       <c r="G50" s="60">
         <v>44369</v>
       </c>
@@ -17290,9 +17484,9 @@
       <c r="C51" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D51" s="103"/>
-      <c r="E51" s="100"/>
-      <c r="F51" s="100"/>
+      <c r="D51" s="115"/>
+      <c r="E51" s="102"/>
+      <c r="F51" s="102"/>
       <c r="G51" s="60">
         <v>44369</v>
       </c>
@@ -17313,9 +17507,9 @@
       <c r="C52" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="103"/>
-      <c r="E52" s="100"/>
-      <c r="F52" s="100"/>
+      <c r="D52" s="115"/>
+      <c r="E52" s="102"/>
+      <c r="F52" s="102"/>
       <c r="G52" s="60">
         <v>44369</v>
       </c>
@@ -17336,9 +17530,9 @@
       <c r="C53" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="104"/>
-      <c r="E53" s="101"/>
-      <c r="F53" s="101"/>
+      <c r="D53" s="116"/>
+      <c r="E53" s="103"/>
+      <c r="F53" s="103"/>
       <c r="G53" s="60">
         <v>44369</v>
       </c>
@@ -17361,13 +17555,13 @@
       <c r="C54" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="105" t="s">
+      <c r="D54" s="104" t="s">
         <v>205</v>
       </c>
-      <c r="E54" s="99" t="s">
+      <c r="E54" s="101" t="s">
         <v>223</v>
       </c>
-      <c r="F54" s="115" t="s">
+      <c r="F54" s="121" t="s">
         <v>178</v>
       </c>
       <c r="G54" s="60">
@@ -17390,9 +17584,9 @@
       <c r="C55" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="103"/>
-      <c r="E55" s="100"/>
-      <c r="F55" s="116"/>
+      <c r="D55" s="115"/>
+      <c r="E55" s="102"/>
+      <c r="F55" s="122"/>
       <c r="G55" s="60">
         <v>44369</v>
       </c>
@@ -17413,9 +17607,9 @@
       <c r="C56" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="103"/>
-      <c r="E56" s="100"/>
-      <c r="F56" s="116"/>
+      <c r="D56" s="115"/>
+      <c r="E56" s="102"/>
+      <c r="F56" s="122"/>
       <c r="G56" s="60">
         <v>44369</v>
       </c>
@@ -17436,9 +17630,9 @@
       <c r="C57" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="103"/>
-      <c r="E57" s="100"/>
-      <c r="F57" s="116"/>
+      <c r="D57" s="115"/>
+      <c r="E57" s="102"/>
+      <c r="F57" s="122"/>
       <c r="G57" s="60">
         <v>44369</v>
       </c>
@@ -17459,9 +17653,9 @@
       <c r="C58" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="103"/>
-      <c r="E58" s="100"/>
-      <c r="F58" s="116"/>
+      <c r="D58" s="115"/>
+      <c r="E58" s="102"/>
+      <c r="F58" s="122"/>
       <c r="G58" s="60">
         <v>44369</v>
       </c>
@@ -17482,9 +17676,9 @@
       <c r="C59" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D59" s="103"/>
-      <c r="E59" s="100"/>
-      <c r="F59" s="117"/>
+      <c r="D59" s="115"/>
+      <c r="E59" s="102"/>
+      <c r="F59" s="123"/>
       <c r="G59" s="60">
         <v>44369</v>
       </c>
@@ -17505,8 +17699,8 @@
       <c r="C60" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="103"/>
-      <c r="E60" s="100"/>
+      <c r="D60" s="115"/>
+      <c r="E60" s="102"/>
       <c r="F60" s="32" t="s">
         <v>179</v>
       </c>
@@ -17530,8 +17724,8 @@
       <c r="C61" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="103"/>
-      <c r="E61" s="100"/>
+      <c r="D61" s="115"/>
+      <c r="E61" s="102"/>
       <c r="F61" s="32" t="s">
         <v>182</v>
       </c>
@@ -17555,8 +17749,8 @@
       <c r="C62" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D62" s="103"/>
-      <c r="E62" s="100"/>
+      <c r="D62" s="115"/>
+      <c r="E62" s="102"/>
       <c r="F62" s="32" t="s">
         <v>181</v>
       </c>
@@ -17580,9 +17774,9 @@
       <c r="C63" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D63" s="103"/>
-      <c r="E63" s="100"/>
-      <c r="F63" s="115" t="s">
+      <c r="D63" s="115"/>
+      <c r="E63" s="102"/>
+      <c r="F63" s="121" t="s">
         <v>182</v>
       </c>
       <c r="G63" s="60">
@@ -17605,9 +17799,9 @@
       <c r="C64" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D64" s="103"/>
-      <c r="E64" s="100"/>
-      <c r="F64" s="117"/>
+      <c r="D64" s="115"/>
+      <c r="E64" s="102"/>
+      <c r="F64" s="123"/>
       <c r="G64" s="60">
         <v>44369</v>
       </c>
@@ -17628,8 +17822,8 @@
       <c r="C65" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D65" s="104"/>
-      <c r="E65" s="101"/>
+      <c r="D65" s="116"/>
+      <c r="E65" s="103"/>
       <c r="F65" s="32" t="s">
         <v>180</v>
       </c>
@@ -17655,13 +17849,13 @@
       <c r="C66" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="105" t="s">
+      <c r="D66" s="104" t="s">
         <v>221</v>
       </c>
-      <c r="E66" s="105" t="s">
+      <c r="E66" s="104" t="s">
         <v>163</v>
       </c>
-      <c r="F66" s="99" t="s">
+      <c r="F66" s="101" t="s">
         <v>164</v>
       </c>
       <c r="G66" s="60">
@@ -17684,9 +17878,9 @@
       <c r="C67" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="103"/>
-      <c r="E67" s="106"/>
-      <c r="F67" s="100"/>
+      <c r="D67" s="115"/>
+      <c r="E67" s="105"/>
+      <c r="F67" s="102"/>
       <c r="G67" s="60">
         <v>44369</v>
       </c>
@@ -17707,9 +17901,9 @@
       <c r="C68" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D68" s="103"/>
-      <c r="E68" s="106"/>
-      <c r="F68" s="100"/>
+      <c r="D68" s="115"/>
+      <c r="E68" s="105"/>
+      <c r="F68" s="102"/>
       <c r="G68" s="60">
         <v>44369</v>
       </c>
@@ -17730,9 +17924,9 @@
       <c r="C69" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D69" s="103"/>
-      <c r="E69" s="106"/>
-      <c r="F69" s="100"/>
+      <c r="D69" s="115"/>
+      <c r="E69" s="105"/>
+      <c r="F69" s="102"/>
       <c r="G69" s="60">
         <v>44369</v>
       </c>
@@ -17753,9 +17947,9 @@
       <c r="C70" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="103"/>
-      <c r="E70" s="106"/>
-      <c r="F70" s="100"/>
+      <c r="D70" s="115"/>
+      <c r="E70" s="105"/>
+      <c r="F70" s="102"/>
       <c r="G70" s="60">
         <v>44369</v>
       </c>
@@ -17776,9 +17970,9 @@
       <c r="C71" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D71" s="103"/>
-      <c r="E71" s="106"/>
-      <c r="F71" s="100"/>
+      <c r="D71" s="115"/>
+      <c r="E71" s="105"/>
+      <c r="F71" s="102"/>
       <c r="G71" s="60">
         <v>44369</v>
       </c>
@@ -17799,9 +17993,9 @@
       <c r="C72" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="103"/>
-      <c r="E72" s="106"/>
-      <c r="F72" s="100"/>
+      <c r="D72" s="115"/>
+      <c r="E72" s="105"/>
+      <c r="F72" s="102"/>
       <c r="G72" s="60">
         <v>44369</v>
       </c>
@@ -17822,9 +18016,9 @@
       <c r="C73" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="103"/>
-      <c r="E73" s="106"/>
-      <c r="F73" s="100"/>
+      <c r="D73" s="115"/>
+      <c r="E73" s="105"/>
+      <c r="F73" s="102"/>
       <c r="G73" s="60">
         <v>44369</v>
       </c>
@@ -17845,9 +18039,9 @@
       <c r="C74" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D74" s="103"/>
-      <c r="E74" s="106"/>
-      <c r="F74" s="100"/>
+      <c r="D74" s="115"/>
+      <c r="E74" s="105"/>
+      <c r="F74" s="102"/>
       <c r="G74" s="60">
         <v>44369</v>
       </c>
@@ -17868,9 +18062,9 @@
       <c r="C75" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="103"/>
-      <c r="E75" s="106"/>
-      <c r="F75" s="100"/>
+      <c r="D75" s="115"/>
+      <c r="E75" s="105"/>
+      <c r="F75" s="102"/>
       <c r="G75" s="60">
         <v>44369</v>
       </c>
@@ -17891,9 +18085,9 @@
       <c r="C76" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D76" s="103"/>
-      <c r="E76" s="106"/>
-      <c r="F76" s="100"/>
+      <c r="D76" s="115"/>
+      <c r="E76" s="105"/>
+      <c r="F76" s="102"/>
       <c r="G76" s="60">
         <v>44369</v>
       </c>
@@ -17914,9 +18108,9 @@
       <c r="C77" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D77" s="104"/>
-      <c r="E77" s="107"/>
-      <c r="F77" s="101"/>
+      <c r="D77" s="116"/>
+      <c r="E77" s="106"/>
+      <c r="F77" s="103"/>
       <c r="G77" s="60">
         <v>44369</v>
       </c>
@@ -17972,10 +18166,10 @@
       <c r="C79" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="D79" s="105" t="s">
+      <c r="D79" s="104" t="s">
         <v>222</v>
       </c>
-      <c r="E79" s="105" t="s">
+      <c r="E79" s="104" t="s">
         <v>237</v>
       </c>
       <c r="F79" s="32" t="s">
@@ -18001,8 +18195,8 @@
       <c r="C80" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D80" s="106"/>
-      <c r="E80" s="106"/>
+      <c r="D80" s="105"/>
+      <c r="E80" s="105"/>
       <c r="F80" s="32" t="s">
         <v>191</v>
       </c>
@@ -18026,8 +18220,8 @@
       <c r="C81" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D81" s="106"/>
-      <c r="E81" s="106"/>
+      <c r="D81" s="105"/>
+      <c r="E81" s="105"/>
       <c r="F81" s="32" t="s">
         <v>208</v>
       </c>
@@ -18051,8 +18245,8 @@
       <c r="C82" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D82" s="106"/>
-      <c r="E82" s="106"/>
+      <c r="D82" s="105"/>
+      <c r="E82" s="105"/>
       <c r="F82" s="32" t="s">
         <v>209</v>
       </c>
@@ -18076,8 +18270,8 @@
       <c r="C83" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D83" s="106"/>
-      <c r="E83" s="106"/>
+      <c r="D83" s="105"/>
+      <c r="E83" s="105"/>
       <c r="F83" s="32" t="s">
         <v>210</v>
       </c>
@@ -18101,8 +18295,8 @@
       <c r="C84" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D84" s="106"/>
-      <c r="E84" s="106"/>
+      <c r="D84" s="105"/>
+      <c r="E84" s="105"/>
       <c r="F84" s="32" t="s">
         <v>211</v>
       </c>
@@ -18126,8 +18320,8 @@
       <c r="C85" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D85" s="106"/>
-      <c r="E85" s="106"/>
+      <c r="D85" s="105"/>
+      <c r="E85" s="105"/>
       <c r="F85" s="32" t="s">
         <v>212</v>
       </c>
@@ -18151,8 +18345,8 @@
       <c r="C86" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D86" s="106"/>
-      <c r="E86" s="106"/>
+      <c r="D86" s="105"/>
+      <c r="E86" s="105"/>
       <c r="F86" s="32" t="s">
         <v>213</v>
       </c>
@@ -18176,8 +18370,8 @@
       <c r="C87" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D87" s="106"/>
-      <c r="E87" s="106"/>
+      <c r="D87" s="105"/>
+      <c r="E87" s="105"/>
       <c r="F87" s="32" t="s">
         <v>214</v>
       </c>
@@ -18201,8 +18395,8 @@
       <c r="C88" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D88" s="106"/>
-      <c r="E88" s="106"/>
+      <c r="D88" s="105"/>
+      <c r="E88" s="105"/>
       <c r="F88" s="32" t="s">
         <v>215</v>
       </c>
@@ -18226,8 +18420,8 @@
       <c r="C89" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D89" s="106"/>
-      <c r="E89" s="106"/>
+      <c r="D89" s="105"/>
+      <c r="E89" s="105"/>
       <c r="F89" s="32" t="s">
         <v>216</v>
       </c>
@@ -18251,8 +18445,8 @@
       <c r="C90" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D90" s="106"/>
-      <c r="E90" s="106"/>
+      <c r="D90" s="105"/>
+      <c r="E90" s="105"/>
       <c r="F90" s="32" t="s">
         <v>217</v>
       </c>
@@ -18276,8 +18470,8 @@
       <c r="C91" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D91" s="106"/>
-      <c r="E91" s="106"/>
+      <c r="D91" s="105"/>
+      <c r="E91" s="105"/>
       <c r="F91" s="32" t="s">
         <v>218</v>
       </c>
@@ -18301,8 +18495,8 @@
       <c r="C92" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="D92" s="106"/>
-      <c r="E92" s="106"/>
+      <c r="D92" s="105"/>
+      <c r="E92" s="105"/>
       <c r="F92" s="31" t="s">
         <v>224</v>
       </c>
@@ -18326,8 +18520,8 @@
       <c r="C93" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="D93" s="106"/>
-      <c r="E93" s="106"/>
+      <c r="D93" s="105"/>
+      <c r="E93" s="105"/>
       <c r="F93" s="31" t="s">
         <v>225</v>
       </c>
@@ -18353,8 +18547,8 @@
       <c r="C94" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="D94" s="107"/>
-      <c r="E94" s="107"/>
+      <c r="D94" s="106"/>
+      <c r="E94" s="106"/>
       <c r="F94" s="31" t="s">
         <v>226</v>
       </c>
@@ -18473,10 +18667,10 @@
       <c r="C98" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="D98" s="99" t="s">
+      <c r="D98" s="101" t="s">
         <v>243</v>
       </c>
-      <c r="E98" s="99" t="s">
+      <c r="E98" s="101" t="s">
         <v>241</v>
       </c>
       <c r="F98" s="37" t="s">
@@ -18502,8 +18696,8 @@
       <c r="C99" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D99" s="123"/>
-      <c r="E99" s="100"/>
+      <c r="D99" s="117"/>
+      <c r="E99" s="102"/>
       <c r="F99" s="37" t="s">
         <v>261</v>
       </c>
@@ -18527,8 +18721,8 @@
       <c r="C100" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D100" s="123"/>
-      <c r="E100" s="100"/>
+      <c r="D100" s="117"/>
+      <c r="E100" s="102"/>
       <c r="F100" s="37" t="s">
         <v>262</v>
       </c>
@@ -18552,8 +18746,8 @@
       <c r="C101" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D101" s="123"/>
-      <c r="E101" s="100"/>
+      <c r="D101" s="117"/>
+      <c r="E101" s="102"/>
       <c r="F101" s="37" t="s">
         <v>263</v>
       </c>
@@ -18577,8 +18771,8 @@
       <c r="C102" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D102" s="123"/>
-      <c r="E102" s="100"/>
+      <c r="D102" s="117"/>
+      <c r="E102" s="102"/>
       <c r="F102" s="37" t="s">
         <v>264</v>
       </c>
@@ -18602,8 +18796,8 @@
       <c r="C103" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D103" s="123"/>
-      <c r="E103" s="100"/>
+      <c r="D103" s="117"/>
+      <c r="E103" s="102"/>
       <c r="F103" s="37" t="s">
         <v>265</v>
       </c>
@@ -18627,8 +18821,8 @@
       <c r="C104" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D104" s="123"/>
-      <c r="E104" s="100"/>
+      <c r="D104" s="117"/>
+      <c r="E104" s="102"/>
       <c r="F104" s="37" t="s">
         <v>266</v>
       </c>
@@ -18652,8 +18846,8 @@
       <c r="C105" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D105" s="123"/>
-      <c r="E105" s="100"/>
+      <c r="D105" s="117"/>
+      <c r="E105" s="102"/>
       <c r="F105" s="37" t="s">
         <v>267</v>
       </c>
@@ -18677,8 +18871,8 @@
       <c r="C106" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="D106" s="123"/>
-      <c r="E106" s="100"/>
+      <c r="D106" s="117"/>
+      <c r="E106" s="102"/>
       <c r="F106" s="37" t="s">
         <v>268</v>
       </c>
@@ -18702,8 +18896,8 @@
       <c r="C107" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="D107" s="123"/>
-      <c r="E107" s="100"/>
+      <c r="D107" s="117"/>
+      <c r="E107" s="102"/>
       <c r="F107" s="37" t="s">
         <v>269</v>
       </c>
@@ -18727,8 +18921,8 @@
       <c r="C108" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="D108" s="124"/>
-      <c r="E108" s="101"/>
+      <c r="D108" s="118"/>
+      <c r="E108" s="103"/>
       <c r="F108" s="37" t="s">
         <v>269</v>
       </c>
@@ -18905,10 +19099,10 @@
       <c r="C114" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D114" s="99" t="s">
+      <c r="D114" s="101" t="s">
         <v>372</v>
       </c>
-      <c r="E114" s="99" t="s">
+      <c r="E114" s="101" t="s">
         <v>373</v>
       </c>
       <c r="F114" s="37" t="s">
@@ -18934,8 +19128,8 @@
       <c r="C115" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D115" s="100"/>
-      <c r="E115" s="100"/>
+      <c r="D115" s="102"/>
+      <c r="E115" s="102"/>
       <c r="F115" s="37" t="s">
         <v>412</v>
       </c>
@@ -18959,8 +19153,8 @@
       <c r="C116" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D116" s="100"/>
-      <c r="E116" s="100"/>
+      <c r="D116" s="102"/>
+      <c r="E116" s="102"/>
       <c r="F116" s="37" t="s">
         <v>413</v>
       </c>
@@ -18984,8 +19178,8 @@
       <c r="C117" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D117" s="100"/>
-      <c r="E117" s="100"/>
+      <c r="D117" s="102"/>
+      <c r="E117" s="102"/>
       <c r="F117" s="37" t="s">
         <v>414</v>
       </c>
@@ -19009,8 +19203,8 @@
       <c r="C118" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D118" s="100"/>
-      <c r="E118" s="100"/>
+      <c r="D118" s="102"/>
+      <c r="E118" s="102"/>
       <c r="F118" s="37" t="s">
         <v>415</v>
       </c>
@@ -19034,8 +19228,8 @@
       <c r="C119" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D119" s="100"/>
-      <c r="E119" s="100"/>
+      <c r="D119" s="102"/>
+      <c r="E119" s="102"/>
       <c r="F119" s="37" t="s">
         <v>416</v>
       </c>
@@ -19059,8 +19253,8 @@
       <c r="C120" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D120" s="100"/>
-      <c r="E120" s="100"/>
+      <c r="D120" s="102"/>
+      <c r="E120" s="102"/>
       <c r="F120" s="37" t="s">
         <v>417</v>
       </c>
@@ -19084,8 +19278,8 @@
       <c r="C121" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D121" s="100"/>
-      <c r="E121" s="100"/>
+      <c r="D121" s="102"/>
+      <c r="E121" s="102"/>
       <c r="F121" s="37" t="s">
         <v>418</v>
       </c>
@@ -19109,8 +19303,8 @@
       <c r="C122" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D122" s="100"/>
-      <c r="E122" s="100"/>
+      <c r="D122" s="102"/>
+      <c r="E122" s="102"/>
       <c r="F122" s="37" t="s">
         <v>419</v>
       </c>
@@ -19134,8 +19328,8 @@
       <c r="C123" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D123" s="100"/>
-      <c r="E123" s="100"/>
+      <c r="D123" s="102"/>
+      <c r="E123" s="102"/>
       <c r="F123" s="37" t="s">
         <v>420</v>
       </c>
@@ -19159,8 +19353,8 @@
       <c r="C124" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D124" s="100"/>
-      <c r="E124" s="100"/>
+      <c r="D124" s="102"/>
+      <c r="E124" s="102"/>
       <c r="F124" s="37" t="s">
         <v>421</v>
       </c>
@@ -19184,8 +19378,8 @@
       <c r="C125" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D125" s="101"/>
-      <c r="E125" s="101"/>
+      <c r="D125" s="103"/>
+      <c r="E125" s="103"/>
       <c r="F125" s="37" t="s">
         <v>422</v>
       </c>
@@ -19339,13 +19533,13 @@
       <c r="C130" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D130" s="99" t="s">
+      <c r="D130" s="101" t="s">
         <v>491</v>
       </c>
-      <c r="E130" s="105" t="s">
+      <c r="E130" s="104" t="s">
         <v>489</v>
       </c>
-      <c r="F130" s="99" t="s">
+      <c r="F130" s="101" t="s">
         <v>492</v>
       </c>
       <c r="G130" s="93">
@@ -19368,9 +19562,9 @@
       <c r="C131" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D131" s="100"/>
-      <c r="E131" s="106"/>
-      <c r="F131" s="100"/>
+      <c r="D131" s="102"/>
+      <c r="E131" s="105"/>
+      <c r="F131" s="102"/>
       <c r="G131" s="93">
         <v>44439</v>
       </c>
@@ -19391,9 +19585,9 @@
       <c r="C132" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D132" s="100"/>
-      <c r="E132" s="106"/>
-      <c r="F132" s="100"/>
+      <c r="D132" s="102"/>
+      <c r="E132" s="105"/>
+      <c r="F132" s="102"/>
       <c r="G132" s="93">
         <v>44439</v>
       </c>
@@ -19414,9 +19608,9 @@
       <c r="C133" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D133" s="100"/>
-      <c r="E133" s="106"/>
-      <c r="F133" s="100"/>
+      <c r="D133" s="102"/>
+      <c r="E133" s="105"/>
+      <c r="F133" s="102"/>
       <c r="G133" s="93">
         <v>44439</v>
       </c>
@@ -19437,9 +19631,9 @@
       <c r="C134" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D134" s="100"/>
-      <c r="E134" s="106"/>
-      <c r="F134" s="100"/>
+      <c r="D134" s="102"/>
+      <c r="E134" s="105"/>
+      <c r="F134" s="102"/>
       <c r="G134" s="93">
         <v>44439</v>
       </c>
@@ -19460,9 +19654,9 @@
       <c r="C135" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D135" s="100"/>
-      <c r="E135" s="106"/>
-      <c r="F135" s="100"/>
+      <c r="D135" s="102"/>
+      <c r="E135" s="105"/>
+      <c r="F135" s="102"/>
       <c r="G135" s="93">
         <v>44439</v>
       </c>
@@ -19483,9 +19677,9 @@
       <c r="C136" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D136" s="100"/>
-      <c r="E136" s="106"/>
-      <c r="F136" s="100"/>
+      <c r="D136" s="102"/>
+      <c r="E136" s="105"/>
+      <c r="F136" s="102"/>
       <c r="G136" s="93">
         <v>44439</v>
       </c>
@@ -19506,9 +19700,9 @@
       <c r="C137" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D137" s="100"/>
-      <c r="E137" s="106"/>
-      <c r="F137" s="100"/>
+      <c r="D137" s="102"/>
+      <c r="E137" s="105"/>
+      <c r="F137" s="102"/>
       <c r="G137" s="93">
         <v>44439</v>
       </c>
@@ -19529,9 +19723,9 @@
       <c r="C138" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D138" s="100"/>
-      <c r="E138" s="106"/>
-      <c r="F138" s="100"/>
+      <c r="D138" s="102"/>
+      <c r="E138" s="105"/>
+      <c r="F138" s="102"/>
       <c r="G138" s="93">
         <v>44439</v>
       </c>
@@ -19552,9 +19746,9 @@
       <c r="C139" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D139" s="100"/>
-      <c r="E139" s="106"/>
-      <c r="F139" s="100"/>
+      <c r="D139" s="102"/>
+      <c r="E139" s="105"/>
+      <c r="F139" s="102"/>
       <c r="G139" s="93">
         <v>44439</v>
       </c>
@@ -19575,9 +19769,9 @@
       <c r="C140" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D140" s="100"/>
-      <c r="E140" s="106"/>
-      <c r="F140" s="100"/>
+      <c r="D140" s="102"/>
+      <c r="E140" s="105"/>
+      <c r="F140" s="102"/>
       <c r="G140" s="93">
         <v>44439</v>
       </c>
@@ -19598,9 +19792,9 @@
       <c r="C141" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D141" s="101"/>
-      <c r="E141" s="107"/>
-      <c r="F141" s="101"/>
+      <c r="D141" s="103"/>
+      <c r="E141" s="106"/>
+      <c r="F141" s="103"/>
       <c r="G141" s="93">
         <v>44439</v>
       </c>
@@ -19685,10 +19879,10 @@
       <c r="C144" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="D144" s="99" t="s">
+      <c r="D144" s="101" t="s">
         <v>384</v>
       </c>
-      <c r="E144" s="99" t="s">
+      <c r="E144" s="101" t="s">
         <v>383</v>
       </c>
       <c r="F144" s="37" t="s">
@@ -19714,8 +19908,8 @@
       <c r="C145" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="D145" s="101"/>
-      <c r="E145" s="101"/>
+      <c r="D145" s="103"/>
+      <c r="E145" s="103"/>
       <c r="F145" s="37" t="s">
         <v>386</v>
       </c>
@@ -20068,10 +20262,10 @@
       <c r="C157" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D157" s="99" t="s">
+      <c r="D157" s="101" t="s">
         <v>423</v>
       </c>
-      <c r="E157" s="99" t="s">
+      <c r="E157" s="101" t="s">
         <v>424</v>
       </c>
       <c r="F157" s="31" t="s">
@@ -20097,8 +20291,8 @@
       <c r="C158" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D158" s="100"/>
-      <c r="E158" s="100"/>
+      <c r="D158" s="102"/>
+      <c r="E158" s="102"/>
       <c r="F158" s="31" t="s">
         <v>310</v>
       </c>
@@ -20122,8 +20316,8 @@
       <c r="C159" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D159" s="100"/>
-      <c r="E159" s="100"/>
+      <c r="D159" s="102"/>
+      <c r="E159" s="102"/>
       <c r="F159" s="31" t="s">
         <v>309</v>
       </c>
@@ -20147,8 +20341,8 @@
       <c r="C160" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D160" s="100"/>
-      <c r="E160" s="100"/>
+      <c r="D160" s="102"/>
+      <c r="E160" s="102"/>
       <c r="F160" s="31" t="s">
         <v>308</v>
       </c>
@@ -20172,8 +20366,8 @@
       <c r="C161" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D161" s="100"/>
-      <c r="E161" s="100"/>
+      <c r="D161" s="102"/>
+      <c r="E161" s="102"/>
       <c r="F161" s="31" t="s">
         <v>311</v>
       </c>
@@ -20197,8 +20391,8 @@
       <c r="C162" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D162" s="100"/>
-      <c r="E162" s="100"/>
+      <c r="D162" s="102"/>
+      <c r="E162" s="102"/>
       <c r="F162" s="31" t="s">
         <v>312</v>
       </c>
@@ -20222,8 +20416,8 @@
       <c r="C163" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D163" s="100"/>
-      <c r="E163" s="100"/>
+      <c r="D163" s="102"/>
+      <c r="E163" s="102"/>
       <c r="F163" s="31" t="s">
         <v>319</v>
       </c>
@@ -20247,8 +20441,8 @@
       <c r="C164" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D164" s="100"/>
-      <c r="E164" s="100"/>
+      <c r="D164" s="102"/>
+      <c r="E164" s="102"/>
       <c r="F164" s="31" t="s">
         <v>314</v>
       </c>
@@ -20272,8 +20466,8 @@
       <c r="C165" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D165" s="100"/>
-      <c r="E165" s="100"/>
+      <c r="D165" s="102"/>
+      <c r="E165" s="102"/>
       <c r="F165" s="31" t="s">
         <v>315</v>
       </c>
@@ -20297,8 +20491,8 @@
       <c r="C166" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D166" s="100"/>
-      <c r="E166" s="100"/>
+      <c r="D166" s="102"/>
+      <c r="E166" s="102"/>
       <c r="F166" s="31" t="s">
         <v>316</v>
       </c>
@@ -20322,8 +20516,8 @@
       <c r="C167" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D167" s="100"/>
-      <c r="E167" s="100"/>
+      <c r="D167" s="102"/>
+      <c r="E167" s="102"/>
       <c r="F167" s="31" t="s">
         <v>317</v>
       </c>
@@ -20347,8 +20541,8 @@
       <c r="C168" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D168" s="101"/>
-      <c r="E168" s="101"/>
+      <c r="D168" s="103"/>
+      <c r="E168" s="103"/>
       <c r="F168" s="31" t="s">
         <v>318</v>
       </c>
@@ -20407,13 +20601,13 @@
       <c r="C170" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D170" s="99" t="s">
+      <c r="D170" s="101" t="s">
         <v>426</v>
       </c>
       <c r="E170" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="F170" s="99" t="s">
+      <c r="F170" s="101" t="s">
         <v>425</v>
       </c>
       <c r="G170" s="93">
@@ -20436,11 +20630,11 @@
       <c r="C171" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D171" s="100"/>
+      <c r="D171" s="102"/>
       <c r="E171" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="F171" s="100"/>
+      <c r="F171" s="102"/>
       <c r="G171" s="93">
         <v>44440</v>
       </c>
@@ -20461,11 +20655,11 @@
       <c r="C172" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D172" s="100"/>
+      <c r="D172" s="102"/>
       <c r="E172" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="F172" s="100"/>
+      <c r="F172" s="102"/>
       <c r="G172" s="93">
         <v>44440</v>
       </c>
@@ -20486,11 +20680,11 @@
       <c r="C173" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D173" s="100"/>
+      <c r="D173" s="102"/>
       <c r="E173" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="F173" s="100"/>
+      <c r="F173" s="102"/>
       <c r="G173" s="93">
         <v>44440</v>
       </c>
@@ -20511,11 +20705,11 @@
       <c r="C174" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D174" s="100"/>
+      <c r="D174" s="102"/>
       <c r="E174" s="31" t="s">
         <v>326</v>
       </c>
-      <c r="F174" s="100"/>
+      <c r="F174" s="102"/>
       <c r="G174" s="93">
         <v>44440</v>
       </c>
@@ -20536,13 +20730,13 @@
       <c r="C175" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D175" s="100"/>
+      <c r="D175" s="102"/>
       <c r="E175" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="F175" s="100"/>
+      <c r="F175" s="102"/>
       <c r="G175" s="93">
-        <v>44440</v>
+        <v>44445</v>
       </c>
       <c r="H175" s="17" t="s">
         <v>227</v>
@@ -20563,11 +20757,11 @@
       <c r="C176" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D176" s="100"/>
+      <c r="D176" s="102"/>
       <c r="E176" s="31" t="s">
         <v>346</v>
       </c>
-      <c r="F176" s="100"/>
+      <c r="F176" s="102"/>
       <c r="G176" s="93">
         <v>44440</v>
       </c>
@@ -20588,11 +20782,11 @@
       <c r="C177" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D177" s="100"/>
+      <c r="D177" s="102"/>
       <c r="E177" s="31" t="s">
         <v>327</v>
       </c>
-      <c r="F177" s="100"/>
+      <c r="F177" s="102"/>
       <c r="G177" s="93">
         <v>44440</v>
       </c>
@@ -20613,11 +20807,11 @@
       <c r="C178" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D178" s="100"/>
+      <c r="D178" s="102"/>
       <c r="E178" s="31" t="s">
         <v>322</v>
       </c>
-      <c r="F178" s="100"/>
+      <c r="F178" s="102"/>
       <c r="G178" s="93">
         <v>44440</v>
       </c>
@@ -20638,11 +20832,11 @@
       <c r="C179" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D179" s="100"/>
+      <c r="D179" s="102"/>
       <c r="E179" s="31" t="s">
         <v>328</v>
       </c>
-      <c r="F179" s="100"/>
+      <c r="F179" s="102"/>
       <c r="G179" s="93">
         <v>44440</v>
       </c>
@@ -20663,11 +20857,11 @@
       <c r="C180" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D180" s="100"/>
+      <c r="D180" s="102"/>
       <c r="E180" s="31" t="s">
         <v>329</v>
       </c>
-      <c r="F180" s="100"/>
+      <c r="F180" s="102"/>
       <c r="G180" s="93">
         <v>44440</v>
       </c>
@@ -20688,11 +20882,11 @@
       <c r="C181" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D181" s="101"/>
+      <c r="D181" s="103"/>
       <c r="E181" s="31" t="s">
         <v>321</v>
       </c>
-      <c r="F181" s="101"/>
+      <c r="F181" s="103"/>
       <c r="G181" s="93">
         <v>44440</v>
       </c>
@@ -20715,7 +20909,7 @@
       <c r="C182" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D182" s="99" t="s">
+      <c r="D182" s="101" t="s">
         <v>427</v>
       </c>
       <c r="E182" s="31" t="s">
@@ -20744,7 +20938,7 @@
       <c r="C183" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D183" s="100"/>
+      <c r="D183" s="102"/>
       <c r="E183" s="31" t="s">
         <v>332</v>
       </c>
@@ -20771,7 +20965,7 @@
       <c r="C184" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D184" s="100"/>
+      <c r="D184" s="102"/>
       <c r="E184" s="31" t="s">
         <v>333</v>
       </c>
@@ -20798,7 +20992,7 @@
       <c r="C185" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D185" s="100"/>
+      <c r="D185" s="102"/>
       <c r="E185" s="31" t="s">
         <v>334</v>
       </c>
@@ -20825,7 +21019,7 @@
       <c r="C186" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D186" s="100"/>
+      <c r="D186" s="102"/>
       <c r="E186" s="31" t="s">
         <v>335</v>
       </c>
@@ -20852,7 +21046,7 @@
       <c r="C187" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D187" s="100"/>
+      <c r="D187" s="102"/>
       <c r="E187" s="31" t="s">
         <v>340</v>
       </c>
@@ -20860,7 +21054,7 @@
         <v>341</v>
       </c>
       <c r="G187" s="93">
-        <v>44440</v>
+        <v>44445</v>
       </c>
       <c r="H187" s="17" t="s">
         <v>227</v>
@@ -20881,7 +21075,7 @@
       <c r="C188" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D188" s="100"/>
+      <c r="D188" s="102"/>
       <c r="E188" s="31" t="s">
         <v>336</v>
       </c>
@@ -20908,7 +21102,7 @@
       <c r="C189" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D189" s="100"/>
+      <c r="D189" s="102"/>
       <c r="E189" s="31" t="s">
         <v>337</v>
       </c>
@@ -20935,7 +21129,7 @@
       <c r="C190" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D190" s="100"/>
+      <c r="D190" s="102"/>
       <c r="E190" s="31" t="s">
         <v>338</v>
       </c>
@@ -20962,7 +21156,7 @@
       <c r="C191" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D191" s="101"/>
+      <c r="D191" s="103"/>
       <c r="E191" s="31" t="s">
         <v>339</v>
       </c>
@@ -20991,10 +21185,10 @@
       <c r="C192" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D192" s="99" t="s">
+      <c r="D192" s="101" t="s">
         <v>429</v>
       </c>
-      <c r="E192" s="99" t="s">
+      <c r="E192" s="101" t="s">
         <v>428</v>
       </c>
       <c r="F192" s="32" t="s">
@@ -21020,8 +21214,8 @@
       <c r="C193" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D193" s="100"/>
-      <c r="E193" s="100"/>
+      <c r="D193" s="102"/>
+      <c r="E193" s="102"/>
       <c r="F193" s="32" t="s">
         <v>109</v>
       </c>
@@ -21045,8 +21239,8 @@
       <c r="C194" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D194" s="100"/>
-      <c r="E194" s="100"/>
+      <c r="D194" s="102"/>
+      <c r="E194" s="102"/>
       <c r="F194" s="32" t="s">
         <v>112</v>
       </c>
@@ -21070,8 +21264,8 @@
       <c r="C195" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D195" s="100"/>
-      <c r="E195" s="100"/>
+      <c r="D195" s="102"/>
+      <c r="E195" s="102"/>
       <c r="F195" s="32" t="s">
         <v>113</v>
       </c>
@@ -21095,8 +21289,8 @@
       <c r="C196" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D196" s="100"/>
-      <c r="E196" s="100"/>
+      <c r="D196" s="102"/>
+      <c r="E196" s="102"/>
       <c r="F196" s="32" t="s">
         <v>114</v>
       </c>
@@ -21120,13 +21314,13 @@
       <c r="C197" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D197" s="100"/>
-      <c r="E197" s="100"/>
+      <c r="D197" s="102"/>
+      <c r="E197" s="102"/>
       <c r="F197" s="32" t="s">
         <v>111</v>
       </c>
       <c r="G197" s="93">
-        <v>44440</v>
+        <v>44445</v>
       </c>
       <c r="H197" s="17" t="s">
         <v>227</v>
@@ -21147,8 +21341,8 @@
       <c r="C198" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D198" s="100"/>
-      <c r="E198" s="100"/>
+      <c r="D198" s="102"/>
+      <c r="E198" s="102"/>
       <c r="F198" s="32" t="s">
         <v>115</v>
       </c>
@@ -21172,8 +21366,8 @@
       <c r="C199" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D199" s="100"/>
-      <c r="E199" s="100"/>
+      <c r="D199" s="102"/>
+      <c r="E199" s="102"/>
       <c r="F199" s="32" t="s">
         <v>430</v>
       </c>
@@ -21197,8 +21391,8 @@
       <c r="C200" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D200" s="100"/>
-      <c r="E200" s="100"/>
+      <c r="D200" s="102"/>
+      <c r="E200" s="102"/>
       <c r="F200" s="32" t="s">
         <v>431</v>
       </c>
@@ -21222,8 +21416,8 @@
       <c r="C201" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D201" s="100"/>
-      <c r="E201" s="100"/>
+      <c r="D201" s="102"/>
+      <c r="E201" s="102"/>
       <c r="F201" s="32" t="s">
         <v>432</v>
       </c>
@@ -21247,8 +21441,8 @@
       <c r="C202" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D202" s="100"/>
-      <c r="E202" s="100"/>
+      <c r="D202" s="102"/>
+      <c r="E202" s="102"/>
       <c r="F202" s="32" t="s">
         <v>433</v>
       </c>
@@ -21272,8 +21466,8 @@
       <c r="C203" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D203" s="101"/>
-      <c r="E203" s="101"/>
+      <c r="D203" s="103"/>
+      <c r="E203" s="103"/>
       <c r="F203" s="32" t="s">
         <v>116</v>
       </c>
@@ -21332,13 +21526,13 @@
       <c r="C205" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D205" s="99" t="s">
+      <c r="D205" s="101" t="s">
         <v>434</v>
       </c>
-      <c r="E205" s="99" t="s">
+      <c r="E205" s="101" t="s">
         <v>435</v>
       </c>
-      <c r="F205" s="115" t="s">
+      <c r="F205" s="121" t="s">
         <v>438</v>
       </c>
       <c r="G205" s="93">
@@ -21361,9 +21555,9 @@
       <c r="C206" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D206" s="100"/>
-      <c r="E206" s="100"/>
-      <c r="F206" s="116"/>
+      <c r="D206" s="102"/>
+      <c r="E206" s="102"/>
+      <c r="F206" s="122"/>
       <c r="G206" s="93">
         <v>44440</v>
       </c>
@@ -21384,9 +21578,9 @@
       <c r="C207" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D207" s="100"/>
-      <c r="E207" s="100"/>
-      <c r="F207" s="116"/>
+      <c r="D207" s="102"/>
+      <c r="E207" s="102"/>
+      <c r="F207" s="122"/>
       <c r="G207" s="93">
         <v>44440</v>
       </c>
@@ -21407,9 +21601,9 @@
       <c r="C208" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D208" s="100"/>
-      <c r="E208" s="100"/>
-      <c r="F208" s="116"/>
+      <c r="D208" s="102"/>
+      <c r="E208" s="102"/>
+      <c r="F208" s="122"/>
       <c r="G208" s="93">
         <v>44440</v>
       </c>
@@ -21430,9 +21624,9 @@
       <c r="C209" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D209" s="100"/>
-      <c r="E209" s="100"/>
-      <c r="F209" s="116"/>
+      <c r="D209" s="102"/>
+      <c r="E209" s="102"/>
+      <c r="F209" s="122"/>
       <c r="G209" s="93">
         <v>44440</v>
       </c>
@@ -21453,9 +21647,9 @@
       <c r="C210" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D210" s="100"/>
-      <c r="E210" s="100"/>
-      <c r="F210" s="117"/>
+      <c r="D210" s="102"/>
+      <c r="E210" s="102"/>
+      <c r="F210" s="123"/>
       <c r="G210" s="93">
         <v>44440</v>
       </c>
@@ -21476,8 +21670,8 @@
       <c r="C211" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D211" s="100"/>
-      <c r="E211" s="100"/>
+      <c r="D211" s="102"/>
+      <c r="E211" s="102"/>
       <c r="F211" s="32" t="s">
         <v>439</v>
       </c>
@@ -21501,8 +21695,8 @@
       <c r="C212" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D212" s="100"/>
-      <c r="E212" s="100"/>
+      <c r="D212" s="102"/>
+      <c r="E212" s="102"/>
       <c r="F212" s="32" t="s">
         <v>437</v>
       </c>
@@ -21526,8 +21720,8 @@
       <c r="C213" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D213" s="100"/>
-      <c r="E213" s="100"/>
+      <c r="D213" s="102"/>
+      <c r="E213" s="102"/>
       <c r="F213" s="32" t="s">
         <v>441</v>
       </c>
@@ -21551,9 +21745,9 @@
       <c r="C214" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D214" s="100"/>
-      <c r="E214" s="100"/>
-      <c r="F214" s="115" t="s">
+      <c r="D214" s="102"/>
+      <c r="E214" s="102"/>
+      <c r="F214" s="121" t="s">
         <v>437</v>
       </c>
       <c r="G214" s="93">
@@ -21576,9 +21770,9 @@
       <c r="C215" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D215" s="100"/>
-      <c r="E215" s="100"/>
-      <c r="F215" s="117"/>
+      <c r="D215" s="102"/>
+      <c r="E215" s="102"/>
+      <c r="F215" s="123"/>
       <c r="G215" s="93">
         <v>44440</v>
       </c>
@@ -21599,8 +21793,8 @@
       <c r="C216" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D216" s="101"/>
-      <c r="E216" s="101"/>
+      <c r="D216" s="103"/>
+      <c r="E216" s="103"/>
       <c r="F216" s="32" t="s">
         <v>440</v>
       </c>
@@ -21686,10 +21880,10 @@
       <c r="C219" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D219" s="99" t="s">
+      <c r="D219" s="101" t="s">
         <v>448</v>
       </c>
-      <c r="E219" s="99" t="s">
+      <c r="E219" s="101" t="s">
         <v>449</v>
       </c>
       <c r="F219" s="32" t="s">
@@ -21715,8 +21909,8 @@
       <c r="C220" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D220" s="100"/>
-      <c r="E220" s="100"/>
+      <c r="D220" s="102"/>
+      <c r="E220" s="102"/>
       <c r="F220" s="32" t="s">
         <v>476</v>
       </c>
@@ -21740,8 +21934,8 @@
       <c r="C221" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D221" s="100"/>
-      <c r="E221" s="100"/>
+      <c r="D221" s="102"/>
+      <c r="E221" s="102"/>
       <c r="F221" s="32" t="s">
         <v>477</v>
       </c>
@@ -21765,8 +21959,8 @@
       <c r="C222" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D222" s="100"/>
-      <c r="E222" s="100"/>
+      <c r="D222" s="102"/>
+      <c r="E222" s="102"/>
       <c r="F222" s="32" t="s">
         <v>478</v>
       </c>
@@ -21790,8 +21984,8 @@
       <c r="C223" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D223" s="100"/>
-      <c r="E223" s="100"/>
+      <c r="D223" s="102"/>
+      <c r="E223" s="102"/>
       <c r="F223" s="32" t="s">
         <v>479</v>
       </c>
@@ -21815,13 +22009,13 @@
       <c r="C224" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D224" s="100"/>
-      <c r="E224" s="100"/>
+      <c r="D224" s="102"/>
+      <c r="E224" s="102"/>
       <c r="F224" s="32" t="s">
         <v>480</v>
       </c>
       <c r="G224" s="93">
-        <v>44440</v>
+        <v>44445</v>
       </c>
       <c r="H224" s="17" t="s">
         <v>227</v>
@@ -21842,8 +22036,8 @@
       <c r="C225" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D225" s="100"/>
-      <c r="E225" s="100"/>
+      <c r="D225" s="102"/>
+      <c r="E225" s="102"/>
       <c r="F225" s="32" t="s">
         <v>481</v>
       </c>
@@ -21867,8 +22061,8 @@
       <c r="C226" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D226" s="100"/>
-      <c r="E226" s="100"/>
+      <c r="D226" s="102"/>
+      <c r="E226" s="102"/>
       <c r="F226" s="32" t="s">
         <v>482</v>
       </c>
@@ -21892,8 +22086,8 @@
       <c r="C227" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D227" s="100"/>
-      <c r="E227" s="100"/>
+      <c r="D227" s="102"/>
+      <c r="E227" s="102"/>
       <c r="F227" s="32" t="s">
         <v>483</v>
       </c>
@@ -21917,8 +22111,8 @@
       <c r="C228" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D228" s="100"/>
-      <c r="E228" s="100"/>
+      <c r="D228" s="102"/>
+      <c r="E228" s="102"/>
       <c r="F228" s="32" t="s">
         <v>484</v>
       </c>
@@ -21942,8 +22136,8 @@
       <c r="C229" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D229" s="100"/>
-      <c r="E229" s="100"/>
+      <c r="D229" s="102"/>
+      <c r="E229" s="102"/>
       <c r="F229" s="32" t="s">
         <v>485</v>
       </c>
@@ -21967,8 +22161,8 @@
       <c r="C230" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D230" s="100"/>
-      <c r="E230" s="100"/>
+      <c r="D230" s="102"/>
+      <c r="E230" s="102"/>
       <c r="F230" s="32" t="s">
         <v>474</v>
       </c>
@@ -21992,8 +22186,8 @@
       <c r="C231" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="D231" s="100"/>
-      <c r="E231" s="100"/>
+      <c r="D231" s="102"/>
+      <c r="E231" s="102"/>
       <c r="F231" s="31" t="s">
         <v>486</v>
       </c>
@@ -22017,8 +22211,8 @@
       <c r="C232" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="D232" s="101"/>
-      <c r="E232" s="101"/>
+      <c r="D232" s="103"/>
+      <c r="E232" s="103"/>
       <c r="F232" s="31" t="s">
         <v>487</v>
       </c>
@@ -23938,21 +24132,19 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="F130:F141"/>
-    <mergeCell ref="D144:D145"/>
-    <mergeCell ref="E144:E145"/>
-    <mergeCell ref="D114:D125"/>
-    <mergeCell ref="E114:E125"/>
-    <mergeCell ref="D130:D141"/>
-    <mergeCell ref="E130:E141"/>
-    <mergeCell ref="D98:D108"/>
-    <mergeCell ref="E98:E108"/>
-    <mergeCell ref="D79:D94"/>
-    <mergeCell ref="D42:D53"/>
-    <mergeCell ref="E42:E53"/>
-    <mergeCell ref="E66:E77"/>
-    <mergeCell ref="E79:E94"/>
-    <mergeCell ref="D66:D77"/>
+    <mergeCell ref="F205:F210"/>
+    <mergeCell ref="F214:F215"/>
+    <mergeCell ref="D219:D232"/>
+    <mergeCell ref="E219:E232"/>
+    <mergeCell ref="E192:E203"/>
+    <mergeCell ref="D192:D203"/>
+    <mergeCell ref="D205:D216"/>
+    <mergeCell ref="E205:E216"/>
+    <mergeCell ref="D157:D168"/>
+    <mergeCell ref="E157:E168"/>
+    <mergeCell ref="D170:D181"/>
+    <mergeCell ref="F170:F181"/>
+    <mergeCell ref="D182:D191"/>
     <mergeCell ref="F66:F77"/>
     <mergeCell ref="D54:D65"/>
     <mergeCell ref="E54:E65"/>
@@ -23967,19 +24159,21 @@
     <mergeCell ref="D20:D31"/>
     <mergeCell ref="D32:D41"/>
     <mergeCell ref="F42:F53"/>
-    <mergeCell ref="D157:D168"/>
-    <mergeCell ref="E157:E168"/>
-    <mergeCell ref="D170:D181"/>
-    <mergeCell ref="F170:F181"/>
-    <mergeCell ref="D182:D191"/>
-    <mergeCell ref="F205:F210"/>
-    <mergeCell ref="F214:F215"/>
-    <mergeCell ref="D219:D232"/>
-    <mergeCell ref="E219:E232"/>
-    <mergeCell ref="E192:E203"/>
-    <mergeCell ref="D192:D203"/>
-    <mergeCell ref="D205:D216"/>
-    <mergeCell ref="E205:E216"/>
+    <mergeCell ref="D98:D108"/>
+    <mergeCell ref="E98:E108"/>
+    <mergeCell ref="D79:D94"/>
+    <mergeCell ref="D42:D53"/>
+    <mergeCell ref="E42:E53"/>
+    <mergeCell ref="E66:E77"/>
+    <mergeCell ref="E79:E94"/>
+    <mergeCell ref="D66:D77"/>
+    <mergeCell ref="F130:F141"/>
+    <mergeCell ref="D144:D145"/>
+    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="D114:D125"/>
+    <mergeCell ref="E114:E125"/>
+    <mergeCell ref="D130:D141"/>
+    <mergeCell ref="E130:E141"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/testcase_account_ver3.xlsx
+++ b/testcase_account_ver3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\7-Programming-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3873473-AC09-46EC-9D1C-3D339BD0D317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4012347-CE87-4C20-9C92-D1821F746630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="888" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単体テスト" sheetId="166" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2007" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2009" uniqueCount="535">
   <si>
     <t>作成者</t>
   </si>
@@ -9766,139 +9766,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>8/31：「戻って修正する」になってしまっているので、「前に戻る」ボタンへ変更が必要。</t>
-    <rPh sb="6" eb="7">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>8/31：「戻って修正する」になってしまっているので、「前に戻る」ボタンへ表示の変更が必要。</t>
-    <rPh sb="37" eb="39">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>9/1：リンク付けができていなかったため、リンク付けを行う。</t>
-    <rPh sb="7" eb="8">
-      <t>ヅ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ヅ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>9/1：エラーメッセージが空欄の場合でもエラー表示の画面になるように変更する。</t>
-    <rPh sb="13" eb="15">
-      <t>クウラン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>8/31追記：赤文字で表示されるように変更完了。
-9/1追記：エラーメッセージが空欄の場合でもエラー表示の画面になるように変更する。</t>
-    <rPh sb="4" eb="6">
-      <t>ツイキ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>アカモジ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="19" eb="23">
-      <t>ヘンコウカンリョウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ツイキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>9/1：エラーメッセージが空欄の場合でもエラー表示の画面になるように変更する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>調べて確認が必要。8/19追記：tryの関数を使用して完了。
-8/27追記：HTMLの中でそれぞれの場合エラー文が表示されるように変更。
-9/1追記：エラーメッセージが空欄の場合でもエラー表示の画面になるように変更する。</t>
-    <rPh sb="0" eb="1">
-      <t>シラ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ツイキ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ツイキ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>ツイキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>エラー動作</t>
     <rPh sb="3" eb="5">
       <t>ドウサ</t>
@@ -9921,72 +9788,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>アカウント一覧画面の削除したいIDの削除ボタンを押す。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>削除フラグが1の場合、「すでに削除されているため表示できません。」と表示させるようにする。</t>
-    <rPh sb="0" eb="2">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>齊藤実佳</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>次の課題に入る前に行う。</t>
-    <rPh sb="0" eb="1">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カダイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アカウント一覧画面の更新したいIDの更新ボタンを押す。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>削除フラグが1の場合、「すでに削除されているため更新できません。」と表示させるようにする。</t>
-    <rPh sb="0" eb="2">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ヒョウジ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -10077,22 +9879,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>9/6：パスワードを更新しない場合、メッセージで「パスワードは更新されません」と表示させるようにする。</t>
-    <rPh sb="10" eb="12">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>アカウント削除画面</t>
     <rPh sb="5" eb="7">
       <t>サクジョ</t>
@@ -10103,29 +9889,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>アカウント一覧画面に表示されている「削除」と書かれたボタンを押す。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>削除フラグが1の場合、「削除されているため、表示できません。」と表示する。</t>
-    <rPh sb="0" eb="2">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>9/8：左のチェックボックスにチェック入れていない状態でも編集することができてしまう。</t>
     <rPh sb="4" eb="5">
       <t>ヒダリ</t>
@@ -10186,25 +9949,319 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>アカウント一覧画面に表示されている「更新」と書かれたボタンを押す。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>削除フラグが1の場合、「削除されているため、更新できません。」と表示する。</t>
+    <t>削除フラグが1の場合、削除ボタンを押せないように表示されている。</t>
     <rPh sb="0" eb="2">
       <t>サクジョ</t>
     </rPh>
     <rPh sb="8" eb="10">
       <t>バアイ</t>
     </rPh>
-    <rPh sb="12" eb="14">
+    <rPh sb="11" eb="13">
       <t>サクジョ</t>
     </rPh>
-    <rPh sb="22" eb="24">
+    <rPh sb="17" eb="18">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9/1：エラーメッセージが空欄の場合でもエラー表示の画面になるように変更する。9/8追記：追加済み。</t>
+    <rPh sb="42" eb="44">
+      <t>ツイキ</t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t>ツイカズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除フラグが1の場合、更新ボタンを押せないように表示されている。</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
       <t>コウシン</t>
     </rPh>
-    <rPh sb="32" eb="34">
-      <t>ヒョウジ</t>
+    <rPh sb="17" eb="18">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9/8：追加済み。</t>
+    <rPh sb="4" eb="7">
+      <t>ツイカズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>調べて確認が必要。8/19追記：tryの関数を使用して完了。
+8/27追記：HTMLの中でそれぞれの場合エラー文が表示されるように変更。
+9/1追記：エラーメッセージが空欄の場合でもエラー表示の画面になるように変更する。
+9/8追記：追加済み。</t>
+    <rPh sb="0" eb="1">
+      <t>シラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ツイキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ツイキ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ツイキ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>ツイキ</t>
+    </rPh>
+    <rPh sb="117" eb="120">
+      <t>ツイカズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9/8：更新しない場合、パスワードは変更しませんなどと表示されるように変更。同日中に追加済み。</t>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ドウジツ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9/1：エラーメッセージが空欄の場合でもエラー表示の画面になるように変更する。
+9/8追記：追加済み。</t>
+    <rPh sb="43" eb="45">
+      <t>ツイキ</t>
+    </rPh>
+    <rPh sb="46" eb="49">
+      <t>ツイカズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8/31：「戻って修正する」になってしまっているので、「前に戻る」ボタンへ変更が必要。
+9/8追記：変更済み。</t>
+    <rPh sb="6" eb="7">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ツイキ</t>
+    </rPh>
+    <rPh sb="50" eb="53">
+      <t>ヘンコウズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>次の課題に入る前に行う。
+9/8追記：追加済み。</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ツイキ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ツイカズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8/31：「戻って修正する」になってしまっているので、「前に戻る」ボタンへ表示の変更が必要。
+9/8追記：変更済み。</t>
+    <rPh sb="37" eb="39">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ツイキ</t>
+    </rPh>
+    <rPh sb="53" eb="56">
+      <t>ヘンコウズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9/6：パスワードを更新しない場合、メッセージで「パスワードは更新されません」と表示させるようにする。
+9/8追記：追加済み。</t>
+    <rPh sb="10" eb="12">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ツイキ</t>
+    </rPh>
+    <rPh sb="58" eb="61">
+      <t>ツイカズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9/1：エラーメッセージが空欄の場合でもエラー表示の画面になるように変更する。
+9/8追記：変更済み。</t>
+    <rPh sb="13" eb="15">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ツイキ</t>
+    </rPh>
+    <rPh sb="46" eb="49">
+      <t>ヘンコウズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8/31追記：赤文字で表示されるように変更完了。
+9/1追記：エラーメッセージが空欄の場合でもエラー表示の画面になるように変更する。
+9/8追記：変更済み。</t>
+    <rPh sb="4" eb="6">
+      <t>ツイキ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>アカモジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>ヘンコウカンリョウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ツイキ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ツイキ</t>
+    </rPh>
+    <rPh sb="73" eb="76">
+      <t>ヘンコウズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9/1：リンク付けができていなかったため、リンク付けを行う。
+9/8追記：変更済み。</t>
+    <rPh sb="7" eb="8">
+      <t>ヅ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヅ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ツイキ</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>ヘンコウズ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -10555,7 +10612,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -10848,6 +10905,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -10865,6 +10925,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -10896,27 +10965,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -10926,6 +10974,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -10934,6 +10988,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -11287,8 +11347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M175"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A168" sqref="A168"/>
+    <sheetView showGridLines="0" topLeftCell="A154" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -11308,12 +11368,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
       <c r="E1" s="53" t="s">
         <v>2</v>
       </c>
@@ -11336,10 +11396,10 @@
       <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A2" s="109"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
+      <c r="A2" s="113"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
       <c r="E2" s="53" t="s">
         <v>3</v>
       </c>
@@ -11653,7 +11713,7 @@
       <c r="F12" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="104" t="s">
+      <c r="G12" s="108" t="s">
         <v>107</v>
       </c>
       <c r="H12" s="68">
@@ -11683,7 +11743,7 @@
       <c r="F13" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="105"/>
+      <c r="G13" s="109"/>
       <c r="H13" s="60">
         <v>44354</v>
       </c>
@@ -11711,7 +11771,7 @@
       <c r="F14" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="105"/>
+      <c r="G14" s="109"/>
       <c r="H14" s="60">
         <v>44354</v>
       </c>
@@ -11739,7 +11799,7 @@
       <c r="F15" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="105"/>
+      <c r="G15" s="109"/>
       <c r="H15" s="68">
         <v>44354</v>
       </c>
@@ -11767,7 +11827,7 @@
       <c r="F16" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="105"/>
+      <c r="G16" s="109"/>
       <c r="H16" s="60">
         <v>44354</v>
       </c>
@@ -11795,7 +11855,7 @@
       <c r="F17" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="105"/>
+      <c r="G17" s="109"/>
       <c r="H17" s="60">
         <v>44354</v>
       </c>
@@ -11823,7 +11883,7 @@
       <c r="F18" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="105"/>
+      <c r="G18" s="109"/>
       <c r="H18" s="68">
         <v>44354</v>
       </c>
@@ -11851,7 +11911,7 @@
       <c r="F19" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="105"/>
+      <c r="G19" s="109"/>
       <c r="H19" s="60">
         <v>44354</v>
       </c>
@@ -11879,7 +11939,7 @@
       <c r="F20" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="105"/>
+      <c r="G20" s="109"/>
       <c r="H20" s="60">
         <v>44354</v>
       </c>
@@ -11907,7 +11967,7 @@
       <c r="F21" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="105"/>
+      <c r="G21" s="109"/>
       <c r="H21" s="68">
         <v>44354</v>
       </c>
@@ -11935,7 +11995,7 @@
       <c r="F22" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="105"/>
+      <c r="G22" s="109"/>
       <c r="H22" s="60">
         <v>44354</v>
       </c>
@@ -11963,7 +12023,7 @@
       <c r="F23" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="106"/>
+      <c r="G23" s="110"/>
       <c r="H23" s="60">
         <v>44354</v>
       </c>
@@ -12421,7 +12481,7 @@
       <c r="F38" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="G38" s="101" t="s">
+      <c r="G38" s="102" t="s">
         <v>110</v>
       </c>
       <c r="H38" s="68">
@@ -12451,7 +12511,7 @@
       <c r="F39" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="G39" s="102"/>
+      <c r="G39" s="103"/>
       <c r="H39" s="68">
         <v>44354</v>
       </c>
@@ -12479,7 +12539,7 @@
       <c r="F40" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="G40" s="102"/>
+      <c r="G40" s="103"/>
       <c r="H40" s="68">
         <v>44354</v>
       </c>
@@ -12507,7 +12567,7 @@
       <c r="F41" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="G41" s="102"/>
+      <c r="G41" s="103"/>
       <c r="H41" s="68">
         <v>44354</v>
       </c>
@@ -12535,7 +12595,7 @@
       <c r="F42" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="G42" s="103"/>
+      <c r="G42" s="104"/>
       <c r="H42" s="68">
         <v>44354</v>
       </c>
@@ -12687,7 +12747,7 @@
       <c r="F47" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="G47" s="101" t="s">
+      <c r="G47" s="102" t="s">
         <v>110</v>
       </c>
       <c r="H47" s="68">
@@ -12717,7 +12777,7 @@
       <c r="F48" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="G48" s="103"/>
+      <c r="G48" s="104"/>
       <c r="H48" s="68">
         <v>44354</v>
       </c>
@@ -12948,7 +13008,7 @@
       </c>
       <c r="L55" s="11"/>
     </row>
-    <row r="56" spans="1:12" ht="120">
+    <row r="56" spans="1:12" ht="135">
       <c r="A56" s="12">
         <v>51</v>
       </c>
@@ -12975,10 +13035,10 @@
         <v>6</v>
       </c>
       <c r="J56" s="30" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="K56" s="39" t="s">
-        <v>510</v>
+        <v>144</v>
       </c>
       <c r="L56" s="11"/>
     </row>
@@ -12998,7 +13058,7 @@
       <c r="E57" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F57" s="104" t="s">
+      <c r="F57" s="108" t="s">
         <v>232</v>
       </c>
       <c r="G57" s="32" t="s">
@@ -13030,7 +13090,7 @@
       <c r="E58" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F58" s="105"/>
+      <c r="F58" s="109"/>
       <c r="G58" s="32" t="s">
         <v>233</v>
       </c>
@@ -13057,10 +13117,10 @@
       <c r="D59" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="E59" s="111" t="s">
+      <c r="E59" s="115" t="s">
         <v>55</v>
       </c>
-      <c r="F59" s="105"/>
+      <c r="F59" s="109"/>
       <c r="G59" s="37" t="s">
         <v>260</v>
       </c>
@@ -13085,8 +13145,8 @@
       <c r="D60" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E60" s="112"/>
-      <c r="F60" s="105"/>
+      <c r="E60" s="116"/>
+      <c r="F60" s="109"/>
       <c r="G60" s="37" t="s">
         <v>261</v>
       </c>
@@ -13111,8 +13171,8 @@
       <c r="D61" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E61" s="112"/>
-      <c r="F61" s="105"/>
+      <c r="E61" s="116"/>
+      <c r="F61" s="109"/>
       <c r="G61" s="37" t="s">
         <v>262</v>
       </c>
@@ -13137,8 +13197,8 @@
       <c r="D62" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E62" s="112"/>
-      <c r="F62" s="105"/>
+      <c r="E62" s="116"/>
+      <c r="F62" s="109"/>
       <c r="G62" s="37" t="s">
         <v>263</v>
       </c>
@@ -13163,8 +13223,8 @@
       <c r="D63" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E63" s="112"/>
-      <c r="F63" s="105"/>
+      <c r="E63" s="116"/>
+      <c r="F63" s="109"/>
       <c r="G63" s="37" t="s">
         <v>264</v>
       </c>
@@ -13189,8 +13249,8 @@
       <c r="D64" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E64" s="112"/>
-      <c r="F64" s="105"/>
+      <c r="E64" s="116"/>
+      <c r="F64" s="109"/>
       <c r="G64" s="37" t="s">
         <v>265</v>
       </c>
@@ -13215,8 +13275,8 @@
       <c r="D65" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E65" s="112"/>
-      <c r="F65" s="105"/>
+      <c r="E65" s="116"/>
+      <c r="F65" s="109"/>
       <c r="G65" s="31" t="s">
         <v>272</v>
       </c>
@@ -13241,8 +13301,8 @@
       <c r="D66" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E66" s="112"/>
-      <c r="F66" s="105"/>
+      <c r="E66" s="116"/>
+      <c r="F66" s="109"/>
       <c r="G66" s="31" t="s">
         <v>273</v>
       </c>
@@ -13267,8 +13327,8 @@
       <c r="D67" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="E67" s="112"/>
-      <c r="F67" s="105"/>
+      <c r="E67" s="116"/>
+      <c r="F67" s="109"/>
       <c r="G67" s="31" t="s">
         <v>274</v>
       </c>
@@ -13293,8 +13353,8 @@
       <c r="D68" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="E68" s="112"/>
-      <c r="F68" s="105"/>
+      <c r="E68" s="116"/>
+      <c r="F68" s="109"/>
       <c r="G68" s="31" t="s">
         <v>275</v>
       </c>
@@ -13319,8 +13379,8 @@
       <c r="D69" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="E69" s="112"/>
-      <c r="F69" s="105"/>
+      <c r="E69" s="116"/>
+      <c r="F69" s="109"/>
       <c r="G69" s="31" t="s">
         <v>275</v>
       </c>
@@ -13345,8 +13405,8 @@
       <c r="D70" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="E70" s="112"/>
-      <c r="F70" s="105"/>
+      <c r="E70" s="116"/>
+      <c r="F70" s="109"/>
       <c r="G70" s="31" t="s">
         <v>270</v>
       </c>
@@ -13371,8 +13431,8 @@
       <c r="D71" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="E71" s="113"/>
-      <c r="F71" s="106"/>
+      <c r="E71" s="117"/>
+      <c r="F71" s="110"/>
       <c r="G71" s="31" t="s">
         <v>271</v>
       </c>
@@ -13433,10 +13493,10 @@
       <c r="D73" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E73" s="98" t="s">
+      <c r="E73" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="F73" s="101" t="s">
+      <c r="F73" s="102" t="s">
         <v>277</v>
       </c>
       <c r="G73" s="31" t="s">
@@ -13463,8 +13523,8 @@
       <c r="D74" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E74" s="99"/>
-      <c r="F74" s="102"/>
+      <c r="E74" s="100"/>
+      <c r="F74" s="103"/>
       <c r="G74" s="31" t="s">
         <v>280</v>
       </c>
@@ -13489,8 +13549,8 @@
       <c r="D75" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="99"/>
-      <c r="F75" s="102"/>
+      <c r="E75" s="100"/>
+      <c r="F75" s="103"/>
       <c r="G75" s="31" t="s">
         <v>281</v>
       </c>
@@ -13515,8 +13575,8 @@
       <c r="D76" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E76" s="99"/>
-      <c r="F76" s="102"/>
+      <c r="E76" s="100"/>
+      <c r="F76" s="103"/>
       <c r="G76" s="31" t="s">
         <v>282</v>
       </c>
@@ -13541,8 +13601,8 @@
       <c r="D77" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E77" s="99"/>
-      <c r="F77" s="102"/>
+      <c r="E77" s="100"/>
+      <c r="F77" s="103"/>
       <c r="G77" s="31" t="s">
         <v>283</v>
       </c>
@@ -13567,8 +13627,8 @@
       <c r="D78" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E78" s="99"/>
-      <c r="F78" s="102"/>
+      <c r="E78" s="100"/>
+      <c r="F78" s="103"/>
       <c r="G78" s="31" t="s">
         <v>284</v>
       </c>
@@ -13593,8 +13653,8 @@
       <c r="D79" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E79" s="99"/>
-      <c r="F79" s="102"/>
+      <c r="E79" s="100"/>
+      <c r="F79" s="103"/>
       <c r="G79" s="31" t="s">
         <v>289</v>
       </c>
@@ -13619,8 +13679,8 @@
       <c r="D80" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E80" s="99"/>
-      <c r="F80" s="102"/>
+      <c r="E80" s="100"/>
+      <c r="F80" s="103"/>
       <c r="G80" s="31" t="s">
         <v>285</v>
       </c>
@@ -13645,8 +13705,8 @@
       <c r="D81" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E81" s="99"/>
-      <c r="F81" s="102"/>
+      <c r="E81" s="100"/>
+      <c r="F81" s="103"/>
       <c r="G81" s="31" t="s">
         <v>290</v>
       </c>
@@ -13671,8 +13731,8 @@
       <c r="D82" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E82" s="99"/>
-      <c r="F82" s="102"/>
+      <c r="E82" s="100"/>
+      <c r="F82" s="103"/>
       <c r="G82" s="31" t="s">
         <v>286</v>
       </c>
@@ -13697,8 +13757,8 @@
       <c r="D83" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E83" s="99"/>
-      <c r="F83" s="102"/>
+      <c r="E83" s="100"/>
+      <c r="F83" s="103"/>
       <c r="G83" s="31" t="s">
         <v>287</v>
       </c>
@@ -13723,8 +13783,8 @@
       <c r="D84" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E84" s="100"/>
-      <c r="F84" s="103"/>
+      <c r="E84" s="101"/>
+      <c r="F84" s="104"/>
       <c r="G84" s="31" t="s">
         <v>288</v>
       </c>
@@ -13775,11 +13835,9 @@
         <v>81</v>
       </c>
       <c r="B86" s="48" t="s">
-        <v>530</v>
-      </c>
-      <c r="C86" s="25" t="s">
-        <v>518</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="C86" s="25"/>
       <c r="D86" s="24" t="s">
         <v>136</v>
       </c>
@@ -13787,10 +13845,10 @@
         <v>55</v>
       </c>
       <c r="F86" s="97" t="s">
-        <v>531</v>
+        <v>232</v>
       </c>
       <c r="G86" s="31" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="H86" s="68">
         <v>44447</v>
@@ -13798,9 +13856,11 @@
       <c r="I86" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J86" s="30"/>
+      <c r="J86" s="30" t="s">
+        <v>524</v>
+      </c>
       <c r="K86" s="39" t="s">
-        <v>510</v>
+        <v>144</v>
       </c>
       <c r="L86" s="11"/>
     </row>
@@ -13817,10 +13877,10 @@
       <c r="D87" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E87" s="98" t="s">
+      <c r="E87" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="F87" s="101" t="s">
+      <c r="F87" s="102" t="s">
         <v>301</v>
       </c>
       <c r="G87" s="31" t="s">
@@ -13847,8 +13907,8 @@
       <c r="D88" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="E88" s="99"/>
-      <c r="F88" s="102"/>
+      <c r="E88" s="100"/>
+      <c r="F88" s="103"/>
       <c r="G88" s="31" t="s">
         <v>303</v>
       </c>
@@ -13873,8 +13933,8 @@
       <c r="D89" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="E89" s="99"/>
-      <c r="F89" s="102"/>
+      <c r="E89" s="100"/>
+      <c r="F89" s="103"/>
       <c r="G89" s="31" t="s">
         <v>370</v>
       </c>
@@ -13899,8 +13959,8 @@
       <c r="D90" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="E90" s="100"/>
-      <c r="F90" s="103"/>
+      <c r="E90" s="101"/>
+      <c r="F90" s="104"/>
       <c r="G90" s="31" t="s">
         <v>371</v>
       </c>
@@ -13929,10 +13989,10 @@
       <c r="D91" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="E91" s="98" t="s">
+      <c r="E91" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="F91" s="104" t="s">
+      <c r="F91" s="108" t="s">
         <v>300</v>
       </c>
       <c r="G91" s="30" t="s">
@@ -13961,8 +14021,8 @@
       <c r="D92" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="E92" s="99"/>
-      <c r="F92" s="105"/>
+      <c r="E92" s="100"/>
+      <c r="F92" s="109"/>
       <c r="G92" s="32" t="s">
         <v>298</v>
       </c>
@@ -13987,8 +14047,8 @@
       <c r="D93" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="E93" s="100"/>
-      <c r="F93" s="105"/>
+      <c r="E93" s="101"/>
+      <c r="F93" s="109"/>
       <c r="G93" s="32" t="s">
         <v>302</v>
       </c>
@@ -14020,7 +14080,7 @@
       <c r="E94" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F94" s="105"/>
+      <c r="F94" s="109"/>
       <c r="G94" s="32" t="s">
         <v>354</v>
       </c>
@@ -14048,7 +14108,7 @@
       <c r="E95" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F95" s="106"/>
+      <c r="F95" s="110"/>
       <c r="G95" s="32" t="s">
         <v>355</v>
       </c>
@@ -14091,10 +14151,10 @@
         <v>6</v>
       </c>
       <c r="J96" s="30" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="K96" s="39" t="s">
-        <v>510</v>
+        <v>144</v>
       </c>
       <c r="L96" s="11"/>
     </row>
@@ -14143,10 +14203,10 @@
       <c r="D98" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E98" s="98" t="s">
+      <c r="E98" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="F98" s="101" t="s">
+      <c r="F98" s="102" t="s">
         <v>305</v>
       </c>
       <c r="G98" s="31" t="s">
@@ -14173,8 +14233,8 @@
       <c r="D99" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E99" s="99"/>
-      <c r="F99" s="102"/>
+      <c r="E99" s="100"/>
+      <c r="F99" s="103"/>
       <c r="G99" s="31" t="s">
         <v>310</v>
       </c>
@@ -14199,8 +14259,8 @@
       <c r="D100" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E100" s="99"/>
-      <c r="F100" s="102"/>
+      <c r="E100" s="100"/>
+      <c r="F100" s="103"/>
       <c r="G100" s="31" t="s">
         <v>309</v>
       </c>
@@ -14225,8 +14285,8 @@
       <c r="D101" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E101" s="99"/>
-      <c r="F101" s="102"/>
+      <c r="E101" s="100"/>
+      <c r="F101" s="103"/>
       <c r="G101" s="31" t="s">
         <v>308</v>
       </c>
@@ -14251,8 +14311,8 @@
       <c r="D102" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E102" s="99"/>
-      <c r="F102" s="102"/>
+      <c r="E102" s="100"/>
+      <c r="F102" s="103"/>
       <c r="G102" s="31" t="s">
         <v>311</v>
       </c>
@@ -14277,8 +14337,8 @@
       <c r="D103" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E103" s="99"/>
-      <c r="F103" s="102"/>
+      <c r="E103" s="100"/>
+      <c r="F103" s="103"/>
       <c r="G103" s="31" t="s">
         <v>312</v>
       </c>
@@ -14303,8 +14363,8 @@
       <c r="D104" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E104" s="99"/>
-      <c r="F104" s="102"/>
+      <c r="E104" s="100"/>
+      <c r="F104" s="103"/>
       <c r="G104" s="31" t="s">
         <v>319</v>
       </c>
@@ -14329,8 +14389,8 @@
       <c r="D105" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E105" s="99"/>
-      <c r="F105" s="102"/>
+      <c r="E105" s="100"/>
+      <c r="F105" s="103"/>
       <c r="G105" s="31" t="s">
         <v>314</v>
       </c>
@@ -14355,8 +14415,8 @@
       <c r="D106" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E106" s="99"/>
-      <c r="F106" s="102"/>
+      <c r="E106" s="100"/>
+      <c r="F106" s="103"/>
       <c r="G106" s="31" t="s">
         <v>315</v>
       </c>
@@ -14381,8 +14441,8 @@
       <c r="D107" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E107" s="99"/>
-      <c r="F107" s="102"/>
+      <c r="E107" s="100"/>
+      <c r="F107" s="103"/>
       <c r="G107" s="31" t="s">
         <v>316</v>
       </c>
@@ -14407,8 +14467,8 @@
       <c r="D108" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E108" s="99"/>
-      <c r="F108" s="102"/>
+      <c r="E108" s="100"/>
+      <c r="F108" s="103"/>
       <c r="G108" s="31" t="s">
         <v>317</v>
       </c>
@@ -14433,8 +14493,8 @@
       <c r="D109" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E109" s="100"/>
-      <c r="F109" s="103"/>
+      <c r="E109" s="101"/>
+      <c r="F109" s="104"/>
       <c r="G109" s="31" t="s">
         <v>318</v>
       </c>
@@ -14486,7 +14546,7 @@
       </c>
       <c r="B111" s="48"/>
       <c r="C111" s="25" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="D111" s="24" t="s">
         <v>136</v>
@@ -14495,10 +14555,10 @@
         <v>55</v>
       </c>
       <c r="F111" s="37" t="s">
-        <v>536</v>
+        <v>232</v>
       </c>
       <c r="G111" s="91" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="H111" s="68">
         <v>44447</v>
@@ -14506,9 +14566,11 @@
       <c r="I111" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J111" s="30"/>
+      <c r="J111" s="30" t="s">
+        <v>524</v>
+      </c>
       <c r="K111" s="39" t="s">
-        <v>510</v>
+        <v>144</v>
       </c>
       <c r="L111" s="11"/>
     </row>
@@ -14529,7 +14591,7 @@
       <c r="F112" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="G112" s="104" t="s">
+      <c r="G112" s="108" t="s">
         <v>107</v>
       </c>
       <c r="H112" s="68">
@@ -14559,7 +14621,7 @@
       <c r="F113" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="G113" s="105"/>
+      <c r="G113" s="109"/>
       <c r="H113" s="68">
         <v>44435</v>
       </c>
@@ -14587,7 +14649,7 @@
       <c r="F114" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="G114" s="105"/>
+      <c r="G114" s="109"/>
       <c r="H114" s="68">
         <v>44435</v>
       </c>
@@ -14615,7 +14677,7 @@
       <c r="F115" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="G115" s="105"/>
+      <c r="G115" s="109"/>
       <c r="H115" s="68">
         <v>44435</v>
       </c>
@@ -14643,7 +14705,7 @@
       <c r="F116" s="31" t="s">
         <v>326</v>
       </c>
-      <c r="G116" s="105"/>
+      <c r="G116" s="109"/>
       <c r="H116" s="68">
         <v>44435</v>
       </c>
@@ -14671,7 +14733,7 @@
       <c r="F117" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="G117" s="105"/>
+      <c r="G117" s="109"/>
       <c r="H117" s="68">
         <v>44447</v>
       </c>
@@ -14679,7 +14741,7 @@
         <v>6</v>
       </c>
       <c r="J117" s="30" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="K117" s="39" t="s">
         <v>510</v>
@@ -14701,7 +14763,7 @@
       <c r="F118" s="31" t="s">
         <v>346</v>
       </c>
-      <c r="G118" s="105"/>
+      <c r="G118" s="109"/>
       <c r="H118" s="68">
         <v>44435</v>
       </c>
@@ -14729,7 +14791,7 @@
       <c r="F119" s="31" t="s">
         <v>327</v>
       </c>
-      <c r="G119" s="105"/>
+      <c r="G119" s="109"/>
       <c r="H119" s="68">
         <v>44435</v>
       </c>
@@ -14757,7 +14819,7 @@
       <c r="F120" s="31" t="s">
         <v>322</v>
       </c>
-      <c r="G120" s="105"/>
+      <c r="G120" s="109"/>
       <c r="H120" s="68">
         <v>44435</v>
       </c>
@@ -14785,7 +14847,7 @@
       <c r="F121" s="31" t="s">
         <v>328</v>
       </c>
-      <c r="G121" s="105"/>
+      <c r="G121" s="109"/>
       <c r="H121" s="68">
         <v>44435</v>
       </c>
@@ -14813,7 +14875,7 @@
       <c r="F122" s="31" t="s">
         <v>329</v>
       </c>
-      <c r="G122" s="105"/>
+      <c r="G122" s="109"/>
       <c r="H122" s="68">
         <v>44435</v>
       </c>
@@ -14841,7 +14903,7 @@
       <c r="F123" s="31" t="s">
         <v>321</v>
       </c>
-      <c r="G123" s="106"/>
+      <c r="G123" s="110"/>
       <c r="H123" s="68">
         <v>44435</v>
       </c>
@@ -15031,7 +15093,7 @@
         <v>6</v>
       </c>
       <c r="J129" s="30" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="K129" s="39" t="s">
         <v>510</v>
@@ -15174,7 +15236,7 @@
       <c r="E134" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F134" s="101" t="s">
+      <c r="F134" s="102" t="s">
         <v>344</v>
       </c>
       <c r="G134" s="31" t="s">
@@ -15204,7 +15266,7 @@
       <c r="E135" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F135" s="102"/>
+      <c r="F135" s="103"/>
       <c r="G135" s="32" t="s">
         <v>108</v>
       </c>
@@ -15232,7 +15294,7 @@
       <c r="E136" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F136" s="102"/>
+      <c r="F136" s="103"/>
       <c r="G136" s="32" t="s">
         <v>109</v>
       </c>
@@ -15260,7 +15322,7 @@
       <c r="E137" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F137" s="102"/>
+      <c r="F137" s="103"/>
       <c r="G137" s="32" t="s">
         <v>112</v>
       </c>
@@ -15288,7 +15350,7 @@
       <c r="E138" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F138" s="102"/>
+      <c r="F138" s="103"/>
       <c r="G138" s="32" t="s">
         <v>113</v>
       </c>
@@ -15316,7 +15378,7 @@
       <c r="E139" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F139" s="102"/>
+      <c r="F139" s="103"/>
       <c r="G139" s="32" t="s">
         <v>114</v>
       </c>
@@ -15332,7 +15394,7 @@
       </c>
       <c r="L139" s="11"/>
     </row>
-    <row r="140" spans="1:12" ht="30">
+    <row r="140" spans="1:12" ht="45">
       <c r="A140" s="12">
         <v>135</v>
       </c>
@@ -15344,17 +15406,19 @@
       <c r="E140" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F140" s="102"/>
+      <c r="F140" s="103"/>
       <c r="G140" s="32" t="s">
         <v>111</v>
       </c>
       <c r="H140" s="68">
-        <v>44435</v>
+        <v>44447</v>
       </c>
       <c r="I140" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J140" s="30"/>
+      <c r="J140" s="30" t="s">
+        <v>526</v>
+      </c>
       <c r="K140" s="39" t="s">
         <v>144</v>
       </c>
@@ -15372,7 +15436,7 @@
       <c r="E141" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F141" s="102"/>
+      <c r="F141" s="103"/>
       <c r="G141" s="32" t="s">
         <v>115</v>
       </c>
@@ -15400,7 +15464,7 @@
       <c r="E142" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F142" s="102"/>
+      <c r="F142" s="103"/>
       <c r="G142" s="32" t="s">
         <v>430</v>
       </c>
@@ -15428,7 +15492,7 @@
       <c r="E143" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F143" s="102"/>
+      <c r="F143" s="103"/>
       <c r="G143" s="32" t="s">
         <v>431</v>
       </c>
@@ -15456,7 +15520,7 @@
       <c r="E144" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F144" s="102"/>
+      <c r="F144" s="103"/>
       <c r="G144" s="32" t="s">
         <v>432</v>
       </c>
@@ -15484,7 +15548,7 @@
       <c r="E145" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F145" s="102"/>
+      <c r="F145" s="103"/>
       <c r="G145" s="32" t="s">
         <v>433</v>
       </c>
@@ -15512,7 +15576,7 @@
       <c r="E146" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F146" s="102"/>
+      <c r="F146" s="103"/>
       <c r="G146" s="32" t="s">
         <v>116</v>
       </c>
@@ -15540,7 +15604,7 @@
       <c r="E147" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F147" s="102"/>
+      <c r="F147" s="103"/>
       <c r="G147" s="31" t="s">
         <v>347</v>
       </c>
@@ -15568,7 +15632,7 @@
       <c r="E148" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F148" s="103"/>
+      <c r="F148" s="104"/>
       <c r="G148" s="31" t="s">
         <v>348</v>
       </c>
@@ -15600,7 +15664,7 @@
       <c r="E149" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F149" s="101" t="s">
+      <c r="F149" s="102" t="s">
         <v>350</v>
       </c>
       <c r="G149" s="31" t="s">
@@ -15630,7 +15694,7 @@
       <c r="E150" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F150" s="102"/>
+      <c r="F150" s="103"/>
       <c r="G150" s="31" t="s">
         <v>352</v>
       </c>
@@ -15658,7 +15722,7 @@
       <c r="E151" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F151" s="103"/>
+      <c r="F151" s="104"/>
       <c r="G151" s="32" t="s">
         <v>302</v>
       </c>
@@ -15687,13 +15751,13 @@
       <c r="D152" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E152" s="114" t="s">
+      <c r="E152" s="105" t="s">
         <v>55</v>
       </c>
-      <c r="F152" s="101" t="s">
+      <c r="F152" s="102" t="s">
         <v>357</v>
       </c>
-      <c r="G152" s="104" t="s">
+      <c r="G152" s="108" t="s">
         <v>358</v>
       </c>
       <c r="H152" s="68">
@@ -15717,9 +15781,9 @@
       <c r="D153" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E153" s="115"/>
-      <c r="F153" s="102"/>
-      <c r="G153" s="105"/>
+      <c r="E153" s="106"/>
+      <c r="F153" s="103"/>
+      <c r="G153" s="109"/>
       <c r="H153" s="68">
         <v>44435</v>
       </c>
@@ -15741,9 +15805,9 @@
       <c r="D154" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E154" s="115"/>
-      <c r="F154" s="102"/>
-      <c r="G154" s="105"/>
+      <c r="E154" s="106"/>
+      <c r="F154" s="103"/>
+      <c r="G154" s="109"/>
       <c r="H154" s="68">
         <v>44435</v>
       </c>
@@ -15765,9 +15829,9 @@
       <c r="D155" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E155" s="115"/>
-      <c r="F155" s="102"/>
-      <c r="G155" s="105"/>
+      <c r="E155" s="106"/>
+      <c r="F155" s="103"/>
+      <c r="G155" s="109"/>
       <c r="H155" s="68">
         <v>44435</v>
       </c>
@@ -15789,9 +15853,9 @@
       <c r="D156" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E156" s="115"/>
-      <c r="F156" s="102"/>
-      <c r="G156" s="105"/>
+      <c r="E156" s="106"/>
+      <c r="F156" s="103"/>
+      <c r="G156" s="109"/>
       <c r="H156" s="68">
         <v>44435</v>
       </c>
@@ -15813,9 +15877,9 @@
       <c r="D157" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E157" s="115"/>
-      <c r="F157" s="102"/>
-      <c r="G157" s="105"/>
+      <c r="E157" s="106"/>
+      <c r="F157" s="103"/>
+      <c r="G157" s="109"/>
       <c r="H157" s="68">
         <v>44447</v>
       </c>
@@ -15823,7 +15887,7 @@
         <v>6</v>
       </c>
       <c r="J157" s="30" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="K157" s="39" t="s">
         <v>510</v>
@@ -15839,9 +15903,9 @@
       <c r="D158" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E158" s="115"/>
-      <c r="F158" s="102"/>
-      <c r="G158" s="105"/>
+      <c r="E158" s="106"/>
+      <c r="F158" s="103"/>
+      <c r="G158" s="109"/>
       <c r="H158" s="68">
         <v>44435</v>
       </c>
@@ -15863,9 +15927,9 @@
       <c r="D159" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E159" s="115"/>
-      <c r="F159" s="102"/>
-      <c r="G159" s="105"/>
+      <c r="E159" s="106"/>
+      <c r="F159" s="103"/>
+      <c r="G159" s="109"/>
       <c r="H159" s="68">
         <v>44435</v>
       </c>
@@ -15887,9 +15951,9 @@
       <c r="D160" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E160" s="115"/>
-      <c r="F160" s="102"/>
-      <c r="G160" s="105"/>
+      <c r="E160" s="106"/>
+      <c r="F160" s="103"/>
+      <c r="G160" s="109"/>
       <c r="H160" s="68">
         <v>44435</v>
       </c>
@@ -15911,9 +15975,9 @@
       <c r="D161" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E161" s="115"/>
-      <c r="F161" s="102"/>
-      <c r="G161" s="105"/>
+      <c r="E161" s="106"/>
+      <c r="F161" s="103"/>
+      <c r="G161" s="109"/>
       <c r="H161" s="68">
         <v>44435</v>
       </c>
@@ -15935,9 +15999,9 @@
       <c r="D162" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E162" s="115"/>
-      <c r="F162" s="102"/>
-      <c r="G162" s="105"/>
+      <c r="E162" s="106"/>
+      <c r="F162" s="103"/>
+      <c r="G162" s="109"/>
       <c r="H162" s="68">
         <v>44435</v>
       </c>
@@ -15959,9 +16023,9 @@
       <c r="D163" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="E163" s="115"/>
-      <c r="F163" s="102"/>
-      <c r="G163" s="106"/>
+      <c r="E163" s="106"/>
+      <c r="F163" s="103"/>
+      <c r="G163" s="110"/>
       <c r="H163" s="68">
         <v>44435</v>
       </c>
@@ -15983,8 +16047,8 @@
       <c r="D164" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="E164" s="115"/>
-      <c r="F164" s="102"/>
+      <c r="E164" s="106"/>
+      <c r="F164" s="103"/>
       <c r="G164" s="31" t="s">
         <v>359</v>
       </c>
@@ -16009,8 +16073,8 @@
       <c r="D165" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="E165" s="116"/>
-      <c r="F165" s="103"/>
+      <c r="E165" s="107"/>
+      <c r="F165" s="104"/>
       <c r="G165" s="31" t="s">
         <v>360</v>
       </c>
@@ -16026,7 +16090,7 @@
       </c>
       <c r="L165" s="11"/>
     </row>
-    <row r="166" spans="1:12" ht="45">
+    <row r="166" spans="1:12" ht="60">
       <c r="A166" s="12">
         <v>161</v>
       </c>
@@ -16053,10 +16117,10 @@
         <v>6</v>
       </c>
       <c r="J166" s="30" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="K166" s="39" t="s">
-        <v>510</v>
+        <v>144</v>
       </c>
       <c r="L166" s="11"/>
     </row>
@@ -16188,6 +16252,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="E73:E84"/>
+    <mergeCell ref="F73:F84"/>
+    <mergeCell ref="E87:E90"/>
+    <mergeCell ref="F87:F90"/>
+    <mergeCell ref="E91:E93"/>
+    <mergeCell ref="F91:F95"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="G12:G23"/>
+    <mergeCell ref="G38:G42"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="E59:E71"/>
+    <mergeCell ref="F57:F71"/>
     <mergeCell ref="E98:E109"/>
     <mergeCell ref="F98:F109"/>
     <mergeCell ref="E152:E165"/>
@@ -16196,18 +16272,6 @@
     <mergeCell ref="G112:G123"/>
     <mergeCell ref="F134:F148"/>
     <mergeCell ref="F149:F151"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="G12:G23"/>
-    <mergeCell ref="G38:G42"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="E59:E71"/>
-    <mergeCell ref="F57:F71"/>
-    <mergeCell ref="E73:E84"/>
-    <mergeCell ref="F73:F84"/>
-    <mergeCell ref="E87:E90"/>
-    <mergeCell ref="F87:F90"/>
-    <mergeCell ref="E91:E93"/>
-    <mergeCell ref="F91:F95"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -16220,8 +16284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9E524B-C67B-4990-A5C3-077E8DAB7E38}">
   <dimension ref="A1:L364"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A121" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G176" sqref="G176"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A193" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J243" sqref="J243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -16241,11 +16305,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="111" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="119"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="121"/>
       <c r="D1" s="53" t="s">
         <v>2</v>
       </c>
@@ -16268,9 +16332,9 @@
       <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A2" s="109"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="120"/>
+      <c r="A2" s="113"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="122"/>
       <c r="D2" s="53" t="s">
         <v>3</v>
       </c>
@@ -16438,13 +16502,13 @@
       <c r="C8" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="104" t="s">
+      <c r="D8" s="108" t="s">
         <v>204</v>
       </c>
       <c r="E8" s="80" t="s">
         <v>161</v>
       </c>
-      <c r="F8" s="104" t="s">
+      <c r="F8" s="108" t="s">
         <v>202</v>
       </c>
       <c r="G8" s="60">
@@ -16464,11 +16528,11 @@
       <c r="C9" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="105"/>
+      <c r="D9" s="109"/>
       <c r="E9" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="F9" s="105"/>
+      <c r="F9" s="109"/>
       <c r="G9" s="60">
         <v>44369</v>
       </c>
@@ -16486,11 +16550,11 @@
       <c r="C10" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="105"/>
+      <c r="D10" s="109"/>
       <c r="E10" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="105"/>
+      <c r="F10" s="109"/>
       <c r="G10" s="60">
         <v>44369</v>
       </c>
@@ -16508,11 +16572,11 @@
       <c r="C11" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="105"/>
+      <c r="D11" s="109"/>
       <c r="E11" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="105"/>
+      <c r="F11" s="109"/>
       <c r="G11" s="60">
         <v>44369</v>
       </c>
@@ -16530,11 +16594,11 @@
       <c r="C12" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="105"/>
+      <c r="D12" s="109"/>
       <c r="E12" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="105"/>
+      <c r="F12" s="109"/>
       <c r="G12" s="60">
         <v>44369</v>
       </c>
@@ -16552,11 +16616,11 @@
       <c r="C13" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="105"/>
+      <c r="D13" s="109"/>
       <c r="E13" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="105"/>
+      <c r="F13" s="109"/>
       <c r="G13" s="60">
         <v>44369</v>
       </c>
@@ -16574,11 +16638,11 @@
       <c r="C14" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="105"/>
+      <c r="D14" s="109"/>
       <c r="E14" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="105"/>
+      <c r="F14" s="109"/>
       <c r="G14" s="60">
         <v>44369</v>
       </c>
@@ -16596,11 +16660,11 @@
       <c r="C15" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="105"/>
+      <c r="D15" s="109"/>
       <c r="E15" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="105"/>
+      <c r="F15" s="109"/>
       <c r="G15" s="60">
         <v>44369</v>
       </c>
@@ -16618,11 +16682,11 @@
       <c r="C16" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="105"/>
+      <c r="D16" s="109"/>
       <c r="E16" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="105"/>
+      <c r="F16" s="109"/>
       <c r="G16" s="60">
         <v>44369</v>
       </c>
@@ -16640,11 +16704,11 @@
       <c r="C17" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="105"/>
+      <c r="D17" s="109"/>
       <c r="E17" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="105"/>
+      <c r="F17" s="109"/>
       <c r="G17" s="60">
         <v>44369</v>
       </c>
@@ -16662,11 +16726,11 @@
       <c r="C18" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="105"/>
+      <c r="D18" s="109"/>
       <c r="E18" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="105"/>
+      <c r="F18" s="109"/>
       <c r="G18" s="60">
         <v>44369</v>
       </c>
@@ -16684,11 +16748,11 @@
       <c r="C19" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="106"/>
+      <c r="D19" s="110"/>
       <c r="E19" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="106"/>
+      <c r="F19" s="110"/>
       <c r="G19" s="60">
         <v>44369</v>
       </c>
@@ -16709,13 +16773,13 @@
       <c r="C20" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="104" t="s">
+      <c r="D20" s="108" t="s">
         <v>203</v>
       </c>
-      <c r="E20" s="124" t="s">
+      <c r="E20" s="123" t="s">
         <v>201</v>
       </c>
-      <c r="F20" s="104" t="s">
+      <c r="F20" s="108" t="s">
         <v>188</v>
       </c>
       <c r="G20" s="60">
@@ -16738,9 +16802,9 @@
       <c r="C21" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="105"/>
-      <c r="E21" s="125"/>
-      <c r="F21" s="105"/>
+      <c r="D21" s="109"/>
+      <c r="E21" s="124"/>
+      <c r="F21" s="109"/>
       <c r="G21" s="60">
         <v>44369</v>
       </c>
@@ -16761,9 +16825,9 @@
       <c r="C22" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="105"/>
-      <c r="E22" s="125"/>
-      <c r="F22" s="105"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="124"/>
+      <c r="F22" s="109"/>
       <c r="G22" s="60">
         <v>44369</v>
       </c>
@@ -16784,9 +16848,9 @@
       <c r="C23" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="105"/>
-      <c r="E23" s="125"/>
-      <c r="F23" s="105"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="124"/>
+      <c r="F23" s="109"/>
       <c r="G23" s="60">
         <v>44369</v>
       </c>
@@ -16807,9 +16871,9 @@
       <c r="C24" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="105"/>
-      <c r="E24" s="125"/>
-      <c r="F24" s="106"/>
+      <c r="D24" s="109"/>
+      <c r="E24" s="124"/>
+      <c r="F24" s="110"/>
       <c r="G24" s="60">
         <v>44369</v>
       </c>
@@ -16830,8 +16894,8 @@
       <c r="C25" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="105"/>
-      <c r="E25" s="125"/>
+      <c r="D25" s="109"/>
+      <c r="E25" s="124"/>
       <c r="F25" s="31" t="s">
         <v>186</v>
       </c>
@@ -16855,9 +16919,9 @@
       <c r="C26" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="105"/>
-      <c r="E26" s="125"/>
-      <c r="F26" s="104" t="s">
+      <c r="D26" s="109"/>
+      <c r="E26" s="124"/>
+      <c r="F26" s="108" t="s">
         <v>187</v>
       </c>
       <c r="G26" s="60">
@@ -16880,9 +16944,9 @@
       <c r="C27" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="105"/>
-      <c r="E27" s="125"/>
-      <c r="F27" s="105"/>
+      <c r="D27" s="109"/>
+      <c r="E27" s="124"/>
+      <c r="F27" s="109"/>
       <c r="G27" s="60">
         <v>44369</v>
       </c>
@@ -16903,9 +16967,9 @@
       <c r="C28" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="105"/>
-      <c r="E28" s="125"/>
-      <c r="F28" s="105"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="124"/>
+      <c r="F28" s="109"/>
       <c r="G28" s="60">
         <v>44369</v>
       </c>
@@ -16926,9 +16990,9 @@
       <c r="C29" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="105"/>
-      <c r="E29" s="125"/>
-      <c r="F29" s="105"/>
+      <c r="D29" s="109"/>
+      <c r="E29" s="124"/>
+      <c r="F29" s="109"/>
       <c r="G29" s="60">
         <v>44369</v>
       </c>
@@ -16949,9 +17013,9 @@
       <c r="C30" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="105"/>
-      <c r="E30" s="125"/>
-      <c r="F30" s="105"/>
+      <c r="D30" s="109"/>
+      <c r="E30" s="124"/>
+      <c r="F30" s="109"/>
       <c r="G30" s="60">
         <v>44369</v>
       </c>
@@ -16972,9 +17036,9 @@
       <c r="C31" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="106"/>
-      <c r="E31" s="126"/>
-      <c r="F31" s="106"/>
+      <c r="D31" s="110"/>
+      <c r="E31" s="125"/>
+      <c r="F31" s="110"/>
       <c r="G31" s="60">
         <v>44369</v>
       </c>
@@ -16997,7 +17061,7 @@
       <c r="C32" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="104" t="s">
+      <c r="D32" s="108" t="s">
         <v>219</v>
       </c>
       <c r="E32" s="31" t="s">
@@ -17026,7 +17090,7 @@
       <c r="C33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="105"/>
+      <c r="D33" s="109"/>
       <c r="E33" s="31" t="s">
         <v>168</v>
       </c>
@@ -17053,7 +17117,7 @@
       <c r="C34" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="105"/>
+      <c r="D34" s="109"/>
       <c r="E34" s="31" t="s">
         <v>169</v>
       </c>
@@ -17080,7 +17144,7 @@
       <c r="C35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="105"/>
+      <c r="D35" s="109"/>
       <c r="E35" s="31" t="s">
         <v>169</v>
       </c>
@@ -17107,7 +17171,7 @@
       <c r="C36" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="105"/>
+      <c r="D36" s="109"/>
       <c r="E36" s="31" t="s">
         <v>170</v>
       </c>
@@ -17134,7 +17198,7 @@
       <c r="C37" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="105"/>
+      <c r="D37" s="109"/>
       <c r="E37" s="31" t="s">
         <v>171</v>
       </c>
@@ -17161,7 +17225,7 @@
       <c r="C38" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="105"/>
+      <c r="D38" s="109"/>
       <c r="E38" s="31" t="s">
         <v>172</v>
       </c>
@@ -17188,7 +17252,7 @@
       <c r="C39" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="105"/>
+      <c r="D39" s="109"/>
       <c r="E39" s="31" t="s">
         <v>173</v>
       </c>
@@ -17215,7 +17279,7 @@
       <c r="C40" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="105"/>
+      <c r="D40" s="109"/>
       <c r="E40" s="31" t="s">
         <v>174</v>
       </c>
@@ -17242,7 +17306,7 @@
       <c r="C41" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="106"/>
+      <c r="D41" s="110"/>
       <c r="E41" s="31" t="s">
         <v>175</v>
       </c>
@@ -17271,13 +17335,13 @@
       <c r="C42" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="104" t="s">
+      <c r="D42" s="108" t="s">
         <v>207</v>
       </c>
-      <c r="E42" s="101" t="s">
+      <c r="E42" s="102" t="s">
         <v>223</v>
       </c>
-      <c r="F42" s="101" t="s">
+      <c r="F42" s="102" t="s">
         <v>206</v>
       </c>
       <c r="G42" s="60">
@@ -17300,9 +17364,9 @@
       <c r="C43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="115"/>
-      <c r="E43" s="102"/>
-      <c r="F43" s="102"/>
+      <c r="D43" s="106"/>
+      <c r="E43" s="103"/>
+      <c r="F43" s="103"/>
       <c r="G43" s="60">
         <v>44369</v>
       </c>
@@ -17323,9 +17387,9 @@
       <c r="C44" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="115"/>
-      <c r="E44" s="102"/>
-      <c r="F44" s="102"/>
+      <c r="D44" s="106"/>
+      <c r="E44" s="103"/>
+      <c r="F44" s="103"/>
       <c r="G44" s="60">
         <v>44369</v>
       </c>
@@ -17346,9 +17410,9 @@
       <c r="C45" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="115"/>
-      <c r="E45" s="102"/>
-      <c r="F45" s="102"/>
+      <c r="D45" s="106"/>
+      <c r="E45" s="103"/>
+      <c r="F45" s="103"/>
       <c r="G45" s="60">
         <v>44369</v>
       </c>
@@ -17369,9 +17433,9 @@
       <c r="C46" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="115"/>
-      <c r="E46" s="102"/>
-      <c r="F46" s="102"/>
+      <c r="D46" s="106"/>
+      <c r="E46" s="103"/>
+      <c r="F46" s="103"/>
       <c r="G46" s="60">
         <v>44369</v>
       </c>
@@ -17392,9 +17456,9 @@
       <c r="C47" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="115"/>
-      <c r="E47" s="102"/>
-      <c r="F47" s="102"/>
+      <c r="D47" s="106"/>
+      <c r="E47" s="103"/>
+      <c r="F47" s="103"/>
       <c r="G47" s="60">
         <v>44369</v>
       </c>
@@ -17415,9 +17479,9 @@
       <c r="C48" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="115"/>
-      <c r="E48" s="102"/>
-      <c r="F48" s="102"/>
+      <c r="D48" s="106"/>
+      <c r="E48" s="103"/>
+      <c r="F48" s="103"/>
       <c r="G48" s="60">
         <v>44369</v>
       </c>
@@ -17438,9 +17502,9 @@
       <c r="C49" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D49" s="115"/>
-      <c r="E49" s="102"/>
-      <c r="F49" s="102"/>
+      <c r="D49" s="106"/>
+      <c r="E49" s="103"/>
+      <c r="F49" s="103"/>
       <c r="G49" s="60">
         <v>44369</v>
       </c>
@@ -17461,9 +17525,9 @@
       <c r="C50" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="115"/>
-      <c r="E50" s="102"/>
-      <c r="F50" s="102"/>
+      <c r="D50" s="106"/>
+      <c r="E50" s="103"/>
+      <c r="F50" s="103"/>
       <c r="G50" s="60">
         <v>44369</v>
       </c>
@@ -17484,9 +17548,9 @@
       <c r="C51" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D51" s="115"/>
-      <c r="E51" s="102"/>
-      <c r="F51" s="102"/>
+      <c r="D51" s="106"/>
+      <c r="E51" s="103"/>
+      <c r="F51" s="103"/>
       <c r="G51" s="60">
         <v>44369</v>
       </c>
@@ -17507,9 +17571,9 @@
       <c r="C52" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="115"/>
-      <c r="E52" s="102"/>
-      <c r="F52" s="102"/>
+      <c r="D52" s="106"/>
+      <c r="E52" s="103"/>
+      <c r="F52" s="103"/>
       <c r="G52" s="60">
         <v>44369</v>
       </c>
@@ -17530,9 +17594,9 @@
       <c r="C53" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="116"/>
-      <c r="E53" s="103"/>
-      <c r="F53" s="103"/>
+      <c r="D53" s="107"/>
+      <c r="E53" s="104"/>
+      <c r="F53" s="104"/>
       <c r="G53" s="60">
         <v>44369</v>
       </c>
@@ -17555,13 +17619,13 @@
       <c r="C54" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="104" t="s">
+      <c r="D54" s="108" t="s">
         <v>205</v>
       </c>
-      <c r="E54" s="101" t="s">
+      <c r="E54" s="102" t="s">
         <v>223</v>
       </c>
-      <c r="F54" s="121" t="s">
+      <c r="F54" s="118" t="s">
         <v>178</v>
       </c>
       <c r="G54" s="60">
@@ -17584,9 +17648,9 @@
       <c r="C55" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="115"/>
-      <c r="E55" s="102"/>
-      <c r="F55" s="122"/>
+      <c r="D55" s="106"/>
+      <c r="E55" s="103"/>
+      <c r="F55" s="119"/>
       <c r="G55" s="60">
         <v>44369</v>
       </c>
@@ -17607,9 +17671,9 @@
       <c r="C56" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="115"/>
-      <c r="E56" s="102"/>
-      <c r="F56" s="122"/>
+      <c r="D56" s="106"/>
+      <c r="E56" s="103"/>
+      <c r="F56" s="119"/>
       <c r="G56" s="60">
         <v>44369</v>
       </c>
@@ -17630,9 +17694,9 @@
       <c r="C57" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="115"/>
-      <c r="E57" s="102"/>
-      <c r="F57" s="122"/>
+      <c r="D57" s="106"/>
+      <c r="E57" s="103"/>
+      <c r="F57" s="119"/>
       <c r="G57" s="60">
         <v>44369</v>
       </c>
@@ -17653,9 +17717,9 @@
       <c r="C58" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="115"/>
-      <c r="E58" s="102"/>
-      <c r="F58" s="122"/>
+      <c r="D58" s="106"/>
+      <c r="E58" s="103"/>
+      <c r="F58" s="119"/>
       <c r="G58" s="60">
         <v>44369</v>
       </c>
@@ -17676,9 +17740,9 @@
       <c r="C59" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D59" s="115"/>
-      <c r="E59" s="102"/>
-      <c r="F59" s="123"/>
+      <c r="D59" s="106"/>
+      <c r="E59" s="103"/>
+      <c r="F59" s="120"/>
       <c r="G59" s="60">
         <v>44369</v>
       </c>
@@ -17699,8 +17763,8 @@
       <c r="C60" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="115"/>
-      <c r="E60" s="102"/>
+      <c r="D60" s="106"/>
+      <c r="E60" s="103"/>
       <c r="F60" s="32" t="s">
         <v>179</v>
       </c>
@@ -17724,8 +17788,8 @@
       <c r="C61" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="115"/>
-      <c r="E61" s="102"/>
+      <c r="D61" s="106"/>
+      <c r="E61" s="103"/>
       <c r="F61" s="32" t="s">
         <v>182</v>
       </c>
@@ -17749,8 +17813,8 @@
       <c r="C62" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D62" s="115"/>
-      <c r="E62" s="102"/>
+      <c r="D62" s="106"/>
+      <c r="E62" s="103"/>
       <c r="F62" s="32" t="s">
         <v>181</v>
       </c>
@@ -17774,9 +17838,9 @@
       <c r="C63" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D63" s="115"/>
-      <c r="E63" s="102"/>
-      <c r="F63" s="121" t="s">
+      <c r="D63" s="106"/>
+      <c r="E63" s="103"/>
+      <c r="F63" s="118" t="s">
         <v>182</v>
       </c>
       <c r="G63" s="60">
@@ -17799,9 +17863,9 @@
       <c r="C64" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D64" s="115"/>
-      <c r="E64" s="102"/>
-      <c r="F64" s="123"/>
+      <c r="D64" s="106"/>
+      <c r="E64" s="103"/>
+      <c r="F64" s="120"/>
       <c r="G64" s="60">
         <v>44369</v>
       </c>
@@ -17822,8 +17886,8 @@
       <c r="C65" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D65" s="116"/>
-      <c r="E65" s="103"/>
+      <c r="D65" s="107"/>
+      <c r="E65" s="104"/>
       <c r="F65" s="32" t="s">
         <v>180</v>
       </c>
@@ -17849,13 +17913,13 @@
       <c r="C66" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="104" t="s">
+      <c r="D66" s="108" t="s">
         <v>221</v>
       </c>
-      <c r="E66" s="104" t="s">
+      <c r="E66" s="108" t="s">
         <v>163</v>
       </c>
-      <c r="F66" s="101" t="s">
+      <c r="F66" s="102" t="s">
         <v>164</v>
       </c>
       <c r="G66" s="60">
@@ -17878,9 +17942,9 @@
       <c r="C67" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="115"/>
-      <c r="E67" s="105"/>
-      <c r="F67" s="102"/>
+      <c r="D67" s="106"/>
+      <c r="E67" s="109"/>
+      <c r="F67" s="103"/>
       <c r="G67" s="60">
         <v>44369</v>
       </c>
@@ -17901,9 +17965,9 @@
       <c r="C68" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D68" s="115"/>
-      <c r="E68" s="105"/>
-      <c r="F68" s="102"/>
+      <c r="D68" s="106"/>
+      <c r="E68" s="109"/>
+      <c r="F68" s="103"/>
       <c r="G68" s="60">
         <v>44369</v>
       </c>
@@ -17924,9 +17988,9 @@
       <c r="C69" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D69" s="115"/>
-      <c r="E69" s="105"/>
-      <c r="F69" s="102"/>
+      <c r="D69" s="106"/>
+      <c r="E69" s="109"/>
+      <c r="F69" s="103"/>
       <c r="G69" s="60">
         <v>44369</v>
       </c>
@@ -17947,9 +18011,9 @@
       <c r="C70" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="115"/>
-      <c r="E70" s="105"/>
-      <c r="F70" s="102"/>
+      <c r="D70" s="106"/>
+      <c r="E70" s="109"/>
+      <c r="F70" s="103"/>
       <c r="G70" s="60">
         <v>44369</v>
       </c>
@@ -17970,9 +18034,9 @@
       <c r="C71" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D71" s="115"/>
-      <c r="E71" s="105"/>
-      <c r="F71" s="102"/>
+      <c r="D71" s="106"/>
+      <c r="E71" s="109"/>
+      <c r="F71" s="103"/>
       <c r="G71" s="60">
         <v>44369</v>
       </c>
@@ -17993,9 +18057,9 @@
       <c r="C72" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="115"/>
-      <c r="E72" s="105"/>
-      <c r="F72" s="102"/>
+      <c r="D72" s="106"/>
+      <c r="E72" s="109"/>
+      <c r="F72" s="103"/>
       <c r="G72" s="60">
         <v>44369</v>
       </c>
@@ -18016,9 +18080,9 @@
       <c r="C73" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="115"/>
-      <c r="E73" s="105"/>
-      <c r="F73" s="102"/>
+      <c r="D73" s="106"/>
+      <c r="E73" s="109"/>
+      <c r="F73" s="103"/>
       <c r="G73" s="60">
         <v>44369</v>
       </c>
@@ -18039,9 +18103,9 @@
       <c r="C74" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D74" s="115"/>
-      <c r="E74" s="105"/>
-      <c r="F74" s="102"/>
+      <c r="D74" s="106"/>
+      <c r="E74" s="109"/>
+      <c r="F74" s="103"/>
       <c r="G74" s="60">
         <v>44369</v>
       </c>
@@ -18062,9 +18126,9 @@
       <c r="C75" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="115"/>
-      <c r="E75" s="105"/>
-      <c r="F75" s="102"/>
+      <c r="D75" s="106"/>
+      <c r="E75" s="109"/>
+      <c r="F75" s="103"/>
       <c r="G75" s="60">
         <v>44369</v>
       </c>
@@ -18085,9 +18149,9 @@
       <c r="C76" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D76" s="115"/>
-      <c r="E76" s="105"/>
-      <c r="F76" s="102"/>
+      <c r="D76" s="106"/>
+      <c r="E76" s="109"/>
+      <c r="F76" s="103"/>
       <c r="G76" s="60">
         <v>44369</v>
       </c>
@@ -18108,9 +18172,9 @@
       <c r="C77" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D77" s="116"/>
-      <c r="E77" s="106"/>
-      <c r="F77" s="103"/>
+      <c r="D77" s="107"/>
+      <c r="E77" s="110"/>
+      <c r="F77" s="104"/>
       <c r="G77" s="60">
         <v>44369</v>
       </c>
@@ -18123,7 +18187,7 @@
       </c>
       <c r="K77" s="11"/>
     </row>
-    <row r="78" spans="1:11" ht="75">
+    <row r="78" spans="1:11" ht="90">
       <c r="A78" s="12">
         <v>74</v>
       </c>
@@ -18149,10 +18213,10 @@
         <v>227</v>
       </c>
       <c r="I78" s="30" t="s">
-        <v>515</v>
+        <v>533</v>
       </c>
       <c r="J78" s="39" t="s">
-        <v>510</v>
+        <v>144</v>
       </c>
       <c r="K78" s="11"/>
     </row>
@@ -18166,10 +18230,10 @@
       <c r="C79" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="D79" s="104" t="s">
+      <c r="D79" s="108" t="s">
         <v>222</v>
       </c>
-      <c r="E79" s="104" t="s">
+      <c r="E79" s="108" t="s">
         <v>237</v>
       </c>
       <c r="F79" s="32" t="s">
@@ -18195,8 +18259,8 @@
       <c r="C80" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D80" s="105"/>
-      <c r="E80" s="105"/>
+      <c r="D80" s="109"/>
+      <c r="E80" s="109"/>
       <c r="F80" s="32" t="s">
         <v>191</v>
       </c>
@@ -18220,8 +18284,8 @@
       <c r="C81" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D81" s="105"/>
-      <c r="E81" s="105"/>
+      <c r="D81" s="109"/>
+      <c r="E81" s="109"/>
       <c r="F81" s="32" t="s">
         <v>208</v>
       </c>
@@ -18245,8 +18309,8 @@
       <c r="C82" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D82" s="105"/>
-      <c r="E82" s="105"/>
+      <c r="D82" s="109"/>
+      <c r="E82" s="109"/>
       <c r="F82" s="32" t="s">
         <v>209</v>
       </c>
@@ -18270,8 +18334,8 @@
       <c r="C83" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D83" s="105"/>
-      <c r="E83" s="105"/>
+      <c r="D83" s="109"/>
+      <c r="E83" s="109"/>
       <c r="F83" s="32" t="s">
         <v>210</v>
       </c>
@@ -18295,8 +18359,8 @@
       <c r="C84" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D84" s="105"/>
-      <c r="E84" s="105"/>
+      <c r="D84" s="109"/>
+      <c r="E84" s="109"/>
       <c r="F84" s="32" t="s">
         <v>211</v>
       </c>
@@ -18320,8 +18384,8 @@
       <c r="C85" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D85" s="105"/>
-      <c r="E85" s="105"/>
+      <c r="D85" s="109"/>
+      <c r="E85" s="109"/>
       <c r="F85" s="32" t="s">
         <v>212</v>
       </c>
@@ -18345,8 +18409,8 @@
       <c r="C86" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D86" s="105"/>
-      <c r="E86" s="105"/>
+      <c r="D86" s="109"/>
+      <c r="E86" s="109"/>
       <c r="F86" s="32" t="s">
         <v>213</v>
       </c>
@@ -18370,8 +18434,8 @@
       <c r="C87" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D87" s="105"/>
-      <c r="E87" s="105"/>
+      <c r="D87" s="109"/>
+      <c r="E87" s="109"/>
       <c r="F87" s="32" t="s">
         <v>214</v>
       </c>
@@ -18395,8 +18459,8 @@
       <c r="C88" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D88" s="105"/>
-      <c r="E88" s="105"/>
+      <c r="D88" s="109"/>
+      <c r="E88" s="109"/>
       <c r="F88" s="32" t="s">
         <v>215</v>
       </c>
@@ -18420,8 +18484,8 @@
       <c r="C89" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D89" s="105"/>
-      <c r="E89" s="105"/>
+      <c r="D89" s="109"/>
+      <c r="E89" s="109"/>
       <c r="F89" s="32" t="s">
         <v>216</v>
       </c>
@@ -18445,8 +18509,8 @@
       <c r="C90" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D90" s="105"/>
-      <c r="E90" s="105"/>
+      <c r="D90" s="109"/>
+      <c r="E90" s="109"/>
       <c r="F90" s="32" t="s">
         <v>217</v>
       </c>
@@ -18470,8 +18534,8 @@
       <c r="C91" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D91" s="105"/>
-      <c r="E91" s="105"/>
+      <c r="D91" s="109"/>
+      <c r="E91" s="109"/>
       <c r="F91" s="32" t="s">
         <v>218</v>
       </c>
@@ -18495,8 +18559,8 @@
       <c r="C92" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="D92" s="105"/>
-      <c r="E92" s="105"/>
+      <c r="D92" s="109"/>
+      <c r="E92" s="109"/>
       <c r="F92" s="31" t="s">
         <v>224</v>
       </c>
@@ -18520,8 +18584,8 @@
       <c r="C93" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="D93" s="105"/>
-      <c r="E93" s="105"/>
+      <c r="D93" s="109"/>
+      <c r="E93" s="109"/>
       <c r="F93" s="31" t="s">
         <v>225</v>
       </c>
@@ -18547,8 +18611,8 @@
       <c r="C94" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="D94" s="106"/>
-      <c r="E94" s="106"/>
+      <c r="D94" s="110"/>
+      <c r="E94" s="110"/>
       <c r="F94" s="31" t="s">
         <v>226</v>
       </c>
@@ -18667,10 +18731,10 @@
       <c r="C98" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="D98" s="101" t="s">
+      <c r="D98" s="102" t="s">
         <v>243</v>
       </c>
-      <c r="E98" s="101" t="s">
+      <c r="E98" s="102" t="s">
         <v>241</v>
       </c>
       <c r="F98" s="37" t="s">
@@ -18696,8 +18760,8 @@
       <c r="C99" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D99" s="117"/>
-      <c r="E99" s="102"/>
+      <c r="D99" s="126"/>
+      <c r="E99" s="103"/>
       <c r="F99" s="37" t="s">
         <v>261</v>
       </c>
@@ -18721,8 +18785,8 @@
       <c r="C100" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D100" s="117"/>
-      <c r="E100" s="102"/>
+      <c r="D100" s="126"/>
+      <c r="E100" s="103"/>
       <c r="F100" s="37" t="s">
         <v>262</v>
       </c>
@@ -18746,8 +18810,8 @@
       <c r="C101" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D101" s="117"/>
-      <c r="E101" s="102"/>
+      <c r="D101" s="126"/>
+      <c r="E101" s="103"/>
       <c r="F101" s="37" t="s">
         <v>263</v>
       </c>
@@ -18771,8 +18835,8 @@
       <c r="C102" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D102" s="117"/>
-      <c r="E102" s="102"/>
+      <c r="D102" s="126"/>
+      <c r="E102" s="103"/>
       <c r="F102" s="37" t="s">
         <v>264</v>
       </c>
@@ -18796,8 +18860,8 @@
       <c r="C103" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D103" s="117"/>
-      <c r="E103" s="102"/>
+      <c r="D103" s="126"/>
+      <c r="E103" s="103"/>
       <c r="F103" s="37" t="s">
         <v>265</v>
       </c>
@@ -18821,8 +18885,8 @@
       <c r="C104" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D104" s="117"/>
-      <c r="E104" s="102"/>
+      <c r="D104" s="126"/>
+      <c r="E104" s="103"/>
       <c r="F104" s="37" t="s">
         <v>266</v>
       </c>
@@ -18846,8 +18910,8 @@
       <c r="C105" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D105" s="117"/>
-      <c r="E105" s="102"/>
+      <c r="D105" s="126"/>
+      <c r="E105" s="103"/>
       <c r="F105" s="37" t="s">
         <v>267</v>
       </c>
@@ -18871,8 +18935,8 @@
       <c r="C106" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="D106" s="117"/>
-      <c r="E106" s="102"/>
+      <c r="D106" s="126"/>
+      <c r="E106" s="103"/>
       <c r="F106" s="37" t="s">
         <v>268</v>
       </c>
@@ -18896,8 +18960,8 @@
       <c r="C107" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="D107" s="117"/>
-      <c r="E107" s="102"/>
+      <c r="D107" s="126"/>
+      <c r="E107" s="103"/>
       <c r="F107" s="37" t="s">
         <v>269</v>
       </c>
@@ -18921,8 +18985,8 @@
       <c r="C108" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="D108" s="118"/>
-      <c r="E108" s="103"/>
+      <c r="D108" s="127"/>
+      <c r="E108" s="104"/>
       <c r="F108" s="37" t="s">
         <v>269</v>
       </c>
@@ -19099,10 +19163,10 @@
       <c r="C114" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D114" s="101" t="s">
+      <c r="D114" s="102" t="s">
         <v>372</v>
       </c>
-      <c r="E114" s="101" t="s">
+      <c r="E114" s="102" t="s">
         <v>373</v>
       </c>
       <c r="F114" s="37" t="s">
@@ -19128,8 +19192,8 @@
       <c r="C115" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D115" s="102"/>
-      <c r="E115" s="102"/>
+      <c r="D115" s="103"/>
+      <c r="E115" s="103"/>
       <c r="F115" s="37" t="s">
         <v>412</v>
       </c>
@@ -19153,8 +19217,8 @@
       <c r="C116" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D116" s="102"/>
-      <c r="E116" s="102"/>
+      <c r="D116" s="103"/>
+      <c r="E116" s="103"/>
       <c r="F116" s="37" t="s">
         <v>413</v>
       </c>
@@ -19178,8 +19242,8 @@
       <c r="C117" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D117" s="102"/>
-      <c r="E117" s="102"/>
+      <c r="D117" s="103"/>
+      <c r="E117" s="103"/>
       <c r="F117" s="37" t="s">
         <v>414</v>
       </c>
@@ -19203,8 +19267,8 @@
       <c r="C118" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D118" s="102"/>
-      <c r="E118" s="102"/>
+      <c r="D118" s="103"/>
+      <c r="E118" s="103"/>
       <c r="F118" s="37" t="s">
         <v>415</v>
       </c>
@@ -19228,8 +19292,8 @@
       <c r="C119" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D119" s="102"/>
-      <c r="E119" s="102"/>
+      <c r="D119" s="103"/>
+      <c r="E119" s="103"/>
       <c r="F119" s="37" t="s">
         <v>416</v>
       </c>
@@ -19253,8 +19317,8 @@
       <c r="C120" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D120" s="102"/>
-      <c r="E120" s="102"/>
+      <c r="D120" s="103"/>
+      <c r="E120" s="103"/>
       <c r="F120" s="37" t="s">
         <v>417</v>
       </c>
@@ -19278,8 +19342,8 @@
       <c r="C121" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D121" s="102"/>
-      <c r="E121" s="102"/>
+      <c r="D121" s="103"/>
+      <c r="E121" s="103"/>
       <c r="F121" s="37" t="s">
         <v>418</v>
       </c>
@@ -19303,8 +19367,8 @@
       <c r="C122" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D122" s="102"/>
-      <c r="E122" s="102"/>
+      <c r="D122" s="103"/>
+      <c r="E122" s="103"/>
       <c r="F122" s="37" t="s">
         <v>419</v>
       </c>
@@ -19328,8 +19392,8 @@
       <c r="C123" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D123" s="102"/>
-      <c r="E123" s="102"/>
+      <c r="D123" s="103"/>
+      <c r="E123" s="103"/>
       <c r="F123" s="37" t="s">
         <v>420</v>
       </c>
@@ -19353,8 +19417,8 @@
       <c r="C124" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D124" s="102"/>
-      <c r="E124" s="102"/>
+      <c r="D124" s="103"/>
+      <c r="E124" s="103"/>
       <c r="F124" s="37" t="s">
         <v>421</v>
       </c>
@@ -19378,8 +19442,8 @@
       <c r="C125" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D125" s="103"/>
-      <c r="E125" s="103"/>
+      <c r="D125" s="104"/>
+      <c r="E125" s="104"/>
       <c r="F125" s="37" t="s">
         <v>422</v>
       </c>
@@ -19403,15 +19467,15 @@
         <v>55</v>
       </c>
       <c r="C126" s="24" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="D126" s="95" t="s">
-        <v>519</v>
-      </c>
-      <c r="E126" s="94" t="s">
-        <v>520</v>
-      </c>
-      <c r="F126" s="37" t="s">
+        <v>512</v>
+      </c>
+      <c r="E126" s="98" t="s">
+        <v>232</v>
+      </c>
+      <c r="F126" s="31" t="s">
         <v>521</v>
       </c>
       <c r="G126" s="93">
@@ -19421,10 +19485,10 @@
         <v>227</v>
       </c>
       <c r="I126" s="32" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="J126" s="17" t="s">
-        <v>510</v>
+        <v>144</v>
       </c>
       <c r="K126" s="17"/>
     </row>
@@ -19451,7 +19515,7 @@
         <v>44439</v>
       </c>
       <c r="H127" s="12" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="I127" s="32"/>
       <c r="J127" s="17" t="s">
@@ -19490,7 +19554,7 @@
       </c>
       <c r="K128" s="17"/>
     </row>
-    <row r="129" spans="1:11" ht="45">
+    <row r="129" spans="1:11" ht="60">
       <c r="A129" s="12">
         <v>125</v>
       </c>
@@ -19516,10 +19580,10 @@
         <v>227</v>
       </c>
       <c r="I129" s="32" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="J129" s="17" t="s">
-        <v>510</v>
+        <v>144</v>
       </c>
       <c r="K129" s="17"/>
     </row>
@@ -19533,13 +19597,13 @@
       <c r="C130" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D130" s="101" t="s">
+      <c r="D130" s="102" t="s">
         <v>491</v>
       </c>
-      <c r="E130" s="104" t="s">
+      <c r="E130" s="108" t="s">
         <v>489</v>
       </c>
-      <c r="F130" s="101" t="s">
+      <c r="F130" s="102" t="s">
         <v>492</v>
       </c>
       <c r="G130" s="93">
@@ -19562,9 +19626,9 @@
       <c r="C131" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D131" s="102"/>
-      <c r="E131" s="105"/>
-      <c r="F131" s="102"/>
+      <c r="D131" s="103"/>
+      <c r="E131" s="109"/>
+      <c r="F131" s="103"/>
       <c r="G131" s="93">
         <v>44439</v>
       </c>
@@ -19585,9 +19649,9 @@
       <c r="C132" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D132" s="102"/>
-      <c r="E132" s="105"/>
-      <c r="F132" s="102"/>
+      <c r="D132" s="103"/>
+      <c r="E132" s="109"/>
+      <c r="F132" s="103"/>
       <c r="G132" s="93">
         <v>44439</v>
       </c>
@@ -19608,9 +19672,9 @@
       <c r="C133" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D133" s="102"/>
-      <c r="E133" s="105"/>
-      <c r="F133" s="102"/>
+      <c r="D133" s="103"/>
+      <c r="E133" s="109"/>
+      <c r="F133" s="103"/>
       <c r="G133" s="93">
         <v>44439</v>
       </c>
@@ -19631,9 +19695,9 @@
       <c r="C134" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D134" s="102"/>
-      <c r="E134" s="105"/>
-      <c r="F134" s="102"/>
+      <c r="D134" s="103"/>
+      <c r="E134" s="109"/>
+      <c r="F134" s="103"/>
       <c r="G134" s="93">
         <v>44439</v>
       </c>
@@ -19654,9 +19718,9 @@
       <c r="C135" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D135" s="102"/>
-      <c r="E135" s="105"/>
-      <c r="F135" s="102"/>
+      <c r="D135" s="103"/>
+      <c r="E135" s="109"/>
+      <c r="F135" s="103"/>
       <c r="G135" s="93">
         <v>44439</v>
       </c>
@@ -19677,9 +19741,9 @@
       <c r="C136" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D136" s="102"/>
-      <c r="E136" s="105"/>
-      <c r="F136" s="102"/>
+      <c r="D136" s="103"/>
+      <c r="E136" s="109"/>
+      <c r="F136" s="103"/>
       <c r="G136" s="93">
         <v>44439</v>
       </c>
@@ -19700,9 +19764,9 @@
       <c r="C137" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D137" s="102"/>
-      <c r="E137" s="105"/>
-      <c r="F137" s="102"/>
+      <c r="D137" s="103"/>
+      <c r="E137" s="109"/>
+      <c r="F137" s="103"/>
       <c r="G137" s="93">
         <v>44439</v>
       </c>
@@ -19723,9 +19787,9 @@
       <c r="C138" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D138" s="102"/>
-      <c r="E138" s="105"/>
-      <c r="F138" s="102"/>
+      <c r="D138" s="103"/>
+      <c r="E138" s="109"/>
+      <c r="F138" s="103"/>
       <c r="G138" s="93">
         <v>44439</v>
       </c>
@@ -19746,9 +19810,9 @@
       <c r="C139" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D139" s="102"/>
-      <c r="E139" s="105"/>
-      <c r="F139" s="102"/>
+      <c r="D139" s="103"/>
+      <c r="E139" s="109"/>
+      <c r="F139" s="103"/>
       <c r="G139" s="93">
         <v>44439</v>
       </c>
@@ -19769,9 +19833,9 @@
       <c r="C140" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D140" s="102"/>
-      <c r="E140" s="105"/>
-      <c r="F140" s="102"/>
+      <c r="D140" s="103"/>
+      <c r="E140" s="109"/>
+      <c r="F140" s="103"/>
       <c r="G140" s="93">
         <v>44439</v>
       </c>
@@ -19792,9 +19856,9 @@
       <c r="C141" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D141" s="103"/>
-      <c r="E141" s="106"/>
-      <c r="F141" s="103"/>
+      <c r="D141" s="104"/>
+      <c r="E141" s="110"/>
+      <c r="F141" s="104"/>
       <c r="G141" s="93">
         <v>44439</v>
       </c>
@@ -19879,10 +19943,10 @@
       <c r="C144" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="D144" s="101" t="s">
+      <c r="D144" s="102" t="s">
         <v>384</v>
       </c>
-      <c r="E144" s="101" t="s">
+      <c r="E144" s="102" t="s">
         <v>383</v>
       </c>
       <c r="F144" s="37" t="s">
@@ -19908,8 +19972,8 @@
       <c r="C145" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="D145" s="103"/>
-      <c r="E145" s="103"/>
+      <c r="D145" s="104"/>
+      <c r="E145" s="104"/>
       <c r="F145" s="37" t="s">
         <v>386</v>
       </c>
@@ -19956,7 +20020,7 @@
       </c>
       <c r="K146" s="17"/>
     </row>
-    <row r="147" spans="1:11" ht="45">
+    <row r="147" spans="1:11" ht="60">
       <c r="A147" s="12">
         <v>143</v>
       </c>
@@ -19982,10 +20046,10 @@
         <v>227</v>
       </c>
       <c r="I147" s="32" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="J147" s="17" t="s">
-        <v>510</v>
+        <v>144</v>
       </c>
       <c r="K147" s="17"/>
     </row>
@@ -20262,10 +20326,10 @@
       <c r="C157" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D157" s="101" t="s">
+      <c r="D157" s="102" t="s">
         <v>423</v>
       </c>
-      <c r="E157" s="101" t="s">
+      <c r="E157" s="102" t="s">
         <v>424</v>
       </c>
       <c r="F157" s="31" t="s">
@@ -20291,8 +20355,8 @@
       <c r="C158" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D158" s="102"/>
-      <c r="E158" s="102"/>
+      <c r="D158" s="103"/>
+      <c r="E158" s="103"/>
       <c r="F158" s="31" t="s">
         <v>310</v>
       </c>
@@ -20316,8 +20380,8 @@
       <c r="C159" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D159" s="102"/>
-      <c r="E159" s="102"/>
+      <c r="D159" s="103"/>
+      <c r="E159" s="103"/>
       <c r="F159" s="31" t="s">
         <v>309</v>
       </c>
@@ -20341,8 +20405,8 @@
       <c r="C160" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D160" s="102"/>
-      <c r="E160" s="102"/>
+      <c r="D160" s="103"/>
+      <c r="E160" s="103"/>
       <c r="F160" s="31" t="s">
         <v>308</v>
       </c>
@@ -20366,8 +20430,8 @@
       <c r="C161" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D161" s="102"/>
-      <c r="E161" s="102"/>
+      <c r="D161" s="103"/>
+      <c r="E161" s="103"/>
       <c r="F161" s="31" t="s">
         <v>311</v>
       </c>
@@ -20391,8 +20455,8 @@
       <c r="C162" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D162" s="102"/>
-      <c r="E162" s="102"/>
+      <c r="D162" s="103"/>
+      <c r="E162" s="103"/>
       <c r="F162" s="31" t="s">
         <v>312</v>
       </c>
@@ -20416,8 +20480,8 @@
       <c r="C163" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D163" s="102"/>
-      <c r="E163" s="102"/>
+      <c r="D163" s="103"/>
+      <c r="E163" s="103"/>
       <c r="F163" s="31" t="s">
         <v>319</v>
       </c>
@@ -20441,8 +20505,8 @@
       <c r="C164" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D164" s="102"/>
-      <c r="E164" s="102"/>
+      <c r="D164" s="103"/>
+      <c r="E164" s="103"/>
       <c r="F164" s="31" t="s">
         <v>314</v>
       </c>
@@ -20466,8 +20530,8 @@
       <c r="C165" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D165" s="102"/>
-      <c r="E165" s="102"/>
+      <c r="D165" s="103"/>
+      <c r="E165" s="103"/>
       <c r="F165" s="31" t="s">
         <v>315</v>
       </c>
@@ -20491,8 +20555,8 @@
       <c r="C166" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D166" s="102"/>
-      <c r="E166" s="102"/>
+      <c r="D166" s="103"/>
+      <c r="E166" s="103"/>
       <c r="F166" s="31" t="s">
         <v>316</v>
       </c>
@@ -20516,8 +20580,8 @@
       <c r="C167" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D167" s="102"/>
-      <c r="E167" s="102"/>
+      <c r="D167" s="103"/>
+      <c r="E167" s="103"/>
       <c r="F167" s="31" t="s">
         <v>317</v>
       </c>
@@ -20541,8 +20605,8 @@
       <c r="C168" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D168" s="103"/>
-      <c r="E168" s="103"/>
+      <c r="D168" s="104"/>
+      <c r="E168" s="104"/>
       <c r="F168" s="31" t="s">
         <v>318</v>
       </c>
@@ -20566,16 +20630,16 @@
         <v>55</v>
       </c>
       <c r="C169" s="24" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="D169" s="94" t="s">
         <v>423</v>
       </c>
-      <c r="E169" s="95" t="s">
-        <v>524</v>
-      </c>
-      <c r="F169" s="91" t="s">
-        <v>525</v>
+      <c r="E169" s="98" t="s">
+        <v>232</v>
+      </c>
+      <c r="F169" s="31" t="s">
+        <v>523</v>
       </c>
       <c r="G169" s="93">
         <v>44445</v>
@@ -20584,10 +20648,10 @@
         <v>227</v>
       </c>
       <c r="I169" s="32" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="J169" s="17" t="s">
-        <v>510</v>
+        <v>144</v>
       </c>
       <c r="K169" s="17"/>
     </row>
@@ -20601,13 +20665,13 @@
       <c r="C170" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D170" s="101" t="s">
+      <c r="D170" s="102" t="s">
         <v>426</v>
       </c>
       <c r="E170" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="F170" s="101" t="s">
+      <c r="F170" s="102" t="s">
         <v>425</v>
       </c>
       <c r="G170" s="93">
@@ -20630,11 +20694,11 @@
       <c r="C171" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D171" s="102"/>
+      <c r="D171" s="103"/>
       <c r="E171" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="F171" s="102"/>
+      <c r="F171" s="103"/>
       <c r="G171" s="93">
         <v>44440</v>
       </c>
@@ -20655,11 +20719,11 @@
       <c r="C172" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D172" s="102"/>
+      <c r="D172" s="103"/>
       <c r="E172" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="F172" s="102"/>
+      <c r="F172" s="103"/>
       <c r="G172" s="93">
         <v>44440</v>
       </c>
@@ -20680,11 +20744,11 @@
       <c r="C173" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D173" s="102"/>
+      <c r="D173" s="103"/>
       <c r="E173" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="F173" s="102"/>
+      <c r="F173" s="103"/>
       <c r="G173" s="93">
         <v>44440</v>
       </c>
@@ -20705,11 +20769,11 @@
       <c r="C174" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D174" s="102"/>
+      <c r="D174" s="103"/>
       <c r="E174" s="31" t="s">
         <v>326</v>
       </c>
-      <c r="F174" s="102"/>
+      <c r="F174" s="103"/>
       <c r="G174" s="93">
         <v>44440</v>
       </c>
@@ -20730,11 +20794,11 @@
       <c r="C175" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D175" s="102"/>
+      <c r="D175" s="103"/>
       <c r="E175" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="F175" s="102"/>
+      <c r="F175" s="103"/>
       <c r="G175" s="93">
         <v>44445</v>
       </c>
@@ -20742,7 +20806,7 @@
         <v>227</v>
       </c>
       <c r="I175" s="32" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="J175" s="17" t="s">
         <v>510</v>
@@ -20757,11 +20821,11 @@
       <c r="C176" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D176" s="102"/>
+      <c r="D176" s="103"/>
       <c r="E176" s="31" t="s">
         <v>346</v>
       </c>
-      <c r="F176" s="102"/>
+      <c r="F176" s="103"/>
       <c r="G176" s="93">
         <v>44440</v>
       </c>
@@ -20782,11 +20846,11 @@
       <c r="C177" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D177" s="102"/>
+      <c r="D177" s="103"/>
       <c r="E177" s="31" t="s">
         <v>327</v>
       </c>
-      <c r="F177" s="102"/>
+      <c r="F177" s="103"/>
       <c r="G177" s="93">
         <v>44440</v>
       </c>
@@ -20807,11 +20871,11 @@
       <c r="C178" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D178" s="102"/>
+      <c r="D178" s="103"/>
       <c r="E178" s="31" t="s">
         <v>322</v>
       </c>
-      <c r="F178" s="102"/>
+      <c r="F178" s="103"/>
       <c r="G178" s="93">
         <v>44440</v>
       </c>
@@ -20832,11 +20896,11 @@
       <c r="C179" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D179" s="102"/>
+      <c r="D179" s="103"/>
       <c r="E179" s="31" t="s">
         <v>328</v>
       </c>
-      <c r="F179" s="102"/>
+      <c r="F179" s="103"/>
       <c r="G179" s="93">
         <v>44440</v>
       </c>
@@ -20857,11 +20921,11 @@
       <c r="C180" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D180" s="102"/>
+      <c r="D180" s="103"/>
       <c r="E180" s="31" t="s">
         <v>329</v>
       </c>
-      <c r="F180" s="102"/>
+      <c r="F180" s="103"/>
       <c r="G180" s="93">
         <v>44440</v>
       </c>
@@ -20882,11 +20946,11 @@
       <c r="C181" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D181" s="103"/>
+      <c r="D181" s="104"/>
       <c r="E181" s="31" t="s">
         <v>321</v>
       </c>
-      <c r="F181" s="103"/>
+      <c r="F181" s="104"/>
       <c r="G181" s="93">
         <v>44440</v>
       </c>
@@ -20909,7 +20973,7 @@
       <c r="C182" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D182" s="101" t="s">
+      <c r="D182" s="102" t="s">
         <v>427</v>
       </c>
       <c r="E182" s="31" t="s">
@@ -20938,7 +21002,7 @@
       <c r="C183" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D183" s="102"/>
+      <c r="D183" s="103"/>
       <c r="E183" s="31" t="s">
         <v>332</v>
       </c>
@@ -20965,7 +21029,7 @@
       <c r="C184" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D184" s="102"/>
+      <c r="D184" s="103"/>
       <c r="E184" s="31" t="s">
         <v>333</v>
       </c>
@@ -20992,7 +21056,7 @@
       <c r="C185" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D185" s="102"/>
+      <c r="D185" s="103"/>
       <c r="E185" s="31" t="s">
         <v>334</v>
       </c>
@@ -21019,7 +21083,7 @@
       <c r="C186" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D186" s="102"/>
+      <c r="D186" s="103"/>
       <c r="E186" s="31" t="s">
         <v>335</v>
       </c>
@@ -21046,7 +21110,7 @@
       <c r="C187" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D187" s="102"/>
+      <c r="D187" s="103"/>
       <c r="E187" s="31" t="s">
         <v>340</v>
       </c>
@@ -21060,7 +21124,7 @@
         <v>227</v>
       </c>
       <c r="I187" s="32" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="J187" s="17" t="s">
         <v>510</v>
@@ -21075,7 +21139,7 @@
       <c r="C188" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D188" s="102"/>
+      <c r="D188" s="103"/>
       <c r="E188" s="31" t="s">
         <v>336</v>
       </c>
@@ -21102,7 +21166,7 @@
       <c r="C189" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D189" s="102"/>
+      <c r="D189" s="103"/>
       <c r="E189" s="31" t="s">
         <v>337</v>
       </c>
@@ -21129,7 +21193,7 @@
       <c r="C190" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D190" s="102"/>
+      <c r="D190" s="103"/>
       <c r="E190" s="31" t="s">
         <v>338</v>
       </c>
@@ -21156,7 +21220,7 @@
       <c r="C191" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D191" s="103"/>
+      <c r="D191" s="104"/>
       <c r="E191" s="31" t="s">
         <v>339</v>
       </c>
@@ -21185,10 +21249,10 @@
       <c r="C192" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D192" s="101" t="s">
+      <c r="D192" s="102" t="s">
         <v>429</v>
       </c>
-      <c r="E192" s="101" t="s">
+      <c r="E192" s="102" t="s">
         <v>428</v>
       </c>
       <c r="F192" s="32" t="s">
@@ -21214,8 +21278,8 @@
       <c r="C193" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D193" s="102"/>
-      <c r="E193" s="102"/>
+      <c r="D193" s="103"/>
+      <c r="E193" s="103"/>
       <c r="F193" s="32" t="s">
         <v>109</v>
       </c>
@@ -21239,8 +21303,8 @@
       <c r="C194" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D194" s="102"/>
-      <c r="E194" s="102"/>
+      <c r="D194" s="103"/>
+      <c r="E194" s="103"/>
       <c r="F194" s="32" t="s">
         <v>112</v>
       </c>
@@ -21264,8 +21328,8 @@
       <c r="C195" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D195" s="102"/>
-      <c r="E195" s="102"/>
+      <c r="D195" s="103"/>
+      <c r="E195" s="103"/>
       <c r="F195" s="32" t="s">
         <v>113</v>
       </c>
@@ -21289,8 +21353,8 @@
       <c r="C196" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D196" s="102"/>
-      <c r="E196" s="102"/>
+      <c r="D196" s="103"/>
+      <c r="E196" s="103"/>
       <c r="F196" s="32" t="s">
         <v>114</v>
       </c>
@@ -21306,7 +21370,7 @@
       </c>
       <c r="K196" s="17"/>
     </row>
-    <row r="197" spans="1:11" ht="60">
+    <row r="197" spans="1:11" ht="75">
       <c r="A197" s="12">
         <v>193</v>
       </c>
@@ -21314,8 +21378,8 @@
       <c r="C197" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D197" s="102"/>
-      <c r="E197" s="102"/>
+      <c r="D197" s="103"/>
+      <c r="E197" s="103"/>
       <c r="F197" s="32" t="s">
         <v>111</v>
       </c>
@@ -21326,10 +21390,10 @@
         <v>227</v>
       </c>
       <c r="I197" s="32" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="J197" s="17" t="s">
-        <v>510</v>
+        <v>144</v>
       </c>
       <c r="K197" s="17"/>
     </row>
@@ -21341,8 +21405,8 @@
       <c r="C198" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D198" s="102"/>
-      <c r="E198" s="102"/>
+      <c r="D198" s="103"/>
+      <c r="E198" s="103"/>
       <c r="F198" s="32" t="s">
         <v>115</v>
       </c>
@@ -21366,8 +21430,8 @@
       <c r="C199" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D199" s="102"/>
-      <c r="E199" s="102"/>
+      <c r="D199" s="103"/>
+      <c r="E199" s="103"/>
       <c r="F199" s="32" t="s">
         <v>430</v>
       </c>
@@ -21391,8 +21455,8 @@
       <c r="C200" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D200" s="102"/>
-      <c r="E200" s="102"/>
+      <c r="D200" s="103"/>
+      <c r="E200" s="103"/>
       <c r="F200" s="32" t="s">
         <v>431</v>
       </c>
@@ -21416,8 +21480,8 @@
       <c r="C201" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D201" s="102"/>
-      <c r="E201" s="102"/>
+      <c r="D201" s="103"/>
+      <c r="E201" s="103"/>
       <c r="F201" s="32" t="s">
         <v>432</v>
       </c>
@@ -21441,8 +21505,8 @@
       <c r="C202" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D202" s="102"/>
-      <c r="E202" s="102"/>
+      <c r="D202" s="103"/>
+      <c r="E202" s="103"/>
       <c r="F202" s="32" t="s">
         <v>433</v>
       </c>
@@ -21466,8 +21530,8 @@
       <c r="C203" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D203" s="103"/>
-      <c r="E203" s="103"/>
+      <c r="D203" s="104"/>
+      <c r="E203" s="104"/>
       <c r="F203" s="32" t="s">
         <v>116</v>
       </c>
@@ -21483,7 +21547,7 @@
       </c>
       <c r="K203" s="17"/>
     </row>
-    <row r="204" spans="1:11" ht="45">
+    <row r="204" spans="1:11" ht="60">
       <c r="A204" s="12">
         <v>200</v>
       </c>
@@ -21509,10 +21573,10 @@
         <v>227</v>
       </c>
       <c r="I204" s="32" t="s">
-        <v>512</v>
+        <v>530</v>
       </c>
       <c r="J204" s="17" t="s">
-        <v>510</v>
+        <v>144</v>
       </c>
       <c r="K204" s="17"/>
     </row>
@@ -21526,13 +21590,13 @@
       <c r="C205" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D205" s="101" t="s">
+      <c r="D205" s="102" t="s">
         <v>434</v>
       </c>
-      <c r="E205" s="101" t="s">
+      <c r="E205" s="102" t="s">
         <v>435</v>
       </c>
-      <c r="F205" s="121" t="s">
+      <c r="F205" s="118" t="s">
         <v>438</v>
       </c>
       <c r="G205" s="93">
@@ -21555,9 +21619,9 @@
       <c r="C206" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D206" s="102"/>
-      <c r="E206" s="102"/>
-      <c r="F206" s="122"/>
+      <c r="D206" s="103"/>
+      <c r="E206" s="103"/>
+      <c r="F206" s="119"/>
       <c r="G206" s="93">
         <v>44440</v>
       </c>
@@ -21578,9 +21642,9 @@
       <c r="C207" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D207" s="102"/>
-      <c r="E207" s="102"/>
-      <c r="F207" s="122"/>
+      <c r="D207" s="103"/>
+      <c r="E207" s="103"/>
+      <c r="F207" s="119"/>
       <c r="G207" s="93">
         <v>44440</v>
       </c>
@@ -21601,9 +21665,9 @@
       <c r="C208" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D208" s="102"/>
-      <c r="E208" s="102"/>
-      <c r="F208" s="122"/>
+      <c r="D208" s="103"/>
+      <c r="E208" s="103"/>
+      <c r="F208" s="119"/>
       <c r="G208" s="93">
         <v>44440</v>
       </c>
@@ -21624,9 +21688,9 @@
       <c r="C209" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D209" s="102"/>
-      <c r="E209" s="102"/>
-      <c r="F209" s="122"/>
+      <c r="D209" s="103"/>
+      <c r="E209" s="103"/>
+      <c r="F209" s="119"/>
       <c r="G209" s="93">
         <v>44440</v>
       </c>
@@ -21647,9 +21711,9 @@
       <c r="C210" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D210" s="102"/>
-      <c r="E210" s="102"/>
-      <c r="F210" s="123"/>
+      <c r="D210" s="103"/>
+      <c r="E210" s="103"/>
+      <c r="F210" s="120"/>
       <c r="G210" s="93">
         <v>44440</v>
       </c>
@@ -21670,8 +21734,8 @@
       <c r="C211" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D211" s="102"/>
-      <c r="E211" s="102"/>
+      <c r="D211" s="103"/>
+      <c r="E211" s="103"/>
       <c r="F211" s="32" t="s">
         <v>439</v>
       </c>
@@ -21695,8 +21759,8 @@
       <c r="C212" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D212" s="102"/>
-      <c r="E212" s="102"/>
+      <c r="D212" s="103"/>
+      <c r="E212" s="103"/>
       <c r="F212" s="32" t="s">
         <v>437</v>
       </c>
@@ -21720,8 +21784,8 @@
       <c r="C213" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D213" s="102"/>
-      <c r="E213" s="102"/>
+      <c r="D213" s="103"/>
+      <c r="E213" s="103"/>
       <c r="F213" s="32" t="s">
         <v>441</v>
       </c>
@@ -21745,9 +21809,9 @@
       <c r="C214" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D214" s="102"/>
-      <c r="E214" s="102"/>
-      <c r="F214" s="121" t="s">
+      <c r="D214" s="103"/>
+      <c r="E214" s="103"/>
+      <c r="F214" s="118" t="s">
         <v>437</v>
       </c>
       <c r="G214" s="93">
@@ -21770,9 +21834,9 @@
       <c r="C215" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D215" s="102"/>
-      <c r="E215" s="102"/>
-      <c r="F215" s="123"/>
+      <c r="D215" s="103"/>
+      <c r="E215" s="103"/>
+      <c r="F215" s="120"/>
       <c r="G215" s="93">
         <v>44440</v>
       </c>
@@ -21793,8 +21857,8 @@
       <c r="C216" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D216" s="103"/>
-      <c r="E216" s="103"/>
+      <c r="D216" s="104"/>
+      <c r="E216" s="104"/>
       <c r="F216" s="32" t="s">
         <v>440</v>
       </c>
@@ -21880,10 +21944,10 @@
       <c r="C219" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D219" s="101" t="s">
+      <c r="D219" s="102" t="s">
         <v>448</v>
       </c>
-      <c r="E219" s="101" t="s">
+      <c r="E219" s="102" t="s">
         <v>449</v>
       </c>
       <c r="F219" s="32" t="s">
@@ -21909,8 +21973,8 @@
       <c r="C220" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D220" s="102"/>
-      <c r="E220" s="102"/>
+      <c r="D220" s="103"/>
+      <c r="E220" s="103"/>
       <c r="F220" s="32" t="s">
         <v>476</v>
       </c>
@@ -21934,8 +21998,8 @@
       <c r="C221" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D221" s="102"/>
-      <c r="E221" s="102"/>
+      <c r="D221" s="103"/>
+      <c r="E221" s="103"/>
       <c r="F221" s="32" t="s">
         <v>477</v>
       </c>
@@ -21959,8 +22023,8 @@
       <c r="C222" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D222" s="102"/>
-      <c r="E222" s="102"/>
+      <c r="D222" s="103"/>
+      <c r="E222" s="103"/>
       <c r="F222" s="32" t="s">
         <v>478</v>
       </c>
@@ -21984,8 +22048,8 @@
       <c r="C223" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D223" s="102"/>
-      <c r="E223" s="102"/>
+      <c r="D223" s="103"/>
+      <c r="E223" s="103"/>
       <c r="F223" s="32" t="s">
         <v>479</v>
       </c>
@@ -22009,8 +22073,8 @@
       <c r="C224" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D224" s="102"/>
-      <c r="E224" s="102"/>
+      <c r="D224" s="103"/>
+      <c r="E224" s="103"/>
       <c r="F224" s="32" t="s">
         <v>480</v>
       </c>
@@ -22021,7 +22085,7 @@
         <v>227</v>
       </c>
       <c r="I224" s="32" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="J224" s="17" t="s">
         <v>510</v>
@@ -22036,8 +22100,8 @@
       <c r="C225" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D225" s="102"/>
-      <c r="E225" s="102"/>
+      <c r="D225" s="103"/>
+      <c r="E225" s="103"/>
       <c r="F225" s="32" t="s">
         <v>481</v>
       </c>
@@ -22061,8 +22125,8 @@
       <c r="C226" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D226" s="102"/>
-      <c r="E226" s="102"/>
+      <c r="D226" s="103"/>
+      <c r="E226" s="103"/>
       <c r="F226" s="32" t="s">
         <v>482</v>
       </c>
@@ -22086,8 +22150,8 @@
       <c r="C227" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D227" s="102"/>
-      <c r="E227" s="102"/>
+      <c r="D227" s="103"/>
+      <c r="E227" s="103"/>
       <c r="F227" s="32" t="s">
         <v>483</v>
       </c>
@@ -22111,8 +22175,8 @@
       <c r="C228" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D228" s="102"/>
-      <c r="E228" s="102"/>
+      <c r="D228" s="103"/>
+      <c r="E228" s="103"/>
       <c r="F228" s="32" t="s">
         <v>484</v>
       </c>
@@ -22136,8 +22200,8 @@
       <c r="C229" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D229" s="102"/>
-      <c r="E229" s="102"/>
+      <c r="D229" s="103"/>
+      <c r="E229" s="103"/>
       <c r="F229" s="32" t="s">
         <v>485</v>
       </c>
@@ -22161,8 +22225,8 @@
       <c r="C230" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D230" s="102"/>
-      <c r="E230" s="102"/>
+      <c r="D230" s="103"/>
+      <c r="E230" s="103"/>
       <c r="F230" s="32" t="s">
         <v>474</v>
       </c>
@@ -22186,8 +22250,8 @@
       <c r="C231" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="D231" s="102"/>
-      <c r="E231" s="102"/>
+      <c r="D231" s="103"/>
+      <c r="E231" s="103"/>
       <c r="F231" s="31" t="s">
         <v>486</v>
       </c>
@@ -22211,8 +22275,8 @@
       <c r="C232" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="D232" s="103"/>
-      <c r="E232" s="103"/>
+      <c r="D232" s="104"/>
+      <c r="E232" s="104"/>
       <c r="F232" s="31" t="s">
         <v>487</v>
       </c>
@@ -22228,7 +22292,7 @@
       </c>
       <c r="K232" s="17"/>
     </row>
-    <row r="233" spans="1:11" ht="45">
+    <row r="233" spans="1:11" ht="60">
       <c r="A233" s="12">
         <v>229</v>
       </c>
@@ -22254,10 +22318,10 @@
         <v>227</v>
       </c>
       <c r="I233" s="32" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="J233" s="17" t="s">
-        <v>510</v>
+        <v>144</v>
       </c>
       <c r="K233" s="17"/>
     </row>
@@ -22521,10 +22585,10 @@
         <v>227</v>
       </c>
       <c r="I242" s="32" t="s">
-        <v>513</v>
+        <v>534</v>
       </c>
       <c r="J242" s="17" t="s">
-        <v>510</v>
+        <v>144</v>
       </c>
       <c r="K242" s="17"/>
     </row>
@@ -24132,19 +24196,21 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="F205:F210"/>
-    <mergeCell ref="F214:F215"/>
-    <mergeCell ref="D219:D232"/>
-    <mergeCell ref="E219:E232"/>
-    <mergeCell ref="E192:E203"/>
-    <mergeCell ref="D192:D203"/>
-    <mergeCell ref="D205:D216"/>
-    <mergeCell ref="E205:E216"/>
-    <mergeCell ref="D157:D168"/>
-    <mergeCell ref="E157:E168"/>
-    <mergeCell ref="D170:D181"/>
-    <mergeCell ref="F170:F181"/>
-    <mergeCell ref="D182:D191"/>
+    <mergeCell ref="F130:F141"/>
+    <mergeCell ref="D144:D145"/>
+    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="D114:D125"/>
+    <mergeCell ref="E114:E125"/>
+    <mergeCell ref="D130:D141"/>
+    <mergeCell ref="E130:E141"/>
+    <mergeCell ref="D98:D108"/>
+    <mergeCell ref="E98:E108"/>
+    <mergeCell ref="D79:D94"/>
+    <mergeCell ref="D42:D53"/>
+    <mergeCell ref="E42:E53"/>
+    <mergeCell ref="E66:E77"/>
+    <mergeCell ref="E79:E94"/>
+    <mergeCell ref="D66:D77"/>
     <mergeCell ref="F66:F77"/>
     <mergeCell ref="D54:D65"/>
     <mergeCell ref="E54:E65"/>
@@ -24159,21 +24225,19 @@
     <mergeCell ref="D20:D31"/>
     <mergeCell ref="D32:D41"/>
     <mergeCell ref="F42:F53"/>
-    <mergeCell ref="D98:D108"/>
-    <mergeCell ref="E98:E108"/>
-    <mergeCell ref="D79:D94"/>
-    <mergeCell ref="D42:D53"/>
-    <mergeCell ref="E42:E53"/>
-    <mergeCell ref="E66:E77"/>
-    <mergeCell ref="E79:E94"/>
-    <mergeCell ref="D66:D77"/>
-    <mergeCell ref="F130:F141"/>
-    <mergeCell ref="D144:D145"/>
-    <mergeCell ref="E144:E145"/>
-    <mergeCell ref="D114:D125"/>
-    <mergeCell ref="E114:E125"/>
-    <mergeCell ref="D130:D141"/>
-    <mergeCell ref="E130:E141"/>
+    <mergeCell ref="D157:D168"/>
+    <mergeCell ref="E157:E168"/>
+    <mergeCell ref="D170:D181"/>
+    <mergeCell ref="F170:F181"/>
+    <mergeCell ref="D182:D191"/>
+    <mergeCell ref="F205:F210"/>
+    <mergeCell ref="F214:F215"/>
+    <mergeCell ref="D219:D232"/>
+    <mergeCell ref="E219:E232"/>
+    <mergeCell ref="E192:E203"/>
+    <mergeCell ref="D192:D203"/>
+    <mergeCell ref="D205:D216"/>
+    <mergeCell ref="E205:E216"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/testcase_account_ver3.xlsx
+++ b/testcase_account_ver3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\7-Programming-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4012347-CE87-4C20-9C92-D1821F746630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FE3079-FD02-41D3-8A09-F5E07C5F719F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="888" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9792,93 +9792,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>9/6：チェックを入れない状態でも、テキストボックスに入力を行うと次の画面へ遷移してしまう。</t>
-    <rPh sb="9" eb="10">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>9/6：チェックを入れていない状態でテキストボックスに入力されている状態だと、エラー動作の内容が飛ばされてしまうため、修正必要。</t>
-    <rPh sb="9" eb="10">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="59" eb="63">
-      <t>シュウセイヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>9/6：パスワードを更新しない場合でも現在は空白のままハッシュ化されている状態のため、更新しない状態を維持することが必要。</t>
-    <rPh sb="10" eb="12">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>クウハク</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>イジ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>アカウント削除画面</t>
     <rPh sb="5" eb="7">
       <t>サクジョ</t>
@@ -10262,6 +10175,144 @@
     </rPh>
     <rPh sb="37" eb="40">
       <t>ヘンコウズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9/6：チェックを入れない状態でも、テキストボックスに入力を行うと次の画面へ遷移してしまう。
+9/17：チェックボックスにチェックを入れるとテキストボックスが表示されるようになるのと、チェックを入れていない状態で次の画面に行けてしまった場合にエラー表示になるよう変更済み。</t>
+    <rPh sb="9" eb="10">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="131" eb="134">
+      <t>ヘンコウズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9/6：チェックを入れていない状態でテキストボックスに入力されている状態だと、エラー動作の内容が飛ばされてしまうため、修正必要。
+9/17：チェックボックスにチェックを入れるとテキストボックスが表示されるようになるのと、チェックを入れていない状態で次の画面に行けてしまった場合にエラー表示になるよう変更済み。</t>
+    <rPh sb="9" eb="10">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="59" eb="63">
+      <t>シュウセイヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9/6：パスワードを更新しない場合でも現在は空白のままハッシュ化されている状態のため、更新しない状態を維持することが必要。
+9/17：DB登録時に更新しない場合の登録方法を変更し確認済み。</t>
+    <rPh sb="10" eb="12">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>イジ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="69" eb="72">
+      <t>トウロクジ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="81" eb="85">
+      <t>トウロクホウホウ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="89" eb="92">
+      <t>カクニンズ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -10927,15 +10978,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10965,6 +11007,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -10974,12 +11037,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -10988,12 +11045,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -11368,12 +11419,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
       <c r="E1" s="53" t="s">
         <v>2</v>
       </c>
@@ -11396,10 +11447,10 @@
       <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A2" s="113"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
       <c r="E2" s="53" t="s">
         <v>3</v>
       </c>
@@ -11713,7 +11764,7 @@
       <c r="F12" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="108" t="s">
+      <c r="G12" s="105" t="s">
         <v>107</v>
       </c>
       <c r="H12" s="68">
@@ -11743,7 +11794,7 @@
       <c r="F13" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="109"/>
+      <c r="G13" s="106"/>
       <c r="H13" s="60">
         <v>44354</v>
       </c>
@@ -11771,7 +11822,7 @@
       <c r="F14" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="109"/>
+      <c r="G14" s="106"/>
       <c r="H14" s="60">
         <v>44354</v>
       </c>
@@ -11799,7 +11850,7 @@
       <c r="F15" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="109"/>
+      <c r="G15" s="106"/>
       <c r="H15" s="68">
         <v>44354</v>
       </c>
@@ -11827,7 +11878,7 @@
       <c r="F16" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="109"/>
+      <c r="G16" s="106"/>
       <c r="H16" s="60">
         <v>44354</v>
       </c>
@@ -11855,7 +11906,7 @@
       <c r="F17" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="109"/>
+      <c r="G17" s="106"/>
       <c r="H17" s="60">
         <v>44354</v>
       </c>
@@ -11883,7 +11934,7 @@
       <c r="F18" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="109"/>
+      <c r="G18" s="106"/>
       <c r="H18" s="68">
         <v>44354</v>
       </c>
@@ -11911,7 +11962,7 @@
       <c r="F19" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="109"/>
+      <c r="G19" s="106"/>
       <c r="H19" s="60">
         <v>44354</v>
       </c>
@@ -11939,7 +11990,7 @@
       <c r="F20" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="109"/>
+      <c r="G20" s="106"/>
       <c r="H20" s="60">
         <v>44354</v>
       </c>
@@ -11967,7 +12018,7 @@
       <c r="F21" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="109"/>
+      <c r="G21" s="106"/>
       <c r="H21" s="68">
         <v>44354</v>
       </c>
@@ -11995,7 +12046,7 @@
       <c r="F22" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="109"/>
+      <c r="G22" s="106"/>
       <c r="H22" s="60">
         <v>44354</v>
       </c>
@@ -12023,7 +12074,7 @@
       <c r="F23" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="110"/>
+      <c r="G23" s="107"/>
       <c r="H23" s="60">
         <v>44354</v>
       </c>
@@ -13035,7 +13086,7 @@
         <v>6</v>
       </c>
       <c r="J56" s="30" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="K56" s="39" t="s">
         <v>144</v>
@@ -13058,7 +13109,7 @@
       <c r="E57" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F57" s="108" t="s">
+      <c r="F57" s="105" t="s">
         <v>232</v>
       </c>
       <c r="G57" s="32" t="s">
@@ -13090,7 +13141,7 @@
       <c r="E58" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F58" s="109"/>
+      <c r="F58" s="106"/>
       <c r="G58" s="32" t="s">
         <v>233</v>
       </c>
@@ -13117,10 +13168,10 @@
       <c r="D59" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="E59" s="115" t="s">
+      <c r="E59" s="112" t="s">
         <v>55</v>
       </c>
-      <c r="F59" s="109"/>
+      <c r="F59" s="106"/>
       <c r="G59" s="37" t="s">
         <v>260</v>
       </c>
@@ -13145,8 +13196,8 @@
       <c r="D60" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E60" s="116"/>
-      <c r="F60" s="109"/>
+      <c r="E60" s="113"/>
+      <c r="F60" s="106"/>
       <c r="G60" s="37" t="s">
         <v>261</v>
       </c>
@@ -13171,8 +13222,8 @@
       <c r="D61" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E61" s="116"/>
-      <c r="F61" s="109"/>
+      <c r="E61" s="113"/>
+      <c r="F61" s="106"/>
       <c r="G61" s="37" t="s">
         <v>262</v>
       </c>
@@ -13197,8 +13248,8 @@
       <c r="D62" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E62" s="116"/>
-      <c r="F62" s="109"/>
+      <c r="E62" s="113"/>
+      <c r="F62" s="106"/>
       <c r="G62" s="37" t="s">
         <v>263</v>
       </c>
@@ -13223,8 +13274,8 @@
       <c r="D63" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E63" s="116"/>
-      <c r="F63" s="109"/>
+      <c r="E63" s="113"/>
+      <c r="F63" s="106"/>
       <c r="G63" s="37" t="s">
         <v>264</v>
       </c>
@@ -13249,8 +13300,8 @@
       <c r="D64" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E64" s="116"/>
-      <c r="F64" s="109"/>
+      <c r="E64" s="113"/>
+      <c r="F64" s="106"/>
       <c r="G64" s="37" t="s">
         <v>265</v>
       </c>
@@ -13275,8 +13326,8 @@
       <c r="D65" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E65" s="116"/>
-      <c r="F65" s="109"/>
+      <c r="E65" s="113"/>
+      <c r="F65" s="106"/>
       <c r="G65" s="31" t="s">
         <v>272</v>
       </c>
@@ -13301,8 +13352,8 @@
       <c r="D66" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E66" s="116"/>
-      <c r="F66" s="109"/>
+      <c r="E66" s="113"/>
+      <c r="F66" s="106"/>
       <c r="G66" s="31" t="s">
         <v>273</v>
       </c>
@@ -13327,8 +13378,8 @@
       <c r="D67" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="E67" s="116"/>
-      <c r="F67" s="109"/>
+      <c r="E67" s="113"/>
+      <c r="F67" s="106"/>
       <c r="G67" s="31" t="s">
         <v>274</v>
       </c>
@@ -13353,8 +13404,8 @@
       <c r="D68" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="E68" s="116"/>
-      <c r="F68" s="109"/>
+      <c r="E68" s="113"/>
+      <c r="F68" s="106"/>
       <c r="G68" s="31" t="s">
         <v>275</v>
       </c>
@@ -13379,8 +13430,8 @@
       <c r="D69" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="E69" s="116"/>
-      <c r="F69" s="109"/>
+      <c r="E69" s="113"/>
+      <c r="F69" s="106"/>
       <c r="G69" s="31" t="s">
         <v>275</v>
       </c>
@@ -13405,8 +13456,8 @@
       <c r="D70" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="E70" s="116"/>
-      <c r="F70" s="109"/>
+      <c r="E70" s="113"/>
+      <c r="F70" s="106"/>
       <c r="G70" s="31" t="s">
         <v>270</v>
       </c>
@@ -13431,8 +13482,8 @@
       <c r="D71" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="E71" s="117"/>
-      <c r="F71" s="110"/>
+      <c r="E71" s="114"/>
+      <c r="F71" s="107"/>
       <c r="G71" s="31" t="s">
         <v>271</v>
       </c>
@@ -13835,7 +13886,7 @@
         <v>81</v>
       </c>
       <c r="B86" s="48" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C86" s="25"/>
       <c r="D86" s="24" t="s">
@@ -13848,7 +13899,7 @@
         <v>232</v>
       </c>
       <c r="G86" s="31" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="H86" s="68">
         <v>44447</v>
@@ -13857,7 +13908,7 @@
         <v>6</v>
       </c>
       <c r="J86" s="30" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="K86" s="39" t="s">
         <v>144</v>
@@ -13992,7 +14043,7 @@
       <c r="E91" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="F91" s="108" t="s">
+      <c r="F91" s="105" t="s">
         <v>300</v>
       </c>
       <c r="G91" s="30" t="s">
@@ -14022,7 +14073,7 @@
         <v>136</v>
       </c>
       <c r="E92" s="100"/>
-      <c r="F92" s="109"/>
+      <c r="F92" s="106"/>
       <c r="G92" s="32" t="s">
         <v>298</v>
       </c>
@@ -14048,7 +14099,7 @@
         <v>132</v>
       </c>
       <c r="E93" s="101"/>
-      <c r="F93" s="109"/>
+      <c r="F93" s="106"/>
       <c r="G93" s="32" t="s">
         <v>302</v>
       </c>
@@ -14080,7 +14131,7 @@
       <c r="E94" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F94" s="109"/>
+      <c r="F94" s="106"/>
       <c r="G94" s="32" t="s">
         <v>354</v>
       </c>
@@ -14108,7 +14159,7 @@
       <c r="E95" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F95" s="110"/>
+      <c r="F95" s="107"/>
       <c r="G95" s="32" t="s">
         <v>355</v>
       </c>
@@ -14151,7 +14202,7 @@
         <v>6</v>
       </c>
       <c r="J96" s="30" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="K96" s="39" t="s">
         <v>144</v>
@@ -14558,7 +14609,7 @@
         <v>232</v>
       </c>
       <c r="G111" s="91" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="H111" s="68">
         <v>44447</v>
@@ -14567,7 +14618,7 @@
         <v>6</v>
       </c>
       <c r="J111" s="30" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="K111" s="39" t="s">
         <v>144</v>
@@ -14591,7 +14642,7 @@
       <c r="F112" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="G112" s="108" t="s">
+      <c r="G112" s="105" t="s">
         <v>107</v>
       </c>
       <c r="H112" s="68">
@@ -14621,7 +14672,7 @@
       <c r="F113" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="G113" s="109"/>
+      <c r="G113" s="106"/>
       <c r="H113" s="68">
         <v>44435</v>
       </c>
@@ -14649,7 +14700,7 @@
       <c r="F114" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="G114" s="109"/>
+      <c r="G114" s="106"/>
       <c r="H114" s="68">
         <v>44435</v>
       </c>
@@ -14677,7 +14728,7 @@
       <c r="F115" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="G115" s="109"/>
+      <c r="G115" s="106"/>
       <c r="H115" s="68">
         <v>44435</v>
       </c>
@@ -14705,7 +14756,7 @@
       <c r="F116" s="31" t="s">
         <v>326</v>
       </c>
-      <c r="G116" s="109"/>
+      <c r="G116" s="106"/>
       <c r="H116" s="68">
         <v>44435</v>
       </c>
@@ -14733,7 +14784,7 @@
       <c r="F117" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="G117" s="109"/>
+      <c r="G117" s="106"/>
       <c r="H117" s="68">
         <v>44447</v>
       </c>
@@ -14741,7 +14792,7 @@
         <v>6</v>
       </c>
       <c r="J117" s="30" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="K117" s="39" t="s">
         <v>510</v>
@@ -14763,7 +14814,7 @@
       <c r="F118" s="31" t="s">
         <v>346</v>
       </c>
-      <c r="G118" s="109"/>
+      <c r="G118" s="106"/>
       <c r="H118" s="68">
         <v>44435</v>
       </c>
@@ -14791,7 +14842,7 @@
       <c r="F119" s="31" t="s">
         <v>327</v>
       </c>
-      <c r="G119" s="109"/>
+      <c r="G119" s="106"/>
       <c r="H119" s="68">
         <v>44435</v>
       </c>
@@ -14819,7 +14870,7 @@
       <c r="F120" s="31" t="s">
         <v>322</v>
       </c>
-      <c r="G120" s="109"/>
+      <c r="G120" s="106"/>
       <c r="H120" s="68">
         <v>44435</v>
       </c>
@@ -14847,7 +14898,7 @@
       <c r="F121" s="31" t="s">
         <v>328</v>
       </c>
-      <c r="G121" s="109"/>
+      <c r="G121" s="106"/>
       <c r="H121" s="68">
         <v>44435</v>
       </c>
@@ -14875,7 +14926,7 @@
       <c r="F122" s="31" t="s">
         <v>329</v>
       </c>
-      <c r="G122" s="109"/>
+      <c r="G122" s="106"/>
       <c r="H122" s="68">
         <v>44435</v>
       </c>
@@ -14903,7 +14954,7 @@
       <c r="F123" s="31" t="s">
         <v>321</v>
       </c>
-      <c r="G123" s="110"/>
+      <c r="G123" s="107"/>
       <c r="H123" s="68">
         <v>44435</v>
       </c>
@@ -15093,7 +15144,7 @@
         <v>6</v>
       </c>
       <c r="J129" s="30" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="K129" s="39" t="s">
         <v>510</v>
@@ -15417,7 +15468,7 @@
         <v>6</v>
       </c>
       <c r="J140" s="30" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="K140" s="39" t="s">
         <v>144</v>
@@ -15751,13 +15802,13 @@
       <c r="D152" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E152" s="105" t="s">
+      <c r="E152" s="115" t="s">
         <v>55</v>
       </c>
       <c r="F152" s="102" t="s">
         <v>357</v>
       </c>
-      <c r="G152" s="108" t="s">
+      <c r="G152" s="105" t="s">
         <v>358</v>
       </c>
       <c r="H152" s="68">
@@ -15781,9 +15832,9 @@
       <c r="D153" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E153" s="106"/>
+      <c r="E153" s="116"/>
       <c r="F153" s="103"/>
-      <c r="G153" s="109"/>
+      <c r="G153" s="106"/>
       <c r="H153" s="68">
         <v>44435</v>
       </c>
@@ -15805,9 +15856,9 @@
       <c r="D154" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E154" s="106"/>
+      <c r="E154" s="116"/>
       <c r="F154" s="103"/>
-      <c r="G154" s="109"/>
+      <c r="G154" s="106"/>
       <c r="H154" s="68">
         <v>44435</v>
       </c>
@@ -15829,9 +15880,9 @@
       <c r="D155" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E155" s="106"/>
+      <c r="E155" s="116"/>
       <c r="F155" s="103"/>
-      <c r="G155" s="109"/>
+      <c r="G155" s="106"/>
       <c r="H155" s="68">
         <v>44435</v>
       </c>
@@ -15853,9 +15904,9 @@
       <c r="D156" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E156" s="106"/>
+      <c r="E156" s="116"/>
       <c r="F156" s="103"/>
-      <c r="G156" s="109"/>
+      <c r="G156" s="106"/>
       <c r="H156" s="68">
         <v>44435</v>
       </c>
@@ -15877,9 +15928,9 @@
       <c r="D157" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E157" s="106"/>
+      <c r="E157" s="116"/>
       <c r="F157" s="103"/>
-      <c r="G157" s="109"/>
+      <c r="G157" s="106"/>
       <c r="H157" s="68">
         <v>44447</v>
       </c>
@@ -15887,7 +15938,7 @@
         <v>6</v>
       </c>
       <c r="J157" s="30" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K157" s="39" t="s">
         <v>510</v>
@@ -15903,9 +15954,9 @@
       <c r="D158" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E158" s="106"/>
+      <c r="E158" s="116"/>
       <c r="F158" s="103"/>
-      <c r="G158" s="109"/>
+      <c r="G158" s="106"/>
       <c r="H158" s="68">
         <v>44435</v>
       </c>
@@ -15927,9 +15978,9 @@
       <c r="D159" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E159" s="106"/>
+      <c r="E159" s="116"/>
       <c r="F159" s="103"/>
-      <c r="G159" s="109"/>
+      <c r="G159" s="106"/>
       <c r="H159" s="68">
         <v>44435</v>
       </c>
@@ -15951,9 +16002,9 @@
       <c r="D160" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E160" s="106"/>
+      <c r="E160" s="116"/>
       <c r="F160" s="103"/>
-      <c r="G160" s="109"/>
+      <c r="G160" s="106"/>
       <c r="H160" s="68">
         <v>44435</v>
       </c>
@@ -15975,9 +16026,9 @@
       <c r="D161" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E161" s="106"/>
+      <c r="E161" s="116"/>
       <c r="F161" s="103"/>
-      <c r="G161" s="109"/>
+      <c r="G161" s="106"/>
       <c r="H161" s="68">
         <v>44435</v>
       </c>
@@ -15999,9 +16050,9 @@
       <c r="D162" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E162" s="106"/>
+      <c r="E162" s="116"/>
       <c r="F162" s="103"/>
-      <c r="G162" s="109"/>
+      <c r="G162" s="106"/>
       <c r="H162" s="68">
         <v>44435</v>
       </c>
@@ -16023,9 +16074,9 @@
       <c r="D163" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="E163" s="106"/>
+      <c r="E163" s="116"/>
       <c r="F163" s="103"/>
-      <c r="G163" s="110"/>
+      <c r="G163" s="107"/>
       <c r="H163" s="68">
         <v>44435</v>
       </c>
@@ -16047,7 +16098,7 @@
       <c r="D164" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="E164" s="106"/>
+      <c r="E164" s="116"/>
       <c r="F164" s="103"/>
       <c r="G164" s="31" t="s">
         <v>359</v>
@@ -16073,7 +16124,7 @@
       <c r="D165" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="E165" s="107"/>
+      <c r="E165" s="117"/>
       <c r="F165" s="104"/>
       <c r="G165" s="31" t="s">
         <v>360</v>
@@ -16117,7 +16168,7 @@
         <v>6</v>
       </c>
       <c r="J166" s="30" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="K166" s="39" t="s">
         <v>144</v>
@@ -16252,18 +16303,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="E73:E84"/>
-    <mergeCell ref="F73:F84"/>
-    <mergeCell ref="E87:E90"/>
-    <mergeCell ref="F87:F90"/>
-    <mergeCell ref="E91:E93"/>
-    <mergeCell ref="F91:F95"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="G12:G23"/>
-    <mergeCell ref="G38:G42"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="E59:E71"/>
-    <mergeCell ref="F57:F71"/>
     <mergeCell ref="E98:E109"/>
     <mergeCell ref="F98:F109"/>
     <mergeCell ref="E152:E165"/>
@@ -16272,6 +16311,18 @@
     <mergeCell ref="G112:G123"/>
     <mergeCell ref="F134:F148"/>
     <mergeCell ref="F149:F151"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="G12:G23"/>
+    <mergeCell ref="G38:G42"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="E59:E71"/>
+    <mergeCell ref="F57:F71"/>
+    <mergeCell ref="E73:E84"/>
+    <mergeCell ref="F73:F84"/>
+    <mergeCell ref="E87:E90"/>
+    <mergeCell ref="F87:F90"/>
+    <mergeCell ref="E91:E93"/>
+    <mergeCell ref="F91:F95"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -16284,8 +16335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9E524B-C67B-4990-A5C3-077E8DAB7E38}">
   <dimension ref="A1:L364"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A193" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J243" sqref="J243"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A238" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J225" sqref="J225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -16305,11 +16356,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="108" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="121"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="120"/>
       <c r="D1" s="53" t="s">
         <v>2</v>
       </c>
@@ -16332,9 +16383,9 @@
       <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A2" s="113"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="122"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="121"/>
       <c r="D2" s="53" t="s">
         <v>3</v>
       </c>
@@ -16502,13 +16553,13 @@
       <c r="C8" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="108" t="s">
+      <c r="D8" s="105" t="s">
         <v>204</v>
       </c>
       <c r="E8" s="80" t="s">
         <v>161</v>
       </c>
-      <c r="F8" s="108" t="s">
+      <c r="F8" s="105" t="s">
         <v>202</v>
       </c>
       <c r="G8" s="60">
@@ -16528,11 +16579,11 @@
       <c r="C9" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="109"/>
+      <c r="D9" s="106"/>
       <c r="E9" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="F9" s="109"/>
+      <c r="F9" s="106"/>
       <c r="G9" s="60">
         <v>44369</v>
       </c>
@@ -16550,11 +16601,11 @@
       <c r="C10" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="109"/>
+      <c r="D10" s="106"/>
       <c r="E10" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="109"/>
+      <c r="F10" s="106"/>
       <c r="G10" s="60">
         <v>44369</v>
       </c>
@@ -16572,11 +16623,11 @@
       <c r="C11" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="109"/>
+      <c r="D11" s="106"/>
       <c r="E11" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="109"/>
+      <c r="F11" s="106"/>
       <c r="G11" s="60">
         <v>44369</v>
       </c>
@@ -16594,11 +16645,11 @@
       <c r="C12" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="109"/>
+      <c r="D12" s="106"/>
       <c r="E12" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="109"/>
+      <c r="F12" s="106"/>
       <c r="G12" s="60">
         <v>44369</v>
       </c>
@@ -16616,11 +16667,11 @@
       <c r="C13" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="109"/>
+      <c r="D13" s="106"/>
       <c r="E13" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="109"/>
+      <c r="F13" s="106"/>
       <c r="G13" s="60">
         <v>44369</v>
       </c>
@@ -16638,11 +16689,11 @@
       <c r="C14" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="109"/>
+      <c r="D14" s="106"/>
       <c r="E14" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="109"/>
+      <c r="F14" s="106"/>
       <c r="G14" s="60">
         <v>44369</v>
       </c>
@@ -16660,11 +16711,11 @@
       <c r="C15" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="109"/>
+      <c r="D15" s="106"/>
       <c r="E15" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="109"/>
+      <c r="F15" s="106"/>
       <c r="G15" s="60">
         <v>44369</v>
       </c>
@@ -16682,11 +16733,11 @@
       <c r="C16" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="109"/>
+      <c r="D16" s="106"/>
       <c r="E16" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="109"/>
+      <c r="F16" s="106"/>
       <c r="G16" s="60">
         <v>44369</v>
       </c>
@@ -16704,11 +16755,11 @@
       <c r="C17" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="109"/>
+      <c r="D17" s="106"/>
       <c r="E17" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="109"/>
+      <c r="F17" s="106"/>
       <c r="G17" s="60">
         <v>44369</v>
       </c>
@@ -16726,11 +16777,11 @@
       <c r="C18" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="109"/>
+      <c r="D18" s="106"/>
       <c r="E18" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="109"/>
+      <c r="F18" s="106"/>
       <c r="G18" s="60">
         <v>44369</v>
       </c>
@@ -16748,11 +16799,11 @@
       <c r="C19" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="110"/>
+      <c r="D19" s="107"/>
       <c r="E19" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="110"/>
+      <c r="F19" s="107"/>
       <c r="G19" s="60">
         <v>44369</v>
       </c>
@@ -16773,13 +16824,13 @@
       <c r="C20" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="108" t="s">
+      <c r="D20" s="105" t="s">
         <v>203</v>
       </c>
-      <c r="E20" s="123" t="s">
+      <c r="E20" s="125" t="s">
         <v>201</v>
       </c>
-      <c r="F20" s="108" t="s">
+      <c r="F20" s="105" t="s">
         <v>188</v>
       </c>
       <c r="G20" s="60">
@@ -16802,9 +16853,9 @@
       <c r="C21" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="109"/>
-      <c r="E21" s="124"/>
-      <c r="F21" s="109"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="106"/>
       <c r="G21" s="60">
         <v>44369</v>
       </c>
@@ -16825,9 +16876,9 @@
       <c r="C22" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="109"/>
-      <c r="E22" s="124"/>
-      <c r="F22" s="109"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="106"/>
       <c r="G22" s="60">
         <v>44369</v>
       </c>
@@ -16848,9 +16899,9 @@
       <c r="C23" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="109"/>
-      <c r="E23" s="124"/>
-      <c r="F23" s="109"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="126"/>
+      <c r="F23" s="106"/>
       <c r="G23" s="60">
         <v>44369</v>
       </c>
@@ -16871,9 +16922,9 @@
       <c r="C24" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="109"/>
-      <c r="E24" s="124"/>
-      <c r="F24" s="110"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="126"/>
+      <c r="F24" s="107"/>
       <c r="G24" s="60">
         <v>44369</v>
       </c>
@@ -16894,8 +16945,8 @@
       <c r="C25" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="109"/>
-      <c r="E25" s="124"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="126"/>
       <c r="F25" s="31" t="s">
         <v>186</v>
       </c>
@@ -16919,9 +16970,9 @@
       <c r="C26" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="109"/>
-      <c r="E26" s="124"/>
-      <c r="F26" s="108" t="s">
+      <c r="D26" s="106"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="105" t="s">
         <v>187</v>
       </c>
       <c r="G26" s="60">
@@ -16944,9 +16995,9 @@
       <c r="C27" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="109"/>
-      <c r="E27" s="124"/>
-      <c r="F27" s="109"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="106"/>
       <c r="G27" s="60">
         <v>44369</v>
       </c>
@@ -16967,9 +17018,9 @@
       <c r="C28" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="109"/>
-      <c r="E28" s="124"/>
-      <c r="F28" s="109"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="126"/>
+      <c r="F28" s="106"/>
       <c r="G28" s="60">
         <v>44369</v>
       </c>
@@ -16990,9 +17041,9 @@
       <c r="C29" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="109"/>
-      <c r="E29" s="124"/>
-      <c r="F29" s="109"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="106"/>
       <c r="G29" s="60">
         <v>44369</v>
       </c>
@@ -17013,9 +17064,9 @@
       <c r="C30" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="109"/>
-      <c r="E30" s="124"/>
-      <c r="F30" s="109"/>
+      <c r="D30" s="106"/>
+      <c r="E30" s="126"/>
+      <c r="F30" s="106"/>
       <c r="G30" s="60">
         <v>44369</v>
       </c>
@@ -17036,9 +17087,9 @@
       <c r="C31" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="110"/>
-      <c r="E31" s="125"/>
-      <c r="F31" s="110"/>
+      <c r="D31" s="107"/>
+      <c r="E31" s="127"/>
+      <c r="F31" s="107"/>
       <c r="G31" s="60">
         <v>44369</v>
       </c>
@@ -17061,7 +17112,7 @@
       <c r="C32" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="108" t="s">
+      <c r="D32" s="105" t="s">
         <v>219</v>
       </c>
       <c r="E32" s="31" t="s">
@@ -17090,7 +17141,7 @@
       <c r="C33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="109"/>
+      <c r="D33" s="106"/>
       <c r="E33" s="31" t="s">
         <v>168</v>
       </c>
@@ -17117,7 +17168,7 @@
       <c r="C34" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="109"/>
+      <c r="D34" s="106"/>
       <c r="E34" s="31" t="s">
         <v>169</v>
       </c>
@@ -17144,7 +17195,7 @@
       <c r="C35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="109"/>
+      <c r="D35" s="106"/>
       <c r="E35" s="31" t="s">
         <v>169</v>
       </c>
@@ -17171,7 +17222,7 @@
       <c r="C36" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="109"/>
+      <c r="D36" s="106"/>
       <c r="E36" s="31" t="s">
         <v>170</v>
       </c>
@@ -17198,7 +17249,7 @@
       <c r="C37" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="109"/>
+      <c r="D37" s="106"/>
       <c r="E37" s="31" t="s">
         <v>171</v>
       </c>
@@ -17225,7 +17276,7 @@
       <c r="C38" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="109"/>
+      <c r="D38" s="106"/>
       <c r="E38" s="31" t="s">
         <v>172</v>
       </c>
@@ -17252,7 +17303,7 @@
       <c r="C39" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="109"/>
+      <c r="D39" s="106"/>
       <c r="E39" s="31" t="s">
         <v>173</v>
       </c>
@@ -17279,7 +17330,7 @@
       <c r="C40" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="109"/>
+      <c r="D40" s="106"/>
       <c r="E40" s="31" t="s">
         <v>174</v>
       </c>
@@ -17306,7 +17357,7 @@
       <c r="C41" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="110"/>
+      <c r="D41" s="107"/>
       <c r="E41" s="31" t="s">
         <v>175</v>
       </c>
@@ -17335,7 +17386,7 @@
       <c r="C42" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="108" t="s">
+      <c r="D42" s="105" t="s">
         <v>207</v>
       </c>
       <c r="E42" s="102" t="s">
@@ -17364,7 +17415,7 @@
       <c r="C43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="106"/>
+      <c r="D43" s="116"/>
       <c r="E43" s="103"/>
       <c r="F43" s="103"/>
       <c r="G43" s="60">
@@ -17387,7 +17438,7 @@
       <c r="C44" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="106"/>
+      <c r="D44" s="116"/>
       <c r="E44" s="103"/>
       <c r="F44" s="103"/>
       <c r="G44" s="60">
@@ -17410,7 +17461,7 @@
       <c r="C45" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="106"/>
+      <c r="D45" s="116"/>
       <c r="E45" s="103"/>
       <c r="F45" s="103"/>
       <c r="G45" s="60">
@@ -17433,7 +17484,7 @@
       <c r="C46" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="106"/>
+      <c r="D46" s="116"/>
       <c r="E46" s="103"/>
       <c r="F46" s="103"/>
       <c r="G46" s="60">
@@ -17456,7 +17507,7 @@
       <c r="C47" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="106"/>
+      <c r="D47" s="116"/>
       <c r="E47" s="103"/>
       <c r="F47" s="103"/>
       <c r="G47" s="60">
@@ -17479,7 +17530,7 @@
       <c r="C48" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="106"/>
+      <c r="D48" s="116"/>
       <c r="E48" s="103"/>
       <c r="F48" s="103"/>
       <c r="G48" s="60">
@@ -17502,7 +17553,7 @@
       <c r="C49" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D49" s="106"/>
+      <c r="D49" s="116"/>
       <c r="E49" s="103"/>
       <c r="F49" s="103"/>
       <c r="G49" s="60">
@@ -17525,7 +17576,7 @@
       <c r="C50" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="106"/>
+      <c r="D50" s="116"/>
       <c r="E50" s="103"/>
       <c r="F50" s="103"/>
       <c r="G50" s="60">
@@ -17548,7 +17599,7 @@
       <c r="C51" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D51" s="106"/>
+      <c r="D51" s="116"/>
       <c r="E51" s="103"/>
       <c r="F51" s="103"/>
       <c r="G51" s="60">
@@ -17571,7 +17622,7 @@
       <c r="C52" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="106"/>
+      <c r="D52" s="116"/>
       <c r="E52" s="103"/>
       <c r="F52" s="103"/>
       <c r="G52" s="60">
@@ -17594,7 +17645,7 @@
       <c r="C53" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="107"/>
+      <c r="D53" s="117"/>
       <c r="E53" s="104"/>
       <c r="F53" s="104"/>
       <c r="G53" s="60">
@@ -17619,13 +17670,13 @@
       <c r="C54" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="108" t="s">
+      <c r="D54" s="105" t="s">
         <v>205</v>
       </c>
       <c r="E54" s="102" t="s">
         <v>223</v>
       </c>
-      <c r="F54" s="118" t="s">
+      <c r="F54" s="122" t="s">
         <v>178</v>
       </c>
       <c r="G54" s="60">
@@ -17648,9 +17699,9 @@
       <c r="C55" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="106"/>
+      <c r="D55" s="116"/>
       <c r="E55" s="103"/>
-      <c r="F55" s="119"/>
+      <c r="F55" s="123"/>
       <c r="G55" s="60">
         <v>44369</v>
       </c>
@@ -17671,9 +17722,9 @@
       <c r="C56" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="106"/>
+      <c r="D56" s="116"/>
       <c r="E56" s="103"/>
-      <c r="F56" s="119"/>
+      <c r="F56" s="123"/>
       <c r="G56" s="60">
         <v>44369</v>
       </c>
@@ -17694,9 +17745,9 @@
       <c r="C57" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="106"/>
+      <c r="D57" s="116"/>
       <c r="E57" s="103"/>
-      <c r="F57" s="119"/>
+      <c r="F57" s="123"/>
       <c r="G57" s="60">
         <v>44369</v>
       </c>
@@ -17717,9 +17768,9 @@
       <c r="C58" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="106"/>
+      <c r="D58" s="116"/>
       <c r="E58" s="103"/>
-      <c r="F58" s="119"/>
+      <c r="F58" s="123"/>
       <c r="G58" s="60">
         <v>44369</v>
       </c>
@@ -17740,9 +17791,9 @@
       <c r="C59" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D59" s="106"/>
+      <c r="D59" s="116"/>
       <c r="E59" s="103"/>
-      <c r="F59" s="120"/>
+      <c r="F59" s="124"/>
       <c r="G59" s="60">
         <v>44369</v>
       </c>
@@ -17763,7 +17814,7 @@
       <c r="C60" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="106"/>
+      <c r="D60" s="116"/>
       <c r="E60" s="103"/>
       <c r="F60" s="32" t="s">
         <v>179</v>
@@ -17788,7 +17839,7 @@
       <c r="C61" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="106"/>
+      <c r="D61" s="116"/>
       <c r="E61" s="103"/>
       <c r="F61" s="32" t="s">
         <v>182</v>
@@ -17813,7 +17864,7 @@
       <c r="C62" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D62" s="106"/>
+      <c r="D62" s="116"/>
       <c r="E62" s="103"/>
       <c r="F62" s="32" t="s">
         <v>181</v>
@@ -17838,9 +17889,9 @@
       <c r="C63" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D63" s="106"/>
+      <c r="D63" s="116"/>
       <c r="E63" s="103"/>
-      <c r="F63" s="118" t="s">
+      <c r="F63" s="122" t="s">
         <v>182</v>
       </c>
       <c r="G63" s="60">
@@ -17863,9 +17914,9 @@
       <c r="C64" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D64" s="106"/>
+      <c r="D64" s="116"/>
       <c r="E64" s="103"/>
-      <c r="F64" s="120"/>
+      <c r="F64" s="124"/>
       <c r="G64" s="60">
         <v>44369</v>
       </c>
@@ -17886,7 +17937,7 @@
       <c r="C65" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D65" s="107"/>
+      <c r="D65" s="117"/>
       <c r="E65" s="104"/>
       <c r="F65" s="32" t="s">
         <v>180</v>
@@ -17913,10 +17964,10 @@
       <c r="C66" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="108" t="s">
+      <c r="D66" s="105" t="s">
         <v>221</v>
       </c>
-      <c r="E66" s="108" t="s">
+      <c r="E66" s="105" t="s">
         <v>163</v>
       </c>
       <c r="F66" s="102" t="s">
@@ -17942,8 +17993,8 @@
       <c r="C67" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="106"/>
-      <c r="E67" s="109"/>
+      <c r="D67" s="116"/>
+      <c r="E67" s="106"/>
       <c r="F67" s="103"/>
       <c r="G67" s="60">
         <v>44369</v>
@@ -17965,8 +18016,8 @@
       <c r="C68" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D68" s="106"/>
-      <c r="E68" s="109"/>
+      <c r="D68" s="116"/>
+      <c r="E68" s="106"/>
       <c r="F68" s="103"/>
       <c r="G68" s="60">
         <v>44369</v>
@@ -17988,8 +18039,8 @@
       <c r="C69" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D69" s="106"/>
-      <c r="E69" s="109"/>
+      <c r="D69" s="116"/>
+      <c r="E69" s="106"/>
       <c r="F69" s="103"/>
       <c r="G69" s="60">
         <v>44369</v>
@@ -18011,8 +18062,8 @@
       <c r="C70" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="106"/>
-      <c r="E70" s="109"/>
+      <c r="D70" s="116"/>
+      <c r="E70" s="106"/>
       <c r="F70" s="103"/>
       <c r="G70" s="60">
         <v>44369</v>
@@ -18034,8 +18085,8 @@
       <c r="C71" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D71" s="106"/>
-      <c r="E71" s="109"/>
+      <c r="D71" s="116"/>
+      <c r="E71" s="106"/>
       <c r="F71" s="103"/>
       <c r="G71" s="60">
         <v>44369</v>
@@ -18057,8 +18108,8 @@
       <c r="C72" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="106"/>
-      <c r="E72" s="109"/>
+      <c r="D72" s="116"/>
+      <c r="E72" s="106"/>
       <c r="F72" s="103"/>
       <c r="G72" s="60">
         <v>44369</v>
@@ -18080,8 +18131,8 @@
       <c r="C73" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="106"/>
-      <c r="E73" s="109"/>
+      <c r="D73" s="116"/>
+      <c r="E73" s="106"/>
       <c r="F73" s="103"/>
       <c r="G73" s="60">
         <v>44369</v>
@@ -18103,8 +18154,8 @@
       <c r="C74" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D74" s="106"/>
-      <c r="E74" s="109"/>
+      <c r="D74" s="116"/>
+      <c r="E74" s="106"/>
       <c r="F74" s="103"/>
       <c r="G74" s="60">
         <v>44369</v>
@@ -18126,8 +18177,8 @@
       <c r="C75" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="106"/>
-      <c r="E75" s="109"/>
+      <c r="D75" s="116"/>
+      <c r="E75" s="106"/>
       <c r="F75" s="103"/>
       <c r="G75" s="60">
         <v>44369</v>
@@ -18149,8 +18200,8 @@
       <c r="C76" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D76" s="106"/>
-      <c r="E76" s="109"/>
+      <c r="D76" s="116"/>
+      <c r="E76" s="106"/>
       <c r="F76" s="103"/>
       <c r="G76" s="60">
         <v>44369</v>
@@ -18172,8 +18223,8 @@
       <c r="C77" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D77" s="107"/>
-      <c r="E77" s="110"/>
+      <c r="D77" s="117"/>
+      <c r="E77" s="107"/>
       <c r="F77" s="104"/>
       <c r="G77" s="60">
         <v>44369</v>
@@ -18213,7 +18264,7 @@
         <v>227</v>
       </c>
       <c r="I78" s="30" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="J78" s="39" t="s">
         <v>144</v>
@@ -18230,10 +18281,10 @@
       <c r="C79" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="D79" s="108" t="s">
+      <c r="D79" s="105" t="s">
         <v>222</v>
       </c>
-      <c r="E79" s="108" t="s">
+      <c r="E79" s="105" t="s">
         <v>237</v>
       </c>
       <c r="F79" s="32" t="s">
@@ -18259,8 +18310,8 @@
       <c r="C80" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D80" s="109"/>
-      <c r="E80" s="109"/>
+      <c r="D80" s="106"/>
+      <c r="E80" s="106"/>
       <c r="F80" s="32" t="s">
         <v>191</v>
       </c>
@@ -18284,8 +18335,8 @@
       <c r="C81" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D81" s="109"/>
-      <c r="E81" s="109"/>
+      <c r="D81" s="106"/>
+      <c r="E81" s="106"/>
       <c r="F81" s="32" t="s">
         <v>208</v>
       </c>
@@ -18309,8 +18360,8 @@
       <c r="C82" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D82" s="109"/>
-      <c r="E82" s="109"/>
+      <c r="D82" s="106"/>
+      <c r="E82" s="106"/>
       <c r="F82" s="32" t="s">
         <v>209</v>
       </c>
@@ -18334,8 +18385,8 @@
       <c r="C83" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D83" s="109"/>
-      <c r="E83" s="109"/>
+      <c r="D83" s="106"/>
+      <c r="E83" s="106"/>
       <c r="F83" s="32" t="s">
         <v>210</v>
       </c>
@@ -18359,8 +18410,8 @@
       <c r="C84" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D84" s="109"/>
-      <c r="E84" s="109"/>
+      <c r="D84" s="106"/>
+      <c r="E84" s="106"/>
       <c r="F84" s="32" t="s">
         <v>211</v>
       </c>
@@ -18384,8 +18435,8 @@
       <c r="C85" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D85" s="109"/>
-      <c r="E85" s="109"/>
+      <c r="D85" s="106"/>
+      <c r="E85" s="106"/>
       <c r="F85" s="32" t="s">
         <v>212</v>
       </c>
@@ -18409,8 +18460,8 @@
       <c r="C86" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D86" s="109"/>
-      <c r="E86" s="109"/>
+      <c r="D86" s="106"/>
+      <c r="E86" s="106"/>
       <c r="F86" s="32" t="s">
         <v>213</v>
       </c>
@@ -18434,8 +18485,8 @@
       <c r="C87" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D87" s="109"/>
-      <c r="E87" s="109"/>
+      <c r="D87" s="106"/>
+      <c r="E87" s="106"/>
       <c r="F87" s="32" t="s">
         <v>214</v>
       </c>
@@ -18459,8 +18510,8 @@
       <c r="C88" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D88" s="109"/>
-      <c r="E88" s="109"/>
+      <c r="D88" s="106"/>
+      <c r="E88" s="106"/>
       <c r="F88" s="32" t="s">
         <v>215</v>
       </c>
@@ -18484,8 +18535,8 @@
       <c r="C89" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D89" s="109"/>
-      <c r="E89" s="109"/>
+      <c r="D89" s="106"/>
+      <c r="E89" s="106"/>
       <c r="F89" s="32" t="s">
         <v>216</v>
       </c>
@@ -18509,8 +18560,8 @@
       <c r="C90" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D90" s="109"/>
-      <c r="E90" s="109"/>
+      <c r="D90" s="106"/>
+      <c r="E90" s="106"/>
       <c r="F90" s="32" t="s">
         <v>217</v>
       </c>
@@ -18534,8 +18585,8 @@
       <c r="C91" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D91" s="109"/>
-      <c r="E91" s="109"/>
+      <c r="D91" s="106"/>
+      <c r="E91" s="106"/>
       <c r="F91" s="32" t="s">
         <v>218</v>
       </c>
@@ -18559,8 +18610,8 @@
       <c r="C92" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="D92" s="109"/>
-      <c r="E92" s="109"/>
+      <c r="D92" s="106"/>
+      <c r="E92" s="106"/>
       <c r="F92" s="31" t="s">
         <v>224</v>
       </c>
@@ -18584,8 +18635,8 @@
       <c r="C93" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="D93" s="109"/>
-      <c r="E93" s="109"/>
+      <c r="D93" s="106"/>
+      <c r="E93" s="106"/>
       <c r="F93" s="31" t="s">
         <v>225</v>
       </c>
@@ -18611,8 +18662,8 @@
       <c r="C94" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="D94" s="110"/>
-      <c r="E94" s="110"/>
+      <c r="D94" s="107"/>
+      <c r="E94" s="107"/>
       <c r="F94" s="31" t="s">
         <v>226</v>
       </c>
@@ -18760,7 +18811,7 @@
       <c r="C99" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D99" s="126"/>
+      <c r="D99" s="118"/>
       <c r="E99" s="103"/>
       <c r="F99" s="37" t="s">
         <v>261</v>
@@ -18785,7 +18836,7 @@
       <c r="C100" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D100" s="126"/>
+      <c r="D100" s="118"/>
       <c r="E100" s="103"/>
       <c r="F100" s="37" t="s">
         <v>262</v>
@@ -18810,7 +18861,7 @@
       <c r="C101" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D101" s="126"/>
+      <c r="D101" s="118"/>
       <c r="E101" s="103"/>
       <c r="F101" s="37" t="s">
         <v>263</v>
@@ -18835,7 +18886,7 @@
       <c r="C102" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D102" s="126"/>
+      <c r="D102" s="118"/>
       <c r="E102" s="103"/>
       <c r="F102" s="37" t="s">
         <v>264</v>
@@ -18860,7 +18911,7 @@
       <c r="C103" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D103" s="126"/>
+      <c r="D103" s="118"/>
       <c r="E103" s="103"/>
       <c r="F103" s="37" t="s">
         <v>265</v>
@@ -18885,7 +18936,7 @@
       <c r="C104" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D104" s="126"/>
+      <c r="D104" s="118"/>
       <c r="E104" s="103"/>
       <c r="F104" s="37" t="s">
         <v>266</v>
@@ -18910,7 +18961,7 @@
       <c r="C105" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D105" s="126"/>
+      <c r="D105" s="118"/>
       <c r="E105" s="103"/>
       <c r="F105" s="37" t="s">
         <v>267</v>
@@ -18935,7 +18986,7 @@
       <c r="C106" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="D106" s="126"/>
+      <c r="D106" s="118"/>
       <c r="E106" s="103"/>
       <c r="F106" s="37" t="s">
         <v>268</v>
@@ -18960,7 +19011,7 @@
       <c r="C107" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="D107" s="126"/>
+      <c r="D107" s="118"/>
       <c r="E107" s="103"/>
       <c r="F107" s="37" t="s">
         <v>269</v>
@@ -18985,7 +19036,7 @@
       <c r="C108" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="D108" s="127"/>
+      <c r="D108" s="119"/>
       <c r="E108" s="104"/>
       <c r="F108" s="37" t="s">
         <v>269</v>
@@ -19476,7 +19527,7 @@
         <v>232</v>
       </c>
       <c r="F126" s="31" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="G126" s="93">
         <v>44445</v>
@@ -19485,7 +19536,7 @@
         <v>227</v>
       </c>
       <c r="I126" s="32" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="J126" s="17" t="s">
         <v>144</v>
@@ -19580,7 +19631,7 @@
         <v>227</v>
       </c>
       <c r="I129" s="32" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="J129" s="17" t="s">
         <v>144</v>
@@ -19600,7 +19651,7 @@
       <c r="D130" s="102" t="s">
         <v>491</v>
       </c>
-      <c r="E130" s="108" t="s">
+      <c r="E130" s="105" t="s">
         <v>489</v>
       </c>
       <c r="F130" s="102" t="s">
@@ -19627,7 +19678,7 @@
         <v>17</v>
       </c>
       <c r="D131" s="103"/>
-      <c r="E131" s="109"/>
+      <c r="E131" s="106"/>
       <c r="F131" s="103"/>
       <c r="G131" s="93">
         <v>44439</v>
@@ -19650,7 +19701,7 @@
         <v>18</v>
       </c>
       <c r="D132" s="103"/>
-      <c r="E132" s="109"/>
+      <c r="E132" s="106"/>
       <c r="F132" s="103"/>
       <c r="G132" s="93">
         <v>44439</v>
@@ -19673,7 +19724,7 @@
         <v>19</v>
       </c>
       <c r="D133" s="103"/>
-      <c r="E133" s="109"/>
+      <c r="E133" s="106"/>
       <c r="F133" s="103"/>
       <c r="G133" s="93">
         <v>44439</v>
@@ -19696,7 +19747,7 @@
         <v>20</v>
       </c>
       <c r="D134" s="103"/>
-      <c r="E134" s="109"/>
+      <c r="E134" s="106"/>
       <c r="F134" s="103"/>
       <c r="G134" s="93">
         <v>44439</v>
@@ -19719,7 +19770,7 @@
         <v>21</v>
       </c>
       <c r="D135" s="103"/>
-      <c r="E135" s="109"/>
+      <c r="E135" s="106"/>
       <c r="F135" s="103"/>
       <c r="G135" s="93">
         <v>44439</v>
@@ -19742,7 +19793,7 @@
         <v>22</v>
       </c>
       <c r="D136" s="103"/>
-      <c r="E136" s="109"/>
+      <c r="E136" s="106"/>
       <c r="F136" s="103"/>
       <c r="G136" s="93">
         <v>44439</v>
@@ -19765,7 +19816,7 @@
         <v>23</v>
       </c>
       <c r="D137" s="103"/>
-      <c r="E137" s="109"/>
+      <c r="E137" s="106"/>
       <c r="F137" s="103"/>
       <c r="G137" s="93">
         <v>44439</v>
@@ -19788,7 +19839,7 @@
         <v>24</v>
       </c>
       <c r="D138" s="103"/>
-      <c r="E138" s="109"/>
+      <c r="E138" s="106"/>
       <c r="F138" s="103"/>
       <c r="G138" s="93">
         <v>44439</v>
@@ -19811,7 +19862,7 @@
         <v>25</v>
       </c>
       <c r="D139" s="103"/>
-      <c r="E139" s="109"/>
+      <c r="E139" s="106"/>
       <c r="F139" s="103"/>
       <c r="G139" s="93">
         <v>44439</v>
@@ -19834,7 +19885,7 @@
         <v>26</v>
       </c>
       <c r="D140" s="103"/>
-      <c r="E140" s="109"/>
+      <c r="E140" s="106"/>
       <c r="F140" s="103"/>
       <c r="G140" s="93">
         <v>44439</v>
@@ -19857,7 +19908,7 @@
         <v>27</v>
       </c>
       <c r="D141" s="104"/>
-      <c r="E141" s="110"/>
+      <c r="E141" s="107"/>
       <c r="F141" s="104"/>
       <c r="G141" s="93">
         <v>44439</v>
@@ -20046,7 +20097,7 @@
         <v>227</v>
       </c>
       <c r="I147" s="32" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="J147" s="17" t="s">
         <v>144</v>
@@ -20639,7 +20690,7 @@
         <v>232</v>
       </c>
       <c r="F169" s="31" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="G169" s="93">
         <v>44445</v>
@@ -20648,7 +20699,7 @@
         <v>227</v>
       </c>
       <c r="I169" s="32" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="J169" s="17" t="s">
         <v>144</v>
@@ -20786,7 +20837,7 @@
       </c>
       <c r="K174" s="17"/>
     </row>
-    <row r="175" spans="1:11" ht="60">
+    <row r="175" spans="1:11" ht="135">
       <c r="A175" s="12">
         <v>171</v>
       </c>
@@ -20806,10 +20857,10 @@
         <v>227</v>
       </c>
       <c r="I175" s="32" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="J175" s="17" t="s">
-        <v>510</v>
+        <v>144</v>
       </c>
       <c r="K175" s="17"/>
     </row>
@@ -21102,7 +21153,7 @@
       </c>
       <c r="K186" s="17"/>
     </row>
-    <row r="187" spans="1:11" ht="105">
+    <row r="187" spans="1:11" ht="150">
       <c r="A187" s="12">
         <v>183</v>
       </c>
@@ -21124,10 +21175,10 @@
         <v>227</v>
       </c>
       <c r="I187" s="32" t="s">
-        <v>515</v>
+        <v>533</v>
       </c>
       <c r="J187" s="17" t="s">
-        <v>510</v>
+        <v>144</v>
       </c>
       <c r="K187" s="17"/>
     </row>
@@ -21390,7 +21441,7 @@
         <v>227</v>
       </c>
       <c r="I197" s="32" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="J197" s="17" t="s">
         <v>144</v>
@@ -21573,7 +21624,7 @@
         <v>227</v>
       </c>
       <c r="I204" s="32" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="J204" s="17" t="s">
         <v>144</v>
@@ -21596,7 +21647,7 @@
       <c r="E205" s="102" t="s">
         <v>435</v>
       </c>
-      <c r="F205" s="118" t="s">
+      <c r="F205" s="122" t="s">
         <v>438</v>
       </c>
       <c r="G205" s="93">
@@ -21621,7 +21672,7 @@
       </c>
       <c r="D206" s="103"/>
       <c r="E206" s="103"/>
-      <c r="F206" s="119"/>
+      <c r="F206" s="123"/>
       <c r="G206" s="93">
         <v>44440</v>
       </c>
@@ -21644,7 +21695,7 @@
       </c>
       <c r="D207" s="103"/>
       <c r="E207" s="103"/>
-      <c r="F207" s="119"/>
+      <c r="F207" s="123"/>
       <c r="G207" s="93">
         <v>44440</v>
       </c>
@@ -21667,7 +21718,7 @@
       </c>
       <c r="D208" s="103"/>
       <c r="E208" s="103"/>
-      <c r="F208" s="119"/>
+      <c r="F208" s="123"/>
       <c r="G208" s="93">
         <v>44440</v>
       </c>
@@ -21690,7 +21741,7 @@
       </c>
       <c r="D209" s="103"/>
       <c r="E209" s="103"/>
-      <c r="F209" s="119"/>
+      <c r="F209" s="123"/>
       <c r="G209" s="93">
         <v>44440</v>
       </c>
@@ -21713,7 +21764,7 @@
       </c>
       <c r="D210" s="103"/>
       <c r="E210" s="103"/>
-      <c r="F210" s="120"/>
+      <c r="F210" s="124"/>
       <c r="G210" s="93">
         <v>44440</v>
       </c>
@@ -21811,7 +21862,7 @@
       </c>
       <c r="D214" s="103"/>
       <c r="E214" s="103"/>
-      <c r="F214" s="118" t="s">
+      <c r="F214" s="122" t="s">
         <v>437</v>
       </c>
       <c r="G214" s="93">
@@ -21836,7 +21887,7 @@
       </c>
       <c r="D215" s="103"/>
       <c r="E215" s="103"/>
-      <c r="F215" s="120"/>
+      <c r="F215" s="124"/>
       <c r="G215" s="93">
         <v>44440</v>
       </c>
@@ -22065,7 +22116,7 @@
       </c>
       <c r="K223" s="17"/>
     </row>
-    <row r="224" spans="1:11" ht="75">
+    <row r="224" spans="1:11" ht="90">
       <c r="A224" s="12">
         <v>220</v>
       </c>
@@ -22085,10 +22136,10 @@
         <v>227</v>
       </c>
       <c r="I224" s="32" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c r="J224" s="17" t="s">
-        <v>510</v>
+        <v>144</v>
       </c>
       <c r="K224" s="17"/>
     </row>
@@ -22318,7 +22369,7 @@
         <v>227</v>
       </c>
       <c r="I233" s="32" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="J233" s="17" t="s">
         <v>144</v>
@@ -22585,7 +22636,7 @@
         <v>227</v>
       </c>
       <c r="I242" s="32" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="J242" s="17" t="s">
         <v>144</v>
@@ -24196,21 +24247,19 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="F130:F141"/>
-    <mergeCell ref="D144:D145"/>
-    <mergeCell ref="E144:E145"/>
-    <mergeCell ref="D114:D125"/>
-    <mergeCell ref="E114:E125"/>
-    <mergeCell ref="D130:D141"/>
-    <mergeCell ref="E130:E141"/>
-    <mergeCell ref="D98:D108"/>
-    <mergeCell ref="E98:E108"/>
-    <mergeCell ref="D79:D94"/>
-    <mergeCell ref="D42:D53"/>
-    <mergeCell ref="E42:E53"/>
-    <mergeCell ref="E66:E77"/>
-    <mergeCell ref="E79:E94"/>
-    <mergeCell ref="D66:D77"/>
+    <mergeCell ref="F205:F210"/>
+    <mergeCell ref="F214:F215"/>
+    <mergeCell ref="D219:D232"/>
+    <mergeCell ref="E219:E232"/>
+    <mergeCell ref="E192:E203"/>
+    <mergeCell ref="D192:D203"/>
+    <mergeCell ref="D205:D216"/>
+    <mergeCell ref="E205:E216"/>
+    <mergeCell ref="D157:D168"/>
+    <mergeCell ref="E157:E168"/>
+    <mergeCell ref="D170:D181"/>
+    <mergeCell ref="F170:F181"/>
+    <mergeCell ref="D182:D191"/>
     <mergeCell ref="F66:F77"/>
     <mergeCell ref="D54:D65"/>
     <mergeCell ref="E54:E65"/>
@@ -24225,19 +24274,21 @@
     <mergeCell ref="D20:D31"/>
     <mergeCell ref="D32:D41"/>
     <mergeCell ref="F42:F53"/>
-    <mergeCell ref="D157:D168"/>
-    <mergeCell ref="E157:E168"/>
-    <mergeCell ref="D170:D181"/>
-    <mergeCell ref="F170:F181"/>
-    <mergeCell ref="D182:D191"/>
-    <mergeCell ref="F205:F210"/>
-    <mergeCell ref="F214:F215"/>
-    <mergeCell ref="D219:D232"/>
-    <mergeCell ref="E219:E232"/>
-    <mergeCell ref="E192:E203"/>
-    <mergeCell ref="D192:D203"/>
-    <mergeCell ref="D205:D216"/>
-    <mergeCell ref="E205:E216"/>
+    <mergeCell ref="D98:D108"/>
+    <mergeCell ref="E98:E108"/>
+    <mergeCell ref="D79:D94"/>
+    <mergeCell ref="D42:D53"/>
+    <mergeCell ref="E42:E53"/>
+    <mergeCell ref="E66:E77"/>
+    <mergeCell ref="E79:E94"/>
+    <mergeCell ref="D66:D77"/>
+    <mergeCell ref="F130:F141"/>
+    <mergeCell ref="D144:D145"/>
+    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="D114:D125"/>
+    <mergeCell ref="E114:E125"/>
+    <mergeCell ref="D130:D141"/>
+    <mergeCell ref="E130:E141"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/testcase_account_ver3.xlsx
+++ b/testcase_account_ver3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\7-Programming-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E26E3E-AAB9-4B03-A2F1-6B7E1C61FF7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF3730D-23BD-4E96-890E-7C5206C9E10D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2037" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2128" uniqueCount="560">
   <si>
     <t>作成者</t>
   </si>
@@ -10533,6 +10533,121 @@
     </rPh>
     <rPh sb="57" eb="59">
       <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン権限による画面表示</t>
+    <rPh sb="4" eb="6">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>ガメンヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>未ログイン状態</t>
+    <rPh sb="0" eb="1">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面</t>
+    <rPh sb="5" eb="9">
+      <t>イチランガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除完了画面</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>カンリョウガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新画面</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新確認画面</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新完了画面</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>カンリョウガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一般権限状態</t>
+    <rPh sb="0" eb="4">
+      <t>イッパンケンゲン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者権限状態
+（データあり）</t>
+    <rPh sb="0" eb="5">
+      <t>カンリシャケンゲン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者権限状態
+（データなし）</t>
+    <rPh sb="0" eb="5">
+      <t>カンリシャケンゲン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウタイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -10607,7 +10722,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -10877,13 +10992,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -11179,33 +11307,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -11218,6 +11319,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -11225,6 +11344,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11236,18 +11364,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -11257,6 +11373,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -11265,6 +11387,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -11618,8 +11752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M255"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A160" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G173" sqref="G173"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A181" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C207" sqref="C207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -11639,12 +11773,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
       <c r="E1" s="53" t="s">
         <v>2</v>
       </c>
@@ -11667,10 +11801,10 @@
       <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A2" s="110"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
       <c r="E2" s="53" t="s">
         <v>3</v>
       </c>
@@ -11984,7 +12118,7 @@
       <c r="F12" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="99" t="s">
+      <c r="G12" s="103" t="s">
         <v>107</v>
       </c>
       <c r="H12" s="68">
@@ -12014,7 +12148,7 @@
       <c r="F13" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="107"/>
+      <c r="G13" s="104"/>
       <c r="H13" s="60">
         <v>44354</v>
       </c>
@@ -12042,7 +12176,7 @@
       <c r="F14" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="107"/>
+      <c r="G14" s="104"/>
       <c r="H14" s="60">
         <v>44354</v>
       </c>
@@ -12070,7 +12204,7 @@
       <c r="F15" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="107"/>
+      <c r="G15" s="104"/>
       <c r="H15" s="68">
         <v>44354</v>
       </c>
@@ -12098,7 +12232,7 @@
       <c r="F16" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="107"/>
+      <c r="G16" s="104"/>
       <c r="H16" s="60">
         <v>44354</v>
       </c>
@@ -12126,7 +12260,7 @@
       <c r="F17" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="107"/>
+      <c r="G17" s="104"/>
       <c r="H17" s="60">
         <v>44354</v>
       </c>
@@ -12154,7 +12288,7 @@
       <c r="F18" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="107"/>
+      <c r="G18" s="104"/>
       <c r="H18" s="68">
         <v>44354</v>
       </c>
@@ -12182,7 +12316,7 @@
       <c r="F19" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="107"/>
+      <c r="G19" s="104"/>
       <c r="H19" s="60">
         <v>44354</v>
       </c>
@@ -12210,7 +12344,7 @@
       <c r="F20" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="107"/>
+      <c r="G20" s="104"/>
       <c r="H20" s="60">
         <v>44354</v>
       </c>
@@ -12238,7 +12372,7 @@
       <c r="F21" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="107"/>
+      <c r="G21" s="104"/>
       <c r="H21" s="68">
         <v>44354</v>
       </c>
@@ -12266,7 +12400,7 @@
       <c r="F22" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="107"/>
+      <c r="G22" s="104"/>
       <c r="H22" s="60">
         <v>44354</v>
       </c>
@@ -12294,7 +12428,7 @@
       <c r="F23" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="100"/>
+      <c r="G23" s="105"/>
       <c r="H23" s="60">
         <v>44354</v>
       </c>
@@ -12752,7 +12886,7 @@
       <c r="F38" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="G38" s="104" t="s">
+      <c r="G38" s="106" t="s">
         <v>110</v>
       </c>
       <c r="H38" s="68">
@@ -12782,7 +12916,7 @@
       <c r="F39" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="G39" s="105"/>
+      <c r="G39" s="107"/>
       <c r="H39" s="68">
         <v>44354</v>
       </c>
@@ -12810,7 +12944,7 @@
       <c r="F40" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="G40" s="105"/>
+      <c r="G40" s="107"/>
       <c r="H40" s="68">
         <v>44354</v>
       </c>
@@ -12838,7 +12972,7 @@
       <c r="F41" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="G41" s="105"/>
+      <c r="G41" s="107"/>
       <c r="H41" s="68">
         <v>44354</v>
       </c>
@@ -12866,7 +13000,7 @@
       <c r="F42" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="G42" s="106"/>
+      <c r="G42" s="108"/>
       <c r="H42" s="68">
         <v>44354</v>
       </c>
@@ -13018,7 +13152,7 @@
       <c r="F47" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="G47" s="104" t="s">
+      <c r="G47" s="106" t="s">
         <v>110</v>
       </c>
       <c r="H47" s="68">
@@ -13048,7 +13182,7 @@
       <c r="F48" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="G48" s="106"/>
+      <c r="G48" s="108"/>
       <c r="H48" s="68">
         <v>44354</v>
       </c>
@@ -13329,7 +13463,7 @@
       <c r="E57" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F57" s="99" t="s">
+      <c r="F57" s="103" t="s">
         <v>232</v>
       </c>
       <c r="G57" s="32" t="s">
@@ -13361,7 +13495,7 @@
       <c r="E58" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F58" s="107"/>
+      <c r="F58" s="104"/>
       <c r="G58" s="32" t="s">
         <v>233</v>
       </c>
@@ -13388,10 +13522,10 @@
       <c r="D59" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="E59" s="112" t="s">
+      <c r="E59" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="F59" s="107"/>
+      <c r="F59" s="104"/>
       <c r="G59" s="37" t="s">
         <v>260</v>
       </c>
@@ -13416,8 +13550,8 @@
       <c r="D60" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E60" s="113"/>
-      <c r="F60" s="107"/>
+      <c r="E60" s="110"/>
+      <c r="F60" s="104"/>
       <c r="G60" s="37" t="s">
         <v>261</v>
       </c>
@@ -13442,8 +13576,8 @@
       <c r="D61" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E61" s="113"/>
-      <c r="F61" s="107"/>
+      <c r="E61" s="110"/>
+      <c r="F61" s="104"/>
       <c r="G61" s="37" t="s">
         <v>262</v>
       </c>
@@ -13468,8 +13602,8 @@
       <c r="D62" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E62" s="113"/>
-      <c r="F62" s="107"/>
+      <c r="E62" s="110"/>
+      <c r="F62" s="104"/>
       <c r="G62" s="37" t="s">
         <v>263</v>
       </c>
@@ -13494,8 +13628,8 @@
       <c r="D63" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E63" s="113"/>
-      <c r="F63" s="107"/>
+      <c r="E63" s="110"/>
+      <c r="F63" s="104"/>
       <c r="G63" s="37" t="s">
         <v>264</v>
       </c>
@@ -13520,8 +13654,8 @@
       <c r="D64" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E64" s="113"/>
-      <c r="F64" s="107"/>
+      <c r="E64" s="110"/>
+      <c r="F64" s="104"/>
       <c r="G64" s="37" t="s">
         <v>265</v>
       </c>
@@ -13546,8 +13680,8 @@
       <c r="D65" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E65" s="113"/>
-      <c r="F65" s="107"/>
+      <c r="E65" s="110"/>
+      <c r="F65" s="104"/>
       <c r="G65" s="31" t="s">
         <v>272</v>
       </c>
@@ -13572,8 +13706,8 @@
       <c r="D66" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E66" s="113"/>
-      <c r="F66" s="107"/>
+      <c r="E66" s="110"/>
+      <c r="F66" s="104"/>
       <c r="G66" s="31" t="s">
         <v>273</v>
       </c>
@@ -13598,8 +13732,8 @@
       <c r="D67" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="E67" s="113"/>
-      <c r="F67" s="107"/>
+      <c r="E67" s="110"/>
+      <c r="F67" s="104"/>
       <c r="G67" s="31" t="s">
         <v>274</v>
       </c>
@@ -13624,8 +13758,8 @@
       <c r="D68" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="E68" s="113"/>
-      <c r="F68" s="107"/>
+      <c r="E68" s="110"/>
+      <c r="F68" s="104"/>
       <c r="G68" s="31" t="s">
         <v>275</v>
       </c>
@@ -13650,8 +13784,8 @@
       <c r="D69" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="E69" s="113"/>
-      <c r="F69" s="107"/>
+      <c r="E69" s="110"/>
+      <c r="F69" s="104"/>
       <c r="G69" s="31" t="s">
         <v>275</v>
       </c>
@@ -13676,8 +13810,8 @@
       <c r="D70" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="E70" s="113"/>
-      <c r="F70" s="107"/>
+      <c r="E70" s="110"/>
+      <c r="F70" s="104"/>
       <c r="G70" s="31" t="s">
         <v>270</v>
       </c>
@@ -13702,8 +13836,8 @@
       <c r="D71" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="E71" s="114"/>
-      <c r="F71" s="100"/>
+      <c r="E71" s="111"/>
+      <c r="F71" s="105"/>
       <c r="G71" s="31" t="s">
         <v>271</v>
       </c>
@@ -13764,10 +13898,10 @@
       <c r="D73" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E73" s="101" t="s">
+      <c r="E73" s="112" t="s">
         <v>55</v>
       </c>
-      <c r="F73" s="104" t="s">
+      <c r="F73" s="106" t="s">
         <v>277</v>
       </c>
       <c r="G73" s="31" t="s">
@@ -13794,8 +13928,8 @@
       <c r="D74" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E74" s="102"/>
-      <c r="F74" s="105"/>
+      <c r="E74" s="113"/>
+      <c r="F74" s="107"/>
       <c r="G74" s="31" t="s">
         <v>280</v>
       </c>
@@ -13820,8 +13954,8 @@
       <c r="D75" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="102"/>
-      <c r="F75" s="105"/>
+      <c r="E75" s="113"/>
+      <c r="F75" s="107"/>
       <c r="G75" s="31" t="s">
         <v>281</v>
       </c>
@@ -13846,8 +13980,8 @@
       <c r="D76" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E76" s="102"/>
-      <c r="F76" s="105"/>
+      <c r="E76" s="113"/>
+      <c r="F76" s="107"/>
       <c r="G76" s="31" t="s">
         <v>282</v>
       </c>
@@ -13872,8 +14006,8 @@
       <c r="D77" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E77" s="102"/>
-      <c r="F77" s="105"/>
+      <c r="E77" s="113"/>
+      <c r="F77" s="107"/>
       <c r="G77" s="31" t="s">
         <v>283</v>
       </c>
@@ -13898,8 +14032,8 @@
       <c r="D78" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E78" s="102"/>
-      <c r="F78" s="105"/>
+      <c r="E78" s="113"/>
+      <c r="F78" s="107"/>
       <c r="G78" s="31" t="s">
         <v>284</v>
       </c>
@@ -13924,8 +14058,8 @@
       <c r="D79" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E79" s="102"/>
-      <c r="F79" s="105"/>
+      <c r="E79" s="113"/>
+      <c r="F79" s="107"/>
       <c r="G79" s="31" t="s">
         <v>289</v>
       </c>
@@ -13950,8 +14084,8 @@
       <c r="D80" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E80" s="102"/>
-      <c r="F80" s="105"/>
+      <c r="E80" s="113"/>
+      <c r="F80" s="107"/>
       <c r="G80" s="31" t="s">
         <v>285</v>
       </c>
@@ -13976,8 +14110,8 @@
       <c r="D81" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E81" s="102"/>
-      <c r="F81" s="105"/>
+      <c r="E81" s="113"/>
+      <c r="F81" s="107"/>
       <c r="G81" s="31" t="s">
         <v>290</v>
       </c>
@@ -14002,8 +14136,8 @@
       <c r="D82" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E82" s="102"/>
-      <c r="F82" s="105"/>
+      <c r="E82" s="113"/>
+      <c r="F82" s="107"/>
       <c r="G82" s="31" t="s">
         <v>286</v>
       </c>
@@ -14028,8 +14162,8 @@
       <c r="D83" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E83" s="102"/>
-      <c r="F83" s="105"/>
+      <c r="E83" s="113"/>
+      <c r="F83" s="107"/>
       <c r="G83" s="31" t="s">
         <v>287</v>
       </c>
@@ -14054,8 +14188,8 @@
       <c r="D84" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E84" s="103"/>
-      <c r="F84" s="106"/>
+      <c r="E84" s="114"/>
+      <c r="F84" s="108"/>
       <c r="G84" s="31" t="s">
         <v>288</v>
       </c>
@@ -14148,10 +14282,10 @@
       <c r="D87" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E87" s="101" t="s">
+      <c r="E87" s="112" t="s">
         <v>55</v>
       </c>
-      <c r="F87" s="104" t="s">
+      <c r="F87" s="106" t="s">
         <v>301</v>
       </c>
       <c r="G87" s="31" t="s">
@@ -14178,8 +14312,8 @@
       <c r="D88" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="E88" s="102"/>
-      <c r="F88" s="105"/>
+      <c r="E88" s="113"/>
+      <c r="F88" s="107"/>
       <c r="G88" s="31" t="s">
         <v>303</v>
       </c>
@@ -14204,8 +14338,8 @@
       <c r="D89" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="E89" s="102"/>
-      <c r="F89" s="105"/>
+      <c r="E89" s="113"/>
+      <c r="F89" s="107"/>
       <c r="G89" s="31" t="s">
         <v>370</v>
       </c>
@@ -14230,8 +14364,8 @@
       <c r="D90" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="E90" s="103"/>
-      <c r="F90" s="106"/>
+      <c r="E90" s="114"/>
+      <c r="F90" s="108"/>
       <c r="G90" s="31" t="s">
         <v>371</v>
       </c>
@@ -14260,10 +14394,10 @@
       <c r="D91" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="E91" s="101" t="s">
+      <c r="E91" s="112" t="s">
         <v>55</v>
       </c>
-      <c r="F91" s="99" t="s">
+      <c r="F91" s="103" t="s">
         <v>300</v>
       </c>
       <c r="G91" s="30" t="s">
@@ -14292,8 +14426,8 @@
       <c r="D92" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="E92" s="102"/>
-      <c r="F92" s="107"/>
+      <c r="E92" s="113"/>
+      <c r="F92" s="104"/>
       <c r="G92" s="32" t="s">
         <v>298</v>
       </c>
@@ -14318,8 +14452,8 @@
       <c r="D93" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="E93" s="103"/>
-      <c r="F93" s="107"/>
+      <c r="E93" s="114"/>
+      <c r="F93" s="104"/>
       <c r="G93" s="32" t="s">
         <v>302</v>
       </c>
@@ -14351,7 +14485,7 @@
       <c r="E94" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F94" s="107"/>
+      <c r="F94" s="104"/>
       <c r="G94" s="32" t="s">
         <v>354</v>
       </c>
@@ -14379,7 +14513,7 @@
       <c r="E95" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F95" s="100"/>
+      <c r="F95" s="105"/>
       <c r="G95" s="32" t="s">
         <v>355</v>
       </c>
@@ -14474,10 +14608,10 @@
       <c r="D98" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E98" s="101" t="s">
+      <c r="E98" s="112" t="s">
         <v>55</v>
       </c>
-      <c r="F98" s="104" t="s">
+      <c r="F98" s="106" t="s">
         <v>305</v>
       </c>
       <c r="G98" s="31" t="s">
@@ -14504,8 +14638,8 @@
       <c r="D99" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E99" s="102"/>
-      <c r="F99" s="105"/>
+      <c r="E99" s="113"/>
+      <c r="F99" s="107"/>
       <c r="G99" s="31" t="s">
         <v>310</v>
       </c>
@@ -14530,8 +14664,8 @@
       <c r="D100" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E100" s="102"/>
-      <c r="F100" s="105"/>
+      <c r="E100" s="113"/>
+      <c r="F100" s="107"/>
       <c r="G100" s="31" t="s">
         <v>309</v>
       </c>
@@ -14556,8 +14690,8 @@
       <c r="D101" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E101" s="102"/>
-      <c r="F101" s="105"/>
+      <c r="E101" s="113"/>
+      <c r="F101" s="107"/>
       <c r="G101" s="31" t="s">
         <v>308</v>
       </c>
@@ -14582,8 +14716,8 @@
       <c r="D102" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E102" s="102"/>
-      <c r="F102" s="105"/>
+      <c r="E102" s="113"/>
+      <c r="F102" s="107"/>
       <c r="G102" s="31" t="s">
         <v>311</v>
       </c>
@@ -14608,8 +14742,8 @@
       <c r="D103" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E103" s="102"/>
-      <c r="F103" s="105"/>
+      <c r="E103" s="113"/>
+      <c r="F103" s="107"/>
       <c r="G103" s="31" t="s">
         <v>312</v>
       </c>
@@ -14634,8 +14768,8 @@
       <c r="D104" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E104" s="102"/>
-      <c r="F104" s="105"/>
+      <c r="E104" s="113"/>
+      <c r="F104" s="107"/>
       <c r="G104" s="31" t="s">
         <v>319</v>
       </c>
@@ -14660,8 +14794,8 @@
       <c r="D105" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E105" s="102"/>
-      <c r="F105" s="105"/>
+      <c r="E105" s="113"/>
+      <c r="F105" s="107"/>
       <c r="G105" s="31" t="s">
         <v>314</v>
       </c>
@@ -14686,8 +14820,8 @@
       <c r="D106" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E106" s="102"/>
-      <c r="F106" s="105"/>
+      <c r="E106" s="113"/>
+      <c r="F106" s="107"/>
       <c r="G106" s="31" t="s">
         <v>315</v>
       </c>
@@ -14712,8 +14846,8 @@
       <c r="D107" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E107" s="102"/>
-      <c r="F107" s="105"/>
+      <c r="E107" s="113"/>
+      <c r="F107" s="107"/>
       <c r="G107" s="31" t="s">
         <v>316</v>
       </c>
@@ -14738,8 +14872,8 @@
       <c r="D108" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E108" s="102"/>
-      <c r="F108" s="105"/>
+      <c r="E108" s="113"/>
+      <c r="F108" s="107"/>
       <c r="G108" s="31" t="s">
         <v>317</v>
       </c>
@@ -14764,8 +14898,8 @@
       <c r="D109" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E109" s="103"/>
-      <c r="F109" s="106"/>
+      <c r="E109" s="114"/>
+      <c r="F109" s="108"/>
       <c r="G109" s="31" t="s">
         <v>318</v>
       </c>
@@ -14862,7 +14996,7 @@
       <c r="F112" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="G112" s="99" t="s">
+      <c r="G112" s="103" t="s">
         <v>107</v>
       </c>
       <c r="H112" s="68">
@@ -14892,7 +15026,7 @@
       <c r="F113" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="G113" s="107"/>
+      <c r="G113" s="104"/>
       <c r="H113" s="68">
         <v>44435</v>
       </c>
@@ -14920,7 +15054,7 @@
       <c r="F114" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="G114" s="107"/>
+      <c r="G114" s="104"/>
       <c r="H114" s="68">
         <v>44435</v>
       </c>
@@ -14948,7 +15082,7 @@
       <c r="F115" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="G115" s="107"/>
+      <c r="G115" s="104"/>
       <c r="H115" s="68">
         <v>44435</v>
       </c>
@@ -14976,7 +15110,7 @@
       <c r="F116" s="31" t="s">
         <v>326</v>
       </c>
-      <c r="G116" s="107"/>
+      <c r="G116" s="104"/>
       <c r="H116" s="68">
         <v>44435</v>
       </c>
@@ -15004,7 +15138,7 @@
       <c r="F117" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="G117" s="107"/>
+      <c r="G117" s="104"/>
       <c r="H117" s="68">
         <v>44447</v>
       </c>
@@ -15034,7 +15168,7 @@
       <c r="F118" s="31" t="s">
         <v>346</v>
       </c>
-      <c r="G118" s="107"/>
+      <c r="G118" s="104"/>
       <c r="H118" s="68">
         <v>44435</v>
       </c>
@@ -15062,7 +15196,7 @@
       <c r="F119" s="31" t="s">
         <v>327</v>
       </c>
-      <c r="G119" s="107"/>
+      <c r="G119" s="104"/>
       <c r="H119" s="68">
         <v>44435</v>
       </c>
@@ -15090,7 +15224,7 @@
       <c r="F120" s="31" t="s">
         <v>322</v>
       </c>
-      <c r="G120" s="107"/>
+      <c r="G120" s="104"/>
       <c r="H120" s="68">
         <v>44435</v>
       </c>
@@ -15118,7 +15252,7 @@
       <c r="F121" s="31" t="s">
         <v>328</v>
       </c>
-      <c r="G121" s="107"/>
+      <c r="G121" s="104"/>
       <c r="H121" s="68">
         <v>44435</v>
       </c>
@@ -15146,7 +15280,7 @@
       <c r="F122" s="31" t="s">
         <v>329</v>
       </c>
-      <c r="G122" s="107"/>
+      <c r="G122" s="104"/>
       <c r="H122" s="68">
         <v>44435</v>
       </c>
@@ -15174,7 +15308,7 @@
       <c r="F123" s="31" t="s">
         <v>321</v>
       </c>
-      <c r="G123" s="100"/>
+      <c r="G123" s="105"/>
       <c r="H123" s="68">
         <v>44435</v>
       </c>
@@ -15507,7 +15641,7 @@
       <c r="E134" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F134" s="104" t="s">
+      <c r="F134" s="106" t="s">
         <v>344</v>
       </c>
       <c r="G134" s="31" t="s">
@@ -15537,7 +15671,7 @@
       <c r="E135" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F135" s="105"/>
+      <c r="F135" s="107"/>
       <c r="G135" s="32" t="s">
         <v>108</v>
       </c>
@@ -15565,7 +15699,7 @@
       <c r="E136" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F136" s="105"/>
+      <c r="F136" s="107"/>
       <c r="G136" s="32" t="s">
         <v>109</v>
       </c>
@@ -15593,7 +15727,7 @@
       <c r="E137" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F137" s="105"/>
+      <c r="F137" s="107"/>
       <c r="G137" s="32" t="s">
         <v>112</v>
       </c>
@@ -15621,7 +15755,7 @@
       <c r="E138" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F138" s="105"/>
+      <c r="F138" s="107"/>
       <c r="G138" s="32" t="s">
         <v>113</v>
       </c>
@@ -15649,7 +15783,7 @@
       <c r="E139" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F139" s="105"/>
+      <c r="F139" s="107"/>
       <c r="G139" s="32" t="s">
         <v>114</v>
       </c>
@@ -15677,7 +15811,7 @@
       <c r="E140" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F140" s="105"/>
+      <c r="F140" s="107"/>
       <c r="G140" s="32" t="s">
         <v>111</v>
       </c>
@@ -15707,7 +15841,7 @@
       <c r="E141" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F141" s="105"/>
+      <c r="F141" s="107"/>
       <c r="G141" s="32" t="s">
         <v>115</v>
       </c>
@@ -15735,7 +15869,7 @@
       <c r="E142" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F142" s="105"/>
+      <c r="F142" s="107"/>
       <c r="G142" s="32" t="s">
         <v>430</v>
       </c>
@@ -15763,7 +15897,7 @@
       <c r="E143" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F143" s="105"/>
+      <c r="F143" s="107"/>
       <c r="G143" s="32" t="s">
         <v>431</v>
       </c>
@@ -15791,7 +15925,7 @@
       <c r="E144" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F144" s="105"/>
+      <c r="F144" s="107"/>
       <c r="G144" s="32" t="s">
         <v>432</v>
       </c>
@@ -15819,7 +15953,7 @@
       <c r="E145" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F145" s="105"/>
+      <c r="F145" s="107"/>
       <c r="G145" s="32" t="s">
         <v>433</v>
       </c>
@@ -15847,7 +15981,7 @@
       <c r="E146" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F146" s="105"/>
+      <c r="F146" s="107"/>
       <c r="G146" s="32" t="s">
         <v>116</v>
       </c>
@@ -15875,7 +16009,7 @@
       <c r="E147" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F147" s="105"/>
+      <c r="F147" s="107"/>
       <c r="G147" s="31" t="s">
         <v>347</v>
       </c>
@@ -15903,7 +16037,7 @@
       <c r="E148" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F148" s="106"/>
+      <c r="F148" s="108"/>
       <c r="G148" s="31" t="s">
         <v>348</v>
       </c>
@@ -15935,7 +16069,7 @@
       <c r="E149" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F149" s="104" t="s">
+      <c r="F149" s="106" t="s">
         <v>350</v>
       </c>
       <c r="G149" s="31" t="s">
@@ -15965,7 +16099,7 @@
       <c r="E150" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F150" s="105"/>
+      <c r="F150" s="107"/>
       <c r="G150" s="31" t="s">
         <v>352</v>
       </c>
@@ -15993,7 +16127,7 @@
       <c r="E151" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F151" s="106"/>
+      <c r="F151" s="108"/>
       <c r="G151" s="32" t="s">
         <v>302</v>
       </c>
@@ -16025,10 +16159,10 @@
       <c r="E152" s="115" t="s">
         <v>55</v>
       </c>
-      <c r="F152" s="104" t="s">
+      <c r="F152" s="106" t="s">
         <v>357</v>
       </c>
-      <c r="G152" s="99" t="s">
+      <c r="G152" s="103" t="s">
         <v>358</v>
       </c>
       <c r="H152" s="68">
@@ -16053,8 +16187,8 @@
         <v>17</v>
       </c>
       <c r="E153" s="116"/>
-      <c r="F153" s="105"/>
-      <c r="G153" s="107"/>
+      <c r="F153" s="107"/>
+      <c r="G153" s="104"/>
       <c r="H153" s="68">
         <v>44435</v>
       </c>
@@ -16077,8 +16211,8 @@
         <v>18</v>
       </c>
       <c r="E154" s="116"/>
-      <c r="F154" s="105"/>
-      <c r="G154" s="107"/>
+      <c r="F154" s="107"/>
+      <c r="G154" s="104"/>
       <c r="H154" s="68">
         <v>44435</v>
       </c>
@@ -16101,8 +16235,8 @@
         <v>19</v>
       </c>
       <c r="E155" s="116"/>
-      <c r="F155" s="105"/>
-      <c r="G155" s="107"/>
+      <c r="F155" s="107"/>
+      <c r="G155" s="104"/>
       <c r="H155" s="68">
         <v>44435</v>
       </c>
@@ -16125,8 +16259,8 @@
         <v>20</v>
       </c>
       <c r="E156" s="116"/>
-      <c r="F156" s="105"/>
-      <c r="G156" s="107"/>
+      <c r="F156" s="107"/>
+      <c r="G156" s="104"/>
       <c r="H156" s="68">
         <v>44435</v>
       </c>
@@ -16149,8 +16283,8 @@
         <v>21</v>
       </c>
       <c r="E157" s="116"/>
-      <c r="F157" s="105"/>
-      <c r="G157" s="107"/>
+      <c r="F157" s="107"/>
+      <c r="G157" s="104"/>
       <c r="H157" s="68">
         <v>44447</v>
       </c>
@@ -16175,8 +16309,8 @@
         <v>22</v>
       </c>
       <c r="E158" s="116"/>
-      <c r="F158" s="105"/>
-      <c r="G158" s="107"/>
+      <c r="F158" s="107"/>
+      <c r="G158" s="104"/>
       <c r="H158" s="68">
         <v>44435</v>
       </c>
@@ -16199,8 +16333,8 @@
         <v>23</v>
       </c>
       <c r="E159" s="116"/>
-      <c r="F159" s="105"/>
-      <c r="G159" s="107"/>
+      <c r="F159" s="107"/>
+      <c r="G159" s="104"/>
       <c r="H159" s="68">
         <v>44435</v>
       </c>
@@ -16223,8 +16357,8 @@
         <v>24</v>
       </c>
       <c r="E160" s="116"/>
-      <c r="F160" s="105"/>
-      <c r="G160" s="107"/>
+      <c r="F160" s="107"/>
+      <c r="G160" s="104"/>
       <c r="H160" s="68">
         <v>44435</v>
       </c>
@@ -16247,8 +16381,8 @@
         <v>25</v>
       </c>
       <c r="E161" s="116"/>
-      <c r="F161" s="105"/>
-      <c r="G161" s="107"/>
+      <c r="F161" s="107"/>
+      <c r="G161" s="104"/>
       <c r="H161" s="68">
         <v>44435</v>
       </c>
@@ -16271,8 +16405,8 @@
         <v>26</v>
       </c>
       <c r="E162" s="116"/>
-      <c r="F162" s="105"/>
-      <c r="G162" s="107"/>
+      <c r="F162" s="107"/>
+      <c r="G162" s="104"/>
       <c r="H162" s="68">
         <v>44435</v>
       </c>
@@ -16295,8 +16429,8 @@
         <v>356</v>
       </c>
       <c r="E163" s="116"/>
-      <c r="F163" s="105"/>
-      <c r="G163" s="100"/>
+      <c r="F163" s="107"/>
+      <c r="G163" s="105"/>
       <c r="H163" s="68">
         <v>44435</v>
       </c>
@@ -16319,7 +16453,7 @@
         <v>150</v>
       </c>
       <c r="E164" s="116"/>
-      <c r="F164" s="105"/>
+      <c r="F164" s="107"/>
       <c r="G164" s="31" t="s">
         <v>359</v>
       </c>
@@ -16345,7 +16479,7 @@
         <v>152</v>
       </c>
       <c r="E165" s="117"/>
-      <c r="F165" s="106"/>
+      <c r="F165" s="108"/>
       <c r="G165" s="31" t="s">
         <v>360</v>
       </c>
@@ -16436,7 +16570,7 @@
       <c r="F168" s="37" t="s">
         <v>541</v>
       </c>
-      <c r="G168" s="99" t="s">
+      <c r="G168" s="103" t="s">
         <v>539</v>
       </c>
       <c r="H168" s="12"/>
@@ -16458,7 +16592,7 @@
       <c r="F169" s="37" t="s">
         <v>540</v>
       </c>
-      <c r="G169" s="100"/>
+      <c r="G169" s="105"/>
       <c r="H169" s="12"/>
       <c r="I169" s="12"/>
       <c r="J169" s="30"/>
@@ -16537,10 +16671,18 @@
     </row>
     <row r="173" spans="1:12" ht="11.25" customHeight="1">
       <c r="A173" s="12"/>
-      <c r="B173" s="48"/>
-      <c r="C173" s="25"/>
-      <c r="D173" s="11"/>
-      <c r="E173" s="24"/>
+      <c r="B173" s="72" t="s">
+        <v>549</v>
+      </c>
+      <c r="C173" s="128" t="s">
+        <v>550</v>
+      </c>
+      <c r="D173" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="E173" s="129" t="s">
+        <v>55</v>
+      </c>
       <c r="F173" s="37"/>
       <c r="G173" s="31"/>
       <c r="H173" s="12"/>
@@ -16551,10 +16693,14 @@
     </row>
     <row r="174" spans="1:12" ht="11.25" customHeight="1">
       <c r="A174" s="12"/>
-      <c r="B174" s="48"/>
-      <c r="C174" s="25"/>
-      <c r="D174" s="11"/>
-      <c r="E174" s="24"/>
+      <c r="B174" s="72"/>
+      <c r="C174" s="128"/>
+      <c r="D174" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E174" s="129" t="s">
+        <v>55</v>
+      </c>
       <c r="F174" s="37"/>
       <c r="G174" s="31"/>
       <c r="H174" s="12"/>
@@ -16565,10 +16711,14 @@
     </row>
     <row r="175" spans="1:12" ht="11.25" customHeight="1">
       <c r="A175" s="12"/>
-      <c r="B175" s="48"/>
-      <c r="C175" s="25"/>
-      <c r="D175" s="11"/>
-      <c r="E175" s="24"/>
+      <c r="B175" s="72"/>
+      <c r="C175" s="128"/>
+      <c r="D175" s="32" t="s">
+        <v>551</v>
+      </c>
+      <c r="E175" s="129" t="s">
+        <v>55</v>
+      </c>
       <c r="F175" s="37"/>
       <c r="G175" s="31"/>
       <c r="H175" s="12"/>
@@ -16579,10 +16729,14 @@
     </row>
     <row r="176" spans="1:12" ht="11.25" customHeight="1">
       <c r="A176" s="12"/>
-      <c r="B176" s="48"/>
-      <c r="C176" s="25"/>
-      <c r="D176" s="11"/>
-      <c r="E176" s="24"/>
+      <c r="B176" s="72"/>
+      <c r="C176" s="128"/>
+      <c r="D176" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="E176" s="129" t="s">
+        <v>55</v>
+      </c>
       <c r="F176" s="37"/>
       <c r="G176" s="31"/>
       <c r="H176" s="12"/>
@@ -16593,10 +16747,14 @@
     </row>
     <row r="177" spans="1:12" ht="11.25" customHeight="1">
       <c r="A177" s="12"/>
-      <c r="B177" s="48"/>
-      <c r="C177" s="25"/>
-      <c r="D177" s="11"/>
-      <c r="E177" s="24"/>
+      <c r="B177" s="72"/>
+      <c r="C177" s="128"/>
+      <c r="D177" s="32" t="s">
+        <v>552</v>
+      </c>
+      <c r="E177" s="129" t="s">
+        <v>55</v>
+      </c>
       <c r="F177" s="37"/>
       <c r="G177" s="31"/>
       <c r="H177" s="12"/>
@@ -16607,10 +16765,14 @@
     </row>
     <row r="178" spans="1:12" ht="11.25" customHeight="1">
       <c r="A178" s="12"/>
-      <c r="B178" s="48"/>
-      <c r="C178" s="25"/>
-      <c r="D178" s="11"/>
-      <c r="E178" s="24"/>
+      <c r="B178" s="72"/>
+      <c r="C178" s="128"/>
+      <c r="D178" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="E178" s="129" t="s">
+        <v>55</v>
+      </c>
       <c r="F178" s="37"/>
       <c r="G178" s="31"/>
       <c r="H178" s="12"/>
@@ -16621,10 +16783,14 @@
     </row>
     <row r="179" spans="1:12" ht="11.25" customHeight="1">
       <c r="A179" s="12"/>
-      <c r="B179" s="48"/>
-      <c r="C179" s="25"/>
-      <c r="D179" s="11"/>
-      <c r="E179" s="24"/>
+      <c r="B179" s="72"/>
+      <c r="C179" s="128"/>
+      <c r="D179" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="E179" s="129" t="s">
+        <v>55</v>
+      </c>
       <c r="F179" s="37"/>
       <c r="G179" s="31"/>
       <c r="H179" s="12"/>
@@ -16635,10 +16801,14 @@
     </row>
     <row r="180" spans="1:12" ht="11.25" customHeight="1">
       <c r="A180" s="12"/>
-      <c r="B180" s="48"/>
-      <c r="C180" s="25"/>
-      <c r="D180" s="11"/>
-      <c r="E180" s="24"/>
+      <c r="B180" s="72"/>
+      <c r="C180" s="128"/>
+      <c r="D180" s="32" t="s">
+        <v>553</v>
+      </c>
+      <c r="E180" s="129" t="s">
+        <v>55</v>
+      </c>
       <c r="F180" s="37"/>
       <c r="G180" s="31"/>
       <c r="H180" s="12"/>
@@ -16649,10 +16819,14 @@
     </row>
     <row r="181" spans="1:12" ht="11.25" customHeight="1">
       <c r="A181" s="12"/>
-      <c r="B181" s="48"/>
-      <c r="C181" s="25"/>
-      <c r="D181" s="11"/>
-      <c r="E181" s="24"/>
+      <c r="B181" s="72"/>
+      <c r="C181" s="128"/>
+      <c r="D181" s="32" t="s">
+        <v>554</v>
+      </c>
+      <c r="E181" s="129" t="s">
+        <v>55</v>
+      </c>
       <c r="F181" s="37"/>
       <c r="G181" s="31"/>
       <c r="H181" s="12"/>
@@ -16663,10 +16837,14 @@
     </row>
     <row r="182" spans="1:12" ht="11.25" customHeight="1">
       <c r="A182" s="12"/>
-      <c r="B182" s="48"/>
-      <c r="C182" s="25"/>
-      <c r="D182" s="11"/>
-      <c r="E182" s="24"/>
+      <c r="B182" s="72"/>
+      <c r="C182" s="128"/>
+      <c r="D182" s="32" t="s">
+        <v>555</v>
+      </c>
+      <c r="E182" s="129" t="s">
+        <v>55</v>
+      </c>
       <c r="F182" s="37"/>
       <c r="G182" s="31"/>
       <c r="H182" s="12"/>
@@ -16677,10 +16855,14 @@
     </row>
     <row r="183" spans="1:12" ht="11.25" customHeight="1">
       <c r="A183" s="12"/>
-      <c r="B183" s="48"/>
-      <c r="C183" s="25"/>
-      <c r="D183" s="11"/>
-      <c r="E183" s="24"/>
+      <c r="B183" s="72"/>
+      <c r="C183" s="128"/>
+      <c r="D183" s="32" t="s">
+        <v>556</v>
+      </c>
+      <c r="E183" s="129" t="s">
+        <v>55</v>
+      </c>
       <c r="F183" s="37"/>
       <c r="G183" s="31"/>
       <c r="H183" s="12"/>
@@ -16691,10 +16873,16 @@
     </row>
     <row r="184" spans="1:12" ht="11.25" customHeight="1">
       <c r="A184" s="12"/>
-      <c r="B184" s="48"/>
-      <c r="C184" s="25"/>
-      <c r="D184" s="11"/>
-      <c r="E184" s="24"/>
+      <c r="B184" s="72"/>
+      <c r="C184" s="128" t="s">
+        <v>557</v>
+      </c>
+      <c r="D184" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="E184" s="129" t="s">
+        <v>55</v>
+      </c>
       <c r="F184" s="37"/>
       <c r="G184" s="31"/>
       <c r="H184" s="12"/>
@@ -16705,10 +16893,14 @@
     </row>
     <row r="185" spans="1:12" ht="11.25" customHeight="1">
       <c r="A185" s="12"/>
-      <c r="B185" s="48"/>
-      <c r="C185" s="25"/>
-      <c r="D185" s="11"/>
-      <c r="E185" s="24"/>
+      <c r="B185" s="72"/>
+      <c r="C185" s="128"/>
+      <c r="D185" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E185" s="129" t="s">
+        <v>55</v>
+      </c>
       <c r="F185" s="37"/>
       <c r="G185" s="31"/>
       <c r="H185" s="12"/>
@@ -16719,10 +16911,14 @@
     </row>
     <row r="186" spans="1:12" ht="11.25" customHeight="1">
       <c r="A186" s="12"/>
-      <c r="B186" s="48"/>
-      <c r="C186" s="25"/>
-      <c r="D186" s="11"/>
-      <c r="E186" s="24"/>
+      <c r="B186" s="72"/>
+      <c r="C186" s="128"/>
+      <c r="D186" s="32" t="s">
+        <v>551</v>
+      </c>
+      <c r="E186" s="129" t="s">
+        <v>55</v>
+      </c>
       <c r="F186" s="37"/>
       <c r="G186" s="31"/>
       <c r="H186" s="12"/>
@@ -16733,10 +16929,14 @@
     </row>
     <row r="187" spans="1:12" ht="11.25" customHeight="1">
       <c r="A187" s="12"/>
-      <c r="B187" s="48"/>
-      <c r="C187" s="25"/>
-      <c r="D187" s="11"/>
-      <c r="E187" s="24"/>
+      <c r="B187" s="72"/>
+      <c r="C187" s="128"/>
+      <c r="D187" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="E187" s="129" t="s">
+        <v>55</v>
+      </c>
       <c r="F187" s="37"/>
       <c r="G187" s="31"/>
       <c r="H187" s="12"/>
@@ -16747,10 +16947,14 @@
     </row>
     <row r="188" spans="1:12" ht="11.25" customHeight="1">
       <c r="A188" s="12"/>
-      <c r="B188" s="48"/>
-      <c r="C188" s="25"/>
-      <c r="D188" s="11"/>
-      <c r="E188" s="24"/>
+      <c r="B188" s="72"/>
+      <c r="C188" s="128"/>
+      <c r="D188" s="32" t="s">
+        <v>552</v>
+      </c>
+      <c r="E188" s="129" t="s">
+        <v>55</v>
+      </c>
       <c r="F188" s="37"/>
       <c r="G188" s="31"/>
       <c r="H188" s="12"/>
@@ -16761,10 +16965,14 @@
     </row>
     <row r="189" spans="1:12" ht="11.25" customHeight="1">
       <c r="A189" s="12"/>
-      <c r="B189" s="48"/>
-      <c r="C189" s="25"/>
-      <c r="D189" s="11"/>
-      <c r="E189" s="24"/>
+      <c r="B189" s="72"/>
+      <c r="C189" s="128"/>
+      <c r="D189" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="E189" s="129" t="s">
+        <v>55</v>
+      </c>
       <c r="F189" s="37"/>
       <c r="G189" s="31"/>
       <c r="H189" s="12"/>
@@ -16775,10 +16983,14 @@
     </row>
     <row r="190" spans="1:12" ht="11.25" customHeight="1">
       <c r="A190" s="12"/>
-      <c r="B190" s="48"/>
-      <c r="C190" s="25"/>
-      <c r="D190" s="11"/>
-      <c r="E190" s="24"/>
+      <c r="B190" s="72"/>
+      <c r="C190" s="128"/>
+      <c r="D190" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="E190" s="129" t="s">
+        <v>55</v>
+      </c>
       <c r="F190" s="37"/>
       <c r="G190" s="31"/>
       <c r="H190" s="12"/>
@@ -16789,10 +17001,14 @@
     </row>
     <row r="191" spans="1:12" ht="11.25" customHeight="1">
       <c r="A191" s="12"/>
-      <c r="B191" s="48"/>
-      <c r="C191" s="25"/>
-      <c r="D191" s="11"/>
-      <c r="E191" s="24"/>
+      <c r="B191" s="72"/>
+      <c r="C191" s="128"/>
+      <c r="D191" s="32" t="s">
+        <v>553</v>
+      </c>
+      <c r="E191" s="129" t="s">
+        <v>55</v>
+      </c>
       <c r="F191" s="37"/>
       <c r="G191" s="31"/>
       <c r="H191" s="12"/>
@@ -16803,10 +17019,14 @@
     </row>
     <row r="192" spans="1:12" ht="11.25" customHeight="1">
       <c r="A192" s="12"/>
-      <c r="B192" s="48"/>
-      <c r="C192" s="25"/>
-      <c r="D192" s="11"/>
-      <c r="E192" s="24"/>
+      <c r="B192" s="72"/>
+      <c r="C192" s="128"/>
+      <c r="D192" s="32" t="s">
+        <v>554</v>
+      </c>
+      <c r="E192" s="129" t="s">
+        <v>55</v>
+      </c>
       <c r="F192" s="37"/>
       <c r="G192" s="31"/>
       <c r="H192" s="12"/>
@@ -16817,10 +17037,14 @@
     </row>
     <row r="193" spans="1:12" ht="11.25" customHeight="1">
       <c r="A193" s="12"/>
-      <c r="B193" s="48"/>
-      <c r="C193" s="25"/>
-      <c r="D193" s="11"/>
-      <c r="E193" s="24"/>
+      <c r="B193" s="72"/>
+      <c r="C193" s="128"/>
+      <c r="D193" s="32" t="s">
+        <v>555</v>
+      </c>
+      <c r="E193" s="129" t="s">
+        <v>55</v>
+      </c>
       <c r="F193" s="37"/>
       <c r="G193" s="31"/>
       <c r="H193" s="12"/>
@@ -16831,10 +17055,14 @@
     </row>
     <row r="194" spans="1:12" ht="11.25" customHeight="1">
       <c r="A194" s="12"/>
-      <c r="B194" s="48"/>
-      <c r="C194" s="25"/>
-      <c r="D194" s="11"/>
-      <c r="E194" s="24"/>
+      <c r="B194" s="72"/>
+      <c r="C194" s="128"/>
+      <c r="D194" s="32" t="s">
+        <v>556</v>
+      </c>
+      <c r="E194" s="129" t="s">
+        <v>55</v>
+      </c>
       <c r="F1